--- a/data/team.xlsx
+++ b/data/team.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +458,16 @@
           <t>id_season</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -470,6 +484,14 @@
       <c r="D2" t="n">
         <v>58766</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03&gt;iTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt;\r\n&lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 6.0-c002 79.164460, 2020/05/12-16:04:17        "&gt;\r\n  &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt;\r\n    &lt;rdf:Description rdf:about="" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmp:CreatorTool="Adobe Photoshop 21.2 (Windows)" xmpMM:InstanceID="xmp.iid:DB2B840A5C2C11EB8019C16571065B71" xmpMM:DocumentID="xmp.did:DB2B840B5C2C11EB8019C16571065B71"&gt;\r\n      &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:DB2B84085C2C11EB8019C16571065B71" stRef:documentID="xmp.did:DB2B84095C2C11EB8019C16571065B71" /&gt;\r\n    &lt;/rdf:Description&gt;\r\n  &lt;/rdf:RDF&gt;\r\n&lt;/x:xmpmeta&gt;\r\n&lt;?xpacket end="r"?&gt;(\xd4\xdb\x07\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x03\x00PLTEGpL\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x00;\x93\xff\xff\xff\xfe\xfe\xff\x01&lt;\x93\x04&gt;\x95\x05?\x95\xfe\xfe\xfe\x03=\x94\xfd\xfd\xfe\xfc\xfc\xfd\xfa\xfc\xfd\xfc\xfd\xfe\x02&lt;\x94\x11H\x9a\xf4\xf6\xfa\x0bD\x98\xe6C\x97\x06@\x96\xe7\xec\xf4\nC\x97\tB\x97\x07A\x96\x14J\x9b\x02=\x94\xf9\xfb\xfd\xfd\xfe\xfe\xe8\xed\xf5\xf9\xfa\xfc\x01;\x93\x18M\x9d\xf7\xf9\xfb\xef\xf3\xf8\x16K\x9c\x0eF\x99\x01&lt;\x94\xf7\xf8\xfb\x10G\x9a\x12I\x9b\xf2\xf5\xf9\xf1\xf4\xf9$V\xa2\xf6\xf7\xfb\xee\xf1\xf8\rE\x98\xf8\xf9\xfc\x1aO\x9ec\x86\xbc\xf5\xf7\xfa S\xa0:g\xac\xe1\xe8\xf2\xed\xf0\xf7\xc3\xd0\xe5\xb3\xc4\xdem\x8e\xc1\xc2\xcf\xe5\xc9\xd5\xe8\x85\xa1\xcbJs\xb2\x7f\x9b\xc8^\x83\xbb2`\xa8Al\xaeDo\xb0\xd9\xe1\xee.^\xa6o\x8f\xc2\xd1\xdb\xeb\x03&gt;\x94"U\xa1\xbd\xcb\xe2\xb8\xc7\xe0&lt;i\xac\xd4\xde\xedj\x8b\xbfFp\xb03b\xa8\xe5\xeb\xf4\xa1\xb6\xd7\xda\xe2\xef\xe4\xea\xf3\xc0\xce\xe4\xe0\xe7\xf1+\\\xa5\xa9\xbc\xda7e\xaa\xdd\xe5\xf0S{\xb6\x8d\xa7\xcf\xeb\xf0\xf7\xd6\xdf\xed\xdf\xe5\xf1Gq\xb1V}\xb8`\x84\xbb\x1eR\xa0\xcf\xd9\xeap\x91\xc2\xfc\xfc\xfe\xa4\xb8\xd8e\x88\xbd\xe2\xe8\xf3\xcc\xd7\xe9\xc4\xd1\xe69f\xab\xa7\xbb\xda0_\xa7\x1cP\x9fU|\xb7\x81\x9d\xc9\x1dQ\x9f\xa5\xb9\xd8\x9f\xb4\xd6y\x97\xc6\xb6\xc6\xe0Z\x80\xb9X~\xb8\xae\xc0\xdc&amp;X\xa3\'Y\xa4r\x92\xc3\xcb\xd6\xe9Rz\xb5*[\xa5\x8a\xa4\xcd\\\x81\xba\x9d\xb3\xd5\xc8\xd4\xe7\x8f\xa8\xcf\x91\xaa\xd0Ow\xb4\xbb\xca\xe2\x98\xaf\xd3-]\xa6)Z\xa4?k\xaet\x94\xc4Cn\xafAm\xae{\x99\xc7\rE\x99\xb0\xc1\xdd\xd2\xdc\xec\x99\xb0\xd3Lu\xb3}\x9a\xc8&gt;j\xad!T\xa1\xc6\x8c\xf6\x87\xa3\xcc\xc6\xd2\xe6k\x8d\xc0\xeb\xef\xf6\x92\xab\xd1\xbd\xcc\xe3\x93\xac\xd1\xaa\xbe\xdb\xd8\xe0\xeeg\x89\xbe\xad\xbf\xdc5c\xa9\xac\xbe\xdbIr\xb2v\x95\xc5z\x98\xc6\xdb\xe3\xf0Px\xb5\xb5\xc5\xdf\x9a\xb1\xd4w\x96\xc5\xd0\xdb\xeb\xce\xd8\xea\x96\xae\xd2\x8b\xa5\xce\x9c\xb2\xd5\x83\x9f\xcah\x8a\xbfa\x85\xbc\xbd\xcb\xe3\xa6\xba\xd9\xb9\xc9\xe1\xfb\xfb\xfd\xd3\xdd\xec\x83\x9e\xcar\x91\xc3\x0eE\x98\xea\xee\xf5\xb8\xc8\xe0\xdc\xe4\xf0\x8c\xa6\xce\xb2\xc3\xde\x9b\xff\x19\x0b\x00\x00\x00AtRNS\x00\xf0\xc32\xb7\x84\x02\x0b\xec\x08O\xfa6\x04\x12\xf7\xab\x87\xbc_\x06\xd9/\xcf\x91\xbe \xfd\x10\xe3\x01H\xbbW\xf8M\xe4P#\xd7\xd1\xe7d\xce\x99Sq\xad\x1d\x19\xe2\xf4=\x81{9-\xa4\x8e\xd6Zg\xd5b\xfb-\xad\xeaE\x00\x00\x1e\xc2IDATx\xda\xc4XyT\x93W\x16\x17\x04E\xa5\xee[\xddju\xea\xd2m\xda\xf1\x9c\xcet\xec\x8c\xf3^\xf2%\xe1d!\x07B$\x10\x90H@l\x04eQ6\x11\x15\xb1Z*(\x05\x8a\x18\x04"\x11*\x82+.\x15\n\x82BT\x14\x95\x1e\x01\xad\xebqA\xa6V\xeb\x11;S\xb5\xcc\xbd\xdf\x17\x88Z\t\xa2\xe8\xbc\x7f\xf2\xde\xcb\xf7\xbd\xf7{\xf7\xfe\xee\xef\xde\xf7\xf5\xe8\xf1r\xad\xcf(\xc7\x0f&gt;\xb4\x7f\x7f\xa0\x9d\xad\xed{\xef\xd9\xda\xda\r|\xdf\xfe\xc3\x0f\x1cG\xf5\xe9\xf1\xffj\xbd\xc6\xf4|w\xe4\x9bcm\xfaQ\xb6mR\xa9\xd5\xaaM\\\xbf\x9f\xcd\xd87G\xbe\xdb\xb3\x7f\xaf\xd7\x8e\xc9\xf1\x13\xbb\xbf \x02u\xe2O\'\xce\xd6\\,\xcc4\x85\xa4\xa5\x85\x982\x0b/\xd6\x9c\xdd\xf3S\xa2\x1a\xff\x1bk\xf7\xc9_\xdfx}\x98&gt;\xfe\xecS\x07J=t9I\x86\xa3\xd9r\xf2\x8c&amp;\xcf&gt;jH\xca\t\xf3\xa0\xd4\xe1\xd3\xcf&gt;~\x1d\x98\xfa\xbf=\xd0\x81\n\x03r**\xe7*\x00\x00#\xf7\xde\x17[\x1c^t\xf0fRnn\xd2\xcd\x83E\xe1\xc5\xb1\xfb\xbc\xe5\x0c\xfc\xa5\x98[y0\'@H\x1d\xfe\xfcv\xffW\x0c\xeao\x7f\x07\xd7i[\x1aJ\x04\x08\xa9zwik\xad\xe7}\xfaT\xbb\xefY\xdbZ\xba\xbb\x1a\xa1\tJ\x1aZ\xb4\x94\xfei\xe4\xf0W\x87\xa9O_\xdb\xd1t\xd6\xb9\x04\r\xba)\xa4\xb9\xa9\xd1\x82\x84\xe7\xa1}\xa0\xffR\xfd\x04\xba\xc6\xa6\xe6\x10t\xb1&amp;\xe1\xdc,:\xda\xf6\x9dW\x13\x9d\xbdg\x8c\xf8\x17O\xbf\xbeJI|\xbd\xd3\x93\xf4\x81&lt;vo\xa7\x87\xb7\xee\xc4}\x7f\xea\xdb\xbdA\x1a?\xcd2\x0e\xcf\xc3\x83\xc9\x89*\x16l\xa0&gt;)\xdd\xdb\x97(\x97\xaf\xd7\xf3FO\xf9G\xefn\x075t\xc8\x14*\xac5j\xf8D\x11}/\xd1\xa9\xdd$\xaa:\x0b\xd1\x95\xdfqH\xef\x12\x81&amp;$&lt;\xf7B ;J\xbc\x17\xad |\x8d\xb1VH\xff9dh\xb7\x82z\xa3\xef0*\x8e8\xa0$\xa2\x94(\xbd\x106\x0bh:\xcc\xc1\xf28e\x81%Jf\xa7\x9c\x97pC\xc1\xd6\xe8;\x87\xd0jB}T\x8a\x88(\x0fD\x88\xe9\xb0w\xbaO1\xc6\xf5\xb4\xeb\'\x8e,T\x10\xe5\xb1T\x1dn\x9cx\'E\xe0ofV\x96R\xe1\x17\xb4\xd2\x0fq\xa4qSz?\x0b\xd2\x14g\xee)]j\xac\x92(\n#\xc5\xfd\xecz\x8e\xeb&amp;R\xd9O\xa3\xeb\x8cr\xc2d&gt;Tq\x9b4\xc5\xc3\x8e7\xb9\xfe\xaf\xc9\xff~\xe4\xba\xa1\x1a&amp;\xfcW\x98\xa9\x85x\xfc\x19\x16\xd6\x01\x8b\xb7\x1ff2Dn\\G\xa7\xd9w\x0b\xc5\xde\x9aN}\xce\xc8\x08\xb34\x02\x18u?\xe7\x9e\x84\xd29%\xb0\xe3\xea\xc0\xf6-\xb5\xd10v\xdbb\x1e-\x86\x81\xb7\xcf\xb2{\xe1\xab5\xa2\x9f\xb9\xa9\xe4\xeb\xe0y\x8f\x88\xa5\x0c\x91\x9d\xf1\xa1\xc3\xde\xea\x06SM\x90\x9c[\xe3\xce_\xb2\x07\xe4\'\xa0,V\xae\xd1\xc36EH\xf0\xc86T\xe2k\xbe\x84\xf8\xee\x14\x9b\xd9\x86\x18\xb3[\xf5\x9f;\xa9\x1f,\xdc\xccNe\xa4\xf8\x1bs\xe0P\xdaKK\xf8\xeek\xceI&amp;\x0czI\x83}4\x9e\xea\x0cr\xe2\x1f\x15\x80\xcb\xd7\xc3\xf6\xa4\x02:k\x95\xd0\x89k\x83\xb5\xdd\rF\x99\x01\xe6\x91n%K\xff\xd9U1g\xcb\xcdB\xb6C\nB\xb7\x0b{\x01Q2"7\xf8\xd0\xc1\xa3^&amp;!Ot\xf0XXM\x98\xc2\xb5f\xb3\xa0\xf3.\x83\xd9(Zd\x9b\x99\xf4\xf53a\x10\xec\xda\x062O\xd1Nx&amp;\xd4\x12\x9a\xdef\xd8k\xd3\xe3I\xf5B\x0f\x87\x89/\\^\xf4\x1e4\xc0\xb9\xd4\x8fl\xbb\xdd\xce\xa23`.7\x94\x81-\xc0hQ.;\xe7\x89X\xfd\x0eaW\x82\x12\x9b\xc4\x07&lt;\xd9\n4\xec\x0f\xdc\x8b\xa9\x90\xa9|\x17\xb7\xad\x11xs\x1b\xf1+]0\xe0E\x1d9f0}\x90."_m\xb0\xe4\x93\xb5\x18\xfb\x171\xb1\xa0\xa72Q\xc1\xb4\xe9l\xc4m\xb9\x15\xb5?\xa6\xf0:L4\xc0\xb0d]\xde\x8e\x84\x82y\\\x1c:\x85`\x06\xfa\x9a[\xc1\x15l\xbd\xe1+"J\x7f@\x07\x8fy\x11T\x93F\xd0\xf2\x14"/R=\x96\xe6x\x88A\x86\xda\xb5\x1fI\x9f\x01\x9d\\/\x8bJ\xb9\x80!yk\xa0S\xd5\x14\n\xc9)c\x1d\xfb\xd2!\x11\xcc\x18\xb8\x05|\xaa2\xbf\x01\xb1(\x92\x93\x94r:bR\xd7Q\r\x9f,&lt;\xefM\x82\x179Q\xe1\xd7\x87O\x97ep\xcb\x9e@9*\xc3\xbd\x10\x06\xc6\xe2\xf6\xc7`1\'(}\xc0\x8a\xa9HV\x90u82\x03\x9d\xaa\xae\xc4\xa3p&amp;\x9f\x15C\xc8\xdcd\x0f\xea\xd4\x9aM\xbc\xaf\x08\'w\xb9\xaep\x9c*\xb9\xe5F\xd6\\\x00\x9eWx\x13\xc2_~\x81;\xed^\xd8#\x04\x1c\x91\xeck\x86\xb5\xca\xd7R\xfcm\xddC\xe9B\x0bL\xc1\x12\xe4V9Fm\x16\x9bEy\x07\xd1p~?Bm}a\rq;,\x99\xea\xd85T}m\x02k\xe2\xa5\x1b\xc1F\xba\xdd"v\x8f\xd5\xce\xedZ\xe9^\x13\x9a\xff-\x9a\x00\x83kCtq\xc2\xe9\x83I\x8b\xca\xd76:ka\xf3\xb0\xedq&amp;o\xee\x15\x92\x89aP\x8c\xee\xe6\x12@\x13W\xca\xc6\xc7\x00\r\x1a7J\xe3k\xd46}\xbb\x88*N 2\xc0\xb6\x1b\xea\xcc\xa7g\xbe`W^\x86+\x8b4(\x02\xa2"\x9c\x10\xaa\x84O\x97\x81\x81\x89\xf9\x15\xc5)~"r\x1a\x06+f\xc3\xa37\xd8g\xaegCW\na\xe9\xb5\xfaW\x90\xb08\x91\xc0\x10\xd8\x15\\\x8e6\xda8\xa9\xa0\x19\xc8\xde\xf2\x03V\xbfi\x88\xe5$\xb7g\x03\xbf\x8dH\t\x0b\xda\x81xh\x032\\7ov\xcd\x08\xd0z\x98\xa7\x9c\x97]\xaa)7\x07\xa6\x92=\x92\xcfR|-:\ten.\xe0R53R\x83\xd6\xe6\xb9\xfd8|\xaa\xb6A\xearFB\xd5\x15\xa0\xdf^\x97\xf3\xe8\x0e\xb0MR#\xbb\xa3\xaeR\xca\x06]Z\xab\x84\xbd\xf9\xb8\xe6\x9f4T\x16\x04\xcb\\\xd8YYpA\xa5\xe1d\xbek{\x9d\x1a\xfa\x1b:\x13\x87\xe2\x04&lt;P\xf5f\xba"\x05~\xeb\xe0\xcc\x923.\xd2\xf0YS\x9f\x93\xf7\x93&amp;\x8b\x8f0\x82R1\rL\xc0\x8a})\xe8\xf7" \xfdoA\xe1\x0f\xd8\xfcq2s\xc9\xd1\xab\xc9\x9f\xc3\xb2\x9e\xbb\x8e\x84h\x18\xaf\xa7\xef=^\x8c&amp;\xe4\xc8.O\x16\xf6\xa3SPz\xb4b\xef$\x0b\xdc\x04Y\xb2\x05\x19P\x8bHK\x05\xccU\xf1\xe4\xe7\xd2\x891#\x9c~\x171\xa7\x81\xbd\xaa\xbb\x84;_\xe4\\v;~\x88\x8es\x99\x04\xe3\xcag{\xa1FJ:lRM\xe1=\x1f\xbc\xd6\x96\xc7\x980Z\xf2\x8es\xf3U\xf5h{BV\xb1i\xe14#\xfa\xddi\xc4s\xe8j\xef\xc1\xbc2\x17Q3[\x0e\xe8bq\x81\xa5\x87\x8f\xb7\xedu\xd4\xd3\xec\x1bu\xb2\xd1\x8ft\xda\xfc\x8c\xc9j\xac\xe8\xd1\x99\xfb`\xec[\x00\xe6\x17\xa4\xa0b(\x1fqY\xb6Y\xe4R\xc6\x1b\xdci\x1e\xea5\x88\xb6\xf8\x93\xf9\xe6\xa2r-\xc6\x8e/H\xa8\xff\xcep\x19\xda\xab\x98\xcdrs\xae\x98\x14\xe4\xb9\x9a\xc2ti\x0ek\x96\xf98:\xe6\x99\xeb\xcf\xcd\xf3\x8d\xe6\xeb\x80\xf3|\xe2\x7f\x88\x0e\xea,oO\x1c\xa0\xcf&amp;\xa6\xb6"\x85\xae\x9a\xc7\xae\xb2/\x9f\n\x9b \xd2W\xa3\xa8\xaa\xce\xa71\xe4\xb9\x1b\x93v\x1e\xd3\xd7w\x05\x84\x04A!\xd2\xca\x9e\x87)\xceh\xdb!\xc0D\x82\xf5\x03&amp;vR_9\x84\x99H\xc9fK\x12\xbc\x85\x08\x98TV\x0c\xb3\xd1\x88\xe2\xe4X&gt;\xe9R\xe3\xc7&amp;\x03%\xc2\neXq\x85\x05\xc1!oGn\xb2\xa8\\h\t1\xe9\x1c&gt;\xb2J\xac\xf1\xe28\xfe\xcc\xfc\xc7\xa4Q\x9d\x80\x81\xb6\x97eB(\x10%\xd1(\']nrc"\x94\x1a\xf5\xe8\xb7\xf3\xc0\xae`\xe7\'\xd47\xdf\x9fo\x10\x8f\xb7F/{\x9a\xaat\xbf\xc9{\xfc\xa5\x05\x98fH\x1d\'D\xbc++\xadl&gt;\xaf\xe3\xffV^\xe1\x16]\x809u\xb9\xf8\tX\xbc\x93\xeen\xa9\xd4\xde\xcamb\x82^\xc3\xbf\x0b\x0b\x04\x1c\xba\xbd\xe5K\t\xf7\x96\x9eU\x87_\x10WXV\xbc\x15\x9b\xa4\xc7X\xf93&gt;+\x0c3\x15\xa6T~\x94\xf9b\x92\xbc~\xe7\xcf\xe7 \xed\xf3\xb2\xf8\x1a\xfd\x84\x0e\xef\x1d\xbd\xa7ko\x90\x02W\xea\xb4\xa8\xc4\x85/\x9a\xdd`Nv_@\xf4\x88~\x99Eyy\x97\xad\xb1J\x9a\xbbGd\x8da\x97\xf3xtS\rPu9\xab2\xea\xd45\xacP\\\x86:\xc7u9\xb9\xa1\x9d\xde\x81\x1b\xc7\xd9\xd3\xdb\x8c\xbc\x85\xf2\x92Xo\xb8-2\x1bYxX\xa4\x88R\x81\x03\x83\xac\x12H\x13\x9ah\xfd\x81\xa0K\x100?\xce\x16\xb0B\xaaMp1O\xcb \x9eZ\xe4L\x19\xb5\x7f\xf6\xbd\xb6\xe7\xb4GA\xa4YB\xebY\xa1\xe4\x87C\x01\x98\xcb\x16$N\x8b\x01\xa1j\xbd\x8bu^WJ\x84\xbb\xad?\xe1\xb2\x1e\xa4b\xa1\x01S\xab\xdah\x99\x96\x95SI3\t\xfafZ\xcfg~g\xb0s\xfa\xde\xabZG\xc5G\x01S\xb0\xa9\x0eL\x9d\xa3\xe1B\x10\x16R_\xeb\x04\x15\xd9\x01w\x89N\x1eq\xb9\x06\x0ce?\x87m\xc7l\xeb\x1b\xb4\xbb!\x05\xaa\xc8\xa3b\xaa\xdb\xe7\x15\xe3d\xf7\xac\xef\x13}\xfbE0\x02(/#\xa5(\xc7\x14\x16\xd0B%b4;2\xaec\xb2{g\xcd\x87v\x112zc\x02\xf6\xb2\xb6v\xac\xadq\x1c_UX\xf0K\x1b\xa0\xd6o\x84\xfc&amp;\xcd\xa3t\x8f\x80\x89\xe8\xf7\x8c\xdak\xe8\xb09!d#\x84\xee\x7f\xe0\r\xee\xd3K\x85;0\x86\xad\x1a\xd4\x06kd\xde\xb8\xee\xf1xw\x8d\xb1\x92\xc0\x89\x81U\x9aZ\xd0z\x01\xf7!\xa0\t&amp;!4\xc5\x1bI\xc8\x9ca\x7f\xfc\xce4\x84\xeep\x97a\xb5\x81e\x03\'\xa8y3\xcdWz\xd5b\xab\xd9\x86\xbf\xf7P\xfb\x07/\x8f\x88\x12\xabI\x80Y\x8c\xa9\xe8!\xf8\xb0\x8e\xbbD\xe2]%\x01\x91\xca\xdcw\xd0!\x7f\x10\x87)aUd?\xae\x9e\x807\x02u\xdb\xf5\xcb\xa5\x1e:\xb7\x94\x9d\x90\xe6x\x91\xd6\x9c\x14J;+,\x94\xb7\x10\x0b\xc0\xda\xcf\xb9\x13\xad\xf0_\x8c\xab\xfd\xa4*l\xca\xd3"1\x83VHg\xb2\x82R\x86\xe2\xd7\x8c\xf9A\x05\xe4\x97\xc1}}\x97[\xa7\xe9\xc5\xb7\x81\x83uU\xda\xe9\xa3n\xbb\xb8O`\x99h6m\x11r\x9f\xbd\x9e{\xce\x94V\xd0\x19O}\xad\x1d1g\xae\xefi\xee\xf2\x8e\xb5\xb6\xe8\xd8\xffh\xb7\xd2\xa0\xa6\xb2,\x1ci\x9d\xb2G\xa7\x8b\xaa\xfe1j\x8fS\xd3U\xfe\xea\xb6\xb5\xca\x9a\xe9\x99\xee\x9a\x1f}\xcf\xcbB:k\x05B\x08$\x90\x84\x80,a\t\x8b6\xb4\x02\xc3\xa0\xecA\x96\xb6\x95\xcd\xd0.\xa0\xe2\x82,\xea\xd0 *\xd8\x8a(\x8dP\n.Q\xc7\xadEi\xc5\xc1a\xa6i\xe9\xb9\xef\xe5%dy\xa3!U\xb9U\x14!\xef\xf0\xee\x97\xfb\xce=\xe7\xfb\xce\xb9\xe9\x1d\xab\xee\xc2\x8bT\xc2\x87"\xe3\x9b\xb3^\xe4i+\xac\xc7!o\xb65\x16\x01\x1fo\xa6\xe0\xcc\x99\xf8kC\xa4wh\xad\xc5\x8c\x01v\xec\xfa\xdf:\xd7}\x7f\xfdY\x8b:\xd1Z\xc8\x80Y*X\x07\x98\xcd\xd8I\x82\x0b@\x92\xedA2\xbe\x84\xe5i\x84\xde\xb9\x12\xf8\x7fG\xb6\x04\n\xf0\'V7\x8f\x90K\x85B\xe8"Xe\xb8\xba\xe53\xe7\xcd\xe8\'\xc9B\xc7lu\xbb\x8d\xf6$\xc2\x1e\xe7\xc3I\x91\x073\xa5\xf0\xa0a{\x16\xde\x1e9\x1e\x18\x8bN\x02\x7f\xdc\xbe1D\xb7mzd\x1ceI\xfc\x9c\xba\x00\xef\xfd\xc2UX\xec:o\xa7\x98\x0e\x7f\xa3z\xa8\x90yB]~\x14|\xafEHqF9\xe1\t\x19\x93U\x80~\x94\xbe\xaf\xf4?q\xb6y-\xd1\xdc_\xde\xfb\x8b\x03\xacOygQ\xb7p\x8ej\x0cN\x9a#Qp\xe1?U\xa0\xc9\xf2\x88P\xe5\xbf\xa0BH@[\x85\xce\x13\xfb,\r(;\xce\xe3\x9d\x14\xbe9#\xd4&gt;\xed\xeent\x96\xf7\xa9C\x1fg]\xd1\xa5\x80&amp;\'\x12\x94\\[\x13(\xa4\x99\xc8\x9b\x87\xd8N\xc3\x8c\n\x8f\xfea\x13\x8f\xd4sE\x0f\x9d\taz\xc8\xa5\xa2us\xfd\xa1\xf7\xe10;K\t\x0cc\xda\xb3Y\xe6=\x14\xd3L\xb3\xa9\xb2\xd8\x87\xe1};,\xff\xdd\'\xd0,\x93\xdd\x9b8\x81\xf7\xa3\x8d\xc74\xdf\x8f\xe8;\xe1Z{\x7fpq\x0f\x12?d2\xeb\xe1\xfa\n\x16\xb7\x87i\xbe\x87Q\xa8g\xb1\xad\xff\xf8W\xde\x05\xf4\xa5\x80\xc1J\xb9\x03\xf9lt29\x8d\xe0\x1e\xba\xc0\xb3%\xc6O\xd6\xe7\xa2&gt;&amp;\xf0\x19R\xdf\xc1\x92f0\xcd8\x81r\xd7\xfb\xd3Bzq#GZ\xcb`ClF&gt;\x1c\x9b\t\x86)k\xa5\x9c\xc6\x05V6\xb8\x14\xae\xdaX\x86\xf3x\xa5\xf5%,\xed+\x86)\x13\x86\xd1U\xf8#\x05\xeb\xe3\xdduh\x13\xd3\x8a\xceF\xfa\x12V$\xe3\xde\xbf\x82\xeav\xff\x89z\x86\x0bM\x89\xect\x06\x0b~\x95\xfb\xbdt\xde\xc61\x06\xadV\xc5g\x98\xf4\x0bvb\xe0\x1f\xc8B\xc9\xef\xd6\xdd\xe0\x1a\xe2\x18,\x1a\x19\xe8\xfb\x8e\xbd\xden&lt;\xb1\xbb\xa2md\x984N\xca\xbd\xb1\x8a\x0c\xf4oA\x17:\xcf\xe4\xf0\x0cyG\xbd\xa7\x80\xed]\x98j\x1db\xc8@LN?\x8c\xba\x80Tf\x1f@\xa7\x9d\xd38\x0e\xfd]\xf7\x1bE\x9b$\x89^\xc1\x8a\x8dy\xe6\xfe\xe6]=\xc3\xb4\xe3\xa8\x13&gt;\xc0\xb0\x96\tb\x03\xbeb\xb8\xbe\x8d\xa1\xb2\xf6H\x00\xbb\xbc\x825\t&amp;w= \xdf\xc60\xed\x81\x80X\xc12\x0ck\xb9I*}\xc2p\xbd\x8c\xe1q\x9d\xc2\x82\x8e\xe3\x05*\xf6\xcf\x00\xee$W]\xc60m\x83TjZ\x8eY\xfc\xca&amp;\xd4\x9c\x06c_\xe4\xd5\x8eI\x12\x1cRP\x92\x13s)&gt;\x89\xc7\x05L\xba\xd3\x06\xc8W\xc5\xcd\x1e\x02\x92\x19\xc8\x11\x8b\t\xcc\xc4%\xf2\x95\xd4\x91\xeb&amp;9g\x9e\x98\xc0m1P\xdd\x8c\xae\xad|\x9b\xb5bA\x0b*\xe5\xc1\xad\x90`\x9dvki\xce\xa1\xe2M\xd7\xa7z-&lt;H(u\xfa\xb8C\x0f\x1d\xfd\xb3|\x87\xa7kV\x95_\x89\x87\x89\xf4\xd5T\xfc\xe2\xe1\x80\xe3\xb3,\xc5A&lt;\xae\xda\x94J\x10B\xa5\x8a\xa80*\x0c\x07 4\x0b\xb5,X\xc1Z\xbad\x00\x1d\x02\xe8s\\\\Q\x9d\nL\xd1.z\xe5\xf2\x1c\xaa\xfc\x13\x9e??\xf3\x1d\x87\xcfS\x9d\xe4\xa4\x8c\xa2\xcbAp;Q:\x92\xd0x\xa8?;0=\x98\xea8\x1fB\x03K\x96\xb2&gt;\x8264n\x95\xf8s\xa3\x9e\x0fM\xae\xeb\xc1\xf9&amp;\x8d&amp;\xae\x0f\x82\xe7\x15\x1b\x8a56T7\\&gt;\x0e\xa7\t\x08\xcc\xe8t\xeb\xff\x85Sw\xcd &amp;\x068\xdb\xdcGm\xf0\x11k\x8d0\x1ba\xa1\xbb\xd1e\xe3@\x99[sBd-\x93\x10\x03\xa2y\xfa\xfb\xfe"\xab\xef\xcc\xea\x18|\x1eO\x1cR\xdd\xc8\xc1\x04\xac6\x9a\x92\xfd7\xd1E\xe1\x1a\xd6\xa2\xb8\x83\xa8\x03\xf0\x92\xa1\xe83{E\x88\x93K\x96\xe2\xaf\x90\xc9\xc9m\xd0\x12uj\xbe\xfbP\xddaM\xc3\x85nW\xaeX\xcf.\xbc\xaa1 N\xc1\x0c\xdeF\xed\x00w\xd0\xc1\xb8E\xac\xd5\x1ac@\x05\x10%8\xe4I\xa6B\x906\xf5\x1f\xd8\xee:0\xc4\'\x1d\x96\xa8i3\xf8\xe7\xa7y\xc2j\xa6\xbb\xfe]nWv\x91\x8b\x83PF\xaa\x16\x85\x1c\x95\xc4b\x11O@E\xc0\x88f5\xcb?L+\x7f\n\x04\xd6]\xb9\xfc\xebld\xaen\xc5vS\x00un\xf78\x9f\xc0\xeb\xb9\xfbm\x85\x908\xfb\x86\x98\xb0\xdf\xe5\x8d\xf6\xcf!\xfep~(\x14\xb9Q\xf0\x12\xeb\xda\xb7V\x1fA\xec\xeb\xc2\\\xbc7\th\x94k\xc3\xfcY\x0bk\xa3t\x16\x10\x18\xb1\x06\'[\xabU\x922l\xd7K\xe1t\x19]\xff\xee\xc3\xcea\xc8T\x9dz\xbds\xc5\xe6\xbb\xbc1\x055\xfb\x91\xfcj\x82\xc0\xed\x9eY\x04UH*#O\xc7\xbc\xb8|\x1c\xa1\x11!X.EU.d\xf9Y\x0c\xe2Z\xd0\x84\x93\xcf\xb5\x98\xac:\xcdb\xbb&lt;P\xba\xc5\x00Yo\xa7\xd5\x83/VD\xbf\x16\xd6\xa8 \xd6\xe9oC\xd8\x04E\x1f\xfa-\xcf]MO(\xe1))\xcf\xc46f\x17\x1e\x03_\x8b\x7f\xb2\xf8\xb1\xfc\xa6\xa5\x8a}\x90\x8a\xffq\x14\xea\x11\x1a\xfa\xfc\x18\xbeZ\x0e\t#n\xe4\xdbh\xcbF\xcd\xe2\xd7\x16\xd6^R\xa7\x11\xe6\xc6\xf6vZ\xd7\'\xdew-\x1c\x8c$@%r\x89d\xfb\x14\xd2i?\xd6\x87yAZ\x13L\xcb\xc9\x98q\x11\xa1n2\xe9\xc8b@\x7f\xc4\x8b\xd4\'*-))iK\x83\x9e{\xf8\xb7\xbd\xfc4\x17\x00\xb7\xb8\xa6\xd9#z\x88wbuR\x0b\x98\xb4Ay\x1f\xd2\xb0j\x93\xbe,&lt;\x00\x95=\x1b2\x84X\x84\x85\xeb\xbd\x83\x85\x8e\xa7\xdb*\n\x117\xc5\x1e\xd8cX\xc94\xdf\xe5J\xc5\xe1\xc7KK\xb6\xd1\xb0\xfc\x06\xa5\n\xb2$K(\x05tYdC\xcb3!D\x8cxE`t]\xd6\xaa\x82\xa9\xdd#\xe1k\x8c\x00e\xf7\xa1\xc9\x81\xd3e?4\xe5\xd5\xce\xc4\xe81\x06\xfc\x10\x07\xfdH\x97\x8ffPc\xca\xe3\xde\x91\xe3\x906\x92\xa1\xef;\xe7\xe1\xea2h\xd8Z\xb1\x01\xbb&lt;\x19 \xfe\xc6@\x99\x0fz+\xff\xa8\xdee\xacg\xc6\x07\x19*\x11\x16]T\xedB\x96\x7f\xa0B\xde\xc0@\xc7r\xbc\\\xad\x0e\xb0\xec\x8c!n{f\xdd\xcf0\xf1S\xb9"\xd0\x9f\xb5:\xde\xcc\xa1\xe5\x18\xe9\\1\x1d\x997\xa9\xb2`\xb7w\xb0\x12M_\x99\xd9\x85\x83\x1e*\x91n\x06X\xe9[\xcc\xf1\xabY\x8b\x92s\x11E\xa5R\xff\x9e\x8d\x1f\xec9|?i\xa6\x10\xe0\x81w\xb0J\x8a\xc9x\x10=\xeb\x99\x9e|@&gt;\xb4\xdb\xfb\xdb_\x86BXF\x8dUq\\F\xb9\xc9\x8bXk\x04\xc3T]\xc4\x94\xab\x96\x8f\xf1\xad\t\x9a\x83s\xe23\xb5W\xb0\xe4\xd6x\xcd\xf5h#\xaa\x9f\xe1\xddA\xba\xa1\xb8\xf7\xb1Q\xae\x1b\xa6z:}hX\xb0\x06\xd3\xc0z4\x80]|\x14\xcb\xef\xf4jZn\x9d\x8b\xc7\x89\x1c\xf9|`\xea\xc2\xb3v\x93\xbe\xa3\x98\xa5\x82$f\x0fP=\xa6\x81K\x97\x8cc:\x08c\xa4f8\x93\x87\xaf\x86\xbf\x90!Q\x01\x95\x8e|=\xc4\xa9\x90\xe6\xb4g\xbb1\xc1nG\xe3\x984\xafX\xf0\x18m\'\xe0\x89\x1c\xa9S2z\xb1clR\xd6\x91\x89H\x9f\xeb{X\xe7\xf4\xf0D\x86\xd4u{\xf1j\x04\x93\x1d\x9co%@\xdcE\x8f\xb1\xc4x{e\x052k\xa0G\x86ty$\xf9a\x1f%\xcf6\xed\x02\xa2\xdb\xf7\xb0\xf0\xe2`\x1ae\xa8\xd1W\xa1\xa8\x82F\x9cW\x8c\x1a\xd0\x1cA\x15X\x90\xb1\x96\xef\x93\x1b\xa6a:\x08\xe1`\x7f\x1a\xbb\xfb\x86i\xcci\xf0c}\xec{X\xdf\x03Lb\x8a\x970s\x04\xdd\x13\x92\xfc%+\x01\xa6\xa5\xf2}\xcbI\xb1\xaf2r: \xcd\x8c8{\xc8\x930\xb2\x1b\xe4A\xb0c\x00E2_\xa3\x92M\x83r;B\x8f$\xd7\xe4\xe4\xae;H\xa5\x88;\x1c\xa3j\x19U\x1a\x19\xc2\xae\x14\x8a\x89\x83\xb6\x1e\xb3Oi\xc3\x04\x9b:\xa9\x99\xecs\xe7\xca\x95@9\xa6\x9f\xd2\xd2\x146\xba\xc5\xd3\x04Q\x1ab\x13\x1a\xa2J#o\xc1s\x94\x03\xd0J\x07\x04\xf3X\x13W\xf4\rN\xa1\xc4\x05_\xc3\xba@\xc0\r[|\x13\x17\xd6\xb3\x91\x88\xeae=\xa7\nI\xef\xac,\xd8"V\x81\x92.@%\x11\x819\x13T%\xb5)\xc4\xb7\xa8B\x9a\x00v:sS\r\xa8\xa28?Se\xb7_-L\xd5Fb\x98\xa9\x94\x8c\xcb}\x85\x99\x17\x9d"c}\x0bk+\xce\xc1{\xce;f\xa9\xfd\x00\x19\x91\xdaT\xaaH\xc9\xfaX\x99M\xf6\xd6AR\x96\xb4\xb7O\xe3\x904\x0f\xb3}\x89\x8am=\x1f*i\xe8\xdb{WaMY\xff\x05\xc8D\xd9J\xaa\xa4\xcb\xfa3V\xb6%\xce_\xd1\x01\xc9\x9d=x/\xfa4\xd0\x8b\xed\xdd("\xb92?\xf3\xecq\xc3\x96)P\xe5\xa0\xc3t\x01\xfc7\x8b\xaf\x05D9\x1deP^\x1e\xe6l\x9d\x01~\xa7/au\xf2\x81\x1f\xe10i\xcc\xe0-\x13\x94G\x05\\\xa3\xdb\x05\xacO4\'\x90CaN\x7f\x19oX\xea8SE\xb0\xefP\x05\xe3\x18\xf4C\xd5Q\x97\x12w\x19:\xa1\xf1\xb7\xb5\xa2BGQ\xa7\xad\xf7\xaao\x1d\xb6nZs D\xd4\xf9\x0eV]\x04$\xa7 Nv\xbec\x0fL\xf8\x08\x8d\x86\xbeko\xdc\xe5#\xad\xb5\xad\x1fZ\xd0o\x8b$"\xbc\\/}\xc6n\x02^\x02\x9c"\x19\xa3\xac\xdb\xe2pNP\x8b\xf2\xe7\x8e\t\xaeU\x9a)*\xa8j\xcd\xa6c\x95\x18\x87\\m5\x08\x87|\x05kH\x08B\xfa{^\xd2\x93v\xc7\xeeCf\xe5Z\x87\xa6\xf0}u\x8a\x00\xd2Jh_\xd2m,"\xcbp\xcfy\xd0\xa3\x9b\xcf\nxn\xac#\xbb\x9c\xe5\xc7\xac\xbd.\xf6\xd6\x16k\xa8\x14\xa4\xa8\xef\xcf5\x85\x7f\xff\xce\xaa\xc6 n\x03\xa8l\x15\x95B\x01|m\xc0*.\r\x84\x1b\xe7S\xc7\xf2\x9c\xffo\xa4\\\x99(\xa2\xcb\x13\xc1\xcf\xa9\x02\xebSnP\xe3*\x87\xafX.\x13\xf6\xa3\xc9P\xea\xf4\xa5\x18\'rQ&gt;\xc0#D\xa5\xa8\xb0y\x84\xfa\xb6m\x9e\xb6Ec\xc3\xec\x07\x98r\xa8\x1a\x04\x97\xa4\xf1\xfcI\xd4/\\\xe6x\x14\x1d\x0e\x04\xfc\xaf\x98\xab\rj\xeaJ\xc3\xba;\xb3:\xdb\xfd\xe8\xc7\xba\x9d\xa9\xfb\xa3\xb3[\xb7\xed\xaf\xdd\x99m\x7f\xb63\xe7\xe4&amp;$\x86\x00\x03\x04\x02\x84,\x84H&gt;$\xa0\x80\xa5%Fm\r\x16P\x82\x1b\x85EJ@\x10A\x0c\xa8P\x04\xab\x82\x12\xaa,V\xa4X\x87\x0f\x11\x11K\x91.\xa3v\xb68\xb8\x8b.{\xde{\xeeM\x02\x84\x10\xf0c\xf3\x07\xb8$\xb9\xe7\x9e\xf3\x9e\xf7}\xce\xfb&gt;\xef\x93\\\x8255])\x96\xaaD\x12\x05\xd2\xfe\x06\xf9\xefG|\xf7\x85\x7f\xaf!\xe3%\xff\xde\x08=\x1b\xd5\xf5Z\x9a\xba&lt;q\n\x82I\x19\x99\xae\x12\x95\xf8\xe8\xdaY4\xf5\x9f\xc4u@\x00\xaa\x9e \xff\xfd\'9\xf3$\xab(\x1e\x82\x12\xac\xbf!(h\x00\xff\xd7\xbf\\\xaaY\x80\x03\xed\x8a\x11\x8e\xf5\x15\x06\'\xe5\x1c\t\x04\x9e\x8e\xb8Yd\x96\x15\xeb\xd6:\xd1fnf\xc3\xf8u3\xb1@\xa2x\x9b\x9f\xc3*\xc2x\x9f_\x0ee[1\xc6Md\xcb\x8b{&gt;bM\xcaF\xae\xb5\x07\xe0\x98\xcd\xc8\xb9v\xddl\xa2\xd4[\xc5\xc9\x8a\x16n\xc1gh,\xd4s\xa9\x89\xbe\xf8\xc52\xef#_\xc1k\x86\x04\xde2\xf8e\xfbA\x9fo\x8f\xef#\x91\x86\xd6H\xd4\xfd\x8f\x05\x14\x9e\x93{\xb7(j\x8b\xdf\x9a\xd3 \xfb\x1e\xfe\x81\xa9\xe5\xe0C\xc0\x97\x0e!\x8aL\xe1k\xc9\x82\xfcE\xce\xa2\xe2\x9e}\x01\xe4\xc5~\x94\xbc\xa4C&gt;\x8b{\xa2|2\x92M?p0\xa0v\xebT\xf6f\xe2\xbb\x1e\xe3\xb8Z\x12\xef\xde\x9bK\xc2{\x9f\xac\xddC&gt;\x81\xa2\xdc\xdb\xbd\xd1\x83;rl1\xb3?\xd8\xe4\xe6\r\r\xec\xf6\xf9\x14\xc2c\xf4&amp;%\xc3]\x1e \'\x83\xdc\x04\xe9\xc3\xde_5\x9f\xb2\xd8\x96\xa0\x9a[l\x0f\x0c\x8e3D\x03\xa5v\xb1\xc2E\xf8\x17Zn\xc7\xfbf\x18#\xd9n\xbe\xb6\x19\xf8\x91\xddu\x889\x95\x86\x1f\xab\x12\xda\xe6S\x16W\xfcfM\xfa\'hxVU[\xf2\xc0\xbc\xff\x9a\xa3\xbf\x9c\xc0\xaf\xd2E\xed\xd8D\xd3\x80_\xfa\xceB\xa3R\x0f\x0eR\xd4-.;\x17\xf4)\x96\x0c\xa3O\xd2\xbd\x10&lt;W\xac{aF&amp;\x1f\xf4\xac\xce\x99\xe8\x1c\x85~\xa1\xc1\xca\xa2\xc5\xc8\x07&amp;\x1a?\xaa}\xd2\x1b\x13\x8af\xa7\xff\x94w\x1dY(\xab\xa6\x1a\xe3\xc1\x08\xd9\xcc\x0b\xeb\xbc\x92\x87\xa5=h\xc4\xfd0c\xae|\xa0\xe2\xb0\x06k\xff\xb5\xc8\xde\xbf\x00K\x8e\xb1\xc1\x97;\x11\xa7h\xe7f\xb3\xb4\xdd\x0f&amp;\xc8\xc7\x82GP\x8f\xd4+yx\xc5O\xffbI\x8cm\xe1\xad^K\x8b\xb8\xa1\x10O\x84Nr\xbfN\x9f\xe3\x12Z\xb1\xe6j\xe1\x16\x8c\x1b|\x8cj\xd4\xc0Q\x9a\xe7\x11\xb2Zb\x13\xbb\xbdS\xad\x81\x98\xde\xa2\x08\xe2\tLm\xb0j][\x1f\x87\xdd\x0b\x81\x1c\x1f\xb1\xb4\xeb\xbeX\x92\xff\x10L\x91\xc8#o\t&gt;\xbd\xe0\xae\xddp\x9dX\xee\xa3o\xbd\xb1y\xce\x07)\xee-DL_\xb1j\r\x99\xa2\x1c\xea\x19\x94\xd0:\x1a?C\xe6N\xd2\x0f\x9dZ\xb0\x03\xb2\x17\x0e\xdb\t\xf7*\xd9D\xbe\xb8=w\xa1\xca\xac&gt;[\x82\x05\xb6DTX5oT\x1bs\xd0v\xed\x9aU\x0b7=X\xbad\xa3\xec;\xffN\x82\x83\xe2\x1cm]\x85\x030e\x86\xeeYh\xf3\x8b\xf6\xf0\x93t\xd0{\x8a\x9a\xd9\x03]\xa66\x08\x185.\xd4\xc7\x97\x8b;e]\x96\xdf\xfbh\xb6~\t\xdf\x15\t\xd9\xa2\xe4\x11\xf2\xf9&lt;j\xff\x97\x11%C\x83\xd2\x83s\x99\x1c\x9bH\'\x0b\xd9gX;\xc8\xe3x\xb7\xe7Zi?Q\x93Pt\x17\xbf\xe4\xb3S\xcb\xd8\x8aj\x018X |\xb2_u\x13BI&amp;o\x9b\xb9\xa6e\xf0\xf2D\xa6\\\xba\x93\xa2g\xa0\x9f"6\x0f\xea\x9e\x81\xf9rY\x1d&lt;xw-j5\xfa\xee\xd7zm\xb5\xd5\x81RI\x84\xd7\x91i\xb9\x06&lt;\x81*\xd8\xf1l\xd32\x8e\x81 \xa0\x99\xecX\xea\xa8:&amp;\xdd\xac\x95\x026\xe4\xa4Zq@=\xd9JL/A(5\xc8a]\xfd\xdab\xcdZ\x96\xc8\xd8"#\xe5\xa7\xef\xf8\xf0\xb3\xaf\xd9B\xd7\x0e\xf0\x82\x87\xca\xd4W\xc1,\xb4\x07\xf4K\xc8\x020\xfa\x03\xc4Y\t\xe2\xac\x1bi\x95\xea6\x1b\xa3k\xf6}M\x0e1\x8c=\x0e\xff\xb5\x08EZ\x16k\xd6\x82\xd6\xb6\xa3!\xb2\x06%\x1e\x83\xf1Dt\xb1\'!\x15\xcb\xe3;\xd2E\x0e\x03N@\x19a\xce\x0e?\x97R\xd4\xe1\x0c\x83\xfe\xbc\xc6\xe6x\xbd\x190&amp;\x8e\xbe\xcd\x1eDN\xc1\xa8L\xd3X\xd9\x90\x10R\xb0xk\x1b1/I\xafX\xd4\x16\x80\xc7]\xe7\x98\x90&amp;\xf8\xbe@\x13\x8b,\xf3n\xc3\xcc\xc5\x1d\xdd\xe3\xc7\xc0D\xf6\xa3\xf0\x141f\x1a\x93#\xc7)\xb9\x87\x87\x0e{\xa6q\xc0\x01\x91\xb8W\xf2\xf2*\x7f\xda&amp;\xa5\x9d\x0c\xf4\x00\x1c\xe9`\xd7\x8a\xc9\xa3\xb4\xe2q\xce\xcb\'\xa4\xd2\xa2\xe1Xo\xaa\xcf\xf8\'O\xed\xa5\\\xd60\x97\xcbPQ`\xd9\xc4&gt;0c\x07\xe2M\x043*}\xf5w\xfe5\x99\x1a\xcd\ny\xbe\x04\x17_\xe8\xb9\xe8\xb8SI\xc1\xa1\x16\xea\xf5!\xcd\x10\xbd\x93nP\xa0a\xbcy\xa1T/\xf7bgL\xf8\xae\xd2\x0b79\x16\xa4\xb2\x0e\xaca\x7f-\x12\x17f\xd3@\x1d\xdd\x04\xd6\xde3\x80%\xf9r\x85\xd9\xf8\xa6\x9f\xcd\xe8\xbf}[W\x84\x92\xea\xc9\xca\x05j4&lt;\xd49\x07\x935&lt;p\x1d\x1cb\x92\x8bJ\x18\xa0\xeb.\xf8\xee\x8c\xa3\xd65o\xf2Z\xc7\x99\xef\n\xbau\xee\x8a\xdc\x87d\x057\x8c\x1b\xa63\xee\xbba\xc0d\x082\r`A}\x12*\xd2\xbd\xedw+\xfa/V\xeaJ\x91\xdc\x19\xed\x11\x1f\x8a!\xf0\xa8\xc9F\x9c\x027VF\xaeL\xf4\xc5\xf0C\x96lJ\xaf\x9a:\xdd\xd7wz\xaa*}\xd3\\"b\'\xcd\xa7Q\xb7\xbe\x97\x1bZ\xc1I\x1d\x8ev\xcaQ\xa9n\xe5\x12\x1a\xd1\x7fN\xc6\xa5\x08\xed\xf5 \xa3f\xc2\x96\x0c\xcf\x0c\xc3\x06\xb0\x94\x1d\xe4J\xa3\xfc\xf8W\xa3M{u\xde\xf8\x90\x9e\xe0\x80\x9c\x83\x11\xd7\xd6`\xdd\xaa\xaa\xe7@\xac\x11\x1b{C\x15\'uKmC\xd7\xa6\xc8\x84\x15\xae\x86\xeei\x0et6_&gt;\x0c;0\x03\xf3D\x89\xa4\x8b\'\x9d\xe7u\xdc\xbc\x1eR\x1at\xd3{O\x7f\xea\x89\xaa\x02 w\xd7H\xa7H\x1f\xcb5\xef\x03\xaf\xa9B(K\xd1.mT %\xa0\xbc*d\xecV\x0ew\xef\x044\x98\xcc#\xfa\xc8n\xf2\xe4\x1e\x0e\xe2?\x04`\xcc\x9c\xfc\xb6\xe6\xe2\xb5Hp\x05\xb2Y\xccM\x00`jV\rb\x14\xb1\xecB:qvFxU\xb9T)\x01\x10^8\xe4T#\xc7y6\xcawC\x88\x1d)\xb9\xc1R\xef\x98\xf8Ir\xd1p\xe5\xb2\x9d\x8f\xdb\xb1\xb6\xd9\xa9\xec\x1f=\x875\x08\xd8\xc2l\xe4\xacl7\xbb\x17\x04\xe7\x1dH}\xfd\xd0\x9b\xcb\x10t\xfa\xe3\xab\x82\x0f\x92Q\xe4}\xd8\x90P\x96\x92\xdd\xc2\xf8c\x15\x01a7\x1es\x80$\x90\x95; \xf3\xa3\x9e&amp;gP\x0fG\xd14\xab}\xa2\x10\xc0kg0\xde\x02\x88\x8c-\xf4\n\xeeG\xa2\xe4\x0f\x04\xcb\x91\xa9`E=\xc6r\x18E\x99\x95&lt;\x9c)\x0b\xed \xd3\x1fM\x9c\x97\xdcM4\x06\xbf\xffM\xcc\xa3c;\xc98\x87\x88\x03\x11n/M\xe9\xcc\xbc\x91\x9f6\xcb\xe8\x07aa\x19\xd5~\xf8Q\x08kh-S09c\xcb\x14\xf5`%P\x8a3\xe4\xcc\xfe\xf1\xf5\xd8\xd8\xc4Vl\xd3\xc8\xb2\xd1\x0e|\xf6@\x05\xf9\x13@\x8d`\xc6\xd9\xc4\xd6\x92\xa6\xa2q\xa0\xd20\'M\x1b\xb0\xd5e\x86\xfa\t\x8c\xd7\x8f\xefg\xe4\x19\xc5\xbf^\xbe\x96\xcd\xcf\xfe\xb0Z:\xa4B\xf2\x9dd\x91X\xbfz\x00\x04i\\\xf4\x84\x9b\xe4v\xb2!\xbe\r9\x82\x8c8\xa5\xbf\xb1\xfdRa\xfb\xdc\xce\x8f^\xdaC,\xb6\xe7\x92=\x9d!G\xaa!\xe9\x13\x08\xc6Py\x9d\xb4:\x11\xba\x96\xcf\x96\x13\x02\xe1\xb8\xf9\x8d\xab\xb2P\t\xe1\x88\xa7vX\xdc\xa4\xde\xday\xce+7#O\xef0g\xaf\xc7\xca\xfckHT\x97\xf6d\xf2:T\x8c\xc8xb3\x93e\xef#V\x11\xd8\xbf\x01)N\xb8\x908$0;\x82\xdd\xdd\x1d.\xc41\x9f\x0b"0\xea4\x02,\xed\xb3g1\x9bO(\x9fX\x8c\x88J7U\xf5G\xa0p3\x99\x97\x80\xf2:\xfd\xb4km@\x9f\xa6\x8e?&amp;X!X&amp;\x17\xee\xa8;\xdc\x99y\xc8\xbb\xc3\xff\xd8\x1c\x8e"\xfa\xab\x9e\x86t\x13\x15\xba\x12\x94\x13\x08\x1f\x9eR.\xc0\xd1%\xae`\x13\x06\x9e\xbf\x8d\xff+\x0e|\xda\r\x0e\xb2{\xe3\xb9\x97\xa7\x84\x13P_.xJBWT\x16L3\x93#D\xea\xc6-\x1e\\r[\x16\xb1xW\x8b\x97\x11\xfa\xb5\xce\xdc\xbb\xdc\xdf\xda\x9e\x93:0\x8f\xe5\xbe\xa5Q\x8d\x8493\x9a\xa7\'\x0b\xc6\x89\xa8\x19\x8e\x16\x8a\x91|{\xe5Fw\x0b\x13A,\xee4\xd8Y\x0fT\x9a6\xe7xZ\xb9]N\xe0V\x81\xe1\xa9\x8a\xa8\xf1\x92sQ\x0fL\x04\xbf\xa9\x86m\xf4xg\xc9l\xd7{\xb4%x\x90]\xc5\xb9\x9e\x95/\xdb0\x14\xa4M\x0f\xa2\x9e\xba\xe4\x1c/\xd0\'\xad\xaeH\xceB\xa2\xb3;m\xe9\xebY\x10hu\xdf\xbe\'V!\x14\x85\x86\x04\xc5\'\xef\x1a\xe1\xd5\x9e\xd6\xa7\xdbv\x9e\x15\xa1\xac\xe4\x8aj\xe93\x11\xe8s\xc9\x19\x0eT\xf6\x90(";^t\xd72\xbb\xbf\xeb\x8a3\xff\xca\x8f\xa7?K\x1b0H\xe8\xee\x94Z\xee\x16\x1d\'\xfe7\xb4\xa7r\xe0\xd9\xc9\x19\xba\xc4\x1f\x051\xdf\xdf\x89\x8f%C\x0b\xb27LV[\x95^\x1a\xfa\xac\xd5\x93\r\xf6 2\xa4\xd8\xf8;\xdf\xc7\x08\x9e\xad\xf8#\'\x95\xf9\xa7\xd58\xca:^Q\x98H\x82\xb3X\x1e\xdf|\xc9&lt;\xdaV\x7f+{\xd0f\x1b\xcc\xbeU\xdf6j\xbe\xd4\x1c/\x87\xff%\x16\xfe{\xdc\x1a\xf5&lt;\xa42i\xfd\xf1\x95\x17W\x12\x8fP\xf2\xf9\xc33\xcdj\x17\x9eIP(\\\x89LF\xdd|\xe6\xe1\xe7%\x04d\xad|\xf1\x95?\x13\x17\xf3\x9c$O\x7f\xf9\xce\xbb\xaf\xbf\x01Qrz\xe2J[g\xab=u\xdb\xd9\xe6]\xbb\x9a\xcfnK\xb5\xb7v\xb6]\x99\x98\x86\x84\xf8\x1b\xaf\xbf\xfb\xces\x94a\xe5\xe0\xc5\xaf\xdc\xa2\xb5\x82(M\xb0..N\x17\xac\x89\x12\xfc?Ek\xdd\xbb\xf3\xd9H\xfc\xfe\x0f\xac\xc4\x93\x01 \xd0\x14\xc5\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -486,6 +508,14 @@
       <c r="D3" t="n">
         <v>58766</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xb2PLTEGpL\x010}\xf1\xc7Y\x010}\x032|"I{\t5}\x82\x8c\xac,S\x808h\x8e\x11;{\x1aBy\x053|\x032|\x18?{\x074~\x063|\x020}\r:z\r7|\xf5\xc30\n6|\x054}\xf4\xc6&lt;\xfc\xc3\x11\xf1\xceT\x085{\x054}\x042}\xf6\xc6,\xf7\xc3*\xfa\xc3\x1c\xfb\xc3\x13\xf8\xc4#\n6|\x14?{\x085{\x030}\xfb\xc3\x15\x0e9{\xfc\xc2\x12\x073{\x063|\xfa\xc4\x1f\x031}\xf0\xc3C\xfa\xc3\x19\x17@v\x042}\xe8\xd0h\xf9\xc3\x1c\x0e9y\xfb\xc2\x11\xfb\xc2\x18\xf6\xc60\xfc\xc3\x19\xf8\xc5 \xed\xc6X\xfa\xc3\x1f\xf9\xc2!\xff\xff\xff\x001\x80\xd8\x10\x00\xfd\xfe\xfe\xfd\xfd\xfd\x000\x7f\x001\x7f\x000\x80\xff\xc3\x0f\x000~\xfc\xfc\xfb\xfc\xfd\xfd\x000\x81\x001~\x001\x81\xfb\xfd\xfb\xfc\xfd\xfa\x000}\xfe\xff\xff\xfb\xfc\xf9\xfe\xfd\xfb\xd7\x0f\x00\xfd\xff\xfc\xf9\xfc\xfb\x000|\x000\x82\xfe\xc2\x0f\xf8\xfa\xfa\xf6\xf9\xf8\n8\x813Z\x96\x065\x7f\x032\x7f\x00/\x7f\x0c9\x84\xed\xf2\xf3\x0f=\x83\xf0\xf4\xf5Xy\xa7\x075\x82\xb9\xc7\xd7\x10=\x86\xd4\x11\x03\x14@\x86\x90\xa7\xc4+S\x92\x94\xaa\xc5\xf9\xfb\xf8\xf4\xf7\xf7Dh\x9es\x8e\xb5\xa8\xba\xd0\x17C\x87j\x87\xb1\x022}\xf3\xf6\xf5#M\x8f@e\x9c0W\x95.V\x928^\x96Im\xa0\x8b\xa2\xc1n\x8a\xb3\x043\x81\xfa\xf9\xf7\x18D\x8a]|\xaa\x1bG\x8a\xb4\xc4\xd5\x1fI\x8bTv\xa7z\x93\xb9\xac\xbd\xd0\xbc\xca\xd9\x00/\x80\xcf\xda\xe4&lt;b\x9ad\x83\xad\xfe\xc3\r\xe0\xe8\xecPr\xa59_\x9a\xcc\xd8\xe2\xe3\xeb\xee\xcb\xd6\xe1Zz\xaa\xd6\xe0\xe6\xdd\xe5\xeb\x9a\xaf\xc8v\x91\xb6\xa4\xb7\xcb\x9e\xb2\xc8Nq\xa2\xe7\xed\xf0(Q\x91\xe1\xe9\xee~\x98\xba\xc8\xd4\xdf\xc1\xce\xdbLn\xa2\xaf\xc0\xd3\xb1\xc1\xd4b\x80\xad\xc3\xcf\xdc\xdb\xe4\xe9g\x85\xaf\xd9\xe2\xe8\xea\xf0\xf0\xbf\xcc\xda\xa0\xb3\xcc\xa3\xb6\xceRt\xa5\x83\x9b\xbb\x1eI\x8e!L\x8d\xd2\xdc\xe4\x97\xac\xc6_\x7f\xab\x81\x99\xbc\x8d\xa5\xc1|\x96\xb9\xaa\xbb\xce\x9d\xb1\xcc\x89\xa0\xc0Gj\xa1\xe6\xec\xee\x84\x9c\xbf\xf4\xf8\xf9\x87\xa0\xbd\xd5\xdd\xe5\xc5\xd2\xdd)Q\x8d\xea\xf0\xf2!-i7\'\\\x93\x19$?%V\x87\x1a+\xe3\x85}\xddJ&lt;\xde^Q\xbc\x13\r\xc6\x12\t\xae\x18\x16\xd9&gt;1Q#Lh\x1f&gt;z\x1d2\xd5\x18\n\xee\xc2\xbc\xec\xae\xa8\x9f\x17\x1e\xba\x9c\xa4\xe0md\xd70!\xd7&amp;\x18\xf8\xed\xea\xc7\xc6\xcd\xe7\x98\x91\xe4zp\x134u\xb0bf\x91O_\xef\xd3\xd0\xb0:;\xf4\xdf\xdbv^|cHh\x87|\x99\x826\xf2\xce\x00\x00\x00&lt;tRNS\x00\xf9\t\xfd\xda\x17y\x01\r\x06?\x1f\xbd\xee,\x94\xb5\xf39\\&lt;f\xa4+\xf9\x11\x8b\xc5\xccSa\xa9\xefpm1\x83\xe1\xe3O\xfc\x9c\xab\x9a\xe8\x1e\xb2%\xd2\x04\xccG\xf5\xd7H\xc0\xbc\x17\x89\xfc\x82\x13\xd8\xcf\x00\x00 \x00IDATx\xda\xdcW\xf9W\x13Y\x16\x96E\x11i[mQ@\x9b\xad[\x91\x16\xc1\x86q\x9f\xd4\xa9\xf7\xaa\xa8J%\x95\xed$\xa4\x12\xc2\x1a\x03G\x96h\x80\xb0\x05rPP\x10\t\x8b\n\xb2+\xa0\xd8\xb2(.\x88[Kk\xffgs_BPg\xceLCL\x9c9\xf3~\x80\xd4\xf2\xde\xfb\xdew\xbf{\xefW[\xb6\xfc\x9f\x8c\xa8\xa8\xffIXq\x89\x81\xcd;\x1bZX\xa9\xc9\x81\xcd;\x97\x19RXY)\t\x01\xc5&gt;-)\x94\xa8\xc2S&lt;\x01E1\xd6\x93\x1cJX\xb1RnV \xf32r\xd3B\x99+\xe7$\xe9DB $\xe7\xa6\xc7\x85\x10V\x8e\'\xd7\x13\x80J\x12=\xb9Rj\xe8P%\xc4K\xb9\xb9\xa77?/\x19`e\x85\x08STxxR.\x8c\xf4X\x18\x89II\xa9\xa9\xe1\x1b&gt;\rLK\xc9\x0e\xba\xd0\xcf\xe4\x9c&lt;\x99\xf6\xf7\xf8t\x89\xc0\xca\x95$\x8f\x07\xfe\xa6\x9c\xfa\xab\xd2\x9bs2\xe7tVVr\xf2\x192\xcf\x93\x14\x17\x97y6&lt;;;x\xda?\x95\x92\xee!P&lt;^X\xde\x7f\x9e\x93\x7f\xad\xe1\xb84\xc9\xfb\xae\xe4;\x8eG\x92\xa4\xf4\xf8\x13g\x12\x82\x86\xebl\xb2\xb4\x06imx6\xb4\xf8\xd9\xd3\xb9\xff&lt;\xd23\xc2\x83)\xac\xd4\xf8\xcf\x17\x97\xcemL)\xe1\x19\xd2\x97\xa8\xd2N\x05Y`q\'?\xedp"i\xe3\xc7\xf1|\xa2Y\x92\x92\x13\x82\x9e\x89\xe1\x19\xeb\x1bl\xa6\x06%\x9eXG\x95\x92\x18\x8a\n\x91\xb8N\xd7\xa6\x1a\\\xc6\xba\xacBS\xe8?\xe9$e\x13\xb2\x85\xc6\xe3g+4\xb0\xd2\xbcI\xee\xcd\xf8\xc4@8\x0eM\xff\x89\x83\xf5\xa5\xb4\xc4,R\x856\x11\xc5d2-&gt;\xde\x13X\xdb\xda\x801\x85\x85s2\xb7D%\x81\x86\xe37\x9cQ\t\'H\xe9\x8d\x8d\x85\xca\x9a\x1b\x1f\x1e\x02X@S\xb2w\xdd\xcc3\x92\xb4\xe1\n\x91\x94+\xa5\x9f\x83ig\xc1|H\xb1\xc1G\x95\x9d\x92\x9e\xba\xd6\xce\xb2S\xe37\xec\x07NKi&gt;0\xd9\x19\x92\xe7\\\x08\x8c\xe9\xe7\xad9.g\x83Q\xcc\x8c\xcf\xf0\xbf\x19\x95\x14\x1f\x02q\x9d\xfa\xe2\xdb%\xfc\x0bXQ\xd1\xdb\xc9\x88\xfeWs\x90\xf8y\xb3\x89M\x0b\xdf\xf2-F\xd4\xd6\x1d\xfb\x0e\x1c=\x18\xb93"O\x8d9.lg\xe4\xc1\xfd\x87\xf6\xfd\xb0\xfd\xdfr\x97\x19zH?\xfft\xf4p\x04\xc7\x08\xd4\x17C\xad\xa0\xd8\x88\xc8\xfd\xfb\x8e\xff7&gt;\xbf\xb7\xef\xdd\x7fLM\xfd\x87\x81\xb9\xc8]\x7f\x8b\xfe\xa6\x98\xa2\x8f\x1c\r\x13(\x86\xf5C\xe0\xb0\x02cN)\x08\x0cC\xb1\xebw\x05\xcc\xee\xfce\xc77\xe3,\xe6\xd01\xc1\xc8\x90\x8d\x95T\x9e\x82\xb2M\xb8j\x97\xabF\xee\x97\x95\x95\xcd\x8cT-\xd7\xba&amp;l\x1c\xf6\x07\x96\xcb\x8b\xdc\xb6\xfd[\x80\xfay\x7f\x18\xe3\xe7\xa3\xceR\xbb\xf0\xcc\xac\x97#ZF\xd32\x184\x0c\x15o~6\xd2jq\xaf\xbd\xa3\xb8\xbegWL\xc8A\xed\xc6k4pm\x0f^\x95\xe8\x91\x0f\x8e\x0f\x90\xff\xb7\xf7\xaa\xa4\xb3\xa7\x8d];@Xh\x81\xc5\xec\x8fP\xc0N\x8cB]\xda\xd3U\xad\xd2\xe9\x01\x01B:\xbdh\x1f\x1a\x98\x82 \xce\x0e\x0c\xd9Up\r\xec\xc9h=2\xcd\xf7\x94\xfbN\xc1\xee9\x10\xb2PFo\xdb#\xf8r\xac\xf9\xb5S\'\xa35\x1a\x1a\xf1\xbd\x9dw\xaf6\x96\xd6qF#\xa5\xc0\x02#\xa8K\x1b\xaf\xae\xbc\xea\x15\x11\x92\xd12$:_\xf73\x842\xa5\xf2\xd8\xde\xd0\x88\x7fG\xa4\xf7\xe0\x0c3=%\x92h\xd1\xe2\xe4\xe8\xed+E\x9f\xd7\x84\xf5_\xec\x95\xf3\xaf{yoL\xe5\xb3\xd3\xbe\xfb\xc2w\xc7C@\xd5.7\x07\x98\xd4\x94\xeb\x16\x0f\x1a\xd2\xe9&amp;[\x9a\xeb0\xc7b\xa3\xa5\xaf!\x1f\x1eQE\xa3\x0b\x17\xd6+\x06{\x1d+\x9a[zU\xb4F\xa6W\r\xb88\xc2\x18\xde\xf3S\xb0\t\xfb\xfeW"_\\\xd4\xd8E\x98\xa2M3\xae\xc2:\xa2\xb2\xbc\xbe!\x11\xf1\xef\xc6\x80\x90B\x93j\xc9\x0f\xcb\xf6\xb2\xa1\x90Ub\xf7\xdbN\x93\x1c\xa2)\xef\xb2(\xbchwo\r*\xaa\xbd{\xbc\xbb\x95W\x98\x08(kE\xbd\xafnQ\xf8\xb1\xc10\xd32\xc0\x9b\x9b0S@\xcb\xd7\xd9\x9a\xd6\xde,\xf0&gt;7vT\x94\x90\x145U\x95\x13F\xf1\xe1\x1f\x82\x19@\xce+\x8e\xe9I\r\x92\xe9\xed-5\x94?\xf3\xdd\xbd\xe2\x03\xcc\xba_\xad.a\xb6\x9c6\xe4\xfbE\xb6\x80*\x80?\xe1Z\xa3\x9a\xe5.\xac:E8\xcb\xe4\x18a\x97\r\xdb\x17\xb4\xf6\xb7\x9b\xa0\xe2\xca\xef\x18h\r-.v@S\xf1\xb3\xd2\xaf\x9a\x84\x8a!\xb0\x1c\x06\x95#s\xa1\xef.\x93_\x82n\x00\x88\x06m\t\x00U3K\x0bZZ&amp;\x17_\x97C\xbb\xe2\xd4\x07\x82#\xb0\xad\xbf\x12\x14L\xd3\x1f uy\xf7\r\x8e\xc2\x95\xebe\xfe\xaa8\xb0\x9e|\xf5\xc8\xbe\x96\x96l\x1f?T\x07\xb5\xe49\xbf\x08\xfd\x89\x82\xb7\x9b\xbb\xe54\xad\x1bl$\xcd]8\x1a\x8c\x06\x1e\x13I\x8a\x15{\xdb\xa9\x97\xd1\xe6\xbb6\xca\xd86Z\xdd\xe7\xc7\xe2\x12\xc7\xbdL\x12\xb6*Q\x89b\x8d\xad\x11\xf1w\xb8Y0\'\x8e\xc1UA\xfb\x98\x82*\xb8k\x06\xe9;/_\'\xcf\xbf\xfb\xfa\xd2z\xfc0\tY\xdd\xef\xa2\x06\xa1G\xcdF\xa6\xa0\xb5\x84\xbf\xd5\xec\x87U/\xf2K\x0c\x85\x95\x8b\xcb5\xd8\x82\xc6}NGm\xb3\x8a\x16\x805\xa6\x9b\xb3\xc1\x81\xae\xe9t\xed\x13\xea&lt;\xcb \xe0\x12WI\x9c\xf1\xc1\xaf\xc5\x15s\xd8\x08\xcb\xd8FT4-:J\x19\xa6\xa1\x9b/\xa9u\xb3x-\x8c\xec\xa0|E\x10\xd8F\x83\xf9\x02\xbe\x81\x860\xc5\x00m\xeaf\xd4K8\\\xa4\xef\xa8)\xe6\xa9\x95\xff\x83\xb7\xaf\xb8\xd5\xc5\x8br\xe8\n\x0e\x92\x16\x8a\xef\xbe.\x8e[#!\xa1\x8c\xf9\xedp\xd0\xeaK,\xa5xn\xa8\x1e\xad\xa1\x94\xa5\xb7\xd7D\x8f_\x18\x9c\xbf=m\xe8V\xbd\xc2\x8a\x8b\xb4}\xbe\xec\xbec\xe1c\xdd\x03z\x1e\x9e\x17;\xf9\x8b\xc0Y\'\xfaPx\xb5\x97\xef\xcag\x14\x97\xccz\x19*+&amp;\x13w\x7f\r\xae\xed?\x12]\x15w!\x19\xb2\x8e\xc1N\xea\xbb\xdaw\xa5\xb8\xf0\xf2MS\xb3\xdfH\xacjy\x95V\xdb\xdd\xc6(\xdf\x8e[\xdf\x1b\xb4Z\xad\x05\xf7\x8bN\x8b@\xb5\xeaz\xdd\x14v\xf1\xa8\x01S\xe5\xb3b+\x879\x97\x15p\xcd\x13\\\xec/\x81\xe7c\xd4Q\x81d{\x17\x88}\xbc\x19\x83\x9e\x15\xb6G\xaa\x8a\xa6y\xd1z\xad`\r\x16\xc3\xf5W\xb5\x8f^\xb61\x94\xd2\xa8\xce\xcb\xab+\xaeY\x02=9\xf8\xf7\xed\x0e\xb38\xccR\xf9\x83r4y^\xc9U\x89-\x10W\xc1\xf2\x8e\xd6\xa0y\x12G\xe5\xb6\x80a\x1d"\n\xb1\xdd\x07Ou\xb3R\x98h#(\xa6\x91\xc9\xccwv\xb0\x9f5h\x16\xea\xd6\x976\x9eu_z\x88h\xf9L\x81\x82\xba\x86\xfe|\xe2\x14\xef\xdd1\xf1\x17\x89\x1c\x85\x89I\xb0\x1d\xed\x80\\`\x8f\x04\x88\xeaH\x04Q\xcf\x1d\xf0\'7\'\xb8\xb6\x87\x8fJ\xc9\xe5\x0c2\xb8`\x03\xae\xa1J\xb9\x16F&amp;\xaf\xc3\xd5\xfar\xb1}~j\xbe}\xe1M\xed\xc5\x9a&lt;\x16S\x8a\xa6\xb1F\x86\xc1O\xad\xaa\x1e\xeai\xbb\xc19\xf0\x82\x1cQid?N\xd22~\x94t\xfd\x9d\x81\x19\x8a\x98\x9d@\x820\x0cj\x9fk\xc4\xc5\x1f\xf8U/\'\xf5v\xfe\x81Zq\xc5\xc1\x9b\x1b\xa1\xbcSE\x1d\xbf\xbd\x1a\x17\x91\xcf\x9bB\x13@\x08\xa9\x86\x16.\xd7\xa8\x8b\xe0\x13\x04\x0eA\x0fb\xcc\xaa;\xedM\x84De\xf9h\x1b\xd74\x87h\xd50\x10\xcc\xfe\x18\x88\xec\xa3\x0f\xb2J\n\xbf5\xd1\x1a{\x03%\x8ch;\x95^X\xc6e\xed\xbb\x9aa+?\xdb\xc8\xb2\xf8B\xeb-^\\w\xca2\x8d\x86\xfc\x91\xd1H[]\xf6"\x9f\xa5\x18\xf7\xaaI,\xabW_\x7f\xc3/\x832\x95W\xba\xc5{\xc5y7\x9cH_\xed\x82k\xee@\x00\xb0\xb6Am\xc4\x1d\xe3\x08U\x9fW\xe0kr\xe4\xb0\x19\xbdA+~\x88\xac\xdaw\x0f\xc0_U\xde\xb1\x13+O\xbe*\xcc\x0fg\xef;\x16\x1d\xed\x1fzM\xbc\xd7\xd1\xd3\xf4\x9fo\xae\xc0\xb9&gt;\x96i\xedU+NU\x0fK]\xaf\x1cBfm\x99\x8d;\x0f\xaf\xcc=\x85\xe5#vl\xde`\x85A[-\x9c\xa2\x91\xee\r\xe6\x1e\x1b\xc6M\xf2\x0fmE$\xfd\x8cc\xa2\xa9\xaa\x94\xc1\x13\x0e\x03"N^;Xu\xb9\xb2\x00\xb3@\x1e\xa8\x1f\xe7[z\x16z\x91\x1c\xd0\xea\xdfW\xd4P\x98\xed{$\xf2\xaa{\xf9\x02\xee\x9fC\x0f?vjG\xea\xf0\x13\xb9F&gt;\x0b\xc6\x87\x89\xdcl\xb5\x8f:Ht\xbd\xa2\x92\xa1.7c\xb1Z-\xae\x12\xf9P\x13)\xee\x18\xb7X\x04\xa6|\xd5\xac\xd7\xd0r\xbe\xfbR=\x07\xd2\x16\x18\xf0,\xd0\xa5\x18\xacd\xb9"\xb6\xe9\t\x98C\x8dL,\xb9\xe4f\x99\x82\x9e\xe7\xad\xf9X\x98v\xaa\x0c\x95\\\xfe\xbc\xb6\x82u\x97\xd12\xfd2\'\xe0M\x87q/\x86Dk2\xd3\xb2\xf16\x8a[\x1ax\x8c\xa9\xcaA\x95u\xcc\xdb\x8b1V\xb8\x86\x10\xf1\xa8\x8e~\xa0\x88\xc2\xa5\r\xad\x153S\xdd\xcf\xba?\xccT\xb5^$\x1f;\n\xf7t\x19O\x8c\xfc\xad&amp;\xc1\xeb\xf1\xd9\x1e3\xdf\xab\x9d*f\xcb\xbb\r\xc3l\xdbM\x99\xccd\x813\x86}\xbf\xb9\xf2~\x0c\x14Zx\x0f\xd1\xda&gt;\x10:c\x03/\xae\xb8\xd0%V\x0f{\xe5U\xf0\x92\x87\xba_=\xf2\x11\xbe7\xb8\xca\x95{\x06Dk|\x9a\x87\xa8\xeaL\xb7\x96\x1bY%[\xd4\x0f\xfe\x9aF\xf6Zo\xfb\xbck\xe0\x1d\xff\xa0\xd4\xcaz\xdb\xb8\xae0\xfa\x92\xc2@\x808(\xda\x87"O\xa9\xf3\x16\xa0\x05\xf2:\xd7\xf7\xce\x0cf\x86\xc3\x99\xe1P$\x05R$%\x8a\x14e\x8a\xa2%R\x0b\xb5Xr$Q\x1b%h\xa3%j\xa3DY\x1b\xb5X\xb2\x16\xafZ\xec\xd8H\xfa\xd0&amp;\x01\x9a8F\x13\xa3ub\xa0\xfd\x1f=\x97\xa2e\xbbf@y\x9eHq\x96\xef\x9e{\xce\xf7}\xe7\x8c*\xee\x89K\x15l\xe7\xb8\x8fegD\xb3\x94p\t\x88;\xff\xdbw%RC\x9d\xcaH7\x04p\xa29\xbf\xe2J\x86\xacIpr\x91\x15 \r5\xd1\xd2o\xe3K2\xa3"\xb4^o\x1e\xd8\xac\xee\xb6\x95\x1b9vxB\xc2&amp;e\xaa\x8cC\x9d\x87\xfa\x92\xd1P\xd1\xa5O\xcb,u\xd3\xc6i\tKm\xf0\x10\xe1\xb3wQhj\xdd\x03\xeb\x98\xcc\x06x\xe1\xd1\xb5\xa6\\\x0f\xaa\xb59\x069\x14\\\x05\x1c\x8e\x9ev$\x97\xf5\xcc\x9a1\x93\xef\xc0\xe4\xf1&lt;x\xd1\xf2\xa4\x08 W@\xdc[\xbc\xde\x01\x84\xca\xd3\xe2\xc1\xc9t"p\xc80\x9e\x08\xa8\xecG\xef\x10\xae?B\xf5\x1a\xaa\xa0\xed\xca \xadN\'R\xb5;k\xe6\x91\xf1Q\xbf\xc19K0Ym\x01#\xda\x1e\x8d:\x9d\x03\xdd=\xe1!Ez\x0b\x1d\xc6\x87\x83\x90\x85[\x1e3&amp;\x0fcHnu\xac\x07\x05\x14\xe9\x10^Z\x0f\x891W\x81)|\x07\r\xca\x06\xeb\xa6\x03\xe3\x84\x9bkrX\x87t\xa9;w79Z=U\xdd\x13\xde\x08\xc8P\x11\xd0\xfd@\xab\xc1\x1bX\xad\xb1\xce\x7f\xd9\xf2\xff\xc8\xb0\xba\xd1(h\xa95\xb3E]\xebD\xec\xb2u"\xc6\t\xa7v\xdb\x9d\xc0\xf8r#|8{\xb8.P\x1e\xd8#\x8cR#p\x0bz\xb7\xadV=\x92Ag4\xce\xc0\xfbj4\x96o\xdd1\xbe\xd2e\x0e\x9a\xf9z\x03_\xbe\x95\x9cS\xc9\x9byf\xf6\xf8\x90\x1c\xb9[\xb5\xec\xec\xaed\xd9;\xfan@&gt;\xbdL\xa8\x11\x19\x92\xa4\x94rVN=\xf7)\xc0\xeat0L_?\x9a\xd1\xfd\x1a\x7f\xa0&lt;\xa8Z\x88O$\\\xc6\xc8\xea\xbe\x8c\xd8\xa6\x92\xd3\xbb\xcb\x86@s\xaa\xe2$_\xd8\x1d\xdfQ\xafG\xc5\xa7\xf9\xa5\x8f\xf5\xeeh\x91\xeb\xdb]\x1dw\xfb*\x90\xad:\xde\xc9\xbe\xb6\x1c?&amp;\x8e\x18\xfc\xe1\xfcY9\x8b\x8a\xdf\x03\t\x82\xc5\xbbw\x1dMl\xf1"Q\x14\xc9\xac\xfb\xf8\xf6&gt;r\x07 \xc7\xae\xe7\xee\\_\xecK\x8bD\xf4N7\xd2\xe7\x81\xfc:\xc1\xaa\xf6l\xfa\xd3\x89\x95\xc5\xea\xda\xd6\x983\xb3\t\xbc\x8a\xc5\x96!\xa5J\x93\xdb+_C\x85\xb8\x01\x91\x91\xaeP\t:\xe3\x90\xe9}\xc8\xed\x12(\xc34\xcf-\xeb\x1e_\xfd\x88\xee\xbd{\xbfv\xff@\xe0\x8e\x08\x93\x84,s\xed\x9d\x18,\xael)\x9b\xeb\x984\xec\xdb\xe8\xbe\x1a:\x14\xeb\xc3\xcd\x9e\xe5\xad\xe1kuG\xe1\xf8\xb1j1\xd3\xb8\x1d7Z\xb1\xda\xfd\xda\xa4\xd5H\x85\xda\xb6B\xb0\xa7\xcc\x88\x8c\x17\xcefh\xe0\x99\xf220\xa1O`\xaf\x8d\x11\xe9\x8b\xb8\xa3\xf9\x84\xdc\x07\xec\x0c\xf6\xc3\x8a\xb5Qw\x16W\xc9\x82\x94\x1b\xb5\x99\xac\xcbB\x16\x16\xce\xcd\xdf^\x9f\xc11\xa3\x8d\r\x16\xbc\xde)\xbc\x82U\x99YiA[P\xd2\x83\xa0\xff\x9f\x9c)\xe9\xdf\xa3r\xb1\xc2X\x0e]Pf\xe5G\r"\x99\x08\xd2\xe4\x91K\xc6\t\xb6w\x01\xa0\xfe\x85\x11\n\x8b\xad\n9\xd2\xfe9U\x02\xc1V\x1a\x9ai\xb8\xae\x99\xf2\x91\xd8=\x94\x81\xcei1\xe7ay\xb6f\xaa\x01K{\x82k\x0e\xe34\xac\x92;S\xd2\x7f\xc4"c\xa3\xce\xa8\x0f\xb2\x99\xc0\xdf\x9c\x0eI\xf6\xeaH1\x12\xe6-\x84&lt;\xb8m\x83\xa0\xdc\xb8E\x7f\x0b\xda;v\xd8\xe5\xba\xe6\xbdD"\xed\x1f\xf2\x17\xd3&amp;7\x1f,\xa9\xb6]\xee\x92\xb08\x0c\xe1\xe2\xf9\xd8\x9d\tI\x11\xc7\xc7&lt;%\xc6m\xc2\xe8)\x80\xf5\xc1Y\xfaU\xb8\xb8x\x12t\'\x98\x8b\xb8\xcd\xe9\x17EO\x94\xebl\xc0d\xbc\xe2\x0eXg\xf6~\x9a:\x9c=ir\xa4C\xd7\xdb\xaaEUI\x8bJ\x13&lt;\xd4\x97\x0f\x96y\xa6\x9c\x8dy\xb14\xee\x02W\xd4\x15\x121\xf1F\xb5Iq\xdf\x96\xb22d\x1e\xae:\xcb.~\\J\x93\xc7\x84\xe3\xaf\xfa\x06\xaeuw=\xc0\xeeI\x0c4~\xfb\xf0\xf4\xe26\x070\x90\xfb1\xae\xee\xb8\xc2\x90\xcd\xff&gt;y\xf2\xe4\xa9\x8a\xb7\x7f\r\x96\xde&lt;e\x13&amp;\x89I\xcd \xe1\x06V\xd2\x99^k\x0b\xea\x0c\xad\xf0|\x82\xc1qM\xe6\xf8?\x15\x86u\x9e2\x80\xceX\xe6\x81\xa0\xca\xb7j\x07\x9b\x90&amp;p\xedM\xa5\x9d\xc0\xfa]\xfd\xc8\x07\xe4`\x1c\xd6\x87\x8bQJ\xc4K\xcb[v}\xeb\x1fEEE/\xccx\x03`u\xe7\x93H\xfd\xa6u\x98/\x99`\xf0j\xbb\\#\xf6\n|TI\xca\xfcF(\xc2\xf70&amp;i\xc7h&lt;Csv\xeeCH\xdde3\xa3:9\xc1\xb7\xae*\xaa\xf8\xb0\x9bN!\x84\xfb\xd8$\xb6\x94\xba\xe3u\x90zM\xe2m\x1e\xb5J$~02s\xe7\xfa\xcf?~w\xe9\x85\x84\x87\xd8_\x81\xe5\t\x8ak.v\x90`\xb3Os\xafz+Q\xfd\xd0\xe5T`\\w\x167\x83,d\xe0\xe6\xef\x17\x1e\xbc\xd3\xbd\x9b"\xf8\xd0\xc6\xd5\x84\xa4\xf8\xe2h\x08+\xdb\xacQ({\x8cM},\xe7#\xf7\xe1\xf7\x88\x9e`\x91\xcfdZ\x0fn\x80\x90\x8b\xfa\xd5\x9f\x9eyM\x1e\x01\xc2\x98\x0f\xd6j\x8d"fX\xd7\x18\x83WX\xaeG\xcc 6\x8c\xed\xc7\xe2\\\x89\xa0\xcdaS\x18\xaa\xfc\xc3\x82=\xd0\xc7\x10,\xdb\x90\tO\xb1\xfc\xa85\xa3q(\x96\xbcj\x1d\xe0\x01\x0fCfx9\x8eo\xd0\x01N\x83\xa3\x04]\'\xc4\xde\xf9\xc5/\xdf\x7f\xff\xcbOWEGB\x99\x03k6|5\xcf\xb1\xd2m\xc5knn\x1e3\xd6\x94\x169^\x0bD\xc6\xc7\xa6&lt;\xa3-\x1c\x126\xcd\xcc\x18\xd0\xacP0\xb9\xfe\x00\xc1\x88I\x0c\xae3\xa4\xf4&gt;JE\x1c_%&amp;yy\x89\xc1s\xed\\T\xc7\x0b\x90{\xc5\xe3j\x14\x05AvR\xcf/Bb]\xfa\xee\x9f\xdf&gt;\xd5W\xe0\xe4\xbf^\xcas\xfc\xb0\xac\xc0\x92\xe4\x18h\xf3-\x830\xad8Bj/k\x13hc0h6\xe9;,b\x0bN.\xffB\x87yf\x868aC\x8eN\x8a\xb1I\xec\xe3\xca\x8f\x19r\x9b\x95\xa70\x9e\x00\x021\xfa-\x93\xac\xcb\x83\xc9\xc1\xcf\x14\xd6E8\x9e+W(\xac\x8bo\x1dE\x97\xbe\xaa\x03\xc2]\xea\xe77\x18\xbc\xcb\xa2H\x02\xecZc\xae\xc6\x9b\xf5\xac*\xd9\n1\xd7\xb9\xdf\x00,\x08\xb7\xbd\x02u\xe3\xa9\x1c,\xa5\xd78#bq\x00\x9550\xcce\xfa\x8e)I\xc2\x1a;mf\x06\xff\xf3\xf4Y\xe2\xd9\xd3\xe7\xdf|\xfd\xe2\xea\x08\x85U\xf46\xae\x8b_\xb5A\xc6\xd9\x03\xb66\x15\xeb1pZ\xce\x96\x8a\xd3A\xf9e\x06\x1f\xb1\x85s\xfe\xcf\xd4\n\x85aY\x02\x8a\x85\xec\xad\x06\xa3\x11iW\xf46c\x15\xc1\xebn\x04ad\x94N\xe0\xd3y\xb2f\x93\x9dV\xe6V5\xb8b\x90\x1e\xeb\xc3g+\xda\xaf\xc3\xa2\xef\x86:JA:\xa4}\x80\xe2\x96O\xcd \x1b\xc7\xb8\x17\x88\xf2\xd3\x02\xb0&gt;\x03mg\x81L\xc3P\xedU\xa2\xfd\xeepc\xf0\x8a\xdd\x13(\x06/\xb9\x88P5\xb8&lt;K\x0b\x9c\xb1L\xace\x88\x9f&amp;\xc9\x9e\\\xe9\x99B\xd9\x89W\x9eM\x04X\x19\x15\xce\x98\xe2\xe5!\x86\xec!\xe4\x1c\xab\x1a\x919\xee\x04\x1a\x8d\x00\xac\xa7\xb4@\x1f\xfb{JQ^\x86\x80 \xf2\x15w\xa1+\'\x12qt\xb3.\xe0\xd2\x1e\xc1\xb0K\xdf\x88uC\x19\xd4\x10\xa5\x05\x19\xcbF\xfbjs\xa8\xc4\xda\xec\x949/\xac\x1f\xf6)\xac!\xae?\x0c6\\0\xa6\xa0T\xd6\xb6\x83\x06\xba\x0ca\x1bc/U\xd9\x02\xfd\xe2\x05\xfa\xae\xc2\xca\x98\xeb\xe8E\xda\xf5^\x8fbMG\x05\x14\x84\xd4l\xe5\xca\xec\x14V-\xa4|\xca,]\x03\xd7\x14Y\xd0\xb3~Ku\xd4\xda\xb2y\xf8e\xbeM\xfcfX\x81\x93B\x9f\xf7\xf7`|\\\x8f\xdc\xadI/\xf8\xca\xf8d\xcc \xa0A\t[\xa9\xca\x160\x11\x1f\xc0\xddS!\x13\xd9\xcay\x10[e\xd6 CR\xe9;\xc8IM\x9d\xe56|/\x97\xc8\x11\x1d\x05\xb6\xd7\xad\x11\x8b\xc5\xbe\xe4,=\xa9\x8e\xbc\xb0\xfe\x1e\xa5\xb0,5\xc20p\xdfM\xa0fn\x11O\xcd\x12%\xb4p\xc0\xcf\xa8\x8c\n&amp;\xa2\xf4w\x85ikDgH\xf4\xcd\xf9\x1e\xd4\x92\xc3\xc5\xf9hh\xa4^\xb0^\x9a\x97\x84OT\\k\xac\x19)\x7f\xd99p_\xe6\xdb\xc4\xaf\x1f\xd1M\xc4\x19\xd9\t\xa99\x02\xe7ra\xbc\xe3\x8e\xeeYI\x12\x8d\x98\x19\x134\x90\x86\x02\xc4u\x1en~\x00&amp;\xbb\x89\x96\t\x8f^\x1a\xdd#\xcc\x8c\xb1l-\xf5\x07RZ\xa0\x15\xa4\xa6s\x0e\xa3\x9e\xe3\xb5zWe\xa0\xd2Uo(\xcd\x1b\xad\xa2\x7f\xeb\x14\xd6-\xees\xe8\xc6\xe96h\xf7pp\xe7\xe8\x90\xe8\xd3(\xa82\x96V\xd8\x96\xf7\n\xfax\x04\xb1\xc6\x8dH.\x9f\x0coFs\xff&gt;\x00%\xb8\x8b\xd8m\n\x8b\xcc\x96B\x11-\x9ag\x05\xa3\x91e\xdd\xcd\xfbU\xfe\xb5\x06E\x02k\xd7\xb0\xe6\x7f\xfa\xaf\xbf}\xfb\xe3%\xca\xb0\xff\xa3\xdc\xca\x9a\xda\xb8\xb2pRq\xb923\xe5\xcc\xc3T\xf2\x90\xe4)5SS\x99\x97\xf9\x03}\xb9\xb7\xbb\xab\xbb%ukA\x12%$@ \x84@\x0b\x08\xb4\x80\xb0d#v\x0ce\xb3\x831\x06\xb3\x19\x1b\xccb\xf0\xc2f\xbc\x04\xe3}_*\xceT&amp;5U\x99?2\xe7\xb6d\xc6\xc4I$\xdf*(\xa0J\xb7\xbf&gt;\xf7\xdc\xf3\x9d\xef\x9cC\xfa\x8b\xc2\xcc\xdd\x99\xa3\xb0\xfcV\xa7\xc4\x18 B\xe8\x05/\xee\x0b\x88\x96\x95.;\xba\xa80&amp;\xb8C\xda\xcc\xb0t-\x10\x8b\x9aQ\xc9\r\x05\x93\xc0\x89\xd4=^73}Z\xde\xabfS\x92\x93\xa38-\x05\\I\xe9\xc99Q1\xbfK\xcbD\x92\xc4\xa3?\xbf|\xf5\xe3\xbd\xef\x1f\xdc\x7f\xf2\xe6\x87\x17/\xca\xcb_\xdc\xb9\xa9\xa6\xce\xfa\x02Jj\x88u\x9e\x1b\xc4\xd88]\xc5\xc1\xb5Z62\xa6\xfe\xac`\xe5\x95\x8a\x8c\xa9\x11\x85\xe4\xb9+e\xd2@JC\x8d\x10\xe6L^\x1a\x16\x89\x82{\x0c\x13\x12\xad\xde~WG\xecW\xfa\xe9ED\xca\xd5\xad#\xb4\x0byA_ha\x0c\t\xce:KL.\xff\xe9\x94\xe0h\x94\x19\x9c\x04o\xcb\xe2\x10\x17\xe1\xc2D\xd15\x192\xa1\x01[J\xa9\xae\x1a\x98\x1e\x1d\xbf\x91\xca=k\x81\xc1\xfbM\xa4~\x940\x19\x97\x81\x96y\x17\x86)\xac!\x1e\xace\x08!\xe1\xf8\xf1a\xcf\xdb\x86\xe42\xf0w)\xc4\xaf\x83\x99]~R4`\x1f\xba\xaa\x9c\xe2\x85\x05%\x8ah\x1d\xe9\x8a\x999\xaf\xe1[U\x1c8\t\x16\xec4\x91S\xc7\x98,\xd7\x8dM\n+\xcez\xe0\xf3\xfd\x88\xddt\xeb\xb5o\xc5\xd9i\x80u\n\xae\xd0\xc1\xcc\x01\xa2\x13\x02D7J\x88I\x8e\xf5*\xf5a\xe7\xb2\x13\x01\xc7\x14\x0bl\x97\xeaF\x86V\xd8\xb3Y\xc63\xf3\xd9\xc2\xb25\xd3\xf6kP\x13\x05X\x87\x91PZ\xd5\x1c\xb6\xa6\x05\xb6CV\x83\x91\xe6\x9b\x0c\xe1\x14\x98\xc0gd\xf0$JJe\x0b\xd3\x83\xc4\xb5-)\x8bh\x860\xb2\x87\xdfLI\xd5U\xe0\x99\x02\x1b\t\xb6e\x0bK\xee&gt;o`p\x8b\xb6\x13`\xc5ta\x97$U\xf6\x9c\xbc\xda\x12\xb3[\xd1\xa6\xcc\x98 \x18\xb1\x19\xc2\xe9_\xe1-\x1a\x8c\x06\xd3\x0c\x1c\xa5,)f\x89(\xb2-\xc9\xd6\xca\xd8X\xc7.K*,\xaa`\xad[\xe4\xf2z\xb6\xb0L\xc1\x05p\xd7:\xdd%\x82%\x0f[2=k\x93L\xa2$+\xb6U6\t\xfa\xb1\x01`e(\n~\x0e\x01\xb4\xb0\x921\x8d#\xdfH\xfcj\xa8\xffp\xb7\xaf\xc6-\xa0\x06\x11K\xfd\x1a\xb6X}\xca\n\x1dz8K\xe2~\x9c%,\xbc\x16\xc2f\xc8\xd3\xe2\x18\xf7\xf2\xac\xc0\x16\xd9cm\xf2\xfc\xb1\x88\xb2\xc1\xb5\x9a\xf16\xed|f\xa0\xea\xbf\x836\x16\xce\x1b\xcc\xeb\xc2^\xc5\x80v\t\xb4\xa3\x18{9\xb6I\xf5\xf9bZ9\xae&amp;\xde\rZm\x06\xb2\x93\x14\x02\xc4(\xcb\x10\xb3\xb0\xfa\x97\xf7\xd6V\x9d\x8c\'x4\xcf\x98\x9b\xd2&gt;\xd5&amp;6\x0b\x85\x17\x1bu\xeb\x90\xee\x82\xdf\xf0\x19\x12\x9b\xcf\xe0\x80\xd8&amp;F:\xabKs\x8b\xbbk\xe8Z3\xcbOCN\xa2AA\x15\x96\xc5\x03\x81&amp;\x8e\x87\x96D\xf1_/_\xd1\xb8y\xff\xc9\x93\'\xf7\xef?\xf8\xfe\xdf?\xbez\xf9\xf3QQRL\xd2\xdb\xe2\xb3\xba\x14\x9f\x0b/q\xf6\x08#-\xa5\x8bn+.\xc8\xe0!y:\xcb\xe02\x887\x872\xe8\xea?|\x02\xd7"\x8e\xcdj7\x9c\xd3qG\xca\x8cD\x9e\xf3Y\x87\t\xb6U\x80\xaa\xa0\x0f\x11c\x1cb\x13\xd2\xc8\x7f\x1f\xbc)\x87T=M\x83*\xd9\xc0/\xb9\xe5?\xdc\x7fp\xefG\xd0C"\xa1\xd9\x1a1\x81\x18\x9ci\x92\xea\xb9*\x90\xf9\x9b\x10A\x0by\xde]\xd9\xa3\x9e\x06W\xcc`/\x18\xe0\xabL\x12\xe3\x00-\xb7\xd2x\xcas\x1d\x9dW\x85Iq{cZ\x9e\x10\x1c\nC\x92\xc8\xba\xa2\xba\xca$8\xe0\t\xf9\xc2\xb3_\xe3\xe5w\xa4\xc5\x8b7\xd4\x80\xf7\xe8\xfaOp\x902!\x8e\xd8\x11;\xe8\xea;y\x1d79\xad\x82\x1aMqW\x07\xca\xfb6\x13\xac\x7f\xc0A\xc7\x00V\xbf\x16E+#\x9e\xa04\xcd\xa3\t\xb1\xae\xf08\x83\xa7\x85\xa2`*E\x81\xf7s\x88\xeb\xcfr2,J\xd4`&gt;\xf8\xf6\xb0~\t\xe5A\xce&lt;% g\xbe\xa2\x98\xcdX\xb2\xccN\x9f\xe3[\x08\xdcp\x1e\xf1\xdfd\xacn\xd1\xf6\x85\xcb\xc0\xf85\xec5i\xa2"\x08\xe9\x956D\x12p\xb0\xc4\xd6 \xd4TR\xa7\xbe\x06B\xb8A\x1c\xfa}k\xed[\xe5;\x8d\xba*H%\x93\x90+\xd9\x1d\xc9\xa5\xb6\x95J\x91HCz/1\xb8@Iud\x9c\xbc\xf9#m\xe2\xc0\x8d\xbbQ\xc4\xaf\xcaU\x90\xd4\x96!!\x08@\xea\xc0\xdcW9\x9e\x8a\x0c|\x01`\x85\xb7\xfd\xcf\xb3\x87\x95\xfb\x94\xd5\xad\x11\xc6\xe5D\xee0\xbd\xd9l\xb80z8X\xc5\x1e#\x86vx\xe0\xc7\x19\xc5\xfe\xa7 \x14\xd1\xb0\x99\xb14s\t\xb9+\x9c\x94\xe7\x05G\xaf\xd2\xaf\xe5\xcf`&lt;f\xd7/\xe7\x03\x01\xd1\x9d\xd8\x81\xf8\xf3\x9c\xeca=\xd7DA\x08\xacjPr,\xee\x10hg\x1eD5\xd7(\x81r\xc9\xc6\xe3S9D\x1d\xc8\xea\x90\xb690P\xe3\x95\xd7\xd8q\xb9\xa7\x00\xa1R\x89\x91Bz]\x1c\xccu\x1e\xd8\xa7\xa8}\xfcn\xf6\xd6\xcay\\4D\x0cF\x1f\xcf\xb7\x19\x15\xcb\xc0\xb5\x98\x96\xa6\x10|\x17\xa4&gt;\x0e\x08\x13Y\x14u\x0f\x82)\x841\x0c\xe1D\xe3\x17\x03FK\x0b\xaa\x19\xa9\x80=\nf1&gt;\xeeD%\xbd\x0c\x13\t\xc3\x96\xeb\xc1\xdd\xecQ\xe5\x94\xff\x04\xfay\xaaC\xcb\xda\x17\xd7"D2\xde\x18\xf7\t4@2[T\x98f1\xd4\xf5\x19\xdc[\xabWa\xf2+\x90\xdb\xff\xddXP\r\xab\xee\xd6e\xf6\x12\xb0\xea\x12\xcf-Z\xb0L{H\x97g^\x7f\x00\xac\xdc\xdb+\xd8R\x87\x84d\x12\xe9&lt;\xc9&amp;\x1b\x9dG\xe0+\x8eB*\rW\xecP6\xbd\xf4\x03&lt;\xe2:\xe9)\xb2\x02o\x15R\xea7i\\\xd3\x17\x820\xcf\xf7!\xfd\x90\xc9\xd8\rt\xd4u\xe2\xf1\xbeX\xa0\xae\x9c\xdc\xdf8\xd8\xdcg\x17L\x0b,\xf2\xf4\xbabH`\xb9\x9a\xd0|\xfe\x92&amp;D\x18\x13\x95X_d\xd5\x1e\xa3sj\x83\x8c\xb9\xc7\xfa\xb6b\xcd\xa1\xf0MK\x95\xa6\xd6\x82\xc9\x197\xeb\xec\xb1\x80|\xd1n\xd6?R\x9fGc\xfb\xa3\xc7\xbbwa\xed&gt;~\x98\x92\x179\xef\x81\xcb\xbd\x9b(n\x84OMI\x03%\xea\xf8bGC\x83\xbe\x0f3c\xc0\xd3lVM2z\x8a\x9aq\x8c\xc5\xeetb{\xa9\x94E\x0e\xdb\r;\xbb\x0e\x92\xe8\xba\xc0_\xecM\xc0^\xbe\xe6rU\x04\xee&gt;\xbd]Q\x9b\x0c^\xde\xd8\xb8\x1cLV\xdd\xda\xb9\xf3l\xf7\xe1\xfb6\xcb}\\\x15\x82\xfb\xa7\xf5\x0cH\xd5{\xa3rF,/\x01a\x1c\xcan\x1e\xe2k:\xb2`#\xa4\x1a`u\xf0h92Z\xa1C~\xa9\x95\xf7\x0cJ\x86\xc0\xa2\x96w\xd0R\x96s\x07\x82\xf7\xf3\xdb\xb1\xe0\xf4wRj\xa4\xd9@\xe73\xf2{FB\x8e\x9d\xa7w\x1f\x96\x97\xef\xc3Vn\x0f\xeb\xe8$_\xaflL\xa8\x8e\xc1\t\x0b2\xce_\x86\x1f\xff\x9c\x15\xaa\x8f&gt;\xe78\x1d_\r::\xca\x1dIT\x0by\xe3\xa2_\xaf)\xe9u-s\x9d6,\xb9\x1c\x1a\xab\x17\xd2\x9d\xf0\xed\xd7wn]\x9fU\x88\xe1\xbd\x9e0q\x95\xb5\xd6\x03\xb4Gi\x02R\xcd\xb5\xa3\x16\x8e\xbc\xe2\xd4\xd1\xcazJ\xd3|\xb3\r\xe36\x9a\xbae\xd9F\xff\xf4\x10|\xbe[\xc4x(O7\xa1\x9cB\xce\xd9|\x87p\xbaO^\xd3k\x12\xa2\x81\xf4\x9e\xd6\\\xa1\x83\xe7\x9f\x9ch\xb7\x90_Wd \xc5\xa4\xe2\xa9\xc4\xad\x9dg\xbb\x8f\xf6\xae"\xf5\xd4\xba\xc0\x80\xbb\xd58\xd6Ha\xf9!1\xa5\x83\x8d_}\x94\xe5\xfa\x92v\x95\xda\t\x98\x8b\x8d\xd9f\xdd\xd6S\x81\xb3\x97+\xc5\xca\xeb\x85\x02\xb7J\x18C\xaf\xcf\xab\xe7\xa8v\xcc\x90\x9db\xbc5\xccZw\x9e&gt;\x7fMo\xc2S\xfdF\xd9\x95\x1e\xd2\xc2\xb2\xd5\xe2D\x01b\xa3\xdbX\x9a\xa7}\xad\xac\xbb\xc2\x7f\xfa\x18b\\\'h\x92jV\xef\x15\xc7\xad\xd63D1\x96\x9d\xd6\x00_\x1c\x9921\xcch\xbb\x1b^}5S\xcel\x16\xfdN\xa1\xa3\xbf}\xa3\xdf\xf1\xd3\xce\xed\x9d\xfa\x80\xd9L\xcc\xb6\x81\x93\xe3\x11\xa3\x17\x15\x9d\xc4X\xa9\x85\xb7;\x90}\x0f\xfd\x0bx*\xdf\x84\x190\xb2g+2\xd9\xa4\x90\xb1\x16k\xaa\xc5\xea\x06\x1a\x97\x8cQ\xd8\xafu\xec\xf7\xe5\xabt\xfe\xb0\x8e+\x1c\x17\xb1\x1c\x88\xd3A\xe3\x8a\xaa\xc4\xea\xfc\x1c\x81\x10O\xa4\x11\xae^L5\x01\xf9\x0f\x18\x8f\xfd\'\xf0\xb5&gt;\x16\xc0\xa6\xbe#\xda$\xec\x92\x1f/\xd9\xab)\x15\xac\x89\xd8T\x0b\xb8\xfb\xbb\x83s\xbfy\x8e\x18\x17\xb7\xda\x91\xbe\xa1\t\xbc/\xb0\xb4\xd7\xa2\x16\xac5U!\x7f\xd9\xb1\x86\xc23\x98\tP%\xf6\xb7\x0f\x99\x96\xfaV\x8b\xb8&lt;?$\xbdA\r7A\xda}:\xee\xff}\xa9\xb0W\x14\xe9\xc8b\xed\tT\x02\x16\xdb_\x1aI\x1f\x9fit\xbc"/O(\x1d\xc5\x8c9\xff\x9c\xfe\x9d\xc6+\xcfj\xd8\x0ekQ\x10\xd8g\x95\xc6\xed\xbf|\xd0\x04\xa5:\x9f\x01\x9bFn\xb1\xb1Ra\x7f\r\xaeh&amp;2\x0c0/&amp;t\x9c\xe0^l\x8b\x10\xb0\x99ao\x84\x0b\x13R9]\xea\xb6r\xbc\xaf\xcc(1d\xb4V\xaf\xfd\xe5?\xdbh\xa3.B\xb6*\x04\xa4\xf9\xfa\xc3&amp;\x17\x0f\xd2 C\x07\xad\x80m\xd8_\xee\xca\xc7\xae\x80\xb5\xec\xc5\x1b5\xea\x00\xf3d|\xa2\xd8\x92\x1ex3\xb9nz\xff\xd7\xce\x9555\x91E\xe1P\x04\xd9\x04Qj^\x94\'\x1c\xcb\xc2\xf2\x81*_\xd3\xd5\xdd\xb7\xab\xb7\xd0!]Y\nBV2\xa4\x02$\x81\x84EH\xa4"\x88\x10B!`\xc0\xb0(\xb2\x08\xa2,J\xb1\xc8\xe8 \xc8?\x9b{o\x82\x04\xb0fF\xb6\x99\x879\x8fT\xd1}r\xef\xb9\xe7|\xe7\xdc\xef\xebg\x0e\xab\x86\x10\xbe\x8dWBo\xcbj\xc2\xf4I\r\x90y\x0f6*\x10\x96\x13\xd6\x9fdpe+Qg\xd6#\xab\xf8\x10s\xe2\xa9jz\x13\xad\xff$\xb53\xde\x1e\x01F\x98}\r\xe1\xaa`w\xac{f0\xdcD\xd0\x0c0t\xcc\xcca\xb2\xbf\xfd\xad\xf8\x03e\x92\xf0\x156\x0b\xb3\xe0\x9f\x16\xe9#\xe0\x19\x05\xa8\x7f\x80$\xb5+4H}&amp;\x1a\x96\xb1h\xack\x84Q\xab\x93\x16\xbfF\xcdV\xc0\x00QM\xb0\x0c\xe2\x03FXG\xb0\xfe\x8bNV\x91|\xc5R\xa7\x00\xa3\xd2\xfc\xc1\x9c\xfa\x08 L\xe8U\xd4\xb0\x1fv\x16\xf7\x7f\x9e\xd5\x8ff\xce\xac\x0f\x16\x08{[\xea/\x066\x88\x01\xe9M\x16\xf3o\xd1\x91\xe3\xe5\x9d\xf7\x9b\xfd\xbe\xba\xb0\xcb\xe1\xe8|\x18\x0c\xd4\xbf\xae\xc0\xa3\n\xd2\xf3\xa9\r\xb3#|\x03\xda\xc9\xee\x14\x9d\x19\xa8\xb3\xebTZ\x1f\xfb\xf7\x03\x91\x1f\x96 \xac\x08\xd9\x821\xb3\xd0y\x18\xab\xe1\x1a\x8f\xbd\x81a6l\xe8\xc6:\xba\xec\xa5\xc8\xef\xc3\xbf\xf2\xf2r\xea\x80h s\xfb\xb5/\x134u\xb7\x1d\xe2\x8e\xcaC\xfa\x8b\xc6\xbf\x00O\xf8\x14Z\xbe{\xa7R\x1aa\xf5S\x0f|\xd5\x90\xeb`\x0f\xe8^\xd8"\xf3+l\x7f\x1d\\\xcbG\x1f\x19W\x7f\xd7\x8eN\x96\x8ff\x07I\xb6\x7f\xea6%\x87\xc1jtO\x041e\xd2-@\xb8^C\xaff\x9b`0\xdc9\x9d0\xa3\x18\xe2?\xc1\xf4\x1c\xfe\xd8i[\xd2-7\x1ee/\xd3\x9f\x83p\x7fV\xa2\x88\xf8c\xf3mt\xbd\xd2\xa3\x8e\x1e\x9aN\xae\x18\xed\x89G\xcd\x87\xa7W\x1dE\x1do\x993yp\x04[/L\x1aCh\xb1\xd3N)\xcb\xc8D5H\xf4/@4\xd5\x9b\xf4\xcbV\x89G\xd9b]?\x8c\xb7v\xe7\xf7\xe4mz\xd9:\x11{\x1c\x9bhm1#\xa2&gt;\xdbt\x98\xeaDX\xf3\xc9\xa1\x83\xab:S\r\xaf"G;\x11\xe5\xa9XqJ\xcb*B\xcb\xd12,\x93\xf2\xbc\x0b\xff\\a\x13\xee@\xf5C\xd65%\xba\xdb\x1e7`"\x96\xcf\x057D\xd4\xd0F\x04\xf3\x00\xc2\x16\xc4\xea;\xffa\x88\xdb\xb6z\xfeH\x92~"\xaei\x9e\xa4\x86QE\x05%\x8aS[\xc6\x1d#|^\xdd0L3}\x1f\xf0\r\xb1\xe5QMc\x15K4-\xd7n\xbd\xf1\x85i\xc0&lt;\x99\xe3\xc6\t\xb6u#^\xa7&amp;\x80\xb9{\xeb\x8d\x8d\x15M\xc3\x9c35\xa7\x0bb\xb2\xeet\xf6q$\xf5\xa5\x8d0\x12\xe0LD\xfe\xfc&lt;\xe8\x0c\xf3r\x00\xee\xc3p;\x8eZ\xb5 `\x1aP"VVz+)\xca\xc9\x86\xb4$U\xe9$\xdckZ\x99\x1f\t\x1bB\x94\xf4\x02\x9c\xcc\xa2b\xd5+\x19\xf6\x9auH#Tz6\xd9\xc3\x8d\xeb\x88\xac\xfdd\x17\xfa\xe5\xed\xb7\x1c{\x17\x10\xde\xdb\xc7x\xce?\xa8_h_\xf7\xd8\x1d\xab\xda\x17msd(\xce\xedq\xa3\xc2\t\xbf\xe87\xcd\xb0b\x8e|D\xeb\xa6&lt;\xab:\xea\xc6u\xc4\xc0u\xa3\x98\xe0\xc7\x1c\xc7\xd5\xb7-M&gt;\xaaO\xf3\x94_\xa5#{Rw\xac&gt;L\xaf\x93KK{\x8e}\xae\xe5x\xc1\xb1-q2\xc9\xef\xf9\x11\x94S\x9e]\xae\x98\x83\xf8\xe9\xeco\x10"\x93\xfcB\xeb\xf1\xba+\xfeN\x854\x1b\xba\x06\xc0\xd4\x90Oi\x01\xcc\xacy\xdb\xdbLl#\xd7\xaf&gt;\xeaUt\x11&amp;\\n\x1c_\x8a(\xcfCIv\xfb\xbe\x01m\xd8\xdbfIEr\xf5\x8e\xa3\xb5\x97\x19\xe2&gt;\xb3A\xfd\xb4\xe9[5\xb9\x01\xd4.\x8f\xb6\xeb\t\xe27H\x8dG\x08w\x8eZ=\xa9\xa2\xbc\x01\xfc\xcfE\xe7\xa3o\xcbUb\xe6w\xdb.\x0f\xcb\xcb\xf0\xbaE\x93\x126a\xbd\x17.@\x8f\xd6\xeb\xf1\x92\rj\xc2\xe6\x0bx\x06 \x92m\xd1NZ\xbe#\x0f\x8d\xe51&lt;\xcb*y\xb7\n\xbbZp^\xba\xce\xac\xab\xb8?7m\xea\xcbII\x1a\x9a9d\x8f\x82XYM\x84`\xd4\xdd\xab\x13\xf3\xd43\xc4M7\xf6\x96\xc5\xd0\x0c][\xc5&amp;\x95\x87(\xa8\x9f\x00\x00\x026IDAT\x1at\xf0\xb9\x043\xb2\xbe\xd6D#\xc1\xc1\xb5\xf3\xd3Zg\xdfL\xc7}p\xb4O\x8bH\xfb{\x13\x16\x90(/`\x89\x8c\xd3 :\x15%\x1c^\x8f\x7ff&lt;H3\xd3\x92\x13\xb1V\xe1\xdf\xf1\xf1\xb3\xcc\xcc#\x02!\xbf\x16\xb5b\xe5d\xa1\xe2&lt;\xedn\x1e\xee\xd0\xcd\x8f\xf6\xd1\x94\x92\x1f\t80&gt;\xa7\x17\xa5\x87\x00\xc4\xb85g\x97v\x99pj\x17\x9dS\xfawn\x1a"\xa2\x17\xadjBC8\x02\xbb\x14Be\xfb\r\tn\xaa\xf2\xb6\xe2|-\xf7*\x1a-\x8a\xb4;\x84\xa6\xba&lt;\xef]\x0e\x9a\x19\x9a1Ga\x14w\xccq\x92\xbe\xd7\r\x1be\xbd\xa4\x9d\xf4\xe1\x85\xd5\xd0\xb49\x08\x81\x0f\x85\xc8\xe9\x9b~\x83\x86\x10\x19\xb6\xe4\xfc\xe5\xc2\x99\xbf\xe4%\xeeZ:7\xab\xd1\xb8\x99\x94\xecc\xb1$P\x07\x83N4\xdea\xd9o\xeb\x13\x89\xf2\xc7\x84\x9dc\xef\xb4TB\xfb\x99$\xe7\xdey\xa0\xb8\x08\xcb\xb8\x97\x9ex\xbe;\xbe\x80\xa7\x0f\xf0\x00\x8cl\x07\x06\xddpe\x18\x1a\x1b`"\xac\xc1=\xf8v{7\x89\x0f\xb9\xd1\xa7n|@\x98\xb4\x8bSV\xe7\x14\t\x98\xb6#X&gt;76\xc3\xce]U\xae\xa3dJ\xaa\x1e\xea\xda\x0eM\xc5\x1b\xe2[\xa1\xed\xb9\xe7\xf62\x1e\xb3\xc1\xc9r]sc\xb0\x03W!\x96-\xc8W\\\x9ce\x16*E\xa0F\xe5\xdbh\x83\xbbD\x95#K\xb0\xd0%\x88R%\x89:l\x17\xf7\x1b\x9d\x0e\xd6\x88\x11)\xb8\x95\xa3\xb8X\xcb,,\xb5\x1eP\xf1\xc5\xf6\x86\x9e\x01\x8f.\x95)\x9c\xb8\xcf\xd7\xbf\x9a\x8d\xb7w\x1c\xe4S\xc3\xd5\x8bv\n;\xf6\xa0 =\x82_\xa9\x86hL\xf4\xfb\x02\xa1O\xd3#\x93\xde\n}\xc5\xce\xe4\xc8|c(\xe0\x0b\xb3b\xf2\xd3\x0b\x06\xe3\xf5\x92\xdb\x8aK\xb2\xdc+\xca\x94\xa6\x96\x16\x04Q0h@\x13\xb0Z\x19\x1a\x18\x05\xe1\x80\xe0\xcf\xa6\xdf*\xceP\\\xa2e\xe6\xffZ\x9a~\xb2\xdfN\xad\xcft\xda\xad+\xb9\x8a\xcb\xb7\x8c\xc2\x12\xa5\x91e\x7f\xe0\x9cA\x93Vt\xedn\x96\xe2_\xb3\xac\x9c\xe2k\x05\xca\xbc\xf4\x88\x95F\xb7\xbc\x02\x9b\x9eWZp\xf3/\xbe\x18s\xa9[\x9a\x9d\x91\x7f\x03Y~F\xf6\x7f\xf3+\xad\xff\xdb\xe5\xdb\x9f\x87Ii*\xde\xc4\xf2\xcb\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -502,6 +532,14 @@
       <c r="D4" t="n">
         <v>58766</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xf7PLTEGpL\xff\x00\x00\xff\x04\x04\xed\n\n\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x9a\x03\x03\xff\x01\x01\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xfb\x00\x00\x0c\x0c\x0c\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x01\x01\x02\x02\x02\xff\x01\x01\xff\x00\x00\xff\x02\x02\xf7\x03\x03\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x03\x03\x03\xff\x00\x00\xff\x00\x00\xff\x05\x05\xff\x00\x00\xff\x01\x01\xff\x00\x00\xff\x02\x02\x00\x00\x00\xff\x03\x03\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\x03\x03\x03\xff\x05\x05\xff\x00\x00\x00\x02\x02\xff\x00\x00\x02\x02\x02\xff\x00\x00OOO\x1f\'\'\xff\x00\x00WWW\xff\xa0\xa0\x84\x84\x84jjjrrr\xff}}\x00\x00\x00\x05\x05\x05???\xff\x92\x92111xxxk\x00\x00\xff\x83\x83\'//\xff\xb0\xb0RUU\x98\x98\x98\x03\x03\x03\xff66sss\xff\xa5\xa5\xffll\x84\x84\x84___AAA\x0b\x16\x16&amp;&amp;&amp;\xff\x1a\x1aM__\x00\x00\x00000\xcf\x1a\x1a\xa0\x00\x00\xffbb\xffTT\xff99\xff\xc8\xc8\xffff\xff\x83\x83\xb6\x00\x00\x00\x00\x00\xe2\x00\x00\xff\x00\x00\x00\x00\x00\xff\xff\xff\xff\x02\x02\xf1\xf1\xf1\xd9\xd9\xd9\xa0\xa0\xa0\xfd\xfe\xfe\xf8\xf8\xf8\xff44\xe8\xe8\xe8\xd4\xd3\xd3\xab\xab\xab\xe4\xe4\xe4LLL\xff\xbd\xbd\xa7\xa7\xa7\xb9\xb9\xb9\xd0\xd0\xd0\xd6\xd6\xd6\xe6\xe6\xe6lll\xea\xea\xea\xaf\xaf\xaf\x8c\x8c\x8c\xff\x06\x06\xcd\xce\xce\xff\xc8\xc8\xf3\xf3\xf3\x88\x88\x88\xb6\xb6\xb6\x85\x85\x85\xff\x84\x84\xf5\xf5\xf5\xee\xee\xee\xdd\xdd\xdd\xffAAGGG\xec\xec\xec\xff||\xfa\xf9\xf9\xff\xb7\xb7\x80\x80\x80%%%}}}\xe1\xe1\xe1^^^\x1d\x1d\x1dggg555\xa4\xa4\xa4QQQ\xffff\xdb\xdb\xdbZZZ\xc6\xc6\xc6sssVVV\xff\x9a\x9a\xc0\xc0\xc0\x98\x98\x98\xdf\xdf\xdf\xff\x8e\x8eppp\x95\x95\x95\xb3\xb3\xb3+++&lt;&lt;&lt;\x9b\x9b\x9b\xff\xda\xda\xbd\xbd\xbd\xca\xca\xcabcc\x90\x90\x90www\x92\x93\x93\xfb\xfb\xfb\xffYY\xfc\xfc\xfc\xff\xd0\xd0\xff\xa1\xa1\xff::\xc3\xc3\xc3\x11\x11\x11\xffkk\xffJJ\xff\xa7\xa7\t\x08\x08\xff\xf9\xf9999\xff\x16\x16\xff\xd5\xd5zzz\xff\xc3\xc3\x9d\x9e\x9e///\xff\xe9\xe9BCC\xff\xe6\xe6\xff\x0f\x0f\x04\x04\x04\xff\xad\xad@@@\xff\xf1\xf1\xff\xe0\xe0\xfftt\xe3\xe3\xe3\xff..\xfe\x1f\x1f\xff\xf5\xf5\xff\xed\xed\xff((\xffRR\xcc\xcc\xccSSS\xff__\xff\x91\x91\xc8\xc8\xc8\xa2\xb7\xb7\xc6\x03\x03\xff\x97\x97\xff\xfe\xfe\xb9\xd5\xd5\xf0\x00\x00}\x03\x03\xcf\xe5\xe5\xff\x94\x94\xe1\x07\x07\xaf\xc7\xc7\xda\xf6\xf69NN\xa2\x8b\x8b\xbbOOFqq\xb1\x00\x00w\x9c\x9cW&lt;&lt;\xec\xff\xff1\t\t\x16AA\xdeWW\xc7\x91\x91\xb3\x95\x95\x88^^\xd5\xaa\xaaT\x80\x80\x00))\xea&lt;&lt;O\x8f\x8f\xa8\x99\x99\x90vv\xe2O\xc1\x15\x00\x00\x00ftRNS\x00\xee\x08\x03O\xf3\xde\xd6\x06&amp;\xfd\xe4\x1b \xf9\xe9\x16\x03wG1Ygc\xa0`\x10\r\x7f?-3\x10\x99\xbeq\xce\x90\xb1\xa7 \x94\xc4\x9b9\x86\xb6T\xac\x86l\xc8v&lt;D\xba\xe0\x97\x8c\xcd\xea\xec\xea\xf0\xd2\xb2\xc8\xcd\xe2{\xe4\xc8\xe5\xdc\xf0\xa1\xed\xd0\xeb\xc0\xce\xb2\xd3\xf7\xb6\xb5\xea\xda\xe5\xef\xcc\xf7\xe8\x92\x8b\xd2\xf1\xc6\xbd\x82\xe0\x9c\xf5\xbc\x86\\\x00\x00\x1dcIDATx\xda\xcc\x98kP\x93\xd9\x19\xc7\xc3-\x84\x8b\x82\xc8"\xa8\xa0\x80 \x97\x82\xba\x088u\xd4i\x9d\xee\xd6q\xeb\xb7v\xdb\xee\xb6\xfd\xd0\x99s^r#7H\x02\x06B\x08$\x81@\x12 \\\xe4\x1e\x08\xf7\xebr\xbf\xb8 HS\x17\x17\x11\xc7\n*\xbb\xea\xb8\xb3u\xd5n?\xf52\xfd\xd2\xf3&amp;!\x89\xf8\x82\x89\xc6\x19\x9ea\x86\x10\xde\xf7\x9c\xdf\xfb\x9c\xff\xf3\x7f\xce{H$\xa7\x04%\xec`\x04\xd9\')\xdc}?i\x07\x85W\xb8\x070E\xe2\xde\x9dC\x95\xec\t,\xe1\x12\xb4cr\xe57k\xc5\x02\xbb?\xd8\x19Tn\x11%\x858\x8f\x87\x8b9_\xbbv\x04V\xc8\xdf\xf2\xae\x00\xe0\x97\xe0\xbe72\xc9\xc8\x15\xbe#\x92\x95\xda\xf4\x14\xe4\xfa\x85\xe2\x9f}\x13\x8b\xc6\x00\xf0\xf4\xda\x01X\x87\xc8\x8bHZfA\xf9\xffrz\x87\xa8\xcb\xfd\xd2(\x00dW\xf3_\x7fh\x1a\x02 r\x07`}0\xd4\x04@\xc4\x06V\xe4}\xa4\xb3\x80\x9d\x90\xad)\xdbl\xfd\xf1\x9b\xb5\x9d\x91-\xa4-T}\xee;M[\x94\x88\xd1B\x90F\x0e\xc3?\xef?z\x1fY\x18\xf9\xbdW\xa2=\x9d7\xe8J^:\x00&gt;\x07\x93\x7f\x12\x92:\x9b\x0erA\xb0\x93\x06\xde*\x0e\x04\xa7\xba\xdaa\\q\xadF\x97\xf7\xf3\xdbmry;\x92\xe5\x9a\x1a|\xe0m\xa9\xc2\xe2\x00\x88\xb2\xab\'\xae8\xda\x13\xa3\x00\x88\x0b{\xcb\x12#\xe3\x93\xd8\xb3!\x08K\xf5\xb6Py\x86\xd8\xb3\xee\xbb[\xd3\x01\xd9\xfdmzJ\xa4\xa9\xf3\xba\x84\xbeY\'a\x01\x1b\xdb-\xe0\x1d\x1b\xf6\xe6\xd5\tuiZBM\xca%\xd2\xcdaY\x85oL\xe4\xe3\xbb=\x93{0\xd9\xc5\xc3\x92\xad4\x0f?r\xf0\xde\xed\x05\xed\xebs\xeb/\xad\xa6\xa6\xee\xa0\xc0\xfc\x8f[\xc5\x12\xb1\x8d\xec\xbd\x02lv\x80\xd6\xf0\x0c\xd8F\xf6\xae\x11E\xd7\x9a\xcc\x17\x1e\xf7w\x84jW\xa2\xed$Q[\xe5\xda+\xc1\xe7\xeeX:a\\J\xd8\n\xcc-\n\xe4M\x83\xb4\x8dM\xb6\x03\x9b3\xaf\x88W\x9e\xdd;hKgXZ|\xdaD\x14\xa3\xadw\xe3\xb6x\x98 \xef\xf9\x0c\x9b\xc1#\xec\xf6^\xaf\xa4Mk\xb2\x9bX\xf6\x14OU^\xd1X\x11a\x8c\xdd\xf0\xa4\x10\xcb}\xb7\xaa\xfb\xb6\xed\xe0Ivr\xedJzM+dB\xd9S\x8e&lt;-\x04[\xc6\x11B,_r\xeb_\'_\xbd0\xc9\xaeu\xf4M%\x98#\xd1\x9f\x10\xabd\xd2A\xac\xfd\x89C\xdd%\xa8?\xbd\x12\xa9\xbev\xd4`4\xe1$D\xb2\xa7\x1cY\xc9u\x0c\xcb-j\xa5\xbb\x10\xbcvS\xf4\x1b\xebq\x7f4(\xba\xbbQ\'i6\xb7\x12\xc8\x9eBN\xbf\xb2EL\xae\xcd\x92\t\xb0\x82f\xbbG\x89\x06\x8f~S\xe7\xf6M\x02\xad\xf37\xcc\xf7\xa4\xa5\xdf\xd8V\xf6QS\xad\xf7[\t\xe3i\xc9J\x14\x91\xdcGF\xcc\xc3\xddH\xb7\xc5Jz\xe32\xfa&amp;\xde\xce\xcb\xd8x\x1dM\x1f\xb2r\x11\xbc\xcfP\xacMgsx\x04\xbc\x9e,/\xcf\xd1\xee)3\xd5P\xba\xadr\xed\x10\xd7\x81D\x90\x97\xb1\x91\xaf\xa1\x12\xebC%\x12d:4\x8e\x98*.\x94H\xee\xb7\x10\x95QXi%C\xb6Tv\xb5 \xd7h\x1b\xae\xc2i\xeb\xed\xb1D\xd5\x18\xe9i\xbc\xf0\x85v\xfd\xc9\x93\xf5\x7f\xbe0N\xea\x19IT\x85\xb1kKkf\xb9O\xdb\x1aK\xb4\xab\x9dm\xfa\xa8\r\xd7t\x86U\x9c\x84n\xef\x1b\x99\xea\x02\xd6\x9f?\xfc\xfbC\xf4\xf3|\x1d\xb8\xa4F\x12\xaeI\xd0\xda\xd2}\xb3\xd63l\x9e\x15\x1c\xb5\xbb]\x1f\x08F\\\x1be\xac\xb2\xb6\x8a-\xf6\x9d\xfb\x93\x83&gt;~)\xd3\xcb\xe5z\xd9\xcb\x8f\x83\x92\x89\xab\xca\xebR\xf7\xbcy\x98\x0c\x95\r\x95#\xbbT\xd7p#\x971M\xb3y\x19\x96j\x8e\xdd\xea\x86\x14\x9d\xbc\x92\xc5\xaaTV\x1f\xdb\xea\x8a\xd8\xd1\x11|\x184PF\x9e\xcd\x01O\xb8\xab#[\x08\xb7X+\xd7\xd4\x92%_\x9e\xaf\x9b\xea\x9e\xc0\x93\xf1\x17/\xfe\xbc\xcb\x88%\xa7_\xb8\x98\x12\x13\x18\x18\xf3\xfa\x80\x7f\xca(2\r\x97\xb14e#W\x077\x82\xaeQ\x1b\xeb\x98\x06&amp;\xef\xa8\xccR%oj_1)\xfb\xe2\xcf\xb5\x8b\xc5\r\x9a6\x13V\xbeNt\xf5\xa3O\xce\x9c?\x11\xb8y\r?\x1d\xc2\xa9r\x81\xea\xce\xa4U\xacQ\xae$\x07\xc35a\x83+\x17\x94|\xbbhZG\x9fC\xb6\x97\x04\xc6_\xf8\xa4\xb1\x81\x8a\xb1\xf35\x1d\xfd&amp;\xac\xae&gt;=\xac/\xa5\x96\x0b\xce\x9e\x08&lt;\xfc\xcaK\xae\x8f\xc9\xd8\x17\xbf\xb5i\x89\t\x0eS\xa1\xb4\x1fD\\i\xa6G,\xfc\x12\xd5\xce\xec\x18\xf0K\xb6\xfc\xfbp\xcc\xbeS=2j\xdd\xcc\x9c&gt;[D-(\xa0\xea\xb3\xb2\xf4\xd4\xfc\xc1a\xfe\\\xb6\xfazWv\xf6\xb9S\xf16)K\xf6\x03cHR\xd3_\xda\xb4\xc4\x83n\xa4\xb7\x89\x00o\x8b\xbeF\xef,\xdeR\x15\x02\xbf\r\x97\x8c9y:\xbbBN\x1d\xaf\xd1\xb5K\x15\xca\xf2\x96\xea\xd5j\x8d\xaeKK_\xadnY\x96\xb33\xe9\x05\x15\xe2a&amp;\xff\xcc/,\xfe\x15\xea\x07\nU\xb7\x16\xef\x8cZ7\x97o{\x80\xe2\x16\xe9m\xf1\x89y\xeckU\x1ap1\x9f#\x1f;\xdfN\xcbWKW\xd5\xc2R\xdax{\xc3\x04D\xf1\x154\x85\xa6\x8c_\xdf\x82\xf5\xeasz\x04\xf5\xc5\xbf&gt;fV\xff^\x17\x90\xa6\xfa\x1a\x9b\xb7RE\xba\x91\xde6&gt;\x04y\x19&amp;\xd9/bx\xfa=L\xaf\xa6)gi\x18\xa7J\x9fY\xbe\xdc&gt;\xd0\x81H:a\xa7\x82\x8f~7\x088&amp;\xb4\x99|\xfe\xb2P\x7f\xb3\xb8\x8c\xdd\x7fa\x9f\xe9\xb8\xc9\x03\x97\x02\xb6h\x91\xfb\x87\xefr\x06\x11\x84\xf2\x85oq\x87\xae\xa9\xae-\xa1\n\xc7\x13\x1fx\xe2\xa6X\xae\xaeTH\xb2rn\xc2\x05\x1e\x84\x12\x1a4`B\x08\'z\x19\xcc2\x9cN\x87\xbe,\xee\xca\x92\x8d\xd7\x08\x98\x97\xf3O\x18\x05\x91\x06\x8a\x96\xd0 C\xdb\xbf\x1e\xd8}^\xeb\x917\xbf\x06\xc0d\t\xb2\xd5\x91\xdb\xe08\x89r\xf2#Q\x9d\xba\x98^\xcaF\x04\x13PH\x83\x90}\xb9Q\xcb@X\x0525U\x00a\x07\x1bcUA\r\x84\x83\n\xb6\xba\xbf\x16q\xed!\x91\x8e\x82\xdb#\xc8F\xcd\xdbY\x8f\x10\xd2;\x86\xfb\x91oJV\x8c61;\xaf\x02&gt;\xee\xf1:\xd9=\x1e\x7f\xb9\xa5\x1a\xc2&gt;\xa1\x08*\x94\xc5\xbc{\x0c:\xc4\xb1\x96\xc5P\xc8\x9a\x80\x15\x12\xb6\xac\xb8\x92\xad\x86\xf0\xaa\x88+-\xd6\x97u\xfe,\x10IK5?\x8b\x17!\xae\xd5#\xee\xa4w\x0e\xdf\x90\xe0O=\xbc\xbd\x91(V\x9a&amp;\xc1\xe7/16\xe42z\x0c\xb0\xa6\x9e*\xad\x84\xfd\x0c\xe5e%\xc6\x87\x0c\x1a,\xc3$\xe5\x12Y&gt;\xcc\\\xee\xe4\x1a\xaec8\x16\xac\x10P\xd5eT\xc1o?\x07\x93M+h\x08oo\x0f\xcf\xa3!\xbe$g\x84\x1b\xc5\xff\x90{\xc0q\x1f\x90\xfb\xdf\'\xff\xc9\x12k\xcb\xe5s\x10\xf2e\x92a$\xa1U\x8cm(\xce\xaa50i\x90\xc5\x9a\xbb&gt;\x8e\xd5C\xaa\x10ryR\xa1vA\xd4\x92\xa9\x85m\xdc\xfc6\xb9\xec\xdf/\xa6r\x81\xcf\xf1\x00\xf7C\xfe\x147\x92S\xc3+\xe1\xb3\x7f&lt;,\xe8\xab\xe0f\xf1P\x1e\xeas\xe6\x98b\x08\xab\x94\xb4*\xc8Y\xae\xa4\xeb`&amp;\xca\x8fV\xc8\xe1\xc9\xda W\xa4\x14\xc16\xac\x96-\xae\x83\xd9Bz\xa3\x98\xf6|\xdd\xef\xa7\xef\xe9\x90p\xcf\xaf\xc4Y\xbcf\xa5\xa0\n\x89\xb9\x0fU\x9c\xb0\x14\x81H\xa9\x95\xd0P\x03-\xa1\xe1uu@.&amp;\xcf\x869X\x0eD\xcb\x0bkh\xb5\xab\xfa\xbe\xab\x7f~_\'\x96\'\xab1Q5\xd6\x83[\x00\xb5v\x01I\x1ec_\x85\x86\n\xe4\xa43uem\x9cvQ\xe6\xe0@c\'\xce\xa6\x93\x89!\xdf\xc0\xff\xa2\xa1\x9f\x8e\xbbX\xcbe\xd8\xd3{!\xe5\xfd\xe4*\xe5\x02U0\xc3m\x86\x06z\x0eTS\xc7\xd1|\x0fh\x88ib\x8e~O\x82Y\x82Z\xaf\x1b\x98\x80\x13U\x0bT1|\xc04\x98\xec_A\x1b`\x96\x9f\x8fy\x1fX\xc7~\xa3n\xee,\x17\xc0\xbar\x99D\x80Zs\xbb\x16jf\xe0\xcdLA)\xb6)d\xbdt\xe4\xfd\xed\xb2\xcc^\x86\xda\xec\xfa\xc2\xae.f\x0f\xee_\xce\xceU\xe0\xb9\xde\xbe\x85,\xae\x066rY\xeaf\xaa\x82)\xc3\xedT\xc4\xc5\x88b\xb8\x85\xfe\x15\xaaA\xecA\x87\x91\xaa\x06\xd6\x08\xd5\xea\xde3\xceO\x17\xe5\xf7T\x85\x96\xab\xac\x82&lt;\xd8\xb8\xdc\xa2\xa9kV\xea\x90\xad\x13C\xe1\xc1\xa8\x1d\x80\x9d\x15\x1a#\xd5uI&amp;\xec\xe3\x8a4\x86x\x8a\xb3\xb1\xf6I\xb1LQi6\x94J\n\xa0\x9eJ\x9bA}\xc7 \xc5\xb6\r\x8e)U\xda\x1e\x06\x8b\xab\x86m\x92\n\x0e=\xfe\xb0\x93\xb1\xe2\x97\x97\x8bYR\xf4\xe4\xc3\xc3]\xb0\x1fk\x870[\xb1\x99\xe3\x0b%\x8be+4v6\xa2\xaa\x10`\xb4\x8e~\xe4"\xbd\xcd\x83\x0c\xce\t\xe7R\xa5\xfcN\xdc \xa5\xe1kRv\x19\xe3kr\xb2Q\xca^Y\xb3\xef\x1f\xfd\xebYYe_\xdf\xdc`/\xc3\xcaU\x05\'\xd8\x0c\xa9\xa2\xac\x0e\x13\xc1F\xc5\x9cBr.\xd0\x99T\x87O\xeb\x8au\xcc|x\x9d5\x08\x8b\x05X\x0b\x84\x032\x9b,}\xff\xe8\xd9\x0f\xdf\x81\'fC\xcd1eL"\x1e0Lh`W\x1b\xe40\xb1\xd26\x089\xf5&lt;\xe6\xf8I\xa7\x1a)GX5\\\x0f\x07\x86\xb9\x8a\x86&gt;\xc8\xe7@\xad\xd2\x02\xf5\xa3\xe2\xe1\x0f\xeb\x8f\xefN\x97\xbc\x80u\xea\x9c\x82:4?\xfa\x96\xcbo\xc4\x8d\xe1\xc1\x1c\x0eJg\xb7\xe1\xbfj\xa5}\xa2\xd3NT\x17\xe5\x94\xbc\x99\xa7\xac\x80\xb4\xea\x05\xa1\\y\x0fo&lt;]f\x11\xfd\xf8\xe8\x7f\x9f}\x87\x9f\xed,\x16&gt;\x16pe\xc3L\xae\xa0\xb2\x1f+\xe7\xe0\xed\xa8\x82/\xcc*7\x98v\xd3\x0b&lt;\x1e\xda\x8fu\xceh\x9d\xe8\xf51g1\x11\x9f\r\xa5\xd8jAm5Ma\x80(%9L#\xd4\xb3\xf5\xc7\x85y#\xa3\xf8\x1b\xe9\xffY\xb7\xba\x177\xae+NC\x9a\x86\xa4\x10\x96.l\x1e\xda\xdaO!\x10\x8a1\x84bcZH\x82\xf3\xd4\x10p\xf3\xd2\xfe\x01:\x97\xd1\xccD3\x12\xa3\xd1h\xa4L5\x92%E\x8a\xac\x8f\xd5\x17\xfa\xaa\xa4JZ\xc9Zi\xa5*E\xc6\xd9.\xdej\xd9\xd8U\x1a\x130\xbbf\x1d\x12\xb3\xc4\x86\x94B\xf3\x05m\xe9C\xcf\x1di\xbd\x1f\xc9\xc3\xd2\xd5\xbcht\x99\xbd\xf3\xdbs\xcf\xf9\x9d\xdf9\xf7\xeaM\xe2\x17vd\x860\xde\x16\x82\xba\xe5\x14\x18R\x1d\x12\x0c\x13;c\xb1X\xd4j\x07\x14\xb7\xcb\xf1\xdb\xd9\x99ka]\t))$\x07\x8cz\xb8\x15\x83\x06\xcd&lt;q\x0f\xb7\x8b\xa0~\xff\xc1\x80\xe9\xf7\xb9\xcb&amp;\xd3\xcdo6Va5\xb6(\xfb\x90\x15|f\xe2\x0f\xf6b\rB|\x90\xb1\xf4\x1d+qn\x07\xf4\xa0&gt;\xc8\xcc*\x18\xe7N\xbf\x9cje\xcc\x98\x9b\x175&gt;\xd0\x18C\xd6\x83\tx\xf5\x8b{\xf6\x8f\xef\x9b.?\xbc\'\xe5Y\xe9\xc1CT\xc3\xff|$#|2\xb1\x0c)=\xa0\x9b\xa9I\xfc\x10\x96\x96\x19\x1fl\x06\x9d\x0e\xcf\xcb\xb32\xd7\x8bv_\x87\xef\x19\xef\x8b\xe7H\x16\xcb\xe6\x15\x80/\xea_\xdeG(W\xff1\x01\xf2\xf0w&amp;\xd3\xe7\xf7d\x87\xec\x8dB\xa9\x10\tH\x8b\xc6p\x06W\x1a\xb5\xcd\x9a\xa6p::\x99\xb8\xe5d~5#\x8e8\xfdR\xb5\xc2\x86KP\xb7\x04\x1a\xb1\x8d\x1a\xacx\xfau=\xf4\xafoL\xef\\\xbdsww\x82j\xa9\x7f\xd5d\xfa\xc3\x84.\x84j\xc4\x85\xba\x15\xaee\xebZa\x80\xe6*A\xc8L*\xf4\xb1\xa2\xc7]\xfa\xf5\x99\xd9\xc0\x9a\xff\x05\xe3\x96\nP\xe7\xac\x96\x81\x82\xce\xdc\xa6/\xf7\xc1\x7f\xbe2\xbdm\xba\xbb\xdb\x1bQ\x95\xb0\xc9!\xac\x0f-\x89\x9c\x9c\xb3\x06\x0b\xd4R6\xb7\x86\xdcU\xa0\xa4\xeb\xc5\xb4\x80\xcb\x1e\x8a\xda@v\xd9\x9c3r\xaey\x96\xab\r\xed`i@\xb2\xe5wAJ\xa5\xb0X\xf8\xfb\x83/1\xfc\xfeFH\x84]\r-\x93\xbfb\r\xb1jX\x0e\x9d\x10\xb6]U\xe2\x91\xed&gt;\x9d\xf2Hn3\x9b)\xb9\nALY\xe5\x86\xce\xbc:\x9bU\x9c\xcf\xf0q%\xbe\x14\xa6\x92\xaem\x87\xde$\xafl\xc3\xa7_\xd1\xde*\xe5s\xdb\x88{\xdf\xf4\xde_&gt;\xdb\xf3\xf8f[%\xaaT\xc4\xbbNxbZ\x9b\x99Dd\xb1\x08\x99\\\x91x\x17f\x03\xab\x99\xea%`\xc9_NC(\'A\xc1\x80\x15\xd0\x1c\xf74\xca\xa3\x7f\xfa\xf3\'\xdc\x83\xdd\x1b\xd7M\x1f]\xff\xe3\x7f\xddl\xa6\xe7LK~.\xe0F\xf1\xbcZ\xf2Ur\xf4a\x17\xb0\\=D3\xaaMq\x06\xe5\xf33\x91\x83\x17;I\xc6L]*P\xae*\xa55~\x92\x9b\xbd\x8c\xb6\xfb\xb9\xd1#\xbf\xf2\xee\x8d\xcb\xa67/\xbfwc\x9a\xb5\x1d\xc42B\x04\xf9V\x81\'\x8cL\x87\xac &amp;&amp;*\x07\x82.\xf7\xed\xd7g!\xbb\xe6.1\xba\x1fk\xf8\xa4\xe4HhQHMSa\xc1\x11\xfc\xb4|\xff\xed\xebF\xab\xe3\xee\x95\xab\x9f\x10.\xb15,\x97\xb5\x84\xd9\x1bB\xd9\xd3F\x89\xc8\x05E\xef\x80&gt;&lt;\x8e\x86{c\x9f]n@\x90\xc4Z\xaf\x9f\xd8Zs\xf3g\x16J\xdeN\xcbM\xfb\ri\x1a\xf6\xf5)\xacpW\xd0v?\xbe\xf2&gt;\x82\xfa\xf0\xdd\x0f\xd0F\xa3h)I\x0b\xb2&lt;f\xa6\xede\x8c\xc0D\x06C\xcf\xc8Qd\x05\xb6x\xd5C"^\xc8`H\xbev\xe6\xcc\xfc\x89\x90\xcd]tv\xbb\xfa\xba\xbe\x8e\xf3[\xae\xc1\x8ewJ\x0f\x94\x9e*\xb0\xc8|\xfd\xef\xebw\xde\xb9J8\x8f=\x1f\xdb/\x15\xc7.\x9e\xf0Zm\xc3\xd0\xa6\x89I\xdc.I\xe5\xde\xe2\xda-\xb0\xad\xbb\xdd\xeen\xd7y\xf1D\xd2\xe1\x15m\xc0\xf3|\xc4\xcf\x82\xc5\x01\xb0\xe5\xe9\x80yO\xd0\xe0wM\xfb\xec\xf2\xbb\x84\xab\x8a\x06\x02\xb0\xf9X\xd1%\xfa\xd6\x13\x84Y\x9e\x90\xfc\xe2\xa8\xa5\x91\t\xd1O/\xd6\x1f\xc1\t\x07[\xaf\x9c\xc8\xbf^\\\xd4}&gt;\x9f\x1eMF\x19\\\x9b\r\xa6\x01\x96=XJ\x1e\xdc\x89\xaf#\xc4\xd12@eE\xadjHC\x8b\x99\xc8+t\xe4ZES\x08\xa7\xd1U\x14\xa0+\x0b\x82\xe0h\xc3Z\xd4\x980\x7f"98w^\n\x9a\xf1\x12j\xeb\x1e\xfc\xff\xd3\x01\t\x02\x8f\xf4_\x06\x99\xf5\x81L\x99\x00b\xeb\x0eJ\xe7\x9c\'a\xb6\xa8r\x8b\xfa\xd8XR\xfb\x88\xdd\xeb\xa3X\xcd \x11\x86\xe1#9X\x11\xe8|9\xe9D$1\xf7F9\xac\xa2VR*\x90\x8b\x88lPm\x1e\x80\x85U\x7f\xa1l\x18\xaa\xa2 \xa7Z\xbd+\xa1\x8dd2\xb6F\xa9\xc0&amp;1\xa4\xaf\x88\xdb\x08\xd0a\xc0j\'\xd2\xb1\xa5\x8d\x18\x8c\x14:_\xb8\xfc\xc6\x89|~\x01l\xb6P\xc8\xb6\x86Y\xd6\xe1\xef[\x91\x8f\xf6\xd5\xb2\x9a\x07)\x8c\x95\xa9d%}\xb3=\xb5\xef\xf2\x90d\xad\x84\x17\xba\x93V\x89\x9b\xa3\xb0v\x18#&amp;V\xa1I\xe7\xb3\xc1\x89\x98~\xeeB\xc1b\xb5Z\x15\xab\x88"!\xaegQ\x9b$\xf6K\x0b\x1f,\x86\xa3=\xb4\xd4\xd0=!\xcb|\xa5,8\x84f\x07\r$\xe8\xc6\xc8\xca0!c\xe1\xb6\x03\x95\xb6\xd1\x8e\x06QQ\xe8\x84\x85\x0b\'\xb2\xd6y\x9f(I#\xd6\x9d\x7fd\tm\x1f\x16\xc6\x97 xH\xc1i$h\xa7\x9d\xf1\xf8\xfb\x1c\xc7\r=$l\xe0lVT?\'\xa424\xfbt\x9c\xd91\xb5W\xa9;\xd2YQ\xf4\x9d?Yq\xb1p\xf6\xec*\xa4\xbb\xa5\xa9\xacj\x1ae\xcd\xf4\xf2,\x81\xa4\xb2F\xd4uF\n\xf1(Z=\x15jf\xdd~;\x05\xb5\x88\xeee\xf1"\x03wT\xe2\x86eBxs\xbb\x07\xbex\x96\xb5\x9d=\xbbp\xe2\xfcs\xbaS\xcc\xf3\xd3~\xfb\xc8\x0e\xd1\x035\xab{\xf1\x9a%D\xd5\x9d=L\xaa\xed\xf8\x9eAk4\x0c\\ab\xce\xa4\x8d\xef.\x92\x02_\xbb\xa0\xe5\x982\x04\x99\x16wi\x16\xa9z\xbe\x1b,y\xb4\xe9\x0bu\xd8&gt;\x00\xab\xed\xb0W]\x90\xc5L\x93\xab\xdb`\x92\x9e\xcdA/eM\x95T\xeb\x13Pq\xb3\xa0\xd8 \x89&lt;\xb2\xe6LC\x8e\xdf\xd6/\xceB@&lt;\xef#=6h\xbca\x15\xc5IZ\xd9\xc7e\xd6\xb8\xe52\xeb\'\x16\x1dW-\xd9q\x05\xfa\x91H\xa4\xaf\x82S!\xe1\x8a\x11\x05K\xb4\xa9\x93\x88C\xeav"Y\xa3\xf5e\x82\x1d\xfff&amp;2\xf0\xc9\x0bV{\xca\xbaf\xf0\xf6V"{\xd0\xb9\x02\x12\xef(;\x02\xe2*\xe5\x01\xf4\x1e5\xe7Z\xc96\xd7\xba}\xc6k\x80JvQ\xfd\xe5\xeaI\xb8V\xa86\xf1\xef\xe2\xb0\xae\xc4\xad\x97f\xd3\xe6:k\xf7\xc4\xf9.\x94\xb6\xd6\xc1\xa9\x9a!\xba\xdf\xfa\xe0\x1a-!\xd1\xa0\xe1P\x17\x90\x13\xc4i\xbcJf\xe7\xa4\x19\x81\x83\xb2\xc1^\xcep\xad\xe4\xb1\xabC\xb0\x0f\x8b\x91\xd9\x94&gt;s\xcf\x9f\x13\x8b\x9c\x17p-\xd1y,\xc5\x98p\xa0U\x04io\x99R\xed\x80h\xd1\t_:\xb72!\xc3\xa9\xb6\xe5\x08\t\xea8\x98\xafA\xad\xefJ\xe4@\xb0C!\xd3\x0b\xfc\x9fZ\xfe\xd4\xe3G\x0b2[\x88\x97\xc1\x97\xc0\xb5J[\xdd\x87("\n\xd1\xf2\x06\x96\xceU\x83&amp;\xa0\xc4\xaaL\xc1p\xfe\xb1\xc8\x93\xf0\x08A\x95\xc4\x88\x04\xe9\xe5\x08ck\xf0\xa9\xb1\xc2\x8a\xd5\x97\x8e\xd4\xaf\x8f\x9f:\xde\xae\xd8\x91\xd3Zs/\xe4\xc48S\xcc*R\xc9m\xe6\x9c\xb0q\xa05\x89od\x97\x89\x9aA3\xf5\xecy\x97\x7f \xd7\x8c\xd6r%\x81\xc5\xd8\x18\x195\xc3`\xe6\xc1\xcf^\xd6iaA\xe7\x8b\x99\xa3\xbd\xa4\x1f&gt;q\xbc\xdd\xb2\x9f\x99\x9e}\xecHU\xdd\xef\xa0\xdem1*\xe9K\x98CF\xfb\xde%o@qk\x88\xde\xa5;\x06\xb7\xadD\x9e\xa4\x9c"\xa6\x02C\xdc\xe8\x98x\xfaQ0\xec\x97\\\x83k\xcbvg\xe7\xdca\x8f\x7f\xecY\xd3\x8f\x8f\x05\xeb\xb9\xa3{\x90\xf3\xe7\xfc\x9a\x1enB\xb4\x91\xa9\xc1\xe60\xbf/\x05\t\x97\x82\xc5\xf5U\xb0\t\xa8\xaa\x84\xb6n\xb8\xd7f\x9b\'\x9e.\xde\x86\xb6h\x958\x04]\xddB\xd2-\xd5\xa0d\xb5\x99S\x0bGwRM\xcf\x1dk\xe3\xe9\x07&amp;\xd3S\x87\x7fD\xf4\x82X\xdd\xbc=\x11\x04\x10RY\xc8\xef\xb7\x02{\x90\x0eA\xcb\x90\x15\x82\xd1\xc8*eP1{\xd7\xa8\n4F\x19\x1b\xe4s\x03\xbf\x94\xb7\xb6\xa1]\x16\xc9/\x0f{\xd6\x8f\x9e\xfa\xce\xd3\x15\xdf\xb1Q\xf7\xf4\xb7N\x16\x9c~M\xcf+\x96\x03\xca\xa5\xfe\xa8s\x8b\x8e3\x9e\xca\xfb\x04\xaeo\xaaa!\x91eZ\xb8\xae\xecL\xb6\x0e\xe2\x10\x8f\x83;H\xc2\xd6XR\xcd\x0e\x99sO~\xeb\x1c\xc2\xd3\xc7\xd9\xc8;\xf5\x8cq&gt;\xe4\xd0A\xe8\xf3\xc5|\xaf?\x9a@j\xe5\x1c\xcdG\x85\x06\x894a\xdc\x9f\xde\xda\xea2\x1a\xc8\xf0\xaf\x8d\xc6\xa4\xe3\xdb\xcf\xc0F\x153\xd7R\xa3\xdf\x05/o\xcb\xb9\x0e9\xfcO\x8d\xc3\xb4\xcf\x1c\xe7\xd0\xf5O\xbeg\xba\xf9\xd6\x11\\?\xaf\xf0E\t+P\\\xa6\x10\xb1V\x15\xb8%\xef\xedWT&amp;\xfa\x93\xde\x8a92\x90\xe3(H\xd3\xf507-r\x8dLM7\xd2\xaa\xb0mq\xd9\xbc\xaf\x9e&gt;\x82\xea\xad\x9b\xc796\x8d\xab\xfd}\xd3Gw\x10\xd7\x13\xa7\x0ev\x9a\x13L\xc8j\xa7Z\xb0\xe4/C`\x08\xb0\x87Kp;\x8b{E\x87\xdbIU\xbc\x93\xddK\x9b\x03Z\xf1,\x9a\x07\x1a\xac\xfd\xaf\x99k\rj*\xbb\xe3\t&amp;\x04\t\x81\x14\x16\x11\xc1\x07\xc8C$\x14j\xd5u)*\xbbu\xc6\x1d;\x9d\xeal\xb7\xd3\x8fm\xa7=\xf7\xe6AHx\x04!\t\x10\x1e1&lt;B\x14\xd0\xf0\x10(0\x80\x10\xa3 \x86\xb0\xc0"\x01\x8dA\t\x01\t\xb4\xe2\xd6\xddq\xda\x1d?9\xfd\xd4~\xed977$\x81H\x83\xb8.\xe7\x9b\x80\xf7\xfe\xee9\xff\xf3\x7f\x9d\xdf\xef\xe8\x07\xb1\x17\xa57\x04O\xdc\xbbH\x07\xfd!\xaa\xe5g\x80\xee\x8b\x1c\x8eF\x87\x05&lt;:\x9d\x0eq#\xbeG\x0ceU\x0c\xf1\xee`R\xde`\xd7BMw\x03\xb4\xe8\xdb\x8e\xb5\x13\x15\xca$\x0bN\\\x15\x92\x9c\x02\xfdZ\xc3\x1e\xa6C\xda&amp;A\xa1\xe4\xee}\x94\xea\x94\x8b\x1a\xf9\xad\xc9n/\nG\xd6\xf2l\x18\x00:\xcdGXc\x04=\'8:\xc0\xe5R\x87\x16j\x1ar1\xedBq\x87j\xe0\xaa\x8402\xa2`\xe6\xe5\xf0Z_x=\\\xb9\x02K\xf1b&lt;+K\xf0U\x1bL@\xae\xc9*\x1efu\xb9\xbcC@t0A+\x1a\xdb\x02\xacg\n\xa3\x83\xa0\xedb %\xd7`\x05x\x05V\\\xd4v\xbf\x02V\n\xc8\xccntC\x0b\xcaj\xab\xaa\xeb\x14z9\x8b\x12\xa3\xc0\xad\x95JDee\xb2"h\x80\xa2G\xad*W\xdf\x94\xe5\xa0\xb7\x1a\x15\xcf|\x84\x15\x86\xe8\xfb\x13$\xeb\x84\x19\xe9\x9c\xb0C\xa7\n\x1a\xbbj\x8b\xb1\xde\x06~\xbb\xd3O&lt;\xc9\x91\xe1x\xd5\xe0\xe5\xdb\x1bO\xca\x8a\x04k\xde\xa4\xb1\xb3\xbb\x19\x93Wa7\xf8g\x9d\x96\x15\x10\xc9t&lt;_\x81\xe8xT_l\x8bC%\xa8d\xab$\xdd4\x91\xe3t\x12\x97yR\xc9\x95vw:\r\xcc\x8d\xfb\x16\xf0\xbb\xd8\xb5\xcb\xeb@\xb5\xca\xfb\x89h\x83*0\x87\xa3\x13\xcf\xc9\xa5_8\x97\x90\x93\xe8\x10\x93\x80U\x82bF\xe5\xf8r\x80O\xf8\xad\xa7\xdfj\xd4J\xdb\xb0q\x16\x84$:\\\xc5\x91S\xb9e\x0f\xf4u\x8d$ \xedM\xac\x17\xa5\x9b\xcd\x82J\xb8\xfd=l\xeavy\x8d#\x87\x17\xdc$\xe7\xac\x9e_S\xca\xfb\x1d\x89\xea@"tA\xc6a\x9bR\xadA\xbc0\xb8\xb7|9\xf2\x8f\xf2\'\xbe\x03\xc7\xad\xf9+\x8bS\xdc@j,\xe9VR\xbf\xc8\xe5w\xd4\nI\\s\xa3zU?1o\xd0\xb9\xe7\xe9U*\x1e\x1c*\x95\xb8\xa9g\xceY\xc4v\xe2e\x8e#\xffv\xa1`\x00\xafp\xb6r\xf7\xc7\x86\x04s\xa7\x16W\xf2\xad8N\xac\x89\xbfO\xacE\x82\xe1:\x81\xe3H\x98@M8\xc6r;\xad.\x86\xdf-$M\xab\r\x16\x8a\x1dn\x01I\x9b\x97\xd7\x7f\xdd\xd1\x95\x19\x95k\x89\xe6\x0c\x9e\xd5\x84~R.k\xcb\x13u\x7f\xe6\xca\x1cX{\xd2\xd0\x92\xfc\x15\xc7\t\xa6\xe7Q\x9f2\x08$\x0e\x197&lt;\xb5"\x8a\xd4\xc7\x9e\xa7\x8a\x1d\xe2\x82[\x9d\xb5\x95D\xbd\xac\x97\xdd\xebk$\x8e\xbf\na\xba\x95w\x97\x98\x98\x0e\x88\xb9\xb4V^w\x19ZU\xb3&lt;\xab\x02\x95d\x12q%vW\x7f\xca3\'MD\xe4E\xebS\xc3\xb8\xcf\xeaO\x98j\x00\xb5\x12\x8c\xd8\xa1\x93\xf0\xf7\x0cW\xc7%Wd7sx\xc8m\xf5_{X\x88\x8c\xbf\xbfI\x9c%\xc1\x06D&lt;\x15\xb4#\x81\xaa\xea\xfa-a\x05\xd6W\x87\x0e\xecz\x9a\x90\xcdw\xf2\xfb%U\xaf\xbf\xf4D\x15\x04\xc3\x8e\xd1&gt;\x02\x94j\x9f\xa9\\\x07\x01\x98j\x01`\xd6\x8a\xf8\xb9\xe9\x9evw\xfe\xbf\x0bE\x83\xf2+\xad\x8dDy\xf65\xb1\xd5*\xae\xcc]\x17ub\x12\xe1\xad^\x19_Vs\x1dN\xd5\xe3{m\xe4\x86\x95\xe6\x8a\xae\x97\xe2\xdf\xbc\xfa\x8bgf\x19\x8a\xb8\xba\xd6Y\x00Z\xa6\x00\xf0-i\x8eb\x82\xc5e\xd4\xda\xb6?_\xaf\x9eK\xa1\xff\xe3\xdf\xe5]X\x8f\xb8U\xee2\xaan\x1e\xf6\x15\xbfj\xa8\xb3\xae\xfd\x1aV\xae\xea\xc1\x1ad\x8f\xb1\xfb\x8ez\xf7Qg\x83\xb8g\xf4\xfe7o\xfeU\xe2\xc1\x11f\xff\x1c\x80\xe7v\xc4\x13\\^\x04L\xdfx\xba\xbb\xf6\x82\x12\xe0\xcf\x00F\x0b"\xf9F{\xa4\xd3\xc0&amp;&gt;_\xdeZ\xda8X\xc6\x9f&amp;QIU0 \xdf\xe9+\xb8-\x84eX\xbd\xb0\x17\x1b\x146\x88UDI\xd6[\xf5\xa2^\xdb\xdcv\xfa\xfc\x7f\xa0#p\xcf\xc4\xf7 R\xb2\xc5\x08\x18\x0c$\xd0\xf3\x91\xa2\x14\x8eX\xd5\xe1\xc1`dr\xccC%\x1d\n?Qw\x91\xfd+\x81\xb0\xae\xa0\xb1\xb0\xac\xb0^\xeb\xe0\xd3\xd4c\xfdr\xe9\x03\xfd=\xe8&gt;\x1bqX\x9fM\xff\xad\x13.rMq\xb7\xb0\xf8\xe6\xe5\xaa\xbc\xdf\x9e\x8c\xbad\x82[.f\xed\xf5l\xe8\x83\xc6&amp;\xe1d\x1d\x0b\x0f\\S\xf3\xfe\xdfq \x04\xe5\xb10h\x99\x14\x88\x0b\xed\xfc\xf1\xe1@\xb0b\xba\x18D\t8\xfe\xfb\xb6\xa2!\x18Sr\xf9\x03\xc8\xc6\xe6\xa0\xe3z!*\x92\xa1\rZ\x93\xdb\xe4\x98\xc3AAa\xeb\xed\xe6b\x9cW\x89\x9ch\xd4%\xddK7\xf5^\n\n;&amp;\xe8\x19\xfc(q\xbe%\x81d1\x02\x83\xe7\x01:PN*a\x94\'\x03\xe9\x9e`\x90m\xb8H\x98\xdaG\xc7\x7f\xdd&lt;\xda)\xc9+\x16\xa9\xda\xfa\x1c\x15\xf4\xdc\xe0\x03\x97\xb5M\xf7\xe9\xabr\xfe^\xd9\xd8\xcb\x1b=\xe3p\xed\xec?!iH\n\x19{`\xe8A\x8fF\x15C\xd8\xfa2k\x93\x11\x1a\x87\xfe4\xba\x04h\xe6Q\xfeL,c$\x1d\xcc\x1a2\x9c\x9b\xe6H\xb2 \x17\x97\x8d\xde\x14\x14\x94.t\x8b\xbbz\xb4\xdav\xac\xa7\xe7\xeb\xe9~m{\x1f\xbf\xbb\xb5uT\x9aS\x94\x9bW~z\x8d\xa8\x1b\x949o#\ru\x1f\xf2\xd7\xf3\x1aP\x82\xd6\xc1\x8f\xe1;+6\x88\x00\xc2\x8e\x03\xd9K\xcee\x0c\xa7\x83\x12E\xc6\t\xb7~\xdc/\xcf&gt;\xec\xea\xb8\xd3\xde3}\xb5\x88W;T_+mh\x90\xd6^\xed\xe2\xf1\xcb\xeb+;\x9a\xf9\xc2\xee3\xc9\x11G\\\x9d\xac\xa0s\xf3c\x0e\x82h&lt;Z\xc2\xa5l\xc0$\xde\xc2\xda2Q0,\x18\xa8\xedH\x9ep\x98B\x83i\xc5\xcc\x850\x8f\x13\xec\x93\x11\x9f^-\xe4\xe1erm\xcd\x8d\x07C&lt;\xa9L&amp;\xe5\r\xdczR//\xaa+\xbf\xa3?\xfb\xd9:j\xc1\x81\x0c\xd30RaFB+W\xda\xa1\x1b}g\x92g\x12\x0c\x10\x96j\xb8\x1bS\xfc\xb9\x10\xd5\x86-\xf3\x93\x88OO\xcb\x0b\xe4\x8f\xee\x8a\x1e^%\x19\xe0\xd8\xb4L\xa4\xef\xfd\xf2g\x11\'7\x9c\x94\x9f\xc80\x18\x01=\x1efZ\xd5\x16\x18\xd8\xd2\xfc\xde\x15\x16\x9b\x01\x96-\xf3d\xc2\x96\xef\xed\xeb\x0e}\x94\x1aq2\xe27]\x8d\xc5$\x8d\xff\xcfgN\xff"9\xf5\x10\xc5[\x1f2,\xc3\xe0\x90\xd1\xcc[\x96\x01s\x1b\x04\xc6\xfdt0n&amp;\x94\x13O\xff\xb0I\xe4\n8\x92&lt;@\x8a\x1e"\x02\x0e\x05\xbc\xb55J\xcb \x9e\xa51\x8f\x83\x92mI\xc2\xa3\xb9@m~\x89\x92\xee\xa4M{`\xa9\x0f\xcb\xdakk{\xca$\x9b\x1f\x03D\xc3\xaa\x10\xbc4\xab\x017i[=7\xbf\x04\x14\x1b\x91\xd9o\xde\xeeI\xad\xff\xee\xf5\xf7\xdf\xbf\xfe\xae&gt;u\xf3\x16\x15:\xddF\xb1\xf0\xe86op\t\x82N&amp;\x7f\xc9\x86H\xdb1\xecM\x96\xf1\x93\x9aWo\xde\xbcz\xfc\xc9&amp;\xfdvv\x12\x12\xee\xda\x964\xef\xe1"\x0bv,,\x18g&amp;m\x84\x00m\x93\xa2\xfc` \xe0r\xb9`\x93\x1a\x86C\xa81m\x93\xb0\xa6\xe2\xc6\xed~\x0f\xa8\xa0sXR\x13|\xf2\xf8\xb7=\xce\x8fT\x802\xde6\xa3\xbb\xd3\t\x15\x9cz\x89\xa8\xf4\xb6\x89\xcb\xef\xa70\xd4O\x10\xf9\xed*\xa9L\xf6\xfe\xde\xe859\x91\xf7\xaf#u\xce\xabD&amp;\xae|\xca\x05q\xdb\xb8\xbe% \x8d\x0b\x86u\x991p\xc6&amp;\xec\x0eM\r\xd7?\xd4K\xb4\x08w\t\x02\xbd\xf8\x91\xa0P\x7f\xaeCMc\x87\x9f\xc8M\xbb\xa4\x1b\xf1E\x92\xf8\xf6|\x10\xa22e\xb2(I\xf0\x91j\xb3\xa1\x9a\xac\xb4\xe39\xeb\xa6,\x9c\xea\xa6*^wu\x06\xfbDR\x08 D\xea\xd5&amp;\xe8\x19\x0071j\xdf\x1fQ\x9a\x13\xcb~GX\xf1\xa8\x02:\x07\x93\x86\x80tD\xc3\xb0Xl\xceW\xc7F\xd3\\\x8b\x10\x14\x1f\xec\xa1M\x8cq\xfdj7-\xfa\xa8\xf3\x976\x8be\x05\t\xec\xa0k`e\xc24\xc7\xab\xde\xd1\x97\x8e3\x17,\x9a\xce\x9d \xdd*\x17\x18\xf3\xcd.\xf1\x1d\x9d\x91\x10Jc\xedB\xf2\xf88\xf2G\x8bN\xb94#\x1afv\xbb \xa4\x04\x86kq\xe1\x7f6\xc2\x85t\xa8\xf4wg\xea\xc6\xde1*\xc2t+[\x97\xe1\xdc\xf1\xc7\xe8h!\x97t\xce\tC\xc6B\xa72b\xe3\xa8k\n[\x8dK\xb2F\x8d\x8beP\xdd\x05\xa86\x1d\xda\xcb%\xc1N!\x14\'S\xd7\x02\xd7s\xeb\xa7\x8a\x87\x83\xa11\\p\xb5x\x88\xdb!\x165\x933-\x9e"\xdf\xb5\xd1b\xaf\xf6\xaa7\x85\x7f\xdc23\xa9Y$\xfa?\xaet\xe2s\xc3s\xc0\x8d\xd9*\xae\x13t\xb0h\xb8\xe0\x9e4\x1c\x8cEoP\x1b\xac\x9a\x15\xaf\xaf\x9f\xf96\xdb\xbb\x0evEc5 [\x07q\xee\xee8\xecsTQo5\xe7\n\x07\xb3\x8a\x19\xcf\xcd\xbe/%\x18\x01[\xd5\xd9g\xc67\xbe\\\xbd4\xe9\x15\xd6\xf8\x8c]\xb7\x8a@\x05\xc6x\xba*\xda9S5H\xd9",V\xecX\xfe\x86[rh\x84S\\V[\xac&amp;\xe5\xba)\x9b5\xe0^`\xad(MV\x8bz\x99p+\x1b2\x99\xc8s#n\n&gt;_q\x1d\xf6\xd2:d\xa7\x13\xcd/0\xa6\xb0\x985#\xc3n\xe6\xa3\xc17\xc0\x1a\x1e\xd1\x98-\nR\x06\x15\xe3\xc5\xab\xef\x8f\xe6P\xde\xd3\xe0$\x06\x120\x8c\x13\xf9f\xb3I\xf1\x92\x9c4\x88j\r\x16\xda\x10+/\x15&amp;\xb39\x7f\xc2\xe8\xf8g\xc2\x0f~\xe3\x9b_X,y\xb1\xc8\xb0rDg5[,\x16E\xfe&lt;\xee\x06\x0b\x0c\x1b\xccf\xabnD\xe9\x9c\xcd\xa3\xb4(\xca\x0f?v\x85%8\x83\xcd\x94qE=\x01A,y\xc0\xfa\xa7F\xbdbt\xaa\x81\xa9\x1f\xd3\xfc(\x1fh\xecO\xf2\xbc\xf9Dm\xc2qo&amp;\x0f\x181\x1f\xf6\xc2\xbe\xdd\xe1\x89!n\xaf\xcfVx\x81EM\x8b\xfc\xf0\xd7\xa9\xf9\xb1"\xd3\x98\x81N+\xcf^\xe7 \x02\x99\x10\x93\x1f\xe5\xc7\x19\xfb\xc2\xf7\xfa\x938\xc6\xecn^\xde\x7fo\xf8\x8f|\x0b$y\xc1\x0e\x17LL\x1a}\xb9\\\xe7\x83\rV:\xb1\x94S\xe4\x15\x14\xdc\xf4\x9dq\x9d!\x0cJL4]j\x02\x16\x93F\xd91\x83C,$rU\x0c\x0ee\x07\x8d\x83\xa4\xe53w\x14*\xa2\x89\x82\x92\xfc0\xca\x0e\x1b\x91\x00\xec\x8c\x0b\x03\xd7E\xca$\xb0\x85\xee\xec\x87\x1blf\x08\x8b\xb2\x03G\xe4\xb1\xf7\xf7\xac\xff\x01S\xfd\xe2\xb1\x0e\x0eI\xea\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -518,6 +556,14 @@
       <c r="D5" t="n">
         <v>58766</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x01\xa4PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xff\xff\xff\x00\x00\x00&lt;&lt;&lt;\x01\x01\x01\x0c\x0c\x0c\x06\x06\x06\xf9\xf9\xf9\xfd\xfd\xfd\x03\x03\x03\x9b\x9b\x9b\x10\x10\x10@@@,,,\x1d\x1d\x1d\x89\x89\x89\xfe\xfe\xfe555\xcc\xcc\xcc!!!\xdd\xdd\xdd\xf5\xf5\xf5\xd4\xd4\xd4\xf8\xf8\xf8\xc9\xc9\xc9VVV\xec\xec\xec\x93\x93\x93yyy\xb9\xb9\xb9^^^\xc4\xc4\xc4\xf0\xf0\xf0999%%%000jjj\xe7\xe7\xe7)))GGG\xda\xda\xdavvv\x15\x15\x15pppDDD\x86\x86\x86\x8e\x8e\x8e\xd1\xd1\xd1\xab\xab\xabLLL\xb0\xb0\xb0\xf2\xf2\xf2\xa0\xa0\xa0\xee\xee\xeePPP\t\t\t\xb4\xb4\xb4\xa6\xa6\xa6\xe9\xe9\xe9}}}\xa9\xa9\xa9\x97\x97\x97\xe4\xe4\xe4\xe0\xe0\xe0\xbb\xbb\xbb\xe2\xe2\xe2\xbf\xbf\xbf\xa3\xa3\xa3\xce\xce\xce\x19\x19\x19SSSddd\x80\x80\x80YYY\x13\x13\x13\xf4\xf4\xf4ggg\xb6\xb6\xb6\x17\x17\x17\xd8\xd8\xd8\xd6\xd6\xd6sssbbb\xc0\xc0\xc0\x82\x82\x82\xad\xad\xad\x9d\x9d\x9dmmm\xd0\xd0\xd0\'JIV\x00\x00\x004tRNS\x00\x06!i\x19\xf7\t\xfd\x01\xe7\x0eZ\xca\x9d\xdfG\xa59\xf2\x97&amp;zC\x8a1@*q\xac\xeeNK~\xea\x15\xb9u\xd0\xf9\xd9b\x86R\xb0U\xd5\xc1\x90\x83-\xb35\xe1&amp;\x7f\xb1\x00\x00\x0c\x98IDATx\xda\xcd\\gC\xdb&lt;\x106\x10\x08#\x81\xb0\xa1\x8c\x0e(\x1b\xba\x12\xb2\t\x19\xec\x14\x08\xab\x84\xbd\xa1P(\x94\x02\xe5e\xb5@K\xc7\x9f~\x0b\xb6lI\x96l)\x03z\xdf\x82-\xf9\xc1&gt;\xddx\xee$A\x88S2\x1f\xb5\xbc\xb4\x98r\x0b\xd2\x8d6[]zU}\x9b\xb9\xb8:UxP\xc9\xcc/\xae\xa9\xb2\x11$\xab\xb2\xe2\xd5\x03a\xcah\xb2\x10!\xc9\xd0\nKR\xee\xfd==\xb6\xa4\xdbt\xa5\xaa0\xff&gt;A\xa5\xbe\xcc\xb51\xca\xf3\xb4\xec{zQ%\xcdF\x1b\x87\xa4\x9b\xefA\xcd2\xd2\xea\t\x8f\xf6\xf8CS\xc7\x91\xc8\xfb\xf9\xd0\xac\x9dp\xd9\xd4\x94\x99TP\x86\'Y\xf8#;\xa6N~^\xba\xac\xb2\xf4.}\x98iw\xe2w\xd5\xa7e$O\xa5\n15\xf7\xf8\x02]n+A\\?\x86&amp;0`O\x9f&lt;K\n\xa8G\xe6:\xe49v\xdf\xfa\xa8UC&gt;/vb\xeb\xb2\xd1\x90pPe\x95\xa8\x9ew/|\xb2\xea\xca\xd1\xf5,\xaa\xfd/\x12j\xff3\xab_#\xa0\xec+\xabn+\x93\xf4\xfe\x1a\xc3\x96e\xc2,Yv\x05j\xa5\x1cs=V\x0e\x198E\x17\x80)\'\x01\xc6?\xa5\xa9\x19U)\x7f\xe0\xad\x95Szf:\x90)\n\xcc%q\x19\x8c\x94\xeaB\xcc L|pYc\x90\xb5E?f0\x1a\xcbcDf\xc8i\xc6\xdd\x9eo\x98\xf8\xd0\xfe\x01\xef\xccq{\xd4\xef\xef\xf4\x9d\xee\x1c\xf6\x91M\xc6z\x14\xb7\x18\xe6jN\xbf\x94R\xd6`Q\xd9Mgd\x89\xf4\xb8\x83\xa1\x10f&lt;\x1d\xf3\x0b]A\xc2\xad\xfb+\xb8\x07\xb0\xd7\x17\xe6\x14i\xbf\xb5L\x83\xc1PTV\xd2RQ\xda\xdcZ\xa7\xf6\x1f\x8e\xebI\xc2k\xfay\xec ;\xc2\xd9\x8b\x03\xc2K\xeb\x8b8\t&gt;\xf3\xb9\xa51\xad\xa9\xfcU\xaa\xc1@0\xb8\xd9Z\xeevb\xbd\x97\xb0\xc4"\x0e\xad1\xdf\xae\t\x0bv#\xd0\xad1$\x97\xa0J\xd4\x9b\x9d\xe1\x01\xf5\xfc\xe7\xbb\x9d\xba\xb1\x83\xdd\xb7\xac^ \xee\xd5y;5rT\xc3*"\xdf\xe9\xf1\x91^\xd4\xf4\xdc\x19[T\xd3\xbd@0\'\x93\x8b\x13\x94\x18\x88\xe0]\x08\xb79\xc2^\x82FYG\x8e=\xec\xe1\xd6\xe6\xc54a\x8a\xe9\xc0\x14A\xcdlj\xf5/\xc7!\xf9v\x0e\xfaIK}\xb8\xdd\xc6\'\x9e\xf0\x11i\x9e\x8d\xd5k|\r\xdb\xd4\x16\xe3\xb12M\xf7\xd4\x0c\xc5\xfaX]\xdeq[\x0c\xd2\xbe\x15$O\xd7\xe5}\xe7\xf3+\xba\xa6\x0e1\x9a\xc4\x0b3#=t;~\xbe\xf8\xc5\x16\xa3tj\xb8\x87\xde\xcb\x83c\xf1.u\x80\x91#^\xd8\xa2{\x90\xe9\xdf\x0e[\x1c\xf2\xe5f\x9b&gt;\xf7\x8dx\xcf#\x15\xac\x06\xf1\xc2&gt;m\xe0\xc8\x8a\xdd\x16\xa7l^\\\xd2f\x0f\x88w\x94\xa9`\xa5\x89\x17F\x88\xa3\xde.2\xa8\xd4\x84\xfe\xcb\xb4\x87\x0e{\x89\x0f\x18\x14\xaf\xab\x83\xb1\n\xf1B\x17\xc1\xfd\x7f\x9cb2\x08\x81S\x96\xbb\x1c\xe1a\x82\x96y\xc5\x8b\xe5*X\xb5\xe2\x05\xdc\x1dOz\xe7\x9d\x8c\xdf\xa8g\x99\xf1FG\xf8#\x9e\x05\xac\x8bWJT\xb0\x8a\xc5\x0b}0\xa4\xe5\xa1\tv\x85\x9a\xb0\x9eo2\xdf\xec\xf4\x9d\x0c\xafA\x8f:\x14\xff\x9cG\x83u\x05\xf2\x96\xc1H\'\x9f\x8e\xdfX\xad\xef\xb9\x068C\xef\xbc\xe0\xad}\xa0\xc1z"^\x98F?6\x87\xf4\xc9\x93s\x08P\xe5\x8f\xe2\xcf\xc74X=\xb1\xc2\x8a\xfe\x1d4\xea\x8c\x15\x96\xa4\x96\xd5\t\x875t;j%\xe1\xb0\x8a\xe3\xfc\x88w\x0f\xf8\xc5;j@\xef#\xd6\xa2*\xcf\x0b\xab[4\xbb\x9e\x18\xdf\x16U\xe5kQ\x03\xb1\xce9\xff\xb58\xcc\xc79l\t5\x10%4+\xbf\x84\xc2g\x96\x11\xc4\x890\xcb\x15\xfa\x16\xcai&gt;\x11[\xb1\xcc\xe1\x81\x14\x9eMr\xfasL\x95\xf3i\x11\x04p\xd5\xab|\xd3\xbf\x03\xe6\x9a3t\x05\xb4\xcf"-\x82\x90\xe2-\x907\x0f\xf3M\x7f`E\xe7g\x15\x90\x80,\xd0\xe2-):]\x05\xe1\x15\xd7\xec\xb3r\x88\xfd\x89\xef+\x82la\x87\x16\x9d\xe6\x89\x17&gt;H\xf7\xfd\xe1\x9a\xfd?\xc5\xe9\x86\xb8\xb2\x0f0jF\xfc\xadN\xab\xf3\xc5\x0b\xbb B\xe6\x82\xf5U\x81\xb5\xc03\xce\x01F]\x88\xbf\xd5\xbc\xef+)\x96\x03\xf1(\xcf\xec\x1dP`w\xc93\xd0\x0fF\x85\xef~\x1a\t42\xe4\xdanS%\x1e\x1d\x89\xc0\x11]\'\xc7\xc0N0hJ\xe4\x96\xa8\xd4\x88\xbc\xd2y\xb2\x9cU\x18\xd6\t\xc7@\x1f\x184F\xa3F2E\xd2\xf6\x14\xdc\xd8\xcd\xa1!H\xda\xb0\xc4\x01\xeb=\x18$f0\xcf\t\x04\xd7\xd3\xbb+\xf31\xac\xa80\x1a\x97\x8f\xc7\xb0\x82Er\xb5\x86\x00\xab\x15\xfd\xda\x1c\xa1\xd3G\x14\xd6\x0c\xfb\xc8\x1dT\x93-\x04Xm"Y\x06&amp;\xff\x8f=&amp;_\xc3\xe88vX\xc0\x1c\xed\x89?_\x10`U\x8a\x06\xce\x8d\xda]\x06Y\xc1\x92\xab\xa0\x9fy\xe8OiH\x97\xf8\xb3\x98\x00\xabP\xbc\x04\x08\xad]\xe6\xb9\xd7\xf1\\t\x8e7\x1c\xb2~\x15\x7f6\x10`\x15\xa3\x91\xcd\x16\xec#\xc6\xda5D\xc5\xf7\rh\xdd\x8d\x10\x81\x93h\\\x93G\x80\x95\x83\xbe\xd7&gt;\xc4\xbe|\xb2&amp;H\x06\xe0u\xea\x04\xac\xd7\x10-\x80\x90\xe9\xc0E\xc0&lt;\xa0\xee\xe5gB@\x05\x03H\xca6\x0e\xfe\x1e\xa1\x91\x81\xb2\xf7\x99\x03\xb7b\xa4\xedEo\xfc\xa8&amp;\xa7\xd09\xe7\xd1\xe0\xb1\x80X\xba0\xa2\x86w\x0c\xf7_}\xf1\xa2\xfa\xfa\x8d\x16\xd3\xfa\xa9F^\x10r\xe5\xec\x18~\xb1\x90&amp;\x0c\xc6\x05\xca5\xa7\xf2\xfe`\xc2^\xf1J%\x11V\x8d\xf8p7=pz\xff6vT\x97\x04o6\x8c\xba\xd1R",3\x9a\xee\xff$\xc5G?bE\xf5\xcb\xa1\x91`H\xa9~\x1a\x11V-\x1ai\x12\xe39\xfbPL\xf5\xc4\xd101\xf2\xc0&gt;L9\x11\xd6c\xd4B\xb8\xc9\x11\xd7XO\x0c\xc6\x8a\x1c%\xb5cjL\xeeHH\xc5B\xcd1J\x84\xfc\x91\x13\x94{\xc1\xa9\x93\\v\xd2b\xd3\xbb@\xb0@"\x1b%yG\xf3d\xdf\xcfyP\xedQy\t/(K\x8a\xb0\xdb(\x95N\x93\xb8\x14]\xba\xa4\xcd\xf8\x11;\xaa\xadY]\xbaF\x8a\x1f\n)\xb0\nQv\xa4O#\xc4\x1a\x0c\xb2\x81\xea\xffMOU6\xc1\xff\xffKk!\xca\xec\x88W[\xe7E\x99\xdafA\xd5\xa7\x95\x06\xb5c\xda\xf2\x86\x02\xeb\r\x16`\xcfk\xd6|\xf7\xf5Qy5\x19\xf1\x19p\x9b\x18\xeb\xd4\xd1z\x962\x8ch8\xaf\x1d\xa0\xea\x9a\xb0\x8d0[\x1aw\xee\xd1\xf0\x88\x8a\xce\xdb\x01Y~\xa0\x13[\x86&gt;k\xa1\xea\xd2\x89\x9d=\x1b\xd2\x8d?\xb45^\x10^\xa0\xae\xaa_\xaf*1\xa0\xf9\x05\xf5\xfe)\xac:\xd6@\x85\xd5\x82&amp;\xfc\xda\xca\xf5\xd7Cj.\xc7m\x1dzw\x06M\xf4mE\xf4\xfe\x15\xc9\xbf0\xb2/s\xda\xba\xa5C\xef\x82o\xe2r\xd0\x9a\r\xb0\x90\xcb3\xca\x96\xb7\x8fh\xc3\xd2\xa6w\x1d\xfd(\xc1W\xa9\x01\xcb\x8cU\x86\xfd,4.\xd5\xeb\xd8\x99\xe8\x87\x13mc\ne?s\xban\x11\xf1\xb44\x19\xd3\x1a\xfd\x0b#\x81\x8b4`=\xb3C%\t,YT\x89\xae=\xd5\xa2w\xed E\x94\n\x1f\xb9\x9a}I\xcf\xd1Z\x86\xab\x83\x85\xc6\xa5\x89\x16\xbd\xdb\x8e\x158-\x9a\xb0\x1aQ\xaa\xd2\xfa\x9d\x89\xc6\xa5\x89\x06\x195\x88\xd2\x93\xb6\x16MX\xf9\xd8\xff2\xccD\xe3\xea\xb4\x11\x90L\xfc$j\x1e\xd2\xb5\x1b\xdf2\xc5&amp;7\xfb\x1e\x18u\xc6B\xe3J\x85\x0fU\x146\xad\xcfNJ\xa4H\x8dN\xff\x9d\x19\r\xe8\xe9\xecK\x04\x8f\xac.l\xce\x00n\xf6;uY\x9e\x88\xbey\x80\xf2\x0c\xd9a\xf51\xd1\xb8 \xb2\xc2\xa3\xb0\x1b=\xb6\xb5W\xfc\x86F\xbd\xb6\xe2\x14q#\x83\xbdG\xc7\xf88\xfa\x89\x91\x15\x16\x85\xf5\xe9\x99&lt;)Cl\xd3\xed\xa2\x94\xbe\xe2\x82N pJI\x03\xb1(,\xaa\x1d\xc5[\x8f\xd9\xbe\xa1 \x94HE^`\x95\xce\xc9\xa6k\x99\x9a\x06"\x89\xe4\x109\xd7\x94)\x1c1\xe71\xea\xf7\xac\xa7da6\x9cH\x1co*\xb4\x92;\x80\xa5\x81\x1d\x10\xe4#mj:\xc0\xb6\x0e!\x8b*\x93\xed\x9fI\xc9\xe71\x95\xb3\xc2\xb80R&gt;\xed\x07\xdf98\xcebK\xa5\xe4Zt\x19\xcem\xcc\x0e#\xf2A;\rT\xb80\xd2\xbb\x96}\x88\x14.?ej\to\xc3\x94\xfeH\xed\xda\x9c\xa3T\xce\n\xe3\xc2\x08$}\xc7(\xf6\x0f\xbf`\xeah\x96\xa2\x9b/\xf2\x92zO\xa3\xe2\xa75\x9c\x9e\xc4\x85\x11H\xfa\x13\xb9a]\n\xab\xd96\xdc\x00\xa5\x97-q\x97\x9dl\xa4\x0f5\xabh\xfe\x11\xb2\x9bpl`\x1e\xa4F`\x13\xa9\xddF\xe6HT\xf5\x1f\xe7\xed\xcck\x11\xbd\x8a\xef\x89\x9bT\xf4\x96\x13\x98Q\x07\xad\x83\x85\x12\x0c\xa6\xa3I\x80u\tKb\xa6n5\x8e\xa1\x10\xe6\xfb\xeb\xf1\xddXO\xe8\xec(f\x1d\xea\x99\xfb\xf9\xcd\x98\xd5\xc3\xc3.\xaf58\xc8\xd4\x13u\xb6\xa5\n\xbc\xe5@km\x96\xd5\xc2\xcbm\xd7F\xecu\xed!Z\xe4\xd9\xdef-\xeb\xd9\xe7\xfa\xf7Q\x0e\xca\x85\xbd\xac,\x8e\xedR\x16\xfcu!\x95^\xdf\xfe7\xf6\xda\xdc\xc4\xd5,1\xf0\x00/\xab\x96g\x07\x14\xfe\xba\xfaaM\x8ar\xb5C9\xbaIi\x18xYO\xb9\xf6\x96UJ\xd6ZN#~\xc4\xdd\xa3{\x07Q&amp;S\xb6\x1d\xf4\x12\xa2\xbev\xedZ\xf9\xab\xb16\x86\xc4\x02L\x97\xc5\xb9\x11O",\xcfd\xdb7\xea\x8f\x1f\xd5|\x10whi|\xa8\x04C\x01\x9e:\xef\xc7\xfd\x19\x1drU\xd2-\xa5\xd2\xf5\xdc\xfb\xb6^J+\\\xe1?\xae\xe3\x85%\x87\x1dr\xc5\xb9\x89\x7f7\xa9\xb4\x9f-*\x07\xed\xaeP|\xa8\xbe+[\x17\x1d|\xde\x10\x96j\xdc\xe1[{:\xe2A\xd5\xa9\xf4%H!IzQ,\x9b\xc8^K6]\xa1"\x87=\xb1\xa3\xea\x98V\xd1\x97/c\xdb\xea*y\xec\xf1s\x86\xec]\xd7\x0b)\xdc@\x8f\xf4\tsc\xdc\xa5[\xa1&amp;\xb2\xbe\xc7o\xb1\xdcR\xe6i/\x89uo\xa9I\xb5\x84\\\xbe\xd8P\xfdV\xb7\xe0\x98c\xdf\x1c,}F\xc7\x95\xb2+#\x1a\x0b\xaa\x15%\xa7]\x95\xcc_V\x1c\x9b\xe6k\xc1*R2\xac\xbd\x18\xac\xbd\xafW\xb5\x9a\x8dy\xf1l\x11\xae\x01\x9e_\xe1b\xa6gyQM(;/\xd6\x00\x87S\x1a\xdfn\xf8,\xac\xd3\xea\x96\xef8\xe34XJ?\x80\x1b\x84\x8f\xa68w\x0b\xe7I\xa1\x84\x1d*\x05\x1fq\x99\xd5\xf1m5%QU$\xc4)\xc5\x80u\x80z\r\x96x\xa2S\x08\x15p\x85q)\x96\xa4^\xcd\xc0L\xffQ\xe6\xbfb\xd6\xfb\xd0\x862j\x19\xc4 O\x12\xb1\t\xbd\x15T-\xa0n\xa9\x1eF;1\x05\xed3:\x00\xc9RsBN\x87H\x05j\xdf\r\xd5\x0f\xdf\x8e\xb1\xa0\x8a@\x1c\xdc\x08\xc8\x9eL\t:\x1a\xe2M:\xd0\xde=h\xafbX\xdf\x0f\xee@\x15\x85\x01\x80*+a\xc7/\xb4\x80\xf3\r\xa2\x90\xfe\x06ot\xc2\xd5M\xb8\x8f\xe3\x0fX\xbdUe\x89;y\xa1\x01 \x88\xc2u\xe0eMj\xa4\x1b\xae\xcd\x0e\x00T\xe9\t=B\xa6X~\x18\xcc\x8c^i(\xfe&lt;\xdcTu\x00\xfe\x81\xba\xc7BB\xa5T\xe6\x87\xe0\xad\x82\x1b\xc7Le\xff-\x80\xca\x98\x93\xe8S=d\\\x1d\x070\xc3\xbdK\xa4Hf\x91\xa3\x10\xbc\x9e\xa4\xa1\x82p9\x0f\x91\xbe\x02\xc2\x8e\xf2)X\x03\x832\t\x9e\x0cTBf\xa3\xfc\x85n\xe0\xdaN?\xce\x9fn"\r8\xbd\xf2\xd6\xd3\xbad\xa0\xba\r\xa2\xe5\xe7\x87\x91n\xcf\x91(\xbduvO\xce\xe2\n\xf2\x84$I\x83|&gt;Kh\x0f\xa9\x8e\xcd\xc8)\x91c\x17\xa9\x92u\xc9\\`U\x12\x0f\x97\xca+\x90y&gt;\xb4\xca\xd9\'e\xef\xa7\xe8\xd1\x03\ng\x98\xfbHH\xa2\x94e\x11=\xcb\xdf\x00\xcf\xfb7\xd8\x89\xa2{\xd8\x15\xb5\xb2\x99\x0cBR\xc5\xd0J\xeb\xbf\xde\xf8\xbd\xe8\xa2uU\xbf\xce\x10\x92,\x19\x16b\xcdI\xabQ\xd1\xfe$SH\xbe\xd4*\x07\x13}\xdf\xa0\x1e\xa9\xa3\xb4\r\x15T\x0b\xf7"y\xcaa2_\xc8\'"\x04\x07\x15/\xde\xfaH\xb8\'1\xb4)\xce\xef?B\x9f\xf3%\xd4ae\xc9\x10\xeeMRJ\x95\x0fy\xe6\xc5\xea\xf9\xfd;\x8a\x9f,H\x13\xeeU\xca\xa1S\xa6\xda\x91N\xfa}\x88\xf06\xdd\xfby\x8b\xd9\x95PY\xe3B\xfe\x92\xd3P}\xc3\xf8\xf2\xde\xcf3\xbc\xa5\x0b\xa1c\x94:v\xefl\xd6\xda\x10\x14\xe7\xb4\x96\t\x0f"\xcf*\xe1\x18\xf9\xd0\xdd\x1f\x80\xd2mci\x86\xf0P\xd2\x02\x9f;\x15\x82\xab(\xa6|\xe1\x01%\xfb\x05\xf1\xc4\xc5\x82\x8a\x14\xe1a%\xdf\xa4FU\xf9\xc0\x07\x9e\xdeE\xad9\xd8\tb\xcfK\x84\x7fB\xb2K\xd3\x15PO\x1f\xfc\xfbA\xde\xc8"\xa9Xzc\xb6\xf0/\xc9\x9b\xdb\xe2\x82\xd1\x9c*\xfckRnj.J\xd8d\xff\x03\x1e\xbb_\x08\x91\\\xb6\xda\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +580,14 @@
       <c r="D6" t="n">
         <v>58766</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpL\x8e\x03%\xa8;X\x8d\x04&amp;\xc4k\x81\xadOk\x8d\x03%\xcbw\x96\xb6d\x81\xb1Wo\x8c\x02$\x91\r/\x8e\x04&amp;\x97\x1f&gt;\x95\x145\x90\n+\x8f\x06\'\x9d+G\x93\x101\xa45T\x92\x0f0\x99!@\x9b&amp;D\x93\x133\x9d.K\xa11N\x9f/L\x90\x0b,\x93\x123\x95\x188\x94\x144\x8f\x06(\x91\r.\x8e\x06(\x97\x1d=\x95\x177\x92\x0e/\x95\x199\x92\x112\x94\x123\x99 &gt;\x93\x134\x9b%E\x91\x03(\x93\x134\x8f\x06)\x8f\t*\x93\t.\x91\x08+\x90\x07(\x96\x1b9\x93\x111\x96\x1c&lt;\x9b\x1d:\x97\x1f&lt;\x93\x1b9\x96\x176\x97\x1f;\xff\xff\xff\x9f\x02/\x00i@\xfe\xff\xff\xfe\xfe\xff\x01i@\xfd\xfe\xff\x01h&gt;\xfe\xfe\xfe\xa0\x01/\xfd\xfd\xfe\x9f\x01.\x9e\x02-\xfe\xff\xfe\x01i?\xe7\xcb\xd4\xff\xfe\xff\xff\xff\xfe\x9e\x01,\xa5\xc9\xba\xff\xfe\xfe\x9e\x02/\x9e\x04/\x9f\x061\xa1\r6\xf5\xe8\xec\xfd\xff\xff\x0cmF\xfb\xfd\xfd\xfc\xfb\xfb\x8f\x08)\xfb\xf5\xf7\xf9\xf3\xf6\x12pI\tkC\xfd\xfc\xfc\xa2\x13:\xed\xd6\xdd\xf3\xf8\xf6\xa4\x17&gt;\x19tO\x8d\x03%\xfb\xf7\xf9\xfa\xfc\xfc\xf5\xe5\xe9\xf8\xf0\xf3\xeb\xd1\xd9\x05jA\xfe\xfd\xfd\xf2\xe4\xe8\xf6\xeb\xee\xe3\xee\xea xT\xf0\xdd\xe2\xbfd|\xec\xf3\xf0\x98\xc0\xb0\xf6\xfa\xf9\xee\xd9\xdf\xf7\xed\xf0\xe1\xba\xc5&amp;|Y\xd9\xa9\xb6\xe9\xf1\xee\xa0\n3\xcf\x8a\x9d\xf8\xfb\xfa\xe0\xb7\xc2\xf1\xe0\xe6\xa0\x01.\xd1\x8f\xa2\xc9\xde\xd5\xe4\xc4\xcd\xc1h\x80\xe2\xbe\xc8\xbah};\x88h\xdd\xaf\xbc\xfe\xfd\xfe\x96\x187\x91\x0c-6\x85e\xa7 E\xdf\xeb\xe7\xbcVr\xdd\xb3\xbf\xaf3U\xa1-J\xfb\xf8\xfa\x94\xbd\xab\x9c\xc2\xb2\xcd\xe1\xd9+\x7f]O\x94w\xbc[v\xbd\xd7\xcc\xab(Lr\xa7\x91\x8f\xba\xa8m\xa6\x8f\xcb\x80\x94\xc4\xdb\xd2\xed\xd3\xda\xf0\xf6\xf3\xdc\xa9\xb7\xfc\xf9\xfa\xe5\xc6\xcf\xb07Y\xa6\x1bB\xcc\x8e\x9e\xb4Db\xa8#H\xb4Zp\xb7Lj\xd8\xe7\xe1R\x95y\xda\xa4\xb4\xe9\xcc\xd4\xcb\x89\x9b\xd6\x99\xaa\xf9\xf1\xf3\xe9\xce\xd6\xb0Rj\xaaE^\xc9|\x90\x99\x1e=\x9c&amp;C\xe5\xc0\xcb_\x9d\x83D\x8do\xa0*G\xcb\x84\x97X\x99~\xe7\xc8\xd1\xd4\x94\xa5\xae\xcd\xc1\xacJb\xa58S\xaeNf\xda\xae\xba\xb5Ge\xd3\x9f\xad\xc3|\x8fe\xa0\x87\xbe_yk\xa3\x8c0\x81`\xd4\xe5\xdef\xa2\x89\xd8\x9e\xae\xc4l\x84\xe9\xc9\xd3\xb9Qn\xd6\xa3\xb1\xd5\xa6\xb3\x94\x100\xa6;V\xbcn\x81\x82\xb2\x9e\xb2&lt;]\xb4\xd1\xc5\x8a\xb7\xa4\xda\xe9\xe3\xc5v\x8c\xa8A[u\xaa\x94\x93\x0f/\xa22N\xb8aw\x95\x132H\x90s\xc8x\x8e\xb9\xd4\xcaA\x8bm\xe1\xb2\xbf\xd1\xe2\xdb\xc5r\x89\xc0v\x89\x83\xb4\xa0\xab.Q~\xaf\x9a\x87\xb4\xa1\xa3\xc6\xb8\xd0\x97\xa6[\x9a\x80z\xac\x97\xc5\x82\x93\xd0\x9a\xa9\xfd\xff\xfe\xdd\xb8\xc2F\x90r\xbfp\x85\xab\xcb\xbe\x7f\xb1\x9c\xcc\x94\xa2\x9e%C\x15R\xb3\xbc\x00\x00\x00:tRNS\x00\xfc\x1b\xf5\x03\x13\xf9\x01\x06\r\xfc\xc3\xf2P\x83\xd6\xee?\xaf*\xbaYL\xa37#0\xce\x94m\x89\xea\xc9\xe2c}\xb3t\xa9\x9b_\x8fE\xad\x9f\xe5\xde\x8a\xe2\xfa\x93\xd2i\xad\xf9\xc3\xf0\xa82K\xc6\xc1\x00\x00\x18UIDATx\xda\xcc\x99[LS\xd9\x1a\x80EF@P\x10tDgt\xc4\xbbg\xcextt\xce\xad;keg\xdf\x1a\x8a\xb1\x17\xc8\x946\xa1M\xd3\x86\x12JB\x1fhc @\x03%\x80!\\|"} \x84\xfb%\xe1\xa6\x82$\x10\x8c"\x1a^@\x1c4&lt;`DCB0&gt;\x98\xe8\x18\x939\xc9Yk\xed\x02\x85\xd9\xbb\x85\xc9\x8c\xb0^\xac;{\xff\xeb[\xff\xfa\xef\xec\xda\xf5g\xad\xc8\xb3Gv\xed\xc0u8\xec\xe4\xee\x9dGup_\xd7\xbd\xa4\xa8\x9dF\xb5\xfb\x1f\xcf\r\xe6\xd9\xc4\xafv\x16\xd5\xde\xa4{9\x00z\xd3c#w\x12U\xd4\x99\xca\\Z\xa1\xe0\x1e\x87\x1d\xdfIT\xe7f\x939\xa0P@\xa6\xcfzj\xe7P%\xde,d\x14dU&lt;\x89\xf8z\xe7P}bT"\x16\xe0\xdeF\\\xd8\x19T\tHW@\xb1\xb2\xb2\xdfF\xff\xb4\x03\xa8\xf6\x1cz\xe3\x85i\x18\xe8\xba\xc8\xc5}\x88&gt;\xbd\xedq\xe2h\xdcP\x16\xd1\x15`n\x98!Q\x1a\xf31\xfd\x87m\x8e\xab\xf1\'\x16\x1c\x1cQ\x12l\xd2\xb6\xe5BH\xb8jn\xc6lg\x1e\x8a:\x1bv\xc7HCQW\x1a\x8a\xaa\xcaeR\xc8=f\xdd;\xb9}y{wBz\x9f\x9e\xe8\x07rSZ\n\xad*3-\xea\xcb5\x1eqz{.2r\xff\x89\xa1\x12\x8e&amp;\xe6\x04&lt;\x1a\x8aEX\xac\xa5W\xbcR\xa0\xefK\x8f9\xba\x1d\x1e\x98h\xedr\x01?\xc3\xa2\x80\xa1\xf0\xd2\xad\x04\x0b\x98&lt;\xb2\xef\xf8\x97VX\xd4O\'\x86\x1e\xd1\xfeP5P\xcdS\xbc\x1f\x8b\xd2\xde\xcf&amp;\x0fi\xda\xf86=)\xfeK\xa6\xee\xc8\xc3q\xe9/\xec$,@@\x17\xd5R\x81KSj 7\x0b\x14\xaa\xc6\x97a\xe7\x0e~1\xa8\xf8\x18\xeb\x033Gl\x1b@\xcem\xe2\xd9@,Vhu\xf8\x83&gt;\xcc\xb81\x14q\xfe\x8b\xc4\x8a\xbd\xfbc\xac/\xbd\x90\x16#;0\x0cj\xa8\r\x8bU[\x96\x18 \xeaRe\xfbm("\xf1\xc8_\x1c\xf5#\x0f\xc6^L\x1fo\xc9\x86~m\xa4\x99[y\xea\xf7\x8b\xd5\x94\xdai\xff;\x8c\xe1q]X\xd2\x85=\x7fa\x9c:\x9e\x14V\xf99\x97c\x18%\xd2\x04RGsA&gt;\xa5\xa6\xa4\x96\xd0\xe9\x85\n\xe0\xb7\xfd\x0c\xefxz\xf8\xb9\xfd{\xff\xe0\xf5\x04Q\xf5W{\xbe\xff\xeej\xf4\xec\x9dG\xcd\xfe\nF\x01i\xeei+\xcfSrK\xe3\xcc\x84\xabu\x05Lm\x7f\x98\x1e~\xe8\xec7{\xe5=32J\x9a\xfb?q\t\xa7\xbf&gt;\xb2{\x03]\xd4\x9e\xa3\xdf\x1fO\x8c\x0bO\xbfW\xf6\xc9N3i\xab;\x15M"\xabb)\xf9e\xf2\x18W^\x06\x0c\xcd8\x1e\x8fWZ\x0f\xc4\\\xb9\xb0q\x8bH\xb4E\xfc\xa9+\x87N\xfeW\x12k\xf6\xee\xf8\xbd\x9b\xd6\xe8}\x17\xaf\x1eJ&lt;v)66\xf6\xd2\xb1\xc4CWO\x84G[+\x9f\xbfx\xe4\xc8X-\xa9\x144\xc7\xe4\x0c\xea\xa8\x90\xab\xaa\xe7\x16\xad\\\xfbLa3\xbf\xef\xaa\x9bE[\\\x8eI\xf8\xe1\x12\xda\xe2\xbbK\xe7\xcf\xfd;\x0eo\xf1f\xa1k(A\x12\xeb\xc7g\x90\xb1\xe5\xba?&gt;)\xbbs\xf7a\xdd\xc8\xc8H\xdd\xc3\x97w\xca&gt;&lt;nI\xcd\x80\x80Q@\xc5\xda\xd9s\x1aL\xd4&amp;\x16\xcf\xfbn\xdc\n(\x11\xd1\x97)\x15\xcd\xb9\xee\xdf\xe6_\x8f\xbf\\@;\x8c,&lt;\x7f\xd0\xf5y\xf4\x17\xb4\x05\xc3\xdc\x95\xc3"v\x03\xc4,\xb7*j\x05\x87&lt;QA\x083\x1aKu\x82\xfc\xfd\xa1\xe7\x01\x16\xc7wzR!P\xf9\xc5\x01\x10 k\xf5\x07\n\xbc\xf8\xc7\xdd\xbfKb\x85\xddP\x84\\\x80v\xf5\xcci\x82Y\x14%X\xea\xdd\xf3\x01\xaf\xb0\xba\xfa\xe1[\x10\x86\x96\xfd\xe0\x0fb\x01\x85\xa1\xa6^\x87\xe3\xa5\xa4\x8a\xd4,\x8f\x98\x9c\x85\xcd\x8c\x92+\xb4\x14\x07^f\xdbbr\xb6_E\xe0O\xc3B\x11H\t\xa01\xeb~7\xbe\xbc\xf54:\x96\xf5\xffb)\xd3\\\xc3\x98X\x7f\x01\xda\xd1M\x05\xdc3\xab\x16\xda\x9cME\xb7\x00Lc\xb6\x8a\x15\xf1L\xe6\xfd\n\xbby\xa9\xa1\xc3\xa2\x16~\xa7$\xf5D\xearU\xbeF\x93oyW]0f\x07\xf0W1V\x01\x06f\xf4X\x02\x95\x8a\xe8ymU\xb5g\xb8\xc8 \x87%c[?\x8aX\xf7\x9fx\xa6\xca\xdd-\xc9\xbd\xbd\xc9%\x9f\x9a\xfaGK;\xd0\xc6RaS\xcdR\x13h\x0f\xbd\xdd\xe1\xb07g\xaf\xe9\x16\xd2bm\x98Z-\xf1\x95\xa0\xd1\xbd\x9bY.@;\x94\xf4\xf6\xf6\x8e\xe1\x1d\xfa\x96\xc7`0\xac)"v\x12\x1f\x8d\x17\x04\x81\xe7\x05\x9e%K\xc6\xb8\xd5\x1dF\x88/\x0c\xa2\x94\x1c\x10\xd4*n\xf7\x92\x9b\x82L\xa1O-\xed\xaa\x14U\xccc\xf9\x02_\\\x8cJ\x8er\x82\xf5R:@\xbcyO\xc4:\x03)\xd4\xc1|\x0eQ\x81u\x1e\x01P\xf9e\xf3vkMc\x90\xc49h\x185!O\x90\xa0Z\xf7[X"\x8d\xc9\xc3\x7fJbU\xb6\x13\xe9\xd3\xd4&amp;W\xab\xd9\x18\xa8%\x94%i\xdb\xd3\x86N5Rv~\xbb\r\x17&gt;\xe8&gt;S\x9d\xda\xa0\x19\x8a`\rc\xac\xebu\xd2X\xff\xfa@\xce\xbe\xc8o\x96K\xd09s\xfc\xfa\x02\xc6\xcc\xe4\xa6\x86n\xd35\x12\x0f(^\xe8\xecw\xe1\xc2\x87\x81LVmH9\xc9XH\xf6\xff\xaeHb}\xfb\x96lQPLmz\xb1&gt;\x17-z\xde\x9cpm\xfdq\xaa&gt;a\xb3\xa3]\xfd\xad\xda\x90XyX\x86~(V\x12+\xa6L\xf4\xc4-`Q\x82S\x8cSi\xd5T\xa0g\xb0\xeaj{\x1a\xae]=\x16a\x13\x87K\xc52\x0co\xceJb\x9d\xe9"X=\xfc\x16\xb0(]\x0e\xf9H9\xbd\xce\x90\xb5\x05\xa8]dh\xf3;a32\xf2\x07\xd05\xa9\xec\xaf\xa4\'v\x89\x0f\xc8\x0e\x85[\xc1R\xf3M\xa2\xb9\x17\x04b\xe5\xf7\xd0xdY\xaeSoJ\x88\xc9\x86\'\x899\xe9\x87%\xb1\xae&lt;\'~\xf5tK\xda\xe2\xa7\xd3R\xa0\xc1\x91\xb5(\xe0E&gt;\xe55\xfd(nAe\xb9v\x932\xda\xf4X\xdfEV\xe9\xb1\xc5\xe9\x11\x12\xaa\xf3\xb6B\xc5\xaa\xe7j\x9e8\x9d\x83\x1f\x1fy\x87\x87\xdd\x8f&gt;6L\xcf\xd4\x9a\xea+\xf0\xe9\x1bujvsB|x_&amp;\xcb*\xddR\x1e\x1f\xd2\x93\x9c\x91\xbf\x89\xab[\xdd\xb0\xcdYhT\xa0zj\xa5HS)\xe8y\\\xc4\xa7\x18}&lt;\xb625OYB\xd1\xcd\xe1\xa4\xa0\xf2\x86IwG\xfb_\x91,j\x0fQ\r\xab)K\xbfO\x83n\x8c2\xb5.\x96\x18\xe8\x8d\x19\xd7\xe0$\xff\x14\xf4LV\xe9\xb4\xba\xcezof\xa8\xf2z\x06\x17\xd6\xe0\xc6\x01\xe9\x89\xc5\x91\xf4\x1c|\xe6\xe6\xb6P\x16z\x1b\xea\xf3\x96z\xdcy\xc6\n\x00\xe9\x95zS\xb5RN\xe5yP\x16\x829\xa5\x1cl\x1ep\r\xe8\x01\x84\xcb!\x04Ncm)=\x97\xa5;\xaf\xa3\xd6,,\x1a\xb6\x065&amp;JW\xb2\xbe\x18S*9\xbd=\xaf\xa4\xa6\xa9\xa7\xa7\xa9\xa6\xa41\xb5e\n\xc7\xd1\xfe\xac\xb5z\xd4\xa1\rz\x8d\xbc\x07\xe7\x1e\xf0\xf6[\xe9fmOx9\xe9\xd0\xab\x83\x07*\xef\xbak\xcbN\xadi(+\x9d\xf7\xdcG\x05\x01j)\xf8k\x1a\xdd \x92\x91\xe1\xd4\xafbe\x0c\xb7\x05\xc7*\x07\xe8\xdd\xb4\xae32\xc3\xa1\x13\xed\xbfb\xac\xc1\xa0T\x85\xabe/\r\xb8"O\xab\xa9\xd0\x85[\xb5\xa2\xd5Q\x04_\xcbA\xa5#\x7f\xe2g\x7fS\x917\xa1\t\xe1\xcdYd\xb0\xf9\xfc\xbcL\xe7\x1c\xf7\x02\'^0\x15\xecd\xa5\xcfr9?\x16\xd72\xa3\xe5y\x93\x91t\xb4\x8e\xd5\xa6\x82\x15\xdc4\xd7\xc4\x93`\x84\xd4\xe6\t\xe5\xd8l&gt;\xc9=\x19Cge\xda\xed\x84q\xec\xe7\xc0\x1b,\x9e\n\x82\xf6\x99\xbf\x8d) \xd1Sg\x04"\x96 \xa8\xd1E\xa2G\xc5&gt;\x17\xb7Lu\xe3z\x0b\xbafB\xa7\x1f\x0b\t\x00\xc6\x9b\xfbe\xb0\xbe\xab\xc3\xfb)sC(\xdd\x94\xe9\xc7b1\x83n\x80\xfc\'\xb3\xde[R\xe2^\xea\xb9?89Q[m\xeb(^B\x0f\xd3rj7\x91\x14\xdf\x91\xe4\x92\x17-7\xa0\xbb\xf0J\x8f\xc3\xb31?\xa8\x85\xb2\xbc\x87\x060E\t\xfa)\x01\xf5\x0cN;\x91\x9a9\xa8R*Q\x1f\n\x14\x10p\xbd\x933\xddF\x14\x19\x0cs\x14\x15:\xd2W\x8b\xa98\\n\xd6\x14o-\xc2q\x1a\xf8B\xc8\x99\xc0\xaduVC}\x81\xb9\x02*\x1b\x06RD\xac5\xefd\x98&lt;\xf7\xe74\x00\xb8y\xdd&amp;\xa8\xa8\x06b\x05\xed\x17\xe5\xe6\xbf\xbb\xa3\x0b\xc9\x1b\xf5l\xf0l\xdd\xa9\x1fx\xf6\xba\xdd\xc1q\xc8)\x99&gt;\x97\x1fk\xad\xac\xa7\x95\xb4\xbb\x1c\xf9`\xd6bjO\xbdO\'\x88\xb1C\xd6Z\xc5\x1a\xa4,Fv||\xa0\xcfo4\xc1\x93\x8f\xa9\xbd\xde\xab\xf7\x07wX\x90#b\xcd\xe7\xa4\xba\x06l\xd9\xd8iP\xaf;\x88\xbc\xeb\xfa\xb4\x1d\xbb\xa2=\xab\xbc\xbfo\xb4o^N\xde\xb5F"I.&gt;\xe0\xfa\xf45y\xc3-\x04\xd5\x96\xa6\xe3)\xb7\xd2\xf20\xb6\x06\x11\xcb\xa1\xe5)\x8dVg\xea\x9c\xab\x9e\xf7\xd4\x98\xeb\x91W\x18qrT\xa9\xae+\xb1\xd1\x81\x8c\x19\xb9Hh\xc3\xdf7\xbf\x91\xffs\xf2\xb1\x05b\xbe\x8e`\xee\xc3\xfb\n+p\nD]\x8d\xedv_\x87I\x93*bi\x02\xe7G\x026\xe3\xbc\x02\xb8\xd2\xd9\x03\xdc\x03Y\xa4\x05\xd6\x92l\x9ak\x8d\x97\xc5:5KB\x08S%_\xce\xebFmb\xf5\xce\x99\x07\xabp\xe1\xa2\xf5c\xad\xaf\xf9\x16QQ0\xd6\xd1\xcb\xc1\x95A\xcf\xcf-\xa5\x16\xe9\xfa\xab\x14\xc7JP\x13!?\xf4\xfd\xc6j&amp;\xd9wFvp\xe5\xeb\xa5\x91\x0c\x00\x19\xf7\xe4h!\xb63V\x9bI\xe6}E\xeb\x83]\x01\xd2\xd3mA\xe34\x8a\x7f2\x83\xaen\xb9\x89\x980\x85\xd1\x99\x0f\x97\xe5\xa7\xaa{\xc3\x7f!g\x1b\x95\xd3\xd5\xa4\x11\x9f\x9f\xce.q&gt;\xbeE7\x92\xbb\xf6cm\x88\xc1}\x88&amp;SK\xf1\xef\x1cD_6\xd9\xaa\x84\x15\xf208|\x90\x10d\xd8\x9cTFJ\x1b\xaf \x9d\xbc&lt;\x08\nm\xe3(}oC*k\xe4\xd7a\xad\xe8\xa2\x18\xf5\x15,.\xa1\x9a;\x05\x96\xf2\xd9\xf19\xcby\xd9f\xc3\xa2\xc7\xdf\x1b*O\x07\xc1\xfa\xdbB\x05bW\xe6\xe4K\x84\x05VWC\x1c\x82.7\x99Iv\xde\x80\x85\x0c\xfd\x9a\xda\xe4\x9b\xa8\xc7|\xb58#.\xa3\x17\xd4N\xf8\x7f\xd6\xad=\xa8\xa9+\x8dc\xedbA[\xb5j\xbbU\xa7;\xdb\xedc\xed\xb8N\xff\x8e\xb9\xe7&gt;\xb8\x90k"\xf8\x80\x040AB0#\xb1&amp;\x9a\x04\x05j\x16\x07\xa9T\xa4\xa9\x0fBX\x860\x94\xd6\xb6&gt;`v\xbb\xd2\x19\x85\x11e]]\x91G\xd7Y[]`\xc4\xb5\x0c.\xbb,X\xd8vl\xdd\xce\xec=\xdf\xb9\t7\x84Gx|3\xccps\x93s\x7f\xf7;\xdf\xf9\xce\xef{\x1cD\xa1\t\x13\x08\xb1\xeb\xaf\xe3_k&amp;\xb3\xf8\x88\x88\x15_\xe1\x9c\xb5*\xf9?\xe3\xe8j\xfb!p\n\xa9\xff\x8a\xdb\x94\x8fB`)\x0e\xfd\xe1\xca\xb1\xf3\x89i\x9c\x86\xc7\x96\xb9\xf9\x968\xccy\\d\xdc\x92\xcd \xaapBO\x18{\t\xcc&amp;w\xfed\xc5\x84\x97\xa2O\xa9q\x8c\xfc\xd7\x98\xb1\xa9\xac\x98\x8c\xcb\xc4vO\xc7\xae\x8f\xdb\xa3\t\x855JW?\xdc,.\xb9\xe3;\x11\xc3\x9f\x83\xbdE\xf4q\x9f\x8f\x97\xae!#\xdf\x02X\x87WMV\xe1{\xe6-H\x8f\xa8\xff\x197\xd6\x16\xb6^D\x84\x12\x88\x03\xc7\xa5\x03\xac\xac\xf1a1\xe8&amp;\xce?\x1d\xcf\xe2Q\x16^\x07\x9f\x88\xfc\x0c|VLlh.86\x03J\ni\'VOZ`y\xfd\x1ex\xc0\xc4-\xc1\xb0b\xb6\x1c\x83\xb5\xb0\xef86\xe8\xb8\x0f\x01\xd6\xef\x0f\x12Xp\xa1Psi\xa9;\x930\x03A\xd9`\x9a\x9b\xaf_9\x85\xf9\xf7;\xe9\n\x15s\xeb\xfd\xd8\xf5\xdbs\xf3\xcf\x85l\x1f\xd7\x81\xa7\'N\x10Q\x8fu\xa8c\x93?W\xc0\xae\xb6\xfd\x9d\xb8\x9a,@r\xf9\xa0\xdc\xe4\x0bO\x9f\xd9\x9a\x81\x99\x18b.JA~,$qbN\xef`xf[n\xe1-\x86\xd97\xb6\xca\x10{\x00\xe7\x13\x93\xde[4y\x05\xed\xa5\xe8w\xc1&gt;.\x05G\xab\x85&lt;d\xa0n\xae\x97\xc3\xbaH&amp;1\x11{i\xc5~\xbcV3R\xb1W;\xbf5(\x99\x18\x13{n7J\xa24\x88\xa7x\xf4\xbb\xb1\xda\xc2\xc1\x16\x85\xee\xac\x9a\xbc\xe2\xf8\xcc[\xff\x06\x13\xbc%\xf7\\\x07\x8f\x83\n\xd1\xe7\xd2\xcc\xc6\xa5\xabFs([\x12y\x15\xc7}\x8f/bnb:\xbd;$\xce\x8c\xc98\x90/\x92D\x95\n\x9d\x1c\xebV\xdfO\x83\xfe\xaa\x0b/OQ\xbd[}\x02b\xc9d\xf9\xd8\xdb\xb3)\xbc&gt;\xd3\xb7\x06\xd2d\xa0\xad\xf7\xe2\xc0\xea\xb26\x1c\xfb\xf2\xb3K\x0f2&gt;\xfd4\xe3\x9a\x08k\xd7\x07\xe2\xc7\xef\x84\xf8\xf23\xe7\xf6\xfe\xf0\xc3\xde3\x9b\xc68\xc3BN|\x11Uv\xf4\xd2\xa9\xfa!3\xf3\xa1\x86Y(\xdb\n\xbf\x14Cg\x8a\xd9\xf1\x89\x7f\x03\xdf\x94\x0f\xda\xfa\xe8`\xdc\xf63\xa7\xf7\x1e\xf8\xe8\xd4\x9e\xc4\x9d\xa9;N\x9e\xdc\x81S\x1c\xc9\xa7\x0emH\x9f\x88-\x84\xf0\xef\xfd\xb0\\\xfe\xb7d\xaa\x12h\xd4\xfc\xef4\xb8b\xfa\xdb\x8d\x92\xc4m&lt;\x075`tec\xe0\xa3\xb7A[\xe7o\xa7oKC\xe2.\xa4\xd1p\xaa\x04\x91H#\x892k\x12\xa8\xf77\x86%\xdb?\x06\xeb\xb8\xf7\xfc\x945\xd8W\xff\x04Q\xf3\xc9\r\x01!M\x18L\xd6\xe8\'\x1fOUUR\xc9\xbe&lt;\x99\xa4\xc3\x9b$\xa6L\xdd\xb9\xf7\xeb\xfb;\x89\xb3\xa6\x02\x14N*N\x04\xa2wDMY\xedJ\n\xa3"\x86\xc7\x84\x91r#\xa7.\xb0\xffl~\xae\xf4\x93\x04QF\xc1\x90k\x10\x7f\xd1\x1e\x8f\xa9Q\xa9\x15\x1a\x8d\xc6\xec\xac\xa9\xa9q\x89N\x95\x81\'\x89\x8c,aJ\x11\t.^J*\xee\xcf\xcb\xc3\xe8)X^OB\xf9\xe6x,}\xfeDHE|@\x9aIz\x81\xe3uNw\xf5\xa3\xa1\x9e\xd6\x96\x96\x96\x874K\x17\xe1\xaf\r\xf5\xd9y\x06u\xc6\x87#\xfd\x98/\xab\xf6\xdd\x0f\xa7k\xef\x95\xaf\xfe\x08/\xdc\xc2bi\xca\x93\x12W\xe4\x12\xc4f\x86\x95XZ\xe7\xd5\xb3\xac\xde\xed\xd2\x886\xee\x13h\xda\xa4SP},k(o\xa7r\xd8P\x11B&gt;\xa9 \xecaQ8M\x12O\xcd\xff\x0b\xf4\x90V\xb3\xb4R\xa9\xa4M\xed0e\xeafA\xe9\x17/\xe4Xy/\xbe\xaf491\x0b\xd3\x0c\x89_e\xfb\x93P\x8dV\xfcG[a\xa2\x95!B?\xf6\x19Xz\xf4\x06ms\xc1\xf2\xa8_\x1eN\x7f\xd0\x82W\xefa\xfd0\xe6\x1c\x80E\xe7\x18\xe1\x9d\x8c\xa6\xc0xE\x00\xd4i\x92\xc3\x1a\xc0_\xad\xe2x\xd4\x82\xff1iCa\xb1-.\xde]\x89\xd5\xe8\x87\xd5\x03\xb4rwJx\x9d\xaa\xcff\x12w\xe9#C\xd3wa\xc1\xa0R\xc1\xff\xa8r`\x19\xa2^\xf0\x07&amp;xe\xcd\x13|C\xeb\xe6\xa8n\xad\xa0\x1cGS\xb4\xd6A\x88\x86\xbd\xa0\xd9\xe1k\xb0\x88?\xb5t\x83y|\xbb$\xbcF\x97\xa8%\xff\x85\xd7\xc8\xd3\x92\x11\xf5n\xcc\x91\x911\xc7?\x01\x1d\x1a\x0c\xd3j\xc17\x95d&amp;4=\xf8\x86\xf0\xd0\x89\x92J\xd9q`\t9\x05\x8c\xbf\xe7\x80\xe3&lt;\xa0\xccFHO\xa7\x9dx1\xcc\xae\x965?%c\xfdpM\x04\x96\xb2\x97\x03\xedU[\xa4G\x0c@f\xb8L \x06\x02\xcbRSEt\xd2\xe4J\xd0\xb5\xb0!\xaab\x1bj \xa3\x87\x81 \xc6#\xbe\x9f\xf8Y\xb3\x08T\x856d.\r\x13\xd6\xb2\xcc\x8b0m\xd5\x92vX\x0fh\x0fu\x91k6\x1eO\xa2\xa6\x13\x9eN\xe7\x00,U\x87\x04\xb9\xa8\x9bw\xe5\x8cU\x95\xa9\x99\x93|2\xde\xf2\xf3\xb4X\xed\xb4\xcd\x0c{\xda\xe1uawQ-\xac\x87D\xa4\xb9M\xb2.-\xacFJ\xd7*z\x01\xf1E\xab%[\x83{^^\x06K\xbc\xa9\x1d\xb1\x96\x04iJ0\xb4\xda\x19\xbcu\xaak\x1c\xc3w\xed\x9c\xba\x02\x8cT\x18\x02\xc7\xbb\xfb\xfeka\xf7&amp;\xad8J\x12~\xf1\x824\xb4\xd7\x08Vnn\xc5\x0b\xdcb\xc5\xae\x0c\xf5\x90[%`\xb7\xaa\x86Q \x06\x83\x1c\x16\xdb\xd8\x0e\xbf\xd50\x15&amp;A)x\xed\xc8\n\xda\xd2\xdbA\x7f\xdf.\n\xbf\xb3+\xea\x177`(\xc9)\x88vPG\xa6\x8a\xf1\x19hZo\x84\x9d\xb2\x8e&lt;\xb7\x04F\xd74\xc9\xf4#GU\xd2\'\xe5!\xa8N\xbc\xfah\xba\xa8\xb2\x15&lt;O\x07"\xb1\xc5\xdai\xb4r=W\x0c|T\xed\x93\x16;-T\x99a%\xa9\x0b\xda\xd8\x1c\x80\xack#w\x1e\x12Xu\xe39\x05\xc3\xe3\n\x9d\x7fOu\xeb\x83\xeeYj\x19\xcc\x9f\xf6GN\xa7\xa5\xf1\xa9H\xa8\xf2#\xbf\x0f\x15\xf5Ue&amp;\xe1\x96\xb3\xb4\x1c\xfeq\x91\xc7\xd0\x8dp\x95\x10\n\x8b5U\xd5\xf2\xa3[}k\x90\x12\xe9&amp;\xb0O\xfe\x8b\xe5\xd3\xea\x00]{!\x19\xb8\xff\x10\xeb\x1f\x8d\xad\xd4\x91\xcd\xd1&gt;\x02sb\x85\x85(\xd0uD[\xbd\xb2G\x8a\xc2j\xeb\x9a]\xf2f\x04\xa3&gt;\xc8\xef[j\xe1\x1d\xcfg\xbe0\xad\x86\xbce\x91\xd7`\xbf\xce\x0b\x8cF\xb3M5\x80\xab\xfa\x11a\x14\x12\xac&amp;\x02\xabq\xd4\x1d\xd0\xda\xb6\xaaN\xa3Z\xce\xb8(T\xc0\x06\xc1\xaa\x83\xf5{\xe4\xec\xaai\xf6X\xbe~\x15\xba\xdb\xa8!\xbfu\x89\xcf\xf3\xb6cN\xe8\x83\x17U\x94:\xaa\x1amZ\x96-\xef\xb6\xdaE\xaeU$\xdegY\x8b\xde[7P\x91\xc7\x05\xd8"\x85H\xab\'\xe3\x91\xc3\xa2\r\xb58&lt;D\xe9)\xd3=\xb8\xb1r\x1ea\xffv}\xd0\xbe\xa6c\xa8V\xc2\xb6*\x9d\x0co6\xd6V&lt;\xf2\r\x8eT\x8a22\xe0\xe8,\xcbs\xeeR\x07\xac\x89b\x90\xb1\xec\xd1\xdd\x8e\xf2\xc7\x8f{\x1b\x1a\x83,k\x18\xbbW\xc4?X&lt;\xdd\x86\xd4\xa7\x97_=\x02\xda\xf7\x05vhl2Ee\xba\x06bb\r\x94J\xa1\x12c\x0b\x1e\xb3TD!\x91\xa2\xaa(\xc2X\xc9\x9f\xb3`\xb0\xc4\xc0J\xfe"\xc8k\x08\x86Z\xdc\x99\xc7\xedI\x99\xfei\x92\x9fG\x1f#\xfc%\'h\tY\xca\x07\x01\x95\xb1cbBO!\xa4\xeb\xaf2\xb1\xe3p.2H\x15\xfc\x16=X&lt;\xfd\x0e\xf1\x05\xcf\x9f 5\xae\x1f\x85\xe0]\xb7\x02\xc6\xec/\x9d\xb8?\x0c\xe5yJ`=N\x80Kr\xf0\xe9\xf3fr$h\xe5&lt;H\xa4*\xccE\xc1c:a\x8e\x1e\x951\n\x0eQr\x95\xe1~)\x8a7\xbb\x1d\xbd\x16A9\xb1\xd0\xac\x0fW\x92\xd1\xae\xfaU3j\xa7\x7f\xe3\'p\xf5\x94\x9f\xd0H^\x1d[+EU5y\xca\xec\xae$9,\xdeh\xad.\x1d\xb6\xb1\xecDZ\x92F\xf0:q5\x95?4M\x9f\x15p\xf5\x8b&gt;C8|\xe6Z\x04\xd9\xabv\x91\xb3\x17mJV0\xd8\x8a\x86{\xbaJ=\x1e\x8f\xc37\xd8\xd2\xeb\xd5[\xd8\x807\x99X,}\xa0\xee\xe4\xab\x0bg\xd8\xe2\xff\xabo\xf6\x81\xd5\x8f\xfaT\xd1\xe4\xbb\x89\xdf\x90X\x02\xad\xb7\xba\xdb\xdbk\xad\xf6\xc6\xc9U$\x93rR\xbd\xcd\x8d\\9\xd3\xe3\x16\xbf9\xcc\x00\x9f\x94\xf9B\xaf\x99L\xac\xdf\xcb\x16Q\xa2g\xd0p\xa8C\x19\x1e,Z\xeb\x06e\xa5^X;\xe3\xf3\x10+2/\xe3\x9edd~\x18p^\x83\xa4\xed\xaf\xcbo@U\x92\xb9;\xc2\x83E\x0b&gt;\xd2\x18wc\xc9\xcc\x0f\x1d&lt;\xbd\xf0j2\x94\x9c\xdb\r\xd2C\xe9v\xe2r\xec\x8e6\xb0#\xf6G\x89\r\x97\xb1\xe1\xc1*!\xda\xceNy-b\xe6\xb2,\xf2;\xd2&lt;3 MZ\x8e\xd9\x1f\xfc\xf3\xf1&amp;Qa\x06\xbbt9\x86!\x8c/\xe2.\xde\x8f[\x06\x99\xe4/\x16\xcf\xea\xac\xcds\xc5\xd0\r\xa0rJ\xfc\x9c\x1e\xd0\x05\x1a\x14\xddbX\xfd0\x90\xfdn\r\x03\x16\xcd\xde\xe5\xa1%\xf4v\xe4\xec\xcerE\xad\xab\'\xa4\xb7\x96\xc4\xc9\xb4\xc5\xe1\xb2\xba\xed:\xd1uR(\xcf\xc6:\x02^\xab\x8c\r{\n\xf9\xdd\xc5\xabgy\xfe\xe2\xcdh\xe9\x94Q\xa9\x14nX\xb4892be\x10\xcf\x14\x98\x8c\xa3&gt;\xbe|jX\xdanr\xc2\xec\xec\xba\xa8Y\xc2Z\xf0Fq"\xec1\xe6^yV\x83\xd6zDB\xdc=2Z\xc1@\xb5Za\n]\xd1\x1eh\xff`\xaeE\xbf\x101[\x89Zw6\r\xe7\xd9\x92\xac\xa6\xa0\xc7\xd2]&lt;\xaa\xcc\x93\x1d9@\x0ear\xf3\xa2\x9bv\x91\xe3"\xc5k\xe7\xe0\x08\xd7\x9b\xf3nC\xf0J\x89a\xa7\x9caZ\xfa\n\xba\xe4\x07\x1a\x14\xba\xd6I\xcd\x8b\xb6\xd9\x81\x87\xa5\xd5\xff2j\xf6\xa8"\x16\xac\xf9&amp;\x9f$u\xef\x06S\x15\xdb\xb09\x88\xcf|o\xae\xa4\x85I\xdc{\x01\xb0h\xe6o\x91K#\xe6B\xa2\x16\x7fM\xf2\xd4\xae\xde X&amp;+\xa0\xddet\xf9\x1b\xa7t\x1e\xfd\xc4\xb0\x1c\xb8\xcb\x99b\xb2\x8f\xbe&lt;G\xa7\xf0\x96\xcd\xbf\xc1\xc3\x9e\x93g\x93\xc3\xf2\xba\x10\xc3\x97u\xd8\xb4\xfa\x92\x9e\x02\x1e\x12\xd2\xc8]&gt;.\xad\x11h\xa1\x01\x1c\x1eJ\xfd\xc7\xaa9;\xb4\xf8J\xca\xbb\xb0\xedSeZ\xf9\xb3\x9e cO\x8f\x9e\xc4\x85%\x9d0\xa3j\xaa\xba\xdc0\xde",1\xc2\xea8rg\xc9\xdc\x9d\xf1\\\xf0b\xf1\xdb\x10\xd0\xa0x\x8b\xccK\x18\n\x86\xfb\x99\'\xa0\x1dZ)\x02s\xaa1CUX\x1d\x8dz!(I\xaa\xa4M\x847P\xb9\xf3\x9e\x9d\xcb\xd3\x7f\x8b\xbf&amp;]\x19\xdc\xa0 \xcf1\x149\xb9\x1a\x9b?\xad\xc3\xda\x9e\x94\xb9(N-\xc6\x86\xc6\xfe\xd2":\xd8\xdc\xe1\xd7\xd9G\xd7\xcc\xe9\xf1\xcee\x8b\xee\xf0\x90\t7\xd7\t\xb2\xa8^(w2\x05\x06\xc8\xa2\x81RX\xfd\xe3\xca.\xc7\xffWt{\xf6\x8fhG\xe4\xb2\xe4\x03d\x12!}\x0f7\x95w\xc3\xf2\xb2\x1dwp\x02M\x94&amp;\xb4\xa1t\xf9\x9e\xe7\xda\x15\xa1\x96\x1b\xf66\xe8\x89\xde\xe3\x06\xa454\xe9\x88.\xd5wv*w-q\x00w\x01\x0bQ\xc6 =\xa2o4\xeeBu\x07zG\xcc\xf1\x1cdP\xc5\xe9\x04\x0f\xf5\xf7\x80\xb3\x08uBJU\xbb;I\xa8\xb5\x8c#\xfe\xb6\x83\xc7\xf40\xc8\xe4\xd4\x15FZ\x1c\xc9\xc0)=1\x1d2\'\xd5\x88\xde\xe4\xc3[\x17\xb6%@|\xd3\x14!G\x93\xdd\xccL\x8a\x87R\xc0-\x06\xbb\xf9\xa1\xf6\x1e\xc4us\xec=\xce\x14\x82\x1a~\xee.\xf1\x8f\xd5h\xb41W\x8a\xe7\x11\xa4\x83a\xf7,\x86\xd8\xeeWy\xa5-\xb0\xce\xf1\xb6\x0b\xa6\xe1!7bl\'\\\xc0\xa5\xa2\xd3\xaf\x18bz:\xf6\xf6\xe5\xb9\x90A\xaeM\x87\xf9i\xb8WX\x94qy\x07\xa4q\xf5\x8b\x98\xf0\xf2(\xcf\x05\xaf\xf7\xb2\x8b\xda\xaaH\xd3s\x05d#\x8e{A\xc2\xeb \x11\xee\xca\xcb\x05\x8f\x05\xdaM\xda" EKW1\xb0\xf3E@\xda\xf6\xb6v\x04\xdd\x05\x8cA\x07\xf0DOX+\x8f \x03m\x01\x8bfD;t\xe1\xd1\xadP\xfc\xee:\x93\xeb\x04\x1e1\n\xbf\xce\xac\xc5\xc0@swu}\x87\xb4\x95\xed\xe6G\xe3i\xbd\xdbwW\x82\x87mA\xae\xe2e\xa0=`\x97\xe9*\xb3\x83\xecz\x9f\x9a\x84\xd3Y\x1e\xbb\x13\xc0+\xf5\x1c\xc2~\xb2\xd1\xc3U\xc0\xf0R\xef\xea\x87\xb4\n]\xd6\x94\xe3\x18?\xf2\xd8W\x0c\x1e\x9ds\xa0SXA\xd3W\x85\x13$\xddW\xb6au\x96\xfd\xecT+p\x7f"\xa5\x95n\xae\x02\xc6\xa3\\\xc4qp7\xc6\xdd)a:z\xfa\x026 2\'\xbb\x807\x18{\xa5\xac\xe2\xd1b\xa0\x1f`Wf\\\x0e\x89G\xbb\x9a\xb9\x18\xce\x8a&gt;\x08N{\xeevQG\x04\x04\x19\xe8\t\xd8e\xd9^\xc7B&amp;P\\\x8ab\xd0\xba\xa9S!Kg\x1c\x82\xaf\xe9J1\xd0\x19\x882?\x9a\x049\x85\xc1if\x12\xa2\xe5g\xef\xd1V\t\x1dh\xca\xdf\xa17\x00\'\xd9h\tlM\x87\x1eY\xd3{\x06\xe6,{\xc7]\xc5\x90\x11\x1e\xbb\xcd\xdb\xa5Y\x19\x06\x00H)&gt;\xccwq\x02;"a\x178\xbc\x80}\xa1\xc9.\x90\xb3O:\xda\x1f\xa8p2\x0c\x08`R\xe8\xdc\xef\x02\x19J\n\x9b\x03\xaa!=\xf2\x1a!\x8b\xa8l\xc3\x96G\xc8\x0c\xd8aW\x9c*\x11W\xec\xec\xc0=\x0f\x97\xc6&lt;{\xc7\xdd\x95v\xa0\x05%V.\x93Z\xb9d\x07\xf0\xa8&gt;\x0e9\xc6\x13\x93 c\\.\x95ko\x84A\xe6\x80\\\x82\xb7\n\xf02\x0c(\x10\xe59\x94\x03v\x8c\x9d\x03h\xf8\x04\xecD\xcf\xed\xfc\xc2\x0c\x03\x0c\xa4\x14wd8 \xef\x91w9\x1e1P\x89\x1de\nF\xa4\xeb\n\xfc\xd8\x05/\xdb\xa8V.\xbeAq2%\x07\x1f[\xeb&amp;;\xf0\x02\x17\x07\xbb\xfc\xc3\xf2b\x0c\x83\x03\xb0\x8b\tL\x8c\xff\x06Z\x14\xe9R\xf1@a\x10\x1dz\xca\xc4\xddu\xb9\xc3\xc5)\xaa\x95QfP\x1dy\xca!\xc7\xb6*g\xf3Dy^\x86\xc1\x05\xd8\x05\x15;#\xb8\x07\xe1\xa9\xb5\xacj\xaa\xd4\xcb\x81\x00\x02QZ\x81\xbf\xfc\x928\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +604,14 @@
       <c r="D7" t="n">
         <v>58766</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x03iiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC" xmpMM:DocumentID="xmp.did:F8167189180211EF8B19CF4385D0BDAA" xmpMM:InstanceID="xmp.iid:F8167188180211EF8B19CF4385D0BDAA" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:1b63776b-fefc-b946-b5c2-0b58b31ff3f3" stRef:documentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;*`t\xd8\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x00PLTEGpL\xe9\xe9\xe9\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xf3\xf3\xf4\xe0\xe0\xe0\xd8\xd8\xd8\xf1\xf1\xf1\xf8\xf8\xf8\xfd\xfd\xfd\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfb\xfb\xfb\xec\xec\xec\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xff\xff\xff\xfe\xfe\xfe\xed\xed\xee\xff\xff\xff\xf1\xf1\xf1\xed\xed\xee\xfe\xfe\xfe\xff\xff\xff\xfa\xfa\xfa\xfe\xfe\xfe\xe8\xe8\xe8\xfa\xfa\xfa\xfd\xfd\xfd\xf6\xf6\xf6\xff\xff\xff\xfb\xfb\xfb\xff\xff\xff\xf6\xf6\xf6\xe6\xe6\xe7\xff\xff\xff\xee\xed\xee\xfd\xfd\xfd\xff\xff\xff\xf4\xf4\xf5\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xde\xde\xde\xaf\xaf\xaf\xd9\xd9\xd9\xef\xef\xef\xe7\xe7\xe7\xe0\xe0\xe0\xd3\xd3\xd3\x94\x94\x94\xeb\xeb\xeb\xb4\xb4\xb4\xe3\xe3\xe3\xe3\xe3\xe3\xc3\xc3\xc3\xce\xce\xcf\xe0\xe0\xe0\x00\x00\x00\xff\xff\xff\xe1\x0b\x08\xe0\x0b\x08\xdf\t\x06\xe0\x0b\x06\xe0\n\x08\xde\t\x06\xe0\n\x06\xe1\t\x07\xdf\x0b\x06\xe0\x08\x06\xe0\x06\x00\xdf\x0b\x08\xdf\x06\x03\xdf\x03\x00\xdf\n\x07\xde\x06\x02\xe0\x0c\x07\xde\x03\x00\t\t\t\x02\x02\x02\xe1\x0e\t\xde\x00\x00\xdc\x02\x00\r\r\r\x04\x04\x04\xe0\x08\x03\xfa\xfa\xfa111\x10\x10\x11\xff\xfe\xff\xfe\xff\xff\xe1\n\x07\xfe\xfd\xfd&gt;&gt;&gt;\xe4\xe5\xe5\x06\x06\x06\x17\x17\x18\xe2\t\x07nno\xd6\x08\x06\xab\xac\xad\x1e\x1e\x1e\x1b\x1b\x1b\xfe\xfb\xfa:\x01\x01%%%xxy(()!!"\xf2\x96\x95\x14\x14\x14\xe6\xe8\xe8\xdd\x06\x03\xfe\xf4\xf3\xe1\x19\x15rst\xe1\x11\r\xfc\xea\xe8\xe596\x88\x88\x89\xfd\xf7\xf6\xe7GD\xf0\xf1\xf1---\xe2\x1e\x19UUV\xeb`\\``a\xfb\xfc\xfdXXY||}\xd6\xd6\xd7\xe540\xf0\x8e\x8adee455\\\\\\\xe3\'"\xecfb\xd3\x06\x05\xd3\xd3\xd4\xf5\xab\xa8\xf3\xf6\xf7\x80\x80\x81\xfb\xe4\xe3\xcb\xcc\xcd\xb5\xb5\xb6QRR\x91\x92\x92\xf4\xf3\xf4\x94\x95\x96\xaf\xaf\xb0\xc5\xc7\xc7IIJ\xe3!\x1d\xe4.*\x8c\x8e\x8e\xe6&lt;8\xe2\x16\x10\xeb[X\xfb\xe0\xdf\xed\xee\xef\xd8\xda\xda99:\xcd\xd0\xd0778\x83\x84\x85MNN\xf8\xf8\xf8\x9d\x9d\x9e\xb9\xb9\xb9\xa4\xa4\xa5\xe9\xeb\xeb\xdd\xdd\xdd\xfb\xd1\xd0\xf2\x92\x8f\xdf\xe1\xe2\xe9RM\xc9\xca\xcaFFG\xf5\xad\xa9233\xf6\xc0\xbe\xf6\xb3\xb1\xa8\xa9\xaa\xfd\xed\xec8\x01\x01\xe9VS\xff\xe7\xe6\xe8MHCCC\xb1\xb2\xb3\xfa\xdb\xda\xeews\xf3\x9c\x9a@@@\xc1\xc2\xc2hii\xbe\xbe\xbf\xfc\xf1\xf1\x98\x98\x99\xf1\x83\x7f\xc2\xc4\xc5\xed~{\x9a\x9b\x9c\xecli\xf1\x89\x85\xfa\xad\xaa;&lt;&lt;\xf3\xa2\x9f\xd1\xd2\xd2\xefro\xb3\xb9\xb9jkl\xfc\xd7\xd6\xbb\xbb\xbc\xf9\xa6\xa3\xe7D@\x9e\xa0\xa0\xa5\xa7\xa7\xf7\xcc\xca\xf4\xae\xac\xf7\xc6\xc4\xe6A=\xdd\x13\x10\xf7\xba\xb7\xbd\xbd\xbd\xa1\xa0\xa1\xc0\xbf\xc0\xa2\xa3\xa3\xf9\xf4\xf4\xe464\xf2\xa7\xa4\xff\xf0\xf0\xd8\xdf\xe0\xfe\xcb\xc9\xfe\xc3\xc13\x00\x00\xcf\xd7\xd8\x9e\xa4\xa4eBBI\x17\x160\x00\x00\x84[Z\xbf\xa1\xa2\xca\xbc\xbc\xd6\xc5\xc6\xb8\xbe\xc0\xdb\xc9\xc8kMM&amp;\x89\x8e\xa2\x00\x00\x00]tRNS\x00\x0f\xe9\xde\xcf&lt;\xf1\x03\x06\x1bOT\x96\x8a\xaa\xcb\x8fk\x15\xbbt)\xc4\xd5\xfd\xb6 \xf6d\xd9B\xe1\n#\\1\xa34\xa5\xf4\xf7\xae\xed\x86\xb2\xde\x9d\xb0\x80\xf8\x197\xdd=G0-507\xf2,\xf79\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\x8f9\xf9G\x00\x00\x1c\x99IDATx\xda\xcc\x98yP\x94\xe7\x1d\xc7\x15\x11\x10E@\xae*\x12\x83\xd1i\x9cjf\x92N\xd3\xcc4\x9dy\xd8\xf7\xd8\xb7\xef\xee{\xec\xbernBY\x14\x86\xe1\x18A\xc0\x85\x95\x80  "\n\x13P\x81"7\x89\xe2\x11\x1b\x0f\xf0\x8a\xc3\xda\x00\r5\x06\xe4\x10H\xd5\xe8\x18\x93\x94\x0e\xd1\xd1\xff\xfb{\x9ew7q2\xd8\xd8Fa\x7f\xbc{\xb1\xef&gt;\xfby\xbf\xbf\xf3\xd9y\xf3\x9e\x9byx\xccsF\xf3\xf7wwB*\xcfwNx:\x1fU\x80\xeb\xedo]\x03\x9c\x8dj\xfe\xd2o\x12\x13\xbf[:\xdf\xb9\xa8&lt;\xbcN\x1dEh\xf4\xd4o\x9c+\xec}\xddv"\xb0}\xbf\xf6u\xaapwI\x0f\xc7X\xe1e.N\x14\xf6\x0bC\xea7"Tw\x1c\xa1\x8d\r!\x0b\x9d\x85\xea\xf7\xde\x9fd!\xb4){\xf3\x11\x84\xb2\x92\xbd\xff\xe8\x1cT\xa1~\xffLA(\xe3\xe0\xf4t\xe3\x16\x84\xb6~\xe7\xb7\xc2\x19\xa8V\xac\xef\xce@(ub\xba\xa3\xd8\xf2i"B\x85\xdd\xeb\x9d\x80k\xd1\xd2\xce\xbd\x08\xc5~\x15?\x1e\xa5\xf4\x85=\x8eFh\xef\x8d\xa5\x8b\xe6\x9e\xea\xc6Q\x1c\xe9a\xc3\xc261bOXk\x02\x94\xaf\xdds\xcde\xa7z\xaf4\xf3\xebm2E\xb7\xf7\x97\x1e\xc3\\\xef\xcf-W\xe8\xfaN\xc8\xbe\x84\xfd\xa5c_GieJ\xa3\xcf\xb9YZ\x16\x03\\7\xd6\x87\xce\x1d\xd5[~\xdd\x10W1\xfbKo\xe6\x00\x15\xc7pf\xa9h\xa4\x14W\xd6\xa3\x07\xfd\xde\x9a\xb3*\xea\xfdM!xp\xff;\xd5E\x8aVKq\x0c\xab\xd1\xe8\x9bGN\x94\x81\x1f\x0b?\xf3\x9e\xa3\xba\xea\x19\x92\x9cB\xe2\xaa\xba\x08\xb4\x02\x172`\x14\xd6\x0b\xc7\xd7\xd6C!s\xd1\x87&lt;|]&gt;\x87\xda\x1e[\x1fG&lt;(3\x84Jf\x8cRQu\\+\xd4\x89\xc4!\x17\xdfY\x9f\'\xde\xf0\tN\xc7\xdf\xfd8&gt;\x13\xa8\xb42KiX\x8e\x13\x04\x1c\xf7E\xfd\xf1CPW\xa3\xcb\x82}\xde\x98]\xaa\xb5\xcb\x0f\xef\x82\xc8\xce\x98H\x1b\xc69\xc8AT\x81\x99\x19N\x969Jl?\x93\xf6)\xf4\xa1\xf0}\xa7\x96\xaf\x9dE(\xf7\xd5!\'!\x05\xd1\xa6\xce\xfc&gt;m\x14\x91\nCi\xcc\xbc\xccq\xc0\xa5\x8f\x18\xcc?\x08\x95\x03\x1d\xf9G\xc8\xeaY\xdbw\xac\xf0qkM\xc4bl\xb6u\x18\xb6i\xb5\x0e*\x8d\x06\x98\x80\x8b\xa1L\xc6b\xdbY,gj\xbd\xdb\x92\xd9\xe9\x90\xee\x9e\x81\xef\xef\x83\x92\x19{\xac\xe6\xc1\xbdH\x03D;x\x10\x0e\x0e\x02\x1e\xa0tX/\xd6,\x15\x9c\xae)\x8b\x85R[\xb2;\xd0s\x16\x04\x0b\xf5q\xfb\x16&amp;\x06Tx\xe8\xcf\xd5\x95\x91Z;\x15\x8b\xd5bxN\x07T\xc4\x8ff\xa9e$&gt;\x99\x9c\xf8/\x17\x9f\x17]\xf2\xe7\xaft\xbdQ\x02\x93h\xf8\xae\xc3\x96k\xedPD\xb5\xac\xeaB\xc02c,\x8e\x18\x8e6}\xce5\xcb\xa3\x9d\xe0\xc8\x8d\x15\xbb]W\xbe\xc8-\x91\xc7K\xeb\x82\xeb!\xc5PJ}\xcd\xe9.\xd1@\x82\x9d\xa2Xrhp\xe1\x02\'b\xc1dxj41=_\xd6\xb4\xa6\xc2\xe9\x19\r\xbfZ\xf7\xd2\x0b\xf3\xe4\xda%.\xb5\xe7\xe0\xf2c\x8ew\xc7\xdf\xac\x8c4\xd02\x0b\xde\xa30\x19\x85\xef\x1dX:\x82\xc5Q&amp;\xa9\xe5f|c\x13|"\xbc\xa9\xd6e\xc9\xda\x17\x01\xe6\xbe\xd6k\xd5\x17%\x10\xc4hK}MoU\x84B\xd32\xc5\x10\x07\xaaT\x18Ku\xa1\x8ec0\x17Kq\xa2\xf5zoM\xebV\xf8PlE\xe3*\xaf\xe7\x0e\xe6\xbe\xd0gA\xf7d*Y\xffF\xfeX\xb9"\x82T\x8c\x1aTX-\x88,\xa8\xa4X)\x9a\xd6\x91"\xc1h(V6\xea\xc4\x7f\x8f\xa5u\x96@?@\xa9\x93\xdd\x0b|\x16&gt;O\xb0\xf9\x9ek\\\xba\x070T\xf8\xb9\x89\xd2\xd3\x1dB\xa4\x96\x96\x19{\xa8\x934dX\x96#i\x88\xb1\xe0\x91\xe10\x16\xc3\n\x8cd-&gt;]:\xf17\xa4\x82\xb9\xac\xf1|N\xc1\xef\x1e\xe0\xeb\x17|\xb2$\x0bC\xed\xbd]c\x1bnV\x0cx\xb8\xfa\x11\x0b+\xc6\xb2j\xd9\xe2h\x9a#X\x1ch\xc8P\x02\xcf\x98\xa4\xcaa\xdb\x8e\xa1\x0b\x18,\xab\xe4d\xb0\x9fo\xc0/\x96\xcc#t\xf1kA\x87\x1b\x9a\xa2\tT}\xf6tf\x9eA\x84\xe0\xe1\x19\x9c{2k\x969\x8dF\x10\x04\xa0bA(-\xf9\x03\xb9 \xb4x\xd0\x8f&amp;\xd5B\'\xb6\xf5Og\xb7^\xc0\x1b\xef\xe8\xa6\x86\xc3A\xaf-\x0e\xf5\xf8%:\xad^\xe2\xfaj\xf2\xc0\x16\xa8\xe9(\xe6\xef\x9fg[n\x16\x08\x914\'\xf3x\x84\x11d|\xc8\xbc,kg4\x01n2p\xc9\x94\xc0I\x11\x05#\x96\xec\x86M\x18,&amp;c2\xf9U\xd7%\xab\xff/\xcd&lt;\x16-\xf4_\x17\xf4vm\xd2\x05,\x14\x8a=\x9e\xfc\xe1\xf4HA\x84"\xb2\xac\x8c+\x01-\x1a\x0c\x06\x91\x1c\xe4\x89(:\x1e\xb1\x19T\xa39\x08A\x9e\x01v\x93d\xbd2b\xf9\xf0\x93\xe38\x95Q\xf4\x85\xa4\xda\xb7\x83\xd6\xf9\xffn\xd1\xff \x9a\xc7\xb2W\x16\xfb\xafqu\xeb\x1e\xaa(L ?xd\xe4~q\xc2\xd6\x7f+\x02\xd2\x0f\x8c\xa1\x18\x9e\x8e\xc0f4F&lt;i\xf0\xd2h$\xd5\xc2\xf1\x0f\x9e&amp;gs\x1cE\xe9D\xeb\xad~\xdb\x89\xcf\x92\xb6\x90\x1fQ\x12\n+\x86\xba\xdd\\\xd7\xf8/~e\xd9\x7fg{y\xd9\x8a\x80\xdf\xbe\xb9\xd2k\xa9\xf7\x86\xd7\x1boO\x8e\xe2\xcc\xc3\x15}\xe7\xe3\xb3i\xa7\xaf\x95s\x12@\xb1\x10J\x10\xdc\x8c\xbem\xecn\xb5j\xe7\xab\xcf\xff`\xd5\x0e#\xaf\xee\x16\x8b2\x1e/\xe03\x1c\xe4\x84N\xd2\xe4\r\x7f\x99v\xf6v]\x8a\xbar\xea\xe8\xe4G\x8d\xafo\xf0^\xea\xb5\xf2\xcd?\x04\xacX\xf6\xf2\x8cX^\xcb\x037\xb8\x05\x1f&lt;T\x9f\xbb\xf3\xddhrI(!eW\xc3\xa3)\xdbHq\xb3^\x12A({\xa9\xa2XS\xd1\xc5\xb0\x9f\xb73\x12L\x85\x0c\xf4p\xb8\xc1T\x01`\xa6\xe6\xaa\x11\xdb\xd4\xa3\x86\x9d)\xc4\x0f(&lt;\xba\xb0.\xb7&gt;\xb9;\xdbmC\xe0r\xaf\x19\xb1\x16\xd4V\xd4\x8d\x16\xa6\xc4"\xbb%\x1e\x19\xf8\xea\xfb\x1a\xdb\xfd\xf1r\xab\xa4\xba\xcf^\x114\x0c\xf5\'\xa9\xc7\x12\xf7LX\x14e&amp;\xcd\x92"\x15N\x07A\x967~\xdfVs\xf8\xaf\x03G\xb3\x1c\xdf\x14\x9bR8ZWQ\xbb`F\xac\x90$\xc7i(!q4\xe9\xa3\xc6\x8f\xd3\x0e\x8c\x8c\xe7\xb5\xeb%\x1dN9p\x03g6\xdb\xc1(S\xce\xfdgPK\xe1\x8cju3S\x14i\xa0 \xb4N\xd2\xb7\xb7\x8d\x8f\xd8\xd2&gt;n\x1c\x9a&lt;\x92\x95\xf0\xc3\x97\xe6\x86\xcc\xac\xd6$N\x92\x94w\xcfU\xb4N|\xbfc\xca\xf60\xb3\xa3\xd2*I\xa2\x8e\xc5+r,\x19a8{\te\xa4\xebi?\x8b\xb5G\x02,Vu;V\x9b\x90\xb1\x1a\x90L\xdf\xde\xd2\x91\xf9\xd0vu\xc7\xf7\x13\xad\x15\xe7\nSp\xba\xe7\xce\xac\xd6\xaa\x01\x84\x9aj;\xb3\xa7,\xb6\x07\xd5\xd7:\xca\xadzQ\xd4\x99)\xa8\x95\xb0\x830\xc3\xba\x82Q\xa4YV\x15\xcc\xaco\xe9}\x16,\x8axO#\xd0\x06\xad\x96\'`\x84\x92\xd3\x99L\xa6\xf6\xf2\x8ek\xd5\x0fl\x96\xa9\xcd\x9d\xb5M\x80\xb5jf,P\xab,\xec\xe1\x99\xf1\xae\xf2f\xab\x14)\xe9(,\x10\x9e\r\xa0\x98\xf3&lt;\xd4FSs\x11\xcd\xab\x97\xaf\xd1Y\xef\x92\xaf\xce?\x9f\xf9S\xeb\xbf{\xe72\xbc\x13\x87\xb1\x04\xdc2\xa1\x03\x145\x8b\xd0\x00p\x95\xc5\xe9\x8c\x1b\x17\xc5\xd2\x92\xa4\xb76\x97w\x8d\x9fy\x18\x96\xfeT,\xec\xc4tKA\xa4\xa8D\x82\xe70\x93=\x92\xc0\x03\xbcl\x90\x98\x96\xc1\xfbW\x14\x12\xc3\x10\xf5\x1c3H\xb0\xb6\xe7E\x8a?5k\xe5\xad\xbe\x8b\x16\xac\x16\x03\x13"\x0b\xe5A\xbar\x7f\xb0\x85\x81fJ\x8c\xac\x01\xa3#\xcf\xd2\xa2")\xa2t\xc5\x92\xfbT\'\xe2\x90\xcf\x05,-\r-\x8e\xe8\x04c\x80\xd9L\xa8\x0c\x8a\xf5\xde\x9e\xde\xb0\xed\xb7\x14-\xa5\xceX\xb2X\xec\xc0\xa2i\x93N\x14i8\xf0\x13\xe8\x88\xa2A\x11sz.\xe5\x9f\x01,\x12N\x94\xbe\xe0rX\xefp[\x84\x1dL\x80\xab\xc2\x13\x19\xb4MV\xa6e\x15+}\xe6\x90\x0f\xc2\xc4\x96+x\x8f\x0c\x1f\xc1;\x19u\xc4\x93eQ\x9f\xd35v\x00\nBo\x9e\xc2\xcbDCA\xabt\xc5\xabXQp\xba@Q&lt;\xc5\xf3p6\x84"\x9e\xa1yN\xdf^\xd5!2\xbc:\xbc\x8am\x1f\x80W?\x18\xeb\xca\xc1\xe3\x07\xe9\xa6\x024M\x9e\x87\x0e \xf3\xfa.\x0bH\x92\x1e\xf4T\xac$K\x97\xc2\xc3D s2\xd9\x8f\xc2p\'@HU]\xbaJ\xa4\xe9-WxF\rZ^)H\xb3c\xe1\xa59\x8e\x87&gt;\x03t\x0cn\xdex\xce1\x9a\xf4\xd0}\xd4\xb9\xd5h\xcaS\x13\xe4\xf2\xa5\xaa"\x93,P \x14\x81\xd3\xc2\xe0\x06X=\x96\xc9\xa7b\xb9B\xd8\rXz\x14\x9e\x18^\xda\x0c\xae\xe4LE\x83w\xf2\xed\xa9\x85\xb185\xb6\x84\'\xb1p\xf7\x96\xa1%S\x80$\xc0\xf8\x07\xbbk\x9622\x1c/\xa8\xd7`4\xb59\xf26\xffN_\x91\x88#\xce\xc1\x05\xf7\xfa\x0eK\x05\xa4\x9b\xeb\x8cX\x81\xfb\x11*\xb1\x14\x83ZX\\\xe8\x17x\xb8cYS\xe5X\xbc#\xe3\x0f\xdcSd\x1e\xef\x9f\x19Fk\xc7\xba\xdc\x06\xbb}\x1e\xc6&gt;FK\x9c\xc2c4\x0e\xf6D,\x9eNY\x8alB\x8c\xfa[\x07\x1ck\xc4\xf77\x8b&lt;\x05e\x16\xd7g\x16\xaeE6\xea\x8b-%\x08\x1d\x0b\x9c\x11\xcb\xef=\x84vMU)X)\xa2=\x9e\xd1\xa17\x9b\xda\xfb.\xdb\x1b\x8d\xa5\'\x8a\'-\x08\xc4\x89*\x00\xda\xb8\xab\x17[\xa2~\x9c\xb1xY5\xfc\x8c\xc7\x92\xc8v,\xa9\xc3.x\xdc\xf6\xbevQ\xa0\x8cFu}\x16O\xb5F\xfd\xf5\xa9]\x08\xb5\xfa\xcd\x88\xb5\xae&gt;\x06\xd5\xfde\x1cc9\x9a\x1fl\x1f\xa0\xa3\xe9M\xc5\x8ek\xed\x03,x\x17_\xa3R\x90\x7f\xe0\xd2`W\xa5\nd\x88\x8a|\xd2\xa2\xfe\xc3\xa8\xd5\x07Eu]\xf1?\xd2N\x9b\x91\xc6\x8c\xb1\xb63\xb5N\x9aq2\x89\xf9\xa3\xa6\xc3\x9fN\xe6\xc2{owy\xbb\xefc\xdf\xdb\x85\x95\xf5cwU\xd4*E\x85&lt;\xd6\x05\x01\xb7\xa8-\x14w\x8d\xa9\xda`\x0c\x14X\x8c\x9f\xd1\x82\x84\x02AD\x81\x98 *$hJ\xb4\xc3\x97m"\xc4h\x1b\x93~\xa5\xe7\xde\xfb\xf6\x03\xb3\xbb\xe4\xce0\xb0\x8f\xbd\xef\xfd\xee\xb9\xe7\xfc\xce\xef\x9c\xfbT\x16\xaf\x8d\xe7I\xc2a\x14\xf1\x9a\xbe\xb0P\x83\xd5\n2GQ\x98\xe83\x14\xcb\xcd\xb2\x93(\xfb\xf0\xcf\xe3\xc2Z|}\x1dz\xa3\xacW\x05\x87\x8f\x81\x05\xe9L1Y\xba\x8a\xe8m\xf7Oj\x184\xc4(\xe7\xac\x1d\x9c\xaaW!\xb0\xac\x9a#\xcb\xea\rL\xdd\xee\xee*\x0f\xc2h\xe8\xea\x9e\xc0\x84\x0c\xe4\'\x9bp\xfc\xb8\xc1\xe0c\xba\x17tY5\xd8sE\xc1I\x89R\r\x865\xd0x\x11\xad;\xbd8.\xac\x9436\xb4\xe6\xec\x80\x84\xed\xa1\xcfH\xc7\xee\r\x01\xef\xb6\x0c\x96\x10\\\xa1)\xd82\\2cSX\x1d*\x10\x94\xcf_\x17\xac\x9cn\x1f\xed\xe9,\xcc\xf5xV{&lt;\x9e\x92\xfe\x0b#\xe3\x1d}\xbd-\x81zN\xb2\xb2@\xa9R\x1d1\xb7\xabpP\xd3\x8c\xb0\x85X22\xfaC8\x99\xb1\x0c\xbd\xfc&amp;Z\xfeNJ\\X/\x1cZ\x85\xda\xd66[\xb0\xb5"\xb0\x18L\x86L\xba\xd3\xd7G\x97{\r`\x81\x94g\x04\x99\x11U\x95\xad)\xbd\xb9\xbf\xa7\xf3\x9bI\x1b\xaf\xc1Sx\xe0\xce@Km\xa6\x02\x143@/\xf6\t\x1adV"j\x15E\xdf\x10\xf0dg\xfe\xb9\x9dh\xd5[/\xc4\x855\xffr\x01\xca\xbbwK\x91iT\xeb\xb00\xed0nF\x9a\xa2\x11&gt;\x1aPIL\x0b\xc6,g\xa0+\x7f\xbc\x7f\x96l\x9d\xdb\xd4\\c\x16\x03M:\xbf8`M\x00K\xc0\xf6\n\x8b7\x99\xcb\xbcut\x1b\xca92?.\xac\x85\xc76\xa3\x9c\x7f|\xe0cyC\xd4\x1f\xd3\xc9\xdf\x06\xa8\xfd\x86hx\x07\x1d&lt;\xf6p\xd5WZ9\xdaO\xcd\x92|\xb4{Yq\x90R\xcc\x80f\xe5\x89\xd6g"\xb0@\xe9s\xe6\xfa\x8ec\x05h\xf3\x8d\x85qa\xcd\x01\xc8\xcb\x8f\xdc\xf7\xb2\xbc\x10\x85E\x85\x08N\xb6\xc54\x1a\xdb\'5\xa3Q\xf46t\x14\xb9\xd2\xbe\xcd\xc8-\xb7\xb2\xdeq\x1a\x85\xd8X\x841H1\x82\xef\xee6\xf0&amp;\xce\xe9\xbf\x7f\xd5\x86\xf2\x8e\xce\x89\x0bk\xd1\xb26\x94\xfdQS\xc0*\xc40\x84A\x17H\x8c)3\x9f\xb2t\x97\xc3\xc8\xb6\xb4\x7f\xd3\x9d\xc0\xd3\x8bB=##=!\xec\xfb\x91\xcb\xe3~-LZ\xf9\xa4#\r\xb8\x88\xb1\xc8.@\xe0\x98L\xce@\xd3%;:\xbelQ\xfcC\x89\xd4Vd\xffk\xa8\xd6*\x08\xa6\xf4G\x87[\x91\xba;\x89\xdf\x8e\t\x9axm\x86{\x97\x1ch\xea\xc8\xbf\x16l\xb9]7UQ[[15\xd1\xddp\xb3rl4T\x88\xc1\xf6j\xa2\xaf\x83j\x8dR\x07i\x1ebhJ\x98\xb8p\x97G\xac\x08]\x07\x05\x9a\x1a\xbf+\xfd\xc3\xd4\xbd\x08\xed\xe8\xac\x03\xe2\xe2\xd2\xbf\x89\xcb\xa9\xeb\xbe\xceRG\x8c2\xf5\x14\xdd\xa9\x0cN\xd4\xf8\x04Q\x02\x16\x95\xb2T\x15\xff\xce\x92d\x9f\xbf\xb8|\xa8\xa3\xb3\xa9V\xcd\xa2\xebI\xfb3\xde~\x95\x158A\xd6[O:,\xa9\xee\xb3\x13\x08\xedM\x8d\xffr\xc7\xe3O\x81\xba\xd8\xd0\xdf\r\xb0\xf8X@z\x91\x90\xae\xef\x85+\xdf(\x9a*I\xbc\xbbBc\x83\xc5^MU\xb1\xd42\x1bp\x82\xc6\xaa\x9f\x17X#\xcbZEI\xf4\xd6\xd5\tV\xa1\x8f\x04\x06\xec\xbeV34!\x8a\x02OD\x80\x1e\x87 &gt;\xa4\x96~\xd0\xeb\xdb\x9f\x9a\x17\xbf|}\x1e\x92\xe2\x1f\xaa\x83V#G\x15\xa8\xce\x10 \xe4\xb1\x18d\xc2\xb5a\xcf\x94j\xc1\xf4X\xd2\xde;\xe5\xd3T+\x109UPx\xf0\xb8\xf9\x06~\x0c[\x05\xfbd\xb6\x88\x9c\x84\xa5\x16\x89HGV\xd0\x13\xea\xf5jF\x88)=\xa88\xcel2[\x82\xd5\'a\x9f\x9eOP]\xa7\x9c\xb6\xa37\xcb\x06X#\xcf\xc4d,\x86*\x06\xde\xc0Yn\x12Ov\rh\xbco\xb8\x7f\xac\xcb\x0b\xa9G\x92\x00\x90@S.\x1dX{q&lt;\xe8\x03\x13\x16\xb8\x8c\xec\x1cZM"r\xd0a\xc5E\x9cgl\xcaj\x8d\xb8\t\xc0\x92\xcd\xdcPc\x15\xb2\xff=%A\xb5\xbf\x14h~\xeb\xb9a\xc5\xc8\xc7$\xd20\xe7\xc9\x9c\xe0\xd4Yq4\xa09\x8b\xbb}*l\x93)\xd0]\xc3B\t\x98NjT\xfcCE\x0e\xcf\x91\xf3\x03\x83\x81\x0fSiS\x8dCm!\xe4;\x12\xcc\x94\x84p+\x11Va\xce\xbcu/\x0f\x15\xbc\xb54\x01\xac\x85/a\xae\xbd\xef\xb3\x1a\x85\x19\xb0\xe0Y\xa0"-&amp;\xc5I#\xd03\xa8)N\x10^\x92\xb7\xbb\xb9\tt4\x85\x15\xa6l\x00\xc5Q\xc1\x8d\xaf)"51d-\xcd7M\xc3\xa4\xbf9 \xeb\xb8p\xb7U\xf4\xdd\xbf\x9a\x83\xf2^Z\x98\x00\xd6\xa2%m\xc8\xf6\xceH\x8d\x16\x0b\x0b\xdc\n\xa3R}\xc1b\xab\xb3\x82\xba\xc9\xb8\xd7*0l}\xf0N\xbf+\xad\x13\xe4\xbd\x81\x89\xc0\xe2\xb0\x80\xc6\x1d]\x82\xca\xcd\xb0~J\xa5=\xb5\x0e\x15\x1c\x92R\xb0\xab9\x93\xa5\xda\x1bo\xb9\x18\x18\xf9g6\xaaZ\xb2(\xd1+X\x8fA\x11\xb9\xe3B\x9d#\xc6\xb9\xdcd*\xa0\xaa\xcc\xad\xd4XJ\xa9\xabK\x1a\x1c\x8a\xa2\xde.\xc4\xd1XT\xac\x92\xa8r\xeb\xd6"\xcdoY\x9f\n\xb9\xb4\x9c\x86o\xb3fd\xfdCE:\xd3\r\xb2r\x14\x964\xd1\t\xfcp\xf2\xb1D/\x7f=\xbe\x00\x18\xe2\xbd\xbb\r*\x11\xf2\x11{\x99\xa0\xf4\xf1\xf7\xe5\xa6\x8d\xd4:,\xa5\xf4\xc6c\x93\x9a"E\xb4\xbc!B#\xb8\x92\x81\x12\x83#i\x02\xc7\xaf\xb3\x9eR\xe9\x81\xdb\x0eYqr-\xe3.\xea\x9cV\xde\xcdP\xf7\xe0LR\xf9]P\xf2\xdb\x17$z\x19\xe0\xe9\xc5\x87\xed\xa8\xb5q\x80\x1c/\x85a1\x06A\x90j\x86]\x98\xb0\x1d\xa2o?\xf5\x8eR\x07\x1f\x81\xa5\xd2\x9e\x8cLb\xd0LO}@\xfb(\xd8\x16R7\x95\x18\xd3\x93\x9a\x9c\xaepR`\xda\xe3J\xf3\x0chF\x86\xa6[X\x85\x19D\xe0\x1ad\xbf\xbe\xf8\xe9D\x8d\xb7\xa5\x9f\xd8\xd0\xa6{\xb72q\xeeJ\xa7\x1a\x14\x1eg\x90\xfc\xd4WGk\xac\xe1\xf4\xd6g4F\xadE\x0e\x84y\xda\xfa\xa6\xa8\xcc\xb8\xaf\xa5@\xf4+\xc3\xe1\x1a\xc0\x08\xea\x084\xbd\xb7\xcf\x83\xb5$\xcf\x10\xf32 _\xcd\xbe\x0f\x8enF\xb6#K\x13\xf6\x03\x9fyq\x13\xb2\xfd\xf7s\xbf&amp;\xd0\xc3\x1cR\xfa\xca\xa2w\x9azjn\xd0!z\t\xa5\xba\xe0\xceQX\x02C`\xd1\xc3\x02\x9c\xf4\xc8\xe9\x1d0ED\x95\xde\x99\xc4\xf6qC\x8e\xb6\xf8\xf7c1\xc8\xd3\xec\x83\x03\xc4Y\xd3\xf4\x91\rm{\xf1\x99\xc4o\x10\xa4\x82\xcf\xbf\xd6Y\x01\xb0L\x06\x12U\xc0\xd8R}\x1fA\xe5r\x15u\xa9&amp;\xbd\x7fTR\xee\x88\xd6\x89@\xf0\x1c5\x17n~\xb0\x92\x99\xc1\'\x19f\x13gf\x87&lt;\xfazp\xdb\x01\x06T9\xb5wZ\xb2\xa0~4\xd0\x93&gt;\x93l)\xfe\x0c\xb2\xcb\xc9\xd4\xc4\xef\'\xcc\x9b\x0b\x85\xf5.PH\xf0 \xb7\x0eKT*uau\xa0\x01\xaa\x03s\ra\xc7\xc2XX\xb8\xd9!\xcb\x14\x14\x88\xd6\x89A\xafHa\xa9\xb5#dAM~0\x0f\tU(\x0c\x95\x80\xd7\xc8\xd3\xd8\xc5\x07\x0c\xb2\x18\\\x01\xd5\xd8\x96\xb9\xf3\x127\xe2\x9f\xb8nGUg\x9b),r\xe2\xc5:{\x0b\xd3\xc8\x92C\x90jY\x80IJ\xab\x18X\xb8\xe8\x80\xcc\x8c\x87(J\\q\xe5\x81q\xbfh\xc0K2\x8b\xbdd&amp;\xc4\x8aQ\xe6\x08\xd5p\xe9\x06Ndu\xf9\x805\xa0l\x10\xf3_n\x03A\xf5D\x92f\xf3|\xa0[\xcc\xf3\xf4AxW\xa4\x86\xcep)\xe5\x00\xeaa\xcdjE\x0f\xddDG\xac\xb50(A\xf0\x05\xca\x87C8)\xe3o\xb2F\x95R\xa9\x0b\x98\x05&gt;\x9bpw\x82g\xb0\xca\x10h\xa7B&amp;\xf6\xf5}~\xb5 \xa1\x90\x0f\xf3|\x15B\xa7/T`\xbdNfe\x85{\x07\x9d\x80\x03\x9en\x96E\xb1y\x06\xac\x92\xe9J}4\x0f\xb7\x87Jt\xad`\xc4=\xb6\xacr\xf2\rW%TaF\xbdK#\xf0 8\x18F\xc0]\x0e\xb2\xe9\xd6\xa9\x0bW\x10:\xfe\x93E\xc9\xce\xec\x7f\xb4\x0b\x13jy\x16\x93AFV\xed\xb8^\xe5\x0f\x82\xad\xcc\x19\x19\xeb32\xa4\xdbE\x18V\x96\x1e\x89\xaexE\x85j\xce0\x9b\xc3\xaa\xf4\xc2\x84\xc3h\xc0S\xd7\xc3\xc0wXO\xfep\xc3\xfd\xcd\x19n)\x88\xc9\xf4w?M\xf6f\xd5\xf7\x9f\xbdbG+\xcf6\xef\xc3c\xe3\xc6\x8du\xed.\xe2\x1d%\xd7\xc2W\xf0\x98\xc6\xb0\xf6\xed+M\xd4\xd3m\x9f$\xdf\xdc\xa7S\xe9p\xec\xdc\x98\xa1_\xcd?\xbb\x13\xd9O?\x9b\xf4(c\xfe\xdb\x05\xc0l\xffy\xf8\xe0&lt;\x8c_\x9d\xff\xe2\x1e}\xd0\xdd\xaf\xbe&lt;O\xae\xe0\xf1\xe0\xeb\xb2\xb4\xea\xaf\x1e&lt;\xf8\xe2T\x02X\xff~H\xbf\xf8/\xf2\xa9\xf1\xeb/\xf5\x89\x8f\x0e|\xc7\x07\x0f\xff\x07UO\xce\xb1\xe4\xaf\xd1~w\xc9E\xc8\xd6\x8dU\xe1^\xf9\xc5?\xd1\'\x1d\xfd\x10E\xc7\xf2\x8f\xd3\xaa\x7f\x8d\xd0\x87\x89`}LO\x1c\xda\xce\x91O\x87l(\xd9\xa8j\x84&lt;\xfd\xc6\x92\xe4oU\xcd[\xb0\x05\xbe\xf4\xea\xf6\xc8\xac=\x8d\xf4Q\x07W\xc6\xdcj\xd7n\x0ckMrX\xd9\'\xc8\x87\x15{\x93\xa2\xb2o\xafnE\xe87\x0b\xe6%?\x1e{\xf2\xf5\xe5h\xf3+\x97\xa2g\x0b[v\xd3g]\xdd\x1a\xbdW\xce\xb1\xdd\x11X\xd5\x87&gt;=s\xe6\xcc\xa70\xce\\:H\xd7\xf07\x02+\xef\x15\xf2\xe1HARX\xb6C7r\xd0\xaaCO\xce\xf6\xae\xd8s`\x96\xc3g\xa3\xb6\xb1]\xd1m\xf0I^\xf4f[N\xed\t\xc3Z[e\xb7\xd9l\xeb`\xd8Vm:\xfe\xde\xa5\xc60\xac\rd=\x9e\rIQ\xa1\xb6\x1f\xbf\x06\x1b\xf9\xdclo\xa0\xfdl\xee_\xa0\xfc9\x15s\xb3\x9c_\x86q\xed\x8c\\\xdbzpW\x04\xd6\xce\x99\xab\x7f\xf7t\xd9el\xa0\x9c\xcbd\xd2o\xb7%\x87\xb5\xfdU(z6|g\xb6\xd7\x83\xbe\x97\xf2\xfa:\xb4\xf9\xc6\xfb1~\xba\xed}\x1d\xd7\x91\xb6\x88G\xfc~o\x04\xd6\xcaG\x1e\x94}r\x0b\xb6\xd6\x9e\x15d\xce\x89\xe4\xa8l\x97\x0f\xe6\xc0F\xa6\xccz@&lt;g\xd9Jd\xdfQ]\x153w\xe7\xdb:\xae\x1b\xad\x91Kk\x12\xc2\x02\xd0\xc4g\xc8\x8c\xb5m\x8f\xfe\xf3\xdd\x19\xe6;^\xbd\x03\xef\xe1\x9cY\x8f\xcd\x7f\x81UDk\xd9\x8e\x19\x0e\x10\xc6unW\xb6n\x12[\x04V[\\3\xb4V\x93\tW\xd6=r\xfd\xf8\xd1\x19\xce\xf6\xc7\xc6\x8bX=|\x8bw\xf5~\xf0\xfff\xae\xe5\'\x8d-\x8c\xa3Uj\xabT\xadm\xd1\xda\xdb\xf6V\xd36m\xd36i\xda\xa6\xbd\x8b;\xf3?\xc0b\x88\x9d\xdeP \x06Hx\x04\x17,H\x86\x10\x10\x12dA$\xc8K\x126\xa0( $\x06c\xc2\n\x16\xa8!\xc6\x85!iHt\xe7\xe3\x9f\xb8\xe7\x0c\x0fg\x98\x01AQ{V2\x0f\xcfo\xbe\xf7w\xce\xf9\xbe\x12\x86\xe0\xbb\xcb2\x9aqqWp\x11\xae\xda.h\x05\xd6\x0c+,\xd1i\xd9\x94n\xd4]\xd7\x9e\xa0\xbb\xd8\xd9O\xa5\xf3\x04Lv\xc2ka\x07\xfd\x0b7\x0f$\x11\xaa\x1ae\xfcX\xac\x1a%\xb9\xb1\x15XQ\t\xf9p\xae\xce\x94\x1a\x8fP4\xe69\xfb\xed\x80\xba\x95}\xf5\xa5\x95\x93+#@e\xb53\x19\xfa\x7f\xd4,Tq\xd9\xcc\x82sa\t\r\xe4\xa3u\xdf&amp;Z]&amp;?\xac\xf6\x9f\x05r\x89\x02A\n#-\x9do\x19\xb6\x01\x0bU\x08/\xd1gR\x1eT\x97\xd2|\xc7\x9b\x14X,"\x0f&gt;\xc2F&gt;\xb9E3\xa5\x1a\xef(y5\x99\xaf^\xd9\x0f\x03\nh"\xad\x95\x95&lt;\xfe\x0b\x98\xae_\xbeP\xddT\xd8\x8a\xafJ\xb0\x94Z\x864\x15y=\xb9\x1a\x82R\xa5\x1b\x9fvV_\xf7W\xf4\x06\xf1\x12\xe0\xdb\xa7\xffj\xedL\xe3\xed\xa1\x84\x0e\xd2WU\xcf\x19s\xaa\xe6\xf6\xb6\x8c\xcd\x98(+K\xa2Mq\x06\xca\xb1U!\xb6\x18\xf5\xb9*\\\xd4H2RD\xb73\xd4\xe2\xa9\x96^\xae\x07Zz+c\xba\xa5D\x95\x91g\xce\x87\r\x96\x1d\x8d%S\xbb\xf1\xd5\xeao\x85\xb9t\xe6\xd6k\xb2\x89\xb8b\xe0\t\x13\xb7\xd5#\xd9}\x93\x87\x02\xf0\x15\x11%\x93\x0c+\xc9\x8a|\x99\x9a\xc0\x12\x9a\\\xf6\xa0\x06\xaf\xb0J:gMO\xd5@M\xad\xd54Y\x91J\xe0\x80+\x93-\x9f\xb3\xb9\xfb\x06H\xa59\xa6gQ\xb1\x8d\x9d:X\xac"\x7f\xe6\\\x8c\xf6\x80\x84\x12\xf3\xd8\xec\x18\xc5\xdf\x03\x0f\x96\x1do\xfd\x9cx\xd7\xd8\x9e\x08\xc1\x17\x9d\n\x96\x89d\xea\x14\x03\x96P\xc8\x06I\xaa\x0c\xaa\xe5\xebb\n\xa8\xa4\x97\x12\x1dim[8":\x1ek\xe3\xf4[\xff\xf8\x12\x0c\xf6\xd4\xac\x140\xfag(\xb2\x05a\x05\xfd\xbf\x83Q\x8dB\x87IEB\x11\x08p\x94\xaa\x1fY\xb3a!B\xd0\xa2CB\x9e\xa7\xc2\xb7\xc2\xac\xf5\x17\xb7\x9dC\xf5]#q@\xae\x93\x94\x8a\x9d5\xbf\xe2)\x1a,=P\xb0p$]\n\xac\x1d\xc7\x0fN3\x0b[\xc5\x19K}\xc8\x1a\x96{h\x06Z\xb3\x9e\xc0\x80\x8f\x1ai\xeb\xa8`\xff\xeb,TF\x83\xb0\x81\xc8D\xb5TX\xd3\xe7n\xb1H\x8e\x83\x18\xdd\xe2\x87|A\xe0\xd0\xc7\xfb\xdbA\x05\xa4kM\x00\xb4$9\xd7D\x9c[\x86\x15+\xba\xa2\x8cH"\x0cl\x96 3\xf6\xbc\xcdB\x8b\xf1Uh\xeaOE\x97\x855\xef&lt;\xf00\xc3y\xe9!tn\x1en\xbb\xe5\x1a\xcf\'s\x18"\xf5\xce\xaf\xb6\x02K\xdf\x00\x92/ud0\xb1\xca\xa7\'\x16\x02\xc2\x9b\x98l\x93X\x1c\xce\xe7g \x07W\xa5\x9a$.g\xb06r\xee\x99):""rr\xea\x9a\xfd\xd1\xe0m\x99\x1b\xc6\xf8\xf6g\x9f\xdb?\xdd\xc9+\x02\xb3\xb5-v\xb5\x00\x0b\xc1\xb5\x9by\x8f]m\xf0\x16\xe2\xf1\x82wEo^]\xd2\xc8\x9a\xf0\xdf`1C\xc3\xc5\xbb\xc0\x19\xcf\xbf{\x80\x1eb\x81p\xbe\x05X5\'@\x0e\xe4\xbc\x91%\xe4\x18"\x0c\xf5\\\xe8t\xff\xf0k\x80h.Yj\xc4\xc6|\r\x96\xe8|$4\x16\x9e\xc0,.;~\xb1\xf2\xdd\xe7\xf7@\x80\x83L\xff\xd7\x88\x8d\xf9\xa9\x9a\x95/\xb8\x82\x15\x83\x86a\x18\xae\xd4J\x9b\xc2Z\x11o#\x88\xaet\xef\xf9\x85`q\xbe\xddR\x036f\x88`\x03V\x88)\x9a\x18!\xbd\x9d1\x97^L\xbbm\x07\x15{\xbeog[\x16\xf1\xf8\x80M\x14Zo}\xba\xe8\xa1\xe6\x07\x90\x8d\x1a\x9b\x93=36\xa1\x14\xbb%&amp;\xfd\xa7\x15=\x8bJ\x85F\x83d\x0bc\xbe\xa6\x8a8\x81\xcd\xc8\xce&lt;\xb8\xf89\xf9{G :6\xc5\xe4\x18\x1b,5\x15\x16\x9a\x06z\xab(\xe7mE\x10\xa8\xc9L\xc7 \xa0\xd9aR\x0b\x0f\xcc\x83 S\xb9u\x99:\xfa\t&gt;\xd0F\xe1\xcaO+\x8bL\x8b24X1\xa0\xf2\xf6r\x0c\n\xc2Z\x91\x9f\xfc\x8b\tK\xe8"o\x87\xf8\x97\xea:\xf0\x82\xeb\x80\x1fH\x98\x98\xb0\xb4\x11\x1a,tA\x80%\xca\t\x08P\xb3\xb9r\xecw\xc4\x80\xe5\xf0e\x00\xe9\xcd\xdc\x17\x97+-\x18J\x01o\xadZ\x96D\x99\x01\xbb\x85\x0e\xcb\x97\xdd(\x13\xcb\x0b\x95\re\xa7\xd6R\x122;\xba&gt;t\xc9\x02\x83\xfbc\t%\xac0_\xae\x17{A\x00\xa5\xc3B\xe5\xe5+\xa3\xfb\x80\x92NvX\xaa"\xacTW\x1e\x8d\xdd\xbfl\xd9\xc3\x04\xdf/\x80\xb4\x0f\xc8\xe83\xac\x12u\xb0\xc4\xb1\x18i1\x80\xf6#\xd31VX\xb2\x05(\r\xd8\x1e\x7f\xe2\xf2%"\xfd\xddP\xf7\xf5\xe2\x03\x9a:\xe2\x89j|\x0e`y(\xd11\x01\xf5\xac\xba\xc2\xb3E\x83\x85\xafY\xa0\xe9\xb0v\xf7s:0\x86G\x81\xd8\x8b\x0ch\x88\xea{\x8d\xc7\x019\x1c\x81\x02\x90\x15\xdd\te=\x17\xa07\x1e\x92\xf7\xe49+\xd5\xdcK\xbd(t\x18f\xa23=#\xfax\xeb\x1b\x80\xf4\x05\xb1\x8b2\x89H*\xaa\x0c\xf8k\xbb\x16\xba[\xec\xd0\nToR\xed\x8a`\xe5\'l\xcf\x10\x94\xf0:T\x11\xdb5\xe9\x049\xaa\xee\xb0A&amp;\x043\xd1b\x15\x96[\xd9h\xa5\xdb*&gt;\x06\x84\x8c\xda&amp;;V|w\xe7\xdd.\xf0\x17\xb2\x80E\xdf\x08\x97\xab\n\xcb\xda\x18\x15l\x1a\xa1I\xbf\xeb`\xd9\xfc\xc3G%` \x949\x8b\xbeAlg\\\xaf\xac\xe5h\xd8\xefK\xadb9Pe\xd5\xce\xa3\x8eVPN\xf4\xe4\x94$.u\x03\\\xde2\xacPST\x8a\x85\x9e\tNG\xc7?=r\x88+`q\xb1\xc7R\xfb\xe4\x06F2\xca\x9eV\x1a\xc4\x19\x19|\xbb\xe7\x13\xa7\xc3\xa3\x97\x9f\x81\x81\xc1)\x1ab\r\'\x04\x87\x10\xd6)\xeb\xb6\x13\xeeG\xe3\x90V\x01\xfe\x15\x94\xf1\xf7\xf2!\xbdt`\nVe3\x01\x93J\xb0\xa6o\xcaS\xd4\x8b\x03T9\xfe\x954\x17\xf8\xb7\'\xa7%[\x07$\xd8R?]\t\x04\x118\xdb:\xea\x0e\xc9xU\xa2\xf3\x1c\xac\xd4\xbe\x0e\xee\x00E\x13M\xfb\x96\xd9Dh[,\xb6\xb3\t\x9d\x93\xf8-$\x1b1|\xbb\xaa\x9a\xdc\xef#\x8bpQbV\xb2nb\xc6\x85\n[\x91\xc9]\xa1C\xb2\x0e\xd7\xe1\x97\xd2#\xdf\xaf\xae\x82\xf9\xe1\x07\'\xdc\x97\xc8/\xcf\xab\x99\xc2me:\x01\xcc\x15K\xc3}\xdbU\xdb\x87+\xad\xf8\xbe\xf3^\x02wSU\x81\x9f\xa7\x8c\xa5B\x1d#\xa1\xd4\x1e\xa2\x19-\\\xa2\x96\xbc\xbf\xe2\x96(]o\xc7!\xa1pC,\x9d?7yv\xc7Vp\xd8\x17\x82\xfb\xf6\xca\xfbr\xf5\rw\xfb\xcb\xed\r\xc2\xd3X3P\x98&gt;L69P\xecu\x0f_G\xf3\x85~\xfe\x02\\w\x88\x1e\xfd&lt;T5F\xa5\xc9\xa0\t\xb86&gt;W\xe2\xf7s\xaeeL\x8c9M\xe4"=a\x9bm\x90\xd6K\x1d\x91\xb0KG\xb6\x1c\x18\x9b\xe0\\\xd3\xb8?\xc4%\xf7\x15W\x9dS{\xac\x04S\xc5-E\xb8D\xa0[y5t\x9fsm\xa3\xef\xc93r_QQ\x98\x8f0\t&amp;p\xa4b~\xa8\xa8?r\xcf\x9e\\o/\xc1\xde\x11r\xefFhr[\x8e\xeb\xf616\xd7,i\x0f\xd9\x07"2\xf2\x99s\xcd\xe3\x0e\x8f\xeb\x87\xb9\xa36DH\xd42\xea.\x87\x840@R\xa9\xf6\xb8\xbc\x1bh\xe0t\xfb\xee\xa0\x9b\xf4A\xd9\x92%m\xaapR0\xeb\xb6$\xa0A\x13\xcd.\x0f\xf6\xdfL3\xc8\xc7\x03\xaf\xfcP\xe2\xb1m\xdb\x94\x1c\x16\xbe\x8b\xf2\x01\x8bm\x1bZ3\xcd\xde\xab\x81\x1b\xebY\xd6ww\xb0H\xf6z\xd0\x1a\x92a\xff\xe6\\\x81H\x1a\xca=)l\x83wo\xb2\xb1\xe1\x1d^\xb7\xfc\x17y$!\x1eN\x8e\x86\xe3\xe4\xaeG6\xd0\xcd\xbb\xe1\xf6n\xb7\x9f~xmP\x91\x1d\x102\x99&lt;\xcc?4\xa1\x99\x0fOo\xbe\xc5h\xd7\x93\x9e\x88\x1e\xaa"\x99`\xcb\xf4\x91\xab\xed\x0e\xd3\x86\xe8\x7f\xbc\xb5\xe8\xc0\xcb\xdd1\x16o}\xfc#\xda\x06\x92\xe3\xeb@wb\x16\xc7\x1d\xa5\xee\x81\xaf\x9c?h\xf4\xf5\x0e\xbcYHp\x07z\xff\xb4~\xba}O_\xbe|\xda1P\xff\x03\xa0!\r\xb7,\xc7b\xc7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -566,6 +628,14 @@
       <c r="D8" t="n">
         <v>58766</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\x00d7\xbb\xd6\xca\xb3\xd1\xc3\xfd\xfe\xfe\xd5\xe6\xde\x01e8\x11nD\xe5\xf0\xeb\xf7\xfa\xf9\xde\xeb\xe6\xfc\xfd\xfc\xfa\xfc\xfb\x06h&lt;\xa8\xcb\xbb\xf4\xf8\xf6\x9e\xc4\xb3l\xa6\x8c\x0bk@\x04g:\x18sJ\xf9\xfb\xfa\x15qGA\x8cj\xef\xf5\xf2\xfc\xfd\xfd\xc4\xdb\xd1Z\x9b~\x1buL\x93\xbe\xaaK\x92r9\x87d\xf5\xf9\xf7\xf0\xf6\xf4p\xa8\x8f\x03f9\xb9\xd4\xc8\xc9\xde\xd53\x83_\xe5\xef\xeb\xe8\xf1\xed.\x80[+~Y\x0emB\xc6\xdc\xd2\xec\xf4\xf1\xeb\xf3\xefb\xa0\x84\xf3\xf7\xf5\x07i=J\x91qy\xae\x96\xfd\xfe\xfdC\x8dl\x9b\xc2\xb1\x84\xb4\x9e\xab\xcc\xbd\xe0\xed\xe7\x0clAj\xa4\x8a0\x82]%{TL\x93s!xQ\xc1\xda\xcfR\x96x\x1dvNF\x8fnY\x9a}\x7f\xb1\x9b\xa0\xc6\xb5\x8e\xba\xa6\xb7\xd3\xc6\x95\xbf\xac\nj?\x81\xb2\x9cn\xa7\x8e\xcc\xe0\xd7\xf7\xfa\xf8\x88\xb7\xa2H\x90pW\x99{`\x9e\x82\xd8\xe7\xe0g\xa3\x88\xca\xdf\xd5\xce\xe1\xd98\x86c\x1fwO\ti&gt;\\\x9c\x7f\x9c\xc3\xb2U\x98z\xbf\xd8\xcd\xaf\xce\xc0\xc7\xdd\xd3\xb2\xd0\xc3\x82\xb3\x9d\xcf\xe2\xda\xe3\xee\xe9\xe9\xf2\xee\x01d8\x17rI\x99\xc1\xaf\xfe\xff\xff)}W\xdd\xea\xe4f\xa2\x87s\xaa\x915\x85a{\xaf\x98q\xa9\x90\xd4\xe5\xddr\xa9\x90\xdb\xe9\xe3;\x88e\xbd\xd7\xcbT\x97y\x13pF\'|V]\x9d\x80&gt;\x8ah\xad\xcd\xbf@\x8bi\xba\xd5\xc9\xd3\xe4\xdc\xbe\xd8\xcca\x9f\x83\x91\xbc\xa9\xa6\xc9\xb9#zSN\x93tP\x95v\xd0\xe3\xda\xa5\xc8\xb8\xa2\xc7\xb6\xd8\xe8\xe1\x8b\xb9\xa4}\xb0\x99v\xac\x94\xb5\xd2\xc5\xda\xe9\xe2\xe2\xed\xe8u\xab\x93t\xab\x92\xa7\xca\xba\x02e9\xa3\xc7\xb7\xf8\xfb\xf9\x97\xc0\xaeh\xa4\x89\x86\xb6\xa0\xb0\xcf\xc1k\xa5\x8b=\x89g\xe1\xed\xe8\x8c\xb9\xa5\x8f\xbb\xa7E\x8emx\xad\x95d\xa1\x86\xae\xce\xbf\x85\xb5\x9f2\x82^\x8a\xb8\xa3\xfe\xff\xfe\xc3\xdb\xd0\x87\xb6\xa1\xcb\xe0\xd6\xfb\xfc\xfce\xa1\x86D\x8em\xb4\xd2\xc4\xf1\xf7\xf4\x90\xbc\xa8O\x94u\x96\xbf\xad\x14pG\xe6\xf0\xec\x90\xbb\xa8^\x9d\x81\xef\xf5\xf3\xd6\xe6\xdf\xee\xf4\xf1t\xaa\x92\xd2\xe4\xdbb\x9f\x84\xd9\xe8\xe2\xf4\xf9\xf7\xbb\xd5\xca\xf4\xf8\xf7y\n%\xa0\x00\x00\x00AtRNS\x00\xee\xf5w\xc6\x04\xa9\x02\xfd\x01U\xdc\xaf\x9b*\xf2 KRE.}\xe88&amp;A\xb0r\x1e\x17\xd5\xb3\x85H\xa1\xe5\xfa\xbb\xca\x88\xb54\x1b\x98&gt;\x06\xce\x81\xbd\xd2\xfba#m\xe0\xeb\xdf\x0b\x0f\xb6Zk0\x92\x08\xfe*\xef&amp;\x00\x00 \x00IDATx\xda\xc4XwTTW\x1aWTDS0\xb1\xc4\xb8{\x8cI4\x98\x9c\xc4=\x1a\xffJr\xf6\x9c\xdf\x1d\x9e\x83\xc0\xa8C\x19\xda\xd0a\xe8\xd2\xab\x14\xa9"R\xa5\x08R\x04\x04Q\x8a\xa2\x12\x02\x18\xa4H3\x08\x82\xe2B\xcc\xa2\xa2\x11wq-\xab\xc6D\xdd=\xbb\xf7\xcd\xcc\x1b\'\xceX\xb0\xe5\xfb\xe3\xcd\xdc\xfb\xde\xfb\xee\xef~\xdf\xef~\xe5M\x99\xf2\x822c\xf5\xdc/\xa7\xe9\xbc\xa5\xf9\xe6\xf2e\xcb\x96\xbf\xa9\xf9\x96\xce\xb4/\xe7\xae\x9e1\xe5\x8f\x93Y\x0b\xbfY\xb2\xe8\x8dUP#\xab\xdeX\xb4\xe4\x9b\x85\xb3^?\xa4y\xd3\x96i\xcb 0eWv\x15\xa4\x07\xd4\x18UW\x1b\xd5\x04\\.\xd8u\xa5\x8c\x91\xdd\xd1^6m\xdek\x84\xf6\xc5;\x1f-`\x97\r&lt;\xd8~\xc16r\x1dQ\x91u\x91\xb6\x01\xed\x07\x03\xd9g\x16|\xf4\xce\x17\xaf\x03\xd3\xcc\x0f55\xe8r\x82\xa2\xe48O\x16\xc2ik;\xb1ci\xd2\xa9\x8b\xd7x\xbck\x17O%\x95:\xc6\xdbY\x9ff\xefx\xc6%GO\xd0G54?\x9c\xf9\x8aA-\xd4a\xed\xf4\x9b\xb0\x9e\x85dl&gt;8\xd4%R\xc7-QW\xcf=sc\xfa\x88^\xe1\x16\x0b\xd6f:\xab_!\xa1\xe6~\xa0\x05\\\x17\xfaS\xbf\x19\xfb\x9f\xcb1\x94B\xb0_\xd3\x17\x9c&gt;\xf0@\\\x1f\x15U/\xf6\x19H\x0f\xee[c/\xbd1\x91\x93\xe8\xbf\x8dz\xd4v\x8b/\xa0\xf5\xc1\xdcWC\xb3\x99\xb3W\x02\xfbx\xad\xd4\x08\xb1\xf7xgX\xb2\x1f\x14\xd6\x06\x99\xeeQ\xe5\xd6\x1e\xd3\x7f\x1d\x12\xaea\x89\xaf\xcf\xab\x89\xa5{\xf0\xf9v\x1f\xb0r\xf6\xcb\x076k\xf6bJ\xa8\xee\x08\xbaF+\xcf\x92BJ\x1d\xb1\xd5#O\x14=\xdb\x91T\n\xcd\x92\x97Iw\xf2s;\xb5\xed\xe2\x97\r\xec\xfd\xe9@Z\xa2)U/\xa4\x1e\x12\xe8f\xc7\x92g\x92\xbcl]\x01\xf5\xb3\x90n\xc74Q\x1f\x98\xfe\xfe\xcb$\xfa"\nj\xd4\x8c\x98\x14\xe6P\xc7Xe\x9b\x91IH\xc5\xb0\x15})\xa7\xde\x89\x98\x8d\xa6\x01\x8b\x16\xbe\xac05_\x03LO\x1e1\xf1\xf9\x0f\xb0\xc1\xc6\x83LZ&lt;\x926\x00Y\x0fLH^\x0f\x03\x8d\xf9/%5}JI%q!\xfc\xed\x87\x01\xd7C\x9b\xd4/\xbc-\xb2.\x8aJ]\xe46\xf5\xf77\xd5\xb8\x02\xfd\x85|\xe2B\xed\xbd\xf8\xd3\x17\x065\xe3/\xabp\xf7*\x9f\xd8\xa5RP\xe1j":\x89\x8d?\xd7\xe2\xb6\x8f\x8bX\xfb\xdcZ\xce\xc5\xab#\xde\xba\xb3k\xe9\xf6\xec\x08?\xfb:\x96\xbe\xa8\xc1\x16~\x02l\x8d%\xb7\x84\x0c~\xab\xd9\xa9\xbaXD\xc8}i^t\xf5*\x19\xea\xe9\x19\xd2\xf5r\x95\xe6\xc3\xaeRw\xd5gw\x0eZ\x80\x11~G\xf2\x9c)\xf5_\x88a\xefjc\xc3\x18\xe1\xfbl\x84\xe0\x86j8\xd8\xe4H\xfd\x8a\x93B\x1f\x97[\x11\xfe\xad)\x9b\x8f\xa5\xb4\xfaG\xdcr\x19\x13\x96\xd1\xe9~GU\x7f\xeb\xb5M`\xa3\x0f\x9fT\xdbC\xfb\xdd\xe7w\xa0\x8e\x16\xba&lt;\x88i\x1f\xd0R\xa9\xb2\x86\xd9\x08M+Y\xc9\xee\x1e\xb5\xa1\x06\xd4D\x86\xe1\xf7\x06O\xd0_\xa6j\xbdceD\xe9q\xc0\xe2\x92\xea\x89\xf5(\x02\xfa*\x88\xc7Qh\xe9&lt;g\xa2\xfc\xeak \xd8\x8ftz\xc3b\x98\xaf\xe2\x91\x00\x0b\x04\xee2wO7\x90q\xca-\xc8\x06h\x8bq\x90\x8d\xaaF&lt;\x82~d`q\xc2\xef\xd1\xf7N\x87\xdf\x85w\x14\xf1\x0b\x06\x96\x7f\xf5&lt;\xa8\xe6,\x86(\x9b\x98$\x8e\xe3\xdb\xcd*\xbb\x0e:\x0e\xa6\xbd\xb2\xd0\x8ac:/\x82\x87*\x03l\xad\xeb\xe2f\xa2c*\xd73\xc8\nRyus\x0b\x98\xcb&amp;$\\\x84\xc5s&amp;\x8f\xea\xaf\x0bP\x9eK\xac\xbd 8\xe0\xf4\xa8f\xbf\xb6qD\xbbt\x1e\xe4 \xe8\xd7\xc6\xdd\x86\xd7O\xe6GQv\xdef\x9c\x9b\xed\xea\xd8\x7f\x05\xe37T\x0c\xe6t`\x02V\xa6\xa4\xce\x1b\x0b\xe6M\x16\xd5{\xda\xe8o \xb9\xae(\xfbIe\xbf\r\xbbq}\xcc=ZQ\xc6t\xedOd\xf07\xff\xf2r\xdb#0\x0c\x89*S\xdch\xf1\xc8\xf6\xc5\x8e\x06\x15\x05M\xb7Q\x96K*\xfb\xa1\xfd\xde$s\xa06R+H\xbd=$\xd6*J\xcd-P\xbc\xf9\x92!\xb7\xb6o\xed\xf90\xd8W\xd7o\xa5e`G\xaf%\x0e\x07]V\xdc\x13$o\xce\x81\x85\xb9\x8a\n\xeb\x1cl\x88!\xa6\xbb\xa1=\xa9\x1c\xf9\xb9\x06\x8a=I\r\x83!\x15\x17\x90|\x11\xf6V\xe6(,\x12\x1a\x11\xcc \'\xc3Y&gt;\xea\xacB\xa0\xcd\xf7^\x8a\xdb\xc5\r\x05\x10\x89UcX7\x98Z\xa2\'\x81\xc6\xe7\x93\xf2`\x911)\x05J\xa5\'\xf0\xbbL\xa2\xa78\xebc\x81\x81)\xe6\x1b\x15\xc4\x0eJ\xd9\x08Q\x82G(O.\xc2\x06!P&gt;\x1c\x9f\xc5=Q\xdeT\xc3\x04\xfa(\xa2\x8a\x1e\xf1\x91\x06@~\x08\x90L6EO\xc2\x8foO\x85\x971\xf9\x01L\xb5L\x17?\xed\x88\x01\x97\xeb2\x19\xc3\xed\xf9\x9c\x93v\xc4\xe5\x9f\xa4Y \xceY\xb9`n\xaf\xa7\x90\x0c\xe23\xc38G\x8a\xc5\x96\xcc/\xf2\xd7\x8d\xc3.\xfeO\xfew\x98\xc1eb\\\x8c\xa9o?\x1b\xaa\xcf&gt;\x86\xc4\x93\x8c\xc2R\xaek\xdd\x80\x00\xbb\xe4\xba\xfc\r\x03\xc5\xd5\xb2~k|k\x86\xf8W\xe0\xf8\xf6\x80\xbb\xfa\xac\xa4:\xe676\xe6\xc7\x0f:\x97]=\xe4\r\xdc\x17\xe7K\xe4\x1d[u#c\x98!WP\x02\xd1=yf\xcd\xb4\xc4(\xf1L\xc5\xc7\x9f=S\x14]\x89,3\x92\x0c\xcbx\xb9&amp;\xf7\xe4*\x81\xc3YY\x90\xf6\xc5\xb0\x8f\x14\x95\xc3\xbf\xed\x1ci$\r\xab\x1es\x96:\xefF\xe4\x88\xb7\x14\x84\x81\xcd\xcf\xfe\xa1\x85\t4\xae\x86\rvt\xa7Iq5\x1a\xc1WV\x0f\xa58L\xf4\'s\xa5Q\xbc%\x12\x88\xd9a\xac|\x86\xb8:\xf3kx7\x90\x1a0\x99\x0f\t:PJ\xa4\xd4\xf7&lt;\x8e\xcb7i\xfb\x17X\xb4\xbdi\x0b]1\xebl\xf5q\x99E\x12\xf3\xbd\x15^\xdcw$n\xb7U~/-\x18D\xa7\xe2|\x8a\xd9\xc4\xe4\x9f\x88,i\x8a\xdcI.\xd5&lt;\xd4\xdb\xca\xa0\x964xc\xf9\xd3\xf3\xd0\x12\x08\x9aH!\x83\xab\xca\x99\xccX\xf6\xdb\x8e\xe6\x88\r"\xe7\xec\xa6^\x8a\x86i\x8eoM\xd2\x95JI\xd0e\xb6\x05\x12\xfa\xfc\x92\xd9\xc6\xc2\xb3\x88\xb9\xa0\x9b.~\xc0\x9e\xc7\xc3\t\xe7\xc3\x9b\xcf\xf8\xba\xb7`H\x9e\xdf\x95\xb3k5\x98z\xf2\xbd\x00K\x9eZ3ha\x98\xd8\xe9\xd3S\xa2*\xdb\xe1f\xe6\x13\xd7as\x92]\xae7f/-9\'\x92\xea\xeb\x0b,\xcf&amp;\xd1\x99\x92\xce\xad\xfa\x10\xf1:\xeeHi^L\xcf`zT\x08\x9b1\xcbl:\xe22+\xcaQ\xa8Fe)\xf4sI8\xb4\x9eRO\xcc\x99\x8a\x02b]\x8e\x1ei\x9b\xe5G\xcf_\x85\xa2&gt;\xd1sCTe0mW\x03%\x07\xe2r\xef\xb0\x8c\xd2\xf5\x17\nD\x05.4\x94\xe0T\x93\x8cd\xcd1\'\xd8tt\xb3\x84\xfd\x7f)".y\x07\xc3\xb6L\x91\x9dpS\x94F\x9e4\xdcl\x93\xd2bO7\xdc\xac\x89\x10S\xff\xfc\xc4Rf:v\xf8\xad+\x86\x97\xec\xb08I:\xa3\x0e+2b\x1bB3J\xa3\xc1\x13w\xcaj?*\xf9\x11\xe9\x94\xdb\x7f\xa7\xb5\xa9\xeb\xcd@\x8e[\x83%\xf4\x92\x15.\'\xda\x8e\x84\x98\xfcf\xa4&amp;\x9c\xbf\x88s\x9c&amp;\x93*\xff\x18\xc9iYz\xa5\x8b\x99\xf8\xed\xc6\xf4\'\xd1k&gt;\xec\x1bH\x12ns\x19\x87\x86FgE&amp;\x9c\xf8od\xd8\xa5\x16\x18I\xd6&gt;\x94\xaa\xa4\xfd\x16\xd2\xe5\x87y\x8a9\x83:\x16\xe1!/\xc5Dj8\x8a\x93\r\x1a\xd2\x04\x91\x9c.\x1e\xb0\x97\xcbC\xb7aC*\xd30\xff\t\xdd\xc4R\x8c\x91N\x186q\xc6n\x01\xbc\xb9\x883\x84\xd2\x00\xfc\xc3\x19)\xbc5\xca\xb2\xe5\x07i\xcc\xccP\x9a\xba@W\x85k\x8cb\\\x14\x8e\xe8\x10\x0c\x8c`\x0b\x17\xfd\xe8\xb9\xe0q\xe407D\x07\xc9\xc6\xd2\xc7V\x133V@w\x8fi9\x0epdj^+\xc2}\xe7\\\xe9\xe0X\xa0\xc31\x07\x9c\x0bEJ\xff\xef\xbe\x82\x84\x19\xb1\xd7\xd4\x04\xa5\xa9\xa3\xbd\xecU,\xe0\xc6\x06\xe1\xe8K\x87\xc51_KY\xe1f\xe7|\x14\xa2\xb5\xcd\x1c\xd5z\xe1V\xb1\xa7\x0f+\x1e\xd7vL\x83C,\xd1\xc5\x15\xa5\xfa*\xc4\x80\xfb\xc4`\x83K\x94\xd9=\x05\x18l\xd3U\x16\xa1\x14\xd6EG\xa5\xa9#\x8d\xecTp\x087NrD7\xadF\x13\xd2\xd1&amp;W\xc6\x0fS:\xe9NV(!y\xbe\xf8\xd3cN\xa1\x06\xc2I&gt;|\xf3\x94\xbb\xad\x11\xae\x11t0&lt;FM\xdf7\x8a\x91\xa2\xdfY\xeb\xa4\x14\xd6\xfa\xf5JS\xf6\xad\xec\xf5\xd7\x10n\xec\x95\x8c\xa4#4`DZ\xde\xe5\x9a\xa7t\xe5zi\xf3\x06\xc4\x13#h\xa8?\x8d\x9a\x90\x9c6+\xa7\xd0\x94E\x1eHI#~d\x17\x93\xd4`o\x80\x1ak\xad\x1fP\x9a\xba3\xcaN\x19\x9e\xe7\xc6\t6\xe8e\xf7\x92y\r\xe2G\xd4\xca\xc4\x08n\xb7\x9cR\xa1\xa9\xb6\xf2\x03cG\x8f^4_m[\xdc\x87\x18Vs\xd9v\x84&amp;=\xcdZ\x8e\xb2\xb6C\xcc\x8d\x0b\x86\xf0\x80-tx\x85\xd0U\xab\x9c\x1f\x8d`R7\x0e5\xb5\xd7\xcc\x15\xe8!\xfb\x19\x91Rn\x88Pj\tE\xbe\x91l\x8af\x82 \xc9\xfe\xddI\xe4\xc9`\x8d&gt;\x9c)\xb9 C\xa38\x8a)E\xc8\x90~\x0f\x8b\xb4?\xa3d&amp;\xa5\x0e\xd7C\xc0\xb8\x90n|\xa2\xfa\x9di6\xd2b\xf9V\xb8#\x0f\r\x94\xe9\x11\x07\x1f\xbe\xd7\x81]\xb2\xf8h\x8e\x8d7\xd7*\xcb?\xff\xcf\xa8\x95\x06E\x95]aR\xa98V2\xa9d\xaaR\xa9\x1a\'\x95\x99\x8cUI\xaaRI&amp;\x99$\x95\xaa\xfc\xc9\xd7\xd0\x80\xdd\x8d\xb4\x08\xd8\xec\r\x08\xcd"\x9b\xec\x8a"\xc8.\x8bl\x03S\xec\x10\x14E\x1b\x01A\x81FqAv\x1cQ[\x11FTTt\xa2\x8e\x1b83e\xaar\xdf}\xdbmhe\xee\x8f\xa6\xef\xe3.\xe7\x9d{\xcew\xbesn\xf3b\x99\xe5\'\r.\xbcX\xdd\xe2\x83\x92Y\xf4\xd2\'\xffm\x80\x9f\xbcf\x19\x91\xeb\xc06\xd1\xa1\xd2\x1c&gt;WaE\x0cz\xe7\xd7\x04\x84k\x10)x\xeda\xf5\x97~Qjy\x89\x9bH\x99\xa6+\x9f\xf7\xc0\xa3\xd5\x0eq.\x86\xfe)\x91\xfa\xf1*\x1dO\xa9\x0b\x08\xc3\x92\xdalhl\x8eZ@XG\x0f\xa4\x13\xd9\xfe\xf2\xce\nei\x0fn-C\x878\x873\xa0\x10\xb9\xfc\x12\x8c]Kt\xe5[\xf5\x98\xe9\xb7e\xdaY^\xac6\xe6Q\x01\x951&gt;A\xecW\xa2\xbd\x9cN\x8e2\xa0^.\xf2\xbc O|\xc5\xde%\xb4ou\xf3\xc7\x8f\x97\x89\xf5\'\x8c\x12o\x0b\x912\x8a-\x1c1\x0eHz.@K\x91\xffI\xfe\xcd\xfb\xf2p\xad\x93\xd5V\x99\xa4-\xa7\x88\xba\x8b|\x82V\xc0}\x8e\x8c\x8bl&gt;\x13C-\xfc\xd7\xddW\xfd/\x0b\xeb\xcfs\t\xb8\xd3\t)\xe7\xd8@\xbc4\x07\xbf]\xee\x86\xee&gt;[_\xe3\x86\xf4.q\xdc*!f!\x0c\xedF\xa1p$;\xa2Q\xcd"\xc4\xa6\x842\x01 ^\xa6\x9a\xafx\x0fp\xcf\xa6\x06\xa9\xff\xdd\x12\x86$}\x89\xc0B\xc1\xdc\x9ap\x8e_\xd1d\xde\xc0=\x18\x976,@\xd9\xe5\xbdN\xcb\x9c\xf1C\x12\xaf\xd2\xb1A\xaa_\xcdh"C`\'aE1\xa6\xda\x84w\x7f\x84\x0b\x97d])+O\x81\xd7V\xcc G\x90os\xe9\xbf\x07\x15\xabdI\x18\xd3x\x1a:\xa1z\x1f\x97\x8c\x0c\t\x15&amp;\x10\x12\xf9\x95^\xca\xd4C1\xa8\xc8\xc6:\x0b\x80_\x8b0\x85\x17nI\xb2\xeb\xf7\x1c\xd8\x13p\x93a\x91\x0f\x12\x85Mj"={\x19m\x8d\xeb\x9e\xf0\xda\xfa"\x97\x02z\x15\x1fl8;\x12\x87\xf4\xc6\x08\x16\x0f\x98\xef1\xac\xf7\xcc\xd2\x1e\x87sz\xe6|\xd2\x14\xbb\xb0\xf6W\x16L\xd9KaD\x8ce\tk\xf1\x98\xf4\xb5\r\xc7r\xc5\x95\xebP\xa2el+\xed(\xaf\xad\x14\x9a;\xd6\xe7\x93\x8f\xb1\t\xee\xa3_\x18\xa0\x89E\xed\x98\xf0\xfd\xf1%\xc4I\x8b^\xb2\xccj\x1d\xb50(\xea\xf1g\x86:\xacG\xa9\xa2Zv\x0b\x91\nI\xdfFQ*\x16g&amp;o \xef\xb1\x15\x80\x88^\x8a\x18V*\x17I\xba\xddl\xf2$\xe1\xa0X\x8a\x88Y\xc8\x12\xc3hZ4\xc9\rW./:\x7f\xa2b\x00\xebe"\xf1\x1e\x02\xf6\xed\xd4"\xec\x8d\xa5b_dV\x88\xdb\x98\xd0Yl\x05 \xca\xbd\x9a}\x8a+\xf3mm\x1b\x0e\x93\xfcP9\xe8,\x0e\xa8Y\x80I\xe48\x85\xde\x12\x89\xb0R\xf0D\xcc\xce}\x01\xf8\x8d$\xd6\xc7\xd8\xa4\x88\xc6C\x8b\xfb\x91\xed\x96/Rc/\x8aU`\x0f\xbf\xfb+\xb5u!\x05.\x1c\xe2\x16\xd2\x1c\xbb`\x934 #&gt;\xb4[bb%\xc8\xb3\xa8HY\xc8U\x81\x01b\xf4\x1f\x8bR\xfd\xfbg\xc4?N\x93\x8c\x87i\x83\xa9l\xef&amp;\xbc\x9b\x18\x9a\x92\xe4k\x05NuMNmO\xd3\x8b;\x08J^=R.\xfd?\xfb\x1aZ\xce\x8as\x0b\x17\x91\xf3\xe6]n\xc0\x96\xf8\xfc\x0f\xfe(\x9da\x94\xab[\xbc\x13[\xe9\xdc\xda&gt;\xcaN\x98G\xb9T\xf8Sf`\xa4\xc0J\xf0\t5\x89\x92w\x99\xa6\xe5\xff\'\xd9\xc2\xef\x89\xe4\x1f)H\xb2x\xdd\xef\xd8\x92\xdeA\x8d\xe7A\xd7H\xbc\'\x88\xf5Sr\x867\xe4\\\x82k\xd1\x08f\xbb\x1d\x88k\x90y\xcb\x05\xa46X\xe1[\x89{oOtN\xf6g\x19\x8cW\x18\x04\xd1iB\xd3\xa5\xa9w\xc6\x10\xc8\xae[\x88E\xb6\xdbO\xc8^6\xfe \\~\xadG7\xc9En\x8b\xd9\xd2\x99d\xf3\xf5Y|\xc5\xa2E&amp;\x9e\xc9,\xcb\xde\x05\xd5w\xac\x86\xea\xc9\xbc[q\xe6\n%\x1b\x9b"\xc6\xb0_~#\xdf\x16d2\xcb\x9e\xf0\xc4\x8e\xeb\xe6\xe4\x97\xae\x12&lt;\x06\x11\xba\xf0\x0f^\xac_\xc0i\xdbf\xf7C\x92\xbf\x1e\xe4s\x08\xa5z\xa2Q\xccN*\x91\xfb\x85\xbcU\xaa\xca?]%\xb6I^\xaca\x95\xf5V\xb5\x03&amp;\x8d\xac\xe8~T\x8aYU\xe3\x84\x9a\x7f\x81\x11\xc9z|pu\x9f\xa3\x06|e\xe9\x03\x02\xaf\xa9hb\xf0J(j{I\xb7N\x8e\x98\x8d\x95\xc5\xca\xde\x84\x14\xdf\xb70\x08\xa6\r\xf9\xa1+N\x9e\x99\x11\x02\xe9\x10\xc2\x84\x92a\'\x83_\x17\x10K\x82\xcd\xdf\xa9X\xef\xa2\x91d\xcc\xfb\x19\xe5R\xba\x1b\xe3\xc2\x98\xe3\x7f\x10\xce\xa4\x10sh=\xf2\x16\xbe\xc5\xb4\xb6Z\xa4\xab\xe5n8.2nU@\xa3E\t\xb3\xf1(!}\xf3\x02\xa7\xff%\x81\x87\n\x143\xff\xa5\xc6\xf0\x19k\x8c}\xf0\xdb!\xaf\xdeh\x8b\xd2+\xdfG[u\tx\xed-\xcfk=\x8fdK\xa0"m\x9ay\x10K\xc0\xb3\x18\xeb9\xa9\xfe\x06\xcfm;5J\xc6\xc2}4\xca\xbe`D\xb2\x0b\x1c\xc3\xa8\x0c\x90\x88$g\x9e\xf2}\xb4\x95\xd4\x87\x81&amp;\xb9\x9b\x98\x83\x02v\xd5\x00\xd4\xd7)5\xcc!:*5\x9b\xb7\xc5\xe3\xe7\x94\x97\xb6+t8\xc5\x8c\xce\xca\xde\xad\xd8&gt;\x04\xd6\x15\xc39\x80\x96[G\x1a\xbc\x93W\xd7\x96\x9dN\xa9Ne\xa6\xa5\xdb\x83\xadn=\xc7\x95\x8d\x8a\x93\xc3m\xcc\xa3v\x98\x14\xf6\x94\xa3~\x84!\xc5\xb7\xa8f/\x99\xf8R\xb0\x81\x8dEj\xdc\xf5\x97\xd7o\x9eCg\xd5\xea\xda\xea\xe8\xc7\xa2\\*\x87\xd6\x005\xab,c\xbe\x83\xb4\x9dT\x8b9\xaa8KY\xc4\x87\x84"\x0e[*W(\xe5\xb2\x9d{\x18cw\x1ek\xc0\x8d\xba7$drI$\x16\xf65\xcc\xa4\xa1|\x0b\xc7RX\xb94\r$t4\x8er\xc1\x7f\x12\xa7l\x82n\x95\xeb\xe60\xa83\x98\x1d\xb4z\xf7f\xe3\xa4\x9a\xb4\xc7\x94\xb2;\x7f\xad^\xd9f\x9a\x10;\xc2LJ\x98}\x0bI\x11\xca7\xa8 `\xf5\x13\xc2\xb5\xd6\xe2\x9c\x83\n\xcfW\xbb\x06\x7f\x08\xbfW\xcc\x16\xbe\xf7\xd0r\x86\xfb2:D\xf9]\xf6\xca#L\xee\x80]\n[\xc89o\xe9\xdd\xd6\xda\x16\xf8;\xec\xc6_\x7fD\x1c1~\xa3\x0f\x02V\xbd\x9d\xafBm4\xb3\x87\xa7\xe9\xa2R\x97gg\xe7\xa2\xa74\xbd6\xdany\x1b&gt;\x1c\xe3\xaf\xf7`\xa6\xf4,\xc0{\xd5mb\xe0\xb6QI\\\xf1}\x82p\xc7\xf1\xdd\x1b\xc7\xb9\x1e.I\xe2\xca6\x1b/B\xd7\xcalR8\x88S\xb1\xca\xf1\x0c\xfebs\xa4c\x85\xb2\xaa\x1a0~\x96\xe9\xbfJ\xc0\x0e\xd7U\xc5j\x87^\x11\x82\xf7m&gt;\xc5\x02A\xf5\x06kC\xdc\xe6\x8efW\xa8\xb8\xf0\xc8\xb9u9\xd2X\xfbE`5r\n\xa6\x8d9\xa7\xfa\x08\x7fw\xea]\x0e\x0e\xf9\xe5\x88(f\xc7?\x8d\xa0\xe9\xc5\x81\x9e\x88\xa5\xc8\xc2M\x1do\xb02;\x12\xcb#\xf0\xa9\xcd\x0fq\x87\xf0\x96\x96e\x17X\x86\x81\x9b]\xcd\xf2\x92\xc3\x9c\xba^#\xb3\x8b\xadb\x19Z\x95\xb1\x0f=\xa7\x02\x1f\xe8IoPe\xa9\xabN\xe3\xff\xb4\x86Y\xe6AP\x0f\xca\\i|\x110\xcc\xbaX\x89\x84\xf9\xd4\xe1\x03\x9b\xdf\x11b?\x8fy){;78\x96&lt;\xe2\xb9\xec@4\xdcU\xa5\x1fB\r\xfe\xec1\xf6z\x86T\xa6yyy\x15\x13l\xca\x9e\xf7b\xdb\x82\xbe\x10\x03S\xac\xeb\x1a\x9a\x89\xc7+\x14\t\x02\xdf\x0e\x15\xd0\xc1!\xbc\xaa\xe0H\xac\\\xe9\xbbNxb5&gt;"\x1c\xf0\x81\xa2\x05\\\xeeu\xd9\xe4\x92X\x1fc=\xe46\xf0\x811\x9b\xf5,\\\x8fC\xed\x9cV\xa5\xb2?\x7f\x1fN\x19Q\x0c\x9d)\xea\xce\x86s\x0f;\xb6\xfc,\x1f\x0e\xc5L\x85\'\xa9\xdb\x85R\x18B\x9e\t5\x92\xa30+\xf6\x13&amp;\xb8\x86\xa0\xa93\xb8\x0b\x9e\x13V\xc4\xd1D\xe4\xcf\xd0K^\x0e\xd7\xdc\xa2P\xd3\xc7z\xe3\xdc4r\xb8T5\xafC\x89\xc2\x1e\r\x13\x0b]\xd0n\x08`\xc1\xc2\x1b\xcdn\\\x8eO\x99\\iX\xa9\x1b-O1\xe4\xc2\x9d\xcfJ\x07\xe0L\xf0t\x8d\xcd:r\x98\xd3\x943\xee].\x93\xba\xa5\xdb\x91"/\xc72\xb99O\x0f\xc5T\xb63\x03\xa2\xc2F\xb0XC\xc0`~\xeeq\x91\xeda\xb3\x88\r\xd1\xc5NK\x862\x16\xb2\xf4\xda\xfb\xa9\xfc\xad\x11iBIpg\xb5\xe5v\xc7x\x1e\\GL\xfd]\x9b\x7f\x11\xfe\x9cK\r\xf0\xa4\xe5(_\xb1\xb8\xefF\xbb&gt;&lt;\x1fj5\xbe`\xc6T\xdc\xfd\xc6\xc9/\x99+^6\x16\'x\x8b\x89w\xd0\x8cV\xe3\xd7\xc0\x0c\xdb`T\x0ba\x87V,\x82iI0\xacl\xf9\x0f\n\xb9\x9f\xe6\xa4c\x82\xe4\x15\xbf\xb7\xf9\x84\x90\xf8.Z\xa4\xdb-\x1d\x0e_\xc9\x92\xae\xedh\x97V,]\x83\x10\xac\x8fd\x96\x9a2\xa9\xb43\xf9\x968\xba\xdf\x10\x85\xdb\xfbY\xa5\xea\x1f"\x97\x87,\xfe\x9e\xf6bV\xf8\xe7\xb7\x8aD\x964"\xfe\xea\x91+\x8a\xa7\x92\xa4\xec6&gt;a\xc4\xe2\xb5\xb2\xa3%\xdd1\x94\xa6U\xbcQv\xf3?,\x10\x8a\x9e\xdb\x9aP{&lt;\x8a\xd9\xf2\xeb\x1ae\xa4)\x97}\xe9Z}\x08\xb2\x02\x99\x07/\xf4\x0b\xa8\xd8)^\xb2-k\x11&amp;\x07\xc5\xe6L\xde\xc6r\x19\xb1\xe4C\xdc\x8c\xa2\xa0@\xca\x87\xeah5\xef\xae\xe2\xf2\xf1g\xdf\x08\xd3\xc5\xb4q\x8b=\x16\x8cl\xdd-\xae\xfcP\x8c\xc9W\xd6\x95\xd9\xd8\x0c\xdf*&amp;\xfb\x191D\xa0]"/-\x16B\xc5\x8f\xf1\xc4&lt;\x81\xf6\x82\x99C\\GL\x8d7y\x87\x0c\xb1\x98\xcf\xc3\x806"T\x06C\x89\x84li\xc2+c\xbf\xbc\xf2\xa1\x94@h\x1f\r\x8b]gr\xc6\xbe\xe9N\x0c\x8c\x1aGP!S\xaa\x03)\x8c\rD\xfaI\xe5\x07\x91\xa6\x8b&amp;\xbf\x86\x18\x11\x0f\x10\xcc\xdd\xc5!KM\xfb\x8f\xf1RQ\xd6\xe6x\x9a,\x97\x1f/\xcbUp\t\xee=I\x1e\xb4=H/\x82\xaf\xb7\x0c\x15\x9a\xb1\xf3\x1e\xe8\xa2\xe5\xe4\xdek\xbcp\x8eY\xa2`u&gt;\xe2\xa2&lt;\xa5\xb4\xa5\x001E\x01\x82\x83S3\x8eY\x86\x80\x05V(\xd5K\n2\x0e\xc7\x9f\x85R\xe97&amp;B9\xaac\xfc\xa8\xa3&lt;\xfe~\xdb.[//\xdb\xbb\xdf\xc6#+Z\x16\xd9~&amp;G\x89\x16\xfaNz-4\xb9\xa5T\xc0}\xa5\x13/T\xad\xd5F~\xaf\xa0+\xa5\xc2\x8f\x13\x86)\x9c&gt;\xa3p\xca\x05\x9f$9\xf8\xf0\x8d\t2\xeey\xf4\x9d\xc2\xafsf\x19\xcf\xd7\xf2J\xb5\xb0\xd7\x8d?\x91\xd13\xf3*\x92u\x93\xad\xa6)h\x8e\xc4Iv\x15\xf0\x7fJ\xae46\xaa\xeb\n\xdb$i]5\xa9\x1a\xa5I\xd4&amp;Q\x95&amp;\xe2O\xa4$j%J\xfeT:\x17\x8f\xe7\x013\xc3\x18\xcf0^\xf1\xc2x766f\xf0\x12\x16\xd7\xc4\x18\xcc\x1e\x16/\x18\'\xb5\xb1!\x80\xb1\x83\xc1[\xb1q\x0cXYJ\x08f\ta-\x85\x04\x03\x01B\x88h\x9aR\xf5\xde{\xee\xf2\xde\x98\x00y\x12\xd2h\xfcf\xe6\xbe{\xcf\xf2}\xdf9\x87\xc3\x81\xb5\xe0\xeeF|\x87\xe9cRC}P\xf7\xa0O\'\xba\x9d\xa6\xe4\xf3\x1c=\xcc\xb6\xe0TM\xaa\xc5f8\xe7\xb2tU~X\xd1\x97\x8fQ\xe2\xa5\xd4\xb3!\xfd\x8cR\x05{\xa3\xf3`Wt\xf4\x7f!f\x91\xb2\xb2\xfc\xa2\xf4\x93\x94\x02c\xf4\xab\xd2\xde\xeb\x1eZ\xe0\xb2\xa8\x1d\xeaJ\x14\xa9\xfa$M\xd5\x7f\x828jg\xa3\x80\xcdp\xe0\xa3\x0b\xe1C;\xe8N\x19W7\x99\xfc\xaa\x04=}x]\x1e]r\xc7y\x89\xc0\xd2:\x1aa\xd2$h\xaf\x96\x18c\xdb\xf9\x8e\x8d\x0e\xc8\xdb.U\xe1=fs\x8d\xd9\x18P\xd4X\xd7\xdbb\xaa8\xb0Y\xc3\x81\xcdo\xa1\x89$Y\xf8\x98\x05\xe1\xeci\xb0\xb4x;\xab\x15\xa5[u\x17l\xa9\x07\x02\x03\x18-2\x13i*9\xba\x08\x8dd\xd7@`\xcf\xde/\xc1}\xd9\xc4\xe9.[\xbd(sz\x07_\xf1\xa0V\xf0v \x0c\xac\xe60\xf0\xd7`sy!\xff^k\xf2\x07"S\x82\xa2\xdf\x0e\xb3\x1cUD]*\xe5\x83\xf8\xea}\xb7\'4\xd9b+\xe2\xbb\x0b\x1d\xb6\xa6\t\xb7\xf7U\xd7\x1d\xa1v\x97[di\r\xf4\xa7\x06G\xd2\x92K\x17\xa9i\xad\x92~y\x9c-\xb3\xd9\r-\x05\x0c4?\xf6G\x98O)F\xcb\xa8E\xa5\x9f\x9d8\x1a\xdf\xf0\'\xf4N\xf7\x8a\xbd\xacKe\x11\xeaPqE]\xf4\xb5\xe8\xf2\xf2\xe8s\xd1\xdd\x15\xc5l\xfb\x9cK\xe2E\x10\xf4\xd4W\xcc\xe2\xfeg\xe0\x81g\x98\xbf\xef\xc3e\xef\x91\xaa\xba\xe2;\x13\'\xf7^\x13\xf97\xd9\xde\xc5(F\xc8/\xa9\xa9m\x08&amp;d\x83\x15f&amp;\x05w\x8fr\xa8Zb\x88\x04\x94\xa2z\x11\x8d\xf8\xa1\x92Q\xdb0\x14/O\xcf\xbe\x869p\x0com\xca\xba\xcbe\xa0\xd9S\x9c\xe6\x9b\x0f\x9e7w\x1e\x06`\x05\x122\x1a\xe6\x0b\xc9b\x8bH\xd7\xb2&lt;\xcd\xf23\x1f\xce\xb8\xf5\xae6\xac\x82~\x99\xbf\x14\xe6_\xd46p!\xae="\xa2=\xee\xc2@\xdb"\xaf\x0e\xe9\xab%\xa7\xde\xe8\xe2\x11\x9c\xe7\xda\xda\x96\x9d\x96\'\xd9\xfa\xce\xf2\x04\xaduD\x92\x9d4\xc8\x87\x84\xbcF\xe3\xea\xfb\x9a\xec\x97v\xa7:,@\xb0\xe1\x9c\xdd\xbeX\x1b\x96\x9f\xe1\x18X\x99\xf5@\x0eC\n\xbe3\xa9"\xbb\x99\x07\x9f\xc1\x8c\xec"\xfe\x05\xff\x98c\xc9\x8d\xfd\xdb;\x05\xd9o\xa39\xe75.\x8dD(i\xc4\xb5\x7fJ\xb2\xd5a\x8a\x18\x08\xba\xc1_c\t\x08\xc5J\x1eV\xe7F\x06~\x9ca\xd9\xd3s-\xdf\xb4\x9e\x12d\x0f\x86\x8f\x93\xecS\x0b/o\xb6\xfc\xddyYJ#ky\xb5\x93\xba\xa2\x11u\x85\x0bI5\xd6o\x82\xb8x\x1e\xf8\xb0\xc7\x01\r\x0b_\xf3\xee\xa2t\x1a\xce\xf2\xeeI`rn.\x9d\xbc\xc6\x85\'\x95\xb9\xec\x0bd\xe3w\xe8I\xdd\xc2\xf7\xa6\xf8\x83B,\xbb*\xb8\x90\xe4\xac2l\\H\ny\x89R\x92\x11.\xbb\xf9c\xac\xf8T\xd6\xdd\xf9\xd3$\xa1\xe8\xca\x7f\x81\x83/\xfe\xe8u\xfc\x07f\x05\xba\x0c\xba\x97\xb5\xc6`\xf5[\x15\xc5\xbe\x1d\x1c\xa5\x9c\xe0\x87Go\x8dBSe\x95\xd6\x8b\x08\xfe\x16\xb3\x8d\x7f\xdb\xba\x07I\x9c\\\xa5\xd1\x7f/\x89F\x83"zL\xab\x14\xd0\xd2i\x82\x1bo\xbcM\x1b\xd6\x01\x9e\xc0\x92\xb3Q\xb9cW\x8fJ -\xb2\x0c\x06oq\x9c\xdbQ\xc0bA2\xab\x1fz1*df\xb1\xc6\x05~m\xb1\x93\x02\x8e\xfd\x1c[\x04\xd7\xca\xf4sP^I\xb3\xe2\xcf\x84\xa4\xfb\x15]\xe2A\xc2\x99\xb3\xf0Z\x14\x8d"\xd9\x038\xb5a\xf5 G\xdd\xc7M\x1f\xdb\x84\x17*\x96\xe5R\x8aN$a\x19\xb5\x97\xf0\xa2B?\xfb \n\x15\x10\x93\xc4\xfa\x9a\x10\xd5\x92e\x88\xbaIN\xdbdu4\xed\xf4\xd0f\nI\xf7W\xe00\xaaVr\x0e\xc1K\xc1\xb6\xf0$\x12\x85\xa8t6\xe99\xa6\r++_-\x96\x01#\xce\xad\x98\xf1%q\xdf$J\xf7k"\x0c\xc9\xcf\x19\xac\xe50r\x9d)!\xbb;\x88\xbf_\x10u\\\xe9E\xe6\x1d\xab7\xe1\x19\xd6\xc0\xca\xda\xceX\x10\xbd\xf4\xe3\xa0\x9eb\xff\xed\xd8\xc1\xe4^\xda\x85\xfd8\x9c\xb2\x04R\xb4a-\xc4\xa3h\xe7\x86U\x8be\xe9\x0c\xf6\x9a\x83\x86L"\x8b\x15[\xb7yO\xe1\x86\xf02mJ\x02\x92x\xc4\xa3\x83\xa4\xa5\xc9d\'\xfd\x12\x9e\x9ea\x9bz\x82\x86\xc350^\x14W^\xe1\xc5\x15\x86\rI\xfdy\x11\x9f\xa3,I\xe23\xb6\x93\x18\xf7\xdd\xa8~\x8a\xfa8+\xd4\xfb\xf8\x86\xae\xe5\xf4\xc1Y8+@#\x90\x9f9Y~NT\x9e\x92\x92]\xef\x08\n\xe7!\xad\xc7\xf4\x17[\x1b\xa6\xfb\xcd\xc5\x95\x90\'\xe1\xdf\xae\x16\x87\xc3\xdatoVg\x98a\x95\x8a\x80\xdd-\xfb\x16\x90-\xd3\xd7\xe7\x05?\xe0\xc8W0\x9c\xc5\xf80X)\xe0\xca{\xb9\x08&gt;\xef\x9b!\x96\x15Oyc\xaf\xf8\\1\xaa\xa0\xf8X(5\xa2\tA=?DW\xb9N\xd3\xe7w\t\x00 \xb2\xc1\x19\xf1\xa7J\xba3\xc8\xa6R\xc9\x0f\xbc \x80\x7f\xe7\x07z\xda\x93\xc3M4\xb3\x93(\xbc\xce5\x91od\x06\xb16\xe2\xb3rX"\xfcY\x95_\x9f\x18]\xe6$$A\x82\x1afX\xf6!\xe1\xa2\x88\x0bj\xe49\xcc \xd2\xd2\x8b\xd1\x8dE\xe1\xbe\xf4\x18n\x13F_\xde\xe56, c\x80&gt;c\\\x10\xcd3\x979\x9fP\xd5\xd7\x17\xe1zi\xd4u\x98g\xcd\x1e{M\x86uV\x00\xe1.\xd9\x90\xa7U*\xc1]\xe7b\xd8\x95\x85\xfb%x\xb0\x06&gt;\xdbj\xd3\xf6O\xd5\x81\xcc\xba\xae\x8bX\x9a~J7\xd8\x8c\xa3\xd4z\x8b\xb5^Kn\x9b\x0cK6\x80\x88\xaa\xdb&lt;\x85\xa2\xd3\xc9\xa0M\xfe@\x1b\xaf\xbbX\xa8f\x07)RP\xbb\xea[\xbd,\x19\xc8,\xeb:NI\xcfv\x18\xffss\x07e\x1aI\x07\xb7\xb9n\xf1\xb1\xc9\xb0\xde\x16\xc8V\x12\x11\r4[H\xa5\xa2-\x9f\xa8\xf3RT\xb3\x97t\xbaE\x1e+8\xa9\x9e\xc4\x1c\xb8u/\x90\xe1\xa6Al\xc4\xd2Q\xf9|\x18\xbd\xbb\xcc\xd4\xa3@\xcdO\x1b\xd6\x02\x81t\x1a\x05\xe0&lt;\xa7)\xa4\xbdJ\xaa\x01S\xc9N\xad\\\xc8\xc8\x1f\xbb\x90\\\xc2\xb0\xfb\xc3\nIF\x94\x1a\xa9\xbdF\xf4Zl"\xad\x10fi\x07\x7f\x9cf\x81\xfd\xf0\xadbJ\xf1\xf2\x98\xa8?w\x08m\xe5\xbah\x8f\xb1k\x18uH;{7k\xfb\xa7\xecB\x15\x8e\xf8\xbb\x03\xc4\x97\x1c\x84]\xf7\xe2(\x97\x0cd\xf4\x9ef\xd1\xcc\x92H\xa1\xd6\xe3\xd6)\x07p\x94\xdb\xd7\xe2\xb9\xb3D(\x91\xe0\xbb\xcd$;&amp;H\x845\x89\x8f\xbb\x95\xe8\x08\xfb\x91\xdb\x1c\xb3+\x03\xe6\xc1\xd7P\xa7\xac\x11\xc0\x9b\xfc\x9e\x04\xa5p\x9c\xc0\xb2J\x84\xbd\xc6\x01A\xb3\x06\x8f\xd2\xcd\x8c\x87\x89xL\xa7\xa4\xf6t\xda \xe5\x19V\x98C\nL\x887\xb2Z\xbd\xec\x11\x1a2\xe7*\xfe\xf4({\x93pc\xef\xa4QL\xa5\x8c\xc7\xab$\x81\xe9S\xd8G\xaa2i8\xb9\x01\x8f\x8e\xee\xc1\xf3\x0e\xf7a[\x99\x0c\xe1\xcc\xb0\x0c\xd9\x96\xb1\xa2@U\xf9M\xf5N\xc5\xa1!K`\x83\x9b\x81\x13\x95\xbbS\xe0&amp;u,\x0c\xa9d\xba\x82\xba\xaa\x91\xd6\xbd|X\x019\xd4?&gt;\x83F{\xc2\xe8.\xbc_\xbcJ\xb7\xe3\x00\xc4\xf0\x80\\\xac\x0c\xabJZ@\x8a\x0c\xc8\x86\x19*\x16jn[\xa3b7\xbf\x96\x92\xd52\xa6\x94\x8b\x9b\xcarJ\xc3\xf5D\xcb|l\x99\x06\xe8c\x10\xda\x97B\xad`)\xbc:\xaag\xf1I\xa6]\x96\xc1q\x9e\x9c\xf0\xa7\x1b\x9ae\xca\x81\xad7\xa5)\x9f\xb1(\x7f\xfa\xa5\xa1}\x0b\x9d\xc1\x850h\x84\x88}\x83\xeb5\xc4\xbeLE\xbci\x15\x1eR@\xf3\xac\xa3\x15\xfd\xb2\x9f\xd4LS\x9d\x19\x16\xeb\x9aB\xe6\xc5:8\xa5\xe1x\xf7\xd3N\xbb*\x04\xdfP\xd2\x970;\xf4/\xcd\xf8l\xc3\xc4Z$\xab!\xa2W\xa2\x83,\xbc"\x06\xcd\xa8\xa9\xd7\xeb&amp;\xab\xb4lR\xb3\x19Q1\xff\xdd\xe2Q\x96\xc5\x87{\xc2\xe87\xcc\x85\x11\x06^\xed4wLk\xd5N4S1\x1caLe\x11AV\x9c"\xc4mu]\x95X\xbdA\x1c\x16fP\x92\xad\x851g\x91\xeb\xd4\x06\x16\x93&lt;+h\xa4\xee\x81\xb0{\x0e\x9f\xfe\x01V\x0c\x1b\x9b\xb1\x0e\xeb\xdd\x0c\x87\x89\xd2ecT\xa6\xcf\x12\xf4\xae\xfb?A\xcb:\xad-\x12\x03m!\xf1\xe1\xbd4\xa4\xce\x17\x1aV23\xa8\xce\t\xfa\xae\xc6yQ\x18\x1c2\r\x7f\xa3\xeeE\xb2\xce\xf7\x8c\xa1NQ\x0f\xf9|\r\x89\xe1v\x15R\xb5a\xc9\xbc\x9c[\xbb!hY}\x1a\t\xd9J\xbe.\x9a\xcd~N\xe0\x84\xdb\x84\x0c\xc9]gG\xe19\xab?\xf6\xa6h\xb5\xfe+\xf9\x1e\xc6\xfc\xc8\xbc\xcfs\xe0.\xa7\xe4\'\x8e\x9f\x98k\x9138=\xb0\x9a\xad|gDQu\xcc*e\xac\xed\x19[0T\xaa\x10\t&gt;?\x87d\xcb\'D\xb1\xff;\x19\xca&gt;\xe0\xe2\xc9L\xb8@j\x92\x05\xb3\xb8G[\xf3XX\xd2|+\x93\x13IVxR-(\n\xeb\x88\xc4f\x9bOT\xea\x88\xc4\r\x0c\xe7\x93\x0c\x8a\x0ba\xab\xaf\xb8\xe50!\xb2\xfc&gt;\r\xc1S:B\xc7&gt;~\x84\xcb`\xa2\xd1\x9cz\x9fi\x8c\xdf\xbcL\xd3\xcf9\x1b\x0e=t\xaa:\x91;\xa0\x1a\x93@\xea\xfa\x12\xc8\xe5\xfa\xb0h8\xa4t\xbd\x1e\x9d\xef\x85~OCj\x96\xdc\xaeF\xdcK/\xfb|\xde|\x1cz\xb0ES\xebz\xf9&gt;#\x94\x8f0j\xfa\x11\xe4q\xb22\xa8\xc8\xb8\xb3\x0e\xb3\xab\\(Eurh\xf2\xed\x9c\xad25\xcd4\x83}~Uj\x98\xa6\x88\xf1e!{}\x03\xc9\x1c\xe2$\xe4\xd1\x18\x91\xb5\x12\x1e\xb9\xdf\xa4\xd6\xebp0\xca\xb3I\x0c\xd4\xe8\xd2\xdb\xd6U~\xdeH+B\xa5\x9d\x91\x144)\xbb\xc8\x8a\xff"\xd2\xdcL\xe8\xe8\xef\x1a\xcc\xa4+\x05H\xca\x9c\xeb\xf6\x8b\x81\x9a\xdd\x9e\xa8&gt;x\xfd\xbe\xf3Z\xcf\x87R3l\xc9\x80)&lt;\xc9\xb7j\x8dr\x93\x97\x18\xb9\xa0\xf1%"\xeai]\xe4\x9f\xf8\xde\'\x844Z\xb1"\xdb\x92\\\xcd\xbbT\xde\xd9e\x9e,\xb0\x17C\x93\xaf\xf9\x08\x84&gt;`\xea\xee\xc50\x1a\xb8Z\xdd\xa2:zJ\xc7\xe4\xef\xc9\xe7\xa0&lt;KF\x8a\xbf)\x94O\xc9o\x842&lt;uI\xcc\xdf\xcb:\xd3\x82\x14\x17!\xf4\xba[\xa9a\x85=\xf5\xa0!\xb2\xa7\xc1y\x8d\xe1Q\xec\xba\xee\x91\xe0s[mB\xb2\xf9kyG\xec\xa1Z\xb9m\x8c\x0b\x1eR\x11l\x14\xd9d\x934\ni\xdb\xae\x99\x860\x1c\x89\x84F\xa2\xa7\x1f&lt;\x08\xf8{H\xc9f\xa3p8\x18\x9a\xd5$Q\x9e\xac\x95\xda\xba\x14\x8da\xdf\x9f\xa1\xbc\xa0D\xa5!-tI\x841@w^k\xab\x923\xccb\x83}\xd9\xf9\xf0\xbb\x87\xf8O5\xde\x18\x0b%^r\x18\xe6`\x8bG\xf9!&lt;\x99lY\x04\xc1\x8e\xcb\x0b\x18\x14\x88!\xde\xadV\x0b\x84\x1c\xd3\xba\xfe\'c\x8ca.\x0c\xcc\x15\x8d(s\x18J\xfc\x14\xc6\xbe\xf10\xe3\x9c/\x8c\x83\xf6N6\xce\x89\xbd\x95\xbe\xdd\xdc\xb4\xc3\xcd%\x10\x9e\x00s\x99\xfc%\xf7\xe0=B6+@h\x1e\x95\xd1!U\xe9_\x93/\xf2\xbf]\x8d\x85e\xc4\xb7\x16\xc6\xbf\xf0\x90#\xb9\xcf\xc0\xfa\x1c\xca\x18l\x08\xed]\xc7\xe1\x12\xe9Q\x8e\x84\xe3\x01G\x04\x04\x97\xc4\x8aF:\xd9\x1f?\xdb&lt;Y\xa4R\xb9G\x05\xb6\xafP\x8a\x9e\xf1%\xf5\x18c\x04\x9ey\xc8\x91\xdc\x90\x90\xbf\x84R(\xc9t\x8dJ$\x0c{J\xedJ\x12_.}l\xa6\x1d\x9b\xb0\xf1\xaa"$\xd9\xcc\x18to\xa4\x0e\xa9\\\x97\xb3\xf1\x10H\xec\x95,\xc2\x19q\x10\xfa\x13\x06\xe4\x9f\x1d\x03i\xb7\xc8T\x07\xf4\n\x04\xaf$\xb5|)\xc9\\\xc9\x12\xda\x0f\xe6\x01\xfaR\xa6\xf6\xcf\xcd\xcbR\x13[\xeb\xf9\xa0\td`]\xa2\xb6\x17\x1c_\x10\xdfz\x18\xf3\x93\xc6\xe3\x9f\r\x85\xbe\x16\xb2 \x19\xd2\x90\xd5y\n\x8fY\x83\xceF\xd1\xf7.XU\x1e}~\xb9\x80\xa3\xb2\x122\xe3k\x8f)\\u\xb0i\xa1\xc5\xe8\xa1u\x1d\xab\x00\x00\x03\x18IDAT\x84\xe5\xeb\xc1\x9dH\xbcw\xfe?GF\x127\xed\x8b\x98;.\xd9\xe1T\x9b\xe1\xb8\x14ZO\xafZ\x80(\x1d@[\x14\x82\xa1\xcb\xc0\xa0)\x0e\xe8rxw\x0b\xc8\xce*\x08\xf4\x06;\xc5\x1d\xbel\xa2\x124\x81\x0b\xd1\xfc&amp;\xdfqI\xad\xd3\xaa%d\x1cq\xc0\xc7\r:\x03`\xfb^\xc7\xa8\nH\x8b\xf9r\x01\xb0\x048\x8b\xb6\xd2\x1dV\xeb\xf5\x81\x16\x06@\xc1\xbb\xbd\'\xaf"\xc6\xda\xe1\x1d\x8f(X\x8b\xc7\xefF\x94\xe3\xde\xedN\xf7\x93\x1c\xb9\xf9\x18H\x06\xb2j\xe0c*\xee&gt;s\xcc\x85\x1a\x98\xf38`"\xda\xc4\x00l\xa8\xc2\x19Q\x82\xa1\xf4SA\x11\x07\xad\xa2\x03\xa1sA\r\x0b`\xc7T\xb0\xc82\x90\x01,\xe5\x1d\x1d/\x05;E,q,\xdc\x04\xedb,G\xdf\x8e\xf7\x11Q\xe9\x85cq\x96o\xb5Sw"\xc4Q\xd0\xa51!\x17\x03\x1c\xab\xf68\x05\x03\x0b\x18yK\x06\xb2\x00\'3\xf8\x08\x94p`\x89\x9e\x86c\xea\xa9\x11&gt;\x14\xef\x14\x8bm\x81U1x%rX l\xd1v-\xb0g\xb8\xfb\x13\xf8\x08\x14f\xf2\x8fq\x12ft\xbc\xba\xd6\xdd\xe9h\x86c\xd4\x8aPl\xce\xcaC4\xf7gbs\x16P\xfc\xe1\xea\xf50\xad\xb1\xe5Q\x8e\x19\x1f\x9c\xdc\xcf\x8492\n3P\x00dU\xc1\xc7\xebl\x0f\x04\x1d\xb3\x82y0M(\xd2&lt;R\x1d6g\x1d\x03f\x0eX\x1f\xb3\xba\x04q\xbc\x8e\xaa,\x03E\x80\x9dY\xc51`m\x8aS\xd6~l\x87\x11\x959":\xa6\xd9\x98\x8e\xcaX\x11\x8fz\x18\xd1\xd6,\xa7\x943\xfd\x8e*\xd2\x94\x9f\xc3\xc5\xc7\x02LZ{\x9c\xdc\xb7\x01\xbb\x86\x99\xebQ7N\x15\xc0z\x0e\x07@\xebxQ\xfb\xb3\x95S\x91\x86\xb7=\xd6\x03;\x06\xd3\x9b\xdc\x9d"\x80\x89\x8b\x85\x8f\x81\n\x80\xdd\x94\t\x98Ng:\xb9O\x02\x1dt\xd5\x852\x1e\x9d\xb3\xa7w\xc5\xfe\xcd\xfd\x8eG\x81-l\xd8\x82\x9c\xd5[\x03\x7f\xb6\xa0\xa4\xc4\xda\x8f\xa0\x83\xae\xe6\xba;\xcd\x04\xe6\x1e&amp;[j\x9d\x8b\'\xcb\xcb\x01^?\xe2&gt;1\x15\xd8\xcf\x99v\x1d\xe3\x90\xa1Y\xc0\xf4\x93\xf3\xe6\xcd\x9b\xdb\xb5\r\x18\tpy\r\xb0\xef\xb12\xf5\xfe2\xa7\x99\xe5\xbe\x8e\x1c\xbc\xb2\x0c\xd4\x03\x9a\xa0C\xd4\x0e\x1evrz\x12\x17\t\xac\x82\x9e\xd7\x10{\x88\xda\xad\xe7\xc0x\x8e\x8c\x03\x06\xf1\xe18\xd0!jvT&gt;sNX\r\xe5\xc89\xc7\xd5\xef\t\x1f9\xf7\x1e4q\x81t\xe4\x1c\x8b0\x03\xd5\x01;\x17\x0b\xa8\xf2{\x08\xb4\xc3\xe3:\xf1\x07\xf4M\x05:&gt;\xf85h$\x85E\x88F\x07TjRr\x9c\xa1&amp;\x03\xed\x80\x1637\xe8\xf0\xc7\xf6I\xdb\x89;\xfcq\xfb$\xf0\xe1\x8f\xdc\xcc\xb2\x0c\xb4\x05\xec\x8a\xbc\xe6\xa0\x14\xb3\xe0E\xb1\x07\xfe\xa32=\xe2_\xa4\x81F\xde\xccyi~T&amp;\xf4`Q{9"\x0e\x16\x05\x17\xb5r\xf6\xf49X\x14V\xf6\xdb*q\x13:\x86\x95[\xc9V\x82\x81\xfe@FH\x9f\x87[\x05[\xdaR\xe1\xe6\x11\x15\x92a\x18@\xc0.\xa3c#\xad\xa0\r;\xe2W[A\xdaFG\x86\xe2\xb4\x04\x00ljxn\xedt\x8d\x87\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -582,6 +652,14 @@
       <c r="D9" t="n">
         <v>58766</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02=PLTEGpL\x95fh\xc8*1\xd1\x1f\'\x80\x7f\x7f\x8eno\xabLP\x80~~\xff\xff\xff\x82|}\x9fZ]\xe7,3\xe8\x01\n\xafGL\x86xx\x9c]_\x8ars\xe6\x00\x06\x9a`b\xdb\x10\x19\xba;@\xc406\xf0w}\xe5\x04\r\xea\x00\x08\xebQX\xe0\n\x14\xeeot\xb2EI\xcf!*\xd7\x18!\xd2\x1d%\xbe6&lt;\xa3UX\xe3\x07\x10\xc129\xb7&gt;C\x91jl\xd9\x14\x1d\xeaIP\xe5\x1c$\xeekp\xd8\x15\x1e\xe9AH\xcc%-\xa3VY\xdc\x11\x1a\xe2\t\x12\xadJN\xe6$+\xedag\xb2DI\xdd\x0e\x17\xecV\\\xe2\x04\t\xf4\xa4\xa8\xe4\x16\x1c\xe5\x05\x0f\xff\xff\xff\xfe\xfe\xfe\xfe\xfd\xfd\xfe\xfc\xfc\xe2\x00\x00\xe3\x00\x00\xe4\x04\x0e\xfe\xfb\xfb\xe5\x07\x12\xfe\xff\xff\xe5\x06\x11\xfd\xfb\xfb\xe1\x00\x00\xe5\x06\x10\xff\xfe\xfe\xe3\x01\x06\xe4\x00\x08\xe9\x00\x00\xfe\xf9\xfa\xe3\x00\x04\xfd\xfc\xfc\xe4\x05\x0f\xe5\x04\x0e\xe4\x06\x10\xe4\x01\x0c\xe0\x00\x00\xe6\x13\x1b\xfe\xf7\xf8\xe918\xe7\x00\x00\xfc\xe5\xe7\xfd\xf2\xf3\xe6\x18 \xec\x00\x01\xea?F\xe7\x1d$\xe5\t\x13\xfd\xf4\xf4\xfa\xd9\xda\xfe\xf6\xf6\xe8(/\xf3\x93\x97\xea;B\xe4\t\x10\xe8\x00\x00\xe4\x03\x0c\xfd\xee\xef\xfb\xdb\xdd\xf9\xcf\xd2\xe2\x00\x02\xfc\xea\xeb\xf3\x90\x94\xe95&lt;\xf0y~\xe7 (\xf1|\x81\xebFL\xe5\x0c\x14\xedSZ\xf7\xbb\xbe\xedY`\xe5\x0e\x15\xebBI\xfc\xec\xed\xf7\xb7\xba\xf5\xa7\xab\xe7\x1a#\xf5\xa3\xa7\xe6\x16\x1f\xf8\xc5\xc7\xfd\xf0\xf0\xf9\xcc\xce\xf4\x9e\xa2\xe7#*\xfb\xdf\xe0\xf3\x8d\x91\xfa\xd5\xd6\xf5\xa1\xa4\xecPV\xebHO\xe4\x06\x0b\xf9\xca\xcc\xeech\xf6\xb0\xb3\xfb\xdd\xde\xe6\x10\x19\xf8\xc2\xc5\xe8\x00\x05\xf4\x97\x9b\xeefk\xefkp\xf7\xb5\xb8\xfa\xd1\xd3\xf0u{\xf6\xb3\xb5\xfb\xe1\xe2\xe8+2\xf1\x81\x86\xecNT\xf2\x8b\x8f\xe8$-\xed\\c\xf6\xad\xb0\xe9.5\xee`f\xefns\xecKR\xfa\xd6\xd8\xf7\xb9\xbc\xf9\xc8\xca\xf5\xa9\xad\xfb\xe2\xe4\xfc\xe7\xe8\xf1\x84\x88\xf3\x95\x99\xefhm\xf6\xab\xae\xe6\x17\x1c\xf2\x86\x8a\xf8\xc0\xc2\xedW]\xf9\xc6\xc9\xf8\xbe\xc0\xfa\xd3\xd5\xf5\xa5\xa9\xf4\x99\x9d\xf0sx\xf2\x88\x8d\xf4\x9b\x9f\xf0qv\xea9?\xed_c\xf1\x7f\x838\xe8fR\x00\x00\x009tRNS\x00"\x9c\xb1\x01\x12N\x02\xfe\x038\xfc\xf3^\x072\x0c\xf7,\xd3x\x8f\xfc\xeb\xfa\xfc\xdd\xfck\xa9\xc0\xb9~&lt;\xe7\x88p\x19\xca\xfc\xfc\xfc\xc5\xfc\xa3D\xcd\xe2V\xfc\xfcd\xd8\xfc\xfb\xfc\xfa\x85&lt;\xe0\xc3\x00\x00 \x00IDATx\xda\xc4\x97\x89W\x13Y\x16\xc6C\x0b\xa4""\xeeb\x83\xda\xe3\xbew\x8f\xf6q:\xf7U\xbdJRI%\xa9\x04A\xb2B\x08\x84]\x08KXe\x91\x06\x95M\x1a\x10YTP@P\x04\x11AQ\x10\x1d\xed\xbfmnUTZ\xa7\xcf\xb4k\xcf\xcb9IU\xa5\x96\xdf\xfd\xee\xf7\xee\xbb\xa5R}\xd1Pk\xd6\xaf\xd7\xfc\xc9q&lt;\xbc^\x13\xa9\xfa\x7f\x8cH\xcd\xdb\x07o\x88\xd8t&lt;:\xf6T"\x8e\xd8\x9f\x8e\xaf\x8d\x88zC\xaa\xd1\xa8\xfff&amp;u\x18)*.v\xef\xce\x03{6\x16\x14\xf8l\xe1\xe1\xb3\x15\\\xdb\xfe\xf3\xee\xef\xf6\x1d\x8f\x88\x0c\xa3E\xfe}L\xf2\xf7\xfe\xe8\xad\xbb\xb6\x17 \xc9\xb5\xab!w\xe5\x8e\x93\x87\x13\x12\x12\x0e\x0f\x8c\x1f,\x1bs\xa6\xc8\x877n&gt;\x96\xb8I\xb3\x1a\xc2\xb7\xce\x1d&gt;$2n\xcb\xaeu&gt;\x9b\xe7\xaa{\xfc\xe1\xccEo6\xc3\x00\x03\xf2\xc0_\x86\xa9\x0f\xd4&lt;O\xa8\xf4_\xb3\xf9\n~\xfe.:J\xd6L\xfd\xad\xa1\xf0+\xee\x87\xcd\xf8Dg\xe5\xc3\x9a\x12\x84Pp,,k\xe7\x9a\x1f/\x0bl`\xf4\xba\xc2\xc7d\x15_:9\x86h\xdbwFoxs\xe1\xb7\xca\x1e\x06\x1du\xea\x88\xcd\xe6\xc99|\x13\x91\x80\x9b\x9a\xf9\xfd\xf7v`\x81\x100A\xb9\x836\xb3\x97\x1c/\x88\x9d\xe38\x05\x8d\t\xb4\x1d5\xd8|?n\x8d\x93%\xfbFJ!T\xc4\xd6=&gt;\x8f\x7f\xa0\xc6%3q-\x13V\x9e\x17\xfd\xf5\x84E\x08=&lt;\xe4i\x064\x8a\xb9\xb8i!\x84pz\xae\xa9\x98a\x8aJ\xf3$\x9bmw\xb4\xfa\x9b\x80\xc9Pq\xc76\xda\xa4\xa3\x1d\xe7\x14&amp;BX\xd6M\x1bK\xf2\xc4&gt;8\xa3`\xdd\xa2\xf7hs\x83\xa3\x147\x01\x88`\x82~\x91&gt;"x\xf2o\x87\xd3=\xbe\x13\xb1H\xf5\xb5=\x86\xf7\xdbt,\xdeSu\xf2)\xdazzI\xd1\xc7\x04\x03\x8e\x8e\xe1\x91\x91z\x16s(c\x89Cn\xf7\xbc\xa8`\x11\xe0\x84\xa2\xaa\xaa\xae:\x8b\x89C\xb2\x92\xd2\x18\x8fms,F\x17\xf9u\xa1\xf6o\xdd\xe89\x9fP\xc40\xf6\xc6\x0c\xc7"kB\x10;)\xa5UT\xacu\xb1h.\x19\xcb\xf1\xa4\x8ff\xd06E-VO2\xc4\xfe\xb1\x1c\x81\x10\x0b\xcb\xe1e\xff*\xf3\xd8\x0eD\x7fM\xc1\xd4*\xf5\xbe\xed\xb6\xfc\xc3\xbd\x0c\xc3\xcd\\\xe6\xfdmi\x98#\x04!\xcf\xa8\xbf\xbfR\xac\x06VQ\xeba\xf0&amp;dP^\xc6\x92S\xd8&amp;NB\x8e3\x1b\x89\xf1\x83\x92\xe9;P\xb15\x11_\x0b\x0c\xef\xb2\xf6\x80\x8f\xdfq\x1d\x18\xce\x04=\xa2_\x80\xa6\x06\xc0\xa9v\x06\xbcgC\x90\x95\xe3\xa8`\xb9\xf0L\x9c\'Oy\xc7c\xdc\xc4\xff\x96\xf2ig\x8f\xbb\xd0\xab\xe4\x1b\'+NL\x18u\x16\xac\xdb\xa2\xf9*\xd6\xd7\xa8\xd6\xef\xbd\xe6\x89\xe9A(\x0b\x10Vp\xf3\xe3\xe9\x8e\xd7z\x13\xe6\x86pc\xe24&lt;u\x8f\xa7\xa1\xfd\xf5\\q\xc7\x03\x16\x86.\xb5#\x08\xcb\xd6\x87\xc4&lt;\'\x95R\x8b1\x00\x8b\xc0\xc1\xc5\xc9\xbc\xda\xa7\x8c\xf7d\x92\xef\x00V\x8b\xc8/\xd7*\xee\x84\xadk[\x16\xe3\x9d\x95C\xc6\xe9E\x93\xae\x0c\t\xa0d\x06*^\x07\xf4\x02|0X\xbd\xde\xce\xb6Nv\x0bi\xcdy\xf4\x99\xac+\x07\r]bf\xaaX\xce\xc0\xfd\x18O\xfc\x96/M$F\x95\x18\xef\x89\xe9\x03f\xb9\xeb\xb6 \x17\x05r\xee\xd7./\x14\xaf \xa4\x85poI\\%\xbd\xed\x17\xa7\x9b\x7f[\xea\x9dM{\x87\x87\xf337\xf8\x12#aI\xfd\x05Z\xdeR\xbf\xe2(\xe5\x98\xac\x04\xabo\xcd\xfe/J\xa4Z\xb5\xe1\x98/\x98\xe0bz\xabi\xde4+;\x9b\x83\x7f\x8b\xf7\xea\xa8\xb5\x99u\xc9\xa6\x11f\xfb\xe6\x06\xeb\xc6\xaa$\x9e*\x83\xb7f\x862\xbaKk\x1e\xc8\x1a\xb2v}Q\xaf\xb2\x00\\\x12\xef\x81 \xc0`\x93\xc5\xce\xc0\xd0!\xcf\x8f\xc7\xbf@/\xb5*\xe2\x84\xcd9\x03Ln\xa1x\x99\xc89\x04\xcb\x19\xb2\x84\x85}\xd4\x8b\x840{gpD\x12\xc5\xa4__\xd5\xdeh\xbb4\xdf\xd33\xdfQZ&gt;\x9e\xe1\x97\xa8\x9846\xb9&lt;\x1c\xd6\x0c\x88\x9dT8\x1a9;\xab\xc4A\xf4\x8c\xf7 \x1f\x9f\xf8\xd9\xfeR\xab\xfe\xb1\xc7\x13\xd3\xce\xd8o;:\xddb\x1b\x98\xb0(`f\x84[w\xe4\xe4\xb5\xe6fXE~d\xb01 \x97)\xfd\xb9\x07\x81\xa9\xa9\xc0\x83zyGh\xedYq\xe3\x9fe\x8f\xa7p\x8fcM\xd0\xe8x\x01\x1c\xb1\x80\x05\x03\x03=\x03\xdb\x82\xbe\xad\x9fi|\xb5\xea\xa7x~G\x1ac\'ss\xf0$\x98\x1f g\xe4\xd8\x15\xd1\xd2\x1a+y\xd1\xd9}\xdf\x05B\xd1LEu\x99\xbf\xaaP\xe2qH\xa9U\x17\xdc\x9d\xe5\x8d\x01\x01\xd8\xbe\xbb~\x91\x96=\xafG0.{"8#\x87$\xd70\x96\xb8\xda\xa1\xe3\xb4o\xa7\xe6s\xb8\xd4\xaaS&gt;\x9a\x80e\x01\x94\x05o\xc0qE\x89W\xb6yo\x85S\xcc\x7ft\x11\xe0\xfa\x8b\xca\x85$4\x14/I\xa9:-\x0e]\xaa\x84x\x94&amp;9\xeb\x1e\x16\x03L\xddX\xc0\x13\xdb\x11h\xf8\x95\xb8\xd0!_+\x17\xda[\xd6\x97\xf0\xec\x17\xdb\xae\r\x9f\xce\xa5Q\xed\xf3\x05\x1fc\x01B\xd5Y\x8ee\xcf\xf9i?\x98\xe4\x1b\x17=\xb2\x8ae\xf3\x00}\x8f\xfc&lt;\xe5\xa5\x14\x83\xc1h4\xcbH\x08\x96\xac\xd5\x9a\x8dF\x83A\x8bS\x80\xbf\xd0]\x03PSI\xe9"\x12\xb23\xaf\x03r\x07\x84\x85v\xc8jE\x1b\xb4\xff\xb3\xe0H\xd4\xa7r\xa9e\xaa\\E+\x8b\x9c:\x13\xdcqL\xb8\xb0Fy\xef\xf2\xf4v1x+B\xa8\x91\xd9\x80@\x8aL2\x96Y\'\x19\xc3{:\x843\x98Q7\xffJ+\xb4vSZ\x1bx\xe3~$\xeb]\xc0e\xd3db\x86c&lt;\x07&gt;\x91K\xadJ\xf4\x05\x9fC\xa0\x0f\x17&gt;P\x8cN\x84\xdcV=p\xa5\xf9bg\x00\xa6;\x0b\xa9\x84\x0f^\x85\xc0McRj:\x9f\x8c{(\x9eN9j0HT\xba\xf2\x0cJ\xba)_\xde\x82\x1e\x00\xd9X\xaf\xc4Z\\\xe5\xd1\xf8\xde\x18\xcf\x91\r\x9fF\x15\xeb\x0b\xf6C\xdaHp\xe8\r\x97\\\x1b\x01\x9a\'\x1ce\x17\xa1/\x83\xe7\x93\r\xe6\xe4\xb0L\xc9:\xa3\xecv)\x93\x0f5\x94\x0cReO\n\x03\'\xeb\xcc\x06-O_\xdd\x87\xdeJ\x87\xff&amp;z\x1f+\xf2#q"\x8dSZ\x0e\xe4*\xd8\xa5\xf9\x14\xaa\xe3\xf1Al\x04\\sA\xeb\xb2\xc2E,\x16=\xe8\xcb\xc5\xae\x97\x10\xb8\xc2\xf3F\xc3\xbb\xd4iS\x8c|f\xc6bF\xa6\xe8\xf6\x82\x00\xa5\x94\x0f\xdd\xbb}\x99O5\x87O\x90\xb5\xe3\xf9\xbab\xe8Y\x10\'[\xc0e\xb9\xe38\xdf.\x9c\x91\xb3\xc92L\xef!\xdb\xce\x8f\xae\xab\x91\xaaM\xeb\x82\xdb\xb0F\xa3a\xf3\xe9\x9c\xd2\xb6\x10=L\xb9\x1d\x9d-\xdc]\x897\x1aW\xa10w|u\x11\n\x19\x18(\x02\x13^rc4\x0b \xab?\xbf\xd0\x9c\xa2]\x05\xb3\x0ed\xa3L~\xf4D\xfd@\x07\x16@\x8b\xbcRfe1SN\xac_\x1f+X\xd4\xf7\xfc8dM\x86jK{kB\x14\xa7#6\x08\xb0lM\xea\x80\x1e?M\xfe\x83R\x8aV\xd5rab\xc3\xcd\x8b\xd2\xc5`C\x8d\xb3M\x97\xfc\x8e\\k\xd0\xd2\xf4Fh8OGQP`\x15\xaa\xa2E\xa7s\xc0\xd5w\xdaw\xea\xe3\xf4R\xabv{\xf2\\\x96&amp;\xd1zV\x12/\x8f\xe9\xe8-\x0c\x0f\xca\xc5\x9c"2\x89\x16\xfa#\x14\x8e\xc2\xab\xb3\x9c\x0b\xbbf\x96S\xde\x7f\x88\xdcz\x11}6tSC\xca\xaa\xa4\xdaL\x89\xd6\xba\xce\xd59^gc\xddB*\xa1xAt\xba\xa9\x9b\xed\x08\xc6\xaf\xfd\x98\xe9\xa8V\xed\xf5\x1d\xf2\xe2\x9dWhh\xbe\xb1:G\xb7\xd0\xcc\t\xd9\xd5\x8eZa)\x87\x1a\x8d\xab"(\xe3,\xea*\x0b \xbf\xeb\x84K@x\x86@\xb3\xf5\xbd\x13uf#\rM\xc3\x8a\xf8\xca\x8b\xb5\x99e\xb3G\xc4\xf1Y\x18\x12\x07!\x81\xff&gt;*\xf2#\x8c\x15\xed;\xfd\x04\x0b\'\xc1W\x86\xf4\xeb\xc0^G\xe7\xd4\xe79nASW\xd2\x87Ri\xb5\x06\xba\x0cK5\xd8\xe5\x08\xe4]?\x03\xa4\xf9I\x96\xe0\xb7\x9a\xdf\xe3\xd2f&amp;Y\xfb\xb1\x95\x08\x05@o\x82\x1a\x9a\'\x17\xc3\xb2\xabi\xec\xd1\x825\x7fm\xaf\xc8\xa8=\xfc(\xd8qM3A.\xed\xea!\xd8\x90x\'\xc4\x97P\xc1\x17\x1a&gt;\x90J\xae\x01\xd2\xe8\xedB\xfe|\x0fp\xef\x9a,\xb6\xa5\x8e\xb7\xfa\xfb\xf3x\xf3\xfb\xa7\xea\x8c\x85\xf4.4X\x17\x8a\xc1\x05\xf3\x8e\x97l\x9a\xd0\x92\xeeLc\x86\x7f\xf1%\xfe\x95\xbd\xd4\xaa\x9d\x05\x07\x05\xa5V\x11\x134\xd1\xd4V;\xf1\xe6\xd0;0N\x93\xcd\x1fJ\xa5$G\xe2u\x06\xde\x9fE\xde\xaae\x82\n1\xd3hM\xca\xd4\xa5\xfc\xd7\xb9F\xda\t\xd3\xf9\xe7\xb1\x91\x1e\xb6.\xe2T\\\xc4\xd7\x13;\xf4\x04\xd7E\xfco{a\xd7\xe0s\x0e3&amp;\x8b\xe2\x11\x13,\xcfq\xa4d\x84\xde\x84{\xd4\xa0\xfd\x13*%9\x86\xff\xf0i\xe5?mdI\x98\x8d\xd0&amp;\xcc\xcc\x1e\xd1\xaef\xb4+\xedhW\xa3\xccdF\xa3\x9d\x89\x94h\xc4{\xdd\xaf\xddn\xbb\xddm\xda6&gt;\xb1\x1d\xe3\x0b\x1c\xce\x80\xb9o\x13\x8ep\'$\x10\x8e\x00\x93@\x80$\x0e\x0bI\xc8\xbd\xc9\xe6o\xdbz\xdd&amp;\xb8\xedfZ\xe2\x07D\xbb\xbb\xdeW_U}_\x19\xb3\xd9\xa1YX\x15-\xdc"Ga(\xd5\x19\xddk&amp;\x11\xa61\xe5\xdb\x15\xd0\x9e\xf7\xf0Y@\x0c7`h*\xdfW}]z\xfa\xb7S\xf8U\xd3/(\x86$V\x8d\x0b2\xc3\xc4&gt;\x88\x9b\xa8\xfd\x84\xa8\xa0\x8d\x9b=\xd0\xd5\xb9\xc7\x98\xcf\ty\x94HC\x9f7\x99\r\xb1\xad4\x93Zvv&amp;\x1d\x14\xd0:\'\x92\x0ft\x7f\xc1\xb0\xa1\x0b\xbf\x9d\xc6\xd3%\xa7*\xbeCw\xd7\xd6a4\x00`P\xc8\n\x9e\xf2\x8e\xa2\x8d\xfcj?\xe6\x15\x04\x05\x11d"o\xa7\xc5\xd7G\xe4\xc28\xe6\xbb7\xba\x93\xe2&lt;\x86\x07\xa94\x8b\x11\xf4\x92\x04b\x0c\xca\xae\x0e#USX\xd1R\xd3\x17\xe7N\xf6\xdb\xa5%\x9f]\xee\x89\x9f\x99\x14\xc5\xc82\x88J(z+Z\x81\x1a\xbcO,\x95\x86)\xb1\x93\xf0\xe2\x12\xe8\xbcg\xde\x01\xc4\x1f\xd5ab~\x8d*-\x1f\xe7\xb2\x98\x8a\x033Q~\ry)\xa7\x90\x16\x15\x06\xa0/]\xf9\xf1d\xb8JK~\xa8j\x83*\xecO\x8a\xa9\xab\x82\xaa\xd8^\xc3\xb8o5\x8a\xcaE\x0b+Y\xd3LI\xce\xb6\x02Z\x9f\xc2\x8a\xf9\x92,\x10-\xb8m\xe2\xa2\x06\x80A\x1e\xb7Q\x1b\x98\\\x85\x85.L\x05+c=3\xdes\xf9\xc4\xa6z\x1aZ\xd6\x85\x10\xf57\xf5\xfbD\x9c^f\x14!&gt;\xb3&amp;\xbc&amp;\xae\xe2\xa7\x03T\\j/\xa4N\x1a\x1ej\xef8\x89\x80V\x12c\'\xfc\xfa\xa8\x85\x98\x8a\x19\xe6*w\x83\xa0\x9c\x16_B\xf2\xd4\xa0\xe0\xce8Z\xaf\xfa\xfa\xa4\xb0J\xcb\xfeR5I\x9d:+\xa0\x1bc\xde)\xcc\xf3-\xf2\xcd\xdd\x19\xd9(*\x0b\xf9\xf0\n\tt\xd2\xa0\xc2\xb0|kt6B\xbd\xf0+\x9cl\xaeT\xb5W\xfep\xb7\x99\xe4G\xa1\xa7\xe1z\xea\x84hU\xbd:L\xbd\x8a\x9d\xbf\xfc{\xe34R\x91\xf59\xcf`\xad\x04\xfb\xeeL`\xc0z\x14%9\x8bATn\xf2@\xd1$\x0f\xc6\n(\x9e\xa1\xe3\xb0h\x12\x19\xba[\x02\xd8W\xc3\xc4f\xb6\xd9\xf4ei\xb2\xc8\xd5\xb1\xe7\xe2!\xe8Bhv\xd9mp\x03s\xa8\xa6\xea\xdf\'\xc0Uv\xb1\xea1\x05\x8b\xf6\x06x\x89\x80F\xc8\x06\x8c\\\x8b\x01?\xdc\xe4-\x8d\x1db\x92XL\x9b\xd0P~\x12\xb7\x10\x98$z:\x1e\x05\xa7\xa8\xff\x00]\xa8\x8b\xcbL:\xa1\x966A\t\xf5\xadwx\xd7\xd2\xf2,\x1f\xbb`\x0c\x17\xed\xa4*X9\xe3\xc4\xb3l u\xad\x9f\xb8\xcb\x8d\xaai\x1f\x1d)\x06`\xc6h\xad8\x99G\xf9\xb0o\x15\xd2\x0bu\xac\xaa\xaa\xd5\x8d\xb1\xe4\xe2\xf5:\xdd\xd9Ln2 \xa4\x9f\xd6\xb3\xd7\x92\xde\x8e\xab\xfdM\xad\xf0\xc1\x85\x93\xd8\xf5m\xd5(\x05\x0b#\x89\xe1\xd5\x1d\xa3w\x94\x1f\x94\x8bI\x0bQE\x8et\x8c\x00\xd6&amp;E\xec\xdc(\xefg\xd5\xcb\xca\x87\xaa\xe5\xa6\xde\x06\xba\xa8\xd1\x04\x05R\x14\xd4\xa8\x9f\xdb\x956\xd9\x17\xba%n#\xfcv.\x8b\xc6\xd2(\xb6\xb7\xea?_\xf1\xafb\xb8\xc0BW\x9c\x8faU\x89\n\xaa\x17\xee\xeb\t\xa0\xf7\xc4l\xd0\x13\xed=w\xb5,1\x8c\xb2O;z\x94\x1c\x1c/l\x84\xb4=J\x9e\x8e@\\\xaa\xdafY\xc4\xf0\xc3v\xfd\x90\x874&gt;@\x9dM\x13\xf4U+M\x8f\x1e\x8fy\x03P\x8c\xff0\n\xeb\xc7\xaauZ\xb3\xf0(v\xffj\x88G\xef\xc5\x91\xb8\\\xac\x19h\x06\xdeh\xc6\x9fa\xf9\r\xd1\x16\xb5\x98\xa33\x9d+\x0f:w\xa6\xdb\xa77\xba\xf7\xdf\xfb\\\xe6\x0eG8\xc8\xb0\xb9\x19)\x81\x8eq\x14\xca\t\xb7c\xf6\x89\xbc\x83xv\xd6\xb1\xd5.:\xf6\xe38\xdbs\xb6hb\x97\x96\x9c\xfb":N{\x96\xc4\xe08\xf1\xf4\xe1,|\xa8\xdd\xa8\x91\xda\x1c\x01\x96\xfak\xca\xe8\x8fDs\xf92\xe7\xb0\xcdg\x06\xc3&gt;\x0b\xf5\xad\x1c\xe7p\x01\xa9Y\xac\x91\x8d\x15\xb2c\xb2M\xd7$\xa8\xd8\xaeE+\xe20\x96\xc0\xb1\x90\xceF\xba\n\xba_\xf1\xcfB\xe1\x05v\xb5\xe2ot\xd7C\xbb\x83\x7fvI@w\xc4\x86a\xe26\xac\xc2\x01\rU\'\x1e7\x13.\x9a\xdcYy\xf3p"\x18R\x18\xcc*\xa1`\xfc\xf9h\xdba\xc0\'\xcb#jU#*E[h9\x9b\xea\xa0O\x98\xf20_\x8a\xcd\xf4\n\xf8\xbfb\xa4\x8br\xc6)u\xdd\xbeX,\x07\x7f\xa8\xda\xc4\xcbcC\x82V\xe8\xf8\xc9\xcc\x0e\x8apFSGN\'T\n\xc2T{\'&gt;8h\xe0Q\xf1%4\xbf\x94\xb7%\x1a\x96\x04\x98\xceQ\x86\x9a\xea\\\x84\x83S\x1d=\xc7\xe2\x08\x80A\x98\xc5\x89~\x1a9M\xb6\xf2y!\xe9\xc1\x83\xdd\xae\x0e\xa1\xde\x9ef\xc0`v\x044\xd0\xbaww\x963\x00\x0b\xda\xfb6\xb5\x1c\x88\xf6\xa6\xde\x14\xd6\x96\x92j\xffT/\x06\x08\xc7\xd3^\x16\xa0\xbboU\x1f&lt;\x06\xd0\x01\x9c\x85\x89g\xb5y\xb3\xdb\xe4\xe6\x1e\xd6\xcb\x9dT\xf9\xb3\xaa\x11\x00\xfdx\xe5\x94&gt;\x8be%\x7f\xadXDA\xee\x19\xcc]\xfc\xce~\r\'|\x01\xb4\xc1\x19\xc8\x99J7\xb7\xa4i+\x08$]\x8b\xb5\xb1\xa0\xbf\x80\xe5\n{\xd8\xe3\xa7\x16\x8da\xea3\x9c\xc5f&amp;\xdd\xf0\x87\x98\xcf\x93w&gt;.\x82\xba\xe5,\xb6j\x0f\xc0N\xa9\xd1\xfe\xd3\x1f\x8b\xb4\xc3*~\x01]\xd1\xaf\xa0=O\xbdt\xe0\xbd\x11\xac3(\xc3\xf2r\xcf|P5\xb4\x94]\xben\xecDF\x97`\x95:;b\xa0X\x05\xa8hn\x8bs8\xc6B\x8c\x95\xef\xcb\xd8\x8f+\xd2\xe5\x92w\'\xc4\xbd\x1c\x03\xe9a\xd8\x80&gt;\x8b\xa5%\xbf;\x9b\xa9G\r\x8eZ\xaa\t\x92\x01\x0c\xe9a\xda\x0c\xb5_\xb9c\x8b\xd5V\xedp\xc64\x84\xa5M\x05\x9a&lt;\xedb\xd4|2h\rt\x04\x03\xa3)(w\xfa\x0f"\xa9G\x08\xee\x84\xb0t\ng\x1f%\xd3,\xfd\xd6\x8a~\x0e\xc4\xdd\x97\x15\xdf\xe4g\xb1\xac\xe4\x0fP\x87&lt;\xde\xf1\xae\xad/D\xbc\x93h\\\xdeG\xd5\xb2\xdbP\x8dO#\xabV\xf9V\xdc[\x8b\x18\x89\xd1\xbe\xa6\xd3]V\xf6.\xd7\n\xf7\xc1\xach%tSy\x13\x9a4\x83\xea\xc3yh\x81k\xf2\xf15\xe2\xb0t\x04\xb8\x80\xbb\xaa\xbe\xcd\xef\\e%\xa7\xae\xd4`+\x13\x8c\x10\xafW\\d\xf1\x82\xb7\xf1\x05\xe7\xae,\x96\xeeu\x1c\xe9&gt;\x92\xed\x8a\xf4,\xa50\xdaZ&gt;\x16\\\xbe\xb5t00\xb0\xd9?&lt;\x91\xa5;\xf0\xbd\xa6\x9b\x82\x93\xee\x8d|\xd3\x88\xe5\x19u\x13\x80B\x83\xf9aA\xabY\xea\x83\x02\xc2\xfds\xef&amp;_N4\xfbQ}\xe6\xec9]\\\x17o7R\x94\x85\xfe\x8f\xad\x0f\xe1\x11\x91y\xb4\x0f\xae\xa2h\x18\xda\xed\x0fdu;\xa5rTh CH\x89o\xae\x1f\xb6\xf8r\x0bpzuT\x07\xa6V|;t\xa7i\x95\xfa\xc5%\xc8\x0e\xed(\xf0\x13K\xebf\xa3\x85;D\x81A\x05\r{E\xf8\xb8\xa7\xba\x1b}\x97/#\x80Z\xb7\xc7\x12\x02\xd6\xa8\x0c\xe15\xd7-\xe2\xe2\x1c\x9a\xcc\x8e\x8eUE\x9e\xc29\x92\x82\xb2\x99~:\x97t\xd3]n\xe4\xd7\xd1\x1b/_&lt;z\xf1|u\xb45J\xf7\xa7\\\x17\xdc\x069\x9cK\x85\x04\xed\xb1\x80\x96r\xcf\xae\xf7\xbe&gt;\xe5\xba\xd8\x88\xfd]\xd3\xae;s;u\x8e\xbe\xeb\x15y\x0b\x1c\xd04@-U&gt;\xd1\xa6c\xc5\xabb\xd7\xab\xa2\x1c\x82K\x1dk\x84\x1a\xff\x90\x9b*\xc0 \xbc\xec v\x93\xd9\xdc\xc1\xbd\xc9k\x0fa\x8f9*\xaf)\x80\x0e\xf4\xfd\xf0\x0e\xa8\xaa\xdc\x82\x02\x0b\x01\xddl\x84\ttk\\\xfc\x15\x83\xc9\x16\x9bC\xdd\xa4\xa7a8_\xdd\x94\x95|S\xb1\x87\xad\x9f|\xb1\xb4\xed\xf0\xbf+\xcc!D\xb5\x95\x85j\x0ed\x14\xad\x12U\xcb\xd2J\xa8\x8d\xb0p\xd7y?\x9f\x136\xcd\x19\x0f\x14F\x1b\x9d\xe6N4\xd1\xd4\x1bG\x88g\xd4}\t#E\x9al\xfa\r\xc6\x8a0\xdf\x0e\xf3\xfaI\xaa7\xe3\x9d\x8e\xa3`\xc7W\x7f\xd6\xad\x8eV\xa9dS\t\x00\x87\xdaJ\xa2v\xce]\x14U3&lt;\x00w75HGpA\x7fo\xa7q\x99\xb9\xab\xc72\xb0&gt;\xec\xb1\xb9\x1c\xcf18M\x05/prjn\x17T\xa1\x04\x889q7g\xd1\xef{Z\xd0TGB`f3b\xaa\x86\x1e4p\xe5Oyp\xfd\xbd2\x9e\x83\x80z\xb7f\xf9\x0e\xe3\xb3\x17F\x95|\x02\xbd\x91\xc7W\xbdC\x9f\xc8\x05d\x0c\xd5\x12\x8b\xc5M\n\xc2\xb2\xcf?\xa1J\xdd\x8a\x0e\x89\xd9CR\xef\xfbT\xdd\x0f\xe0r\xfa\x1cx:\xfc\xff\x11\x1b\xa5\xd8\xa0\xd8\xbe\x0b\x03\xc1\x89.U\xfc|\xc4y\x105ga \xaa}\x91mN\xb0xX&lt;h\x90]\x95zW08N\xbfUu\x82\xc0\x9f\x82w\x1c\x91\x98\x11\x12\xff#r\xb4\x00-\xb8\x9b\x1a;\xb0\xf1\x83\xb2\xab\xdc\\G\xd2\x07TF\xf3x@?\xfca\x92\x8d,\x8b\x93\x18w~D\xd4\xc7\xf3x\xfdX\xdc\x9c.\xf9\xecJ\xed\x19\xfa&amp;\'\xdau\xb4\xf0hA\xbc\xf9XG-\xe8W\xa9\x91\x9cFT\xee\xcdda~}\xc2K@\xaf\x93ra\x12M\xa68Rx?\x1a%P8\xa6\xf2\xa8\xcc-&amp;(\xc3\x1a\n\x86\xbf\x85,(\x8em\x0cw\n\xac\xca\xd5_\x8e\xed5-\xc4K\x92\x93~\xb7\x8a\xe3\x81N\x8c\xef8\xf8\x02\xb4]\xdc\xa6\x1a\x15\x8d|Al\xd3\xc4in\xc7\xc6\xa2\xc4}\xf5\x9f\x1f\x8e\xc3\x02\xa9\xd8\x1e\x84_f\xb5a\x03\x0e\xdcB\x02q(I\xa6E/S\xdd0\x7f2\xbd\xf0P\xd5p\x02\xbdo\x1d\x97b\x19H\xc0/\xa1\xc7\x83\x8e\xe4)dR{\x06M\x11\x8bNy\x83\x9e\xc6*BN\xd4\xcf\xcdg\x19\'\xfa\x14\x97\xe4\x07CVS\x80\x96\x8d\xf3m,\xee\xfc\x9fpk\x7fj\xe3\xba\xc24/\x974m2I\xdbL\xdcI\xa7\x93\xce$\x9d\xbai;Ng&lt;\xdc\xbb/i\xc5J+i\x91\xb4\x92\xb0\xa4\n!\x84x\x18\xb0x\x897\xc6\x08\x04\xc6`\xc0\xd8\x18\x8c\r\x02c\'&amp;\x04\xdb\xb1\xc1\xc6\xaf\xfao\xeb\xb9\xbb\xda\'\xb8\xf5O`\x06\xed\xd9s\xce\xfd\xce\xf7}\xe7\xe2\xf4\xea&gt;x\x8a\x1d\x18FQ|h=In6\x89\xb3]\x14.\xd3\x10HgP\xa7\x82\x95\x15\xbf\xf3M)$D\x9dL|\xe956\x03\x0cD5\xa31`L5dD )\xe5 \x95\xffs\xe0n[\xb6\xdc\xa0m\x08\xa4\xca\x86l\x82\xee\x14\'\x10\xbao\xd5\x1an\xa9\x84\xae\x04\xc6\xc9\x91v\x10\xc4\xa4\x86"\x9fk\x0b\x97\xca\x8a\xbf5\x9fA+\xb9\x1bh~}{\x8eG\xd1\xde~d\x1a^\x9cK\xca\x8cc\x15y\xa0\x92\xe7\x19g\x80\xd0f\xc3,%b\xdf\x1c\xd6\x18\xf1\x90\x88\x1do\xf6\xef\x95yz\xbe5cUfU\xdeE\xea\'\xa6\x88\xf5}\xb7\xbf\x04:\xe3D\xb9\xb7\xdem\xbe\x89\xba\x99\xd89\x91\x11@ku\x88\xab\xd1^\xd9dy\x0e&lt;U\xd4\x95\x92\xad\x86I)T%\xf6N\x97[\xed\xb8\xb0\x12\xa2$;]G\x8c\x0b\x88K.\xd9dgPni\xbd\xc4\x14P\xc7\xcf\xdd\xcf\x1fl\xe6\x93oPm\xf3\xa7\xe5\xa3\xf8^\xc5\x1f\x9b\xaf\xa2\xe4\x1d\xd0\xdf\xd7.\t#\xe8\x1c\xb3\xd1!k\xce\'D%\x0e#\xad\x95Hg\x85\x82\x9c[\x9a\x8cA\\\x1e|lX\x8b\xa3=\xbd \xf1\xcd\x82\xa2\xdc`U^\xbb\x18\xe6\xa4\x85\x1bB\x1fJ\xb3\x02\xfcc\xc2IO\xf6\xec\x87\xfaT\xfc\xfbR\x01e^\xd7w-\xf2\x0b\xc2\x0ejc&amp;\x8a\xa2\xe6b9\xbd\xd2\x08r\xf0\x1em\n\xbe"\xc8A\xc0u\x8d\xd0.|LX\xe3\x81\x1eT\x9cX\x1f`$\x97\xcdw\xe3\xaa\x8eJt\xa6\xedbx\x1e\xc5B\xeb\x87\x17\xb6~x\x9cF\xdf4\x7f\xab\x87\xf5\x19\xd0\x9a~\xa1KX\x06\xa0y\x8a\xe6\x84\x9d\xef\xd5\x03\xa3\xb8X[\xfah&amp;\x87B\x1dJ\xc4\\\x9e+\xdb\x10G\xc2r%I\xaf\x14\xa7\xee\xb0\xec\x91\xf5\xc2\x11\x1d\xc5^l\x83\x02\xb5\xca/T&amp;\x88\xbe\xf0}`\n\xeb)*\x0e\x0e\xf4t\xc4\xc7\xeah\xb4\xcfl\xad(#5X\x15`j\xdb\x88\xdd\xa5\xc5\x05\x82F\x1d\xb6\x9cSl\xba\x86\xd4\xad\x9e=,\xf7 \xb0S8\xd5\xf4V\x96\x91\xdebP\x1b\x08\xf1x\x1aH[}`\x99&amp;&amp;F5L\x1fsX0MQ\x9c8\x8b\xf3&lt;\x845\xbf\xd2\xae\xc0V`v\xc3\xa1\x8ep{X\xd0s23\x93\x06\tAy\xfc\xf6l\r*\xe8\x08o\xc3\xef\xdcbZ\\\xdc\xff\x0f\xcb_z\xae\xdec\xb2\x85\xf5T!\xe8*\x8c\xcf1;\xd3j\x11C\xe2\x03Lc#*\xf8\xb5A\r\x0f\t\x9d\x19\xe8\xee\x80\xa4D\xf1\xd1\xb0\xe0\x0b\x0f!\x1a\rof%\xe7\xff(dH-bu&lt;\xaa&lt;\x85F_\xfc\xfb\x03S\xcb\xb7!\xd5\x06t\x80\xc0]a&amp;\x16\x94\x96\x0f\xc2p\x98\xa1)S\\\xe5\x96W\xe3\xe2\x80\x1c$\xba\xc92\xf1\xb8\xb0\xd4\xc0xt1\x03\n\xea\xedq1m\xfbac5C\xa1o|\xdf\xea\x00\xf1\xd7\xe6\x8b\xfaOh\x00\x88\xf3e\x80\x80\x83\x08\x88n\xcaW\r\xbaab\xad\x8a\x05\xde\x9b\x1f\x89\xdf\x0e\x1f\x17\x9621\x1d\xa8\xf5\xf2\xb1\xfe\xb9\x0e\x10\xc3\x00\x10\x0e\xac\xad\xc4O\xe9\x00\x01,\xb0\xb9O\xfbX\xc8\xda\xae\xd4\x19M\xc9\xba\x98[%\x8d\xadKL\x05N\xb5\xc5\xb9\x0b\xe4\xb2\xcc\xb2u%3\xdf2\x85\xa5\xd8\x9d&lt;\xeeg\xde\xd6_AY\x1e\xba\xc0\x14\x90\xa1\xe8r\xc0\x03\xb5\xb0\xbe&lt;\xbbc|\x12jHm"M\xd0\x11\xbb\xfa\xa5i\xd2T\xa3\r\xd5\x89\xe3\xdcUDZ\xc8.\x182^\x99}KX*U\xe4g\x8eu\xefT\x07\x8fz\xc1,h\x14\x14FnfI\x1b&gt;dT\xef\x99^\x90\x9f\xcc\xe2;\xda\xa8\xe6\xaa8\xf1\xa2\x8e\xf2 \x9e\xeb\'Ew\x90h3)\xfb\xbc\xf3^/\xeb\x06\xd0OY\xb3\x95\xc4\x06\xd2\x11\x7f\x0b7\xd4*v\xb5\xd5\xe2RG\xf5$\xba\xde\xd2\x8a(\xad\xb5\xe2\x89\x8f\x8cQ\xfd[_\xb7^D\xa2\x12G\xd1\xbaNl\x88]\xbd\xcbSZ{\xd5\xa0\x9bl\x88\x83\xf1\x9d\xb8I\xbe]\xb8Gz\xcd\xc2\xe5\xc7C\x83\xd8\x8f=\xa6\xb5g\rJ7\xb5(ew\xdb\xe2r3I\x9c\xac\xa34s\x85Bk\xce\x93\xbf1I\xfd\xd3\xb8\x9a\xd7y\xcau\x91Z5h \xb4}\x8f\xfe\xfa@\xab\xd12\xe3t\x8b\xa3i\xc5@B\x8e[\xa0\'\xada\xb9\x92\xea6G\x0b\x8cH\xfe\r&amp;DnHH\xb6\xb5F\x88\xb9\x82F\x93\xda\xd2\x0f*VX\xfa\xdat\xed\xc1w\n\xd4\x92N\x08\x1a\x85\x1f\x9f\x99H3\xc4\xd5\tm\xaf\xf1d\xda\x9fe\x03\xb3s\xc8OF\xb5\x1f\x1dB^\xad\xca\'\x12\x18\xbc\xe07\x9f_\x0fE\xfb\x81;\xb0\x03\x13S\x92\xd7\xd2\xfdN\xa6\x91\x96\x96\xb1_\x0fk\xab\xf9KCb\xfcb\xa9\xe4\xd7?\x84\xc6\x07\xc2\xcd\xb4dR\xaf\x81\x00;\xa2\x11\x19rKf\xb7\x0ep\xca\xaf\xdc\xe6\xa2qA\xe4la%\xbc\x12[;\xac/\xd3\xd5+:{L\x13\xe8@\xb4E\x9a\xd1\xecB\xec\xa7\x85C\xfdwi&lt;e\xf6l&gt;\xf9*\xb5f\x12d1q\x956\x1bdDa\xcciqy(*\xd6\x94\xe5\xcb\xa0A\xa1\xa2S\xb6\x85\x054\xd0)\xb1\xcfy\xa3!\x81\x14\x0f\xa5Jp\x8e\x1d\xa8\xad\xd6\xec\x8e\xc8\xa1\x86\taN\xf7l\xaa=\xd7}\xdf\xe9a\x11\xd3\xed\xb1\xe9(\xe2R-J\x9aI7\xb4}b\x81\xe81\xd2(4z \xac\xe0\xf2\xd9\xa4Q:\xd4b\xcf\x96\x1c"\x9a"\xef\xa0(\xbd\xedi\x94\x17\x17(\x1a\xcau\xd7\xa4`\xddl-\xea\x0f\xc4\x91\x8e\x0f(k2\xde*+\xde\xf15b\x87\x01\xe5WD\xfa\xb6U\x91\xb9\xa4\xc95e\xd3\x86j\xf0\xb9\xf6W\x1a\x92A\xda\xafJ\x81#a\x91\x03\x97b6\x8d\x86\x84\xa9\xf52\xfc\x0cWW\xa3k\xe6\xd7%\xab\xc5DV\'N\x18\xc5\xc7&gt;2\x9c\xa4\xca\x8a\xef|\xa7\xf5\xe3\x00\x8f\x1a\x11\xf6\x0bVk\x84\xf8"i\x85\xf89\xf8\xe4\xa38M\xe9\xbcp\x0fZ\xde\xc5NQ~\xcd\xd2\x1d\x1a#\xf5\x0f\x04S\xcc\x1e\xaa\xe1\xf5\xcf,\x08\xab\x14\x1c\x10\x893\xcc\xe6\xa0\x8b\xed\xdb\x15nk"\x1d\xde\xb8\xb0\xf4\xd9{&amp;\x8f\xf2c_\xad\x0e\x1eJs\xbd\xa2\x12\xb6k\x1fN\xe9\xd1c\xe5\xfa\xe1^xK\'\xf20\xf2\xf2\x00%p\xa0\x08"(\xfe$\xaaOxC\xe4\xd2[\xaai1\x86)\x1d\x91v\xc5\'\x08w\xb2\x16\x84\xf0.F\x0f\x85}b\xac\x95\xed\xc5C\xdf;f\xf3\xf4\x93\xaf\xdc\x0bZ\x85\xc9\xd6+7\x8a6\xad.\x06\xc4\xe5\x9dm\x04\xc2u\xbf=o\x88}\nwDXo0%\xddn\x8d\x96\x19\x99?\x9d\x08\xa4\\\x1c\x9cF\x16p\xa5\xc6&lt;\xd2\xd6\x92\x8c\x05OC\xec:JF\xa2z&gt;ht\xdar\x11\x08\xb4\xcf\xd9\x11cbT\xe3\r\xe1\xdc\x81\xdd\xe0\xe2\\\x1c3\x13[\x8b\xd4\xb5\xd2z+W\x03l\xd5v\xc9,\xc3\x06"\xa5\xda\xd7\xd9lm)\xa2\\\xa9\xe4Fs\xdb\x8d\xa5\xb1\xa8\x81\xdf\xfe\xba\xbaQ\xeb\xb5\x05\xa0\x01\x0f\xeb\xc5m\xd3Y\xf3g|\x9f\x9aLJ\xa2\xab\xaf\x1bo\x06\xe2\xb6}\xd5^Eu\x13\\W7[\xd0\xd4\x19\x81|:\x93\x88\xd6\xaf\xcc\x9f\xbf\x9b\xcf\xde\xe9\x1aM$\xea2\xb9{W:\xaf\rO\x8f\xc3\xcf_\x08\xf7\xf5[\x1b\xa8a\x92\x95\xad\x840 G\xa2\x97\x84&gt;\x8fV\xc3\x1aO\xdb\xd2\xc9J\x8b-\xff\xf1R\xc6oL\x0b\x8a\xcfE\xc8\xd2\xce\xee\x07r\xbd\xac4\xac\xf3\t\x82\x92\xcf\xc2\xa4\xb0ZS\xd2\xe6\x11\x1du\x1c\x08{\xc6\xad\x8d\xd61+\xc0\x93dm\xa3\x9c\x91P(\xd2\x94\xcf\xbe\xc6\xf8\xd7\xd2}-l\x02k\x13\xe1\x83\x05\xdb\xd6.\x00L\x81\x8d\xf4)w\xd5\xcaxO\xd7\xd7%\xea!\x18"\xd4\xf5\xceT\xbe\x03NK\x83\xb2\xeb\xd4*D\xcc\x1a9h\xdf\xdd\xb5\x15\x81\xcd\x99\x8a\xd4c[\x0c\x03\xb7i\xee6\xf6\t\x14\x8e\xf7&amp;A{\xb9\xec\xb71^\x7f\x0f\x9a\xb1\\Bry\xe3U\xf8\x92\xfa\xb1\xea2]\xbd\xd7P~}\x1a\x94\xdd\xf3rX\xd0\xb7}l\xc0Njrh\xb9=\x8d\xb5\x1aR\xbf,\xa6&gt;z\xff\xc8\xee\xf5W\x0ecyS\x83^\t\xc5\xab\xd6U\x14\xc7\x8cNQ\xea\x9f\x7fh\xbc\xe0\x86p\x99\xa7\x8f\xac|\xd4I\x81\xfd\x8ey\xe1g-[\xd5\xd8n\xc6r!f\xbe~\xb6\x07QF\r\xf7\x9a\xdf\xb5\xef_+O.\xed\xebU\xe4)\\l\xdfD9\xc9D\xc2\xb9\x96\x8dqd\x8c9\x92\x8d\x85\xc8\xe4\x10&lt;\xddA\xab\xf2D\x8b\x07\x93\xb2\xd2\xd0rS\xe1\xf9\xf2N\x88x\xe5\xb6e\xbc[\xcc\xc0\x9980\xd5\x90?\xe5\xfb\xa7m\xcfy\xa2\xe2\xcf\xcd\x7f\xd0\xabH\x1e\xdf\xdf\xbe\xfb\x83y\xcd\x19\x90\x80\xcbx\x8c\xa8(j&lt;\xc3\xbc\x18\xe2\xf5vw\xa8f\x90\xd6\xf5\xfe\xc2\xc6dSL\x05C\xe8\x8a\xd8\x80\xdd\x8cev\xfc\x8b9\xac\xa18\xd4r:\xf8\xf9\xfbG/u\xfaF\xe3:(\x03\xf0\xa6\xdb\xb7Q\xd6du:\x997t\x14\x9e\xab\xf1;LG\xf3Lh1\xf7\x9f\x17\x0f\x0bk\xf5\xe6\xbf|h\x88\x15\x1e\xfe\x94\xcfxYb\x8b\xf1e|k\xb4\xca\x9f \xd9rn\x84\x87\xf5d\xc1\x17\xbf\xb7\xaf\x13\xcb\xeb\xd73F\xd3\x03O\xd8d\x16\nl `\x10\xc9\xcbZ\xf1\xd4\x94Q8\x9adB\x12\xd1\x19\x03]\x99\\O\xbe\x7f{{\xfb\xc9\xbd\xec\xad\xc9\x88L\xae\xedV\xa5\xc4\xfb*e\xf1\x00u\xccX\xddI.\xc4\x1e\xc4\x9bL\xc9\xa2p\xc3_|\x1f\x1eY\xed\x9f\x00\xe6\x9c\xe5\x8d\xc1X\x83\xd7f\x07\xd1\xb6I\xb2\xb4\xf4\xaeo\xdf\xbd}~MqDT77~\x99\t\xf4:\xddU\xb2w1RE\xc6\r+yS\x11\xd9\x1b$Z\xcd)t\x135\xa6\xe2\xdbK\xc66\xf9!\x93\xcb\xc2U#Y\xd5\xe8\x8cu=\xa6\xcf\xc5\x7fHW=\xc6\xce\xd1\x81\xde\x84o\xc4\x17u\xf7.X\xd5B\xa6\n\x13\xb9\x80x\x87\xc7\xa3\xdc\xe6\xe6\xa9N\x91iq\xbaR\xec\xcbhG\xc7\x8f\xc5b1\xd61&gt;&gt;\xe9u\xb9]\x80&amp;\xd7y\x1a\x97\xa5OGB\xb4\xa2CKolZ\xc8#\xed\x18\x93\xbf=\xc9\xfa~}L\rOT\xfc\x89,~\x0c\x1eA5t=r&lt;3\xba^\xb1\x1d\xc9\xe3\x9e\xc4\xca;o\xd2esy\x8eaevB\xc3z\x1e\xf9\xbbDH\x1c\x93Pn\x1dcUY\xcf\xfc\xb7\x9dk\xe1j\xe2\xda\xc2\xe1%\x03"*"*\xd6\xfa\xa8V\xad\xad^{\xaf\xb6\x9c\x99\xccL^\x13\x86$X\xc9\xfbE@\x12 \x10\x1eE\xc3;P\x1f\xa0&lt;\xac(\x0f\x81\x0b\x05\x8a\x06\x15\xaf\x80\xcaUQ\xfcm\xf7\x9c3!\x99\x04\xf0Uj\xd7]\xab\xb3\x96,d\x85\xe1\x9b}\xf6\xec\xb3\xf7&gt;\xdf\xb7\xa3\x0bXh\xac;\xc0\xe4\xb1\x843b\x90O\xf8u\xd9\xe9ks\x86\xd3\xba/\x93\x91-_\x05\x82\\?\xb8\x14S\x11\xb3j5m\xbb.\xb4\x90\x04\xf6`\xe7\xab\xbaV\xfa\n\xa9\xa2\xf0\x95O\x16;\xcb~3]\xba\xd3$$\xf3\x98\xf9\xf8\xf3*T]0z&lt;\x8e\x94\x9f(\xc2k\x0e\xafI?\x851Bl.\xcc\x14\xe0\x82.[L\xbb\x93\xfd\t\x1a\xack\x11\xad\xa4\xc0g\x81\x9f]\xd2\x8b\xa8?\xc5\xb6V+\xa6\xc3 v!\xa6\x8d\x8dGw\xbda\nn\xf0uV\xa2"7\x9c\xbc\x12\xcf\xf9CI\xebQ\xac\xd3\xf8gD\xe4L\x9c\xa2\xac\xb5\x86\xf2v]YL\xcd\xc9\xaa\x95\x8c\xa7\xa6\t\x9d/\xa1\xa5\xa4\x8cT@\xccH*nk\x95\xc1b\x82D\xd2I\x90\x0b\x7f\\C\xb3Q-\xe7\x9csL39\xea\xb9\x16^B\x98\x89@\xcf:\xbc\x0e;\x10y\xd7\x89\xc8f\x82\x96\xf1\x19\xed\x80\x11g\xd5\xc9"+/\xa3\x9d%\xc5\x00\xf3f\xa1U\xaf\x8ba\x19\xdbZ\xb5\x18\x11\xce\xb0\xc1\xaf]\xd1\xb9\x1f\xca\x1c\xe6\xe1:\xb4DR\\\xf8\xdd\x13\xe6T\xfazT\xca\xc4m\x87\x98\x07\x91\xcev.\xdc\xf5\xaa\xf4/a\x15\xbd\xaa\xe1\x82\xf7\xed\x0b\x8f\xad(\xba\x87`IE\xd6\xd2\xe2M\x08\x9d\xac\x1b;\x0cLt\x9f\x12:\xd6\x04L\xbc\xa7E\'\x0e\xf0\xed:m\xdf\xb2.\x95\x12ih\x10g1\xb2\xe3\xca\xc0\xb2~\t\xd1N\xd95\x88\xb0&lt;}u\xfe!\x12\x90Q\xd7\xb9@\xd4"j)\x15\x8e\rMwF\xe9\xbc\xe8\xdc\x0f\xa2r\xc0w\xc9!\x8ddB\xf0\xe9g\xcd\'\xdf\xa1\xf3L\x94|m\xce\xc2\xec\xefpFe|\xc35\x03\xc7\x1a\xb80\x19\x96\xbe\xb5\xec\x87\x95z \x8a\x84gh\xc5\xc1\xa2\xbc\xb9\xdfF\xebb\xd8\xba\x10\x95I\xbb\xe8q&gt;R\xac\xa4\xb8\xb908x\x1b\xec\x07\xdfA\xd3\x85Y\xea\xee\xb3\x97\t\xd19\x93T\xe1\xbb\xca?\xa3\xde\xd0k\xb1\xbf\x05\x96\xee\x85\xd73K"k\x91\xae\xb6V\xcb\xd0\xe4\xdb.\x9bpd\x10S?\xd1S\xd6ks\x17;\xc3\xb1\x01/\xc9\xd1\xd2\xf8wr\xc0Q\x90\xa8\xd6FJ\x08\xd4\xdd\xf6\xcey.K\x1d\xb4r\xadN6\xf41\xb5\x8e\xce3\xd0\x81H\x1a\xear\x16\x18P\xd1\x91\xa7^\x05\nz\xbb\xc9jq\xf2}\xe1\x14\x17\xfb\xfb\x8b\xcaCI\xef\xd6\xea&amp;\xa6\xef\x10/#\x12\xa2\x81EC\xf73\xe8_\xeau\xc8\xd6J9[\xc0\x0c\x93a\x0685\xca\x17\x94\xa9\x0b\xe59\xe7\xd8\xd5%J\xa3v\xa4\xb62(F%EK\xb8\xe9=\x84\xf9\xf5\x18\x8c\x14\x00\x00\x070IDATDI\xea\xed\xb3\xcfE\xe7L\xc8^\x15s|3\xe8_\x8br\x0bwJ]\x81\\\xce\xb2\xd7\xc2U\xa6\x14\xd4\xd3\x17\x95J]^NlXQ\xb3\xf0\x1d\x1cB\xf7RE\xbar0etk\xbe}\xafJ\x04\x06/\xfb1\x1f!\x8d\xc2UT\xcb]\x01U:\x9d|\x15w\x9ae\xef\x15\xd247\x10\xce}QY\xdfM\xd3t\xa3\x89\x8fqD9\xcf\xcc\x82`\xb7g\x01\xd1\xbfD[I\x969{\xdb\xfb\xb5+\xa8\xef|4\x94\xbc\x08\xbf\tqY\xaa\xf55\xa0\xcfF+c\rv\x9e\x19,\xaaY.\x91Q\xa4(\xb1\x9d\xe9\xff= \xad\x8e\x12=\xa0\x054\x0c\xc2\xd0\xec\x1cB+(\x8a\xd8\x93\x1f(]\x91$\x1db\xb2\x10\x8f&amp;b/\xa9\xc2\xf5T\xdf\xe5\xb2\x8e\xd1\xb1\x82\x1a\xd4\x1f\x17|0\xe2\x8dx9\x1f\x16\x16\xc4D\xdf:\x1f\xe8\xd5\xbb-X\xd1\x1fA\xb5\xd8`?\xfcAB\x9fD\xc9\xc1\xdd\x95/bq\x81y\xce\xb0\x00\x96\x1ah5&amp;O\x8b\n\x05\x99\x11n\x80\xa4p\x08\x03?I!F\x8c\x8b\x14%\xc9,\xabT\xd3\x17K@\xe7\x05\xfd\x80V!\x03\x91\xb0(%|\xa75\xf1\x1f(\x8bB\x9c\xeb\xb3\x83@\x1b\xb65\x8e\xab h\xe3\xee\x82\xa6\xa7L\x94X\xeb\xa7\xf3L\t\xdc\x97\x11\x15*\xa4\xf3\x030\xdf\xd7\x82\xa60s\x08\x82\x923\xf4\x98\x05\x8c\xd3\xdd\x01@R\xa2\x87\xa5(\xe3\t\xf37\xe9\x1f*"C\x9c\x9b\x86\xf6h\\\xd07}O\xf5\xb5~\xb0P\x8d\xce/#\xc0XO\x0b\xfeH\x1f\x92\xdc\xca@;:\x03\x02\x96\x15\x12&amp;\xf4)\xb9\x8e65\x83\n\x93\xde\xe1]\x91\xef\xad&lt;*\xb5\xc7\x9c\xfd\x11\x12\xc5dI\xbc\xfd\xc7\x8a(\\$*\xa7[\xe6\xb8K\x1609\xc50\xe1P\xc9\xaa\xcbt7\xae\x0c.]B\x9cp-\xf06\x18^\xb6&lt;\xa9i\xc5\xc7\x03h\x1bP3\xf4\x85\x00p\xfd\x87\xeb.Q`\x81\x87x\x01\xbegv\xc5}\x8cp2Q\xb2OslQ\x8cK\xb8O\xf94M\xbf\xb6\x82a\xb7\x0en,\x82D\x11\xa6\xab(\xc7g\xce1\x03.\xd0\xe7\xe4\x0b\xb04W\xc9\x9e\x0b\xa9Z\xaa[\x009\xcfr\xf5#B\xa6-\xbe[?\x9d\x96\xfa\x91\xfa\xea\xe4\x04M\xb4\xbd\x00\xd6(\x82\x8a1\x8e\x7f\xe9\x03\x15\xfds\xe8\xc0G\xaeD\xb1\\.GrW%m\xeaeye\x8e\\\x89t\x9eJ\x8c\xc9\xb0&lt;\x03\x8c\xf3\x179\xf7\x02\x10/ ~5\xc0\xf7t\xda\xc1\x8fD\x95(I\x81\xb8\xda\xc5\xefc\xe8\x11A_\x17\x87D\xb6\xda\x96\xb1[\xb0\x00\x83\xd0\xe4J\xb5Z\x08\x02\x0c\xab\xccQ\xab\xd1O\xca`u\xd6p/`\x04\xde\x01\x9e\xabFBN\xb1\xa9\xd0;\xa8=\xc3|4*\x84+q\x9f\xbd\xe1f\x0c.2\x17m\xe3=\x13:\xeeB\x95\x0f\xc8\x82\xd3\xa6BD\xad\xce+@\x95\xa1\xbcP\xa8\x19a\xd9\xc3\xc8\xa7\x06\x06\x8d\xc0\xbaT\xcd\xd1]A\x14\xfbs\xc5f\x07Z\xa2\xbc\x8e\xd9\x95\xfa\t\xca}\xe8\x89\xf1\xf6\xb3%\xa2x/\x02\xf6p\xfe*G\x9b:\x8a\x00p\xf5u\xfc\xee\xaem(\xd0a\x07\x83\xd6\xbb\xe8t/\x8f/\xc0\xbc\xf5\xe1\x1d\x07\xc3\xd9j\xee\x83P])R\xe4i\t\xeff\xf3\xa9\x8cO\x9d\'p\xc0\xce\xed\x95\x12\x91\xb0\x1cZ\x01\x94\xbf*\xda\xa7\x9d\x1cw\xeb\xc6\xe3!\xac\x8d\x7fT4\xb3\xe0\xf7/\xcc\xdc\x7f\x84\xceo\xc8\xa2+\xf56\x1a\xc9\xd4\xb5\xa8\x8e\xcf\x15\xf7\x9a\x90\xae\x07\xf8\x7f,=y\xe4S\xa7\t$J\xb6\xecfN\x8c\x10bg\x15vI&lt;r\xc1\xd83^\xd7@s\x8c\xcd\xdd;\x7f\xbd\xf9\xd9\xd0\xfd\xfbC3\xc1\xc0\xab\x81F\'O\xd3r\xf7\xdb\x05\x17\x88\xf6)a\x01e\x04\x18?kO\xd8\xf6\xe93\x0e\x92%\xa9\xd9\xa5\xc7\xd0\xe0\x0c\x10\xd3\\[\xf9_\xf1P\xe0u\xddU%\x03\xb3\x08D9\x85_\x18\xd6\xe9\x18X\xea\xb1F\x96,\xea\xd7H\x19\xe1;\xc3\xd8\x0f\xfc\xa1\t\x1a\xc9\x92\xa4\x04;\xbf\xb7\x98\x90F\xdf\x9e\x02\xe5\xf7n\xcc\xf6\xc8\x84\x94TQ\xee\xbd\xfc\xfcfK \xf0\xdf\x9b\xfe\x1eo\x93\x90yI\x15\x0f\xde\xd4\xf66)(\xb1\xa9r\xa5\x04h&gt;m\xde\xb5\xe9\x0f\x8e\xf5\x80\x86\xce\xdcm\xde\xfc\\\x984\x12\xfe\x03R\xd2\xeb\xb6\xe9\x07`&gt;\xb7\x16\xa3\x19\x11\xa7Ud\x0b\xe7\x98\xa6\x1dR\x8a\x14;%\xf1\xcbq\xde\xfee\xdcFLg\xd9zR\xc3\x1f\xf7\x11\x84T\xe4\xbap\xcb\xbd\xcb\x05Q{\x1b\x9a\xc3R2&gt;\x040\xedT\x06\x86\xaa\x02.\x81\x9a\xd7\xc8\x17\x83\t\xce\x1f\xea\x15a\xb5\x18\x01\x9e\x9c6o\xcf\xdc\x90\x991\xc9\x92\x94\x03i\xe6c/(\x82Z\x01\x86\xa7\xb2\x8cz|\xe8OJ\xc9\n\x03\xd3\xc0\xbc\x80\xab\x06\x8b\xac*\xdaC\x9b|x\xd3\xbeA?\xd76r5\xb83\x8f@AW\xaf8\xca\xd8\xbf\xcc\xd8\x80\xc1,\xa1\x08\x96\xb1\xdf\xce\xc0X\x1d\x01FQ^\xde\x813e\x15\xa8\xe7\x06\x8b\x1dl9IQ\xa4\x85\x9fr\xcd\xea\xef\xc2\xc5U\x91\xc1J\xdd-\x83\xae\x1e\x93\x92\x11(\xe2\xda\xf1n\xcd\xae/6p\xee\x0f\xbc\xd1?\xfeeg\xea\x82\x80 \x04=\x9b\x14L\xeag)T\x89\xc8r\xdd\xfc/`\x19\x1dt\xe5\xc3r\xb9\x17\x14\xc1\xcc\x10\xf1\x99A\xcf\xdd\x92\x9eJ\xe4\x7f\xb0\xec\'\x08K\x96\xc1\xbc{\xe7\x91\r2U\xc8`\x89\x92\xf4\xc3\xa74\xcc\x89I\xf8\xd4\x88\xcfTc\xaa\xe6\x83\xf8|QE\x8e\xeb\x1b\xa7\x0b\xf9v\x98\x94\x92\xcd\xdc\r\xd2j;oA\xd5)e\x04\xdaz\xae\x8fT\xc9\xe0\xc3t\xee5\x985\xfb26|\xa6\x14\x9a\x08\x96y\xca\xcel\xeexH\x10\nY\xc9h!\xc3\xf7\n4x\xf0x\xca\xddv\xce\x02\xa8|\xd0\xc9\x8c\x92\xd4T\xde\x08\xc8\'U\xb9\xf3L\x1e\xdfABC\xc9\x9a\xcfxJo\'\xa4n\xfc\xa0+a\xdaX\xd2\x17;4\xe6[\x13\xc3V\x82\x00\x96\x9b\xcb5\x00\x0b)\xfa`\xba\xc3\xd7\xa1\x0e\x14\xa9\xfd\x8d\xff\x15\xb4\xb5\x191)}\xe4\xf1\x03\xf8\xfe*\x16g7\x9b5i\xf1[7x\xcaU\x14\xb0\x94M\t\xdb5\xe6\xda\xfe\xe1&amp;4\xd5\r:M&gt;%sz\xa6\xe8\xb9\xfb$\x1e\xe6\xf4\x80k5qU@\x85\x1b2\x04AT\xbcr\x94\x95jvd\xc6\t\x83\xc5\xfe\xa4\x0bm\xf9q\x99_k4f\xdb\x9e\x8ev+\x1e8G\x0e\xbd\xad\xffy\x04\xc8(\x1c\xb7\x86\xc7\xc6&amp;Q{\x97 H\xef\x0f\xc7G\x0bJ5\x87\xe2\xbfCs\xca\xfe\xdc)}\xf8\xf6\x19\x99\xdfl\xd7\x94\xdev\x1e\xcdj\xa9\xf0\x91\xa1ix+\x17\xb4\x91\xd5\x1b\xec\x98\x98R\x9a5\x9a\xecx4\x07O\xf2\x19F\x07\n\xb3\xf6\xe2\xb6\xc4\x9f\xdc\xae\x81\xd8\x0c\xa3u\x13Y\xe3W\x1e\x0c\xfb\xfd\xfe\xe6\x9b?\x94\xfc\xfb\xf8\x9ejg\x0eDd&gt;\x95\x90\x99\x9a\x1e\x1a\xa0\xf7Y.a\xce\xa2$n\xd3\x81\x84\x1d\xbb\xccx\xeaci)\xfa\x87\xbe\xa2\t\x8b\xd9\xfbw\xfes\xeb6\xd1G?\xd7\x95\x98\x12\xfa{I\x19\xdfm\xc9\xfc*~_\xc2\xfe\xfd\xfb\x13\x12\xbe\xddy\xe0\x8bM\xa9G\xd2C\xe8?\xf7\xac\xcc\x15h)\xeb\xda3%\xf9\xaf\x99,\xba\x82-\x19B@Wrr\xf8\xbb\xbf\x14\xd0\xdf\xd7\xdf\xd7\xff\xdf\xf5?/\x85\xf3\x9e\xbdb\xe4\x17\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -598,6 +676,14 @@
       <c r="D10" t="n">
         <v>58766</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xdd\xdd\xdd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xf6\xf6\xf6\xf4\xf4\xf4\xf7\xf7\xf7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xe7\xe7\xe7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xf5\xf5\xf5\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfa\xfa\xfa\xf9\xf9\xf9\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xff\xff\xff\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xd9\x16\x10\xff\xfe\xfe\x01\x01\x01\x06\x05\x05UTT\xd9\x17\x11\x03\x03\x03\x10\x10\x10\x15\x14\x14\xf1\xf0\xf0\t\t\t\xed\xec\xec\xd6\xd4\xd5\xe4SO\xb7\xb3\xb4\xdb\x1f\x19\xda\x1b\x16\xff\xfb\xfb\xfb\xfa\xfa\xfe\xf7\xf7-,,\x1c\x1b\x1c\x8a\x87\x88%#$\xdc% \xc1\xbf\xbf}{{\x82\x80\x80{yy\xdf51\xda\x19\x13\xfc\xeb\xebDBB\x80~~\xfe\xfd\xfdigg\r\x0c\x0c\xb4\xb2\xb2yxx\xa7\xa5\xa6\xe8mk\xfc\xe7\xe7\xfd\xf4\xf4\xfe\xf9\xf9\xc9\xc9\xc9\xf7\xf7\xf7\x19\x18\x18(&amp;\'UPQ\xeb\x82\x80\xdd($POO\xde0,\xf6\xf6\xf6\xfd\xef\xef\xfc\xfc\xfc\x99\x97\x98FEE\xe0:6\xe9pncaa\xe6][\xf9\xd9\xd9\xdd,(#!!\xfa\xf9\xf9\x88\x85\x85\xe1C@ljk\xc4\xc2\xc3\xd9\xd9\xd9xvv\xe0?;\xf3\xad\xad\xf1\xa2\xa1\xe2HD\xf3\xf3\xf3\xe8kh\xdd\xdc\xdchcdomn\x1f\x1e\x1e\xec\x84\x81\x90\x8d\x8e\x8e\x8c\x8c\x92\x90\x91urs\xa6\xa3\xa4\xf5\xba\xba\xc6\xc6\xc6\xeaxv\xff\xfd\xfd\xfd\xf1\xf1\xe2KG\xe3OL\xf7\xca\xca:88\x85\x82\x82\x97\x95\x96YVW\xb2\xb0\xb0\xd3\xd1\xd1\xec\x85\x84\xcc\xca\xca]\\\\\xf8\xd1\xd1\xdb"\x1dZST\x8c\x88\x89866\xf9\xd5\xd4\xef\x99\x98\xed\x8c\x8a\xf9\xf8\xf8\xe7\xe5\xe5=;;\xa9\xa7\xa7\xac\xa9\xa9\xe5\xe4\xe4\xf6\xc6\xc5\xef\x95\x94\xfa\xdf\xdf{lo\xd9\x16\x11\xf4\xb6\xb5\xfb\xe4\xe4\xe7fd\xf2\xa8\xa7\xdf\xde\xde^XY\xef\xee\xee\xeb|{\xe5XU\xe8\xe7\xe7\xe1\xdf\xdf534200\xa3\xa1\xa1\xd8\xd6\xd6\xb2\xad\xae\xad\xac\xac\x99\x91\x92\xf8\xce\xce\x7f||\xee\x91\x8f\xf0\x9d\x9c\xda\x18\x12A??\xe6b_\xce\xcc\xcd\xf5\xbe\xbe}qs\xb8\xb6\xb7\xc9\xc7\xc8\x95\x93\x94\xd0\xce\xce\x9e\x9d\x9d\x9c\x99\x9a\xfb\xe1\xe1LIJ\xf5\xc1\xc0NMM\xf3\xb1\xb0`]]\xf5\xf4\xf4\xe9tr\xe4\xe3\xe3\xbc\xb9\xba\xfa\xdb\xdb\xdb\xda\xdae\\]\xf6\xc3\xc3\xf2\xf1\xf1\xec\x88\x86\xea\xe9\xe9\xe4URmef\xfa\xdd\xdd\xff\xfe\xff\xe3\xe2\xe2skl\xe3\xe1\xe1\xbd\xb3\xb4\x85z|\xf2\xf0\xf1\xc6\xfc\xe0Y\x00\x00\x00DtRNS\x00\xf7\xeb\xfa\n#\x01&amp;\xfe\xc5\x1a\x03\x06\x0e\xb2\xf2\xa4\x02\xc4\x86Z\x0f\x1fL@+[=\x08\xfc\xab\xe7\xc9m\xd2:\x16\xddh6\xd6c\x8b\x96x\x12\xb9\xbeW\xe5\xccC\xc12t}\x91\xe2\xda^\x9c-E\xee\xefP\xdf\xd7{\xf2\xf3\xc4\x00\x00\x0e\xd1IDATx\xda\xec\x9awXT\xc7\x16\xc0\x01\xb1\x82A\xa3`E,X\xb0\xa5\xd8b,)\xdf=\xbb\x80\x80\x88\xa8\x80 ED\x101\x1a\x10\xbb(FA\x11cC\x1f\x02\xb1%\x8a\xd8\xb1\xa0b4\xa6\x18\x1b\x12}\xb1\xc7\x1ec4\x1a\x8d\x89/\xa6}\xdf;gv\x17\xb6\xcc\\w\xdd\xcb\xf7\xf6\x8f7\x7fq\xefrg\x7f{\xef\xb9g~sf\xec\xec\xfe\xdfL\x9ag\xdf\xde-\xdcl\x8e\xaaI[\x00\xe8P\xc3\xc6\xa8\x1a\xb9\x00\x84\x02T\xb7)\xa8\x1a\x9dk\x01,\xfe\x15\xa0\xa6-Q5\xaf\x070\xe1\xb8j\x92ma\xd5y\x1d`\xfaS\x95\x8da\xb5\x7f\r\xe0\xe7\x91*\x1b\xc3jh\x0f\xf0\xdd\x08\x95ma95\x00P\x1f\x8aU\xd9\x16V\xdd\x970\xd8\xc7\xa9T\xb6\x85U\xbd\x03\xc0{\xebU6\x86\xd5\xd8\x01`\xfbT\x95\x8da\xb5\xab\x06\xf0\xe3\x10\x95ma9u\x02X\xbbw\x80\xca\xb6\xb0&lt;_\x01\x18\x7fY\xa5\xdf\xfe\xf5\xbf\xc7"a\xf8b\x91\xca\xc6\xb0H\x18&gt;\x99\xabR\x06\xcb\xb9I]\xfd\xe0ps4\x19sk67_\x18\x86\xaa\x94\xc1\xea\xef\x00.M+\x87\xb2\xde\xe0\xd2\xc7\xf0\x1f^u\x01\x8fn\xcf\xef\xc7\x11\x85a\xd8q\x95J\x11\xac\x1a\xf4&gt;\x034\xa8\xaf9\xf4\xb2\xd7?\xa2V\xbf\x01\xde\x03\xa8\xd6\xea\xb9\xc2\xd0\x12\x85\xe1\x84J\x19,g|\x9f\xe3K3\x00^\xa2\x07\xe9\xf4\x06\x0ee\x89%\x00-*\x1e\xa4c\x0b\x80\x8c\xa2x\x80\xbe\xce\xcf\x17\x86Y*e\xb0\\\xbb\x02L\xfbZ\xba4\x08\xa0\xb5\x1b;J\xce\x91\xe2\x8e\x01\xb4\xf4\xd4\xfc\x83[k\x80Ai\xd2\xa6i\x00\xdd=e:jJ\xc2\xb0C\xa5\x0cV\xf57\x01\xf6m\x90$)"\x08\xc0\xa1!\xbe\xdd\xbf\xed\xc7\xa3\x89\xcb\x01z7\xa3\x7fh\xe3\x01\xb0p"\x9e*{\x00\xd0\xb6\xb10\x12H\x18\xf6\xc4r\xa9T\x16Ks\xe3\xb7\x00n\xae\x94\xa8\xf9gQL\xc1\x15\xcdQ\x00\x1e\xb9{a\xb0c\xdc=\xf4g\xa7\x86_\xc7\x8f;\x9b!\x0c\xc6\xed\xf2x\xa8\xe6j\xe9\xe0\xb5y8\xfbR\xc9\xb7|3~\xed\x99\x14\xcd\x91\xe4\x13\xac\x06\xfb.\x1dk\x81\xfa\xef1\xdaS\x817\xe3\xa1Z]\xee=\xc7\x07=j=\x1fj\xc0\xde\xb5\xf8\x06Y2xQx\x87o\xdaJ\x8f\xc8;*&lt;\t`FL\xca\x99yZ\x88\xb1\xb9\x18m\x00!\t9\xff\xac\xd4\x9e:\x1b\xce\x9fY\xd1=\xd7\x13\x06\x836\xe4sz\x06\xf5\xcc\xa7r\xa4`\xbf\'\xf9\xe6\x1eK\x93\xc6\x94\xaf\xc0G4p\x8a\x94ruP\x9c\x16+\x86\xfa\xc3\xa3\xc7\xa9\x83\xeeh\xb1\xa2\xb9X\xc6\xc2\xa0\xdfF\xeef\xa1Q\xab\x8b\xd9X\x1d\x01Nbx\xfbFCHTb\x0e\x06\xf4\xa30\x0c\xa0\xab\xea\x90?\xbd+\xb0\x82"$\xc4R\xcf\xc8\xf4aX\x1b\x01\xdcx\t\xc6P\x18\xf4\xda\xc7\xa3\xb0\x93\x85\xe5\x16\x84\xbc\xa3\x0b\xfcAOg\x13\xde\x02\xc8\xbb\x0fp\x8a"\x1b\xb1\xd4\xea\xab:\xac :\x85Xj\xf5c:U\x8a\x0f\xd1\xf8gw1\x15\x86\x8avd\xf60\xec\xfb\x9a\x7f\x94\x05\xb3j/\x80l\x8c\xec\x84{\x1bA\xd3\xde\xa7o^IX\xfffX\xd8Y0\xfd\xf15a\xe50\xacU\x00u9\xc20\x9fO5\xf4\x02\xf6\xaa\xce\xf5\x93\xceY\x80\xd5\x12\x92\x03\xa4\x80\xe0\r\xbe\x99|\xacl\x0e\xd6\r\x80\xe6\xa6\xc20\x99O5\xe2\x17\xec\xb4$\x1d\xaf\x8b6\x1f\xab\x07@\x92Tv*_2\xc4\x9a\xf7\x99\x0c\xd6\x81\x99\x00\xce\xc6\xc2\xf0\xd5P&gt;\xd5\xa2\xc3\xa0\t^\x8b\xb0\xfa\x02\xecO\xcf:\xe3-\xf9\x8e\xe6cU&gt;\xc4\x9d:\xac\xa4[\x00\xf5\x8d\x85\xe1\x08\x9fj\xce\xba\xca\xdcl&gt;\x96\xa3=,,\x0c\x0f\xc6\x90\x16a\xc5\xe8\xb0v\x12\xd6\x7f\xe8\xaf\x02\xc4\xaaa \x0c\xebN\x08\x82}\x8b\x1a{&lt;\x10(\xe9\xb0\xcc\xac\xbb5\xc1\x94\x14\xf5\x88\x06CK\xb0\xca\xa1V\x05V{\x0f\x910`\x0e\xfd\x10\xfb\x9b1\xda[\x9b\x86\xf1\xa5\xaacv\xd2*]\x1a$\x99`E\x10V1\xc3:\xa7\x87\x15\xbf\x93F\x823I\xe0nZa0mS\xb7cwOR%\xa9\x12\xcb\xcct\x8aa\xa1\x06\x01\xd6m\x1f\x03\xac\xd4M\xea\x12\xbaY\x81\xb7\xce}\x03.\x95f\xf8l\xcfE&gt;\xd5z\xca\xa1G\xc3*\xa8$|\xa9\xcc\x1c\xaa\x1b\x11\xc87\x0c+Z\x8b\xb5\x9a\x8e&amp;~\x96\xf1\xa7\xa6/=,6\x1e\xa5\x14\xad\xf8\x0b\xed\xb0B\x18Bg\x0b\x84a\\(v\x16\x19PI%\x85\x9b\xa4;a{\xa7\xbb\xbd\x16k\xb4\x01\xd6\xdfq\xba\xa1\xba\x02\xeb\x1f\x1c\x81\xa4\xd3\x89\xd9(\x82/{&gt;O\x18b\xf7P_3}\xa4\x17\xc3\xb2\xb3\xab\xcd\xc3J\x89\x90\x8c\xb1&amp;\xd2\x08\x94Z\x9e\xab\xd6i3U\x18v\x0b\x84a\xc4w\xd8S\xc6\x02\xc9\xa0\x15\x038\x9a\x8d\xf52\x0f\x8b\xda\x982\x865Z\x8bE\xc1&gt;\xb68\xb1b\x92\xd1\xce\x1d\x85\x81o\xc7\xaaY?k\xac\xc3\xb0\xad2\x1e\x1c\xe4\xb1\x16\x9a\xc6\x16\x8d\xd6\x91\xd1FX\x81\x85\xf9\xa4\xd4\xddt\xc2\xa0\x16\t\xc3\x89uZ\xeb0l\xb9\n`m\xc8*\xdeh\x88\x95\x92\x94\x8f\x13\x90\x0e\xd5u\xc2\x10\xfa\xa5\xc0C\x8f\xa3\x87B\xe2\x18c*)\xcfp\xcc\xb2\x0c+\x8bu\x91~m\xe63\x86\x95\x8dX\x07Xl\x15l\x0c\xd1N\xd7d\x85a\xc8W\xd8I|\xa6\x9f\xc4\xc3rzQ\xacS\xa7)\x88.\x95b\x10ej\xb1\x8a\xf0\x87{\x9fN\xd8\x84v\xa9\x99\xce\xca\t\xc3\xdco\x81M\xed8\xed\xc6\x8b`i|+\x8b\x12\x8d\xff\xe3\xb8\xdb\xa0\xc3*\x08\xc7\xc1\xc3\'oWB:\x80&amp;\xd8\xe5\x84a\xc9{x\xe1\xc12I\x80U\xdfR\xac)\x0f\x89\xaa\x90\x12MD\x91\x7f\x1a\xba\x0b\x84\xd3\xf9\xfcm4/\x8b\x8c\x92\x12r\x00\xdah\x97$\x84\xc2\xf0%\xe5\xd0\xeb\xc3\xb9T\x01W\xf4\x86Rs\xb1\xfc\xf0\xb7$\'\xd0_q\xa7\xc2\xa4J,\x8a\x91\xb0\xa0H?)!\x81a\xc9\tC\xecy\xfai\xe5\x81\\\xaa0\x9c\nw\xb5\xb3\x00\xeb\x91&amp;)\xe5\x1f$Y\xf3NH\xf6\x95\xa4\xb4B\xec\xbfX\xdb\xe1\xdd37\xf1\xf7/`X=^\x13\x0b\xc3\x88\x8f\xf0\xa2\x90lo.\xd5\xdd\xa5\x00\xb5\xebX\x82\xb5\\7/\xa5\xe9j\xdeu\n\xa94|k`\x95\x067;\xb3\x00A\x19V{\x12\x86\x1f\x04\xc20\xf2\x03\xbc\xe6\xd8\x1d.\x94\xf7\xd8x\x9c%\x9a\x9f\x1e\x08\xeb\x8f\xca\x979\xe0L\xf4j:\xba\x93\xab\xc3\n,L/\x8ddc\xf6\x02L\x0fxV$\x0c\x83\xa7\xe3\x87\x8f&amp;r\xa9\x02\x0b\xf0-\xeelQ\xfd\xa1\x9e^\xea\x9b\xf80\x7f\x10\x89\x8dOa\x94\x16+%i\xcaMH\xc4\x9f\x9b\xb3*\x89\x02g\xc2lQ\x0e\xa5I\x97\xb6La\xdc\x86o\x05x\xbb\x91\x85\xc5W\x1cq7k\xa6\xf6i\x89cK\xc8\xb7\x02\nV\xec\xc3/\xc9\x95\xa4\xb2\x02\xdf\x93\x00g%\x9f\xe2\xfckD5\xeac\xc1\xa4k1M\xba\xf2|\xb8T\xbb\xb0\xb3\xb6\x16\x17\xdc\xea\xb4\xd6\x94\x8d\xbcW\xcc\xcc{F\x1a\x18v ?\x19\x18\x96on\x02fv8\xeb_\x90N\x05\x13\xa10\xcc\xfd\x84\x84!\x87\x0b%m\xc3\xce^q\xb5\xb3\xb8\x91\xcde\xa4\xfb\xdc\xc8/bv\x9aZ\xb8\n\xe5\xa5\x05\xce\xb1cV\xe4\x91\xbd\xc2\xea\xb3\xf7\xe8\xee\xc1\xe7\x82\n\xc3\xfc/h\xd2u\x89\x0b\xe5\x87\x96U\xeb\rg\xbb\x17hN\xe8\xbe\xea \xba!\x0eo\xc1\x93\x98"\x92\x17W\x14\xde\xd4H\x00{/\x0fx\x90p\x1fd*\x0c\x97)\x87\xde\\\xc9\xa5\xf2\'\x13jg\xcdZd\x06\xe9Ak\xd8\xb7\x99\xc9\x8b\xa3;Db\x02\xf4hC\xf3n|\xbb!TPa\x88\xddK\x93\xae\xb3\xfc\x1c:\x8fL\xa8\x99\x15+\xb7\x18\xf8\xd0\xd5\xd5\xae\x05=,\x92\x97\xfat\x02^\xc7\x04\xd8\x80\r\x96Ba\xa0\xc2U|4?\x87\xc6\xa1\tA;;+\x9a[\xbd\x96\xbdp|\xef\xe7\xa1\x93\x17/\xb4\xcfz$\xb9\xce\xb5\x81\xb3$\xa1_\xb8Z\xea\xcb\xcf\xa1\x0b\xe8}\x01\x87\xe6v\xd67\xd7W\x1bk\xc7\xd3~=\xfb\xb3\nCOw\xb10\xb0\xc2\x15s!\xd3\xe6C\xe3*|_5{2\x9cI\x18&amp;\t&amp;]?Q\x0e\xcdJ\xe1\x0b\x03\xbe/0l\xcdOU\xb2\xfeDv,\x12\x06V\xb8\x82\xdb&gt;Ba\x80uOU\xb3\xab\x02\xab\xdf\x9b\x00\xbf\x0b\x84a2\x15\xaeBV\xf0s\xe8\x14\x14\x06\xf8\x00\xaf\xac\n,\xb2c\x910,\xfa\x1e\xd8\xba\x86P\x18\xe0#\xba\x12\xb1\x9a(\x0b\xc5\xcai\xa2%\x899\xe3\xa9L\x10\xc1\x17\x066\xaa\x1fb\xd9Wq,VN\x13\x08\xc3\x91_)\x87\x06\x8b\x85\x01B\xb5\x8b\x19\x88\xd5CI*\xb2c\x910\xb0\xc2\x95\xba\xd8\x8f/\x0c\x07Ao\xf7\xc38\xcd\x0c@\xa9F\xe5\xb4\xdd#e\nW\xd3\xee\xf1\x83\xfd\xde4\xd0_\xccP\x16\x8b\xd6\xdfD\xc2\xc0\nW\x07w\xf1\x85\xa1\x98\x9e\xae\xdeb\x86\x92X\xf5;\xe23:/\x10\x86q\x13\xf0\x8b\xb7\x0e\x17\n\x03\xa8\xb7\xe8]\xa9 \x96+\n\xd8xA\x85a(+\\%\xf1\x85\x81V#\x8d\x163\x10\xab\x992T5i\xc3\x8e@\x18F\xfc@94FF\x18\x0e\x1b\xee~P\x0c\xab\xff\xdbba\x98\xf5;Ui\xef\xca\x08\xc3\xa7F\xb5\t\xa5\xb0ZQ\x85a\x88L\xe1jy\x98\x8c0,6\xce\xbe\xca`\xb1\xf57\x810\x0c\x98Do\xd9\xc3\x00\xb10LXc\xfa\x82(\x81\xe5\xd9]\xb0\x87AW\xb8R\xdf\x10\x08\xc3Q\xfcp\xfa`\xd3\xab\x96)\x80\xd5\xef]\xb10\xb0\xc2UF\x82\x9c0\xf0\xb2/b5\xb6\x92\xea\x1d\x19a`\x85\xab\xdf\xf8\x93.\xef\x18\xb5N\x18\x94\xc7\xaa\xd1\x0b\xa7e\x17\x04\xc2\xb0\x8c&amp;]\x9b\xe7q\xa9\xc6\x900\xa8\x0f\xf1\xb3\xefl+\xb1h\xb3\x8a\xa8\xc2\x10{\x88\xde\xb2\xa212\xc2\xb0LX0\xa9e\xcdvt\xda\xe1+\x12\x06V\xb8\x8a\xdf(\x10\x86\x93$\x0cK\xf8W\xaeA\xd9\xefd\x05U\x1b\x19a`\x85\xabi\x9b\xc4\x15\x06\xd8&gt;WX0q\xefe\x05U\x1f\x12\x06\xc1\x92\xc4S*\\\xfdU&amp;\xa80P\xb0\x7f\xc8\xcf\xbe\x93?\x05pi\xf4\xe2PN\x1d\xc5K\x12\x9a\xc2\xd5\xea\x14\xb10\xac\xdd2@\xb8J\xfd\xae\x15\xc2L\xdb\xa2\x84\xc2@9\x14n\xf9\xc8\x08\xc3\x1c\x81\xec\x87&gt;gK\x95\x19\x9b\xa4D\xc2\xc0\nW!\xf9\xe6\x0bC\xc5M\xa6U\xeaNNV$\x86\xdeba`\x85+Q\x95\x96+\x0cz\xb2\xef\xde\xca\x9a|\xd5\x08Cv\xa8L\xf1\x7f\xa1\xa0J\xcb\x17\x86J\xd9w\xe8fUro\x08\xf0\x94\xdb\xf7EV\xb8\xba\xe6o\x910T\x0cT\x1d\xac,\x88 \xd6`^\xdf;\xd8\x8e\xabU~\x96\t\x83n\xa0rp\xb5\xab\x12,\x96C\x93\xd3\x05\xc2\xf0D$\x0cx\x93\xd9@\x05=\xab\x04k0M\xba\xf6\xed\xe7\x07{\x14\xab0\xec\x10\x0fT3f@\xf7\xaa\xc0\xa2\xb1\x0c\xae\x0c\x17W\x18\xd4\xe7/\x8a\x07\xaa\x81w\x07Bm\xe5\xb1X\xf1\x1fJ\x03\xc5\xc20a\x99\xcc\n\x0b\xca~U`\xd1X\x063\xa2\xf89t\xc3&gt;\xb10\x0c`7\x99\xb6dT\x01\x16+\\-\x9d"\x10\x86\x12\xfc\xf0\xdb\xb92+,l\xa5\xd4z\xac\xa6FX\xacpu4LN\x18\x86\n\x85A\'\xfbJc\r`\x85\xabH\xfe\xa4\xcb?\x98\xaa\xb4"a`\xd5A\xad\xec+\x8c5\xe4G\xd3\xad1f\n\xc3x}\xd9W\x04\xab\xc2\x95\xa7R\xf1\xbfd\x01?\xac\xd2\x980\xcc\x12\x0b\x83\x9e\xec+\x8a\xc5\nW&amp;[c\xb4\x8d\t\xc3/\x93e\xaa\x83\xe1\x95\xef\xae"X\xda\x82"\xdb\xb5\x1a4O\xa6\xc2p!V\xa6:\xb8M\xef\xdf\xad\xc7\xea\xa3\xc5\xd2\x14\xae\x8a^D\x18L\xab\x83\x8a`-\xd1\x15\xae\xd4\x99\x02a8E\x0b\xc22\xc2\x00\xef\x1b\xca\xbe\xf5X^\x0ck\xd6a\xe1\xd6\x18\x14\x86\xfbba\xd0\xccl\x0b\x8c\x06*\xeb\xb1\xda\x01\xcc\xd7\xecZ}\xb0\xcbra\xd8\xc1\x84\xc1dK\xc6\x7fG\xb9\xb3\x14\x81\xce\x9a\x01\xca\xde\xf7\xb1w\xba\x02v\x11j0\xfc\xc3\x1c\x1d\xa4\x8a\xb3\x96\x82\x97\xc6`/C\xa3o\xbb\xe2^A\x06k0\xd0\xc0Y\x12\xe0\xc6dm/\xbe\x06\x03\xf6\xee\xda\xc1\x05\x0bqUT\x94;\x0b&lt;=\xed\xff\x14\xcf\x08\x03\xfe\x06\x03\xd6\xbcK\xb9\xb3\xd8\x8cp.\x8d\xf1\x8cq%\xd4`\xc0QQQ\xee,\x15`\xc9\x8e\xaf\xc10\x03\xfb\n\xb2\xbe\xc3x*\xaa\xd8bW!\n\x9d%\xc3\x0f,E=p5\x18\x16\xe1k0\xe0\xa8\xa8\\\xeaO\xb8\xbajQ\x9a\xb6\xac\x99]]/f\xe1\x18a\xc0\xd7`\xc8\xc6^QyL\x03V\xea&amp;,\x94:\x0b\xb4/\xd1u\xf5t,f\xbb~\x8c\xc3\xd7`\xc0^Qy\x82V;\xdap3P\x0e\xd8\xad`\xdb%P\xccv\xbd\x8e=\xb1W]Ao0 W\xea\xdd\xc4\xeca$rM\x92\x1ets\t\xca\x1a\x86\xd7\xf8\xd6pb\xaf\xa8\\\xce\x1d\xa3xP\x04y&lt;\xd0\x82\x03i\xbc\x01\xbc\x86\x01\xd7\xf8\xeed&lt;\xd3\x89\xe0J]\x83\x9a\xabD4\x99\xe1S\xe2\xe0)\x89-\xb8\x1a\x0c\xee\xb8\xa7\x13}@\x95:\x1f/\x035\x81\xb4=d\xd5\xb6OR\x06\xee\x15d\x90\x06\x03\x8e\xe9\xc4\xac]\xf0\xe5\xc5T\x04\xe0m\xa47\xb3 \r\x06o\xdc\r\x06\\=[P\xa5\xce(E\xfd\xf54\xa0\xc5x\x11A\xf8\x1a\x0c\xa9\xb8\xa7\x13]\x96\x9dvu5T\xa7\xc1\xe2#\xf0\xcc9\xee\x06\x83\x1b|\x84\x01\x1bh\x02V\xea\n\\\x0c\xb4\x01R\x86\xc0\x18\\\x82\xbb\xc1\x80\xabg\xeb\x03Z\xe5(\xc0\xc3@+\xc0f\x86c\xf0\x11o\x83\x01T\xa9\xcb\xea0\xd0\x10\xc8\x80&amp;\xca^\xe3\x18a\xc0\xd1`(\r\xa2l\x16\x85\xa8\x04f\xce\x81\xd9O\x854\x18bq7\x18T%\x19h\r\x0c\xd0\xf7\x85y\xaf\xc1\xb1\xe9\x03^\xa9\xeb\xab0\xd0\x1e\x98\xcaCV\xaa\x11\xd5`x\xe4J\xd9,\n\x89s\x9e\xf0\x84\x0fn0\x14\xe3k0\xa81\xd0\t\x80f\x88\xa1-\x08H\x83a\x19\x8e\x06\xc3\x19`\x83A\x82\x81n\x004\x9f\x0e^\x80\x87\xb7\xc1\xe0\x05\xac\xd45\xe8{2\x1a8\xe1W\\\xc3\xb3\xfe\xc8#\x1dX\x86\xf2\xb10\xd0\x17\x80\xce\x9b\x88\xc43\x14N\x9b\x06\x03q\t\x1f\xf7\xdc\xf9\xf4\x87\xc0\x06\x83\x01\xc3\x00\x00\x16-`#\xff\x1e\xf6\x18\\\xf6\xc5\xd5\xd5\xd2\x94a`\x00\x17#\x8e5\xcbM\xdbi\xd8` \x0c\x8c\x1d\xb0\xcd\x1d\xf8\xcc\xa4m\x83\x81\x88\tvg\xcc\xf6\xa8\xef=`\x83\xc1\x8ca@\x01h9\x02j\xeb\xbd\xf4\x02\xed\x1b\x0cD\x94\xacZ\xa8E\x17\xb8\xc10\x18\xce\xf7\x02u\xd6`C\x98\x1e\xd3j\x81\r\x06]\x86\xc1\x00\xa4\x81M\x8a7\xe0U6\x01\x8f@\xdbv\xb8\x19\x06\x07\x00u\xd6^\xad\x846\x184\x19\x06\r`\x01v\xd6\xdc\x13\xcf\xfd\xa4l\xdb\x0e\r\xda\xd2\xa0\xf3\xa4"\xc0\'(\r.\x00jR\xd0\xbf\xc1@D[\x9aOH\x91\x8da\xa4\x00\x00|\xbaw\x8f\x9b\xb2HY\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -614,6 +700,14 @@
       <c r="D11" t="n">
         <v>58766</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xfe\x1d\x12\x01\x01\x00\x04\x04\x04\x0b\x0b\x0b\x03\x02\x02\xfd\xfc\xfc\xff\xa5\x00\x02\x02\x01\xfe\xfd\xfd\xf7\xf7\xf7\x08\x08\x08\xd7\xd7\xd7HHH\x14\x14\x14eeeppp\r\r\r\xf8\xf8\xf8\xb3\xb3\xb3\xf1\xf1\xf1\xfb\xfb\xfb\x18\x18\x18...\xff\xa4\x00\xff\x1e\x12\xf9\xf9\xf9\xda\xda\xda\xdb\xdb\xdb\x1a\x1a\x1a\x06\x06\x06\xed\xed\xed\x07\x07\x07\xb9\xb9\xb9\x10\x10\x10NNN%%%\xaa\xaa\xaa\xb0\xb0\xb0\xeb\xeb\xeb\x86\x86\x86\x12\x12\x12\x1c\x1c\x1cSSS\xd5\xd5\xd5\xe1\xe1\xe1\x97\x97\x97\xe3\xe3\xe3\xc5\xc5\xc5\xcd\xcd\xcd\x1e\x1e\x1e\n\n\n\xc8\xc8\xc8\x94\x94\x94\xa7\xa7\xa7###\xf4\xf4\xf4\x9d\x9d\x9d\xd3\xd3\xd3\xdd\xdd\xdd\xa3\xa3\xa3\xca\xca\xca???444[[[\xcf\xcf\xcf\x91\x91\x91\'\'\'jjj\xf5\xf5\xf5\xac\xac\xac\xf6\xf6\xf6\xe9\xe9\xe9{{{\x81\x81\x81KKK666000\x8d\x8d\x8dAAA\x83\x83\x83\xfd\xa3\x00&lt;&lt;&lt;vvv\xfa\xfa\xfa\xe7\xe7\xe7ccc\n\x05\x00\xef\xef\xef\x0f\x0f\x0f\xf0\xf0\xf0CCC\xfb\xa2\x00gggsss]]]\xbf\xbf\xbf\x9a\x9a\x9a\xd9\xd9\xd9\x89V\x00\xc2\xc2\xc2\xf5\x9e\x00\xe5\xe5\xe5888   \xb6\xb6\xb6xxx\xa0\xa0\xa0\xf3\xf3\xf3```lllXXX\xff&lt;3\xbc\xbc\xbc*\x19\x00~~~nnn)))"""%\x16\x00\xf0\x9a\x00EEE:::\xff\xa0\x9b\xfe2(\x0f\t\x00\x1c\x11\x00\xd1\xd1\xd1\xaf\xaf\xaf\x88\x88\x88\xff-#8"\x00\xe0\xe0\xe0PPP\x9cc\x00\x15\x0c\x00UUU\xff&amp;\x1clD\x00\xdf\xdf\xdfuI\x00\x8a\x8a\x8aF+\x00.\x1d\x00\xe0\x90\x00\x80P\x00\xffA8\xff\xc1\xbe+++www!!!\xa5\xa5\xa5\xbdx\x00\xdb\x8d\x00\xff \x16\xff\xbc\xba\xfe\xf5\xf5\xae\xae\xae\xb2q\x00=%\x00\xe5\x93\x00\xff\xd3\xd13\x1f\x00\xff\xdc\xdb\xfe\xbc\xba\xafo\x00\xc5~\x00\xeb\x97\x00W6\x00^:\x00\xa3g\x00\xd4\x87\x00\xfetm\xfe\x87\x82\xff\xc7\xc4b=\x00f?\x00\xa9k\x00N0\x00\xb7t\x00\x96^\x00\xcf\x84\x00\xff\xb1\xad\xfe\xce\xcc\xfe\xf9\xf8\xfe\xeb\xea \x15\x05\xd6\x89\x00\xc1z\x00\xbav\x00\xfe\xf0\xef\xfe\xa7\xa3\xfe\xb5\xb2\xff9/\xfeH?\xcc\x83\x00\xfe5+\xffSK\xfe\xa8\xa3\xfe\xd6\xd4\xfe\xa3\x9e\xeb\'\x9e9\x00\x00\x005tRNS\x00\xf2\x1f\xf9\x9e\xfc\x05\xfe\x01\x1b\r\xe2\n\x08\x12\xeb\xb7\xda\xd4&amp;\x8cB\xce\xee\xc6*=9\xf7\xacU\x84\x17_\xe7H|\x93\xbfv\xb1\x9ch\xa5\xbb2\x98RNn/[\x9d\x8dk\x940\x00\x00\x17\x99IDATx\xda\xdcZiL[W\x16.$\x06\x02\x01\xb24doh\x9b\x94\x99\xa6\x93v\xa6s\xef\xc56\x96\x8dY\x8c\x8d\x8dX\xcd\xbe9\x01\x1b\x1cv\xb3\xef\xbb\x08A\t\x08\x02\x08\xb1\x05B\xa3,R\x92\x91\xd2\xa0\x89\x94(\xca\x9f4\x99HY~T\xc9\xcfN\x7f\xb6\x99?3\xd3j\xd6\xf36\xfb\xd9~\x0e\xc6\xca\x9bJsd\x99\xf7\xee\xbb\xbe\xf7{\xe7;\xf7\xdcs\xce\xe5\xbd\xf7\xfeO%(`{X\xa4\xbf\xff\xee\xfd\xfb\xf7\xef\xde\xed\xbf-284\xe0\x17F\x14\xba\xfb\xc3\xf7?\t\xf1\x93P\x12\xc8\x89dK\xf8\xae\xe3Q{\xc2\x82~\x01@\xdb\xbe&lt;\xb1og\xf8\x16\xecY\x02\xfdB"~u\xf4`\xe8\xff\n\xd1\xf6\x03Q\x87C$\x8e\xf9e\xb9\x15)#\xf1\xa6\xe6\xd5\xb1\xb1\xd5\xb5\xbc\x89\xfe\xb6\x04\xb9\xd4\xf1\xd4o\xdf\xb1/\xfd\xc5V\\\x90\xff\x17\xc7\xfd\xd8\t\xd5\x99)\x13\x89\x83\xba\x93\xc64\xe4"5\xf3\xe6\x86\x1e\xd3B~\x89\x92U\xdc\xae\xa8\xdf\x04\x8b\x07*\xe0\xe3\x9d\x81\xf4&lt;JY\x85\xc6\xacu\x82B@\xe0\x0b.\x98\x0f}\x7f\xb6\xf6\x86&lt;\x86Q\x9d\xe4\xc46\x91t\xb65\x9c!-\xbe\xe1d\x91\x02\xb9\t\x0f\x13}\xc3\xe0\xec:e~RJ\xffn\xcb\xae\x83\xa2\xc0\xfa5\x8c\x9d\xaf\xd1\x15\xf1\xa1\xa8\x8a\xea.?m\xed\xd5$6\x9b\xf2\xfa\xfa\xee\xae\xad\xb6/\xdf\x99)\xb4&gt;\xe8b\xf4\xc5\x88\xbe\xae\xac/\x0b\xccL\x1c"\xf7`\\\xed`\xceX\x97\xd3:\xb6\x90\x1b#\xb8\x0c\xa5\xd9\xd5y=U\xe6?\xa6\xd9\xd5gQ\xe2}"\xd9\xfbN\x8c\xe3(D\xfa\x95\x93\xbd\xf9\xd8\x1bQ\xe7uvkiX\x170\xfeT$\x93?\x82\xf1S\x98\xa3\xb8-W\x89\xbd\x16u\xe6P\x11!\x1dr|h\xbbH\xb0\x80\xc51x\xf1f\xbc9\x91\x1b\t\xa9\x97\xe1ODs\xed\x81\xb8Z\x81\xc8i\x8f\xf3\xab\x05\x9b3c\tY\xc2\xf8\x88h\xce4\x04K\xcb\x11\xb1x\x82U5(\xd8&lt;\xa0"H\x83\xf1\xe7\xa2\xf9\xd3c\x18\x7f\x8dPl\xb6\x07X\x85e\x82\xcd\x89`\x8f)\x18\xef\x16\r\xd6\xc7\x18\xf7\xc2Jls\x9fZ\xd6\\0\xad\xf6\x00\xab\x16\x91\x9al\xbcW\xbcp\xc7_\x82W\xc1O\xc6\xbb\x19U\xe2)B:=i\xcb\x86H\x06\x16\xcbkQ\x12v\x08\xf7\x81\xb6V]\'&gt;Mm6\xcb\x1e`)\xbb\x11\xb2b\xbcU&lt;X\xc1~\xb8\x11`M\xb9\xd3\x84&lt;kK]\x83H\x8e\x88\x0b\x11`\x85\xe3~\x00p\xc5y\xa3\x89\x9f\xd3\x92\x8e\x16]C\x820\xac\xa4QD\n1\x8e\x121\x02\x0c\xc7M\xa0-\'X\x86Z=RY\xdb\xdb\xa4\x9eV\xe2y=\x02M\xe2\xdf\x8a\xa8\xad\xbdx\x01`-\xf3&amp;m{\x80V\xea\xcd3\x9a{\x06\x8c_\n\xc2\x92k\x11\xd1a|TT\xdb\x9a\x00\x12/9\xe6,-j\xb9+\x97\xb1ArR\xa6\x10\xac\xacqD\xa61&gt;&amp;\x1e\xac\xc8-x\r`\x99xvu\x9d\xde\xb5\xa5\x99\xf7\x1e\xea\xe6\xac6\xebtC{\xb5+\xae\x0cD\xea0\xde!\x1e,\xd8\xab\x97\x81\xc4&amp;\xe7i\r\xcd\xb5\xe9z.\xe4CDo\x99Jpz^\x80\xc89\x19\x0e\x17\xcf\x9dn\x05\xb3F$M\xce\x9b\xb3\xf2\xe6\xd34\x828Hl\xd4W&gt;\xc4\x87u\x06\xda\x060\xde/\xdaB&lt;\x84\xb3\xc1Pl\xbc)MF.n\xe7\xc3"*\x13\xcf\xfc\xc0o\xa1\x87".E\xe00\x0f&amp;\xed\xe5-\xfe\xb3D\x10\x16\x1a\x1d\xe0\xba\\\xcf\xa0\x1a\xea\x94\xa2\xc5[A; v\x81Y\x1by\xda\xba;J\xb8\xb4\xc7\x01\x8dBge\x83\xfc\x8a8\xba\xa1#\x01K\x0e\x88\x03\xeb\x03\x8c\x13\xc6\x11:\x97\xc47\x9c\x1c\xc4\x01qI\xc8\x18uU\xcc\xb3\rUJ\x1c!J\xa2\xb8\x1d\x82\xc0%\x98\xe0\x92\xd32kwh\n\x8d\xd6\xd8Nk\xda{\xe7\xba\xa86:\xb4.]\xb1\xe3|\x0c\xdb\xa2\x08\xb8\x02vA\x9c\xa9%\xc4x\xde\t\xd6\x08K\x1bQ,\xc5WT2~5w\x0cB\xebD\xb8X|@\xec\t\x9cY\x86\x03?|\xe7\xa8~\x07\xa8\xfe\x04)\x8ck\xf8\x90\xc2(\xaa\xeej\x05o\xf3\x965#\xb4\x06\x17\x9aS\xbcT\xb7\x18\xe3\xc0#&gt;;\xaf=\x07\x04*S\xfeG\xb7@\xaa`\x03.\xe6\xa4\xce\xb0F\xa8\xd4\xdar\x815p\xf9\xb5xM\xed\\FQ\r!\x19\x9d\xcb\x13\x06\xf5\x05\x8b\x82\xb37E;t\x88\xd8\x13*P%\xfb&lt;\xd8\x0b\x97)\x89\x88\xda\x1f\xb6= \x88F\x17\x14\x14\x1avp\x07U72\xcc\x82V\x92]\xb7\x96Ihc\xc2\xc2\x98\xa4\xa1\x97\xb14\x04\xfb\xd2Tt\x1a\x94\xcbl"\x0e\xb8\x96e\xd0-&lt;*28 \x88\xad#\x86\x06G~\xb1u/\x0e\xdc\xe6\x8d\'\x079\x14\x1e\xb2k\xdf\x8e\xc3\x87w\xec\xdb\xf9\x11]9\x92M%\x03Y\xaa\x1b\xae\x1b^\x81\xaa\xac\x84\xde\x90\'o\x8f\xab\xdc\xeb%\xda\xce\xa4\x11G\xa1\xc9B\xe7\xe2\x92\xbd!\x11\x9f\x1d&gt;~\xf8\xb3\x08\x18\x9b.\x94y\r\xcbE\x12\xa6nS\xc3v\xe5\xb9&gt;0X\xa8\xc0^\xd9\xf8\xb4\x1by\x90\x96\xb6\x91X\xfb\xcdJ\xd5\x90L\xa8r\xe8\r,\xe9\xcb\xb2\xb1\x1b)\x99rz\x00YRu\xe3da\x07\xbd\xde2n\xba\rx\x81\x8ee.:\x17\xb7X\xd2\xd8\x86\xba\xdc+*^\xa9)\xfd\xe1\xdd\x01C%\x15wH\xd5%\xd5\x0b\xa6\x1e\xdd\x88\x97\xb0\xe2\xe8!\xd3\x8c\xe5\xb3\xb3\xe5F\x05\x17\x1bh\x0b*=\xe5\xad\xed\x84 \xcf\xb2\xa4\x8csm\xea\xe8\xae\x8f\xab?\x9b\xcc\xdc\xc4{\t\xeb\xa4\xf3{\xd3\xa2\x9a\xcb\x8f\xf1XeH@o\x93X\xc3\xf0[\x9f{\x0b\xcb\xed\xe5\x90m\xea\xb1\xd4\x15\xcbuK\x0b#\xedt\x86\xca\xdbyX\x12\xed\x9f\xd66\x85K\x1b\xe2w\x8a\xf7\x9eDcY\xe7\xb4\xadn6\xae\xce\x96\xd30l2H\x85t\x94\xc3\x92[\x8aq\x93\xeam\xea0\xaa\xcb==\x9a\xdf\x1c\x89\xb3^\x14\x88\x06\xf4\xf4\xc8T\x01\xa7d\xe5\xad4\x19\xcc\x1e\x1etNn\x8eDo`\xe1ij\xe4\x93\x94\xc9\xc9\x8b\xdeF"Z\xcc\x11&amp;Q\x97\x95\xb89\x12\xd3\xbd\x81\xb5\x0c\x13t-\xd0\x99\xf3Y\xf7J3\xaf\xa1\xf42[\x14wF[\x90\x85\x13\xc9\xbb\x875\x04\x0b\xb4\x1ds\xb0&lt;\x8b&gt;\xe9\xb6PsU\x0c]d\xda\x0c\x89vX\xed\x19\xb4X\x06\x1f\xbb\xfb\x87L\xa4\x1af3D#r\xf7)\xf6\x86Yu\xb2\x00\x89\x051t\xed\xcb7m\xc9\x8a\xd8\xc2\xbf\xaa\xc1\rWeG1\xbbD\x13\xb4B\xa7\x18\\CO?\xef\xfc\x80\xeb\xa1\xa37\x11\x9fI&lt;M\xd0\xed\x16\x9b\xb9\xa5\x1bU\xb9\xd5\xda\xeerWy\x8eS\x0c\x9e\xa6\xd8\x06mi1r\x1cm\xb0\xcf_2%\xc5M\xc1\xe2\x91\x88a\xc8\xac\xb6\x9b\x8dM\xd5\x86&amp;6?L\xba\xaaq\x96,\xa5\xcd\xe1\xa3\xcc\x17{\xdb\x9b\xef5O\x0e\x7f\xcd\xd9[\x86\xcc&amp;hWl\x01\xd37m\x15\x13t\x9e~\xcdQ\xcbp\x7f.\xddt\xd9\x99\x0eme\n\xb3\xf0\xceY\x06\xfby\x01B\xcc\xea,\xad\xadK\x8bZW\x12\x0b\xb8n&gt;\x92(U3\xb0XK\xd1\xf7Po\x99G\x9c\x92\xaf\xf2\x98\x19*\x14+Z\xcdr+\x04\x16\x00\x84\x0c\xa5\x199\x91H\xd0\x92\xddL}\x83%{\xda[LH\xe5\x13S\xdf\xdarA7\xf5\xbe\xf3\x90h\xa9\x8d\x84/\xd3\xf7\x14D\xdfzM(\x90\x92\x83ghO\xe8\xd4QRcg\xb0P\xcd\xafBo\x1e\x96\xb4\x13\r\x83m1\x13\x96\\\x1fX\xaeg\xd2\xd2\'THa\x9f\xa5\xa0||\xf0\x9a\\XF\x14\xd6\x12\xe6JY\xe5jW\xbe\xc2\x92j\x10\xb9\x02$2\xb0\x96\x15fu\xf6\x1c\x9d\x95\xe6\xeb\x11):\xad\xb7\xb3\xa2\x8f\xf5$Z4\xca^\xf5\'\xb2\xdd\xab\xf8j\xf5\x85\xc4\x92\x15\xd2\x9d\x04$2aj:)\x07W\xc5p\x03q=\x1a(\xe03\x896\x12M\n\xcb`\x8c\xcbQ\xc2\xa6#\x88!\x15d\x85,\x89\xb2\x8b*TkO\x04)#\x9e\xa9\xacC\x9b\x90\x1c\x19m\\:5\xf6\x15\x16\xe7\xb7\x00\xd1"\xf5\xd5\xf3\xe4\xc9\x1dp=\xe9\x8ej\xdaU\x18\xed\x9c\xf2\x9e\xebF\xf3\xfa\xd1W\x9c\xfc\xfc\xbd\xcb^\x93\x9c\x95\x83\\\x18\xf4q\xf3\xa9%Z9\xf8-V\xeayE\xc0|jQ&amp;\xc8n\xbb\x92\xf8\xfd\xfdhF\xd6\xbfuSWu/rC\xe5\x13\x890N&gt;\xa5--\x95\xe9]\xe6\xd7\x00q\x07\xa2\x9e\x99\xf8\xd3\xfe\x95\xc6\xf5\x8cFu\xff\x15\xb5V_8\xc1\x9aXs\xb1+\x1fH\xa4a\xf5\xab\xd00\xcddi\xde82.\xf2\x87+\xa7K\xa8\x15|\x12\xff\xf5\x8a\xfa\xfe.\x95\x82\xf5g\xea\xf2\xc7o\x9c\xa2\x8a\xe6\x11\x9dZ\xe0\xf4l\xf3$&amp;\x19\x89\xb1)&gt;\x96Z\x89}\x88X\xa9A\xb9\xc3\xb18B\x9dH\xc9\xe6\x89\xbd\x8a\x84n\x01q\x04\xfde=::\xf5\xa7\x17\x84"\xf4\xb9S\xd4wU\x1e\x83\xdf\t,\xdc\x9c\x86\xba\x87F\n\x01\x96\xf4"Bc`Su\x13\xccp\x16D\x1f\x0e\xb7\xf2H\xba\x15\xbd\xfew\xf0\xb1\xdf1\xcaR\xfc\xed~\xf4k\'\x12{&lt;\x9c5z\x07\xeb\xf7X\n\x0b?\x83\xf9\xd5\x0cdR\r\xd5j\x88\xaa\x16\xd3\xd0\xfc\xf9;\n\x14\xc7\x04$V\xe6Dj\x88G\xe2-\xa0\xef\x9f\xaf^\xfc\x00\xb0\xbey\xf1\xef\x9f\xe1\xcfs\'\x12\xaf\x08\xc1\x9a\x84\xc77\xbc\x81u\x02c\x1bA\xf5\xec\x9ex\x05(J+\xb26\xcc\xe4\xc1{\xd5\xe6kI\x06\xe3%\xcc\xc0\x1bD\xa6\xb9\nGI\x17`\xa5\xa6&gt;[\x7f\x04$&gt;Z\x7fF\xdd&lt;w\x8a\x0b\x05a]\x82\x1e\x8dX\xb21\xac\xf7!\xa3!h\x9e\x8b\x01F\xccL\xa8Y\x9f\x9d\x8eV\xf2\xef\x98\xd8\xf5H\xc1\x1a\xc48\xbb\xc6Q\xc4\xa5\xb4\x95\x1a\xcd\tu\xf3\xdc)\x8a&gt;#\x04\xeb\x0c\xfcr\x01K"7\x84u\x14c\xd8T\x8d\x8es\xb7\xc6\xd6\xb9S\xc9]\xc6\xa9\x894\xd4b?\xa5\xb62\t\xa2l\x9cg[\x0eL\xac\xbcv\x825)\x04\xab\x17z\xa4`I\xd8\x86\xb0&gt;\xc5x\x90\xa0\x0e\xfb\xaa)^\xeac\x03\xf6*\xa2\xe8\xe3Z[@Ae\x00\xeb\x9c=tg\xb4\xf5\xec\x1f4\x89\x7fHu\'\xd1$\x04k\x10z,b\xc9\xc6\xd5\xc0\x0f0\x9e"Ho\xdfhf\x08b\xaf+\xd2H\x87\x81m\x9d\x05 \x94\xb6\x929\x12iX\xa9\x8f^\xbd\xa1M\xfe\xcd\xb7?\xa5F;`\xd1k\xa2_\x08\xd6E\x08-\x13\xf0\xa1\x8d\xff\'\xee \xc6&amp;\x18\xe9\x1a\xc7\xe18m\xdb\xb4h\x08\xb1\xb2\xb8\xce2\xb6\xa5\xeerl&gt;\xb7\xa2\xef\xff\xa0\xb0;\x887\xffy\xe6\xec T%B\xb0t\x08u\xc8\xb0\xdf\xc6\x95q\xff@\xea\x84\x95pu\xbf\x89\xd6\xd6\xd6b\xd6;\xe7\xc2\xf5\x19\xfa\xb0 \x86\xfaG\xa8^H\xc4\x14\x0e\x87yk\xfdG\xce\x9d~\xf5_Z\xae5\xa8\xa9\xf4\x0c\x0bL\xc5\xae3V\x9d\xb5\xb6\xdd\xdd\x99\xae\xdb\x9d\xd9\xed\xdavf\xdb\xef=\xcd\xed$\x82\xe1\x16C\x06\xb9# HD@\xe4*\xa8\xc8EA \n\x044\x8an\x88Ju\xb1F\x81\xc04\x11\x06\x16,"\x97\xaeu\xe1\xc7\x02K\x07\xbc\xfd\xf0&gt;\x9dz\x99vf\x7f\xf5\xfb\xceI\x80$\xe7\xc4\x10\xf1\x1bf`\x92\xcc9\x0f\xdf\xf7\x9e\xf7\xf2\xbc\xcf\x1b\xe2N\xbf\xfd;k[\xbb\xe2v\xe0\xe0E\x85Ky\xba\xfej\x805n\xa8#}\x98\x9b\x1dsYO\xb7\x12c\xc1~\xeb\xc4\x82\xaa\xf4\xbf?0\xc1\xe7\xcf\xd6\xe0\x83q\x91\xe0\xb3\xe5\xcc\x8b~\x11a)\xb9\xc5\x08j\xa6\x05\xfa\x99\x1b\x0c\xf8\xcf \xa8\x18Q\x17\\\x80J\xc2\xee\x86\xedSt\xdb`\xd9B\xf5\x0f\xd6P\xfd\x1fk\xa8\x0e\xae2&gt;0\x1f$\tv\x1c\xa7\xce\x0b\x9fz\x8e{]\xff\xb5\x90\x91\x88\xa8\xfd\xfc\xa8\xce\x87\x08.S\x8cJC\xf0\xd5\x02Xd\xfd{.\xb1\xf9\x97\x95Z\x1e\x9c\xb1\x040\x84S\x16\xd7\xa5\xb2\xf0\x1b\xfftO~\xb3\x11"S\x11uV\xc8\x87*\xdd\xbf\xd9\xaf\x9e\xc0\xaa\x80$\x89\x1d\xd7\x80\xfe\xf7\xd7\xbf\xd9\xd6?\xbe%\x9e\xed\xc5\xb3&gt;s\x1d\xf3\xa1\x1b\x9c\xd7#b\x8f\x1d\xe0\xeb\xedV\x8bU\x9a\x82\xa8\xa8 &gt;Tg\xa9\xca\x88`\x02\xab\x08\x8e \x87\xdd\xb2[\xf5\x8d\xed\xaf\xf4\xd2},9\xc7-\xfa"%\xd49w\xfc\x03\xa3iK@\xa4\x01\xc8-\xc6R jG\x07Co\xcb\x99\xdc\x99\x17VxP\x8f\xe9.\x94\xb3\xa8\x12#9\xaf\x96\xcfd\x93\x1b\xdci\xfa|\x0cp\x08Q\x12n\xf1_z8\xceY\xe4]\xc4\x83\x86\x89\xc5\xfe\xf6\x84\x91\xdd\xca\x8c\xd5\xdf\xe9\x81\xcd\xd6V\xc1\x1e\x01/\x9f(w\xc7?0\xfe\xf4(_\xacHN\xc1\xd7iR\xd6\x10X\xf1\xd0\x89\x1cwk\xce\x89m\xfa\xda2\xf3\xa0\x1d\xe2\xc2\xd8\x17\x14\xe9\xdc{\x8f\xff\xafR\xb1{b\xa5U\xbe\x10]\xc3D&lt;gT\xbd\xe4\xde-\x97\x98\xa0RE8&amp;\xa7C\x0cKT\xfb\xe7^\xcbM0\xbf\x9c\x10Cy\xa9\xf5Un\xa7\x05\x82z\\\xa8\x01|\xeeV\xebn\r@8E\xddp\xde\xf6d\x96\xd4\x0bm&amp;\xbd\xfbT\xa1\xe88\xb5`\x8fd\xc1\n\xff\x9c\xc6mV_.0\x1a\xee?\x11\xd9\xf2\x8b\x8bJnXE\xd8\xa1\x1d\x04p\xaf\xfb\xf9\x05C\xb9\xcb\x9cl&gt;\xf9\x06s\x8f\x94B\\\xe5\xa7^\x8f\xc5\x9b5\x0f+|{gD\x90-\xbcL\xea\xc7\xee\x0f\xd3\xb4^\x1a\x11\xb0\xc9&amp;:\x05\xeel\x0bI\xda\xc0\xd7=y\x1eNm\x0e\xe0;\x16:\xd9\x15\x83B\xd6\xb1\x07\xa5\\\x12e\x80_\xa2\x15\x96:s\xc7\xed\xb9\x807\xa9\x9f5\xd1*\xfa\xfe\x10\xad\x99$\x0f.I\xccb\xfcx\xce\x10\xbf\x19\xe5\xb6\x9e\xe4W\x00\x8d\xf8\x8e\x0e\x9e&amp;"\x8f\xb5\xa1\xd4\xa2\xb4\x16\xe9\xad\xed\x99\xc2\x10ba\x12\xff3\x05s\xa9\x99\xc088NcL\x86\x91\x07\x03\xf7h\x83\xd8L\xf8U5R\xf3\xb9@\x116\x8a\xadn\x0b$\xbc\x01\xda0\x84\x9dNvE`\xc9N^\x12e%\xa0-\xa1\x05\xf8oEL\xe8\x02\xf2\xaf}\x8c\xa61\xa4g\x93b\xb1V:H\xbf\xd4\xce\x10\xf3\xcc9\xce\xab3N\x0e\xa3\x88\xc5\xbf\xeff\x0f\xdf\x0b\xa47([\xf1c\xdd+\xb5\xd59\xed\x96\xa67mB\xd4\xf6\xe4zJ}=v\xc1\'\xa6_\xeah\xd5\xf8\x93~q\xff\xc0\xd3\x91;\xd3}\xf4\x8c\x919\xc6\xed\x1d\xfc\xbc\xbe\x0cW\x8f\x00\x7ft\xb3\x8b\xfe\'&amp;\'\x95d\xd9\xd9\x15\x0b\xab\xb8\xb1\x84\xa8\xba\x15\xc91\xf1U"\x92\xd8Y\x86~4\x92\xad\x9a\xd0\xa94}=\xda\'\xf7\xc75\xf8\x1c5\xda1z\xa0G\xd7\xc7\xa4\x1b\xbck\'B[\xd2\xdd\xb5xl\\\xbe\xb0\x8fb\x1e][\xeb7\xdc\x96\xfe\xaa\x8b\xc9\xaf\xe0\x13\xe5\x85Y\xc7z[\xcc\xf7\x9e\x9a\xee\xaa\x06\xf1\'\xee\xd1\x9a\xd7\xc3\xc6\xd1\x11\x9a]&amp;\xc1\x03\xcd\x0b\xedk\x93\xd6U\xd2\x16\x19\xc5\x94\xc9+\xdd\x15m\xbc\xe7\x05\xb7\x08\x1d&lt;oW\x94]V\x8e.\x08\xdb\xf2\xf1\x01t?Q\xa9TC\x06\x83\x11\xb4S\x86\xc1\xf6\x19\xbcO\xb4\xee\xce\xf8\xe3\x81\x1e\x8bt\xe4\xf9\xf03\xb3\xa9\xc7\x15\xacP|\xa9\xfcE\xc8\xe0\x96\xafd\x04Qy6\xbb\xaa\xa5\xeca\xc5\xb4^\xab!/$L\xabhU_\xfb\xd8\xa0\xa0OwwV\x87\x0f\xcf\xa4o\xd7J\xb5C\xa3\xa3b\x93~\xc0`\xb9\'p\x05\x8b4\xed\x02\x00&gt;Y\xccxC%\x0e\xc9\xa1\xd6\xfc\n\xd9\xc3\xca\xde_ce\xbe-\x1aZe\x18\xb5\xf4&lt;\xd5&lt;7\xd0\xf4\x9d\xd1\x1e\xadqtl\x04\xe3{l\xd1\r=\xa4\x1f\xbb\xeed% B\xeb\x81\xb7\xdb\xb0~\xe7\x0b\xad\xd8\x953\xa4d\x84?r\x805\xc7\xb0\xcb\n\xc6Td\xd1\xf8G7\xf6P;&lt;\xf8\\\xc3\x98\x96j\xe0\x91\xc9\xd8?1"v\x85*\xf6"B{\x016,B\x0f\xb4\x12\x82\xb0\x0fW\xe3":9\x8a\xe2\x85E\x95\xb4\xebXP\x86W\xd3\xda\xc9W\x0c&amp;l\\\xb3\x8f-\xb3z}\x9fv\xda\xe5f\xd5!F\xdd\xb4\x18\x11\xdc\x17 \xb8\x8c3\xaa\x08\x88\x88B.`%\x8a\x7f\xc4N\x9dV=5\x0b\x1e\x99\xf0\x81\xd2\x9a\x07\x8f\xfa\xc5R\xd0\x9a5\xc6q]\xbb\xeb3l&amp;Q\x7fq\xa3\x10\xb8\xb4.\xc0\xb7\xcfL\xf7G\xae`Q\x17\x8c\x06Z33l\x1e\x1d\xc1;ex6\xd9\xaf\x1d\xd2\xcf\x8e\x9b\xfa\x86\xefh\xefN\xf5\xbbD\x15\x99\x88PY4\xacY\x8c\xa6\xeb\xbd\xf5 \xcd\xa3Pi8\xe5\x1a\x96\xa4ppv\xc8&lt;0\xa2R\x19&amp;\xee\x99\xdb\x07&amp;L\xfaQ|\x90\x0f\x07\x1eN\xb4\xbfa\xb3\x0e\xe2+]u;\xf2\xcc\xcf\x11\xe48\xa2\xe0\x80\x85z\x95\xe2\xa1)\x95j\xaa\xcf\xd2?4\xa6\xa3\xa7\x1eB\x8f\x86\xd6Y&amp;\x8c\xba\x01\xd7\xa8pu\x85\x14A\xe0\xf3\xd3E\xc1\xc2YD\x85\x15\x88KX\xb2\xb4H\xbd\xc6\xf0\x08\xc4z|\x8a:=\xc07\xd1\xf7\xe9\xc7\xd3}S\xfa7\xf4\xb9o\x871#I\x1b\x17\xad\xf5\x96\xeeFv\x13a\x9c\x87xn[\x87p\xd8&lt;\xfc\xda\xa4{\xae\xef\xc1\xc6T\xaeh\xe9\x1f\xef\x19\xbd;(~\x03\xac|\x8a)\xb4\x17;\x92\xf4[\xf6\t\xe6\xd9-I\x13\xf3Zm\x1c\xeb\xc6\xdb\x8d\x16&amp;\xfa5T\x87\xd5\x96\x15j\xb5\x8f\x86\xdf$\nh\xc3u\xdaV\x01x\xadZ$\xacU^ \xcf^\xa0o\xb5\x83U\xb6\x19:\xf64\xc5\xfcE\x04\x02\x82\x8bU*\n\xb3\x02zkN\x1dFQ\x1dlM(\xdc\x16\xc9\x0f\xeb\x10\xbeN\xf5b\r\xde\xaa}\xbd\xc2\xb1[2\xc9\x96\xe0\xae\x0c\xa15\r\x966\x12D\xe5\xb99\xd57\x9bq&lt;\x97tC\xb4\x1a\xa1\xbc:eFr]J\x17\xffH\x97\xa8\x1e{E\xb9\':go\x1fP\x16;\xc3J=\xb8-\xc9\xaf.\xaf\xf6\x18\xe1\x14:\xd3\xac\xa2\xd7\x1c\x86q\xdeU\x88A\x86\x92AAI\x8d\xa4k\x8fd\'\xefv\x91\xb1\x9cJ\x80_x D]\r\x82|\xaeC\xacO%\x9c\x1b\xca\xbe\xb67\xb5\xf8k\x8c#\x88\x00T\x9e\xb8^n-\xc6\x92\xae\x964\x85\\\xa9\x90\xfa\x9d\xccM\xe9\x8e\xe3\xe4\x0cp\x82\x8fdE\xe0\xe3\x89(|\xddO\xe6\xc5 \x0e\xb6%\xc9\xbf\x16FQ\xa5\xbbHK#vwH\xa7\x88a\xa4\x0bA\x18J\xa6q\xa3C\x1b\xc8\x08`c\x10([os\x1d\xa4\x80\xd4\xbd9\x02\x0f\xd5\xc4\xab\x99I\x19\xce\'Q\x16*?Q\x80\x0b\x1a\xb1_\xd1\xfe\xbc^T\xba7$\xad\xb4\t\xefZ\x81"\xady\xd7q\xd2F\x11\x1c8\x9e\x1d_]Y\xc5)\x8e\xc3\xe5\x8a"\t|=\x1b:\xc5.5)\x91\xc7o\x1dg(\nA\xd6\xc9\xc0#BQ`\x196\xf3KBf\xf8\xa1\xfa\xf4\xce"v\x87\x82\xd2\xb3\x94\x9c\xd3f\xe2\xcb\x849\x11x:\x06\xb1\xe23\x80@&gt;w\x1a\x16s}^\xdc,\x8cP\xbe\xc9}.XD\xf9\x92\xe7\xe7\xe9f\xe1\x87\xf1C\x08\xf2\xe7\xf7\xf2\xd9W\xc0\x93\xa5\xccc[\x1a\x9f/\xf3t\xfd\x1e\xa0P\xc2\x0b+D\xe8\t*\xd2\x02D1\x02\xf0\xf1|0p\xf9\x1a\x90\xe6\xf3\xc1\xba\xec\xe7\xd1f\x11\xd2Rr\xcb]\x9a\x86{\xfd\xc1\x17\xa2\xbf\xe2\x86\xd5\xe5\xd1^\x81\x1c?D\x92:\x80\xb5o\xf5\x1d\x03\xb8\x06*\xc8\xe6\x82e\xd3\x14eT\x87\x84\xc4\xdb\xf9\xcc\xc6\x90\x90\x92\xa3|\xa8\x1a\xf6\xe3\x0b\x9c\x8e\x86\xf5o7\xdb\xf9\xeb\r\x0c\x93\xea\x04+an\xaf\x8a$(\xdc\xae\x1c\xdc\x8c\xd0\x19&gt;T\xd2\x9b\x84x\xc2O\xe1\xdbN\x94\xe1\xdaL\x1c\xe3\x04+f\xde!\t\xe2\x91\xac\xc2\xa1\xfc\x0b\xe5\x83\x15 \xc3G\x88c\xc3\xea\xb7\x9d\xcaX\xf1\x1b_\x88\xb8\xe8\x00+a\xa1\x9b&lt;\xbf\x89\xfa\x8e\xc9\n\xd2\xcf\xcb\xb1#m8\x8d\x9a\xf9R\x87s\xf5D)\x08\xe0\xe5\xbd\xecm\xd7\x8a\x8d8+P\xd8\xc1\x8a\xb7\xb3v\xf15\xaa\xcc/.?/L&amp;\xdb\x92\x9d\xbb\'\xb0p\xdbm\xbe^\x91\x9a\x15o\xf9\xac[\x82\xe1\x90U+\x01\xae\xd6,\x80\xf5\xbd\xc33\xb8\x0f\xa1C-\x0b\xc8f\xffr\x11w\x19Mx\xea\xd4X\xf0}\x7fI\x06kpld\xc8T+\xac\xcb\x8eY\x94 \x1c%\x8a\xce\xaa\xcf\x04^=\\R\xcb|(\x8f\x8bY\x16\x10\x13%=\x9b\x8dK4\xee\xf31\xf6\x03]6XN\x8a\x14ah7\x92t&amp;\xb1AQ*\xef\xcc\x94\xa1\xef\xc5\xdc$\x1b\x15\xdc\x81=\xd6\xaa\xa5A\xb5l\xf9\xa7\xbe Oaa\xc5;zQ\xc1\x81\xdc\xa2\xe0\xb9\x91\xb1\xac\x1b\xf9G\xdar\xb9\x9at\xdd2\x967Z\xff\xe5\xd2\r\x1f\xe1\xd4+\xa8\x97\xf1\x0cN\xbe\xbd\x08\xa1\x82|d\x1d\x19\x93\xc6\xa0\xb0V\xe0\x985\x15\x07J\xd86\xb2\xcfR\x0e\xb8\xadX\x8b#?\x11\x17\xf468\xde\xf0*\xae\xf7\n\x10u\x93e\xe8\x8akbx\x1d\x16\x8a\x97.\xf5\xbc\x967~\x1c+\x88\x8a.\xa5\xc1\x89&lt;\x0bn\xc0\x95\xbb\xa2\xc1/\x16/\xb9&lt;\x89\xfcr\xb4\xadS\x12\x16\xd5\x92\x0f}\x7f\xe9\x05PE\xbap[\x1d\x8eh\x17:+\x86od\xe8\xd8\xb9\x05\xdf\xd6\xe2\xe0\xe6\x0f\x91\xa6b&lt;\xf6\xc1\x9f.\xf9\xcc\xdd/\xd7\x03\x1c%\xbd\xa8\xb3\xadv\xb7\xecB\xc1\xb1 JDi\xa2\xda\xf9^\x99\x1d\xac\xc8\xc3\x04ps\x06\xc0G\xef`,\xf7\x83\x0f\xf19\x92\x99\x0b\x85\xddM[\x18.!\x07\xc9\xce\x9d8\xc6\xae\xef\xeca\t\xcf\x90\xaaww4\xf8\xfe\xfc\x9d\x0c\x0b\xaf\xf3\xc1Q\x8d\xf4X\xea\xe3\xec\x9f\xc4\xf0XH\xcaF\xbb\xa5\xad\x07\x0e\x90\xca\xe3\x92\x1d,?f\x0e\xa3\x04\xfb\xe0\xd5\xefh\x84\xf9\x13\x8c\xab\xa2\x0c\x9fT\xe9\xa9y\x9b\x96V"j\xefm\x08A\xd9\xca|\x14\xdc\xc6\x92\xa2\xf3\xb0\xd2\x19Q\xfaN\xecW&gt;zW\xdf\xcc\xb2\xec\x03l_\xe7\xb7\x12\x7f_9\xdf\xf5\x8a&lt;\x8dPv\x00.g*kQ\xaeXY\x95\x196\x0f\xeb\xff\xb3\xec\x04mysh\xb7\xa1\xa5\xab\x18\x18\x84\xf9\x81\xce\x00\xed\x9e4OGLCYz\x01\x934x\x16\xdbtI&lt;(u\xdb&amp;C\x9b\xabV\xe0\xb1(\xcfiff\xec\x1a4=\xc2\x0cT~Y/\x025s\xea\x11\xd3\xa0\xa1{\x16\x9bW\x83\xe6$\x8a@\xfde\xd3\xa06h\xb5i\xb3\x1dT0\xf47\x03\x1b\xaf"4&gt;\x82\x8bI\x02\x98\x8a\xbblA{\xf3\xe3\x11\x95\xf6\x84\xa4\x86\x90ns\xd3#m\xc9\xc5SZ`\x8d\xc0fp5\x9a\x01\x8cPVC\x9a\x9f\xa8\xc6\xa3\xc1nf\xb9g.(\xc0\xa6\xfb\xa1\x1e8\x12\x88\xbc)\xcfz!8&gt;k\x13\x80\x8dQ\x03\x06:\x00\x11f\xd0.N\xd0\xc2\x11\xcf%H\xad\xe7DO\xe4\xad-k+\xc0\xd3C\r\xc0\x08\xe4\xe6\xa4\x87\xab\x188\x0c\xd8\x81\x11\xd9\x08j\xdf;8#f|\xad\x9c\x11\xbb\xe6\xadZ\x1dA\x0b\xf3\xd2\x80\xddT35.\x06:\x01IA\xd0~\xd7\x14P\x8b\xd5;\x07\x9e\xc26\xc2YI\xe0\x95\xf4\xb6\x95\xc0\x0c\xc9\xae\xc2\xc3@7\xc0\xa6\xc9\n\xec1\xcc\x00/\xeb\xa9wC\x9d\xb9\xb7,\xf3\x02\xef\xd3\x08N\x02E\xa02\x03]\x81\x1c\xe8\xa0\xb7\xd2\x14\xb0\x03\x8a\x9a\x10y\xd2\xfe,dgg\xdd"\xa0\x18\xab\x00/\x03\x9d\x01\x9f\x04\xa8\xc4Ze\x0b&gt;\xe1\xad\x1eVKfyAvQ\xf7\xe4\x81z\xdar\x03p\xd2"\x87\x9c\x12h\x9f\xc1"Hs&amp;\xa8=\xc1\xcc\xbei\x05d]T\nhh\x90]\x96\x89a@\x00\xa7\x1e+\xa8\xda\xf3\xea\x86lJ\x8eI\x86\xcc\xc5\xf44\x80\x16\x19\x08\xc91\x0c\x180\x12\x03mn\xefLw4\x87\xcf\x0f\xa5\x1d\x01\xf5B\xc4Ex\x18\x06\x10p(\x83v\xf4[\xba\xae\x80n\x92\xaa\x03\x9fu@\xe3\x8a\x99\xa8\x19Qp\x123\xcbt\x0b2\xf5,\xde\x08\xda\x9e\xc4\xae-\xc9\xc10\xf0\x80KK\x0c\xdc^\x98\x07\xee\xe23\x9a\xe8\x0e\x06GA\xa2R\rr\xae\'\xbb\xa0\x88\x02\xc3`\x02\xbc\xea\xfc\xac\xccj\xba\x0c\x83\x0e\xf02Q\xf1\x9cZ\x00\xfbYY\xa9\xbd\x06{\xe2\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -630,6 +724,14 @@
       <c r="D12" t="n">
         <v>58766</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL-***)*CCC#\x1f *\'(\'#$644DDD#\x1f $\x1f #\x1f %"##\x1f \xff\xed\xb54.1&amp;""(&amp;&amp;(%&amp;$!"%!"$\x1f!%##$ !#\x1f \xf5\xdbX\xfb\xd3\x0b\xf4\xdaC:::)%&amp;***# !\'$$%!"#\x1f "\x1f $ !$ !/,/&amp;#$&amp;$%&amp;#$#\x1f!&amp;"$$!"$!!%!!#\x1f %!#$ !$!"\xef\xda\x80\xf1\xdcP\xfa\xd4\x0f\xfc\xd2\x05\xf7\xd5#\xf9\xd5\x17\xf9\xd5\x1b...\xfb\xd4\x08&amp;"$\'$$\'$%$ !%!"\'#$&amp;$&amp;%!"%!"$ !#\x1f \xf8\xda3*\'\'\xf8\xd5!\xef\xdbc\xf8\xd7&amp;%!#\xfb\xd3\x0c\xfb\xd5\x17+&amp;)\xf3\xd7;$  %!"% !&amp;#$\xf1\xd8K\xf9\xd6\x1d\xf5\xda5\xfa\xd5\x16\xf8\xd5\x1f\xfa\xd4\x14\xfb\xd4\x13\xfb\xd5\x12\xf8\xd6\x1f&amp;"#\xfa\xd4\x13\xff\xdf\x7f\xed\xdb\x7f(((\xf5\xd70*%*\xf8\xd4\x1f&amp;"$$ !\xfa\xd4\x0e\xfb\xd4\x10\xfa\xd4\r\xfa\xd6"\xf9\xd5\x14\xfa\xd4\x18\xf9\xd8+\xf4\xd85\xf5\xd71\xfa\xd5\x12\xff\xff\xb4\xf7\xd6!\xf6\xd88\xfa\xd4\x12777,,,#\x1f \xff\xff\xff\xff\xd3\x00"\x1f \xf3\xf2\xf3\xfe\xfd\xfe\xd4\xd4\xd4\xff\xfe\xffLHJA=&gt;\xaa\xa9\xa9\x9f\x9e\x9e\xb2\xb1\xb1\xbd\xbd\xbd956.)+\xfe\xff\xff\xfa\xf9\xfa&amp;"#\xff\xd3\x01\xb0\xae\xafGCD$ !\xfc\xfc\xfc\xa3\xa1\xa2402\xe9\xe9\xe9;68`]^\xcd\xcd\xcd\xf5\xf5\xf5QNO\x99\x98\x98$ "($%/+,\xed\xed\xedecc\xf6\xf6\xf61-/\xf8\xf8\xf8VST\x91\x90\x90\xe1\xe0\xe1\xfb\xfb\xfbb``\\YZ\xb1\xb0\xb0DAB+()\xa5\xa4\xa4MJKrop\xd9\xd9\xd9\xbc\xbb\xbc\x8f\x8d\x8ePMN634&gt;;&lt;;89\xfe\xd3\x02\xd2\xd1\xd1\x8c\x8a\x8b\xb4\xb3\xb3\xc1\xc0\xc0\xf2\xf1\xf2\x80~~GDEKGI\xde\xdd\xdd\xef\xef\xefwuvolm=9:\x89\x87\x87TQQ\xd6\xd5\xd5\xac\xab\xac\xc7\xc6\xc6\x83\x81\x81}{|{yy\xe7\xe6\xe6\xb8\xb7\xb8\xd0\xd0\xd0\xe3\xe2\xe3\xdf\xdf\xdf\xeb\xeb\xeb\xba\xb9\xba\xb6\xb5\xb6\xfe\xd3\x01\xfd\xd3\x02\xc3\xc2\xc2\x9c\x9b\x9b*&amp;\'\x94\x93\x93\xcc\xcc\xccIFGjgh\xa7\xa5\xa6967\xd8\xd7\xd7\xc8\xc8\xc8\x96\x94\x95845ywxgefA&gt;?\xfd\xd3\x05\x87\x84\x85\xa8\xa7\xa7^[\\\xdb\xdb\xdb\xc0\xbf\xbfYVW\xe4\xe3\xe3\xf0\xf0\xf0\xcf\xce\xce\xd6\xd6\xd6lij\x85\x83\x84trr\xe5\xe5\xe5\xaf\xad\xaeurs\x89\x88\x88\xd4\xd3\xd3\xca\xca\xca\x9e\x9c\x9d\xc4\xc4\xc4\xec\xec\xec\xfb\xd3\n\xfe\xd3\x05\xfb\xfa\xfa\xfe\xfe\xff\xf2\xf3\xf2R\xa7*n\x00\x00\x00xtRNS\x00\x13\x1d\x01\xed*a\x08\x03\xfe\xe9\xf1\x86\xfc\x01\x0eo39z\x95\xdal\xbb\xf6\x1c\xf21\x05.\x17\xcfA}\xe5\xf9\xd6\xc4\x0csIR\xdfg\xc0\xa4\x9f\xf4\x81\xb5\x9c\x0c&amp;\xe4\xfei\xbf\x8e\x16\xfbWND\xb1\x92O=\x8a\xaa\x8e\xe2J#s\x10\x82i\xfd\xc7%9\xd1\xac\xccZ7\xa9B\xab\x93\xd3\xd7\xd9\x9c\\\xf1\x08\x07&amp;]"\xa3w\xc7\xe8\xe9\xf5~\xb1\xbacHN\xde\x11\x83;\xa2\x17(0hK\x12\x00\x00\x0b\xe3IDATx\xda\xec\x9bw\\TG\x1e\xc0\x17\x04\x0b\x82\r\xbb&amp;\x16\xec-j\xd4h\xd4h\x12\x13\x8d\x9e\xc6\xe4L\xafw\xf9$\xb9\xde\xcb\xfcX\x87UD\xdc]\x94\xa5\x08H\xef\xbd)H\x17\x10EP\x8a\xa0b\xec\xd8{\x89F\xe3\xdd\xe5Z~\xf3\x16\x96}KQ\xe7=\xe0}\xee\xf2\xfbcx\xef\xed\xce\xbc/3\xbf\xf9\x95\x99Y\x95\xea\x7f]z=\xabH\xac\xdf\xbe\xa6H\xac_\xfd\xbe\x97\x02\xa9f\xcd9\xf2;\x05b\xcd;\xec\xf1k\xe5Q=;\xd4\xd9y\xce,\xc5a=w\xd8\xd9\xf9\xc8{\x8a\xb3\x0e\x1f \x96\xf3P\xa5\xd9\x88w\x8e \x95\xf3\xce\xe7\x14\xa5WC\xde\x9a\xeb\xc1\xb0\x9c?|k\xd6\x1f\x14`\x14V\xcc{{\xd5\x07\x9f\xac\xbc$\xf4\x95\xd0_\x97\xfe\xf9\xc9\x87\xab\xde\xfdh\xc5\xeaN\xc4\xfa\xf4\xa3K\xce-\xca\xce\xb9\xcb;U\xd3W\xcci\x01\xca\xe3_\x9f\xff\xa4\x93\xc7\xf17\xf3=\x9aa]\xfac\xe7\xbb\xa1\xa5C-\xb9\xe6+b&gt;\x0e\x9b\xbdS4\x82C\x97*\xc3&gt;\x0cy\xff\xb0\x19\xd5\xcf\x86)\xc5n-5\xeb\xae\xc3\xca\x89\xba~i\xa6]\x87\xdfU\x0c\xd6\\s\xa5\x9f\xad\x187m\x9c\x8b\x1eF\xb89C\x14\x825Lp=\x1e\xbf\xf8\xb9\xc0\xb5\xf33\xa5\x84Z\x88\xe5q\xe9\xed!\xcb\xdf\x9b\xcf\xf0\xe6)\x04\xeb\xcf\xd8E\xef\xbf#\xf4\xdb\xdc\x9d\xce\x1e\xab\x14\x825\xdbc\xe8k\r&gt;\xb0\xd7g\xb3=V~\xaa\x0ck\xba\xf2s3-_&gt;o\xfejeh\xfc\x9f,\xeeW\xab~\x90\x1f\xe4\xffA\xfa\xbe\xaeD*\xabI#\xba)\x8fj\xf8 \xa2\x9e\xdaEiT]f\x12\x14{\xa5a\xbdL\x04\xe9\xa3,*{#\x15\xe91PI#\xf8\nC\x8a\xdc\xc2\xb8\xbeP\x0cU\xb7\xa9\x8c\xeabM\xf4\x0e\xf6\xf7\x95\xee\xca\xa0zz,\xa3\xc9\x8c\x06p\xf1fW3z+\x81\xea\xa5\xd1\x8c%#\x1a\n}\xc0E\xe8\xaf\x01Ou\xbe\xb9\x9a\xee\xc0HvU\xc0\xc1\xcc-&gt;P\xb8\x9e\xdd\r\xee\xd3\xc9\x03\xd9\xf7\xc7\xc2\x04\x0c\xfd/\x9c9MHB5\xd4D\n\x0f\xa6\xfc\xb43\xfdM\x7f\xa1\xab\xf4Q\x14\xca\xc2\xd9\x95\xefC\xd0\xe5\x0b\\N\xf6\x9d\xa5a\xbd\x1d{\n\x04\x19\xf5@O\x05\t\x97\xeaM\x87\xb4\xb4VP0b\xd7\xa73\\\xa4\xb5\xbd\x8d\xf0\xf6\xc0\xfdy\xe0\x7f\x8f4\x8a\xe7]\x1d\xd4\xec6^\xdb\x8dz\xbe=\xde\xdcu\xfc\xb2V&gt;\x19\xb7`\x91\x83\xf1\xd5\x01~T\xeb\x97@\xcc$9\x15\xa0\xae\xc0x\xed\xb4da+]\xd6\xc5\xd6q"\'\xd6\x12\x9c\xeb\xfd\x17X[&lt;\xed\xfe\xd4\xc0E\x83\x1b\x10\x12\xdc(\xf8\xdf\xd5\x13\x91\x04EE@\xcc\x95\x92\x86\xbb\x9eoN\xb6\xb5\x08,z\xbd\xfe\xf1\xccI\x84,\xe6\xc42\xce2b3e\xa6c\xd7\x85#\xfb\xf5\x1b\xf9b\xd7Q\xd3\xbe|\xc6\xf4\xfe\x80\x1c\x03\xd0\xcd\xbe\xa4\x99$\xa4Q\xd0\xb9\x9e0\xdd\xf7\x1ck\xde\xc2X\xa3J\x92E\x9cXv\xa4\r\t?_\x05@7&amp;\xb7\xfc\xe9\x8dz\n\xb4,eS[-\x8c\xe0tu=Zm\xd1\xb78-\x02@\xb79\xb9\xf5\x97F\xd6\xc6\x00\xf8\xe7\xa4\xech\xf5\x1bv\x9cs\r\xab\x9et-\x8f\xf3\r\x14\xf5R\xe4~\xd7B\x8a\x1d\x95\xbag\x07iSJ\xa2\xa2\xd9\xf7\xce$\x9d\x0f\x08V7=V\xebK\xb6^\xde\x1c\x87\xc1\xc6p&gt;\x0b\x8em\x1c\x03\xd0\xd2\x88\x83\x7f\xab\xdc\x97\xe4\xe5u\xc5-\xf7\xce-\xaa\x05\xd0\x18n\xa7\x9f \x8f\x16\xcf\x80\xb3\xa5T\x03\xc8\x16\xe2\x92\x1b\x7f\xca\xcb+\xe9~\xed\xf1j\x1dk\x82\x19]k.\xac\tX\xd3\x15RS#\xb4\xac\x9d\x06\xd1\xd0\x9b\x1b\x8f\xc5\x86\x93\xc7\x16\xef\x0b\xdb\xea|\xa8Vkj\x82B\xd8\x9d\x83p\x0c?\xe2\xf3\xe8k\xb0f\x1a&lt; \x81\xbe{/\x14\x97g\xa7\xa7\xef\xc9\xdf\x1d\xb7%\x91p\xc8\xa6\x13[S\xf2\xbfMO\xcf./\x0e\rp\x0f$\xd9p\n\x9f\x8e\xe4\xc2\x9a\x8c5\x8fC(i\x079\x00\x87\xb0\\\xc8\x855\x1ek\xa6\xd2H\xcb&amp;\xd52`}\r\xff\xc0\xf2c.\xacQX\xb3\x02v\x89\xdaK\x8c\xcd\xde\x96\x1d\xda\x829*\t\x08\x088m1r[\x99\xacc\x97\xc1\xc2e\xd3,\xd9\nUXN\xe6\xcef\xf2\xb4\x17\xcd^\xa4\xbf\x1c"\xa8}\x98\x97\xb7%V\x15*u\x9d\xf8\xd1\x16A\xc3S\xd9e\x8ap\xb9\xb9\xc9\xa8\xd1T\xee\xec\x8d\xa5~:\xad\x99o\tJ3M\xc8\x8a\x021B\x01Z(0d\xb6\x80EO\x0b\x13Z\x8c\xb5]\x1b\xcd\x8d\x85YV`\x0c\x98\xd9\xcc$\xd6v\xc85\x7f,\xff}Y\x8c\xb5Mxov\x0bX\x90\x82\x97\xd5\x16X\xeb4\xdf`9\x9e\x17Ko\x80\xa6\xe1J\xc6\x1e\xd1\x15\x07\x12\xfd\xd7\xb7\x8e\x8b5\x8e\xe8}\x98=\x82\xc2fXy\x00\xfb\x08Y\x8fnH\x84\xb5\x0b*\xd4\xbcX\xf6\x16\xbdu\x05[\x8e2\xc6\xa3\x9e\x16\x9a\x15\x8bL9h0\xf7Zb\xd5R\xc0~9\x0f\x90&amp;\xc6\xd2Tp\x0f\xe2t\xf4\x1e:p7\xb5U\xdd\xa0(-H\x0e\x0e\xeei\x03\x08FR\x84\xb5-\x1ah\x02\x89\x07\xd8/\xc2J\xfeO5\x96?\xe2\xc2r\xc4\x9a\xfe4\xc3\xa4\xf0\xd8#5\xad\x049\x11l\xac\xca\x00n}e\x89\xe5\x85D\x9e&gt;\xa0K\x10a\xed\xa5l\xbc\xbbra\xf5\xc1\x9a5\xb0\xa5\xb1\xa9`l8\xbae,\xd6\x15\xa1$\x1f\xcb\xdd\x96X\xa1\x00\x95\x05Z\xa8?\'\xc2\x8a\xd3\xb8`\xb9\x80/\x94\xc7\x9a\x07i\x80)\x1c\x08\x03\x08\xd3\xb7\x88u\x1bu;\x88\xf8bw\xe6Zb\x05\xeb \xa4\\\x03\xd9b\xacPM=\x96\x13\xb8\xb0&amp;b\xcd,\xb8jj\xeb8\x0697\x8c\xb6\xde"FF\x1e\xff\xd2\xd2R\x8c\xfb\x0c\xbe\x16X8\xb44\x1a`\xbb\x18\xeb\x1e\xa4a\xd9\x8foq\x01k\xd6\x99\r\xcb]l\xd9\x8f)OP\x99\x9b\xbb9\xd6Yh\x92o-\xb1\xf6\xb0\xa7\xdfyz\x8b\xb0\xca\x99\xd9 |K\xc0\x7f\xc5\x9a\xf1\x90oj+\x18\x8d\x13d\x15\xc7\x96c\xc6\x95\xb7\xdf\xcchU\x08F\x0b\xfb\x12M\xc45K\xacu\xec\x93x"\xc6:\x0bG\xb1\xe4\xcb\xbb{c\xcd\xa3B\xbc\xd6 WuM\xbd\x12E\xcc\xfc.h\xaf\xfb2)E\xbe\xbd\x16X\x9e\xec\x9fy`\x81\xe5\n\xe8%\x9e\xe1\\\xe3\xc3\xd4\xeb\xb2\xd0\xdb&amp;\xab\x19\xd2\x00e\x8823\xa8\xf1\xa6\x19\xc8\x06,\xc9\x02\x8b\xecCVw\x0b\xac\\\xe6\x92\x06p&amp;dc\x1a\x03\xa3\xa6\x08\xf8\x18f\x17\xf4f\x92\xb9\xa3\x0e\xaa\xcf\xca\xf23N\x82\x8c\xaa\xac\xac:SB\x92\xe1\xe7\xe7\x87c\x1d\xeb\xe7\x97\x83\x1a\x807\xe9\xa6:\xd7X\x187\x88\x13k\x06\xbazM\xb5\x851\xf8\xea\\\xa2\xe4(00\x82b\xb01\x93\x13k1\xdao\x1a\x13$\x7f\xcc\x9c\ta\xa8\x04\x8e\x9cX\x03\xb1\x85\x10(P\xcb.qp\x06\x03\x08\xde\xa5\x91\x17\x10\xab\x1e\xc2\xd6\xca.a\x80\xdaFl9\xb1\xfe\x82u\xbd\xa0]\x04\xb5\xdfi8\'\x16[\x1b9\x00\xfe."A\xdb\x94\'z\xf0\x1d\xdaP\xf3{4\xb6!\xa2/\x14\x01\x9c\x11\xb7\xa1ci\xde\x08^*a*R\x1f\x8b|\x06`\xa3\xe8\xc1\x06\x80u\xe6\xf7\x18\x8a\xba\x8a\xbe\xe0\x06\xe0.\x9e\xcc:\x8a\xaes\x1a7\x16\x06\x82A\x11\x9a\xcc\'\xc4\xd2&lt;\n+\x00|\xb8\x83\xc0\xc6U\x08?Q\x0c%\x0bV9Tb\xd9\x97\x7f\x81\xbb\x07\xcbi\xbc\xe4\xc6\xaa\x84\xbb\xe8\x11%\xec(\xa0\xfb\t\x8532cy\x86\xc0v~\xd7\xc3\xa4?\xday\x03=\'/\xd6:\xb8\x85~s\x94\x04\xac\x89BD\x9c"/\xd6\x1eA\xb5\xfaI\xc0\xb2r $\n\x838Y\xb1\xca\xe0\x00!6\x926\xab\xc6\xb2\xf5\x82"\xbd\x9cX\xe11,|X"i#\xe3\x0b\x8cB| NN\xac\x14\xcdC\xee\x1c\xb1Ql\xd5\xcc-z\xc9\x89U\xc9\x1c\xa2\x83\x95\xb4}\x1f4\x11qZ\x1f\xbd|X\xc1\x11Z\xcc\x88\xa7H\xdc\x8e\x9a\xce\x96c\xb4W\xe5\xc3z\x00w$y\x9e\x86Q\xc46\xfe\x0e\xf7\xe5\xc3\xaa\x83=8\x86\x92w\xf4F\x10\x92\x0c\xfe\xc1ra\x95P\x96x\xcf\x90\xbc\xa9\xc8\xd6\x9b\xef0K#\x0fV\x94\xb0L\xb1F\xfa)\x07\'B\xf2\xe1\xa1LX\xfao\xe8I\xb4\xa52l\x17\xbf\x89\x16\xd0\xbfi\x9dO\x1a\xd6I`\xb3\xba\xbf\x0c[\xc3,\xd18\xd5\xe4\x80\xa4a\x95\xb1U\x82\x1er\x1c\xdf\xe82\x80\x90\x13T\x97)\x07V2\xd5\xb9K7ZM\xe9b\xae\xb0\xc4"\x19+^X\xd2\x98(\x0b\xd68\x1bB\xaej\xd7zK\xc7Z\x1fCO\x102I\xa6\x93.\xf6\xc2\xb2`\x94t\xacS\xc2"`\x1fy\xa8TO\x0f&amp;\xe4\x826/\\*V\x86\x8e\xad\xc4\xda\xc9v\x98\x04cgO\x97\x86\x058\tXW\x04S\xea(\x17\x95\xca\xda\x89\xa5\x1akwH\xc3J\x88\xa1\x98Z\xd8\xc8x$h\xb1\xb0\xd0\xec%\r\xabR\xd8r\x95\xaf\xb3\x98v\xa9I$\xd5%H\xc12\xd6\xb7\x1b\'\xe7) 6\x19\x0f\xc1u\tX\x81YBo\xcb{\x00\xb4\xb7\x1d!\x17#h(?\xd6y(B\xcb7`\xb8\xacX\xc26\xffY\x88N\xe4\xc5\xf2\x0e\x11V\xf8_\x94\xf9,W\xf77\x08I\xbc\tgy\xb1\\\xc1E/-\xc3oe\xab\xa5\x07\xdaT\xaa\xdb\xc5\x87\x15G\r\x18\x1a9\xd9\xca\x8e\xa5\x9a*h}U8\x0f\xd6\xc5hA\xdf_n\x87#y\xcf\xa3\xc7v/\x82\xb3\x1cX\x9aCp\x13\xb3\x81I\xe3\xda\x01K\xd8_\xbc\x07\x06\x9e\xde\x02\xba\x15\xa3\xbf\t\xedA\xa5\xea2\x08\xdfQ\x0b\\Xl\'h\x9a\xaa}\xc4\xba\'!;jx\xb0\x0en"d\xb4U;a\t\xc3\x18K\x9f\x14+\x07t\x01\xed6\x84\x8dY\x10\xe6\xd8!%O\x82\xb5+L\x8by\xb4,\xd9N\xab\xcbp\xa3\t\t\xaa\x82\xdbA\x8f\x8f\x15\\\x08\xd7=\t\x19\xd3\xae\'\x89G:`\x90Yd\xb6\x97\xf9(,\xcfZ\xb8\x89\xbepp;\x1f\xa1\x9f\xce\xd4\xcb@\x0f&lt;.V:\r\x0b\xe0&gt;\xaa\xf5\x04\xbe\x91Y\x89l\xd0\xddx&lt;\xac\x93\x14\x8a\xf1\xcfTU{\x8b\xd5\xab82n\x10r\xf11\xb0\xd4\xdb\xfda\x03\xfe}\xa3\x03\x8e\xa8\xf7\xc5&lt;(\xb1\n\n\xbd\x1f\x8d\x95\xe1\x03\xd71n\xb0Y\xa6\xea\x00Y\x83\xb1\xc4\xb9j8\x9e\xf8(,\xefkP\x8a\xae\xd0\xe1\x05U\x87\x08\x8b\xa0\x0b\x8a M\xdf6V\xa2\x1fTd\xca\x1e\'\xb7\xe1\x1c\x97\xb0\x8c!\x0c\xee\x07\xb6\x85\x15\x94\x0bE\xec`\xc2bUGI7\xf6\x83\xa3P\x1dxy\xaa[\xc5\xd2\x1f\x02\x7fvfuQ\x07\xfe\xb6\xc6j\x0c\xf2\xec6\xd0\xa3D\xdd\n\x96&gt;\x1e"\xd8\xfa\xf4\x97\x1d\xfa;\x11\xebW\xd5jRL\x19W\x8bX\xfa\xcd\xa0c\xc7\x8e\xc7X\xa9:Tlm\xb0\xa3\x0eP\xba\xc1\xb3%,\xbd\x9bFw\x01\xaf\'Y\xab:X\xfa\xb2_T\x9c7\xd0+^\xcd\xb1\xe2k!\x82Q\x8d^\xa6\xeap\xe9\x87\\\xea{1\x10\xd6\x1c\x8bBX,\xfbU\x83\xad\xaa\x13\xe4%\xd6_\'#\xa0\xf9\x81\x03\xc8\xbb\xd1iT\xc6\xfe"qk\x01D\x87\xd7\xf7R\xa8a?\x1d\x19\xfd\xfd\x06\xc8U\xc0\xf4\x05\xda\xaf\xb5zR\xe5\'\xa4\xe0z5\xa7\xf2\x1c\xa8\x1aw\x1b\xc0=w\xb2J\xc0\xf2\xeb\xe0\xdd\xcai\xb7`\xaez\xd8Y\xf9\x1dT\x89\x8b21\x0c H\x11\x05\xb5\x8b_V\xd6BV\xe5\xcd\x9a\xd0Q\xd9\x03Zl)/\xc70\xa0@\x0e\xb4\xa3\xab\xebjm\xed\xba\xf9\x15\x15w\xbe\xd7\xf6\x83Wx\x8a\x0f\xf8\xf6W5C\xf0\x04\xf4\xb4\xca\xc5\x1b\x96M\xaa\xdc\x07*\x18*te\x18\x06\x1cp\x88\x80\xbb]\xe7*;\xfb+\xeb@[_9\x15\x07\xc7\xd6}1\xd0^\xc5\xd9\xdb;jW\x81\x92\x95\x84\r\xc3 \x01v\xe0\x8d\x9d\'\xdf\x83H7A\x86A\x03R\xe4a\x05\x84\x8e\x15\xc3 \x02\xecz\x90\x93\x04\x9c9\x18\x06\x17`\xd3\x07vq\x1c\x19\x06\x1d`\rTeb\x18\x84\x80\x9d\x8a\x11\x08\x00\xa93\xed\x99!g\xd3\x14\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -646,6 +748,14 @@
       <c r="D13" t="n">
         <v>58766</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00."\x00\x00."\x01\xaa\xe2\xdd\x92\x00\x00\x02\xfdPLTEGpL\xb0\xaf\xaf\xff\xff\xff\xdb\xb3:\xf9\xf6\xef\xff\xff\xff\xf2\xec\xd9\xff\xff\xff\xfa\xf9\xf5\xfa\xf8\xf2\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xdd\xb7E\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xab\xaa\xaa\xd3\xc9\xb0\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xbd\xbc\xbc\xc5\xc4\xc4\xe3\xc5i\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb3\xb2\xb2\xb0\xaf\xaf\xd8\xad+\xd8\xad-\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xae\xad\xad\xe0\xbdT\xad\xac\xac\xaa\xa9\xa9\xd9\xb05\xe4\xc6k\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb0\xaf\xaf\xd9\xb04\xb7\xb6\xb6\xda\xb28\xdb\xb4=\xd8\xae.\xb6\xb5\xb5\xdb\xb3;\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xac\xab\xab\xd8\xaf1\xb9\xb8\xb8\xe1\xc2_\xd9\xb02\xae\xae\xae\xb6\xb5\xb5\xdf\xbbP\xdd\xb7E\xd9\xb16\xb2\xb1\xb1\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb8\xb7\xb7\xb5\xb4\xb4\xb8\xb7\xb7\xdd\xb8H\x00\x92?\xff\xff\xff\x01\x92?\x00\x92&gt;\x08\x95C\xfd\xfe\xfe\xd7\xac*\xaa\xa9\xa9\n\x96E\x01\x92@\xfc\xfe\xfc\x03\x93@\xf6\xfb\xf8\x00\x91=\x00\x91&gt;\x05\x94A\xfe\xff\xfe\xfa\xfd\xfc\xe1\xf2\xe8\x10\x98I.\xa5`9\xa9h\xf9\xfc\xfa\x12\x99K#\xa0W\xfe\xff\xff\xe6\xf5\xec\x1c\x9dR\xd1\xeb\xdc\x9b\xd4\xb2\r\x97G\xf9\xfd\xfb\xec\xf7\xf03\xa7d\x14\x9aL\xea\xf6\xef\x1e\x9eT\xd3\xec\xde&gt;\xacl\xdd\xf0\xe5P\xb4z\xf2\xf9\xf5,\xa3]\xd6\xed\xe0\xf1\xf9\xf4m\xc0\x90 \x9fU\x0e\x97H\xcf\xea\xda\x19\x9cP1\xa6b\xca\xe8\xd7\xf8\xfc\xf9\xe3\xf3\xea\xb7\xe0\xc8u\xc3\x95\xa5\xd8\xba;\xabjG\xafr\xb3\xde\xc5\xba\xe1\xca\xef\xf8\xf3\xb0\xdd\xc3\x85\xca\xa1\x17\x9bOM\xb2w\x9e\xd5\xb5\xbe\xe3\xce*\xa3]%\xa1Y\xc8\xe7\xd5\xcd\xea\xd9\xf3\xfa\xf6W\xb6~\xad\xdc\xc0B\xado]\xb9\x84\xda\xef\xe3S\xb5|X\xb7\x80\x91\xcf\xabk\xbf\x8e6\xa8fJ\xb1u\xa1\xd6\xb7\xc3\xe5\xd1\xd7\xee\xe1a\xbb\x86[\xb8\x82\xe5\xf4\xebE\xafq\xbc\xe2\xcc\xaa\xda\xbe\x9d\xd5\xb4w\xc4\x97\xf4\xfa\xf7\x8c\xcd\xa7\xa8\xd9\xbc\xef\xf8\xf2\'\xa2[\x98\xd3\xb0f\xbd\x8a\x96\xd2\xaf@\xadm\x8f\xce\xa9|\xc6\x9b\xa3\xd7\xb9\x93\xd0\xac\xc6\xe7\xd4\xf5\xfb\xf7g\xbd\x8b\xe8\xf5\xeei\xbe\x8c\x80\xc8\x9d_\xba\x85\x87\xcb\xa3y\xc5\x99\xc0\xe4\xcf\x16\x9bMO\xb3yr\xc2\x94p\xc1\x92}\xc7\x9c\xf7\xfb\xf9U\xb6}\xb4\xdf\xc6\x82\xc9\x9f\xd9\xef\xe2\xdf\xf2\xe7c\xbc\x88\x94\xd1\xae\x8e\xce\xa8d\xbc\x89\xc4\xe6\xd2\x89\xcc\xa5o\xc1\x91\xed\xf7\xf2\xb6\xdf\xc7\x8a\xcd\xa6o\xc0\x91\xfb\xfe\xfc\xea\xe1\xe7\xa3\x00\x00\x00rtRNS\x00B\rB\x03\xf8\x02\xfc\x01\x06\xee?t\x11\x82:\t\xeaj\x14\xdf\xba\x19W\x0fe\x8e\x89 \xf0#\xe7\xf3\r,\x1d\xdb\xe55\xa5boK\xb6\xf6\xf3/&amp;\x15\x1b\xc5|\xe2\x93\'\xcb\xb3\xd8\xa8y\xac\xfa\xf3x\xc0[D\xcb3\xe9\xfb\xba\x16Q\xc8\x9e\x97\xc6^\xa4}\xe5P\x8f\xa1e\xd3\x98\xab\xb0G^`\xce\xdd\xdcE)\xd6\xc0eN=\xb4\x93\xd5\x99z\x9a\x9d&lt;XAH\xc2d\xf6\xcd\x00\x00\x19GIDATx\xda\xecYyTSW\x1aw,\x18\x16K\xad\xe3\x86\xd5A\xad\xcb\xa8u\xac\xadck\xd5\xb63.\xb5\xb6V[\xeb\xb1\x9d\xe92]\xa7\xcb\x99\xed~/\t\x01\x02$\x18\x16C\x08\x10\x126\x91E\xc2\xae\x80,\xb2Yv\x8bV\x05Q\x11D\x04\xeb\x82\x08.u\x1dk\xe7\x9c\xb9\xf7e{\xef%@X$\xf3\xc7|\xe7\xe4\x9cw\xder\xdf\xef}\xcb\xef\xfb}7\xa3F\r\xd1\x1c\xdf\xb2x\xda\xd5a\x94M\xed/\x9fY\x02`\xf7\xf1\'\xb6\x85\xf5\xe6\x8cg-\x9c]\xe3\xbe\xd9\xa6\xa8\x1c\xd7\x8a,Eq\x8b\xfb\xc616\x8d\xa1H\xb4\xd2&lt;\x8av\x9f\xba\xafZb\xd3\x18\x8aD\x16\xa2\xb8\xc6\xdd\xdd\xdd\xd5\x16pf\xfeJgkE"\xd1\n\xdd\xe1b\x82\xe71\xda6aX\x1bu\x87_\xda\x8d$,\xbb\xcfg\x88\xd8\xb6\x928\xed\x93\x8d\xeel{\xfb_#\xec\xaf\xc5\xab\x99\xa0f\xac\xd0ye\xe6\x96ULT\xaf\x8dt\x8698\xcc\xfcj\x9d\x11\xd5G\x7f7\x9e\xff\xe2m#\xa8U\x9b\x1dm\x90_\x0e\xef\xace\x06\xd0`K^3\x04\xf01\x1b\xd5\xe1\n}\x04Y\xb5\xe8\xb0D\x1fGW\x1b\xa1\x1acH\xafw\xd8\xfdP\xef\xad\xbf\xda\x08\xd6b\x92\\\xa4"W\xb2\xbcE\x82\xf82\xf9\xad\xb7Y\x0cg\xbc\xb5\xf83\x91h\xedLfnaH\x9b\xd6o^e\xab(:\xac\x16\xad\xc6\x1c\xea\xb8b\x1d+\x8a\xae\xee/\xbb\xe2\x86\xf8\xe5\xc76\x8a\xe2\xe2uo\xd2^\x1a\xf3\xcf\x8fV2c\xf8\xe9\x1a\xfa`\xfd&amp;\xdbD\xf1\xf3\x7f\x18\x9a\xf4\xb3_\x99\xa2\xb8d\x8b\xe1\xd8\xce\xf5\x0b[\xc0\x1a\xc7\xe8E\xa6\xce\xe7\xc8h\x82\x8e\xa3\xfeo\x16\xd3\xdfq\xdc\xe8)S\xa6\x8c\x1eg\xe7\xf0?\x81\xc7q\x92\xf3o]\xe6M\xfcp\x82\x9b\xd3\xa2E\xd3\x9d\xdcfoX\xf8\xc6\xf3\x7f\x9e\xfb\xb8\x9d\xed&lt;4\xc5\xf9\xdb\x17\'\xf0\xc0`R\xa1\xd4x\xfc\xcc\xf2\xf7\xe6\xcf\x1d7\xf2\x98\xecf\x8d\x9d\xb8\x88\x00\x10\xb6\xd7\xa55\xf5t\\\xcf:\x10P\x93y\xa0\xb62\xfef~\xe7\xad@\x1a\xa0\xd3\xfb\xe3\xa7\x8dhLg\xb9|M\xde\x9b\xa2m&lt;\xec\xef\xe1\xe3\x8b\xd8\xe6\xe3\x1b\x14p\xba\xbe\xce\x0b\xdf\xc1{n\xec\xd3#\x84i\xca\xd6\r\xc4K\x91\x8dG&lt;|\x8cP|}tf\x82\xe8s\xa52?\x95 [\xf8\xfa\x08\x10\xc5\xb4\xa9N\x18SR\xeb)\x8a~9\xdf71\xb9\xe2j\xd5\xd9\xbd\xda\x90\xba\xf2\xb8\x90\xa2\x1b\xf9\x8d\xd5y\x85\x06\xbc\x92\xcc\xaa\xed\x18\xd9\xd2\xb1\xbf~\xb4\xa0\x96\xbdk\x0f\xa0nV\x89i\x0f\tT\xf1\'\xe2\xda\x85\xc05\xaf\xd8b\xe5\xc5B\xfa\x1e$\xc8\xcbI\x01\x98\xfe\xd4\xa4G\x07\xea7o`Pu\xd52\xdaM\x8a\xdb\xc7\xd4\xe6\x88L\xe6wKY\x11\xc4\xc7wR\t\xbf\xa8q\xfe\xbb&lt;"\x8f=\xee2\x1d \xa4T@0]9}\xd4\x1b\xfa\xb7\xec\xb2\xeb\xa1\xe4\x1b\x82\x1a\x82\x01\xe6\x8c\x7f\x0496\xe6\xf5\t\xd8S\x87\t(q\xd4\xc1l\xddk\xe5\xe1\x05\x8dq}#\xfb\xe1n!\xc9\xc2\xa0\xd6\x9f\x01^xb\xb8Q=\xfd\x1e\x0f\xc2\x1b\xc8\xa7\x0bJ\xef{\xd1/L)\xba\x90)\xf3\xbd\xed\xd5\x9f\xcb\x02sZH\x9ai\x94\x81`?u\xf4\xb0\xbaj\xb2\x1bx\x9d\xd0\x90\xda\xaa\x8c\xa4\xdf\x15v.~\x07\xf1\x82\xaa\xc4\x8aX\n\x8f\xb6x\xe2\x1c\x0b(\x06\xf8z\x18\x1d6\xfao&lt;\xd8\xde\x85Qx\x1e)\xa6\xdfs\xfe\xae\xbf\x8e\x1fdu`\x95y\xdd \x0f\x08\x1a\xda\xc1\xfe\x95\xe1\xca\xb0e\x1f\x82\xf0\xd8&gt;\x0cbG\x0e)=y\xb9\xae\x16I\x91)\xc1ZKi\x0b\xc2\x0f$\x87\x00\xbc?&lt;%\xb9\xc0\t\xdaO\x93o\xbd\xba\x8b\xac_~H`d\xf2&lt;\xcb\x0c\xb1+G\x19l~v{\x05^\xc4\xa3Y\x08\xcb\x7f7\x0c:a&lt;\x0f\xa2U\x18\xc2\xfe\xfbd\xed\xf0n\x13($K\xb5\x80I\x1eyZ\xc6G\x1a\xb5\xf9\x15i\x06q\xd8\xa1\x12p\xfa\xd3\x90\x95\xc2T\x80\xce\x08\x1c\xae\xdb\xc4U^\xca+\xcc\x9e\xdcf!\xbb\x0bj=\xe9\xb6\x93a\xc9\x8d\xdb[0\xbf\xaaR\xc1~\xeb\x10U\xde7 ?\x8b\xfd\xe3QO\xc2\x15\xd7\xc2R\n*?\xb3\xf7\xee\r\xa0\x90\xb86\xbf\xbbA\xe7Gaq\x12\xfbzX:\x0e\xa4\xa6\x18x\xf3\x87\xa2x\x1c\xe7\x81\xf0\x17L:\x1a-qU[(\x0b\x95\xb8\x80\x0b*\xecG1\x12\x1c\x8a\x94\x82\x1c\xa0\xa4\x13@\xbb\x93\xea\xe2\x86\xf8\x18^$\xa8\x00x\xcf\x0f\x1e\x97\xe3\xbb \xec\xc11Q\x11\x19\xa0\x8e\xa1\xd8\xb2\xaaK\xce\x85\xa5\xc4\x1f\xa0\xa3\xb5\x92\x0b\xbbC\xd5\x90\xea\x81\xae\xecbe\x17\xfe\x9dS \x94\x98\x03\xbc\xb1\x83\xce\xabm l\xc5X\x8e\x90\xa5\x8b\xf7s\xc4\x9e \xc9,\x84\xd5\x08e\xe9\x8e\xea|\x90\x0f\xbe~\xb9Y_\x91\xd2\xf0\xa2\xfa\xf4\x18\xff\x16\xf2}\xe5\xa7pR`\\\xf3\x07Y\x83. \xbc\x89}\x15s\x1c\xafuL\xc6A\x85\xae\x9b9\x0b\xf2\xb1\x1fHR\t\xcf\xd5 \xe4\xdfn\xa0\xd2\xe8\xb3\x1d\xfe\xa1\x14\x11\x13HQD\x12?\x19\xa1\xd04\xe0M\x1e\x14\xac\xad&lt;h\xc3yu\x1d\xcb%\xe1]\t\x17\x95DkA0`\xce\xed\x16z\xef9"A\xe2J\x9d\x9f\xbc\x0b\xae\xfaK\xf8\x0cN\xd9\x8bO\x06c\\\xb2"X4\x98F\xe4l\x0fe\xb8\x06\xf3\xf0G{]\xa6\xb8\xa8\xd0\x11KL\xda\x8a\x0b!@C!AE\x91\x90n\x9c\xd5\x1a\xee\x938|\x00\xa9\x85\xd8q\xe5\xe06m\xe0\x92a\x0eh\x13\x11\x8a\x8a%\x114GE\xe5X\xe2\xa5`\xd2\xa2P\xe2\x8f\xb4\xd8QW\xf9\x9b?\x87q\xed\xc1\xd7\xa2q\xdb\xdfy\x126\x0cTP8&gt;\x07\xc1;\x10*\xa4C\xd1d\xbe\xf8\xfe\x14#+\xe4\xfe`\xc2\xd5Y\x98\xa8j\xa4\x9f\x89~\x10\x84,[(!\x96b|5\xc6\x0b\xb6\r\xf0?\x18\x17\x08\xcbB(B\xa7\xf1\x9a\xcd\xd7\xbe`\xd4\x06\xd5\x94J/T\xd5ID\xc6\xd3\x95\x10}[\x80z\xb5\x08B"{$\x88\x9f;\xd0\xb4w\xe6A.N\xeb=\xba\xf7\xb5\x99\xad,\xf9\xc9\xd0l\xba)I\xbeN\t\xdeOP\xe8{\xa4\xfaA\x1f\xa0\x88\xab\xcf\xe3\x9b\xc8\xfa\xdf\xc3\x93\x03I\xaf\xd1\xb3\xe1\x1c\xfe\x1a\x83K\xcc\xbd\x95\xa9Oxy\x03%n*\xc9k"n\xf3G\xd4\x19z\xb6h\x8b@\xfdXV \xbe\xbf\x0b\xa1\x84\x9fa\xa1\xf5\xbb\x15\x0eS\xc1\x1b\xb3gK\xa0\x89\xbd9V\xa5\xbf\xd2C\x89\xdb\x8e\xd7\xf2\xb3\x02\xb1\xf7Bvg\x10\x16\xd7\xaa\xf8\xa8_K\'&gt;\xc5t\x7fQ\n\x1fX\r\xeb\t\x1e\xa4\xe3\xce\x15\xcd\xa0IN\x0c\xf5\x97r)\xcf\xbb\xed]\xa8e\xd7\x1dA&gt;\xee8\x84\xa7.\x0b\x90\x15&amp;yH\xfa\xba\'\xf2|\x08n\x93\xac\xaf\xc2b\x1cB\x93\xf2\xcc\xe0\xae\x9aLg\x93\xfc\x17\x8a\xba\xe4]\x812O*%T:}g\x88\nYg\nR\xae\x1dX\xf0\xee\x82mV\xc2\xfa\x00\xfc\xa20_\x9adK\x8e\xa5\x18\x80\xb4J\x8c\xfc\xb3KQ\x8d\xfa\xa0\x84\x8a\'@\x85\xcaDd\xad\x95\xe2\xec&lt;\x89\xd9\xab\x07\xec\xe7Z\x97\xef\x13 \x03\x135c\xfe\xeb\xe4\xec\xc9\xf8&gt;\xa4\t+\x8b\x8cYHu&gt;C@u\x90o8~\xcf\xd3jTH\\\xa6\xe3\xe9\xc4r\x98h\x15y\xcd\x87\xe3\xfb\xf5\x0e\xd1[\x92\x0f\x87\x10\xc3\xe9\xd3\xb1y\x84\xb4\xeb\x8e\t\xa8Ca\xa4\xa3\x04\xa0\x81\x98\x06\x8f\xc0\xc2\x03\x08}\'\xe5\xfd\xd1\x9a\x99~)\xdc\xe1\xa3+\xd9\x0cX\xe5\x1cX5zz\xb8VJ4\xaa\x07:LJ6)\x01\r\xcc\xc8\x87\xe3\x1c\xc6\x02\xe9U;k\x9c\x15\x8bC\xde\xc8lu\'\xc5\xec\x05\xab\x8d\x03\xf3E:M\xae\x91\xb2\x92\r\x10\x15\x12\x90\x19\xb3\x12\xa1\n)\xcf\xb9\xff\xdd\xf6\xd9\xd0\xc4G\x8a\xe3\xac\xb9\x81\x9d\xc9\xfc\x83\xa6m\x99j\n\xc5\x90\xdes\xc2\x03\r\xd8\xae\xe3\xe7"\x05H\x10\t/\xf6\x0bk2\xa4\x14r\x9c\x05\xb0\x83\x9d\xf1!\x8cq9=\x0f\x7f\x81&lt;_2pT\xc8S\xabs\xd7=\xe0\xcd\xea\x8f\xe0_\x85\x1c&gt;\x8a8\xc9\x86\xc5N\xe6P\xa6&gt;\x17\x92\xbcR\x8a\xd1`,\x0fw\x05\xad\x04%\x06\xc3\xd4\xfe6k\xed\xe5\xb5\xec2$v\x98\xb5\x9a?w\x93\xa6^2(T\x88J\xd2\x15c#&lt;\xd9\x8f\xf0z\n\xca\x05H\xc2\xdd\xf0\xe8a\xadV\xc1\xb9zb\x90\xa8\x10\xaa$O\xf3Q\xa1\x1f\xfc\xa1\xef\xbe3\x01nb\x82\xb70;p9\xdedi\x82\xc1\xa2B\x02\xac\x84J\x14\x88\xfa\xbe\x9f\xa4w\xe6\xf9\xf9#t\x96\x0b\xab\x93%\n\x9aY\xd7\xb424x\xeb\xc1\x0b&lt;@(\x1e\x9e\xe9s\x1b\xe7\xf7\x90$F\xb2p\xb3\x9dFfJ\xf3\xd3\x98\x97\xa2\x15C@\x85\x12\xb0\xf6&gt;G!E`\x9f\xfaf\xccr"\x1a+\xccw\xcd\xf61\xff\xa4\x88d2m\xf2PP!_&lt;\x9f\x05\x9eB\xd4}x\xa9\x0fvX\xc6\x93f2\xd9\xd2h\x07\x98M\xf6&lt;c\x97;\x06\r\xcd\xbe\xc3\x8b\xc4\x93`:\xf5\xb1I8\x1e\x82=\x90`\xbb9\xacn&amp;m]c\r\x86C\xb3}X;\xa6\xf9"\x15@\x1f\xb3\xecK\x84KU\xb8\x11\x9f\xe0L\xf2L!\xa8\t3\t\xb1&gt;i\x94Oyh2\xaf\xff\xe7\xc2\x19\xe5\xc1\xb3\xf5\xcd\xffn\xb8\x97U\x18$\xe6(j\xfeQ\x9c\x082$\x08\x87WzO\xad\xa5D,w\x03\xb4G\xdc`\xc3\xaac\xbc?\xd98O\x97\x07\xf5\xce\x94\x89\x01\xf1\xf9\xda\xf3\x9c\x1d0yl\\YC\x94\x8c9\xd5\xe2\xb7I\xa3H\x19\xf5N\x11\xd3x\x80S\x0b\xeb3\xad\x8f&amp;\x9b\xbds\xb5\xdb\xb4\xd0\x01\xc3\xc9\xf6\x9a\xde\xe8\xa8\xa6\xb5\x80\xd1\xbe\x84)%\xea[q\xea\xec\x12\xfd\xf7d\xef\xbd\xba\xdf\x93\xa9\xbf\x1b\x10j\x859\xbd&amp;\xd7\x02h\x0f\xa2\xc7\x873\x08u\xb0\xc3\xd8eN\xf2\xd2x\x8b\x98&lt;\xb2\x94\xa9\xc6\xffc\xc1\xab\xaa4\xbapw\xa8\x84\xf2i\x8eJ\x8c\x84[\x97:u\xa5R\x14\xaf\xdf\xee\x14\xe0\x99&lt;\xc7\x17\xd5\x02\xf4\xfa\xc7\xe3\xb7\x10\'F\x8a\x14\xba\x07z\x1ee\xc1:cz\xef\xc5&gt;\x12\x8b\xaai\xd3\xefh\xf9E\x0bs\xa3\x0e\x82w\x84G\x9cND6\x05x\x86@\x91O\x94\xbc*\x83\x8eDl\xfdN\x92g\xbe\x98\x05\xa31s\x01,\xe8\r\xd6&lt;(\xe3\x93\x18\xe1I\x94\x1e-\x19Vl\x92\xe9\x0f\xf4\x14\xbb\xcf|w\xa1#\x89\xf6\xb1\xf0\xa7\xa6JEB\xe0N|\xab\x05X1\xfc\xd0Jz\xa0\xf3*\xc3\x12\n\xe5\xe2)n\x1f\x12\xab\xa1\xd7\xed\xc1\x17\xe0\x12-=cC\r\xb3\x89\xe9\x8f\x1b\x05\xaba\xe05\xf3\xb8u\xa7i\xa4\xbd\xe0\x9d\x16\xa2 @\x08\xac,\x8b\xb0\xc8E\x9dO\xfd\xda\x82\x88\x18\x94\x06 _-|\xd3\x1b\x9b\xba\xc1iZ\x01\xc6\xd1UL\xdda\xba\xeb\xbf\xa4\\kO\x1b\xe9\x15\x8e\xaa\xa6d\xd5\xad\xb6iw\xdb\xaa[e\xa5v\xabFZ\xa9\x1fZ\xad\xaa\xf6Sw?\xb6\x7f\xa0\xd2\xfe\x85\xed\x97\xf7\xcc\x8c%_`l\xb0\xb9\x1a0\xd8\x98\xab\x8d\xb1\x81\x006\x04\x08\x10\x02\x01B\xc0\xce\x12\x08\xf7\x10.\xb9@\xb9\xa6I\x08\xe4F\xb2I\xd5\xf3\xbecf\xc6\xc6c.\x99\x8f\x96\x19?\xf3\xbe\xe7}\xces\x9es\x86&gt;\xf9\xf7\xf7 \x81\x8b\xc3\xcf\x8eKt\xa6+\xe6\xc6\xd8\xcaRX]F\rXd\x0ekJj\xfad\x04\x8bs\x99\x16\x9c\x86O\xb4\x8a\x8b\x14\x18%"\x1e\xc4\x0b\xd2\x8d\xf4\x1b*X\xb7\xf8\x98L]\x16\xc3\r|N\x01\xfe\x86\xc5\xfdn\x17\xee\xfb\xcd\xdd2,k\x85\x02\xebN\x0c,\xdf2xg{\xf1\x14:\xa6\xea\x18+\xef\xc1_5\n\x8ds\x006"^V&lt;\x07{\xbf\x02\xcb\x85z^\xb0m\x8dl\xd9\xa6\xe9\xea\x0f\xabQm.\xa0p\x9e\x1c\x0f9\xd3"\xe0\xd2\xfb\xcadX\xe6\x0c\x84UV\xda^\xc8\xad\xdf\xadR`\xd1\'l\xc4\x9c\xc3\xcd\xd7H\xee\xf3]\xca_g5\xe6&amp;&gt;\x02(!\xdc\x0e\xf3x\xa4\xabS\xd5=\x19\xb6\xefePYj\xa4\x149\xaebD\xc1\xcb\x02e\x85/\xb0\xe1\x8f\xf5\x9b\xec\xcb\x14\x96\x98\xe3\xa8$\xdc=\x84\x85\x15H\x0e\x87\tM\x86%NM\x15\x92\x11\x9a\n\x89\xf0\x88\x19\xbf\xd3\xf4|\x9f\xfe\x95\x16mea\x1a\xc0\xdfx\xa8\xe8c\x05W\x8dJ\xee\xcc(\xec\xca\x95\xe2\x13\xbb.\x02|G\n\xb6p+.\x8b\x81"\x83\xf0\xfa\xeeX=T\x12\xfeR"Xi\x17Pk\x96\xa4{I\x89\x8f\x97BbL$\xed\x00\xbf\xd0*z&lt;zR\x88\xbc\xf0LY\x8aY\x95~\xce\xddY+/\xddj\xad\xca\x05\xdd\xe0&gt;g\xb5\x15`\x86\xdcm\xcbd\xb0\xbc(\\Cb\xb0\xc8\x90\xcd\xbe_\x89BV\x03V\r\xaf\x7f\xe3%\x0b\xae\xde\x97\xac7T\x9bF\xe6\x01\xce%\x86\xf5\r\x14\t\xc4\xeaa\x07C\xbe\xfcr\x0b\xc5s]R\xc7\xc2\\\x0bX\xd6\xa5\xa5\x1a\xa8\x07\xcfB(_\x94`Mam\xb5\xc4\xaf\xaa`m\xa5n&amp;\x84\xe5\xd2\x9b3\x10\x96\xcaM\xc0;h\xf4\xf3\xceC\x9e@\x9c\x15\x00\x031\xc9dA*tf\x9a\x94b\xdf\x05\xa9\xd41r.!\xb5]\xe7/\xed\xc3\x9a\xe6{0z\'T\xb0\x8a\x1f\'\x86\xf5\xd8np{I\xa0\xef\xc1\x04\xf3]\xddi\x04yB\x13\xd6\xb2\x04\xab\'\xae\x9c\xa3V\xb2N\xbd\x84\xe5FT@\xdcU&amp;\xcc\xe6\x88\x0ck\x83\x1b\xc6\xa8\x19T\xc1\xf2W\xb4%\x84e\xec\xe4",\xa5\xea[\x0e\x85\xf5\r\xbc\xd1\x13_\x8b\x9a:\xa3\xd60rB\x87:\x03r\x17 \xb5\xabU\xd2]*Xe\xe6\xa1\xdc\xd7bo\x91\xa1\xf0\xe2\xf8\xda\x05\xa8\xd4[\x85\xfe\xc4\xb0\xa0\x984{iZ_`7\xe9N#M\x9a\x9b\xf8K\xa8\x90B~.&gt;\xd9}\x17\x0f\xb5\x07sb4.T\xb0R\xad9\x8e\x01\xae\xbb\xc8@Dj\x91Wf\x07\xb8f\xbf\x16\xac\x0e/\xb9\xde"\xd1\x16~LS\xf19-\x82pX\x99\xd0X?\xe8\xe0Zbm\x88jE\xa1\xaa`A\xa7\xd5\xd3$\xd4\x17\x19$\xe7\xbe2\xbb\x87\xdcI\x0c\xcbX\xc9\xd5\xb2\x90\x1f[a\xa5\xa6H\xb64\t\x02\xe9\xb4\x9apU\x00o\xe3a\x85\xa1.\xd6\xd4\xce\xf6$\x845j\xce\xe8\xb2V\xc8\xb0|\r\xe4\x91=!\xac:\xbb\xe9\x06\xc2\xaa\x1f10Q\xb9D7D\x8bN\xcf\xd1\xb5\x15#\x00\xe1xXw\xc0X\x12\xf3\x81_\xca\xcb\x8f\xdb\x07c`\xf5\x89\xaf\xfc%\x0e\x19V\xe1\x14\x99K\x0c\xabHo\xbe\xe9%\x99\xd6(/.\xd0R]+\xf9`\xaan\'&lt;\x86w$\xed`+e8\xb6?\x96\x0b\x946,\xd5\x01\xdd*\t\xbb\xf7a5\x88\x8d&gt;\x1b(\xb0\x1a\xc5\xe1\xea8XA\xa0\xb0\xf2Ia\x05=\x89M\x92\xc0\xc1\xb4\xf2B3U\x9f9K\xfb\xa7(\xcbvc;[\xe6uL\xf2K\xea\xcf\xf8\x02\xac\x10i\xf7\xf5\xa9p1 \x86\xfa9,\xa8V\xc98&lt;\xe7\xd7LA\x84%\xf4\xf5=\xa3\'1\xc2u*\xb0J\r5\xf8\xc0\xed\x0cV\x98\xb7Q\xcd=\x80l\xa4C\xeeCQ\xd1\xab)lP\x06\xbe \xe4\x19*\xb9\x98@r2_\xb9N\xed\xb8\xdb&amp;\xe1\x9e\xc1:m\x81+C\x1cI\x8b\xd4\x9bstHvK\xb0-\xae\xf2s \xf3\x96\xbe,\xdb\xaa\x84\xfcU\xae\x16\x9a\xc5\'\x14\x16\x92\xf1CL\xd5+\xb4\xc7\xb2\xf6\x06t\x01j\xe5}\xab-\x9aC&lt;\xcd\x02:\xb5\xcdV\x19u\xc2\xddJzv\xd60qjz\x9d\ny\xf3\x9c/\xaf\xc5\xaawY\x9a\xf8mp\x1b\x8a\xc5\xa7*Xy6\x83Y\x86\x15$\x1d(\x15F\xa0\\\xf4\x96\x12\xae\x19^/b\x1c\xa47\xd8\x8cPa%f\x8f\xb6h\xfe3\x94\x99\xc9\xe6\x15\xd6^\x90\x9bNRi\x8f\xe2\xdb\xbdo7\xd8p\xfb\xc2,~2\xfb!\xab\xe3\x1e\xe8J\xc9\x7f\xddV&lt;,yzA\x1cW\xc1Z\xc6\x88\x94a\xb5c\xd8.\xe0\x89+\x8fV\xd3eHY\xa9\xab\x1c\x96\xfbn\x9eti\x97\x18gP\xd9\xa0\xd8\xc7\xd5\t\xcbR4(1\xc1\x8d\xcdf\xbcGx\xb4\xcd\xb7y\xb5\x00\x7fg,j\xf2fKM;\xdc{\x13\xb5L\x1eg\x131\xa4\xc0\x12\xf2VT\xb0\x06\xc8[\x8c]\xaf\x04K\xf2\xc8\\A&amp;v\x1bY\x95\xf7\xbb$\xe5\xeb(j$\x80\x9d}X\xc1\ni\x07{\x88\xfe6\x95\x7fY\x1ej\x95\x1a/\xc9\x83\x1a\\\x0fe\xfbeZ\x05\t(,f\t\xa9U\xc3\x1aT\xc1\xbaF\x86\xdcmd\x8d\xc1\xf2\xb3\x13\xe8\xc6\xaf\x1b\xdclPa\r&gt;\xfb I\xb1\xff\x1f\x16\xf3\x8e\xa8\xf5_\x1aEU\x83\t\x91\x1b\xed\x90\xa8==\x12T\x9f\xca\xb6F\\\xb0F\xfcB0\x97:;\xe6]\x84e\xf58\x8c\x16\n\xabYT`adp\x84\x0fQX\x85\xb4\xbfoaC\x0c9Y4\xe2\xf9\xa4~\xe0\xdf`\x0c\xb79}_\x08\xda\\1\x96.\x9f\xb3JI\xe1I\x9c\xbb\xc1\r\xdf\x00\xcb\x1d\xab\x99\x16$\xab\xc47CyK\xb0w^\x9dDX\xbb&amp;\x05\x16\x93\xe2\xdcM\x845Do3\xb9\xc2\x1e\x0e\x93\xcfM\x81\xe8+\x92X#\xa7~F\xdd\x13\x13.k/\xfdi\xff~C\xb1^\xf6l\xa9c\x129PM\xeb\x17=\x90\xca\xe4\xf5:\xf5s$:\xd5{\x10\x16\x9e1\x19\xd66mh\x95\xe8\xa0\xef\x05]\xf5{\x9d\x92\xef\x86i\xbb\x91\xa7\xda4\x89\x91\xf4\xdb\x14\xca\xe6\x0bR\x01+D\xf6\xd3\x9e\\rpl&amp;\xe3\xc1\xc1"\xdf\x7f[\xea\xd4&gt;\xa7\xfc\xa2\x82\xe5\xc8Q`\xe5\t\xd2\xe2PP3\xaf\xcd\x8a\xbf\x85{\xf16\xa9\xed\xf6\xa3\xcf\x01\x83t\xdeBc\x9c\x1f\x94\x1d\x97N\xb9\xef\xc0\xfa\x173\x89\x9aN]a\n\xac\xd6\xd6\x13\x03\x0b\xe6\x15XF$d\x13#AGX\xae\xd1\x11fE\x1b\xbd\xef\xbf\x92[\xbae\x02\x11p\xf3Bb\xb9\xdc\x14p\xcb\xc1$\xdd\x15B\t\xdd\xb6\xae\xe7H&amp;\xe9HsE\x9c\x02\xeb\xa5\x02\x0bi\x87\x9b\xa0\xe78T,\x1f\x19\xfe\x1eP\n\xef4\xc2\xf9\xe4\x068R#\xa6Mp\xd8\x94\xa1\x8b\xb5\x98\xb6\x03=C+\x1a\x8ecC\x15UuY{\xc1M\x9e\x97`\xbdU\xc12\x86\x9au\x90zkHu\x8e\x03\xe9l\x0f\x1f\xc1\xe9\x9f\x1f\xd2.x\xce\xb3\xee\x89j\xe6P%\x1e\xa2e\x90\xc7\xa6e\xb8\xcdK\xc3\x8a\x93U\xb7\xd6\xea\xaea)\xb2\xed\xa4\xc6\xd4D\xab\xc4\xca\x96\x9d\xa7\xd5q)\x1f\xf2\xf0\x90\xe5\xc3\x17\xc9\x9b+\xbf\xa6_3DbF3\x95\xc4MU\x8f\xe4+i6\xa5\xf9\xc2\xd1AwtR\x01\x89\xccxE\x9e\x97uT\xbd(\x8dkx\xb4!/b0g\xea\x0ei\xae\x9c\xfac\nU\xed#\xa0\xd1{m\xdd\xff\xf0v\xb2\xb6\xb4\xa9\xa4go,\xe3\x8alDY\xea\x96_=\xef\xeb:\xd8\x1az\x8a;\x8e\x0b\x7f\xe9\xd0V\xd4\x99\xbfC\xc4\xc0\x82^\xb1\x93U\xf4)\xe3\xd5=8\xac\x11`v\xda\xae&gt;yv\xdd\xfb\xa0ox\xc8\xae\x17\x13}\'\x1b\xcb\x99\x8b\x1cik\x81/\x0fks~\x05\xc6&amp;\xe6\xff\xca\xd7\x94\xeaF\xb3\xf2\xcb)\x93\xa5\xe4\xbd/\\,z\xc2\x16!\xe5\xd0\x01\xd9\x9f~N)\xbeP5\xfc\xf4P-T\x95\xcfo\xe6\xbc/*;\x86]\xb3\x89\xf82\xe0\x8b\xc3\xc7*?d\xdb\xedM\xe4\x032[J\xbe\xdc\x9b\xef\t+\x0clgV\xe0(\x13\x07?\xf9=].Ut\r\xc4\xd5\xad\xf2\xf5\xaa\xf0\xbdPe\xfe\x8fE\x96o\x17\xfet\x94\xa9\xa4\x0f!}\x88\x90r9\x8a\xda\x13\xf6\xa9\xd9\x90\x81\xf0\x1e\xa8\x04Ld\xa9\xb3T\x10\xa6\x1ci\xc4\xf9\x07\x1f\xc3\x86\x81\x8a\xed\xe8\x15\xdb\x04\xdb\x1f\x08\xea\x19\xdd6\xc2\xf7\xfa\x93\xc3Z\x944\x80\xdfu\xc4a\x96S\xe7\xc1r\rS\\E\xa2\xd8"\xc5\xd2*\xde/\xe5\xb8\xca~h\xf6\x9d\x14\xd5\x10.\xf7\x0e&gt;\xd5\xed\xa3\x8e\xfe\xd0A\xa9\x0c\x14\x8e\x0f\xa3\xed\x95\x86X\x16\x8f\xe6\x9f\xf4\xcbM\xa4\xc9\x01\xaf\xdaN\x86\xca\x8aI\xdf8\x8f\x01\x96\x05\xdf\x1eu\xba\xf9\xa3\x14\x9a\x19\xcd\x1d\x07\xfa*\xac\x13%\x91w\xea#\x8181&lt;\xaafO\x82\xcaD[\xa9\x83&lt;\xd1\xd7\xc0\xd9#\xbf\x98t\xe6K\xf6$9\x92f\xde\x8e\x15\xc9\x1ckUw\x17\x13\xae\x9d\xd9n\xcb\xc1\x13\xc0z\x87\xcfV\xa3g.\xc2\xf9c\xbci\xf41\xeb\x07&lt;a\xed\xc0\x8c8\xed\x1e\xc0D\xbc\xa0\'\xceq\xd4\x19\xf5\x18\x80u\x13\xc7\x9e\x83\x08\xa2\xd8iAv\xccL\x85O\x8e\xf3\xc6\xc8\xd7)\xb0\x84\xa7q\x8d\x86\x97#\xaewOe\xeb\x92i\x18\x89M\xd7*\xd8\xf1\xc0Z.\xfa\x8f\x87*\x80\xdb\x90\xde\x83\x01\xb6\x03g\xcf\x1dk\xf0\xf4S\xd0\xcd!\xb7\xb0\xc1\xd3k\xf1\xe1Z\x06\xba1\xba\x90{\x1c1\xb0\xda\xaa~\x80;\xce\x94\x01&gt;\x91\xa5\x15\xff\xb6\x11R\xbe:\xe6\xf0\xf0?\xe0&gt;&amp;\x06+\xad)"\xf1\xec4\xca\xf4\xd4\xe3\x96L\xd2w\xc1\xe9\xa3\'C\xd7x\xf4q\x08;U\xdeK\xa8\xbb\x1f\x02\xfc\xfb\xb8\xff\xc0\xe57\x9f\xc1n\t\x16P4\t5\xc7\xe3b\xb2\xeb]S\x01gs\xd5:\xb3\xf3\x0f\xbc\xd2\x92\x14\x15\x1d\xa3\x18\xc3;\x06\x1d\xf0\x97\xe3\xbf\xbb\xf5\xf5i\xe8F\xf6\xea\xa2\xc7m#\xaeW.t\xb0\xd9\x88p+\x97\xd9\x12\xe6\xdb\xa3m\xf6kG\x19\x97\xca\xa1c\xc7\xaf\xf0\xc6\x81\x99\xe3\x06V\xb4\x96M\x81\xefq\x05:\xa9\x96\xa9)\x89\xab\x0bq\x11;\xcc\xb6\xa2V\xae\xd3\xa6\xf4\xd4\xf3G\x0e=\x93\xac\x89T\x8bOY\x9d\x01\xa7\x7f|\xea$\xd7\xa7\x00\xb7\x10W\xd7n\x821\xc9@\x0b5\x1e\x02.\xfc\x82o\xa3\xb6c;$\xc9\xf7\x8c\t\x7f\xd2\xd1\xe1v\x9a\xd16p\xad\xec7N\xfa\xd2\xc3\xa9\x1f\xfe\x13C\xd3\x1c}\x1be\xf2e\xeca\x1bF\xea\x197\x95\x94\x10g\xc4\xa5\xe7y\xde\x16m\xb9\xa7\xf6\x0e\x14j!3\xad\xd3\xf3\x1bB=\xe4\xcf?\xf9\xab+g&gt;\xf8\x03\xc04\xaeW6%\x01\xddx\xecDT\x1f\xfeDo\xb6h\xef\x86\xba\x86\xc5E\x13U\xc0\xff\x1flZ\xef\xdc\x93\x05\xd8\n\x8cMk\x81\xc5`\xf7]\xa0\x81\x0b\xa6S\xb4\xd1G\xc0\n\xe2\xb9\xb2\x1b\xa0\x8a\xf0\xc4j\xe4`(\xf9\x06tW\xcf\x9e\xa9\xd058]\x17\x8b{\xfa\x7f\xc3\x16ut\xcc\xed\xff6\xb9\xb3\x04\xb9c\x01\xa9\xab:\xfe\x02\xbbLW\xf7\x17\xb3\xf3Qr\xb6\x93\x807d\xbfP\xc9IP\xa2\xe8\xb8\x84\x1c`%\xd7\xe1KU\xfa\xcaJ\xce\x157/\x01\x86\xeb\xa9\xdf\xf0=\xb1\xe5\xb3?\xfe\xfe\xf2\xec\xe4\xe6\x19\x93\xb7]\xdd~\xb5\xed&lt;H\xf5rP\xc7dFO1\xbb=e\'NqJ\xb1\x17\xcf\x04\r\x9a.\x01o\x98\xdc\x7f\x00\xb9\x10x\x02\xed\xa6\xd6\x1c-\xda[S&lt;\xe9\xe0\x82g\xed\x8d%]\x971\xb6\xbb\xd547\xd7\x80\x82\xbbi-\xb0\x96*9\xb5\xab\x98U\x88\xd2M\xf3,&lt;\xac\xc5\xf3N\x01\x93\xca\x84\xaf\x1d\xe0\xfd\xa2\xedH\xc9\xe6%\xa4\xcb\xbc\xa1\xa4\x0c&lt;\xc2t\x7f\xd7\xec\xe9\x07\x8bZq\xed;]\x7f\x18\xe8\xa7\xb2K\xcd\xc5\\\x9eT\xd86\xe9)\x0b\xd9\xd5V\xb2\x1a\x1c`\xcd{\x8e z\xd4\x90Y\x88\xa5\xab\x1f\x00\x93\xd9\xb5\xa9\xc5\x8f\xa7\x1d\xde\x87\xb9\xfe\x13\x1afkA\xdb\xbd\x16\x00\x0bb\x155\x06j\x00\xa50`y\n\x9a-\xa8Z\t\x9eFo^\xb1\x06^ln\x07\xd7&lt;\x13\xef\x03K\x8b\x86\xbdM[&amp;\xd7\x16\xf5b\xdd\x99X\xbc\x7f7h\xfc\xf5 0\x87hSkC\xba\x84:{\xf1\xc5\xdb\xa0\x8aq\xf1\rp\x8an\x9a\xbb\x12\xb6\xdd\xa9s\x0f\xb4\x8bt\xae\xa4\xec\xd1\xbd\x8e\xb5\xb5G:\xb08j\xd23P\xe7m\xf1\xaa\xf2bV&gt;\xeam\xfa\xe6p\xe4\x02f\xb7\x19%\xa0a\xdd\xf3\x90\x8dG\x1d\xeb\xae\xf7\x82]V{\x1b2\x00]~\xa7\xad\xa4\xf4\xea\xcd\xa2\xde\xb7\x18\x8e\xba\xf2\x014\xe8S{\x12\x18T*\xdc\x0c\xd4\x042\x16\xc0\x0c\xb7\nT3\x96.\xf8\x03]\xab\xd4\xbc\xf4\xe9\x99\xd6\x86\xa2\xd25\xd0\x11\x80\xf2\x9d\x17\x164\x94\xbe\xc1\xd8Y\xfa\n\\\xd1\xaf\xbeW\\\xccn*A\xe5m\xe8\x1c\xe2\xaa\xc0\x1a\xe8\x07x\xack\xe1\xb7{\xb0A\xa2\xe6\xe9w.\xbc&lt;\xf3\x1d\xbe\x12t\xd1V\xd4uw\x13\xd7\xce\x02\xa5\xc3\xd2\xb6s@\x1daT\xdf\x1c\x0fj\xe0K\xeb\x14\x17\xcf\xdb\x08\xae\x8bK\xb7=\x9e^\x8et\xca\x08\xf6\x12a\xe2\xf1\x9f\xbd`\xd5KV\x01\x1d+\xa8I\xa3\xe3*\xe4\xd4Y\x81!\xd6\xdf\x06\xae\x83j\xaf\xce\x7f?\x15\xf7\xf6\xee\xa6\x96UO\xa0\x89\xef\xe8\xbaf\xd0\x89\x10\xb4;\xaa\x82C\xc9\x8a\x154\xbbr\xb2\x13R;\x96-y\xd4\xff\x1d}\xb9dq\xc7\xf2\xb3\x87`c\x7f\xa5\x0b\x9e\xed\x07\x86\xa5\xac\x14m\x8f\x1c\xe103\xe5\x02\x15\xd8\xe7\xdeA]VTR\xb6\xf8\xc8\x81\x07\xcf\xfe\xdc\xed\xdfr\xed\xd0\x8f\x0b\x9f7\xb7M\x81m\xdf,Ypx+(\xdf\x9a\x18\x8b1\xd0\x1c\x08\x0b\x99\x83\x0e\xaf\x99w\xf6\xd5\xe4\t(c\x8f(\xcd\xac\x92){\x9f\xee\x04\xb9\x89UT\x9c\x89\x81.\x80EM\xda\x12\xe4\xb2\xf2\xa9g\x9f\x9eZ\x02\x0c\x9c\x06\x84\x8bJ\x1bJ\xaa\x16\xaf~\xf0e)xd\x85\xdd\xdc\xde\x8c\x9eG\xd9p\xaa\x19\x1b\xe9B\xd2\xf6\xec\x96{{\xaem\\\xf9\xfa\xd1\xb7\xc3\xaf.\xfc\xd8\xb2ag\x0f\xb4m\xc3\xa5\xadiF\xffC\x898\x84\xa3\xf8DUY\xb1\xe6C\x1d\x91H\x1en^\x86\x01\x03\x9c\xcaNB\xd2V\x0ea\xaa\xb2\xba:::\xba\xb2&amp;\xb1\x0e!|\x1a\xdcb\x03wt\x13jr\xe3d\xe2\x15\xe6e\xe2dc\x18\x05\xf4\x06\x00\xf9\xd0 \xc8\x1d\xc9A\x04\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -662,6 +772,14 @@
       <c r="D14" t="n">
         <v>58766</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xfdPLTEGpL\x00\x00\x00\x06\x06\x06\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x08\x08\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x07\x07\x07\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x03\x03\x00\x00\x00\x01\x01\x01\x00\x00\x00\x0c\x0c\x0c\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\xff\xff\xff\xfe\x00\x00\x00\x00\x00\x9b\x9b\x9b\x87\x87\x87ZZZ\x9e\x9e\x9e\xaa\xaa\xaa\xff\xf0\xf0ooo\xfe\x1c\x1c...\xfc\xfc\xfc\xff\xfc\xfc\xfe..\xc0\xc0\xc0&lt;&lt;&lt;\xbf\xbf\xbf\x02\x02\x02\xfb\xfb\xfbzzz&gt;&gt;&gt;###CCC\xf5\xf5\xf5\xf7\xf7\xf7\xa5\xa5\xa5,,,===---\xcf\xcf\xcf\xda\xda\xda\xef\xef\xef\x12\x12\x12\xce\xce\xceOOO\x04\x04\x04\xff\xfe\xfe\x1b\x1b\x1b\x10\x10\x10***@@@888III\xd4\xd4\xd4999\xe1\xe1\xe1ppp^^^\xee\xee\xee\x7f\x7f\x7fggg\xd7\xd7\xd7\x19\x19\x19\x08\x08\x08VVV;;;\x1e\x1e\x1e\xd2\xd2\xd2```\x06\x06\x06UUU\xfd\xfd\xfd\xc7\xc7\xc7sss\x1d\x1d\x1dqqqRRR\t\t\t\xf0\xf0\xf0\x82\x82\x82tttKKKLLL\xb0\xb0\xb0\xdf\xdf\xdf\xed\xed\xed\x85\x85\x85\xae\xae\xae\xf6\xf6\xf6!!!\x14\x14\x14dddMMM\x8e\x8e\x8e\xd3\xd3\xd3]]]\xc3\xc3\xc3000iii\xfe\x03\x03\xbc\xbc\xbc\x83\x83\x83\'\'\'555\xe5\xe5\xe5\x17\x17\x17uuu\xfe\x08\x08\xdb\xdb\xdb\xfe\x15\x15222\x1f\x1f\x1f\xf2\xf2\xf2\xa1\xa1\xa1aaa\x84\x84\x84\x99\x99\x99\x9d\x9d\x9d\x9a\x9a\x9a\xa7\xa7\xa7\x0b\x0b\x0b\xe8\xe8\xe8lllEEE\xfe))\r\r\r\xca\xca\xcaGGG\x96\x96\x96\xfe  \xa8\xa8\xa8\xff\xe3\xe3\xff\xf9\xf9\xdd\xdd\xdd\x92\x92\x92%%%\xfe\x19\x19\xff\xec\xec\xfeDD\xb6\xb6\xb6\\\\\\\xf9\xf9\xf9\xa0\xa0\xa0\xaf\xaf\xafJJJ\xc1\xc1\xc1\xc2\xc2\xc2\xff\xd9\xd9\xff\x8b\x8b\xfeKK\xfe\x84\x84\xff\xf6\xf6\xff\xad\xad\xfeZZ\xcc\xcc\xcc\xffww\xfe77\xff\xb8\xb8\xff\xd1\xd1\xfe\x11\x11\xfe22\xff\xc1\xc1\xfeee\xff\xde\xdehhh\xfeSS\xbe\xbe\xbewww\xff\xf3\xf3\n\n\n\x8c\x8c\x8c\xfe\r\rnnn\xe4\xe4\xe4\xffss\xff\xef\xef\xff\xe7\xe7\xff\xa3\xa3\x8a\x8a\x8a\xec\xec\xec\xff\x99\x99YYY\xff\xcc\xcc\xfe$$\xe3\xe3\xe3\xba\xba\xba\xa4\xa4\xa4\xff\xa0\xa0\xfe==\xfe__\xff\xd4\xd4\xff\x94\x94\xff\xc6\xc6\xff\xf1\xf1\xff\xb1\xb1\xff\x91\x91\xea\xea\xea\xfejj\xff\x9c\x9c\xfe@@\xeb\xeb\xeb\xff\xbc\xbc\xff\xc8\xc8\xfa\xfa\xfa\xb3\xb3\xb3\xff\xfb\xfb\x90\x90\x90|||\xf4\xf4\xf4\xff~~\xff\xa7\xa7\xfenn\xc4\xc4\xc4\x9fI+`\x00\x00\x003tRNS\x00\xc7\x02\t\x14A\xb8\xb2\xb4\xe6 /\xd9\xa5R\xa3e\xf9\x0b\xd7\xf0g{\xf1\x8eT\x90z\xc9"\xfa}\x031\x91\xfa?i2\xb6\x92\xba\xf5X\xf2#\x01\x8d\x1fQ\xfbu\xd8f\xc1\x00\x00\x07\xf9IDATx\xda\xed\x9cwT\x13I\x00\x87\x17\x94\x1c\x8a\x02\xa2\x88\xa2\x1e\x8a]\xafs\x11AD\x05\xc1\x88\x82\x08\x11\x90\xa24\x8dJ/\xa2R,T+(M@\xec\xbd\xf7\xee\xe9\x9d\xe5\xcerg\xef\xbd]\xef\xbd\xdf;/\xd9\x99,\xec\xecdw\xb3\xbb\xc9{\x97\xdf_y3;\xb3\xdf\x9b\xdd\xcc7\x9bLB\x10\xa6\x98"b\x9cd/\x19MdN\x10\xabw\xf2\xa1~F\x92C\xc9\xbd!\x96\xe5s\x17\xa3\xc9sK-\x96\x9b\xf1`\xb9\x99\xb0LX\x92a\xa5\xa7\xf67`R\xd3\x19\xb0V\xcb\r\x9a\xd5\x0cX\xee\x86\xc5r7a\xfd\x1f\xb0j\x8abc=\x1afj\x7fM\x95\xf2f\xa3\x9a\xd8u!\x15\xb0\xe1\x92l\x0fz2\xb2\xb4\xf5\xf5\x1e\x94\xe6\xb1\xb1\x0b\xfd\xd6\xb0\xc7\xda\x85\x9aPT&gt;\xea:OD\xd57\xeb@\xcb\t\xc8\xb9(\x9d\xac\xad\xbdL\xaf\x0b\x8ad\x8b\xa5@\xf6=F\x83\x15\xe8\x8b\xaa\xac\'\x9b\x0eC6\x1d\xaa\xa9\xf4\xf1BU\xae\xad`\x895\x11\x87\x15\x80\xc4R\xa5\xb0\xc0\nLC\xd6Na\x89u\x11\xd9z4n\xb4F\xd4\xe2\xb0\xbc4\x95\xdeh\xdd\\\xe44Z\xcb\xfc"5QhR#\xa7\x8cVZ0H\x9d\xfa\xe0\xfc\xe1\x14\xacA\xc9\xd1\xa3\xa8QxR\xb1J\x0f\xa4NQ\'\xf5@\xa9\xba`"\',O\xf4\xdbX\x83\xb5\xb3\xa0b\x12\x19\x7f\xf5hQ\xb1|\x17\xa3\x9bj\xb0"\xb5\x05\n\xeeXi\x0bpXA\xa1\xb0 \x8e\x8e\x15\x88\xc3\x1a\xa5-\x88R\x17,\xe44Z\n,\xd6dX\x90\xcc\x11+A[\xb08hgu\xf5\xadG\x9c\xb0NO)\x0e\x01\xc9\x8d.\x04]in\xf9\xa0\x14\xdcha/\xa27\xa5d\xda\x8b\\\x0b\xd5c\x82xP\x92B\xc5\xaa\xde\xe8\x13\xaa\x89\xfc7\x1a\xd6\xa0\xb8(o\x10E"\x0e\x8b\x93|\x16"\xdf\xc73\xa8X\x07U\xe3\xc9\x04\xa5\xd1\xde\x89\r2A0\xac,$\xd6&amp;9f:\xad\xcb\x14\x1fk\xda~\xce\xb3&lt;9\xd7\x8a\x8a%O\x89sO\x1f\r3&amp;^7V\xaa\\\x02,\xb5Wa\xe4E:\xb0\xd2\x92\xe0\xca\x85\x1bVJ\xf8\x7f\x99\xccs\x19\x98C\xc7\xba\x15\xb2y\x1c\xc8fO\xed\xdc\xaa\xc6\xaa\xcbJP\x80D\xd6b\xb0\x8a\xe2\xcb\xcb\xcb\xe3+yb\x15\xd3\xb1T\x0c\x87\xaa\xb1\x82\x0bY\xce[7\xd5\x05\xcbyb\xe5\xd2\xd7[\x94Y\x9e\x8e5},\x0e\x8b"\xb5l\xea\xcc\xa3\x13K\xb9{85\x99[\x04\xc5r]\x10\xa5\xc9\x92\xf5*NX\xbf\xbb\x8c\xa0&amp;\xdfEP,Z\xcaXb\x95\xe9^\x9db\xb1\x82\x19\xb0\x12\xd0X\xd9,\xb1f\xe0\x9e\x13\xf4\x18\xad\x82|d\xc7\tzaM\x90\xeb;Z\xf2m\xa8~W\xb3\x9dN\x97#\x1a\xe7\xbbM\x93S\x1e\xc8\x9e2`\xa9\x1f\xc8\x0e2a\x15\x96\xd2\xfa\rs[\xc3\x16\xab`\xbd_\xe3(\n`\xd7\x19\x95\x95\x95W\x8aB\xd1\'\xf6\xdbu\xfdz\xc9\xf2p&amp;\xbf\xf8dm\xf1\xa7\xe6\xd0\xb0\x1a\xd3g\x10&amp;,\xc3a\xf9\x1b\x16\xcb\x9f\x01KU\xe6j\xc0\x94\xa9L\x9f\xcb\x9b\xb0LXjm\xee\x18\xcc=\xc8\xbe\xc3\x06q\x8e\xefH\xc6\xd1\xba\xfdd\x08\xc7l\xd8w\x15\xf9\x04\x1e\x11\xe8\xc9-\x81\xbb\xb71bm\xdf\xfa6\xd7,\x1d\x80\xc2\xba\xcc}2MM\xa3a\xc9\x96\x91\xdd=\xbe\xc1\x15k\xe0\x00\xccg\xb8\x1c\xb2\xe4\x0f\xb2\xe92\x19\xc4r\x1c\x17F\x16\xfee \xac\x8ajpW\x8es\x86Xvf\x1e\xa0\xc3?\x05\xc1\xf2\xe2H\xe5\xf3\x0c\xb4\x8c5\xb3\xd3\xee\xcfx\xa3\xd9\nP~\xc9\x10\xa3\x05\xbf6Y\xd1\xac9u\xdfH\xb7VC\xc9\x8a/\xcfK?Z\xf0s&gt;\xafV\xdd\x1a\xeeg\xb1\x1d;\x93\xaczg\xa9\xd4X\x91?\x93\xcdf\x8e\xb5m\xbc\xcf\xe6\xf5(r&gt;s\xf9`\x91\xb4X\x05\xe5d\xab\x91\xd1\xedh\xdb\x7f^\xb3&lt;\x00:=.)\xd6\xb5t\xd0j\x9e\xa59}[R\xd3\xd6\xf0\xf9\xf0C)\xb1\xc0\x9c\xe92\xbbuS\xd4v)\xab6s\xc8\x03v|"\xdd;\xf1\nh3\xa7\x8d\x15z\x1b\xd7\x9b\xe1I\xe4!\xdb\x07J\x85\x15\x02\x9a$\x85[3m/\xeb\x10\xf1\x80&lt;\xe8B\x954\x171 \x9el1+\xa2\x03\xf3\xb67\x9b#\xc0B\xdfI\x82\x15&gt;\x17\xb48b\x83\xd9\x8d\xd7\xc4,\x16\x1cw[\x8a\x8b\x98\x07\x1aL5k\x82\xdb%\xd8\x1cZ(\xec\x84\xf8\xa3\xe5\n\x8e_\xd5\xd09\xf4tk\x05\xbe\xe7\xde\xbbA\xec\xd1\x9a\xa7u\x8e\x85\xae]\x95Z\x0b\x9d\xbd!.V\xd4\x08f\xe7\xd0\xd3.\x9a\xb4P\xd8IQ\xb1&amp;\xed\xc48\x87\x1esK8\xb8\xef\x8a\x88\x15Z\x8au\x0e\xcaB\xb3A\x8bS\xe2\xdd\xf2[t8\x07g\xa1\xab\xe7\xc5\xc2Z\xa7\xd39\xf4XC\x0b\xe9\\|\xf1\xc4Z\xef\xab\xdb9(\x0b\xcdb\xb9\xf8\xe2wo\r_\xcb\xc69(\x0b\x813|-\x02\xd6\x9aM\xe0\xc0\x1c\x1bN{\xc2\x9b\x98Me\xb7\xf8\xe2\x85\xe5\xcf\xd29(\x0b\xad\x02\x8b\xaf\xef\x85\xc6\x1a\xc6\xda9\xf4X@\x0ba?\x02\xe0\x81\x057\x0e\x1c\xd5\xed\x1c\x84\x852\x81\x85\xbe\xa8\x12\x12\xcbs:yPL\xa6-\xc1#\xd0B.\x1f\x0b8A(U\x9c\x9c\x83\xb5\xd0\x19\xe1\xb0~\x01\xc7\xc4\xf54\xe7\x85E\xb5\xd0\t\xa1\xb0\xeesv\x0e\xceB\x8c\x8b/\x8e\xf7V=\x0f\xe7\xe0,t\xf6\x9c\x10\xa3\x05\xef\xd6$\xa55\xa1G\xb4\x16:)\xc0h\xc1\x15\xe6\xac\x88\xb6\xfa\xfd\x04\xc8&amp;\x07\xbf\xf8\xe2\x82\x95\xe2\xc5\xd39X\x0b\x9d\xd2\xf7"\xae\xe0\xed\x1c\x9c\x85\xde{_?,\xf8\xac\xd7\x8f\xbbsP\x16:J\xae\xed?\xda\xa3\xcfE\xdc\x0c\xf6\xe8\x1e\xedjA\x08\x10\xdb\xcc\x18\xb2\xc3\x1f\x17\xf1\x1f\xad\xddk\xa1s\xec\x85\xf9\xe5\x9b\xd6B\x9f\xf3\x1e\xad\x8d\xa7\xa1s\x1c\x05\xfaA\x9ey\xcf8p\xbeo\xf9b\xc1\x9d\x19q2s\x81\xb0(\x16\xfau\x1f?,\xb8\x8f\xde\xb5ESB\xb0X\xb59Lv{w+\x1f\xacTPq\xd8\xc1\x8a\x100\xd6J`\xa1\x9f\xaa\xb8\xdf\xf2\x0b\xc0\x12k\xae~\xce\xa1\xa7-\xb4\xd0=\xceX\x85`\x89\x15\xaf\xafsp\x16:\xc3\x11\xcb\x07nc\xcdm)\xf8\xefc)\x16\xba\xc4\xed\xde*\x01\xa5\x19\xfa;\x07e\xa1~d\xf7w\x86p\x19\xad"A\x9d\x83\xb0P\xd7c\xe4\t&gt;;\xc7\x1ek\x14\x98\x8a\x8f\t\xe3\x1cz\xec\xa1\x85\xbeb\x8d\x95\x08\x9a\xc4$\xda\x13"\xc5\x11Z\xe88\xcb{+e&gt;pN\x82\xa3XT\x84\xb9\x0cZ\xe8SvX+Ep\x0e\xc2B-\\\x1b-\xbe\xf0\x171C\x14\xe7 ,\xe4\x00,D.\xbe\xb0\xa3\x95\x03\xbe|\xc8s\xe8"\xee\xcf\xfb\xdb+\xc1\x17\x0f\x17\x16\xe9\x1a\xad\xc5?@\xe7\xb4\x17\xfbo\x07\xdaF\x80\xafi\x1e\xea\xc0\xda8Z&lt;\xe7\xd0\xd32\x17\x9c\xfco&lt;\x96\xbb\x88\xceAY\x08\xdc\xc8\x83\xf7\xe1\xb0\xe0^\xdf\x8c\x8evR\xfc{D\'h\xa1\xbbO\x98\xb1\x1ei\x9d\xd3I\x9a\x7f\xb5\xb0x\x19X\xe8q\xd5R\x06\xac\x9a:\xf2\xe5\xfc\x97-\x08\x89b\x0f\x95ro\xcf\x1d\x14\xd63e\x90\xf8\xceAX(\x01X\xe8\xe1^\xe4&amp;\xf6\xfd\xd09\xce\x12\xfe9\t\xc5Ba\xc8me\xe0E\xb2\xac\xb3\x94\x7f\x9a\xa2\xb5\x106";\x87\x9e.\x0ey\xba\xa9Dw\x0e\xceB\x8c\x19/\xbesp\x16bH|\x80\x13a\x80h-\x84NqKCP\x11v\x1d3pT\xd9\xd28\x07g!DVJ\xe5\x1c\x94\x85\xe63QI\xe8\x1c\x9c\x85\x1a%&amp;\xb1;a\xc08C\x0b5\xc8HogCR\x11\x9de\xc9(,\x89\x9d\xc3\xd2B\xf7\xa5v\x0e+\x0b\xe5\xbd\xd2\x830x\xda+\xc7\x1b\x81s\xe8q\nh`\xa1`\xc38\x07a\xa1b#p\x0e\xcaB\xd9F\xe0\x1c\x94\x85Vj\x9d\xf3*a4\x81\x16\xfa\xe7-\x0b\xc2\x88\xd2]c\xa1\xa7\xb5\xdd\t\xa3J/\xef\x17\x16:\xe8\xdd\xcb\xb8\xa84\x16\xaa7\xb4sP\x16*)1\xbcs\xe8\xe9\xd1\xa7O\x0f\xc2\x08\xd3\xb7/a\x8a)F\x9f\x7f\x01\x98\x89\x03\x07\xa1\xef\xd0\xde\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -678,6 +796,14 @@
       <c r="D15" t="n">
         <v>58766</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpLhd]G?:{zz\x7f\x7f~\xfa\xcf\x15\xa2\x86\x1f\x7f\x7f\x7f~~~~~}sqq\xeb\xc2\x18\xfa\xce\x155*!\xfb\xcf\x15&gt;4+I@6gU&amp;7,#sqp\xfc\xd2\x15zyypmkXUR\xfb\xce\x16\xa3\x87\x1eA7+\x7fi#e`\\}}}=3*=3*gc_hd`&lt;2)9/$=3*YVS\xfd\xd2\x15}h$\xad\x90\x1eyxx\x9f\x83\x1f8.$nmn\x80\x80\x81WUTWQKA7,ont;1(\xa0\x85\x1fA6*zzyvuuI?5\xa4\x88\x1e@6-5* \\WS@7.jgfgc^sqrIA9&lt;1(eb`rpn8-#vutKD=a\\X?6.\xae\x90\x1eI?4trrPICmjilifolj\x9d\x82\x1f&gt;4,8.$~h#[VPgd`;1(eT\';1(hd`^YU@6-;1(fT&amp;fc]B91vtshebH@9JB;yxwD;3a^ZQJD:/&amp;7,"MF?\xea\xc1\x18LD&lt;WQKTNISLF&gt;4*\xfb\xd2\x154) NG@?5-?6-q]!\xff\xd9\x15LE&gt;IA9ZVQH?7^YTB91H?8;1(C:36+"c^ZC:2\xa2\x86\x1fXRM8-#QKF&gt;5,]P6\x8bs!\xec\xc9\x14KHSxc#\xb9\x9a\x15\x95z\x1fF&gt;4G&gt;6d`]IA:\xa7\x8a\x1eF9"F&gt;:ND5|f$\x8fv!TVe\x80j!\xaa\x8c\x1b\xa3\x8a cV5H&lt;*\xff\xe9\x13\x90v\x1f[WRHA&lt;;1*\xa3\x86\x1eea[gV)\x81j\x1c\x9c\x81\x1f\x97}!5-+\\Q9\x9c\x83 [Q&lt;SD)\xaf\x90\x1c?3\x1f\xee\xc4\x12hV&amp;B@KDANm[(\xfd\xd3\x11jZ2FDO&lt;3)B91\xfd\xd1\x16\xfc\xd0\x16\xfd\xd1\x15)!%\xff\xd5\x15@4%;1(\xf9\xce\x159.%/\'+\xff\xdc\x13\xff\xde\x146,"\xff\xdd\x13\xf4\xcd\x157-#\xfb\xcf\x16*!$\xff\xde\x13:/&amp;)!\'8.$&lt;2):0&amp;\xfe\xd6\x14\xfe\xd5\x14*"\'1)*/\'*5* \xff\xd5\x14=3*-&amp;)\xff\xd4\x14\xff\xd8\x142*+,$*\xff\xd7\x14\' %\xf9\xcd\x16\xff\xdb\x13\xf6\xcf\x15\'\x1f\'\xff\xe1\x132\'\x1c2)&amp;0&amp;"\xff\xe6\x11\xff\xd6\x14\xf6\xce\x15\x86k\x13\xf5\xcc\x0f\xc1\x9e\x15\xe0\xb9\x18\xf6\xcd\x15\xed\xc2\x11\xaf\x93\x16\xee\xcb\x10.&amp;%\xf2\xd0\x15\xd3\xad\x14\xa2\x81\x10\xfd\xcf\x16\xfe\xd1\x14\xc9\xa3\x14\xbe\x9b\x15\x9e;\xd1U\x00\x00\x00\xbctRNS\x00d\xca\x07\x02\xfe\xfc\x01\x03\x02\x18\xfd\xfe\xf3\xfe\xf8\xba\xfb\xf9\x1a\xfe\t8=\xfe\xfd\xd6\xfcI\x04\xfa\xfbH7\xfe\xef\xfd;\xfe\xfb\xfd\x02\xfc\xf1\x1e\x02&gt;o\xd4\x1c\xf6\xfc\xd8\x05\x0b\xbc\xfc\xd5\xf4f\xe0*9\x14\xac\xefD&amp;\xfe\x0e\xa4U\xd0\xfd\xbe\x17\x95"3.\xfc\xf6\xfe\xfciS\xeb\xfa\xd85`\xd7\xf3\xfb?\xc7\x11&lt;\xc3\xa8\x02\xc2M\x8d\xfa\xfe\xb9\xfc\x9fv~\x87\xd7\xfe\xf5\x9a\xe3\xdc\xfd\xfa\xbf\xb1[\xc8n\xcc\xb5\xe4\xcf\xfb\\\xd8\xfdk\xf5\x83\xe9\xad\xf9\xfe^\xe7\xfe\xf9\xb9\xbdc\xcc\xfd\xfe\xca\xb2\xfc\xfb9\xec\xfd\xf6\xba\xf8\xfe\xfeI\x8f\xd4\xfdj\xe5\xf0\xf4\xef\xfd\xa3\xf6\x9d\xf9\xfe\xf8\xfe\xe5vn\xde\xfc\xc6w\xfe\xea\x1a\xb3\xea\x9c\x00\x00\x11#IDATx\xda\xec\x9b{PSW\x1e\xc7\x8f+\xc9Mb`\x14dx:\x83\xc3 \x08\x88\x0f\x14\x03\x0ebelA\xaa2\xd5]P\x16\xd4V\xbb\x7f\xf8B\xbb\x8b[\xed\x8ck\xc7\xd1\x05\x8a\xd6\xd6G}Tm\xb5\xef\xf7\xbb\x9d!\xe2\x12\x13\tJ\xa0JHD @x\x08\xe2\xa3\xf6\xbdmg\xf6\x9c\xfb\xc8\xbd7\xf7u\x80d\xf6\x1f\xceL\t\xe6\xe6\xd7\xfb\xc9\xef\xfb;\xbf\xc7\xf5\x08\xc0\xd8\x1a[ckl\x8d\xad\xb15\xb6\xc6\xd6\xd8\x1a[ckl\xfd\xffV\x9a\xe4\x95\xf1\xe3G`\xe4\xa3\xa5=/qs-\xd8\xb5\x0b\xfe\x10\x07&gt;\xaf\xf53\xd6\xb2O2\xc5/\x10\xe0\xf8q\xf8Cte~\xb2\xcco@\x04\\S\x88U\xbfn\x81?\xe1\xf2\xba\xa4%\xd2N\x9dJ\x83/\x82+\xf0\xe3[~]%4\xf2\xe9:s\xffk\x89+\x8b\x1f&lt;X,q\xe9\xeb\xfbg\xfc\x064;{v\xf2\xec\x93\x15\xe7\x0e\xa5\xc0\xd7\xecdn\xe8\xacH\x86o=\xfa\xe9\xa7\x8f\xc2\x97\xe4\x15\xdc\xe0KFF)\x87\xceU\x9cDF\xb3\xfd\x80\xb5&lt;\xa7\xec\xd5C\xaf}\xd7\xf3\xddk\x87^-\xbb0\x95#T\xe8\xb6\xa3\xf9\x1fT|\xdc\xde\xfeq\xc5\x07\xf9G\xb7\x85r\xb4\x9az\x81c\x94\xb3\xdc\x1f\xeeZ\xf2\xe1\xc1;\xfd\xed\xffm\xef\xbfs\xf0\xfdu\xfcKOW\xdd\xbf\xd3a4v\xdc\xb9_\xf54\xff\xca\xba\xf7=F\x1f.\xf1K\xc8\x03\xf0B\xd5\x84\xed\xfa\xed\x95\xa7^\x00\xfc=\x17\x00t\xc7\x0fnW\xa9\xb6\x1f&lt;\xae\x83\x7f\xf02:U\t\x8d&amp;Ty\x1b\xf9li\xc0\x17\x0fv\xee\xdc\xf9\xfb\xe7\xf07\xef\xa4E|f\xdf\xb9\xd3\xfe\x19!H]\x1a\xf0\xf9\xef\xd0\xe8\xc1\x17\x02#\xdf\xf9\xab\\\xd5\xfe\xc7o_\x9d\x11|m\x828y\xfa\xdc/\xbf\x9c;}R\x90\x04\x08p\xe6\xab\xdf\xfehW\x95\x03\xbf\xa5\x87\xacw\x7f\xac\xfa\xe6\xcb\xcawt\xde\x17\x02\xc0\xb6\xef\x7fx\xfc\xf1\x1f\xbe\xdf\xc6\xd7\x10-\xdd;\x95_~S\xf5\xe3\xbbY\xfe\xaa;`\xcd\xbd\xf2\x10\x90W~o\x81\xb0\xca\xbc\xf56\x8c\x9d\x17\xde~Kh\xb4\xe0^y\x1e\x08)\xbf\'Y\x9aF\xab\xa1\xe6\xd9\x03\x00L\x01`\xeb\x8bS\x08\xaf{/\xce\xc9\x04\x01\x01 3g\xb1\xd7\xcd\x89)/n%\x8d\x0e&lt;\xab\xf1\x93\x8a\xa1\x99(\x8a\xe0m3\x05\x1dAf(\xc2\xd1\x92\x1f\xf1j\x1e\xe0;Z\x14q\xf0#\xfeZ\x01\xe8\x0b\x13\x01\x12\xf9C"\x03\xc8\x18\xf9\xaaZ\x83y\x8bJ\xe0\x97\x17\xbb\xc2{\xe5^\xd2\x82\x92E\xf3\x80\x1f\xeb4\x01\xc6O\x1c\x8c]8\xbc\xd8\xd5\x82\x85\xb1\x83\x13\xc7\xfb/? \xaa\x9f&gt;jLZ=\x1c.-X\x9d\xd4\xf8\xd1O\xfe\xe3\x82T\xf3k\x8a\x7fVw\x0e\x87\x0bQu\xaa\x7f.\xae\x99\xef\'.\x02\x84.m\x98T?dImK\xc2\xd6\x11*\x98\xd4\x96j\x19\xaa\x9f\xd4\xb04\xd4\x1f\\\xc8W\x90\xaa\xdd\xad\xb2&amp;v\xe2\xc6\x17\x8a\xab\xceD\xab\xca\xdd\x0e\xb9\xfc\xe1/\x9a\xaa5\xfc\xa21\xc8\x9a\xd8\x16;\x15\x87K\x0b\xa6\xc6\xb6%Z\x83\x8c\x17\xc3[\xfd\xc2E)\xd8{\tR\x91\\N\x1c\x1d\x91\x82N\x92\nr]\xea\xf5\xbd\x8e\x90\n\xf9\xca\xae\xbfh\xac\x867\xd1[\xa0\xbf\x14\xb9\x90\x82m\x89\x16\xbd\x914\xd2\xdb}\xee/\x94\x19 \x15\xf2Uu5\xe2\n\xb2\xe4;\x95tD\n:\xf3-\xc8W\xa4Q\xf8%\xc8\xe5\xcb&lt;\x81\xa8j\x8a\xeb\xed\x14\x15\xc9\xa5\xeaIlK\x92\xe5\x82TIm\x89=*\xa3\xc7(\xdc^_\\\xe3;.2_M\xba\xdb\xaa\xa7oPM\xeb\xd8)\xc7\x85\xa8:i\x05\x19#}\xeb\xddI&gt;\xcb_\xa4\xaf&lt;\nz\xb8\x82,\x89N\xe9\xf8Bq\xe5Ld\x14d\x8c\x90\x8e&gt;\xf2\x17IU\xc0*\xc8\xf3W\xacD\xbe\x87\xb9=\x96\xef+\x8f\x8e\x05&gt;\xe1B{\x10\xc6\x15GA\xd6_\x92\xf9\x8b\xcdW\xdeF\xfaV\x18_\xf3G\x9d\'\xa0\xaf\x966x)\xc8\xe1\x12\xafCT\xc5\x11Ry\xf6\xe3\xd2Q\xfa\x8b\xce\xedv\xbd\xe0\x06\xd4~\xb4\xe6\x8b\xc4=\x19\xed\xf9V\x95Q\xd4\xc8\x07\xf9\x0b*\x88\xf2U\xab\x18\x15\x93\xbf\xda\xbc\xe3\x8bT0\xdf\x12d\x940\xd2\xa3:4q\x14:r*Nu\xb5\x04\x975\xd5\xab\x0e\x91{PTAV\xc7Q\xd6\xa1PI\x05Y\x1d-\xfc\xb8\x87\xbez\x04V\x1c\x95Q\xc6\x88\xd2q\xc4\x13\xc7\x92\xf9\x83\xa2\xd1.\xd4\xd1\xc3%\xaf 7\xee\x07\'.!F&amp;\xe1\xe6\xc1\xb3\x0f;\xdc27\xa0\xfd\xc5\xc6=\x15\xedr\xbe\xa2\x8c\xdc\x1d\x0f\xcf\x0en\x1e\xa1\x8c\xd9\xe9\x03Q\xf6i\xd7\x14\xb9z\xf2;\xa1\xbf\x08\xf4M\xa6\xc6v\xe6\xf7(R]\x9bf\x8f\x1a\x98\x95=\x02W\x91_^W\xda\x14\xd559H\x89\x0b\xd6!G\xec\n4r\xadHr$\xca+\x88\x0c\x82&amp;7\xc77\x15\xe9&lt;3\xe40\x1fgiA\xc8\xdc\x96\xa8\x0ee\x7f\x99l\x15\ro\x02\x8d\x06\xbc\xd9Pa3)\xfb\xaa#\xaaen\x08\x92\x9d\x18&amp;\xd2\xba\xd5\xe8\xd1\x8b\x16\xe8"\x9b\xa2\x9a\x15\xb9\xdc\xd6#5\xe3\xd03\x88q5G\xacne\x05W6\xcd\xd2!\xaa\x00\xb0z\x1d&gt;\x1a\xcc\xedO\xde\x0cC\x8f\xc9\x08\xc8\xd5\x12\xdf\xac\xa4\xa3\xc9\x9a\n\xb1\xa0\xb7\xc6\xd5\xa4ZM\xca\n\xb6\xcc\xcaC4\x1a\x10v\xf3I\xec|O\xce\xce\xae\xc00\xca_H\xc7\xa1\xc9\xf2\xfe2]Q3X\xea+&amp;y_Mn^\xd9\x12I\xfb*,\xd0\x85=o#\xaa\xee\xb2DG`\x1c\xe5/\xc8\x15\xaf\x10\xf7\xb8X\xc8W]\xf1-\x91!\x94\xaf\xe2\x02\x1d\x89e\xddx\\T\xc5\xb9\xdb\x1f\xe1\xca u\x84\xf15\xab)\xbey\xbb\x9c\xbf0\xb1\x90\xaf\xec\xf1t\\i@J\x86+\xa2\x1fs\xae\xa5\xa7\x89V\xb7%\xc2\xec\xd1q\x16\x8c{9\x1d\xf1\xb0\x98h\x0f\xa1\x14L\t4GX\xdc\xadXs\x07Eu\xf7R\xb8Qe\x8b0g0q\x8f\xfc%\xa3#\x16\x16\x19\xed\xaf41\xd1\x9e\x92a\x8e\xb0\xa9\x8c\xe1\x97\xee*\xf7\xd1\xa8\xbf\xea.\xee\x85\xb33j\xa6\xd4\xe6\x1dqt\x9e\x98\xdb\x17\xd5!\xed/\x1c,2_\xad\xecc\xa2=n\x87Y\x8dZ28o\xf7\x16w\xcb\xf7_t\xdf\x8e\xfa+\xb2\xd8\xa9\xcd\x814W\x08\xcc_]\x92\xf9\x0b\x03\x0bQ\rE5E\x860{\xd0\xac&amp;K\'\xd9\x7f\xc9\xf7\xf7\xbc)\x95l&gt;\xc9\xf8b\xf2W\x94\xa4\x8e\xcaXt\xbe\x82\xbe\xa2\xf2\x15\x8c+\xba}U\x9ck\t0\x8f;\xe3\x90\xfeJe\xfd%S\x87\x14\xb1x\x15\x07*\x18hN\xf5\xb4\x19\xcc&lt;4O\x9c\x8b\xf4UA/\xdb!\x93\\\xec~\x94\xa9CJX^\x15\x07\xf9\x8a\xd3\xfc@\x1d\x87z\x0b$\xfc\x85f\x9c\x1a\xb4\x07\xd9\xfb\nt\x94\xda\x8f\nXB\x05\r\xbc\x01\x04\xe9\x08\xf7\xa3\xd8&lt;D\xee\xc1\x02\xaf\x0e\x99\xd1\x91S\x87\xba\xc4\xf6\xa3&lt;\x16\xca\xa2]+[\xe6\xb2\xbeJ\xf5j\x14\xc9&gt;\xba@d?\x92\n\n\xa7T\xb2\xc9\xdbgV\xaaC\xb2X\x82\x8ac\xde\'h\x14\xa9\xb9V\xa0\xa3\xe4\x8cC\xeahpe\xa4\xc8\xd6!9,a\xc51\x88\x8c\x90\xa2\xf3\x10SqDf\x1cRG\x03\xabc\xa4X\x1d\x92\xc1\x12F\xbbA\xb4\xd5\xa7\xf2\x17\xcf_\xcc\x94*:\xe3 .n\x1d\x12\x8b{i,\xbaC\xf6\xf4WT\xc5\x11\xbfO8\x7f\xaeE{\x90\xaa8F\xa9!\x02r\xc9\xd5!I,a\xc5\x91\xa2\xa2\xb8`\x1db\xf6#\x9dE[%\xa7T&amp;\x7fI\xd7!),D\xd5\x15\xe5Q0\x8e\x9f\xaf\xc4u\xa4\xf3*\xd9\xf5\xc9O\xa9d\xdc\xbf\xe1\xc9_(O\xf0u\x94\xc0\x12\xe6\xab7\xacr\xc3\x1aU\x87\xa8\xbe\x90\xd0\x1d\x1e(\xf3~\xaa&amp;\xe6/n\x1dj\xe2\xd7!q,J\xc1&amp;\xd1\x8a#\xc9e\xaf/\x1b8\xac\x9b\x01\xc0\xfa:\xd7\xe9~\xb7QqH\xb5\xb2\xfd\x04\xaaC\xdc\xb9V\x14\x8b\xde\x83\x91\xac\x82j\xab\xe2`kt\xf7\x9fv\xd5\xadG7\x89\tv\xe5Z\xf5\x18\\\x92uH\x0c\x8b\xd9\x83\xb4\x82)l\xcf w\x13\xbd5\xd7\x15\x1cC}\x91\x98\xbd\x8e\\\x1b\x06\x97d?!\x82EE\xbb\xa7\xe2`(HR\xd9r\x1d{c\xa8\xd3\x01\x1a\x10\xbd\xd7\x99\xab&lt;\r\xf3\xebPd\x0b\xfb\x1c@\x88\x85|5\xa4Pq\xc4\xa6\xf3\\\xe7\xdeh\xe6\x1c\x87\x16D\x07;s-8:\x1a\x1cl\x1d\xea\x83u\x88\xe2\x12`Q}{\x1f[q\x1c\x06\x1c\x05-\xb9\xce\xe0h\xf6Y\x99\x06\xc6\x17\xa6\x8e0\xbeR\xd8\xfcE\xcf\xb5\xdeX\xd4\x94\xea\x89\xf6\x14\xf9|\xc5U\x10\xc6\x95\x86{\x10\x06\x97Kt\x1e\xf2\xc2\xf2\x9aqd*\x0e\x9f*\xc1\x8b\x8a\xd1\x11\xc3\xd1*\x9b\xc1\xbc#\xcc\xab\x0e\xf1\xb1\xc8h\x8f\xef\x8b\xcc\xa3\xab\xf3\x0e\xb3\x01\x83JeM\xe0)\xc8\xf8\x0br%X1\xe2\x9e\xdbO\xccj!\xfb\t7\x17\xcb\r\xa9\x9a\xa3Z\x14{\x06\xafh\xa7\xa84\xc2SP\xd1\xc1\x8e\x84\x1e\x13^\xfeJ\xe1=\xcf1YY,\xab)\x08\xf6W\x9e\x8a\x83\x99\xafL=P\xc1h\xb1\xb3T\x14\x17V\xdc\xab\xf9uh\xb2\xdb\xc6&gt;H\xb2=\x9c\xd6\xc5\xab8j\x0bf\\E\x8b\x9f\xf0Bq\xef\xc4\xe2\xb2\xf2\xf7cs\x90E\xddMau\xab-Ah\x0fr\x9e3X\xb1\xa8\x9c\xde\xd1\xce\x8f{\x07V\x1d\xb2\xf1\xe7Z\xfb\x15\xd6[W`\x87\xcc\x9dRmX\x15\xc7!\x8cv\x9e\xbfP\x1dR\xe1\xe9\xc8\xceC+\xef\x18\x18o\x19\xee\xbc\xe2\x99R\xc3\xf0\x14TQ\x15G#w\xfa/\x1aSG\xcb&gt;:O\xa0:\xd4w"\x82\xf6VC\xc4\x89&gt;\xaa\xe2\x90\x99a\x9f\x05S\xc1h\xf9\x93\x83\xb0\x9f\xd8\xefL\xc0\xabCfO\x1d*\x1a8{\xf5%\x84\xf5\xd2\xd5\xb3\x03E\x9e\x8ac\xc6\xab8d\\i\x95NK\xc6\xe0\xeeG\x03\x1b\xf7\xa5\x97\x9f\xa0\xb0\x9e\xb8\\\xcaF\xbb\xc12\xb2\xdc.\xb3\x1fMxu\x88\xee\'t\xe97\x9fG\x0f\xc0\x9f\xbf\x99NG{\x1c^\xc51\xc9\xeeAA\x1d\xc2\xd2\xd1\x16\xe1\xc8\xa0\xe3&gt;o\xcfs\xc8[\xcf\xed\xc9\xa3\x0e\xe3\x85e8\xb0\xf6\xa0E\xac\xe2\xc8\xe9h5]3\xca\xafkz\x8e\x8e\xd9%\xe8/WJ\xb2)\xaa\x92\xfdPA=\xc6\xff@:\x8b\x8a\xefGW\x82\xa5\xbd\xfd\x92\xfcjo\xef?\xe2\xa2\xf2\x17\xdf\xbcd\xbf\xebH?\x86\xf9\xb0\xa8\x18\xae\xcaM\x9b&amp;\xc8\xadM\x136m\xaa?\xf1^R\x1c9\xd7\x11\xcc\xd1@\x02,Lz\xefD=4V0\xdfT\x99\xe0\x1a\x0e\x15\xc55\xf0\x1f\x9cu\xb4\xf1\xc6\xed\xd7\xf9\xcf3^\xbf}\xb9\xf1(\x96\xf1\xc0\xf0\xa8H\xae\xdd\x7f\xc2X\xc7\x8e\xbd\xbc\xfb\xe5\x8d\xc9\xdc\xe7\x19\xc9\x1b\xe1[\xc7\x8e\xe1X\xef\x8e\x1e\xee\xf9\xeba\x1d\x13\x9d"\xf9\x07\x9f\xdeF\xf2d\xeb(&gt;\xe7{\xe3a9\xcb\xe7\x07p\x95?"r\x04\x17\xac\xd9\xfd\xaf\xc7|r\xc4\x88\x10\tpRg\xfe?W\xe0\x1f\xd8\xa6/\nNq\x87\xec\xbf}`\xc6\xe8\xcf\x96\x8b\x01\xc0\xff\xb2\x96%\xa7Q\x01\xb8A\xb3A3}\xfa\x06\xfa\x02\xb1\x81\xfa\x15^\t\x9d\xbdLGx\xdeD/\x9a\xe9S\x88\x99\x85k\xc0t\r\xf9!h\xa6\x99N\xc1\xc3\xdfh~\r\xf3\x1es\xb3\r\xd3\x99\xc5\x03\xc8\xf3\x00x\xd6\xbc\x99k\xff2g\xce\xdf\x17\xad\x87e#+\xa7\xa8\xa8(===\xe7\xf06\xb4\xed\x9f)\xcc)\\\x8c\x1c\xbc|\xf3?\xfe:\xe7\x91\x9c\xadK\xa0k\x1f\x83o\xfe\r\x80]\xf0e\xeb\xf8y tci\xd1\x85d\xb0\xbe0\xbd(\xbd4\x1b\x80\xb4\xb5\xa5E\xe9\x85\xbb\xe0=\x080\xb30=\xbd4\xd3#2\x01\xce\xa3OQ\x8b=p\x90\xb6\x85\x04xj57\xd1d\xad\xad\xab\xbdu\xfd\xd6\xf5\xcbuk\x00\xd0\xdd\xb8Q[{\xf9\xdb\x1b\xb5\x8du{\x92\t\xf0\xcf\xab\xd7\xaf\xfe\x19\x92\xac\t\xfe\x16~\xe2Vm]N\xd6\x0c\xb0\xea\xe6\xf5\xabO\x01\xb0\xa5\xeeV\xdd3 \x80\x08\xfdwc\xed\xd5e \xa6\xae\xb6\xf6z\xdd\x82\xff\xb5o&gt;\xbdi#Q\x00\x7fR\x90\xccr\x99(\x11\x9c\x82\xbdq}\xa9\x1a\x14\x05\t\xa4\x15D\xfc\x89\t\x91BA \x8avS\x14\x1aP\x12X%i\xa5$R\xd3\x06\x92M\x946\xc7v?\xc2~\x8c\xdd\xdbh\x0e\x96|\x18\xd9&gt;Y|\x81|\x8c}c\x0c\xa4\xbb\xed^V\xbd\xf1\x0e\x91\x19f\x9e\x7f~\xef\xcd\x9b7\xc4\x03\xb0g\xda\x94\xba\xc7"4\xe6\xd2\x0e\xb6\x1dN\xac\x10\x83\x0b\x93R\xca\x1d\x14\xb32\xfe5rmK\x00\xd8\xb6\xf5\xdb4Jc0\xb0\x88f\xdd\xe7\x18\x91\xbb\x15Xl\xaaZ\xbc\xfd\xf6\x9a*UT\x07\xbfr\xc2_\x00\x94{\x9a\xect\xcf\x18\xadZ\xc8\x93\xeaU\x9dM\x80U\xbd\xaa\x97p\x1a\x86\xd3\xaa\xd6E\xac\x9a\xac)\x1c\xdb\x8fuyH\xf4U\x08\xfc\x00yK\x1e*jznj\x83\x8e#\xab\xf7iO|kIO[\x8c\xd8\x1e\x80\x12\x7f&gt;\xe1\xca\x9bD\xed\xa6\x92\x99C\xc3z8\x85\xb5\xb8M\x1b\xe8\xe5\xe3\x1aq\xe6\x11\x8b\xc9\x0c\xb1\x06\x8c8\xfb\xeb\xe1\xe5\xb4a\xb9\x15H\x19\x84\t,\x93\x98#,:\xe4\x88ei\xcd\x1c=\x8f\xc2\'\xde\xcci\xe6\xaax\xad~\x93)ME3\x0f\xc6\xa5K\x0c\xb2\x8c\xa0SD\x88\xc7$\x9f\xf4\xc0%j\xbc\x98\xdc.\x19\xec\xe1pR\xe4\x94tb\x95\xc4\xc5\xe9I~\x11B\x02\x0b\x038e\x12\xe7b\x8c\x95A\x13.\x88\xb3|\xf9\xa3\x9dJ\xe1\x9bX4\xfd\x89\xd66\xa2\r\xda\xba\xb6\x11+\n\x99\x9c\xc6&gt;\xf6)\xcb\x8em\xe0aY\xf5\xe4\xabB\xa1\x10\x9e\xbc\xcaS#\xbd\xd7\xe2\xea\xe8xw{\x12o\xf3\\\xee\x1d\xc4\x82~\xde@,5^:\xcc\xc6U\xdb-\x8e\xb1\xcaLq^\xa2\x02?D\xbe\x82\x85\xd0?2\x9a&gt;\xe6\xc6\xcd\xba\xc9\x0f\xdb\x0eb%`\xc7\x94\xcd\x95C]\x89\x87|.\x81\xa5\x0c\x9b\x8dF\xe3\xea\xc9\xe4\xcd\x9f\xf7\\\xd6\xf3\xb1\x7f\xa6\x9e6\x93\xcd\xbcwG)\x1a\x14X\xda\xd04\x99\xad4\xc5\x99\x9d\x11V\xbe\'\xb3\xf7~F\xc7&gt;_`\x05!|6\xc2\xb2\xe8_{M\xbd\xb4\xaa\xb3\x03\x0f+\x08\xfb\x9c\x9e\xc3\x92A\x8c;?5\n,mH\x19\x8a;\x00?\xdfmQ\xc5\x1a\xcd\xc1Xt\x9a!&gt;#\xec\x12\xdaJ*\x8c\xad\xa5\xa4\xa9\xac\xe5\xde\x89\xbc0\xc2\xda\xb3\x14~\xedA\x15\x1e[K\'\xbd\x924\xb2VMX\xcb\xaef\xae\x9d\xf3&gt;\xcde\xae)b\xc1zM6_C\xf8^u\xfa0u\xa2L[\x9b\x9dN\'\xbb\nR \x88\x856\xf4\x1dE\xdf\x13X\xafF\x99.\x18\x14pG\xbax\x9aD\x0c\xf6\xb7N\x96\x05\x96\x9dK\xa6\x0cE\xcd\xed\xe1#\x8e\xb0V\xba*m$\xd0+\xbb\x8d\xceNh\x8c\x95\xea\x11\xf3\x14\x12R\xe2\x9e\xda\xf1\x15\xe1D\x12-\xd54\xea\xec\xc3\xad\xb0\x16|4ez\xdbn\xe7TM\xf7\x93\x81\xc0\xaa\x1a\xc5/\xdd\x95\xad\x11\xe3\x1d\xea\x81~\xebdzT\xf0\xc6 t\x0bA\x8b\x16u[\xb0(\xb0\nh~\x99\x9f\xcf\xc5|,\xa9Oe\x0b\xef3\xf7\x999\x0fE\xa8\x8f\xb0\xd0\x86\xf4j\r`\x87y9\x00\xadE\xa2EC\x91{\x1f\xe1VX\x0b\xad\xa8\n\x87\xd9\x9ab\xfa3l\x84u3\xbe\xf5\xc1\xe5\xe5eH\xa8sZ8\xf9S\x08\xf0\t\n\xf5\xcbK\xe4\x96\xe6\xdeP\xe2\x9c\x1d]PU\x0cXk\xaaj#\x03\xcb\xba\xa6\xa0\r\x11\x8b\x88\x04Q4\x88\xc2\xe7O_r\xa2\x9e\x87\xd1ZU\xc4\x92\xe6\xceT\x9966\x07\\%"\xc5\xe5kj5\xb9\xd8\xb5\x15\x8cT\x0fk\xc9P\xb4n.\x97k\xda\x1a=\x0b?r\xe2\xed[!\xed&lt;\xb4\x1f\xcc\x87e(\\Q\xb4\xc1\xd1\x80iU\xe3\x0fx\xfe`\xba\xb7b\x99.?\xc10\xe4\x8e64\xb2\xb8\xe3\x13Xh\xbb\x8eE\xd4\xb3\xa4\x8f\x15\x84S\x17us[\xa1F\xdeK\xa7\x986\xa3\x98p\xa82\xe4T\xd3\xac\x9f3\x92\x87\x95\xc1\xf8\xfd3\xf7\n\xb10\x9dvj\xc4Jm/\x86B}J\xfc\xd4%A\x96+\x1ae\x9c1\xee\xfe\x0e\x17\xddj\x17\xdd\xb6\xbb\xe0h6G].\xfa`%N\xbam\xef\x19\xca\xfb\xdc\xb4,\xf3Y)!\x16\x1f\xc6? \xd6\xc6\x02\xa7\xee\t\xbc5\xa8\xf1Bh&lt;\xbe\x12]\xac\x9f\x96\x10\xa7\xeeR\xa3#\xb2e\xf1\x8d%Z\xf5\xc1\x9a\xd8\xc5\xb9L\t!\xbf\xb9\x0fpn\xb9w\xc9\x1a\xe7\x1f\xbccv\'\xd8\x7f\xe0\xcdu\\|\x0cG,o(\xb8\xe1\x9d7\xa8[\x16;\xa5\x16C=\xbdg\xaf\x9fb\xcdm8\xc6\xb5\xbf\x80\xaf\x17\xeb\xf5\x17\xde)\xdbD9\x12)\x8b\xd9\xbc\x1e\x89D*\xb0\x81\x7fG\x13\xa4\xb0\xbbs\xb7\xb3\x17\x15\xbd\xb7\xb1qc\xf4\xbf\xb5_\x8a\xf5\xbb\xe2\xba\xa7\xa3\x80\x03\x13\xe2;\xd4S\x89D2aO\x818\xb6\x8c\xdfD\xc6\xb1,\x14\xfa\x92\xf1&gt;$\xbd\xc1\x15\x048\xf0N\xec&amp;\xbca\x8f\x0b\xea\xc0\x7f\x94\xb3_\xeb3\xfd\xf0?\xcb\xc0\xc07*{\x91A\xfc\xb7\x07\xc7\xa7\xb2%\xefB\nL\xce\xa4\x05\x02\xc1q\x9d\x86\x8d\xd2\xbf\x06\xfa\xd5k \xe0\xed\x1a\x03\xa2\xd7\xb8\xe2\x9c^\t\x85\xbe\x04\xe0\x91\xf6/\x00\x02\xdf\xb5\xc4\x9f\xc9Lf2\x93\x99\xccd&amp;3\x99\xc9Lf\xf2\x1d\xe5o\xab\xb2\xd4\x1fP\x87C\x0c\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -694,6 +820,14 @@
       <c r="D16" t="n">
         <v>58766</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xeePLTEGpLsss\xf8\xd9\xdf\xad\xad\xad]]]\xf4\xf4\xf4\xe8\xe8\xe8[[[\x89\x89\x89\xe6\xe6\xe6\xa4\xa4\xa4\xa6\xa6\xa6\xb9\xb9\xb9\x9f\x9f\x9f\xf5\xf5\xf6\xd5\xd6\xd6\xce\xce\xce\xbf\xbf\xbf\xf8\xe7\xeb\xf5\xe2\xe6\xf5\xf4\xf5\xe4\xe4\xe4\xcf\xcf\xcf\xe9\xe8\xe9\xf3\xf1\xf2\xd8\xd8\xd8\xf1\xf0\xf0\xe5\xe5\xe5\xe5\xe5\xe5\xf0\xe1\xe4\xc5\xc5\xc5\xd9\xd9\xd9\xd4\xd5\xd5\xec\xec\xec\xf0\xf0\xf0\xee\xee\xee\xe8\xe7\xe7\xee\xea\xeb\xd8\xd8\xd8\xde\xde\xde\xf4\xc8\xd0\xfa\xef\xf1\xed\xee\xf0\xf4\xd6\xdc\xf1\xed\xed\xdd\xdd\xdd\xe2\xe2\xe2\xdd\xdd\xdd\xdf\xde\xde\xeb\xeb\xeb\xdd\xdd\xdd\xf2\xee\xef\xef\xee\xee\xf2\xc8\xd0\xf1\xf2\xf3\xe5\xe1\xe2\xd7\xd7\xd7\xe6\xe6\xe6\xcf\xcf\xcf\xd1\xd1\xd1\xd7\xd7\xd7\xe1\xe1\xe1\xea\xcd\xd2\xff\xff\xff\xd6\x1e?\xfd\xcc\x08\xd7\x1e=\xd6\x1c=\x00\x16H\xd7\x1c;&amp;4Ujs\x8b\x00\x14G\x93\x9a\xae\x00\x19J\xd6\x18:\x98\xa2\xb6\x10\x17F\x0f\x1cD\xd6\x1a&lt;\x00\x17I\xfd\xf4\xf5\xda+I\x12\x19H\xfd\xfd\xfd\x03\x18J,:[\xd9(F\xfc\xea\xec\xaa\xae\xc0\xd8$DITpaj\x83\x00\x13F\xfd\xcc\x06\x15\x1cJ8Dc\xdc9U\x7f\x86\xa0\xd8"A\xb9\xbf\xcd\xdd=X\xfc\xee\xf1\x89\x92\xa9\xd6\x178\xda0N\xeb\xec\xef\xf8\xd4\xda\xfe\xfe\xfe\xd7\x1f@\xd7\x1a:\xef\xa5\xb2\xe2Wo\xf1\xae\xb9\xe9\x7f\x91\xd8\xda\xe0\xf6\xcd\xd4\xe3\xe4\xe9 )R\xf5\xf5\xf6\xfe\xfa\xfb\xf2\xb2\xbd\xe2\\t\xff\xfe\xff\xf9\xdd\xe1\xf9\xf9\xfa\xdf\xdf\xe4\xf2\xf2\xf4\xf7\xf7\xf8\xfe\xf8\xf9\xb3\xb6\xc4\xdeB]\xd3\xd4\xdd\xff\xfd\xfd\xf3\xb7\xc1\x0c\x19A\xa9\xad\xbd\r\x13D\xc6\xc8\xd2\xfb\xfb\xfc\xae\xb2\xc1\xe6r\x87\xe0PjIOsu{\x95:Ah\xf3\xba\xc4\xd2\xd4\xd5\xfb\xe6\xe8BIn\xcc\xce\xd8\xee\xef\xf2\xe3by\xbf\xc2\xce\x19\'K\xf6\xca\xd2\xf9\xe1\xe5\xf4\xbe\xc8\x19 M/7`%+V+2]OUw\xef\xa1\xaf\x1d#P\xf5\xc2\xcbY_~\xbb\xbe\xca=Fj\x91\x95\xaaou\x90\xe5l\x82\xfd\xcd\x0eT[{\x83\x88\x9e\xea\x85\x97\xff\xf6\xd9hm\x8b\xe7\xe8\xec\xee\x9c\xaa7&gt;c\xfd\xce\x14di\x88\xfe\xd9G\xe7v\x8b\xe4g}\xeb\x8b\x9b\xdb5R\xed\x97\xa6\xff\xfd\xf2\x99\x9d\xb1\xdfGb\xdfKe_d\x84\xa0\xa4\xb6\xa3\xa7\xb8~\x84\x9b4;d\xa5\xaa\xba\xe8{\x8e\x8d\x91\xa7\xfe\xd0\x1d\xfe\xd40\x13"G\xec\x92\xa2\xeb\x8e\x9f\xff\xf0\xb7\xea\x83\x95\xf5\xc5\xce\x86\x8b\xa1\xb6\xb9\xc7\x16$T\xff\xf3\xc2\xfe\xdfg\x1f-Z\x08\x18?\xf0\xa9\xb6\xfe\xe1p\xff\xeb\xa0\xfe\xd6;\xfe\xd2&amp;(.Y\xea\x88\x99\xff\xf3\xce\xfe\xe9\x97\xff\xf8\xe4\x9c\xa0\xb1\x0b\x1cM\x8b\x8e\xa4\xfe\xdbS\xff\xee\xacz\x80\x99\x96\x99\xad\xfe\xf8\xeb\xff\xfe\xf8\xfe\xe8\x8f\xfe\xdd\\\x9e\xa2\xb5\\f\x7f\xfe\xe4z\x06\x16=\xfe\xe7\x88\xf6\xee\xdejq\x88\xfe\xe5\x83\x00\x11D\x04\x15;\x04\x14G\x87\x90\xa7\x0e\x19J\x8a\xbc\x82\x1e\x00\x00\x00?tRNS\x00\t\xfe\x1c\x12\xde\xd3\x05\x01\xc7\x0f&amp;-\x15\xf6hP8\xf4\xef\xe9\xa6D\xa9\xd9n\xcc\x9b\x94\xe3BuZ\xb9\xc2\xbd\xb2\xcf{w\xfc\xf8\xfb\xf5\xd3\x88\x89\x95\x82\xb5\x8d\xe2\xc7\xf5\xf0\xc6\x82\xb8vz\x8f\x82\xd9\xe1\x05\x83\x91\x00\x00\x19\x0eIDATx\xda\xec\x9akp\x13\xd7\x15\xc7\xb1Mk\x17p\xfd\x06\x0c!$\x04&amp;0\xd0\xa4\x93\xd0O\x9d\xceJ\xbb,i\xb3\x1d/\xdaQ\x91"\xa8&amp;\xaa\x90jI\xd6c\xfd\x88\xf5\xc2 T\xc9\x8c\xc1\x9a\x8e$\x82\x82\xa5f\x8a\xc7y\xd4.V\x11\x8e_J\xec\t\xb4\x8e\x8d\x8d\x9d\x8c\x99\xd8\xe0\x1a\x9b)$\x06\x1a\nI\xa6\xfd\xd8{W\x92%\xaf\xd7\xb1\r\xc8\xf9\xe2\xff\x8c\xad\xdd\xab\xabs\x7f:\xe7\x9es\xee\x8e\xbdb\xc5\xb2\x96\xb5\xace-kY\xcbZ\xd6\xb2\xbe\x17\xa5/\x8d\x16I\xb5\xb2\xe0GK\xa1\x173\x16\x89\xf5\x83O^I\xben\xfep\xd1X\x07.\xefM\xb6.\x1f|\x04\xac\x0bo\xfd*\xb9:\xb4\xffQ\xb0^\xbf\xf4\xed/\x93\xa9o\xff\xf7hX\xbf\xdb\xf7\xea\xbe=\xc9\xd2\xbeW\xf7\xfc\xfe\x91\xb1\xbe\xf8u\xb2\xf4\x97=\x8f\x8e\xf5\x9bCH\xb2\xf4\xdao\x93\x8f%\x10\x8b\xc5\xb6yg9l6\x9b\x11A\xc0o\xdbcc\x19\x9d&amp;(\xda\xa41\xce\xbd`?\xa5\xa2h\xf0js;\x195\xf8\x1d\x1c\xb34v\xbb=\x8c\x08\xcdv\xbbY\xf0\xb8X\x02IqT\n\xb7e.\xac\x0e\x1dJ\xe8\xc1\xabX\x14\x9d\xabS8g\x83\xd5\xe1(^\x8a\x18e(\xaax|,\x11:-z^,*&gt;\xd9=kV\xf9\x93\xc6\x12\x89D8|\xb1.\x04K"\x91\xc3\xc92[\xb2\xb1$\x1a\xaf\xdf\xa9BQ\xdd\xe0\x02\xb0D\xe5VkH\x8b\xa2x]\xd2\xb1\x94\xc0h\x80@\xd1\xae\x05`Qb\x90s\xed\x80\x80^\x12,\xa5\x1cE;\x17\x88\x85\xf4\xe0\xa8\xce\xb9$Xu\xba\x88\xb7,^\xb7\xded\x8dm\x1c\x87\xd2+6\xb2\xb0\x1c\xc2T\x10q\x89\x17\xbc+\x142\ti\x11\n\x85\x96d`YR\xed\xc0\x01\xe3\xc0i="\x82(\xd6\x1a4\x0cUj\xa3JN\x19\x02\x033\xb0j\r\x14\x98\xdb\x03\xee\x07\r\x063\xa0C\xf4\x06\x83\xa1&lt;\tX\x1d\n\x98]\x94\x1f\x11\x03:\x9c\x04?\xa2!\xe0\x047\x93\xa08\n\x06\x13\xb0\xecpP\x05\xb3\xd6\x80\xe3Z\xf8\xdaL\xe2 \xa6O\x1e\xab\x16\xac\x84k\x9d\x88\xd1\x0cL\xfb\xf4=\xe0N&amp;@\xac\xb0x\xe0\xc5\xc5\x00l\x06\x16,[\xb8*\x00\xb0PT\xce`\x01\xef\xb9\x93\x83%\xef\x06\x19\xdf\x00\xd6k4"\x96~\x1dZL#\x8d\x00G[\xda0\xa2\x98\x89eV(\xa0\x17%\x9a\xa5\xc0\x02\xa6\x10\xa4\rG\x8b\xc3CCC\xb4\x16\xe0)\x01\x84.\x0cF\xbd\xd4\x0c,\x8b\xc5\xe2\xef\x06\x08\xedK\x81\x85\x8f[\x10G7\x0c&amp;\x14\x08\x93K\x03~Q0I\x91R\x9cU \x90\x06\x90\xb7*c\xb2\xb1@\xf0Py\x1d"\xec\x8at"F\x06\xb0L\xc4\x87H?\xbbn!~8Q\x90l,\x07t\x97]`\xf1\x81 \xd2\xe0p%\xf6\x8a\xc5J\xbf&lt;\xba\xaa\xc37\xcb[4\xe8\t*\x1b\xc0\xd2\xa6F\xbc\x99\x14,\xc4\x0b[b\xb3C\xafCqpXB\xacf\x93\x00\x84\x14D\xd4\xa0D\x844\xae\xa3\\C\xb0\x13t\xa1:Q\x9d\xd5\x9aJ\x03&gt;\xdc\x87\x98Q\x94\xec\x00\xb4 7\xf1@R\xaa|=\x0e\xc3\xa8\xec\x04\x0bt\x87\x06:q\\\x91\x8a\x98t\xb0P\xb4\xbb\xf0n\xdaZ\xf3\xf1\xa7\x97\xde\xff\xac\xaa\xbcT$\x07\x82{\x0f\xadC\xc2`\x02\xeak\x86\x99Jy\x93\x82es\x01\xa3\n\x01\xdcd(\x01q\x0c6\xc4\xd8\x06\x97\xc5e\xe0\xc8\xf7\xee\x99\xcf\xab\xab\xab?/:(\xf4\xd6F\xce[x\xd8\x81(eL\x8a\x80;\xdd\xc0\x13\xee\x89\x12\x82\x90\xc3t\xd3\xe0\xa0\xe9\x0cZ\xdc*\x1d\\J\xd7\x08\xc7l\x1dr\x8203\x9b\xe9\x0f\x7f\xff\xd3\x997\xce\x14\xfd\x0b\x011\x05\x83:\x99\tvC\xab]\xc7\xf4\x01\xbc\x144\xd1\xbab\xa2\x18`u\x12\x84L\xf0$\xce\xf2N\xd8\x98-C&amp;\xe6J\x10\xf2\xb9\xcc\xcd\x9a\xe8\x01ZL\xd7WF\xae\x0eW\x9e8qT}\x989\xb4\x9bL\xe5\xd1\x93\xbfMo\x96uv\xd52\x1dTI\xd3\xb4\x06q8i\xdaiL\xc2\x93\x8f\xc5\x11?\xd4\x07o\x9f\x7fs\xf6\x8c\xe0\xb5\x0f\xe3\xcf;\x02e\xf4\xb8\x01&gt;U\xb2$\x0fd\x93\xa3c\x0f\xbf\xa8\xe4x\xf4\x1a\x1dK\x00[\xea\xe7\xc4k\xbd\xd2\xbb\x1f\x1d\x87W\xc2#\xf1\xd1\x13 \xa0S\xbd\xfc\xd6\xe0\xf7\x835yO\xca\x1f\xabx\x07\xec\xa6\xd3\x17_\xbf\xa0\x8e\r\xd7\xec\xfd\xf2\xf4Q\xf5])\xbfi\xe2\xce\xf7\x80\x15\xec\x93\xf2\xa5\xf7\x8f\x97!\x95_\xbe]]T}0\xe6\xabSE\xd5\x17\xde\xad\x9al\xe1\xf3\xf9\xa3w\x1e\x17+=e\x91X\xc3\xbd`]\xe9\xf0y\x04\xb9\xf9\x9f"\xa0\xea\x7fG\xc6?\xae\x067gj\x8e\xb4\xc2\xb7o}\xf8\x98X\x9b\xb7\xae^\x14\xd6\rH\xc5o\x99\x02\x97\xefC\x90\xa2\xa27\xca\xe0\xf8\xe9\xb7\x99\x9bc\xea\xfb\xf0}\xfe\xdc\\\\X\xe9\x85kfR\xa5l\xa8\xcf\xdb\x9c\x99&gt;?\x96\xc0\xaa\xf1\x83\x92\x14\x1ccV\xed\x83\xab~\x12\xc1*\xfa\x0c\xbe\xaf\xde\xcb\\\x9f\xac\x98\x9023\xee\xc18j\x9a\x9bM\xca\xf9\xb022\x9f\xde\xaa\xd98\xd3{i\x9b\xe4\nz\xd3\x96\x97\xb2S\xbe\x13\xcb2b\x97c"\xc3\x90\xe5jd\xd1\xebw\xe2\xde:\xcbT\xd2\xe8\xdd\xc9\xaa\xdb\x91\x19\xd2\x07%\x08-!IB\xe1\xb4|\x17V\xfa\xd3\x05\x9b\xb6\xf7(6\xcc\xdcKiy\x14\x0f\x13u\x95n\xdf\x9537\x96Qc&amp;y@\x18\xd665\xda4\x8du\x93\x01\xb9\\\x16\x99T\xf9g&amp;\x881,\xfe\xa8\xa0\x99\xc7\x88\x0c9\xe6\xc6J[\xb7\xdd\'!\xb1\xce]3\xb1Vmh#\x99\x05K\xd7\xaf\x9a\x03KL\x9b\xe5Xd\x05\x1e\xe8\x83\x13M\xb1 \xd6\xec\xad\x06\x99x)6\xef"\xb8;P\x13\rb\xcb\x847\xf2U\x80\xe4\x1d\x1a\xdb\x1cX\x99\xdb\x9a\xb5\xc06f\xde\xc2\xfa\xfb\xc13;\x0c\x18\x06\xdf)\xcf\xe6\xc22\x06\xcc"2\x06\x05\xf9\x15\x1a\x98\x8a-\x93\xa0\x8c\x96T\xbey\xee\xd4{\xd3u\xab\xf2\x83s5\x1e\x8fz\x94\xd9{7\x02\xaa\xf8\xa70L\xd5\x18\xb0qa=\xafg\x9c"\xa9+deb\xc6\xf3;\xea\x1b}2\x1e\xe1\xcc\xe2\xc0\x12\xd4b\tL\xcc\x12\x94;\xd8\xc7\x97^9W\xc1L(I\xa8\xf2\xc8a\x8f\xc7Sy\x1d\x06prP\xcbL\xd6\xc6&gt;\x8d\x91\xaer\x0e\xac\x82F\x0c\xec!s\xdd\xba\x14v\x85\xc8X\xf3\xe2z\x07\x8dIR\xd7\xce\xc6R\xfaH\xde,i\xc3\x93\xd7\xa5W\x8f_8\xcdN\xd6\x92*\x8f\xa7,\xd8\xc4o\xb9fu18d\xad\x9f\x8a\x7f\x1f\x89\xde6\x0b\xeb\x17\xf5\x98H\xb3c[V\nG\xe9Z\xb55\xa0"\xfb\xb7\xa4$`\xed;\x84\x88\xf5\xa5=\xf6\x19\xae\x92)"\xb7\xd8@p\xac\xf7\xe1\xfes%,\xaa\n\xe0\xac\xd3\xf7\xa5c\xc3\xd1\x00b\xb5\xb6p\xa2\x01\xcc\xd5C+\x91\xe3\tX\x19i/\x1b\xc8\xf1\xfc\xd5\\\x055m\xb7^\xae\xed_\xbf&amp;!\x13\xf7\xfc\xb3,D\x91\xac\xf8am~Q\xf4\x8a\xbe\xd2t\xffd,\x05\x91\x92\x12\xe1\t \xe0+\xe0\xac\xde\xbe\xe0\x88$2\xadK9\xce\xda\x00`\x93\xe9+\xfe\xfa\xdf\xb8\xb72\xb2s\xbb\xc9\xdami\x1cT\x1bB`\xbflY\x9d\xf0\xc7\x95s\xa7\xcaJ9\xa2\'\xd14FAEu\x13-7\xfev\xf6\x04C\xa5~\xe5\xabw\xce\x1e\xf8#\xa4\xf2T\xde\xeb\r\xd6G\'\x11t\x98\x98m\x84\xf4\xf9\xff\xf1\xda\x85\xaf\xa6\xebVv\xae\x8b\xa8}n\xd5\xac\xad\xb5\x8e\xe6Q\xdb\x0b2c\xd5mM\xfe\xf1c\xeaT\x1f\xc6\xe3\xb08\xd0\x11\x85\xc5d\xde\xab}\x0f\xcf~t\x18\xc4Q\xf8\x01S\xbe\xce\xbc\x05C8\xd12&lt;\xa2\x8d\xf9&amp; \xe10\xc2\xc3T\x83CUe/\xaf\x8er1\xfe\xaa\xff)\x1bkun\xa7\xd6\xbd1Z52r\xb6\xe6\x06\xc2\x83\x06\t\xc6i\xd00\x18\xf3!f\x9e\xeak}x\xd2SV\xa1\xbe\x18\xa9\xf5\xd5\x9fz&lt;G\xae5}S.\x9fN\r;\xa7\x15\xf0aB\xd2\xdd\xbf\xb3 \xd6\x06\xb3wR\xaa&lt;\xf6\xf6z&amp;@t\xe5Gc\xbb\xea\'\xb9\x83\x14\xc6\xdeSqQ\x8a\xb8\xe9\xd00\xffzP\r&lt;\xf4u\xa41\xbew\xb2\xea\xe8\x83\xa6\xb1)WB\xb9\xe2\xcd)\x0c\x13\xf5\xe4\xbd\x14\t]\xc6\x0b\xe3\xc5\xa1\xcd,\xac\xc2\x11\xa2}w$\tsv\x0f\xc9H\xde\x02Ey[\xf9-w\xa7\xd4ee\xc7\xbe\xde\xbf\xf7\xe0\xb1\xf3\x95\xc3\xadR\xe9\x83\x00\xb6P\x03\x98jd\xd7Z&amp;\x929?#\xcc\x05,\xac,7\xe1b\xbc\x95R\x98\x1f\x92,\xd8(\x8f\xd0\x83s(\x7f\xec\x9b\xe0\xd1#G\xd4\xea\xa3S\xb7o\x81\xa6\xd4\x14l_\xb8\x05\x1e\xd6\x9e\xf7TZ\xc6\x8a\x8c,\x13a\xd8\xc8\xc2\xca\xf1\x8b\xb4\xa6-\xd9k\x0b\xb7\xd5\x19\x08\xdebl^a\x0e\n\xfc\xb1\xd6{Wo\xf5\xb50\x9d\xb0\xd5K\xcd\x0c\xd5&lt;6D\xe1\xbc\x82\x9f?\xb5SA\x84\xd9AL\xdf6H\x8a\x06R5\xa6x?^\x80T&lt;^\xf7\x8d&amp;&gt;K\xd2\x07\xee\xc4o\x86\x99\xcd\xd8\xbc\x91\xf4\xf5\xb4S\x98"wVE]\xfb\xe36\x8c\x00"\xe7\xa5\x8a\x7fy\x99\xa0\x83TM\xf6\xb2\xb1\x9a\x86\xdb`\xd3\xb7wF\x0b\x8a&gt;&lt;\xdfV\x85\xf9\x85\x91\xf6\x9d\x85\xb3\xcaiFv~\xa0]\xa6\xea\xeaq\xcd\xc7e0\xc4\nX\xc8(pi\xad\xd7\xd9X\xbd\x930UU\xfe!,\x8a\x15\xe2\xc4J\x18\xb4w\x18\xba\xdb\xf5yY\\\'\xfb\xcc\xcd\xcf\xae_\xbf!\x7f|z\xba\x84\xd3\xf9d\x7f[tXN\x8bFR\xe5\xa6Q)\x0b\xab5\x15\x94R\x95\xc6/\x8et\x03\xb2\x83\xe6\xc2\x92\xf4\xc7\xadw\x1f~\xf6\xb9\x82\xac\xcc\xb9\x1e\x7fV\xaeLy\xa1c\xdaFW9\x97\xb9\xe2\x86\xf6X\xa1\x94\xf0$V{\xdb\x15\x16\x96\xf4\xbe\x1e\xe3i\x1b\xdc\x94+\xd2$0\x83F\xcb\xe5\xadrY|\x8f\xe6e\xce\xf3\xff#Y\xf5\xd3,\xed#\\X\x94X\x96\xe0:\xa7L\xf6\xb0\x85\x85u\x05x\xc9\xd5\xa0\x85-\xd9\x05\x8b\xbd\xd6\xcb\xb51\xc8P\xed\xf4\xa8(7m\x9e\xe7\xd6\x1cM\xacm`\x03\xe3qk\xda\xc8\xa9\x01+\x96\xfc\x9fv3\x0fj\xe3\xba\xe3\xb8M\xdd1\xf1\x85\x8d\x1b\xc7\xd3\xd8n\x0e\x97\xc6\x93\xa6\x936\xf58\xd3\xe9t\xe5Y\xc6\x89\xb5\xb3\x11\xd2.FV\xa7lU\x8a*!i8%U @\x06\x99\x80@\\\x83@\x18\xa1\x03I\xdc\xf7)\xcc\x8d\xb9\x8c\xb9|\x10c0`;\x80\xf1\x95Lj7\x99\xfe\xd7\xb7+$\x04.\xb6\xf1\xa4\x9a\xd1\x8c@\xda\xdd\xcf\xfb\xbd\xdf\xfb\xfe\x8e\xb7\x1b:\x05#\x8c\x00\xa7\xd0\xb7\x89\xe1\x82\xc7k\xb1\x9a\xfe\xc5\xa5\xc1\x15\xd45a\xbb&lt;\x00\x81\x91v!\xeby.\xc6\xf8\xaa\xcbq\x0f\xefx\t\xd6\x8eO\xd2\x9dJ\x994\xbaz\xb2`9\xf59\xb1@\xcfl\xd0$)\xce\xad~\x05\x0f\x8e\xad\x95\x88\xc7\x05\xe0\xbb \xc7\xe0\xe0P\xdeT\x8d\xbd\x81\xc9v\xe8\xab\xc0-j##6W\xce\xaay\xebe\xf7\x00m}7b\xe5\xd7\xe2\x1c\xa1\x18(\x06\x0c\xae\x80 m9\xd4rOd\xea\x82y\xd3-\x93l\x81\xcb\x8cp@\xc1\xb35\xde56\xe8f\x1aq\xd4\xd8\xe4\x12\xaf\xbb\xc6\x83J\xd6\x0b\xd3\xc9\x08\x8d\xf0\xf9\xe0\x1d\xacw\x89."\xff\xe3\xd6\x8d\xb9&lt;=\xdfy\xfb\xe8\xe1Q\x8e3\x7fQ$\xe5\xc8\xb3\x85l&amp;\x93\xad\x10\xf2 a\x1b\xb8\x1a\xa3\xbd\x90\xd1\xbe4S[\x03;\x83pP;\x97\xa5hq_\x879,N\x80+D\xc3\xba\xda\xa6\x1b\xa3\xfc\xecq\xf2`\x1d;:]7\xd8 \xcfN\n\x9f*\xe4\x15*\x9c\x99\x08\xdc\x15\xb5\xff\xb0\xcf\x86`\xfb&lt;Z\xc3\xda\x18+YG\x043\xcc\x9e\xef\xdeR\xd3\xb72H\x87O\xe7\xb2\x1f\x8c0\x1c\xd9&lt;\x98J\xb8kB\xac\xbb\xb1:\x8dM\xf3\xe3\xb0\x85\xb2l\xba\xc3\xa2\xd9c9A\xad\x13A \x89\xb7\xbbW\xd6\xf9}\xd9\x1af\x1b\xecL2\x02\x82\xbd\xf7\xfd\xcf\xc9\xdb\xed\xb9\xe5\x90\x06h&lt;\xa9\xb8A\x02\xdd\xc4\xb9\xb9\x00}\xd6j\x9d\x18\xc3\xe4\xb1\xc394x|\x82\x1f\xc1\x8c&amp;-\nW\xb0I\xa3!SsH\xf83\x17\xd5R!\xad\x86r\x03\xd8\xe6\x11D\xa5\x8a\xe7\x07Y\n.\x0cw\xe7\xac)\xab\xcff\xe9\xc5\x85\xc2`R\xde\xa9\xb0\x814\xf8l\xd9\xba\xbe\xc4\xf0&lt;\xf0\xfb\xc3\xbf\xfa\xc9a\x01\x8d!\xd04dO\x809c\xdb\x91\xf1k?PX\xb8&lt;\xa2\xc2\xc2\x8c\x16\x08x\xa3\x0c\x9a G\xd0}~\x82\x12"\x0e\x8b\x0c\x1b\xb4t\xa6\x8e#_r4%\x9a\xc6\nX]B\x0e-\x88\x0c&gt;\x1a\x12\x9e\xdb\xceL\xec\nGh]B\xbb\xc6\xf6O\xbd"\xc7\x89\xf5\x1fU:\xcb\xc6\x03U\xa0\xdd\x9e\x0e\xe20\x1c\xfd\xfe\xbe7~\xb9w\xad\xce\xef\xf5\xd6p\x8f}2\xc8\xe0\x8c\xe4\xd8F4\x15\x15\xba.N\x80]\x92\xe5Ga\x9d\x03\x95-\xc3"\x04IL\x0eLk\x132jb\xa2\x9d\x81\x8cc\t\xe7\xc0\r\xcc\x86\xf4P\xaa\xb8o\xba\x11\xcaI\x14V0X\xb6$\x16,\xa6\xa2\'\x97\x07U\xb0\x06a\xa4\xc0\xc2\xe7\x17\xb6\xd2\xc4m\xcc\x15\xac\x7f\x7fV\xc0\x82\xa3\xc3\x0b\n\xa7,\xd9Q\x15@\xbb\x84\xca\x8an\x8f\x8f\xdd\xb8vx\x1d\x8c\xe6\xcf\t\xc3`q\xb8&lt;\x11\x11t\x05s\x90 \x9dB}\xd5w\xa5N, \x83\x89\xc2\x1e\x1d\x15\xce\x80u\xad\x82\x9c\xbbv\x06\x8cp5\x17#"\x84cc\xb6`~\x85\xfe\xfc\xf40\x15\xa4\x97\x84\x05\xbc9\x84\x1b5_\xab\xb7\t\x85\x960\x1a_W{\'\x89/\x80aMTk4P\x04\xc4\xe2\xaa\xaa\xfd\xff\xaeo\x85\xa9\x9b9\x10\xc1H\x83\x18\x16\xd8B\x19\\\xefm\xab\x9e\xff\xb1GTR\x83\x078VW\x03\xc3\xa3\xde\'~\xbd\xff\xf8\xfe\xd8\xa7\xab\xe5kL{4\x07\xee\xb2\xc9[\xc5\xc0&gt;A\xe1\x1d\x8f\x15\x9a\x9a\xc2\xf9\xe9;\xd3\xd3\x8b\x95\x95\xb7\xe6\xe5\x11\x11\x0f\x9ci\xc4\xedyy\xf7\x08{\xba\xa9iqrq\xf1Q\xadG({\xf2[f\x1bPS\x98\x1baI\x84\x13/\xae\x16\xfb~\xffx\xaa\x12\xca\x8f\x7fx\xbc=\x11\x14\xdb@UX\x1e#\x17\x15\x7f\xfa\x9d\x0b\xebD\xb7\x80m\x01E)\xcc\xe1\x07\x87\xff|\x17\x88\x8d;w\xaek\x8d\x8c 0\x03a0\x12C\xa3\xf4\x10\xb4\xd4\xf2\xdd\xb73\x95\x81\xe0E\xc6\x9a\xca\x96[\xb7Z\\\xca\xd526\xf6\xdd\x8c#3&lt;\x19\xd8\xd4rk\xe6v\x07\xc4\xe3\xd5\x04!0\x8c\xd0\x90\x02\xb7\xd6\x88\x1f\xa8\x13\x0f\x1e\xd8\xb9m\x9f\xcfAK\x00,\x06?\x08Nbv\xb5yos\x96\x88\xdem\xdd\xa42\xb3&gt;\xf8\xb0\xf0\x98\xa3&amp;\xf3\\\xdf\xb1a\x861`\x81\xc6\xe6\x18\xeb\xf9\xc9\xf5I\xc3\xda\xa0\xe8\x96z\x9d\xac\x1c\xa3\x8e\xd0OU\x08`F\xd8\xb9uX\xa0N\x04\xce\xb4\xfbPTXzh\x18LcdG\x8b=\x9c\xa9\xe0\xa7\xd9\xfc\xb99`\r\xcb\xa1#\xef\xec\xf2\xdc\xa0\xbfu\xcefc\xba\xfe\xe8\x18&gt;\xf9\x8a\xaf\xc0g\xae^\x00\xd3&amp;gB\xcfc9\x92\xbdw\x7f\xeb\xb3?\x11A\xec\x16\xbe\xc5\x998{\x1d+\xd4\x7f0\xae\xb3\x1c\xdc\xfd\xca\xbd\xd3\xf9\xcb\xaf\x88\xf5\xf8\xe1\x86\xbdSw,\xcf\xed\xdb=\xbd\xf6[F\x92\x14\xa3\x1e\xae\x14u\x97\x97\xd7^\x9f7?\xda\xf9\xf2\x96\xae2\xc1\xd9hnz%\xaa\x96\x95\x96\xaeR\x15\x89\xbf\x00\xcb\x89\xf1\x07/\x9fO\x8f\xac\x95.\xcfW\xe84\x87Ta\x03\x8eI\x11\xddx\x15{\xb5&lt;p\x1c\')%\x0c\xcdy/\xc3z\xdd\xed\x02U?JX\xd5\xcey|\xb9\x7fM\xae\xd8J\xd4\x83\x16\x95\xa2Y\xaa\xff\x0b\x96(A\x8a\xd5-\xa3f\xe7\xd6\xd3\xdd\xc5\x17CU&gt;r\xfa\x95\xac\xd1,\t\xe9\xc1\xa4\t\xf8\x8f\x8f\x15\xbb@\x18\x86Dy\xfd)\xaeA?\xbcsyc\xa1\x08\x9c\x99w\x1d\x8a\x17\x13\xe5\xf1\xf8\x90\x01\xabV\xfe\x18X\xbenX\xf1u\x985\x01\x8f\xd3\xa2\x8dJ\x91\xeb\xe4\xb5\x93\x95\x1b@]\xbe\xd3\xe12\xb2\n\x8a\x9cE3$\xf85\x13Z\xec\xea\xfc&amp;SXol\x1a\xab\xea\xccU_?\xe7\xc2\x83\xe2\xb4\x981\x12\xca\'O,\xeat\xf3\x92\xda\xc9\xe7-\x16xr\xf8\xd1\xea\xa6J.j\x0e\x81\xea\xabPSI\x0c\x18\x94\xd1\x99\xc1]\xfa\xdc\xf7\xf4\xa9\xa7\x9b\xc5\xdaz\xf0\x9bSe\xbe\xbe\x03\xce\xdd83\x8a\xcdF\xf6Z\xb1L%\xa4\xb6b\xa6\x84\xd5\xdc\xe9\xeetKS\xa0\x0b\r\x04\xa4\xdb\x93c\xabP\xf1!\xa9uh\x95\x0cRfb\x86e&lt;\xbe\x0e\xb5&amp;;\x1c\xec\xb4\xef\xe7\x9d\xd2\xf2\x13\x9b\xc4\xda\xfe^\xe6\x150\xa02\xc7f\\\xaf\x81\xe8\xab\xc6L\x985Y\x04\x85\xccb\xcd\x06,\xd9}Uu\xdcx4\xd923&lt;&lt;&lt;\xb3xk\xba\xd6}\xb3"DkT\xc9\x8a\xd0r\x1c\x12\xa5I\xd1\xe6&lt;\xbc\xd3\x8afRk\xe6&gt;\xfd/\xbd\x17\xae\x1e\xdd$\x96\xe7\x9bC7\xd3\xfc\xfc\xca)g\xbfO\x18z\xf1z\x93\xa9(\x1f\x08c\x15Z\x9e\xfa\x04\xed\x11\xad\x97\xed\x87\x1d\x1d\x1d\xeb\xee5\xcd\x8bU\x16c\xd2\x92z\x13\xd6K\xcef?Z\x1a\x07\xe5\xcf\xa2=\xe4\xeeP1\xfd\x87\xb4/\x07\x0em\xf6Y\x8c\x8f\x12\xbe\x1f\xb8N\xef\x07g\x00~aVC*#J\xee\x9f\xc4\xf4\xa1\x19\xb2\xfaF\xf2:y!\xf8\x8b\xb7\xa3K\xac\xcbP|#A,\xa8\xa5\x86\x12\x92\xb2\x98\xd4\x88\xfa\x8c\x140\xbax3\xfd\xfa\xa5\xefs\xbd6\x8b\xb57\xeeJ\x9f\x96\xee\xaf\x82\xe2\xb30m\x1c\x94 E\xeb\xc8\x9d\x8a\x04L\x1a\x07\xf5\xa0\xcd\xb1\xf8\xb2q\xb6.~c\xa6\xf8Kj\x15a\n\x81T&amp;\x02\xab\x1b\xc0L\xe4n\x87\xf2*fXH-O9\x0b\x90\xfd\xe9U\xe5W\xf2\x8el\x16k\xdb\x1e\xed_\xcb\xfc\xe8=\xb8\xa8\x0ck\x94\x0ca@\xb3H\x9d\x97ZK\xf0!4+\x1eJ@\x8d&amp;4S\xb4\x01S~\x9d5\xa585\x13\xcd\xc4\xa1|\x820h\xab\tjS(\x06hD)!\x95@\xa9\x19t\xdf\x01i\xd5Owo\xfa\x89\x9a\xa3\xf7\xbe\x04\xb3\xf8u&gt;\x14\xdb\x8c\x9aW\x14\x1aX\xce\xa4.1HU\x10\xaeE\xf3%\xe6F%$\x1bX\xc8]\x0b\x17\xa2\x0e\xc9 0,#\x01\x97\xccZ\x81\x94\x80a\xcd\x1a\xab\xd0f\xaa}\x1fYd\xcd*\x11Ai\xbe\xf4\xfe\xd37\xd3\xde\xf6\xdc4\xd6\x81=\xa7J\xcb|\xe9@tdU\x06\x87R\xc5\xd6\xa1\x8d\x84A\x8a\x015\xbb\x86\x16\xc5\xe6cE\xb1\xb2\x0c\x14\xc5\x16\xc8h\xbc\xd0\x97\x8bC\x92\xe6!\xd1\xfd\x94\xb4\xbe\xac"\xb4\x1a\xfcs\x19-\xc6\xa1\xd4r\xb4\xb8\xd4\xda\x8fVS\xae\x88+\x01^\xdcWt\xdf\'gJ\xf7\xec\xda\xfc\xf3G[\xdf\xbfw\xb3,\x83\xee\x07F\xa9\x8c\xa4\x9cH\xb4\x8c5\xd6?!\xb2zc\xa0\xd8\x0c\xe2Zj\x15\x96\x06|\xad\xb1\xc7j\r\x81\xe2\xcc))\x86k\x90\x043\xcbz\xd1\xa1x\xa5\x8a0\x82\xd5"\xeb\xc7\x80{\xcb\xb4\xe8\xfd\x1e\x8c \xd2\\q\xac\x88\xeeWU}3\xe1\xad\xd7y.j\xdf\x9e?_H\xbbN\xf7?\xed\x9c#5aU\xe1\xe5(i\x9b\x12,#VM\x94*\xa1L\xf4\xaa\xccL\xc4A\xd5)\xd5\xf7\x0cZ&lt;\xd5\x84\x96\xa8\xd1:\x11\xe0\xc6\xc8\xc5\x97@h\x81JI\x8cDg\x1fAXW\x14\x1e\xff\x1b\x98\x84\xb3_|\xf3\xb3]\xaf\x83\xb5\xe57\x91\x17J;\xfdI\xf7r$MF\xec\x12\x94\x8c\xce\x92\xbe[\x84\x96@\xc5`E\xc5j\xb1|\x15jN\x15\xd5\xa5\xe4\xa6\x1a\x8c8\xa4\xc5\x9a%D\x060T\'\t\x07\xec\x82R\x92e J\x92\xad\x84\xb1\x9e:Q\xda\xd7t\xff\xe43\xa7$\xbfx\xbd\xc7\xc8v\xbc7\xf0\xc5g\x99~\xf4\xaf\xa8=0 \xd6\x99x\xae\x95\xca\xb7\xd4\x18Q\xdcKd\xc9\xa0z\xeb\x7f\xdb\xb9\x9e\xd04\xb28&lt;%\xc9\xc6\x98DZ\xc8&amp;\xdb\xa6t\x93\rK!l\xdb\xcd\x1e\n\xdd=x\t\xc6\x0c\xfbD\x18\x15\xc4\x86\t\xa1\'\xc9mpr(\x19E\x84\xcc$\x033sPq\x0e\xfe#\xf8\x0f\x14\x94\xe0Q0Q\x11&lt;\x19AO\xb9\xc4@{i\x08,\xed^\xf7\xbd7\xd9n\xf6\xb0,\xe4O{\xf1\xbb)\xe3\xbco\xbe\xf7\xbdo~o\xe6=Yw \x9f\x835\x82\xc0xi\xc5f,Rq\xee\x04\xd5&gt;\x1e6\x8eH\x04\xe8\x13d\x00\x9e&gt;aB1\n\xbff\xdf\xed\x90\xd6\x8d\x94%=\xaf\xbb\x1e-bbJ\xb6d\x93V2\x86B\xe7\xbd m\xb9\xeb\xa0\x82nFy:\x06(\xa8\x9d1\r\x82\xa8W\x8c6\txJ@\xda46\x01u\x14\xa4\xd1\xf1Up\x84\xfc\xb8\x82\xbdo\xdb\x00J\xd8#\x15\xa0\xdd\x99.\xf4k\xa1\xd7\x1e\x19\xbf\xf6\xb6\xbb9\x83\xab\xc5+$\xa9\xc0\x0b\x0f\xcb\xdcv\n\x14m\xd8d\x99p\x96\xaaCMj`C\x1b_\x19:\xcc\ty8\xf2\xc1~2\' E\xd3\x88%\x1ctq\xbcnc/\x05\xaa\xbemx,\x17#\xad\xc1S\xcb\xb9a\xfa\x06\xbb\x01\x7f\xe6\x1c,\xdf%\xc9\x0cv\x85HepA\x9e\x12xcY\x80\xa6y\x1b\x04\xfer\x1b\xe6\xd6^=\xea\x0b\x08\xd5\xb7\xc6\x00\xa5\xd0m\x01\xe9\xe4M\xd0\xb8\xf3\xcf@\x19\xa7\x99\x825\xe7\xea$Yo\xb42\x8b\x0fo\xb4Kq\x86aM\x88\x97\x82\xce\x19J\xe0\xb1\x14\xa0\x0e|\x0c\x1d\x83\x9eq\xb3\xfb\x11\x8a\x82\xd9\xb4\x9d\x88\xd6d\x01\xde\xd8Kl\x90-R\xefp\x8d\x00\xda\xda\xc2\x08\x80\x7f\xc5\xa1301\x92\x8c9Y\x07\xf7x\xf4&amp;\xb4\x08\xfd\xc2\xae\xea@\xbcb\xe8\xd2K\xc8\xb26\xe8\x1a[\x11\x9b,B\x05\xddI\x00\xab\x9fm\x96\x16\x04\xc4fK\x89\xe5\xeb\xf1&lt;\xae\xff\xe8\x03\x1cw&lt;%\xfd]\xce\xee\xa2\x13\x89&amp;60s\xef\x86\xbb:\'\x1f\xa55^\xdd7\x97\xf9\x15\x88\x1ex\x99\xfd\x04\xea\xce6\x90}\x07\x14\x14c+\x9aH\xbf\x13\xa0:\x9b\xf9\xfdf\xf4\xe4\x00\x19\x0e\x85\x07\x9e#J\x97\xd5\x99\r\xa6 Yw\x9a\xd8\xdd%=qS\x0cA^&amp;^\xb1\x92\xfdU\xed\xa5tY\xf8`\xcc\t\xa8@\xdcK\x02\xbf\x87\x8eC\xeb\xbb\xe9\x8c\xf1\x08\x7f\'\x031N\xb3\xb8d\xaf\x08EM#E\xa3\xd7\xb6C\xb77XSh\xfe\xe6\xac\x10\xaf]\x96\xe5aN\xd8\xab\xb8\xb5@n\xcb\x13\x8d#\xb1\xc2\xf1(\'\x82$\x8aZ \xc1\x04AK\xb8NA\xb6H\xd1\xf8\x16\nC\r\x8f\x90M\\\x8ez\x92\x90U\xf5Tu\x84\x96&amp;\x89\xdb\xc0\xe4\x02\xe3heex\xd6\xc4\x1b\xad\xf2\xe3\xe9&amp;\x96\x01(6M7FH\x19\x0b\x00\xf5U\x04\xe4\xe0(\xc0S\x13\x9b\x16]Z\x07:\xa1\x0f\xfa\x1bmK\x86\x9b\xd1\x13\xb7\x03\xfd\x0c\xe7\xdaY9\x85\xce\xe8\xe7\xb0`6\x06\xcbp,(\xfe\x03\x80B*$\x94a\xf7\xa1\x15\\\x1c-\x85\xeb\x14fm\xf4G\xcf.Yy\xcav\xe8N\xfe|\'\xbf8{[\xacP~\x19d\xcb\xba(YIk\xf7\xf0\x9f)h\xe9\x84\x02\x14\x1en\x11A\x86\xf7\x1dD\xd0\x17O\xf8\n`E{ r9+\xf4V:Vr9\xe5tX\xda\x86\x87\xa3\xc4\xedatn\x8aW\xd5f\xb3O\x92\xf6`\xfas\r\x1fJ\xc6\xa5\x80\xa6[\xc1X\xa5q&gt;e\xe8R\x00H\xdbW\xa6\xe3\xfe:\x94\xaaS\xa9\xb5\xe2\xfe\x91\xfb:\xe2V1\xf1\x03\x97\xec\xb9\xc4\x14l\xc1,\x1d\xfb\xae,2\xc5Sw\x18^I-\xd5e\x89\xb3E\xb8\xcf\x05\xabWT\xcc\xb0\xf3\xcb\xce\xf5\x9d\x94g~\x88\xb8m\xe8\x9f\x1b\xde\xab\xaa\xcc\xa3V\xec\x99\x0f\xde\x7f=\xfc\xdfb\xdc\xc6\x90\x1f\xa7\xa7o\xef\xca\xa2=w\x05)e\x0e\x8a+-\xb6ax\xaa\'\xee\x00\x0f\x1ey\xce-l\xb6\xa2,\xc3\x96:\xc5H\xf8\x7fvo\x86\x8f\xcb\xfdet\rGgjk\xa5\xb40A\xdc\r\xf4O_F2\x17\x8ef#\xb8F\x92V{\xa2x\xfc\xdf\xcc\xdcb9a\xb7\x92\xe4\x9f\x92\xf3\xcct\xe1\xda\x9dzx\x8f\xb83\x0c\xcd\x1a\xfc\x99\x1d\xb6\xe0,v\xa1\x0e\xe4Z_\x91\x1b\xa1\xd2\xd6\xd5y\xac\xcd\xeb\t\x1d\xe6\xeav\xc8\x1c\x8e\xdb\x9cXSw\\i\xc3\xe3I\xe2.\xa1{\xf0\xad\xf7\xd8\xd5SS\x87G\xa9\x0eny\xb9\xdf\x89IUy#[\xf9\xbd\x92\xdd\x90\xabR\xacc_\xb6"\xce\x9dj\xe34\xdf\xda\xc9\xa7\r\xb3\x13:\xe2\xae11;\x15\xc8\x99z\xea\x1f\xfcaN\x81\x14H\x0c+\xda\x19n\xb5j\x1f\x96\xed\x9d\x8c\xdch\xbcV{\xa6w\xcc\xd4\xe3\xf1\xbb\'\x85WU=\xfd\xc9\xcd\x9f\xab\x17\xac\xabp\xe4l\x963]\xbb\xf9\xe3\xda\x9a\xd9l^[\xfbh\xeew\x83\xc5\xac\xf3\xb0\xe6R/\xd4\xd7~\xf7\x8f\xdf\x0f}\x19R\xa8+\xef=\x99\x1dY&lt;\xce\xad\xb7z\x16G\xaav*\x8a\xfc\x87\xca\xea\xeaj\xe5\x90\x17\x9d\x95Z\xded\xe9\xa9\xebrz\xf1\xbb\x17\x0fF\x89/\x8b\xe1\xe9\xe7\xdf\x18\x18\xb1\x96w\xb4.&gt;\xf5Z*k2\x99X\xd5\xd2\xfbt\xd1r\xe4\x0b~\xce0\xf6\xec\xc90\xf1\xc5\xa1\xd3\x11\xa3C\xf7\x7fy5\xf2r\x91I7V\x0brn%\'\x17V\xf9\x08\xb3\xf8r\xe4\xd5\xb3\'C\xa3\xc4W\x83\x8e\xd0\r\x8fO\xcf\xfd\xf6bfialll~i\xe6\xc5\xafs\xd3\xe3\xc3:\xc4\xfak\x031\xb8\xde_\x9a\x0c0\xc0\x00\x03\x0c0\xc0\x00\x03\x0c\xf0u\xf0\x17\xa9F\xa8\x17\xf7GTu\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -710,6 +844,14 @@
       <c r="D17" t="n">
         <v>58766</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x7fiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:a0d9265b-4187-4a6b-9151-1f10fd34fbe3" xmpMM:DocumentID="xmp.did:BCF945B94E8B11ECA1E2D2E0FF129DAD" xmpMM:InstanceID="xmp.iid:BCF945B84E8B11ECA1E2D2E0FF129DAD" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:bc251e7e-d1d8-574a-a1f5-f83a3cdfabb8" stRef:documentID="adobe:docid:photoshop:2131a76d-1d34-0741-acf8-d45ac224463e"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;\xe2\x82,,\x00\x00\x02\xf4PLTEGpL\x8cZUzs\x85*d\xa5{DW0a\x9fB\\\x8eFZ\x8c\x1aU\x9c4d\xa0\xb7\x89H&gt;Z\x93\xb8\x88H]St`QrEW\x8dcRr\xb9\x8aF\xbb\x8eE~E\\\xb8\x89HFW\x8dgDqkEmKO\x8a\xb8\x8bH\xba\x8dF\xb7\x89I\xba\x8cF\xb9\x8bG\xbc\x90Da(\x87gf\x83,d\xa4\xb7\x89Hv=f7_\x9eSR\x7fb\x82\xa2Lf\x98(`\xa1-a\xa2\xb8\x8aH\xb8\x8aH\xba\x8cF\xb6\x86JmXc\x18S\x9bQ\xa4\xc8h\x9b\xc4\\\x80\xac;u\xaa7_\x98Tx\xa6Fe\x84\xb0\x84P\xbc\x92D\xb8\x89H\x19U\x9c^(y\\]\x87I\x9a\xbc.n\x99+b\xa3\xff\xff\xff\xd1-\x11\xf6\xfb\xfb\xfc\xff\xfe\xb8\x89H\xfc\xff\xff\xf9\xfd\xfc$]\xa1\xfb\xfd\xfd\xb4\xc8\xde\xcb\x0b\x00-d\xa4\xd1,\x10\x16R\x9a\x0bJ\x95\x14Q\x9a&gt;q\xad\x07H\x94\xc7\xd6\xe5\xf8\xfb\xfb#`\xa4\xf7\xfd\xfe\x16S\x9b\x1aU\x9b\xfa\xff\xff\xfe\xff\xfe\x02A\x8f\x1dW\x9d\x1cV\x9b"_\xa4\xf3\xf7\xf7\xb1\xc7\xde9m\xa9\xd1.\x12\x1aV\x9d\xeb\xf2\xf5\xda\xe4\xed\xfb\xff\xff\xfe\xff\xff\tI\x95\x04F\x93(_\xa1\x11O\x98As\xae\x04D\x92\xf6\xfa\xfa"\\\xa0\x01B\x90{\x9d\xc5"Z\x9d Z\x9f\x1fV\x99x\x9b\xc4\xcb\r\x00)a\xa3*^\x9e+`\x9f\xd7\xe2\xec\xb0\xc6\xde\x10M\x96\nM\x99\x13P\x99\xb9\xcc\xe0\xcd\xdb\xe8\nG\x91\xf0\xf4\xf6\rK\x96\xe2\xea\xf1\xd2\xdf\xec\x1fY\x9d\x16T\x9dDv\xb0My\xad#_\xa4\x18R\x97\xd20\x12\xdf\xe8\xef\xbd\xcf\xe1~\xa0\xc7f\x8d\xbb\xcb\x06\x00&amp;\\\x9c\x00&gt;\x8e\xe5\xec\xf2\xf1\xf6\xf7\xed\xf3\xf6\xd0\xde\xe9\x97\xb1\xcfS\x7f\xb3\x1ch\xb2\rP\x9b\xd4\xe1\xed\xeb\xf0\xf3\xd2*\x0c\xde\x8ay\xac\xc2\xda\xca\xd8\xe6\xc8\x03\x00&amp;d\xa8\x1bk\xb4\xcf\x19\x01q\x95\xc0\xca\x1e\x05\xdawd\x82\xa3\xc9\x16`\xaa=o\xaaL{\xb21g\xa6\xb7\x87H\x0eV\xa5\x94\xb0\xce\xcc\r\x00\xa0\xb8\xd2\xdc\xe6\xefv\x98\xc0\x9b\xb5\xd2h\x8f\xbc\xc2\xd3\xe4\xdf\x87v\xe0\x8d}\x88\xa7\xca\xee\xe5\xe0b\x8a\xb9\xf4\xf8\xf8\xa2\xbb\xd5\x008\x8b\xc0\xd1\xe15j\xa8\x17c\xaf\x19h\xb6\xa6\xbd\xd5\xe7\xee\xf4l\x92\xbe3f\xa2\x8d\xab\xcd\x1cc\xaaHv\xae\xe0\x90\x81\x16P\x96\x17e\xb4\xd3Y@\xdc}k\x1ar\xaf\xe0\xa7\x98\xdazh[\x83\xb3\x12Z\xa4X\x81\xb2\xdf\xa2\x93T~\xb0\x000\x86\xc6\x05\x00(f\xaa!j\xb1X\x84\xb7\xde\x97\x86\xb7\xc9\xdd\x00&lt;\x8d_\x88\xb7t\x99\xc3\x1cj\xb8\xef\xec\xe8\xd7|i\xd0\x16\x00\xc8&amp;\x0c2v\xb7\xd3\'\n\xd2bH\'m\xa4!n\xaa\xef\xe7\xe3\xe4\xc1\xb5\xfa\xfc\xfb\xdf\xad\x9f\xd1V=\xd2]D\xde\xb3\xa3\xc2\x0f\x000`\xa7\xd0jP\xd4n`\x00$\x7f\xd8\x87r\xd2V=\xd7\x8f{\xe9\xdc\xd3\x00\x1by{Z\xdb?\x00\x00\x00?tRNS\x00\x07\x15\xfb\x17\xef\xc4P\xf2\xee\x9e\xc7\xd3id\xbbY=\x0e\x0e\xaf\xb0OA\xa3\xe6\x1b\xb8_u+bf\xf5\x95,\xe5\x89j\xc2\xf4\xf3U\x84\xf8\xf49\xf2e?\x98\xeb\xdd\xbd\xb3\x7f\x87\xee\xf2\x94\x9b\xc6\xf2\nByr\x00\x00\x0e)IDATx\xda\xec\x99mlS\xd7\x19\xc7\x011\xb6\xd1\xd0\t\x94/@a[?t[\xbbj\x1f\xf7"M&gt;\xb3\xc3\xbdv\xbd{\xcd\x8d\x99/\xc9M\x17\xe3\x98\xd8\xbe~K\xbc\xd4\xc51v\xc0\x8e\x81\x81\x9d\x14\xbf%\xd4L\xce\xc2\xa2\xa5\x8eQ\x967k\x16\x89\xb1H\xd2\x90eb\xea:5\x94\x88\x10\xed\xa5\xdb$\x98\xb4\x97\xb6\xd2\xf6e\xcf\xb9v^H)\xd8. \x7f\xc8_\x96\xef\xb1}|\xfd\xf3\xf3\x7f\xces\xce=w\xd3\xa6\rmhU{^*K\xac\x17\xabv\x95#\xd6\xf3U\xcf\x95#\xd6\xee\xaa\xbdeH\xb5\xb3\xaa\xaa\x1c]|\x1e\xb0^,C\x0f/WUU\x96\x0f\xces\x95\xdb++\xf7\xee\xad\xa8\xc2\xda.\xa8rg\x19\xe4\xd47/W\xadS\xc5\xfe\xb2\xc8\xaau\\\xfb\xca\xc5\xc7\xaa5`\x15;\xcb&amp;\xbf\xf6\xef^\xe1\xaa\xdc\\F\xc3p\xd7\xcby\xaa\xf2\xaa\xa8{\x96\xf3\xbe\xa2\xac\xb0\xbe\x8d\x91.c\xb4\x9d\xe5\x84U\x01D\x15/\xe1\xcc\xdf^N\x1e\x02\xd0\xf6\xcd\x9b\xf6\x03\xddw\xcb\x08k\xdf\xe5\xfc\xa2\xe6;\x97\xcb\xc8\xc5\xcdU\xbb\x97\xeb\xfa\xce\x97\xcb\'\xe9w\xed[]\xd1\xec\xd9W\x96k\xd4\rmhC\x1b\xda\xd0\x8a&gt;\xffTU0\x96\xa8\xf7\xd0\xab\x05\xe8\xa7kth\xa5q\xe8\x90\xf0T\xa8z{\x0b\xc6\xfaF\xaf\x9d=\xc5\xb2\xec\xa9uR}\xba\x14 \x95\x8a\xfa\x84\x14\x0f\x97K%\xfaj\xc1X\x9f;\xd5\xed\xaeo}\x90\xea\xeb\xe1\xf10\xc9\x8a\x93\xbbU\xfd\x85\xc2\xb1\x8ew\xa2\xa7\xa5\xc4\xb7\n\xc7z\xf3\nB\xca\xf5\x12?\x01\xa1\x86b\xa2\x05X5\xe2\xa7\xa1\xe2\xb1\xcc\x92\xe58\x0b\xdf\xc7\x92\xac\xb4@\x84\xd8\xbc\xc6\x0b\xa5\x99\xc0\x07)t\x10Z\x12\xf3\xda\xbeh\xb5\x85{\x08]\x91\xb9X\xac/b,iC\xaa\xba\xa7\xa7-\x1a\r\x11\x04\x81\xa4\xd5\xb7\x03ZLH\x84b\x8eXL\xeb\x85S\x13\xde\xb6\x9c\xa21\xed\xb8\xf4G\xb1\x9e6/\xc0\x8a\xa5\xe6hu4\x0c\rB&lt;\x1c\x15\x14\x8b\x10\xdah\xbb ?\xa1\x14+\xd1\x94c\xd8?N\x14\x8du\x1c\xb0P\xcc\xe6\xf4A\x95\xb0\x1a\xa5\x08]MP:\x0fy\xc7\x8b\xa4\xa8Og -\x86db\x06\xa1\xe9 \xe7\xf3\xf9l6\x1b\xdd-E~\x03\xef\xe3\'\x01\x1c\x85\xec&amp;\xb6\r7j\xbay\xb2\x99\xab\xab[\xec@o\xeb8\x8e\xb3Y\xb8:\x19D\xae\x8d4\xc8\xa98*\rK+R\x90\xacJ\xe3\x19\x90\xa2\x94S\xc7\xdb4N\xab\xc8\x0b,\xb5\x16\rm\xa2]\x99.\xb40\xcf\xb8H\x92\xe4\xe9\xf9Y\x84&amp;M6\x8bu\x00r\x12i\x9b=l\x8f\x80uFO\xb2\xbcBc\xea\x0f\xb3V\xa7\xd3\xe3"m\xd6Q\xf8g\xfd\x8b\x1c\x17\xec\xc3~\x96\x80\xe5\x90S\xb6\x89\xf6\xf6\xe1\x86F\xe9iF5\xd0^\x9d\xc5\xe7B#t\xddAw\xdc\xc8y\x0eJ\x1d2Y\xa7\xcf\xc0M\xc7\'\xae\x02\xae\x8e\xb4\xd8\xc8a\x08\x86\xd6\xa0\xf2U\xe7\xa2\xe5\xa2\xee\x04\xdab\xc3\'#nw\xc0\x1dHs6\xaa\x07\xa1\xc6\x01\x97\x85T\x19\tT4V\'6QN\xb1\xc3Br\xc6l*\xae\x1d\xa1Q\xc6\x95 \x00K\x07\xe5\xa3\x8d\xe3\xb3\x11\xf8\xa8\xdeeS\xa4\x84\x04N\xf0\xea\x84E7\x91\xc3\xe2Ry,}Wn|\x08\xcfi\xa7\xbe\x1bI\xc0n6\x99\xf4q\xd1R\xb0$(&amp;\xa2X\x80\x01@7\xc5\'`\xd8]\xa5T\xf2\x10Z\xa2uPl\xefe\xe9d\x03R\xa2V\xca\xc7\xba\x91R\x8c\xaaU\x9e\xbeQ\x053\x06\x1ei\r\xacf\x19\xcb4)\x0c?a\xd4\xa5&lt;\x1a\x0f\xbc\x8f\xe2N\xddL\xbf\x87\x1e-\x15K\xe5\x0b\x8c\x87a8\xc7y~\x16\xfeo[\xb3\xca&gt;\x8cZhz\x01\xa1\xdb,\x93\x14\xc3O\xc8(_\x9d\x1b\x9f\x7fP\xcf\xc4\xcd\x1c\xaf\x1eG\x18\x8b\r\xe4\xb1\xe8\x99\xc8TCd\x1cW\x93\x1a\xa3\xd3\x04\t%E-z\xa7\xbf\x8df\xe07J\xc2\xb2s\xa2\xac:A\x0e\xa2I\'?\x00U\xac\xdd@\x19\xb4\x80\xc5\xa9\xddCr\xd69\n\xd5@\xc0\x02\x04\t\xbac\xd2h\x91\xd1I\xa5rX\xee&lt;\x96H\x94\xcc&amp;\x930\x00\x084hr\xd9#\xc8\x8c\x88\xd3\xfa$\n\x93\xcel\x18\x95\x86e\x93\xeb\x17\x17\xff\xb7\x80&amp;&lt;\x02\x96\xc3\xa0\x10\xb0\x92\xa4\xc9\xc4\xf1-\xb8d.c\xa1)\x113+\x81\xe2\xc1\xa41\x96F%\xcbc%\x15\xc1`f\x1e\xf7\xf0r\x94\xbe\x1e\xdb\x1d\xe5\x98n\x84\x06&lt;\xae\xab%a\xb5\x1b4\x86\x8e\xd1\xc1\xb4\x0cc\xcdJ1\x16e\xd7\xa2&amp;\xda.\xcfZT\x16\xb5\x1bG\xab^a\x13\xb0\xe2\xb4\t\x80\xdc\x8c\xa7[\xc0\xa2Z1\x00`q\xdd3\x83\x83]^)\x84\x93a\xae\x085a\x941A\xcdK\xeb\xe1YY\x12\x16e\x9b\x12F\xd0\xa4\xc7u\x1aR&gt;\xdaL\x89\xfc\x80\xe5\x19\x0b\xc7\x06X}R\t8\xad\n\x1b\x18F@\xbe\xb0c\x81\xabi\x8e3x\x05\xacx\x0e\x8bg&amp;\xf2\x93\x8f\xcc\xa4hn\x80\x10J\xd1\x18\xa3hjKu*\x9c\xdd0\x9aJ\xc0")K\xbbP\x8a\xdd&lt;\x95\x80jP]\xa7\xc86\xa0\x0eZ\xbf\x84P\x80\xd7\x085\xaa\xd5\x85\xb1\x90d\x96\x92S\x1e\'o\x17y\xe2\x10\xd5U,\x9c\x81J\xc8\xf7\xb0\xdce\xc2\xc9(F\'\xb3\x1a\x91\x86r\xb2r\x1b\t\xc5\xb98\xac\xb1\x1c\x16\x99\xc3r4+\xec\x107\x99\x0e{\xd9A3PT\xfd"\x15\x07\x89\x8c\xeb\x16\xc6\x8arP\xed5*\x9bE\xce\xb4\xe0h\xf1n\x1c\xa3\x9a\xf7xz(7C\xf7\xd7\xba\x16r\xad\x80\xc7Nr\n\x05e\x91\xeb\xe2\xa5b9\x04,\xe9\xac\xc7\x05\xe9p\x857\x8d\xa1&lt;\xd6T\x96\xa2p\xca\xca\\6\x15 t1\xae\xee\xf6\xb6j\xc7\x0c\xaf0\xa2\x90\x81\xe3\xfaS\xa9\xea\x08\xeav9;"S\xa1\x08\x9a2P\xd4P\x18J\x85\x19-1\xfc\x95\xf6\xeaT`\x80\xd2\xb7\x94\x82\x15\x03,-\xc6R\xa2\xa1 \xd7\xdc\xb9\xe0c\xad\x01\xf8\xdf43\x82PD\xad\xe0\xf1\xac+\xe3m\x14`u\xeap\x1a#\xd4\xe3\xb1\xb1\xa1q\x83M\xee\xa3X\xa7:\xd4\xe92\xc8\xb3\xf2$9\xea\xe6\x85FVm\xec0j\x988\xee:hU\x18\xef\x95\x12-}F/DK,i\xbc\x12\xb4f2Vz\x06\xde\xee\x9b\x9f\x87*?Nf\xe6G1V\xc6\x9a\x91\xa1\x8bg\xe7O\x08sIH\x95\x99\x8f\xdf\xa3\xad4\xa37e\xac\xb1\xdfg&lt;\xa6`0\xf8\xd1\xc2DFG\x9bjk\xa1X\xd4\xd2A\xa7\x1fw\x8d9\x17\x17S\xc5cI\xa6\xfa[\xd2S\xd2\xdc"\x12M\xf4u\x8e\xb5@X\xc4\x12\xf7\xf4t\\"UN\xf4O\x07$b\x89\xbfc\xa9\xc9/\xf1\xb6\x8c\xc4\xf1\xe0\x97\xa2\xf8t_{\xb8\xa9\xa5\xbf\xbf?\xdd?35\xd4\xd7\x01\x8dt\x93\xdb\x01\xc7\x0eAM\x1dK\x13\xb8+\x81\xdcMK\xd1\xe2\xb1\xc4\x92\xe5\xc9L\xbc\xb2\x0e\xc5/\xf3\xeb\xd55\x07$t%\xe03\xb3\xf2\xbe\xa5\xa8\xf4S.+\x84\xae\xb9\xd9\xbb\xa8E\xb3\x80%&amp;\x885\x97\x15\x84TJ\x08\r%,VW\x0f\xe2\xdca\xa5\xab\x12\xbf$\x04\xc1E\t\xb1\xd2R\x12\xabZ&gt;+t-\x05\xab\xec.1\x8eO?\xad\xcb\xc4q\xf5\xf7\x8a\xc0\xea+\xf2\xec\x8dP;\x97%y\x88\xa4k\x85/]\xc2\xc5\\\xbe\xbe\xaa^\x18\xc8i\xf6\xf4\x03d\xfc\x84\x0e\xc2\xa3\x10%@\x07\x13+/\x8d\xc6\xd9\xe4\xd7\x0b\xc7\x92\x1b\x9c\'&lt;\xce\xb9\xb9\xb3\xa0\x9f\x08\xf2\xf9\x9a}\xcd\xa0\xf3y\xbd\xbe^\xc7\x1e \xfc\xb6\xf0\xe1\xf9\xd7\x97\xbf\xd7\x9c\x13\x9c\xb1\x8ee\xcf\xce9\x9b\x8b\xd8\x1a\xb1\xdb\x8e\xa5\xb4\x0e\xad\xdf\xef\xf5zC\xa1\xa9\x8b\x82\x1a\x1a\x1a"\x91\xc8\xc9e\x85\xc3\xe1\x1f?R\xd0)\xbc\xf2\x8d\x93\x11\xac\x86\xdc\xd9B!\xaf\xd7\xef\xf7_L\xf3\x85Gk\xdbu]\x97\xb0\x88\x7f\xf2RS\x85\xefom\xf9\xe0\xd4\t|\xfdi.\xe6\x07\xf0\xa6\xc5\xe1\x03G\xd7\xe80h\xf9\xb8NG\x0f4\x1e6\xc3\xa4\xd0i\xbd\xf5L\xe1\xbb\x94/\xbc\xcf$j`\xa1\x94\x1e\xebh\x12\xd4\xb2NM\xf7\t\xcf)#\xc30/\xdc\xfd\xf0F^\xef\xe4\xf5\xcbuz\xe7OX7&gt;\xfe\xf8\xc3\xbb\x12%\x92Y\xaf\xf7n-b\xf7\xf4k\x17\x82i\x98;f&gt;bh\x9d\x8e~\xb0tke\xca\xc02\xa7\xf1\xc6\xcdW\xee\xd7k9\xfdj\xad\xf0\xcb\xd7~\xfe\xaf\xff\x1e@\'\r\xaeK\xcf\x16\xb3\xa9\xbb\xf5\xfdw\x9d\x0e\xe0\xbac\x92\x8b\n\x12Y\x07\x8b\xc2\x03\xbfy\xe5\x87?(DG\xfez\xf3.,F\xa6k/m+n\xb3y\xc7%\xdd,|\xf1b\x9dJ\xfe\x04\xb0\xce\xbd\xf1\x9f\xa3\x12t\xdbT\x9c\x85X\xcf\\\xa8\x1d\x84pM\xd6\xda\x1f?\xd6\xb9?\xff\xe5\x8f\x8d(|\xec\xcdk;\x8a\xdd\x9b\xdf\xda\x8bm\x94\xa0?\xe8\x0b\n\x17\xc9V\x17\x8c\x05\x16\xfeS\xb0\xf0\xda\xb6MEk\xc75\xe6\x0c\xde\xc78\xab\x91?f\xac\x9c\x85\x01\xfd[\xe7\xb7\x16\x8f\xb5i\xdbok\xbb\xc0\xc6Q\xab\xfd\xf1b\x1d\x11,\x1c\x97{n}\xa5\x94[,`\xe3\x9c\x16\xe2u\x86\x91?N\xac\xbc\x85}A\xf2\xfb\xa5\xdd\xfa\xd9qA\xb0q\xb8\x10\x1b\x0b\xc7:\xf7\xc6\xdf\x0e\x1f@\x81\x13o\xfd{K\x89\xb7\xa4`4\xe2=\xc5\xae\xdaB\xa3\xf5\xebGc\xe5,4\xcb\xf9[\xcf\x96H\x85m&lt;[\xa0\x8d\x85b\x1d\xf9\xd9\xcd\x7f\xa0\xa3h\xc4t\xfdK\xa5\xdf\xc1\xdbq\x89y\x0f\xb0\xb4s\x8f\xb4\xb1P,l\xe1Q\xb0P\xf3\xc1\x96\xd2\xb1\xb0\x8dC\xd8F\xebc\x8a\xd6\x91_\x08\x16\xbe\xed\xb1\xbf\xf0Ynxn\xfd\xfb\xbbg\xfd\xb0R\x7f\xa4\x8d\x85a\t\x16J\xd0\x88\xf5\xb3X\x88\xf5\xe5\xdf\x81\x8d5\xc81\xc7\xfd\xbf}s{\x89*\x88\xe3\xf8\xa4\xb6\x10\xd2\xee\x92\xac\xfaV\x91Q\xbdD\xf7\x97\xa2\x86b)\xb2\x9b\x85\x10kDVn\x16\xdb\x8aJ\xa5$u\xca\x12K#[#\xdb\xa5\xab[\xc1B\x14\x89t\x0f;+\xd9V\xc6\x86]()\xc2\xe8\xa1\xcbCQ/\xf5\xd6\xcc\xfc\xce\xde\xcfE\xf0\xdc\x1e\xfa\xfd\x05\x1f\xce\x87\xefo~3g\xa6X\x05\xac\x96\xb6\x9fDa\x0f\xd7\xb4)kdX(7\xca4^WX\x1b\x87\x85U~\xe9\xcaw\'\xbe\xdf\xb7\xea\xf7\x8c\x91\xfe\xb7&amp;\x1ak[\xc9\xf7j\xdeV,\xbfT\xaf\xc5\xa5\nX\xe5g/\xbe\xa0\n]\xfc\x94\x91\xffO\x1f\x1f\xad\x1cF\x1a\x87\x83\x15S\x18\xea\xccS\xe1?\xbf\xa0\xb1Cvm\x1c\x06\x16UH\xd6\xc2\xbe\x1dA\xbb\x1a\xd7\x0fr\xde]\xabm\xa4\x1a\xe5\xd2\x08X\xe7d\xb0\xa8B7i\xa4\xae\xb0\r\xa9Rc\x87*_\x11\x8d\xb2iT\xc6ji{N\x14\xde\xe4B\xd9y\xea`!K\x18\xd2(\xa3Q\x11\x8b(\xbcKS\xd80dW\x89J\xd0\xe8\x96K\xa3\x12VL\xa1/8O\xbd\xdb-VA\xa3\xf4\x88\xa3\x84\x05\n{\xb8\x88j\nY\x1a\xfb]\x0fd\x9b\xaa\x02\x16(\\\xd7\xd7\x10\x1d\xaf\xe6e\xa0\x9cN\x854\xcac1\x85N\xb2\x16\x06mH\xd5\x1a\xdb_9 \xa7Q\x1e+\xa60\xa4\xaaB\xa6\x91\x174\xca}\xad[\xe2Xq\x85~\xbb\xcaT(K\xd0\xf8D\\\xa3\x1c\x16SH\xd7B\xbfC\xfd\xbbf\x13\xfa\xe5\xd2(\x87\x95P\xa8\xc5\x83\x08\x0b\xef\xea\x95\xd4(\x83\x15k\xa4\x01\xf5\x15\xc2a\\\x80h\x94\xd8pHc\x11\x85\xaf!\x85\x0e\xa4IM\x18\xf4P\x8d[\xc54Jci\x97\xc2\xf8a\\\xbf\xe4\x88#\x89\x05\x13\xe9F\xa20_\xab\x1b\x96tml\x17o\xaaRX\xb1F\xeaRs-\x14\x19q$\x9a\xaa\x14V\\\xe1D-\x9f%Y`m\xec\xc8X\x1b%\xb0h\n\xe9D\x1a\x88\xe6kH%=\xa9.-\x13\xc3b\x9b\n\xa6\xd0\x814-k\x98i\xccH\xa38\x16(&lt;\xc6\x85\xa6i\xfd\xb2\xcc\xc2W1\x8d\x9e\xdd\xcaX\xa0P\xd3\x14\xc65\x92\xa6\xda\x9e\xd9T\xc5\xb0\x84\x14^\xae\xd2Z!\xfb\xc3\xd1)\xa6\xd1[\x969\xd8\xe8\xa7PHcoFS\xf5\x96]H\xc7\x82\xb5\xf0\xa4\x1e\n\x13M5M\xa3\xf7p:\x96\x90\xc2\xcb\xaep!\xd2\xa5\xacC\x99\x1a\x05\xac]+\x92\x14\xfeX\xef\xc4\xfb\xb8\xd0B\xbd\xdew\xe6\x82\xc6\xe4}c\x06\x16\xa4\x90*,\xd0\x89\x8am8\xd24f`\x91q\x86*\xf4D\x0b\x91nE\x9aj\xda\x88\xe3\xadN\xc5\xa2)t\xe2\x0f\\h\xb4\x9eOt\x85I5\xb16z\xab\xf7\'c\x81\xc2\x03u:*\x8cm8R4\x02\xd6m\x01\xab\x1c\x14&gt;\xf2\x84\x0b\x91\xaee\xf5\xb34\xc6\xffp\xa4b%\x14"\x9d\x8b\xac\x8d\xc9\x1b\x8e\x14,\x83\x142\x8d\xd9)\x1aS\xb0`S\xa1\xbfB\xb6\xe1\x10F\x1c8\x8c\x03\xac\xa7\x0c\x0b\x1a\xe9\x07\x8e\x1f\x83\x0c(K\xf2\x86#\t\x0b\x14\x9e\xa9\x0b\x0c\x16\x18\x81\x95\xf35iR\xf5V\x9f\x8aa\x81\xc2\xe3\xba6\xd2\x94\xa3\xf1 \x1c\x8d\xaf$i\xac\xf1R\xac\xf7\x04\xab\xa5\xed\x0fQx\xde\x80\x14\xc6\xca&amp;\x1c\x8d\x934\xd6,=\x04X0\xce\x9c\xd9\x13\x88\x14\x18\x85\x95C\xd2\xd8\ni\xac\xa17g\tV\\!\xbf\x00\x19V\xf6 [\x1b\xbbVn\xf6\nX\xd0H\xcfsM\xb3\x91\x81e\x834vW\x1d\xde\x0eX\x9f!\x85\rWg\x1a\x89\x95\'h&lt;\xed[\xb4\x95`\xbd^N6\x15n|\xcf\x13\x99\x85\x0c-\xeb Kc\xe3\xde\xd5]\x14\xeb\xed\x97\n\'\xee\xe5BE\xc8\xe0\x9a\xcb\xfbX\x1a}\xe4k\xb9\xcf\xfd\xfa\xe4\xc4\xed\'\x9a\xbeM7\x1a+k\r\xd5\xb8\x0c\xdf\xa3O\x1f\xfe\xbe\'\xe3\xcc\xc7\x92\xc8|dx\xd9\xa1\xa9n\xe9Z\xb2\xb8\xf4ni\x05QX6\x1b\x99\xa0H\x1a\xbb\xf1:\xb8\x1b\xb8\x1e7\x9e\xd8\xfbp\xa6\x19\xb0\xc6e_;\xda\x8a\xe1\x8e\xb2\x1b\x0f\x94\x18\x9d\xc2\x84\xc6\x92f\xec\xde\xc9\xdeC\xde\xe0\xf8"d\x92\xb2\xf9}\x1d\x98\xbd\x82\xec\xaam\x1a\x9cn\x16\xac\xbc\xec\x97\xcfH\x93\xdf\x89\xf1\x9b\x92\xe0dd\x9a\xb2\xfb\xb7=\xa1\xaf\xfd:L\xa4\x90\x96#\xecz\x8cq}\xed\xcbo\x93\xcc\x845jbhU=n&gt;h&amp;\x85\xb4\xf2\xfd\x81Ww\x9e\xf1s\x90\xc9\xca\x11\xddp\xb4\xd3\\\n\x99\xc6\xa9\x91\xdd\xe1\xc9\xc8t\x95\x1f1\x9fB6\xe2\x1c\x99dF\xac\xac\x19\xe8\x7f\x19R\xff\x00\x8b?\x90zj\x1c\xdb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +868,14 @@
       <c r="D18" t="n">
         <v>58766</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\x9dPLTEGpL\xaa\xa9\xa9\x1e\x19\x16\x92uO\x1e\x19\x16\xb8\x96X\x1e\x19\x16\x1e\x19\x16\x19\x0e\x04\x1e\x1a\x16\xf8\xc2\x00\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1b\x1a\x1a\x1e\x19\x16\x1e\x19\x18\x1e\x19\x16!\x17\x11\x1e\x19\x16\x1c\x1b\x14\x1e\x19\x15\x1e\x19\x16\x1e\x19\x16\x1e\x19\x17\x1e\x19\x16\x1e\x19\x16\xa7\x9b{\x1e\x19\x16\x1e\x1e\x1e\x1e\x18\x16\x1e\x19\x16\x1e\x1a\x14\x1e\x16\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x93uN\xaa\xa7\xa7\x1e\x19\x16\x1f\x19\x16\xab\xaa\xaa\xd2\xa1!\xf8\xc3\x00\xaa\xa9\xa9\x93uN\xf8\xc3\x00\xaa\xaa\xaa\xab\xa9\xa9\xf8\xc4\x00\x93uN\x93uN\xf8\xc3\x00\xf5\xc4\x00\xf7\xc3\x00\x92uN\xaa\xaa\xaa\xf7\xc2\x00\xf8\xc2\x00\x92tN\x93uO\x93tN\x93sQ\x93tM\xf7\xc2\x00\x92tN\xf8\xc4\x00\xaa\xa9\xa9\xab\xaa\xaa\xaa\xa9\xa9\xab\xa9\xa9\xab\xa9\xa9\xf8\xc3\x00\x92tN\xf7\xc3\x00\xab\xa9\xa9\xf8\xc3\x00\xf9\xc3\x00\x93tN\xaa\xaa\xaa\x93uM\xac\xac\xac\xf7\xc3\x00\xab\xaa\xaa\xab\xaa\xaa\xf8\xc3\x00\xaa\xa9\xa9\x1f\x1a\x17\xff\xff\xff\r\x80\xbf \x1b\x18\xab\xaa\xaa\x93uO\xf8\xc3\x00\xfe\xfe\xff\xfd\xfc\xfc3.+&amp;!\x1e61/wts\x0f\x81\xc0"\x1d\x1aliggca\xfa\xfa\xf9\x81~|\xc1\xbf\xbf*%"spnRNL/+($\x1f\x1cOKI\x1a\x87\xc3\xf5\xf5\xf5b_]\x88\x85\x83EA?&amp;\x8e\xc7B&gt;;olj\xaa\xa8\xa7\xd4\xd3\xd3VRP\xd1\xd0\xd0,(%\xdf\xde\xde\xce\xcd\xcc\xfb\xfd\xfe\xf9\xf9\xf8(# \xf0\xf0\xf0[WU\xdd\xdc\xdc\xd8\xd7\xd6\x99\x97\x96\x90\x8e\x8c\xf7\xf7\xf7KGE\xee\xee\xed\xe7\xe7\xe6?;8\xa5\xa3\xa2{xv\x96\xc8\xe45\x95\xca&lt;\x99\xcc\x8d\x8a\x89\xca\xc9\xc9\x8a\x88\x86_\xab\xd5\xf6\xfa\xfd\xa6\xd1\xe8\xe9\xe9\xe9\xf2\xf1\xf1\x9f\x9d\x9c}{y\x83\xbe\xdf\xf1\xf8\xfco\xb4\xd9\xbc\xbb\xba\xfb\xfb\xfb\xda\xd9\xd9\xba\xb8\xb7HDA\xeb\xeb\xeaTPM \x8a\xc5\x96\x94\x92\xdb\xec\xf6N\xa3\xd1|\xba\xdd&lt;85\xae\xac\xab841ifd-\x91\xc8\xe5\xe4\xe4\x14\x84\xc1`][\xe3\xe2\xe2\xa2\xa0\x9f\x9c\x9a\x98\xeb\xf5\xfa\xf4\xf3\xf3I\x9f\xcf\xcc\xe5\xf2\xbf\xbd\xbd\xb4\xb2\xb1\x93\x91\x8f\xb7\xb5\xb4u\xb7\xdb\xd5\xe9\xf4\xad\xd4\xe9\x89\xc1\xe0\xc3\xe0\xef\x85\x82\x81\xfa\xfc\xfe\x9b\xcb\xe5\xb9\xdb\xed\xbe\xdd\xee\xb4\xd8\xecY\xa8\xd4XUR\xb1\xaf\xae^ZXT\xa6\xd2\xee\xf7\xfb\xe7\xf2\xf9\xa1\xce\xe7\xe1\xe0\xe0D\x9d\xceg\xb0\xd7\xe3\xf0\xf8\xa7\xa5\xa4\xc7\xc5\xc5\xd2\xe7\xf3vsq\xc4\xc2\xc1\xdf\xee\xf7\x8f\xc5\xe2\xc7\xe2\xf1lV\xf9\xfe\x00\x00\x00XtRNS\x00K\x8d\xb0d\x03\xd4\xfb\x03\xf3\xb0\xe1}\xed\xb9\x13\xaa)1\x0es\x1bC\xc0\xa3K\xcb\x96\x08\xe6\x08=\x9c\x18!\xc6Xm\xf5\x1bQ\x85\xfa\x0c\xf7t..\xa0\x8c\x80\x84k\xb5\x14\xfd\xd50\x98_Q\x93\xb6\x18AB\xe6k:\xc9\xb9\xdbZ\xc9\xc7\xd6\xea\xe6Q\x99g]\x11\xee\xf0\xbc\x9e\xe3\xbb\xa2\xd6B\x00\x00\x14vIDATx\xda\xccY\xf7c\x13W\x12\x86\xe0\n\xb6\xe9%\xf4N\x8e\xd0\x03\x84r\x01B\x08I.\xc9\xb5\x94{\xeb\xb5-\xc9E\x08\xd9\xb2\xe5\x82q\xc3\xdd`\\i6\xb8\xf7\x82+`lz/\x06\x83\t\xa1\x04\x8e\x92\xbf\xe5f\xde\xae\xe4]iwU\x909\xe6\x07[\xd2{o\xf6\xd3\x94of\x9eF\x8cp\x99\xecX2\xe2C\x94\xd5\xff\xfc\x10Q\xb9\xff\xe7\x97\x0f\x11\xd6\x8e\x80\xa5\xff\xfe\x10}\x18\x10\xf0\x7f\xf1\xe2\xa7\xca&gt;\xfc&amp; `\xe7\xbb(p6v\xfe\xa1\xb8\xbc1 \xc0\x86\x17\xdd7\r\x07\xac\x15\x8b\xa5\xbe\xad\xfb\x92\x91\x9c\xac\x02X\x01\xab\xf97\x92T\xb1r\xd9\xfaa\x80\xf5Y\xe0\xbf\xa4&gt;\x9e\xb9:\xc0R\x96.\x97T\xb0&amp;h\xf30\xc0\xda\x108Jza\xe4\x0fbT\xdfl\x94\xde\xf7}\xd0\xbaa\xf0a`\xe0\xe2\x99\xd2KK~\x11\xa2Z%\xb3keP\xd0\xb2O\x87\xc1\x87\x81\x81\x7f\x95\x0b\xe6\xe5KM\xa0~\xfeVN\xc1\x9a\xa0\xa0a\xf0\xe2\x06\x805Jvu$\x8f*i\xa3\xec\x96\xef\x00\xd6h\x97\xd1\xc2g\xa3\xa8l\x01T\x81\x8b\xb9\xd7\xa3\xacc\x7f\xb9\xc9Z#\xad\x14\xac\x19Me\x1d\xa0\nZ\xc6\xbd\x1e\xbd\xd9\x05\xb8\x02-d\xf1Z\xeb]_\x9b#\xcbZ\xc1\x9a\xcf\x83\xc4\xb2\xec+W\x18l\xdbv\x11\xaa\r+$\x82\x1e\x11\xedDl?K\x04\xfc\x97?\x8aP}\xbf\xd25\x8e\xdc\xbaE\x80\xea\x0b\xa9D[N\xc9\x8aR\xd8H\x89\xe5\xf5\xeb\x86@}\xfe\xab\xcb\xd2\xd1}\xedb\x93\x03\xa5\x93\xf1k\x9e\xac\x80\xc2VIn\xf8j\x19\x8f\xea\xa7\xbf\xbb2\x0f\xff\xc6\xc3\x92\xae\x8bK\x96\x9a\xc8j\xc9\xce\x1f\xdce\xf3\x10\xe5WW\xa2\xdajr\xe1v\xc9\x87~+ \xab\xe5;\xa4v\xac7\x85\xfdO\xee.\x84\xb5\xd6\x1cZ\xdb$\x9d,\xfb\xc6\xecDsl}\xe9b\x1f\x8eZ\x81\x7f\xbfpN\x01\xc6\xfc\xe8\x95\xe8\xc9M.\xf5!\x92\x15R\xd8v\xa7\x14\x80\x0f\x91\xac\x90\xc2~tw\xa1\x0fy\xb2\x02\n\xdb\xe6\x8c\x82\xcd&amp;\xb2\x02\ns\x9d\x17\xb7\x98\xc9j\xeb\x16K/\xce\x9e?\xc5\xcdg\xc68\xbf\x05\xd3=&lt;\xa6/\xf0\x1b7\xc3\xc7m\xced/K\x1fn2\x91\xd5\xfa\xd1.\xf3\xe2L!Y\t^{\x8dw\x9b1\xdd\x93H\x88\xf7\x82\x8f\x16\xce\x1f\xc26SHV.%.+\x99\xec6\xceW\x04\x85\x05\x11\xbd\x9f5m\xe1\xd8\xf7;\x04M\x9ed\xb6RD\xfe\xae\xd2\xe2\xc6\xf4\xfd\xcd\x15\x15\x15\xd9\xe5\r%\xd7*\xef\xe8\xe2\x83\xf9EO?\xb7\xf7\x86\xcc\xeb\x13?\x0e\x13\xdbT\xd5\x95\xa6f$dw\xc3\x0bC\x11\x8fl\xdc\x94\xf7\x01j\xac\xcf,\xfa\xb8(\xc3\x95\x02FQ\n\x93t\x11t\xab\xc7\xa2\x89\xc3\x0cj\xdeG\xde\xd4s\x86\xf0!+\xa9\x1e\xdf\xb8_v\xf8VuGu\xf5\xad\xfe\x9b\xb7\xdbj\x86\x90\xe5]\xd1Q\x7f\xfa\xfa\x0c\'\xb0\xb1\x1c\xa8\xfc\xe2X\xfe\xb1\x197\x9e\xd4&gt;\x8b\t\xf3\x17IXk\xfb\xf5\xb26\x15\xbf\xa5 \x97z\xd3w\xd2\xeca\x025{\x11\xa6\x1e\x1bW\xc2?\xf1M\xff\x83\x18\x7fYi=^v\x9e\xdb\xa7n\x8cD`c\x16z\r\x07\xaa9\x1e\x08Jw\xc0\xec\xbb\x8e0\x7fE\xe9\xe97;\xf3e\x0b\x02\x9b:\xde\xe5\xa0&amp;\xce\xc0\xecK\xd9G\x9fr\xf7f\xfb\x13\xf8w\xfb\xb4\x12\xaag7\x00z\xf5\x83{\x9cm/\xc7cV\xfa\xb8\xd8`s\xc6\x80\xd6\xee+\xf4\t\x8fo\xed\x85\xa7\xd6\x9e`\x98\x13\xb7d\xbd\xb8\xf7\t\xc09\xff\x1b\xbc:\xd2\x7f\x02O\xd5W\xa6\x82\x8a\xe9\xae4\x98\x97\x0f\x98J\xab\xa7\x81\xfe\xb8\x9a\x87r\xe4\x12\xbc\xab\xa1\x10\xad\x84\x832\xc0\xaf\xed=L\x815\x9f\xc2\xb2\xe4\xe6\xba\x04\xf4\x03}E%\xa8\xfa\xc4\xdb!\xfb\x84\xd5bLg\x0c\x1c\xb70\xd9\xde\xda\xdb\xe8\xb87\x0f\x04\x1f\x95e\xe0\xe9k\x1aP4\xd7E)9\x01\x1c\xc8\x1a\xa8\xa9\xee\x89\xa3)\xe6\xd6cJ\x13\x7f\x1e~\xfeloOOO\xcc\xe9\x8b\xb5\xfd7h0\xfdq]\x9c\x10G\xd1\xb6Ly\x0e:r\xb2+P}\x0c\\\x95\x15\x80J\x7f\x7f`\xe5\xad\x98\xdaK\xe6t\xcb\xc80\xbf\xba\x7f\xdc*K\xc3\xae#\xcd\xaa\x0fB9\x9f5\xe1\xddQ\xb9AXu\xd3\x04\xbc\xd9*\x19\xdbm\xd6e\xe7\xbed&amp;\x9c\xbe\x8dku\x10\xf9\xde\xef\\&amp;\'\xc1\xb7\x8bn\xc6\xa8z.\x99qG\x7f\x97*\x877$\x13!\xac\x1a\xed\xd9\xd0\tL\xf1\xc9;\xa2\x82X\x88\xc3\xb0j;"\x8d\xaaF\xbaL\xbf\x91\xc4\xe5\x7f\x11\x93\xa49\xff]q!\xaaD,\xca\xf7\xa4\t\xea\xc8c\xb9\xf6\xa1\xadU\x9a\xce\xfe\x0bk\x17R\xde\r\x97\x1bx\xd0\x80\xa8\xfa\xa5\xebLk\x9b|[s[\xfaH\xcc=X\x8b}\x08\xb8\x9c\x8e\xaf\x8f=y[UK3y\xd8\x80R\xbb\xf5V\xe6P\x19\xe2\x82\x1a\xe9\xedd&gt;N\x00f\x88ScM\x96)0\xb5\x8a]`\xc6E\x19\\X\xc1+ \xbef9\xc5_\xf3\x80E#\xf3@\xc5u\xb9\xb2W\xa3\xdc\x9d\xb6\xf5\xc8\x1cD\\\xe5\x90\x8f\xd3\x9d\xe0{\xaf\xa9\x84t\x16\xc8{\xd0\xdf\xbf\x8c\xb1!r\'\xa9\x1f\x1b\x80\xbf\xe6:\x0e\xeb/\xd0\x1acouX\x0e\xd5Q\x95-X5\xadr\xb80\xee/C&gt;9\\\xb7\xa7\xb0\x84\xc5&gt;f@\xb6\xd7\x1b`l\xca[\xb9\xb31\xc8\x13\x07!\xec\x1d\xecs\xc6\xc2xs\x085\x97\xc9\xc1:\xa2\xb2\r\xabF\xae\x1d\x8b\xc1:\xa4\x86\xba=\xdd\xb1\xbep\x1a!\xf1\x99T\xf5@\x8f|\xdc\xda\x14\x99li\xe5\xea{y\x14!&gt;\x0e1\x16!\xc6d8x\x15b\xfeO\xc9\x08\x899!\x06P\xcfM\x13tLS\xd7\x9b\x93Q\xda\xd0\xc0\xc2i\x95\xd8\x7f\x01\xab:\xe0\xc6\xd9\xc0\r\xa5p\xec\x05\x89/\x84\xfavTB\xf5s\xfe\xc1g\x8a\r]\x0c\x93\x99h\xecLg\x98\xa4\xd4(\x88\xc7\xdcTc\xa8i\x8a|&amp;q\xb4\x1d*V\xb2\x86}\t\xcb\xd0\xafN\xb5\x1f\x96\x0f!\t\xe0\xc2^\x18\x8a\xbb\xc1h\'\x8e[\xeb\xbe\xcf?\xf7\xaa\x8e\xcde\x98s\xda\xdc\x84&amp;\xa6Wk\xd8\x95\xd5\\^t0\x91\xbc\xe4\x97\xad\xf38\xac\x03\xda\x88p\xd0\xdcy\x01\xdc\x08,\xb1\xd0\xee\x8b\x0f\xa0\xf7p.$\x81%\x1a\xb1&amp;Z\x06X\xab\xb9\xe5\x8bEX\xba\x04\xa6T[Q\xc9f?%I\x8c\x9aI\xc6\xe3T\xfe\xb0\xcc\x98V\xe4\x86J-j\xc6\x94\xaa\x84\xf9\xd1^R\x9d\x0bE\x07\x8et\xf1\x17B\xc7\xc0#7,\x1cy\x9c\x11\xc1\x8a+b\xee\x90\xc2\xaa,u,\x0b\xce\xef\xcb\xcf\xd9mZ\xb6\xe8\x87\xda\xa1=\xcb3\xf0\x8a\xc1\xedj\x98\xd3&amp;\xd9\x87j\xbc\'\xd1\xeeg\x98l\x8d\xe9\xa6*\x07\xda\xc0\xbb\xb7D\x06{"\x86u\x95\xdd\xd3\xcd6\xbfJU\xe7i\xf5`;MB\xb6iYTOc\xf0\xd8\xfe&amp;\x93\xde|\xf8\xbe\x97\t\xf1\x9dh/9\x84\xc2\xf1=C7h\x9a:\xcc*a\xe9}#\x86\x15\x9b\x98\x10\x1d\xbc[\xcf[\x8bIc\xfbL\xcb\x03\x82\xa8:\x0e\xa6R\x15g\r\xe9}\x01\x1bR\xec$\x89\xf9\x9e\xc4x\x06R\xcc(\xbc\xd9{U\x81\xcd\xbcy\xeeiU\x89a\x81\x9cma\x8aI\xe1\x012\x98\x17\xce\xc4\x1a\xaf\x9a\x96\xcf\x9b\x83\xeb(Rh\xe1#\xe1\x85a\x08t\x02/\xc1\\\xf6D\xd7G\xd0\xfa\x81\x82P\xf1mh\xc85@r\xf70\xdf\x0b\xb7\x9bQ\x9d\xcc!\tq\xaaL\xbd\x81\xbd\xc64\xa7\xb6Dk.\\#\xa7r0lx\xe1O\x9c\xbe\t\xe7\xd5}\x11b\xad\xf8\x8d"\tYd\xc7e\x837a!\xb2z\xb5\x96\xd7\xb4\x8f\x1ap\xd0\xe0\x80u\x98\x9f\x9aTUU\xa5W\xf5F6\x15\xc3\x9b\x92\x9cG0#\x15\xa7\xa4t\r\xf1\xeco\x94@\xe9\xf8Z\x92o\xa9S\x03\xe6j$\xc4\xc36\xacE\x00\x00T\xe8\xad\xaf\x8f\xb5\x87\xca\xf1Z\xa4\xec\xa80\xe2mJ\x87\x7fX;\xbd\x1e\xd9\xafc\xaduB\x0c\xaa\xa1\xf3\xb2\xdd@{\x10\x02\x01\x9e\x1d!u\xaf\x9du\x07G3\xe6\x92`f\xb5)7;h\xc3\x9ff\xd0Ji,\x82d\xcc%d\x9c\xcdN\x19\x88\x1d\xb6\x9e#\xd2\x12\xacOc\x9c\x90}\x89\xac\x8cB0A\xb3\x91xN\xb4\x1d\xf0{\xc0\xb0\tDN\xd8\xb3\x97\xeb\x1d\xc3\x947\x18\xc9\xca\xaaC\xde\xd6\xd9\xec\x07\xbd\xa0HCO\x9aN\x94\xa4\xbb\xb4Ae/&amp;uzU\x94\x92.c3m$\xfcl\xfa0\x01\x94U\x11\x1b\x12_\x9a\xae\xb6\x8di\xf7k}\xb7-M\xd0\xe0\xc4f\xd9\xf2\xa2\x0f\xedh\xea5\xc4\xb6D\x9d\xea;\xa0\xe0\xce\xcc\xf4\xdc\xb3\x11v\xa8i\xe1\xbc\xa8\xdcG, \x04\x98\xb0\x84\xd8)Y\x91U}\xaf\x9f\xe6\x89\x01]h\xb8|.4\xdfh\xa7\n-x1\x89\x90i\x8a-\xbc\'I\x05\xe7\x94\x12\x87$\xea\x91\xa1J\x97\x18z\xe8Ph\xa2\xeea|*\xeb\xd8\xe9$(I\xd0\xde\xd8h\x9615\x9a\x1cV\xcc&lt;"\xce\xca.8\x9d@\xd8\xf9\xca\xc3!\x94\xa9\x02\xc7\xbeo\xbc\x9a)`\x92Yga\x85\xa8h\x01V\n.?\x1aZu\x8e\xe9md\xea\xba\xcb\x99]N\x9b\xeb)\r\xae\x19\n\xb0|\x891\xd6\xd1\xd0\x8aV5D\x90\x14u\x9a\xd6YXP\xd7\x0f\x10\xb2@\xa1\x89\xe7X\xeb\xacCZ\xfb\x0e\xe0oMU\xc9q\xce\xc2\x82~6\xd3H|\xe5\x07\xd9)\x84\x9c\x02X\x1a\xf2^\xe5!M2v\x9e\xfc\xed\x1f%\xd3lS\xf4\xb2M\xfa\xe2\xc1\xaes\xaf:MD\x10b\x12M\x04\xb7\x87\r\x11I\x14\t\xe6\x96\xcd\xfd\x14}\x1b\xcc\xed\xe3\xd5j\xa3\xef\x80\xd6\\\x83\x99\xffC\xb8\x81q\x8aR"B\xb2\xef3M\x16\xc9\xa6\xdf\xc2^F\xd3\x0f\xc2\x05\xa5\xae`\x10?\xd3\x88\x89\xb4\x8e\xe8\xe8\xff\n&gt;\xce\xb4\xdc\xa4\xb1\x8b\x04\xe3$D\x7f\xf0d\rOM*\xea\xe2\xf9]\xb1tppS\x1a.^\xd3\xca\x89\xe7O\n\xca\xb1Zo\x01\x0b?\xab\x92\x85\xc5D\xf3\xa3\rc\t+\xabQX\x9f\xf8\xc9\x0c\x9a\xe1&gt;\xa5Ac*\xddRI\xf7\x1e\xa4\'\xb3\xf7%WP\x83\x19\xac`1\xbb\x8bda\xf1\xb9|\xc7\x12\x96\x96Sq!\xad\x97VSu\xa2\xc9\x0b\x8dJ\x0c\xe1A\xd8\n^g\x0e\xda\xeai\x1c\xc4\x83VW\x88\x9aB8X\xc7"Q\xe2\xbap\xf9$\x85U\x18i\x96\x04\n\xab\x82\x8e3\xfc\xf3*D\xb0\x8e!\x98\xf4\x87\xa05\xe2\x10\xde4\xe6\xd1\x1f\x8c\x03h\x15\x96\xefP\xc7\x90\xe0L\x869\x84.\xc4y"\x8d\x0f\xdd\xcel\xee\x92,\x9c&gt;b\xa8\xe0\xbc\xa6\xb0\xd2\x84Y\x85\xb0\x8aUL&amp;\x1d\x06\x81\x03U\x95BX!x7u\x85\x0f\xbc"\x9c\x0c\x1a\xf1\xd59\x86iPj\xb9|I\x04\x14j\xb4l\x0e:.E\xc0,L\xb2\x18\xd6Y\xfa\x91$\xac=\xbd\x0cC\xaf/R`\xda\xd4\x0ba\xa1\xb1\xced\t\xf7\xaa:\xb9x9\xa3\xc4\xa7\x9e$\x8a\xeb~p"1g$\xf81\nD\x0c\x0b\xa7\xa3\x12\x19X/\xd0\xbf\xdc\xe3\x06E\xb0\x92E\xc3:\xce}t\xc2\x82.\xbd@i*\xf3\xa4\xcfA\xbaN\xe6\xdc&amp;\x16!\xac\xab\xf4\xba\x05\xb7\xf7jL\x12\xc5\xc3J\xe4\xbf\x12\x94\xd7P!\xac\xacz\xda,\x88\x86\xd7A.3\xa0;\xb0\x03\x16\x9b\xcd[\xcd\nV(\x1a.*\xa1\x14\x9e\xa3n\xb2\xc8\xc4}&lt;,\xe8\t\xd4\xa9\x84\xa4\xc2\x9eN!,,l\xb1\x82\xd2\x89\xc3{:\x07+[\x19\x16\xefD#\xaai\xe1*q\x12/&lt;A\xa8P\xe8\xb5\xa4\x9e\xc8\xc0B\x96\xd1\xd1\xf0\xebe\x85\xb0"\xf1\xbeT8\xa7\xe3Pk\x87\x13\xbdI\x84\x8a\x86\xbc\xb1\xde\x0ck\x97\xe9\xa1\x16\xbcU\xdeBda\xf5Q\xf2\x83\x04\xfb_1W\xfe\xd4D\x12\x85S\x14EH!,\xe0\x01hQ\x82\xaeU\xfa\x1f\xcd8VM\x02$1.\x81p\xc8!\x97\x1cr\x9f\x82\xe2\x85\xa2r\xc8\x82\xa8\x08\x0b"\x87\x1cR"\xb8x\x00\n\x1e\x7f\xcb\xbe\xd7=3L\x92\xe9\xc9\x84\xc3\xed\x1fB4\xc9\xe4\x9b\xee\xd7\xaf\xdf\xfb\xde\xf7r\x81\xf3\x85\xd5\xa4\x82uM\xb2\xcc:\xf2\xdf\xc7\x99\xb0\x12\xc9\xe7\xc1A8^I6\xc6\x86\xc5\xdf-\xa6\xb0\x9a\x8a\xe5\xd1 \xc3\xbaHv&lt;$vn/X\xbd\xbc\xea\xc0\xe5hXPDm\xacZ\x8fD\x05w\xfa\x8a\xee\x95je\xcf\x14\xff\x05\xe3\x8e\x02k\xfc"\x0c\xe7\x0cz\xc91\x81\xb1\x139\x9b\x95\x17m\xf0\xc0?\xf3\x82\x95\tK!\xaa\xc2\x93\x9b\x92\xe3\xbaBL,Z\xef\xf0\xf9B\x13\xfda\xe2-\x95Q\xa2\xc0r\xee\x98\x05l*\x06,\x9c\xa8B\x98\x8b/\x9c\x17,\x01\x8f\x8b\xc2\x9d7\x7f\x93\xb6\xfbC\x12\x10\xb3\x0b@\xd1\xe4\xad\xd3Xr\xe5\xc9N\x93F\x81\xe8\x0b\x8b\xac\xf25&amp;,0\xab+-$\x16\xf6\xf2[H6]UV1O\xa4\xec\x16\xdeD\x0b\xc7\x9d\xd3# \x86\xe9\x9e\xad\xc4\x13\xabDJ?\xe9\x01\xeb\xed\xb7\x1e\x93 \x89\x05\x0b\xd2\xa7\xb114-oXY\x08\xa4UN\xf3Q\xefQ\x83\x87.XD\x87^`s\x86\xec\x8a&gt;A:o\xf8\x12\x12\x11\xd9\xa6x\x7fX\xb8\xacnj\xf2Y;\xa3T\x82UJ\x02\x04\xf1\x99\x0f,\xae\x87\x04I\xc4u\xa5\xe2\xd5D\xdcV\x99t\xf7\x1f\xd3K\x13a\xf5D\xd4\xe88\xbeSb\xe3\x9f\xf1\x87\xf5\xb4t\xe2\r\xeb\x06a*|\x02\x1b\xfe\x9a\x04\x8b\xa0&amp;\xf3\xe8\r\xcb6B\xd4y_;f\x1e\x92\x8aR\x0b^\n\xfd\x06lbv-\xf6\x14\x8d\xdcV\xf1\xcd\xa5%\xaa\xc8\xcai\xf5\x85\x85\xcfg\xd8\xb0\x06xR\x9b\xf1\x85\xc5\x154\xa9\xdf\xfeA.\x1bXS8\x0b;\xc5\x08\xb7\x90\x0b\xbc\xa5\xfc\xc2?2\'S\x95\x8b\x1b\xd4\x1b\x16\x06,5)LX\xe8)\xc9\xa6\xf3\x81\xc5\xa5\xf6(Ao\xd5%j\xfd-\xc4m\x1d\xd7\xc9\x13\xe3\xc8!=-o\xc0\xda\xa2\xbb\xae\x9c\xc7\x03\xe0j\xfeMK#\x0fir\xba\xd1\x0c\xcf\xd3l)i\xde#\xf5)&lt;\xe0\x06\xae\xc4\x7f\xa11\xe4\xc1\xdff\xce\xb1\r\x7f\xa4\xd3\xb0a\xbc\xa8\xca\x953\xd6\xd3*\xf395\xe4\xc0N\xd2\xe7\x02\xe1\xe0h\xda\xf1\xc4\x82C8\x80\x14\xcc\xeb\xaa\x99V\x12\xde\xe8\xf1\x81g\xe9a\xd3\xfc;\xd3\xc4\\j\xf1zu\xc5d\x810\x15]\xc1\xde\xbd\xc7\xd6\xdc\x9b\x95\x91\x91\xd5\xfb4\xd3\x13\xec\xf4\xde#\x07edx\x00\xfa\xbb\x86\xd4\x87\x8cR[\xc5\xad\xe3\x0fk\xaaT\x84\xe5\xa3\xc6\xa2\xd9\x81\xed\xact\xc3\xb74F\x8c9:\x10\xd1\x0cqg\xbd\x91\x8b\ny]\x1f\xca\x98\xd4\xae\xb5\xe6\xab\xfb\xa9\x11X\xbd\xc4/\x07\xa0\x9aOB\xdc\xe7}\x9ej\x8f\xf4\x8bW\xee\x04\xa6t\xcb\xee]\x0b\xc8U\xc2\xb1\xe2\xca\xe4\xcc\xc9\xfa\x04x$\'\x8c\x04ZEO\xeet\x85Q\x02\xfc\xee\xd7U]\x86I\xf8BB\x95\xd3\x01\xca\x05\'\x88\x87~\x94\xca\xbePsmcp\xe5\x82\xb1\x9b:W+\xa6k\x18\xa8\x02{\x92\x861\x1d\xac\x9b[\x9d\xb2\x06_[q\r\xf7\xeapn\xaf*9s q\x12\x961\xe0\x18nrh\x17V\xc8A9\xd16g\x1c\xd2\xe2gTL\x88SY\x9a\xa8l\x15$*\x8b2"6p2\x8c\xbe\x98\x14/_o\xbc\x0c,FR\xcb\x92\xb2\xdf\x90\x1a\x99\xcc\x1b\xf9\x1a\xbc\xd8`Dt\x90l\xe6&lt;\xb0\xc9\xfc\x99\xe3f\x0c\x96\xc4w\xa4b}\xdf8,\xd4P\xd8W\xb0\xd2gm\xf1\xa3\x19\xd3\x1b\t+\x92h@i\x13O\t \x1f*4\xa5\x0e\x83\x80eIw\xb0f\x1c\x96T\xdf^C\r\xd2\xddV\x1f\xdb\x90\xbe\xc8H\r=V\xe0J\xab|\xa7\xab\x1fS\xa1\xadAE\xe8\xa6|k\xeb\xe8\xe8\xe8\xb6\xf8|4\xb7\xae\x82\x1f\x86\xa7pF\xdc(\xe8R\x89\x92\xecJ]\x7f\x13#y\xaf\x8a`i#\t\x9b-\x86\xba[\xa2h\xaa\xe4VMU-l\xbf\x07\xdd*\x05\x88"\x82\xcd\xb39\x9d\x97\xc4\xf4\xbcm\xa1\x0e\xb6o\x97\rl\xb8\xce\x91\xba\xe3\xfc\x97U\xb2\xfe\x85%8@.\xa9nw\x86\xb2\xa6!\xc6\xb4\xf1\xb0\xe6}j\xc6\xa7\x00\x89\x92y/\x81\xeb\xbc\x02\x0b+\\b\xba\x9bOu\x02\xac\x9c\x01\x08\x97Ws\x852m!\xde\xf5_\xa8rS,\xec)\x84\xe3%0Y\xc9\xc6d#QT\x9f1 \'\xbf\x90|Mtj\x0b\x92\xf8\xbc\x82\xd9)\x80U&lt;\xee\xe9AXo\xb9\xeaz\xcf\xb4\xa7E\x81\xb5\xee\xa3\xb7\x06o\xd1\xd4/]x\x96\xaa3\x8cM\x16U\xb3\xc0\x04\xb9\xc8\x8ev`X\xbe\xec\xab\x05\xce\x97\x97)Op&lt;\x03X)\x95\x055\x00k\xd51\xca\xdf\x10\x1a\x1b\x9c\xfe\xea\x0cy\xc2\xc0\xe5\xb9Z\x95@k\x96\xe3"\r\xf7M\xc1\t\x94\x01\xd6T\xe2\xa0\x82$q\xc1_\x89\xf7ZYD\x97\x0b\x17\xb1\xa2\xa1\x01`uL[\xf9\x19GC\xa6b\\\xb7\xfd\x1bGnK\x92\xa4RpC\xaf\x9e\x19V\xfe`Y1\x92\xf2\x81\x1d\x9c\r\xdc\xfa\x83\x15\rm\xd8\x1b_\xdbz\x9e\x8e\x8b\x88iF\xef\xdb\x1d\xe3\x1a\xd4\xfah9\xcf\xf7\xa4\x10&gt;\x01\x82\xe5\xb0 \xd4\x81\xa1p3\x10H&lt;z\x0e~\xe1\x87\xa6\xf6[\x16pI\xb0\x9a\xdd\x9e\\\n\xcbUy\x0f\x12\x99\xaf\xf4\xd5O\x9a\x82\xc7\xc1\x07\xe0EZi\xe2o&gt;\x19\xa4\x16v\x95.\xc4\x96\xb6\xc4\\\xde\x8b\x97\x91\xbf\x17\xd3\n\xdd\xe3\xf5\xfcl!\x9cp#\x85\xd5\xbc\xd5}\x85\xbe\xba\xc0PanRz\xbeY\xbf^\xa7\x91\xc8Z\xa4\x14t\x91\xa5\xd1\\7\xe0\xe1\x97\xf2Y\xbacrJ\x82g\x8c\x08\xb2\xb7,T\xe2.\x98"\xdd\xf3\xbf\x02\xc3\xfa|^O\xa6{\x81\x0bn\teR)\x15\xe3\xe2n\xd6\xa5\x07\x03O\x16\xb3k\xaa\ry\xc0\xca U\xa7T0\x05IP\x16\xb8\xe1\xf2N\xd6\xb5\xdf\x05\x82\xc5\x9ci\x0c@\xfa\xc07D\xed\xa2w+\x06\xcc\xcb\x89Z\xb25\x96|xI\x1f\xd5\x04\xcb,\xd1\xb9\xe4@X\x18\xb1\xab\x06\xd4\xb3f\xcal\xdcb\xe1Z\x08\x1cii\xa2\x82{u\xe5\xee\xbe\xbd\xe0\x8cT\xbf[b|\x81]W\xc65\xcf@5$U\xec\xcc\t\xbbm\xc6\x08\x91\x98\xaar\x86\xdd\xbf\xf8\xa8\xd3[\xa0\xbd\x84v\xb4v\xeb6\xe4\x05{\xe8qK\x82\x8f\xcf\xa0[m\xd3\xd6\xa7O2\xcdkB{\x17f\xa3\xca\xfe\x118,\xe1\xc8\xeeQ\x99\xc2\xe3\x919\xc3\x14lY\xbbS`\xa5\x9c\xa1\x94o\xd7\x9e^L\x99\xea/\x02\xaaC\xa6\xbd\x8c\xf0$,d`\x0e\xbd\xb9\xae\x8d\xeb\x96\xe6\\i\xa3\xea\xc4\xa6\x92\xc6\xfe=\xce\x95b_\x19\xe8W\xcb\xefk.d\xfb\xa6?\xaa-\xcd\x15$\xd2a\xfe1\x1c\x84\xe6}\xe8\x9d&lt;\x02~"\x95\xf4L\xbe\xf6\x9f\x03\xfb\xe4m\x8d\xe9\x9ah\xd3\x98\xadA"8\x9eN\x07\xcfp\xd6\xb4\x0f\x03\x1b\x14\x1d\x03h`\xe5?\xbd\xb7\x97\xbds\x8bv\xc3.\xff\xec^[oo__\xe9n[\xa40\x17}"\xad\'$\xe3\xad\xef\x82\x04#"\xd6\xb4/#\x06[\x97W\t\xa5\xbe\xb9\xa1Z\xc9I\x02\xea\xef\x85v\xbb\xf7\x04\xb6\x91\xbchY\x15\xa7\xbd\x1c"\xadJE\x18\x86\xc7%\x9b\xf6i\x1c\x8e\xc6\x0c\xb8\x85\x04`s+\x12\x88l\xbc\x7f\xf1\xfd\xa4\x86\xc5\xd9W\x16\xc9\xdc\xbe\x94\x9bd\x89\xfdU\xd4A\xa8l\x0e\xd9\xcf\x1e\xe6P\xec\x8a\xef\xa7\xea\x96\xb9\r\xfc\xbaI\x9c\x92\xf7\xd7Y\xa7\xf1$\x9e\x00s\xf8r\xf6\x1b\xba)\xbec\xe6\x9a\x98`\xda\xd7q*\x8e\xa8\x9a\xfbh,|\xff\x05vT\xfc\x18\xd4\xe9\xf6\xb6o|\xc4.\x8e\xebm\xb4\xd3\xac\x0c+\xdfB\xfc\xfe\xff:D(v\xecWvP\xce\r\xd7\xf3s\xb6~s|\xfe\xb2\xb25G\x08\xf9\x10\x91`:\x80\xf1G\x12\xf6\xc7\xa7_\x96\xca6\xe2\xbb\xee\x17:]\xfb\xf6\xf6!9~\xadNC\x06\xd5r\xee\xa0~\xe3 &amp;\n\t\x04O\xe1U9\r\xfc4?4\xf9\xc4\xbfW9\x7f\xf0\xfe{\xf9\x14\xb7N\x8d\xe2\x87\xcc\xf1GM\x077N\x12`\\A\xed\xc8\xce\xafTL\xbc\xbe\xfdsh\xa3smpm\xad\xb3{\xa8m~K\xd5\xb7\xf8\xf8&amp;Q\x8f\x99\xe3cL\x07;b\xe3\xc9\x0f\x8d\x08\x19\x03\x81\xf4\xd6\xd6\x92\x0eJ\x00ZN\x9c2\x1d\xfc8z(BR\xcf\xb9[j\x18Lx\xce\xd5{\xcf%\xe5\xf7\xc1\xff\xd2\x88\x12W\x1cK\x92\x7f\xc3\xc6\xd3\xe0\x9e\xf9p\xe3KU\x05\x99:k}U\xf5\xb7\xe1\x0eg\x9e\xcc\xfaE\x84\xc4\x9a~\xe7\x08?\x16\x12fV\x17\xa3RJ33KS\xd4\x159\xf3\xf1s\xb1\xe1\xa6\xdf?\x92\xff\x0c9m\xd1\xa6\xef#\xe3\xce%\x1c6\xfd\x7f#\xfcT\xc2\x91\x13\xd1\xa7\xc3\x12-0OfKbX\\t\xc8\x99cG\xf7:K\xff\x01k\x8bA+\xde\xc0Q\r\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -742,6 +892,14 @@
       <c r="D19" t="n">
         <v>58766</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x00\x18tEXtSoftware\x00paint.net 4.1.6\xfdN\t\xe8\x00\x00\x02\xfdPLTE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00GpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xc3(\x1e\x00\x00\x00\xc3(\x1d\xc2(\x1e\xff\xff\xff\x01\x00\x00\xc3\'\x1e\xc2(\x1dv\x18\x12i\x15\x10=\x0c\t\xac#\x1aL\x0f\x0b\xc2\'\x1e\x18\x05\x03h\x15\x10w\x18\x12\x17\x04\x03\xc1\'\x1d\xbf\'\x1d\x9d \x18\xc3\'\x1d\xfe\xfe\xfd\x87\x1b\x14\xc2\'\x1d\xfe\xfd\xfcb\x14\x0f\xfd\xfa\xf9\r\x03\x02\xc3* \xfe\xfc\xfb\xf9\xea\xe9\xc8&lt;2\x9c\x1f\x17\xc51(\xc3)\x1f\xff\xfe\xfe\xe4\x9f\x9a\xe4\x9f\x9b\xfd\xf8\xf8\xc5/%\xfe\xfa\xfa\xc64+\xc4,"\xf6\xdd\xdc\x86\x1b\x14\xc76-\xcbG&gt;\xdb\x7fy\xcdLC\xfc\xf4\xf3\xfc\xf6\xf5\xfa\xec\xeb\x06\x01\x01\n\x02\x01\xc0\'\x1d\x14\x04\x03\xd7rk\xc8;2\xd7oi\xc890\xe8\xad\xa9\xd2_X\xcfSL\xe7\xa8\xa4\xe5\xa2\x9e\xec\xbc\xb9\xd4e^\xea\xb4\xb1\xfd\xf7\xf7\xd4h`\xee\xc3\xc0\xdc\x81{C\r\n\x1d\x06\x04\xc4+!\xc4-#\xf9\xe9\xe8\xfb\xf3\xf3\xd0UM\xf4\xda\xd9\xd1[S\xdays\xcbE&lt;\xd3c[\xfa\xee\xed\xf7\xe3\xe2\xf3\xd3\xd1\xbe&amp;\x1d\xb3$\x1b\xbc&amp;\x1c\x0f\x03\x025\n\x08\xf7\xe5\xe4\xf2\xd0\xce\xf8\xe6\xe5\xc3)\x1e\xf1\xcd\xca\xf0\xca\xc8\xdc\x83}\xdd\x85\x7f\xc62(R\x11\x0cN\x0f\x0cr\x17\x11\x03\x01\x00\xb6%\x1c^\x13\x0e&amp;\x07\x05\x94\x1e\x16e\x14\x0f\xa3!\x19\xb1$\x1b\xd0WP\xe3\x9d\x99\xcaC:\xde\x88\x83\xd8tn\xfb\xf1\xf0\xcfRI\xe3\x9c\x97\xee\xc5\xc2\xde\x8b\x85\xceOG\xeb\xb7\xb3\xc9@7\xe2\x96\x91\xef\xc8\xc5\xd2]V\xb7%\x1c\xaf$\x1a#\x07\x05U\x11\rZ\x12\r\xa9"\x19-\t\x07\xd6mf\xda}w\xd5jc\xdf\x8e\x89\xe1\x93\x8e\xf6\xdf\xdd\xd5ic\xe6\xa5\xa1\xe8\xaf\xab\xfa\xf0\xef\xf3\xd6\xd4\xf4\xd8\xd6\xef\xc6\xc3\x90\x1d\x15\x89\x1c\x15\x12\x03\x03\xa1!\x18?\r\t;\x0c\tI\x0e\x0b|\x19\x138\x0b\x08\xa6"\x19\xf6\xe0\xdf\xf2\xd2\xd0\xc8=4\xe3\x9a\x96\xcaB:\xf5\xdb\xd9\xd9vp\xed\xbf\xbc\xdd\x86\x80\xd6le\xb9&amp;\x1cz\x19\x12\xbd&amp;\x1d0\n\x07\x97\x1f\x17l\x16\x10i\x16\x10k\x15\x10\x82\x1a\x14\xc2)\x1f\xe9\xb1\xad\xe9\xb0\xac\xe7\xaa\xa6\xed\xc0\xbd\xec\xba\xb6\xff\xff\xfe\xef\x00\xf6J\x00\x00\x00FtRNS\x01\xfd\xfe\x03\xfa&gt;)\x00\xef\x02\xf2\x06\x1c\xa9\xf5\r\xe9&amp;\x11\xf8/\x95\xd8\x08\x85\x18\x81\xed\xbeH\t\xfbkL\x8d\xee\xe1["\xd2\nA\xbb\xdf{\x9b9\x152\xc8\xcd\xae\xb2\xa1rb\xc3\xe6\xd0\xa4fQuV\x92\xa5n.\x8a+ARHX\x00\x00\x11\xc7IDATx\xda\xecZy\x90\x1cU\x19\xef$\xc0\xb0a\xc1\\\x86B0\xe0Q*\x1e\xf1(T\xa4\xbc\xcbz\xbc\xd7\xe9\x06a\x88E1\xc3\x0e\x93\x99\x84\x9dMv3\xbb\xec\x9d\xc8\xde\xf7nb\x92\xbdw\x03h\xee\xc4\x0b\x91\xca}\x1f\x8a%!$!\x97e\tEq\x1fjYZ\xde\xe5\xf7\xbd\xf7\xba\xfb\xf5\xccdf\x9a2\xbd\xff\xe4\xedV\xf7\xf4\xd7\xef\xf8\xf5\xf7\xbe\xbb[\x0b\xb8\xda\xdc\xab\'\xa6M\x9b\xee\xc6\xa1\xb9/\xaf\xbcsb\xda\x15W]\x86\xf5\xff\x85\xf5\x87\xf9\x9e\xdbK\xf3.=\xac\xef\x11b\x12\xab\xb1X\x0c\x0e\xf6\xa5s\x83\xdf\xb4\x88\x0f\xfa\x01\xcb$\x94QX\x92\xe2\x9a\x8d\x9bOv\x1d\xac\xc26\xd2\x9c\\\xcd\x8118\xb0 \x1eL\x81\x93&gt;\xe8\x0f\xb7\x90\x13\x8c 4\x92\xe8\xd6#\xd1Rh==\xb5\xf5\x15\x9d[jb\xfc\x1e\t\n\xd4\x0c\xff\xfd\x81\x85K\x19\xb043p\xcd\xd1\x88\xae\x87\xf9?\xb6p\xe9\xa6\x86\xe2" 3\xe0\x17\x87U\xc4L\xf6\x88o\xdc\xb2D\x87%7\xe8zI\xb4v\xac\xfel]\x9cc\x8b\xbc\xda\xf6w\xa6\x08\x18\xfc\xf6\x15\x96lGN\xb5\x0f\x1fkm\x1d:V5zd0\x8e\xc0j\xabcDQ\x04\xd3\'XrA\x83\x1f7.:\xd1\xfef4\x1e\x89\xf4\x8c\x10\x12\xebZ[\x02,\x8b?\x1f\xc3\xdb\xb2\x1f\x0b\xfa\'\xf2rM\xda\xb8oaD\x88\x95\xde\x8b\x84m\x1dx\x19\x1d\x16\x12\x1f$mmp\xf2\x0b\x16\x93F\xaal\xc5B!\xe9\xf8\xbf\xb5\xfa`e\x8c\x95\xef\x08\xc3U\xed^dg\xa2\xf2\xf8\x86#`\'|\x16\xf9\xe6N\xce\xa9H\xa4\x04O[\xfb\xa2\x0b\xcf_\xe8\x1b&gt;\x8a\x17\x9b\x8e\xfd\xbb\xafo=p\xb2\x85\xf8$\xf2h\x1b8\xb7F\x06\x81G\xa5\x9b\x9f\xdf\xdd\xb0u?\xc8\xfa[\xefr\xc6\xd5\xf7F\x11\xea\x96\xf5\x82\x8fg\xa0\xa3/\x9bH\x85\xdc\x90\x9d\x15\xb0\xfa\xd1\xb6dg\xc5\xa9\xce\xb2\xd3c\xfahr\r\x07r`-\x9e\xd65p\xad\xd4\xf7\x99\xcc7\xd9"E\x84$\x81\x1d\x91\x1ded\xd1\xd2\xb0\xbep\x1b\xe9\xea\x1fI\xb4\x00\x8c\xf3\xed+\x0e\xa0\xfd*\xd9\xbao\x1cO\xbd\xe0\r\xf8&amp;\xce{\x8f\xcd\x9bl\xadj\x87E[VQ\x80\xa5\xeb\x0b\x8bI\xecd9Y\x02\xa4\xc5\x84\x0cq\x89{\xb3,\xf960\xad\x920\xee|\x96?\x00\xeda\xfe\xf7\xc0\xc3\xce\x19O\xfcl\xddv\xfd\x82\xc3O\xf2v\xd5\xe8\x7f\xcd\xaehX\x7f\xa5\x92\xd0\x90\x80e20U\x8b\x05\xac\x91\x1e\xb4\x11\xed\x95do&lt;\xb2\x15\xed&lt;\xc2Z\x80\xa3\xa8\x81\x1e\x9c\x88\x83\x1drp"x\x7f\xcb_\xf10\xc0`B\xe3\x1f\xf2dNW\x83\x00\xc5\x8f\xe34\x8b\xa2\x9c[\xd8\x80[\xe1\xc5\x946\xd6\xc2.\xfe\x13`&amp;\xfb;\xca\x89\xb4[\x0b\x18u\xc7;\x84\x02\xc1\xa4*\x05\xd0\x00\x91\xe1\r\x12\x12\xc0\xbc\xc1b\r\xb0Q\x15e8\xa3\x84\x85D\xc9\xad\xc3u\xba^Z\x03\xd7\xabO$\x18\xfaD\x0e\x8bP{qN\xe4\\a*\xd1B\xc8,\x1fB=q\x0bZ\xd9  X\x02f\xdcH\xe1\x16\xc02\xf6\xc6\xf5\xf0\xfaX\xd0a\x8b\x80\x05\x11\x07n\x93\\\x1d\xf0\x18&amp;0\xc4\x10\xf1\x19\xc2\xe0Q\x1c?\x1b,Hy\xc7`\xfe\xb0\xf0\x01wG\xb8\x92\xf1M\\j\xc1bR\xe4\x87\xe1\xde\x16{\xc7lnY\xfb\xc4$G\x0cI1\x98 \xca\xa7\x08\xb9\xe3[/\xdc\xaaB\x0b\x15\x1d\x91\xb0\xc2\x08\x8b\xda\xb0\x12}\xe1p}\xa5\x05\x02\xe7\x16\xb2\xc5\x03W\xb9kLb\xe3G\xca\x94G\xe0\xcc\x93#\x91\xa3\x1e`\xf5rO\xd8\xd3\x9c\xc2-\xb9\x895\xa5z\xe4\x1d9\xb1h\x92[T!R\x85\'4\xe5\xa7#p\x801oX\x06\xab\xe1\x86\xa9\xae\xd9\xc48\x14`\x85\x01V\xd0\xe2V\xec\x90\xaeo.\xc6g^\x9d\x10{b\x08n\tF\x18\xaa@\x8b\x98\x9aI1B\xb1b\x94\xc9\x8e\xa6\x10B\x0f\xdc*\xab@X\xa5o\xc0\xf4T\x88|2as\xabw\xed\xb9\xa3\x87\xf1\xaa\xf9\xd0N)\xe0\xc2n1i\x02\x9c\xc8\x96Q\x93X\x81\x19\xb3\xa3Y\x95\xc8\x82\x0fy\x88\xe5_\xe7\x81C+\x7fn\xdc\xc4\xd2\xce\x96\xd7\x9fk+\xab\xee\xd7\xf5\x0b+\xa0UWW\xef\xfa\xd7\x9a\xf0\xa8\x10h\xb9\x89\x8e\x05 A[\xe2\x85\x8cI;\xea\xd0\x98-l\xf9s\x8b\x1a5K\x11\xd7I\x1c\xc8\xad&lt;w\xd1\xf15\xfb\x8e\x9d\x89\xea\xff\x85(\xa7\x84G:%MrzU\x13U\xeb\x99!\xa9t\x110S\xf1\xb0\x89f\xac\x13\xe3\xbeW\xcb-\x91\xb7\xda\xd8\x96\xe1:\xe7*|ZZ\x00\x0e+$\xd7\xa2B\xb4\x04oB\x86\x83\xc3\xe0d\xc3\xe0\x9a\x08\xb9\x15EB\xd0\x939m\xeb\x01X\xd1\xedL\xc2\x8an\xde4\xb8\x07\xf5 \xf2B\xd3`\x054\x1eIGk\x98\xd8$\xc9-fI\x91e%\x1c\xab`\xe9\x1f\x15\xdbi8\xcc\xf3\x04+\xd1^\x02\xb86C\x1aM\xb9\xc8oK\xac\xaa&lt;\xdd\x07\xbf\xc2\xdd\xc5\xe5\xd0\xb6m\x81\xdf\x831\x97\x81\xa0.\xab\xe0\xa4\x03i4*\x93s\xe2\xd9\'\x92$*c\xc9.\x97\xab\x8e\xbd;\x06\xfc\xea\xe0J\x99xA\x8f7Y"\xed\xd8-\xca\xd2\xcc\x95\xa5\x9b.\xe1\xa2\xd2\x89{\x80\x85\x9a\xce\xcc\xed\xfdh\xba\x1a\x12\x86\x80\x85\xc4`\xd7\x10\xe4\xb2\x91w\x12\xe0K\x8c\xd6xG\x0cVd\x86L_\x17P\xaeo\xa0\xfd!&amp;X\x11\x02\xf1\xe1D\xca\xb0\xac\x81\xa1%\x03\xeb\xc5(\xcf\xd7\xc1n1\xd8R/"o\xa0P6\x95"\xae]\xab\x1b\xf9&amp;r\xe2\xe2\xfd\xad{ \xeb\x19@\xf1\xad\xa9.O\xb1\xf2V5\xc5\xaa\xeb0aDy\x80c\xef\x19\'\x1a\x82\x85\xcc\x9bO\x04\xfe\xd2"\x92x\xab\x16e\xbc\xaf\xb5\xfa\xed\xf1\n\xb0\xea\xa4\xbcqqIK5D\xf0\xa7\x1a\x19Vk\xa4S\x93\xb0\x96\xdd\xfb\xde\xda/\xf27\xa7\xc2\x01\x93\xd6\rh\x06\xe2\xe7\x8f\xf4\x0e\xec\xacj=\xb0\xa9{\x89\x1eY\xd1\r\xa4\x7f\xac\x12Oo\xf2\xa7\xa6\xc4\xc7\xac\x1a\xb15\xb6\xc4u+}\x85\xf6\x1fp&gt;\xf5C\x10\\\xc4\x9fSU\xcb\xf0\x07\x96b\x01\xc9\xf6Cg\x1d\xeb\xd9\x8d&gt;qG\x13\x98\xac\xb3mN\x91\xc2\xb7d\x1fU\xc5\nRb\xcd\r-k\xc7\xeb\xeb\xc7\xd7\xb6\xec\xae\x14\x11D7x\x9euU\xbc\xf4FxX\xed\x13\xac\x90mt\x90\x1f\x95\x1d\xd5M\xa3\xcd\xc5`:)\xc2\xea ;\xc70{=^L\x12\x8bv\x1d`\xfeq\x0bC!j\x802r`5q\x08F\x93\x98"ll\x07\x19;C\xc90J\\d|\xff\xfa=\xf1Q\x1eq=\xe2g\xb2/[\x17`\xa9{\x83g\xb4\xfb\x01\xce\x05B1\x10\x14\xed\\\x99\xaf\xb2\xc5\xad\xb00w\xe0e\x805M\x08\xb5y\x0cTrM\x92\x90\xd7^\x11\xda\xd9\xbf\x9d\xc7\xa2!?\r\x84\x0c)\x0f\xd6\xf2\xba\x11\x88\xd6\xaa\x1d\xdc\x8c5\x00}\xa0\x9f\x07\xfb\xbb}\xd5D\xd5\xeb\x97w\xf2\xdd\x02KE\x078@}\xfc0#\x1b\xd13m\xe8\xda\x88\xc6\xd47M4U\x1fV\xf9\xfc\xb9=\xa5\xf1\xd2\xfa\x13d\xe3@\xf7\xba\xbah\xb4\xee(l#i\xa8\xe8x\xcd\xe6\xa8\xaf\xb5S+1(o&lt;8\xb4\xf70\xb7P\xc5U\x03C5\x95&lt;\xcc*Sb\x17?4\xf1\xae\xfb=7?`\xfd\xf0&gt;\xcf\xed\xf7\x97_s^\x86\x95\xd7\xdb\xd7\xbb\xd3\xda\xfc\xbb/E\x9b?\x1fg\xfeQ\xfe\x06\x82f\xca\x82\xa9\xab\xd8\xc8H\xa6l\x8bfH\xa5\xd3sl9:\xc4G{\xca\x131/5\xec4J\xadO\x99&amp;Of\x04\xc12\xbc&amp;cv\xae*\xea40\x1a\x89\xcc\xc6\xc6x\xb5B\x1d\xed\xb1\x90\x94\xa9.\x95\xca7\x9a\x1f1\xe7h\xea\xa1\xecFe\xe93K\xfd\x8c)\x17T\xd9\x19j\x12%#R\xebG\x19FSoY5u\xe5\xe5\xd4N\x8c\xdd\xe9\xbcS\xf7\xb3E\x91\xa6g\xf5i\x1dS\x9e\xc5\xf0R\xd2\xa5v\x11]f\x9f\xd4\xd2\x03{n\nMf\xec\xce\x00\xa4\xcat\x95\xca&lt;V\x10\xcd\xb4\xd1|\x02*\xb85sz~e7"\x17\x10\xd5\x02\x9c^\xbe\x8e\xe0HD\xacO%\xb5\x88\xe0\xa2\xa6TD\xf9&amp;\x92r"\x86\xdd,$\x01\x8a\x0c\xdf\x1am\x17\x9c\x11\xd6\xd4\xc2\xec\xb0&amp;\xa3\xabN/\x94\x05\x15\xd562Hq\x90\xa4\x7f\xc0\xc1\x82\xce&lt;4\xcb\xe8\x1f\xe7\x86\xf5\xb9+\xa0\xcf_\x89\xc7\xa6\x94\xe0\x9dg1\x94j[\xd6\x96\x07\xacY\x08\xeb\x97RT\xc4&amp;R\xaa\x16\xb6-\xbaT\x03Jl\xe1\x13;J\x95\xbbL\xc8\x8e\x9c\x84\xd2\xb4\xd1\x82\xb0\x12\x96\xbcqFVX\xd3\xaf\x83&gt;\xbf!4d\xa1`\x96\xf1cb\xae\xa0U\x8a\r*[\xcc\x98\xfaF\xc3~s!\xae\x8b\xd4\xbdVG\xcb\xb7\x06\xa1\x17a\xc9is\xb2\xc2*\x9c\n}^r\x84\xc1\xae\xef\xa7X-\xc5":\xfe\xc8H!\xd2L\xc44{z\xff\xb3\xb0\xe4G\xa7d\x855\xe3F\xe8\xf32\x16;\xa8\xfd-\x84\xc1B\xb6\x880\xe7\x85\x8d\xc1\x05\x9d\xfb\x14{\x11\xc3p\xd6\xb7\xb9\x14\xe2}M\xf7\xeb\x1e\xc3R\x13\xe3\xb1g`\xc9\x8f\x17d\x85\xf5\x89OA\x9fg\xbf\xafX\x1f\xf5E\xa0\x94\x15\xd5\x96\x9b\x94\xda\xe5[\xf1$h+\xa8\x99\xe2\x87L\xech\xa6\x8c\x16\x82\xf8G\x8clo\xd2\xb2\xc2\xba\xe6\x0b\xd0\xe7\x07O0\x9a\xfa\xa9VF\x87\x97_\xf9\xfdbMr\xf6\xf1e\xb0\xe4\xb5\x81\xac\xb0\xb4Ob,\xffsE\x1e\xd8E\x9cm\xeaO)\x8e\xf6\x86\x1a\xe9.*\x95bp\xc5z\x1a\xb3\x93\x0fg\x87\x15\xf8\x0c\xf4Y\xfe[\xa1\xbe\xf4b\x8e\x9ff\xc1\xa7\x9a\x13j\x81\xa3\xb6oJ\x0bK\xe8\xef\x10\xd6-\xd971\xf0u\xfcp\xe0\xc9\xbb|l\xf8b\x7f\xd2\x07sl\xe2\xd7&amp;OD(?sV\x0eX\xb3&amp;M\x04\xac\x8f\xdc\x90C\xb6&gt;;u"`\xcd\x9e\x93C\xb6\xa6\xcc\x9e\x08X\xb7\x05\xb2\xc3\xd2\xb4oM\x04\xac\x0f\xe4\x80\x15\xd0\xbe=\x11\xb0R\x151\x9d[WN\x80*^W\x98\x13V\xe1\x04\xc8\xfc\xec\xeb\xb5\x1c\x9a\xa8\xcd\xb9\xc3\x7fX\xd7\x16\x04r\xc1\xd2\xde\xef?\xac/i\xb9a}\xc8\x7fX\xa96&gt;]\xb6\x02\xda\x8c\x99~\xa3\xfa\xca5\x9a\x96\xcb@\x04\xa6\xdc\xee7\xac/\xa6\xa1\xca\x00K\xfb\xb4\xcf\xa8&amp;}\xa3 \x0fX\x81\xb9&gt;{\xeb\xabo\xc8\x08#\x95[\xd7O\xf3\x17\xd6\xed\x05yl\xa2\xe6\xbb\x89\xb8%/X\x01\xed\xd6\x9b1r~\xf1\xbb\x97\xbc\xbd&lt;\x8f\xe7\xf9\xb8f\x0eX\xd8\xde\x87Y\xd9\x82_\x07\xf9\xf7L\xd0L\xac,\xc2)\xc8X\x11\xa4\xc2\x8c\xff\x19A\xbb\x02i\xc0=\xc8\x95\x90\xc8\xefA\x8e\x86i+$\xe4\x94\x99f\x91\xd31\xe4\x1a]d\xfe\x05a\xdd\x94\x81Y\x99`j\xda7\x91\xb7?u\nZ\x17I*\x1cB\xa6\xe2$\xa5i\x15\xb6\x94\x8e&amp;\x16E&amp;\x7fU\xcb\x0b\x16t\xe2u\x9bg\x1eSR\x17wj\xc3L\'Q\x13]\\\xdf\xf2(\xab\x17)\xdf\xc6Z\x1d\xed\xd1\xbfz\x14\xe3\xe5BM\xd3\xf20\xa7\xd0e\xca\xe71\xffy\xca\xc9\xf7\xa8\x9d\xc9+9\x95\x99!q4R\x1e@9\x87\x88Z\xa6\xc1o\x08\xff\xc4\xdd\xb4\x96\x07\xb7\xb0\x07\xfc\x7f\x19\x07\xac\xc4\xef2\xa9\xc2}\xd7^P\x17\x88\xf4\x9dT\xea\xa4F\xfa\x96\xe3\xe9\xcf\xf8\x15\xcb\xcds3\xa1\xca\xa8\x89\x01\xad\x10M\xd7\x82{\x88\x9au:\xd3\xbbrV#K\xceM\xb3f\xe4O\xfd\x0c\x16\xb9cNA\x81\x96\xdb@H\xa9\xc7\xe4\xfa\xce\'\xdd%H3w\xad!\x98\xe9v0s\xa5"\xb8R\xc44\x1cT\x1eV\x1e;]\x85a\xc4\xa3\x8f\xbb\xd7`\xa95l\xeb\xe1C\xa9\xe2D3\xe9$u\x8f~z\x19\xaf\x02ra\xd6r\xa6\x18B\xb8\xa6\xdc\x86B\xff7\x96\xd9\x10\xc8\xef\xcd\xa9\xfdV@V+\xcd\x14`\x99\x0b\x0fb\xb4y/2\xeb;\x81\xbc\xb8%\x95U\xd3nE\x7f}\xdf\x13\xe9\xd3\xaa\x97\xcc\xbd\x9c[\xf3\xcc\x8b\x8f\xc3\xe3=\xcb\xd1\xc2\x7fL+\xf8_\xed\xd6\xb6\x14G\x11\x86\x7f\xd8@\xa7\xb3\xc2\x02B\xb1\x100\x9c\x16\x88!\xa2\xc6\x18K&lt;\x94Z\xee\xce\x16\xb3Z\xb8\xa9$d\xab\xb6,n|\x00/\x81}\x05x\x02@\xae\x95\x90\x84\xf0\n\xd1\x10\x9f\xc0T.Ry\x02\xcb*o3}\xfe\xbb\xb7\x07\x1a\xddmX\x18\x9a\xe9\xe9\xbf\xff\xc3\xf7\x1f\xba\'L\x88\xb2e9F\x1c\x98\xad\x89JY)}E\xfe\x88\x8a\x15\xdf\x01\xe6\x08o\x1e\xa8\xba\xb0\xb9C\x8e.?c\xccZ\xca\xa8\xf9Bp\x8b\x91?\xc9\xd9\xf54y^-\xd2\x87\xb6\xa5\xecX\xe1\xaf\xae*\xcde\xdeY+\xd6\xa3\xa8*\xea|J\xa0\xec\x05\x88(\xaa+\xb4\xaa\xe0\xd1\xaf\x19\xb3z\xbb\x85\xe1\x87\xb9j\xfe\x19fu\xc1\xe5\xef\xcd6\x8b\xa9o\x89\xdd\x92(r\x99dwF\xb2\xaf\x18\xb9\xd5\xce\xa4\xa7\xc2\xcaG\xa5\xaf(\xf8U\xcb\x0f\xa7\xbc\x8dwp\x87\xedC\x83\xe6\x83\xa4\xc5\xc8\xc5\x0f\xd7/\xe2WR\x8b\xc5\x97\xcc\x0c{\x07\xb9f\xf9\x80\xcbo\x89\xec\x93a\xf5\xca\xd2\xaf\x95\xb4\xdah\x19\xc1R\xb9\xec\xd9\xc2p\x81\r\x1dE\xd9a\x1b\xc1\xa5\xebTI0\x80,\xdd\xd9\xc5\xb0k\xe3e\xf3\x8b\n\xb5\xb2g\xe7$\xf6#l\xdc\xd4\xc9F\xbf`\x00\xdf7\x0b\xd2\xc6HH\x8a\xa1\xe4\x98\xe9aK\xda\xdf\xc1x\xe8\xc50\xb7/\xf2ub\xd1\x1en\xb3\'\xe7\xa9\xe0\x12\x00\x84\x91%\xe9\xea\x9fN\x06?\xb8\xb3\xd2\xf2\xf6\x90Qum\x80B\n&lt;\xf8\xe1T\x882\xd1\xc5\xd1\xd2\xffx3\xec\xf4\x97\xc6J\x1d\x05=w\x10\xb7$g\x19i\xb96\x96\x06\xdf\xcd\nd\x80 !"\xa0g\xf5\x88\x0bmK\x0e\xbb\x01\xcds6Y\x12\xdd\xc4J\x84\xd6\xb7\xa1u\x8e"\xc5\n\x88 \x0c[\xf9\xcd#3\xed!k.g\xf8\x14d\x89\xdaf\x05\xe3\xbe\xbc\xd2\x0e\xaa.\xbdg\x98\xe4\x05.\xbfO\x94\\e\x81\xd7R[EH\xc2"\x08\xb0\xfc\x0f#n\xa4\r\xd686o\x88\xf2\xe2C\x1a@\x98\x85\xd0\xae\xdeVS\xd5\xd7\x0fM\xedL\x80\x10\xa8\xa5\xad\x92\xc0\x17-.\x89_\xf8\\\xe1"r\xc3!A\xb3n&lt;\xeex\xe7\xa3\xd6*\xd6T&amp;y.5S\xd0\xb3+6\x16\xc0I\x17\x04\x03s\xad\x85w"\x02,\x8a\xb5&gt;(\x96G&amp;\xc9\xda7\xd3-\xdc\x1a\x18\xe1" \xe7\xd3-\xe9\x10\xa5\xec\x15\xe0M\xb6L\xed\xfb\x06A/]:\x13\x9f\xf7I\x0fl\x88\t\xff\x81N\xb4\xa8\x9e\xda;iy\x1c\x03\x12!B\xc4\xfeG\xd6p\xf2-\xa1\xeb\xed[\x14\x1c\xba\x90\xde\x04\xa0&lt;\x00\x86/B\xb2\xd7[\x00\x13\x1d\x0bT\x18\x91R_o\x08\x98^\x83@"WWY\x19L4\xee\xfe\x87\xf6\x8b\xa0*\x9f1\xeb\xa5\x96\xf3!a\x15\x9bf\xd1\xc3\xfc\r\xce\xaf\xfd\xe3U\xd66Wu\xdb\xf4]m\xe2\xbe\xd7\x8f8UC\x19\xa3\x1e\xd2\xac\xd0\xd79\xe0TA*o9A\xd7\x9f\xc7g\x9e\x15s\xb2\x8f\'&lt;\xa3\xe8\x1c\xcaj\x00EX\x1a\x08\x10\x88U\xc4\xd1\xce\\\x0f\xa7\xeb\xd1\x13;m\x8c\x9c\xb3Q\xeeI\xd0\xc7\xacDZ\xba25\xec[\xab\xb8\xa2\x81&gt;\x110\xbb5\x8d\xb9\x9b\xdc\x1e\x1b\x8f\xe5\x1b\x8f\xd5\xe6,\xcd\xcd\xc0\xa2{\xffnpG\x98\xcf\xda\xb1\xa8R\xdb\xc0\x84\x0c\xb1\x0b%\xff2\xfc\x18\xe6\xa5\xf1\xd2\xc6\xabr1\xbd.nu\xde;z\xc0y\xf51U:N%\x8b\x88\xf0?\x81\x81\x8dd\x0f5\xc6\xa8\xc9J\xfa\xe8\x02O:\x96O\xf6\xd8\x9cu_\x85\xb4\xa2\x8f\xec&amp;\xea\xb7\xbb%\xa2\xd1\x02\x057\xf0#\xa7)\xd7)Y\xb5\x11&amp;\xb2\xccL\xe1"\xa7\xeb\xef\xe7\xb1x\x1f\xd9\xca\xebc}\xe0M\xb4\xfb\xdbb\x1f\xf3\xaa\x02\x1a\xc3~\xe9\xddTwH\xa5\xd9H\x1e\xdb\xb3\xb4\xe9\xab"\xebh\xfc\x9c\x10Q\xabG\xb2\xfeVc\x15.~\x12\x90\x1f7\xe7G\xe0V\xbf[\xe3\xb7~\xd8\rf\xbdzN\xb0\'\x08q&gt;\x04\x8cM\x9a\xd8C\xf2o\xf6\x13n\x90\xeb\'\x87\xc5:gX\xdd\x06\x8c:\xe3X\xf2\xfd\xfb\x96H\x9f{\x06\x00;~[\x92\xc4\x1f\xd9\xf8,\x11q\n\xa7\x8d\xfai\xf3C\xc2A\xfe\xf1SUn\x1ap\xc9U\xd9\xef\xb8\x1asR\xe3\xca\x8b\xdb"\x16]\xc8\xba\xd9\x84\xe3\xac!0}\xd5\xab \xe0x\x08\xb9dz\xeb2\x9fr\xfd\xe1S\xb1\xe9\x12\xd7c\xf5\xf2\xbb\xbc8\xfeM\xbc\xf933n\xcd\x0cH\x9b\xe4\x05\x01\x12\xb2\xfb\x8a\xb2\x1e\xe4\x19\x9c\xd5\xf6\x7f\xc0\x05\xb9\xbc\xfd\xd7\xa6\x91\x9f\xae\x81\xd5v^I/xc\x11|\xeb$\xe8\x179O\xa5\x19\'@n\xf4\xc5~\xe4F\xc5\xb9\x84\xf5\xad\xe7L\x97\xe22W\xa7z\xb1\xc2t\xed\xfe\xbe`\xd5\xc5\xcf\x86\r\xab\x01\xa1 \xc2Uo1\xd0\x9fU[\x8b#\xd8\x96\x8d\x83\x85\xae9\x11\xea\xac\x1d\x1d\x0bP\x88c\xa1\\+\xcf\xd6\x05\xab\xc6\xba\xcd\xb3\x883Zw\xea\x908\x18\xb7\xc0\xaf\xab\xea\xef\\^\x86\xd2w\x0f\xf6\xb4\x00\xab\x87?\n\xf9\x95.Od\x89\xe7\x01)O\x0b\x13"\xd1\xee\x14E\x15\xc4\x0e\x0e\t\xbc?&amp;c\xc3\xed;{bCs\xf7\x9f\x86\x8c\xf8zf\xd1\nq5\xd2\x1f\x07\x04\xe7\x89&gt;\x83v\x1f\x98-\\\x13T,\xdf&gt;\xd8-VW\x8e\xd6d.\xf8\xe9x\xe6\xcc\xd1$\xbd\x8e\xe4\x03\x08b\x94\x81\x00\xb1\x1c\x85\xa9S\xa8\x9b\x06\xf2\xf2\xbc\xd7r\xe3\xe4\x875uhf"\x07\xa8h\rx.4\xdaL\x15\xc0-\xdf\x92\x88\x87}\xca\x99\xf7\xdft\x0e\xa2\xf5M\x8d\x98{)\n\x8fIj\xc0E\x03\xb6\x0b@\xdb\x07\xb1\x95B\xd7\xe4\xd0\xd6Pr\x1f\xfd\xb6\x07\xa5\x91\x97\x86\xde2Lp}\x8b=\x1a\xe7\xc9\x81\xb8e\xc9=M\xd7\xd4\x04tpI\x126=\xd5\x7f\xeaCR\x95-l+\xaa9\xef7\x03(4U\xad\x13\xff=\xd4W\xea\x9c\x19]\x04\xabN\x06\xd6$\xe0\x8e\x06\x13\xb2\x04E\xa7\xc4Fzt\x05\x8e#\xd0\x97t\xf1\xebB\x0e\x88\xef\xdf\xf6\x8d\xee\x15\x01O-\xe9\r7\xb8\xcd\xaf\xff\x93K\xe1\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -758,6 +916,14 @@
       <c r="D20" t="n">
         <v>58766</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xfaPLTEGpL\x00\x00\x00\xcb\xa9qH\x05\x00\xe9\x13\x00\xc6\xae\x85\xcb\xaas\xc9F3\x03\x00\x00\x00\x00\x00\x00\x00\x00\xcd\xact\xc9\xcb\xcd\x00\x00\x00\x00\x00\x00\xc8\xaax\xcb\xce\xd0\xca\xcd\xcf\xae\r\x00\x00\x00\x00\xcb\xcf\xd1\xca\xce\xcf\xcb\xcf\xd1\xcf\xadv\x00\x00\x00\xfa\x15\x00\x00\x00\x00\x00\x00\x00\xd0\xaew\xc9\xcd\xce\xcb\xce\xd0\xcf\xaew\xcf\xadv\xcc\xcf\xd1\xc6\xb9\x9e\xca\xaap\xcc\xcf\xd0\xcb\xce\xd0\xce\xadu\x00\x00\x00\xf6\x15\x00\x00\x00\x00\xf0\x14\x00\xc1\x0f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcf\xaew\xce\xadv\x00\x00\x00\xc9\xa9r\xce\xadv\xd0\xaex\xcd\xd0\xd2\xd1\xafw\xce\xadv\xcb\xce\xd0\xce\xadv\x00\x00\x00\xd3\x11\x00\xee\x14\x00\xb8\x0f\x00\xc4\x10\x00\xe1\x12\x00\x00\x00\x00\x00\x00\x00\xfa\x15\x00\xda\x11\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcb\xce\xd1\xcb\xce\xd0\xcc\xcf\xd1\xc9\xcc\xce\xc2\xa3j\xce\xacu\xcf\xadv\xc7\xca\xcb\xc8\xa8r\xcc\xabt\xcc\xcf\xd1\xcb\xce\xd0\xcc\xabu\xc9\xcb\xce\xcb\xce\xd0\xdd\x12\x00\xcf\x10\x00\xd5\x11\x00\x00\x00\x00\xcf\x10\x00\xed\x14\x00\xeb\x14\x00\xdb\x12\x00\xf1\x15\x00\xd6\x12\x00\xe5\x13\x00\x00\x00\x00\xfd\x16\x00\x00\x00\x00\xc9\xcc\xce\xca\xce\xcf\xd4\xb1z\xd0\xafw\xcf\xaew\xc4\xa5n\xcb\xcd\xd0\xce\xadvw\n\x00\x00\x00\x00\xeb\x14\x00\xe8\x13\x00\xcb\xce\xd0\xfe\xfe\xfe\x00\x00\x00\xff\x15\x00\xcb\xce\xd0\xff\xff\xff\xfe\xff\xff\xce\xadv\xff\x11\x00\x15\x15\x15\x98\x98\x98\xcb\xcb\xcbNNN\xf6\xf5\xf5\xff\x9d\x98\xe6\xe6\xe6\xff\x19\x14\xff\x0c\x00\xfe\xfd\xfd\xff\x0b\x00(((\xfe\xf6\xf6\xfe\xcd\xcb\xfc\xfc\xfc\xff\x12\x00\xff.(\xffRN\x8f\x8f\x8f\x18\x18\x18\x17\x16\x16\xfe\xe8\xe6\x90\x90\x90\x03\x02\x02\xff#\x17\xff\x16\x00\xff\x93\x90\xff\t\x00\xff\x93\x8f\xff\x14\x00\xff\x0e\x00\xff\x14\x0e\xfe\xfc\xfb\xfe\xdb\xd9\xfb\xfb\xfb\xf9\xf8\xf8\xec\xec\xec\xff\x10\x08\x11\x11\x11\x1e\x1e\x1e)))\xfe\xf9\xf9\xe1\xe0\xe0\xfc\x15\x00\xff\xae\xab\x08\x08\x08\xfe\xf4\xf3yyy\xff\xb9\xb6\xff&gt;:%\x02\x00\xff"\x1d\xff_[\xff\xde\xdc\xff3/SRR\r\r\r&gt;&gt;&gt;\xdd\xdc\xdc\xfe\xbe\xbc\xffd`\xff\x80|\xfe\xed\xeb\xc3\xc3\xc3999\xa7\xa7\xa7\xff\x1e\x16\xcd\xd0\xd2\xffzw\xaf\xae\xae\xfe\xe4\xe3\xa0\xa0\xa0%$$FFF\xf4\xf3\xf3\xf1\xf1\xf1fff[[[~~~\xf4\x17\x04\x13\x01\x00\xb6\x0f\x00\xd6\x0f\x00\xd1\xafw\xfe\xe0\xde\xfe\xc9\xc7\xea\x11\x00\xff74\xc0\xbc\xbc\xff\xa1\x9e\xcf\xcd\xcd\xb4\xb2\xb2\x93\x96\x96\xff\x17\t\xd8\xd8\xd80\x04\x00\xffFA\xff\x8d\x8a4//\xfe\xb4\xb1\xff&amp; \xffrn\xffmj\x86\x86\x86\xd0\xd2\xd3\xff\x96\x94\x89\x0c\x00xoo\xffXT\xfffd\xc1\x16\x0b\xc3\x99\x98\xff\xa6\xa3\xb0.(\xffUO\xfe\xd4\xd2\xffpl\xb9\xb9\xb9\x94\r\x00t\n\x00f\t\x00\xa6\x0f\x00\xf8\x94\x90\x7f\x0b\x00\xae\x92\x90C\x06\x00\x99ONN\x08\x00\x9ajg\xfd\xbc\xba\xcc\x1c%\xc7\x00\x00\x00ttRNS\x00\xfe\x1a\x04\xc8\x07\x0b\x01\x01\xbb\x082\nO\xf9\x10\x0fX\t\x92\xf8\x15\xc4\xb1\x19\xfb\xe2\xea\xf7B\xcc\xf1\xc9\xf1\x04^ \xfd\xb6\x10\xe6\xf0\xd94 \xd9e\xb2\xfb\xec\xbaA\xfe\xc3\xdau\xdb\xb8\xbb-W\xba\x0f+\x92\x0b\xa6\xf4dm0\xf5:\xce\xe7\x96\x8b/H\x82\xd0`|\x8a\xe0\x81\x9f\xa5\xb0\x82!Ny=\xcd\xadq\xdf\x14\xa4|\xfc\xc6\xd59\xddO\x99iu\xa3\xbe\x80\xde\xa7\xfe\xdd&amp;\xb2\xb1\x00\x00\n\x80IDATx\xda\xed\xda\x07T\x13Y\x17\x00\xe0\t1&amp;\x14A\x8at\x10E\x8a\x88\xa2"\xe2\xa2`/\xd8{_\xcb\x16\xb7\xd7\x7f^HAX!Q6a\x15\x1dg1\x8d\x8e\xf4^V\xec\xbd\xf7\xde\xfb\xf6\xfe\xf7z\xce\xff&amp;!\t\x81dLp&amp;\xc9\xd9\xc3=\xc7#d\xf2f\xbey\xef\xce\x9d;\xa3\x08\xd2\x13=\xd1\x13\xdd\x0b6\xdb.Ys\xe6\xd8\xe5d\xcd\x9em\x8f\xd3\xd5\xd7\xdb\xdb\xcd\xfe2\x88=\xc7\xcb\xebm\xdbe]\xa8\x83\x89\r\xb3SRf\x9b\xd8\xe4\x10J\xb7j\xe0\xfcw\x8do\xe8\x17\x9c\x92\x12\xdc\xcf\xf8\xb6w\xe7\x0f\xa4\x99\xe5\x1c\xb8\xd4\xf8\x8a\x04\rHI\x19\x10d|\r\x97\x06:\xd3\x9cY\xf3F\xbdc|\x15g\xa5\xc0\x98el\x0b\xc7\xe1\x9dQ\xf3\xe8\xcd.\xb7\x10A\xa0\xd1D\xe9\xbb\x98`\xcd\xeck4\x1d\x03\x05!4]\xa4\xec\xde0\xdc\xdcb\x87\x0b\x04&gt;nn\xc4/,\xf8\xa1\x8b\x8bK_\x18\xfd\xfa\xf5[\xe0E\xb0\xbc\x16\xc0\x1f\x89O\xe0\x068?,\xcd \x1f\x81`x\xacf\x10\xd5\x93\xc6\x8a\xf7\xf1\t\x0fO\x18#\x10\x08\x02\x13\x12\xc2}|&gt;\x84\xe92\xf0\x83\xe5\xcb_y\xe5\x15o\xef\xe0\xe0\x99)\xea\x98\x19\x1c\xec\xed\r?Z\xbe\xfc\x03\x98\xe5\xce\x1f\xc2A\t\t\x81p\xd0\x98\x84p8(\x9eE\xf5t\xb1\x16\x11{\x1f%\xd0\xc4\xa58u\x12\xbb,\x19\x90b4\x06,qQ_ q\x97\x04\xfa\xe8\xbf\x88E\xfd2\xb2B\xc7\xe8\x0e\x10\xb8\xd4A\xb3\x1c,\xf7\xd1\x7f2\xa2Z\xec\xae\x01\xb0\x1d\x96\x06\xea\x06\x8d\te\xd1S\x1cB\xda\'kD|o}q\xf7\x0e\xeb\x8c\n\xf3\x9e\xa3\xcb\xa1\xde\xf1#4cF\x858\xd3u5\xba\xb5\xcf\xd7\xfb\x06ut\x96\x97\xa1\xcak\x96AU}\xbf}\xaeh\xbba\xb2\x9d\xdb\xcf\xfc=\x83\xf3vq\x9f\xd9\x01uh\xa6\xbb\x8b\xc1\xa0\xf7\xda\x13\x8b\xb6\x8a\xca\x8e\x87\xe5a\x04\xfc3\xdf\xb0\xa2\xb2\x83F\xebYo\x05\x19\xae\x95\xc3|X\x1e\xe0\xe9\x0c\x8f\xa7k\rY\xe1\x82K!\xce\x0b\xfb\x0b\xfa\xc7\x1anpy\xab\x03\xabSE\x8d\x85__\xe8\x1crI\x10\xce\xa2\x89\xe5\xd0\x7f\xc4\xc2\xdep)CF\xcd\xebz?\xd4\x95\x86N\xf7\xc5y\xc3\x89\\\xef\xbdpD\x7f\x07\x9a\xd604.V}\xc6\x0e\x8b\xe2\x0c\xce\x9c\xbd\xa4\xc3\xc5\x18\xb6\xc4`\xb1Xq\x8b\xd4\x1cVl\\(=\xab8p\xae\xf6|Ys\r\xce|\xa0\xb7\xe6\n\xd4\\\x91\xde\x06M\x8c\xc3\\\x96\xee\'\xba\xbb\x9bN1H\xed\t\x0e\n\nV\xeb\x06\xd9I\x17\xbf\xe0\x10L\xa9YP3h6L\xb2C\x0b\xacrP\xce\xb8W_\xf3 \xbd@\x97\x1d\n\x1b\xad\xb9\xdb\xc0{Q\xd8\xa1e.d\xdf\xf6x\xed\xd5qT$\x19s\x8d_\xd4\xa7S\xc63M\xaf\xe1\xe8\xb0e\xba\x85\x1b\xb4,l\xb4\xe9Ud\x8e\x9f\xf2i\x94\xdf\x1a&amp;\x15\x17`/.W\xf6\xe6\xe4\xa8\t\xe3\xc6\x1b\x9f4\xf7\xc5\x1d\xeb\xba\x0b\xfc\xd5\xf84\x8d\x1f7!j\xf2\x9b2.\xb7\x17\x9b\x12\x96\xec\xce\xe3B\xb9T692q\xc5\xaa\x95\x1e\x9d\xf7\xc9v\xef\xf4\x1c\xf6\xb6{\x97\xafx\xac\\\xb5"1r\xb2L*/\xac\xbb#\xa3\x88%\xccV\x95?m\x94\xe7\xcaq\xae_\xd4\xdauC\x98/\xda\xad\xc1v6s\xc8\xba\xb5Q~\\\x1c\xee\xa0\xf1i\xb9*[H\x19K\xcc\xe7\xf3U7\xf64\x16\x8a\xe42\xbc\xec\x93\xd7\xa7\x0c\xf10o\xb0\xc7\x90)\xaf\x7fR\x86\xcb\xe4\xa2\xc2\xc6=7Tp7b*Y(\x11\xa5\xdb\xaf\xec\xfa%[!\x17\xca\xfc"\xd7\xc0TK"\xdd=;\t&amp;\xd3\x9aH?\xa9P\xae\xc8\xfee\xd7\x95\xed\xa5\xea\x9dP\xcf\x82\xc1/m\xa8n\xab\xc9,\x94\xcb\xb8~\xeb\x13W\xc0\xd2a\xf4\x10lX\x06V$\xae\xf7\x93\xc9\xe4\x85\x995m\xd5\r\xa5|\xed\x1e\xa8d)Q}\xf0\xf9hC\xf9o\xd7\nsEp=\xd7\xc3T\xf3\xe8\xbar\xeb\xd6\xae\x87+\'\xca-\xbc\xf6[\xf9eb\x84&gt;h\x98-e\x96\x96\xa6\xac$RM\xa1)\x1d0\xd5\x92\xb4\xdfN\x82\xc9\xa4)\x03\x8a\xc6=?\xa9*\x95ZR\x96\x926\xd6\xf6\xfa\x1b\x97u\xcb\xc1/=\xda&amp;\xc2w*\xe4R\xa9_d\xaf\t\xabV&amp;%\xad\\5\xa1\x17L&amp;\xa9\\\xb1\x13\x17\xb5\x1dU\xea\xbfzyS\xfdv\xfaX\x07s\xeb\xbe\xaf\xce\xd2\x1dm\xd3\xe6\xcc\xea\xea\xc35wrE\\\xbc,211\xb2\x0c\xe7\x8ar\xef\xd4\x1c\xae\xae\xce\xdc\xbcI\xf7\xb5\xac\xea\xef\xebr\x0f\xd2\xc8\xda)\xc5\xe5\xa2\xc7\x87Uz\xd6\xe7|T\xbc\xb7\xfcIM&amp;,\x1d\xb0\x0cd\xd6&lt;)\xdf+F\xf9\x9f\xebY\xaa\xc3u"9.\xdd\xd9\xceR\xd2\xc2\xe2r\xb9R\xd1.\xbe\x9e\xa59\xd6\xde_7\xd5gg\xd7o\xfau\xaf&amp;\x85\xf4,\xfe\xae\xcd\xeaA;i\x9d-x\x04\xae\xe8\xcb\xce,\xf5\xf1\x8e\x1e\xd5\xd5\x91\x8e\xac/E\xdc\x8e,%}\xac]\xc6X\x06a\x9a%\xfe\xe3\xb3\x94\xd4\xb1P\xab\xce\x16\xdf\xe0/\x12VC\x9d\xd4z,\xa5\xaa\x12~\xc6\xafT)IY|U[\xa6\x14\xb7\x1e+\xab\xfe\xfe\xd7*\xd5\xd7\xf7\xeb\xb3HX\xe2\xed\x0f\xb2\x85R\xca\xbaSsX_\x88Duu"\xd1\x17$\xac\xac\x9f\xae\xa9K\x98UYB.\x8es\x85$\xacG5"u]\x95Z\x99\x05\xc34\x8b\x8b+\xd4c\x85\xd9\x07e\xf6\xc4R\x87TQ\xaf\xb2f\x810\x8f%j|\xa4T\xda\x19\x0b\x17\x1e&lt;\x0c\x9b\x0b\xb1}\xb1\xa4\x85\xf7\xbf*\xa5\xf0V\xcd\xf9\xe8\xaa\x96\xb5\xf71|T\xec\x16\x0b\x17f&gt;\xa8l\xbf\'^\xfd\x88C\x05\xcb\xb1\xf6gm\xc7\xd2\xb0\xa7P\x8aw\x83%-\xdc\xd3\xa0\xed\x7f~\xaeu\xa4\x86\x05J$\xda[pey\xb6Pf1K\x9a]^\xa9\xdd\x83\xa4\x04P\xc5\xda"\xd1?\x8e]~\xa2\xc8\xb5\x94\xa5x\xa4\x7f$\x93l\xa1\x83\x05W\xe1\xca\xb5\x07/b\xf1;\xb1\xbe\xa2\x9f\x05/\xc8\x06\x94\x9cUY^#\xb5&gt;\x0bEIY\xa5W\xbeS\x08\xb9\xb9&amp;Xy\xd4\xb3\xc4f\xb0\xf8G\x9f*\x882\xd2\x85%\xa6\x8d\xb5\xfb\xdb\xdd&lt;r\xd6w\xaa\xb6\x83ru\xf94d\xf1\xe0P\xda\x161c\xdb\xc3\xebJ2\x96,\x1b\xd6\x0fnW\xd6\xff\xae?\xdc\x96A#\x0b\xa4n&lt;I\xc2"\xba)nW\xd6\xb9\xff\xa6\x82\x9c\x0c\xda\x16\x11\xb2\x00hj%a\xe9\xa3\x03\xeb\xe2\x7f\xe0\xb0\x1cZg\x0b\x00\xec\xf8\xad|KX\x7f\xbfP\x0b\xac\xc0\x02X\xd1\x11\x9e\xf9,\xde?\xcf\x03\xab\xb0\x00\xd8j\tk+\xb0K\xd6\x0e\xfaXy\xf6\xc9\x92\xfc\xe1Yy\xf4\xb3~\xbch\x92\x85_\xfc\xd1V,\xde\xed\xda\x1fL\xb0\xca.\xd4\xde\xe6\xd9\x8a\xb5\x11\xe4\xdc4\xca:\xf7\x8f\xf3`#\xcfF\xb9\x05Y\xa9iFXe\x17\xff\x85\x01\xbbc\x95\xfdM}\xb7\xb1/\x16~\xee/\x18\xb0;\x16\xfe\xc3=`O,M\xa3u\xee\xcf\xb5\xa0=\xec\x81\xf5\xd9\xbf\xaf\xc2\xfe\x1d\xbf\xfaW\x0c\xbc\x80\x95gUV\xfa\xbd\x0b8~\xe1\x9e\xd6\xd4RD2[#\xad\xc8\x02\xe7\xbf\xf9\xe6|;\xaa\xf9\xd9\xf5\x1c\x92\xd9\xb2*\x0b`\xda\x05,&gt;&amp;IK\xb5\x1b\x966\x1e\xee\xe3\xa1\xa6Y\x14.b\x89\xd8|\x16v\xa6\x00\xfen\x9a%.\xa1\x8c\x95\xfa\xdclVs\xd5)\x94\x94\xf5&lt;\x95\xa2+q\xb5+h9e&amp;\xab\xe8\x98\xe6\xa9\xc8$\xebd\x0bp]M\x05\x0b\xe1x\x02p\xfa\xa4y\xac\xa6\xcfPR\xd6\xc9\xd3\x00xR\xa2B8\xbe#A\xc5V\xb1Y\xactr\x96xG\x05\x18\xe9\x8bP\x14c\xfd\xc1\xb6\xebT\xb0\xf6m\x03\xfec\xa9R!\x9c&gt;\xd3\xc1\xf1\x8c\x97ge\x1c\x07\xd3\xfbp(c!\xcc\x8f]Az\xc1K\xb1J\n\xd0\x82t\xe0\xfa1\x13\xa10"&amp;1\xb0\xaa\xfc\x97`\xa5\x1eA\xf3\xcfb\x8cI\x11\x08\xa5\x11\x9d\x0c\x9a\x8fe\xe4t\x97\x85\xdd\x96\xf0\x0e4\x83\xe4h\x84\xe2\x98\x16\x00\x8a\xd2\x8a\xbb\xc9\xc2\xce\xe6\xa37\x8b@\xc04\x84\xf2\x186\x1d\x94\x14u\x8f\x85\x9d9\x89\xee\xde\x0f\xa6\x0f\xa3^\x858y2\xb4\xf7=KY-\x19\xe8\xa93\x80\xe1\xe9D\x03\x0b\x89\x88\xe9&amp;\xab\xa4\x15\xe5\x9d\xc5@L\x04BKD\x0f\xed\x16+\'\r\x15\x1f(\x02C\xa3\xe9Q\xc1\xaa\x1a\xd0\r\xd6\xd6\x8d(z\xb7\x18\x04PYG;\xc5TW\x8bY\xe2\x02\tZp\x02\xb8NE\xe8\x0b\'O\x8bY\xc4\xc6\xd3\x18\xa0\'\xddu\xcd\x84#\xc3b\x16oG\x05\xc3\xd1\x17\xa15\xc6\x06X\xccJ\x83ut,Bs\xf4\x19\x0c\xc0mKX\xad%`p\x1f\xbaU\x08\xf3\ru3a6\xab\xa0\t\xb8\xbe\xc1\xa4\x9d\x05\x9b\tPQ\x95g.KRU\x01&amp;E V\x08\xdf\xa1\xa0\xe2\x80\xd8&lt;\x96\xf8@\x05\x18\xea\x8bX%f\xf8k8f\xb0\xd2r\x80\xff\x0c\xc4J\x01\x9b\x89\x96VsX\xad-\xf4\xb4\r\xa6\xab\xea\x99\xfc\x17\xb3\xf2\xcf\x00z\xebh\xa7\x98\x18\x03{\xe8\x17\xb3\xceV0b&amp;ZO\x85p`3QqKL\xce\x12\xdfj\xa6\xafm0UU\x03@\xf1sr\xd6\xdd\xe3\xb0m@\xac\x1c\xb0\x998A\xce\xa2\xb9m0\x91^\x9e\x00+&amp;c\x15\xc3\xb6a\xa2\xd5Y\x9c\x88d\xd8L\x90\xb0\x00#9\x02\xb1AL\xf3\'g\xf9O\xb3\x85\n\xf6\xd0\x83A\xd1&gt;\xe3\xac}E\xb0m\xe0\xd8\x84\x858\xadf`\xe9\xa7\x8c\xb1N\xa5c\x8c\xd5N\x88\x8dbb\x0c\xc04\xcd\x84!+\x8fx\xfc\x9a\x88\xd8,|\x93\x01P7\x13\x06,\xf1\x01\x00\x92}\x11\x1b\x06l&amp;\x8a\x89\xf4\xca\xab\xd2\xbc\x94\xaf"^\x9d\xee+\xb6b\xdb`&lt;\xed\x87\xb9\x82\xfd\xc4\x7f\x81*8\x01]\xd8\t\xa2m\xdd\xdd\x02\\\x87ql\xcaB\x98\x9e\x0c\xd0D,\xe3\xee\xfd@\x03\x147\xd1\xf5\xb6\xc1\xa2\xcb\xd1\x91\x81=#\x96\xeefq1\xf1\x0f\xd7\xf9\xcf0\x86\xa3\xcdU\xf0\x11m(h&gt;\x02\xe7Kr\xe4\x88\x04\xce\x15\xd16\x8cE\xec `U=~\x97\xe8\xa1\x89.\xf9\xee\x16k&lt;~\x99\x97\xf60\xab4\x8fhh\x01\xcc0[\xa7\xbb.\xbd&amp;1\xb0\xd3\xea\x7fT\xc9?\x8d1&amp;9!v\x12\xbe\x1b\x00v\x0c\xa6\x97\xf8\x18\x066\xf8"v\x13\xb0\x99H\xfd\x9d\xc7\xfb=\xc7Vm\x83\xe9f\xa2\xa4U\xfd\xb6\x81cG,\xe2\xcd\x04\xd6\xd4\x84Y\xe5m\x83Ei\xaf~\xdf\x1b\xe3\x84\xd8YDo\x00`C4bw1# `\x86\xfd\xa9\x10\xe6\xd4\xa9L\xa4\'z\xa2\'z\x82\xf6\xf8?H\xe7v\x14\x83\x03\x9d\xc0\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45489.943125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -773,6 +939,14 @@
       </c>
       <c r="D21" t="n">
         <v>58766</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\x01^\x08\x13n\x18\x01_\x08\x01^\t(k(\x00\\\x00\x0bG\x0b\x01_\t\x01^\t\x01^\x08\x01_\t\x01^\t\x01^\x08\x00^\x0c\x00_\t\x07c\x0f\x01^\x08\x06W\x06\x00_\t\x01_\x08\x01_\t\x00^\x06\x01_\x08\x01_\x08\x00_\x08\x00^\x08\x00^\x07\x00^\t\x01^\t\x00^\x08\x01^\t\x01_\x08\x01_\x08\x01^\x08\x01_\x08\x01^\t\x01^\x08\x01^\t\x01^\t\x00^\x07\x00`\t\x00_\t\x00`\x06\x01_\t\x00^\x08\x00_\n\x00a\r\x01_\x08\x00]\t\x00`\t\x01_\x08\x00^\n\x00^\x08\x00^\x08\x01^\t\x01_\t\xff\xd3\x02\xfe\xfe\xfe\x02C\x01\x02^\t\xff\xd4\x02\x01Z\x08\x01^\x08\x02_\t\x00]\x06\xcf\xe0\xd0T\x8fX\xf5\xd0\x02\xeb\xcb\x02\xc4\xba\x03\x04`\t\x01\\\x08\xfe\xd4\x02;x\x08\xfc\xd3\x02\xf7\xd2\x02\xfd\xfe\xfd\xed\xf3\xed\x02^\x08R\x83\x07\'u,-v2\xeb\xf2\xebT\x84\x07\x92\xa1\x06\xf2\xcf\x02D\x85H\x1fk\x08\xc1\xd6\xc2%r*\xcc\xbd\x03m\x90\x06\ta\t\x7f\xab\x82\xc8\xbc\x03\x13_\x19\xfd\xd4\x02b\x8a\x06\x0fd\tM\x81\x07\x02B\x01\xf9\xd2\x02\xa5\xab\x04\xd2\xc0\x04P\x82\x07J\x7f\x076v\x08\x81\x9a\x06$n\x08\xdc\xc4\x03M\x8bQ\x0cc\t8w\x083u\x08\xad\xc7\xaf\xb5\xcf\xb7C|\x07\xfa\xfc\xfa\xe8\xca\x02V\x84\x07]\x88\x06F~\x07?\x83C\x06`\x0c/s\x08\x1ci\x08\x12d\t@z\x07\xdf\xea\xe0\xcf\xbe\x033t8\xe0\xc6\x03N\x8dR\xbe\xd5\xc0k\x8e\x06=z\x07\x15g\x08\x97\xa4\x05\xf5\xf8\xf5\xd5\xe3\xd6h\x8d\x06`\x88\x06y\x96\x06\xe8\xf0\xe8\x88\xb1\x8a\xd5\xc1\x04!q&amp;\xcd\xde\xceZ\x87\x06\xe5\xc9\x03x\xa7z\xb3\xb1\x049\x7f=\xd9\xc3\x04\x9c\xbe\x9d.y26|;C\x80H\xbe\xb6\x04\x83\xad\x85m\xa0oV\x86\x07\xcf\xbf\x03X\x95]\xf1\xf5\xf1\xa4\xc2\xa7\xa0\xbf\xa1R\x82\x07\xa0\xa8\x04\x0ff\x15\x8e\xb4\x90*p\x08G\x88K|\xa9~\xee\xcc\x02c\x99f*v/r\x92\x06\xe2\xc7\x03\nc\x10e\x8c\x06\x1cn!]\x96a\xda\xe6\xdb\xa8\xc5\xaa2z7\x94\xbb\x97u\x94\x06\xe3\xec\xe3w\x93\x07\x97\xbb\x99\xc7\xda\xc8t\xa3v g%\x1de"\x8e\x9f\x05\xd1\xba\x02\x05B\x01\x01[\x07\x85\x9c\x05\x91\xb6\x92\xb7\xb3\x04\xc1\xb8\x04\x17j\x1c\xb9\xd1\xba\x9a\xa5\x05\xff\xd6\x02\xb1\xcb\xb3\x8a\x9d\x06\xd2\xe0\xd3@}D\x11I\x01Yt\x01\x93\x96\x01\x7f\x8b\x01\x1dP\x01\xbc\xd3\xbd\xad\xae\x04\xbc\xb8\x04Y\x92]P\x81\x07\xca\xdc\xcbM|\x14w\x91\x10\x0cF\x01\xb5\xaa\x021]\x01\x9e\x9d\x02\x02A\x01Af\x01z\x98\x05\'V\x01\xaa\xa4\x02%h\x19\xa7\xa8\x07\x86\x99\x0f^\x86\x08 e\x1aj\x8b\x12\xc4\xb3\x02j\x7f\x02\x89\x90\x01Kl\x01cz\x01:b\x01q\x82\x01t\x83\x01\xba\xad\x02\x01Y\x08Lm\x01\x1eo$X\x81\x14Q\x8fUc\x87\x12\xeb+\xf5\xe0\x00\x00\x008tRNS\x00\xf0\x02\xe4\xfa\x04\t\x01\xfe\xf7}\xfc\xd7\xe8\x13\x1a\x17\xb2\x06\x84\x8cT(\x9f\xcdZ@D5\xdeal\x99\xc7\xacq\xf3v\xbf\xc2!\x0cf#\xa6;1\x0f\xd3+N\xb9JX\x90\xa4$\xf2\x0c\xfd\x00\x00\x0c\xf7IDATx\xda\xcc\x9b\x07\\\x13Y\x1e\xc7C\x93"\nV\x14\x0b\x88\xa8\xab\xa2\xeb\xdav\x06f b\x12\x0c\xa0\xa2\x92,\x1a \x02R\xa4Y\x01)\x02\xcb\xa2(]\x10\x16\xb0\xa0\xb0\xea\x81uA\xec\xb2\xee\xaez\x9ez\xba\xd6\xb3\x9c\xabw[o\xeb\xf5\xfe\xb9\xcf\xbd\x99\ty3I\xcc\xbc\x01\x12\xf8}&gt;\x927\xaf~}\xff\xf7\xde\xbc6"Q\xaf\xc8\xc6\xc6F$\xb2\x15\x89,-mD\xfdG\xb6\xcc?[[Q\xbf\x92\x16\x07\x80\xf534\x9bis\xe9J\x13h\xc5\x01\xa6\xa5zk\nf\xe72\xb8\x7f\xd5\x94h\x80\x835\x06d5\xbb?\x99\xd0v\x8c#\xc6\xc8\xce\xcb\xb9\xdfP9\xbdm\x87ie1\xbe\x7f\x0c\x11C\'zb\x1cM\x98\xd9\xf7P\x96cfa\xba\x1a\xe8\xde\xd7\x96\x1c9Dk?qt\x12\xb4\xa4\xdb\xd0&gt;\x84r\x9eo\xdd\x05Bl\x95\x91AWc\xb4`\x8e\xb3-\xfbjP\x98d\xa1\xa5\x88Q\x04\xe1@\xed/\x08\xad\xd7\x94\xb1}\xd2\xd2\xc7[i\t\x02\xca3\x00\x93D\x8e\xe3\xf2\xba\x14\xd8\xc4&lt;\xde2\xfb\x9bf\x84#l\xe2Ij\xaa\xa6\xf0\xef\x83\xa9\xbf\xc1\xc9\xeb!\x98\xcb\x1bf\xed~sGA\xa8\xb0x\xda~8^~\x8d\xf9m\xaf\x11k\x03\xed\xdd\xcd\x06f\xc3\x86\x8aI\x0ef`\xf0\xa8\xb0\xc7\x1a\x17\xa9\n\x84`\xd6\xe6\x01\xb3\x19\xc1\x82\x8a(\xca\xc0\xbbT\xf8\xafGZw\xd4\xb3c\xb0\xed[\xbfm\xf266t4\xabM\x05li\xc0\xa1\xe2}\xbf%\xe1SPq.\x8ch\xe71\xc3\x94\xc3\xc5T\xb7q\xb0,"\xb1\x99\x85\x81\xe3\xe1\xbe\xd7\xa5\xecg\xc9\xd5\x9d,\xb0)&amp;\x1b\xc7\x9c\x86\r\x82\xe5\x88\xd3d\x1c(\x9c\xdc\xe8\x1b\xfbO\x8e\x0f.\xb9\xc1\x02\xc3\x1c\xa7M5\x01\xd4L\x17{VM\xa5\xc9\xe4\\\x04\\\x19\xe1\xeb\xf3\x1b\\\xd7\x93\x03f1\xcc\xa9\x97\x07\xf4\x11\x93Ys\x17q\xd6-R\x17\x00W\x13\xbe&gt;\xff\xd6\xf3\x05\xa6\xcce\xbf\xc4=\\{o\xda\xe3\xe4`\xc5\xca\x9a\x08Q\xc9\xf5\x8b\xc7\x15\x98\xaf\xcf\x93(\x03\x01\xc1\xc5)\x04\xab\x919\xba\xbd\xd9+}\xcf\xd5\xc3\x9a\x05\xb5\xbe\xbc\x8a\xc4\r\xa9\x06`\xf9\xd4\x1a\x0c\n\x8a\xdf fe\xe1\xe9&gt;\xb6\xa7U\xe64i\x1c\xcbzX\xde\xa5\x0c\xdc\xb0\xe4a\x00+\xf6\x0f\xaf\x0b\x95\xade\x83\xd9\xcd\xeaI\x95\r\x98\xcd\xa9("E\xa1\xc4_\xa7\x0c\x82\xaa\xad\x7f\xbc6\x9cL\r\xcfcO\x15\xed\xbd\\\xbb5%\xb3\x9c9\xdc\x82\x9d\x8f8\xad.\x08\x7f\xbd\xeah\xac\xafI#Q$\n\xd6\xd0O-\x93\x86M\x17\xbaNzc\x12w.\x9cWVe\xacD\x1c\xff\x06\xa3\xb0\x1e\xc6\x19\x8d\x14\xf5&lt;$\x82\x9d\xab\xdd\x84i\xe8\xd3k[g\xb7\t\xec\x06\x05f\x9eF\xac\xa7\xb1\xd1\x0e\x1a\xeb\xabk&lt;\xf1\xf0\x8c\xe40N\x95\xd9\x0f\x99\x874\xca:\x8f\x9fc\xcd\xa9\xa8\x98h\xb5\x9c\xaf0\\\x12Cc\xf9|\xc9\x1b\x13\x8f\xbb\xb9\x96Se\x98\x85\xd7\\\x9e\x15\xfft]&amp;qR\xb1\x12GP\x02\xc1`\xfd\x15%2.\xbd\xc7me\x98\x85\x8b12[{Nd"\xf7\x12O\x8b\xd2\xea\x0e\xc6`}!G\x8b\x1f\xa5.\xcb\xe3\xae\xe2\x86\xa0a\x11157\x83pTuh\xb0~\'AN\x12\x1c\xbf\x86mL/$\xac\xf5\xf1\xe8\x05\x80\x16\x7fL\x83\x15\xfbG!\xa9\xa4M\x10k8\x12V.) \x7f\xfc$\xa1\xc1\xf2\xf9\xb3\x90dx\x85P\xac\x9d\x82\xb0\x1a\xb5X\x8f\x04\xa5\x0b\x87X\xc3\xd0\x8c\x18%$\xfb\x1bX\x17\xd6\x13y7\xb1&amp;"a\x89\xe3\x844\x92D-\xd6\xf5\x8cnb\x8d@\xeb\x89\xc1\x02r\x8f\xdb\xa9\xc5\x8a\xfd}\xff\xc1J%\xb4X\xfa\x13\xe7\xbe\xc3\x8a\xc7 \xd6\xd7B\xb0\xca`y\xae\xbd\x8f\x15\xce\xc2z(\xa0\xaf\x90\xe5\xb0\xbc\x91F\xb0\xac\xba\x85Enda\xc5\xa6\nH\x98\x05\xcb3\xb6%0\x05\xbe{\x04\x0c\xf2\xca\x006\xd6\x97\x02\xb0\x02\x05c\x9dD\xcf]F\xb0\xb0|\xfe\xd4-\xac\x81\xcehX\xed\xe8\xb9_\xc5\xd8X_\x90\xdd\xc1\xf246\xe5r\x81X\t\xe8X\xa1\x1c,\x01\x93\x08r\x03\x1a\xd6p\x88U\x80\x9cyP.\x07+\xf6\x1arJ9\xdc\xd1\xb4\xe8u\xacZ\x82\x83\xe5\xf3\x18\xfd?\x04w\xa6\x07\x19[\xd1N\xec\x0e\xd63\x8c\x8b\xf5\x08\x1d\x0bn\xb3:\x1a\x9b\xcbO\xeb\x0e\xd6%\x1d\xaco\xef\xf66\xd6h\x88\xa5\x16\xdc\x9d\xba\xb0\xae#\x8f-\xc1\x10k\x941\xac\x19\x10\xab\x0e5oI\x84\x0e\x16\xfa$BJ\xa0\xac0D\xa2\xb1p\xd4\x8dG\xcd[E\xe8`\xa1O"2 \x96\x87\xd1\xb5\xeb@\xe1X\xc5\x98.\xd6_H\xe1X.\xbd\x8d\x95\xa9\x87\xf5\x04u!\x97J\xa0L\xe5E"K\xb8I\xd3\x82\x98uT\x8a\x1e\xd6\xf5Ba/S^,[\xb8\x97|G\xb0!\xb4X\xaf\xdd}\xd3\xd5-\x02e\x85\x014Y\x1b/\x191\xeb:L\x0f\xcb\xe7\xefB\xd6q\x8cF\x1b\xc5\x1a\xa2\x8dW\x81\x98\xf57\x06\xb0\xfe\x86\xd8\xe6\xe3\x91\xa6\xf2@\xf3\x85b\x91\xf9\x06\xb0\x1e\xc6\t\xec\xc4\x18f\xfcL\xd4A(\x96d\xbd\x01\xac\xaf\xae\t\xc62~Z\x05_\x8amh9\'\xc0\xe6\xe1\x1b\xabm\xf3\x8fI$%\xc3\xedJ\xe3\xd7`\xc6\xc0\xd3\xcb-\x8cB5\n\xa1\xf5\x0bZk\x19\xad\x01\xda\x11\xa0\x95x\x91Vaiii\xf9\xf9\xf9;\x80\x02\x19m\xa0\x95Dk#\xa5\xad@\xf0\xe4\xc5\xda\xf8A\xd5X\xaco4\xc8\xf8.\xe5\xe0&gt;\xc2r\xe49!\xf0\xec\x1b\xac\xc9&lt;G\xbeV&amp;-\xfd\xcc\xf1\xe3\xc7\x03\x0c\x05x\xf0\xec\x7fO1%\xd5\xe9\xfb\xde\xe9\xbf5\x182\x9f\x07k\x8e\t\xa9\xc4G\xbc\xd3O\x19\x0er\xe0\xc1\x9aoB\xac\xec+\x9f\x9f"\x0c\x07\x8d\xe6\xc1r\xd0K\xe1\xe7G,\xa5\xe4\xe7\xe7G=.X\xb0\xc0O\x13\x00\x9c\xf4\xf3\x02\xcd\x03\xa3E\x9aX\x1a\xf9ib/\xd2z,2\x805\x83\x07k\x9an\x82\xbd\x87K/_~\x17\xe8\\\xe9g\xdb\x08,\xdb\xdf\xdf\xff\x00\x13\xf21p^\xa8\x07\x7f\xfcW\xe5\x1c\xdc\xbc\xdb_\xa3\x95G\xab\xb1j\x7f\xadvo&gt;\x0bj\xa85r{W\x84\xddOO\xb4\xea\x16b7\x9d\x07\xcbU\'\xc1\xaa\x12o\xa8\xc5\x07\xb1u\xe0g\x0f\x13t\x148\xb3\xdf\xa1\xfc\x97\xef\xf2f\xeb\xdd\x9ce\x9c\xe7#~\xc4v\x8e\xc7\xaf\xfdtJ\xf1\xe4;\x8e\x1ai\xc7M\x10Ies\xa8\xb2\xf2r\xe5b\xe0X!\xa6\xb0&gt;\xd2\xc3ZICS\xa2\x1dg\xb8X\xde\xcb\x97\xae\xe0&lt;/\xd1maV|\x97$\x06s\x8f\xa2\xb0\x8b \x97]\xc4/\x81\xf6\xa5\x03g5\x85u\x14b\x1d\x87X\xf7?\xf9\x14h!\x00[\\Ma\x1dz\x8f\xd2\xbasT,\x1a\xeb0\xed\xb1\xc9\x10\xd6\x04\xde\xc3D\x9d\xf1\xf4#\xaaJ\x98\x16\xbei\xfb\xf6\x95\xff\xa1\xb0v1A\xbf\x02\xceu\x10\xeb\xf0\xfe\xfd\xfb\x1f&lt;x\xb0\x048\x97QXK&gt;\xfd\x04h\xf9\x15o\xef\xf4\xdb4\xd6\x91\xfd\x94\x0e\x1b\xc2r\xe1=O\x1c\xa2\x8fU\xdf\xd5%A\xaf\xa2\xb0"!\xd6B\x96\x11YF\xa3\x8d\x98\x9e\xce\xd8\xb4\xe4\x14\xc6g\xc4\x89\xbcX\xc3\xb8\t\xf6\x80\\.\xb0\x9e)\xac\x13\x10\xeb\x03\x83X\x17\xd8mk\xf1\xf9\xbd\xbcX\xae\xbcX\xb3\xf5\xb1\xf61\x95u\xf8\xb3M\xe7sXXT\xb3;\x05\xb1\x8e|@\xeb\\\x17V\xe5\x89\xc8\xc8\xc8\x03G@\x85\xad8\xcd\x18q\x1b\xa5\xf3\x06\xb0\xac\xf9\xcf\x85\x9d\xec\xf4\xb0\x0e\xd0\xb9\xac\x02\x05\xa4\xd3XOs({\xe6\x94r\xb1\x0e2\xf0W\xba\xb0JW\xd3\xa20\xdf\xa1\xb1\xde\xd7vm]\xacY\x08\xd7\xc6\xc6qR\x1c\xa0\xcc\xf0\xf4\xe2\xc5\x8b{*\xe9\xfc\xb2)\x8c\xd2\xcd@\x14\x95\xf7Y\x88\xf51\xc4\xdaG\xf7\xc4M\x94vS\xe1\xd9&lt;X\xee\x08g\xe8\xee\x9c\x14\x1f\xb2\x87S\xd0\x07s\xee\xb3\x9fW\xdc\x86XL\xa9~\x9fwa\xb1b\x9d\xe6\xc1\x1a\x81\x805\x8f\x9b\xa4~s\xe5\x92C%%%\xe9\xe9%\xa5\xef\x03\x03\x9f\xd9\x9c\xaem\xccW\xf6azXT\xf5\xd4s\xb0.gcK\x97\x18\xc3\xb2G\xb9f\xef4P\xe7UM\xbdm\xc5\x94\x98w\xac_\xeb*\x8dZ\x81\xc7\xed\x85@\xad\xd9\xe0\xcf\x87L\xf4e{\xf7\xee=\xdd\xba\x10\xaa&gt;\x07Li\xb6\x01\xc72\xa6\xfa\x81k\x9bX\xd8`Jk\x94\xb9g\xcc\x0eHX\x93\xccLe7\x12\tk\xfa@\xf3b\xcdB\xbb\x00d\xc9\xb1bnhMMM\x93xkGtyfHJ\x11PY\n\xb6!:::1 \xb0\xac\xac\xac(Q\x9cE-c\xd7\x84\x85e\x96\x03_z\x01\xb1\xb3\xac-\xbchcL\x07}r\x96\x92\x99\x8bak\xb2R\xa8\xd5\xefF,"\xb3\xad\xed\xd2\xa5\x1d\xc2m(\x12\xb9\xb1\xd2DH%\r\r\r\xaa\xadAJ\xa9T\x9a\xd0\x84KN*qU\x9a&lt;((\x88\xbc\xa3\x88J\xa8:InI\r\x96\xe3q\xc1\xd1\xb5\x92\x82\xe6\xe6fjKB\x9c Q\xa9\x95\xc1\xf9w\xe9\xc5|&amp;\x99\x86\x11\t\xeaN\\\xa2\x0c\x96\'V\x90\x052\x99\xac\x83}_\x10\xf5\x16\xaf3\xeb\xb43L\xde\x92\x1f\x18\xb85\x89\xba\xb0C`M\xb8\xe2\xe5\xcfds\x11\xf9\xdf\x9f~:)SH\xbe\xfb\xee\x15^\x11\x11\xa1"_D\xe4\xc5\xd5\xbdH\xcc\xca\xa7\xba~L\xf03\x82X\xd3\x92\xd8\x85\xb5\x03#\xaa\xd4\x9d\xe4\xcf/_\xc9C\xef\xc8;\xca\xcb3\xc3\xd0\x97\x88,y\xb1\xb0Hij{\xad\x8c\xc8\xadHP\xb6\xe47\xe1\xca\xda\xda\xc2\x1b\x9d\xe4\xcb\xd5\xab\xa52\x05.\x89\x8a*&lt;\x86\x11*2\x11\xcb\x8b\xabmN\xa8R/\xa2\xb1\xe2\x81\xf17\x04\x92\x1a\xac$\x8ch(\xe8\xc4\x1b\xaaj\xdb\xc3Z\x82dj\xb5\x9au\xbc\x89\xcdC\xc6r\xb5c\xd5Vc\xc8\xda\xd0\xac\x9dY\x89\x89\x9dq\xca\x1f\xf1{\x04P\x05\xfe\xfd\x0f?Hn)\x94\x11\nI&gt;\xc6`\xc5\xc4\xa9@\xd3\xaa\xa1jk\xbd\xa4*+\xab\xee\xee\x8fdchSSH&amp;\xa9\x08\xad\x91\x14t\xca_\xfdOA\x86\x17G\xdd+\n\x0fOa\xed&gt;\xa0\xdf\xc5\xb3\x81W\xdd\xc4-\xa0MIo\xa5\x15\xa6\xa664(B\xa4t\x05\xe4\xb54\'$4\x06\xb6=\'\x88\xe4\xe7)\x18\xa1\x8eK\xc4\xb0{\xa9\x85\x85\xa9\xcc&amp;m[Bj{a1\x91\x0cZ\x91\xecf^#\xc8\xa0\xb0#\x9c\xcaG\x15v\xac\xb1@\xa5R\xa5!\xdd\x16\xd1\xd3x\xd6\xcd$z\x80\xc7\x08Z`\xb4\xd7\xf8R\x0f\x04A\xbb\x80\xd5\xf2\x024~\x04\x0c&amp;\xba~\xa8\x1c\xc0\x83\x98\xf9a\xc5\xa2_&lt;B.\xee\x0e\xb02\xd7\xa0\xe5.\x12"s\x8d\xf4\xd6\xd3\x05a\r\xb60\x0f\x96\x97\xc0\x1b\x9e\x0e\xe6y\x1d\n\xfd\xae\xebM\xb3\xb4.\x17\x91P\xb9\x99\x81\xcaS\xf8\xb7fS\xc7\x99\x1ekx7.5\xcf69\x95U\xb7\xae\x81\xcf1u{\x1f\xdd\x1d*\xd1Hk\x13\xef.w\xf3;Y\x87\xfe4\x92\xb2^A\x8e}\xbf\xb00x\xff\xc0\xcetT\xa3z\xf0\xbd\xe7p\x93Q\xd9\xf7\xe4\xbb\xdd\x01&amp;\x1b\xbc&amp;\x8az\xa2\xb1&amp;\xea\x8dsz\xf8I\r\xff\x0c\x87\xa8?[\r\xd6\xf0g\xcf`X\xf5\xd9U\xd4\x8e\xd3q\xde4\xe3z\xfa\t\xd2\xff\xc7$H\xc8\x8a\x83\x8d\xb3\x97\xce\x99\xbb\xb48x\xdbd\xbf\x9dK7Zl\xec\xc1\x18\xdf\xc6HX\x94\xef\xd6\xe5#\xd4\x94\xb83\xd3c\xc7\x86\x93%\t\x8d\x0b\x0fNIh\x9b\xb8\xad\xf1,!gqhQc\xab\x1d\'\xa1X&lt;8\xe1\xcc\xcee\t\xf7\x16LlK(\x9e]\xb3%\xae\xc4\x9e\x9a\re\x9c\x8b\xba\xf0\x97^\x0e\x0b\xf6\xce\xb1X\xbe3\xe1R\xdc\xc4\xc8\x84\x0b\xfb-,\xd6]\xc0\xef,E*m\xba\xc3_z-\xf4]\x98?y\xe1\x8e\xcb\xdd\xe1\xad\x13\xe66n\x07:\xab\x18\xaf\xb3d\xa9u\x96\x85\x10\xbedo\xb3\xac\xad\xad\xed\xef\x96\xfdN\x0b\xec\x1d&amp;NY\r\xec\xb0\xdd\x89\xc3\xe7,F1\x06j\x016|#q\xa0Qg`\xc7\x0f\xec\x14\x08\x81\xcfU\x9c\xba\x0c\xd4\x03|\xd4*\xedY$\x19\xa8\t\xc4x\x07\xb2\xe5\x87\x1b\x18R\xc3]\x1c\\\x0c\xd4\x06\xd2\x9c\x83\xd1UTp\x17M\\E\xb1\xbbh\xe4*\xa0\xbb(I_,r\x0c\xb4\x02\x14\xe4G\x16S\x06\xda\x011r;\x1d\x8c&amp;\x0c\xb4\x04|\xe4\xcd\xbc\xc8\xd2\xfa8\x14!A2\\\xa5\xae\xc9@k\xc0$B\xea\xdc\x0b\x878]NM\x92#\xad\xa0`\x91\xa7\xd3\xe1W2\xa4\x0c\xc91\xeb2\xd0\x0b\x08\x10?\x98\xa3\xc8\xcf@? $L\\\x02\xe36\xa3\xf3a\\R\xc4\x94\xac\xbc\xd2\x0c\xf4\x06|J\x84\xc6M8\x04\x07\xe2\x04:vI\xfc\x01\xc6(7@\xc7\xcf\xf1\xe3+Z\xd5\xb4\x19\x06\n\xb0\x8b\xf2\xe2\x0c*&amp;\x86\x01\x04l"X\x87tt\xf8\x19\x06\x18\x88\xa9a$}\x1e\xe9Ap\xa8!\x93)jk\x87Q\x95\x8daP\x006eDm\xc4"\xce\xcf0h\x00\x1b\xecHC5C\x86A\x05\xf8\x84\x19\x81\x15\xa0\x14\xc3\xa0\x03\xfa\xaa\xa2\xac\x0c\xa3` \x00\x00\xd0\xf2P\xfd%\xb6\x17\xc3\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45489.943125</v>
       </c>
     </row>
   </sheetData>

--- a/data/team.xlsx
+++ b/data/team.xlsx
@@ -471,11 +471,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1954</v>
+        <v>49202</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -486,20 +486,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03&gt;iTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt;\r\n&lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 6.0-c002 79.164460, 2020/05/12-16:04:17        "&gt;\r\n  &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt;\r\n    &lt;rdf:Description rdf:about="" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmp:CreatorTool="Adobe Photoshop 21.2 (Windows)" xmpMM:InstanceID="xmp.iid:DB2B840A5C2C11EB8019C16571065B71" xmpMM:DocumentID="xmp.did:DB2B840B5C2C11EB8019C16571065B71"&gt;\r\n      &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:DB2B84085C2C11EB8019C16571065B71" stRef:documentID="xmp.did:DB2B84095C2C11EB8019C16571065B71" /&gt;\r\n    &lt;/rdf:Description&gt;\r\n  &lt;/rdf:RDF&gt;\r\n&lt;/x:xmpmeta&gt;\r\n&lt;?xpacket end="r"?&gt;(\xd4\xdb\x07\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x03\x00PLTEGpL\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x00;\x93\xff\xff\xff\xfe\xfe\xff\x01&lt;\x93\x04&gt;\x95\x05?\x95\xfe\xfe\xfe\x03=\x94\xfd\xfd\xfe\xfc\xfc\xfd\xfa\xfc\xfd\xfc\xfd\xfe\x02&lt;\x94\x11H\x9a\xf4\xf6\xfa\x0bD\x98\xe6C\x97\x06@\x96\xe7\xec\xf4\nC\x97\tB\x97\x07A\x96\x14J\x9b\x02=\x94\xf9\xfb\xfd\xfd\xfe\xfe\xe8\xed\xf5\xf9\xfa\xfc\x01;\x93\x18M\x9d\xf7\xf9\xfb\xef\xf3\xf8\x16K\x9c\x0eF\x99\x01&lt;\x94\xf7\xf8\xfb\x10G\x9a\x12I\x9b\xf2\xf5\xf9\xf1\xf4\xf9$V\xa2\xf6\xf7\xfb\xee\xf1\xf8\rE\x98\xf8\xf9\xfc\x1aO\x9ec\x86\xbc\xf5\xf7\xfa S\xa0:g\xac\xe1\xe8\xf2\xed\xf0\xf7\xc3\xd0\xe5\xb3\xc4\xdem\x8e\xc1\xc2\xcf\xe5\xc9\xd5\xe8\x85\xa1\xcbJs\xb2\x7f\x9b\xc8^\x83\xbb2`\xa8Al\xaeDo\xb0\xd9\xe1\xee.^\xa6o\x8f\xc2\xd1\xdb\xeb\x03&gt;\x94"U\xa1\xbd\xcb\xe2\xb8\xc7\xe0&lt;i\xac\xd4\xde\xedj\x8b\xbfFp\xb03b\xa8\xe5\xeb\xf4\xa1\xb6\xd7\xda\xe2\xef\xe4\xea\xf3\xc0\xce\xe4\xe0\xe7\xf1+\\\xa5\xa9\xbc\xda7e\xaa\xdd\xe5\xf0S{\xb6\x8d\xa7\xcf\xeb\xf0\xf7\xd6\xdf\xed\xdf\xe5\xf1Gq\xb1V}\xb8`\x84\xbb\x1eR\xa0\xcf\xd9\xeap\x91\xc2\xfc\xfc\xfe\xa4\xb8\xd8e\x88\xbd\xe2\xe8\xf3\xcc\xd7\xe9\xc4\xd1\xe69f\xab\xa7\xbb\xda0_\xa7\x1cP\x9fU|\xb7\x81\x9d\xc9\x1dQ\x9f\xa5\xb9\xd8\x9f\xb4\xd6y\x97\xc6\xb6\xc6\xe0Z\x80\xb9X~\xb8\xae\xc0\xdc&amp;X\xa3\'Y\xa4r\x92\xc3\xcb\xd6\xe9Rz\xb5*[\xa5\x8a\xa4\xcd\\\x81\xba\x9d\xb3\xd5\xc8\xd4\xe7\x8f\xa8\xcf\x91\xaa\xd0Ow\xb4\xbb\xca\xe2\x98\xaf\xd3-]\xa6)Z\xa4?k\xaet\x94\xc4Cn\xafAm\xae{\x99\xc7\rE\x99\xb0\xc1\xdd\xd2\xdc\xec\x99\xb0\xd3Lu\xb3}\x9a\xc8&gt;j\xad!T\xa1\xc6\x8c\xf6\x87\xa3\xcc\xc6\xd2\xe6k\x8d\xc0\xeb\xef\xf6\x92\xab\xd1\xbd\xcc\xe3\x93\xac\xd1\xaa\xbe\xdb\xd8\xe0\xeeg\x89\xbe\xad\xbf\xdc5c\xa9\xac\xbe\xdbIr\xb2v\x95\xc5z\x98\xc6\xdb\xe3\xf0Px\xb5\xb5\xc5\xdf\x9a\xb1\xd4w\x96\xc5\xd0\xdb\xeb\xce\xd8\xea\x96\xae\xd2\x8b\xa5\xce\x9c\xb2\xd5\x83\x9f\xcah\x8a\xbfa\x85\xbc\xbd\xcb\xe3\xa6\xba\xd9\xb9\xc9\xe1\xfb\xfb\xfd\xd3\xdd\xec\x83\x9e\xcar\x91\xc3\x0eE\x98\xea\xee\xf5\xb8\xc8\xe0\xdc\xe4\xf0\x8c\xa6\xce\xb2\xc3\xde\x9b\xff\x19\x0b\x00\x00\x00AtRNS\x00\xf0\xc32\xb7\x84\x02\x0b\xec\x08O\xfa6\x04\x12\xf7\xab\x87\xbc_\x06\xd9/\xcf\x91\xbe \xfd\x10\xe3\x01H\xbbW\xf8M\xe4P#\xd7\xd1\xe7d\xce\x99Sq\xad\x1d\x19\xe2\xf4=\x81{9-\xa4\x8e\xd6Zg\xd5b\xfb-\xad\xeaE\x00\x00\x1e\xc2IDATx\xda\xc4XyT\x93W\x16\x17\x04E\xa5\xee[\xddju\xea\xd2m\xda\xf1\x9c\xcet\xec\x8c\xf3^\xf2%\xe1d!\x07B$\x10\x90H@l\x04eQ6\x11\x15\xb1Z*(\x05\x8a\x18\x04"\x11*\x82+.\x15\n\x82BT\x14\x95\x1e\x01\xad\xebqA\xa6V\xeb\x11;S\xb5\xcc\xbd\xdf\x17\x88Z\t\xa2\xe8\xbc\x7f\xf2\xde\xcb\xf7\xbd\xf7{\xf7\xfe\xee\xef\xde\xf7\xf5\xe8\xf1r\xad\xcf(\xc7\x0f&gt;\xb4\x7f\x7f\xa0\x9d\xad\xed{\xef\xd9\xda\xda\r|\xdf\xfe\xc3\x0f\x1cG\xf5\xe9\xf1\xffj\xbd\xc6\xf4|w\xe4\x9bcm\xfaQ\xb6mR\xa9\xd5\xaaM\\\xbf\x9f\xcd\xd87G\xbe\xdb\xb3\x7f\xaf\xd7\x8e\xc9\xf1\x13\xbb\xbf \x02u\xe2O\'\xce\xd6\\,\xcc4\x85\xa4\xa5\x85\x982\x0b/\xd6\x9c\xdd\xf3S\xa2\x1a\xff\x1bk\xf7\xc9_\xdfx}\x98&gt;\xfe\xecS\x07J=t9I\x86\xa3\xd9r\xf2\x8c&amp;\xcf&gt;jH\xca\t\xf3\xa0\xd4\xe1\xd3\xcf&gt;~\x1d\x98\xfa\xbf=\xd0\x81\n\x03r**\xe7*\x00\x00#\xf7\xde\x17[\x1c^t\xf0fRnn\xd2\xcd\x83E\xe1\xc5\xb1\xfb\xbc\xe5\x0c\xfc\xa5\x98[y0\'@H\x1d\xfe\xfcv\xffW\x0c\xeao\x7f\x07\xd7i[\x1aJ\x04\x08\xa9zwik\xad\xe7}\xfaT\xbb\xefY\xdbZ\xba\xbb\x1a\xa1\tJ\x1aZ\xb4\x94\xfei\xe4\xf0W\x87\xa9O_\xdb\xd1t\xd6\xb9\x04\r\xba)\xa4\xb9\xa9\xd1\x82\x84\xe7\xa1}\xa0\xffR\xfd\x04\xba\xc6\xa6\xe6\x10t\xb1&amp;\xe1\xdc,:\xda\xf6\x9dW\x13\x9d\xbdg\x8c\xf8\x17O\xbf\xbeJI|\xbd\xd3\x93\xf4\x81&lt;vo\xa7\x87\xb7\xee\xc4}\x7f\xea\xdb\xbdA\x1a?\xcd2\x0e\xcf\xc3\x83\xc9\x89*\x16l\xa0&gt;)\xdd\xdb\x97(\x97\xaf\xd7\xf3FO\xf9G\xefn\x075t\xc8\x14*\xac5j\xf8D\x11}/\xd1\xa9\xdd$\xaa:\x0b\xd1\x95\xdfqH\xef\x12\x81&amp;$&lt;\xf7B ;J\xbc\x17\xad |\x8d\xb1VH\xff9dh\xb7\x82z\xa3\xef0*\x8e8\xa0$\xa2\x94(\xbd\x106\x0bh:\xcc\xc1\xf28e\x81%Jf\xa7\x9c\x97pC\xc1\xd6\xe8;\x87\xd0jB}T\x8a\x88(\x0fD\x88\xe9\xb0w\xbaO1\xc6\xf5\xb4\xeb\'\x8e,T\x10\xe5\xb1T\x1dn\x9cx\'E\xe0ofV\x96R\xe1\x17\xb4\xd2\x0fq\xa4qSz?\x0b\xd2\x14g\xee)]j\xac\x92(\n#\xc5\xfd\xecz\x8e\xeb&amp;R\xd9O\xa3\xeb\x8cr\xc2d&gt;Tq\x9b4\xc5\xc3\x8e7\xb9\xfe\xaf\xc9\xff~\xe4\xba\xa1\x1a&amp;\xfcW\x98\xa9\x85x\xfc\x19\x16\xd6\x01\x8b\xb7\x1ff2Dn\\G\xa7\xd9w\x0b\xc5\xde\x9aN}\xce\xc8\x08\xb34\x02\x18u?\xe7\x9e\x84\xd29%\xb0\xe3\xea\xc0\xf6-\xb5\xd10v\xdbb\x1e-\x86\x81\xb7\xcf\xb2{\xe1\xab5\xa2\x9f\xb9\xa9\xe4\xeb\xe0y\x8f\x88\xa5\x0c\x91\x9d\xf1\xa1\xc3\xde\xea\x06SM\x90\x9c[\xe3\xce_\xb2\x07\xe4\'\xa0,V\xae\xd1\xc36EH\xf0\xc86T\xe2k\xbe\x84\xf8\xee\x14\x9b\xd9\x86\x18\xb3[\xf5\x9f;\xa9\x1f,\xdc\xccNe\xa4\xf8\x1bs\xe0P\xdaKK\xf8\xeek\xceI&amp;\x0czI\x83}4\x9e\xea\x0cr\xe2\x1f\x15\x80\xcb\xd7\xc3\xf6\xa4\x02:k\x95\xd0\x89k\x83\xb5\xdd\rF\x99\x01\xe6\x91n%K\xff\xd9U1g\xcb\xcdB\xb6C\nB\xb7\x0b{\x01Q2"7\xf8\xd0\xc1\xa3^&amp;!Ot\xf0XXM\x98\xc2\xb5f\xb3\xa0\xf3.\x83\xd9(Zd\x9b\x99\xf4\xf53a\x10\xec\xda\x062O\xd1Nx&amp;\xd4\x12\x9a\xdef\xd8k\xd3\xe3I\xf5B\x0f\x87\x89/\\^\xf4\x1e4\xc0\xb9\xd4\x8fl\xbb\xdd\xce\xa23`.7\x94\x81-\xc0hQ.;\xe7\x89X\xfd\x0eaW\x82\x12\x9b\xc4\x07&lt;\xd9\n4\xec\x0f\xdc\x8b\xa9\x90\xa9|\x17\xb7\xad\x11xs\x1b\xf1+]0\xe0E\x1d9f0}\x90."_m\xb0\xe4\x93\xb5\x18\xfb\x171\xb1\xa0\xa72Q\xc1\xb4\xe9l\xc4m\xb9\x15\xb5?\xa6\xf0:L4\xc0\xb0d]\xde\x8e\x84\x82y\\\x1c:\x85`\x06\xfa\x9a[\xc1\x15l\xbd\xe1+"J\x7f@\x07\x8fy\x11T\x93F\xd0\xf2\x14"/R=\x96\xe6x\x88A\x86\xda\xb5\x1fI\x9f\x01\x9d\\/\x8bJ\xb9\x80!yk\xa0S\xd5\x14\n\xc9)c\x1d\xfb\xd2!\x11\xcc\x18\xb8\x05|\xaa2\xbf\x01\xb1(\x92\x93\x94r:bR\xd7Q\r\x9f,&lt;\xefM\x82\x179Q\xe1\xd7\x87O\x97ep\xcb\x9e@9*\xc3\xbd\x10\x06\xc6\xe2\xf6\xc7`1\'(}\xc0\x8a\xa9HV\x90u82\x03\x9d\xaa\xae\xc4\xa3p&amp;\x9f\x15C\xc8\xdcd\x0f\xea\xd4\x9aM\xbc\xaf\x08\'w\xb9\xaep\x9c*\xb9\xe5F\xd6\\\x00\x9eWx\x13\xc2_~\x81;\xed^\xd8#\x04\x1c\x91\xeck\x86\xb5\xca\xd7R\xfcm\xddC\xe9B\x0bL\xc1\x12\xe4V9Fm\x16\x9bEy\x07\xd1p~?Bm}a\rq;,\x99\xea\xd85T}m\x02k\xe2\xa5\x1b\xc1F\xba\xdd"v\x8f\xd5\xce\xedZ\xe9^\x13\x9a\xff-\x9a\x00\x83kCtq\xc2\xe9\x83I\x8b\xca\xd76:ka\xf3\xb0\xedq&amp;o\xee\x15\x92\x89aP\x8c\xee\xe6\x12@\x13W\xca\xc6\xc7\x00\r\x1a7J\xe3k\xd46}\xbb\x88*N 2\xc0\xb6\x1b\xea\xcc\xa7g\xbe`W^\x86+\x8b4(\x02\xa2"\x9c\x10\xaa\x84O\x97\x81\x81\x89\xf9\x15\xc5)~"r\x1a\x06+f\xc3\xa37\xd8g\xaegCW\na\xe9\xb5\xfaW\x90\xb08\x91\xc0\x10\xd8\x15\\\x8e6\xda8\xa9\xa0\x19\xc8\xde\xf2\x03V\xbfi\x88\xe5$\xb7g\x03\xbf\x8dH\t\x0b\xda\x81xh\x032\\7ov\xcd\x08\xd0z\x98\xa7\x9c\x97]\xaa)7\x07\xa6\x92=\x92\xcfR|-:\ten.\xe0R53R\x83\xd6\xe6\xb9\xfd8|\xaa\xb6A\xearFB\xd5\x15\xa0\xdf^\x97\xf3\xe8\x0e\xb0MR#\xbb\xa3\xaeR\xca\x06]Z\xab\x84\xbd\xf9\xb8\xe6\x9f4T\x16\x04\xcb\\\xd8YYpA\xa5\xe1d\xbek{\x9d\x1a\xfa\x1b:\x13\x87\xe2\x04&lt;P\xf5f\xba"\x05~\xeb\xe0\xcc\x923.\xd2\xf0YS\x9f\x93\xf7\x93&amp;\x8b\x8f0\x82R1\rL\xc0\x8a})\xe8\xf7" \xfdoA\xe1\x0f\xd8\xfcq2s\xc9\xd1\xab\xc9\x9f\xc3\xb2\x9e\xbb\x8e\x84h\x18\xaf\xa7\xef=^\x8c&amp;\xe4\xc8.O\x16\xf6\xa3SPz\xb4b\xef$\x0b\xdc\x04Y\xb2\x05\x19P\x8bHK\x05\xccU\xf1\xe4\xe7\xd2\x891#\x9c~\x171\xa7\x81\xbd\xaa\xbb\x84;_\xe4\\v;~\x88\x8es\x99\x04\xe3\xcag{\xa1FJ:lRM\xe1=\x1f\xbc\xd6\x96\xc7\x980Z\xf2\x8es\xf3U\xf5h{BV\xb1i\xe14#\xfa\xddi\xc4s\xe8j\xef\xc1\xbc2\x17Q3[\x0e\xe8bq\x81\xa5\x87\x8f\xb7\xedu\xd4\xd3\xec\x1bu\xb2\xd1\x8ft\xda\xfc\x8c\xc9j\xac\xe8\xd1\x99\xfb`\xec[\x00\xe6\x17\xa4\xa0b(\x1fqY\xb6Y\xe4R\xc6\x1b\xdci\x1e\xea5\x88\xb6\xf8\x93\xf9\xe6\xa2r-\xc6\x8e/H\xa8\xff\xcep\x19\xda\xab\x98\xcdrs\xae\x98\x14\xe4\xb9\x9a\xc2ti\x0ek\x96\xf98:\xe6\x99\xeb\xcf\xcd\xf3\x8d\xe6\xeb\x80\xf3|\xe2\x7f\x88\x0e\xea,oO\x1c\xa0\xcf&amp;\xa6\xb6"\x85\xae\x9a\xc7\xae\xb2/\x9f\n\x9b \xd2W\xa3\xa8\xaa\xce\xa71\xe4\xb9\x1b\x93v\x1e\xd3\xd7w\x05\x84\x04A!\xd2\xca\x9e\x87)\xceh\xdb!\xc0D\x82\xf5\x03&amp;vR_9\x84\x99H\xc9fK\x12\xbc\x85\x08\x98TV\x0c\xb3\xd1\x88\xe2\xe4X&gt;\xe9R\xe3\xc7&amp;\x03%\xc2\neXq\x85\x05\xc1!oGn\xb2\xa8\\h\t1\xe9\x1c&gt;\xb2J\xac\xf1\xe28\xfe\xcc\xfc\xc7\xa4Q\x9d\x80\x81\xb6\x97eB(\x10%\xd1(\']nrc"\x94\x1a\xf5\xe8\xb7\xf3\xc0\xae`\xe7\'\xd47\xdf\x9fo\x10\x8f\xb7F/{\x9a\xaat\xbf\xc9{\xfc\xa5\x05\x98fH\x1d\'D\xbc++\xadl&gt;\xaf\xe3\xffV^\xe1\x16]\x809u\xb9\xf8\tX\xbc\x93\xeen\xa9\xd4\xde\xcamb\x82^\xc3\xbf\x0b\x0b\x04\x1c\xba\xbd\xe5K\t\xf7\x96\x9eU\x87_\x10WXV\xbc\x15\x9b\xa4\xc7X\xf93&gt;+\x0c3\x15\xa6T~\x94\xf9b\x92\xbc~\xe7\xcf\xe7 \xed\xf3\xb2\xf8\x1a\xfd\x84\x0e\xef\x1d\xbd\xa7ko\x90\x02W\xea\xb4\xa8\xc4\x85/\x9a\xdd`Nv_@\xf4\x88~\x99Eyy\x97\xad\xb1J\x9a\xbbGd\x8da\x97\xf3xtS\rPu9\xab2\xea\xd45\xacP\\\x86:\xc7u9\xb9\xa1\x9d\xde\x81\x1b\xc7\xd9\xd3\xdb\x8c\xbc\x85\xf2\x92Xo\xb8-2\x1bYxX\xa4\x88R\x81\x03\x83\xac\x12H\x13\x9ah\xfd\x81\xa0K\x100?\xce\x16\xb0B\xaaMp1O\xcb \x9eZ\xe4L\x19\xb5\x7f\xf6\xbd\xb6\xe7\xb4GA\xa4YB\xebY\xa1\xe4\x87C\x01\x98\xcb\x16$N\x8b\x01\xa1j\xbd\x8bu^WJ\x84\xbb\xad?\xe1\xb2\x1e\xa4b\xa1\x01S\xab\xdah\x99\x96\x95SI3\t\xfafZ\xcfg~g\xb0s\xfa\xde\xabZG\xc5G\x01S\xb0\xa9\x0eL\x9d\xa3\xe1B\x10\x16R_\xeb\x04\x15\xd9\x01w\x89N\x1eq\xb9\x06\x0ce?\x87m\xc7l\xeb\x1b\xb4\xbb!\x05\xaa\xc8\xa3b\xaa\xdb\xe7\x15\xe3d\xf7\xac\xef\x13}\xfbE0\x02(/#\xa5(\xc7\x14\x16\xd0B%b4;2\xaec\xb2{g\xcd\x87v\x112zc\x02\xf6\xb2\xb6v\xac\xadq\x1c_UX\xf0K\x1b\xa0\xd6o\x84\xfc&amp;\xcd\xa3t\x8f\x80\x89\xe8\xf7\x8c\xdak\xe8\xb09!d#\x84\xee\x7f\xe0\r\xee\xd3K\x85;0\x86\xad\x1a\xd4\x06kd\xde\xb8\xee\xf1xw\x8d\xb1\x92\xc0\x89\x81U\x9aZ\xd0z\x01\xf7!\xa0\t&amp;!4\xc5\x1bI\xc8\x9ca\x7f\xfc\xce4\x84\xeep\x97a\xb5\x81e\x03\'\xa8y3\xcdWz\xd5b\xab\xd9\x86\xbf\xf7P\xfb\x07/\x8f\x88\x12\xabI\x80Y\x8c\xa9\xe8!\xf8\xb0\x8e\xbbD\xe2]%\x01\x91\xca\xdcw\xd0!\x7f\x10\x87)aUd?\xae\x9e\x807\x02u\xdb\xf5\xcb\xa5\x1e:\xb7\x94\x9d\x90\xe6x\x91\xd6\x9c\x14J;+,\x94\xb7\x10\x0b\xc0\xda\xcf\xb9\x13\xad\xf0_\x8c\xab\xfd\xa4*l\xca\xd3"1\x83VHg\xb2\x82R\x86\xe2\xd7\x8c\xf9A\x05\xe4\x97\xc1}}\x97[\xa7\xe9\xc5\xb7\x81\x83uU\xda\xe9\xa3n\xbb\xb8O`\x99h6m\x11r\x9f\xbd\x9e{\xce\x94V\xd0\x19O}\xad\x1d1g\xae\xefi\xee\xf2\x8e\xb5\xb6\xe8\xd8\xffh\xb7\xd2\xa0\xa6\xb2,\x1ci\x9d\xb2G\xa7\x8b\xaa\xfe1j\x8fS\xd3U\xfe\xea\xb6\xb5\xca\x9a\xe9\x99\xee\x9a\x1f}\xcf\xcbB:k\x05B\x08$\x90\x84\x80,a\t\x8b6\xb4\x02\xc3\xa0\xecA\x96\xb6\x95\xcd\xd0.\xa0\xe2\x82,\xea\xd0 *\xd8\x8a(\x8dP\n.Q\xc7\xadEi\xc5\xc1a\xa6i\xe9\xb9\xef\xe5%dy\xa3!U\xb9U\x14!\xef\xf0\xee\x97\xfb\xce=\xe7\xfb\xce\xb9\xe9\x1d\xab\xee\xc2\x8bT\xc2\x87"\xe3\x9b\xb3^\xe4i+\xac\xc7!o\xb65\x16\x01\x1fo\xa6\xe0\xcc\x99\xf8kC\xa4wh\xad\xc5\x8c\x01v\xec\xfa\xdf:\xd7}\x7f\xfdY\x8b:\xd1Z\xc8\x80Y*X\x07\x98\xcd\xd8I\x82\x0b@\x92\xedA2\xbe\x84\xe5i\x84\xde\xb9\x12\xf8\x7fG\xb6\x04\n\xf0\'V7\x8f\x90K\x85B\xe8"Xe\xb8\xba\xe53\xe7\xcd\xe8\'\xc9B\xc7lu\xbb\x8d\xf6$\xc2\x1e\xe7\xc3I\x91\x073\xa5\xf0\xa0a{\x16\xde\x1e9\x1e\x18\x8bN\x02\x7f\xdc\xbe1D\xb7mzd\x1ceI\xfc\x9c\xba\x00\xef\xfd\xc2UX\xec:o\xa7\x98\x0e\x7f\xa3z\xa8\x90yB]~\x14|\xafEHqF9\xe1\t\x19\x93U\x80~\x94\xbe\xaf\xf4?q\xb6y-\xd1\xdc_\xde\xfb\x8b\x03\xacOygQ\xb7p\x8ej\x0cN\x9a#Qp\xe1?U\xa0\xc9\xf2\x88P\xe5\xbf\xa0BH@[\x85\xce\x13\xfb,\r(;\xce\xe3\x9d\x14\xbe9#\xd4&gt;\xed\xeent\x96\xf7\xa9C\x1fg]\xd1\xa5\x80&amp;\'\x12\x94\\[\x13(\xa4\x99\xc8\x9b\x87\xd8N\xc3\x8c\n\x8f\xfea\x13\x8f\xd4sE\x0f\x9d\taz\xc8\xa5\xa2us\xfd\xa1\xf7\xe10;K\t\x0cc\xda\xb3Y\xe6=\x14\xd3L\xb3\xa9\xb2\xd8\x87\xe1};,\xff\xdd\'\xd0,\x93\xdd\x9b8\x81\xf7\xa3\x8d\xc74\xdf\x8f\xe8;\xe1Z{\x7fpq\x0f\x12?d2\xeb\xe1\xfa\n\x16\xb7\x87i\xbe\x87Q\xa8g\xb1\xad\xff\xf8W\xde\x05\xf4\xa5\x80\xc1J\xb9\x03\xf9lt29\x8d\xe0\x1e\xba\xc0\xb3%\xc6O\xd6\xe7\xa2&gt;&amp;\xf0\x19R\xdf\xc1\x92f0\xcd8\x81r\xd7\xfb\xd3Bzq#GZ\xcb`ClF&gt;\x1c\x9b\t\x86)k\xa5\x9c\xc6\x05V6\xb8\x14\xae\xdaX\x86\xf3x\xa5\xf5%,\xed+\x86)\x13\x86\xd1U\xf8#\x05\xeb\xe3\xdduh\x13\xd3\x8a\xceF\xfa\x12V$\xe3\xde\xbf\x82\xeav\xff\x89z\x86\x0bM\x89\xect\x06\x0b~\x95\xfb\xbdt\xde\xc61\x06\xadV\xc5g\x98\xf4\x0bvb\xe0\x1f\xc8B\xc9\xef\xd6\xdd\xe0\x1a\xe2\x18,\x1a\x19\xe8\xfb\x8e\xbd\xden&lt;\xb1\xbb\xa2md\x984N\xca\xbd\xb1\x8a\x0c\xf4oA\x17:\xcf\xe4\xf0\x0cyG\xbd\xa7\x80\xed]\x98j\x1db\xc8@LN?\x8c\xba\x80Tf\x1f@\xa7\x9d\xd38\x0e\xfd]\xf7\x1bE\x9b$\x89^\xc1\x8a\x8dy\xe6\xfe\xe6]=\xc3\xb4\xe3\xa8\x13&gt;\xc0\xb0\x96\tb\x03\xbeb\xb8\xbe\x8d\xa1\xb2\xf6H\x00\xbb\xbc\x825\t&amp;w= \xdf\xc60\xed\x81\x80X\xc12\x0ck\xb9I*}\xc2p\xbd\x8c\xe1q\x9d\xc2\x82\x8e\xe3\x05*\xf6\xcf\x00\xee$W]\xc60m\x83TjZ\x8eY\xfc\xca&amp;\xd4\x9c\x06c_\xe4\xd5\x8eI\x12\x1cRP\x92\x13s)&gt;\x89\xc7\x05L\xba\xd3\x06\xc8W\xc5\xcd\x1e\x02\x92\x19\xc8\x11\x8b\t\xcc\xc4%\xf2\x95\xd4\x91\xeb&amp;9g\x9e\x98\xc0m1P\xdd\x8c\xae\xad|\x9b\xb5bA\x0b*\xe5\xc1\xad\x90`\x9dvki\xce\xa1\xe2M\xd7\xa7z-&lt;H(u\xfa\xb8C\x0f\x1d\xfd\xb3|\x87\xa7kV\x95_\x89\x87\x89\xf4\xd5T\xfc\xe2\xe1\x80\xe3\xb3,\xc5A&lt;\xae\xda\x94J\x10B\xa5\x8a\xa80*\x0c\x07 4\x0b\xb5,X\xc1Z\xbad\x00\x1d\x02\xe8s\\\\Q\x9d\nL\xd1.z\xe5\xf2\x1c\xaa\xfc\x13\x9e??\xf3\x1d\x87\xcfS\x9d\xe4\xa4\x8c\xa2\xcbAp;Q:\x92\xd0x\xa8?;0=\x98\xea8\x1fB\x03K\x96\xb2&gt;\x8264n\x95\xf8s\xa3\x9e\x0fM\xae\xeb\xc1\xf9&amp;\x8d&amp;\xae\x0f\x82\xe7\x15\x1b\x8a56T7\\&gt;\x0e\xa7\t\x08\xcc\xe8t\xeb\xff\x85Sw\xcd &amp;\x068\xdb\xdcGm\xf0\x11k\x8d0\x1ba\xa1\xbb\xd1e\xe3@\x99[sBd-\x93\x10\x03\xa2y\xfa\xfb\xfe"\xab\xef\xcc\xea\x18|\x1eO\x1cR\xdd\xc8\xc1\x04\xac6\x9a\x92\xfd7\xd1E\xe1\x1a\xd6\xa2\xb8\x83\xa8\x03\xf0\x92\xa1\xe83{E\x88\x93K\x96\xe2\xaf\x90\xc9\xc9m\xd0\x12uj\xbe\xfbP\xddaM\xc3\x85nW\xaeX\xcf.\xbc\xaa1 N\xc1\x0c\xdeF\xed\x00w\xd0\xc1\xb8E\xac\xd5\x1ac@\x05\x10%8\xe4I\xa6B\x906\xf5\x1f\xd8\xee:0\xc4\'\x1d\x96\xa8i3\xf8\xe7\xa7y\xc2j\xa6\xbb\xfe]nWv\x91\x8b\x83PF\xaa\x16\x85\x1c\x95\xc4b\x11O@E\xc0\x88f5\xcb?L+\x7f\n\x04\xd6]\xb9\xfc\xebld\xaen\xc5vS\x00un\xf78\x9f\xc0\xeb\xb9\xfbm\x85\x908\xfb\x86\x98\xb0\xdf\xe5\x8d\xf6\xcf!\xfep~(\x14\xb9Q\xf0\x12\xeb\xda\xb7V\x1fA\xec\xeb\xc2\\\xbc7\th\x94k\xc3\xfcY\x0bk\xa3t\x16\x10\x18\xb1\x06\'[\xabU\x922l\xd7K\xe1t\x19]\xff\xee\xc3\xcea\xc8T\x9dz\xbds\xc5\xe6\xbb\xbc1\x055\xfb\x91\xfcj\x82\xc0\xed\x9eY\x04UH*#O\xc7\xbc\xb8|\x1c\xa1\x11!X.EU.d\xf9Y\x0c\xe2Z\xd0\x84\x93\xcf\xb5\x98\xac:\xcdb\xbb&lt;P\xba\xc5\x00Yo\xa7\xd5\x83/VD\xbf\x16\xd6\xa8 \xd6\xe9oC\xd8\x04E\x1f\xfa-\xcf]MO(\xe1))\xcf\xc46f\x17\x1e\x03_\x8b\x7f\xb2\xf8\xb1\xfc\xa6\xa5\x8a}\x90\x8a\xffq\x14\xea\x11\x1a\xfa\xfc\x18\xbeZ\x0e\t#n\xe4\xdbh\xcbF\xcd\xe2\xd7\x16\xd6^R\xa7\x11\xe6\xc6\xf6vZ\xd7\'\xdew-\x1c\x8c$@%r\x89d\xfb\x14\xd2i?\xd6\x87yAZ\x13L\xcb\xc9\x98q\x11\xa1n2\xe9\xc8b@\x7f\xc4\x8b\xd4\'*-))iK\x83\x9e{\xf8\xb7\xbd\xfc4\x17\x00\xb7\xb8\xa6\xd9#z\x88wbuR\x0b\x98\xb4Ay\x1f\xd2\xb0j\x93\xbe,&lt;\x00\x95=\x1b2\x84X\x84\x85\xeb\xbd\x83\x85\x8e\xa7\xdb*\n\x117\xc5\x1e\xd8cX\xc94\xdf\xe5J\xc5\xe1\xc7KK\xb6\xd1\xb0\xfc\x06\xa5\n\xb2$K(\x05tYdC\xcb3!D\x8cxE`t]\xd6\xaa\x82\xa9\xdd#\xe1k\x8c\x00e\xf7\xa1\xc9\x81\xd3e?4\xe5\xd5\xce\xc4\xe81\x06\xfc\x10\x07\xfdH\x97\x8ffPc\xca\xe3\xde\x91\xe3\x906\x92\xa1\xef;\xe7\xe1\xea2h\xd8Z\xb1\x01\xbb&lt;\x19 \xfe\xc6@\x99\x0fz+\xff\xa8\xdee\xacg\xc6\x07\x19*\x11\x16]T\xedB\x96\x7f\xa0B\xde\xc0@\xc7r\xbc\\\xad\x0e\xb0\xec\x8c!n{f\xdd\xcf0\xf1S\xb9"\xd0\x9f\xb5:\xde\xcc\xa1\xe5\x18\xe9\\1\x1d\x997\xa9\xb2`\xb7w\xb0\x12M_\x99\xd9\x85\x83\x1e*\x91n\x06X\xe9[\xcc\xf1\xabY\x8b\x92s\x11E\xa5R\xff\x9e\x8d\x1f\xec9|?i\xa6\x10\xe0\x81w\xb0J\x8a\xc9x\x10=\xeb\x99\x9e|@&gt;\xb4\xdb\xfb\xdb_\x86BXF\x8dUq\\F\xb9\xc9\x8bXk\x04\xc3T]\xc4\x94\xab\x96\x8f\xf1\xad\t\x9a\x83s\xe23\xb5W\xb0\xe4\xd6x\xcd\xf5h#\xaa\x9f\xe1\xddA\xba\xa1\xb8\xf7\xb1Q\xae\x1b\xa6z:}hX\xb0\x06\xd3\xc0z4\x80]|\x14\xcb\xef\xf4jZn\x9d\x8b\xc7\x89\x1c\xf9|`\xea\xc2\xb3v\x93\xbe\xa3\x98\xa5\x82$f\x0fP=\xa6\x81K\x97\x8cc:\x08c\xa4f8\x93\x87\xaf\x86\xbf\x90!Q\x01\x95\x8e|=\xc4\xa9\x90\xe6\xb4g\xbb1\xc1nG\xe3\x984\xafX\xf0\x18m\'\xe0\x89\x1c\xa9S2z\xb1clR\xd6\x91\x89H\x9f\xeb{X\xe7\xf4\xf0D\x86\xd4u{\xf1j\x04\x93\x1d\x9co%@\xdcE\x8f\xb1\xc4x{e\x052k\xa0G\x86ty$\xf9a\x1f%\xcf6\xed\x02\xa2\xdb\xf7\xb0\xf0\xe2`\x1ae\xa8\xd1W\xa1\xa8\x82F\x9cW\x8c\x1a\xd0\x1cA\x15X\x90\xb1\x96\xef\x93\x1b\xa6a:\x08\xe1`\x7f\x1a\xbb\xfb\x86i\xcci\xf0c}\xec{X\xdf\x03Lb\x8a\x970s\x04\xdd\x13\x92\xfc%+\x01\xa6\xa5\xf2}\xcbI\xb1\xaf2r: \xcd\x8c8{\xc8\x930\xb2\x1b\xe4A\xb0c\x00E2_\xa3\x92M\x83r;B\x8f$\xd7\xe4\xe4\xae;H\xa5\x88;\x1c\xa3j\x19U\x1a\x19\xc2\xae\x14\x8a\x89\x83\xb6\x1e\xb3Oi\xc3\x04\x9b:\xa9\x99\xecs\xe7\xca\x95@9\xa6\x9f\xd2\xd2\x146\xba\xc5\xd3\x04Q\x1ab\x13\x1a\xa2J#o\xc1s\x94\x03\xd0J\x07\x04\xf3X\x13W\xf4\rN\xa1\xc4\x05_\xc3\xba@\xc0\r[|\x13\x17\xd6\xb3\x91\x88\xeae=\xa7\nI\xef\xac,\xd8"V\x81\x92.@%\x11\x819\x13T%\xb5)\xc4\xb7\xa8B\x9a\x00v:sS\r\xa8\xa28?Se\xb7_-L\xd5Fb\x98\xa9\x94\x8c\xcb}\x85\x99\x17\x9d"c}\x0bk+\xce\xc1{\xce;f\xa9\xfd\x00\x19\x91\xdaT\xaaH\xc9\xfaX\x99M\xf6\xd6AR\x96\xb4\xb7O\xe3\x904\x0f\xb3}\x89\x8am=\x1f*i\xe8\xdb{WaMY\xff\x05\xc8D\xd9J\xaa\xa4\xcb\xfa3V\xb6%\xce_\xd1\x01\xc9\x9d=x/\xfa4\xd0\x8b\xed\xdd("\xb92?\xf3\xecq\xc3\x96)P\xe5\xa0\xc3t\x01\xfc7\x8b\xaf\x05D9\x1deP^\x1e\xe6l\x9d\x01~\xa7/au\xf2\x81\x1f\xe10i\xcc\xe0-\x13\x94G\x05\\\xa3\xdb\x05\xacO4\'\x90CaN\x7f\x19oX\xea8SE\xb0\xefP\x05\xe3\x18\xf4C\xd5Q\x97\x12w\x19:\xa1\xf1\xb7\xb5\xa2BGQ\xa7\xad\xf7\xaao\x1d\xb6nZs D\xd4\xf9\x0eV]\x04$\xa7 Nv\xbec\x0fL\xf8\x08\x8d\x86\xbeko\xdc\xe5#\xad\xb5\xad\x1fZ\xd0o\x8b$"\xbc\\/}\xc6n\x02^\x02\x9c"\x19\xa3\xac\xdb\xe2pNP\x8b\xf2\xe7\x8e\t\xaeU\x9a)*\xa8j\xcd\xa6c\x95\x18\x87\\m5\x08\x87|\x05kH\x08B\xfa{^\xd2\x93v\xc7\xeeCf\xe5Z\x87\xa6\xf0}u\x8a\x00\xd2Jh_\xd2m,"\xcbp\xcfy\xd0\xa3\x9b\xcf\nxn\xac#\xbb\x9c\xe5\xc7\xac\xbd.\xf6\xd6\x16k\xa8\x14\xa4\xa8\xef\xcf5\x85\x7f\xff\xce\xaa\xc6 n\x03\xa8l\x15\x95B\x01|m\xc0*.\r\x84\x1b\xe7S\xc7\xf2\x9c\xffo\xa4\\\x99(\xa2\xcb\x13\xc1\xcf\xa9\x02\xebSnP\xe3*\x87\xafX.\x13\xf6\xa3\xc9P\xea\xf4\xa5\x18\'rQ&gt;\xc0#D\xa5\xa8\xb0y\x84\xfa\xb6m\x9e\xb6Ec\xc3\xec\x07\x98r\xa8\x1a\x04\x97\xa4\xf1\xfcI\xd4/\\\xe6x\x14\x1d\x0e\x04\xfc\xaf\x98\xab\rj\xeaJ\xc3\xba;\xb3:\xdb\xfd\xe8\xc7\xba\x9d\xa9\xfb\xa3\xb3[\xb7\xed\xaf\xdd\x99m\x7f\xb63\xe7\xe4&amp;$\x86\x00\x03\x04\x02\x84,\x84H&gt;$\xa0\x80\xa5%Fm\r\x16P\x82\x1b\x85EJ@\x10A\x0c\xa8P\x04\xab\x82\x12\xaa,V\xa4X\x87\x0f\x11\x11K\x91.\xa3v\xb68\xb8\x8b.{\xde{\xeeM\x02\x84\x10\xf0c\xf3\x07\xb8$\xb9\xe7\x9e\xf3\x9e\xf7}\xce\xfb&gt;\xef\x93\\\x8255])\x96\xaaD\x12\x05\xd2\xfe\x06\xf9\xefG|\xf7\x85\x7f\xaf!\xe3%\xff\xde\x08=\x1b\xd5\xf5Z\x9a\xba&lt;q\n\x82I\x19\x99\xae\x12\x95\xf8\xe8\xdaY4\xf5\x9f\xc4u@\x00\xaa\x9e \xff\xfd\'9\xf3$\xab(\x1e\x82\x12\xac\xbf!(h\x00\xff\xd7\xbf\\\xaaY\x80\x03\xed\x8a\x11\x8e\xf5\x15\x06\'\xe5\x1c\t\x04\x9e\x8e\xb8Yd\x96\x15\xeb\xd6:\xd1fnf\xc3\xf8u3\xb1@\xa2x\x9b\x9f\xc3*\xc2x\x9f_\x0ee[1\xc6Md\xcb\x8b{&gt;bM\xcaF\xae\xb5\x07\xe0\x98\xcd\xc8\xb9v\xddl\xa2\xd4[\xc5\xc9\x8a\x16n\xc1gh,\xd4s\xa9\x89\xbe\xf8\xc52\xef#_\xc1k\x86\x04\xde2\xf8e\xfbA\x9fo\x8f\xef#\x91\x86\xd6H\xd4\xfd\x8f\x05\x14\x9e\x93{\xb7(j\x8b\xdf\x9a\xd3 \xfb\x1e\xfe\x81\xa9\xe5\xe0C\xc0\x97\x0e!\x8aL\xe1k\xc9\x82\xfcE\xce\xa2\xe2\x9e}\x01\xe4\xc5~\x94\xbc\xa4C&gt;\x8b{\xa2|2\x92M?p0\xa0v\xebT\xf6f\xe2\xbb\x1e\xe3\xb8Z\x12\xef\xde\x9bK\xc2{\x9f\xac\xddC&gt;\x81\xa2\xdc\xdb\xbd\xd1\x83;rl1\xb3?\xd8\xe4\xe6\r\r\xec\xf6\xf9\x14\xc2c\xf4&amp;%\xc3]\x1e \'\x83\xdc\x04\xe9\xc3\xde_5\x9f\xb2\xd8\x96\xa0\x9a[l\x0f\x0c\x8e3D\x03\xa5v\xb1\xc2E\xf8\x17Zn\xc7\xfbf\x18#\xd9n\xbe\xb6\x19\xf8\x91\xddu\x889\x95\x86\x1f\xab\x12\xda\xe6S\x16W\xfcfM\xfa\'hxVU[\xf2\xc0\xbc\xff\x9a\xa3\xbf\x9c\xc0\xaf\xd2E\xed\xd8D\xd3\x80_\xfa\xceB\xa3R\x0f\x0eR\xd4-.;\x17\xf4)\x96\x0c\xa3O\xd2\xbd\x10&lt;W\xac{aF&amp;\x1f\xf4\xac\xce\x99\xe8\x1c\x85~\xa1\xc1\xca\xa2\xc5\xc8\x07&amp;\x1a?\xaa}\xd2\x1b\x13\x8af\xa7\xff\x94w\x1dY(\xab\xa6\x1a\xe3\xc1\x08\xd9\xcc\x0b\xeb\xbc\x92\x87\xa5=h\xc4\xfd0c\xae|\xa0\xe2\xb0\x06k\xff\xb5\xc8\xde\xbf\x00K\x8e\xb1\xc1\x97;\x11\xa7h\xe7f\xb3\xb4\xdd\x0f&amp;\xc8\xc7\x82GP\x8f\xd4+yx\xc5O\xffbI\x8cm\xe1\xad^K\x8b\xb8\xa1\x10O\x84Nr\xbfN\x9f\xe3\x12Z\xb1\xe6j\xe1\x16\x8c\x1b|\x8cj\xd4\xc0Q\x9a\xe7\x11\xb2Zb\x13\xbb\xbdS\xad\x81\x98\xde\xa2\x08\xe2\tLm\xb0j][\x1f\x87\xdd\x0b\x81\x1c\x1f\xb1\xb4\xeb\xbeX\x92\xff\x10L\x91\xc8#o\t&gt;\xbd\xe0\xae\xddp\x9dX\xee\xa3o\xbd\xb1y\xce\x07)\xee-DL_\xb1j\r\x99\xa2\x1c\xea\x19\x94\xd0:\x1a?C\xe6N\xd2\x0f\x9dZ\xb0\x03\xb2\x17\x0e\xdb\t\xf7*\xd9D\xbe\xb8=w\xa1\xca\xac&gt;[\x82\x05\xb6DTX5oT\x1bs\xd0v\xed\x9aU\x0b7=X\xbad\xa3\xec;\xffN\x82\x83\xe2\x1cm]\x85\x030e\x86\xeeYh\xf3\x8b\xf6\xf0\x93t\xd0{\x8a\x9a\xd9\x03]\xa66\x08\x185.\xd4\xc7\x97\x8b;e]\x96\xdf\xfbh\xb6~\t\xdf\x15\t\xd9\xa2\xe4\x11\xf2\xf9&lt;j\xff\x97\x11%C\x83\xd2\x83s\x99\x1c\x9bH\'\x0b\xd9gX;\xc8\xe3x\xb7\xe7Zi?Q\x93Pt\x17\xbf\xe4\xb3S\xcb\xd8\x8aj\x018X |\xb2_u\x13BI&amp;o\x9b\xb9\xa6e\xf0\xf2D\xa6\\\xba\x93\xa2g\xa0\x9f"6\x0f\xea\x9e\x81\xf9rY\x1d&lt;xw-j5\xfa\xee\xd7zm\xb5\xd5\x81RI\x84\xd7\x91i\xb9\x06&lt;\x81*\xd8\xf1l\xd32\x8e\x81 \xa0\x99\xecX\xea\xa8:&amp;\xdd\xac\x95\x026\xe4\xa4Zq@=\xd9JL/A(5\xc8a]\xfd\xdab\xcdZ\x96\xc8\xd8"#\xe5\xa7\xef\xf8\xf0\xb3\xaf\xd9B\xd7\x0e\xf0\x82\x87\xca\xd4W\xc1,\xb4\x07\xf4K\xc8\x020\xfa\x03\xc4Y\t\xe2\xac\x1bi\x95\xea6\x1b\xa3k\xf6}M\x0e1\x8c=\x0e\xff\xb5\x08EZ\x16k\xd6\x82\xd6\xb6\xa3!\xb2\x06%\x1e\x83\xf1Dt\xb1\'!\x15\xcb\xe3;\xd2E\x0e\x03N@\x19a\xce\x0e?\x97R\xd4\xe1\x0c\x83\xfe\xbc\xc6\xe6x\xbd\x190&amp;\x8e\xbe\xcd\x1eDN\xc1\xa8L\xd3X\xd9\x90\x10R\xb0xk\x1b1/I\xafX\xd4\x16\x80\xc7]\xe7\x98\x90&amp;\xf8\xbe@\x13\x8b,\xf3n\xc3\xcc\xc5\x1d\xdd\xe3\xc7\xc0D\xf6\xa3\xf0\x141f\x1a\x93#\xc7)\xb9\x87\x87\x0e{\xa6q\xc0\x01\x91\xb8W\xf2\xf2*\x7f\xda&amp;\xa5\x9d\x0c\xf4\x00\x1c\xe9`\xd7\x8a\xc9\xa3\xb4\xe2q\xce\xcb\'\xa4\xd2\xa2\xe1Xo\xaa\xcf\xf8\'O\xed\xa5\\\xd60\x97\xcbPQ`\xd9\xc4&gt;0c\x07\xe2M\x043*}\xf5w\xfe5\x99\x1a\xcd\ny\xbe\x04\x17_\xe8\xb9\xe8\xb8SI\xc1\xa1\x16\xea\xf5!\xcd\x10\xbd\x93nP\xa0a\xbcy\xa1T/\xf7bgL\xf8\xae\xd2\x0b79\x16\xa4\xb2\x0e\xaca\x7f-\x12\x17f\xd3@\x1d\xdd\x04\xd6\xde3\x80%\xf9r\x85\xd9\xf8\xa6\x9f\xcd\xe8\xbf}[W\x84\x92\xea\xc9\xca\x05j4&lt;\xd49\x07\x935&lt;p\x1d\x1cb\x92\x8bJ\x18\xa0\xeb.\xf8\xee\x8c\xa3\xd65o\xf2Z\xc7\x99\xef\n\xbau\xee\x8a\xdc\x87d\x057\x8c\x1b\xa63\xee\xbba\xc0d\x082\r`A}\x12*\xd2\xbd\xedw+\xfa/V\xeaJ\x91\xdc\x19\xed\x11\x1f\x8a!\xf0\xa8\xc9F\x9c\x027VF\xaeL\xf4\xc5\xf0C\x96lJ\xaf\x9a:\xdd\xd7wz\xaa*}\xd3\\"b\'\xcd\xa7Q\xb7\xbe\x97\x1bZ\xc1I\x1d\x8ev\xcaQ\xa9n\xe5\x12\x1a\xd1\x7fN\xc6\xa5\x08\xed\xf5 \xa3f\xc2\x96\x0c\xcf\x0c\xc3\x06\xb0\x94\x1d\xe4J\xa3\xfc\xf8W\xa3M{u\xde\xf8\x90\x9e\xe0\x80\x9c\x83\x11\xd7\xd6`\xdd\xaa\xaa\xe7@\xac\x11\x1b{C\x15\'uKmC\xd7\xa6\xc8\x84\x15\xae\x86\xeei\x0et6_&gt;\x0c;0\x03\xf3D\x89\xa4\x8b\'\x9d\xe7u\xdc\xbc\x1eR\x1at\xd3{O\x7f\xea\x89\xaa\x02 w\xd7H\xa7H\x1f\xcb5\xef\x03\xaf\xa9B(K\xd1.mT %\xa0\xbc*d\xecV\x0ew\xef\x044\x98\xcc#\xfa\xc8n\xf2\xe4\x1e\x0e\xe2?\x04`\xcc\x9c\xfc\xb6\xe6\xe2\xb5Hp\x05\xb2Y\xccM\x00`jV\rb\x14\xb1\xecB:qvFxU\xb9T)\x01\x10^8\xe4T#\xc7y6\xcawC\x88\x1d)\xb9\xc1R\xef\x98\xf8Ir\xd1p\xe5\xb2\x9d\x8f\xdb\xb1\xb6\xd9\xa9\xec\x1f=\x875\x08\xd8\xc2l\xe4\xacl7\xbb\x17\x04\xe7\x1dH}\xfd\xd0\x9b\xcb\x10t\xfa\xe3\xab\x82\x0f\x92Q\xe4}\xd8\x90P\x96\x92\xdd\xc2\xf8c\x15\x01a7\x1es\x80$\x90\x95; \xf3\xa3\x9e&amp;gP\x0fG\xd14\xab}\xa2\x10\xc0kg0\xde\x02\x88\x8c-\xf4\n\xeeG\xa2\xe4\x0f\x04\xcb\x91\xa9`E=\xc6r\x18E\x99\x95&lt;\x9c)\x0b\xed \xd3\x1fM\x9c\x97\xdcM4\x06\xbf\xffM\xcc\xa3c;\xc98\x87\x88\x03\x11n/M\xe9\xcc\xbc\x91\x9f6\xcb\xe8\x07aa\x19\xd5~\xf8Q\x08kh-S09c\xcb\x14\xf5`%P\x8a3\xe4\xcc\xfe\xf1\xf5\xd8\xd8\xc4Vl\xd3\xc8\xb2\xd1\x0e|\xf6@\x05\xf9\x13@\x8d`\xc6\xd9\xc4\xd6\x92\xa6\xa2q\xa0\xd20\'M\x1b\xb0\xd5e\x86\xfa\t\x8c\xd7\x8f\xefg\xe4\x19\xc5\xbf^\xbe\x96\xcd\xcf\xfe\xb0Z:\xa4B\xf2\x9dd\x91X\xbfz\x00\x04i\\\xf4\x84\x9b\xe4v\xb2!\xbe\r9\x82\x8c8\xa5\xbf\xb1\xfdRa\xfb\xdc\xce\x8f^\xdaC,\xb6\xe7\x92=\x9d!G\xaa!\xe9\x13\x08\xc6Py\x9d\xb4:\x11\xba\x96\xcf\x96\x13\x02\xe1\xb8\xf9\x8d\xab\xb2P\t\xe1\x88\xa7vX\xdc\xa4\xde\xday\xce+7#O\xef0g\xaf\xc7\xca\xfckHT\x97\xf6d\xf2:T\x8c\xc8xb3\x93e\xef#V\x11\xd8\xbf\x01)N\xb8\x908$0;\x82\xdd\xdd\x1d.\xc41\x9f\x0b"0\xea4\x02,\xed\xb3g1\x9bO(\x9fX\x8c\x88J7U\xf5G\xa0p3\x99\x97\x80\xf2:\xfd\xb4km@\x9f\xa6\x8e?&amp;X!X&amp;\x17\xee\xa8;\xdc\x99y\xc8\xbb\xc3\xff\xd8\x1c\x8e"\xfa\xab\x9e\x86t\x13\x15\xba\x12\x94\x13\x08\x1f\x9eR.\xc0\xd1%\xae`\x13\x06\x9e\xbf\x8d\xff+\x0e|\xda\r\x0e\xb2{\xe3\xb9\x97\xa7\x84\x13P_.xJBWT\x16L3\x93#D\xea\xc6-\x1e\\r[\x16\xb1xW\x8b\x97\x11\xfa\xb5\xce\xdc\xbb\xdc\xdf\xda\x9e\x93:0\x8f\xe5\xbe\xa5Q\x8d\x8493\x9a\xa7\'\x0b\xc6\x89\xa8\x19\x8e\x16\x8a\x91|{\xe5Fw\x0b\x13A,\xee4\xd8Y\x0fT\x9a6\xe7xZ\xb9]N\xe0V\x81\xe1\xa9\x8a\xa8\xf1\x92sQ\x0fL\x04\xbf\xa9\x86m\xf4xg\xc9l\xd7{\xb4%x\x90]\xc5\xb9\x9e\x95/\xdb0\x14\xa4M\x0f\xa2\x9e\xba\xe4\x1c/\xd0\'\xad\xaeH\xceB\xa2\xb3;m\xe9\xebY\x10hu\xdf\xbe\'V!\x14\x85\x86\x04\xc5\'\xef\x1a\xe1\xd5\x9e\xd6\xa7\xdbv\x9e\x15\xa1\xac\xe4\x8aj\xe93\x11\xe8s\xc9\x19\x0eT\xf6\x90(";^t\xd72\xbb\xbf\xeb\x8a3\xff\xca\x8f\xa7?K\x1b0H\xe8\xee\x94Z\xee\x16\x1d\'\xfe7\xb4\xa7r\xe0\xd9\xc9\x19\xba\xc4\x1f\x051\xdf\xdf\x89\x8f%C\x0b\xb27LV[\x95^\x1a\xfa\xac\xd5\x93\r\xf6 2\xa4\xd8\xf8;\xdf\xc7\x08\x9e\xad\xf8#\'\x95\xf9\xa7\xd58\xca:^Q\x98H\x82\xb3X\x1e\xdf|\xc9&lt;\xdaV\x7f+{\xd0f\x1b\xcc\xbeU\xdf6j\xbe\xd4\x1c/\x87\xff%\x16\xfe{\xdc\x1a\xf5&lt;\xa42i\xfd\xf1\x95\x17W\x12\x8fP\xf2\xf9\xc33\xcdj\x17\x9eIP(\\\x89LF\xdd|\xe6\xe1\xe7%\x04d\xad|\xf1\x95?\x13\x17\xf3\x9c$O\x7f\xf9\xce\xbb\xaf\xbf\x01Qrz\xe2J[g\xab=u\xdb\xd9\xe6]\xbb\x9a\xcfnK\xb5\xb7v\xb6]\x99\x98\x86\x84\xf8\x1b\xaf\xbf\xfb\xces\x94a\xe5\xe0\xc5\xaf\xdc\xa2\xb5\x82(M\xb0..N\x17\xac\x89\x12\xfc?Ek\xdd\xbb\xf3\xd9H\xfc\xfe\x0f\xac\xc4\x93\x01 \xd0\x14\xc5\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\x01^\x08\x13n\x18\x01_\x08\x01^\t(k(\x00\\\x00\x0bG\x0b\x01_\t\x01^\t\x01^\x08\x01_\t\x01^\t\x01^\x08\x00^\x0c\x00_\t\x07c\x0f\x01^\x08\x06W\x06\x00_\t\x01_\x08\x01_\t\x00^\x06\x01_\x08\x01_\x08\x00_\x08\x00^\x08\x00^\x07\x00^\t\x01^\t\x00^\x08\x01^\t\x01_\x08\x01_\x08\x01^\x08\x01_\x08\x01^\t\x01^\x08\x01^\t\x01^\t\x00^\x07\x00`\t\x00_\t\x00`\x06\x01_\t\x00^\x08\x00_\n\x00a\r\x01_\x08\x00]\t\x00`\t\x01_\x08\x00^\n\x00^\x08\x00^\x08\x01^\t\x01_\t\xff\xd3\x02\xfe\xfe\xfe\x02C\x01\x02^\t\xff\xd4\x02\x01Z\x08\x01^\x08\x02_\t\x00]\x06\xcf\xe0\xd0T\x8fX\xf5\xd0\x02\xeb\xcb\x02\xc4\xba\x03\x04`\t\x01\\\x08\xfe\xd4\x02;x\x08\xfc\xd3\x02\xf7\xd2\x02\xfd\xfe\xfd\xed\xf3\xed\x02^\x08R\x83\x07\'u,-v2\xeb\xf2\xebT\x84\x07\x92\xa1\x06\xf2\xcf\x02D\x85H\x1fk\x08\xc1\xd6\xc2%r*\xcc\xbd\x03m\x90\x06\ta\t\x7f\xab\x82\xc8\xbc\x03\x13_\x19\xfd\xd4\x02b\x8a\x06\x0fd\tM\x81\x07\x02B\x01\xf9\xd2\x02\xa5\xab\x04\xd2\xc0\x04P\x82\x07J\x7f\x076v\x08\x81\x9a\x06$n\x08\xdc\xc4\x03M\x8bQ\x0cc\t8w\x083u\x08\xad\xc7\xaf\xb5\xcf\xb7C|\x07\xfa\xfc\xfa\xe8\xca\x02V\x84\x07]\x88\x06F~\x07?\x83C\x06`\x0c/s\x08\x1ci\x08\x12d\t@z\x07\xdf\xea\xe0\xcf\xbe\x033t8\xe0\xc6\x03N\x8dR\xbe\xd5\xc0k\x8e\x06=z\x07\x15g\x08\x97\xa4\x05\xf5\xf8\xf5\xd5\xe3\xd6h\x8d\x06`\x88\x06y\x96\x06\xe8\xf0\xe8\x88\xb1\x8a\xd5\xc1\x04!q&amp;\xcd\xde\xceZ\x87\x06\xe5\xc9\x03x\xa7z\xb3\xb1\x049\x7f=\xd9\xc3\x04\x9c\xbe\x9d.y26|;C\x80H\xbe\xb6\x04\x83\xad\x85m\xa0oV\x86\x07\xcf\xbf\x03X\x95]\xf1\xf5\xf1\xa4\xc2\xa7\xa0\xbf\xa1R\x82\x07\xa0\xa8\x04\x0ff\x15\x8e\xb4\x90*p\x08G\x88K|\xa9~\xee\xcc\x02c\x99f*v/r\x92\x06\xe2\xc7\x03\nc\x10e\x8c\x06\x1cn!]\x96a\xda\xe6\xdb\xa8\xc5\xaa2z7\x94\xbb\x97u\x94\x06\xe3\xec\xe3w\x93\x07\x97\xbb\x99\xc7\xda\xc8t\xa3v g%\x1de"\x8e\x9f\x05\xd1\xba\x02\x05B\x01\x01[\x07\x85\x9c\x05\x91\xb6\x92\xb7\xb3\x04\xc1\xb8\x04\x17j\x1c\xb9\xd1\xba\x9a\xa5\x05\xff\xd6\x02\xb1\xcb\xb3\x8a\x9d\x06\xd2\xe0\xd3@}D\x11I\x01Yt\x01\x93\x96\x01\x7f\x8b\x01\x1dP\x01\xbc\xd3\xbd\xad\xae\x04\xbc\xb8\x04Y\x92]P\x81\x07\xca\xdc\xcbM|\x14w\x91\x10\x0cF\x01\xb5\xaa\x021]\x01\x9e\x9d\x02\x02A\x01Af\x01z\x98\x05\'V\x01\xaa\xa4\x02%h\x19\xa7\xa8\x07\x86\x99\x0f^\x86\x08 e\x1aj\x8b\x12\xc4\xb3\x02j\x7f\x02\x89\x90\x01Kl\x01cz\x01:b\x01q\x82\x01t\x83\x01\xba\xad\x02\x01Y\x08Lm\x01\x1eo$X\x81\x14Q\x8fUc\x87\x12\xeb+\xf5\xe0\x00\x00\x008tRNS\x00\xf0\x02\xe4\xfa\x04\t\x01\xfe\xf7}\xfc\xd7\xe8\x13\x1a\x17\xb2\x06\x84\x8cT(\x9f\xcdZ@D5\xdeal\x99\xc7\xacq\xf3v\xbf\xc2!\x0cf#\xa6;1\x0f\xd3+N\xb9JX\x90\xa4$\xf2\x0c\xfd\x00\x00\x0c\xf7IDATx\xda\xcc\x9b\x07\\\x13Y\x1e\xc7C\x93"\nV\x14\x0b\x88\xa8\xab\xa2\xeb\xdav\x06f b\x12\x0c\xa0\xa2\x92,\x1a \x02R\xa4Y\x01)\x02\xcb\xa2(]\x10\x16\xb0\xa0\xb0\xea\x81uA\xec\xb2\xee\xaez\x9ez\xba\xd6\xb3\x9c\xabw[o\xeb\xf5\xfe\xb9\xcf\xbd\x99\ty3I\xcc\xbc\x01\x12\xf8}&gt;\x927\xaf~}\xff\xf7\xde\xbc6"Q\xaf\xc8\xc6\xc6F$\xb2\x15\x89,-mD\xfdG\xb6\xcc?[[Q\xbf\x92\x16\x07\x80\xf534\x9bis\xe9J\x13h\xc5\x01\xa6\xa5zk\nf\xe72\xb8\x7f\xd5\x94h\x80\x835\x06d5\xbb?\x99\xd0v\x8c#\xc6\xc8\xce\xcb\xb9\xdfP9\xbdm\x87ie1\xbe\x7f\x0c\x11C\'zb\x1cM\x98\xd9\xf7P\x96cfa\xba\x1a\xe8\xde\xd7\x96\x1c9Dk?qt\x12\xb4\xa4\xdb\xd0&gt;\x84r\x9eo\xdd\x05Bl\x95\x91AWc\xb4`\x8e\xb3-\xfbjP\x98d\xa1\xa5\x88Q\x04\xe1@\xed/\x08\xad\xd7\x94\xb1}\xd2\xd2\xc7[i\t\x02\xca3\x00\x93D\x8e\xe3\xf2\xba\x14\xd8\xc4&lt;\xde2\xfb\x9bf\x84#l\xe2Ij\xaa\xa6\xf0\xef\x83\xa9\xbf\xc1\xc9\xeb!\x98\xcb\x1bf\xed~sGA\xa8\xb0x\xda~8^~\x8d\xf9m\xaf\x11k\x03\xed\xdd\xcd\x06f\xc3\x86\x8aI\x0ef`\xf0\xa8\xb0\xc7\x1a\x17\xa9\n\x84`\xd6\xe6\x01\xb3\x19\xc1\x82\x8a(\xca\xc0\xbbT\xf8\xafGZw\xd4\xb3c\xb0\xed[\xbfm\xf266t4\xabM\x05li\xc0\xa1\xe2}\xbf%\xe1SPq.\x8ch\xe71\xc3\x94\xc3\xc5T\xb7q\xb0,"\xb1\x99\x85\x81\xe3\xe1\xbe\xd7\xa5\xecg\xc9\xd5\x9d,\xb0)&amp;\x1b\xc7\x9c\x86\r\x82\xe5\x88\xd3d\x1c(\x9c\xdc\xe8\x1b\xfbO\x8e\x0f.\xb9\xc1\x02\xc3\x1c\xa7M5\x01\xd4L\x17{VM\xa5\xc9\xe4\\\x04\\\x19\xe1\xeb\xf3\x1b\\\xd7\x93\x03f1\xcc\xa9\x97\x07\xf4\x11\x93Ys\x17q\xd6-R\x17\x00W\x13\xbe&gt;\xff\xd6\xf3\x05\xa6\xcce\xbf\xc4=\\{o\xda\xe3\xe4`\xc5\xca\x9a\x08Q\xc9\xf5\x8b\xc7\x15\x98\xaf\xcf\x93(\x03\x01\xc1\xc5)\x04\xab\x919\xba\xbd\xd9+}\xcf\xd5\xc3\x9a\x05\xb5\xbe\xbc\x8a\xc4\r\xa9\x06`\xf9\xd4\x1a\x0c\n\x8a\xdf fe\xe1\xe9&gt;\xb6\xa7U\xe64i\x1c\xcbzX\xde\xa5\x0c\xdc\xb0\xe4a\x00+\xf6\x0f\xaf\x0b\x95\xade\x83\xd9\xcd\xeaI\x95\r\x98\xcd\xa9("E\xa1\xc4_\xa7\x0c\x82\xaa\xad\x7f\xbc6\x9cL\r\xcfcO\x15\xed\xbd\\\xbb5%\xb3\x9c9\xdc\x82\x9d\x8f8\xad.\x08\x7f\xbd\xeah\xac\xafI#Q$\n\xd6\xd0O-\x93\x86M\x17\xbaNzc\x12w.\x9cWVe\xacD\x1c\xff\x06\xa3\xb0\x1e\xc6\x19\x8d\x14\xf5&lt;$\x82\x9d\xab\xdd\x84i\xe8\xd3k[g\xb7\t\xec\x06\x05f\x9eF\xac\xa7\xb1\xd1\x0e\x1a\xeb\xabk&lt;\xf1\xf0\x8c\xe40N\x95\xd9\x0f\x99\x874\xca:\x8f\x9fc\xcd\xa9\xa8\x98h\xb5\x9c\xaf0\\\x12Cc\xf9|\xc9\x1b\x13\x8f\xbb\xb9\x96Se\x98\x85\xd7\\\x9e\x15\xfft]&amp;qR\xb1\x12GP\x02\xc1`\xfd\x15%2.\xbd\xc7me\x98\x85\x8b12[{Nd"\xf7\x12O\x8b\xd2\xea\x0e\xc6`}!G\x8b\x1f\xa5.\xcb\xe3\xae\xe2\x86\xa0a\x11157\x83pTuh\xb0~\'AN\x12\x1c\xbf\x86mL/$\xac\xf5\xf1\xe8\x05\x80\x16\x7fL\x83\x15\xfbG!\xa9\xa4M\x10k8\x12V.) \x7f\xfc$\xa1\xc1\xf2\xf9\xb3\x90dx\x85P\xac\x9d\x82\xb0\x1a\xb5X\x8f\x04\xa5\x0b\x87X\xc3\xd0\x8c\x18%$\xfb\x1bX\x17\xd6\x13y7\xb1&amp;"a\x89\xe3\x844\x92D-\xd6\xf5\x8cnb\x8d@\xeb\x89\xc1\x02r\x8f\xdb\xa9\xc5\x8a\xfd}\xff\xc1J%\xb4X\xfa\x13\xe7\xbe\xc3\x8a\xc7 \xd6\xd7B\xb0\xca`y\xae\xbd\x8f\x15\xce\xc2z(\xa0\xaf\x90\xe5\xb0\xbc\x91F\xb0\xac\xba\x85Enda\xc5\xa6\nH\x98\x05\xcb3\xb6%0\x05\xbe{\x04\x0c\xf2\xca\x006\xd6\x97\x02\xb0\x02\x05c\x9dD\xcf]F\xb0\xb0|\xfe\xd4-\xac\x81\xcehX\xed\xe8\xb9_\xc5\xd8X_\x90\xdd\xc1\xf246\xe5r\x81X\t\xe8X\xa1\x1c,\x01\x93\x08r\x03\x1a\xd6p\x88U\x80\x9cyP.\x07+\xf6\x1arJ9\xdc\xd1\xb4\xe8u\xacZ\x82\x83\xe5\xf3\x18\xfd?\x04w\xa6\x07\x19[\xd1N\xec\x0e\xd63\x8c\x8b\xf5\x08\x1d\x0bn\xb3:\x1a\x9b\xcbO\xeb\x0e\xd6%\x1d\xaco\xef\xf66\xd6h\x88\xa5\x16\xdc\x9d\xba\xb0\xae#\x8f-\xc1\x10k\x941\xac\x19\x10\xab\x0e5oI\x84\x0e\x16\xfa$BJ\xa0\xac0D\xa2\xb1p\xd4\x8dG\xcd[E\xe8`\xa1O"2 \x96\x87\xd1\xb5\xeb@\xe1X\xc5\x98.\xd6_H\xe1X.\xbd\x8d\x95\xa9\x87\xf5\x04u!\x97J\xa0L\xe5E"K\xb8I\xd3\x82\x98uT\x8a\x1e\xd6\xf5Ba/S^,[\xb8\x97|G\xb0!\xb4X\xaf\xdd}\xd3\xd5-\x02e\x85\x014Y\x1b/\x191\xeb:L\x0f\xcb\xe7\xefB\xd6q\x8cF\x1b\xc5\x1a\xa2\x8dW\x81\x98\xf57\x06\xb0\xfe\x86\xd8\xe6\xe3\x91\xa6\xf2@\xf3\x85b\x91\xf9\x06\xb0\x1e\xc6\t\xec\xc4\x18f\xfcL\xd4A(\x96d\xbd\x01\xac\xaf\xae\t\xc62~Z\x05_\x8amh9\'\xc0\xe6\xe1\x1b\xabm\xf3\x8fI$%\xc3\xedJ\xe3\xd7`\xc6\xc0\xd3\xcb-\x8cB5\n\xa1\xf5\x0bZk\x19\xad\x01\xda\x11\xa0\x95x\x91Vaiii\xf9\xf9\xf9;\x80\x02\x19m\xa0\x95Dk#\xa5\xad@\xf0\xe4\xc5\xda\xf8A\xd5X\xaco4\xc8\xf8.\xe5\xe0&gt;\xc2r\xe49!\xf0\xec\x1b\xac\xc9&lt;G\xbeV&amp;-\xfd\xcc\xf1\xe3\xc7\x03\x0c\x05x\xf0\xec\x7fO1%\xd5\xe9\xfb\xde\xe9\xbf5\x182\x9f\x07k\x8e\t\xa9\xc4G\xbc\xd3O\x19\x0er\xe0\xc1\x9aoB\xac\xec+\x9f\x9f"\x0c\x07\x8d\xe6\xc1r\xd0K\xe1\xe7G,\xa5\xe4\xe7\xe7G=.X\xb0\xc0O\x13\x00\x9c\xf4\xf3\x02\xcd\x03\xa3E\x9aX\x1a\xf9ib/\xd2z,2\x805\x83\x07k\x9an\x82\xbd\x87K/_~\x17\xe8\\\xe9g\xdb\x08,\xdb\xdf\xdf\xff\x00\x13\xf21p^\xa8\x07\x7f\xfcW\xe5\x1c\xdc\xbc\xdb_\xa3\x95G\xab\xb1j\x7f\xadvo&gt;\x0bj\xa85r{W\x84\xddOO\xb4\xea\x16b7\x9d\x07\xcbU\'\xc1\xaa\x12o\xa8\xc5\x07\xb1u\xe0g\x0f\x13t\x148\xb3\xdf\xa1\xfc\x97\xef\xf2f\xeb\xdd\x9ce\x9c\xe7#~\xc4v\x8e\xc7\xaf\xfdtJ\xf1\xe4;\x8e\x1ai\xc7M\x10Ies\xa8\xb2\xf2r\xe5b\xe0X!\xa6\xb0&gt;\xd2\xc3ZICS\xa2\x1dg\xb8X\xde\xcb\x97\xae\xe0&lt;/\xd1maV|\x97$\x06s\x8f\xa2\xb0\x8b \x97]\xc4/\x81\xf6\xa5\x03g5\x85u\x14b\x1d\x87X\xf7?\xf9\x14h!\x00[\\Ma\x1dz\x8f\xd2\xbasT,\x1a\xeb0\xed\xb1\xc9\x10\xd6\x04\xde\xc3D\x9d\xf1\xf4#\xaaJ\x98\x16\xbei\xfb\xf6\x95\xff\xa1\xb0v1A\xbf\x02\xceu\x10\xeb\xf0\xfe\xfd\xfb\x1f&lt;x\xb0\x048\x97QXK&gt;\xfd\x04h\xf9\x15o\xef\xf4\xdb4\xd6\x91\xfd\x94\x0e\x1b\xc2r\xe1=O\x1c\xa2\x8fU\xdf\xd5%A\xaf\xa2\xb0"!\xd6B\x96\x11YF\xa3\x8d\x98\x9e\xce\xd8\xb4\xe4\x14\xc6g\xc4\x89\xbcX\xc3\xb8\t\xf6\x80\\.\xb0\x9e)\xac\x13\x10\xeb\x03\x83X\x17\xd8mk\xf1\xf9\xbd\xbcX\xae\xbcX\xb3\xf5\xb1\xf61\x95u\xf8\xb3M\xe7sXXT\xb3;\x05\xb1\x8e|@\xeb\\\x17V\xe5\x89\xc8\xc8\xc8\x03G@\x85\xad8\xcd\x18q\x1b\xa5\xf3\x06\xb0\xac\xf9\xcf\x85\x9d\xec\xf4\xb0\x0e\xd0\xb9\xac\x02\x05\xa4\xd3XOs({\xe6\x94r\xb1\x0e2\xf0W\xba\xb0JW\xd3\xa20\xdf\xa1\xb1\xde\xd7vm]\xacY\x08\xd7\xc6\xc6qR\x1c\xa0\xcc\xf0\xf4\xe2\xc5\x8b{*\xe9\xfc\xb2)\x8c\xd2\xcd@\x14\x95\xf7Y\x88\xf51\xc4\xdaG\xf7\xc4M\x94vS\xe1\xd9&lt;X\xee\x08g\xe8\xee\x9c\x14\x1f\xb2\x87S\xd0\x07s\xee\xb3\x9fW\xdc\x86XL\xa9~\x9fwa\xb1b\x9d\xe6\xc1\x1a\x81\x805\x8f\x9b\xa4~s\xe5\x92C%%%\xe9\xe9%\xa5\xef\x03\x03\x9f\xd9\x9c\xaem\xccW\xf6azXT\xf5\xd4s\xb0.gcK\x97\x18\xc3\xb2G\xb9f\xef4P\xe7UM\xbdm\xc5\x94\x98w\xac_\xeb*\x8dZ\x81\xc7\xed\x85@\xad\xd9\xe0\xcf\x87L\xf4e{\xf7\xee=\xdd\xba\x10\xaa&gt;\x07Li\xb6\x01\xc72\xa6\xfa\x81k\x9bX\xd8`Jk\x94\xb9g\xcc\x0eHX\x93\xccLe7\x12\tk\xfa@\xf3b\xcdB\xbb\x00d\xc9\xb1bnhMMM\x93xkGtyfHJ\x11PY\n\xb6!:::1 \xb0\xac\xac\xac(Q\x9cE-c\xd7\x84\x85e\x96\x03_z\x01\xb1\xb3\xac-\xbchcL\x07}r\x96\x92\x99\x8bak\xb2R\xa8\xd5\xefF,"\xb3\xad\xed\xd2\xa5\x1d\xc2m(\x12\xb9\xb1\xd2DH%\r\r\r\xaa\xadAJ\xa9T\x9a\xd0\x84KN*qU\x9a&lt;((\x88\xbc\xa3\x88J\xa8:InI\r\x96\xe3q\xc1\xd1\xb5\x92\x82\xe6\xe6fjKB\x9c Q\xa9\x95\xc1\xf9w\xe9\xc5|&amp;\x99\x86\x11\t\xeaN\\\xa2\x0c\x96\'V\x90\x052\x99\xac\x83}_\x10\xf5\x16\xaf3\xeb\xb43L\xde\x92\x1f\x18\xb85\x89\xba\xb0C`M\xb8\xe2\xe5\xcfds\x11\xf9\xdf\x9f~:)SH\xbe\xfb\xee\x15^\x11\x11\xa1"_D\xe4\xc5\xd5\xbdH\xcc\xca\xa7\xba~L\xf03\x82X\xd3\x92\xd8\x85\xb5\x03#\xaa\xd4\x9d\xe4\xcf/_\xc9C\xef\xc8;\xca\xcb3\xc3\xd0\x97\x88,y\xb1\xb0Hij{\xad\x8c\xc8\xadHP\xb6\xe47\xe1\xca\xda\xda\xc2\x1b\x9d\xe4\xcb\xd5\xab\xa52\x05.\x89\x8a*&lt;\x86\x11*2\x11\xcb\x8b\xabmN\xa8R/\xa2\xb1\xe2\x81\xf17\x04\x92\x1a\xac$\x8ch(\xe8\xc4\x1b\xaaj\xdb\xc3Z\x82dj\xb5\x9au\xbc\x89\xcdC\xc6r\xb5c\xd5Vc\xc8\xda\xd0\xac\x9dY\x89\x89\x9dq\xca\x1f\xf1{\x04P\x05\xfe\xfd\x0f?Hn)\x94\x11\nI&gt;\xc6`\xc5\xc4\xa9@\xd3\xaa\xa1jk\xbd\xa4*+\xab\xee\xee\x8fdchSSH&amp;\xa9\x08\xad\x91\x14t\xca_\xfdOA\x86\x17G\xdd+\n\x0fOa\xed&gt;\xa0\xdf\xc5\xb3\x81W\xdd\xc4-\xa0MIo\xa5\x15\xa6\xa664(B\xa4t\x05\xe4\xb54\'$4\x06\xb6=\'\x88\xe4\xe7)\x18\xa1\x8eK\xc4\xb0{\xa9\x85\x85\xa9\xcc&amp;m[Bj{a1\x91\x0cZ\x91\xecf^#\xc8\xa0\xb0#\x9c\xcaG\x15v\xac\xb1@\xa5R\xa5!\xdd\x16\xd1\xd3x\xd6\xcd$z\x80\xc7\x08Z`\xb4\xd7\xf8R\x0f\x04A\xbb\x80\xd5\xf2\x024~\x04\x0c&amp;\xba~\xa8\x1c\xc0\x83\x98\xf9a\xc5\xa2_&lt;B.\xee\x0e\xb02\xd7\xa0\xe5.\x12"s\x8d\xf4\xd6\xd3\x05a\r\xb60\x0f\x96\x97\xc0\x1b\x9e\x0e\xe6y\x1d\n\xfd\xae\xebM\xb3\xb4.\x17\x91P\xb9\x99\x81\xcaS\xf8\xb7fS\xc7\x99\x1ekx7.5\xcf69\x95U\xb7\xae\x81\xcf1u{\x1f\xdd\x1d*\xd1Hk\x13\xef.w\xf3;Y\x87\xfe4\x92\xb2^A\x8e}\xbf\xb00x\xff\xc0\xcetT\xa3z\xf0\xbd\xe7p\x93Q\xd9\xf7\xe4\xbb\xdd\x01&amp;\x1b\xbc&amp;\x8az\xa2\xb1&amp;\xea\x8dsz\xf8I\r\xff\x0c\x87\xa8?[\r\xd6\xf0g\xcf`X\xf5\xd9U\xd4\x8e\xd3q\xde4\xe3z\xfa\t\xd2\xff\xc7$H\xc8\x8a\x83\x8d\xb3\x97\xce\x99\xbb\xb48x\xdbd\xbf\x9dK7Zl\xec\xc1\x18\xdf\xc6HX\x94\xef\xd6\xe5#\xd4\x94\xb83\xd3c\xc7\x86\x93%\t\x8d\x0b\x0fNIh\x9b\xb8\xad\xf1,!gqhQc\xab\x1d\'\xa1X&lt;8\xe1\xcc\xcee\t\xf7\x16LlK(\x9e]\xb3%\xae\xc4\x9e\x9a\re\x9c\x8b\xba\xf0\x97^\x0e\x0b\xf6\xce\xb1X\xbe3\xe1R\xdc\xc4\xc8\x84\x0b\xfb-,\xd6]\xc0\xef,E*m\xba\xc3_z-\xf4]\x98?y\xe1\x8e\xcb\xdd\xe1\xad\x13\xe66n\x07:\xab\x18\xaf\xb3d\xa9u\x96\x85\x10\xbedo\xb3\xac\xad\xad\xed\xef\x96\xfdN\x0b\xec\x1d&amp;NY\r\xec\xb0\xdd\x89\xc3\xe7,F1\x06j\x016|#q\xa0Qg`\xc7\x0f\xec\x14\x08\x81\xcfU\x9c\xba\x0c\xd4\x03|\xd4*\xedY$\x19\xa8\t\xc4x\x07\xb2\xe5\x87\x1b\x18R\xc3]\x1c\\\x0c\xd4\x06\xd2\x9c\x83\xd1UTp\x17M\\E\xb1\xbbh\xe4*\xa0\xbb(I_,r\x0c\xb4\x02\x14\xe4G\x16S\x06\xda\x011r;\x1d\x8c&amp;\x0c\xb4\x04|\xe4\xcd\xbc\xc8\xd2\xfa8\x14!A2\\\xa5\xae\xc9@k\xc0$B\xea\xdc\x0b\x878]NM\x92#\xad\xa0`\x91\xa7\xd3\xe1W2\xa4\x0c\xc91\xeb2\xd0\x0b\x08\x10?\x98\xa3\xc8\xcf@? $L\\\x02\xe36\xa3\xf3a\\R\xc4\x94\xac\xbc\xd2\x0c\xf4\x06|J\x84\xc6M8\x04\x07\xe2\x04:vI\xfc\x01\xc6(7@\xc7\xcf\xf1\xe3+Z\xd5\xb4\x19\x06\n\xb0\x8b\xf2\xe2\x0c*&amp;\x86\x01\x04l"X\x87tt\xf8\x19\x06\x18\x88\xa9a$}\x1e\xe9Ap\xa8!\x93)jk\x87Q\x95\x8daP\x006eDm\xc4"\xce\xcf0h\x00\x1b\xecHC5C\x86A\x05\xf8\x84\x19\x81\x15\xa0\x14\xc3\xa0\x03\xfa\xaa\xa2\xac\x0c\xa3` \x00\x00\xd0\xf2P\xfd%\xb6\x17\xc3\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67001157408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -510,20 +510,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xb2PLTEGpL\x010}\xf1\xc7Y\x010}\x032|"I{\t5}\x82\x8c\xac,S\x808h\x8e\x11;{\x1aBy\x053|\x032|\x18?{\x074~\x063|\x020}\r:z\r7|\xf5\xc30\n6|\x054}\xf4\xc6&lt;\xfc\xc3\x11\xf1\xceT\x085{\x054}\x042}\xf6\xc6,\xf7\xc3*\xfa\xc3\x1c\xfb\xc3\x13\xf8\xc4#\n6|\x14?{\x085{\x030}\xfb\xc3\x15\x0e9{\xfc\xc2\x12\x073{\x063|\xfa\xc4\x1f\x031}\xf0\xc3C\xfa\xc3\x19\x17@v\x042}\xe8\xd0h\xf9\xc3\x1c\x0e9y\xfb\xc2\x11\xfb\xc2\x18\xf6\xc60\xfc\xc3\x19\xf8\xc5 \xed\xc6X\xfa\xc3\x1f\xf9\xc2!\xff\xff\xff\x001\x80\xd8\x10\x00\xfd\xfe\xfe\xfd\xfd\xfd\x000\x7f\x001\x7f\x000\x80\xff\xc3\x0f\x000~\xfc\xfc\xfb\xfc\xfd\xfd\x000\x81\x001~\x001\x81\xfb\xfd\xfb\xfc\xfd\xfa\x000}\xfe\xff\xff\xfb\xfc\xf9\xfe\xfd\xfb\xd7\x0f\x00\xfd\xff\xfc\xf9\xfc\xfb\x000|\x000\x82\xfe\xc2\x0f\xf8\xfa\xfa\xf6\xf9\xf8\n8\x813Z\x96\x065\x7f\x032\x7f\x00/\x7f\x0c9\x84\xed\xf2\xf3\x0f=\x83\xf0\xf4\xf5Xy\xa7\x075\x82\xb9\xc7\xd7\x10=\x86\xd4\x11\x03\x14@\x86\x90\xa7\xc4+S\x92\x94\xaa\xc5\xf9\xfb\xf8\xf4\xf7\xf7Dh\x9es\x8e\xb5\xa8\xba\xd0\x17C\x87j\x87\xb1\x022}\xf3\xf6\xf5#M\x8f@e\x9c0W\x95.V\x928^\x96Im\xa0\x8b\xa2\xc1n\x8a\xb3\x043\x81\xfa\xf9\xf7\x18D\x8a]|\xaa\x1bG\x8a\xb4\xc4\xd5\x1fI\x8bTv\xa7z\x93\xb9\xac\xbd\xd0\xbc\xca\xd9\x00/\x80\xcf\xda\xe4&lt;b\x9ad\x83\xad\xfe\xc3\r\xe0\xe8\xecPr\xa59_\x9a\xcc\xd8\xe2\xe3\xeb\xee\xcb\xd6\xe1Zz\xaa\xd6\xe0\xe6\xdd\xe5\xeb\x9a\xaf\xc8v\x91\xb6\xa4\xb7\xcb\x9e\xb2\xc8Nq\xa2\xe7\xed\xf0(Q\x91\xe1\xe9\xee~\x98\xba\xc8\xd4\xdf\xc1\xce\xdbLn\xa2\xaf\xc0\xd3\xb1\xc1\xd4b\x80\xad\xc3\xcf\xdc\xdb\xe4\xe9g\x85\xaf\xd9\xe2\xe8\xea\xf0\xf0\xbf\xcc\xda\xa0\xb3\xcc\xa3\xb6\xceRt\xa5\x83\x9b\xbb\x1eI\x8e!L\x8d\xd2\xdc\xe4\x97\xac\xc6_\x7f\xab\x81\x99\xbc\x8d\xa5\xc1|\x96\xb9\xaa\xbb\xce\x9d\xb1\xcc\x89\xa0\xc0Gj\xa1\xe6\xec\xee\x84\x9c\xbf\xf4\xf8\xf9\x87\xa0\xbd\xd5\xdd\xe5\xc5\xd2\xdd)Q\x8d\xea\xf0\xf2!-i7\'\\\x93\x19$?%V\x87\x1a+\xe3\x85}\xddJ&lt;\xde^Q\xbc\x13\r\xc6\x12\t\xae\x18\x16\xd9&gt;1Q#Lh\x1f&gt;z\x1d2\xd5\x18\n\xee\xc2\xbc\xec\xae\xa8\x9f\x17\x1e\xba\x9c\xa4\xe0md\xd70!\xd7&amp;\x18\xf8\xed\xea\xc7\xc6\xcd\xe7\x98\x91\xe4zp\x134u\xb0bf\x91O_\xef\xd3\xd0\xb0:;\xf4\xdf\xdbv^|cHh\x87|\x99\x826\xf2\xce\x00\x00\x00&lt;tRNS\x00\xf9\t\xfd\xda\x17y\x01\r\x06?\x1f\xbd\xee,\x94\xb5\xf39\\&lt;f\xa4+\xf9\x11\x8b\xc5\xccSa\xa9\xefpm1\x83\xe1\xe3O\xfc\x9c\xab\x9a\xe8\x1e\xb2%\xd2\x04\xccG\xf5\xd7H\xc0\xbc\x17\x89\xfc\x82\x13\xd8\xcf\x00\x00 \x00IDATx\xda\xdcW\xf9W\x13Y\x16\x96E\x11i[mQ@\x9b\xad[\x91\x16\xc1\x86q\x9f\xd4\xa9\xf7\xaa\xa8J%\x95\xed$\xa4\x12\xc2\x1a\x03G\x96h\x80\xb0\x05rPP\x10\t\x8b\n\xb2+\xa0\xd8\xb2(.\x88[Kk\xffgs_BPg\xceLCL\x9c9\xf3~\x80\xd4\xf2\xde\xfb\xdew\xbf{\xefW[\xb6\xfc\x9f\x8c\xa8\xa8\xffIXq\x89\x81\xcd;\x1bZX\xa9\xc9\x81\xcd;\x97\x19RXY)\t\x01\xc5&gt;-)\x94\xa8\xc2S&lt;\x01E1\xd6\x93\x1cJX\xb1RnV \xf32r\xd3B\x99+\xe7$\xe9DB $\xe7\xa6\xc7\x85\x10V\x8e\'\xd7\x13\x80J\x12=\xb9Rj\xe8P%\xc4K\xb9\xb9\xa77?/\x19`e\x85\x08STxxR.\x8c\xf4X\x18\x89II\xa9\xa9\xe1\x1b&gt;\rLK\xc9\x0e\xba\xd0\xcf\xe4\x9c&lt;\x99\xf6\xf7\xf8t\x89\xc0\xca\x95$\x8f\x07\xfe\xa6\x9c\xfa\xab\xd2\x9bs2\xe7tVVr\xf2\x192\xcf\x93\x14\x17\x97y6&lt;;;x\xda?\x95\x92\xee!P&lt;^X\xde\x7f\x9e\x93\x7f\xad\xe1\xb84\xc9\xfb\xae\xe4;\x8eG\x92\xa4\xf4\xf8\x13g\x12\x82\x86\xebl\xb2\xb4\x06imx6\xb4\xf8\xd9\xd3\xb9\xff&lt;\xd23\xc2\x83)\xac\xd4\xf8\xcf\x17\x97\xcemL)\xe1\x19\xd2\x97\xa8\xd2N\x05Y`q\'?\xedp"i\xe3\xc7\xf1|\xa2Y\x92\x92\x13\x82\x9e\x89\xe1\x19\xeb\x1bl\xa6\x06%\x9eXG\x95\x92\x18\x8a\n\x91\xb8N\xd7\xa6\x1a\\\xc6\xba\xacBS\xe8?\xe9$e\x13\xb2\x85\xc6\xe3g+4\xb0\xd2\xbcI\xee\xcd\xf8\xc4@8\x0eM\xff\x89\x83\xf5\xa5\xb4\xc4,R\x856\x11\xc5d2-&gt;\xde\x13X\xdb\xda\x801\x85\x85s2\xb7D%\x81\x86\xe37\x9cQ\t\'H\xe9\x8d\x8d\x85\xca\x9a\x1b\x1f\x1e\x02X@S\xb2w\xdd\xcc3\x92\xb4\xe1\n\x91\x94+\xa5\x9f\x83ig\xc1|H\xb1\xc1G\x95\x9d\x92\x9e\xba\xd6\xce\xb2S\xe37\xec\x07NKi&gt;0\xd9\x19\x92\xe7\\\x08\x8c\xe9\xe7\xad9.g\x83Q\xcc\x8c\xcf\xf0\xbf\x19\x95\x14\x1f\x02q\x9d\xfa\xe2\xdb%\xfc\x0bXQ\xd1\xdb\xc9\x88\xfeWs\x90\xf8y\xb3\x89M\x0b\xdf\xf2-F\xd4\xd6\x1d\xfb\x0e\x1c=\x18\xb93"O\x8d9.lg\xe4\xc1\xfd\x87\xf6\xfd\xb0\xfd\xdfr\x97\x19zH?\xfft\xf4p\x04\xc7\x08\xd4\x17C\xad\xa0\xd8\x88\xc8\xfd\xfb\x8e\xff7&gt;\xbf\xb7\xef\xdd\x7fLM\xfd\x87\x81\xb9\xc8]\x7f\x8b\xfe\xa6\x98\xa2\x8f\x1c\r\x13(\x86\xf5C\xe0\xb0\x02cN)\x08\x0cC\xb1\xebw\x05\xcc\xee\xfce\xc77\xe3,\xe6\xd01\xc1\xc8\x90\x8d\x95T\x9e\x82\xb2M\xb8j\x97\xabF\xee\x97\x95\x95\xcd\x8cT-\xd7\xba&amp;l\x1c\xf6\x07\x96\xcb\x8b\xdc\xb6\xfd[\x80\xfay\x7f\x18\xe3\xe7\xa3\xceR\xbb\xf0\xcc\xac\x97#ZF\xd32\x184\x0c\x15o~6\xd2jq\xaf\xbd\xa3\xb8\xbegWL\xc8A\xed\xc6k4pm\x0f^\x95\xe8\x91\x0f\x8e\x0f\x90\xff\xb7\xf7\xaa\xa4\xb3\xa7\x8d];@Xh\x81\xc5\xec\x8fP\xc0N\x8cB]\xda\xd3U\xad\xd2\xe9\x01\x01B:\xbdh\x1f\x1a\x98\x82 \xce\x0e\x0c\xd9Up\r\xec\xc9h=2\xcd\xf7\x94\xfbN\xc1\xee9\x10\xb2PFo\xdb#\xf8r\xac\xf9\xb5S\'\xa35\x1a\x1a\xf1\xbd\x9dw\xaf6\x96\xd6qF#\xa5\xc0\x02#\xa8K\x1b\xaf\xae\xbc\xea\x15\x11\x92\xd12$:_\xf73\x842\xa5\xf2\xd8\xde\xd0\x88\x7fG\xa4\xf7\xe0\x0c3=%\x92h\xd1\xe2\xe4\xe8\xed+E\x9f\xd7\x84\xf5_\xec\x95\xf3\xaf{yoL\xe5\xb3\xd3\xbe\xfb\xc2w\xc7C@\xd5.7\x07\x98\xd4\x94\xeb\x16\x0f\x1a\xd2\xe9&amp;[\x9a\xeb0\xc7b\xa3\xa5\xaf!\x1f\x1eQE\xa3\x0b\x17\xd6+\x06{\x1d+\x9a[zU\xb4F\xa6W\r\xb88\xc2\x18\xde\xf3S\xb0\t\xfb\xfeW"_\\\xd4\xd8E\x98\xa2M3\xae\xc2:\xa2\xb2\xbc\xbe!\x11\xf1\xef\xc6\x80\x90B\x93j\xc9\x0f\xcb\xf6\xb2\xa1\x90Ub\xf7\xdbN\x93\x1c\xa2)\xef\xb2(\xbchwo\r*\xaa\xbd{\xbc\xbb\x95W\x98\x08(kE\xbd\xafnQ\xf8\xb1\xc10\xd32\xc0\x9b\x9b0S@\xcb\xd7\xd9\x9a\xd6\xde,\xf0&gt;7vT\x94\x90\x145U\x95\x13F\xf1\xe1\x1f\x82\x19@\xce+\x8e\xe9I\r\x92\xe9\xed-5\x94?\xf3\xdd\xbd\xe2\x03\xcc\xba_\xad.a\xb6\x9c6\xe4\xfbE\xb6\x80*\x80?\xe1Z\xa3\x9a\xe5.\xac:E8\xcb\xe4\x18a\x97\r\xdb\x17\xb4\xf6\xb7\x9b\xa0\xe2\xca\xef\x18h\r-.v@S\xf1\xb3\xd2\xaf\x9a\x84\x8a!\xb0\x1c\x06\x95#s\xa1\xef.\x93_\x82n\x00\x88\x06m\t\x00U3K\x0bZZ&amp;\x17_\x97C\xbb\xe2\xd4\x07\x82#\xb0\xad\xbf\x12\x14L\xd3\x1f uy\xf7\r\x8e\xc2\x95\xebe\xfe\xaa8\xb0\x9e|\xf5\xc8\xbe\x96\x96l\x1f?T\x07\xb5\xe49\xbf\x08\xfd\x89\x82\xb7\x9b\xbb\xe54\xad\x1bl$\xcd]8\x1a\x8c\x06\x1e\x13I\x8a\x15{\xdb\xa9\x97\xd1\xe6\xbb6\xca\xd86Z\xdd\xe7\xc7\xe2\x12\xc7\xbdL\x12\xb6*Q\x89b\x8d\xad\x11\xf1w\xb8Y0\'\x8e\xc1UA\xfb\x98\x82*\xb8k\x06\xe9;/_\'\xcf\xbf\xfb\xfa\xd2z\xfc0\tY\xdd\xef\xa2\x06\xa1G\xcdF\xa6\xa0\xb5\x84\xbf\xd5\xec\x87U/\xf2K\x0c\x85\x95\x8b\xcb5\xd8\x82\xc6}NGm\xb3\x8a\x16\x805\xa6\x9b\xb3\xc1\x81\xae\xe9t\xed\x13\xea&lt;\xcb \xe0\x12WI\x9c\xf1\xc1\xaf\xc5\x15s\xd8\x08\xcb\xd8FT4-:J\x19\xa6\xa1\x9b/\xa9u\xb3x-\x8c\xec\xa0|E\x10\xd8F\x83\xf9\x02\xbe\x81\x860\xc5\x00m\xeaf\xd4K8\\\xa4\xef\xa8)\xe6\xa9\x95\xff\x83\xb7\xaf\xb8\xd5\xc5\x8br\xe8\n\x0e\x92\x16\x8a\xef\xbe.\x8e[#!\xa1\x8c\xf9\xedp\xd0\xeaK,\xa5xn\xa8\x1e\xad\xa1\x94\xa5\xb7\xd7D\x8f_\x18\x9c\xbf=m\xe8V\xbd\xc2\x8a\x8b\xb4}\xbe\xec\xbec\xe1c\xdd\x03z\x1e\x9e\x17;\xf9\x8b\xc0Y\'\xfaPx\xb5\x97\xef\xcag\x14\x97\xccz\x19*+&amp;\x13w\x7f\r\xae\xed?\x12]\x15w!\x19\xb2\x8e\xc1N\xea\xbb\xdaw\xa5\xb8\xf0\xf2MS\xb3\xdfH\xacjy\x95V\xdb\xdd\xc6(\xdf\x8e[\xdf\x1b\xb4Z\xad\x05\xf7\x8bN\x8b@\xb5\xeaz\xdd\x14v\xf1\xa8\x01S\xe5\xb3b+\x879\x97\x15p\xcd\x13\\\xec/\x81\xe7c\xd4Q\x81d{\x17\x88}\xbc\x19\x83\x9e\x15\xb6G\xaa\x8a\xa6y\xd1z\xad`\r\x16\xc3\xf5W\xb5\x8f^\xb61\x94\xd2\xa8\xce\xcb\xab+\xaeY\x02=9\xf8\xf7\xed\x0e\xb38\xccR\xf9\x83r4y^\xc9U\x89-\x10W\xc1\xf2\x8e\xd6\xa0y\x12G\xe5\xb6\x80a\x1d"\n\xb1\xdd\x07Ou\xb3R\x98h#(\xa6\x91\xc9\xccwv\xb0\x9f5h\x16\xea\xd6\x976\x9eu_z\x88h\xf9L\x81\x82\xba\x86\xfe|\xe2\x14\xef\xdd1\xf1\x17\x89\x1c\x85\x89I\xb0\x1d\xed\x80\\`\x8f\x04\x88\xeaH\x04Q\xcf\x1d\xf0\'7\'\xb8\xb6\x87\x8fJ\xc9\xe5\x0c2\xb8`\x03\xae\xa1J\xb9\x16F&amp;\xaf\xc3\xd5\xfar\xb1}~j\xbe}\xe1M\xed\xc5\x9a&lt;\x16S\x8a\xa6\xb1F\x86\xc1O\xad\xaa\x1e\xeai\xbb\xc19\xf0\x82\x1cQid?N\xd22~\x94t\xfd\x9d\x81\x19\x8a\x98\x9d@\x820\x0cj\x9fk\xc4\xc5\x1f\xf8U/\'\xf5v\xfe\x81Zq\xc5\xc1\x9b\x1b\xa1\xbcSE\x1d\xbf\xbd\x1a\x17\x91\xcf\x9bB\x13@\x08\xa9\x86\x16.\xd7\xa8\x8b\xe0\x13\x04\x0eA\x0fb\xcc\xaa;\xedM\x84De\xf9h\x1b\xd74\x87h\xd50\x10\xcc\xfe\x18\x88\xec\xa3\x0f\xb2J\n\xbf5\xd1\x1a{\x03%\x8ch;\x95^X\xc6e\xed\xbb\x9aa+?\xdb\xc8\xb2\xf8B\xeb-^\\w\xca2\x8d\x86\xfc\x91\xd1H[]\xf6"\x9f\xa5\x18\xf7\xaaI,\xabW_\x7f\xc3/\x832\x95W\xba\xc5{\xc5y7\x9cH_\xed\x82k\xee@\x00\xb0\xb6Am\xc4\x1d\xe3\x08U\x9fW\xe0kr\xe4\xb0\x19\xbdA+~\x88\xac\xdaw\x0f\xc0_U\xde\xb1\x13+O\xbe*\xcc\x0fg\xef;\x16\x1d\xed\x1fzM\xbc\xd7\xd1\xd3\xf4\x9fo\xae\xc0\xb9&gt;\x96i\xedU+NU\x0fK]\xaf\x1cBfm\x99\x8d;\x0f\xaf\xcc=\x85\xe5#vl\xde`\x85A[-\x9c\xa2\x91\xee\r\xe6\x1e\x1b\xc6M\xf2\x0fmE$\xfd\x8cc\xa2\xa9\xaa\x94\xc1\x13\x0e\x03"N^;Xu\xb9\xb2\x00\xb3@\x1e\xa8\x1f\xe7[z\x16z\x91\x1c\xd0\xea\xdfW\xd4P\x98\xed{$\xf2\xaa{\xf9\x02\xee\x9fC\x0f?vjG\xea\xf0\x13\xb9F&gt;\x0b\xc6\x87\x89\xdcl\xb5\x8f:Ht\xbd\xa2\x92\xa1.7c\xb1Z-\xae\x12\xf9P\x13)\xee\x18\xb7X\x04\xa6|\xd5\xac\xd7\xd0r\xbe\xfbR=\x07\xd2\x16\x18\xf0,\xd0\xa5\x18\xacd\xb9"\xb6\xe9\t\x98C\x8dL,\xb9\xe4f\x99\x82\x9e\xe7\xad\xf9X\x98v\xaa\x0c\x95\\\xfe\xbc\xb6\x82u\x97\xd12\xfd2\'\xe0M\x87q/\x86Dk2\xd3\xb2\xf16\x8a[\x1ax\x8c\xa9\xcaA\x95u\xcc\xdb\x8b1V\xb8\x86\x10\xf1\xa8\x8e~\xa0\x88\xc2\xa5\r\xad\x153S\xdd\xcf\xba?\xccT\xb5^$\x1f;\n\xf7t\x19O\x8c\xfc\xad&amp;\xc1\xeb\xf1\xd9\x1e3\xdf\xab\x9d*f\xcb\xbb\r\xc3l\xdbM\x99\xccd\x813\x86}\xbf\xb9\xf2~\x0c\x14Zx\x0f\xd1\xda&gt;\x10:c\x03/\xae\xb8\xd0%V\x0f{\xe5U\xf0\x92\x87\xba_=\xf2\x11\xbe7\xb8\xca\x95{\x06Dk|\x9a\x87\xa8\xeaL\xb7\x96\x1bY%[\xd4\x0f\xfe\x9aF\xf6Zo\xfb\xbck\xe0\x1d\xff\xa0\xd4\xcaz\xdb\xb8\xae0\xfa\x92\xc2@\x808(\xda\x87"O\xa9\xf3\x16\xa0\x05\xf2:\xd7\xf7\xce\x0cf\x86\xc3\x99\xe1P$\x05R$%\x8a\x14e\x8a\xa2%R\x0b\xb5Xr$Q\x1b%h\xa3%j\xa3DY\x1b\xb5X\xb2\x16\xafZ\xec\xd8H\xfa\xd0&amp;\x01\x9a8F\x13\xa3ub\xa0\xfd\x1f=\x97\xa2e\xbbf@y\x9eHq\x96\xef\x9e{\xce\xf7}\xe7\x8c*\xee\x89K\x15l\xe7\xb8\x8fegD\xb3\x94p\t\x88;\xff\xdbw%RC\x9d\xcaH7\x04p\xa29\xbf\xe2J\x86\xacIpr\x91\x15 \r5\xd1\xd2o\xe3K2\xa3"\xb4^o\x1e\xd8\xac\xee\xb6\x95\x1b9vxB\xc2&amp;e\xaa\x8cC\x9d\x87\xfa\x92\xd1P\xd1\xa5O\xcb,u\xd3\xc6i\tKm\xf0\x10\xe1\xb3wQhj\xdd\x03\xeb\x98\xcc\x06x\xe1\xd1\xb5\xa6\\\x0f\xaa\xb59\x069\x14\\\x05\x1c\x8e\x9ev$\x97\xf5\xcc\x9a1\x93\xef\xc0\xe4\xf1&lt;x\xd1\xf2\xa4\x08 W@\xdc[\xbc\xde\x01\x84\xca\xd3\xe2\xc1\xc9t"p\xc80\x9e\x08\xa8\xecG\xef\x10\xae?B\xf5\x1a\xaa\xa0\xed\xca \xadN\'R\xb5;k\xe6\x91\xf1Q\xbf\xc19K0Ym\x01#\xda\x1e\x8d:\x9d\x03\xdd=\xe1!Ez\x0b\x1d\xc6\x87\x83\x90\x85[\x1e3&amp;\x0fcHnu\xac\x07\x05\x14\xe9\x10^Z\x0f\x891W\x81)|\x07\r\xca\x06\xeb\xa6\x03\xe3\x84\x9bkrX\x87t\xa9;w79Z=U\xdd\x13\xde\x08\xc8P\x11\xd0\xfd@\xab\xc1\x1bX\xad\xb1\xce\x7f\xd9\xf2\xff\xc8\xb0\xba\xd1(h\xa95\xb3E]\xebD\xec\xb2u"\xc6\t\xa7v\xdb\x9d\xc0\xf8r#|8{\xb8.P\x1e\xd8#\x8cR#p\x0bz\xb7\xadV=\x92Ag4\xce\xc0\xfbj4\x96o\xdd1\xbe\xd2e\x0e\x9a\xf9z\x03_\xbe\x95\x9cS\xc9\x9byf\xf6\xf8\x90\x1c\xb9[\xb5\xec\xec\xaed\xd9;\xfan@&gt;\xbdL\xa8\x11\x19\x92\xa4\x94rVN=\xf7)\xc0\xeat0L_?\x9a\xd1\xfd\x1a\x7f\xa0&lt;\xa8Z\x88O$\\\xc6\xc8\xea\xbe\x8c\xd8\xa6\x92\xd3\xbb\xcb\x86@s\xaa\xe2$_\xd8\x1d\xdfQ\xafG\xc5\xa7\xf9\xa5\x8f\xf5\xeeh\x91\xeb\xdb]\x1dw\xfb*\x90\xad:\xde\xc9\xbe\xb6\x1c?&amp;\x8e\x18\xfc\xe1\xfcY9\x8b\x8a\xdf\x03\t\x82\xc5\xbbw\x1dMl\xf1"Q\x14\xc9\xac\xfb\xf8\xf6&gt;r\x07 \xc7\xae\xe7\xee\\_\xecK\x8bD\xf4N7\xd2\xe7\x81\xfc:\xc1\xaa\xf6l\xfa\xd3\x89\x95\xc5\xea\xda\xd6\x983\xb3\t\xbc\x8a\xc5\x96!\xa5J\x93\xdb+_C\x85\xb8\x01\x91\x91\xaeP\t:\xe3\x90\xe9}\xc8\xed\x12(\xc34\xcf-\xeb\x1e_\xfd\x88\xee\xbd{\xbfv\xff@\xe0\x8e\x08\x93\x84,s\xed\x9d\x18,\xael)\x9b\xeb\x984\xec\xdb\xe8\xbe\x1a:\x14\xeb\xc3\xcd\x9e\xe5\xad\xe1kuG\xe1\xf8\xb1j1\xd3\xb8\x1d7Z\xb1\xda\xfd\xda\xa4\xd5H\x85\xda\xb6B\xb0\xa7\xcc\x88\x8c\x17\xcefh\xe0\x99\xf220\xa1O`\xaf\x8d\x11\xe9\x8b\xb8\xa3\xf9\x84\xdc\x07\xec\x0c\xf6\xc3\x8a\xb5Qw\x16W\xc9\x82\x94\x1b\xb5\x99\xac\xcbB\x16\x16\xce\xcd\xdf^\x9f\xc11\xa3\x8d\r\x16\xbc\xde)\xbc\x82U\x99YiA[P\xd2\x83\xa0\xff\x9f\x9c)\xe9\xdf\xa3r\xb1\xc2X\x0e]Pf\xe5G\r"\x99\x08\xd2\xe4\x91K\xc6\t\xb6w\x01\xa0\xfe\x85\x11\n\x8b\xad\n9\xd2\xfe9U\x02\xc1V\x1a\x9ai\xb8\xae\x99\xf2\x91\xd8=\x94\x81\xcei1\xe7ay\xb6f\xaa\x01K{\x82k\x0e\xe34\xac\x92;S\xd2\x7f\xc4"c\xa3\xce\xa8\x0f\xb2\x99\xc0\xdf\x9c\x0eI\xf6\xeaH1\x12\xe6-\x84&lt;\xb8m\x83\xa0\xdc\xb8E\x7f\x0b\xda;v\xd8\xe5\xba\xe6\xbdD"\xed\x1f\xf2\x17\xd3&amp;7\x1f,\xa9\xb6]\xee\x92\xb08\x0c\xe1\xe2\xf9\xd8\x9d\tI\x11\xc7\xc7&lt;%\xc6m\xc2\xe8)\x80\xf5\xc1Y\xfaU\xb8\xb8x\x12t\'\x98\x8b\xb8\xcd\xe9\x17EO\x94\xebl\xc0d\xbc\xe2\x0eXg\xf6~\x9a:\x9c=ir\xa4C\xd7\xdb\xaaEUI\x8bJ\x13&lt;\xd4\x97\x0f\x96y\xa6\x9c\x8dy\xb14\xee\x02W\xd4\x15\x121\xf1F\xb5Iq\xdf\x96\xb22d\x1e\xae:\xcb.~\\J\x93\xc7\x84\xe3\xaf\xfa\x06\xaeuw=\xc0\xeeI\x0c4~\xfb\xf0\xf4\xe26\x070\x90\xfb1\xae\xee\xb8\xc2\x90\xcd\xff&gt;y\xf2\xe4\xa9\x8a\xb7\x7f\r\x96\xde&lt;e\x13&amp;\x89I\xcd \xe1\x06V\xd2\x99^k\x0b\xea\x0c\xad\xf0|\x82\xc1qM\xe6\xf8?\x15\x86u\x9e2\x80\xceX\xe6\x81\xa0\xca\xb7j\x07\x9b\x90&amp;p\xedM\xa5\x9d\xc0\xfa]\xfd\xc8\x07\xe4`\x1c\xd6\x87\x8bQJ\xc4K\xcb[v}\xeb\x1fEEE/\xccx\x03`u\xe7\x93H\xfd\xa6u\x98/\x99`\xf0j\xbb\\#\xf6\n|TI\xca\xfcF(\xc2\xf70&amp;i\xc7h&lt;Csv\xeeCH\xdde3\xa3:9\xc1\xb7\xae*\xaa\xf8\xb0\x9bN!\x84\xfb\xd8$\xb6\x94\xba\xe3u\x90zM\xe2m\x1e\xb5J$~02s\xe7\xfa\xcf?~w\xe9\x85\x84\x87\xd8_\x81\xe5\t\x8ak.v\x90`\xb3Os\xafz+Q\xfd\xd0\xe5T`\\w\x167\x83,d\xe0\xe6\xef\x17\x1e\xbc\xd3\xbd\x9b"\xf8\xd0\xc6\xd5\x84\xa4\xf8\xe2h\x08+\xdb\xacQ({\x8cM},\xe7#\xf7\xe1\xf7\x88\x9e`\x91\xcfdZ\x0fn\x80\x90\x8b\xfa\xd5\x9f\x9eyM\x1e\x01\xc2\x98\x0f\xd6j\x8d"fX\xd7\x18\x83WX\xaeG\xcc 6\x8c\xed\xc7\xe2\\\x89\xa0\xcdaS\x18\xaa\xfc\xc3\x82=\xd0\xc7\x10,\xdb\x90\tO\xb1\xfc\xa85\xa3q(\x96\xbcj\x1d\xe0\x01\x0fCfx9\x8eo\xd0\x01N\x83\xa3\x04]\'\xc4\xde\xf9\xc5/\xdf\x7f\xff\xcbOWEGB\x99\x03k6|5\xcf\xb1\xd2m\xc5knn\x1e3\xd6\x94\x169^\x0bD\xc6\xc7\xa6&lt;\xa3-\x1c\x126\xcd\xcc\x18\xd0\xacP0\xb9\xfe\x00\xc1\x88I\x0c\xae3\xa4\xf4&gt;JE\x1c_%&amp;yy\x89\xc1s\xed\\T\xc7\x0b\x90{\xc5\xe3j\x14\x05AvR\xcf/Bb]\xfa\xee\x9f\xdf&gt;\xd5W\xe0\xe4\xbf^\xcas\xfc\xb0\xac\xc0\x92\xe4\x18h\xf3-\x830\xad8Bj/k\x13hc0h6\xe9;,b\x0bN.\xffB\x87yf\x868aC\x8eN\x8a\xb1I\xec\xe3\xca\x8f\x19r\x9b\x95\xa70\x9e\x00\x021\xfa-\x93\xac\xcb\x83\xc9\xc1\xcf\x14\xd6E8\x9e+W(\xac\x8bo\x1dE\x97\xbe\xaa\x03\xc2]\xea\xe77\x18\xbc\xcb\xa2H\x02\xecZc\xae\xc6\x9b\xf5\xac*\xd9\n1\xd7\xb9\xdf\x00,\x08\xb7\xbd\x02u\xe3\xa9\x1c,\xa5\xd78#bq\x00\x9550\xcce\xfa\x8e)I\xc2\x1a;mf\x06\xff\xf3\xf4Y\xe2\xd9\xd3\xe7\xdf|\xfd\xe2\xea\x08\x85U\xf46\xae\x8b_\xb5A\xc6\xd9\x03\xb66\x15\xeb1pZ\xce\x96\x8a\xd3A\xf9e\x06\x1f\xb1\x85s\xfe\xcf\xd4\n\x85aY\x02\x8a\x85\xec\xad\x06\xa3\x11iW\xf46c\x15\xc1\xebn\x04ad\x94N\xe0\xd3y\xb2f\x93\x9dV\xe6V5\xb8b\x90\x1e\xeb\xc3g+\xda\xaf\xc3\xa2\xef\x86:JA:\xa4}\x80\xe2\x96O\xcd \x1b\xc7\xb8\x17\x88\xf2\xd3\x02\xb0&gt;\x03mg\x81L\xc3P\xedU\xa2\xfd\xeepc\xf0\x8a\xdd\x13(\x06/\xb9\x88P5\xb8&lt;K\x0b\x9c\xb1L\xace\x88\x9f&amp;\xc9\x9e\\\xe9\x99B\xd9\x89W\x9eM\x04X\x19\x15\xce\x98\xe2\xe5!\x86\xec!\xe4\x1c\xab\x1a\x919\xee\x04\x1a\x8d\x00\xac\xa7\xb4@\x1f\xfb{JQ^\x86\x80 \xf2\x15w\xa1+\'\x12qt\xb3.\xe0\xd2\x1e\xc1\xb0K\xdf\x88uC\x19\xd4\x10\xa5\x05\x19\xcbF\xfbjs\xa8\xc4\xda\xec\x949/\xac\x1f\xf6)\xac!\xae?\x0c6\\0\xa6\xa0T\xd6\xb6\x83\x06\xba\x0ca\x1bc/U\xd9\x02\xfd\xe2\x05\xfa\xae\xc2\xca\x98\xeb\xe8E\xda\xf5^\x8fbMG\x05\x14\x84\xd4l\xe5\xca\xec\x14V-\xa4|\xca,]\x03\xd7\x14Y\xd0\xb3~Ku\xd4\xda\xb2y\xf8e\xbeM\xfcfX\x81\x93B\x9f\xf7\xf7`|\\\x8f\xdc\xadI/\xf8\xca\xf8d\xcc \xa0A\t[\xa9\xca\x160\x11\x1f\xc0\xddS!\x13\xd9\xcay\x10[e\xd6 CR\xe9;\xc8IM\x9d\xe56|/\x97\xc8\x11\x1d\x05\xb6\xd7\xad\x11\x8b\xc5\xbe\xe4,=\xa9\x8e\xbc\xb0\xfe\x1e\xa5\xb0,5\xc20p\xdfM\xa0fn\x11O\xcd\x12%\xb4p\xc0\xcf\xa8\x8c\n&amp;\xa2\xf4w\x85ikDgH\xf4\xcd\xf9\x1e\xd4\x92\xc3\xc5\xf9hh\xa4^\xb0^\x9a\x97\x84OT\\k\xac\x19)\x7f\xd99p_\xe6\xdb\xc4\xaf\x1f\xd1M\xc4\x19\xd9\t\xa99\x02\xe7ra\xbc\xe3\x8e\xeeYI\x12\x8d\x98\x19\x134\x90\x86\x02\xc4u\x1en~\x00&amp;\xbb\x89\x96\t\x8f^\x1a\xdd#\xcc\x8c\xb1l-\xf5\x07RZ\xa0\x15\xa4\xa6s\x0e\xa3\x9e\xe3\xb5zWe\xa0\xd2Uo(\xcd\x1b\xad\xa2\x7f\xeb\x14\xd6-\xees\xe8\xc6\xe96h\xf7pp\xe7\xe8\x90\xe8\xd3(\xa82\x96V\xd8\x96\xf7\n\xfax\x04\xb1\xc6\x8dH.\x9f\x0coFs\xff&gt;\x00%\xb8\x8b\xd8m\n\x8b\xcc\x96B\x11-\x9ag\x05\xa3\x91e\xdd\xcd\xfbU\xfe\xb5\x06E\x02k\xd7\xb0\xe6\x7f\xfa\xaf\xbf}\xfb\xe3%\xca\xb0\xff\xa3\xdc\xca\x9a\xda\xb8\xb2pRq\xb923\xe5\xcc\xc3T\xf2\x90\xe4)5SS\x99\x97\xf9\x03}\xb9\xb7\xbb\xab\xbb%ukA\x12%$@ \x84@\x0b\x08\xb4\x80\xb0d#v\x0ce\xb3\x831\x06\xb3\x19\x1b\xccb\xf0\xc2f\xbc\x04\xe3}_*\xceT&amp;5U\x99?2\xe7\xb6d\xc6\xc4I$\xdf*(\xa0J\xb7\xbf&gt;\xf7\xdc\xf3\x9d\xef\x9cC\xfa\x8b\xc2\xcc\xdd\x99\xa3\xb0\xfcV\xa7\xc4\x18 B\xe8\x05/\xee\x0b\x88\x96\x95.;\xba\xa80&amp;\xb8C\xda\xcc\xb0t-\x10\x8b\x9aQ\xc9\r\x05\x93\xc0\x89\xd4=^73}Z\xde\xabfS\x92\x93\xa38-\x05\\I\xe9\xc99Q1\xbfK\xcbD\x92\xc4\xa3?\xbf|\xf5\xe3\xbd\xef\x1f\xdc\x7f\xf2\xe6\x87\x17/\xca\xcb_\xdc\xb9\xa9\xa6\xce\xfa\x02Jj\x88u\x9e\x1b\xc4\xd88]\xc5\xc1\xb5Z62\xa6\xfe\xac`\xe5\x95\x8a\x8c\xa9\x11\x85\xe4\xb9+e\xd2@JC\x8d\x10\xe6L^\x1a\x16\x89\x82{\x0c\x13\x12\xad\xde~WG\xecW\xfa\xe9ED\xca\xd5\xad#\xb4\x0byA_ha\x0c\t\xce:KL.\xff\xe9\x94\xe0h\x94\x19\x9c\x04o\xcb\xe2\x10\x17\xe1\xc2D\xd15\x192\xa1\x01[J\xa9\xae\x1a\x98\x1e\x1d\xbf\x91\xca=k\x81\xc1\xfbM\xa4~\x940\x19\x97\x81\x96y\x17\x86)\xac!\x1e\xace\x08!\xe1\xf8\xf1a\xcf\xdb\x86\xe42\xf0w)\xc4\xaf\x83\x99]~R4`\x1f\xba\xaa\x9c\xe2\x85\x05%\x8ah\x1d\xe9\x8a\x999\xaf\xe1[U\x1c8\t\x16\xec4\x91S\xc7\x98,\xd7\x8dM\n+\xcez\xe0\xf3\xfd\x88\xddt\xeb\xb5o\xc5\xd9i\x80u\n\xae\xd0\xc1\xcc\x01\xa2\x13\x02D7J\x88I\x8e\xf5*\xf5a\xe7\xb2\x13\x01\xc7\x14\x0bl\x97\xeaF\x86V\xd8\xb3Y\xc63\xf3\xd9\xc2\xb25\xd3\xf6kP\x13\x05X\x87\x91PZ\xd5\x1c\xb6\xa6\x05\xb6CV\x83\x91\xe6\x9b\x0c\xe1\x14\x98\xc0gd\xf0$JJe\x0b\xd3\x83\xc4\xb5-)\x8bh\x860\xb2\x87\xdfLI\xd5U\xe0\x99\x02\x1b\t\xb6e\x0bK\xee&gt;o`p\x8b\xb6\x13`\xc5ta\x97$U\xf6\x9c\xbc\xda\x12\xb3[\xd1\xa6\xcc\x98 \x18\xb1\x19\xc2\xe9_\xe1-\x1a\x8c\x06\xd3\x0c\x1c\xa5,)f\x89(\xb2-\xc9\xd6\xca\xd8X\xc7.K*,\xaa`\xad[\xe4\xf2z\xb6\xb0L\xc1\x05p\xd7:\xdd%\x82%\x0f[2=k\x93L\xa2$+\xb6U6\t\xfa\xb1\x01`e(\n~\x0e\x01\xb4\xb0\x921\x8d#\xdfH\xfcj\xa8\xffp\xb7\xaf\xc6-\xa0\x06\x11K\xfd\x1a\xb6X}\xca\n\x1dz8K\xe2~\x9c%,\xbc\x16\xc2f\xc8\xd3\xe2\x18\xf7\xf2\xac\xc0\x16\xd9cm\xf2\xfc\xb1\x88\xb2\xc1\xb5\x9a\xf16\xed|f\xa0\xea\xbf\x836\x16\xce\x1b\xcc\xeb\xc2^\xc5\x80v\t\xb4\xa3\x18{9\xb6I\xf5\xf9bZ9\xae&amp;\xde\rZm\x06\xb2\x93\x14\x02\xc4(\xcb\x10\xb3\xb0\xfa\x97\xf7\xd6V\x9d\x8c\'x4\xcf\x98\x9b\xd2&gt;\xd5&amp;6\x0b\x85\x17\x1bu\xeb\x90\xee\x82\xdf\xf0\x19\x12\x9b\xcf\xe0\x80\xd8&amp;F:\xabKs\x8b\xbbk\xe8Z3\xcbOCN\xa2AA\x15\x96\xc5\x03\x81&amp;\x8e\x87\x96D\xf1_/_\xd1\xb8y\xff\xc9\x93\'\xf7\xef?\xf8\xfe\xdf?\xbez\xf9\xf3QQRL\xd2\xdb\xe2\xb3\xba\x14\x9f\x0b/q\xf6\x08#-\xa5\x8bn+.\xc8\xe0!y:\xcb\xe02\x887\x872\xe8\xea?|\x02\xd7"\x8e\xcdj7\x9c\xd3qG\xca\x8cD\x9e\xf3Y\x87\t\xb6U\x80\xaa\xa0\x0f\x11c\x1cb\x13\xd2\xc8\x7f\x1f\xbc)\x87T=M\x83*\xd9\xc0/\xb9\xe5?\xdc\x7fp\xefG\xd0C"\xa1\xd9\x1a1\x81\x18\x9ci\x92\xea\xb9*\x90\xf9\x9b\x10A\x0by\xde]\xd9\xa3\x9e\x06W\xcc`/\x18\xe0\xabL\x12\xe3\x00-\xb7\xd2x\xcas\x1d\x9dW\x85Iq{cZ\x9e\x10\x1c\nC\x92\xc8\xba\xa2\xba\xca$8\xe0\t\xf9\xc2\xb3_\xe3\xe5w\xa4\xc5\x8b7\xd4\x80\xf7\xe8\xfaOp\x902!\x8e\xd8\x11;\xe8\xea;y\x1d79\xad\x82\x1aMqW\x07\xca\xfb6\x13\xac\x7f\xc0A\xc7\x00V\xbf\x16E+#\x9e\xa04\xcd\xa3\t\xb1\xae\xf08\x83\xa7\x85\xa2`*E\x81\xf7s\x88\xeb\xcfr2,J\xd4`&gt;\xf8\xf6\xb0~\t\xe5A\xce&lt;% g\xbe\xa2\x98\xcdX\xb2\xccN\x9f\xe3[\x08\xdcp\x1e\xf1\xdfd\xacn\xd1\xf6\x85\xcb\xc0\xf85\xec5i\xa2"\x08\xe9\x956D\x12p\xb0\xc4\xd6 \xd4TR\xa7\xbe\x06B\xb8A\x1c\xfa}k\xed[\xe5;\x8d\xba*H%\x93\x90+\xd9\x1d\xc9\xa5\xb6\x95J\x91HCz/1\xb8@Iud\x9c\xbc\xf9#m\xe2\xc0\x8d\xbbQ\xc4\xaf\xcaU\x90\xd4\x96!!\x08@\xea\xc0\xdcW9\x9e\x8a\x0c|\x01`\x85\xb7\xfd\xcf\xb3\x87\x95\xfb\x94\xd5\xad\x11\xc6\xe5D\xee0\xbd\xd9l\xb80z8X\xc5\x1e#\x86vx\xe0\xc7\x19\xc5\xfe\xa7 \x14\xd1\xb0\x99\xb14s\t\xb9+\x9c\x94\xe7\x05G\xaf\xd2\xaf\xe5\xcf`&lt;f\xd7/\xe7\x03\x01\xd1\x9d\xd8\x81\xf8\xf3\x9c\xeca=\xd7DA\x08\xacjPr,\xee\x10hg\x1eD5\xd7(\x81r\xc9\xc6\xe3S9D\x1d\xc8\xea\x90\xb690P\xe3\x95\xd7\xd8q\xb9\xa7\x00\xa1R\x89\x91Bz]\x1c\xccu\x1e\xd8\xa7\xa8}\xfcn\xf6\xd6\xcay\\4D\x0cF\x1f\xcf\xb7\x19\x15\xcb\xc0\xb5\x98\x96\xa6\x10|\x17\xa4&gt;\x0e\x08\x13Y\x14u\x0f\x82)\x841\x0c\xe1D\xe3\x17\x03FK\x0b\xaa\x19\xa9\x80=\nf1&gt;\xeeD%\xbd\x0c\x13\t\xc3\x96\xeb\xc1\xdd\xecQ\xe5\x94\xff\x04\xfay\xaaC\xcb\xda\x17\xd7"D2\xde\x18\xf7\t4@2[T\x98f1\xd4\xf5\x19\xdc[\xabWa\xf2+\x90\xdb\xff\xddXP\r\xab\xee\xd6e\xf6\x12\xb0\xea\x12\xcf-Z\xb0L{H\x97g^\x7f\x00\xac\xdc\xdb+\xd8R\x87\x84d\x12\xe9&lt;\xc9&amp;\x1b\x9dG\xe0+\x8eB*\rW\xecP6\xbd\xf4\x03&lt;\xe2:\xe9)\xb2\x02o\x15R\xea7i\\\xd3\x17\x820\xcf\xf7!\xfd\x90\xc9\xd8\rt\xd4u\xe2\xf1\xbeX\xa0\xae\x9c\xdc\xdf8\xd8\xdcg\x17L\x0b,\xf2\xf4\xbabH`\xb9\x9a\xd0|\xfe\x92&amp;D\x18\x13\x95X_d\xd5\x1e\xa3sj\x83\x8c\xb9\xc7\xfa\xb6b\xcd\xa1\xf0MK\x95\xa6\xd6\x82\xc9\x197\xeb\xec\xb1\x80|\xd1n\xd6?R\x9fGc\xfb\xa3\xc7\xbbwa\xed&gt;~\x98\x92\x179\xef\x81\xcb\xbd\x9b(n\x84OMI\x03%\xea\xf8bGC\x83\xbe\x0f3c\xc0\xd3lVM2z\x8a\x9aq\x8c\xc5\xeetb{\xa9\x94E\x0e\xdb\r;\xbb\x0e\x92\xe8\xba\xc0_\xecM\xc0^\xbe\xe6rU\x04\xee&gt;\xbd]Q\x9b\x0c^\xde\xd8\xb8\x1cLV\xdd\xda\xb9\xf3l\xf7\xe1\xfb6\xcb}\\\x15\x82\xfb\xa7\xf5\x0cH\xd5{\xa3rF,/\x01a\x1c\xcan\x1e\xe2k:\xb2`#\xa4\x1a`u\xf0h92Z\xa1C~\xa9\x95\xf7\x0cJ\x86\xc0\xa2\x96w\xd0R\x96s\x07\x82\xf7\xf3\xdb\xb1\xe0\xf4wRj\xa4\xd9@\xe73\xf2{FB\x8e\x9d\xa7w\x1f\x96\x97\xef\xc3Vn\x0f\xeb\xe8$_\xaflL\xa8\x8e\xc1\t\x0b2\xce_\x86\x1f\xff\x9c\x15\xaa\x8f&gt;\xe78\x1d_\r::\xca\x1dIT\x0by\xe3\xa2_\xaf)\xe9u-s\x9d6,\xb9\x1c\x1a\xab\x17\xd2\x9d\xf0\xed\xd7wn]\x9fU\x88\xe1\xbd\x9e0q\x95\xb5\xd6\x03\xb4Gi\x02R\xcd\xb5\xa3\x16\x8e\xbc\xe2\xd4\xd1\xcazJ\xd3|\xb3\r\xe36\x9a\xbae\xd9F\xff\xf4\x10|\xbe[\xc4x(O7\xa1\x9cB\xce\xd9|\x87p\xbaO^\xd3k\x12\xa2\x81\xf4\x9e\xd6\\\xa1\x83\xe7\x9f\x9ch\xb7\x90_Wd \xc5\xa4\xe2\xa9\xc4\xad\x9dg\xbb\x8f\xf6\xae"\xf5\xd4\xba\xc0\x80\xbb\xd58\xd6Ha\xf9!1\xa5\x83\x8d_}\x94\xe5\xfa\x92v\x95\xda\t\x98\x8b\x8d\xd9f\xdd\xd6S\x81\xb3\x97+\xc5\xca\xeb\x85\x02\xb7J\x18C\xaf\xcf\xab\xe7\xa8v\xcc\x90\x9db\xbc5\xccZw\x9e&gt;\x7fMo\xc2S\xfdF\xd9\x95\x1e\xd2\xc2\xb2\xd5\xe2D\x01b\xa3\xdbX\x9a\xa7}\xad\xac\xbb\xc2\x7f\xfa\x18b\\\'h\x92jV\xef\x15\xc7\xad\xd63D1\x96\x9d\xd6\x00_\x1c\x9921\xcch\xbb\x1b^}5S\xcel\x16\xfdN\xa1\xa3\xbf}\xa3\xdf\xf1\xd3\xce\xed\x9d\xfa\x80\xd9L\xcc\xb6\x81\x93\xe3\x11\xa3\x17\x15\x9d\xc4X\xa9\x85\xb7;\x90}\x0f\xfd\x0bx*\xdf\x84\x190\xb2g+2\xd9\xa4\x90\xb1\x16k\xaa\xc5\xea\x06\x1a\x97\x8cQ\xd8\xafu\xec\xf7\xe5\xabt\xfe\xb0\x8e+\x1c\x17\xb1\x1c\x88\xd3A\xe3\x8a\xaa\xc4\xea\xfc\x1c\x81\x10O\xa4\x11\xae^L5\x01\xf9\x0f\x18\x8f\xfd\'\xf0\xb5&gt;\x16\xc0\xa6\xbe#\xda$\xec\x92\x1f/\xd9\xab)\x15\xac\x89\xd8T\x0b\xb8\xfb\xbb\x83s\xbfy\x8e\x18\x17\xb7\xda\x91\xbe\xa1\t\xbc/\xb0\xb4\xd7\xa2\x16\xac5U!\x7f\xd9\xb1\x86\xc23\x98\tP%\xf6\xb7\x0f\x99\x96\xfaV\x8b\xb8&lt;?$\xbdA\r7A\xda}:\xee\xff}\xa9\xb0W\x14\xe9\xc8b\xed\tT\x02\x16\xdb_\x1aI\x1f\x9fit\xbc"/O(\x1d\xc5\x8c9\xff\x9c\xfe\x9d\xc6+\xcfj\xd8\x0ekQ\x10\xd8g\x95\xc6\xed\xbf|\xd0\x04\xa5:\x9f\x01\x9bFn\xb1\xb1Ra\x7f\r\xaeh&amp;2\x0c0/&amp;t\x9c\xe0^l\x8b\x10\xb0\x99ao\x84\x0b\x13R9]\xea\xb6r\xbc\xaf\xcc(1d\xb4V\xaf\xfd\xe5?\xdbh\xa3.B\xb6*\x04\xa4\xf9\xfa\xc3&amp;\x17\x0f\xd2 C\x07\xad\x80m\xd8_\xee\xca\xc7\xae\x80\xb5\xec\xc5\x1b5\xea\x00\xf3d|\xa2\xd8\x92\x1ex3\xb9nz\xff\xd7\xce\x9555\x91E\xe1P\x04\xd9\x04Qj^\x94\'\x1c\xcb\xc2\xf2\x81*_\xd3\xd5\xdd\xb7\xab\xb7\xd0!]Y\nBV2\xa4\x02$\x81\x84EH\xa4"\x88\x10B!`\xc0\xb0(\xb2\x08\xa2,J\xb1\xc8\xe8 \xc8?\x9b{o\x82\x04\xb0fF\xb6\x99\x879\x8fT\xd1}r\xef\xb9\xe7|\xe7\xdc\xef\xebg\x0e\xab\x86\x10\xbe\x8dWBo\xcbj\xc2\xf4I\r\x90y\x0f6*\x10\x96\x13\xd6\x9fdpe+Qg\xd6#\xab\xf8\x10s\xe2\xa9jz\x13\xad\xff$\xb53\xde\x1e\x01F\x98}\r\xe1\xaa`w\xac{f0\xdcD\xd0\x0c0t\xcc\xcca\xb2\xbf\xfd\xad\xf8\x03e\x92\xf0\x156\x0b\xb3\xe0\x9f\x16\xe9#\xe0\x19\x05\xa8\x7f\x80$\xb5+4H}&amp;\x1a\x96\xb1h\xack\x84Q\xab\x93\x16\xbfF\xcdV\xc0\x00QM\xb0\x0c\xe2\x03FXG\xb0\xfe\x8bNV\x91|\xc5R\xa7\x00\xa3\xd2\xfc\xc1\x9c\xfa\x08 L\xe8U\xd4\xb0\x1fv\x16\xf7\x7f\x9e\xd5\x8ff\xce\xac\x0f\x16\x08{[\xea/\x066\x88\x01\xe9M\x16\xf3o\xd1\x91\xe3\xe5\x9d\xf7\x9b\xfd\xbe\xba\xb0\xcb\xe1\xe8|\x18\x0c\xd4\xbf\xae\xc0\xa3\n\xd2\xf3\xa9\r\xb3#|\x03\xda\xc9\xee\x14\x9d\x19\xa8\xb3\xebTZ\x1f\xfb\xf7\x03\x91\x1f\x96 \xac\x08\xd9\x821\xb3\xd0y\x18\xab\xe1\x1a\x8f\xbd\x81a6l\xe8\xc6:\xba\xec\xa5\xc8\xef\xc3\xbf\xf2\xf2r\xea\x80h s\xfb\xb5/\x134u\xb7\x1d\xe2\x8e\xcaC\xfa\x8b\xc6\xbf\x00O\xf8\x14Z\xbe{\xa7R\x1aa\xf5S\x0f|\xd5\x90\xeb`\x0f\xe8^\xd8"\xf3+l\x7f\x1d\\\xcbG\x1f\x19W\x7f\xd7\x8eN\x96\x8ff\x07I\xb6\x7f\xea6%\x87\xc1jtO\x041e\xd2-@\xb8^C\xaff\x9b`0\xdc9\x9d0\xa3\x18\xe2?\xc1\xf4\x1c\xfe\xd8i[\xd2-7\x1ee/\xd3\x9f\x83p\x7fV\xa2\x88\xf8c\xf3mt\xbd\xd2\xa3\x8e\x1e\x9aN\xae\x18\xed\x89G\xcd\x87\xa7W\x1dE\x1do\x993yp\x04[/L\x1aCh\xb1\xd3N)\xcb\xc8D5H\xf4/@4\xd5\x9b\xf4\xcbV\x89G\xd9b]?\x8c\xb7v\xe7\xf7\xe4mz\xd9:\x11{\x1c\x9bhm1#\xa2&gt;\xdbt\x98\xeaDX\xf3\xc9\xa1\x83\xab:S\r\xaf"G;\x11\xe5\xa9XqJ\xcb*B\xcb\xd12,\x93\xf2\xbc\x0b\xff\\a\x13\xee@\xf5C\xd65%\xba\xdb\x1e7`"\x96\xcf\x057D\xd4\xd0F\x04\xf3\x00\xc2\x16\xc4\xea;\xffa\x88\xdb\xb6z\xfeH\x92~"\xaei\x9e\xa4\x86QE\x05%\x8aS[\xc6\x1d#|^\xdd0L3}\x1f\xf0\r\xb1\xe5QMc\x15K4-\xd7n\xbd\xf1\x85i\xc0&lt;\x99\xe3\xc6\t\xb6u#^\xa7&amp;\x80\xb9{\xeb\x8d\x8d\x15M\xc3\x9c35\xa7\x0bb\xb2\xeet\xf6q$\xf5\xa5\x8d0\x12\xe0LD\xfe\xfc&lt;\xe8\x0c\xf3r\x00\xee\xc3p;\x8eZ\xb5 `\x1aP"VVz+)\xca\xc9\x86\xb4$U\xe9$\xdckZ\x99\x1f\t\x1bB\x94\xf4\x02\x9c\xcc\xa2b\xd5+\x19\xf6\x9auH#Tz6\xd9\xc3\x8d\xeb\x88\xac\xfdd\x17\xfa\xe5\xed\xb7\x1c{\x17\x10\xde\xdb\xc7x\xce?\xa8_h_\xf7\xd8\x1d\xab\xda\x17msd(\xce\xedq\xa3\xc2\t\xbf\xe87\xcd\xb0b\x8e|D\xeb\xa6&lt;\xab:\xea\xc6u\xc4\xc0u\xa3\x98\xe0\xc7\x1c\xc7\xd5\xb7-M&gt;\xaaO\xf3\x94_\xa5#{Rw\xac&gt;L\xaf\x93KK{\x8e}\xae\xe5x\xc1\xb1-q2\xc9\xef\xf9\x11\x94S\x9e]\xae\x98\x83\xf8\xe9\xeco\x10"\x93\xfcB\xeb\xf1\xba+\xfeN\x854\x1b\xba\x06\xc0\xd4\x90Oi\x01\xcc\xacy\xdb\xdbLl#\xd7\xaf&gt;\xeaUt\x11&amp;\\n\x1c_\x8a(\xcfCIv\xfb\xbe\x01m\xd8\xdbfIEr\xf5\x8e\xa3\xb5\x97\x19\xe2&gt;\xb3A\xfd\xb4\xe9[5\xb9\x01\xd4.\x8f\xb6\xeb\t\xe27H\x8dG\x08w\x8eZ=\xa9\xa2\xbc\x01\xfc\xcfE\xe7\xa3o\xcbUb\xe6w\xdb.\x0f\xcb\xcb\xf0\xbaE\x93\x126a\xbd\x17.@\x8f\xd6\xeb\xf1\x92\rj\xc2\xe6\x0bx\x06 \x92m\xd1NZ\xbe#\x0f\x8d\xe51&lt;\xcb*y\xb7\n\xbbZp^\xba\xce\xac\xab\xb8?7m\xea\xcbII\x1a\x9a9d\x8f\x82XYM\x84`\xd4\xdd\xab\x13\xf3\xd43\xc4M7\xf6\x96\xc5\xd0\x0c][\xc5&amp;\x95\x87(\xa8\x9f\x00\x00\x026IDAT\x1at\xf0\xb9\x043\xb2\xbe\xd6D#\xc1\xc1\xb5\xf3\xd3Zg\xdfL\xc7}p\xb4O\x8bH\xfb{\x13\x16\x90(/`\x89\x8c\xd3 :\x15%\x1c^\x8f\x7ff&lt;H3\xd3\x92\x13\xb1V\xe1\xdf\xf1\xf1\xb3\xcc\xcc#\x02!\xbf\x16\xb5b\xe5d\xa1\xe2&lt;\xedn\x1e\xee\xd0\xcd\x8f\xf6\xd1\x94\x92\x1f\t80&gt;\xa7\x17\xa5\x87\x00\xc4\xb85g\x97v\x99pj\x17\x9dS\xfawn\x1a"\xa2\x17\xadjBC8\x02\xbb\x14Be\xfb\r\tn\xaa\xf2\xb6\xe2|-\xf7*\x1a-\x8a\xb4;\x84\xa6\xba&lt;\xef]\x0e\x9a\x19\x9a1Ga\x14w\xccq\x92\xbe\xd7\r\x1be\xbd\xa4\x9d\xf4\xe1\x85\xd5\xd0\xb49\x08\x81\x0f\x85\xc8\xe9\x9b~\x83\x86\x10\x19\xb6\xe4\xfc\xe5\xc2\x99\xbf\xe4%\xeeZ:7\xab\xd1\xb8\x99\x94\xecc\xb1$P\x07\x83N4\xdea\xd9o\xeb\x13\x89\xf2\xc7\x84\x9dc\xef\xb4TB\xfb\x99$\xe7\xdey\xa0\xb8\x08\xcb\xb8\x97\x9ex\xbe;\xbe\x80\xa7\x0f\xf0\x00\x8cl\x07\x06\xddpe\x18\x1a\x1b`"\xac\xc1=\xf8v{7\x89\x0f\xb9\xd1\xa7n|@\x98\xb4\x8bSV\xe7\x14\t\x98\xb6#X&gt;76\xc3\xce]U\xae\xa3dJ\xaa\x1e\xea\xda\x0eM\xc5\x1b\xe2[\xa1\xed\xb9\xe7\xf62\x1e\xb3\xc1\xc9r]sc\xb0\x03W!\x96-\xc8W\\\x9ce\x16*E\xa0F\xe5\xdbh\x83\xbbD\x95#K\xb0\xd0%\x88R%\x89:l\x17\xf7\x1b\x9d\x0e\xd6\x88\x11)\xb8\x95\xa3\xb8X\xcb,,\xb5\x1eP\xf1\xc5\xf6\x86\x9e\x01\x8f.\x95)\x9c\xb8\xcf\xd7\xbf\x9a\x8d\xb7w\x1c\xe4S\xc3\xd5\x8bv\n;\xf6\xa0 =\x82_\xa9\x86hL\xf4\xfb\x02\xa1O\xd3#\x93\xde\n}\xc5\xce\xe4\xc8|c(\xe0\x0b\xb3b\xf2\xd3\x0b\x06\xe3\xf5\x92\xdb\x8aK\xb2\xdc+\xca\x94\xa6\x96\x16\x04Q0h@\x13\xb0Z\x19\x1a\x18\x05\xe1\x80\xe0\xcf\xa6\xdf*\xceP\\\xa2e\xe6\xffZ\x9a~\xb2\xdfN\xad\xcft\xda\xad+\xb9\x8a\xcb\xb7\x8c\xc2\x12\xa5\x91e\x7f\xe0\x9cA\x93Vt\xedn\x96\xe2_\xb3\xac\x9c\xe2k\x05\xca\xbc\xf4\x88\x95F\xb7\xbc\x02\x9b\x9eWZp\xf3/\xbe\x18s\xa9[\x9a\x9d\x91\x7f\x03Y~F\xf6\x7f\xf3+\xad\xff\xdb\xe5\xdb\x9f\x87Ii*\xde\xc4\xf2\xcb\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\x00d7\xbb\xd6\xca\xb3\xd1\xc3\xfd\xfe\xfe\xd5\xe6\xde\x01e8\x11nD\xe5\xf0\xeb\xf7\xfa\xf9\xde\xeb\xe6\xfc\xfd\xfc\xfa\xfc\xfb\x06h&lt;\xa8\xcb\xbb\xf4\xf8\xf6\x9e\xc4\xb3l\xa6\x8c\x0bk@\x04g:\x18sJ\xf9\xfb\xfa\x15qGA\x8cj\xef\xf5\xf2\xfc\xfd\xfd\xc4\xdb\xd1Z\x9b~\x1buL\x93\xbe\xaaK\x92r9\x87d\xf5\xf9\xf7\xf0\xf6\xf4p\xa8\x8f\x03f9\xb9\xd4\xc8\xc9\xde\xd53\x83_\xe5\xef\xeb\xe8\xf1\xed.\x80[+~Y\x0emB\xc6\xdc\xd2\xec\xf4\xf1\xeb\xf3\xefb\xa0\x84\xf3\xf7\xf5\x07i=J\x91qy\xae\x96\xfd\xfe\xfdC\x8dl\x9b\xc2\xb1\x84\xb4\x9e\xab\xcc\xbd\xe0\xed\xe7\x0clAj\xa4\x8a0\x82]%{TL\x93s!xQ\xc1\xda\xcfR\x96x\x1dvNF\x8fnY\x9a}\x7f\xb1\x9b\xa0\xc6\xb5\x8e\xba\xa6\xb7\xd3\xc6\x95\xbf\xac\nj?\x81\xb2\x9cn\xa7\x8e\xcc\xe0\xd7\xf7\xfa\xf8\x88\xb7\xa2H\x90pW\x99{`\x9e\x82\xd8\xe7\xe0g\xa3\x88\xca\xdf\xd5\xce\xe1\xd98\x86c\x1fwO\ti&gt;\\\x9c\x7f\x9c\xc3\xb2U\x98z\xbf\xd8\xcd\xaf\xce\xc0\xc7\xdd\xd3\xb2\xd0\xc3\x82\xb3\x9d\xcf\xe2\xda\xe3\xee\xe9\xe9\xf2\xee\x01d8\x17rI\x99\xc1\xaf\xfe\xff\xff)}W\xdd\xea\xe4f\xa2\x87s\xaa\x915\x85a{\xaf\x98q\xa9\x90\xd4\xe5\xddr\xa9\x90\xdb\xe9\xe3;\x88e\xbd\xd7\xcbT\x97y\x13pF\'|V]\x9d\x80&gt;\x8ah\xad\xcd\xbf@\x8bi\xba\xd5\xc9\xd3\xe4\xdc\xbe\xd8\xcca\x9f\x83\x91\xbc\xa9\xa6\xc9\xb9#zSN\x93tP\x95v\xd0\xe3\xda\xa5\xc8\xb8\xa2\xc7\xb6\xd8\xe8\xe1\x8b\xb9\xa4}\xb0\x99v\xac\x94\xb5\xd2\xc5\xda\xe9\xe2\xe2\xed\xe8u\xab\x93t\xab\x92\xa7\xca\xba\x02e9\xa3\xc7\xb7\xf8\xfb\xf9\x97\xc0\xaeh\xa4\x89\x86\xb6\xa0\xb0\xcf\xc1k\xa5\x8b=\x89g\xe1\xed\xe8\x8c\xb9\xa5\x8f\xbb\xa7E\x8emx\xad\x95d\xa1\x86\xae\xce\xbf\x85\xb5\x9f2\x82^\x8a\xb8\xa3\xfe\xff\xfe\xc3\xdb\xd0\x87\xb6\xa1\xcb\xe0\xd6\xfb\xfc\xfce\xa1\x86D\x8em\xb4\xd2\xc4\xf1\xf7\xf4\x90\xbc\xa8O\x94u\x96\xbf\xad\x14pG\xe6\xf0\xec\x90\xbb\xa8^\x9d\x81\xef\xf5\xf3\xd6\xe6\xdf\xee\xf4\xf1t\xaa\x92\xd2\xe4\xdbb\x9f\x84\xd9\xe8\xe2\xf4\xf9\xf7\xbb\xd5\xca\xf4\xf8\xf7y\n%\xa0\x00\x00\x00AtRNS\x00\xee\xf5w\xc6\x04\xa9\x02\xfd\x01U\xdc\xaf\x9b*\xf2 KRE.}\xe88&amp;A\xb0r\x1e\x17\xd5\xb3\x85H\xa1\xe5\xfa\xbb\xca\x88\xb54\x1b\x98&gt;\x06\xce\x81\xbd\xd2\xfba#m\xe0\xeb\xdf\x0b\x0f\xb6Zk0\x92\x08\xfe*\xef&amp;\x00\x00 \x00IDATx\xda\xc4XwTTW\x1aWTDS0\xb1\xc4\xb8{\x8cI4\x98\x9c\xc4=\x1a\xffJr\xf6\x9c\xdf\x1d\x9e\x83\xc0\xa8C\x19\xda\xd0a\xe8\xd2\xab\x14\xa9"R\xa5\x08R\x04\x04Q\x8a\xa2\x12\x02\x18\xa4H3\x08\x82\xe2B\xcc\xa2\xa2\x11wq-\xab\xc6D\xdd=\xbb\xf7\xcd\xcc\x1b\'\xceX\xb0\xe5\xfb\xe3\xcd\xdc\xfb\xde\xfb\xee\xef~\xdf\xef~\xe5M\x99\xf2\x822c\xf5\xdc/\xa7\xe9\xbc\xa5\xf9\xe6\xf2e\xcb\x96\xbf\xa9\xf9\x96\xce\xb4/\xe7\xae\x9e1\xe5\x8f\x93Y\x0b\xbfY\xb2\xe8\x8dUP#\xab\xdeX\xb4\xe4\x9b\x85\xb3^?\xa4y\xd3\x96i\xcb 0eWv\x15\xa4\x07\xd4\x18UW\x1b\xd5\x04\\.\xd8u\xa5\x8c\x91\xdd\xd1^6m\xdek\x84\xf6\xc5;\x1f-`\x97\r&lt;\xd8~\xc16r\x1dQ\x91u\x91\xb6\x01\xed\x07\x03\xd9g\x16|\xf4\xce\x17\xaf\x03\xd3\xcc\x0f55\xe8r\x82\xa2\xe48O\x16\xc2ik;\xb1ci\xd2\xa9\x8b\xd7x\xbck\x17O%\x95:\xc6\xdbY\x9ff\xefx\xc6%GO\xd0G54?\x9c\xf9\x8aA-\xd4a\xed\xf4\x9b\xb0\x9e\x85dl&gt;8\xd4%R\xc7-QW\xcf=sc\xfa\x88^\xe1\x16\x0b\xd6f:\xab_!\xa1\xe6~\xa0\x05\\\x17\xfaS\xbf\x19\xfb\x9f\xcb1\x94B\xb0_\xd3\x17\x9c&gt;\xf0@\\\x1f\x15U/\xf6\x19H\x0f\xee[c/\xbd1\x91\x93\xe8\xbf\x8dz\xd4v\x8b/\xa0\xf5\xc1\xdcWC\xb3\x99\xb3W\x02\xfbx\xad\xd4\x08\xb1\xf7xgX\xb2\x1f\x14\xd6\x06\x99\xeeQ\xe5\xd6\x1e\xd3\x7f\x1d\x12\xaea\x89\xaf\xcf\xab\x89\xa5{\xf0\xf9v\x1f\xb0r\xf6\xcb\x076k\xf6bJ\xa8\xee\x08\xbaF+\xcf\x92BJ\x1d\xb1\xd5#O\x14=\xdb\x91T\n\xcd\x92\x97Iw\xf2s;\xb5\xed\xe2\x97\r\xec\xfd\xe9@Z\xa2)U/\xa4\x1e\x12\xe8f\xc7\x92g\x92\xbcl]\x01\xf5\xb3\x90n\xc74Q\x1f\x98\xfe\xfe\xcb$\xfa"\nj\xd4\x8c\x98\x14\xe6P\xc7Xe\x9b\x91IH\xc5\xb0\x15})\xa7\xde\x89\x98\x8d\xa6\x01\x8b\x16\xbe\xac05_\x03LO\x1e1\xf1\xf9\x0f\xb0\xc1\xc6\x83LZ&lt;\x926\x00Y\x0fLH^\x0f\x03\x8d\xf9/%5}JI%q!\xfc\xed\x87\x01\xd7C\x9b\xd4/\xbc-\xb2.\x8aJ]\xe46\xf5\xf77\xd5\xb8\x02\xfd\x85|\xe2B\xed\xbd\xf8\xd3\x17\x065\xe3/\xabp\xf7*\x9f\xd8\xa5RP\xe1j":\x89\x8d?\xd7\xe2\xb6\x8f\x8bX\xfb\xdcZ\xce\xc5\xab#\xde\xba\xb3k\xe9\xf6\xec\x08?\xfb:\x96\xbe\xa8\xc1\x16~\x02l\x8d%\xb7\x84\x0c~\xab\xd9\xa9\xbaXD\xc8}i^t\xf5*\x19\xea\xe9\x19\xd2\xf5r\x95\xe6\xc3\xaeRw\xd5gw\x0eZ\x80\x11~G\xf2\x9c)\xf5_\x88a\xefjc\xc3\x18\xe1\xfbl\x84\xe0\x86j8\xd8\xe4H\xfd\x8a\x93B\x1f\x97[\x11\xfe\xad)\x9b\x8f\xa5\xb4\xfaG\xdcr\x19\x13\x96\xd1\xe9~GU\x7f\xeb\xb5M`\xa3\x0f\x9fT\xdbC\xfb\xdd\xe7w\xa0\x8e\x16\xba&lt;\x88i\x1f\xd0R\xa9\xb2\x86\xd9\x08M+Y\xc9\xee\x1e\xb5\xa1\x06\xd4D\x86\xe1\xf7\x06O\xd0_\xa6j\xbdceD\xe9q\xc0\xe2\x92\xea\x89\xf5(\x02\xfa*\x88\xc7Qh\xe9&lt;g\xa2\xfc\xeak \xd8\x8ftz\xc3b\x98\xaf\xe2\x91\x00\x0b\x04\xee2wO7\x90q\xca-\xc8\x06h\x8bq\x90\x8d\xaaF&lt;\x82~d`q\xc2\xef\xd1\xf7N\x87\xdf\x85w\x14\xf1\x0b\x06\x96\x7f\xf5&lt;\xa8\xe6,\x86(\x9b\x98$\x8e\xe3\xdb\xcd*\xbb\x0e:\x0e\xa6\xbd\xb2\xd0\x8ac:/\x82\x87*\x03l\xad\xeb\xe2f\xa2c*\xd73\xc8\nRyus\x0b\x98\xcb&amp;$\\\x84\xc5s&amp;\x8f\xea\xaf\x0bP\x9eK\xac\xbd 8\xe0\xf4\xa8f\xbf\xb6qD\xbbt\x1e\xe4 \xe8\xd7\xc6\xdd\x86\xd7O\xe6GQv\xdef\x9c\x9b\xed\xea\xd8\x7f\x05\xe37T\x0c\xe6t`\x02V\xa6\xa4\xce\x1b\x0b\xe6M\x16\xd5{\xda\xe8o \xb9\xae(\xfbIe\xbf\r\xbbq}\xcc=ZQ\xc6t\xedOd\xf07\xff\xf2r\xdb#0\x0c\x89*S\xdch\xf1\xc8\xf6\xc5\x8e\x06\x15\x05M\xb7Q\x96K*\xfb\xa1\xfd\xde$s\xa06R+H\xbd=$\xd6*J\xcd-P\xbc\xf9\x92!\xb7\xb6o\xed\xf90\xd8W\xd7o\xa5e`G\xaf%\x0e\x07]V\xdc\x13$o\xce\x81\x85\xb9\x8a\n\xeb\x1cl\x88!\xa6\xbb\xa1=\xa9\x1c\xf9\xb9\x06\x8a=I\r\x83!\x15\x17\x90|\x11\xf6V\xe6(,\x12\x1a\x11\xcc \'\xc3Y&gt;\xea\xacB\xa0\xcd\xf7^\x8a\xdb\xc5\r\x05\x10\x89UcX7\x98Z\xa2\'\x81\xc6\xe7\x93\xf2`\x911)\x05J\xa5\'\xf0\xbbL\xa2\xa78\xebc\x81\x81)\xe6\x1b\x15\xc4\x0eJ\xd9\x08Q\x82G(O.\xc2\x06!P&gt;\x1c\x9f\xc5=Q\xdeT\xc3\x04\xfa(\xa2\x8a\x1e\xf1\x91\x06@~\x08\x90L6EO\xc2\x8foO\x85\x971\xf9\x01L\xb5L\x17?\xed\x88\x01\x97\xeb2\x19\xc3\xed\xf9\x9c\x93v\xc4\xe5\x9f\xa4Y \xceY\xb9`n\xaf\xa7\x90\x0c\xe23\xc38G\x8a\xc5\x96\xcc/\xf2\xd7\x8d\xc3.\xfeO\xfew\x98\xc1eb\\\x8c\xa9o?\x1b\xaa\xcf&gt;\x86\xc4\x93\x8c\xc2R\xaek\xdd\x80\x00\xbb\xe4\xba\xfc\r\x03\xc5\xd5\xb2~k|k\x86\xf8W\xe0\xf8\xf6\x80\xbb\xfa\xac\xa4:\xe676\xe6\xc7\x0f:\x97]=\xe4\r\xdc\x17\xe7K\xe4\x1d[u#c\x98!WP\x02\xd1=yf\xcd\xb4\xc4(\xf1L\xc5\xc7\x9f=S\x14]\x89,3\x92\x0c\xcbx\xb9&amp;\xf7\xe4*\x81\xc3YY\x90\xf6\xc5\xb0\x8f\x14\x95\xc3\xbf\xed\x1ci$\r\xab\x1es\x96:\xefF\xe4\x88\xb7\x14\x84\x81\xcd\xcf\xfe\xa1\x85\t4\xae\x86\rvt\xa7Iq5\x1a\xc1WV\x0f\xa58L\xf4\'s\xa5Q\xbc%\x12\x88\xd9a\xac|\x86\xb8:\xf3kx7\x90\x1a0\x99\x0f\t:PJ\xa4\xd4\xf7&lt;\x8e\xcb7i\xfb\x17X\xb4\xbdi\x0b]1\xebl\xf5q\x99E\x12\xf3\xbd\x15^\xdcw$n\xb7U~/-\x18D\xa7\xe2|\x8a\xd9\xc4\xe4\x9f\x88,i\x8a\xdcI.\xd5&lt;\xd4\xdb\xca\xa0\x964xc\xf9\xd3\xf3\xd0\x12\x08\x9aH!\x83\xab\xca\x99\xccX\xf6\xdb\x8e\xe6\x88\r"\xe7\xec\xa6^\x8a\x86i\x8eoM\xd2\x95JI\xd0e\xb6\x05\x12\xfa\xfc\x92\xd9\xc6\xc2\xb3\x88\xb9\xa0\x9b.~\xc0\x9e\xc7\xc3\t\xe7\xc3\x9b\xcf\xf8\xba\xb7`H\x9e\xdf\x95\xb3k5\x98z\xf2\xbd\x00K\x9eZ3ha\x98\xd8\xe9\xd3S\xa2*\xdb\xe1f\xe6\x13\xd7as\x92]\xae7f/-9\'\x92\xea\xeb\x0b,\xcf&amp;\xd1\x99\x92\xce\xad\xfa\x10\xf1:\xeeHi^L\xcf`zT\x08\x9b1\xcbl:\xe22+\xcaQ\xa8Fe)\xf4sI8\xb4\x9eRO\xcc\x99\x8a\x02b]\x8e\x1ei\x9b\xe5G\xcf_\x85\xa2&gt;\xd1sCTe0mW\x03%\x07\xe2r\xef\xb0\x8c\xd2\xf5\x17\nD\x05.4\x94\xe0T\x93\x8cd\xcd1\'\xd8tt\xb3\x84\xfd\x7f)".y\x07\xc3\xb6L\x91\x9dpS\x94F\x9e4\xdcl\x93\xd2bO7\xdc\xac\x89\x10S\xff\xfc\xc4Rf:v\xf8\xad+\x86\x97\xec\xb08I:\xa3\x0e+2b\x1bB3J\xa3\xc1\x13w\xcaj?*\xf9\x11\xe9\x94\xdb\x7f\xa7\xb5\xa9\xeb\xcd@\x8e[\x83%\xf4\x92\x15.\'\xda\x8e\x84\x98\xfcf\xa4&amp;\x9c\xbf\x88s\x9c&amp;\x93*\xff\x18\xc9iYz\xa5\x8b\x99\xf8\xed\xc6\xf4\'\xd1k&gt;\xec\x1bH\x12ns\x19\x87\x86FgE&amp;\x9c\xf8od\xd8\xa5\x16\x18I\xd6&gt;\x94\xaa\xa4\xfd\x16\xd2\xe5\x87y\x8a9\x83:\x16\xe1!/\xc5Dj8\x8a\x93\r\x1a\xd2\x04\x91\x9c.\x1e\xb0\x97\xcbC\xb7aC*\xd30\xff\t\xdd\xc4R\x8c\x91N\x186q\xc6n\x01\xbc\xb9\x883\x84\xd2\x00\xfc\xc3\x19)\xbc5\xca\xb2\xe5\x07i\xcc\xccP\x9a\xba@W\x85k\x8cb\\\x14\x8e\xe8\x10\x0c\x8c`\x0b\x17\xfd\xe8\xb9\xe0q\xe407D\x07\xc9\xc6\xd2\xc7V\x133V@w\x8fi9\x0epdj^+\xc2}\xe7\\\xe9\xe0X\xa0\xc31\x07\x9c\x0bEJ\xff\xef\xbe\x82\x84\x19\xb1\xd7\xd4\x04\xa5\xa9\xa3\xbd\xecU,\xe0\xc6\x06\xe1\xe8K\x87\xc51_KY\xe1f\xe7|\x14\xa2\xb5\xcd\x1c\xd5z\xe1V\xb1\xa7\x0f+\x1e\xd7vL\x83C,\xd1\xc5\x15\xa5\xfa*\xc4\x80\xfb\xc4`\x83K\x94\xd9=\x05\x18l\xd3U\x16\xa1\x14\xd6EG\xa5\xa9#\x8d\xecTp\x087NrD7\xadF\x13\xd2\xd1&amp;W\xc6\x0fS:\xe9NV(!y\xbe\xf8\xd3cN\xa1\x06\xc2I&gt;|\xf3\x94\xbb\xad\x11\xae\x11t0&lt;FM\xdf7\x8a\x91\xa2\xdfY\xeb\xa4\x14\xd6\xfa\xf5JS\xf6\xad\xec\xf5\xd7\x10n\xec\x95\x8c\xa4#4`DZ\xde\xe5\x9a\xa7t\xe5zi\xf3\x06\xc4\x13#h\xa8?\x8d\x9a\x90\x9c6+\xa7\xd0\x94E\x1eHI#~d\x17\x93\xd4`o\x80\x1ak\xad\x1fP\x9a\xba3\xcaN\x19\x9e\xe7\xc6\t6\xe8e\xf7\x92y\r\xe2G\xd4\xca\xc4\x08n\xb7\x9cR\xa1\xa9\xb6\xf2\x03cG\x8f^4_m[\xdc\x87\x18Vs\xd9v\x84&amp;=\xcdZ\x8e\xb2\xb6C\xcc\x8d\x0b\x86\xf0\x80-tx\x85\xd0U\xab\x9c\x1f\x8d`R7\x0e5\xb5\xd7\xcc\x15\xe8!\xfb\x19\x91Rn\x88Pj\tE\xbe\x91l\x8af\x82 \xc9\xfe\xddI\xe4\xc9`\x8d&gt;\x9c)\xb9 C\xa38\x8a)E\xc8\x90~\x0f\x8b\xb4?\xa3d&amp;\xa5\x0e\xd7C\xc0\xb8\x90n|\xa2\xfa\x9di6\xd2b\xf9V\xb8#\x0f\r\x94\xe9\x11\x07\x1f\xbe\xd7\x81]\xb2\xf8h\x8e\x8d7\xd7*\xcb?\xff\xcf\xa8\x95\x06E\x95]aR\xa98V2\xa9d\xaaR\xa9\x1a\'\x95\x99\x8cUI\xaaRI&amp;\x99$\x95\xaa\xfc\xc9\xd7\xd0\x80\xdd\x8d\xb4\x08\xd8\xec\r\x08\xcd"\x9b\xec\x8a"\xc8.\x8bl\x03S\xec\x10\x14E\x1b\x01A\x81FqAv\x1cQ[\x11FTTt\xa2\x8e\x1b83e\xaar\xdf}\xdbmhe\xee\x8f\xa6\xef\xe3.\xe7\x9d{\xcew\xbesn\xf3b\x99\xe5\'\r.\xbcX\xdd\xe2\x83\x92Y\xf4\xd2\'\xffm\x80\x9f\xbcf\x19\x91\xeb\xc06\xd1\xa1\xd2\x1c&gt;WaE\x0cz\xe7\xd7\x04\x84k\x10)x\xeda\xf5\x97~Qjy\x89\x9bH\x99\xa6+\x9f\xf7\xc0\xa3\xd5\x0eq.\x86\xfe)\x91\xfa\xf1*\x1dO\xa9\x0b\x08\xc3\x92\xdalhl\x8eZ@XG\x0f\xa4\x13\xd9\xfe\xf2\xce\nei\x0fn-C\x878\x873\xa0\x10\xb9\xfc\x12\x8c]Kt\xe5[\xf5\x98\xe9\xb7e\xdaY^\xac6\xe6Q\x01\x951&gt;A\xecW\xa2\xbd\x9cN\x8e2\xa0^.\xf2\xbc O|\xc5\xde%\xb4ou\xf3\xc7\x8f\x97\x89\xf5\'\x8c\x12o\x0b\x912\x8a-\x1c1\x0eHz.@K\x91\xffI\xfe\xcd\xfb\xf2p\xad\x93\xd5V\x99\xa4-\xa7\x88\xba\x8b|\x82V\xc0}\x8e\x8c\x8bl&gt;\x13C-\xfc\xd7\xddW\xfd/\x0b\xeb\xcfs\t\xb8\xd3\t)\xe7\xd8@\xbc4\x07\xbf]\xee\x86\xee&gt;[_\xe3\x86\xf4.q\xdc*!f!\x0c\xedF\xa1p$;\xa2Q\xcd"\xc4\xa6\x842\x01 ^\xa6\x9a\xafx\x0fp\xcf\xa6\x06\xa9\xff\xdd\x12\x86$}\x89\xc0B\xc1\xdc\x9ap\x8e_\xd1d\xde\xc0=\x18\x976,@\xd9\xe5\xbdN\xcb\x9c\xf1C\x12\xaf\xd2\xb1A\xaa_\xcdh"C`\'aE1\xa6\xda\x84w\x7f\x84\x0b\x97d])+O\x81\xd7V\xcc G\x90os\xe9\xbf\x07\x15\xabdI\x18\xd3x\x1a:\xa1z\x1f\x97\x8c\x0c\t\x15&amp;\x10\x12\xf9\x95^\xca\xd4C1\xa8\xc8\xc6:\x0b\x80_\x8b0\x85\x17nI\xb2\xeb\xf7\x1c\xd8\x13p\x93a\x91\x0f\x12\x85Mj"={\x19m\x8d\xeb\x9e\xf0\xda\xfa"\x97\x02z\x15\x1fl8;\x12\x87\xf4\xc6\x08\x16\x0f\x98\xef1\xac\xf7\xcc\xd2\x1e\x87sz\xe6|\xd2\x14\xbb\xb0\xf6W\x16L\xd9KaD\x8ce\tk\xf1\x98\xf4\xb5\r\xc7r\xc5\x95\xebP\xa2el+\xed(\xaf\xad\x14\x9a;\xd6\xe7\x93\x8f\xb1\t\xee\xa3_\x18\xa0\x89E\xed\x98\xf0\xfd\xf1%\xc4I\x8b^\xb2\xccj\x1d\xb50(\xea\xf1g\x86:\xacG\xa9\xa2Zv\x0b\x91\nI\xdfFQ*\x16g&amp;o \xef\xb1\x15\x80\x88^\x8a\x18V*\x17I\xba\xddl\xf2$\xe1\xa0X\x8a\x88Y\xc8\x12\xc3hZ4\xc9\rW./:\x7f\xa2b\x00\xebe"\xf1\x1e\x02\xf6\xed\xd4"\xec\x8d\xa5b_dV\x88\xdb\x98\xd0Yl\x05 \xca\xbd\x9a}\x8a+\xf3mm\x1b\x0e\x93\xfcP9\xe8,\x0e\xa8Y\x80I\xe48\x85\xde\x12\x89\xb0R\xf0D\xcc\xce}\x01\xf8\x8d$\xd6\xc7\xd8\xa4\x88\xc6C\x8b\xfb\x91\xed\x96/Rc/\x8aU`\x0f\xbf\xfb+\xb5u!\x05.\x1c\xe2\x16\xd2\x1c\xbb`\x934 #&gt;\xb4[bb%\xc8\xb3\xa8HY\xc8U\x81\x01b\xf4\x1f\x8bR\xfd\xfbg\xc4?N\x93\x8c\x87i\x83\xa9l\xef&amp;\xbc\x9b\x18\x9a\x92\xe4k\x05NuMNmO\xd3\x8b;\x08J^=R.\xfd?\xfb\x1aZ\xce\x8as\x0b\x17\x91\xf3\xe6]n\xc0\x96\xf8\xfc\x0f\xfe(\x9da\x94\xab[\xbc\x13[\xe9\xdc\xda&gt;\xcaN\x98G\xb9T\xf8Sf`\xa4\xc0J\xf0\t5\x89\x92w\x99\xa6\xe5\xff\'\xd9\xc2\xef\x89\xe4\x1f)H\xb2x\xdd\xef\xd8\x92\xdeA\x8d\xe7A\xd7H\xbc\'\x88\xf5Sr\x867\xe4\\\x82k\xd1\x08f\xbb\x1d\x88k\x90y\xcb\x05\xa46X\xe1[\x89{oOtN\xf6g\x19\x8cW\x18\x04\xd1iB\xd3\xa5\xa9w\xc6\x10\xc8\xae[\x88E\xb6\xdbO\xc8^6\xfe \\~\xadG7\xc9En\x8b\xd9\xd2\x99d\xf3\xf5Y|\xc5\xa2E&amp;\x9e\xc9,\xcb\xde\x05\xd5w\xac\x86\xea\xc9\xbc[q\xe6\n%\x1b\x9b"\xc6\xb0_~#\xdf\x16d2\xcb\x9e\xf0\xc4\x8e\xeb\xe6\xe4\x97\xae\x12&lt;\x06\x11\xba\xf0\x0f^\xac_\xc0i\xdbf\xf7C\x92\xbf\x1e\xe4s\x08\xa5z\xa2Q\xccN*\x91\xfb\x85\xbcU\xaa\xca?]%\xb6I^\xaca\x95\xf5V\xb5\x03&amp;\x8d\xac\xe8~T\x8aYU\xe3\x84\x9a\x7f\x81\x11\xc9z|pu\x9f\xa3\x06|e\xe9\x03\x02\xaf\xa9hb\xf0J(j{I\xb7N\x8e\x98\x8d\x95\xc5\xca\xde\x84\x14\xdf\xb70\x08\xa6\r\xf9\xa1+N\x9e\x99\x11\x02\xe9\x10\xc2\x84\x92a\'\x83_\x17\x10K\x82\xcd\xdf\xa9X\xef\xa2\x91d\xcc\xfb\x19\xe5R\xba\x1b\xe3\xc2\x98\xe3\x7f\x10\xce\xa4\x10sh=\xf2\x16\xbe\xc5\xb4\xb6Z\xa4\xab\xe5n8.2nU@\xa3E\t\xb3\xf1(!}\xf3\x02\xa7\xff%\x81\x87\n\x143\xff\xa5\xc6\xf0\x19k\x8c}\xf0\xdb!\xaf\xdeh\x8b\xd2+\xdfG[u\tx\xed-\xcfk=\x8fdK\xa0"m\x9ay\x10K\xc0\xb3\x18\xeb9\xa9\xfe\x06\xcfm;5J\xc6\xc2}4\xca\xbe`D\xb2\x0b\x1c\xc3\xa8\x0c\x90\x88$g\x9e\xf2}\xb4\x95\xd4\x87\x81&amp;\xb9\x9b\x98\x83\x02v\xd5\x00\xd4\xd7)5\xcc!:*5\x9b\xb7\xc5\xe3\xe7\x94\x97\xb6+t8\xc5\x8c\xce\xca\xde\xad\xd8&gt;\x04\xd6\x15\xc39\x80\x96[G\x1a\xbc\x93W\xd7\x96\x9dN\xa9Ne\xa6\xa5\xdb\x83\xadn=\xc7\x95\x8d\x8a\x93\xc3m\xcc\xa3v\x98\x14\xf6\x94\xa3~\x84!\xc5\xb7\xa8f/\x99\xf8R\xb0\x81\x8dEj\xdc\xf5\x97\xd7o\x9eCg\xd5\xea\xda\xea\xe8\xc7\xa2\\*\x87\xd6\x005\xab,c\xbe\x83\xb4\x9dT\x8b9\xaa8KY\xc4\x87\x84"\x0e[*W(\xe5\xb2\x9d{\x18cw\x1ek\xc0\x8d\xba7$drI$\x16\xf65\xcc\xa4\xa1|\x0b\xc7RX\xb94\r$t4\x8er\xc1\x7f\x12\xa7l\x82n\x95\xeb\xe60\xa83\x98\x1d\xb4z\xf7f\xe3\xa4\x9a\xb4\xc7\x94\xb2;\x7f\xad^\xd9f\x9a\x10;\xc2LJ\x98}\x0bI\x11\xca7\xa8 `\xf5\x13\xc2\xb5\xd6\xe2\x9c\x83\n\xcfW\xbb\x06\x7f\x08\xbfW\xcc\x16\xbe\xf7\xd0r\x86\xfb2:D\xf9]\xf6\xca#L\xee\x80]\n[\xc89o\xe9\xdd\xd6\xda\x16\xf8;\xec\xc6_\x7fD\x1c1~\xa3\x0f\x02V\xbd\x9d\xafBm4\xb3\x87\xa7\xe9\xa2R\x97gg\xe7\xa2\xa74\xbd6\xdany\x1b&gt;\x1c\xe3\xaf\xf7`\xa6\xf4,\xc0{\xd5mb\xe0\xb6QI\\\xf1}\x82p\xc7\xf1\xdd\x1b\xc7\xb9\x1e.I\xe2\xca6\x1b/B\xd7\xcalR8\x88S\xb1\xca\xf1\x0c\xfebs\xa4c\x85\xb2\xaa\x1a0~\x96\xe9\xbfJ\xc0\x0e\xd7U\xc5j\x87^\x11\x82\xf7m&gt;\xc5\x02A\xf5\x06kC\xdc\xe6\x8efW\xa8\xb8\xf0\xc8\xb9u9\xd2X\xfbE`5r\n\xa6\x8d9\xa7\xfa\x08\x7fw\xea]\x0e\x0e\xf9\xe5\x88(f\xc7?\x8d\xa0\xe9\xc5\x81\x9e\x88\xa5\xc8\xc2M\x1do\xb02;\x12\xcb#\xf0\xa9\xcd\x0fq\x87\xf0\x96\x96e\x17X\x86\x81\x9b]\xcd\xf2\x92\xc3\x9c\xba^#\xb3\x8b\xadb\x19Z\x95\xb1\x0f=\xa7\x02\x1f\xe8IoPe\xa9\xabN\xe3\xff\xb4\x86Y\xe6AP\x0f\xca\\i|\x110\xcc\xbaX\x89\x84\xf9\xd4\xe1\x03\x9b\xdf\x11b?\x8fy){;78\x96&lt;\xe2\xb9\xec@4\xdcU\xa5\x1fB\r\xfe\xec1\xf6z\x86T\xa6yyy\x15\x13l\xca\x9e\xf7b\xdb\x82\xbe\x10\x03S\xac\xeb\x1a\x9a\x89\xc7+\x14\t\x02\xdf\x0e\x15\xd0\xc1!\xbc\xaa\xe0H\xac\\\xe9\xbbNxb5&gt;"\x1c\xf0\x81\xa2\x05\\\xeeu\xd9\xe4\x92X\x1fc=\xe46\xf0\x811\x9b\xf5,\\\x8fC\xed\x9cV\xa5\xb2?\x7f\x1fN\x19Q\x0c\x9d)\xea\xce\x86s\x0f;\xb6\xfc,\x1f\x0e\xc5L\x85\'\xa9\xdb\x85R\x18B\x9e\t5\x92\xa30+\xf6\x13&amp;\xb8\x86\xa0\xa93\xb8\x0b\x9e\x13V\xc4\xd1D\xe4\xcf\xd0K^\x0e\xd7\xdc\xa2P\xd3\xc7z\xe3\xdc4r\xb8T5\xafC\x89\xc2\x1e\r\x13\x0b]\xd0n\x08`\xc1\xc2\x1b\xcdn\\\x8eO\x99\\iX\xa9\x1b-O1\xe4\xc2\x9d\xcfJ\x07\xe0L\xf0t\x8d\xcd:r\x98\xd3\x943\xee].\x93\xba\xa5\xdb\x91"/\xc72\xb99O\x0f\xc5T\xb63\x03\xa2\xc2F\xb0XC\xc0`~\xeeq\x91\xeda\xb3\x88\r\xd1\xc5NK\x862\x16\xb2\xf4\xda\xfb\xa9\xfc\xad\x11iBIpg\xb5\xe5v\xc7x\x1e\\GL\xfd]\x9b\x7f\x11\xfe\x9cK\r\xf0\xa4\xe5(_\xb1\xb8\xefF\xbb&gt;&lt;\x1fj5\xbe`\xc6T\xdc\xfd\xc6\xc9/\x99+^6\x16\'x\x8b\x89w\xd0\x8cV\xe3\xd7\xc0\x0c\xdb`T\x0ba\x87V,\x82iI0\xacl\xf9\x0f\n\xb9\x9f\xe6\xa4c\x82\xe4\x15\xbf\xb7\xf9\x84\x90\xf8.Z\xa4\xdb-\x1d\x0e_\xc9\x92\xae\xedh\x97V,]\x83\x10\xac\x8fd\x96\x9a2\xa9\xb43\xf9\x968\xba\xdf\x10\x85\xdb\xfbY\xa5\xea\x1f"\x97\x87,\xfe\x9e\xf6bV\xf8\xe7\xb7\x8aD\x964"\xfe\xea\x91+\x8a\xa7\x92\xa4\xec6&gt;a\xc4\xe2\xb5\xb2\xa3%\xdd1\x94\xa6U\xbcQv\xf3?,\x10\x8a\x9e\xdb\x9aP{&lt;\x8a\xd9\xf2\xeb\x1ae\xa4)\x97}\xe9Z}\x08\xb2\x02\x99\x07/\xf4\x0b\xa8\xd8)^\xb2-k\x11&amp;\x07\xc5\xe6L\xde\xc6r\x19\xb1\xe4C\xdc\x8c\xa2\xa0@\xca\x87\xeah5\xef\xae\xe2\xf2\xf1g\xdf\x08\xd3\xc5\xb4q\x8b=\x16\x8cl\xdd-\xae\xfcP\x8c\xc9W\xd6\x95\xd9\xd8\x0c\xdf*&amp;\xfb\x191D\xa0]"/-\x16B\xc5\x8f\xf1\xc4&lt;\x81\xf6\x82\x99C\\GL\x8d7y\x87\x0c\xb1\x98\xcf\xc3\x806"T\x06C\x89\x84li\xc2+c\xbf\xbc\xf2\xa1\x94@h\x1f\r\x8b]gr\xc6\xbe\xe9N\x0c\x8c\x1aGP!S\xaa\x03)\x8c\rD\xfaI\xe5\x07\x91\xa6\x8b&amp;\xbf\x86\x18\x11\x0f\x10\xcc\xdd\xc5!KM\xfb\x8f\xf1RQ\xd6\xe6x\x9a,\x97\x1f/\xcbUp\t\xee=I\x1e\xb4=H/\x82\xaf\xb7\x0c\x15\x9a\xb1\xf3\x1e\xe8\xa2\xe5\xe4\xdek\xbcp\x8eY\xa2`u&gt;\xe2\xa2&lt;\xa5\xb4\xa5\x001E\x01\x82\x83S3\x8eY\x86\x80\x05V(\xd5K\n2\x0e\xc7\x9f\x85R\xe97&amp;B9\xaac\xfc\xa8\xa3&lt;\xfe~\xdb.[//\xdb\xbb\xdf\xc6#+Z\x16\xd9~&amp;G\x89\x16\xfaNz-4\xb9\xa5T\xc0}\xa5\x13/T\xad\xd5F~\xaf\xa0+\xa5\xc2\x8f\x13\x86)\x9c&gt;\xa3p\xca\x05\x9f$9\xf8\xf0\x8d\t2\xeey\xf4\x9d\xc2\xafsf\x19\xcf\xd7\xf2J\xb5\xb0\xd7\x8d?\x91\xd13\xf3*\x92u\x93\xad\xa6)h\x8e\xc4Iv\x15\xf0\x7fJ\xae46\xaa\xeb\n\xdb$i]5\xa9\x1a\xa5I\xd4&amp;Q\x95&amp;\xe2O\xa4$j%J\xfeT:\x17\x8f\xe7\x013\xc3\x18\xcf0^\xf1\xc2x766f\xf0\x12\x16\xd7\xc4\x18\xcc\x1e\x16/\x18\'\xb5\xb1!\x80\xb1\x83\xc1[\xb1q\x0cXYJ\x08f\ta-\x85\x04\x03\x01B\x88h\x9aR\xf5\xde{\xee\xf2\xde\x98\x00y\x12\xd2h\xfcf\xe6\xbe{\xcf\xf2}\xdf9\x87\xc3\x81\xb5\xe0\xeeF|\x87\xe9cRC}P\xf7\xa0O\'\xba\x9d\xa6\xe4\xf3\x1c=\xcc\xb6\xe0TM\xaa\xc5f8\xe7\xb2tU~X\xd1\x97\x8fQ\xe2\xa5\xd4\xb3!\xfd\x8cR\x05{\xa3\xf3`Wt\xf4\x7f!f\x91\xb2\xb2\xfc\xa2\xf4\x93\x94\x02c\xf4\xab\xd2\xde\xeb\x1eZ\xe0\xb2\xa8\x1d\xeaJ\x14\xa9\xfa$M\xd5\x7f\x828jg\xa3\x80\xcdp\xe0\xa3\x0b\xe1C;\xe8N\x19W7\x99\xfc\xaa\x04=}x]\x1e]r\xc7y\x89\xc0\xd2:\x1aa\xd2$h\xaf\x96\x18c\xdb\xf9\x8e\x8d\x0e\xc8\xdb.U\xe1=fs\x8d\xd9\x18P\xd4X\xd7\xdbb\xaa8\xb0Y\xc3\x81\xcdo\xa1\x89$Y\xf8\x98\x05\xe1\xeci\xb0\xb4x;\xab\x15\xa5[u\x17l\xa9\x07\x02\x03\x18-2\x13i*9\xba\x08\x8dd\xd7@`\xcf\xde/\xc1}\xd9\xc4\xe9.[\xbd(sz\x07_\xf1\xa0V\xf0v \x0c\xac\xe60\xf0\xd7`sy!\xff^k\xf2\x07"S\x82\xa2\xdf\x0e\xb3\x1cUD]*\xe5\x83\xf8\xea}\xb7\'4\xd9b+\xe2\xbb\x0b\x1d\xb6\xa6\t\xb7\xf7U\xd7\x1d\xa1v\x97[di\r\xf4\xa7\x06G\xd2\x92K\x17\xa9i\xad\x92~y\x9c-\xb3\xd9\r-\x05\x0c4?\xf6G\x98O)F\xcb\xa8E\xa5\x9f\x9d8\x1a\xdf\xf0\'\xf4N\xf7\x8a\xbd\xacKe\x11\xeaPqE]\xf4\xb5\xe8\xf2\xf2\xe8s\xd1\xdd\x15\xc5l\xfb\x9cK\xe2E\x10\xf4\xd4W\xcc\xe2\xfeg\xe0\x81g\x98\xbf\xef\xc3e\xef\x91\xaa\xba\xe2;\x13\'\xf7^\x13\xf97\xd9\xde\xc5(F\xc8/\xa9\xa9m\x08&amp;d\x83\x15f&amp;\x05w\x8fr\xa8Zb\x88\x04\x94\xa2z\x11\x8d\xf8\xa1\x92Q\xdb0\x14/O\xcf\xbe\x869p\x0com\xca\xba\xcbe\xa0\xd9S\x9c\xe6\x9b\x0f\x9e7w\x1e\x06`\x05\x122\x1a\xe6\x0b\xc9b\x8bH\xd7\xb2&lt;\xcd\xf23\x1f\xce\xb8\xf5\xae6\xac\x82~\x99\xbf\x14\xe6_\xd46p!\xae="\xa2=\xee\xc2@\xdb"\xaf\x0e\xe9\xab%\xa7\xde\xe8\xe2\x11\x9c\xe7\xda\xda\x96\x9d\x96\'\xd9\xfa\xce\xf2\x04\xaduD\x92\x9d4\xc8\x87\x84\xbcF\xe3\xea\xfb\x9a\xec\x97v\xa7:,@\xb0\xe1\x9c\xdd\xbeX\x1b\x96\x9f\xe1\x18X\x99\xf5@\x0eC\n\xbe3\xa9"\xbb\x99\x07\x9f\xc1\x8c\xec"\xfe\x05\xff\x98c\xc9\x8d\xfd\xdb;\x05\xd9o\xa39\xe75.\x8dD(i\xc4\xb5\x7fJ\xb2\xd5a\x8a\x18\x08\xba\xc1_c\t\x08\xc5J\x1eV\xe7F\x06~\x9ca\xd9\xd3s-\xdf\xb4\x9e\x12d\x0f\x86\x8f\x93\xecS\x0b/o\xb6\xfc\xddyYJ#ky\xb5\x93\xba\xa2\x11u\x85\x0bI5\xd6o\x82\xb8x\x1e\xf8\xb0\xc7\x01\r\x0b_\xf3\xee\xa2t\x1a\xce\xf2\xeeI`rn.\x9d\xbc\xc6\x85\'\x95\xb9\xec\x0bd\xe3w\xe8I\xdd\xc2\xf7\xa6\xf8\x83B,\xbb*\xb8\x90\xe4\xac2l\\H\ny\x89R\x92\x11.\xbb\xf9c\xac\xf8T\xd6\xdd\xf9\xd3$\xa1\xe8\xca\x7f\x81\x83/\xfe\xe8u\xfc\x07f\x05\xba\x0c\xba\x97\xb5\xc6`\xf5[\x15\xc5\xbe\x1d\x1c\xa5\x9c\xe0\x87Go\x8dBSe\x95\xd6\x8b\x08\xfe\x16\xb3\x8d\x7f\xdb\xba\x07I\x9c\\\xa5\xd1\x7f/\x89F\x83"zL\xab\x14\xd0\xd2i\x82\x1bo\xbcM\x1b\xd6\x01\x9e\xc0\x92\xb3Q\xb9cW\x8fJ -\xb2\x0c\x06oq\x9c\xdbQ\xc0bA2\xab\x1fz1*df\xb1\xc6\x05~m\xb1\x93\x02\x8e\xfd\x1c[\x04\xd7\xca\xf4sP^I\xb3\xe2\xcf\x84\xa4\xfb\x15]\xe2A\xc2\x99\xb3\xf0Z\x14\x8d"\xd9\x038\xb5a\xf5 G\xdd\xc7M\x1f\xdb\x84\x17*\x96\xe5R\x8aN$a\x19\xb5\x97\xf0\xa2B?\xfb \n\x15\x10\x93\xc4\xfa\x9a\x10\xd5\x92e\x88\xbaIN\xdbdu4\xed\xf4\xd0f\nI\xf7W\xe00\xaaVr\x0e\xc1K\xc1\xb6\xf0$\x12\x85\xa8t6\xe99\xa6\r++_-\x96\x01#\xce\xad\x98\xf1%q\xdf$J\xf7k"\x0c\xc9\xcf\x19\xac\xe50r\x9d)!\xbb;\x88\xbf_\x10u\\\xe9E\xe6\x1d\xab7\xe1\x19\xd6\xc0\xca\xda\xceX\x10\xbd\xf4\xe3\xa0\x9eb\xff\xed\xd8\xc1\xe4^\xda\x85\xfd8\x9c\xb2\x04R\xb4a-\xc4\xa3h\xe7\x86U\x8be\xe9\x0c\xf6\x9a\x83\x86L"\x8b\x15[\xb7yO\xe1\x86\xf02mJ\x02\x92x\xc4\xa3\x83\xa4\xa5\xc9d\'\xfd\x12\x9e\x9ea\x9bz\x82\x86\xc350^\x14W^\xe1\xc5\x15\x86\rI\xfdy\x11\x9f\xa3,I\xe23\xb6\x93\x18\xf7\xdd\xa8~\x8a\xfa8+\xd4\xfb\xf8\x86\xae\xe5\xf4\xc1Y8+@#\x90\x9f9Y~NT\x9e\x92\x92]\xef\x08\n\xe7!\xad\xc7\xf4\x17[\x1b\xa6\xfb\xcd\xc5\x95\x90\'\xe1\xdf\xae\x16\x87\xc3\xdatoVg\x98a\x95\x8a\x80\xdd-\xfb\x16\x90-\xd3\xd7\xe7\x05?\xe0\xc8W0\x9c\xc5\xf80X)\xe0\xca{\xb9\x08&gt;\xef\x9b!\x96\x15Oyc\xaf\xf8\\1\xaa\xa0\xf8X(5\xa2\tA=?DW\xb9N\xd3\xe7w\t\x00 \xb2\xc1\x19\xf1\xa7J\xba3\xc8\xa6R\xc9\x0f\xbc \x80\x7f\xe7\x07z\xda\x93\xc3M4\xb3\x93(\xbc\xce5\x91od\x06\xb16\xe2\xb3rX"\xfcY\x95_\x9f\x18]\xe6$$A\x82\x1afX\xf6!\xe1\xa2\x88\x0bj\xe49\xcc \xd2\xd2\x8b\xd1\x8dE\xe1\xbe\xf4\x18n\x13F_\xde\xe56, c\x80&gt;c\\\x10\xcd3\x979\x9fP\xd5\xd7\x17\xe1zi\xd4u\x98g\xcd\x1e{M\x86uV\x00\xe1.\xd9\x90\xa7U*\xc1]\xe7b\xd8\x95\x85\xfb%x\xb0\x06&gt;\xdbj\xd3\xf6O\xd5\x81\xcc\xba\xae\x8bX\x9a~J7\xd8\x8c\xa3\xd4z\x8b\xb5^Kn\x9b\x0cK6\x80\x88\xaa\xdb&lt;\x85\xa2\xd3\xc9\xa0M\xfe@\x1b\xaf\xbbX\xa8f\x07)RP\xbb\xea[\xbd,\x19\xc8,\xeb:NI\xcfv\x18\xffss\x07e\x1aI\x07\xb7\xb9n\xf1\xb1\xc9\xb0\xde\x16\xc8V\x12\x11\r4[H\xa5\xa2-\x9f\xa8\xf3RT\xb3\x97t\xbaE\x1e+8\xa9\x9e\xc4\x1c\xb8u/\x90\xe1\xa6Al\xc4\xd2Q\xf9|\x18\xbd\xbb\xcc\xd4\xa3@\xcdO\x1b\xd6\x02\x81t\x1a\x05\xe0&lt;\xa7)\xa4\xbdJ\xaa\x01S\xc9N\xad\\\xc8\xc8\x1f\xbb\x90\\\xc2\xb0\xfb\xc3\nIF\x94\x1a\xa9\xbdF\xf4Zl"\xad\x10fi\x07\x7f\x9cf\x81\xfd\xf0\xadbJ\xf1\xf2\x98\xa8?w\x08m\xe5\xbah\x8f\xb1k\x18uH;{7k\xfb\xa7\xecB\x15\x8e\xf8\xbb\x03\xc4\x97\x1c\x84]\xf7\xe2(\x97\x0cd\xf4\x9ef\xd1\xcc\x92H\xa1\xd6\xe3\xd6)\x07p\x94\xdb\xd7\xe2\xb9\xb3D(\x91\xe0\xbb\xcd$;&amp;H\x845\x89\x8f\xbb\x95\xe8\x08\xfb\x91\xdb\x1c\xb3+\x03\xe6\xc1\xd7P\xa7\xac\x11\xc0\x9b\xfc\x9e\x04\xa5p\x9c\xc0\xb2J\x84\xbd\xc6\x01A\xb3\x06\x8f\xd2\xcd\x8c\x87\x89xL\xa7\xa4\xf6t\xda \xe5\x19V\x98C\nL\x887\xb2Z\xbd\xec\x11\x1a2\xe7*\xfe\xf4({\x93pc\xef\xa4QL\xa5\x8c\xc7\xab$\x81\xe9S\xd8G\xaa2i8\xb9\x01\x8f\x8e\xee\xc1\xf3\x0e\xf7a[\x99\x0c\xe1\xcc\xb0\x0c\xd9\x96\xb1\xa2@U\xf9M\xf5N\xc5\xa1!K`\x83\x9b\x81\x13\x95\xbbS\xe0&amp;u,\x0c\xa9d\xba\x82\xba\xaa\x91\xd6\xbd|X\x019\xd4?&gt;\x83F{\xc2\xe8.\xbc_\xbcJ\xb7\xe3\x00\xc4\xf0\x80\\\xac\x0c\xabJZ@\x8a\x0c\xc8\x86\x19*\x16jn[\xa3b7\xbf\x96\x92\xd52\xa6\x94\x8b\x9b\xcarJ\xc3\xf5D\xcb|l\x99\x06\xe8c\x10\xda\x97B\xad`)\xbc:\xaag\xf1I\xa6]\x96\xc1q\x9e\x9c\xf0\xa7\x1b\x9ae\xca\x81\xad7\xa5)\x9f\xb1(\x7f\xfa\xa5\xa1}\x0b\x9d\xc1\x850h\x84\x88}\x83\xeb5\xc4\xbeLE\xbci\x15\x1eR@\xf3\xac\xa3\x15\xfd\xb2\x9f\xd4LS\x9d\x19\x16\xeb\x9aB\xe6\xc5:8\xa5\xe1x\xf7\xd3N\xbb*\x04\xdfP\xd2\x970;\xf4/\xcd\xf8l\xc3\xc4Z$\xab!\xa2W\xa2\x83,\xbc"\x06\xcd\xa8\xa9\xd7\xeb&amp;\xab\xb4lR\xb3\x19Q1\xff\xdd\xe2Q\x96\xc5\x87{\xc2\xe87\xcc\x85\x11\x06^\xed4wLk\xd5N4S1\x1caLe\x11AV\x9c"\xc4mu]\x95X\xbdA\x1c\x16fP\x92\xad\x851g\x91\xeb\xd4\x06\x16\x93&lt;+h\xa4\xee\x81\xb0{\x0e\x9f\xfe\x01V\x0c\x1b\x9b\xb1\x0e\xeb\xdd\x0c\x87\x89\xd2ecT\xa6\xcf\x12\xf4\xae\xfb?A\xcb:\xad-\x12\x03m!\xf1\xe1\xbd4\xa4\xce\x17\x1aV23\xa8\xce\t\xfa\xae\xc6yQ\x18\x1c2\r\x7f\xa3\xeeE\xb2\xce\xf7\x8c\xa1NQ\x0f\xf9|\r\x89\xe1v\x15R\xb5a\xc9\xbc\x9c[\xbb!hY}\x1a\t\xd9J\xbe.\x9a\xcd~N\xe0\x84\xdb\x84\x0c\xc9]gG\xe19\xab?\xf6\xa6h\xb5\xfe+\xf9\x1e\xc6\xfc\xc8\xbc\xcfs\xe0.\xa7\xe4\'\x8e\x9f\x98k\x9138=\xb0\x9a\xad|gDQu\xcc*e\xac\xed\x19[0T\xaa\x10\t&gt;?\x87d\xcb\'D\xb1\xff;\x19\xca&gt;\xe0\xe2\xc9L\xb8@j\x92\x05\xb3\xb8G[\xf3XX\xd2|+\x93\x13IVxR-(\n\xeb\x88\xc4f\x9bOT\xea\x88\xc4\r\x0c\xe7\x93\x0c\x8a\x0ba\xab\xaf\xb8\xe50!\xb2\xfc&gt;\r\xc1S:B\xc7&gt;~\x84\xcb`\xa2\xd1\x9cz\x9fi\x8c\xdf\xbcL\xd3\xcf9\x1b\x0e=t\xaa:\x91;\xa0\x1a\x93@\xea\xfa\x12\xc8\xe5\xfa\xb0h8\xa4t\xbd\x1e\x9d\xef\x85~OCj\x96\xdc\xaeF\xdcK/\xfb|\xde|\x1cz\xb0ES\xebz\xf9&gt;#\x94\x8f0j\xfa\x11\xe4q\xb22\xa8\xc8\xb8\xb3\x0e\xb3\xab\\(Eurh\xf2\xed\x9c\xad25\xcd4\x83}~Uj\x98\xa6\x88\xf1e!{}\x03\xc9\x1c\xe2$\xe4\xd1\x18\x91\xb5\x12\x1e\xb9\xdf\xa4\xd6\xebp0\xca\xb3I\x0c\xd4\xe8\xd2\xdb\xd6U~\xdeH+B\xa5\x9d\x91\x144)\xbb\xc8\x8a\xff"\xd2\xdcL\xe8\xe8\xef\x1a\xcc\xa4+\x05H\xca\x9c\xeb\xf6\x8b\x81\x9a\xdd\x9e\xa8&gt;x\xfd\xbe\xf3Z\xcf\x87R3l\xc9\x80)&lt;\xc9\xb7j\x8dr\x93\x97\x18\xb9\xa0\xf1%"\xeai]\xe4\x9f\xf8\xde\'\x844Z\xb1"\xdb\x92\\\xcd\xbbT\xde\xd9e\x9e,\xb0\x17C\x93\xaf\xf9\x08\x84&gt;`\xea\xee\xc50\x1a\xb8Z\xdd\xa2:zJ\xc7\xe4\xef\xc9\xe7\xa0&lt;KF\x8a\xbf)\x94O\xc9o\x842&lt;uI\xcc\xdf\xcb:\xd3\x82\x14\x17!\xf4\xba[\xa9a\x85=\xf5\xa0!\xb2\xa7\xc1y\x8d\xe1Q\xec\xba\xee\x91\xe0s[mB\xb2\xf9kyG\xec\xa1Z\xb9m\x8c\x0b\x1eR\x11l\x14\xd9d\x934\ni\xdb\xae\x99\x860\x1c\x89\x84F\xa2\xa7\x1f&lt;\x08\xf8{H\xc9f\xa3p8\x18\x9a\xd5$Q\x9e\xac\x95\xda\xba\x14\x8da\xdf\x9f\xa1\xbc\xa0D\xa5!-tI\x841@w^k\xab\x923\xccb\x83}\xd9\xf9\xf0\xbb\x87\xf8O5\xde\x18\x0b%^r\x18\xe6`\x8bG\xf9!&lt;\x99lY\x04\xc1\x8e\xcb\x0b\x18\x14\x88!\xde\xadV\x0b\x84\x1c\xd3\xba\xfe\'c\x8ca.\x0c\xcc\x15\x8d(s\x18J\xfc\x14\xc6\xbe\xf10\xe3\x9c/\x8c\x83\xf6N6\xce\x89\xbd\x95\xbe\xdd\xdc\xb4\xc3\xcd%\x10\x9e\x00s\x99\xfc%\xf7\xe0=B6+@h\x1e\x95\xd1!U\xe9_\x93/\xf2\xbf]\x8d\x85e\xc4\xb7\x16\xc6\xbf\xf0\x90#\xb9\xcf\xc0\xfa\x1c\xca\x18l\x08\xed]\xc7\xe1\x12\xe9Q\x8e\x84\xe3\x01G\x04\x04\x97\xc4\x8aF:\xd9\x1f?\xdb&lt;Y\xa4R\xb9G\x05\xb6\xafP\x8a\x9e\xf1%\xf5\x18c\x04\x9ey\xc8\x91\xdc\x90\x90\xbf\x84R(\xc9t\x8dJ$\x0c{J\xedJ\x12_.}l\xa6\x1d\x9b\xb0\xf1\xaa"$\xd9\xcc\x18to\xa4\x0e\xa9\\\x97\xb3\xf1\x10H\xec\x95,\xc2\x19q\x10\xfa\x13\x06\xe4\x9f\x1d\x03i\xb7\xc8T\x07\xf4\n\x04\xaf$\xb5|)\xc9\\\xc9\x12\xda\x0f\xe6\x01\xfaR\xa6\xf6\xcf\xcd\xcbR\x13[\xeb\xf9\xa0\td`]\xa2\xb6\x17\x1c_\x10\xdfz\x18\xf3\x93\xc6\xe3\x9f\r\x85\xbe\x16\xb2 \x19\xd2\x90\xd5y\n\x8fY\x83\xceF\xd1\xf7.XU\x1e}~\xb9\x80\xa3\xb2\x122\xe3k\x8f)\\u\xb0i\xa1\xc5\xe8\xa1u\x1d\xab\x00\x00\x03\x18IDAT\x84\xe5\xeb\xc1\x9dH\xbcw\xfe?GF\x127\xed\x8b\x98;.\xd9\xe1T\x9b\xe1\xb8\x14ZO\xafZ\x80(\x1d@[\x14\x82\xa1\xcb\xc0\xa0)\x0e\xe8rxw\x0b\xc8\xce*\x08\xf4\x06;\xc5\x1d\xbel\xa2\x124\x81\x0b\xd1\xfc&amp;\xdfqI\xad\xd3\xaa%d\x1cq\xc0\xc7\r:\x03`\xfb^\xc7\xa8\nH\x8b\xf9r\x01\xb0\x048\x8b\xb6\xd2\x1dV\xeb\xf5\x81\x16\x06@\xc1\xbb\xbd\'\xaf"\xc6\xda\xe1\x1d\x8f(X\x8b\xc7\xefF\x94\xe3\xde\xedN\xf7\x93\x1c\xb9\xf9\x18H\x06\xb2j\xe0c*\xee&gt;s\xcc\x85\x1a\x98\xf38`"\xda\xc4\x00l\xa8\xc2\x19Q\x82\xa1\xf4SA\x11\x07\xad\xa2\x03\xa1sA\r\x0b`\xc7T\xb0\xc82\x90\x01,\xe5\x1d\x1d/\x05;E,q,\xdc\x04\xedb,G\xdf\x8e\xf7\x11Q\xe9\x85cq\x96o\xb5Sw"\xc4Q\xd0\xa51!\x17\x03\x1c\xab\xf68\x05\x03\x0b\x18yK\x06\xb2\x00\'3\xf8\x08\x94p`\x89\x9e\x86c\xea\xa9\x11&gt;\x14\xef\x14\x8bm\x81U1x%rX l\xd1v-\xb0g\xb8\xfb\x13\xf8\x08\x14f\xf2\x8fq\x12ft\xbc\xba\xd6\xdd\xe9h\x86c\xd4\x8aPl\xce\xcaC4\xf7gbs\x16P\xfc\xe1\xea\xf50\xad\xb1\xe5Q\x8e\x19\x1f\x9c\xdc\xcf\x8492\n3P\x00dU\xc1\xc7\xebl\x0f\x04\x1d\xb3\x82y0M(\xd2&lt;R\x1d6g\x1d\x03f\x0eX\x1f\xb3\xba\x04q\xbc\x8e\xaa,\x03E\x80\x9dY\xc51`m\x8aS\xd6~l\x87\x11\x959":\xa6\xd9\x98\x8e\xcaX\x11\x8fz\x18\xd1\xd6,\xa7\x943\xfd\x8e*\xd2\x94\x9f\xc3\xc5\xc7\x02LZ{\x9c\xdc\xb7\x01\xbb\x86\x99\xebQ7N\x15\xc0z\x0e\x07@\xebxQ\xfb\xb3\x95S\x91\x86\xb7=\xd6\x03;\x06\xd3\x9b\xdc\x9d"\x80\x89\x8b\x85\x8f\x81\n\x80\xdd\x94\t\x98Ng:\xb9O\x02\x1dt\xd5\x852\x1e\x9d\xb3\xa7w\xc5\xfe\xcd\xfd\x8eG\x81-l\xd8\x82\x9c\xd5[\x03\x7f\xb6\xa0\xa4\xc4\xda\x8f\xa0\x83\xae\xe6\xba;\xcd\x04\xe6\x1e&amp;[j\x9d\x8b\'\xcb\xcb\x01^?\xe2&gt;1\x15\xd8\xcf\x99v\x1d\xe3\x90\xa1Y\xc0\xf4\x93\xf3\xe6\xcd\x9b\xdb\xb5\r\x18\tpy\r\xb0\xef\xb12\xf5\xfe2\xa7\x99\xe5\xbe\x8e\x1c\xbc\xb2\x0c\xd4\x03\x9a\xa0C\xd4\x0e\x1evrz\x12\x17\t\xac\x82\x9e\xd7\x10{\x88\xda\xad\xe7\xc0x\x8e\x8c\x03\x06\xf1\xe18\xd0!jvT&gt;sNX\r\xe5\xc89\xc7\xd5\xef\t\x1f9\xf7\x1e4q\x81t\xe4\x1c\x8b0\x03\xd5\x01;\x17\x0b\xa8\xf2{\x08\xb4\xc3\xe3:\xf1\x07\xf4M\x05:&gt;\xf85h$\x85E\x88F\x07TjRr\x9c\xa1&amp;\x03\xed\x80\x1637\xe8\xf0\xc7\xf6I\xdb\x89;\xfcq\xfb$\xf0\xe1\x8f\xdc\xcc\xb2\x0c\xb4\x05\xec\x8a\xbc\xe6\xa0\x14\xb3\xe0E\xb1\x07\xfe\xa32=\xe2_\xa4\x81F\xde\xccyi~T&amp;\xf4`Q{9"\x0e\x16\x05\x17\xb5r\xf6\xf49X\x14V\xf6\xdb*q\x13:\x86\x95[\xc9V\x82\x81\xfe@FH\x9f\x87[\x05[\xdaR\xe1\xe6\x11\x15\x92a\x18@\xc0.\xa3c#\xad\xa0\r;\xe2W[A\xdaFG\x86\xe2\xb4\x04\x00ljxn\xedt\x8d\x87\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67001157408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1957</v>
+        <v>1981</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,20 +534,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xf7PLTEGpL\xff\x00\x00\xff\x04\x04\xed\n\n\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x9a\x03\x03\xff\x01\x01\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xfb\x00\x00\x0c\x0c\x0c\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x01\x01\x02\x02\x02\xff\x01\x01\xff\x00\x00\xff\x02\x02\xf7\x03\x03\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x03\x03\x03\xff\x00\x00\xff\x00\x00\xff\x05\x05\xff\x00\x00\xff\x01\x01\xff\x00\x00\xff\x02\x02\x00\x00\x00\xff\x03\x03\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\x03\x03\x03\xff\x05\x05\xff\x00\x00\x00\x02\x02\xff\x00\x00\x02\x02\x02\xff\x00\x00OOO\x1f\'\'\xff\x00\x00WWW\xff\xa0\xa0\x84\x84\x84jjjrrr\xff}}\x00\x00\x00\x05\x05\x05???\xff\x92\x92111xxxk\x00\x00\xff\x83\x83\'//\xff\xb0\xb0RUU\x98\x98\x98\x03\x03\x03\xff66sss\xff\xa5\xa5\xffll\x84\x84\x84___AAA\x0b\x16\x16&amp;&amp;&amp;\xff\x1a\x1aM__\x00\x00\x00000\xcf\x1a\x1a\xa0\x00\x00\xffbb\xffTT\xff99\xff\xc8\xc8\xffff\xff\x83\x83\xb6\x00\x00\x00\x00\x00\xe2\x00\x00\xff\x00\x00\x00\x00\x00\xff\xff\xff\xff\x02\x02\xf1\xf1\xf1\xd9\xd9\xd9\xa0\xa0\xa0\xfd\xfe\xfe\xf8\xf8\xf8\xff44\xe8\xe8\xe8\xd4\xd3\xd3\xab\xab\xab\xe4\xe4\xe4LLL\xff\xbd\xbd\xa7\xa7\xa7\xb9\xb9\xb9\xd0\xd0\xd0\xd6\xd6\xd6\xe6\xe6\xe6lll\xea\xea\xea\xaf\xaf\xaf\x8c\x8c\x8c\xff\x06\x06\xcd\xce\xce\xff\xc8\xc8\xf3\xf3\xf3\x88\x88\x88\xb6\xb6\xb6\x85\x85\x85\xff\x84\x84\xf5\xf5\xf5\xee\xee\xee\xdd\xdd\xdd\xffAAGGG\xec\xec\xec\xff||\xfa\xf9\xf9\xff\xb7\xb7\x80\x80\x80%%%}}}\xe1\xe1\xe1^^^\x1d\x1d\x1dggg555\xa4\xa4\xa4QQQ\xffff\xdb\xdb\xdbZZZ\xc6\xc6\xc6sssVVV\xff\x9a\x9a\xc0\xc0\xc0\x98\x98\x98\xdf\xdf\xdf\xff\x8e\x8eppp\x95\x95\x95\xb3\xb3\xb3+++&lt;&lt;&lt;\x9b\x9b\x9b\xff\xda\xda\xbd\xbd\xbd\xca\xca\xcabcc\x90\x90\x90www\x92\x93\x93\xfb\xfb\xfb\xffYY\xfc\xfc\xfc\xff\xd0\xd0\xff\xa1\xa1\xff::\xc3\xc3\xc3\x11\x11\x11\xffkk\xffJJ\xff\xa7\xa7\t\x08\x08\xff\xf9\xf9999\xff\x16\x16\xff\xd5\xd5zzz\xff\xc3\xc3\x9d\x9e\x9e///\xff\xe9\xe9BCC\xff\xe6\xe6\xff\x0f\x0f\x04\x04\x04\xff\xad\xad@@@\xff\xf1\xf1\xff\xe0\xe0\xfftt\xe3\xe3\xe3\xff..\xfe\x1f\x1f\xff\xf5\xf5\xff\xed\xed\xff((\xffRR\xcc\xcc\xccSSS\xff__\xff\x91\x91\xc8\xc8\xc8\xa2\xb7\xb7\xc6\x03\x03\xff\x97\x97\xff\xfe\xfe\xb9\xd5\xd5\xf0\x00\x00}\x03\x03\xcf\xe5\xe5\xff\x94\x94\xe1\x07\x07\xaf\xc7\xc7\xda\xf6\xf69NN\xa2\x8b\x8b\xbbOOFqq\xb1\x00\x00w\x9c\x9cW&lt;&lt;\xec\xff\xff1\t\t\x16AA\xdeWW\xc7\x91\x91\xb3\x95\x95\x88^^\xd5\xaa\xaaT\x80\x80\x00))\xea&lt;&lt;O\x8f\x8f\xa8\x99\x99\x90vv\xe2O\xc1\x15\x00\x00\x00ftRNS\x00\xee\x08\x03O\xf3\xde\xd6\x06&amp;\xfd\xe4\x1b \xf9\xe9\x16\x03wG1Ygc\xa0`\x10\r\x7f?-3\x10\x99\xbeq\xce\x90\xb1\xa7 \x94\xc4\x9b9\x86\xb6T\xac\x86l\xc8v&lt;D\xba\xe0\x97\x8c\xcd\xea\xec\xea\xf0\xd2\xb2\xc8\xcd\xe2{\xe4\xc8\xe5\xdc\xf0\xa1\xed\xd0\xeb\xc0\xce\xb2\xd3\xf7\xb6\xb5\xea\xda\xe5\xef\xcc\xf7\xe8\x92\x8b\xd2\xf1\xc6\xbd\x82\xe0\x9c\xf5\xbc\x86\\\x00\x00\x1dcIDATx\xda\xcc\x98kP\x93\xd9\x19\xc7\xc3-\x84\x8b\x82\xc8"\xa8\xa0\x80 \x97\x82\xba\x088u\xd4i\x9d\xee\xd6q\xeb\xb7v\xdb\xee\xb6\xfd\xd0\x99s^r#7H\x02\x06B\x08$\x81@\x12 \\\xe4\x1e\x08\xf7\xebr\xbf\xb8 HS\x17\x17\x11\xc7\n*\xbb\xea\xb8\xb3u\xd5n?\xf52\xfd\xd2\xf3&amp;!\x89\xf8\x82\x89\xc6\x19\x9ea\x86\x10\xde\xf7\x9c\xdf\xfb\x9c\xff\xf3\x7f\xce{H$\xa7\x04%\xec`\x04\xd9\')\xdc}?i\x07\x85W\xb8\x070E\xe2\xde\x9dC\x95\xec\t,\xe1\x12\xb4cr\xe57k\xc5\x02\xbb?\xd8\x19Tn\x11%\x858\x8f\x87\x8b9_\xbbv\x04V\xc8\xdf\xf2\xae\x00\xe0\x97\xe0\xbe72\xc9\xc8\x15\xbe#\x92\x95\xda\xf4\x14\xe4\xfa\x85\xe2\x9f}\x13\x8b\xc6\x00\xf0\xf4\xda\x01X\x87\xc8\x8bHZfA\xf9\xffrz\x87\xa8\xcb\xfd\xd2(\x00dW\xf3_\x7fh\x1a\x02 r\x07`}0\xd4\x04@\xc4\x06V\xe4}\xa4\xb3\x80\x9d\x90\xad)\xdbl\xfd\xf1\x9b\xb5\x9d\x91-\xa4-T}\xee;M[\x94\x88\xd1B\x90F\x0e\xc3?\xef?z\x1fY\x18\xf9\xbdW\xa2=\x9d7\xe8J^:\x00&gt;\x07\x93\x7f\x12\x92:\x9b\x0erA\xb0\x93\x06\xde*\x0e\x04\xa7\xba\xdaa\\q\xadF\x97\xf7\xf3\xdbmry;\x92\xe5\x9a\x1a|\xe0m\xa9\xc2\xe2\x00\x88\xb2\xab\'\xae8\xda\x13\xa3\x00\x88\x0b{\xcb\x12#\xe3\x93\xd8\xb3!\x08K\xf5\xb6Py\x86\xd8\xb3\xee\xbb[\xd3\x01\xd9\xfdmzJ\xa4\xa9\xf3\xba\x84\xbeY\'a\x01\x1b\xdb-\xe0\x1d\x1b\xf6\xe6\xd5\tuiZBM\xca%\xd2\xcdaY\x85oL\xe4\xe3\xbb=\x93{0\xd9\xc5\xc3\x92\xad4\x0f?r\xf0\xde\xed\x05\xed\xebs\xeb/\xad\xa6\xa6\xee\xa0\xc0\xfc\x8f[\xc5\x12\xb1\x8d\xec\xbd\x02lv\x80\xd6\xf0\x0c\xd8F\xf6\xae\x11E\xd7\x9a\xcc\x17\x1e\xf7w\x84jW\xa2\xed$Q[\xe5\xda+\xc1\xe7\xeeX:a\\J\xd8\n\xcc-\n\xe4M\x83\xb4\x8dM\xb6\x03\x9b3\xaf\x88W\x9e\xdd;hKgXZ|\xdaD\x14\xa3\xadw\xe3\xb6x\x98 \xef\xf9\x0c\x9b\xc1#\xec\xf6^\xaf\xa4Mk\xb2\x9bX\xf6\x14OU^\xd1X\x11a\x8c\xdd\xf0\xa4\x10\xcb}\xb7\xaa\xfb\xb6\xed\xe0Ivr\xedJzM+dB\xd9S\x8e&lt;-\x04[\xc6\x11B,_r\xeb_\'_\xbd0\xc9\xaeu\xf4M%\x98#\xd1\x9f\x10\xabd\xd2A\xac\xfd\x89C\xdd%\xa8?\xbd\x12\xa9\xbev\xd4`4\xe1$D\xb2\xa7\x1cY\xc9u\x0c\xcb-j\xa5\xbb\x10\xbcvS\xf4\x1b\xebq\x7f4(\xba\xbbQ\'i6\xb7\x12\xc8\x9eBN\xbf\xb2EL\xae\xcd\x92\t\xb0\x82f\xbbG\x89\x06\x8f~S\xe7\xf6M\x02\xad\xf37\xcc\xf7\xa4\xa5\xdf\xd8V\xf6QS\xad\xf7[\t\xe3i\xc9J\x14\x91\xdcGF\xcc\xc3\xddH\xb7\xc5Jz\xe32\xfa&amp;\xde\xce\xcb\xd8x\x1dM\x1f\xb2r\x11\xbc\xcfP\xacMgsx\x04\xbc\x9e,/\xcf\xd1\xee)3\xd5P\xba\xadr\xed\x10\xd7\x81D\x90\x97\xb1\x91\xaf\xa1\x12\xebC%\x12d:4\x8e\x98*.\x94H\xee\xb7\x10\x95QXi%C\xb6Tv\xb5 \xd7h\x1b\xae\xc2i\xeb\xed\xb1D\xd5\x18\xe9i\xbc\xf0\x85v\xfd\xc9\x93\xf5\x7f\xbe0N\xea\x19IT\x85\xb1kKkf\xb9O\xdb\x1aK\xb4\xab\x9dm\xfa\xa8\r\xd7t\x86U\x9c\x84n\xef\x1b\x99\xea\x02\xd6\x9f?\xfc\xfbC\xf4\xf3|\x1d\xb8\xa4F\x12\xaeI\xd0\xda\xd2}\xb3\xd63l\x9e\x15\x1c\xb5\xbb]\x1f\x08F\\\x1be\xac\xb2\xb6\x8a-\xf6\x9d\xfb\x93\x83&gt;~)\xd3\xcb\xe5z\xd9\xcb\x8f\x83\x92\x89\xab\xca\xebR\xf7\xbcy\x98\x0c\x95\r\x95#\xbbT\xd7p#\x971M\xb3y\x19\x96j\x8e\xdd\xea\x86\x14\x9d\xbc\x92\xc5\xaaTV\x1f\xdb\xea\x8a\xd8\xd1\x11|\x184PF\x9e\xcd\x01O\xb8\xab#[\x08\xb7X+\xd7\xd4\x92%_\x9e\xaf\x9b\xea\x9e\xc0\x93\xf1\x17/\xfe\xbc\xcb\x88%\xa7_\xb8\x98\x12\x13\x18\x18\xf3\xfa\x80\x7f\xca(2\r\x97\xb14e#W\x077\x82\xaeQ\x1b\xeb\x98\x06&amp;\xef\xa8\xccR%oj_1)\xfb\xe2\xcf\xb5\x8b\xc5\r\x9a6\x13V\xbeNt\xf5\xa3O\xce\x9c?\x11\xb8y\r?\x1d\xc2\xa9r\x81\xea\xce\xa4U\xacQ\xae$\x07\xc35a\x83+\x17\x94|\xbbhZG\x9fC\xb6\x97\x04\xc6_\xf8\xa4\xb1\x81\x8a\xb1\xf35\x1d\xfd&amp;\xac\xae&gt;=\xac/\xa5\x96\x0b\xce\x9e\x08&lt;\xfc\xcaK\xae\x8f\xc9\xd8\x17\xbf\xb5i\x89\t\x0eS\xa1\xb4\x1fD\\i\xa6G,\xfc\x12\xd5\xce\xec\x18\xf0K\xb6\xfc\xfbp\xcc\xbeS=2j\xdd\xcc\x9c&gt;[D-(\xa0\xea\xb3\xb2\xf4\xd4\xfc\xc1a\xfe\\\xb6\xfazWv\xf6\xb9S\xf16)K\xf6\x03cHR\xd3_\xda\xb4\xc4\x83n\xa4\xb7\x89\x00o\x8b\xbeF\xef,\xdeR\x15\x02\xbf\r\x97\x8c9y:\xbbBN\x1d\xaf\xd1\xb5K\x15\xca\xf2\x96\xea\xd5j\x8d\xaeKK_\xadnY\x96\xb33\xe9\x05\x15\xe2a&amp;\xff\xcc/,\xfe\x15\xea\x07\nU\xb7\x16\xef\x8cZ7\x97o{\x80\xe2\x16\xe9m\xf1\x89y\xeckU\x1ap1\x9f#\x1f;\xdfN\xcbWKW\xd5\xc2R\xdax{\xc3\x04D\xf1\x154\x85\xa6\x8c_\xdf\x82\xf5\xeasz\x04\xf5\xc5\xbf&gt;fV\xff^\x17\x90\xa6\xfa\x1a\x9b\xb7RE\xba\x91\xde6&gt;\x04y\x19&amp;\xd9/bx\xfa=L\xaf\xa6)gi\x18\xa7J\x9fY\xbe\xdc&gt;\xd0\x81H:a\xa7\x82\x8f~7\x088&amp;\xb4\x99|\xfe\xb2P\x7f\xb3\xb8\x8c\xdd\x7fa\x9f\xe9\xb8\xc9\x03\x97\x02\xb6h\x91\xfb\x87\xefr\x06\x11\x84\xf2\x85oq\x87\xae\xa9\xae-\xa1\n\xc7\x13\x1fx\xe2\xa6X\xae\xaeTH\xb2rn\xc2\x05\x1e\x84\x12\x1a4`B\x08\'z\x19\xcc2\x9cN\x87\xbe,\xee\xca\x92\x8d\xd7\x08\x98\x97\xf3O\x18\x05\x91\x06\x8a\x96\xd0 C\xdb\xbf\x1e\xd8}^\xeb\x917\xbf\x06\xc0d\t\xb2\xd5\x91\xdb\xe08\x89r\xf2#Q\x9d\xba\x98^\xcaF\x04\x13PH\x83\x90}\xb9Q\xcb@X\x0525U\x00a\x07\x1bcUA\r\x84\x83\n\xb6\xba\xbf\x16q\xed!\x91\x8e\x82\xdb#\xc8F\xcd\xdbY\x8f\x10\xd2;\x86\xfb\x91oJV\x8c61;\xaf\x02&gt;\xee\xf1:\xd9=\x1e\x7f\xb9\xa5\x1a\xc2&gt;\xa1\x08*\x94\xc5\xbc{\x0c:\xc4\xb1\x96\xc5P\xc8\x9a\x80\x15\x12\xb6\xac\xb8\x92\xad\x86\xf0\xaa\x88+-\xd6\x97u\xfe,\x10IK5?\x8b\x17!\xae\xd5#\xee\xa4w\x0e\xdf\x90\xe0O=\xbc\xbd\x91(V\x9a&amp;\xc1\xe7/16\xe42z\x0c\xb0\xa6\x9e*\xad\x84\xfd\x0c\xe5e%\xc6\x87\x0c\x1a,\xc3$\xe5\x12Y&gt;\xcc\\\xee\xe4\x1a\xaec8\x16\xac\x10P\xd5eT\xc1o?\x07\x93M+h\x08oo\x0f\xcf\xa3!\xbe$g\x84\x1b\xc5\xff\x90{\xc0q\x1f\x90\xfb\xdf\'\xff\xc9\x12k\xcb\xe5s\x10\xf2e\x92a$\xa1U\x8cm(\xce\xaa50i\x90\xc5\x9a\xbb&gt;\x8e\xd5C\xaa\x10ryR\xa1vA\xd4\x92\xa9\x85m\xdc\xfc6\xb9\xec\xdf/\xa6r\x81\xcf\xf1\x00\xf7C\xfe\x147\x92S\xc3+\xe1\xb3\x7f&lt;,\xe8\xab\xe0f\xf1P\x1e\xeas\xe6\x98b\x08\xab\x94\xb4*\xc8Y\xae\xa4\xeb`&amp;\xca\x8fV\xc8\xe1\xc9\xda W\xa4\x14\xc16\xac\x96-\xae\x83\xd9Bz\xa3\x98\xf6|\xdd\xef\xa7\xef\xe9\x90p\xcf\xaf\xc4Y\xbcf\xa5\xa0\n\x89\xb9\x0fU\x9c\xb0\x14\x81H\xa9\x95\xd0P\x03-\xa1\xe1uu@.&amp;\xcf\x869X\x0eD\xcb\x0bkh\xb5\xab\xfa\xbe\xab\x7f~_\'\x96\'\xab1Q5\xd6\x83[\x00\xb5v\x01I\x1ec_\x85\x86\n\xe4\xa43uem\x9cvQ\xe6\xe0@c\'\xce\xa6\x93\x89!\xdf\xc0\xff\xa2\xa1\x9f\x8e\xbbX\xcbe\xd8\xd3{!\xe5\xfd\xe4*\xe5\x02U0\xc3m\x86\x06z\x0eTS\xc7\xd1|\x0fh\x88ib\x8e~O\x82Y\x82Z\xaf\x1b\x98\x80\x13U\x0bT1|\xc04\x98\xec_A\x1b`\x96\x9f\x8fy\x1fX\xc7~\xa3n\xee,\x17\xc0\xbar\x99D\x80Zs\xbb\x16jf\xe0\xcdLA)\xb6)d\xbdt\xe4\xfd\xed\xb2\xcc^\x86\xda\xec\xfa\xc2\xae.f\x0f\xee_\xce\xceU\xe0\xb9\xde\xbe\x85,\xae\x066rY\xeaf\xaa\x82)\xc3\xedT\xc4\xc5\x88b\xb8\x85\xfe\x15\xaaA\xecA\x87\x91\xaa\x06\xd6\x08\xd5\xea\xde3\xceO\x17\xe5\xf7T\x85\x96\xab\xac\x82&lt;\xd8\xb8\xdc\xa2\xa9kV\xea\x90\xad\x13C\xe1\xc1\xa8\x1d\x80\x9d\x15\x1a#\xd5uI&amp;\xec\xe3\x8a4\x86x\x8a\xb3\xb1\xf6I\xb1LQi6\x94J\n\xa0\x9eJ\x9bA}\xc7 \xc5\xb6\r\x8e)U\xda\x1e\x06\x8b\xab\x86m\x92\n\x0e=\xfe\xb0\x93\xb1\xe2\x97\x97\x8bYR\xf4\xe4\xc3\xc3]\xb0\x1fk\x870[\xb1\x99\xe3\x0b%\x8be+4v6\xa2\xaa\x10`\xb4\x8e~\xe4"\xbd\xcd\x83\x0c\xce\t\xe7R\xa5\xfcN\xdc \xa5\xe1kRv\x19\xe3kr\xb2Q\xca^Y\xb3\xef\x1f\xfd\xebYYe_\xdf\xdc`/\xc3\xcaU\x05\'\xd8\x0c\xa9\xa2\xac\x0e\x13\xc1F\xc5\x9cBr.\xd0\x99T\x87O\xeb\x8au\xcc|x\x9d5\x08\x8b\x05X\x0b\x84\x032\x9b,}\xff\xe8\xd9\x0f\xdf\x81\'fC\xcd1eL"\x1e0Lh`W\x1b\xe40\xb1\xd26\x089\xf5&lt;\xe6\xf8I\xa7\x1a)GX5\\\x0f\x07\x86\xb9\x8a\x86&gt;\xc8\xe7@\xad\xd2\x02\xf5\xa3\xe2\xe1\x0f\xeb\x8f\xefN\x97\xbc\x80u\xea\x9c\x82:4?\xfa\x96\xcbo\xc4\x8d\xe1\xc1\x1c\x0eJg\xb7\xe1\xbfj\xa5}\xa2\xd3NT\x17\xe5\x94\xbc\x99\xa7\xac\x80\xb4\xea\x05\xa1\\y\x0fo&lt;]f\x11\xfd\xf8\xe8\x7f\x9f}\x87\x9f\xed,\x16&gt;\x16pe\xc3L\xae\xa0\xb2\x1f+\xe7\xe0\xed\xa8\x82/\xcc*7\x98v\xd3\x0b&lt;\x1e\xda\x8fu\xceh\x9d\xe8\xf51g1\x11\x9f\r\xa5\xd8jAm5Ma\x80(%9L#\xd4\xb3\xf5\xc7\x85y#\xa3\xf8\x1b\xe9\xffY\xb7\xba\x177\xae+NC\x9a\x86\xa4\x10\x96.l\x1e\xda\xdaO!\x10\x8a1\x84bcZH\x82\xf3\xd4\x10p\xf3\xd2\xfe\x01:\x97\xd1\xccD3\x12\xa3\xd1h\xa4L5\x92%E\x8a\xac\x8f\xd5\x17\xfa\xaa\xa4JZ\xc9Zi\xa5*E\xc6\xd9.\xdej\xd9\xd8U\x1a\x130\xbbf\x1d\x12\xb3\xc4\x86\x94B\xf3\x05m\xe9C\xcf\x1di\xbd\x1f\xc9\xc3\xd2\xd5\xbcht\x99\xbd\xf3\xdbs\xcf\xf9\x9d\xdf9\xf7\xeaM\xe2\x17vd\x860\xde\x16\x82\xba\xe5\x14\x18R\x1d\x12\x0c\x13;c\xb1X\xd4j\x07\x14\xb7\xcb\xf1\xdb\xd9\x99ka]\t))$\x07\x8cz\xb8\x15\x83\x06\xcd&lt;q\x0f\xb7\x8b\xa0~\xff\xc1\x80\xe9\xf7\xb9\xcb&amp;\xd3\xcdo6Va5\xb6(\xfb\x90\x15|f\xe2\x0f\xf6b\rB|\x90\xb1\xf4\x1d+qn\x07\xf4\xa0&gt;\xc8\xcc*\x18\xe7N\xbf\x9cje\xcc\x98\x9b\x175&gt;\xd0\x18C\xd6\x83\tx\xf5\x8b{\xf6\x8f\xef\x9b.?\xbc\'\xe5Y\xe9\xc1CT\xc3\xff|$#|2\xb1\x0c)=\xa0\x9b\xa9I\xfc\x10\x96\x96\x19\x1fl\x06\x9d\x0e\xcf\xcb\xb32\xd7\x8bv_\x87\xef\x19\xef\x8b\xe7H\x16\xcb\xe6\x15\x80/\xea_\xdeG(W\xff1\x01\xf2\xf0w&amp;\xd3\xe7\xf7d\x87\xec\x8dB\xa9\x10\tH\x8b\xc6p\x06W\x1a\xb5\xcd\x9a\xa6p::\x99\xb8\xe5d~5#\x8e8\xfdR\xb5\xc2\x86KP\xb7\x04\x1a\xb1\x8d\x1a\xacx\xfau=\xf4\xafoL\xef\\\xbdsww\x82j\xa9\x7f\xd5d\xfa\xc3\x84.\x84j\xc4\x85\xba\x15\xaee\xebZa\x80\xe6*A\xc8L*\xf4\xb1\xa2\xc7]\xfa\xf5\x99\xd9\xc0\x9a\xff\x05\xe3\x96\nP\xe7\xac\x96\x81\x82\xce\xdc\xa6/\xf7\xc1\x7f\xbe2\xbdm\xba\xbb\xdb\x1bQ\x95\xb0\xc9!\xac\x0f-\x89\x9c\x9c\xb3\x06\x0b\xd4R6\xb7\x86\xdcU\xa0\xa4\xeb\xc5\xb4\x80\xcb\x1e\x8a\xda@v\xd9\x9c3r\xaey\x96\xab\r\xed`i@\xb2\xe5wAJ\xa5\xb0X\xf8\xfb\x83/1\xfc\xfeFH\x84]\r-\x93\xbfb\r\xb1jX\x0e\x9d\x10\xb6]U\xe2\x91\xed&gt;\x9d\xf2Hn3\x9b)\xb9\nALY\xe5\x86\xce\xbc:\x9bU\x9c\xcf\xf0q%\xbe\x14\xa6\x92\xaem\x87\xde$\xafl\xc3\xa7_\xd1\xde*\xe5s\xdb\x88{\xdf\xf4\xde_&gt;\xdb\xf3\xf8f[%\xaaT\xc4\xbbNxbZ\x9b\x99Dd\xb1\x08\x99\\\x91x\x17f\x03\xab\x99\xea%`\xc9_NC(\'A\xc1\x80\x15\xd0\x1c\xf74\xca\xa3\x7f\xfa\xf3\'\xdc\x83\xdd\x1b\xd7M\x1f]\xff\xe3\x7f\xddl\xa6\xe7LK~.\xe0F\xf1\xbcZ\xf2Ur\xf4a\x17\xb0\\=D3\xaaMq\x06\xe5\xf33\x91\x83\x17;I\xc6L]*P\xae*\xa55~\x92\x9b\xbd\x8c\xb6\xfb\xb9\xd1#\xbf\xf2\xee\x8d\xcb\xa67/\xbfwc\x9a\xb5\x1d\xc42B\x04\xf9V\x81\'\x8cL\x87\xac &amp;&amp;*\x07\x82.\xf7\xed\xd7g!\xbb\xe6.1\xba\x1fk\xf8\xa4\xe4HhQHMSa\xc1\x11\xfc\xb4|\xff\xed\xebF\xab\xe3\xee\x95\xab\x9f\x10.\xb15,\x97\xb5\x84\xd9\x1bB\xd9\xd3F\x89\xc8\x05E\xef\x80&gt;&lt;\x8e\x86{c\x9f]n@\x90\xc4Z\xaf\x9f\xd8Zs\xf3g\x16J\xdeN\xcbM\xfb\ri\x1a\xf6\xf5)\xacpW\xd0v?\xbe\xf2&gt;\x82\xfa\xf0\xdd\x0f\xd0F\xa3h)I\x0b\xb2&lt;f\xa6\xede\x8c\xc0D\x06C\xcf\xc8Qd\x05\xb6x\xd5C"^\xc8`H\xbev\xe6\xcc\xfc\x89\x90\xcd]tv\xbb\xfa\xba\xbe\x8e\xf3[\xae\xc1\x8ewJ\x0f\x94\x9e*\xb0\xc8|\xfd\xef\xebw\xde\xb9J8\x8f=\x1f\xdb/\x15\xc7.\x9e\xf0Zm\xc3\xd0\xa6\x89I\xdc.I\xe5\xde\xe2\xda-\xb0\xad\xbb\xdd\xeen\xd7y\xf1D\xd2\xe1\x15m\xc0\xf3|\xc4\xcf\x82\xc5\x01\xb0\xe5\xe9\x80yO\xd0\xe0wM\xfb\xec\xf2\xbb\x84\xab\x8a\x06\x02\xb0\xf9X\xd1%\xfa\xd6\x13\x84Y\x9e\x90\xfc\xe2\xa8\xa5\x91\t\xd1O/\xd6\x1f\xc1\t\x07[\xaf\x9c\xc8\xbf^\\\xd4}&gt;\x9f\x1eMF\x19\\\x9b\r\xa6\x01\x96=XJ\x1e\xdc\x89\xaf#\xc4\xd12@eE\xadjHC\x8b\x99\xc8+t\xe4ZES\x08\xa7\xd1U\x14\xa0+\x0b\x82\xe0h\xc3Z\xd4\x980\x7f"98w^\n\x9a\xf1\x12j\xeb\x1e\xfc\xff\xd3\x01\t\x02\x8f\xf4_\x06\x99\xf5\x81L\x99\x00b\xeb\x0eJ\xe7\x9c\'a\xb6\xa8r\x8b\xfa\xd8XR\xfb\x88\xdd\xeb\xa3X\xcd \x11\x86\xe1#9X\x11\xe8|9\xe9D$1\xf7F9\xac\xa2VR*\x90\x8b\x88lPm\x1e\x80\x85U\x7f\xa1l\x18\xaa\xa2 \xa7Z\xbd+\xa1\x8dd2\xb6F\xa9\xc0&amp;1\xa4\xaf\x88\xdb\x08\xd0a\xc0j\'\xd2\xb1\xa5\x8d\x18\x8c\x14:_\xb8\xfc\xc6\x89|~\x01l\xb6P\xc8\xb6\x86Y\xd6\xe1\xef[\x91\x8f\xf6\xd5\xb2\x9a\x07)\x8c\x95\xa9d%}\xb3=\xb5\xef\xf2\x90d\xad\x84\x17\xba\x93V\x89\x9b\xa3\xb0v\x18#&amp;V\xa1I\xe7\xb3\xc1\x89\x98~\xeeB\xc1b\xb5Z\x15\xab\x88"!\xaegQ\x9b$\xf6K\x0b\x1f,\x86\xa3=\xb4\xd4\xd0=!\xcb|\xa5,8\x84f\x07\r$\xe8\xc6\xc8\xca0!c\xe1\xb6\x03\x95\xb6\xd1\x8e\x06QQ\xe8\x84\x85\x0b\'\xb2\xd6y\x9f(I#\xd6\x9d\x7fd\tm\x1f\x16\xc6\x97 xH\xc1i$h\xa7\x9d\xf1\xf8\xfb\x1c\xc7\r=$l\xe0lVT?\'\xa424\xfbt\x9c\xd91\xb5W\xa9;\xd2YQ\xf4\x9d?Yq\xb1p\xf6\xec*\xa4\xbb\xa5\xa9\xacj\x1ae\xcd\xf4\xf2,\x81\xa4\xb2F\xd4uF\n\xf1(Z=\x15jf\xdd~;\x05\xb5\x88\xeee\xf1"\x03wT\xe2\x86eBxs\xbb\x07\xbex\x96\xb5\x9d=\xbbp\xe2\xfcs\xbaS\xcc\xf3\xd3~\xfb\xc8\x0e\xd1\x035\xab{\xf1\x9a%D\xd5\x9d=L\xaa\xed\xf8\x9eAk4\x0c\\ab\xce\xa4\x8d\xef.\x92\x02_\xbb\xa0\xe5\x982\x04\x99\x16wi\x16\xa9z\xbe\x1b,y\xb4\xe9\x0bu\xd8&gt;\x00\xab\xed\xb0W]\x90\xc5L\x93\xab\xdb`\x92\x9e\xcdA/eM\x95T\xeb\x13Pq\xb3\xa0\xd8 \x89&lt;\xb2\xe6LC\x8e\xdf\xd6/\xceB@&lt;\xef#=6h\xbca\x15\xc5IZ\xd9\xc7e\xd6\xb8\xe52\xeb\'\x16\x1dW-\xd9q\x05\xfa\x91H\xa4\xaf\x82S!\xe1\x8a\x11\x05K\xb4\xa9\x93\x88C\xeav"Y\xa3\xf5e\x82\x1d\xfff&amp;2\xf0\xc9\x0bV{\xca\xbaf\xf0\xf6V"{\xd0\xb9\x02\x12\xef(;\x02\xe2*\xe5\x01\xf4\x1e5\xe7Z\xc96\xd7\xba}\xc6k\x80JvQ\xfd\xe5\xeaI\xb8V\xa86\xf1\xef\xe2\xb0\xae\xc4\xad\x97f\xd3\xe6:k\xf7\xc4\xf9.\x94\xb6\xd6\xc1\xa9\x9a!\xba\xdf\xfa\xe0\x1a-!\xd1\xa0\xe1P\x17\x90\x13\xc4i\xbcJf\xe7\xa4\x19\x81\x83\xb2\xc1^\xcep\xad\xe4\xb1\xabC\xb0\x0f\x8b\x91\xd9\x94&gt;s\xcf\x9f\x13\x8b\x9c\x17p-\xd1y,\xc5\x98p\xa0U\x04io\x99R\xed\x80h\xd1\t_:\xb72!\xc3\xa9\xb6\xe5\x08\t\xea8\x98\xafA\xad\xefJ\xe4@\xb0C!\xd3\x0b\xfc\x9fZ\xfe\xd4\xe3G\x0b2[\x88\x97\xc1\x97\xc0\xb5J[\xdd\x87("\n\xd1\xf2\x06\x96\xceU\x83&amp;\xa0\xc4\xaaL\xc1p\xfe\xb1\xc8\x93\xf0\x08A\x95\xc4\x88\x04\xe9\xe5\x08ck\xf0\xa9\xb1\xc2\x8a\xd5\x97\x8e\xd4\xaf\x8f\x9f:\xde\xae\xd8\x91\xd3Zs/\xe4\xc48S\xcc*R\xc9m\xe6\x9c\xb0q\xa05\x89od\x97\x89\x9aA3\xf5\xecy\x97\x7f \xd7\x8c\xd6r%\x81\xc5\xd8\x18\x195\xc3`\xe6\xc1\xcf^\xd6iaA\xe7\x8b\x99\xa3\xbd\xa4\x1f&gt;q\xbc\xdd\xb2\x9f\x99\x9e}\xecHU\xdd\xef\xa0\xdem1*\xe9K\x98CF\xfb\xde%o@qk\x88\xde\xa5;\x06\xb7\xadD\x9e\xa4\x9c"\xa6\x02C\xdc\xe8\x98x\xfaQ0\xec\x97\\\x83k\xcbvg\xe7\xdca\x8f\x7f\xecY\xd3\x8f\x8f\x05\xeb\xb9\xa3{\x90\xf3\xe7\xfc\x9a\x1enB\xb4\x91\xa9\xc1\xe60\xbf/\x05\t\x97\x82\xc5\xf5U\xb0\t\xa8\xaa\x84\xb6n\xb8\xd7f\x9b\'\x9e.\xde\x86\xb6h\x958\x04]\xddB\xd2-\xd5\xa0d\xb5\x99S\x0bGwRM\xcf\x1dk\xe3\xe9\x07&amp;\xd3S\x87\x7fD\xf4\x82X\xdd\xbc=\x11\x04\x10RY\xc8\xef\xb7\x02{\x90\x0eA\xcb\x90\x15\x82\xd1\xc8*eP1{\xd7\xa8\n4F\x19\x1b\xe4s\x03\xbf\x94\xb7\xb6\xa1]\x16\xc9/\x0f{\xd6\x8f\x9e\xfa\xce\xd3\x15\xdf\xb1Q\xf7\xf4\xb7N\x16\x9c~M\xcf+\x96\x03\xca\xa5\xfe\xa8s\x8b\x8e3\x9e\xca\xfb\x04\xaeo\xaaa!\x91eZ\xb8\xae\xecL\xb6\x0e\xe2\x10\x8f\x83;H\xc2\xd6XR\xcd\x0e\x99sO~\xeb\x1c\xc2\xd3\xc7\xd9\xc8;\xf5\x8cq&gt;\xe4\xd0A\xe8\xf3\xc5|\xaf?\x9a@j\xe5\x1c\xcdG\x85\x06\x894a\xdc\x9f\xde\xda\xea2\x1a\xc8\xf0\xaf\x8d\xc6\xa4\xe3\xdb\xcf\xc0F\x153\xd7R\xa3\xdf\x05/o\xcb\xb9\x0e9\xfcO\x8d\xc3\xb4\xcf\x1c\xe7\xd0\xf5O\xbeg\xba\xf9\xd6\x11\\?\xaf\xf0E\t+P\\\xa6\x10\xb1V\x15\xb8%\xef\xedWT&amp;\xfa\x93\xde\x8a92\x90\xe3(H\xd3\xf507-r\x8dLM7\xd2\xaa\xb0mq\xd9\xbc\xaf\x9e&gt;\x82\xea\xad\x9b\xc796\x8d\xab\xfd}\xd3Gw\x10\xd7\x13\xa7\x0ev\x9a\x13L\xc8j\xa7Z\xb0\xe4/C`\x08\xb0\x87Kp;\x8b{E\x87\xdbIU\xbc\x93\xddK\x9b\x03Z\xf1,\x9a\x07\x1a\xac\xfd\xaf\x99k\rj*\xbb\xe3\t&amp;\x04\t\x81\x14\x16\x11\xc1\x07\xc8C$\x14j\xd5u)*\xbbu\xc6\x1d;\x9d\xeal\xb7\xd3\x8fm\xa7=\xf7\xe6AHx\x04!\t\x10\x1e1&lt;B\x14\xd0\xf0\x10(0\x80\x10\xa3 \x86\xb0\xc0"\x01\x8dA\t\x01\t\xb4\xe2\xd6\xddq\xda\x1d?9\xfd\xd4~\xed977$\x81H\x83\xb8.\xe7\x9b\x80\xf7\xfe\xee9\xff\xf3\x7f\x9d\xdf\xef\xe8\x07\xb1\x17\xa57\x04O\xdc\xbbH\x07\xfd!\xaa\xe5g\x80\xee\x8b\x1c\x8eF\x87\x05&lt;:\x9d\x0eq#\xbeG\x0ceU\x0c\xf1\xee`R\xde`\xd7BMw\x03\xb4\xe8\xdb\x8e\xb5\x13\x15\xca$\x0bN\\\x15\x92\x9c\x02\xfdZ\xc3\x1e\xa6C\xda&amp;A\xa1\xe4\xee}\x94\xea\x94\x8b\x1a\xf9\xad\xc9n/\nG\xd6\xf2l\x18\x00:\xcdGXc\x04=\'8:\xc0\xe5R\x87\x16j\x1ar1\xedBq\x87j\xe0\xaa\x8402\xa2`\xe6\xe5\xf0Z_x=\\\xb9\x02K\xf1b&lt;+K\xf0U\x1bL@\xae\xc9*\x1efu\xb9\xbcC@t0A+\x1a\xdb\x02\xacg\n\xa3\x83\xa0\xedb %\xd7`\x05x\x05V\\\xd4v\xbf\x02V\n\xc8\xccntC\x0b\xcaj\xab\xaa\xeb\x14z9\x8b\x12\xa3\xc0\xad\x95JDee\xb2"h\x80\xa2G\xad*W\xdf\x94\xe5\xa0\xb7\x1a\x15\xcf|\x84\x15\x86\xe8\xfb\x13$\xeb\x84\x19\xe9\x9c\xb0C\xa7\n\x1a\xbbj\x8b\xb1\xde\x06~\xbb\xd3O&lt;\xc9\x91\xe1x\xd5\xe0\xe5\xdb\x1bO\xca\x8a\x04k\xde\xa4\xb1\xb3\xbb\x19\x93Wa7\xf8g\x9d\x96\x15\x10\xc9t&lt;_\x81\xe8xT_l\x8bC%\xa8d\xab$\xdd4\x91\xe3t\x12\x97yR\xc9\x95vw:\r\xcc\x8d\xfb\x16\xf0\xbb\xd8\xb5\xcb\xeb@\xb5\xca\xfb\x89h\x83*0\x87\xa3\x13\xcf\xc9\xa5_8\x97\x90\x93\xe8\x10\x93\x80U\x82bF\xe5\xf8r\x80O\xf8\xad\xa7\xdfj\xd4J\xdb\xb0q\x16\x84$:\\\xc5\x91S\xb9e\x0f\xf4u\x8d$ \xedM\xac\x17\xa5\x9b\xcd\x82J\xb8\xfd=l\xeavy\x8d#\x87\x17\xdc$\xe7\xac\x9e_S\xca\xfb\x1d\x89\xea@"tA\xc6a\x9bR\xadA\xbc0\xb8\xb7|9\xf2\x8f\xf2\'\xbe\x03\xc7\xad\xf9+\x8bS\xdc@j,\xe9VR\xbf\xc8\xe5w\xd4\nI\\s\xa3zU?1o\xd0\xb9\xe7\xe9U*\x1e\x1c*\x95\xb8\xa9g\xceY\xc4v\xe2e\x8e#\xffv\xa1`\x00\xafp\xb6r\xf7\xc7\x86\x04s\xa7\x16W\xf2\xad8N\xac\x89\xbfO\xacE\x82\xe1:\x81\xe3H\x98@M8\xc6r;\xad.\x86\xdf-$M\xab\r\x16\x8a\x1dn\x01I\x9b\x97\xd7\x7f\xdd\xd1\x95\x19\x95k\x89\xe6\x0c\x9e\xd5\x84~R.k\xcb\x13u\x7f\xe6\xca\x1cX{\xd2\xd0\x92\xfc\x15\xc7\t\xa6\xe7Q\x9f2\x08$\x0e\x197&lt;\xb5"\x8a\xd4\xc7\x9e\xa7\x8a\x1d\xe2\x82[\x9d\xb5\x95D\xbd\xac\x97\xdd\xebk$\x8e\xbf\na\xba\x95w\x97\x98\x98\x0e\x88\xb9\xb4V^w\x19ZU\xb3&lt;\xab\x02\x95d\x12q%vW\x7f\xca3\'MD\xe4E\xebS\xc3\xb8\xcf\xeaO\x98j\x00\xb5\x12\x8c\xd8\xa1\x93\xf0\xf7\x0cW\xc7%Wd7sx\xc8m\xf5_{X\x88\x8c\xbf\xbfI\x9c%\xc1\x06D&lt;\x15\xb4#\x81\xaa\xea\xfa-a\x05\xd6W\x87\x0e\xecz\x9a\x90\xcdw\xf2\xfb%U\xaf\xbf\xf4D\x15\x04\xc3\x8e\xd1&gt;\x02\x94j\x9f\xa9\\\x07\x01\x98j\x01`\xd6\x8a\xf8\xb9\xe9\x9evw\xfe\xbf\x0bE\x83\xf2+\xad\x8dDy\xf65\xb1\xd5*\xae\xcc]\x17ub\x12\xe1\xad^\x19_Vs\x1dN\xd5\xe3{m\xe4\x86\x95\xe6\x8a\xae\x97\xe2\xdf\xbc\xfa\x8bgf\x19\x8a\xb8\xba\xd6Y\x00Z\xa6\x00\xf0-i\x8eb\x82\xc5e\xd4\xda\xb6?_\xaf\x9eK\xa1\xff\xe3\xdf\xe5]X\x8f\xb8U\xee2\xaan\x1e\xf6\x15\xbfj\xa8\xb3\xae\xfd\x1aV\xae\xea\xc1\x1ad\x8f\xb1\xfb\x8ez\xf7Qg\x83\xb8g\xf4\xfe7o\xfeU\xe2\xc1\x11f\xff\x1c\x80\xe7v\xc4\x13\\^\x04L\xdfx\xba\xbb\xf6\x82\x12\xe0\xcf\x00F\x0b"\xf9F{\xa4\xd3\xc0&amp;&gt;_\xdeZ\xda8X\xc6\x9f&amp;QIU0 \xdf\xe9+\xb8-\x84eX\xbd\xb0\x17\x1b\x146\x88UDI\xd6[\xf5\xa2^\xdb\xdcv\xfa\xfc\x7f\xa0#p\xcf\xc4\xf7 R\xb2\xc5\x08\x18\x0c$\xd0\xf3\x91\xa2\x14\x8eX\xd5\xe1\xc1`dr\xccC%\x1d\n?Qw\x91\xfd+\x81\xb0\xae\xa0\xb1\xb0\xac\xb0^\xeb\xe0\xd3\xd4c\xfdr\xe9\x03\xfd=\xe8&gt;\x1bqX\x9fM\xff\xad\x13.rMq\xb7\xb0\xf8\xe6\xe5\xaa\xbc\xdf\x9e\x8c\xbad\x82[.f\xed\xf5l\xe8\x83\xc6&amp;\xe1d\x1d\x0b\x0f\\S\xf3\xfe\xdfq \x04\xe5\xb10h\x99\x14\x88\x0b\xed\xfc\xf1\xe1@\xb0b\xba\x18D\t8\xfe\xfb\xb6\xa2!\x18Sr\xf9\x03\xc8\xc6\xe6\xa0\xe3z!*\x92\xa1\rZ\x93\xdb\xe4\x98\xc3AAa\xeb\xed\xe6b\x9cW\x89\x9ch\xd4%\xddK7\xf5^\n\n;&amp;\xe8\x19\xfc(q\xbe%\x81d1\x02\x83\xe7\x01:PN*a\x94\'\x03\xe9\x9e`\x90m\xb8H\x98\xdaG\xc7\x7f\xdd&lt;\xda)\xc9+\x16\xa9\xda\xfa\x1c\x15\xf4\xdc\xe0\x03\x97\xb5M\xf7\xe9\xabr\xfe^\xd9\xd8\xcb\x1b=\xe3p\xed\xec?!iH\n\x19{`\xe8A\x8fF\x15C\xd8\xfa2k\x93\x11\x1a\x87\xfe4\xba\x04h\xe6Q\xfeL,c$\x1d\xcc\x1a2\x9c\x9b\xe6H\xb2 \x17\x97\x8d\xde\x14\x14\x94.t\x8b\xbbz\xb4\xdav\xac\xa7\xe7\xeb\xe9~m{\x1f\xbf\xbb\xb5uT\x9aS\x94\x9bW~z\x8d\xa8\x1b\x949o#\ru\x1f\xf2\xd7\xf3\x1aP\x82\xd6\xc1\x8f\xe1;+6\x88\x00\xc2\x8e\x03\xd9K\xcee\x0c\xa7\x83\x12E\xc6\t\xb7~\xdc/\xcf&gt;\xec\xea\xb8\xd3\xde3}\xb5\x88W;T_+mh\x90\xd6^\xed\xe2\xf1\xcb\xeb+;\x9a\xf9\xc2\xee3\xc9\x11G\\\x9d\xac\xa0s\xf3c\x0e\x82h&lt;Z\xc2\xa5l\xc0$\xde\xc2\xda2Q0,\x18\xa8\xedH\x9ep\x98B\x83i\xc5\xcc\x850\x8f\x13\xec\x93\x11\x9f^-\xe4\xe1erm\xcd\x8d\x07C&lt;\xa9L&amp;\xe5\r\xdczR//\xaa+\xbf\xa3?\xfb\xd9:j\xc1\x81\x0c\xd30RaFB+W\xda\xa1\x1b}g\x92g\x12\x0c\x10\x96j\xb8\x1bS\xfc\xb9\x10\xd5\x86-\xf3\x93\x88OO\xcb\x0b\xe4\x8f\xee\x8a\x1e^%\x19\xe0\xd8\xb4L\xa4\xef\xfd\xf2g\x11\'7\x9c\x94\x9f\xc80\x18\x01=\x1efZ\xd5\x16\x18\xd8\xd2\xfc\xde\x15\x16\x9b\x01\x96-\xf3d\xc2\x96\xef\xed\xeb\x0e}\x94\x1aq2\xe27]\x8d\xc5$\x8d\xff\xcfgN\xff"9\xf5\x10\xc5[\x1f2,\xc3\xe0\x90\xd1\xcc[\x96\x01s\x1b\x04\xc6\xfdt0n&amp;\x94\x13O\xff\xb0I\xe4\n8\x92&lt;@\x8a\x1e"\x02\x0e\x05\xbc\xb55J\xcb \x9e\xa51\x8f\x83\x92mI\xc2\xa3\xb9@m~\x89\x92\xee\xa4M{`\xa9\x0f\xcb\xdakk{\xca$\x9b\x1f\x03D\xc3\xaa\x10\xbc4\xab\x017i[=7\xbf\x04\x14\x1b\x91\xd9o\xde\xeeI\xad\xff\xee\xf5\xf7\xdf\xbf\xfe\xae&gt;u\xf3\x16\x15:\xddF\xb1\xf0\xe86op\t\x82N&amp;\x7f\xc9\x86H\xdb1\xecM\x96\xf1\x93\x9aWo\xde\xbcz\xfc\xc9&amp;\xfdvv\x12\x12\xee\xda\x964\xef\xe1"\x0bv,,\x18g&amp;m\x84\x00m\x93\xa2\xfc` \xe0r\xb9`\x93\x1a\x86C\xa81m\x93\xb0\xa6\xe2\xc6\xed~\x0f\xa8\xa0sXR\x13|\xf2\xf8\xb7=\xce\x8fT\x802\xde6\xa3\xbb\xd3\t\x15\x9cz\x89\xa8\xf4\xb6\x89\xcb\xef\xa70\xd4O\x10\xf9\xed*\xa9L\xf6\xfe\xde\xe859\x91\xf7\xaf#u\xce\xabD&amp;\xae|\xca\x05q\xdb\xb8\xbe% \x8d\x0b\x86u\x991p\xc6&amp;\xec\x0eM\r\xd7?\xd4K\xb4\x08w\t\x02\xbd\xf8\x91\xa0P\x7f\xaeCMc\x87\x9f\xc8M\xbb\xa4\x1b\xf1E\x92\xf8\xf6|\x10\xa22e\xb2(I\xf0\x91j\xb3\xa1\x9a\xac\xb4\xe39\xeb\xa6,\x9c\xea\xa6*^wu\x06\xfbDR\x08 D\xea\xd5&amp;\xe8\x19\x0071j\xdf\x1fQ\x9a\x13\xcb~GX\xf1\xa8\x02:\x07\x93\x86\x80tD\xc3\xb0Xl\xceW\xc7F\xd3\\\x8b\x10\x14\x1f\xec\xa1M\x8cq\xfdj7-\xfa\xa8\xf3\x976\x8be\x05\t\xec\xa0k`e\xc24\xc7\xab\xde\xd1\x97\x8e3\x17,\x9a\xce\x9d \xdd*\x17\x18\xf3\xcd.\xf1\x1d\x9d\x91\x10Jc\xedB\xf2\xf88\xf2G\x8bN\xb94#\x1afv\xbb \xa4\x04\x86kq\xe1\x7f6\xc2\x85t\xa8\xf4wg\xea\xc6\xde1*\xc2t+[\x97\xe1\xdc\xf1\xc7\xe8h!\x97t\xce\tC\xc6B\xa72b\xe3\xa8k\n[\x8dK\xb2F\x8d\x8beP\xdd\x05\xa86\x1d\xda\xcb%\xc1N!\x14\'S\xd7\x02\xd7s\xeb\xa7\x8a\x87\x83\xa11\\p\xb5x\x88\xdb!\x165\x933-\x9e"\xdf\xb5\xd1b\xaf\xf6\xaa7\x85\x7f\xdc23\xa9Y$\xfa?\xaet\xe2s\xc3s\xc0\x8d\xd9*\xae\x13t\xb0h\xb8\xe0\x9e4\x1c\x8cEoP\x1b\xac\x9a\x15\xaf\xaf\x9f\xf96\xdb\xbb\x0evEc5 [\x07q\xee\xee8\xecsTQo5\xe7\n\x07\xb3\x8a\x19\xcf\xcd\xbe/%\x18\x01[\xd5\xd9g\xc67\xbe\\\xbd4\xe9\x15\xd6\xf8\x8c]\xb7\x8a@\x05\xc6x\xba*\xda9S5H\xd9",V\xecX\xfe\x86[rh\x84S\\V[\xac&amp;\xe5\xba)\x9b5\xe0^`\xad(MV\x8bz\x99p+\x1b2\x99\xc8s#n\n&gt;_q\x1d\xf6\xd2:d\xa7\x13\xcd/0\xa6\xb0\x985#\xc3n\xe6\xa3\xc17\xc0\x1a\x1e\xd1\x98-\nR\x06\x15\xe3\xc5\xab\xef\x8f\xe6P\xde\xd3\xe0$\x06\x120\x8c\x13\xf9f\xb3I\xf1\x92\x9c4\x88j\r\x16\xda\x10+/\x15&amp;\xb39\x7f\xc2\xe8\xf8g\xc2\x0f~\xe3\x9b_X,y\xb1\xc8\xb0rDg5[,\x16E\xfe&lt;\xee\x06\x0b\x0c\x1b\xccf\xabnD\xe9\x9c\xcd\xa3\xb4(\xca\x0f?v\x85%8\x83\xcd\x94qE=\x01A,y\xc0\xfa\xa7F\xbdbt\xaa\x81\xa9\x1f\xd3\xfc(\x1fh\xecO\xf2\xbc\xf9Dm\xc2qo&amp;\x0f\x181\x1f\xf6\xc2\xbe\xdd\xe1\x89!n\xaf\xcfVx\x81EM\x8b\xfc\xf0\xd7\xa9\xf9\xb1"\xd3\x98\x81N+\xcf^\xe7 \x02\x99\x10\x93\x1f\xe5\xc7\x19\xfb\xc2\xf7\xfa\x938\xc6\xecn^\xde\x7fo\xf8\x8f|\x0b$y\xc1\x0e\x17LL\x1a}\xb9\\\xe7\x83\rV:\xb1\x94S\xe4\x15\x14\xdc\xf4\x9dq\x9d!\x0cJL4]j\x02\x16\x93F\xd91\x83C,$rU\x0c\x0ee\x07\x8d\x83\xa4\xe53w\x14*\xa2\x89\x82\x92\xfc0\xca\x0e\x1b\x91\x00\xec\x8c\x0b\x03\xd7E\xca$\xb0\x85\xee\xec\x87\x1blf\x08\x8b\xb2\x03G\xe4\xb1\xf7\xf7\xac\xff\x01S\xfd\xe2\xb1\x0e\x0eI\xea\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xfdPLTEGpL\x00\x00\x00\x06\x06\x06\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x08\x08\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x07\x07\x07\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x03\x03\x00\x00\x00\x01\x01\x01\x00\x00\x00\x0c\x0c\x0c\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\xff\xff\xff\xfe\x00\x00\x00\x00\x00\x9b\x9b\x9b\x87\x87\x87ZZZ\x9e\x9e\x9e\xaa\xaa\xaa\xff\xf0\xf0ooo\xfe\x1c\x1c...\xfc\xfc\xfc\xff\xfc\xfc\xfe..\xc0\xc0\xc0&lt;&lt;&lt;\xbf\xbf\xbf\x02\x02\x02\xfb\xfb\xfbzzz&gt;&gt;&gt;###CCC\xf5\xf5\xf5\xf7\xf7\xf7\xa5\xa5\xa5,,,===---\xcf\xcf\xcf\xda\xda\xda\xef\xef\xef\x12\x12\x12\xce\xce\xceOOO\x04\x04\x04\xff\xfe\xfe\x1b\x1b\x1b\x10\x10\x10***@@@888III\xd4\xd4\xd4999\xe1\xe1\xe1ppp^^^\xee\xee\xee\x7f\x7f\x7fggg\xd7\xd7\xd7\x19\x19\x19\x08\x08\x08VVV;;;\x1e\x1e\x1e\xd2\xd2\xd2```\x06\x06\x06UUU\xfd\xfd\xfd\xc7\xc7\xc7sss\x1d\x1d\x1dqqqRRR\t\t\t\xf0\xf0\xf0\x82\x82\x82tttKKKLLL\xb0\xb0\xb0\xdf\xdf\xdf\xed\xed\xed\x85\x85\x85\xae\xae\xae\xf6\xf6\xf6!!!\x14\x14\x14dddMMM\x8e\x8e\x8e\xd3\xd3\xd3]]]\xc3\xc3\xc3000iii\xfe\x03\x03\xbc\xbc\xbc\x83\x83\x83\'\'\'555\xe5\xe5\xe5\x17\x17\x17uuu\xfe\x08\x08\xdb\xdb\xdb\xfe\x15\x15222\x1f\x1f\x1f\xf2\xf2\xf2\xa1\xa1\xa1aaa\x84\x84\x84\x99\x99\x99\x9d\x9d\x9d\x9a\x9a\x9a\xa7\xa7\xa7\x0b\x0b\x0b\xe8\xe8\xe8lllEEE\xfe))\r\r\r\xca\xca\xcaGGG\x96\x96\x96\xfe  \xa8\xa8\xa8\xff\xe3\xe3\xff\xf9\xf9\xdd\xdd\xdd\x92\x92\x92%%%\xfe\x19\x19\xff\xec\xec\xfeDD\xb6\xb6\xb6\\\\\\\xf9\xf9\xf9\xa0\xa0\xa0\xaf\xaf\xafJJJ\xc1\xc1\xc1\xc2\xc2\xc2\xff\xd9\xd9\xff\x8b\x8b\xfeKK\xfe\x84\x84\xff\xf6\xf6\xff\xad\xad\xfeZZ\xcc\xcc\xcc\xffww\xfe77\xff\xb8\xb8\xff\xd1\xd1\xfe\x11\x11\xfe22\xff\xc1\xc1\xfeee\xff\xde\xdehhh\xfeSS\xbe\xbe\xbewww\xff\xf3\xf3\n\n\n\x8c\x8c\x8c\xfe\r\rnnn\xe4\xe4\xe4\xffss\xff\xef\xef\xff\xe7\xe7\xff\xa3\xa3\x8a\x8a\x8a\xec\xec\xec\xff\x99\x99YYY\xff\xcc\xcc\xfe$$\xe3\xe3\xe3\xba\xba\xba\xa4\xa4\xa4\xff\xa0\xa0\xfe==\xfe__\xff\xd4\xd4\xff\x94\x94\xff\xc6\xc6\xff\xf1\xf1\xff\xb1\xb1\xff\x91\x91\xea\xea\xea\xfejj\xff\x9c\x9c\xfe@@\xeb\xeb\xeb\xff\xbc\xbc\xff\xc8\xc8\xfa\xfa\xfa\xb3\xb3\xb3\xff\xfb\xfb\x90\x90\x90|||\xf4\xf4\xf4\xff~~\xff\xa7\xa7\xfenn\xc4\xc4\xc4\x9fI+`\x00\x00\x003tRNS\x00\xc7\x02\t\x14A\xb8\xb2\xb4\xe6 /\xd9\xa5R\xa3e\xf9\x0b\xd7\xf0g{\xf1\x8eT\x90z\xc9"\xfa}\x031\x91\xfa?i2\xb6\x92\xba\xf5X\xf2#\x01\x8d\x1fQ\xfbu\xd8f\xc1\x00\x00\x07\xf9IDATx\xda\xed\x9cwT\x13I\x00\x87\x17\x94\x1c\x8a\x02\xa2\x88\xa2\x1e\x8a]\xafs\x11AD\x05\xc1\x88\x82\x08\x11\x90\xa24\x8dJ/\xa2R,T+(M@\xec\xbd\xf7\xee\xe9\x9d\xe5\xcerg\xef\xbd]\xef\xbd\xdf;/\xd9\x99,\xec\xecdw\xb3\xbb\xc9{\x97\xdf_y3;\xb3\xdf\x9b\xdd\xcc7\x9bLB\x10\xa6\x98"b\x9cd/\x19MdN\x10\xabw\xf2\xa1~F\x92C\xc9\xbd!\x96\xe5s\x17\xa3\xc9sK-\x96\x9b\xf1`\xb9\x99\xb0LX\x92a\xa5\xa7\xf67`R\xd3\x19\xb0V\xcb\r\x9a\xd5\x0cX\xee\x86\xc5r7a\xfd\x1f\xb0j\x8abc=\x1afj\x7fM\x95\xf2f\xa3\x9a\xd8u!\x15\xb0\xe1\x92l\x0fz2\xb2\xb4\xf5\xf5\x1e\x94\xe6\xb1\xb1\x0b\xfd\xd6\xb0\xc7\xda\x85\x9aPT&gt;\xea:OD\xd57\xeb@\xcb\t\xc8\xb9(\x9d\xac\xad\xbdL\xaf\x0b\x8ad\x8b\xa5@\xf6=F\x83\x15\xe8\x8b\xaa\xac\'\x9b\x0eC6\x1d\xaa\xa9\xf4\xf1BU\xae\xad`\x895\x11\x87\x15\x80\xc4R\xa5\xb0\xc0\nLC\xd6Na\x89u\x11\xd9z4n\xb4F\xd4\xe2\xb0\xbc4\x95\xdeh\xdd\\\xe44Z\xcb\xfc"5QhR#\xa7\x8cVZ0H\x9d\xfa\xe0\xfc\xe1\x14\xacA\xc9\xd1\xa3\xa8QxR\xb1J\x0f\xa4NQ\'\xf5@\xa9\xba`"\',O\xf4\xdbX\x83\xb5\xb3\xa0b\x12\x19\x7f\xf5hQ\xb1|\x17\xa3\x9bj\xb0"\xb5\x05\n\xeeXi\x0bpXA\xa1\xb0 \x8e\x8e\x15\x88\xc3\x1a\xa5-\x88R\x17,\xe44Z\n,\xd6dX\x90\xcc\x11+A[\xb08hgu\xf5\xadG\x9c\xb0NO)\x0e\x01\xc9\x8d.\x04]in\xf9\xa0\x14\xdcha/\xa27\xa5d\xda\x8b\\\x0b\xd5c\x82xP\x92B\xc5\xaa\xde\xe8\x13\xaa\x89\xfc7\x1a\xd6\xa0\xb8(o\x10E"\x0e\x8b\x93|\x16"\xdf\xc73\xa8X\x07U\xe3\xc9\x04\xa5\xd1\xde\x89\r2A0\xac,$\xd6&amp;9f:\xad\xcb\x14\x1fk\xda~\xce\xb3&lt;9\xd7\x8a\x8a%O\x89sO\x1f\r3&amp;^7V\xaa\\\x02,\xb5Wa\xe4E:\xb0\xd2\x92\xe0\xca\x85\x1bVJ\xf8\x7f\x99\xccs\x19\x98C\xc7\xba\x15\xb2y\x1c\xc8fO\xed\xdc\xaa\xc6\xaa\xcbJP\x80D\xd6b\xb0\x8a\xe2\xcb\xcb\xcb\xe3+yb\x15\xd3\xb1T\x0c\x87\xaa\xb1\x82\x0bY\xce[7\xd5\x05\xcbyb\xe5\xd2\xd7[\x94Y\x9e\x8e5},\x0e\x8b"\xb5l\xea\xcc\xa3\x13K\xb9{85\x99[\x04\xc5r]\x10\xa5\xc9\x92\xf5*NX\xbf\xbb\x8c\xa0&amp;\xdfEP,Z\xcaXb\x95\xe9^\x9db\xb1\x82\x19\xb0\x12\xd0X\xd9,\xb1f\xe0\x9e\x13\xf4\x18\xad\x82|d\xc7\tzaM\x90\xeb;Z\xf2m\xa8~W\xb3\x9dN\x97#\x1a\xe7\xbbM\x93S\x1e\xc8\x9e2`\xa9\x1f\xc8\x0e2a\x15\x96\xd2\xfa\rs[\xc3\x16\xab`\xbd_\xe3(\n`\xd7\x19\x95\x95\x95W\x8aB\xd1\'\xf6\xdbu\xfdz\xc9\xf2p&amp;\xbf\xf8dm\xf1\xa7\xe6\xd0\xb0\x1a\xd3g\x10&amp;,\xc3a\xf9\x1b\x16\xcb\x9f\x01KU\xe6j\xc0\x94\xa9L\x9f\xcb\x9b\xb0LXjm\xee\x18\xcc=\xc8\xbe\xc3\x06q\x8e\xefH\xc6\xd1\xba\xfdd\x08\xc7l\xd8w\x15\xf9\x04\x1e\x11\xe8\xc9-\x81\xbb\xb71bm\xdf\xfa6\xd7,\x1d\x80\xc2\xba\xcc}2MM\xa3a\xc9\x96\x91\xdd=\xbe\xc1\x15k\xe0\x00\xccg\xb8\x1c\xb2\xe4\x0f\xb2\xe92\x19\xc4r\x1c\x17F\x16\xfee \xac\x8ajpW\x8es\x86Xvf\x1e\xa0\xc3?\x05\xc1\xf2\xe2H\xe5\xf3\x0c\xb4\x8c5\xb3\xd3\xee\xcfx\xa3\xd9\nP~\xc9\x10\xa3\x05\xbf6Y\xd1\xac9u\xdfH\xb7VC\xc9\x8a/\xcfK?Z\xf0s&gt;\xafV\xdd\x1a\xeeg\xb1\x1d;\x93\xaczg\xa9\xd4X\x91?\x93\xcdf\x8e\xb5m\xbc\xcf\xe6\xf5(r&gt;s\xf9`\x91\xb4X\x05\xe5d\xab\x91\xd1\xedh\xdb\x7f^\xb3&lt;\x00:=.)\xd6\xb5t\xd0j\x9e\xa59}[R\xd3\xd6\xf0\xf9\xf0C)\xb1\xc0\x9c\xe92\xbbuS\xd4v)\xab6s\xc8\x03v|"\xdd;\xf1\nh3\xa7\x8d\x15z\x1b\xd7\x9b\xe1I\xe4!\xdb\x07J\x85\x15\x02\x9a$\x85[3m/\xeb\x10\xf1\x80&lt;\xe8B\x954\x171 \x9el1+\xa2\x03\xf3\xb67\x9b#\xc0B\xdfI\x82\x15&gt;\x17\xb48b\x83\xd9\x8d\xd7\xc4,\x16\x1cw[\x8a\x8b\x98\x07\x1aL5k\x82\xdb%\xd8\x1cZ(\xec\x84\xf8\xa3\xe5\n\x8e_\xd5\xd09\xf4tk\x05\xbe\xe7\xde\xbbA\xec\xd1\x9a\xa7u\x8e\x85\xae]\x95Z\x0b\x9d\xbd!.V\xd4\x08f\xe7\xd0\xd3.\x9a\xb4P\xd8IQ\xb1&amp;\xed\xc48\x87\x1esK8\xb8\xef\x8a\x88\x15Z\x8au\x0e\xcaB\xb3A\x8bS\xe2\xdd\xf2[t8\x07g\xa1\xab\xe7\xc5\xc2Z\xa7\xd39\xf4XC\x0b\xe9\\|\xf1\xc4Z\xef\xab\xdb9(\x0b\xcdb\xb9\xf8\xe2wo\r_\xcb\xc69(\x0b\x813|-\x02\xd6\x9aM\xe0\xc0\x1c\x1bN{\xc2\x9b\x98Me\xb7\xf8\xe2\x85\xe5\xcf\xd29(\x0b\xad\x02\x8b\xaf\xef\x85\xc6\x1a\xc6\xda9\xf4X@\x0ba?\x02\xe0\x81\x057\x0e\x1c\xd5\xed\x1c\x84\x852\x81\x85\xbe\xa8\x12\x12\xcbs:yPL\xa6-\xc1#\xd0B.\x1f\x0b8A(U\x9c\x9c\x83\xb5\xd0\x19\xe1\xb0~\x01\xc7\xc4\xf54\xe7\x85E\xb5\xd0\t\xa1\xb0\xeesv\x0e\xceB\x8c\x8b/\x8e\xf7V=\x0f\xe7\xe0,t\xf6\x9c\x10\xa3\x05\xef\xd6$\xa55\xa1G\xb4\x16:)\xc0h\xc1\x15\xe6\xac\x88\xb6\xfa\xfd\x04\xc8&amp;\x07\xbf\xf8\xe2\x82\x95\xe2\xc5\xd39X\x0b\x9d\xd2\xf7"\xae\xe0\xed\x1c\x9c\x85\xde{_?,\xf8\xac\xd7\x8f\xbbsP\x16:J\xae\xed?\xda\xa3\xcfE\xdc\x0c\xf6\xe8\x1e\xedjA\x08\x10\xdb\xcc\x18\xb2\xc3\x1f\x17\xf1\x1f\xad\xddk\xa1s\xec\x85\xf9\xe5\x9b\xd6B\x9f\xf3\x1e\xad\x8d\xa7\xa1s\x1c\x05\xfaA\x9ey\xcf8p\xbeo\xf9b\xc1\x9d\x19q2s\x81\xb0(\x16\xfau\x1f?,\xb8\x8f\xde\xb5ESB\xb0X\xb59Lv{w+\x1f\xacTPq\xd8\xc1\x8a\x100\xd6J`\xa1\x9f\xaa\xb8\xdf\xf2\x0b\xc0\x12k\xae~\xce\xa1\xa7-\xb4\xd0=\xceX\x85`\x89\x15\xaf\xafsp\x16:\xc3\x11\xcb\x07nc\xcdm)\xf8\xefc)\x16\xba\xc4\xed\xde*\x01\xa5\x19\xfa;\x07e\xa1~d\xf7w\x86p\x19\xad"A\x9d\x83\xb0P\xd7c\xe4\t&gt;;\xc7\x1ek\x14\x98\x8a\x8f\t\xe3\x1cz\xec\xa1\x85\xbeb\x8d\x95\x08\x9a\xc4$\xda\x13"\xc5\x11Z\xe88\xcb{+e&gt;pN\x82\xa3XT\x84\xb9\x0cZ\xe8SvX+Ep\x0e\xc2B-\\\x1b-\xbe\xf0\x171C\x14\xe7 ,\xe4\x00,D.\xbe\xb0\xa3\x95\x03\xbe|\xc8s\xe8"\xee\xcf\xfb\xdb+\xc1\x17\x0f\x17\x16\xe9\x1a\xad\xc5?@\xe7\xb4\x17\xfbo\x07\xdaF\x80\xafi\x1e\xea\xc0\xda8Z&lt;\xe7\xd0\xd32\x17\x9c\xfco&lt;\x96\xbb\x88\xceAY\x08\xdc\xc8\x83\xf7\xe1\xb0\xe0^\xdf\x8c\x8evR\xfc{D\'h\xa1\xbbO\x98\xb1\x1ei\x9d\xd3I\x9a\x7f\xb5\xb0x\x19X\xe8q\xd5R\x06\xac\x9a:\xf2\xe5\xfc\x97-\x08\x89b\x0f\x95ro\xcf\x1d\x14\xd63e\x90\xf8\xceAX(\x01X\xe8\xe1^\xe4&amp;\xf6\xfd\xd09\xce\x12\xfe9\t\xc5Ba\xc8me\xe0E\xb2\xac\xb3\x94\x7f\x9a\xa2\xb5\x106";\x87\x9e.\x0ey\xba\xa9Dw\x0e\xceB\x8c\x19/\xbesp\x16bH|\x80\x13a\x80h-\x84NqKCP\x11v\x1d3pT\xd9\xd28\x07g!DVJ\xe5\x1c\x94\x85\xe63QI\xe8\x1c\x9c\x85\x1a%&amp;\xb1;a\xc08C\x0b5\xc8HogCR\x11\x9de\xc9(,\x89\x9d\xc3\xd2B\xf7\xa5v\x0e+\x0b\xe5\xbd\xd2\x830x\xda+\xc7\x1b\x81s\xe8q\nh`\xa1`\xc38\x07a\xa1b#p\x0e\xcaB\xd9F\xe0\x1c\x94\x85Vj\x9d\xf3*a4\x81\x16\xfa\xe7-\x0b\xc2\x88\xd2]c\xa1\xa7\xb5\xdd\t\xa3J/\xef\x17\x16:\xe8\xdd\xcb\xb8\xa84\x16\xaa7\xb4sP\x16*)1\xbcs\xe8\xe9\xd1\xa7O\x0f\xc2\x08\xd3\xb7/a\x8a)F\x9f\x7f\x01\x98\x89\x03\x07\xa1\xef\xd0\xde\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67002314814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Sport Club Internacional</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -558,20 +558,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x01\xa4PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xff\xff\xff\x00\x00\x00&lt;&lt;&lt;\x01\x01\x01\x0c\x0c\x0c\x06\x06\x06\xf9\xf9\xf9\xfd\xfd\xfd\x03\x03\x03\x9b\x9b\x9b\x10\x10\x10@@@,,,\x1d\x1d\x1d\x89\x89\x89\xfe\xfe\xfe555\xcc\xcc\xcc!!!\xdd\xdd\xdd\xf5\xf5\xf5\xd4\xd4\xd4\xf8\xf8\xf8\xc9\xc9\xc9VVV\xec\xec\xec\x93\x93\x93yyy\xb9\xb9\xb9^^^\xc4\xc4\xc4\xf0\xf0\xf0999%%%000jjj\xe7\xe7\xe7)))GGG\xda\xda\xdavvv\x15\x15\x15pppDDD\x86\x86\x86\x8e\x8e\x8e\xd1\xd1\xd1\xab\xab\xabLLL\xb0\xb0\xb0\xf2\xf2\xf2\xa0\xa0\xa0\xee\xee\xeePPP\t\t\t\xb4\xb4\xb4\xa6\xa6\xa6\xe9\xe9\xe9}}}\xa9\xa9\xa9\x97\x97\x97\xe4\xe4\xe4\xe0\xe0\xe0\xbb\xbb\xbb\xe2\xe2\xe2\xbf\xbf\xbf\xa3\xa3\xa3\xce\xce\xce\x19\x19\x19SSSddd\x80\x80\x80YYY\x13\x13\x13\xf4\xf4\xf4ggg\xb6\xb6\xb6\x17\x17\x17\xd8\xd8\xd8\xd6\xd6\xd6sssbbb\xc0\xc0\xc0\x82\x82\x82\xad\xad\xad\x9d\x9d\x9dmmm\xd0\xd0\xd0\'JIV\x00\x00\x004tRNS\x00\x06!i\x19\xf7\t\xfd\x01\xe7\x0eZ\xca\x9d\xdfG\xa59\xf2\x97&amp;zC\x8a1@*q\xac\xeeNK~\xea\x15\xb9u\xd0\xf9\xd9b\x86R\xb0U\xd5\xc1\x90\x83-\xb35\xe1&amp;\x7f\xb1\x00\x00\x0c\x98IDATx\xda\xcd\\gC\xdb&lt;\x106\x10\x08#\x81\xb0\xa1\x8c\x0e(\x1b\xba\x12\xb2\t\x19\xec\x14\x08\xab\x84\xbd\xa1P(\x94\x02\xe5e\xb5@K\xc7\x9f~\x0b\xb6lI\x96l)\x03z\xdf\x82-\xf9\xc1&gt;\xddx\xee$A\x88S2\x1f\xb5\xbc\xb4\x98r\x0b\xd2\x8d6[]zU}\x9b\xb9\xb8:UxP\xc9\xcc/\xae\xa9\xb2\x11$\xab\xb2\xe2\xd5\x03a\xcah\xb2\x10!\xc9\xd0\nKR\xee\xfd==\xb6\xa4\xdbt\xa5\xaa0\xff&gt;A\xa5\xbe\xcc\xb51\xca\xf3\xb4\xec{zQ%\xcdF\x1b\x87\xa4\x9b\xefA\xcd2\xd2\xea\t\x8f\xf6\xf8CS\xc7\x91\xc8\xfb\xf9\xd0\xac\x9dp\xd9\xd4\x94\x99TP\x86\'Y\xf8#;\xa6N~^\xba\xac\xb2\xf4.}\x98iw\xe2w\xd5\xa7e$O\xa5\n15\xf7\xf8\x02]n+A\\?\x86&amp;0`O\x9f&lt;K\n\xa8G\xe6:\xe49v\xdf\xfa\xa8UC&gt;/vb\xeb\xb2\xd1\x90pPe\x95\xa8\x9ew/|\xb2\xea\xca\xd1\xf5,\xaa\xfd/\x12j\xff3\xab_#\xa0\xec+\xabn+\x93\xf4\xfe\x1a\xc3\x96e\xc2,Yv\x05j\xa5\x1cs=V\x0e\x198E\x17\x80)\'\x01\xc6?\xa5\xa9\x19U)\x7f\xe0\xad\x95Szf:\x90)\n\xcc%q\x19\x8c\x94\xeaB\xcc L|pYc\x90\xb5E?f0\x1a\xcbcDf\xc8i\xc6\xdd\x9eo\x98\xf8\xd0\xfe\x01\xef\xccq{\xd4\xef\xef\xf4\x9d\xee\x1c\xf6\x91M\xc6z\x14\xb7\x18\xe6jN\xbf\x94R\xd6`Q\xd9Mgd\x89\xf4\xb8\x83\xa1\x10f&lt;\x1d\xf3\x0b]A\xc2\xad\xfb+\xb8\x07\xb0\xd7\x17\xe6\x14i\xbf\xb5L\x83\xc1PTV\xd2RQ\xda\xdcZ\xa7\xf6\x1f\x8e\xebI\xc2k\xfay\xec ;\xc2\xd9\x8b\x03\xc2K\xeb\x8b8\t&gt;\xf3\xb9\xa51\xad\xa9\xfcU\xaa\xc1@0\xb8\xd9Z\xeevb\xbd\x97\xb0\xc4"\x0e\xad1\xdf\xae\t\x0bv#\xd0\xad1$\x97\xa0J\xd4\x9b\x9d\xe1\x01\xf5\xfc\xe7\xbb\x9d\xba\xb1\x83\xdd\xb7\xac^ \xee\xd5y;5rT\xc3*"\xdf\xe9\xf1\x91^\xd4\xf4\xdc\x19[T\xd3\xbd@0\'\x93\x8b\x13\x94\x18\x88\xe0]\x08\xb79\xc2^\x82FYG\x8e=\xec\xe1\xd6\xe6\xc54a\x8a\xe9\xc0\x14A\xcdlj\xf5/\xc7!\xf9v\x0e\xfaIK}\xb8\xdd\xc6\'\x9e\xf0\x11i\x9e\x8d\xd5k|\r\xdb\xd4\x16\xe3\xb12M\xf7\xd4\x0c\xc5\xfaX]\xdeq[\x0c\xd2\xbe\x15$O\xd7\xe5}\xe7\xf3+\xba\xa6\x0e1\x9a\xc4\x0b3#=t;~\xbe\xf8\xc5\x16\xa3tj\xb8\x87\xde\xcb\x83c\xf1.u\x80\x91#^\xd8\xa2{\x90\xe9\xdf\x0e[\x1c\xf2\xe5f\x9b&gt;\xf7\x8dx\xcf#\x15\xac\x06\xf1\xc2&gt;m\xe0\xc8\x8a\xdd\x16\xa7l^\\\xd2f\x0f\x88w\x94\xa9`\xa5\x89\x17F\x88\xa3\xde.2\xa8\xd4\x84\xfe\xcb\xb4\x87\x0e{\x89\x0f\x18\x14\xaf\xab\x83\xb1\n\xf1B\x17\xc1\xfd\x7f\x9cb2\x08\x81S\x96\xbb\x1c\xe1a\x82\x96y\xc5\x8b\xe5*X\xb5\xe2\x05\xdc\x1dOz\xe7\x9d\x8c\xdf\xa8g\x99\xf1FG\xf8#\x9e\x05\xac\x8bWJT\xb0\x8a\xc5\x0b}0\xa4\xe5\xa1\tv\x85\x9a\xb0\x9eo2\xdf\xec\xf4\x9d\x0c\xafA\x8f:\x14\xff\x9cG\x83u\x05\xf2\x96\xc1H\'\x9f\x8e\xdfX\xad\xef\xb9\x068C\xef\xbc\xe0\xad}\xa0\xc1z"^\x98F?6\x87\xf4\xc9\x93s\x08P\xe5\x8f\xe2\xcf\xc74X=\xb1\xc2\x8a\xfe\x1d4\xea\x8c\x15\x96\xa4\x96\xd5\t\x875t;j%\xe1\xb0\x8a\xe3\xfc\x88w\x0f\xf8\xc5;j@\xef#\xd6\xa2*\xcf\x0b\xab[4\xbb\x9e\x18\xdf\x16U\xe5kQ\x03\xb1\xce9\xff\xb58\xcc\xc79l\t5\x10%4+\xbf\x84\xc2g\x96\x11\xc4\x890\xcb\x15\xfa\x16\xcai&gt;\x11[\xb1\xcc\xe1\x81\x14\x9eMr\xfasL\x95\xf3i\x11\x04p\xd5\xab|\xd3\xbf\x03\xe6\x9a3t\x05\xb4\xcf"-\x82\x90\xe2-\x907\x0f\xf3M\x7f`E\xe7g\x15\x90\x80,\xd0\xe2-):]\x05\xe1\x15\xd7\xec\xb3r\x88\xfd\x89\xef+\x82la\x87\x16\x9d\xe6\x89\x17&gt;H\xf7\xfd\xe1\x9a\xfd?\xc5\xe9\x86\xb8\xb2\x0f0jF\xfc\xadN\xab\xf3\xc5\x0b\xbb B\xe6\x82\xf5U\x81\xb5\xc03\xce\x01F]\x88\xbf\xd5\xbc\xef+)\x96\x03\xf1(\xcf\xec\x1dP`w\xc93\xd0\x0fF\x85\xef~\x1a\t42\xe4\xdanS%\x1e\x1d\x89\xc0\x11]\'\xc7\xc0N0hJ\xe4\x96\xa8\xd4\x88\xbc\xd2y\xb2\x9cU\x18\xd6\t\xc7@\x1f\x184F\xa3F2E\xd2\xf6\x14\xdc\xd8\xcd\xa1!H\xda\xb0\xc4\x01\xeb=\x18$f0\xcf\t\x04\xd7\xd3\xbb+\xf31\xac\xa80\x1a\x97\x8f\xc7\xb0\x82Er\xb5\x86\x00\xab\x15\xfd\xda\x1c\xa1\xd3G\x14\xd6\x0c\xfb\xc8\x1dT\x93-\x04Xm"Y\x06&amp;\xff\x8f=&amp;_\xc3\xe88vX\xc0\x1c\xed\x89?_\x10`U\x8a\x06\xce\x8d\xda]\x06Y\xc1\x92\xab\xa0\x9fy\xe8OiH\x97\xf8\xb3\x98\x00\xabP\xbc\x04\x08\xad]\xe6\xb9\xd7\xf1\\t\x8e7\x1c\xb2~\x15\x7f6\x10`\x15\xa3\x91\xcd\x16\xec#\xc6\xda5D\xc5\xf7\rh\xdd\x8d\x10\x81\x93h\\\x93G\x80\x95\x83\xbe\xd7&gt;\xc4\xbe|\xb2&amp;H\x06\xe0u\xea\x04\xac\xd7\x10-\x80\x90\xe9\xc0E\xc0&lt;\xa0\xee\xe5gB@\x05\x03H\xca6\x0e\xfe\x1e\xa1\x91\x81\xb2\xf7\x99\x03\xb7b\xa4\xedEo\xfc\xa8&amp;\xa7\xd09\xe7\xd1\xe0\xb1\x80X\xba0\xa2\x86w\x0c\xf7_}\xf1\xa2\xfa\xfa\x8d\x16\xd3\xfa\xa9F^\x10r\xe5\xec\x18~\xb1\x90&amp;\x0c\xc6\x05\xca5\xa7\xf2\xfe`\xc2^\xf1J%\x11V\x8d\xf8p7=pz\xff6vT\x97\x04o6\x8c\xba\xd1R",3\x9a\xee\xff$\xc5G?bE\xf5\xcb\xa1\x91`H\xa9~\x1a\x11V-\x1ai\x12\xe39\xfbPL\xf5\xc4\xd101\xf2\xc0&gt;L9\x11\xd6c\xd4B\xb8\xc9\x11\xd7XO\x0c\xc6\x8a\x1c%\xb5cjL\xeeHH\xc5B\xcd1J\x84\xfc\x91\x13\x94{\xc1\xa9\x93\\v\xd2b\xd3\xbb@\xb0@"\x1b%yG\xf3d\xdf\xcfyP\xedQy\t/(K\x8a\xb0\xdb(\x95N\x93\xb8\x14]\xba\xa4\xcd\xf8\x11;\xaa\xadY]\xbaF\x8a\x1f\n)\xb0\nQv\xa4O#\xc4\x1a\x0c\xb2\x81\xea\xffMOU6\xc1\xff\xffKk!\xca\xec\x88W[\xe7E\x99\xdafA\xd5\xa7\x95\x06\xb5c\xda\xf2\x86\x02\xeb\r\x16`\xcfk\xd6|\xf7\xf5Qy5\x19\xf1\x19p\x9b\x18\xeb\xd4\xd1z\x962\x8ch8\xaf\x1d\xa0\xea\x9a\xb0\x8d0[\x1aw\xee\xd1\xf0\x88\x8a\xce\xdb\x01Y~\xa0\x13[\x86&gt;k\xa1\xea\xd2\x89\x9d=\x1b\xd2\x8d?\xb45^\x10^\xa0\xae\xaa_\xaf*1\xa0\xf9\x05\xf5\xfe)\xac:\xd6@\x85\xd5\x82&amp;\xfc\xda\xca\xf5\xd7Cj.\xc7m\x1dzw\x06M\xf4mE\xf4\xfe\x15\xc9\xbf0\xb2/s\xda\xba\xa5C\xef\x82o\xe2r\xd0\x9a\r\xb0\x90\xcb3\xca\x96\xb7\x8fh\xc3\xd2\xa6w\x1d\xfd(\xc1W\xa9\x01\xcb\x8cU\x86\xfd,4.\xd5\xeb\xd8\x99\xe8\x87\x13mc\ne?s\xban\x11\xf1\xb44\x19\xd3\x1a\xfd\x0b#\x81\x8b4`=\xb3C%\t,YT\x89\xae=\xd5\xa2w\xed E\x94\n\x1f\xb9\x9a}I\xcf\xd1Z\x86\xab\x83\x85\xc6\xa5\x89\x16\xbd\xdb\x8e\x158-\x9a\xb0\x1aQ\xaa\xd2\xfa\x9d\x89\xc6\xa5\x89\x06\x195\x88\xd2\x93\xb6\x16MX\xf9\xd8\xff2\xccD\xe3\xea\xb4\x11\x90L\xfc$j\x1e\xd2\xb5\x1b\xdf2\xc5&amp;7\xfb\x1e\x18u\xc6B\xe3J\x85\x0fU\x146\xad\xcfNJ\xa4H\x8dN\xff\x9d\x19\r\xe8\xe9\xecK\x04\x8f\xac.l\xce\x00n\xf6;uY\x9e\x88\xbey\x80\xf2\x0c\xd9a\xf51\xd1\xb8 \xb2\xc2\xa3\xb0\x1b=\xb6\xb5W\xfc\x86F\xbd\xb6\xe2\x14q#\x83\xbdG\xc7\xf88\xfa\x89\x91\x15\x16\x85\xf5\xe9\x99&lt;)Cl\xd3\xed\xa2\x94\xbe\xe2\x82N pJI\x03\xb1(,\xaa\x1d\xc5[\x8f\xd9\xbe\xa1 \x94HE^`\x95\xce\xc9\xa6k\x99\x9a\x06"\x89\xe4\x109\xd7\x94)\x1c1\xe71\xea\xf7\xac\xa7da6\x9cH\x1co*\xb4\x92;\x80\xa5\x81\x1d\x10\xe4#mj:\xc0\xb6\x0e!\x8b*\x93\xed\x9fI\xc9\xe71\x95\xb3\xc2\xb80R&gt;\xed\x07\xdf98\xcebK\xa5\xe4Zt\x19\xcem\xcc\x0e#\xf2A;\rT\xb80\xd2\xbb\x96}\x88\x14.?ej\to\xc3\x94\xfeH\xed\xda\x9c\xa3T\xce\n\xe3\xc2\x08$}\xc7(\xf6\x0f\xbf`\xeah\x96\xa2\x9b/\xf2\x92zO\xa3\xe2\xa75\x9c\x9e\xc4\x85\x11H\xfa\x13\xb9a]\n\xab\xd96\xdc\x00\xa5\x97-q\x97\x9dl\xa4\x0f5\xabh\xfe\x11\xb2\x9bpl`\x1e\xa4F`\x13\xa9\xddF\xe6HT\xf5\x1f\xe7\xed\xcck\x11\xbd\x8a\xef\x89\x9bT\xf4\x96\x13\x98Q\x07\xad\x83\x85\x12\x0c\xa6\xa3I\x80u\tKb\xa6n5\x8e\xa1\x10\xe6\xfb\xeb\xf1\xddXO\xe8\xec(f\x1d\xea\x99\xfb\xf9\xcd\x98\xd5\xc3\xc3.\xaf58\xc8\xd4\x13u\xb6\xa5\n\xbc\xe5@km\x96\xd5\xc2\xcbm\xd7F\xecu\xed!Z\xe4\xd9\xdef-\xeb\xd9\xe7\xfa\xf7Q\x0e\xca\x85\xbd\xac,\x8e\xedR\x16\xfcu!\x95^\xdf\xfe7\xf6\xda\xdc\xc4\xd5,1\xf0\x00/\xab\x96g\x07\x14\xfe\xba\xfaaM\x8ar\xb5C9\xbaIi\x18xYO\xb9\xf6\x96UJ\xd6ZN#~\xc4\xdd\xa3{\x07Q&amp;S\xb6\x1d\xf4\x12\xa2\xbev\xedZ\xf9\xab\xb16\x86\xc4\x02L\x97\xc5\xb9\x11O",\xcfd\xdb7\xea\x8f\x1f\xd5|\x10whi|\xa8\x04C\x01\x9e:\xef\xc7\xfd\x19\x1drU\xd2-\xa5\xd2\xf5\xdc\xfb\xb6^J+\\\xe1?\xae\xe3\x85%\x87\x1dr\xc5\xb9\x89\x7f7\xa9\xb4\x9f-*\x07\xed\xaeP|\xa8\xbe+[\x17\x1d|\xde\x10\x96j\xdc\xe1[{:\xe2A\xd5\xa9\xf4%H!IzQ,\x9b\xc8^K6]\xa1"\x87=\xb1\xa3\xea\x98V\xd1\x97/c\xdb\xea*y\xec\xf1s\x86\xec]\xd7\x0b)\xdc@\x8f\xf4\tsc\xdc\xa5[\xa1&amp;\xb2\xbe\xc7o\xb1\xdcR\xe6i/\x89uo\xa9I\xb5\x84\\\xbe\xd8P\xfdV\xb7\xe0\x98c\xdf\x1c,}F\xc7\x95\xb2+#\x1a\x0b\xaa\x15%\xa7]\x95\xcc_V\x1c\x9b\xe6k\xc1*R2\xac\xbd\x18\xac\xbd\xafW\xb5\x9a\x8dy\xf1l\x11\xae\x01\x9e_\xe1b\xa6gyQM(;/\xd6\x00\x87S\x1a\xdfn\xf8,\xac\xd3\xea\x96\xef8\xe34XJ?\x80\x1b\x84\x8f\xa68w\x0b\xe7I\xa1\x84\x1d*\x05\x1fq\x99\xd5\xf1m5%QU$\xc4)\xc5\x80u\x80z\r\x96x\xa2S\x08\x15p\x85q)\x96\xa4^\xcd\xc0L\xffQ\xe6\xbfb\xd6\xfb\xd0\x862j\x19\xc4 O\x12\xb1\t\xbd\x15T-\xa0n\xa9\x1eF;1\x05\xed3:\x00\xc9RsBN\x87H\x05j\xdf\r\xd5\x0f\xdf\x8e\xb1\xa0\x8a@\x1c\xdc\x08\xc8\x9eL\t:\x1a\xe2M:\xd0\xde=h\xafbX\xdf\x0f\xee@\x15\x85\x01\x80*+a\xc7/\xb4\x80\xf3\r\xa2\x90\xfe\x06ot\xc2\xd5M\xb8\x8f\xe3\x0fX\xbdUe\x89;y\xa1\x01 \x88\xc2u\xe0eMj\xa4\x1b\xae\xcd\x0e\x00T\xe9\t=B\xa6X~\x18\xcc\x8c^i(\xfe&lt;\xdcTu\x00\xfe\x81\xba\xc7BB\xa5T\xe6\x87\xe0\xad\x82\x1b\xc7Le\xff-\x80\xca\x98\x93\xe8S=d\\\x1d\x070\xc3\xbdK\xa4Hf\x91\xa3\x10\xbc\x9e\xa4\xa1\x82p9\x0f\x91\xbe\x02\xc2\x8e\xf2)X\x03\x832\t\x9e\x0cTBf\xa3\xfc\x85n\xe0\xdaN?\xce\x9fn"\r8\xbd\xf2\xd6\xd3\xbad\xa0\xba\r\xa2\xe5\xe7\x87\x91n\xcf\x91(\xbduvO\xce\xe2\n\xf2\x84$I\x83|&gt;Kh\x0f\xa9\x8e\xcd\xc8)\x91c\x17\xa9\x92u\xc9\\`U\x12\x0f\x97\xca+\x90y&gt;\xb4\xca\xd9\'e\xef\xa7\xe8\xd1\x03\ng\x98\xfbHH\xa2\x94e\x11=\xcb\xdf\x00\xcf\xfb7\xd8\x89\xa2{\xd8\x15\xb5\xb2\x99\x0cBR\xc5\xd0J\xeb\xbf\xde\xf8\xbd\xe8\xa2uU\xbf\xce\x10\x92,\x19\x16b\xcdI\xabQ\xd1\xfe$SH\xbe\xd4*\x07\x13}\xdf\xa0\x1e\xa9\xa3\xb4\r\x15T\x0b\xf7"y\xcaa2_\xc8\'"\x04\x07\x15/\xde\xfaH\xb8\'1\xb4)\xce\xef?B\x9f\xf3%\xd4ae\xc9\x10\xeeMRJ\x95\x0fy\xe6\xc5\xea\xf9\xfd;\x8a\x9f,H\x13\xeeU\xca\xa1S\xa6\xda\x91N\xfa}\x88\xf06\xdd\xfby\x8b\xd9\x95PY\xe3B\xfe\x92\xd3P}\xc3\xf8\xf2\xde\xcf3\xbc\xa5\x0b\xa1c\x94:v\xefl\xd6\xda\x10\x14\xe7\xb4\x96\t\x0f"\xcf*\xe1\x18\xf9\xd0\xdd\x1f\x80\xd2mci\x86\xf0P\xd2\x02\x9f;\x15\x82\xab(\xa6|\xe1\x01%\xfb\x05\xf1\xc4\xc5\x82\x8a\x14\xe1a%\xdf\xa4FU\xf9\xc0\x07\x9e\xdeE\xad9\xd8\tb\xcfK\x84\x7fB\xb2K\xd3\x15PO\x1f\xfc\xfbA\xde\xc8"\xa9Xzc\xb6\xf0/\xc9\x9b\xdb\xe2\x82\xd1\x9c*\xfckRnj.J\xd8d\xff\x03\x1e\xbb_\x08\x91\\\xb6\xda\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02=PLTEGpL\x95fh\xc8*1\xd1\x1f\'\x80\x7f\x7f\x8eno\xabLP\x80~~\xff\xff\xff\x82|}\x9fZ]\xe7,3\xe8\x01\n\xafGL\x86xx\x9c]_\x8ars\xe6\x00\x06\x9a`b\xdb\x10\x19\xba;@\xc406\xf0w}\xe5\x04\r\xea\x00\x08\xebQX\xe0\n\x14\xeeot\xb2EI\xcf!*\xd7\x18!\xd2\x1d%\xbe6&lt;\xa3UX\xe3\x07\x10\xc129\xb7&gt;C\x91jl\xd9\x14\x1d\xeaIP\xe5\x1c$\xeekp\xd8\x15\x1e\xe9AH\xcc%-\xa3VY\xdc\x11\x1a\xe2\t\x12\xadJN\xe6$+\xedag\xb2DI\xdd\x0e\x17\xecV\\\xe2\x04\t\xf4\xa4\xa8\xe4\x16\x1c\xe5\x05\x0f\xff\xff\xff\xfe\xfe\xfe\xfe\xfd\xfd\xfe\xfc\xfc\xe2\x00\x00\xe3\x00\x00\xe4\x04\x0e\xfe\xfb\xfb\xe5\x07\x12\xfe\xff\xff\xe5\x06\x11\xfd\xfb\xfb\xe1\x00\x00\xe5\x06\x10\xff\xfe\xfe\xe3\x01\x06\xe4\x00\x08\xe9\x00\x00\xfe\xf9\xfa\xe3\x00\x04\xfd\xfc\xfc\xe4\x05\x0f\xe5\x04\x0e\xe4\x06\x10\xe4\x01\x0c\xe0\x00\x00\xe6\x13\x1b\xfe\xf7\xf8\xe918\xe7\x00\x00\xfc\xe5\xe7\xfd\xf2\xf3\xe6\x18 \xec\x00\x01\xea?F\xe7\x1d$\xe5\t\x13\xfd\xf4\xf4\xfa\xd9\xda\xfe\xf6\xf6\xe8(/\xf3\x93\x97\xea;B\xe4\t\x10\xe8\x00\x00\xe4\x03\x0c\xfd\xee\xef\xfb\xdb\xdd\xf9\xcf\xd2\xe2\x00\x02\xfc\xea\xeb\xf3\x90\x94\xe95&lt;\xf0y~\xe7 (\xf1|\x81\xebFL\xe5\x0c\x14\xedSZ\xf7\xbb\xbe\xedY`\xe5\x0e\x15\xebBI\xfc\xec\xed\xf7\xb7\xba\xf5\xa7\xab\xe7\x1a#\xf5\xa3\xa7\xe6\x16\x1f\xf8\xc5\xc7\xfd\xf0\xf0\xf9\xcc\xce\xf4\x9e\xa2\xe7#*\xfb\xdf\xe0\xf3\x8d\x91\xfa\xd5\xd6\xf5\xa1\xa4\xecPV\xebHO\xe4\x06\x0b\xf9\xca\xcc\xeech\xf6\xb0\xb3\xfb\xdd\xde\xe6\x10\x19\xf8\xc2\xc5\xe8\x00\x05\xf4\x97\x9b\xeefk\xefkp\xf7\xb5\xb8\xfa\xd1\xd3\xf0u{\xf6\xb3\xb5\xfb\xe1\xe2\xe8+2\xf1\x81\x86\xecNT\xf2\x8b\x8f\xe8$-\xed\\c\xf6\xad\xb0\xe9.5\xee`f\xefns\xecKR\xfa\xd6\xd8\xf7\xb9\xbc\xf9\xc8\xca\xf5\xa9\xad\xfb\xe2\xe4\xfc\xe7\xe8\xf1\x84\x88\xf3\x95\x99\xefhm\xf6\xab\xae\xe6\x17\x1c\xf2\x86\x8a\xf8\xc0\xc2\xedW]\xf9\xc6\xc9\xf8\xbe\xc0\xfa\xd3\xd5\xf5\xa5\xa9\xf4\x99\x9d\xf0sx\xf2\x88\x8d\xf4\x9b\x9f\xf0qv\xea9?\xed_c\xf1\x7f\x838\xe8fR\x00\x00\x009tRNS\x00"\x9c\xb1\x01\x12N\x02\xfe\x038\xfc\xf3^\x072\x0c\xf7,\xd3x\x8f\xfc\xeb\xfa\xfc\xdd\xfck\xa9\xc0\xb9~&lt;\xe7\x88p\x19\xca\xfc\xfc\xfc\xc5\xfc\xa3D\xcd\xe2V\xfc\xfcd\xd8\xfc\xfb\xfc\xfa\x85&lt;\xe0\xc3\x00\x00 \x00IDATx\xda\xc4\x97\x89W\x13Y\x16\xc6C\x0b\xa4""\xeeb\x83\xda\xe3\xbew\x8f\xf6q:\xf7U\xbdJRI%\xa9\x04A\xb2B\x08\x84]\x08KXe\x91\x06\x95M\x1a\x10YTP@P\x04\x11AQ\x10\x1d\xed\xbfmnUTZ\xa7\xcf\xb4k\xcf\xcb9IU\xa5\x96\xdf\xfd\xee\xf7\xee\xbb\xa5R}\xd1Pk\xd6\xaf\xd7\xfc\xc9q&lt;\xbc^\x13\xa9\xfa\x7f\x8cH\xcd\xdb\x07o\x88\xd8t&lt;:\xf6T"\x8e\xd8\x9f\x8e\xaf\x8d\x88zC\xaa\xd1\xa8\xfff&amp;u\x18)*.v\xef\xce\x03{6\x16\x14\xf8l\xe1\xe1\xb3\x15\\\xdb\xfe\xf3\xee\xef\xf6\x1d\x8f\x88\x0c\xa3E\xfe}L\xf2\xf7\xfe\xe8\xad\xbb\xb6\x17 \xc9\xb5\xab!w\xe5\x8e\x93\x87\x13\x12\x12\x0e\x0f\x8c\x1f,\x1bs\xa6\xc8\x877n&gt;\x96\xb8I\xb3\x1a\xc2\xb7\xce\x1d&gt;$2n\xcb\xaeu&gt;\x9b\xe7\xaa{\xfc\xe1\xccEo6\xc3\x00\x03\xf2\xc0_\x86\xa9\x0f\xd4&lt;O\xa8\xf4_\xb3\xf9\n~\xfe.:J\xd6L\xfd\xad\xa1\xf0+\xee\x87\xcd\xf8Dg\xe5\xc3\x9a\x12\x84Pp,,k\xe7\x9a\x1f/\x0bl`\xf4\xba\xc2\xc7d\x15_:9\x86h\xdbwFoxs\xe1\xb7\xca\x1e\x06\x1du\xea\x88\xcd\xe6\xc99|\x13\x91\x80\x9b\x9a\xf9\xfd\xf7v`\x81\x100A\xb9\x836\xb3\x97\x1c/\x88\x9d\xe38\x05\x8d\t\xb4\x1d5\xd8|?n\x8d\x93%\xfbFJ!T\xc4\xd6=&gt;\x8f\x7f\xa0\xc6%3q-\x13V\x9e\x17\xfd\xf5\x84E\x08=&lt;\xe4i\x064\x8a\xb9\xb8i!\x84pz\xae\xa9\x98a\x8aJ\xf3$\x9bmw\xb4\xfa\x9b\x80\xc9Pq\xc76\xda\xa4\xa3\x1d\xe7\x14&amp;BX\xd6M\x1bK\xf2\xc4&gt;8\xa3`\xdd\xa2\xf7hs\x83\xa3\x147\x01\x88`\x82~\x91&gt;"x\xf2o\x87\xd3=\xbe\x13\xb1H\xf5\xb5=\x86\xf7\xdbt,\xdeSu\xf2)\xdazzI\xd1\xc7\x04\x03\x8e\x8e\xe1\x91\x91z\x16s(c\x89Cn\xf7\xbc\xa8`\x11\xe0\x84\xa2\xaa\xaa\xae:\x8b\x89C\xb2\x92\xd2\x18\x8fms,F\x17\xf9u\xa1\xf6o\xdd\xe89\x9fP\xc40\xf6\xc6\x0c\xc7"kB\x10;)\xa5UT\xacu\xb1h.\x19\xcb\xf1\xa4\x8ff\xd06E-VO2\xc4\xfe\xb1\x1c\x81\x10\x0b\xcb\xe1e\xff*\xf3\xd8\x0eD\x7fM\xc1\xd4*\xf5\xbe\xed\xb6\xfc\xc3\xbd\x0c\xc3\xcd\\\xe6\xfdmi\x98#\x04!\xcf\xa8\xbf\xbfR\xac\x06VQ\xeba\xf0&amp;dP^\xc6\x92S\xd8&amp;NB\x8e3\x1b\x89\xf1\x83\x92\xe9;P\xb15\x11_\x0b\x0c\xef\xb2\xf6\x80\x8f\xdfq\x1d\x18\xce\x04=\xa2_\x80\xa6\x06\xc0\xa9v\x06\xbcgC\x90\x95\xe3\xa8`\xb9\xf0L\x9c\'Oy\xc7c\xdc\xc4\xff\x96\xf2ig\x8f\xbb\xd0\xab\xe4\x1b\'+NL\x18u\x16\xac\xdb\xa2\xf9*\xd6\xd7\xa8\xd6\xef\xbd\xe6\x89\xe9A(\x0b\x10Vp\xf3\xe3\xe9\x8e\xd7z\x13\xe6\x86pc\xe24&lt;u\x8f\xa7\xa1\xfd\xf5\\q\xc7\x03\x16\x86.\xb5#\x08\xcb\xd6\x87\xc4&lt;\'\x95R\x8b1\x00\x8b\xc0\xc1\xc5\xc9\xbc\xda\xa7\x8c\xf7d\x92\xef\x00V\x8b\xc8/\xd7*\xee\x84\xadk[\x16\xe3\x9d\x95C\xc6\xe9E\x93\xae\x0c\t\xa0d\x06*^\x07\xf4\x02|0X\xbd\xde\xce\xb6Nv\x0bi\xcdy\xf4\x99\xac+\x07\r]bf\xaaX\xce\xc0\xfd\x18O\xfc\x96/M$F\x95\x18\xef\x89\xe9\x03f\xb9\xeb\xb6 \x17\x05r\xee\xd7./\x14\xaf \xa4\x85poI\\%\xbd\xed\x17\xa7\x9b\x7f[\xea\x9dM{\x87\x87\xf337\xf8\x12#aI\xfd\x05Z\xdeR\xbf\xe2(\xe5\x98\xac\x04\xabo\xcd\xfe/J\xa4Z\xb5\xe1\x98/\x98\xe0bz\xabi\xde4+;\x9b\x83\x7f\x8b\xf7\xea\xa8\xb5\x99u\xc9\xa6\x11f\xfb\xe6\x06\xeb\xc6\xaa$\x9e*\x83\xb7f\x862\xbaKk\x1e\xc8\x1a\xb2v}Q\xaf\xb2\x00\\\x12\xef\x81 \xc0`\x93\xc5\xce\xc0\xd0!\xcf\x8f\xc7\xbf@/\xb5*\xe2\x84\xcd9\x03Ln\xa1x\x99\xc89\x04\xcb\x19\xb2\x84\x85}\xd4\x8b\x840{gpD\x12\xc5\xa4__\xd5\xdeh\xbb4\xdf\xd33\xdfQZ&gt;\x9e\xe1\x97\xa8\x9846\xb9&lt;\x1c\xd6\x0c\x88\x9dT8\x1a9;\xab\xc4A\xf4\x8c\xf7 \x1f\x9f\xf8\xd9\xfeR\xab\xfe\xb1\xc7\x13\xd3\xce\xd8o;:\xddb\x1b\x98\xb0(`f\x84[w\xe4\xe4\xb5\xe6fXE~d\xb01 \x97)\xfd\xb9\x07\x81\xa9\xa9\xc0\x83zyGh\xedYq\xe3\x9fe\x8f\xa7p\x8fcM\xd0\xe8x\x01\x1c\xb1\x80\x05\x03\x03=\x03\xdb\x82\xbe\xad\x9fi|\xb5\xea\xa7x~G\x1ac\'ss\xf0$\x98\x1f g\xe4\xd8\x15\xd1\xd2\x1a+y\xd1\xd9}\xdf\x05B\xd1LEu\x99\xbf\xaaP\xe2qH\xa9U\x17\xdc\x9d\xe5\x8d\x01\x01\xd8\xbe\xbb~\x91\x96=\xafG0.{"8#\x87$\xd70\x96\xb8\xda\xa1\xe3\xb4o\xa7\xe6s\xb8\xd4\xaaS&gt;\x9a\x80e\x01\x94\x05o\xc0qE\x89W\xb6yo\x85S\xcc\x7ft\x11\xe0\xfa\x8b\xca\x85$4\x14/I\xa9:-\x0e]\xaa\x84x\x94&amp;9\xeb\x1e\x16\x03L\xddX\xc0\x13\xdb\x11h\xf8\x95\xb8\xd0!_+\x17\xda[\xd6\x97\xf0\xec\x17\xdb\xae\r\x9f\xce\xa5Q\xed\xf3\x05\x1fc\x01B\xd5Y\x8ee\xcf\xf9i?\x98\xe4\x1b\x17=\xb2\x8ae\xf3\x00}\x8f\xfc&lt;\xe5\xa5\x14\x83\xc1h4\xcbH\x08\x96\xac\xd5\x9a\x8dF\x83A\x8bS\x80\xbf\xd0]\x03PSI\xe9"\x12\xb23\xaf\x03r\x07\x84\x85v\xc8jE\x1b\xb4\xff\xb3\xe0H\xd4\xa7r\xa9e\xaa\\E+\x8b\x9c:\x13\xdcqL\xb8\xb0Fy\xef\xf2\xf4v1x+B\xa8\x91\xd9\x80@\x8aL2\x96Y\'\x19\xc3{:\x843\x98Q7\xffJ+\xb4vSZ\x1bx\xe3~$\xeb]\xc0e\xd3db\x86c&lt;\x07&gt;\x91K\xadJ\xf4\x05\x9fC\xa0\x0f\x17&gt;P\x8cN\x84\xdcV=p\xa5\xf9bg\x00\xa6;\x0b\xa9\x84\x0f^\x85\xc0McRj:\x9f\x8c{(\x9eN9j0HT\xba\xf2\x0cJ\xba)_\xde\x82\x1e\x00\xd9X\xaf\xc4Z\\\xe5\xd1\xf8\xde\x18\xcf\x91\r\x9fF\x15\xeb\x0b\xf6C\xdaHp\xe8\r\x97\\\x1b\x01\x9a\'\x1ce\x17\xa1/\x83\xe7\x93\r\xe6\xe4\xb0L\xc9:\xa3\xecv)\x93\x0f5\x94\x0cReO\n\x03\'\xeb\xcc\x06-O_\xdd\x87\xdeJ\x87\xff&amp;z\x1f+\xf2#q"\x8dSZ\x0e\xe4*\xd8\xa5\xf9\x14\xaa\xe3\xf1Al\x04\\sA\xeb\xb2\xc2E,\x16=\xe8\xcb\xc5\xae\x97\x10\xb8\xc2\xf3F\xc3\xbb\xd4iS\x8c|f\xc6bF\xa6\xe8\xf6\x82\x00\xa5\x94\x0f\xdd\xbb}\x99O5\x87O\x90\xb5\xe3\xf9\xbab\xe8Y\x10\'[\xc0e\xb9\xe38\xdf.\x9c\x91\xb3\xc92L\xef!\xdb\xce\x8f\xae\xab\x91\xaaM\xeb\x82\xdb\xb0F\xa3a\xf3\xe9\x9c\xd2\xb6\x10=L\xb9\x1d\x9d-\xdc]\x897\x1aW\xa10w|u\x11\n\x19\x18(\x02\x13^rc4\x0b \xab?\xbf\xd0\x9c\xa2]\x05\xb3\x0ed\xa3L~\xf4D\xfd@\x07\x16@\x8b\xbcRfe1SN\xac_\x1f+X\xd4\xf7\xfc8dM\x86jK{kB\x14\xa7#6\x08\xb0lM\xea\x80\x1e?M\xfe\x83R\x8aV\xd5rab\xc3\xcd\x8b\xd2\xc5`C\x8d\xb3M\x97\xfc\x8e\\k\xd0\xd2\xf4Fh8OGQP`\x15\xaa\xa2E\xa7s\xc0\xd5w\xdaw\xea\xe3\xf4R\xabv{\xf2\\\x96&amp;\xd1zV\x12/\x8f\xe9\xe8-\x0c\x0f\xca\xc5\x9c"2\x89\x16\xfa#\x14\x8e\xc2\xab\xb3\x9c\x0b\xbbf\x96S\xde\x7f\x88\xdcz\x11}6tSC\xca\xaa\xa4\xdaL\x89\xd6\xba\xce\xd59^gc\xddB*\xa1xAt\xba\xa9\x9b\xed\x08\xc6\xaf\xfd\x98\xe9\xa8V\xed\xf5\x1d\xf2\xe2\x9dWhh\xbe\xb1:G\xb7\xd0\xcc\t\xd9\xd5\x8eZa)\x87\x1a\x8d\xab"(\xe3,\xea*\x0b \xbf\xeb\x84K@x\x86@\xb3\xf5\xbd\x13uf#\rM\xc3\x8a\xf8\xca\x8b\xb5\x99e\xb3G\xc4\xf1Y\x18\x12\x07!\x81\xff&gt;*\xf2#\x8c\x15\xed;\xfd\x04\x0b\'\xc1W\x86\xf4\xeb\xc0^G\xe7\xd4\xe79nASW\xd2\x87Ri\xb5\x06\xba\x0cK5\xd8\xe5\x08\xe4]?\x03\xa4\xf9I\x96\xe0\xb7\x9a\xdf\xe3\xd2f&amp;Y\xfb\xb1\x95\x08\x05@o\x82\x1a\x9a\'\x17\xc3\xb2\xabi\xec\xd1\x825\x7fm\xaf\xc8\xa8=\xfc(\xd8qM3A.\xed\xea!\xd8\x90x\'\xc4\x97P\xc1\x17\x1a&gt;\x90J\xae\x01\xd2\xe8\xedB\xfe|\x0fp\xef\x9a,\xb6\xa5\x8e\xb7\xfa\xfb\xf3x\xf3\xfb\xa7\xea\x8c\x85\xf4.4X\x17\x8a\xc1\x05\xf3\x8e\x97l\x9a\xd0\x92\xeeLc\x86\x7f\xf1%\xfe\x95\xbd\xd4\xaa\x9d\x05\x07\x05\xa5V\x11\x134\xd1\xd4V;\xf1\xe6\xd0;0N\x93\xcd\x1fJ\xa5$G\xe2u\x06\xde\x9fE\xde\xaae\x82\n1\xd3hM\xca\xd4\xa5\xfc\xd7\xb9F\xda\t\xd3\xf9\xe7\xb1\x91\x1e\xb6.\xe2T\\\xc4\xd7\x13;\xf4\x04\xd7E\xfco{a\xd7\xe0s\x0e3&amp;\x8b\xe2\x11\x13,\xcfq\xa4d\x84\xde\x84{\xd4\xa0\xfd\x13*%9\x86\xff\xf0i\xe5?mdI\x98\x8d\xd0&amp;\xcc\xcc\x1e\xd1\xaef\xb4+\xedhW\xa3\xccdF\xa3\x9d\x89\x94h\xc4{\xdd\xaf\xddn\xbb\xddm\xda6&gt;\xb1\x1d\xe3\x0b\x1c\xce\x80\xb9o\x13\x8ep\'$\x10\x8e\x00\x93@\x80$\x0e\x0bI\xc8\xbd\xc9\xe6o\xdbz\xdd&amp;\xb8\xedfZ\xe2\x07D\xbb\xbb\xdeW_U}_\x19\xb3\xd9\xa1YX\x15-\xdc"Ga(\xd5\x19\xddk&amp;\x11\xa61\xe5\xdb\x15\xd0\x9e\xf7\xf0Y@\x0c7`h*\xdfW}]z\xfa\xb7S\xf8U\xd3/(\x86$V\x8d\x0b2\xc3\xc4&gt;\x88\x9b\xa8\xfd\x84\xa8\xa0\x8d\x9b=\xd0\xd5\xb9\xc7\x98\xcf\ty\x94HC\x9f7\x99\r\xb1\xad4\x93Zvv&amp;\x1d\x14\xd0:\'\x92\x0ft\x7f\xc1\xb0\xa1\x0b\xbf\x9d\xc6\xd3%\xa7*\xbeCw\xd7\xd6a4\x00`P\xc8\n\x9e\xf2\x8e\xa2\x8d\xfcj?\xe6\x15\x04\x05\x11d"o\xa7\xc5\xd7G\xe4\xc28\xe6\xbb7\xba\x93\xe2&lt;\x86\x07\xa94\x8b\x11\xf4\x92\x04b\x0c\xca\xae\x0e#USX\xd1R\xd3\x17\xe7N\xf6\xdb\xa5%\x9f]\xee\x89\x9f\x99\x14\xc5\xc82\x88J(z+Z\x81\x1a\xbcO,\x95\x86)\xb1\x93\xf0\xe2\x12\xe8\xbcg\xde\x01\xc4\x1f\xd5ab~\x8d*-\x1f\xe7\xb2\x98\x8a\x033Q~\ry)\xa7\x90\x16\x15\x06\xa0/]\xf9\xf1d\xb8JK~\xa8j\x83*\xecO\x8a\xa9\xab\x82\xaa\xd8^\xc3\xb8o5\x8a\xcaE\x0b+Y\xd3LI\xce\xb6\x02Z\x9f\xc2\x8a\xf9\x92,\x10-\xb8m\xe2\xa2\x06\x80A\x1e\xb7Q\x1b\x98\\\x85\x85.L\x05+c=3\xdes\xf9\xc4\xa6z\x1aZ\xd6\x85\x10\xf57\xf5\xfbD\x9c^f\x14!&gt;\xb3&amp;\xbc&amp;\xae\xe2\xa7\x03T\\j/\xa4N\x1a\x1ej\xef8\x89\x80V\x12c\'\xfc\xfa\xa8\x85\x98\x8a\x19\xe6*w\x83\xa0\x9c\x16_B\xf2\xd4\xa0\xe0\xce8Z\xaf\xfa\xfa\xa4\xb0J\xcb\xfeR5I\x9d:+\xa0\x1bc\xde)\xcc\xf3-\xf2\xcd\xdd\x19\xd9(*\x0b\xf9\xf0\n\tt\xd2\xa0\xc2\xb0|kt6B\xbd\xf0+\x9cl\xaeT\xb5W\xfep\xb7\x99\xe4G\xa1\xa7\xe1z\xea\x84hU\xbd:L\xbd\x8a\x9d\xbf\xfc{\xe34R\x91\xf59\xcf`\xad\x04\xfb\xeeL`\xc0z\x14%9\x8bATn\xf2@\xd1$\x0f\xc6\n(\x9e\xa1\xe3\xb0h\x12\x19\xba[\x02\xd8W\xc3\xc4f\xb6\xd9\xf4ei\xb2\xc8\xd5\xb1\xe7\xe2!\xe8Bhv\xd9mp\x03s\xa8\xa6\xea\xdf\'\xc0Uv\xb1\xea1\x05\x8b\xf6\x06x\x89\x80F\xc8\x06\x8c\\\x8b\x01?\xdc\xe4-\x8d\x1db\x92XL\x9b\xd0P~\x12\xb7\x10\x98$z:\x1e\x05\xa7\xa8\xff\x00]\xa8\x8b\xcbL:\xa1\x966A\t\xf5\xadwx\xd7\xd2\xf2,\x1f\xbb`\x0c\x17\xed\xa4*X9\xe3\xc4\xb3l u\xad\x9f\xb8\xcb\x8d\xaai\x1f\x1d)\x06`\xc6h\xad8\x99G\xf9\xb0o\x15\xd2\x0bu\xac\xaa\xaa\xd5\x8d\xb1\xe4\xe2\xf5:\xdd\xd9Ln2 \xa4\x9f\xd6\xb3\xd7\x92\xde\x8e\xab\xfdM\xad\xf0\xc1\x85\x93\xd8\xf5m\xd5(\x05\x0b#\x89\xe1\xd5\x1d\xa3w\x94\x1f\x94\x8bI\x0bQE\x8et\x8c\x00\xd6&amp;E\xec\xdc(\xefg\xd5\xcb\xca\x87\xaa\xe5\xa6\xde\x06\xba\xa8\xd1\x04\x05R\x14\xd4\xa8\x9f\xdb\x956\xd9\x17\xba%n#\xfcv.\x8b\xc6\xd2(\xb6\xb7\xea?_\xf1\xafb\xb8\xc0BW\x9c\x8faU\x89\n\xaa\x17\xee\xeb\t\xa0\xf7\xc4l\xd0\x13\xed=w\xb5,1\x8c\xb2O;z\x94\x1c\x1c/l\x84\xb4=J\x9e\x8e@\\\xaa\xdafY\xc4\xf0\xc3v\xfd\x90\x874&gt;@\x9dM\x13\xf4U+M\x8f\x1e\x8fy\x03P\x8c\xff0\n\xeb\xc7\xaauZ\xb3\xf0(v\xffj\x88G\xef\xc5\x91\xb8\\\xac\x19h\x06\xdeh\xc6\x9fa\xf9\r\xd1\x16\xb5\x98\xa33\x9d+\x0f:w\xa6\xdb\xa77\xba\xf7\xdf\xfb\\\xe6\x0eG8\xc8\xb0\xb9\x19)\x81\x8eq\x14\xca\t\xb7c\xf6\x89\xbc\x83xv\xd6\xb1\xd5.:\xf6\xe38\xdbs\xb6hb\x97\x96\x9c\xfb":N{\x96\xc4\xe08\xf1\xf4\xe1,|\xa8\xdd\xa8\x91\xda\x1c\x01\x96\xfak\xca\xe8\x8fDs\xf92\xe7\xb0\xcdg\x06\xc3&gt;\x0b\xf5\xad\x1c\xe7p\x01\xa9Y\xac\x91\x8d\x15\xb2c\xb2M\xd7$\xa8\xd8\xaeE+\xe20\x96\xc0\xb1\x90\xceF\xba\n\xba_\xf1\xcfB\xe1\x05v\xb5\xe2ot\xd7C\xbb\x83\x7fvI@w\xc4\x86a\xe26\xac\xc2\x01\rU\'\x1e7\x13.\x9a\xdcYy\xf3p"\x18R\x18\xcc*\xa1`\xfc\xf9h\xdba\xc0\'\xcb#jU#*E[h9\x9b\xea\xa0O\x98\xf20_\x8a\xcd\xf4\n\xf8\xbfb\xa4\x8br\xc6)u\xdd\xbeX,\x07\x7f\xa8\xda\xc4\xcbcC\x82V\xe8\xf8\xc9\xcc\x0e\x8apFSGN\'T\n\xc2T{\'&gt;8h\xe0Q\xf1%4\xbf\x94\xb7%\x1a\x96\x04\x98\xceQ\x86\x9a\xea\\\x84\x83S\x1d=\xc7\xe2\x08\x80A\x98\xc5\x89~\x1a9M\xb6\xf2y!\xe9\xc1\x83\xdd\xae\x0e\xa1\xde\x9ef\xc0`v\x044\xd0\xbaww\x963\x00\x0b\xda\xfb6\xb5\x1c\x88\xf6\xa6\xde\x14\xd6\x96\x92j\xffT/\x06\x08\xc7\xd3^\x16\xa0\xbboU\x1f&lt;\x06\xd0\x01\x9c\x85\x89g\xb5y\xb3\xdb\xe4\xe6\x1e\xd6\xcb\x9dT\xf9\xb3\xaa\x11\x00\xfdx\xe5\x94&gt;\x8be%\x7f\xadXDA\xee\x19\xcc]\xfc\xce~\r\'|\x01\xb4\xc1\x19\xc8\x99J7\xb7\xa4i+\x08$]\x8b\xb5\xb1\xa0\xbf\x80\xe5\n{\xd8\xe3\xa7\x16\x8da\xea3\x9c\xc5f&amp;\xdd\xf0\x87\x98\xcf\x93w&gt;.\x82\xba\xe5,\xb6j\x0f\xc0N\xa9\xd1\xfe\xd3\x1f\x8b\xb4\xc3*~\x01]\xd1\xaf\xa0=O\xbdt\xe0\xbd\x11\xac3(\xc3\xf2r\xcf|P5\xb4\x94]\xben\xecDF\x97`\x95:;b\xa0X\x05\xa8hn\x8bs8\xc6B\x8c\x95\xef\xcb\xd8\x8f+\xd2\xe5\x92w\'\xc4\xbd\x1c\x03\xe9a\xd8\x80&gt;\x8b\xa5%\xbf;\x9b\xa9G\r\x8eZ\xaa\t\x92\x01\x0c\xe9a\xda\x0c\xb5_\xb9c\x8b\xd5V\xedp\xc64\x84\xa5M\x05\x9a&lt;\xedb\xd4|2h\rt\x04\x03\xa3)(w\xfa\x0f"\xa9G\x08\xee\x84\xb0t\ng\x1f%\xd3,\xfd\xd6\x8a~\x0e\xc4\xdd\x97\x15\xdf\xe4g\xb1\xac\xe4\x0fP\x87&lt;\xde\xf1\xae\xad/D\xbc\x93h\\\xdeG\xd5\xb2\xdbP\x8dO#\xabV\xf9V\xdc[\x8b\x18\x89\xd1\xbe\xa6\xd3]V\xf6.\xd7\n\xf7\xc1\xach%tSy\x13\x9a4\x83\xea\xc3yh\x81k\xf2\xf15\xe2\xb0t\x04\xb8\x80\xbb\xaa\xbe\xcd\xef\\e%\xa7\xae\xd4`+\x13\x8c\x10\xafW\\d\xf1\x82\xb7\xf1\x05\xe7\xae,\x96\xeeu\x1c\xe9&gt;\x92\xed\x8a\xf4,\xa50\xdaZ&gt;\x16\\\xbe\xb5t00\xb0\xd9?&lt;\x91\xa5;\xf0\xbd\xa6\x9b\x82\x93\xee\x8d|\xd3\x88\xe5\x19u\x13\x80B\x83\xf9aA\xabY\xea\x83\x02\xc2\xfds\xef&amp;_N4\xfbQ}\xe6\xec9]\\\x17o7R\x94\x85\xfe\x8f\xad\x0f\xe1\x11\x91y\xb4\x0f\xae\xa2h\x18\xda\xed\x0fdu;\xa5rTh CH\x89o\xae\x1f\xb6\xf8r\x0bpzuT\x07\xa6V|;t\xa7i\x95\xfa\xc5%\xc8\x0e\xed(\xf0\x13K\xebf\xa3\x85;D\x81A\x05\r{E\xf8\xb8\xa7\xba\x1b}\x97/#\x80Z\xb7\xc7\x12\x02\xd6\xa8\x0c\xe15\xd7-\xe2\xe2\x1c\x9a\xcc\x8e\x8eUE\x9e\xc29\x92\x82\xb2\x99~:\x97t\xd3]n\xe4\xd7\xd1\x1b/_&lt;z\xf1|u\xb45J\xf7\xa7\\\x17\xdc\x069\x9cK\x85\x04\xed\xb1\x80\x96r\xcf\xae\xf7\xbe&gt;\xe5\xba\xd8\x88\xfd]\xd3\xae;s;u\x8e\xbe\xeb\x15y\x0b\x1c\xd04@-U&gt;\xd1\xa6c\xc5\xabb\xd7\xab\xa2\x1c\x82K\x1dk\x84\x1a\xff\x90\x9b*\xc0 \xbc\xec v\x93\xd9\xdc\xc1\xbd\xc9k\x0fa\x8f9*\xaf)\x80\x0e\xf4\xfd\xf0\x0e\xa8\xaa\xdc\x82\x02\x0b\x01\xddl\x84\ttk\\\xfc\x15\x83\xc9\x16\x9bC\xdd\xa4\xa7a8_\xdd\x94\x95|S\xb1\x87\xad\x9f|\xb1\xb4\xed\xf0\xbf+\xcc!D\xb5\x95\x85j\x0ed\x14\xad\x12U\xcb\xd2J\xa8\x8d\xb0p\xd7y?\x9f\x136\xcd\x19\x0f\x14F\x1b\x9d\xe6N4\xd1\xd4\x1bG\x88g\xd4}\t#E\x9al\xfa\r\xc6\x8a0\xdf\x0e\xf3\xfaI\xaa7\xe3\x9d\x8e\xa3`\xc7W\x7f\xd6\xad\x8eV\xa9dS\t\x00\x87\xdaJ\xa2v\xce]\x14U3&lt;\x00w75HGpA\x7fo\xa7q\x99\xb9\xab\xc72\xb0&gt;\xec\xb1\xb9\x1c\xcf18M\x05/prjn\x17T\xa1\x04\x889q7g\xd1\xef{Z\xd0TGB`f3b\xaa\x86\x1e4p\xe5Oyp\xfd\xbd2\x9e\x83\x80z\xb7f\xf9\x0e\xe3\xb3\x17F\x95|\x02\xbd\x91\xc7W\xbdC\x9f\xc8\x05d\x0c\xd5\x12\x8b\xc5M\n\xc2\xb2\xcf?\xa1J\xdd\x8a\x0e\x89\xd9CR\xef\xfbT\xdd\x0f\xe0r\xfa\x1cx:\xfc\xff\x11\x1b\xa5\xd8\xa0\xd8\xbe\x0b\x03\xc1\x89.U\xfc|\xc4y\x105ga \xaa}\x91mN\xb0xX&lt;h\x90]\x95zW08N\xbfUu\x82\xc0\x9f\x82w\x1c\x91\x98\x11\x12\xff#r\xb4\x00-\xb8\x9b\x1a;\xb0\xf1\x83\xb2\xab\xdc\\G\xd2\x07TF\xf3x@?\xfca\x92\x8d,\x8b\x93\x18w~D\xd4\xc7\xf3x\xfdX\xdc\x9c.\xf9\xecJ\xed\x19\xfa&amp;\'\xdau\xb4\xf0hA\xbc\xf9XG-\xe8W\xa9\x91\x9cFT\xee\xcdda~}\xc2K@\xaf\x93ra\x12M\xa68Rx?\x1a%P8\xa6\xf2\xa8\xcc-&amp;(\xc3\x1a\n\x86\xbf\x85,(\x8em\x0cw\n\xac\xca\xd5_\x8e\xed5-\xc4K\x92\x93~\xb7\x8a\xe3\x81N\x8c\xef8\xf8\x02\xb4]\xdc\xa6\x1a\x15\x8d|Al\xd3\xc4in\xc7\xc6\xa2\xc4}\xf5\x9f\x1f\x8e\xc3\x02\xa9\xd8\x1e\x84_f\xb5a\x03\x0e\xdcB\x02q(I\xa6E/S\xdd0\x7f2\xbd\xf0P\xd5p\x02\xbdo\x1d\x97b\x19H\xc0/\xa1\xc7\x83\x8e\xe4)dR{\x06M\x11\x8bNy\x83\x9e\xc6*BN\xd4\xcf\xcdg\x19\'\xfa\x14\x97\xe4\x07CVS\x80\x96\x8d\xf3m,\xee\xfc\x9fpk\x7fj\xe3\xba\xc24/\x974m2I\xdbL\xdcI\xa7\x93\xce$\x9d\xbai;Ng&lt;\xdc\xbb/i\xc5J+i\x91\xb4\x92\xb0\xa4\n!\x84x\x18\xb0x\x897\xc6\x08\x04\xc6`\xc0\xd8\x18\x8c\r\x02c\'&amp;\x04\xdb\xb1\xc1\xc6\xaf\xfao\xeb\xb9\xbb\xda\'\xb8\xf5O`\x06\xed\xd9s\xce\xfd\xce\xf7}\xe7\xe2\xf4\xea&gt;x\x8a\x1d\x18FQ|h=In6\x89\xb3]\x14.\xd3\x10HgP\xa7\x82\x95\x15\xbf\xf3M)$D\x9dL|\xe956\x03\x0cD5\xa31`L5dD )\xe5 \x95\xffs\xe0n[\xb6\xdc\xa0m\x08\xa4\xca\x86l\x82\xee\x14\'\x10\xbao\xd5\x1an\xa9\x84\xae\x04\xc6\xc9\x91v\x10\xc4\xa4\x86"\x9fk\x0b\x97\xca\x8a\xbf5\x9fA+\xb9\x1bh~}{\x8eG\xd1\xde~d\x1a^\x9cK\xca\x8cc\x15y\xa0\x92\xe7\x19g\x80\xd0f\xc3,%b\xdf\x1c\xd6\x18\xf1\x90\x88\x1do\xf6\xef\x95yz\xbe5cUfU\xdeE\xea\'\xa6\x88\xf5}\xb7\xbf\x04:\xe3D\xb9\xb7\xdem\xbe\x89\xba\x99\xd89\x91\x11@ku\x88\xab\xd1^\xd9dy\x0e&lt;U\xd4\x95\x92\xad\x86I)T%\xf6N\x97[\xed\xb8\xb0\x12\xa2$;]G\x8c\x0b\x88K.\xd9dgPni\xbd\xc4\x14P\xc7\xcf\xdd\xcf\x1fl\xe6\x93oPm\xf3\xa7\xe5\xa3\xf8^\xc5\x1f\x9b\xaf\xa2\xe4\x1d\xd0\xdf\xd7.\t#\xe8\x1c\xb3\xd1!k\xce\'D%\x0e#\xad\x95Hg\x85\x82\x9c[\x9a\x8cA\\\x1e|lX\x8b\xa3=\xbd \xf1\xcd\x82\xa2\xdc`U^\xbb\x18\xe6\xa4\x85\x1bB\x1fJ\xb3\x02\xfcc\xc2IO\xf6\xec\x87\xfaT\xfc\xfbR\x01e^\xd7w-\xf2\x0b\xc2\x0ejc&amp;\x8a\xa2\xe6b9\xbd\xd2\x08r\xf0\x1em\n\xbe"\xc8A\xc0u\x8d\xd0.|LX\xe3\x81\x1eT\x9cX\x1f`$\x97\xcdw\xe3\xaa\x8eJt\xa6\xedbx\x1e\xc5B\xeb\x87\x17\xb6~x\x9cF\xdf4\x7f\xab\x87\xf5\x19\xd0\x9a~\xa1KX\x06\xa0y\x8a\xe6\x84\x9d\xef\xd5\x03\xa3\xb8X[\xfah&amp;\x87B\x1dJ\xc4\\\x9e+\xdb\x10G\xc2r%I\xaf\x14\xa7\xee\xb0\xec\x91\xf5\xc2\x11\x1d\xc5^l\x83\x02\xb5\xca/T&amp;\x88\xbe\xf0}`\n\xeb)*\x0e\x0e\xf4t\xc4\xc7\xeah\xb4\xcfl\xad(#5X\x15`j\xdb\x88\xdd\xa5\xc5\x05\x82F\x1d\xb6\x9cSl\xba\x86\xd4\xad\x9e=,\xf7 \xb0S8\xd5\xf4V\x96\x91\xdebP\x1b\x08\xf1x\x1aH[}`\x99&amp;&amp;F5L\x1fsX0MQ\x9c8\x8b\xf3&lt;\x845\xbf\xd2\xae\xc0V`v\xc3\xa1\x8ep{X\xd0s23\x93\x06\tAy\xfc\xf6l\r*\xe8\x08o\xc3\xef\xdcbZ\\\xdc\xff\x0f\xcb_z\xae\xdec\xb2\x85\xf5T!\xe8*\x8c\xcf1;\xd3j\x11C\xe2\x03Lc#*\xf8\xb5A\r\x0f\t\x9d\x19\xe8\xee\x80\xa4D\xf1\xd1\xb0\xe0\x0b\x0f!\x1a\rof%\xe7\xff(dH-bu&lt;\xaa&lt;\x85F_\xfc\xfb\x03S\xcb\xb7!\xd5\x06t\x80\xc0]a&amp;\x16\x94\x96\x0f\xc2p\x98\xa1)S\\\xe5\x96W\xe3\xe2\x80\x1c$\xba\xc92\xf1\xb8\xb0\xd4\xc0xt1\x03\n\xea\xedq1m\xfbac5C\xa1o|\xdf\xea\x00\xf1\xd7\xe6\x8b\xfaOh\x00\x88\xf3e\x80\x80\x83\x08\x88n\xcaW\r\xbaab\xad\x8a\x05\xde\x9b\x1f\x89\xdf\x0e\x1f\x17\x9621\x1d\xa8\xf5\xf2\xb1\xfe\xb9\x0e\x10\xc3\x00\x10\x0e\xac\xad\xc4O\xe9\x00\x01,\xb0\xb9O\xfbX\xc8\xda\xae\xd4\x19M\xc9\xba\x98[%\x8d\xadKL\x05N\xb5\xc5\xb9\x0b\xe4\xb2\xcc\xb2u%3\xdf2\x85\xa5\xd8\x9d&lt;\xeeg\xde\xd6_AY\x1e\xba\xc0\x14\x90\xa1\xe8r\xc0\x03\xb5\xb0\xbe&lt;\xbbc|\x12jHm"M\xd0\x11\xbb\xfa\xa5i\xd2T\xa3\r\xd5\x89\xe3\xdcUDZ\xc8.\x182^\x99}KX*U\xe4g\x8eu\xefT\x07\x8fz\xc1,h\x14\x14FnfI\x1b&gt;dT\xef\x99^\x90\x9f\xcc\xe2;\xda\xa8\xe6\xaa8\xf1\xa2\x8e\xf2 \x9e\xeb\'Ew\x90h3)\xfb\xbc\xf3^/\xeb\x06\xd0OY\xb3\x95\xc4\x06\xd2\x11\x7f\x0b7\xd4*v\xb5\xd5\xe2RG\xf5$\xba\xde\xd2\x8a(\xad\xb5\xe2\x89\x8f\x8cQ\xfd[_\xb7^D\xa2\x12G\xd1\xbaNl\x88]\xbd\xcbSZ{\xd5\xa0\x9bl\x88\x83\xf1\x9d\xb8I\xbe]\xb8Gz\xcd\xc2\xe5\xc7C\x83\xd8\x8f=\xa6\xb5g\rJ7\xb5(ew\xdb\xe2r3I\x9c\xac\xa34s\x85Bk\xce\x93\xbf1I\xfd\xd3\xb8\x9a\xd7y\xcau\x91Z5h \xb4}\x8f\xfe\xfa@\xab\xd12\xe3t\x8b\xa3i\xc5@B\x8e[\xa0\'\xada\xb9\x92\xea6G\x0b\x8cH\xfe\r&amp;DnHH\xb6\xb5F\x88\xb9\x82F\x93\xda\xd2\x0f*VX\xfa\xdat\xed\xc1w\n\xd4\x92N\x08\x1a\x85\x1f\x9f\x99H3\xc4\xd5\tm\xaf\xf1d\xda\x9fe\x03\xb3s\xc8OF\xb5\x1f\x1dB^\xad\xca\'\x12\x18\xbc\xe07\x9f_\x0fE\xfb\x81;\xb0\x03\x13S\x92\xd7\xd2\xfdN\xa6\x91\x96\x96\xb1_\x0fk\xab\xf9KCb\xfcb\xa9\xe4\xd7?\x84\xc6\x07\xc2\xcd\xb4dR\xaf\x81\x00;\xa2\x11\x19rKf\xb7\x0ep\xca\xaf\xdc\xe6\xa2qA\xe4la%\xbc\x12[;\xac/\xd3\xd5+:{L\x13\xe8@\xb4E\x9a\xd1\xecB\xec\xa7\x85C\xfdwi&lt;e\xf6l&gt;\xf9*\xb5f\x12d1q\x956\x1bdDa\xcciqy(*\xd6\x94\xe5\xcb\xa0A\xa1\xa2S\xb6\x85\x054\xd0)\xb1\xcfy\xa3!\x81\x14\x0f\xa5Jp\x8e\x1d\xa8\xad\xd6\xec\x8e\xc8\xa1\x86\taN\xf7l\xaa=\xd7}\xdf\xe9a\x11\xd3\xed\xb1\xe9(\xe2R-J\x9aI7\xb4}b\x81\xe81\xd2(4z \xac\xe0\xf2\xd9\xa4Q:\xd4b\xcf\x96\x1c"\x9a"\xef\xa0(\xbd\xedi\x94\x17\x17(\x1a\xcau\xd7\xa4`\xddl-\xea\x0f\xc4\x91\x8e\x0f(k2\xde*+\xde\xf15b\x87\x01\xe5WD\xfa\xb6U\x91\xb9\xa4\xc95e\xd3\x86j\xf0\xb9\xf6W\x1a\x92A\xda\xafJ\x81#a\x91\x03\x97b6\x8d\x86\x84\xa9\xf52\xfc\x0cWW\xa3k\xe6\xd7%\xab\xc5DV\'N\x18\xc5\xc7&gt;2\x9c\xa4\xca\x8a\xef|\xa7\xf5\xe3\x00\x8f\x1a\x11\xf6\x0bVk\x84\xf8"i\x85\xf89\xf8\xe4\xa38M\xe9\xbcp\x0fZ\xde\xc5NQ~\xcd\xd2\x1d\x1a#\xf5\x0f\x04S\xcc\x1e\xaa\xe1\xf5\xcf,\x08\xab\x14\x1c\x10\x893\xcc\xe6\xa0\x8b\xed\xdb\x15nk"\x1d\xde\xb8\xb0\xf4\xd9{&amp;\x8f\xf2c_\xad\x0e\x1eJs\xbd\xa2\x12\xb6k\x1fN\xe9\xd1c\xe5\xfa\xe1^xK\'\xf20\xf2\xf2\x00%p\xa0\x08"(\xfe$\xaaOxC\xe4\xd2[\xaai1\x86)\x1d\x91v\xc5\'\x08w\xb2\x16\x84\xf0.F\x0f\x85}b\xac\x95\xed\xc5C\xdf;f\xf3\xf4\x93\xaf\xdc\x0bZ\x85\xc9\xd6+7\x8a6\xad.\x06\xc4\xe5\x9dm\x04\xc2u\xbf=o\x88}\nwDXo0%\xddn\x8d\x96\x19\x99?\x9d\x08\xa4\\\x1c\x9cF\x16p\xa5\xc6&lt;\xd2\xd6\x92\x8c\x05OC\xec:JF\xa2z&gt;ht\xdar\x11\x08\xb4\xcf\xd9\x11cbT\xe3\r\xe1\xdc\x81\xdd\xe0\xe2\\\x1c3\x13[\x8b\xd4\xb5\xd2z+W\x03l\xd5v\xc9,\xc3\x06"\xa5\xda\xd7\xd9lm)\xa2\\\xa9\xe4Fs\xdb\x8d\xa5\xb1\xa8\x81\xdf\xfe\xba\xbaQ\xeb\xb5\x05\xa0\x01\x0f\xeb\xc5m\xd3Y\xf3g|\x9f\x9aLJ\xa2\xab\xaf\x1bo\x06\xe2\xb6}\xd5^Eu\x13\\W7[\xd0\xd4\x19\x81|:\x93\x88\xd6\xaf\xcc\x9f\xbf\x9b\xcf\xde\xe9\x1aM$\xea2\xb9{W:\xaf\rO\x8f\xc3\xcf_\x08\xf7\xf5[\x1b\xa8a\x92\x95\xad\x840 G\xa2\x97\x84&gt;\x8fV\xc3\x1aO\xdb\xd2\xc9J\x8b-\xff\xf1R\xc6oL\x0b\x8a\xcfE\xc8\xd2\xce\xee\x07r\xbd\xac4\xac\xf3\t\x82\x92\xcf\xc2\xa4\xb0ZS\xd2\xe6\x11\x1du\x1c\x08{\xc6\xad\x8d\xd61+\xc0\x93dm\xa3\x9c\x91P(\xd2\x94\xcf\xbe\xc6\xf8\xd7\xd2}-l\x02k\x13\xe1\x83\x05\xdb\xd6.\x00L\x81\x8d\xf4)w\xd5\xcaxO\xd7\xd7%\xea!\x18"\xd4\xf5\xceT\xbe\x03NK\x83\xb2\xeb\xd4*D\xcc\x1a9h\xdf\xdd\xb5\x15\x81\xcd\x99\x8a\xd4c[\x0c\x03\xb7i\xee6\xf6\t\x14\x8e\xf7&amp;A{\xb9\xec\xb71^\x7f\x0f\x9a\xb1\\Bry\xe3U\xf8\x92\xfa\xb1\xea2]\xbd\xd7P~}\x1a\x94\xdd\xf3rX\xd0\xb7}l\xc0Njrh\xb9=\x8d\xb5\x1aR\xbf,\xa6&gt;z\xff\xc8\xee\xf5W\x0ecyS\x83^\t\xc5\xab\xd6U\x14\xc7\x8cNQ\xea\x9f\x7fh\xbc\xe0\x86p\x99\xa7\x8f\xac|\xd4I\x81\xfd\x8ey\xe1g-[\xd5\xd8n\xc6r!f\xbe~\xb6\x07QF\r\xf7\x9a\xdf\xb5\xef_+O.\xed\xebU\xe4)\\l\xdfD9\xc9D\xc2\xb9\x96\x8dqd\x8c9\x92\x8d\x85\xc8\xe4\x10&lt;\xddA\xab\xf2D\x8b\x07\x93\xb2\xd2\xd0rS\xe1\xf9\xf2N\x88x\xe5\xb6e\xbc[\xcc\xc0\x9980\xd5\x90?\xe5\xfb\xa7m\xcfy\xa2\xe2\xcf\xcd\x7f\xd0\xabH\x1e\xdf\xdf\xbe\xfb\x83y\xcd\x19\x90\x80\xcbx\x8c\xa8(j&lt;\xc3\xbc\x18\xe2\xf5vw\xa8f\x90\xd6\xf5\xfe\xc2\xc6dSL\x05C\xe8\x8a\xd8\x80\xdd\x8cev\xfc\x8b9\xac\xa18\xd4r:\xf8\xf9\xfbG/u\xfaF\xe3:(\x03\xf0\xa6\xdb\xb7Q\xd6du:\x997t\x14\x9e\xab\xf1;LG\xf3Lh1\xf7\x9f\x17\x0f\x0bk\xf5\xe6\xbf|h\x88\x15\x1e\xfe\x94\xcfxYb\x8b\xf1e|k\xb4\xca\x9f \xd9rn\x84\x87\xf5d\xc1\x17\xbf\xb7\xaf\x13\xcb\xeb\xd73F\xd3\x03O\xd8d\x16\nl `\x10\xc9\xcbZ\xf1\xd4\x94Q8\x9adB\x12\xd1\x19\x03]\x99\\O\xbe\x7f{{\xfb\xc9\xbd\xec\xad\xc9\x88L\xae\xedV\xa5\xc4\xfb*e\xf1\x00u\xccX\xddI.\xc4\x1e\xc4\x9bL\xc9\xa2p\xc3_|\x1f\x1eY\xed\x9f\x00\xe6\x9c\xe5\x8d\xc1X\x83\xd7f\x07\xd1\xb6I\xb2\xb4\xf4\xaeo\xdf\xbd}~MqDT77~\x99\t\xf4:\xddU\xb2w1RE\xc6\r+yS\x11\xd9\x1b$Z\xcd)t\x135\xa6\xe2\xdbK\xc66\xf9!\x93\xcb\xc2U#Y\xd5\xe8\x8cu=\xa6\xcf\xc5\x7fHW=\xc6\xce\xd1\x81\xde\x84o\xc4\x17u\xf7.X\xd5B\xa6\n\x13\xb9\x80x\x87\xc7\xa3\xdc\xe6\xe6\xa9N\x91iq\xbaR\xec\xcbhG\xc7\x8f\xc5b1\xd61&gt;&gt;\xe9u\xb9]\x80&amp;\xd7y\x1a\x97\xa5OGB\xb4\xa2CKolZ\xc8#\xed\x18\x93\xbf=\xc9\xfa~}L\rOT\xfc\x89,~\x0c\x1eA5t=r&lt;3\xba^\xb1\x1d\xc9\xe3\x9e\xc4\xca;o\xd2esy\x8eaevB\xc3z\x1e\xf9\xbbDH\x1c\x93Pn\x1dcUY\xcf\xfc\xb7\x9dk\xe1j\xe2\xda\xc2\xe1%\x03"*"*\xd6\xfa\xa8V\xad\xad^{\xaf\xb6\x9c\x99\xccL^\x13\x86$X\xc9\xfbE@\x12 \x10\x1eE\xc3;P\x1f\xa0&lt;\xac(\x0f\x81\x0b\x05\x8a\x06\x15\xaf\x80\xcaUQ\xfcm\xf7\x9c3!\x99\x04\xf0Uj\xd7]\xab\xb3\x96,d\x85\xe1\x9b}\xf6\xec\xb3\xf7&gt;\xdf\xb7\xa3\x0bXh\xac;\xc0\xe4\xb1\x843b\x90O\xf8u\xd9\xe9ks\x86\xd3\xba/\x93\x91-_\x05\x82\\?\xb8\x14S\x11\xb3j5m\xbb.\xb4\x90\x04\xf6`\xe7\xab\xbaV\xfa\n\xa9\xa2\xf0\x95O\x16;\xcb~3]\xba\xd3$$\xf3\x98\xf9\xf8\xf3*T]0z&lt;\x8e\x94\x9f(\xc2k\x0e\xafI?\x851Bl.\xcc\x14\xe0\x82.[L\xbb\x93\xfd\t\x1a\xack\x11\xad\xa4\xc0g\x81\x9f]\xd2\x8b\xa8?\xc5\xb6V+\xa6\xc3 v!\xa6\x8d\x8dGw\xbda\nn\xf0uV\xa2"7\x9c\xbc\x12\xcf\xf9CI\xebQ\xac\xd3\xf8gD\xe4L\x9c\xa2\xac\xb5\x86\xf2v]YL\xcd\xc9\xaa\x95\x8c\xa7\xa6\t\x9d/\xa1\xa5\xa4\x8cT@\xccH*nk\x95\xc1b\x82D\xd2I\x90\x0b\x7f\\C\xb3Q-\xe7\x9csL39\xea\xb9\x16^B\x98\x89@\xcf:\xbc\x0e;\x10y\xd7\x89\xc8f\x82\x96\xf1\x19\xed\x80\x11g\xd5\xc9"+/\xa3\x9d%\xc5\x00\xf3f\xa1U\xaf\x8ba\x19\xdbZ\xb5\x18\x11\xce\xb0\xc1\xaf]\xd1\xb9\x1f\xca\x1c\xe6\xe1:\xb4DR\\\xf8\xdd\x13\xe6T\xfazT\xca\xc4m\x87\x98\x07\x91\xcev.\xdc\xf5\xaa\xf4/a\x15\xbd\xaa\xe1\x82\xf7\xed\x0b\x8f\xad(\xba\x87`IE\xd6\xd2\xe2M\x08\x9d\xac\x1b;\x0cLt\x9f\x12:\xd6\x04L\xbc\xa7E\'\x0e\xf0\xed:m\xdf\xb2.\x95\x12ih\x10g1\xb2\xe3\xca\xc0\xb2~\t\xd1N\xd95\x88\xb0&lt;}u\xfe!\x12\x90Q\xd7\xb9@\xd4"j)\x15\x8e\rMwF\xe9\xbc\xe8\xdc\x0f\xa2r\xc0w\xc9!\x8ddB\xf0\xe9g\xcd\'\xdf\xa1\xf3L\x94|m\xce\xc2\xec\xefpFe|\xc35\x03\xc7\x1a\xb80\x19\x96\xbe\xb5\xec\x87\x95z \x8a\x84gh\xc5\xc1\xa2\xbc\xb9\xdfF\xebb\xd8\xba\x10\x95I\xbb\xe8q&gt;R\xac\xa4\xb8\xb908x\x1b\xec\x07\xdfA\xd3\x85Y\xea\xee\xb3\x97\t\xd19\x93T\xe1\xbb\xca?\xa3\xde\xd0k\xb1\xbf\x05\x96\xee\x85\xd73K"k\x91\xae\xb6V\xcb\xd0\xe4\xdb.\x9bpd\x10S?\xd1S\xd6ks\x17;\xc3\xb1\x01/\xc9\xd1\xd2\xf8wr\xc0Q\x90\xa8\xd6FJ\x08\xd4\xdd\xf6\xcey.K\x1d\xb4r\xadN6\xf41\xb5\x8e\xce3\xd0\x81H\x1a\xear\x16\x18P\xd1\x91\xa7^\x05\nz\xbb\xc9jq\xf2}\xe1\x14\x17\xfb\xfb\x8b\xcaCI\xef\xd6\xea&amp;\xa6\xef\x10/#\x12\xa2\x81EC\xf73\xe8_\xeau\xc8\xd6J9[\xc0\x0c\x93a\x0685\xca\x17\x94\xa9\x0b\xe59\xe7\xd8\xd5%J\xa3v\xa4\xb62(F%EK\xb8\xe9=\x84\xf9\xf5\x18\x8c\x14\x00\x00\x070IDATDI\xea\xed\xb3\xcfE\xe7L\xc8^\x15s|3\xe8_\x8br\x0bwJ]\x81\\\xce\xb2\xd7\xc2U\xa6\x14\xd4\xd3\x17\x95J]^NlXQ\xb3\xf0\x1d\x1cB\xf7RE\xbar0etk\xbe}\xafJ\x04\x06/\xfb1\x1f!\x8d\xc2UT\xcb]\x01U:\x9d|\x15w\x9ae\xef\x15\xd247\x10\xce}QY\xdfM\xd3t\xa3\x89\x8fqD9\xcf\xcc\x82`\xb7g\x01\xd1\xbfD[I\x969{\xdb\xfb\xb5+\xa8\xef|4\x94\xbc\x08\xbf\tqY\xaa\xf55\xa0\xcfF+c\rv\x9e\x19,\xaaY.\x91Q\xa4(\xb1\x9d\xe9\xff= \xad\x8e\x12=\xa0\x054\x0c\xc2\xd0\xec\x1cB+(\x8a\xd8\x93\x1f(]\x91$\x1db\xb2\x10\x8f&amp;b/\xa9\xc2\xf5T\xdf\xe5\xb2\x8e\xd1\xb1\x82\x1a\xd4\x1f\x17|0\xe2\x8dx9\x1f\x16\x16\xc4D\xdf:\x1f\xe8\xd5\xbb-X\xd1\x1fA\xb5\xd8`?\xfcAB\x9fD\xc9\xc1\xdd\x95/bq\x81y\xce\xb0\x00\x96\x1ah5&amp;O\x8b\n\x05\x99\x11n\x80\xa4p\x08\x03?I!F\x8c\x8b\x14%\xc9,\xabT\xd3\x17K@\xe7\x05\xfd\x80V!\x03\x91\xb0(%|\xa75\xf1\x1f(\x8bB\x9c\xeb\xb3\x83@\x1b\xb65\x8e\xab h\xe3\xee\x82\xa6\xa7L\x94X\xeb\xa7\xf3L\t\xdc\x97\x11\x15*\xa4\xf3\x030\xdf\xd7\x82\xa60s\x08\x82\x923\xf4\x98\x05\x8c\xd3\xdd\x01@R\xa2\x87\xa5(\xe3\t\xf37\xe9\x1f*"C\x9c\x9b\x86\xf6h\\\xd07}O\xf5\xb5~\xb0P\x8d\xce/#\xc0XO\x0b\xfeH\x1f\x92\xdc\xca@;:\x03\x02\x96\x15\x12&amp;\xf4)\xb9\x8e65\x83\n\x93\xde\xe1]\x91\xef\xad&lt;*\xb5\xc7\x9c\xfd\x11\x12\xc5dI\xbc\xfd\xc7\x8a(\\$*\xa7[\xe6\xb8K\x1609\xc50\xe1P\xc9\xaa\xcbt7\xae\x0c.]B\x9cp-\xf06\x18^\xb6&lt;\xa9i\xc5\xc7\x03h\x1bP3\xf4\x85\x00p\xfd\x87\xeb.Q`\x81\x87x\x01\xbegv\xc5}\x8cp2Q\xb2OslQ\x8cK\xb8O\xf94M\xbf\xb6\x82a\xb7\x0en,\x82D\x11\xa6\xab(\xc7g\xce1\x03.\xd0\xe7\xe4\x0b\xb04W\xc9\x9e\x0b\xa9Z\xaa[\x009\xcfr\xf5#B\xa6-\xbe[?\x9d\x96\xfa\x91\xfa\xea\xe4\x04M\xb4\xbd\x00\xd6(\x82\x8a1\x8e\x7f\xe9\x03\x15\xfds\xe8\xc0G\xaeD\xb1\\.GrW%m\xeaeye\x8e\\\x89t\x9eJ\x8c\xc9\xb0&lt;\x03\x8c\xf3\x179\xf7\x02\x10/ ~5\xc0\xf7t\xda\xc1\x8fD\x95(I\x81\xb8\xda\xc5\xefc\xe8\x11A_\x17\x87D\xb6\xda\x96\xb1[\xb0\x00\x83\xd0\xe4J\xb5Z\x08\x02\x0c\xab\xccQ\xab\xd1O\xca`u\xd6p/`\x04\xde\x01\x9e\xabFBN\xb1\xa9\xd0;\xa8=\xc3|4*\x84+q\x9f\xbd\xe1f\x0c.2\x17m\xe3=\x13:\xeeB\x95\x0f\xc8\x82\xd3\xa6BD\xad\xce+@\x95\xa1\xbcP\xa8\x19a\xd9\xc3\xc8\xa7\x06\x06\x8d\xc0\xbaT\xcd\xd1]A\x14\xfbs\xc5f\x07Z\xa2\xbc\x8e\xd9\x95\xfa\t\xca}\xe8\x89\xf1\xf6\xb3%\xa2x/\x02\xf6p\xfe*G\x9b:\x8a\x00p\xf5u\xfc\xee\xaem(\xd0a\x07\x83\xd6\xbb\xe8t/\x8f/\xc0\xbc\xf5\xe1\x1d\x07\xc3\xd9j\xee\x83P])R\xe4i\t\xeff\xf3\xa9\x8cO\x9d\'p\xc0\xce\xed\x95\x12\x91\xb0\x1cZ\x01\x94\xbf*\xda\xa7\x9d\x1cw\xeb\xc6\xe3!\xac\x8d\x7fT4\xb3\xe0\xf7/\xcc\xdc\x7f\x84\xceo\xc8\xa2+\xf56\x1a\xc9\xd4\xb5\xa8\x8e\xcf\x15\xf7\x9a\x90\xae\x07\xf8\x7f,=y\xe4S\xa7\t$J\xb6\xecfN\x8c\x10bg\x15vI&lt;r\xc1\xd83^\xd7@s\x8c\xcd\xdd;\x7f\xbd\xf9\xd9\xd0\xfd\xfbC3\xc1\xc0\xab\x81F\'O\xd3r\xf7\xdb\x05\x17\x88\xf6)a\x01e\x04\x18?kO\xd8\xf6\xe93\x0e\x92%\xa9\xd9\xa5\xc7\xd0\xe0\x0c\x10\xd3\\[\xf9_\xf1P\xe0u\xddU%\x03\xb3\x08D9\x85_\x18\xd6\xe9\x18X\xea\xb1F\x96,\xea\xd7H\x19\xe1;\xc3\xd8\x0f\xfc\xa1\t\x1a\xc9\x92\xa4\x04;\xbf\xb7\x98\x90F\xdf\x9e\x02\xe5\xf7n\xcc\xf6\xc8\x84\x94TQ\xee\xbd\xfc\xfcfK \xf0\xdf\x9b\xfe\x1eo\x93\x90yI\x15\x0f\xde\xd4\xf66)(\xb1\xa9r\xa5\x04h&gt;m\xde\xb5\xe9\x0f\x8e\xf5\x80\x86\xce\xdcm\xde\xfc\\\x984\x12\xfe\x03R\xd2\xeb\xb6\xe9\x07`&gt;\xb7\x16\xa3\x19\x11\xa7Ud\x0b\xe7\x98\xa6\x1dR\x8a\x14;%\xf1\xcbq\xde\xfee\xdcFLg\xd9zR\xc3\x1f\xf7\x11\x84T\xe4\xbap\xcb\xbd\xcb\x05Q{\x1b\x9a\xc3R2&gt;\x040\xedT\x06\x86\xaa\x02.\x81\x9a\xd7\xc8\x17\x83\t\xce\x1f\xea\x15a\xb5\x18\x01\x9e\x9c6o\xcf\xdc\x90\x991\xc9\x92\x94\x03i\xe6c/(\x82Z\x01\x86\xa7\xb2\x8cz|\xe8OJ\xc9\n\x03\xd3\xc0\xbc\x80\xab\x06\x8b\xac*\xdaC\x9b|x\xd3\xbeA?\xd76r5\xb83\x8f@AW\xaf8\xca\xd8\xbf\xcc\xd8\x80\xc1,\xa1\x08\x96\xb1\xdf\xce\xc0X\x1d\x01FQ^\xde\x813e\x15\xa8\xe7\x06\x8b\x1dl9IQ\xa4\x85\x9fr\xcd\xea\xef\xc2\xc5U\x91\xc1J\xdd-\x83\xae\x1e\x93\x92\x11(\xe2\xda\xf1n\xcd\xae/6p\xee\x0f\xbc\xd1?\xfeeg\xea\x82\x80 \x04=\x9b\x14L\xeag)T\x89\xc8r\xdd\xfc/`\x19\x1dt\xe5\xc3r\xb9\x17\x14\xc1\xcc\x10\xf1\x99A\xcf\xdd\x92\x9eJ\xe4\x7f\xb0\xec\'\x08K\x96\xc1\xbc{\xe7\x91\r2U\xc8`\x89\x92\xf4\xc3\xa74\xcc\x89I\xf8\xd4\x88\xcfTc\xaa\xe6\x83\xf8|QE\x8e\xeb\x1b\xa7\x0b\xf9v\x98\x94\x92\xcd\xdc\r\xd2j;oA\xd5)e\x04\xdaz\xae\x8fT\xc9\xe0\xc3t\xee5\x985\xfb26|\xa6\x14\x9a\x08\x96y\xca\xcel\xeexH\x10\nY\xc9h!\xc3\xf7\n4x\xf0x\xca\xddv\xce\x02\xa8|\xd0\xc9\x8c\x92\xd4T\xde\x08\xc8\'U\xb9\xf3L\x1e\xdfABC\xc9\x9a\xcfxJo\'\xa4n\xfc\xa0+a\xdaX\xd2\x17;4\xe6[\x13\xc3V\x82\x00\x96\x9b\xcb5\x00\x0b)\xfa`\xba\xc3\xd7\xa1\x0e\x14\xa9\xfd\x8d\xff\x15\xb4\xb5\x191)}\xe4\xf1\x03\xf8\xfe*\x16g7\x9b5i\xf1[7x\xcaU\x14\xb0\x94M\t\xdb5\xe6\xda\xfe\xe1&amp;4\xd5\r:M&gt;%sz\xa6\xe8\xb9\xfb$\x1e\xe6\xf4\x80k5qU@\x85\x1b2\x04AT\xbcr\x94\x95jvd\xc6\t\x83\xc5\xfe\xa4\x0bm\xf9q\x99_k4f\xdb\x9e\x8ev+\x1e8G\x0e\xbd\xad\xffy\x04\xc8(\x1c\xb7\x86\xc7\xc6&amp;Q{\x97 H\xef\x0f\xc7G\x0bJ5\x87\xe2\xbfCs\xca\xfe\xdc)}\xf8\xf6\x19\x99\xdfl\xd7\x94\xdev\x1e\xcdj\xa9\xf0\x91\xa1ix+\x17\xb4\x91\xd5\x1b\xec\x98\x98R\x9a5\x9a\xecx4\x07O\xf2\x19F\x07\n\xb3\xf6\xe2\xb6\xc4\x9f\xdc\xae\x81\xd8\x0c\xa3u\x13Y\xe3W\x1e\x0c\xfb\xfd\xfe\xe6\x9b?\x94\xfc\xfb\xf8\x9ejg\x0eDd&gt;\x95\x90\x99\x9a\x1e\x1a\xa0\xf7Y.a\xce\xa2$n\xd3\x81\x84\x1d\xbb\xccx\xeaci)\xfa\x87\xbe\xa2\t\x8b\xd9\xfbw\xfes\xeb6\xd1G?\xd7\x95\x98\x12\xfa{I\x19\xdfm\xc9\xfc*~_\xc2\xfe\xfd\xfb\x13\x12\xbe\xddy\xe0\x8bM\xa9G\xd2C\xe8?\xf7\xac\xcc\x15h)\xeb\xda3%\xf9\xaf\x99,\xba\x82-\x19B@Wrr\xf8\xbb\xbf\x14\xd0\xdf\xd7\xdf\xd7\xff\xdf\xf5?/\x85\xf3\x9e\xbdb\xe4\x17\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67002314814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1961</v>
+        <v>1967</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -582,20 +582,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpL\x8e\x03%\xa8;X\x8d\x04&amp;\xc4k\x81\xadOk\x8d\x03%\xcbw\x96\xb6d\x81\xb1Wo\x8c\x02$\x91\r/\x8e\x04&amp;\x97\x1f&gt;\x95\x145\x90\n+\x8f\x06\'\x9d+G\x93\x101\xa45T\x92\x0f0\x99!@\x9b&amp;D\x93\x133\x9d.K\xa11N\x9f/L\x90\x0b,\x93\x123\x95\x188\x94\x144\x8f\x06(\x91\r.\x8e\x06(\x97\x1d=\x95\x177\x92\x0e/\x95\x199\x92\x112\x94\x123\x99 &gt;\x93\x134\x9b%E\x91\x03(\x93\x134\x8f\x06)\x8f\t*\x93\t.\x91\x08+\x90\x07(\x96\x1b9\x93\x111\x96\x1c&lt;\x9b\x1d:\x97\x1f&lt;\x93\x1b9\x96\x176\x97\x1f;\xff\xff\xff\x9f\x02/\x00i@\xfe\xff\xff\xfe\xfe\xff\x01i@\xfd\xfe\xff\x01h&gt;\xfe\xfe\xfe\xa0\x01/\xfd\xfd\xfe\x9f\x01.\x9e\x02-\xfe\xff\xfe\x01i?\xe7\xcb\xd4\xff\xfe\xff\xff\xff\xfe\x9e\x01,\xa5\xc9\xba\xff\xfe\xfe\x9e\x02/\x9e\x04/\x9f\x061\xa1\r6\xf5\xe8\xec\xfd\xff\xff\x0cmF\xfb\xfd\xfd\xfc\xfb\xfb\x8f\x08)\xfb\xf5\xf7\xf9\xf3\xf6\x12pI\tkC\xfd\xfc\xfc\xa2\x13:\xed\xd6\xdd\xf3\xf8\xf6\xa4\x17&gt;\x19tO\x8d\x03%\xfb\xf7\xf9\xfa\xfc\xfc\xf5\xe5\xe9\xf8\xf0\xf3\xeb\xd1\xd9\x05jA\xfe\xfd\xfd\xf2\xe4\xe8\xf6\xeb\xee\xe3\xee\xea xT\xf0\xdd\xe2\xbfd|\xec\xf3\xf0\x98\xc0\xb0\xf6\xfa\xf9\xee\xd9\xdf\xf7\xed\xf0\xe1\xba\xc5&amp;|Y\xd9\xa9\xb6\xe9\xf1\xee\xa0\n3\xcf\x8a\x9d\xf8\xfb\xfa\xe0\xb7\xc2\xf1\xe0\xe6\xa0\x01.\xd1\x8f\xa2\xc9\xde\xd5\xe4\xc4\xcd\xc1h\x80\xe2\xbe\xc8\xbah};\x88h\xdd\xaf\xbc\xfe\xfd\xfe\x96\x187\x91\x0c-6\x85e\xa7 E\xdf\xeb\xe7\xbcVr\xdd\xb3\xbf\xaf3U\xa1-J\xfb\xf8\xfa\x94\xbd\xab\x9c\xc2\xb2\xcd\xe1\xd9+\x7f]O\x94w\xbc[v\xbd\xd7\xcc\xab(Lr\xa7\x91\x8f\xba\xa8m\xa6\x8f\xcb\x80\x94\xc4\xdb\xd2\xed\xd3\xda\xf0\xf6\xf3\xdc\xa9\xb7\xfc\xf9\xfa\xe5\xc6\xcf\xb07Y\xa6\x1bB\xcc\x8e\x9e\xb4Db\xa8#H\xb4Zp\xb7Lj\xd8\xe7\xe1R\x95y\xda\xa4\xb4\xe9\xcc\xd4\xcb\x89\x9b\xd6\x99\xaa\xf9\xf1\xf3\xe9\xce\xd6\xb0Rj\xaaE^\xc9|\x90\x99\x1e=\x9c&amp;C\xe5\xc0\xcb_\x9d\x83D\x8do\xa0*G\xcb\x84\x97X\x99~\xe7\xc8\xd1\xd4\x94\xa5\xae\xcd\xc1\xacJb\xa58S\xaeNf\xda\xae\xba\xb5Ge\xd3\x9f\xad\xc3|\x8fe\xa0\x87\xbe_yk\xa3\x8c0\x81`\xd4\xe5\xdef\xa2\x89\xd8\x9e\xae\xc4l\x84\xe9\xc9\xd3\xb9Qn\xd6\xa3\xb1\xd5\xa6\xb3\x94\x100\xa6;V\xbcn\x81\x82\xb2\x9e\xb2&lt;]\xb4\xd1\xc5\x8a\xb7\xa4\xda\xe9\xe3\xc5v\x8c\xa8A[u\xaa\x94\x93\x0f/\xa22N\xb8aw\x95\x132H\x90s\xc8x\x8e\xb9\xd4\xcaA\x8bm\xe1\xb2\xbf\xd1\xe2\xdb\xc5r\x89\xc0v\x89\x83\xb4\xa0\xab.Q~\xaf\x9a\x87\xb4\xa1\xa3\xc6\xb8\xd0\x97\xa6[\x9a\x80z\xac\x97\xc5\x82\x93\xd0\x9a\xa9\xfd\xff\xfe\xdd\xb8\xc2F\x90r\xbfp\x85\xab\xcb\xbe\x7f\xb1\x9c\xcc\x94\xa2\x9e%C\x15R\xb3\xbc\x00\x00\x00:tRNS\x00\xfc\x1b\xf5\x03\x13\xf9\x01\x06\r\xfc\xc3\xf2P\x83\xd6\xee?\xaf*\xbaYL\xa37#0\xce\x94m\x89\xea\xc9\xe2c}\xb3t\xa9\x9b_\x8fE\xad\x9f\xe5\xde\x8a\xe2\xfa\x93\xd2i\xad\xf9\xc3\xf0\xa82K\xc6\xc1\x00\x00\x18UIDATx\xda\xcc\x99[LS\xd9\x1a\x80EF@P\x10tDgt\xc4\xbbg\xcextt\xce\xad;keg\xdf\x1a\x8a\xb1\x17\xc8\x946\xa1M\xd3\x86\x12JB\x1fhc @\x03%\x80!\\|"} \x84\xfb%\xe1\xa6\x82$\x10\x8c"\x1a^@\x1c4&lt;`DCB0&gt;\x98\xe8\x18\x939\xc9Yk\xed\x02\x85\xd9\xbb\x85\xc9\x8c\xb0^\xac;{\xff\xeb[\xff\xfa\xef\xec\xda\xf5g\xad\xc8\xb3Gv\xed\xc0u8\xec\xe4\xee\x9dGup_\xd7\xbd\xa4\xa8\x9dF\xb5\xfb\x1f\xcf\r\xe6\xd9\xc4\xafv\x16\xd5\xde\xa4{9\x00z\xd3c#w\x12U\xd4\x99\xca\\Z\xa1\xe0\x1e\x87\x1d\xdfIT\xe7f\x939\xa0P@\xa6\xcfzj\xe7P%\xde,d\x14dU&lt;\x89\xf8z\xe7P}bT"\x16\xe0\xdeF\\\xd8\x19T\tHW@\xb1\xb2\xb2\xdfF\xff\xb4\x03\xa8\xf6\x1cz\xe3\x85i\x18\xe8\xba\xc8\xc5}\x88&gt;\xbd\xedq\xe2h\xdcP\x16\xd1\x15`n\x98!Q\x1a\xf31\xfd\x87m\x8e\xab\xf1\'\x16\x1c\x1cQ\x12l\xd2\xb6\xe5BH\xb8jn\xc6lg\x1e\x8a:\x1bv\xc7HCQW\x1a\x8a\xaa\xcaeR\xc8=f\xdd;\xb9}y{wBz\x9f\x9e\xe8\x07rSZ\n\xad*3-\xea\xcb5\x1eqz{.2r\xff\x89\xa1\x12\x8e&amp;\xe6\x04&lt;\x1a\x8aEX\xac\xa5W\xbcR\xa0\xefK\x8f9\xba\x1d\x1e\x98h\xedr\x01?\xc3\xa2\x80\xa1\xf0\xd2\xad\x04\x0b\x98&lt;\xb2\xef\xf8\x97VX\xd4O\'\x86\x1e\xd1\xfeP5P\xcdS\xbc\x1f\x8b\xd2\xde\xcf&amp;\x0fi\xda\xf86=)\xfeK\xa6\xee\xc8\xc3q\xe9/\xec$,@@\x17\xd5R\x81KSj 7\x0b\x14\xaa\xc6\x97a\xe7\x0e~1\xa8\xf8\x18\xeb\x033Gl\x1b@\xcem\xe2\xd9@,Vhu\xf8\x83&gt;\xcc\xb81\x14q\xfe\x8b\xc4\x8a\xbd\xfbc\xac/\xbd\x90\x16#;0\x0cj\xa8\r\x8bU[\x96\x18 \xeaRe\xfbm("\xf1\xc8_\x1c\xf5#\x0f\xc6^L\x1fo\xc9\x86~m\xa4\x99[y\xea\xf7\x8b\xd5\x94\xdai\xff;\x8c\xe1q]X\xd2\x85=\x7fa\x9c:\x9e\x14V\xf99\x97c\x18%\xd2\x04RGsA&gt;\xa5\xa6\xa4\x96\xd0\xe9\x85\n\xe0\xb7\xfd\x0c\xefxz\xf8\xb9\xfd{\xff\xe0\xf5\x04Q\xf5W{\xbe\xff\xeej\xf4\xec\x9dG\xcd\xfe\nF\x01i\xeei+\xcfSrK\xe3\xcc\x84\xabu\x05Lm\x7f\x98\x1e~\xe8\xec7{\xe5=32J\x9a\xfb?q\t\xa7\xbf&gt;\xb2{\x03]\xd4\x9e\xa3\xdf\x1fO\x8c\x0bO\xbfW\xf6\xc9N3i\xab;\x15M"\xabb)\xf9e\xf2\x18W^\x06\x0c\xcd8\x1e\x8fWZ\x0f\xc4\\\xb9\xb0q\x8bH\xb4E\xfc\xa9+\x87N\xfeW\x12k\xf6\xee\xf8\xbd\x9b\xd6\xe8}\x17\xaf\x1eJ&lt;v)66\xf6\xd2\xb1\xc4CWO\x84G[+\x9f\xbfx\xe4\xc8X-\xa9\x144\xc7\xe4\x0c\xea\xa8\x90\xab\xaa\xe7\x16\xad\\\xfbLa3\xbf\xef\xaa\x9bE[\\\x8eI\xf8\xe1\x12\xda\xe2\xbbK\xe7\xcf\xfd;\x0eo\xf1f\xa1k(A\x12\xeb\xc7g\x90\xb1\xe5\xba?&gt;)\xbbs\xf7a\xdd\xc8\xc8H\xdd\xc3\x97w\xca&gt;&lt;nI\xcd\x80\x80Q@\xc5\xda\xd9s\x1aL\xd4&amp;\x16\xcf\xfbn\xdc\n(\x11\xd1\x97)\x15\xcd\xb9\xee\xdf\xe6_\x8f\xbf\\@;\x8c,&lt;\x7f\xd0\xf5y\xf4\x17\xb4\x05\xc3\xdc\x95\xc3"v\x03\xc4,\xb7*j\x05\x87&lt;QA\x083\x1aKu\x82\xfc\xfd\xa1\xe7\x01\x16\xc7wzR!P\xf9\xc5\x01\x10 k\xf5\x07\n\xbc\xf8\xc7\xdd\xbfKb\x85\xddP\x84\\\x80v\xf5\xcci\x82Y\x14%X\xea\xdd\xf3\x01\xaf\xb0\xba\xfa\xe1[\x10\x86\x96\xfd\xe0\x0fb\x01\x85\xa1\xa6^\x87\xe3\xa5\xa4\x8a\xd4,\x8f\x98\x9c\x85\xcd\x8c\x92+\xb4\x14\x07^f\xdbbr\xb6_E\xe0O\xc3B\x11H\t\xa01\xeb~7\xbe\xbc\xf54:\x96\xf5\xffb)\xd3\\\xc3\x98X\x7f\x01\xda\xd1M\x05\xdc3\xab\x16\xda\x9cME\xb7\x00Lc\xb6\x8a\x15\xf1L\xe6\xfd\n\xbby\xa9\xa1\xc3\xa2\x16~\xa7$\xf5D\xearU\xbeF\x93oyW]0f\x07\xf0W1V\x01\x06f\xf4X\x02\x95\x8a\xe8ymU\xb5g\xb8\xc8 \x87%c[?\x8aX\xf7\x9fx\xa6\xca\xdd-\xc9\xbd\xbd\xc9%\x9f\x9a\xfaGK;\xd0\xc6RaS\xcdR\x13h\x0f\xbd\xdd\xe1\xb07g\xaf\xe9\x16\xd2bm\x98Z-\xf1\x95\xa0\xd1\xbd\x9bY.@;\x94\xf4\xf6\xf6\x8e\xe1\x1d\xfa\x96\xc7`0\xac)"v\x12\x1f\x8d\x17\x04\x81\xe7\x05\x9e%K\xc6\xb8\xd5\x1dF\x88/\x0c\xa2\x94\x1c\x10\xd4*n\xf7\x92\x9b\x82L\xa1O-\xed\xaa\x14U\xccc\xf9\x02_\\\x8cJ\x8er\x82\xf5R:@\xbcyO\xc4:\x03)\xd4\xc1|\x0eQ\x81u\x1e\x01P\xf9e\xf3vkMc\x90\xc49h\x185!O\x90\xa0Z\xf7[X"\x8d\xc9\xc3\x7fJbU\xb6\x13\xe9\xd3\xd4&amp;W\xab\xd9\x18\xa8%\x94%i\xdb\xd3\x86N5Rv~\xbb\r\x17&gt;\xe8&gt;S\x9d\xda\xa0\x19\x8a`\rc\xac\xebu\xd2X\xff\xfa@\xce\xbe\xc8o\x96K\xd09s\xfc\xfa\x02\xc6\xcc\xe4\xa6\x86n\xd35\x12\x0f(^\xe8\xecw\xe1\xc2\x87\x81LVmH9\xc9XH\xf6\xff\xaeHb}\xfb\x96lQPLmz\xb1&gt;\x17-z\xde\x9cpm\xfdq\xaa&gt;a\xb3\xa3]\xfd\xad\xda\x90XyX\x86~(V\x12+\xa6L\xf4\xc4-`Q\x82S\x8cSi\xd5T\xa0g\xb0\xeaj{\x1a\xae]=\x16a\x13\x87K\xc52\x0co\xceJb\x9d\xe9"X=\xfc\x16\xb0(]\x0e\xf9H9\xbd\xce\x90\xb5\x05\xa8]dh\xf3;a32\xf2\x07\xd05\xa9\xec\xaf\xa4\'v\x89\x0f\xc8\x0e\x85[\xc1R\xf3M\xa2\xb9\x17\x04b\xe5\xf7\xd0xdY\xaeSoJ\x88\xc9\x86\'\x899\xe9\x87%\xb1\xae&lt;\'~\xf5tK\xda\xe2\xa7\xd3R\xa0\xc1\x91\xb5(\xe0E&gt;\xe55\xfd(nAe\xb9v\x932\xda\xf4X\xdfEV\xe9\xb1\xc5\xe9\x11\x12\xaa\xf3\xb6B\xc5\xaa\xe7j\x9e8\x9d\x83\x1f\x1fy\x87\x87\xdd\x8f&gt;6L\xcf\xd4\x9a\xea+\xf0\xe9\x1bujvsB|x_&amp;\xcb*\xddR\x1e\x1f\xd2\x93\x9c\x91\xbf\x89\xab[\xdd\xb0\xcdYhT\xa0zj\xa5HS)\xe8y\\\xc4\xa7\x18}&lt;\xb625OYB\xd1\xcd\xe1\xa4\xa0\xf2\x86IwG\xfb_\x91,j\x0fQ\r\xab)K\xbfO\x83n\x8c2\xb5.\x96\x18\xe8\x8d\x19\xd7\xe0$\xff\x14\xf4LV\xe9\xb4\xba\xcezof\xa8\xf2z\x06\x17\xd6\xe0\xc6\x01\xe9\x89\xc5\x91\xf4\x1c|\xe6\xe6\xb6P\x16z\x1b\xea\xf3\x96z\xdcy\xc6\n\x00\xe9\x95zS\xb5RN\xe5yP\x16\x829\xa5\x1cl\x1ep\r\xe8\x01\x84\xcb!\x04Ncm)=\x97\xa5;\xaf\xa3\xd6,,\x1a\xb6\x065&amp;JW\xb2\xbe\x18S*9\xbd=\xaf\xa4\xa6\xa9\xa7\xa7\xa9\xa6\xa41\xb5e\n\xc7\xd1\xfe\xac\xb5z\xd4\xa1\rz\x8d\xbc\x07\xe7\x1e\xf0\xf6[\xe9fmOx9\xe9\xd0\xab\x83\x07*\xef\xbak\xcbN\xadi(+\x9d\xf7\xdcG\x05\x01j)\xf8k\x1a\xdd \x92\x91\xe1\xd4\xafbe\x0c\xb7\x05\xc7*\x07\xe8\xdd\xb4\xae32\xc3\xa1\x13\xed\xbfb\xac\xc1\xa0T\x85\xabe/\r\xb8"O\xab\xa9\xd0\x85[\xb5\xa2\xd5Q\x04_\xcbA\xa5#\x7f\xe2g\x7fS\x917\xa1\t\xe1\xcdYd\xb0\xf9\xfc\xbcL\xe7\x1c\xf7\x02\'^0\x15\xecd\xa5\xcfr9?\x16\xd72\xa3\xe5y\x93\x91t\xb4\x8e\xd5\xa6\x82\x15\xdc4\xd7\xc4\x93`\x84\xd4\xe6\t\xe5\xd8l&gt;\xc9=\x19Cge\xda\xed\x84q\xec\xe7\xc0\x1b,\x9e\n\x82\xf6\x99\xbf\x8d) \xd1Sg\x04"\x96 \xa8\xd1E\xa2G\xc5&gt;\x17\xb7Lu\xe3z\x0b\xbafB\xa7\x1f\x0b\t\x00\xc6\x9b\xfbe\xb0\xbe\xab\xc3\xfb)sC(\xdd\x94\xe9\xc7b1\x83n\x80\xfc\'\xb3\xde[R\xe2^\xea\xb9?89Q[m\xeb(^B\x0f\xd3rj7\x91\x14\xdf\x91\xe4\x92\x17-7\xa0\xbb\xf0J\x8f\xc3\xb31?\xa8\x85\xb2\xbc\x87\x060E\t\xfa)\x01\xf5\x0cN;\x91\x9a9\xa8R*Q\x1f\n\x14\x10p\xbd\x933\xddF\x14\x19\x0cs\x14\x15:\xd2W\x8b\xa98\\n\xd6\x14o-\xc2q\x1a\xf8B\xc8\x99\xc0\xaduVC}\x81\xb9\x02*\x1b\x06RD\xac5\xefd\x98&lt;\xf7\xe74\x00\xb8y\xdd&amp;\xa8\xa8\x06b\x05\xed\x17\xe5\xe6\xbf\xbb\xa3\x0b\xc9\x1b\xf5l\xf0l\xdd\xa9\x1fx\xf6\xba\xdd\xc1q\xc8)\x99&gt;\x97\x1fk\xad\xac\xa7\x95\xb4\xbb\x1c\xf9`\xd6bjO\xbdO\'\x88\xb1C\xd6Z\xc5\x1a\xa4,Fv||\xa0\xcfo4\xc1\x93\x8f\xa9\xbd\xde\xab\xf7\x07wX\x90#b\xcd\xe7\xa4\xba\x06l\xd9\xd8iP\xaf;\x88\xbc\xeb\xfa\xb4\x1d\xbb\xa2=\xab\xbc\xbfo\xb4o^N\xde\xb5F"I.&gt;\xe0\xfa\xf45y\xc3-\x04\xd5\x96\xa6\xe3)\xb7\xd2\xf20\xb6\x06\x11\xcb\xa1\xe5)\x8dVg\xea\x9c\xab\x9e\xf7\xd4\x98\xeb\x91W\x18qrT\xa9\xae+\xb1\xd1\x81\x8c\x19\xb9Hh\xc3\xdf7\xbf\x91\xffs\xf2\xb1\x05b\xbe\x8e`\xee\xc3\xfb\n+p\nD]\x8d\xedv_\x87I\x93*bi\x02\xe7G\x026\xe3\xbc\x02\xb8\xd2\xd9\x03\xdc\x03Y\xa4\x05\xd6\x92l\x9ak\x8d\x97\xc5:5KB\x08S%_\xce\xebFmb\xf5\xce\x99\x07\xabp\xe1\xa2\xf5c\xad\xaf\xf9\x16QQ0\xd6\xd1\xcb\xc1\x95A\xcf\xcf-\xa5\x16\xe9\xfa\xab\x14\xc7JP\x13!?\xf4\xfd\xc6j&amp;\xd9wFvp\xe5\xeb\xa5\x91\x0c\x00\x19\xf7\xe4h!\xb63V\x9bI\xe6}E\xeb\x83]\x01\xd2\xd3mA\xe34\x8a\x7f2\x83\xaen\xb9\x89\x980\x85\xd1\x99\x0f\x97\xe5\xa7\xaa{\xc3\x7f!g\x1b\x95\xd3\xd5\xa4\x11\x9f\x9f\xce.q&gt;\xbeE7\x92\xbb\xf6cm\x88\xc1}\x88&amp;SK\xf1\xef\x1cD_6\xd9\xaa\x84\x15\xf208|\x90\x10d\xd8\x9cTFJ\x1b\xaf \x9d\xbc&lt;\x08\nm\xe3(}oC*k\xe4\xd7a\xad\xe8\xa2\x18\xf5\x15,.\xa1\x9a;\x05\x96\xf2\xd9\xf19\xcby\xd9f\xc3\xa2\xc7\xdf\x1b*O\x07\xc1\xfa\xdbB\x05bW\xe6\xe4K\x84\x05VWC\x1c\x82.7\x99Iv\xde\x80\x85\x0c\xfd\x9a\xda\xe4\x9b\xa8\xc7|\xb58#.\xa3\x17\xd4N\xf8\x7f\xd6\xad=\xa8\xa9+\x8dc\xedbA[\xb5j\xbbU\xa7;\xdb\xedc\xed\xb8N\xff\x8e\xb9\xe7&gt;\xb8\x90k"\xf8\x80\x040AB0#\xb1&amp;\x9a\x04\x05j\x16\x07\xa9T\xa4\xa9\x0fBX\x860\x94\xd6\xb6&gt;`v\xbb\xd2\x19\x85\x11e]]\x91G\xd7Y[]`\xc4\xb5\x0c.\xbb,X\xd8vl\xdd\xce\xec=\xdf\xb9\t7\x84Gx|3\xccps\x93s\x7f\xf7;\xdf\xf9\xce\xef{\x1cD\xa1\t\x13\x08\xb1\xeb\xaf\xe3_k&amp;\xb3\xf8\x88\x88\x15_\xe1\x9c\xb5*\xf9?\xe3\xe8j\xfb!p\n\xa9\xff\x8a\xdb\x94\x8fB`)\x0e\xfd\xe1\xca\xb1\xf3\x89i\x9c\x86\xc7\x96\xb9\xf9\x968\xccy\\d\xdc\x92\xcd \xaapBO\x18{\t\xcc&amp;w\xfed\xc5\x84\x97\xa2O\xa9q\x8c\xfc\xd7\x98\xb1\xa9\xac\x98\x8c\xcb\xc4vO\xc7\xae\x8f\xdb\xa3\t\x855JW?\xdc,.\xb9\xe3;\x11\xc3\x9f\x83\xbdE\xf4q\x9f\x8f\x97\xae!#\xdf\x02X\x87WMV\xe1{\xe6-H\x8f\xa8\xff\x197\xd6\x16\xb6^D\x84\x12\x88\x03\xc7\xa5\x03\xac\xac\xf1a1\xe8&amp;\xce?\x1d\xcf\xe2Q\x16^\x07\x9f\x88\xfc\x0c|VLlh.86\x03J\ni\'VOZ`y\xfd\x1ex\xc0\xc4-\xc1\xb0b\xb6\x1c\x83\xb5\xb0\xef86\xe8\xb8\x0f\x01\xd6\xef\x0f\x12Xp\xa1Psi\xa9;\x930\x03A\xd9`\x9a\x9b\xaf_9\x85\xf9\xf7;\xe9\n\x15s\xeb\xfd\xd8\xf5\xdbs\xf3\xcf\x85l\x1f\xd7\x81\xa7\'N\x10Q\x8fu\xa8c\x93?W\xc0\xae\xb6\xfd\x9d\xb8\x9a,@r\xf9\xa0\xdc\xe4\x0bO\x9f\xd9\x9a\x81\x99\x18b.JA~,$qbN\xef`xf[n\xe1-\x86\xd97\xb6\xca\x10{\x00\xe7\x13\x93\xde[4y\x05\xed\xa5\xe8w\xc1&gt;.\x05G\xab\x85&lt;d\xa0n\xae\x97\xc3\xbaH&amp;1\x11{i\xc5~\xbcV3R\xb1W;\xbf5(\x99\x18\x13{n7J\xa24\x88\xa7x\xf4\xbb\xb1\xda\xc2\xc1\x16\x85\xee\xac\x9a\xbc\xe2\xf8\xcc[\xff\x06\x13\xbc%\xf7\\\x07\x8f\x83\n\xd1\xe7\xd2\xcc\xc6\xa5\xabFs([\x12y\x15\xc7}\x8f/bnb:\xbd;$\xce\x8c\xc98\x90/\x92D\x95\n\x9d\x1c\xebV\xdfO\x83\xfe\xaa\x0b/OQ\xbd[}\x02b\xc9d\xf9\xd8\xdb\xb3)\xbc&gt;\xd3\xb7\x06\xd2d\xa0\xad\xf7\xe2\xc0\xea\xb26\x1c\xfb\xf2\xb3K\x0f2&gt;\xfd4\xe3\x9a\x08k\xd7\x07\xe2\xc7\xef\x84\xf8\xf23\xe7\xf6\xfe\xf0\xc3\xde3\x9b\xc68\xc3BN|\x11Uv\xf4\xd2\xa9\xfa!3\xf3\xa1\x86Y(\xdb\n\xbf\x14Cg\x8a\xd9\xf1\x89\x7f\x03\xdf\x94\x0f\xda\xfa\xe8`\xdc\xf63\xa7\xf7\x1e\xf8\xe8\xd4\x9e\xc4\x9d\xa9;N\x9e\xdc\x81S\x1c\xc9\xa7\x0emH\x9f\x88-\x84\xf0\xef\xfd\xb0\\\xfe\xb7d\xaa\x12h\xd4\xfc\xef4\xb8b\xfa\xdb\x8d\x92\xc4m&lt;\x075`tec\xe0\xa3\xb7A[\xe7o\xa7oKC\xe2.\xa4\xd1p\xaa\x04\x91H#\x892k\x12\xa8\xf77\x86%\xdb?\x06\xeb\xb8\xf7\xfc\x945\xd8W\xff\x04Q\xf3\xc9\r\x01!M\x18L\xd6\xe8\'\x1fOUUR\xc9\xbe&lt;\x99\xa4\xc3\x9b$\xa6L\xdd\xb9\xf7\xeb\xfb;\x89\xb3\xa6\x02\x14N*N\x04\xa2wDMY\xedJ\n\xa3"\x86\xc7\x84\x91r#\xa7.\xb0\xffl~\xae\xf4\x93\x04QF\xc1\x90k\x10\x7f\xd1\x1e\x8f\xa9Q\xa9\x15\x1a\x8d\xc6\xec\xac\xa9\xa9q\x89N\x95\x81\'\x89\x8c,aJ\x11\t.^J*\xee\xcf\xcb\xc3\xe8)X^OB\xf9\xe6x,}\xfeDHE|@\x9aIz\x81\xe3uNw\xf5\xa3\xa1\x9e\xd6\x96\x96\x96\x874K\x17\xe1\xaf\r\xf5\xd9y\x06u\xc6\x87#\xfd\x98/\xab\xf6\xdd\x0f\xa7k\xef\x95\xaf\xfe\x08/\xdc\xc2bi\xca\x93\x12W\xe4\x12\xc4f\x86\x95XZ\xe7\xd5\xb3\xac\xde\xed\xd2\x886\xee\x13h\xda\xa4SP},k(o\xa7r\xd8P\x11B&gt;\xa9 \xecaQ8M\x12O\xcd\xff\x0b\xf4\x90V\xb3\xb4R\xa9\xa4M\xed0e\xeafA\xe9\x17/\xe4Xy/\xbe\xaf491\x0b\xd3\x0c\x89_e\xfb\x93P\x8dV\xfcG[a\xa2\x95!B?\xf6\x19Xz\xf4\x06ms\xc1\xf2\xa8_\x1eN\x7f\xd0\x82W\xefa\xfd0\xe6\x1c\x80E\xe7\x18\xe1\x9d\x8c\xa6\xc0xE\x00\xd4i\x92\xc3\x1a\xc0_\xad\xe2x\xd4\x82\xff1iCa\xb1-.\xde]\x89\xd5\xe8\x87\xd5\x03\xb4rwJx\x9d\xaa\xcff\x12w\xe9#C\xd3wa\xc1\xa0R\xc1\xff\xa8r`\x19\xa2^\xf0\x07&amp;xe\xcd\x13|C\xeb\xe6\xa8n\xad\xa0\x1cGS\xb4\xd6A\x88\x86\xbd\xa0\xd9\xe1k\xb0\x88?\xb5t\x83y|\xbb$\xbcF\x97\xa8%\xff\x85\xd7\xc8\xd3\x92\x11\xf5n\xcc\x91\x911\xc7?\x01\x1d\x1a\x0c\xd3j\xc17\x95d&amp;4=\xf8\x86\xf0\xd0\x89\x92J\xd9q`\t9\x05\x8c\xbf\xe7\x80\xe3&lt;\xa0\xccFHO\xa7\x9dx1\xcc\xae\x965?%c\xfdpM\x04\x96\xb2\x97\x03\xedU[\xa4G\x0c@f\xb8L \x06\x02\xcbRSEt\xd2\xe4J\xd0\xb5\xb0!\xaab\x1bj \xa3\x87\x81 \xc6#\xbe\x9f\xf8Y\xb3\x08T\x856d.\r\x13\xd6\xb2\xcc\x8b0m\xd5\x92vX\x0fh\x0fu\x91k6\x1eO\xa2\xa6\x13\x9eN\xe7\x00,U\x87\x04\xb9\xa8\x9bw\xe5\x8cU\x95\xa9\x99\x93|2\xde\xf2\xf3\xb4X\xed\xb4\xcd\x0c{\xda\xe1uawQ-\xac\x87D\xa4\xb9M\xb2.-\xacFJ\xd7*z\x01\xf1E\xab%[\x83{^^\x06K\xbc\xa9\x1d\xb1\x96\x04iJ0\xb4\xda\x19\xbcu\xaak\x1c\xc3w\xed\x9c\xba\x02\x8cT\x18\x02\xc7\xbb\xfb\xfeka\xf7&amp;\xad8J\x12~\xf1\x824\xb4\xd7\x08Vnn\xc5\x0b\xdcb\xc5\xae\x0c\xf5\x90[%`\xb7\xaa\x86Q \x06\x83\x1c\x16\xdb\xd8\x0e\xbf\xd50\x15&amp;A)x\xed\xc8\n\xda\xd2\xdbA\x7f\xdf.\n\xbf\xb3+\xea\x177`(\xc9)\x88vPG\xa6\x8a\xf1\x19hZo\x84\x9d\xb2\x8e&lt;\xb7\x04F\xd74\xc9\xf4#GU\xd2\'\xe5!\xa8N\xbc\xfah\xba\xa8\xb2\x15&lt;O\x07"\xb1\xc5\xdai\xb4r=W\x0c|T\xed\x93\x16;-T\x99a%\xa9\x0b\xda\xd8\x1c\x80\xack#w\x1e\x12Xu\xe39\x05\xc3\xe3\n\x9d\x7fOu\xeb\x83\xeeYj\x19\xcc\x9f\xf6GN\xa7\xa5\xf1\xa9H\xa8\xf2#\xbf\x0f\x15\xf5Ue&amp;\xe1\x96\xb3\xb4\x1c\xfeq\x91\xc7\xd0\x8dp\x95\x10\n\x8b5U\xd5\xf2\xa3[}k\x90\x12\xe9&amp;\xb0O\xfe\x8b\xe5\xd3\xea\x00]{!\x19\xb8\xff\x10\xeb\x1f\x8d\xad\xd4\x91\xcd\xd1&gt;\x02sb\x85\x85(\xd0uD[\xbd\xb2G\x8a\xc2j\xeb\x9a]\xf2f\x04\xa3&gt;\xc8\xef[j\xe1\x1d\xcfg\xbe0\xad\x86\xbce\x91\xd7`\xbf\xce\x0b\x8cF\xb3M5\x80\xab\xfa\x11a\x14\x12\xac&amp;\x02\xabq\xd4\x1d\xd0\xda\xb6\xaaN\xa3Z\xce\xb8(T\xc0\x06\xc1\xaa\x83\xf5{\xe4\xec\xaai\xf6X\xbe~\x15\xba\xdb\xa8!\xbfu\x89\xcf\xf3\xb6cN\xe8\x83\x17U\x94:\xaa\x1amZ\x96-\xef\xb6\xdaE\xaeU$\xdegY\x8b\xde[7P\x91\xc7\x05\xd8"\x85H\xab\'\xe3\x91\xc3\xa2\r\xb58&lt;D\xe9)\xd3=\xb8\xb1r\x1ea\xffv}\xd0\xbe\xa6c\xa8V\xc2\xb6*\x9d\x0co6\xd6V&lt;\xf2\r\x8eT\x8a22\xe0\xe8,\xcbs\xeeR\x07\xac\x89b\x90\xb1\xec\xd1\xdd\x8e\xf2\xc7\x8f{\x1b\x1a\x83,k\x18\xbbW\xc4?X&lt;\xdd\x86\xd4\xa7\x97_=\x02\xda\xf7\x05vhl2Ee\xba\x06bb\r\x94J\xa1\x12c\x0b\x1e\xb3TD!\x91\xa2\xaa(\xc2X\xc9\x9f\xb3`\xb0\xc4\xc0J\xfe"\xc8k\x08\x86Z\xdc\x99\xc7\xedI\x99\xfei\x92\x9fG\x1f#\xfc%\'h\tY\xca\x07\x01\x95\xb1cbBO!\xa4\xeb\xaf2\xb1\xe3p.2H\x15\xfc\x16=X&lt;\xfd\x0e\xf1\x05\xcf\x9f 5\xae\x1f\x85\xe0]\xb7\x02\xc6\xec/\x9d\xb8?\x0c\xe5yJ`=N\x80Kr\xf0\xe9\xf3fr$h\xe5&lt;H\xa4*\xccE\xc1c:a\x8e\x1e\x951\n\x0eQr\x95\xe1~)\x8a7\xbb\x1d\xbd\x16A9\xb1\xd0\xac\x0fW\x92\xd1\xae\xfaU3j\xa7\x7f\xe3\'p\xf5\x94\x9f\xd0H^\x1d[+EU5y\xca\xec\xae$9,\xdeh\xad.\x1d\xb6\xb1\xecDZ\x92F\xf0:q5\x95?4M\x9f\x15p\xf5\x8b&gt;C8|\xe6Z\x04\xd9\xabv\x91\xb3\x17mJV0\xd8\x8a\x86{\xbaJ=\x1e\x8f\xc37\xd8\xd2\xeb\xd5[\xd8\x807\x99X,}\xa0\xee\xe4\xab\x0bg\xd8\xe2\xff\xabo\xf6\x81\xd5\x8f\xfaT\xd1\xe4\xbb\x89\xdf\x90X\x02\xad\xb7\xba\xdb\xdbk\xad\xf6\xc6\xc9U$\x93rR\xbd\xcd\x8d\\9\xd3\xe3\x16\xbf9\xcc\x00\x9f\x94\xf9B\xaf\x99L\xac\xdf\xcb\x16Q\xa2g\xd0p\xa8C\x19\x1e,Z\xeb\x06e\xa5^X;\xe3\xf3\x10+2/\xe3\x9edd~\x18p^\x83\xa4\xed\xaf\xcbo@U\x92\xb9;\xc2\x83E\x0b&gt;\xd2\x18wc\xc9\xcc\x0f\x1d&lt;\xbd\xf0j2\x94\x9c\xdb\r\xd2C\xe9v\xe2r\xec\x8e6\xb0#\xf6G\x89\r\x97\xb1\xe1\xc1*!\xda\xceNy-b\xe6\xb2,\xf2;\xd2&lt;3 MZ\x8e\xd9\x1f\xfc\xf3\xf1&amp;Qa\x06\xbbt9\x86!\x8c/\xe2.\xde\x8f[\x06\x99\xe4/\x16\xcf\xea\xac\xcds\xc5\xd0\r\xa0rJ\xfc\x9c\x1e\xd0\x05\x1a\x14\xddbX\xfd0\x90\xfdn\r\x03\x16\xcd\xde\xe5\xa1%\xf4v\xe4\xec\xcerE\xad\xab\'\xa4\xb7\x96\xc4\xc9\xb4\xc5\xe1\xb2\xba\xed:\xd1uR(\xcf\xc6:\x02^\xab\x8c\r{\n\xf9\xdd\xc5\xabgy\xfe\xe2\xcdh\xe9\x94Q\xa9\x14nX\xb4892be\x10\xcf\x14\x98\x8c\xa3&gt;\xbe|jX\xdanr\xc2\xec\xec\xba\xa8Y\xc2Z\xf0Fq"\xec1\xe6^yV\x83\xd6zDB\xdc=2Z\xc1@\xb5Za\n]\xd1\x1eh\xff`\xaeE\xbf\x101[\x89Zw6\r\xe7\xd9\x92\xac\xa6\xa0\xc7\xd2]&lt;\xaa\xcc\x93\x1d9@\x0ear\xf3\xa2\x9bv\x91\xe3"\xc5k\xe7\xe0\x08\xd7\x9b\xf3nC\xf0J\x89a\xa7\x9caZ\xfa\n\xba\xe4\x07\x1a\x14\xba\xd6I\xcd\x8b\xb6\xd9\x81\x87\xa5\xd5\xff2j\xf6\xa8"\x16\xac\xf9&amp;\x9f$u\xef\x06S\x15\xdb\xb09\x88\xcf|o\xae\xa4\x85I\xdc{\x01\xb0h\xe6o\x91K#\xe6B\xa2\x16\x7fM\xf2\xd4\xae\xde X&amp;+\xa0\xddet\xf9\x1b\xa7t\x1e\xfd\xc4\xb0\x1c\xb8\xcb\x99b\xb2\x8f\xbe&lt;G\xa7\xf0\x96\xcd\xbf\xc1\xc3\x9e\x93g\x93\xc3\xf2\xba\x10\xc3\x97u\xd8\xb4\xfa\x92\x9e\x02\x1e\x12\xd2\xc8]&gt;.\xad\x11h\xa1\x01\x1c\x1eJ\xfd\xc7\xaa9;\xb4\xf8J\xca\xbb\xb0\xedSeZ\xf9\xb3\x9e cO\x8f\x9e\xc4\x85%\x9d0\xa3j\xaa\xba\xdc0\xde",1\xc2\xea8rg\xc9\xdc\x9d\xf1\\\xf0b\xf1\xdb\x10\xd0\xa0x\x8b\xccK\x18\n\x86\xfb\x99\'\xa0\x1dZ)\x02s\xaa1CUX\x1d\x8dz!(I\xaa\xa4M\x847P\xb9\xf3\x9e\x9d\xcb\xd3\x7f\x8b\xbf&amp;]\x19\xdc\xa0 \xcf1\x149\xb9\x1a\x9b?\xad\xc3\xda\x9e\x94\xb9(N-\xc6\x86\xc6\xfe\xd2":\xd8\xdc\xe1\xd7\xd9G\xd7\xcc\xe9\xf1\xcee\x8b\xee\xf0\x90\t7\xd7\t\xb2\xa8^(w2\x05\x06\xc8\xa2\x81RX\xfd\xe3\xca.\xc7\xffWt{\xf6\x8fhG\xe4\xb2\xe4\x03d\x12!}\x0f7\x95w\xc3\xf2\xb2\x1dwp\x02M\x94&amp;\xb4\xa1t\xf9\x9e\xe7\xda\x15\xa1\x96\x1b\xf66\xe8\x89\xde\xe3\x06\xa454\xe9\x88.\xd5wv*w-q\x00w\x01\x0bQ\xc6 =\xa2o4\xeeBu\x07zG\xcc\xf1\x1cdP\xc5\xe9\x04\x0f\xf5\xf7\x80\xb3\x08uBJU\xbb;I\xa8\xb5\x8c#\xfe\xb6\x83\xc7\xf40\xc8\xe4\xd4\x15FZ\x1c\xc9\xc0)=1\x1d2\'\xd5\x88\xde\xe4\xc3[\x17\xb6%@|\xd3\x14!G\x93\xdd\xccL\x8a\x87R\xc0-\x06\xbb\xf9\xa1\xf6\x1e\xc4us\xec=\xce\x14\x82\x1a~\xee.\xf1\x8f\xd5h\xb41W\x8a\xe7\x11\xa4\x83a\xf7,\x86\xd8\xeeWy\xa5-\xb0\xce\xf1\xb6\x0b\xa6\xe1!7bl\'\\\xc0\xa5\xa2\xd3\xaf\x18bz:\xf6\xf6\xe5\xb9\x90A\xaeM\x87\xf9i\xb8WX\x94qy\x07\xa4q\xf5\x8b\x98\xf0\xf2(\xcf\x05\xaf\xf7\xb2\x8b\xda\xaaH\xd3s\x05d#\x8e{A\xc2\xeb \x11\xee\xca\xcb\x05\x8f\x05\xdaM\xda" EKW1\xb0\xf3E@\xda\xf6\xb6v\x04\xdd\x05\x8cA\x07\xf0DOX+\x8f \x03m\x01\x8bfD;t\xe1\xd1\xadP\xfc\xee:\x93\xeb\x04\x1e1\n\xbf\xce\xac\xc5\xc0@swu}\x87\xb4\x95\xed\xe6G\xe3i\xbd\xdbwW\x82\x87mA\xae\xe2e\xa0=`\x97\xe9*\xb3\x83\xecz\x9f\x9a\x84\xd3Y\x1e\xbb\x13\xc0+\xf5\x1c\xc2~\xb2\xd1\xc3U\xc0\xf0R\xef\xea\x87\xb4\n]\xd6\x94\xe3\x18?\xf2\xd8W\x0c\x1e\x9ds\xa0SXA\xd3W\x85\x13$\xddW\xb6au\x96\xfd\xecT+p\x7f"\xa5\x95n\xae\x02\xc6\xa3\\\xc4qp7\xc6\xdd)a:z\xfa\x026 2\'\xbb\x807\x18{\xa5\xac\xe2\xd1b\xa0\x1f`Wf\\\x0e\x89G\xbb\x9a\xb9\x18\xce\x8a&gt;\x08N{\xeevQG\x04\x04\x19\xe8\t\xd8e\xd9^\xc7B&amp;P\\\x8ab\xd0\xba\xa9S!Kg\x1c\x82\xaf\xe9J1\xd0\x19\x882?\x9a\x049\x85\xc1if\x12\xa2\xe5g\xef\xd1V\t\x1dh\xca\xdf\xa17\x00\'\xd9h\tlM\x87\x1eY\xd3{\x06\xe6,{\xc7]\xc5\x90\x11\x1e\xbb\xcd\xdb\xa5Y\x19\x06\x00H)&gt;\xccwq\x02;"a\x178\xbc\x80}\xa1\xc9.\x90\xb3O:\xda\x1f\xa8p2\x0c\x08`R\xe8\xdc\xef\x02\x19J\n\x9b\x03\xaa!=\xf2\x1a!\x8b\xa8l\xc3\x96G\xc8\x0c\xd8aW\x9c*\x11W\xec\xec\xc0=\x0f\x97\xc6&lt;{\xc7\xdd\x95v\xa0\x05%V.\x93Z\xb9d\x07\xf0\xa8&gt;\x0e9\xc6\x13\x93 c\\.\x95ko\x84A\xe6\x80\\\x82\xb7\n\xf02\x0c(\x10\xe59\x94\x03v\x8c\x9d\x03h\xf8\x04\xecD\xcf\xed\xfc\xc2\x0c\x03\x0c\xa4\x14wd8 \xef\x91w9\x1e1P\x89\x1de\nF\xa4\xeb\n\xfc\xd8\x05/\xdb\xa8V.\xbeAq2%\x07\x1f[\xeb&amp;;\xf0\x02\x17\x07\xbb\xfc\xc3\xf2b\x0c\x83\x03\xb0\x8b\tL\x8c\xff\x06Z\x14\xe9R\xf1@a\x10\x1dz\xca\xc4\xddu\xb9\xc3\xc5)\xaa\x95QfP\x1dy\xca!\xc7\xb6*g\xf3Dy^\x86\xc1\x05\xd8\x05\x15;#\xb8\x07\xe1\xa9\xb5\xacj\xaa\xd4\xcb\x81\x00\x02QZ\x81\xbf\xfc\x928\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xdd\xdd\xdd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xf6\xf6\xf6\xf4\xf4\xf4\xf7\xf7\xf7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xe7\xe7\xe7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xf5\xf5\xf5\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfa\xfa\xfa\xf9\xf9\xf9\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xff\xff\xff\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xd9\x16\x10\xff\xfe\xfe\x01\x01\x01\x06\x05\x05UTT\xd9\x17\x11\x03\x03\x03\x10\x10\x10\x15\x14\x14\xf1\xf0\xf0\t\t\t\xed\xec\xec\xd6\xd4\xd5\xe4SO\xb7\xb3\xb4\xdb\x1f\x19\xda\x1b\x16\xff\xfb\xfb\xfb\xfa\xfa\xfe\xf7\xf7-,,\x1c\x1b\x1c\x8a\x87\x88%#$\xdc% \xc1\xbf\xbf}{{\x82\x80\x80{yy\xdf51\xda\x19\x13\xfc\xeb\xebDBB\x80~~\xfe\xfd\xfdigg\r\x0c\x0c\xb4\xb2\xb2yxx\xa7\xa5\xa6\xe8mk\xfc\xe7\xe7\xfd\xf4\xf4\xfe\xf9\xf9\xc9\xc9\xc9\xf7\xf7\xf7\x19\x18\x18(&amp;\'UPQ\xeb\x82\x80\xdd($POO\xde0,\xf6\xf6\xf6\xfd\xef\xef\xfc\xfc\xfc\x99\x97\x98FEE\xe0:6\xe9pncaa\xe6][\xf9\xd9\xd9\xdd,(#!!\xfa\xf9\xf9\x88\x85\x85\xe1C@ljk\xc4\xc2\xc3\xd9\xd9\xd9xvv\xe0?;\xf3\xad\xad\xf1\xa2\xa1\xe2HD\xf3\xf3\xf3\xe8kh\xdd\xdc\xdchcdomn\x1f\x1e\x1e\xec\x84\x81\x90\x8d\x8e\x8e\x8c\x8c\x92\x90\x91urs\xa6\xa3\xa4\xf5\xba\xba\xc6\xc6\xc6\xeaxv\xff\xfd\xfd\xfd\xf1\xf1\xe2KG\xe3OL\xf7\xca\xca:88\x85\x82\x82\x97\x95\x96YVW\xb2\xb0\xb0\xd3\xd1\xd1\xec\x85\x84\xcc\xca\xca]\\\\\xf8\xd1\xd1\xdb"\x1dZST\x8c\x88\x89866\xf9\xd5\xd4\xef\x99\x98\xed\x8c\x8a\xf9\xf8\xf8\xe7\xe5\xe5=;;\xa9\xa7\xa7\xac\xa9\xa9\xe5\xe4\xe4\xf6\xc6\xc5\xef\x95\x94\xfa\xdf\xdf{lo\xd9\x16\x11\xf4\xb6\xb5\xfb\xe4\xe4\xe7fd\xf2\xa8\xa7\xdf\xde\xde^XY\xef\xee\xee\xeb|{\xe5XU\xe8\xe7\xe7\xe1\xdf\xdf534200\xa3\xa1\xa1\xd8\xd6\xd6\xb2\xad\xae\xad\xac\xac\x99\x91\x92\xf8\xce\xce\x7f||\xee\x91\x8f\xf0\x9d\x9c\xda\x18\x12A??\xe6b_\xce\xcc\xcd\xf5\xbe\xbe}qs\xb8\xb6\xb7\xc9\xc7\xc8\x95\x93\x94\xd0\xce\xce\x9e\x9d\x9d\x9c\x99\x9a\xfb\xe1\xe1LIJ\xf5\xc1\xc0NMM\xf3\xb1\xb0`]]\xf5\xf4\xf4\xe9tr\xe4\xe3\xe3\xbc\xb9\xba\xfa\xdb\xdb\xdb\xda\xdae\\]\xf6\xc3\xc3\xf2\xf1\xf1\xec\x88\x86\xea\xe9\xe9\xe4URmef\xfa\xdd\xdd\xff\xfe\xff\xe3\xe2\xe2skl\xe3\xe1\xe1\xbd\xb3\xb4\x85z|\xf2\xf0\xf1\xc6\xfc\xe0Y\x00\x00\x00DtRNS\x00\xf7\xeb\xfa\n#\x01&amp;\xfe\xc5\x1a\x03\x06\x0e\xb2\xf2\xa4\x02\xc4\x86Z\x0f\x1fL@+[=\x08\xfc\xab\xe7\xc9m\xd2:\x16\xddh6\xd6c\x8b\x96x\x12\xb9\xbeW\xe5\xccC\xc12t}\x91\xe2\xda^\x9c-E\xee\xefP\xdf\xd7{\xf2\xf3\xc4\x00\x00\x0e\xd1IDATx\xda\xec\x9awXT\xc7\x16\xc0\x01\xb1\x82A\xa3`E,X\xb0\xa5\xd8b,)\xdf=\xbb\x80\x80\x88\xa8\x80 ED\x101\x1a\x10\xbb(FA\x11cC\x1f\x02\xb1%\x8a\xd8\xb1\xa0b4\xa6\x18\x1b\x12}\xb1\xc7\x1ec4\x1a\x8d\x89/\xa6}\xdf;gv\x17\xb6\xcc\\w\xdd\xcb\xf7\xf6\x8f7\x7fq\xefrg\x7f{\xef\xb9g~sf\xec\xec\xfe\xdfL\x9ag\xdf\xde-\xdcl\x8e\xaaI[\x00\xe8P\xc3\xc6\xa8\x1a\xb9\x00\x84\x02T\xb7)\xa8\x1a\x9dk\x01,\xfe\x15\xa0\xa6-Q5\xaf\x070\xe1\xb8j\x92ma\xd5y\x1d`\xfaS\x95\x8da\xb5\x7f\r\xe0\xe7\x91*\x1b\xc3jh\x0f\xf0\xdd\x08\x95ma95\x00P\x1f\x8aU\xd9\x16V\xdd\x970\xd8\xc7\xa9T\xb6\x85U\xbd\x03\xc0{\xebU6\x86\xd5\xd8\x01`\xfbT\x95\x8da\xb5\xab\x06\xf0\xe3\x10\x95ma9u\x02X\xbbw\x80\xca\xb6\xb0&lt;_\x01\x18\x7fY\xa5\xdf\xfe\xf5\xbf\xc7"a\xf8b\x91\xca\xc6\xb0H\x18&gt;\x99\xabR\x06\xcb\xb9I]\xfd\xe0ps4\x19sk67_\x18\x86\xaa\x94\xc1\xea\xef\x00.M+\x87\xb2\xde\xe0\xd2\xc7\xf0\x1f^u\x01\x8fn\xcf\xef\xc7\x11\x85a\xd8q\x95J\x11\xac\x1a\xf4&gt;\x034\xa8\xaf9\xf4\xb2\xd7?\xa2V\xbf\x01\xde\x03\xa8\xd6\xea\xb9\xc2\xd0\x12\x85\xe1\x84J\x19,g|\x9f\xe3K3\x00^\xa2\x07\xe9\xf4\x06\x0ee\x89%\x00-*\x1e\xa4c\x0b\x80\x8c\xa2x\x80\xbe\xce\xcf\x17\x86Y*e\xb0\\\xbb\x02L\xfbZ\xba4\x08\xa0\xb5\x1b;J\xce\x91\xe2\x8e\x01\xb4\xf4\xd4\xfc\x83[k\x80Ai\xd2\xa6i\x00\xdd=e:jJ\xc2\xb0C\xa5\x0cV\xf57\x01\xf6m\x90$)"\x08\xc0\xa1!\xbe\xdd\xbf\xed\xc7\xa3\x89\xcb\x01z7\xa3\x7fh\xe3\x01\xb0p"\x9e*{\x00\xd0\xb6\xb10\x12H\x18\xf6\xc4r\xa9T\x16Ks\xe3\xb7\x00n\xae\x94\xa8\xf9gQL\xc1\x15\xcdQ\x00\x1e\xb9{a\xb0c\xdc=\xf4g\xa7\x86_\xc7\x8f;\x9b!\x0c\xc6\xed\xf2x\xa8\xe6j\xe9\xe0\xb5y8\xfbR\xc9\xb7|3~\xed\x99\x14\xcd\x91\xe4\x13\xac\x06\xfb.\x1dk\x81\xfa\xef1\xdaS\x817\xe3\xa1Z]\xee=\xc7\x07=j=\x1fj\xc0\xde\xb5\xf8\x06Y2xQx\x87o\xdaJ\x8f\xc8;*&lt;\t`FL\xca\x99yZ\x88\xb1\xb9\x18m\x00!\t9\xff\xac\xd4\x9e:\x1b\xce\x9fY\xd1=\xd7\x13\x06\x836\xe4sz\x06\xf5\xcc\xa7r\xa4`\xbf\'\xf9\xe6\x1eK\x93\xc6\x94\xaf\xc0G4p\x8a\x94ruP\x9c\x16+\x86\xfa\xc3\xa3\xc7\xa9\x83\xeeh\xb1\xa2\xb9X\xc6\xc2\xa0\xdfF\xeef\xa1Q\xab\x8b\xd9X\x1d\x01Nbx\xfbFCHTb\x0e\x06\xf4\xa30\x0c\xa0\xab\xea\x90?\xbd+\xb0\x82"$\xc4R\xcf\xc8\xf4aX\x1b\x01\xdcx\t\xc6P\x18\xf4\xda\xc7\xa3\xb0\x93\x85\xe5\x16\x84\xbc\xa3\x0b\xfcAOg\x13\xde\x02\xc8\xbb\x0fp\x8a"\x1b\xb1\xd4\xea\xab:\xac :\x85Xj\xf5c:U\x8a\x0f\xd1\xf8gw1\x15\x86\x8avd\xf60\xec\xfb\x9a\x7f\x94\x05\xb3j/\x80l\x8c\xec\x84{\x1bA\xd3\xde\xa7o^IX\xfffX\xd8Y0\xfd\xf15a\xe50\xacU\x00u9\xc20\x9fO5\xf4\x02\xf6\xaa\xce\xf5\x93\xceY\x80\xd5\x12\x92\x03\xa4\x80\xe0\r\xbe\x99|\xacl\x0e\xd6\r\x80\xe6\xa6\xc20\x99O5\xe2\x17\xec\xb4$\x1d\xaf\x8b6\x1f\xab\x07@\x92Tv*_2\xc4\x9a\xf7\x99\x0c\xd6\x81\x99\x00\xce\xc6\xc2\xf0\xd5P&gt;\xd5\xa2\xc3\xa0\t^\x8b\xb0\xfa\x02\xecO\xcf:\xe3-\xf9\x8e\xe6cU&gt;\xc4\x9d:\xac\xa4[\x00\xf5\x8d\x85\xe1\x08\x9fj\xce\xba\xca\xdcl&gt;\x96\xa3=,,\x0c\x0f\xc6\x90\x16a\xc5\xe8\xb0v\x12\xd6\x7f\xe8\xaf\x02\xc4\xaaa \x0c\xebN\x08\x82}\x8b\x1a{&lt;\x10(\xe9\xb0\xcc\xac\xbb5\xc1\x94\x14\xf5\x88\x06CK\xb0\xca\xa1V\x05V{\x0f\x910`\x0e\xfd\x10\xfb\x9b1\xda[\x9b\x86\xf1\xa5\xaacv\xd2*]\x1a$\x99`E\x10V1\xc3:\xa7\x87\x15\xbf\x93F\x823I\xe0nZa0mS\xb7cwOR%\xa9\x12\xcb\xcct\x8aa\xa1\x06\x01\xd6m\x1f\x03\xac\xd4M\xea\x12\xbaY\x81\xb7\xce}\x03.\x95f\xf8l\xcfE&gt;\xd5z\xca\xa1G\xc3*\xa8$|\xa9\xcc\x1c\xaa\x1b\x11\xc87\x0c+Z\x8b\xb5\x9a\x8e&amp;~\x96\xf1\xa7\xa6/=,6\x1e\xa5\x14\xad\xf8\x0b\xed\xb0B\x18Bg\x0b\x84a\\(v\x16\x19PI%\x85\x9b\xa4;a{\xa7\xbb\xbd\x16k\xb4\x01\xd6\xdfq\xba\xa1\xba\x02\xeb\x1f\x1c\x81\xa4\xd3\x89\xd9(\x82/{&gt;O\x18b\xf7P_3}\xa4\x17\xc3\xb2\xb3\xab\xcd\xc3J\x89\x90\x8c\xb1&amp;\xd2\x08\x94Z\x9e\xab\xd6i3U\x18v\x0b\x84a\xc4w\xd8S\xc6\x02\xc9\xa0\x15\x038\x9a\x8d\xf52\x0f\x8b\xda\x982\x865Z\x8bE\xc1&gt;\xb68\xb1b\x92\xd1\xce\x1d\x85\x81o\xc7\xaaY?k\xac\xc3\xb0\xad2\x1e\x1c\xe4\xb1\x16\x9a\xc6\x16\x8d\xd6\x91\xd1FX\x81\x85\xf9\xa4\xd4\xddt\xc2\xa0\x16\t\xc3\x89uZ\xeb0l\xb9\n`m\xc8*\xdeh\x88\x95\x92\x94\x8f\x13\x90\x0e\xd5u\xc2\x10\xfa\xa5\xc0C\x8f\xa3\x87B\xe2\x18c*)\xcfp\xcc\xb2\x0c+\x8bu\x91~m\xe63\x86\x95\x8dX\x07Xl\x15l\x0c\xd1N\xd7d\x85a\xc8W\xd8I|\xa6\x9f\xc4\xc3rzQ\xacS\xa7)\x88.\x95b\x10ej\xb1\x8a\xf0\x87{\x9fN\xd8\x84v\xa9\x99\xce\xca\t\xc3\xdco\x81M\xed8\xed\xc6\x8b`i|+\x8b\x12\x8d\xff\xe3\xb8\xdb\xa0\xc3*\x08\xc7\xc1\xc3\'oWB:\x80&amp;\xd8\xe5\x84a\xc9{x\xe1\xc12I\x80U\xdfR\xac)\x0f\x89\xaa\x90\x12MD\x91\x7f\x1a\xba\x0b\x84\xd3\xf9\xfcm4/\x8b\x8c\x92\x12r\x00\xdah\x97$\x84\xc2\xf0%\xe5\xd0\xeb\xc3\xb9T\x01W\xf4\x86Rs\xb1\xfc\xf0\xb7$\'\xd0_q\xa7\xc2\xa4J,\x8a\x91\xb0\xa0H?)!\x81a\xc9\tC\xecy\xfai\xe5\x81\\\xaa0\x9c\nw\xb5\xb3\x00\xeb\x91&amp;)\xe5\x1f$Y\xf3NH\xf6\x95\xa4\xb4B\xec\xbfX\xdb\xe1\xdd37\xf1\xf7/`X=^\x13\x0b\xc3\x88\x8f\xf0\xa2\x90lo.\xd5\xdd\xa5\x00\xb5\xebX\x82\xb5\\7/\xa5\xe9j\xdeu\n\xa94|k`\x95\x067;\xb3\x00A\x19V{\x12\x86\x1f\x04\xc20\xf2\x03\xbc\xe6\xd8\x1d.\x94\xf7\xd8x\x9c%\x9a\x9f\x1e\x08\xeb\x8f\xca\x979\xe0L\xf4j:\xba\x93\xab\xc3\n,L/\x8ddc\xf6\x02L\x0fxV$\x0c\x83\xa7\xe3\x87\x8f&amp;r\xa9\x02\x0b\xf0-\xeelQ\xfd\xa1\x9e^\xea\x9b\xf80\x7f\x10\x89\x8dOa\x94\x16+%i\xcaMH\xc4\x9f\x9b\xb3*\x89\x02g\xc2lQ\x0e\xa5I\x97\xb6La\xdc\x86o\x05x\xbb\x91\x85\xc5W\x1cq7k\xa6\xf6i\x89cK\xc8\xb7\x02\nV\xec\xc3/\xc9\x95\xa4\xb2\x02\xdf\x93\x00g%\x9f\xe2\xfckD5\xeac\xc1\xa4k1M\xba\xf2|\xb8T\xbb\xb0\xb3\xb6\x16\x17\xdc\xea\xb4\xd6\x94\x8d\xbcW\xcc\xcc{F\x1a\x18v ?\x19\x18\x96on\x02fv8\xeb_\x90N\x05\x13\xa10\xcc\xfd\x84\x84!\x87\x0b%m\xc3\xce^q\xb5\xb3\xb8\x91\xcde\xa4\xfb\xdc\xc8/bv\x9aZ\xb8\n\xe5\xa5\x05\xce\xb1cV\xe4\x91\xbd\xc2\xea\xb3\xf7\xe8\xee\xc1\xe7\x82\n\xc3\xfc/h\xd2u\x89\x0b\xe5\x87\x96U\xeb\rg\xbb\x17hN\xe8\xbe\xea \xba!\x0eo\xc1\x93\x98"\x92\x17W\x14\xde\xd4H\x00{/\x0fx\x90p\x1fd*\x0c\x97)\x87\xde\\\xc9\xa5\xf2\'\x13jg\xcdZd\x06\xe9Ak\xd8\xb7\x99\xc9\x8b\xa3;Db\x02\xf4hC\xf3n|\xbb!TPa\x88\xddK\x93\xae\xb3\xfc\x1c:\x8fL\xa8\x99\x15+\xb7\x18\xf8\xd0\xd5\xd5\xae\x05=,\x92\x97\xfat\x02^\xc7\x04\xd8\x80\r\x96Ba\xa0\xc2U|4?\x87\xc6\xa1\tA;;+\x9a[\xbd\x96\xbdp|\xef\xe7\xa1\x93\x17/\xb4\xcfz$\xb9\xce\xb5\x81\xb3$\xa1_\xb8Z\xea\xcb\xcf\xa1\x0b\xe8}\x01\x87\xe6v\xd67\xd7W\x1bk\xc7\xd3~=\xfb\xb3\nCOw\xb10\xb0\xc2\x15s!\xd3\xe6C\xe3*|_5{2\x9cI\x18&amp;\t&amp;]?Q\x0e\xcdJ\xe1\x0b\x03\xbe/0l\xcdOU\xb2\xfeDv,\x12\x06V\xb8\x82\xdb&gt;Ba\x80uOU\xb3\xab\x02\xab\xdf\x9b\x00\xbf\x0b\x84a2\x15\xaeBV\xf0s\xe8\x14\x14\x06\xf8\x00\xaf\xac\n,\xb2c\x910,\xfa\x1e\xd8\xba\x86P\x18\xe0#\xba\x12\xb1\x9a(\x0b\xc5\xcai\xa2%\x899\xe3\xa9L\x10\xc1\x17\x066\xaa\x1fb\xd9Wq,VN\x13\x08\xc3\x91_)\x87\x06\x8b\x85\x01B\xb5\x8b\x19\x88\xd5CI*\xb2c\x910\xb0\xc2\x95\xba\xd8\x8f/\x0c\x07Ao\xf7\xc38\xcd\x0c@\xa9F\xe5\xb4\xdd#e\nW\xd3\xee\xf1\x83\xfd\xde4\xd0_\xccP\x16\x8b\xd6\xdfD\xc2\xc0\nW\x07w\xf1\x85\xa1\x98\x9e\xae\xdeb\x86\x92X\xf5;\xe23:/\x10\x86q\x13\xf0\x8b\xb7\x0e\x17\n\x03\xa8\xb7\xe8]\xa9 \x96+\n\xd8xA\x85a(+\\%\xf1\x85\x81V#\x8d\x163\x10\xab\x992T5i\xc3\x8e@\x18F\xfc@94FF\x18\x0e\x1b\xee~P\x0c\xab\xff\xdbba\x98\xf5;Ui\xef\xca\x08\xc3\xa7F\xb5\t\xa5\xb0ZQ\x85a\x88L\xe1jy\x98\x8c0,6\xce\xbe\xca`\xb1\xf57\x810\x0c\x98Do\xd9\xc3\x00\xb10LXc\xfa\x82(\x81\xe5\xd9]\xb0\x87AW\xb8R\xdf\x10\x08\xc3Q\xfcp\xfa`\xd3\xab\x96)\x80\xd5\xef]\xb10\xb0\xc2UF\x82\x9c0\xf0\xb2/b5\xb6\x92\xea\x1d\x19a`\x85\xab\xdf\xf8\x93.\xef\x18\xb5N\x18\x94\xc7\xaa\xd1\x0b\xa7e\x17\x04\xc2\xb0\x8c&amp;]\x9b\xe7q\xa9\xc6\x900\xa8\x0f\xf1\xb3\xefl+\xb1h\xb3\x8a\xa8\xc2\x10{\x88\xde\xb2\xa212\xc2\xb0LX0\xa9e\xcdvt\xda\xe1+\x12\x06V\xb8\x8a\xdf(\x10\x86\x93$\x0cK\xf8W\xaeA\xd9\xefd\x05U\x1b\x19a`\x85\xabi\x9b\xc4\x15\x06\xd8&gt;WX0q\xefe\x05U\x1f\x12\x06\xc1\x92\xc4S*\\\xfdU&amp;\xa80P\xb0\x7f\xc8\xcf\xbe\x93?\x05pi\xf4\xe2PN\x1d\xc5K\x12\x9a\xc2\xd5\xea\x14\xb10\xac\xdd2@\xb8J\xfd\xae\x15\xc2L\xdb\xa2\x84\xc2@9\x14n\xf9\xc8\x08\xc3\x1c\x81\xec\x87&gt;gK\x95\x19\x9b\xa4D\xc2\xc0\nW!\xf9\xe6\x0bC\xc5M\xa6U\xeaNNV$\x86\xdeba`\x85+Q\x95\x96+\x0cz\xb2\xef\xde\xca\x9a|\xd5\x08Cv\xa8L\xf1\x7f\xa1\xa0J\xcb\x17\x86J\xd9w\xe8fUro\x08\xf0\x94\xdb\xf7EV\xb8\xba\xe6o\x910T\x0cT\x1d\xac,\x88 \xd6`^\xdf;\xd8\x8e\xabU~\x96\t\x83n\xa0rp\xb5\xab\x12,\x96C\x93\xd3\x05\xc2\xf0D$\x0cx\x93\xd9@\x05=\xab\x04k0M\xba\xf6\xed\xe7\x07{\x14\xab0\xec\x10\x0fT3f@\xf7\xaa\xc0\xa2\xb1\x0c\xae\x0c\x17W\x18\xd4\xe7/\x8a\x07\xaa\x81w\x07Bm\xe5\xb1X\xf1\x1fJ\x03\xc5\xc20a\x99\xcc\n\x0b\xca~U`\xd1X\x063\xa2\xf89t\xc3&gt;\xb10\x0c`7\x99\xb6dT\x01\x16+\\-\x9d"\x10\x86\x12\xfc\xf0\xdb\xb92+,l\xa5\xd4z\xac\xa6FX\xacpu4LN\x18\x86\n\x85A\'\xfbJc\r`\x85\xabH\xfe\xa4\xcb?\x98\xaa\xb4"a`\xd5A\xad\xec+\x8c5\xe4G\xd3\xad1f\n\xc3x}\xd9W\x04\xab\xc2\x95\xa7R\xf1\xbfd\x01?\xac\xd2\x980\xcc\x12\x0b\x83\x9e\xec+\x8a\xc5\nW&amp;[c\xb4\x8d\t\xc3/\x93e\xaa\x83\xe1\x95\xef\xae"X\xda\x82"\xdb\xb5\x1a4O\xa6\xc2p!V\xa6:\xb8M\xef\xdf\xad\xc7\xea\xa3\xc5\xd2\x14\xae\x8a^D\x18L\xab\x83\x8a`-\xd1\x15\xae\xd4\x99\x02a8E\x0b\xc22\xc2\x00\xef\x1b\xca\xbe\xf5X^\x0ck\xd6a\xe1\xd6\x18\x14\x86\xfbba\xd0\xccl\x0b\x8c\x06*\xeb\xb1\xda\x01\xcc\xd7\xecZ}\xb0\xcbra\xd8\xc1\x84\xc1dK\xc6\x7fG\xb9\xb3\x14\x81\xce\x9a\x01\xca\xde\xf7\xb1w\xba\x02v\x11j0\xfc\xc3\x1c\x1d\xa4\x8a\xb3\x96\x82\x97\xc6`/C\xa3o\xbb\xe2^A\x06k0\xd0\xc0Y\x12\xe0\xc6dm/\xbe\x06\x03\xf6\xee\xda\xc1\x05\x0bqUT\x94;\x0b&lt;=\xed\xff\x14\xcf\x08\x03\xfe\x06\x03\xd6\xbcK\xb9\xb3\xd8\x8cp.\x8d\xf1\x8cq%\xd4`\xc0QQQ\xee,\x15`\xc9\x8e\xaf\xc10\x03\xfb\n\xb2\xbe\xc3x*\xaa\xd8bW!\n\x9d%\xc3\x0f,E=p5\x18\x16\xe1k0\xe0\xa8\xa8\\\xeaO\xb8\xbajQ\x9a\xb6\xac\x99]]/f\xe1\x18a\xc0\xd7`\xc8\xc6^QyL\x03V\xea&amp;,\x94:\x0b\xb4/\xd1u\xf5t,f\xbb~\x8c\xc3\xd7`\xc0^Qy\x82V;\xdap3P\x0e\xd8\xad`\xdb%P\xccv\xbd\x8e=\xb1W]Ao0 W\xea\xdd\xc4\xeca$rM\x92\x1ets\t\xca\x1a\x86\xd7\xf8\xd6pb\xaf\xa8\\\xce\x1d\xa3xP\x04y&lt;\xd0\x82\x03i\xbc\x01\xbc\x86\x01\xd7\xf8\xeed&lt;\xd3\x89\xe0J]\x83\x9a\xabD4\x99\xe1S\xe2\xe0)\x89-\xb8\x1a\x0c\xee\xb8\xa7\x13}@\x95:\x1f/\x035\x81\xb4=d\xd5\xb6OR\x06\xee\x15d\x90\x06\x03\x8e\xe9\xc4\xac]\xf0\xe5\xc5T\x04\xe0m\xa47\xb3 \r\x06o\xdc\r\x06\\=[P\xa5\xce(E\xfd\xf54\xa0\xc5x\x11A\xf8\x1a\x0c\xa9\xb8\xa7\x13]\x96\x9dvu5T\xa7\xc1\xe2#\xf0\xcc9\xee\x06\x83\x1b|\x84\x01\x1bh\x02V\xea\n\\\x0c\xb4\x01R\x86\xc0\x18\\\x82\xbb\xc1\x80\xabg\xeb\x03Z\xe5(\xc0\xc3@+\xc0f\x86c\xf0\x11o\x83\x01T\xa9\xcb\xea0\xd0\x10\xc8\x80&amp;\xca^\xe3\x18a\xc0\xd1`(\r\xa2l\x16\x85\xa8\x04f\xce\x81\xd9O\x854\x18bq7\x18T%\x19h\r\x0c\xd0\xf7\x85y\xaf\xc1\xb1\xe9\x03^\xa9\xeb\xab0\xd0\x1e\x98\xcaCV\xaa\x11\xd5`x\xe4J\xd9,\n\x89s\x9e\xf0\x84\x0fn0\x14\xe3k0\xa81\xd0\t\x80f\x88\xa1-\x08H\x83a\x19\x8e\x06\xc3\x19`\x83A\x82\x81n\x004\x9f\x0e^\x80\x87\xb7\xc1\xe0\x05\xac\xd45\xe8{2\x1a8\xe1W\\\xc3\xb3\xfe\xc8#\x1dX\x86\xf2\xb10\xd0\x17\x80\xce\x9b\x88\xc43\x14N\x9b\x06\x03q\t\x1f\xf7\xdc\xf9\xf4\x87\xc0\x06\x83\x01\xc3\x00\x00\x16-`#\xff\x1e\xf6\x18\\\xf6\xc5\xd5\xd5\xd2\x94a`\x00\x17#\x8e5\xcbM\xdbi\xd8` \x0c\x8c\x1d\xb0\xcd\x1d\xf8\xcc\xa4m\x83\x81\x88\tvg\xcc\xf6\xa8\xef=`\x83\xc1\x8ca@\x01h9\x02j\xeb\xbd\xf4\x02\xed\x1b\x0cD\x94\xacZ\xa8E\x17\xb8\xc10\x18\xce\xf7\x02u\xd6`C\x98\x1e\xd3j\x81\r\x06]\x86\xc1\x00\xa4\x81M\x8a7\xe0U6\x01\x8f@\xdbv\xb8\x19\x06\x07\x00u\xd6^\xad\x846\x184\x19\x06\r`\x01v\xd6\xdc\x13\xcf\xfd\xa4l\xdb\x0e\r\xda\xd2\xa0\xf3\xa4"\xc0\'(\r.\x00jR\xd0\xbf\xc1@D[\x9aOH\x91\x8da\xa4\x00\x00|\xbaw\x8f\x9b\xb2HY\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67003472222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1962</v>
+        <v>1974</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -606,20 +606,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x03iiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC" xmpMM:DocumentID="xmp.did:F8167189180211EF8B19CF4385D0BDAA" xmpMM:InstanceID="xmp.iid:F8167188180211EF8B19CF4385D0BDAA" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:1b63776b-fefc-b946-b5c2-0b58b31ff3f3" stRef:documentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;*`t\xd8\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x00PLTEGpL\xe9\xe9\xe9\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xf3\xf3\xf4\xe0\xe0\xe0\xd8\xd8\xd8\xf1\xf1\xf1\xf8\xf8\xf8\xfd\xfd\xfd\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfb\xfb\xfb\xec\xec\xec\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xff\xff\xff\xfe\xfe\xfe\xed\xed\xee\xff\xff\xff\xf1\xf1\xf1\xed\xed\xee\xfe\xfe\xfe\xff\xff\xff\xfa\xfa\xfa\xfe\xfe\xfe\xe8\xe8\xe8\xfa\xfa\xfa\xfd\xfd\xfd\xf6\xf6\xf6\xff\xff\xff\xfb\xfb\xfb\xff\xff\xff\xf6\xf6\xf6\xe6\xe6\xe7\xff\xff\xff\xee\xed\xee\xfd\xfd\xfd\xff\xff\xff\xf4\xf4\xf5\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xde\xde\xde\xaf\xaf\xaf\xd9\xd9\xd9\xef\xef\xef\xe7\xe7\xe7\xe0\xe0\xe0\xd3\xd3\xd3\x94\x94\x94\xeb\xeb\xeb\xb4\xb4\xb4\xe3\xe3\xe3\xe3\xe3\xe3\xc3\xc3\xc3\xce\xce\xcf\xe0\xe0\xe0\x00\x00\x00\xff\xff\xff\xe1\x0b\x08\xe0\x0b\x08\xdf\t\x06\xe0\x0b\x06\xe0\n\x08\xde\t\x06\xe0\n\x06\xe1\t\x07\xdf\x0b\x06\xe0\x08\x06\xe0\x06\x00\xdf\x0b\x08\xdf\x06\x03\xdf\x03\x00\xdf\n\x07\xde\x06\x02\xe0\x0c\x07\xde\x03\x00\t\t\t\x02\x02\x02\xe1\x0e\t\xde\x00\x00\xdc\x02\x00\r\r\r\x04\x04\x04\xe0\x08\x03\xfa\xfa\xfa111\x10\x10\x11\xff\xfe\xff\xfe\xff\xff\xe1\n\x07\xfe\xfd\xfd&gt;&gt;&gt;\xe4\xe5\xe5\x06\x06\x06\x17\x17\x18\xe2\t\x07nno\xd6\x08\x06\xab\xac\xad\x1e\x1e\x1e\x1b\x1b\x1b\xfe\xfb\xfa:\x01\x01%%%xxy(()!!"\xf2\x96\x95\x14\x14\x14\xe6\xe8\xe8\xdd\x06\x03\xfe\xf4\xf3\xe1\x19\x15rst\xe1\x11\r\xfc\xea\xe8\xe596\x88\x88\x89\xfd\xf7\xf6\xe7GD\xf0\xf1\xf1---\xe2\x1e\x19UUV\xeb`\\``a\xfb\xfc\xfdXXY||}\xd6\xd6\xd7\xe540\xf0\x8e\x8adee455\\\\\\\xe3\'"\xecfb\xd3\x06\x05\xd3\xd3\xd4\xf5\xab\xa8\xf3\xf6\xf7\x80\x80\x81\xfb\xe4\xe3\xcb\xcc\xcd\xb5\xb5\xb6QRR\x91\x92\x92\xf4\xf3\xf4\x94\x95\x96\xaf\xaf\xb0\xc5\xc7\xc7IIJ\xe3!\x1d\xe4.*\x8c\x8e\x8e\xe6&lt;8\xe2\x16\x10\xeb[X\xfb\xe0\xdf\xed\xee\xef\xd8\xda\xda99:\xcd\xd0\xd0778\x83\x84\x85MNN\xf8\xf8\xf8\x9d\x9d\x9e\xb9\xb9\xb9\xa4\xa4\xa5\xe9\xeb\xeb\xdd\xdd\xdd\xfb\xd1\xd0\xf2\x92\x8f\xdf\xe1\xe2\xe9RM\xc9\xca\xcaFFG\xf5\xad\xa9233\xf6\xc0\xbe\xf6\xb3\xb1\xa8\xa9\xaa\xfd\xed\xec8\x01\x01\xe9VS\xff\xe7\xe6\xe8MHCCC\xb1\xb2\xb3\xfa\xdb\xda\xeews\xf3\x9c\x9a@@@\xc1\xc2\xc2hii\xbe\xbe\xbf\xfc\xf1\xf1\x98\x98\x99\xf1\x83\x7f\xc2\xc4\xc5\xed~{\x9a\x9b\x9c\xecli\xf1\x89\x85\xfa\xad\xaa;&lt;&lt;\xf3\xa2\x9f\xd1\xd2\xd2\xefro\xb3\xb9\xb9jkl\xfc\xd7\xd6\xbb\xbb\xbc\xf9\xa6\xa3\xe7D@\x9e\xa0\xa0\xa5\xa7\xa7\xf7\xcc\xca\xf4\xae\xac\xf7\xc6\xc4\xe6A=\xdd\x13\x10\xf7\xba\xb7\xbd\xbd\xbd\xa1\xa0\xa1\xc0\xbf\xc0\xa2\xa3\xa3\xf9\xf4\xf4\xe464\xf2\xa7\xa4\xff\xf0\xf0\xd8\xdf\xe0\xfe\xcb\xc9\xfe\xc3\xc13\x00\x00\xcf\xd7\xd8\x9e\xa4\xa4eBBI\x17\x160\x00\x00\x84[Z\xbf\xa1\xa2\xca\xbc\xbc\xd6\xc5\xc6\xb8\xbe\xc0\xdb\xc9\xc8kMM&amp;\x89\x8e\xa2\x00\x00\x00]tRNS\x00\x0f\xe9\xde\xcf&lt;\xf1\x03\x06\x1bOT\x96\x8a\xaa\xcb\x8fk\x15\xbbt)\xc4\xd5\xfd\xb6 \xf6d\xd9B\xe1\n#\\1\xa34\xa5\xf4\xf7\xae\xed\x86\xb2\xde\x9d\xb0\x80\xf8\x197\xdd=G0-507\xf2,\xf79\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\x8f9\xf9G\x00\x00\x1c\x99IDATx\xda\xcc\x98yP\x94\xe7\x1d\xc7\x15\x11\x10E@\xae*\x12\x83\xd1i\x9cjf\x92N\xd3\xcc4\x9dy\xd8\xf7\xd8\xb7\xef\xee{\xec\xbernBY\x14\x86\xe1\x18A\xc0\x85\x95\x80  "\n\x13P\x81"7\x89\xe2\x11\x1b\x0f\xf0\x8a\xc3\xda\x00\r5\x06\xe4\x10H\xd5\xe8\x18\x93\x94\x0e\xd1\xd1\xff\xfb{\x9ew7q2\xd8\xd8Fa\x7f\xbc{\xb1\xef&gt;\xfby\xbf\xbf\xf3\xd9y\xf3\x9e\x9byx\xccsF\xf3\xf7wwB*\xcfwNx:\x1fU\x80\xeb\xedo]\x03\x9c\x8dj\xfe\xd2o\x12\x13\xbf[:\xdf\xb9\xa8&lt;\xbcN\x1dEh\xf4\xd4o\x9c+\xec}\xddv"\xb0}\xbf\xf6u\xaapwI\x0f\xc7X\xe1e.N\x14\xf6\x0bC\xea7"Tw\x1c\xa1\x8d\r!\x0b\x9d\x85\xea\xf7\xde\x9fd!\xb4){\xf3\x11\x84\xb2\x92\xbd\xff\xe8\x1cT\xa1~\xffLA(\xe3\xe0\xf4t\xe3\x16\x84\xb6~\xe7\xb7\xc2\x19\xa8V\xac\xef\xce@(ub\xba\xa3\xd8\xf2i"B\x85\xdd\xeb\x9d\x80k\xd1\xd2\xce\xbd\x08\xc5~\x15?\x1e\xa5\xf4\x85=\x8eFh\xef\x8d\xa5\x8b\xe6\x9e\xea\xc6Q\x1c\xe9a\xc3\xc261bOXk\x02\x94\xaf\xdds\xcde\xa7z\xaf4\xf3\xebm2E\xb7\xf7\x97\x1e\xc3\\\xef\xcf-W\xe8\xfaN\xc8\xbe\x84\xfd\xa5c_GieJ\xa3\xcf\xb9YZ\x16\x03\\7\xd6\x87\xce\x1d\xd5[~\xdd\x10W1\xfbKo\xe6\x00\x15\xc7pf\xa9h\xa4\x14W\xd6\xa3\x07\xfd\xde\x9a\xb3*\xea\xfdM!xp\xff;\xd5E\x8aVKq\x0c\xab\xd1\xe8\x9bGN\x94\x81\x1f\x0b?\xf3\x9e\xa3\xba\xea\x19\x92\x9cB\xe2\xaa\xba\x08\xb4\x02\x172`\x14\xd6\x0b\xc7\xd7\xd6C!s\xd1\x87&lt;|]&gt;\x87\xda\x1e[\x1fG&lt;(3\x84Jf\x8cRQu\\+\xd4\x89\xc4!\x17\xdfY\x9f\'\xde\xf0\tN\xc7\xdf\xfd8&gt;\x13\xa8\xb42KiX\x8e\x13\x04\x1c\xf7E\xfd\xf1CPW\xa3\xcb\x82}\xde\x98]\xaa\xb5\xcb\x0f\xef\x82\xc8\xce\x98H\x1b\xc69\xc8AT\x81\x99\x19N\x969Jl?\x93\xf6)\xf4\xa1\xf0}\xa7\x96\xaf\x9dE(\xf7\xd5!\'!\x05\xd1\xa6\xce\xfc&gt;m\x14\x91\nCi\xcc\xbc\xccq\xc0\xa5\x8f\x18\xcc?\x08\x95\x03\x1d\xf9G\xc8\xeaY\xdbw\xac\xf0qkM\xc4bl\xb6u\x18\xb6i\xb5\x0e*\x8d\x06\x98\x80\x8b\xa1L\xc6b\xdbY,gj\xbd\xdb\x92\xd9\xe9\x90\xee\x9e\x81\xef\xef\x83\x92\x19{\xac\xe6\xc1\xbdH\x03D;x\x10\x0e\x0e\x02\x1e\xa0tX/\xd6,\x15\x9c\xae)\x8b\x85R[\xb2;\xd0s\x16\x04\x0b\xf5q\xfb\x16&amp;\x06Tx\xe8\xcf\xd5\x95\x91Z;\x15\x8b\xd5bxN\x07T\xc4\x8ff\xa9e$&gt;\x99\x9c\xf8/\x17\x9f\x17]\xf2\xe7\xaft\xbdQ\x02\x93h\xf8\xae\xc3\x96k\xedPD\xb5\xac\xeaB\xc02c,\x8e\x18\x8e6}\xce5\xcb\xa3\x9d\xe0\xc8\x8d\x15\xbb]W\xbe\xc8-\x91\xc7K\xeb\x82\xeb!\xc5PJ}\xcd\xe9.\xd1@\x82\x9d\xa2Xrhp\xe1\x02\'b\xc1dxj41=_\xd6\xb4\xa6\xc2\xe9\x19\r\xbfZ\xf7\xd2\x0b\xf3\xe4\xda%.\xb5\xe7\xe0\xf2c\x8ew\xc7\xdf\xac\x8c4\xd02\x0b\xde\xa30\x19\x85\xef\x1dX:\x82\xc5Q&amp;\xa9\xe5f|c\x13|"\xbc\xa9\xd6e\xc9\xda\x17\x01\xe6\xbe\xd6k\xd5\x17%\x10\xc4hK}MoU\x84B\xd32\xc5\x10\x07\xaaT\x18Ku\xa1\x8ec0\x17Kq\xa2\xf5zoM\xebV\xf8PlE\xe3*\xaf\xe7\x0e\xe6\xbe\xd0gA\xf7d*Y\xffF\xfeX\xb9"\x82T\x8c\x1aTX-\x88,\xa8\xa4X)\x9a\xd6\x91"\xc1h(V6\xea\xc4\x7f\x8f\xa5u\x96@?@\xa9\x93\xdd\x0b|\x16&gt;O\xb0\xf9\x9ek\\\xba\x070T\xf8\xb9\x89\xd2\xd3\x1dB\xa4\x96\x96\x19{\xa8\x934dX\x96#i\x88\xb1\xe0\x91\xe10\x16\xc3\n\x8cd-&gt;]:\xf17\xa4\x82\xb9\xac\xf1|N\xc1\xef\x1e\xe0\xeb\x17|\xb2$\x0bC\xed\xbd]c\x1bnV\x0cx\xb8\xfa\x11\x0b+\xc6\xb2j\xd9\xe2h\x9a#X\x1ch\xc8P\x02\xcf\x98\xa4\xcaa\xdb\x8e\xa1\x0b\x18,\xab\xe4d\xb0\x9fo\xc0/\x96\xcc#t\xf1kA\x87\x1b\x9a\xa2\tT}\xf6tf\x9eA\x84\xe0\xe1\x19\x9c{2k\x969\x8dF\x10\x04\xa0bA(-\xf9\x03\xb9 \xb4x\xd0\x8f&amp;\xd5B\'\xb6\xf5Og\xb7^\xc0\x1b\xef\xe8\xa6\x86\xc3A\xaf-\x0e\xf5\xf8%:\xad^\xe2\xfaj\xf2\xc0\x16\xa8\xe9(\xe6\xef\x9fg[n\x16\x08\x914\'\xf3x\x84\x11d|\xc8\xbc,kg4\x01n2p\xc9\x94\xc0I\x11\x05#\x96\xec\x86M\x18,&amp;c2\xf9U\xd7%\xab\xff/\xcd&lt;\x16-\xf4_\x17\xf4vm\xd2\x05,\x14\x8a=\x9e\xfc\xe1\xf4HA\x84"\xb2\xac\x8c+\x01-\x1a\x0c\x06\x91\x1c\xe4\x89(:\x1e\xb1\x19T\xa39\x08A\x9e\x01v\x93d\xbd2b\xf9\xf0\x93\xe38\x95Q\xf4\x85\xa4\xda\xb7\x83\xd6\xf9\xffn\xd1\xff \x9a\xc7\xb2W\x16\xfb\xafqu\xeb\x1e\xaa(L ?xd\xe4~q\xc2\xd6\x7f+\x02\xd2\x0f\x8c\xa1\x18\x9e\x8e\xc0f4F&lt;i\xf0\xd2h$\xd5\xc2\xf1\x0f\x9e&amp;gs\x1cE\xe9D\xeb\xad~\xdb\x89\xcf\x92\xb6\x90\x1fQ\x12\n+\x86\xba\xdd\\\xd7\xf8/~e\xd9\x7fg{y\xd9\x8a\x80\xdf\xbe\xb9\xd2k\xa9\xf7\x86\xd7\x1boO\x8e\xe2\xcc\xc3\x15}\xe7\xe3\xb3i\xa7\xaf\x95s\x12@\xb1\x10J\x10\xdc\x8c\xbem\xecn\xb5j\xe7\xab\xcf\xff`\xd5\x0e#\xaf\xee\x16\x8b2\x1e/\xe03\x1c\xe4\x84N\xd2\xe4\r\x7f\x99v\xf6v]\x8a\xbar\xea\xe8\xe4G\x8d\xafo\xf0^\xea\xb5\xf2\xcd?\x04\xacX\xf6\xf2\x8cX^\xcb\x037\xb8\x05\x1f&lt;T\x9f\xbb\xf3\xddhrI(!eW\xc3\xa3)\xdbHq\xb3^\x12A({\xa9\xa2XS\xd1\xc5\xb0\x9f\xb73\x12L\x85\x0c\xf4p\xb8\xc1T\x01`\xa6\xe6\xaa\x11\xdb\xd4\xa3\x86\x9d)\xc4\x0f(&lt;\xba\xb0.\xb7&gt;\xb9;\xdbmC\xe0r\xaf\x19\xb1\x16\xd4V\xd4\x8d\x16\xa6\xc4"\xbb%\x1e\x19\xf8\xea\xfb\x1a\xdb\xfd\xf1r\xab\xa4\xba\xcf^\x114\x0c\xf5\'\xa9\xc7\x12\xf7LX\x14e&amp;\xcd\x92"\x15N\x07A\x967~\xdfVs\xf8\xaf\x03G\xb3\x1c\xdf\x14\x9bR8ZWQ\xbb`F\xac\x90$\xc7i(!q4\xe9\xa3\xc6\x8f\xd3\x0e\x8c\x8c\xe7\xb5\xeb%\x1dN9p\x03g6\xdb\xc1(S\xce\xfdgPK\xe1\x8cju3S\x14i\xa0 \xb4N\xd2\xb7\xb7\x8d\x8f\xd8\xd2&gt;n\x1c\x9a&lt;\x92\x95\xf0\xc3\x97\xe6\x86\xcc\xac\xd6$N\x92\x94w\xcfU\xb4N|\xbfc\xca\xf60\xb3\xa3\xd2*I\xa2\x8e\xc5+r,\x19a8{\te\xa4\xebi?\x8b\xb5G\x02,Vu;V\x9b\x90\xb1\x1a\x90L\xdf\xde\xd2\x91\xf9\xd0vu\xc7\xf7\x13\xad\x15\xe7\nSp\xba\xe7\xce\xac\xd6\xaa\x01\x84\x9aj;\xb3\xa7,\xb6\x07\xd5\xd7:\xca\xadzQ\xd4\x99)\xa8\x95\xb0\x830\xc3\xba\x82Q\xa4YV\x15\xcc\xaco\xe9}\x16,\x8axO#\xd0\x06\xad\x96\'`\x84\x92\xd3\x99L\xa6\xf6\xf2\x8ek\xd5\x0fl\x96\xa9\xcd\x9d\xb5M\x80\xb5jf,P\xab,\xec\xe1\x99\xf1\xae\xf2f\xab\x14)\xe9(,\x10\x9e\r\xa0\x98\xf3&lt;\xd4FSs\x11\xcd\xab\x97\xaf\xd1Y\xef\x92\xaf\xce?\x9f\xf9S\xeb\xbf{\xe72\xbc\x13\x87\xb1\x04\xdc2\xa1\x03\x145\x8b\xd0\x00p\x95\xc5\xe9\x8c\x1b\x17\xc5\xd2\x92\xa4\xb76\x97w\x8d\x9fy\x18\x96\xfeT,\xec\xc4tKA\xa4\xa8D\x82\xe70\x93=\x92\xc0\x03\xbcl\x90\x98\x96\xc1\xfbW\x14\x12\xc3\x10\xf5\x1c3H\xb0\xb6\xe7E\x8a?5k\xe5\xad\xbe\x8b\x16\xac\x16\x03\x13"\x0b\xe5A\xbar\x7f\xb0\x85\x81fJ\x8c\xac\x01\xa3#\xcf\xd2\xa2")\xa2t\xc5\x92\xfbT\'\xe2\x90\xcf\x05,-\r-\x8e\xe8\x04c\x80\xd9L\xa8\x0c\x8a\xf5\xde\x9e\xde\xb0\xed\xb7\x14-\xa5\xceX\xb2X\xec\xc0\xa2i\x93N\x14i8\xf0\x13\xe8\x88\xa2A\x11sz.\xe5\x9f\x01,\x12N\x94\xbe\xe0rX\xefp[\x84\x1dL\x80\xab\xc2\x13\x19\xb4MV\xa6e\x15+}\xe6\x90\x0f\xc2\xc4\x96+x\x8f\x0c\x1f\xc1;\x19u\xc4\x93eQ\x9f\xd35v\x00\nBo\x9e\xc2\xcbDCA\xabt\xc5\xabXQp\xba@Q&lt;\xc5\xf3p6\x84"\x9e\xa1yN\xdf^\xd5!2\xbc:\xbc\x8am\x1f\x80W?\x18\xeb\xca\xc1\xe3\x07\xe9\xa6\x024M\x9e\x87\x0e \xf3\xfa.\x0bH\x92\x1e\xf4T\xac$K\x97\xc2\xc3D s2\xd9\x8f\xc2p\'@HU]\xbaJ\xa4\xe9-WxF\rZ^)H\xb3c\xe1\xa59\x8e\x87&gt;\x03t\x0cn\xdex\xce1\x9a\xf4\xd0}\xd4\xb9\xd5h\xcaS\x13\xe4\xf2\xa5\xaa"\x93,P \x14\x81\xd3\xc2\xe0\x06X=\x96\xc9\xa7b\xb9B\xd8\rXz\x14\x9e\x18^\xda\x0c\xae\xe4LE\x83w\xf2\xed\xa9\x85\xb185\xb6\x84\'\xb1p\xf7\x96\xa1%S\x80$\xc0\xf8\x07\xbbk\x9622\x1c/\xa8\xd7`4\xb59\xf26\xffN_\x91\x88#\xce\xc1\x05\xf7\xfa\x0eK\x05\xa4\x9b\xeb\x8cX\x81\xfb\x11*\xb1\x14\x83ZX\\\xe8\x17x\xb8cYS\xe5X\xbc#\xe3\x0f\xdcSd\x1e\xef\x9f\x19Fk\xc7\xba\xdc\x06\xbb}\x1e\xc6&gt;FK\x9c\xc2c4\x0e\xf6D,\x9eNY\x8alB\x8c\xfa[\x07\x1ck\xc4\xf77\x8b&lt;\x05e\x16\xd7g\x16\xaeE6\xea\x8b-%\x08\x1d\x0b\x9c\x11\xcb\xef=\x84vMU)X)\xa2=\x9e\xd1\xa17\x9b\xda\xfb.\xdb\x1b\x8d\xa5\'\x8a\'-\x08\xc4\x89*\x00\xda\xb8\xab\x17[\xa2~\x9c\xb1xY5\xfc\x8c\xc7\x92\xc8v,\xa9\xc3.x\xdc\xf6\xbevQ\xa0\x8cFu}\x16O\xb5F\xfd\xf5\xa9]\x08\xb5\xfa\xcd\x88\xb5\xae&gt;\x06\xd5\xfde\x1cc9\x9a\x1fl\x1f\xa0\xa3\xe9M\xc5\x8ek\xed\x03,x\x17_\xa3R\x90\x7f\xe0\xd2`W\xa5\nd\x88\x8a|\xd2\xa2\xfe\xc3\xa8\xd5\x07Eu]\xf1?\xd2N\x9b\x91\xc6\x8c\xb1\xb63\xb5N\x9aq2\x89\xf9\xa3\xa6\xc3\x9fN\xe6\xc2{owy\xbb\xefc\xdf\xdb\x85\x95\xf5cwU\xd4*E\x85&lt;\xd6\x05\x01\xb7\xa8-\x14w\x8d\xa9\xda`\x0c\x14X\x8c\x9f\xd1\x82\x84\x02AD\x81\x98 *$hJ\xb4\xc3\x97m"\xc4h\x1b\x93~\xa5\xe7\xde\xfb\xf6\x03\xb3\xbb\xe4\xce0\xb0\x8f\xbd\xef\xfd\xee\xb9\xe7\xfc\xce\xef\x9c\xfbT\x16\xaf\x8d\xe7I\xc2a\x14\xf1\x9a\xbe\xb0P\x83\xd5\n2GQ\x98\xe83\x14\xcb\xcd\xb2\x93(\xfb\xf0\xcf\xe3\xc2Z|}\x1dz\xa3\xacW\x05\x87\x8f\x81\x05\xe9L1Y\xba\x8a\xe8m\xf7Oj\x184\xc4(\xe7\xac\x1d\x9c\xaaW!\xb0\xac\x9a#\xcb\xea\rL\xdd\xee\xee*\x0f\xc2h\xe8\xea\x9e\xc0\x84\x0c\xe4\'\x9bp\xfc\xb8\xc1\xe0c\xba\x17tY5\xd8sE\xc1I\x89R\r\x865\xd0x\x11\xad;\xbd8.\xac\x9436\xb4\xe6\xec\x80\x84\xed\xa1\xcfH\xc7\xee\r\x01\xef\xb6\x0c\x96\x10\\\xa1)\xd82\\2cSX\x1d*\x10\x94\xcf_\x17\xac\x9cn\x1f\xed\xe9,\xcc\xf5xV{&lt;\x9e\x92\xfe\x0b#\xe3\x1d}\xbd-\x81zN\xb2\xb2@\xa9R\x1d1\xb7\xabpP\xd3\x8c\xb0\x85X22\xfaC8\x99\xb1\x0c\xbd\xfc&amp;Z\xfeNJ\\X/\x1cZ\x85\xda\xd66[\xb0\xb5"\xb0\x18L\x86L\xba\xd3\xd7G\x97{\r`\x81\x94g\x04\x99\x11U\x95\xad)\xbd\xb9\xbf\xa7\xf3\x9bI\x1b\xaf\xc1Sx\xe0\xce@Km\xa6\x02\x143@/\xf6\t\x1adV"j\x15E\xdf\x10\xf0dg\xfe\xb9\x9dh\xd5[/\xc4\x855\xffr\x01\xca\xbbwK\x91iT\xeb\xb00\xed0nF\x9a\xa2\x11&gt;\x1aPIL\x0b\xc6,g\xa0+\x7f\xbc\x7f\x96l\x9d\xdb\xd4\\c\x16\x03M:\xbf8`M\x00K\xc0\xf6\n\x8b7\x99\xcb\xbcut\x1b\xca92?.\xac\x85\xc76\xa3\x9c\x7f|\xe0cyC\xd4\x1f\xd3\xc9\xdf\x06\xa8\xfd\x86hx\x07\x1d&lt;\xf6p\xd5WZ9\xdaO\xcd\x92|\xb4{Yq\x90R\xcc\x80f\xe5\x89\xd6g"\xb0@\xe9s\xe6\xfa\x8ec\x05h\xf3\x8d\x85qa\xcd\x01\xc8\xcb\x8f\xdc\xf7\xb2\xbc\x10\x85E\x85\x08N\xb6\xc54\x1a\xdb\'5\xa3Q\xf46t\x14\xb9\xd2\xbe\xcd\xc8-\xb7\xb2\xdeq\x1a\x85\xd8X\x841H1\x82\xef\xee6\xf0&amp;\xce\xe9\xbf\x7f\xd5\x86\xf2\x8e\xce\x89\x0bk\xd1\xb26\x94\xfdQS\xc0*\xc40\x84A\x17H\x8c)3\x9f\xb2t\x97\xc3\xc8\xb6\xb4\x7f\xd3\x9d\xc0\xd3\x8bB=##=!\xec\xfb\x91\xcb\xe3~-LZ\xf9\xa4#\r\xb8\x88\xb1\xc8.@\xe0\x98L\xce@\xd3%;:\xbelQ\xfcC\x89\xd4Vd\xffk\xa8\xd6*\x08\xa6\xf4G\x87[\x91\xba;\x89\xdf\x8e\t\x9axm\x86{\x97\x1ch\xea\xc8\xbf\x16l\xb9]7UQ[[15\xd1\xddp\xb3rl4T\x88\xc1\xf6j\xa2\xaf\x83j\x8dR\x07i\x1ebhJ\x98\xb8p\x97G\xac\x08]\x07\x05\x9a\x1a\xbf+\xfd\xc3\xd4\xbd\x08\xed\xe8\xac\x03\xe2\xe2\xd2\xbf\x89\xcb\xa9\xeb\xbe\xceRG\x8c2\xf5\x14\xdd\xa9\x0cN\xd4\xf8\x04Q\x02\x16\x95\xb2T\x15\xff\xce\x92d\x9f\xbf\xb8|\xa8\xa3\xb3\xa9V\xcd\xa2\xebI\xfb3\xde~\x95\x158A\xd6[O:,\xa9\xee\xb3\x13\x08\xedM\x8d\xffr\xc7\xe3O\x81\xba\xd8\xd0\xdf\r\xb0\xf8X@z\x91\x90\xae\xef\x85+\xdf(\x9a*I\xbc\xbbBc\x83\xc5^MU\xb1\xd42\x1bp\x82\xc6\xaa\x9f\x17X#\xcbZEI\xf4\xd6\xd5\tV\xa1\x8f\x04\x06\xec\xbeV34!\x8a\x02OD\x80\x1e\x87 &gt;\xa4\x96~\xd0\xeb\xdb\x9f\x9a\x17\xbf|}\x1e\x92\xe2\x1f\xaa\x83V#G\x15\xa8\xce\x10 \xe4\xb1\x18d\xc2\xb5a\xcf\x94j\xc1\xf4X\xd2\xde;\xe5\xd3T+\x109UPx\xf0\xb8\xf9\x06~\x0c[\x05\xfbd\xb6\x88\x9c\x84\xa5\x16\x89HGV\xd0\x13\xea\xf5jF\x88)=\xa88\xcel2[\x82\xd5\'a\x9f\x9eOP]\xa7\x9c\xb6\xa37\xcb\x06X#\xcf\xc4d,\x86*\x06\xde\xc0Yn\x12Ov\rh\xbco\xb8\x7f\xac\xcb\x0b\xa9G\x92\x00\x90@S.\x1dX{q&lt;\xe8\x03\x13\x16\xb8\x8c\xec\x1cZM"r\xd0a\xc5E\x9cgl\xcaj\x8d\xb8\t\xc0\x92\xcd\xdcPc\x15\xb2\xff=%A\xb5\xbf\x14h~\xeb\xb9a\xc5\xc8\xc7$\xd20\xe7\xc9\x9c\xe0\xd4Yq4\xa09\x8b\xbb}*l\x93)\xd0]\xc3B\t\x98NjT\xfcCE\x0e\xcf\x91\xf3\x03\x83\x81\x0fSiS\x8dCm!\xe4;\x12\xcc\x94\x84p+\x11Va\xce\xbcu/\x0f\x15\xbc\xb54\x01\xac\x85/a\xae\xbd\xef\xb3\x1a\x85\x19\xb0\xe0Y\xa0"-&amp;\xc5I#\xd03\xa8)N\x10^\x92\xb7\xbb\xb9\tt4\x85\x15\xa6l\x00\xc5Q\xc1\x8d\xaf)"51d-\xcd7M\xc3\xa4\xbf9 \xeb\xb8p\xb7U\xf4\xdd\xbf\x9a\x83\xf2^Z\x98\x00\xd6\xa2%m\xc8\xf6\xceH\x8d\x16\x0b\x0b\xdc\n\xa3R}\xc1b\xab\xb3\x82\xba\xc9\xb8\xd7*0l}\xf0N\xbf+\xad\x13\xe4\xbd\x81\x89\xc0\xe2\xb0\x80\xc6\x1d]\x82\xca\xcd\xb0~J\xa5=\xb5\x0e\x15\x1c\x92R\xb0\xab9\x93\xa5\xda\x1bo\xb9\x18\x18\xf9g6\xaaZ\xb2(\xd1+X\x8fA\x11\xb9\xe3B\x9d#\xc6\xb9\xdcd*\xa0\xaa\xcc\xad\xd4XJ\xa9\xabK\x1a\x1c\x8a\xa2\xde.\xc4\xd1XT\xac\x92\xa8r\xeb\xd6"\xcdoY\x9f\n\xb9\xb4\x9c\x86o\xb3fd\xfdCE:\xd3\r\xb2r\x14\x964\xd1\t\xfcp\xf2\xb1D/\x7f=\xbe\x00\x18\xe2\xbd\xbb\r*\x11\xf2\x11{\x99\xa0\xf4\xf1\xf7\xe5\xa6\x8d\xd4:,\xa5\xf4\xc6c\x93\x9a"E\xb4\xbc!B#\xb8\x92\x81\x12\x83#i\x02\xc7\xaf\xb3\x9eR\xe9\x81\xdb\x0eYqr-\xe3.\xea\x9cV\xde\xcdP\xf7\xe0LR\xf9]P\xf2\xdb\x17$z\x19\xe0\xe9\xc5\x87\xed\xa8\xb5q\x80\x1c/\x85a1\x06A\x90j\x86]\x98\xb0\x1d\xa2o?\xf5\x8eR\x07\x1f\x81\xa5\xd2\x9e\x8cLb\xd0LO}@\xfb(\xd8\x16R7\x95\x18\xd3\x93\x9a\x9c\xaepR`\xda\xe3J\xf3\x0chF\x86\xa6[X\x85\x19D\xe0\x1ad\xbf\xbe\xf8\xe9D\x8d\xb7\xa5\x9f\xd8\xd0\xa6{\xb72q\xeeJ\xa7\x1a\x14\x1eg\x90\xfc\xd4WGk\xac\xe1\xf4\xd6g4F\xadE\x0e\x84y\xda\xfa\xa6\xa8\xcc\xb8\xaf\xa5@\xf4+\xc3\xe1\x1a\xc0\x08\xea\x084\xbd\xb7\xcf\x83\xb5$\xcf\x10\xf32 _\xcd\xbe\x0f\x8enF\xb6#K\x13\xf6\x03\x9fyq\x13\xb2\xfd\xf7s\xbf&amp;\xd0\xc3\x1cR\xfa\xca\xa2w\x9azjn\xd0!z\t\xa5\xba\xe0\xceQX\x02C`\xd1\xc3\x02\x9c\xf4\xc8\xe9\x1d0ED\x95\xde\x99\xc4\xf6qC\x8e\xb6\xf8\xf7c1\xc8\xd3\xec\x83\x03\xc4Y\xd3\xf4\x91\rm{\xf1\x99\xc4o\x10\xa4\x82\xcf\xbf\xd6Y\x01\xb0L\x06\x12U\xc0\xd8R}\x1fA\xe5r\x15u\xa9&amp;\xbd\x7fTR\xee\x88\xd6\x89@\xf0\x1c5\x17n~\xb0\x92\x99\xc1\'\x19f\x13gf\x87&lt;\xfazp\xdb\x01\x06T9\xb5wZ\xb2\xa0~4\xd0\x93&gt;\x93l)\xfe\x0c\xb2\xcb\xc9\xd4\xc4\xef\'\xcc\x9b\x0b\x85\xf5.PH\xf0 \xb7\x0eKT*uau\xa0\x01\xaa\x03s\ra\xc7\xc2XX\xb8\xd9!\xcb\x14\x14\x88\xd6\x89A\xafHa\xa9\xb5#dAM~0\x0f\tU(\x0c\x95\x80\xd7\xc8\xd3\xd8\xc5\x07\x0c\xb2\x18\\\x01\xd5\xd8\x96\xb9\xf3\x127\xe2\x9f\xb8nGUg\x9b),r\xe2\xc5:{\x0b\xd3\xc8\x92C\x90jY\x80IJ\xab\x18X\xb8\xe8\x80\xcc\x8c\x87(J\\q\xe5\x81q\xbfh\xc0K2\x8b\xbdd&amp;\xc4\x8aQ\xe6\x08\xd5p\xe9\x06Ndu\xf9\x805\xa0l\x10\xf3_n\x03A\xf5D\x92f\xf3|\xa0[\xcc\xf3\xf4AxW\xa4\x86\xcep)\xe5\x00\xeaa\xcdjE\x0f\xddDG\xac\xb50(A\xf0\x05\xca\x87C8)\xe3o\xb2F\x95R\xa9\x0b\x98\x05&gt;\x9bpw\x82g\xb0\xca\x10h\xa7B&amp;\xf6\xf5}~\xb5 \xa1\x90\x0f\xf3|\x15B\xa7/T`\xbdNfe\x85{\x07\x9d\x80\x03\x9en\x96E\xb1y\x06\xac\x92\xe9J}4\x0f\xb7\x87Jt\xad`\xc4=\xb6\xacr\xf2\rW%TaF\xbdK#\xf0 8\x18F\xc0]\x0e\xb2\xe9\xd6\xa9\x0bW\x10:\xfe\x93E\xc9\xce\xec\x7f\xb4\x0b\x13jy\x16\x93AFV\xed\xb8^\xe5\x0f\x82\xad\xcc\x19\x19\xeb32\xa4\xdbE\x18V\x96\x1e\x89\xaexE\x85j\xce0\x9b\xc3\xaa\xf4\xc2\x84\xc3h\xc0S\xd7\xc3\xc0wXO\xfep\xc3\xfd\xcd\x19n)\x88\xc9\xf4w?M\xf6f\xd5\xf7\x9f\xbdbG+\xcf6\xef\xc3c\xe3\xc6\x8du\xed.\xe2\x1d%\xd7\xc2W\xf0\x98\xc6\xb0\xf6\xed+M\xd4\xd3m\x9f$\xdf\xdc\xa7S\xe9p\xec\xdc\x98\xa1_\xcd?\xbb\x13\xd9O?\x9b\xf4(c\xfe\xdb\x05\xc0l\xffy\xf8\xe0&lt;\x8c_\x9d\xff\xe2\x1e}\xd0\xdd\xaf\xbe&lt;O\xae\xe0\xf1\xe0\xeb\xb2\xb4\xea\xaf\x1e&lt;\xf8\xe2T\x02X\xff~H\xbf\xf8/\xf2\xa9\xf1\xeb/\xf5\x89\x8f\x0e|\xc7\x07\x0f\xff\x07UO\xce\xb1\xe4\xaf\xd1~w\xc9E\xc8\xd6\x8dU\xe1^\xf9\xc5?\xd1\'\x1d\xfd\x10E\xc7\xf2\x8f\xd3\xaa\x7f\x8d\xd0\x87\x89`}LO\x1c\xda\xce\x91O\x87l(\xd9\xa8j\x84&lt;\xfd\xc6\x92\xe4oU\xcd[\xb0\x05\xbe\xf4\xea\xf6\xc8\xac=\x8d\xf4Q\x07W\xc6\xdcj\xd7n\x0ckMrX\xd9\'\xc8\x87\x15{\x93\xa2\xb2o\xafnE\xe87\x0b\xe6%?\x1e{\xf2\xf5\xe5h\xf3+\x97\xa2g\x0b[v\xd3g]\xdd\x1a\xbdW\xce\xb1\xdd\x11X\xd5\x87&gt;=s\xe6\xcc\xa70\xce\\:H\xd7\xf07\x02+\xef\x15\xf2\xe1HARX\xb6C7r\xd0\xaaCO\xce\xf6\xae\xd8s`\x96\xc3g\xa3\xb6\xb1]\xd1m\xf0I^\xf4f[N\xed\t\xc3Z[e\xb7\xd9l\xeb`\xd8Vm:\xfe\xde\xa5\xc60\xac\rd=\x9e\rIQ\xa1\xb6\x1f\xbf\x06\x1b\xf9\xdclo\xa0\xfdl\xee_\xa0\xfc9\x15s\xb3\x9c_\x86q\xed\x8c\\\xdbzpW\x04\xd6\xce\x99\xab\x7f\xf7t\xd9el\xa0\x9c\xcbd\xd2o\xb7%\x87\xb5\xfdU(z6|g\xb6\xd7\x83\xbe\x97\xf2\xfa:\xb4\xf9\xc6\xfb1~\xba\xed}\x1d\xd7\x91\xb6\x88G\xfc~o\x04\xd6\xcaG\x1e\x94}r\x0b\xb6\xd6\x9e\x15d\xce\x89\xe4\xa8l\x97\x0f\xe6\xc0F\xa6\xccz@&lt;g\xd9Jd\xdfQ]\x153w\xe7\xdb:\xae\x1b\xad\x91Kk\x12\xc2\x02\xd0\xc4g\xc8\x8c\xb5m\x8f\xfe\xf3\xdd\x19\xe6;^\xbd\x03\xef\xe1\x9cY\x8f\xcd\x7f\x81UDk\xd9\x8e\x19\x0e\x10\xc6unW\xb6n\x12[\x04V[\\3\xb4V\x93\tW\xd6=r\xfd\xf8\xd1\x19\xce\xf6\xc7\xc6\x8bX=|\x8bw\xf5~\xf0\xfff\xae\xe5\'\x8d-\x8c\xa3Uj\xabT\xadm\xd1\xda\xdb\xf6V\xd36m\xd36i\xda\xa6\xbd\x8b;\xf3?\xc0b\x88\x9d\xdeP \x06Hx\x04\x17,H\x86\x10\x10\x12dA$\xc8K\x126\xa0( $\x06c\xc2\n\x16\xa8!\xc6\x85!iHt\xe7\xe3\x9f\xb8\xe7\x0c\x0fg\x98\x01AQ{V2\x0f\xcfo\xbe\xf7w\xce\xf9\xbe\x12\x86\xe0\xbb\xcb2\x9aqqWp\x11\xae\xda.h\x05\xd6\x0c+,\xd1i\xd9\x94n\xd4]\xd7\x9e\xa0\xbb\xd8\xd9O\xa5\xf3\x04Lv\xc2ka\x07\xfd\x0b7\x0f$\x11\xaa\x1ae\xfcX\xac\x1a%\xb9\xb1\x15XQ\t\xf9p\xae\xce\x94\x1a\x8fP4\xe69\xfb\xed\x80\xba\x95}\xf5\xa5\x95\x93+#@e\xb53\x19\xfa\x7f\xd4,Tq\xd9\xcc\x82sa\t\r\xe4\xa3u\xdf&amp;Z]&amp;?\xac\xf6\x9f\x05r\x89\x02A\n#-\x9do\x19\xb6\x01\x0bU\x08/\xd1gR\x1eT\x97\xd2|\xc7\x9b\x14X,"\x0f&gt;\xc2F&gt;\xb9E3\xa5\x1a\xef(y5\x99\xaf^\xd9\x0f\x03\nh"\xad\x95\x95&lt;\xfe\x0b\x98\xae_\xbeP\xddT\xd8\x8a\xafJ\xb0\x94Z\x864\x15y=\xb9\x1a\x82R\xa5\x1b\x9fvV_\xf7W\xf4\x06\xf1\x12\xe0\xdb\xa7\xffj\xedL\xe3\xed\xa1\x84\x0e\xd2WU\xcf\x19s\xaa\xe6\xf6\xb6\x8c\xcd\x98(+K\xa2Mq\x06\xca\xb1U!\xb6\x18\xf5\xb9*\\\xd4H2RD\xb73\xd4\xe2\xa9\x96^\xae\x07Zz+c\xba\xa5D\x95\x91g\xce\x87\r\x96\x1d\x8d%S\xbb\xf1\xd5\xeao\x85\xb9t\xe6\xd6k\xb2\x89\xb8b\xe0\t\x13\xb7\xd5#\xd9}\x93\x87\x02\xf0\x15\x11%\x93\x0c+\xc9\x8a|\x99\x9a\xc0\x12\x9a\\\xf6\xa0\x06\xaf\xb0J:gMO\xd5@M\xad\xd54Y\x91J\xe0\x80+\x93-\x9f\xb3\xb9\xfb\x06H\xa59\xa6gQ\xb1\x8d\x9d:X\xac"\x7f\xe6\\\x8c\xf6\x80\x84\x12\xf3\xd8\xec\x18\xc5\xdf\x03\x0f\x96\x1do\xfd\x9cx\xd7\xd8\x9e\x08\xc1\x17\x9d\n\x96\x89d\xea\x14\x03\x96P\xc8\x06I\xaa\x0c\xaa\xe5\xebb\n\xa8\xa4\x97\x12\x1dim[8":\x1ek\xe3\xf4[\xff\xf8\x12\x0c\xf6\xd4\xac\x140\xfag(\xb2\x05a\x05\xfd\xbf\x83Q\x8dB\x87IEB\x11\x08p\x94\xaa\x1fY\xb3a!B\xd0\xa2CB\x9e\xa7\xc2\xb7\xc2\xac\xf5\x17\xb7\x9dC\xf5]#q@\xae\x93\x94\x8a\x9d5\xbf\xe2)\x1a,=P\xb0p$]\n\xac\x1d\xc7\x0fN3\x0b[\xc5\x19K}\xc8\x1a\x96{h\x06Z\xb3\x9e\xc0\x80\x8f\x1ai\xeb\xa8`\xff\xeb,TF\x83\xb0\x81\xc8D\xb5TX\xd3\xe7n\xb1H\x8e\x83\x18\xdd\xe2\x87|A\xe0\xd0\xc7\xfb\xdbA\x05\xa4kM\x00\xb4$9\xd7D\x9c[\x86\x15+\xba\xa2\x8cH"\x0cl\x96 3\xf6\xbc\xcdB\x8b\xf1Uh\xeaOE\x97\x855\xef&lt;\xf00\xc3y\xe9!tn\x1en\xbb\xe5\x1a\xcf\'s\x18"\xf5\xce\xaf\xb6\x02K\xdf\x00\x92/ud0\xb1\xca\xa7\'\x16\x02\xc2\x9b\x98l\x93X\x1c\xce\xe7g \x07W\xa5\x9a$.g\xb06r\xee\x99):""rr\xea\x9a\xfd\xd1\xe0m\x99\x1b\xc6\xf8\xf6g\x9f\xdb?\xdd\xc9+\x02\xb3\xb5-v\xb5\x00\x0b\xc1\xb5\x9by\x8f]m\xf0\x16\xe2\xf1\x82wEo^]\xd2\xc8\x9a\xf0\xdf`1C\xc3\xc5\xbb\xc0\x19\xcf\xbf{\x80\x1eb\x81p\xbe\x05X5\'@\x0e\xe4\xbc\x91%\xe4\x18"\x0c\xf5\\\xe8t\xff\xf0k\x80h.Yj\xc4\xc6|\r\x96\xe8|$4\x16\x9e\xc0,.;~\xb1\xf2\xdd\xe7\xf7@\x80\x83L\xff\xd7\x88\x8d\xf9\xa9\x9a\x95/\xb8\x82\x15\x83\x86a\x18\xae\xd4J\x9b\xc2Z\x11o#\x88\xaet\xef\xf9\x85`q\xbe\xddR\x036f\x88`\x03V\x88)\x9a\x18!\xbd\x9d1\x97^L\xbbm\x07\x15{\xbeog[\x16\xf1\xf8\x80M\x14Zo}\xba\xe8\xa1\xe6\x07\x90\x8d\x1a\x9b\x93=36\xa1\x14\xbb%&amp;\xfd\xa7\x15=\x8bJ\x85F\x83d\x0bc\xbe\xa6\x8a8\x81\xcd\xc8\xce&lt;\xb8\xf89\xf9{G :6\xc5\xe4\x18\x1b,5\x15\x16\x9a\x06z\xab(\xe7mE\x10\xa8\xc9L\xc7 \xa0\xd9aR\x0b\x0f\xcc\x83 S\xb9u\x99:\xfa\t&gt;\xd0F\xe1\xcaO+\x8bL\x8b24X1\xa0\xf2\xf6r\x0c\n\xc2Z\x91\x9f\xfc\x8b\tK\xe8"o\x87\xf8\x97\xea:\xf0\x82\xeb\x80\x1fH\x98\x98\xb0\xb4\x11\x1a,tA\x80%\xca\t\x08P\xb3\xb9r\xecw\xc4\x80\xe5\xf0e\x00\xe9\xcd\xdc\x17\x97+-\x18J\x01o\xadZ\x96D\x99\x01\xbb\x85\x0e\xcb\x97\xdd(\x13\xcb\x0b\x95\re\xa7\xd6R\x122;\xba&gt;t\xc9\x02\x83\xfbc\t%\xac0_\xae\x17{A\x00\xa5\xc3B\xe5\xe5+\xa3\xfb\x80\x92NvX\xaa"\xacTW\x1e\x8d\xdd\xbfl\xd9\xc3\x04\xdf/\x80\xb4\x0f\xc8\xe83\xac\x12u\xb0\xc4\xb1\x18i1\x80\xf6#\xd31VX\xb2\x05(\r\xd8\x1e\x7f\xe2\xf2%"\xfd\xddP\xf7\xf5\xe2\x03\x9a:\xe2\x89j|\x0e`y(\xd11\x01\xf5\xac\xba\xc2\xb3E\x83\x85\xafY\xa0\xe9\xb0v\xf7s:0\x86G\x81\xd8\x8b\x0ch\x88\xea{\x8d\xc7\x019\x1c\x81\x02\x90\x15\xdd\te=\x17\xa07\x1e\x92\xf7\xe49+\xd5\xdcK\xbd(t\x18f\xa23=#\xfax\xeb\x1b\x80\xf4\x05\xb1\x8b2\x89H*\xaa\x0c\xf8k\xbb\x16\xba[\xec\xd0\nToR\xed\x8a`\xe5\'l\xcf\x10\x94\xf0:T\x11\xdb5\xe9\x049\xaa\xee\xb0A&amp;\x043\xd1b\x15\x96[\xd9h\xa5\xdb*&gt;\x06\x84\x8c\xda&amp;;V|w\xe7\xdd.\xf0\x17\xb2\x80E\xdf\x08\x97\xab\n\xcb\xda\x18\x15l\x1a\xa1I\xbf\xeb`\xd9\xfc\xc3G%` \x949\x8b\xbeAlg\\\xaf\xac\xe5h\xd8\xefK\xadb9Pe\xd5\xce\xa3\x8eVPN\xf4\xe4\x94$.u\x03\\\xde2\xacPST\x8a\x85\x9e\tNG\xc7?=r\x88+`q\xb1\xc7R\xfb\xe4\x06F2\xca\x9eV\x1a\xc4\x19\x19|\xbb\xe7\x13\xa7\xc3\xa3\x97\x9f\x81\x81\xc1)\x1ab\r\'\x04\x87\x10\xd6)\xeb\xb6\x13\xeeG\xe3\x90V\x01\xfe\x15\x94\xf1\xf7\xf2!\xbdt`\nVe3\x01\x93J\xb0\xa6o\xcaS\xd4\x8b\x03T9\xfe\x954\x17\xf8\xb7\'\xa7%[\x07$\xd8R?]\t\x04\x118\xdb:\xea\x0e\xc9xU\xa2\xf3\x1c\xac\xd4\xbe\x0e\xee\x00E\x13M\xfb\x96\xd9Dh[,\xb6\xb3\t\x9d\x93\xf8-$\x1b1|\xbb\xaa\x9a\xdc\xef#\x8bpQbV\xb2nb\xc6\x85\n[\x91\xc9]\xa1C\xb2\x0e\xd7\xe1\x97\xd2#\xdf\xaf\xae\x82\xf9\xe1\x07\'\xdc\x97\xc8/\xcf\xab\x99\xc2me:\x01\xcc\x15K\xc3}\xdbU\xdb\x87+\xad\xf8\xbe\xf3^\x02wSU\x81\x9f\xa7\x8c\xa5B\x1d#\xa1\xd4\x1e\xa2\x19-\\\xa2\x96\xbc\xbf\xe2\x96(]o\xc7!\xa1pC,\x9d?7yv\xc7Vp\xd8\x17\x82\xfb\xf6\xca\xfbr\xf5\rw\xfb\xcb\xed\r\xc2\xd3X3P\x98&gt;L69P\xecu\x0f_G\xf3\x85~\xfe\x02\\w\x88\x1e\xfd&lt;T5F\xa5\xc9\xa0\t\xb86&gt;W\xe2\xf7s\xaeeL\x8c9M\xe4"=a\x9bm\x90\xd6K\x1d\x91\xb0KG\xb6\x1c\x18\x9b\xe0\\\xd3\xb8?\xc4%\xf7\x15W\x9dS{\xac\x04S\xc5-E\xb8D\xa0[y5t\x9fsm\xa3\xef\xc93r_QQ\x98\x8f0\t&amp;p\xa4b~\xa8\xa8?r\xcf\x9e\\o/\xc1\xde\x11r\xefFhr[\x8e\xeb\xf616\xd7,i\x0f\xd9\x07"2\xf2\x99s\xcd\xe3\x0e\x8f\xeb\x87\xb9\xa36DH\xd42\xea.\x87\x840@R\xa9\xf6\xb8\xbc\x1bh\xe0t\xfb\xee\xa0\x9b\xf4A\xd9\x92%m\xaapR0\xeb\xb6$\xa0A\x13\xcd.\x0f\xf6\xdfL3\xc8\xc7\x03\xaf\xfcP\xe2\xb1m\xdb\x94\x1c\x16\xbe\x8b\xf2\x01\x8bm\x1bZ3\xcd\xde\xab\x81\x1b\xebY\xd6ww\xb0H\xf6z\xd0\x1a\x92a\xff\xe6\\\x81H\x1a\xca=)l\x83wo\xb2\xb1\xe1\x1d^\xb7\xfc\x17y$!\x1eN\x8e\x86\xe3\xe4\xaeG6\xd0\xcd\xbb\xe1\xf6n\xb7\x9f~xmP\x91\x1d\x102\x99&lt;\xcc?4\xa1\x99\x0fOo\xbe\xc5h\xd7\x93\x9e\x88\x1e\xaa"\x99`\xcb\xf4\x91\xab\xed\x0e\xd3\x86\xe8\x7f\xbc\xb5\xe8\xc0\xcb\xdd1\x16o}\xfc#\xda\x06\x92\xe3\xeb@wb\x16\xc7\x1d\xa5\xee\x81\xaf\x9c?h\xf4\xf5\x0e\xbcYHp\x07z\xff\xb4~\xba}O_\xbe|\xda1P\xff\x03\xa0!\r\xb7,\xc7b\xc7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xfe\x1d\x12\x01\x01\x00\x04\x04\x04\x0b\x0b\x0b\x03\x02\x02\xfd\xfc\xfc\xff\xa5\x00\x02\x02\x01\xfe\xfd\xfd\xf7\xf7\xf7\x08\x08\x08\xd7\xd7\xd7HHH\x14\x14\x14eeeppp\r\r\r\xf8\xf8\xf8\xb3\xb3\xb3\xf1\xf1\xf1\xfb\xfb\xfb\x18\x18\x18...\xff\xa4\x00\xff\x1e\x12\xf9\xf9\xf9\xda\xda\xda\xdb\xdb\xdb\x1a\x1a\x1a\x06\x06\x06\xed\xed\xed\x07\x07\x07\xb9\xb9\xb9\x10\x10\x10NNN%%%\xaa\xaa\xaa\xb0\xb0\xb0\xeb\xeb\xeb\x86\x86\x86\x12\x12\x12\x1c\x1c\x1cSSS\xd5\xd5\xd5\xe1\xe1\xe1\x97\x97\x97\xe3\xe3\xe3\xc5\xc5\xc5\xcd\xcd\xcd\x1e\x1e\x1e\n\n\n\xc8\xc8\xc8\x94\x94\x94\xa7\xa7\xa7###\xf4\xf4\xf4\x9d\x9d\x9d\xd3\xd3\xd3\xdd\xdd\xdd\xa3\xa3\xa3\xca\xca\xca???444[[[\xcf\xcf\xcf\x91\x91\x91\'\'\'jjj\xf5\xf5\xf5\xac\xac\xac\xf6\xf6\xf6\xe9\xe9\xe9{{{\x81\x81\x81KKK666000\x8d\x8d\x8dAAA\x83\x83\x83\xfd\xa3\x00&lt;&lt;&lt;vvv\xfa\xfa\xfa\xe7\xe7\xe7ccc\n\x05\x00\xef\xef\xef\x0f\x0f\x0f\xf0\xf0\xf0CCC\xfb\xa2\x00gggsss]]]\xbf\xbf\xbf\x9a\x9a\x9a\xd9\xd9\xd9\x89V\x00\xc2\xc2\xc2\xf5\x9e\x00\xe5\xe5\xe5888   \xb6\xb6\xb6xxx\xa0\xa0\xa0\xf3\xf3\xf3```lllXXX\xff&lt;3\xbc\xbc\xbc*\x19\x00~~~nnn)))"""%\x16\x00\xf0\x9a\x00EEE:::\xff\xa0\x9b\xfe2(\x0f\t\x00\x1c\x11\x00\xd1\xd1\xd1\xaf\xaf\xaf\x88\x88\x88\xff-#8"\x00\xe0\xe0\xe0PPP\x9cc\x00\x15\x0c\x00UUU\xff&amp;\x1clD\x00\xdf\xdf\xdfuI\x00\x8a\x8a\x8aF+\x00.\x1d\x00\xe0\x90\x00\x80P\x00\xffA8\xff\xc1\xbe+++www!!!\xa5\xa5\xa5\xbdx\x00\xdb\x8d\x00\xff \x16\xff\xbc\xba\xfe\xf5\xf5\xae\xae\xae\xb2q\x00=%\x00\xe5\x93\x00\xff\xd3\xd13\x1f\x00\xff\xdc\xdb\xfe\xbc\xba\xafo\x00\xc5~\x00\xeb\x97\x00W6\x00^:\x00\xa3g\x00\xd4\x87\x00\xfetm\xfe\x87\x82\xff\xc7\xc4b=\x00f?\x00\xa9k\x00N0\x00\xb7t\x00\x96^\x00\xcf\x84\x00\xff\xb1\xad\xfe\xce\xcc\xfe\xf9\xf8\xfe\xeb\xea \x15\x05\xd6\x89\x00\xc1z\x00\xbav\x00\xfe\xf0\xef\xfe\xa7\xa3\xfe\xb5\xb2\xff9/\xfeH?\xcc\x83\x00\xfe5+\xffSK\xfe\xa8\xa3\xfe\xd6\xd4\xfe\xa3\x9e\xeb\'\x9e9\x00\x00\x005tRNS\x00\xf2\x1f\xf9\x9e\xfc\x05\xfe\x01\x1b\r\xe2\n\x08\x12\xeb\xb7\xda\xd4&amp;\x8cB\xce\xee\xc6*=9\xf7\xacU\x84\x17_\xe7H|\x93\xbfv\xb1\x9ch\xa5\xbb2\x98RNn/[\x9d\x8dk\x940\x00\x00\x17\x99IDATx\xda\xdcZiL[W\x16.$\x06\x02\x01\xb24doh\x9b\x94\x99\xa6\x93v\xa6s\xef\xc56\x96\x8dY\x8c\x8d\x8dX\xcd\xbe9\x01\x1b\x1cv\xb3\xef\xbb\x08A\t\x08\x02\x08\xb1\x05B\xa3,R\x92\x91\xd2\xa0\x89\x94(\xca\x9f4\x99HY~T\xc9\xcfN\x7f\xb6\x99?3\xd3j\xd6\xf36\xfb\xd9~\x0e\xc6\xca\x9bJsd\x99\xf7\xee\xbb\xbe\xf7{\xe7;\xf7\xdcs\xce\xe5\xbd\xf7\xfeO%(`{X\xa4\xbf\xff\xee\xfd\xfb\xf7\xef\xde\xed\xbf-284\xe0\x17F\x14\xba\xfb\xc3\xf7?\t\xf1\x93P\x12\xc8\x89dK\xf8\xae\xe3Q{\xc2\x82~\x01@\xdb\xbe&lt;\xb1og\xf8\x16\xecY\x02\xfdB"~u\xf4`\xe8\xff\n\xd1\xf6\x03Q\x87C$\x8e\xf9e\xb9\x15)#\xf1\xa6\xe6\xd5\xb1\xb1\xd5\xb5\xbc\x89\xfe\xb6\x04\xb9\xd4\xf1\xd4o\xdf\xb1/\xfd\xc5V\\\x90\xff\x17\xc7\xfd\xd8\t\xd5\x99)\x13\x89\x83\xba\x93\xc64\xe4"5\xf3\xe6\x86\x1e\xd3B~\x89\x92U\xdc\xae\xa8\xdf\x04\x8b\x07*\xe0\xe3\x9d\x81\xf4&lt;JY\x85\xc6\xacu\x82B@\xe0\x0b.\x98\x0f}\x7f\xb6\xf6\x86&lt;\x86Q\x9d\xe4\xc46\x91t\xb65\x9c!-\xbe\xe1d\x91\x02\xb9\t\x0f\x13}\xc3\xe0\xec:e~RJ\xffn\xcb\xae\x83\xa2\xc0\xfa5\x8c\x9d\xaf\xd1\x15\xf1\xa1\xa8\x8a\xea.?m\xed\xd5$6\x9b\xf2\xfa\xfa\xee\xae\xad\xb6/\xdf\x99)\xb4&gt;\xe8b\xf4\xc5\x88\xbe\xae\xac/\x0b\xccL\x1c"\xf7`\\\xed`\xceX\x97\xd3:\xb6\x90\x1b#\xb8\x0c\xa5\xd9\xd5y=U\xe6?\xa6\xd9\xd5gQ\xe2}"\xd9\xfbN\x8c\xe3(D\xfa\x95\x93\xbd\xf9\xd8\x1bQ\xe7uvkiX\x170\xfeT$\x93?\x82\xf1S\x98\xa3\xb8-W\x89\xbd\x16u\xe6P\x11!\x1dr|h\xbbH\xb0\x80\xc51x\xf1f\xbc9\x91\x1b\t\xa9\x97\xe1ODs\xed\x81\xb8Z\x81\xc8i\x8f\xf3\xab\x05\x9b3c\tY\xc2\xf8\x88h\xce4\x04K\xcb\x11\xb1x\x82U5(\xd8&lt;\xa0"H\x83\xf1\xe7\xa2\xf9\xd3c\x18\x7f\x8dPl\xb6\x07X\x85e\x82\xcd\x89`\x8f)\x18\xef\x16\r\xd6\xc7\x18\xf7\xc2Jls\x9fZ\xd6\\0\xad\xf6\x00\xab\x16\x91\x9al\xbcW\xbcp\xc7_\x82W\xc1O\xc6\xbb\x19U\xe2)B:=i\xcb\x86H\x06\x16\xcbkQ\x12v\x08\xf7\x81\xb6V]\'&gt;Mm6\xcb\x1e`)\xbb\x11\xb2b\xbcU&lt;X\xc1~\xb8\x11`M\xb9\xd3\x84&lt;kK]\x83H\x8e\x88\x0b\x11`\x85\xe3~\x00p\xc5y\xa3\x89\x9f\xd3\x92\x8e\x16]C\x820\xac\xa4QD\n1\x8e\x121\x02\x0c\xc7M\xa0-\'X\x86Z=RY\xdb\xdb\xa4\x9eV\xe2y=\x02M\xe2\xdf\x8a\xa8\xad\xbdx\x01`-\xf3&amp;m{\x80V\xea\xcd3\x9a{\x06\x8c_\n\xc2\x92k\x11\xd1a|TT\xdb\x9a\x00\x12/9\xe6,-j\xb9+\x97\xb1ArR\xa6\x10\xac\xacqD\xa61&gt;&amp;\x1e\xac\xc8-x\r`\x99xvu\x9d\xde\xb5\xa5\x99\xf7\x1e\xea\xe6\xac6\xebtC{\xb5+\xae\x0cD\xea0\xde!\x1e,\xd8\xab\x97\x81\xc4&amp;\xe7i\r\xcd\xb5\xe9z.\xe4CDo\x99Jpz^\x80\xc89\x19\x0e\x17\xcf\x9dn\x05\xb3F$M\xce\x9b\xb3\xf2\xe6\xd34\x828Hl\xd4W&gt;\xc4\x87u\x06\xda\x060\xde/\xdaB&lt;\x84\xb3\xc1Pl\xbc)MF.n\xe7\xc3"*\x13\xcf\xfc\xc0o\xa1\x87".E\xe00\x0f&amp;\xed\xe5-\xfe\xb3D\x10\x16\x1a\x1d\xe0\xba\\\xcf\xa0\x1a\xea\x94\xa2\xc5[A; v\x81Y\x1by\xda\xba;J\xb8\xb4\xc7\x01\x8dBge\x83\xfc\x8a8\xba\xa1#\x01K\x0e\x88\x03\xeb\x03\x8c\x13\xc6\x11:\x97\xc47\x9c\x1c\xc4\x01qI\xc8\x18uU\xcc\xb3\rUJ\x1c!J\xa2\xb8\x1d\x82\xc0%\x98\xe0\x92\xd32kwh\n\x8d\xd6\xd8Nk\xda{\xe7\xba\xa86:\xb4.]\xb1\xe3|\x0c\xdb\xa2\x08\xb8\x02vA\x9c\xa9%\xc4x\xde\t\xd6\x08K\x1bQ,\xc5WT2~5w\x0cB\xebD\xb8X|@\xec\t\x9cY\x86\x03?|\xe7\xa8~\x07\xa8\xfe\x04)\x8ck\xf8\x90\xc2(\xaa\xeej\x05o\xf3\x965#\xb4\x06\x17\x9aS\xbcT\xb7\x18\xe3\xc0#&gt;;\xaf=\x07\x04*S\xfeG\xb7@\xaa`\x03.\xe6\xa4\xce\xb0F\xa8\xd4\xdar\x815p\xf9\xb5xM\xed\\FQ\r!\x19\x9d\xcb\x13\x06\xf5\x05\x8b\x82\xb37E;t\x88\xd8\x13*P%\xfb&lt;\xd8\x0b\x97)\x89\x88\xda\x1f\xb6= \x88F\x17\x14\x14\x1avp\x07U72\xcc\x82V\x92]\xb7\x96Ihc\xc2\xc2\x98\xa4\xa1\x97\xb14\x04\xfb\xd2Tt\x1a\x94\xcbl"\x0e\xb8\x96e\xd0-&lt;*28 \x88\xad#\x86\x06G~\xb1u/\x0e\xdc\xe6\x8d\'\x079\x14\x1e\xb2k\xdf\x8e\xc3\x87w\xec\xdb\xf9\x11]9\x92M%\x03Y\xaa\x1b\xae\x1b^\x81\xaa\xac\x84\xde\x90\'o\x8f\xab\xdc\xeb%\xda\xce\xa4\x11G\xa1\xc9B\xe7\xe2\x92\xbd!\x11\x9f\x1d&gt;~\xf8\xb3\x08\x18\x9b.\x94y\r\xcbE\x12\xa6nS\xc3v\xe5\xb9&gt;0X\xa8\xc0^\xd9\xf8\xb4\x1by\x90\x96\xb6\x91X\xfb\xcdJ\xd5\x90L\xa8r\xe8\r,\xe9\xcb\xb2\xb1\x1b)\x99rz\x00YRu\xe3da\x07\xbd\xde2n\xba\rx\x81\x8ee.:\x17\xb7X\xd2\xd8\x86\xba\xdc+*^\xa9)\xfd\xe1\xdd\x01C%\x15wH\xd5%\xd5\x0b\xa6\x1e\xdd\x88\x97\xb0\xe2\xe8!\xd3\x8c\xe5\xb3\xb3\xe5F\x05\x17\x1bh\x0b*=\xe5\xad\xed\x84 \xcf\xb2\xa4\x8csm\xea\xe8\xae\x8f\xab?\x9b\xcc\xdc\xc4{\t\xeb\xa4\xf3{\xd3\xa2\x9a\xcb\x8f\xf1XeH@o\x93X\xc3\xf0[\x9f{\x0b\xcb\xed\xe5\x90m\xea\xb1\xd4\x15\xcbuK\x0b#\xedt\x86\xca\xdbyX\x12\xed\x9f\xd66\x85K\x1b\xe2w\x8a\xf7\x9eDcY\xe7\xb4\xadn6\xae\xce\x96\xd30l2H\x85t\x94\xc3\x92[\x8aq\x93\xeam\xea0\xaa\xcb==\x9a\xdf\x1c\x89\xb3^\x14\x88\x06\xf4\xf4\xc8T\x01\xa7d\xe5\xad4\x19\xcc\x1e\x1etNn\x8eDo`\xe1ij\xe4\x93\x94\xc9\xc9\x8b\xdeF"Z\xcc\x11&amp;Q\x97\x95\xb89\x12\xd3\xbd\x81\xb5\x0c\x13t-\xd0\x99\xf3Y\xf7J3\xaf\xa1\xf42[\x14wF[\x90\x85\x13\xc9\xbb\x875\x04\x0b\xb4\x1ds\xb0&lt;\x8b&gt;\xe9\xb6PsU\x0c]d\xda\x0c\x89vX\xed\x19\xb4X\x06\x1f\xbb\xfb\x87L\xa4\x1af3D#r\xf7)\xf6\x86Yu\xb2\x00\x89\x051t\xed\xcb7m\xc9\x8a\xd8\xc2\xbf\xaa\xc1\rWeG1\xbbD\x13\xb4B\xa7\x18\\CO?\xef\xfc\x80\xeb\xa1\xa37\x11\x9fI&lt;M\xd0\xed\x16\x9b\xb9\xa5\x1bU\xb9\xd5\xda\xeerWy\x8eS\x0c\x9e\xa6\xd8\x06mi1r\x1cm\xb0\xcf_2%\xc5M\xc1\xe2\x91\x88a\xc8\xac\xb6\x9b\x8dM\xd5\x86&amp;6?L\xba\xaaq\x96,\xa5\xcd\xe1\xa3\xcc\x17{\xdb\x9b\xef5O\x0e\x7f\xcd\xd9[\x86\xcc&amp;hWl\x01\xd37m\x15\x13t\x9e~\xcdQ\xcbp\x7f.\xddt\xd9\x99\x0eme\n\xb3\xf0\xceY\x06\xfby\x01B\xcc\xea,\xad\xadK\x8bZW\x12\x0b\xb8n&gt;\x92(U3\xb0XK\xd1\xf7Po\x99G\x9c\x92\xaf\xf2\x98\x19*\x14+Z\xcdr+\x04\x16\x00\x84\x0c\xa5\x199\x91H\xd0\x92\xddL}\x83%{\xda[LH\xe5\x13S\xdf\xdarA7\xf5\xbe\xf3\x90h\xa9\x8d\x84/\xd3\xf7\x14D\xdfzM(\x90\x92\x83ghO\xe8\xd4QRcg\xb0P\xcd\xafBo\x1e\x96\xb4\x13\r\x83m1\x13\x96\\\x1fX\xaeg\xd2\xd2\'THa\x9f\xa5\xa0||\xf0\x9a\\XF\x14\xd6\x12\xe6JY\xe5jW\xbe\xc2\x92j\x10\xb9\x02$2\xb0\x96\x15fu\xf6\x1c\x9d\x95\xe6\xeb\x11):\xad\xb7\xb3\xa2\x8f\xf5$Z4\xca^\xf5\'\xb2\xdd\xab\xf8j\xf5\x85\xc4\x92\x15\xd2\x9d\x04$2aj:)\x07W\xc5p\x03q=\x1a(\xe03\x896\x12M\n\xcb`\x8c\xcbQ\xc2\xa6#\x88!\x15d\x85,\x89\xb2\x8b*TkO\x04)#\x9e\xa9\xacC\x9b\x90\x1c\x19m\\:5\xf6\x15\x16\xe7\xb7\x00\xd1"\xf5\xd5\xf3\xe4\xc9\x1dp=\xe9\x8ej\xdaU\x18\xed\x9c\xf2\x9e\xebF\xf3\xfa\xd1W\x9c\xfc\xfc\xbd\xcb^\x93\x9c\x95\x83\\\x18\xf4q\xf3\xa9%Z9\xf8-V\xeayE\xc0|jQ&amp;\xc8n\xbb\x92\xf8\xfd\xfdhF\xd6\xbfuSWu/rC\xe5\x13\x890N&gt;\xa5--\x95\xe9]\xe6\xd7\x00q\x07\xa2\x9e\x99\xf8\xd3\xfe\x95\xc6\xf5\x8cFu\xff\x15\xb5V_8\xc1\x9aXs\xb1+\x1fH\xa4a\xf5\xab\xd00\xcddi\xde82.\xf2\x87+\xa7K\xa8\x15|\x12\xff\xf5\x8a\xfa\xfe.\x95\x82\xf5g\xea\xf2\xc7o\x9c\xa2\x8a\xe6\x11\x9dZ\xe0\xf4l\xf3$&amp;\x19\x89\xb1)&gt;\x96Z\x89}\x88X\xa9A\xb9\xc3\xb18B\x9dH\xc9\xe6\x89\xbd\x8a\x84n\x01q\x04\xfde=::\xf5\xa7\x17\x84"\xf4\xb9S\xd4wU\x1e\x83\xdf\t,\xdc\x9c\x86\xba\x87F\n\x01\x96\xf4"Bc`Su\x13\xccp\x16D\x1f\x0e\xb7\xf2H\xba\x15\xbd\xfew\xf0\xb1\xdf1\xcaR\xfc\xed~\xf4k\'\x12{&lt;\x9c5z\x07\xeb\xf7X\n\x0b?\x83\xf9\xd5\x0cdR\r\xd5j\x88\xaa\x16\xd3\xd0\xfc\xf9;\n\x14\xc7\x04$V\xe6Dj\x88G\xe2-\xa0\xef\x9f\xaf^\xfc\x00\xb0\xbey\xf1\xef\x9f\xe1\xcfs\'\x12\xaf\x08\xc1\x9a\x84\xc77\xbc\x81u\x02c\x1bA\xf5\xec\x9ex\x05(J+\xb26\xcc\xe4\xc1{\xd5\xe6kI\x06\xe3%\xcc\xc0\x1bD\xa6\xb9\nGI\x17`\xa5\xa6&gt;[\x7f\x04$&gt;Z\x7fF\xdd&lt;w\x8a\x0b\x05a]\x82\x1e\x8dX\xb21\xac\xf7!\xa3!h\x9e\x8b\x01F\xccL\xa8Y\x9f\x9d\x8eV\xf2\xef\x98\xd8\xf5H\xc1\x1a\xc48\xbb\xc6Q\xc4\xa5\xb4\x95\x1a\xcd\tu\xf3\xdc)\x8a&gt;#\x04\xeb\x0c\xfcr\x01K"7\x84u\x14c\xd8T\x8d\x8es\xb7\xc6\xd6\xb9S\xc9]\xc6\xa9\x894\xd4b?\xa5\xb62\t\xa2l\x9cg[\x0eL\xac\xbcv\x825)\x04\xab\x17z\xa4`I\xd8\x86\xb0&gt;\xc5x\x90\xa0\x0e\xfb\xaa)^\xeac\x03\xf6*\xa2\xe8\xe3Z[@Ae\x00\xeb\x9c=tg\xb4\xf5\xec\x1f4\x89\x7fHu\'\xd1$\x04k\x10z,b\xc9\xc6\xd5\xc0\x0f0\x9e"Ho\xdfhf\x08b\xaf+\xd2H\x87\x81m\x9d\x05 \x94\xb6\x929\x12iX\xa9\x8f^\xbd\xa1M\xfe\xcd\xb7?\xa5F;`\xd1k\xa2_\x08\xd6E\x08-\x13\xf0\xa1\x8d\xff\'\xee \xc6&amp;\x18\xe9\x1a\xc7\xe18m\xdb\xb4h\x08\xb1\xb2\xb8\xce2\xb6\xa5\xeerl&gt;\xb7\xa2\xef\xff\xa0\xb0;\x887\xffy\xe6\xec T%B\xb0t\x08u\xc8\xb0\xdf\xc6\x95q\xff@\xea\x84\x95pu\xbf\x89\xd6\xd6\xd6b\xd6;\xe7\xc2\xf5\x19\xfa\xb0 \x86\xfaG\xa8^H\xc4\x14\x0e\x87yk\xfdG\xce\x9d~\xf5_Z\xae5\xa8\xa9\xf4\x0c\x0bL\xc5\xae3V\x9d\xb5\xb6\xdd\xdd\x99\xae\xdb\x9d\xd9\xed\xdavf\xdb\xef=\xcd\xed$\x82\xe1\x16C\x06\xb9# HD@\xe4*\xa8\xc8EA \n\x044\x8an\x88Ju\xb1F\x81\xc04\x11\x06\x16,"\x97\xaeu\xe1\xc7\x02K\x07\xbc\xfd\xf0&gt;\x9dz\x99vf\x7f\xf5\xfb\xceI\x80$\xe7\xc4\x10\xf1\x1bf`\x92\xcc9\x0f\xdf\xf7\x9e\xf7\xf2\xbc\xcf\x1b\xe2N\xbf\xfd;k[\xbb\xe2v\xe0\xe0E\x85Ky\xba\xfej\x805n\xa8#}\x98\x9b\x1dsYO\xb7\x12c\xc1~\xeb\xc4\x82\xaa\xf4\xbf?0\xc1\xe7\xcf\xd6\xe0\x83q\x91\xe0\xb3\xe5\xcc\x8b~\x11a)\xb9\xc5\x08j\xa6\x05\xfa\x99\x1b\x0c\xf8\xcf \xa8\x18Q\x17\\\x80J\xc2\xee\x86\xedSt\xdb`\xd9B\xf5\x0f\xd6P\xfd\x1fk\xa8\x0e\xae2&gt;0\x1f$\tv\x1c\xa7\xce\x0b\x9fz\x8e{]\xff\xb5\x90\x91\x88\xa8\xfd\xfc\xa8\xce\x87\x08.S\x8cJC\xf0\xd5\x02Xd\xfd{.\xb1\xf9\x97\x95Z\x1e\x9c\xb1\x040\x84S\x16\xd7\xa5\xb2\xf0\x1b\xfftO~\xb3\x11"S\x11uV\xc8\x87*\xdd\xbf\xd9\xaf\x9e\xc0\xaa\x80$\x89\x1d\xd7\x80\xfe\xf7\xd7\xbf\xd9\xd6?\xbe%\x9e\xed\xc5\xb3&gt;s\x1d\xf3\xa1\x1b\x9c\xd7#b\x8f\x1d\xe0\xeb\xedV\x8bU\x9a\x82\xa8\xa8 &gt;Tg\xa9\xca\x88`\x02\xab\x08\x8e \x87\xdd\xb2[\xf5\x8d\xed\xaf\xf4\xd2},9\xc7-\xfa"%\xd49w\xfc\x03\xa3iK@\xa4\x01\xc8-\xc6R jG\x07Co\xcb\x99\xdc\x99\x17VxP\x8f\xe9.\x94\xb3\xa8\x12#9\xaf\x96\xcfd\x93\x1b\xdci\xfa|\x0cp\x08Q\x12n\xf1_z8\xceY\xe4]\xc4\x83\x86\x89\xc5\xfe\xf6\x84\x91\xdd\xca\x8c\xd5\xdf\xe9\x81\xcd\xd6V\xc1\x1e\x01/\x9f(w\xc7?0\xfe\xf4(_\xacHN\xc1\xd7iR\xd6\x10X\xf1\xd0\x89\x1cwk\xce\x89m\xfa\xda2\xf3\xa0\x1d\xe2\xc2\xd8\x17\x14\xe9\xdc{\x8f\xff\xafR\xb1{b\xa5U\xbe\x10]\xc3D&lt;gT\xbd\xe4\xde-\x97\x98\xa0RE8&amp;\xa7C\x0cKT\xfb\xe7^\xcbM0\xbf\x9c\x10Cy\xa9\xf5Un\xa7\x05\x82z\\\xa8\x01|\xeeV\xebn\r@8E\xddp\xde\xf6d\x96\xd4\x0bm&amp;\xbd\xfbT\xa1\xe88\xb5`\x8fd\xc1\n\xff\x9c\xc6mV_.0\x1a\xee?\x11\xd9\xf2\x8b\x8bJnXE\xd8\xa1\x1d\x04p\xaf\xfb\xf9\x05C\xb9\xcb\x9cl&gt;\xf9\x06s\x8f\x94B\\\xe5\xa7^\x8f\xc5\x9b5\x0f+|{gD\x90-\xbcL\xea\xc7\xee\x0f\xd3\xb4^\x1a\x11\xb0\xc9&amp;:\x05\xeel\x0bI\xda\xc0\xd7=y\x1eNm\x0e\xe0;\x16:\xd9\x15\x83B\xd6\xb1\x07\xa5\\\x12e\x80_\xa2\x15\x96:s\xc7\xed\xb9\x807\xa9\x9f5\xd1*\xfa\xfe\x10\xad\x99$\x0f.I\xccb\xfcx\xce\x10\xbf\x19\xe5\xb6\x9e\xe4W\x00\x8d\xf8\x8e\x0e\x9e&amp;"\x8f\xb5\xa1\xd4\xa2\xb4\x16\xe9\xad\xed\x99\xc2\x10ba\x12\xff3\x05s\xa9\x99\xc088NcL\x86\x91\x07\x03\xf7h\x83\xd8L\xf8U5R\xf3\xb9@\x116\x8a\xadn\x0b$\xbc\x01\xda0\x84\x9dNvE`\xc9N^\x12e%\xa0-\xa1\x05\xf8oEL\xe8\x02\xf2\xaf}\x8c\xa61\xa4g\x93b\xb1V:H\xbf\xd4\xce\x10\xf3\xcc9\xce\xab3N\x0e\xa3\x88\xc5\xbf\xeff\x0f\xdf\x0b\xa47([\xf1c\xdd+\xb5\xd59\xed\x96\xa67mB\xd4\xf6\xe4zJ}=v\xc1\'\xa6_\xeah\xd5\xf8\x93~q\xff\xc0\xd3\x91;\xd3}\xf4\x8c\x919\xc6\xed\x1d\xfc\xbc\xbe\x0cW\x8f\x00\x7ft\xb3\x8b\xfe\'&amp;\'\x95d\xd9\xd9\x15\x0b\xab\xb8\xb1\x84\xa8\xba\x15\xc91\xf1U"\x92\xd8Y\x86~4\x92\xad\x9a\xd0\xa94}=\xda\'\xf7\xc75\xf8\x1c5\xda1z\xa0G\xd7\xc7\xa4\x1b\xbck\'B[\xd2\xdd\xb5xl\\\xbe\xb0\x8fb\x1e][\xeb7\xdc\x96\xfe\xaa\x8b\xc9\xaf\xe0\x13\xe5\x85Y\xc7z[\xcc\xf7\x9e\x9a\xee\xaa\x06\xf1\'\xee\xd1\x9a\xd7\xc3\xc6\xd1\x11\x9a]&amp;\xc1\x03\xcd\x0b\xedk\x93\xd6U\xd2\x16\x19\xc5\x94\xc9+\xdd\x15m\xbc\xe7\x05\xb7\x08\x1d&lt;oW\x94]V\x8e.\x08\xdb\xf2\xf1\x01t?Q\xa9TC\x06\x83\x11\xb4S\x86\xc1\xf6\x19\xbcO\xb4\xee\xce\xf8\xe3\x81\x1e\x8bt\xe4\xf9\xf03\xb3\xa9\xc7\x15\xacP|\xa9\xfcE\xc8\xe0\x96\xafd\x04Qy6\xbb\xaa\xa5\xeca\xc5\xb4^\xab!/$L\xabhU_\xfb\xd8\xa0\xa0OwwV\x87\x0f\xcf\xa4o\xd7J\xb5C\xa3\xa3b\x93~\xc0`\xb9\'p\x05\x8b4\xed\x02\x00&gt;Y\xccxC%\x0e\xc9\xa1\xd6\xfc\n\xd9\xc3\xca\xde_ce\xbe-\x1aZe\x18\xb5\xf4&lt;\xd5&lt;7\xd0\xf4\x9d\xd1\x1e\xadqtl\x04\xe3{l\xd1\r=\xa4\x1f\xbb\xeed% B\xeb\x81\xb7\xdb\xb0~\xe7\x0b\xad\xd8\x953\xa4d\x84?r\x805\xc7\xb0\xcb\n\xc6Td\xd1\xf8G7\xf6P;&lt;\xf8\\\xc3\x98\x96j\xe0\x91\xc9\xd8?1"v\x85*\xf6"B{\x016,B\x0f\xb4\x12\x82\xb0\x0fW\xe3":9\x8a\xe2\x85E\x95\xb4\xebXP\x86W\xd3\xda\xc9W\x0c&amp;l\\\xb3\x8f-\xb3z}\x9fv\xda\xe5f\xd5!F\xdd\xb4\x18\x11\xdc\x17 \xb8\x8c3\xaa\x08\x88\x88B.`%\x8a\x7f\xc4N\x9dV=5\x0b\x1e\x99\xf0\x81\xd2\x9a\x07\x8f\xfa\xc5R\xd0\x9a5\xc6q]\xbb\xeb3l&amp;Q\x7fq\xa3\x10\xb8\xb4.\xc0\xb7\xcfL\xf7G\xae`Q\x17\x8c\x06Z33l\x1e\x1d\xc1;ex6\xd9\xaf\x1d\xd2\xcf\x8e\x9b\xfa\x86\xefh\xefN\xf5\xbbD\x15\x99\x88PY4\xacY\x8c\xa6\xeb\xbd\xf5 \xcd\xa3Pi8\xe5\x1a\x96\xa4ppv\xc8&lt;0\xa2R\x19&amp;\xee\x99\xdb\x07&amp;L\xfaQ|\x90\x0f\x07\x1eN\xb4\xbfa\xb3\x0e\xe2+]u;\xf2\xcc\xcf\x11\xe48\xa2\xe0\x80\x85z\x95\xe2\xa1)\x95j\xaa\xcf\xd2?4\xa6\xa3\xa7\x1eB\x8f\x86\xd6Y&amp;\x8c\xba\x01\xd7\xa8pu\x85\x14A\xe0\xf3\xd3E\xc1\xc2YD\x85\x15\x88KX\xb2\xb4H\xbd\xc6\xf0\x08\xc4z|\x8a:=\xc07\xd1\xf7\xe9\xc7\xd3}S\xfa7\xf4\xb9o\x871#I\x1b\x17\xad\xf5\x96\xeeFv\x13a\x9c\x87xn[\x87p\xd8&lt;\xfc\xda\xa4{\xae\xef\xc1\xc6T\xaeh\xe9\x1f\xef\x19\xbd;(~\x03\xac|\x8a)\xb4\x17;\x92\xf4[\xf6\t\xe6\xd9-I\x13\xf3Zm\x1c\xeb\xc6\xdb\x8d\x16&amp;\xfa5T\x87\xd5\x96\x15j\xb5\x8f\x86\xdf$\nh\xc3u\xdaV\x01x\xadZ$\xacU^ \xcf^\xa0o\xb5\x83U\xb6\x19:\xf64\xc5\xfcE\x04\x02\x82\x8bU*\n\xb3\x02zkN\x1dFQ\x1dlM(\xdc\x16\xc9\x0f\xeb\x10\xbeN\xf5b\r\xde\xaa}\xbd\xc2\xb1[2\xc9\x96\xe0\xae\x0c\xa15\r\x966\x12D\xe5\xb99\xd57\x9bq&lt;\x97tC\xb4\x1a\xa1\xbc:eFr]J\x17\xffH\x97\xa8\x1e{E\xb9\':go\x1fP\x16;\xc3J=\xb8-\xc9\xaf.\xaf\xf6\x18\xe1\x14:\xd3\xac\xa2\xd7\x1c\x86q\xdeU\x88A\x86\x92AAI\x8d\xa4k\x8fd\'\xefv\x91\xb1\x9cJ\x80_x D]\r\x82|\xaeC\xacO%\x9c\x1b\xca\xbe\xb67\xb5\xf8k\x8c#\x88\x00T\x9e\xb8^n-\xc6\x92\xae\x964\x85\\\xa9\x90\xfa\x9d\xccM\xe9\x8e\xe3\xe4\x0cp\x82\x8fdE\xe0\xe3\x89(|\xddO\xe6\xc5 \x0e\xb6%\xc9\xbf\x16FQ\xa5\xbbHK#vwH\xa7\x88a\xa4\x0bA\x18J\xa6q\xa3C\x1b\xc8\x08`c\x10([os\x1d\xa4\x80\xd4\xbd9\x02\x0f\xd5\xc4\xab\x99I\x19\xce\'Q\x16*?Q\x80\x0b\x1a\xb1_\xd1\xfe\xbc^T\xba7$\xad\xb4\t\xefZ\x81"\xady\xd7q\xd2F\x11\x1c8\x9e\x1d_]Y\xc5)\x8e\xc3\xe5\x8a"\t|=\x1b:\xc5.5)\x91\xc7o\x1dg(\nA\xd6\xc9\xc0#BQ`\x196\xf3KBf\xf8\xa1\xfa\xf4\xce"v\x87\x82\xd2\xb3\x94\x9c\xd3f\xe2\xcb\x849\x11x:\x06\xb1\xe23\x80@&gt;w\x1a\x16s}^\xdc,\x8cP\xbe\xc9}.XD\xf9\x92\xe7\xe7\xe9f\xe1\x87\xf1C\x08\xf2\xe7\xf7\xf2\xd9W\xc0\x93\xa5\xccc[\x1a\x9f/\xf3t\xfd\x1e\xa0P\xc2\x0b+D\xe8\t*\xd2\x02D1\x02\xf0\xf1|0p\xf9\x1a\x90\xe6\xf3\xc1\xba\xec\xe7\xd1f\x11\xd2Rr\xcb]\x9a\x86{\xfd\xc1\x17\xa2\xbf\xe2\x86\xd5\xe5\xd1^\x81\x1c?D\x92:\x80\xb5o\xf5\x1d\x03\xb8\x06*\xc8\xe6\x82e\xd3\x14eT\x87\x84\xc4\xdb\xf9\xcc\xc6\x90\x90\x92\xa3|\xa8\x1a\xf6\xe3\x0b\x9c\x8e\x86\xf5o7\xdb\xf9\xeb\r\x0c\x93\xea\x04+an\xaf\x8a$(\xdc\xae\x1c\xdc\x8c\xd0\x19&gt;T\xd2\x9b\x84x\xc2O\xe1\xdbN\x94\xe1\xdaL\x1c\xe3\x04+f\xde!\t\xe2\x91\xac\xc2\xa1\xfc\x0b\xe5\x83\x15 \xc3G\x88c\xc3\xea\xb7\x9d\xcaX\xf1\x1b_\x88\xb8\xe8\x00+a\xa1\x9b&lt;\xbf\x89\xfa\x8e\xc9\n\xd2\xcf\xcb\xb1#m8\x8d\x9a\xf9R\x87s\xf5D)\x08\xe0\xe5\xbd\xecm\xd7\x8a\x8d8+P\xd8\xc1\x8a\xb7\xb3v\xf15\xaa\xcc/.?/L&amp;\xdb\x92\x9d\xbb\'\xb0p\xdbm\xbe^\x91\x9a\x15o\xf9\xac[\x82\xe1\x90U+\x01\xae\xd6,\x80\xf5\xbd\xc33\xb8\x0f\xa1C-\x0b\xc8f\xffr\x11w\x19Mx\xea\xd4X\xf0}\x7fI\x06kpld\xc8T+\xac\xcb\x8eY\x94 \x1c%\x8a\xce\xaa\xcf\x04^=\\R\xcb|(\x8f\x8bY\x16\x10\x13%=\x9b\x8dK4\xee\xf31\xf6\x03]6XN\x8a\x14ah7\x92t&amp;\xb1AQ*\xef\xcc\x94\xa1\xef\xc5\xdc$\x1b\x15\xdc\x81=\xd6\xaa\xa5A\xb5l\xf9\xa7\xbe Oaa\xc5;zQ\xc1\x81\xdc\xa2\xe0\xb9\x91\xb1\xac\x1b\xf9G\xdar\xb9\x9at\xdd2\x967Z\xff\xe5\xd2\r\x1f\xe1\xd4+\xa8\x97\xf1\x0cN\xbe\xbd\x08\xa1\x82|d\x1d\x19\x93\xc6\xa0\xb0V\xe0\x985\x15\x07J\xd86\xb2\xcfR\x0e\xb8\xadX\x8b#?\x11\x17\xf468\xde\xf0*\xae\xf7\n\x10u\x93e\xe8\x8akbx\x1d\x16\x8a\x97.\xf5\xbc\x967~\x1c+\x88\x8a.\xa5\xc1\x89&lt;\x0bn\xc0\x95\xbb\xa2\xc1/\x16/\xb9&lt;\x89\xfcr\xb4\xadS\x12\x16\xd5\x92\x0f}\x7f\xe9\x05PE\xbap[\x1d\x8eh\x17:+\x86od\xe8\xd8\xb9\x05\xdf\xd6\xe2\xe0\xe6\x0f\x91\xa6b&lt;\xf6\xc1\x9f.\xf9\xcc\xdd/\xd7\x03\x1c%\xbd\xa8\xb3\xadv\xb7\xecB\xc1\xb1 JDi\xa2\xda\xf9^\x99\x1d\xac\xc8\xc3\x04ps\x06\xc0G\xef`,\xf7\x83\x0f\xf19\x92\x99\x0b\x85\xddM[\x18.!\x07\xc9\xce\x9d8\xc6\xae\xef\xeca\t\xcf\x90\xaaww4\xf8\xfe\xfc\x9d\x0c\x0b\xaf\xf3\xc1Q\x8d\xf4X\xea\xe3\xec\x9f\xc4\xf0XH\xcaF\xbb\xa5\xad\x07\x0e\x90\xca\xe3\x92\x1d,?f\x0e\xa3\x04\xfb\xe0\xd5\xefh\x84\xf9\x13\x8c\xab\xa2\x0c\x9fT\xe9\xa9y\x9b\x96V"j\xefm\x08A\xd9\xca|\x14\xdc\xc6\x92\xa2\xf3\xb0\xd2\x19Q\xfaN\xecW&gt;zW\xdf\xcc\xb2\xec\x03l_\xe7\xb7\x12\x7f_9\xdf\xf5\x8a&lt;\x8dPv\x00.g*kQ\xaeXY\x95\x196\x0f\xeb\xff\xb3\xec\x04mysh\xb7\xa1\xa5\xab\x18\x18\x84\xf9\x81\xce\x00\xed\x9e4OGLCYz\x01\x934x\x16\xdbtI&lt;(u\xdb&amp;C\x9b\xabV\xe0\xb1(\xcfiff\xec\x1a4=\xc2\x0cT~Y/\x025s\xea\x11\xd3\xa0\xa1{\x16\x9bW\x83\xe6$\x8a@\xfde\xd3\xa06h\xb5i\xb3\x1dT0\xf47\x03\x1b\xaf"4&gt;\x82\x8bI\x02\x98\x8a\xbblA{\xf3\xe3\x11\x95\xf6\x84\xa4\x86\x90ns\xd3#m\xc9\xc5SZ`\x8d\xc0fp5\x9a\x01\x8cPVC\x9a\x9f\xa8\xc6\xa3\xc1nf\xb9g.(\xc0\xa6\xfb\xa1\x1e8\x12\x88\xbc)\xcfz!8&gt;k\x13\x80\x8dQ\x03\x06:\x00\x11f\xd0.N\xd0\xc2\x11\xcf%H\xad\xe7DO\xe4\xad-k+\xc0\xd3C\r\xc0\x08\xe4\xe6\xa4\x87\xab\x188\x0c\xd8\x81\x11\xd9\x08j\xdf;8#f|\xad\x9c\x11\xbb\xe6\xadZ\x1dA\x0b\xf3\xd2\x80\xddT35.\x06:\x01IA\xd0~\xd7\x14P\x8b\xd5;\x07\x9e\xc26\xc2YI\xe0\x95\xf4\xb6\x95\xc0\x0c\xc9\xae\xc2\xc3@7\xc0\xa6\xc9\n\xec1\xcc\x00/\xeb\xa9wC\x9d\xb9\xb7,\xf3\x02\xef\xd3\x08N\x02E\xa02\x03]\x81\x1c\xe8\xa0\xb7\xd2\x14\xb0\x03\x8a\x9a\x10y\xd2\xfe,dgg\xdd"\xa0\x18\xab\x00/\x03\x9d\x01\x9f\x04\xa8\xc4Ze\x0b&gt;\xe1\xad\x1eVKfyAvQ\xf7\xe4\x81z\xdar\x03p\xd2"\x87\x9c\x12h\x9f\xc1"Hs&amp;\xa8=\xc1\xcc\xbei\x05d]T\nhh\x90]\x96\x89a@\x00\xa7\x1e+\xa8\xda\xf3\xea\x86lJ\x8eI\x86\xcc\xc5\xf44\x80\x16\x19\x08\xc91\x0c\x180\x12\x03mn\xefLw4\x87\xcf\x0f\xa5\x1d\x01\xf5B\xc4Ex\x18\x06\x10p(\x83v\xf4[\xba\xae\x80n\x92\xaa\x03\x9fu@\xe3\x8a\x99\xa8\x19Qp\x123\xcbt\x0b2\xf5,\xde\x08\xda\x9e\xc4\xae-\xc9\xc10\xf0\x80KK\x0c\xdc^\x98\x07\xee\xe23\x9a\xe8\x0e\x06GA\xa2R\rr\xae\'\xbb\xa0\x88\x02\xc3`\x02\xbc\xea\xfc\xac\xccj\xba\x0c\x83\x0e\xf02Q\xf1\x9cZ\x00\xfbYY\xa9\xbd\x06{\xe2\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67003472222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1963</v>
+        <v>1977</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -630,20 +630,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xff\xff\xff\xff\xff\xff\x00d7\xbb\xd6\xca\xb3\xd1\xc3\xfd\xfe\xfe\xd5\xe6\xde\x01e8\x11nD\xe5\xf0\xeb\xf7\xfa\xf9\xde\xeb\xe6\xfc\xfd\xfc\xfa\xfc\xfb\x06h&lt;\xa8\xcb\xbb\xf4\xf8\xf6\x9e\xc4\xb3l\xa6\x8c\x0bk@\x04g:\x18sJ\xf9\xfb\xfa\x15qGA\x8cj\xef\xf5\xf2\xfc\xfd\xfd\xc4\xdb\xd1Z\x9b~\x1buL\x93\xbe\xaaK\x92r9\x87d\xf5\xf9\xf7\xf0\xf6\xf4p\xa8\x8f\x03f9\xb9\xd4\xc8\xc9\xde\xd53\x83_\xe5\xef\xeb\xe8\xf1\xed.\x80[+~Y\x0emB\xc6\xdc\xd2\xec\xf4\xf1\xeb\xf3\xefb\xa0\x84\xf3\xf7\xf5\x07i=J\x91qy\xae\x96\xfd\xfe\xfdC\x8dl\x9b\xc2\xb1\x84\xb4\x9e\xab\xcc\xbd\xe0\xed\xe7\x0clAj\xa4\x8a0\x82]%{TL\x93s!xQ\xc1\xda\xcfR\x96x\x1dvNF\x8fnY\x9a}\x7f\xb1\x9b\xa0\xc6\xb5\x8e\xba\xa6\xb7\xd3\xc6\x95\xbf\xac\nj?\x81\xb2\x9cn\xa7\x8e\xcc\xe0\xd7\xf7\xfa\xf8\x88\xb7\xa2H\x90pW\x99{`\x9e\x82\xd8\xe7\xe0g\xa3\x88\xca\xdf\xd5\xce\xe1\xd98\x86c\x1fwO\ti&gt;\\\x9c\x7f\x9c\xc3\xb2U\x98z\xbf\xd8\xcd\xaf\xce\xc0\xc7\xdd\xd3\xb2\xd0\xc3\x82\xb3\x9d\xcf\xe2\xda\xe3\xee\xe9\xe9\xf2\xee\x01d8\x17rI\x99\xc1\xaf\xfe\xff\xff)}W\xdd\xea\xe4f\xa2\x87s\xaa\x915\x85a{\xaf\x98q\xa9\x90\xd4\xe5\xddr\xa9\x90\xdb\xe9\xe3;\x88e\xbd\xd7\xcbT\x97y\x13pF\'|V]\x9d\x80&gt;\x8ah\xad\xcd\xbf@\x8bi\xba\xd5\xc9\xd3\xe4\xdc\xbe\xd8\xcca\x9f\x83\x91\xbc\xa9\xa6\xc9\xb9#zSN\x93tP\x95v\xd0\xe3\xda\xa5\xc8\xb8\xa2\xc7\xb6\xd8\xe8\xe1\x8b\xb9\xa4}\xb0\x99v\xac\x94\xb5\xd2\xc5\xda\xe9\xe2\xe2\xed\xe8u\xab\x93t\xab\x92\xa7\xca\xba\x02e9\xa3\xc7\xb7\xf8\xfb\xf9\x97\xc0\xaeh\xa4\x89\x86\xb6\xa0\xb0\xcf\xc1k\xa5\x8b=\x89g\xe1\xed\xe8\x8c\xb9\xa5\x8f\xbb\xa7E\x8emx\xad\x95d\xa1\x86\xae\xce\xbf\x85\xb5\x9f2\x82^\x8a\xb8\xa3\xfe\xff\xfe\xc3\xdb\xd0\x87\xb6\xa1\xcb\xe0\xd6\xfb\xfc\xfce\xa1\x86D\x8em\xb4\xd2\xc4\xf1\xf7\xf4\x90\xbc\xa8O\x94u\x96\xbf\xad\x14pG\xe6\xf0\xec\x90\xbb\xa8^\x9d\x81\xef\xf5\xf3\xd6\xe6\xdf\xee\xf4\xf1t\xaa\x92\xd2\xe4\xdbb\x9f\x84\xd9\xe8\xe2\xf4\xf9\xf7\xbb\xd5\xca\xf4\xf8\xf7y\n%\xa0\x00\x00\x00AtRNS\x00\xee\xf5w\xc6\x04\xa9\x02\xfd\x01U\xdc\xaf\x9b*\xf2 KRE.}\xe88&amp;A\xb0r\x1e\x17\xd5\xb3\x85H\xa1\xe5\xfa\xbb\xca\x88\xb54\x1b\x98&gt;\x06\xce\x81\xbd\xd2\xfba#m\xe0\xeb\xdf\x0b\x0f\xb6Zk0\x92\x08\xfe*\xef&amp;\x00\x00 \x00IDATx\xda\xc4XwTTW\x1aWTDS0\xb1\xc4\xb8{\x8cI4\x98\x9c\xc4=\x1a\xffJr\xf6\x9c\xdf\x1d\x9e\x83\xc0\xa8C\x19\xda\xd0a\xe8\xd2\xab\x14\xa9"R\xa5\x08R\x04\x04Q\x8a\xa2\x12\x02\x18\xa4H3\x08\x82\xe2B\xcc\xa2\xa2\x11wq-\xab\xc6D\xdd=\xbb\xf7\xcd\xcc\x1b\'\xceX\xb0\xe5\xfb\xe3\xcd\xdc\xfb\xde\xfb\xee\xef~\xdf\xef~\xe5M\x99\xf2\x822c\xf5\xdc/\xa7\xe9\xbc\xa5\xf9\xe6\xf2e\xcb\x96\xbf\xa9\xf9\x96\xce\xb4/\xe7\xae\x9e1\xe5\x8f\x93Y\x0b\xbfY\xb2\xe8\x8dUP#\xab\xdeX\xb4\xe4\x9b\x85\xb3^?\xa4y\xd3\x96i\xcb 0eWv\x15\xa4\x07\xd4\x18UW\x1b\xd5\x04\\.\xd8u\xa5\x8c\x91\xdd\xd1^6m\xdek\x84\xf6\xc5;\x1f-`\x97\r&lt;\xd8~\xc16r\x1dQ\x91u\x91\xb6\x01\xed\x07\x03\xd9g\x16|\xf4\xce\x17\xaf\x03\xd3\xcc\x0f55\xe8r\x82\xa2\xe48O\x16\xc2ik;\xb1ci\xd2\xa9\x8b\xd7x\xbck\x17O%\x95:\xc6\xdbY\x9ff\xefx\xc6%GO\xd0G54?\x9c\xf9\x8aA-\xd4a\xed\xf4\x9b\xb0\x9e\x85dl&gt;8\xd4%R\xc7-QW\xcf=sc\xfa\x88^\xe1\x16\x0b\xd6f:\xab_!\xa1\xe6~\xa0\x05\\\x17\xfaS\xbf\x19\xfb\x9f\xcb1\x94B\xb0_\xd3\x17\x9c&gt;\xf0@\\\x1f\x15U/\xf6\x19H\x0f\xee[c/\xbd1\x91\x93\xe8\xbf\x8dz\xd4v\x8b/\xa0\xf5\xc1\xdcWC\xb3\x99\xb3W\x02\xfbx\xad\xd4\x08\xb1\xf7xgX\xb2\x1f\x14\xd6\x06\x99\xeeQ\xe5\xd6\x1e\xd3\x7f\x1d\x12\xaea\x89\xaf\xcf\xab\x89\xa5{\xf0\xf9v\x1f\xb0r\xf6\xcb\x076k\xf6bJ\xa8\xee\x08\xbaF+\xcf\x92BJ\x1d\xb1\xd5#O\x14=\xdb\x91T\n\xcd\x92\x97Iw\xf2s;\xb5\xed\xe2\x97\r\xec\xfd\xe9@Z\xa2)U/\xa4\x1e\x12\xe8f\xc7\x92g\x92\xbcl]\x01\xf5\xb3\x90n\xc74Q\x1f\x98\xfe\xfe\xcb$\xfa"\nj\xd4\x8c\x98\x14\xe6P\xc7Xe\x9b\x91IH\xc5\xb0\x15})\xa7\xde\x89\x98\x8d\xa6\x01\x8b\x16\xbe\xac05_\x03LO\x1e1\xf1\xf9\x0f\xb0\xc1\xc6\x83LZ&lt;\x926\x00Y\x0fLH^\x0f\x03\x8d\xf9/%5}JI%q!\xfc\xed\x87\x01\xd7C\x9b\xd4/\xbc-\xb2.\x8aJ]\xe46\xf5\xf77\xd5\xb8\x02\xfd\x85|\xe2B\xed\xbd\xf8\xd3\x17\x065\xe3/\xabp\xf7*\x9f\xd8\xa5RP\xe1j":\x89\x8d?\xd7\xe2\xb6\x8f\x8bX\xfb\xdcZ\xce\xc5\xab#\xde\xba\xb3k\xe9\xf6\xec\x08?\xfb:\x96\xbe\xa8\xc1\x16~\x02l\x8d%\xb7\x84\x0c~\xab\xd9\xa9\xbaXD\xc8}i^t\xf5*\x19\xea\xe9\x19\xd2\xf5r\x95\xe6\xc3\xaeRw\xd5gw\x0eZ\x80\x11~G\xf2\x9c)\xf5_\x88a\xefjc\xc3\x18\xe1\xfbl\x84\xe0\x86j8\xd8\xe4H\xfd\x8a\x93B\x1f\x97[\x11\xfe\xad)\x9b\x8f\xa5\xb4\xfaG\xdcr\x19\x13\x96\xd1\xe9~GU\x7f\xeb\xb5M`\xa3\x0f\x9fT\xdbC\xfb\xdd\xe7w\xa0\x8e\x16\xba&lt;\x88i\x1f\xd0R\xa9\xb2\x86\xd9\x08M+Y\xc9\xee\x1e\xb5\xa1\x06\xd4D\x86\xe1\xf7\x06O\xd0_\xa6j\xbdceD\xe9q\xc0\xe2\x92\xea\x89\xf5(\x02\xfa*\x88\xc7Qh\xe9&lt;g\xa2\xfc\xeak \xd8\x8ftz\xc3b\x98\xaf\xe2\x91\x00\x0b\x04\xee2wO7\x90q\xca-\xc8\x06h\x8bq\x90\x8d\xaaF&lt;\x82~d`q\xc2\xef\xd1\xf7N\x87\xdf\x85w\x14\xf1\x0b\x06\x96\x7f\xf5&lt;\xa8\xe6,\x86(\x9b\x98$\x8e\xe3\xdb\xcd*\xbb\x0e:\x0e\xa6\xbd\xb2\xd0\x8ac:/\x82\x87*\x03l\xad\xeb\xe2f\xa2c*\xd73\xc8\nRyus\x0b\x98\xcb&amp;$\\\x84\xc5s&amp;\x8f\xea\xaf\x0bP\x9eK\xac\xbd 8\xe0\xf4\xa8f\xbf\xb6qD\xbbt\x1e\xe4 \xe8\xd7\xc6\xdd\x86\xd7O\xe6GQv\xdef\x9c\x9b\xed\xea\xd8\x7f\x05\xe37T\x0c\xe6t`\x02V\xa6\xa4\xce\x1b\x0b\xe6M\x16\xd5{\xda\xe8o \xb9\xae(\xfbIe\xbf\r\xbbq}\xcc=ZQ\xc6t\xedOd\xf07\xff\xf2r\xdb#0\x0c\x89*S\xdch\xf1\xc8\xf6\xc5\x8e\x06\x15\x05M\xb7Q\x96K*\xfb\xa1\xfd\xde$s\xa06R+H\xbd=$\xd6*J\xcd-P\xbc\xf9\x92!\xb7\xb6o\xed\xf90\xd8W\xd7o\xa5e`G\xaf%\x0e\x07]V\xdc\x13$o\xce\x81\x85\xb9\x8a\n\xeb\x1cl\x88!\xa6\xbb\xa1=\xa9\x1c\xf9\xb9\x06\x8a=I\r\x83!\x15\x17\x90|\x11\xf6V\xe6(,\x12\x1a\x11\xcc \'\xc3Y&gt;\xea\xacB\xa0\xcd\xf7^\x8a\xdb\xc5\r\x05\x10\x89UcX7\x98Z\xa2\'\x81\xc6\xe7\x93\xf2`\x911)\x05J\xa5\'\xf0\xbbL\xa2\xa78\xebc\x81\x81)\xe6\x1b\x15\xc4\x0eJ\xd9\x08Q\x82G(O.\xc2\x06!P&gt;\x1c\x9f\xc5=Q\xdeT\xc3\x04\xfa(\xa2\x8a\x1e\xf1\x91\x06@~\x08\x90L6EO\xc2\x8foO\x85\x971\xf9\x01L\xb5L\x17?\xed\x88\x01\x97\xeb2\x19\xc3\xed\xf9\x9c\x93v\xc4\xe5\x9f\xa4Y \xceY\xb9`n\xaf\xa7\x90\x0c\xe23\xc38G\x8a\xc5\x96\xcc/\xf2\xd7\x8d\xc3.\xfeO\xfew\x98\xc1eb\\\x8c\xa9o?\x1b\xaa\xcf&gt;\x86\xc4\x93\x8c\xc2R\xaek\xdd\x80\x00\xbb\xe4\xba\xfc\r\x03\xc5\xd5\xb2~k|k\x86\xf8W\xe0\xf8\xf6\x80\xbb\xfa\xac\xa4:\xe676\xe6\xc7\x0f:\x97]=\xe4\r\xdc\x17\xe7K\xe4\x1d[u#c\x98!WP\x02\xd1=yf\xcd\xb4\xc4(\xf1L\xc5\xc7\x9f=S\x14]\x89,3\x92\x0c\xcbx\xb9&amp;\xf7\xe4*\x81\xc3YY\x90\xf6\xc5\xb0\x8f\x14\x95\xc3\xbf\xed\x1ci$\r\xab\x1es\x96:\xefF\xe4\x88\xb7\x14\x84\x81\xcd\xcf\xfe\xa1\x85\t4\xae\x86\rvt\xa7Iq5\x1a\xc1WV\x0f\xa58L\xf4\'s\xa5Q\xbc%\x12\x88\xd9a\xac|\x86\xb8:\xf3kx7\x90\x1a0\x99\x0f\t:PJ\xa4\xd4\xf7&lt;\x8e\xcb7i\xfb\x17X\xb4\xbdi\x0b]1\xebl\xf5q\x99E\x12\xf3\xbd\x15^\xdcw$n\xb7U~/-\x18D\xa7\xe2|\x8a\xd9\xc4\xe4\x9f\x88,i\x8a\xdcI.\xd5&lt;\xd4\xdb\xca\xa0\x964xc\xf9\xd3\xf3\xd0\x12\x08\x9aH!\x83\xab\xca\x99\xccX\xf6\xdb\x8e\xe6\x88\r"\xe7\xec\xa6^\x8a\x86i\x8eoM\xd2\x95JI\xd0e\xb6\x05\x12\xfa\xfc\x92\xd9\xc6\xc2\xb3\x88\xb9\xa0\x9b.~\xc0\x9e\xc7\xc3\t\xe7\xc3\x9b\xcf\xf8\xba\xb7`H\x9e\xdf\x95\xb3k5\x98z\xf2\xbd\x00K\x9eZ3ha\x98\xd8\xe9\xd3S\xa2*\xdb\xe1f\xe6\x13\xd7as\x92]\xae7f/-9\'\x92\xea\xeb\x0b,\xcf&amp;\xd1\x99\x92\xce\xad\xfa\x10\xf1:\xeeHi^L\xcf`zT\x08\x9b1\xcbl:\xe22+\xcaQ\xa8Fe)\xf4sI8\xb4\x9eRO\xcc\x99\x8a\x02b]\x8e\x1ei\x9b\xe5G\xcf_\x85\xa2&gt;\xd1sCTe0mW\x03%\x07\xe2r\xef\xb0\x8c\xd2\xf5\x17\nD\x05.4\x94\xe0T\x93\x8cd\xcd1\'\xd8tt\xb3\x84\xfd\x7f)".y\x07\xc3\xb6L\x91\x9dpS\x94F\x9e4\xdcl\x93\xd2bO7\xdc\xac\x89\x10S\xff\xfc\xc4Rf:v\xf8\xad+\x86\x97\xec\xb08I:\xa3\x0e+2b\x1bB3J\xa3\xc1\x13w\xcaj?*\xf9\x11\xe9\x94\xdb\x7f\xa7\xb5\xa9\xeb\xcd@\x8e[\x83%\xf4\x92\x15.\'\xda\x8e\x84\x98\xfcf\xa4&amp;\x9c\xbf\x88s\x9c&amp;\x93*\xff\x18\xc9iYz\xa5\x8b\x99\xf8\xed\xc6\xf4\'\xd1k&gt;\xec\x1bH\x12ns\x19\x87\x86FgE&amp;\x9c\xf8od\xd8\xa5\x16\x18I\xd6&gt;\x94\xaa\xa4\xfd\x16\xd2\xe5\x87y\x8a9\x83:\x16\xe1!/\xc5Dj8\x8a\x93\r\x1a\xd2\x04\x91\x9c.\x1e\xb0\x97\xcbC\xb7aC*\xd30\xff\t\xdd\xc4R\x8c\x91N\x186q\xc6n\x01\xbc\xb9\x883\x84\xd2\x00\xfc\xc3\x19)\xbc5\xca\xb2\xe5\x07i\xcc\xccP\x9a\xba@W\x85k\x8cb\\\x14\x8e\xe8\x10\x0c\x8c`\x0b\x17\xfd\xe8\xb9\xe0q\xe407D\x07\xc9\xc6\xd2\xc7V\x133V@w\x8fi9\x0epdj^+\xc2}\xe7\\\xe9\xe0X\xa0\xc31\x07\x9c\x0bEJ\xff\xef\xbe\x82\x84\x19\xb1\xd7\xd4\x04\xa5\xa9\xa3\xbd\xecU,\xe0\xc6\x06\xe1\xe8K\x87\xc51_KY\xe1f\xe7|\x14\xa2\xb5\xcd\x1c\xd5z\xe1V\xb1\xa7\x0f+\x1e\xd7vL\x83C,\xd1\xc5\x15\xa5\xfa*\xc4\x80\xfb\xc4`\x83K\x94\xd9=\x05\x18l\xd3U\x16\xa1\x14\xd6EG\xa5\xa9#\x8d\xecTp\x087NrD7\xadF\x13\xd2\xd1&amp;W\xc6\x0fS:\xe9NV(!y\xbe\xf8\xd3cN\xa1\x06\xc2I&gt;|\xf3\x94\xbb\xad\x11\xae\x11t0&lt;FM\xdf7\x8a\x91\xa2\xdfY\xeb\xa4\x14\xd6\xfa\xf5JS\xf6\xad\xec\xf5\xd7\x10n\xec\x95\x8c\xa4#4`DZ\xde\xe5\x9a\xa7t\xe5zi\xf3\x06\xc4\x13#h\xa8?\x8d\x9a\x90\x9c6+\xa7\xd0\x94E\x1eHI#~d\x17\x93\xd4`o\x80\x1ak\xad\x1fP\x9a\xba3\xcaN\x19\x9e\xe7\xc6\t6\xe8e\xf7\x92y\r\xe2G\xd4\xca\xc4\x08n\xb7\x9cR\xa1\xa9\xb6\xf2\x03cG\x8f^4_m[\xdc\x87\x18Vs\xd9v\x84&amp;=\xcdZ\x8e\xb2\xb6C\xcc\x8d\x0b\x86\xf0\x80-tx\x85\xd0U\xab\x9c\x1f\x8d`R7\x0e5\xb5\xd7\xcc\x15\xe8!\xfb\x19\x91Rn\x88Pj\tE\xbe\x91l\x8af\x82 \xc9\xfe\xddI\xe4\xc9`\x8d&gt;\x9c)\xb9 C\xa38\x8a)E\xc8\x90~\x0f\x8b\xb4?\xa3d&amp;\xa5\x0e\xd7C\xc0\xb8\x90n|\xa2\xfa\x9di6\xd2b\xf9V\xb8#\x0f\r\x94\xe9\x11\x07\x1f\xbe\xd7\x81]\xb2\xf8h\x8e\x8d7\xd7*\xcb?\xff\xcf\xa8\x95\x06E\x95]aR\xa98V2\xa9d\xaaR\xa9\x1a\'\x95\x99\x8cUI\xaaRI&amp;\x99$\x95\xaa\xfc\xc9\xd7\xd0\x80\xdd\x8d\xb4\x08\xd8\xec\r\x08\xcd"\x9b\xec\x8a"\xc8.\x8bl\x03S\xec\x10\x14E\x1b\x01A\x81FqAv\x1cQ[\x11FTTt\xa2\x8e\x1b83e\xaar\xdf}\xdbmhe\xee\x8f\xa6\xef\xe3.\xe7\x9d{\xcew\xbesn\xf3b\x99\xe5\'\r.\xbcX\xdd\xe2\x83\x92Y\xf4\xd2\'\xffm\x80\x9f\xbcf\x19\x91\xeb\xc06\xd1\xa1\xd2\x1c&gt;WaE\x0cz\xe7\xd7\x04\x84k\x10)x\xeda\xf5\x97~Qjy\x89\x9bH\x99\xa6+\x9f\xf7\xc0\xa3\xd5\x0eq.\x86\xfe)\x91\xfa\xf1*\x1dO\xa9\x0b\x08\xc3\x92\xdalhl\x8eZ@XG\x0f\xa4\x13\xd9\xfe\xf2\xce\nei\x0fn-C\x878\x873\xa0\x10\xb9\xfc\x12\x8c]Kt\xe5[\xf5\x98\xe9\xb7e\xdaY^\xac6\xe6Q\x01\x951&gt;A\xecW\xa2\xbd\x9cN\x8e2\xa0^.\xf2\xbc O|\xc5\xde%\xb4ou\xf3\xc7\x8f\x97\x89\xf5\'\x8c\x12o\x0b\x912\x8a-\x1c1\x0eHz.@K\x91\xffI\xfe\xcd\xfb\xf2p\xad\x93\xd5V\x99\xa4-\xa7\x88\xba\x8b|\x82V\xc0}\x8e\x8c\x8bl&gt;\x13C-\xfc\xd7\xddW\xfd/\x0b\xeb\xcfs\t\xb8\xd3\t)\xe7\xd8@\xbc4\x07\xbf]\xee\x86\xee&gt;[_\xe3\x86\xf4.q\xdc*!f!\x0c\xedF\xa1p$;\xa2Q\xcd"\xc4\xa6\x842\x01 ^\xa6\x9a\xafx\x0fp\xcf\xa6\x06\xa9\xff\xdd\x12\x86$}\x89\xc0B\xc1\xdc\x9ap\x8e_\xd1d\xde\xc0=\x18\x976,@\xd9\xe5\xbdN\xcb\x9c\xf1C\x12\xaf\xd2\xb1A\xaa_\xcdh"C`\'aE1\xa6\xda\x84w\x7f\x84\x0b\x97d])+O\x81\xd7V\xcc G\x90os\xe9\xbf\x07\x15\xabdI\x18\xd3x\x1a:\xa1z\x1f\x97\x8c\x0c\t\x15&amp;\x10\x12\xf9\x95^\xca\xd4C1\xa8\xc8\xc6:\x0b\x80_\x8b0\x85\x17nI\xb2\xeb\xf7\x1c\xd8\x13p\x93a\x91\x0f\x12\x85Mj"={\x19m\x8d\xeb\x9e\xf0\xda\xfa"\x97\x02z\x15\x1fl8;\x12\x87\xf4\xc6\x08\x16\x0f\x98\xef1\xac\xf7\xcc\xd2\x1e\x87sz\xe6|\xd2\x14\xbb\xb0\xf6W\x16L\xd9KaD\x8ce\tk\xf1\x98\xf4\xb5\r\xc7r\xc5\x95\xebP\xa2el+\xed(\xaf\xad\x14\x9a;\xd6\xe7\x93\x8f\xb1\t\xee\xa3_\x18\xa0\x89E\xed\x98\xf0\xfd\xf1%\xc4I\x8b^\xb2\xccj\x1d\xb50(\xea\xf1g\x86:\xacG\xa9\xa2Zv\x0b\x91\nI\xdfFQ*\x16g&amp;o \xef\xb1\x15\x80\x88^\x8a\x18V*\x17I\xba\xddl\xf2$\xe1\xa0X\x8a\x88Y\xc8\x12\xc3hZ4\xc9\rW./:\x7f\xa2b\x00\xebe"\xf1\x1e\x02\xf6\xed\xd4"\xec\x8d\xa5b_dV\x88\xdb\x98\xd0Yl\x05 \xca\xbd\x9a}\x8a+\xf3mm\x1b\x0e\x93\xfcP9\xe8,\x0e\xa8Y\x80I\xe48\x85\xde\x12\x89\xb0R\xf0D\xcc\xce}\x01\xf8\x8d$\xd6\xc7\xd8\xa4\x88\xc6C\x8b\xfb\x91\xed\x96/Rc/\x8aU`\x0f\xbf\xfb+\xb5u!\x05.\x1c\xe2\x16\xd2\x1c\xbb`\x934 #&gt;\xb4[bb%\xc8\xb3\xa8HY\xc8U\x81\x01b\xf4\x1f\x8bR\xfd\xfbg\xc4?N\x93\x8c\x87i\x83\xa9l\xef&amp;\xbc\x9b\x18\x9a\x92\xe4k\x05NuMNmO\xd3\x8b;\x08J^=R.\xfd?\xfb\x1aZ\xce\x8as\x0b\x17\x91\xf3\xe6]n\xc0\x96\xf8\xfc\x0f\xfe(\x9da\x94\xab[\xbc\x13[\xe9\xdc\xda&gt;\xcaN\x98G\xb9T\xf8Sf`\xa4\xc0J\xf0\t5\x89\x92w\x99\xa6\xe5\xff\'\xd9\xc2\xef\x89\xe4\x1f)H\xb2x\xdd\xef\xd8\x92\xdeA\x8d\xe7A\xd7H\xbc\'\x88\xf5Sr\x867\xe4\\\x82k\xd1\x08f\xbb\x1d\x88k\x90y\xcb\x05\xa46X\xe1[\x89{oOtN\xf6g\x19\x8cW\x18\x04\xd1iB\xd3\xa5\xa9w\xc6\x10\xc8\xae[\x88E\xb6\xdbO\xc8^6\xfe \\~\xadG7\xc9En\x8b\xd9\xd2\x99d\xf3\xf5Y|\xc5\xa2E&amp;\x9e\xc9,\xcb\xde\x05\xd5w\xac\x86\xea\xc9\xbc[q\xe6\n%\x1b\x9b"\xc6\xb0_~#\xdf\x16d2\xcb\x9e\xf0\xc4\x8e\xeb\xe6\xe4\x97\xae\x12&lt;\x06\x11\xba\xf0\x0f^\xac_\xc0i\xdbf\xf7C\x92\xbf\x1e\xe4s\x08\xa5z\xa2Q\xccN*\x91\xfb\x85\xbcU\xaa\xca?]%\xb6I^\xaca\x95\xf5V\xb5\x03&amp;\x8d\xac\xe8~T\x8aYU\xe3\x84\x9a\x7f\x81\x11\xc9z|pu\x9f\xa3\x06|e\xe9\x03\x02\xaf\xa9hb\xf0J(j{I\xb7N\x8e\x98\x8d\x95\xc5\xca\xde\x84\x14\xdf\xb70\x08\xa6\r\xf9\xa1+N\x9e\x99\x11\x02\xe9\x10\xc2\x84\x92a\'\x83_\x17\x10K\x82\xcd\xdf\xa9X\xef\xa2\x91d\xcc\xfb\x19\xe5R\xba\x1b\xe3\xc2\x98\xe3\x7f\x10\xce\xa4\x10sh=\xf2\x16\xbe\xc5\xb4\xb6Z\xa4\xab\xe5n8.2nU@\xa3E\t\xb3\xf1(!}\xf3\x02\xa7\xff%\x81\x87\n\x143\xff\xa5\xc6\xf0\x19k\x8c}\xf0\xdb!\xaf\xdeh\x8b\xd2+\xdfG[u\tx\xed-\xcfk=\x8fdK\xa0"m\x9ay\x10K\xc0\xb3\x18\xeb9\xa9\xfe\x06\xcfm;5J\xc6\xc2}4\xca\xbe`D\xb2\x0b\x1c\xc3\xa8\x0c\x90\x88$g\x9e\xf2}\xb4\x95\xd4\x87\x81&amp;\xb9\x9b\x98\x83\x02v\xd5\x00\xd4\xd7)5\xcc!:*5\x9b\xb7\xc5\xe3\xe7\x94\x97\xb6+t8\xc5\x8c\xce\xca\xde\xad\xd8&gt;\x04\xd6\x15\xc39\x80\x96[G\x1a\xbc\x93W\xd7\x96\x9dN\xa9Ne\xa6\xa5\xdb\x83\xadn=\xc7\x95\x8d\x8a\x93\xc3m\xcc\xa3v\x98\x14\xf6\x94\xa3~\x84!\xc5\xb7\xa8f/\x99\xf8R\xb0\x81\x8dEj\xdc\xf5\x97\xd7o\x9eCg\xd5\xea\xda\xea\xe8\xc7\xa2\\*\x87\xd6\x005\xab,c\xbe\x83\xb4\x9dT\x8b9\xaa8KY\xc4\x87\x84"\x0e[*W(\xe5\xb2\x9d{\x18cw\x1ek\xc0\x8d\xba7$drI$\x16\xf65\xcc\xa4\xa1|\x0b\xc7RX\xb94\r$t4\x8er\xc1\x7f\x12\xa7l\x82n\x95\xeb\xe60\xa83\x98\x1d\xb4z\xf7f\xe3\xa4\x9a\xb4\xc7\x94\xb2;\x7f\xad^\xd9f\x9a\x10;\xc2LJ\x98}\x0bI\x11\xca7\xa8 `\xf5\x13\xc2\xb5\xd6\xe2\x9c\x83\n\xcfW\xbb\x06\x7f\x08\xbfW\xcc\x16\xbe\xf7\xd0r\x86\xfb2:D\xf9]\xf6\xca#L\xee\x80]\n[\xc89o\xe9\xdd\xd6\xda\x16\xf8;\xec\xc6_\x7fD\x1c1~\xa3\x0f\x02V\xbd\x9d\xafBm4\xb3\x87\xa7\xe9\xa2R\x97gg\xe7\xa2\xa74\xbd6\xdany\x1b&gt;\x1c\xe3\xaf\xf7`\xa6\xf4,\xc0{\xd5mb\xe0\xb6QI\\\xf1}\x82p\xc7\xf1\xdd\x1b\xc7\xb9\x1e.I\xe2\xca6\x1b/B\xd7\xcalR8\x88S\xb1\xca\xf1\x0c\xfebs\xa4c\x85\xb2\xaa\x1a0~\x96\xe9\xbfJ\xc0\x0e\xd7U\xc5j\x87^\x11\x82\xf7m&gt;\xc5\x02A\xf5\x06kC\xdc\xe6\x8efW\xa8\xb8\xf0\xc8\xb9u9\xd2X\xfbE`5r\n\xa6\x8d9\xa7\xfa\x08\x7fw\xea]\x0e\x0e\xf9\xe5\x88(f\xc7?\x8d\xa0\xe9\xc5\x81\x9e\x88\xa5\xc8\xc2M\x1do\xb02;\x12\xcb#\xf0\xa9\xcd\x0fq\x87\xf0\x96\x96e\x17X\x86\x81\x9b]\xcd\xf2\x92\xc3\x9c\xba^#\xb3\x8b\xadb\x19Z\x95\xb1\x0f=\xa7\x02\x1f\xe8IoPe\xa9\xabN\xe3\xff\xb4\x86Y\xe6AP\x0f\xca\\i|\x110\xcc\xbaX\x89\x84\xf9\xd4\xe1\x03\x9b\xdf\x11b?\x8fy){;78\x96&lt;\xe2\xb9\xec@4\xdcU\xa5\x1fB\r\xfe\xec1\xf6z\x86T\xa6yyy\x15\x13l\xca\x9e\xf7b\xdb\x82\xbe\x10\x03S\xac\xeb\x1a\x9a\x89\xc7+\x14\t\x02\xdf\x0e\x15\xd0\xc1!\xbc\xaa\xe0H\xac\\\xe9\xbbNxb5&gt;"\x1c\xf0\x81\xa2\x05\\\xeeu\xd9\xe4\x92X\x1fc=\xe46\xf0\x811\x9b\xf5,\\\x8fC\xed\x9cV\xa5\xb2?\x7f\x1fN\x19Q\x0c\x9d)\xea\xce\x86s\x0f;\xb6\xfc,\x1f\x0e\xc5L\x85\'\xa9\xdb\x85R\x18B\x9e\t5\x92\xa30+\xf6\x13&amp;\xb8\x86\xa0\xa93\xb8\x0b\x9e\x13V\xc4\xd1D\xe4\xcf\xd0K^\x0e\xd7\xdc\xa2P\xd3\xc7z\xe3\xdc4r\xb8T5\xafC\x89\xc2\x1e\r\x13\x0b]\xd0n\x08`\xc1\xc2\x1b\xcdn\\\x8eO\x99\\iX\xa9\x1b-O1\xe4\xc2\x9d\xcfJ\x07\xe0L\xf0t\x8d\xcd:r\x98\xd3\x943\xee].\x93\xba\xa5\xdb\x91"/\xc72\xb99O\x0f\xc5T\xb63\x03\xa2\xc2F\xb0XC\xc0`~\xeeq\x91\xeda\xb3\x88\r\xd1\xc5NK\x862\x16\xb2\xf4\xda\xfb\xa9\xfc\xad\x11iBIpg\xb5\xe5v\xc7x\x1e\\GL\xfd]\x9b\x7f\x11\xfe\x9cK\r\xf0\xa4\xe5(_\xb1\xb8\xefF\xbb&gt;&lt;\x1fj5\xbe`\xc6T\xdc\xfd\xc6\xc9/\x99+^6\x16\'x\x8b\x89w\xd0\x8cV\xe3\xd7\xc0\x0c\xdb`T\x0ba\x87V,\x82iI0\xacl\xf9\x0f\n\xb9\x9f\xe6\xa4c\x82\xe4\x15\xbf\xb7\xf9\x84\x90\xf8.Z\xa4\xdb-\x1d\x0e_\xc9\x92\xae\xedh\x97V,]\x83\x10\xac\x8fd\x96\x9a2\xa9\xb43\xf9\x968\xba\xdf\x10\x85\xdb\xfbY\xa5\xea\x1f"\x97\x87,\xfe\x9e\xf6bV\xf8\xe7\xb7\x8aD\x964"\xfe\xea\x91+\x8a\xa7\x92\xa4\xec6&gt;a\xc4\xe2\xb5\xb2\xa3%\xdd1\x94\xa6U\xbcQv\xf3?,\x10\x8a\x9e\xdb\x9aP{&lt;\x8a\xd9\xf2\xeb\x1ae\xa4)\x97}\xe9Z}\x08\xb2\x02\x99\x07/\xf4\x0b\xa8\xd8)^\xb2-k\x11&amp;\x07\xc5\xe6L\xde\xc6r\x19\xb1\xe4C\xdc\x8c\xa2\xa0@\xca\x87\xeah5\xef\xae\xe2\xf2\xf1g\xdf\x08\xd3\xc5\xb4q\x8b=\x16\x8cl\xdd-\xae\xfcP\x8c\xc9W\xd6\x95\xd9\xd8\x0c\xdf*&amp;\xfb\x191D\xa0]"/-\x16B\xc5\x8f\xf1\xc4&lt;\x81\xf6\x82\x99C\\GL\x8d7y\x87\x0c\xb1\x98\xcf\xc3\x806"T\x06C\x89\x84li\xc2+c\xbf\xbc\xf2\xa1\x94@h\x1f\r\x8b]gr\xc6\xbe\xe9N\x0c\x8c\x1aGP!S\xaa\x03)\x8c\rD\xfaI\xe5\x07\x91\xa6\x8b&amp;\xbf\x86\x18\x11\x0f\x10\xcc\xdd\xc5!KM\xfb\x8f\xf1RQ\xd6\xe6x\x9a,\x97\x1f/\xcbUp\t\xee=I\x1e\xb4=H/\x82\xaf\xb7\x0c\x15\x9a\xb1\xf3\x1e\xe8\xa2\xe5\xe4\xdek\xbcp\x8eY\xa2`u&gt;\xe2\xa2&lt;\xa5\xb4\xa5\x001E\x01\x82\x83S3\x8eY\x86\x80\x05V(\xd5K\n2\x0e\xc7\x9f\x85R\xe97&amp;B9\xaac\xfc\xa8\xa3&lt;\xfe~\xdb.[//\xdb\xbb\xdf\xc6#+Z\x16\xd9~&amp;G\x89\x16\xfaNz-4\xb9\xa5T\xc0}\xa5\x13/T\xad\xd5F~\xaf\xa0+\xa5\xc2\x8f\x13\x86)\x9c&gt;\xa3p\xca\x05\x9f$9\xf8\xf0\x8d\t2\xeey\xf4\x9d\xc2\xafsf\x19\xcf\xd7\xf2J\xb5\xb0\xd7\x8d?\x91\xd13\xf3*\x92u\x93\xad\xa6)h\x8e\xc4Iv\x15\xf0\x7fJ\xae46\xaa\xeb\n\xdb$i]5\xa9\x1a\xa5I\xd4&amp;Q\x95&amp;\xe2O\xa4$j%J\xfeT:\x17\x8f\xe7\x013\xc3\x18\xcf0^\xf1\xc2x766f\xf0\x12\x16\xd7\xc4\x18\xcc\x1e\x16/\x18\'\xb5\xb1!\x80\xb1\x83\xc1[\xb1q\x0cXYJ\x08f\ta-\x85\x04\x03\x01B\x88h\x9aR\xf5\xde{\xee\xf2\xde\x98\x00y\x12\xd2h\xfcf\xe6\xbe{\xcf\xf2}\xdf9\x87\xc3\x81\xb5\xe0\xeeF|\x87\xe9cRC}P\xf7\xa0O\'\xba\x9d\xa6\xe4\xf3\x1c=\xcc\xb6\xe0TM\xaa\xc5f8\xe7\xb2tU~X\xd1\x97\x8fQ\xe2\xa5\xd4\xb3!\xfd\x8cR\x05{\xa3\xf3`Wt\xf4\x7f!f\x91\xb2\xb2\xfc\xa2\xf4\x93\x94\x02c\xf4\xab\xd2\xde\xeb\x1eZ\xe0\xb2\xa8\x1d\xeaJ\x14\xa9\xfa$M\xd5\x7f\x828jg\xa3\x80\xcdp\xe0\xa3\x0b\xe1C;\xe8N\x19W7\x99\xfc\xaa\x04=}x]\x1e]r\xc7y\x89\xc0\xd2:\x1aa\xd2$h\xaf\x96\x18c\xdb\xf9\x8e\x8d\x0e\xc8\xdb.U\xe1=fs\x8d\xd9\x18P\xd4X\xd7\xdbb\xaa8\xb0Y\xc3\x81\xcdo\xa1\x89$Y\xf8\x98\x05\xe1\xeci\xb0\xb4x;\xab\x15\xa5[u\x17l\xa9\x07\x02\x03\x18-2\x13i*9\xba\x08\x8dd\xd7@`\xcf\xde/\xc1}\xd9\xc4\xe9.[\xbd(sz\x07_\xf1\xa0V\xf0v \x0c\xac\xe60\xf0\xd7`sy!\xff^k\xf2\x07"S\x82\xa2\xdf\x0e\xb3\x1cUD]*\xe5\x83\xf8\xea}\xb7\'4\xd9b+\xe2\xbb\x0b\x1d\xb6\xa6\t\xb7\xf7U\xd7\x1d\xa1v\x97[di\r\xf4\xa7\x06G\xd2\x92K\x17\xa9i\xad\x92~y\x9c-\xb3\xd9\r-\x05\x0c4?\xf6G\x98O)F\xcb\xa8E\xa5\x9f\x9d8\x1a\xdf\xf0\'\xf4N\xf7\x8a\xbd\xacKe\x11\xeaPqE]\xf4\xb5\xe8\xf2\xf2\xe8s\xd1\xdd\x15\xc5l\xfb\x9cK\xe2E\x10\xf4\xd4W\xcc\xe2\xfeg\xe0\x81g\x98\xbf\xef\xc3e\xef\x91\xaa\xba\xe2;\x13\'\xf7^\x13\xf97\xd9\xde\xc5(F\xc8/\xa9\xa9m\x08&amp;d\x83\x15f&amp;\x05w\x8fr\xa8Zb\x88\x04\x94\xa2z\x11\x8d\xf8\xa1\x92Q\xdb0\x14/O\xcf\xbe\x869p\x0com\xca\xba\xcbe\xa0\xd9S\x9c\xe6\x9b\x0f\x9e7w\x1e\x06`\x05\x122\x1a\xe6\x0b\xc9b\x8bH\xd7\xb2&lt;\xcd\xf23\x1f\xce\xb8\xf5\xae6\xac\x82~\x99\xbf\x14\xe6_\xd46p!\xae="\xa2=\xee\xc2@\xdb"\xaf\x0e\xe9\xab%\xa7\xde\xe8\xe2\x11\x9c\xe7\xda\xda\x96\x9d\x96\'\xd9\xfa\xce\xf2\x04\xaduD\x92\x9d4\xc8\x87\x84\xbcF\xe3\xea\xfb\x9a\xec\x97v\xa7:,@\xb0\xe1\x9c\xdd\xbeX\x1b\x96\x9f\xe1\x18X\x99\xf5@\x0eC\n\xbe3\xa9"\xbb\x99\x07\x9f\xc1\x8c\xec"\xfe\x05\xff\x98c\xc9\x8d\xfd\xdb;\x05\xd9o\xa39\xe75.\x8dD(i\xc4\xb5\x7fJ\xb2\xd5a\x8a\x18\x08\xba\xc1_c\t\x08\xc5J\x1eV\xe7F\x06~\x9ca\xd9\xd3s-\xdf\xb4\x9e\x12d\x0f\x86\x8f\x93\xecS\x0b/o\xb6\xfc\xddyYJ#ky\xb5\x93\xba\xa2\x11u\x85\x0bI5\xd6o\x82\xb8x\x1e\xf8\xb0\xc7\x01\r\x0b_\xf3\xee\xa2t\x1a\xce\xf2\xeeI`rn.\x9d\xbc\xc6\x85\'\x95\xb9\xec\x0bd\xe3w\xe8I\xdd\xc2\xf7\xa6\xf8\x83B,\xbb*\xb8\x90\xe4\xac2l\\H\ny\x89R\x92\x11.\xbb\xf9c\xac\xf8T\xd6\xdd\xf9\xd3$\xa1\xe8\xca\x7f\x81\x83/\xfe\xe8u\xfc\x07f\x05\xba\x0c\xba\x97\xb5\xc6`\xf5[\x15\xc5\xbe\x1d\x1c\xa5\x9c\xe0\x87Go\x8dBSe\x95\xd6\x8b\x08\xfe\x16\xb3\x8d\x7f\xdb\xba\x07I\x9c\\\xa5\xd1\x7f/\x89F\x83"zL\xab\x14\xd0\xd2i\x82\x1bo\xbcM\x1b\xd6\x01\x9e\xc0\x92\xb3Q\xb9cW\x8fJ -\xb2\x0c\x06oq\x9c\xdbQ\xc0bA2\xab\x1fz1*df\xb1\xc6\x05~m\xb1\x93\x02\x8e\xfd\x1c[\x04\xd7\xca\xf4sP^I\xb3\xe2\xcf\x84\xa4\xfb\x15]\xe2A\xc2\x99\xb3\xf0Z\x14\x8d"\xd9\x038\xb5a\xf5 G\xdd\xc7M\x1f\xdb\x84\x17*\x96\xe5R\x8aN$a\x19\xb5\x97\xf0\xa2B?\xfb \n\x15\x10\x93\xc4\xfa\x9a\x10\xd5\x92e\x88\xbaIN\xdbdu4\xed\xf4\xd0f\nI\xf7W\xe00\xaaVr\x0e\xc1K\xc1\xb6\xf0$\x12\x85\xa8t6\xe99\xa6\r++_-\x96\x01#\xce\xad\x98\xf1%q\xdf$J\xf7k"\x0c\xc9\xcf\x19\xac\xe50r\x9d)!\xbb;\x88\xbf_\x10u\\\xe9E\xe6\x1d\xab7\xe1\x19\xd6\xc0\xca\xda\xceX\x10\xbd\xf4\xe3\xa0\x9eb\xff\xed\xd8\xc1\xe4^\xda\x85\xfd8\x9c\xb2\x04R\xb4a-\xc4\xa3h\xe7\x86U\x8be\xe9\x0c\xf6\x9a\x83\x86L"\x8b\x15[\xb7yO\xe1\x86\xf02mJ\x02\x92x\xc4\xa3\x83\xa4\xa5\xc9d\'\xfd\x12\x9e\x9ea\x9bz\x82\x86\xc350^\x14W^\xe1\xc5\x15\x86\rI\xfdy\x11\x9f\xa3,I\xe23\xb6\x93\x18\xf7\xdd\xa8~\x8a\xfa8+\xd4\xfb\xf8\x86\xae\xe5\xf4\xc1Y8+@#\x90\x9f9Y~NT\x9e\x92\x92]\xef\x08\n\xe7!\xad\xc7\xf4\x17[\x1b\xa6\xfb\xcd\xc5\x95\x90\'\xe1\xdf\xae\x16\x87\xc3\xdatoVg\x98a\x95\x8a\x80\xdd-\xfb\x16\x90-\xd3\xd7\xe7\x05?\xe0\xc8W0\x9c\xc5\xf80X)\xe0\xca{\xb9\x08&gt;\xef\x9b!\x96\x15Oyc\xaf\xf8\\1\xaa\xa0\xf8X(5\xa2\tA=?DW\xb9N\xd3\xe7w\t\x00 \xb2\xc1\x19\xf1\xa7J\xba3\xc8\xa6R\xc9\x0f\xbc \x80\x7f\xe7\x07z\xda\x93\xc3M4\xb3\x93(\xbc\xce5\x91od\x06\xb16\xe2\xb3rX"\xfcY\x95_\x9f\x18]\xe6$$A\x82\x1afX\xf6!\xe1\xa2\x88\x0bj\xe49\xcc \xd2\xd2\x8b\xd1\x8dE\xe1\xbe\xf4\x18n\x13F_\xde\xe56, c\x80&gt;c\\\x10\xcd3\x979\x9fP\xd5\xd7\x17\xe1zi\xd4u\x98g\xcd\x1e{M\x86uV\x00\xe1.\xd9\x90\xa7U*\xc1]\xe7b\xd8\x95\x85\xfb%x\xb0\x06&gt;\xdbj\xd3\xf6O\xd5\x81\xcc\xba\xae\x8bX\x9a~J7\xd8\x8c\xa3\xd4z\x8b\xb5^Kn\x9b\x0cK6\x80\x88\xaa\xdb&lt;\x85\xa2\xd3\xc9\xa0M\xfe@\x1b\xaf\xbbX\xa8f\x07)RP\xbb\xea[\xbd,\x19\xc8,\xeb:NI\xcfv\x18\xffss\x07e\x1aI\x07\xb7\xb9n\xf1\xb1\xc9\xb0\xde\x16\xc8V\x12\x11\r4[H\xa5\xa2-\x9f\xa8\xf3RT\xb3\x97t\xbaE\x1e+8\xa9\x9e\xc4\x1c\xb8u/\x90\xe1\xa6Al\xc4\xd2Q\xf9|\x18\xbd\xbb\xcc\xd4\xa3@\xcdO\x1b\xd6\x02\x81t\x1a\x05\xe0&lt;\xa7)\xa4\xbdJ\xaa\x01S\xc9N\xad\\\xc8\xc8\x1f\xbb\x90\\\xc2\xb0\xfb\xc3\nIF\x94\x1a\xa9\xbdF\xf4Zl"\xad\x10fi\x07\x7f\x9cf\x81\xfd\xf0\xadbJ\xf1\xf2\x98\xa8?w\x08m\xe5\xbah\x8f\xb1k\x18uH;{7k\xfb\xa7\xecB\x15\x8e\xf8\xbb\x03\xc4\x97\x1c\x84]\xf7\xe2(\x97\x0cd\xf4\x9ef\xd1\xcc\x92H\xa1\xd6\xe3\xd6)\x07p\x94\xdb\xd7\xe2\xb9\xb3D(\x91\xe0\xbb\xcd$;&amp;H\x845\x89\x8f\xbb\x95\xe8\x08\xfb\x91\xdb\x1c\xb3+\x03\xe6\xc1\xd7P\xa7\xac\x11\xc0\x9b\xfc\x9e\x04\xa5p\x9c\xc0\xb2J\x84\xbd\xc6\x01A\xb3\x06\x8f\xd2\xcd\x8c\x87\x89xL\xa7\xa4\xf6t\xda \xe5\x19V\x98C\nL\x887\xb2Z\xbd\xec\x11\x1a2\xe7*\xfe\xf4({\x93pc\xef\xa4QL\xa5\x8c\xc7\xab$\x81\xe9S\xd8G\xaa2i8\xb9\x01\x8f\x8e\xee\xc1\xf3\x0e\xf7a[\x99\x0c\xe1\xcc\xb0\x0c\xd9\x96\xb1\xa2@U\xf9M\xf5N\xc5\xa1!K`\x83\x9b\x81\x13\x95\xbbS\xe0&amp;u,\x0c\xa9d\xba\x82\xba\xaa\x91\xd6\xbd|X\x019\xd4?&gt;\x83F{\xc2\xe8.\xbc_\xbcJ\xb7\xe3\x00\xc4\xf0\x80\\\xac\x0c\xabJZ@\x8a\x0c\xc8\x86\x19*\x16jn[\xa3b7\xbf\x96\x92\xd52\xa6\x94\x8b\x9b\xcarJ\xc3\xf5D\xcb|l\x99\x06\xe8c\x10\xda\x97B\xad`)\xbc:\xaag\xf1I\xa6]\x96\xc1q\x9e\x9c\xf0\xa7\x1b\x9ae\xca\x81\xad7\xa5)\x9f\xb1(\x7f\xfa\xa5\xa1}\x0b\x9d\xc1\x850h\x84\x88}\x83\xeb5\xc4\xbeLE\xbci\x15\x1eR@\xf3\xac\xa3\x15\xfd\xb2\x9f\xd4LS\x9d\x19\x16\xeb\x9aB\xe6\xc5:8\xa5\xe1x\xf7\xd3N\xbb*\x04\xdfP\xd2\x970;\xf4/\xcd\xf8l\xc3\xc4Z$\xab!\xa2W\xa2\x83,\xbc"\x06\xcd\xa8\xa9\xd7\xeb&amp;\xab\xb4lR\xb3\x19Q1\xff\xdd\xe2Q\x96\xc5\x87{\xc2\xe87\xcc\x85\x11\x06^\xed4wLk\xd5N4S1\x1caLe\x11AV\x9c"\xc4mu]\x95X\xbdA\x1c\x16fP\x92\xad\x851g\x91\xeb\xd4\x06\x16\x93&lt;+h\xa4\xee\x81\xb0{\x0e\x9f\xfe\x01V\x0c\x1b\x9b\xb1\x0e\xeb\xdd\x0c\x87\x89\xd2ecT\xa6\xcf\x12\xf4\xae\xfb?A\xcb:\xad-\x12\x03m!\xf1\xe1\xbd4\xa4\xce\x17\x1aV23\xa8\xce\t\xfa\xae\xc6yQ\x18\x1c2\r\x7f\xa3\xeeE\xb2\xce\xf7\x8c\xa1NQ\x0f\xf9|\r\x89\xe1v\x15R\xb5a\xc9\xbc\x9c[\xbb!hY}\x1a\t\xd9J\xbe.\x9a\xcd~N\xe0\x84\xdb\x84\x0c\xc9]gG\xe19\xab?\xf6\xa6h\xb5\xfe+\xf9\x1e\xc6\xfc\xc8\xbc\xcfs\xe0.\xa7\xe4\'\x8e\x9f\x98k\x9138=\xb0\x9a\xad|gDQu\xcc*e\xac\xed\x19[0T\xaa\x10\t&gt;?\x87d\xcb\'D\xb1\xff;\x19\xca&gt;\xe0\xe2\xc9L\xb8@j\x92\x05\xb3\xb8G[\xf3XX\xd2|+\x93\x13IVxR-(\n\xeb\x88\xc4f\x9bOT\xea\x88\xc4\r\x0c\xe7\x93\x0c\x8a\x0ba\xab\xaf\xb8\xe50!\xb2\xfc&gt;\r\xc1S:B\xc7&gt;~\x84\xcb`\xa2\xd1\x9cz\x9fi\x8c\xdf\xbcL\xd3\xcf9\x1b\x0e=t\xaa:\x91;\xa0\x1a\x93@\xea\xfa\x12\xc8\xe5\xfa\xb0h8\xa4t\xbd\x1e\x9d\xef\x85~OCj\x96\xdc\xaeF\xdcK/\xfb|\xde|\x1cz\xb0ES\xebz\xf9&gt;#\x94\x8f0j\xfa\x11\xe4q\xb22\xa8\xc8\xb8\xb3\x0e\xb3\xab\\(Eurh\xf2\xed\x9c\xad25\xcd4\x83}~Uj\x98\xa6\x88\xf1e!{}\x03\xc9\x1c\xe2$\xe4\xd1\x18\x91\xb5\x12\x1e\xb9\xdf\xa4\xd6\xebp0\xca\xb3I\x0c\xd4\xe8\xd2\xdb\xd6U~\xdeH+B\xa5\x9d\x91\x144)\xbb\xc8\x8a\xff"\xd2\xdcL\xe8\xe8\xef\x1a\xcc\xa4+\x05H\xca\x9c\xeb\xf6\x8b\x81\x9a\xdd\x9e\xa8&gt;x\xfd\xbe\xf3Z\xcf\x87R3l\xc9\x80)&lt;\xc9\xb7j\x8dr\x93\x97\x18\xb9\xa0\xf1%"\xeai]\xe4\x9f\xf8\xde\'\x844Z\xb1"\xdb\x92\\\xcd\xbbT\xde\xd9e\x9e,\xb0\x17C\x93\xaf\xf9\x08\x84&gt;`\xea\xee\xc50\x1a\xb8Z\xdd\xa2:zJ\xc7\xe4\xef\xc9\xe7\xa0&lt;KF\x8a\xbf)\x94O\xc9o\x842&lt;uI\xcc\xdf\xcb:\xd3\x82\x14\x17!\xf4\xba[\xa9a\x85=\xf5\xa0!\xb2\xa7\xc1y\x8d\xe1Q\xec\xba\xee\x91\xe0s[mB\xb2\xf9kyG\xec\xa1Z\xb9m\x8c\x0b\x1eR\x11l\x14\xd9d\x934\ni\xdb\xae\x99\x860\x1c\x89\x84F\xa2\xa7\x1f&lt;\x08\xf8{H\xc9f\xa3p8\x18\x9a\xd5$Q\x9e\xac\x95\xda\xba\x14\x8da\xdf\x9f\xa1\xbc\xa0D\xa5!-tI\x841@w^k\xab\x923\xccb\x83}\xd9\xf9\xf0\xbb\x87\xf8O5\xde\x18\x0b%^r\x18\xe6`\x8bG\xf9!&lt;\x99lY\x04\xc1\x8e\xcb\x0b\x18\x14\x88!\xde\xadV\x0b\x84\x1c\xd3\xba\xfe\'c\x8ca.\x0c\xcc\x15\x8d(s\x18J\xfc\x14\xc6\xbe\xf10\xe3\x9c/\x8c\x83\xf6N6\xce\x89\xbd\x95\xbe\xdd\xdc\xb4\xc3\xcd%\x10\x9e\x00s\x99\xfc%\xf7\xe0=B6+@h\x1e\x95\xd1!U\xe9_\x93/\xf2\xbf]\x8d\x85e\xc4\xb7\x16\xc6\xbf\xf0\x90#\xb9\xcf\xc0\xfa\x1c\xca\x18l\x08\xed]\xc7\xe1\x12\xe9Q\x8e\x84\xe3\x01G\x04\x04\x97\xc4\x8aF:\xd9\x1f?\xdb&lt;Y\xa4R\xb9G\x05\xb6\xafP\x8a\x9e\xf1%\xf5\x18c\x04\x9ey\xc8\x91\xdc\x90\x90\xbf\x84R(\xc9t\x8dJ$\x0c{J\xedJ\x12_.}l\xa6\x1d\x9b\xb0\xf1\xaa"$\xd9\xcc\x18to\xa4\x0e\xa9\\\x97\xb3\xf1\x10H\xec\x95,\xc2\x19q\x10\xfa\x13\x06\xe4\x9f\x1d\x03i\xb7\xc8T\x07\xf4\n\x04\xaf$\xb5|)\xc9\\\xc9\x12\xda\x0f\xe6\x01\xfaR\xa6\xf6\xcf\xcd\xcbR\x13[\xeb\xf9\xa0\td`]\xa2\xb6\x17\x1c_\x10\xdfz\x18\xf3\x93\xc6\xe3\x9f\r\x85\xbe\x16\xb2 \x19\xd2\x90\xd5y\n\x8fY\x83\xceF\xd1\xf7.XU\x1e}~\xb9\x80\xa3\xb2\x122\xe3k\x8f)\\u\xb0i\xa1\xc5\xe8\xa1u\x1d\xab\x00\x00\x03\x18IDAT\x84\xe5\xeb\xc1\x9dH\xbcw\xfe?GF\x127\xed\x8b\x98;.\xd9\xe1T\x9b\xe1\xb8\x14ZO\xafZ\x80(\x1d@[\x14\x82\xa1\xcb\xc0\xa0)\x0e\xe8rxw\x0b\xc8\xce*\x08\xf4\x06;\xc5\x1d\xbel\xa2\x124\x81\x0b\xd1\xfc&amp;\xdfqI\xad\xd3\xaa%d\x1cq\xc0\xc7\r:\x03`\xfb^\xc7\xa8\nH\x8b\xf9r\x01\xb0\x048\x8b\xb6\xd2\x1dV\xeb\xf5\x81\x16\x06@\xc1\xbb\xbd\'\xaf"\xc6\xda\xe1\x1d\x8f(X\x8b\xc7\xefF\x94\xe3\xde\xedN\xf7\x93\x1c\xb9\xf9\x18H\x06\xb2j\xe0c*\xee&gt;s\xcc\x85\x1a\x98\xf38`"\xda\xc4\x00l\xa8\xc2\x19Q\x82\xa1\xf4SA\x11\x07\xad\xa2\x03\xa1sA\r\x0b`\xc7T\xb0\xc82\x90\x01,\xe5\x1d\x1d/\x05;E,q,\xdc\x04\xedb,G\xdf\x8e\xf7\x11Q\xe9\x85cq\x96o\xb5Sw"\xc4Q\xd0\xa51!\x17\x03\x1c\xab\xf68\x05\x03\x0b\x18yK\x06\xb2\x00\'3\xf8\x08\x94p`\x89\x9e\x86c\xea\xa9\x11&gt;\x14\xef\x14\x8bm\x81U1x%rX l\xd1v-\xb0g\xb8\xfb\x13\xf8\x08\x14f\xf2\x8fq\x12ft\xbc\xba\xd6\xdd\xe9h\x86c\xd4\x8aPl\xce\xcaC4\xf7gbs\x16P\xfc\xe1\xea\xf50\xad\xb1\xe5Q\x8e\x19\x1f\x9c\xdc\xcf\x8492\n3P\x00dU\xc1\xc7\xebl\x0f\x04\x1d\xb3\x82y0M(\xd2&lt;R\x1d6g\x1d\x03f\x0eX\x1f\xb3\xba\x04q\xbc\x8e\xaa,\x03E\x80\x9dY\xc51`m\x8aS\xd6~l\x87\x11\x959":\xa6\xd9\x98\x8e\xcaX\x11\x8fz\x18\xd1\xd6,\xa7\x943\xfd\x8e*\xd2\x94\x9f\xc3\xc5\xc7\x02LZ{\x9c\xdc\xb7\x01\xbb\x86\x99\xebQ7N\x15\xc0z\x0e\x07@\xebxQ\xfb\xb3\x95S\x91\x86\xb7=\xd6\x03;\x06\xd3\x9b\xdc\x9d"\x80\x89\x8b\x85\x8f\x81\n\x80\xdd\x94\t\x98Ng:\xb9O\x02\x1dt\xd5\x852\x1e\x9d\xb3\xa7w\xc5\xfe\xcd\xfd\x8eG\x81-l\xd8\x82\x9c\xd5[\x03\x7f\xb6\xa0\xa4\xc4\xda\x8f\xa0\x83\xae\xe6\xba;\xcd\x04\xe6\x1e&amp;[j\x9d\x8b\'\xcb\xcb\x01^?\xe2&gt;1\x15\xd8\xcf\x99v\x1d\xe3\x90\xa1Y\xc0\xf4\x93\xf3\xe6\xcd\x9b\xdb\xb5\r\x18\tpy\r\xb0\xef\xb12\xf5\xfe2\xa7\x99\xe5\xbe\x8e\x1c\xbc\xb2\x0c\xd4\x03\x9a\xa0C\xd4\x0e\x1evrz\x12\x17\t\xac\x82\x9e\xd7\x10{\x88\xda\xad\xe7\xc0x\x8e\x8c\x03\x06\xf1\xe18\xd0!jvT&gt;sNX\r\xe5\xc89\xc7\xd5\xef\t\x1f9\xf7\x1e4q\x81t\xe4\x1c\x8b0\x03\xd5\x01;\x17\x0b\xa8\xf2{\x08\xb4\xc3\xe3:\xf1\x07\xf4M\x05:&gt;\xf85h$\x85E\x88F\x07TjRr\x9c\xa1&amp;\x03\xed\x80\x1637\xe8\xf0\xc7\xf6I\xdb\x89;\xfcq\xfb$\xf0\xe1\x8f\xdc\xcc\xb2\x0c\xb4\x05\xec\x8a\xbc\xe6\xa0\x14\xb3\xe0E\xb1\x07\xfe\xa32=\xe2_\xa4\x81F\xde\xccyi~T&amp;\xf4`Q{9"\x0e\x16\x05\x17\xb5r\xf6\xf49X\x14V\xf6\xdb*q\x13:\x86\x95[\xc9V\x82\x81\xfe@FH\x9f\x87[\x05[\xdaR\xe1\xe6\x11\x15\x92a\x18@\xc0.\xa3c#\xad\xa0\r;\xe2W[A\xdaFG\x86\xe2\xb4\x04\x00ljxn\xedt\x8d\x87\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL-***)*CCC#\x1f *\'(\'#$644DDD#\x1f $\x1f #\x1f %"##\x1f \xff\xed\xb54.1&amp;""(&amp;&amp;(%&amp;$!"%!"$\x1f!%##$ !#\x1f \xf5\xdbX\xfb\xd3\x0b\xf4\xdaC:::)%&amp;***# !\'$$%!"#\x1f "\x1f $ !$ !/,/&amp;#$&amp;$%&amp;#$#\x1f!&amp;"$$!"$!!%!!#\x1f %!#$ !$!"\xef\xda\x80\xf1\xdcP\xfa\xd4\x0f\xfc\xd2\x05\xf7\xd5#\xf9\xd5\x17\xf9\xd5\x1b...\xfb\xd4\x08&amp;"$\'$$\'$%$ !%!"\'#$&amp;$&amp;%!"%!"$ !#\x1f \xf8\xda3*\'\'\xf8\xd5!\xef\xdbc\xf8\xd7&amp;%!#\xfb\xd3\x0c\xfb\xd5\x17+&amp;)\xf3\xd7;$  %!"% !&amp;#$\xf1\xd8K\xf9\xd6\x1d\xf5\xda5\xfa\xd5\x16\xf8\xd5\x1f\xfa\xd4\x14\xfb\xd4\x13\xfb\xd5\x12\xf8\xd6\x1f&amp;"#\xfa\xd4\x13\xff\xdf\x7f\xed\xdb\x7f(((\xf5\xd70*%*\xf8\xd4\x1f&amp;"$$ !\xfa\xd4\x0e\xfb\xd4\x10\xfa\xd4\r\xfa\xd6"\xf9\xd5\x14\xfa\xd4\x18\xf9\xd8+\xf4\xd85\xf5\xd71\xfa\xd5\x12\xff\xff\xb4\xf7\xd6!\xf6\xd88\xfa\xd4\x12777,,,#\x1f \xff\xff\xff\xff\xd3\x00"\x1f \xf3\xf2\xf3\xfe\xfd\xfe\xd4\xd4\xd4\xff\xfe\xffLHJA=&gt;\xaa\xa9\xa9\x9f\x9e\x9e\xb2\xb1\xb1\xbd\xbd\xbd956.)+\xfe\xff\xff\xfa\xf9\xfa&amp;"#\xff\xd3\x01\xb0\xae\xafGCD$ !\xfc\xfc\xfc\xa3\xa1\xa2402\xe9\xe9\xe9;68`]^\xcd\xcd\xcd\xf5\xf5\xf5QNO\x99\x98\x98$ "($%/+,\xed\xed\xedecc\xf6\xf6\xf61-/\xf8\xf8\xf8VST\x91\x90\x90\xe1\xe0\xe1\xfb\xfb\xfbb``\\YZ\xb1\xb0\xb0DAB+()\xa5\xa4\xa4MJKrop\xd9\xd9\xd9\xbc\xbb\xbc\x8f\x8d\x8ePMN634&gt;;&lt;;89\xfe\xd3\x02\xd2\xd1\xd1\x8c\x8a\x8b\xb4\xb3\xb3\xc1\xc0\xc0\xf2\xf1\xf2\x80~~GDEKGI\xde\xdd\xdd\xef\xef\xefwuvolm=9:\x89\x87\x87TQQ\xd6\xd5\xd5\xac\xab\xac\xc7\xc6\xc6\x83\x81\x81}{|{yy\xe7\xe6\xe6\xb8\xb7\xb8\xd0\xd0\xd0\xe3\xe2\xe3\xdf\xdf\xdf\xeb\xeb\xeb\xba\xb9\xba\xb6\xb5\xb6\xfe\xd3\x01\xfd\xd3\x02\xc3\xc2\xc2\x9c\x9b\x9b*&amp;\'\x94\x93\x93\xcc\xcc\xccIFGjgh\xa7\xa5\xa6967\xd8\xd7\xd7\xc8\xc8\xc8\x96\x94\x95845ywxgefA&gt;?\xfd\xd3\x05\x87\x84\x85\xa8\xa7\xa7^[\\\xdb\xdb\xdb\xc0\xbf\xbfYVW\xe4\xe3\xe3\xf0\xf0\xf0\xcf\xce\xce\xd6\xd6\xd6lij\x85\x83\x84trr\xe5\xe5\xe5\xaf\xad\xaeurs\x89\x88\x88\xd4\xd3\xd3\xca\xca\xca\x9e\x9c\x9d\xc4\xc4\xc4\xec\xec\xec\xfb\xd3\n\xfe\xd3\x05\xfb\xfa\xfa\xfe\xfe\xff\xf2\xf3\xf2R\xa7*n\x00\x00\x00xtRNS\x00\x13\x1d\x01\xed*a\x08\x03\xfe\xe9\xf1\x86\xfc\x01\x0eo39z\x95\xdal\xbb\xf6\x1c\xf21\x05.\x17\xcfA}\xe5\xf9\xd6\xc4\x0csIR\xdfg\xc0\xa4\x9f\xf4\x81\xb5\x9c\x0c&amp;\xe4\xfei\xbf\x8e\x16\xfbWND\xb1\x92O=\x8a\xaa\x8e\xe2J#s\x10\x82i\xfd\xc7%9\xd1\xac\xccZ7\xa9B\xab\x93\xd3\xd7\xd9\x9c\\\xf1\x08\x07&amp;]"\xa3w\xc7\xe8\xe9\xf5~\xb1\xbacHN\xde\x11\x83;\xa2\x17(0hK\x12\x00\x00\x0b\xe3IDATx\xda\xec\x9bw\\TG\x1e\xc0\x17\x04\x0b\x82\r\xbb&amp;\x16\xec-j\xd4h\xd4h\x12\x13\x8d\x9e\xc6\xe4L\xafw\xf9$\xb9\xde\xcb\xfcX\x87UD\xdc]\x94\xa5\x08H\xef\xbd)H\x17\x10EP\x8a\xa0b\xec\xd8{\x89F\xe3\xdd\xe5Z~\xf3\x16\x96}KQ\xe7=\xe0}\xee\xf2\xfbcx\xef\xed\xce\xbc/3\xbf\xf9\x95\x99Y\x95\xea\x7f]z=\xabH\xac\xdf\xbe\xa6H\xac_\xfd\xbe\x97\x02\xa9f\xcd9\xf2;\x05b\xcd;\xec\xf1k\xe5Q=;\xd4\xd9y\xce,\xc5a=w\xd8\xd9\xf9\xc8{\x8a\xb3\x0e\x1f \x96\xf3P\xa5\xd9\x88w\x8e \x95\xf3\xce\xe7\x14\xa5WC\xde\x9a\xeb\xc1\xb0\x9c?|k\xd6\x1f\x14`\x14V\xcc{{\xd5\x07\x9f\xac\xbc$\xf4\x95\xd0_\x97\xfe\xf9\xc9\x87\xab\xde\xfdh\xc5\xeaN\xc4\xfa\xf4\xa3K\xce-\xca\xce\xb9\xcb;U\xd3W\xcci\x01\xca\xe3_\x9f\xff\xa4\x93\xc7\xf17\xf3=\x9aa]\xfac\xe7\xbb\xa1\xa5C-\xb9\xe6+b&gt;\x0e\x9b\xbdS4\x82C\x97*\xc3&gt;\x0cy\xff\xb0\x19\xd5\xcf\x86)\xc5n-5\xeb\xae\xc3\xca\x89\xba~i\xa6]\x87\xdfU\x0c\xd6\\s\xa5\x9f\xad\x187m\x9c\x8b\x1eF\xb89C\x14\x825Lp=\x1e\xbf\xf8\xb9\xc0\xb5\xf33\xa5\x84Z\x88\xe5q\xe9\xed!\xcb\xdf\x9b\xcf\xf0\xe6)\x04\xeb\xcf\xd8E\xef\xbf#\xf4\xdb\xdc\x9d\xce\x1e\xab\x14\x825\xdbc\xe8k\r&gt;\xb0\xd7g\xb3=V~\xaa\x0ck\xba\xf2s3-_&gt;o\xfejeh\xfc\x9f,\xeeW\xab~\x90\x1f\xe4\xffA\xfa\xbe\xaeD*\xabI#\xba)\x8fj\xf8 \xa2\x9e\xdaEiT]f\x12\x14{\xa5a\xbdL\x04\xe9\xa3,*{#\x15\xe91PI#\xf8\nC\x8a\xdc\xc2\xb8\xbeP\x0cU\xb7\xa9\x8c\xeabM\xf4\x0e\xf6\xf7\x95\xee\xca\xa0zz,\xa3\xc9\x8c\x06p\xf1fW3z+\x81\xea\xa5\xd1\x8c%#\x1a\n}\xc0E\xe8\xaf\x01Ou\xbe\xb9\x9a\xee\xc0HvU\xc0\xc1\xcc-&gt;P\xb8\x9e\xdd\r\xee\xd3\xc9\x03\xd9\xf7\xc7\xc2\x04\x0c\xfd/\x9c9MHB5\xd4D\n\x0f\xa6\xfc\xb43\xfdM\x7f\xa1\xab\xf4Q\x14\xca\xc2\xd9\x95\xefC\xd0\xe5\x0b\\N\xf6\x9d\xa5a\xbd\x1d{\n\x04\x19\xf5@O\x05\t\x97\xeaM\x87\xb4\xb4VP0b\xd7\xa73\\\xa4\xb5\xbd\x8d\xf0\xf6\xc0\xfdy\xe0\x7f\x8f4\x8a\xe7]\x1d\xd4\xec6^\xdb\x8dz\xbe=\xde\xdcu\xfc\xb2V&gt;\x19\xb7`\x91\x83\xf1\xd5\x01~T\xeb\x97@\xcc$9\x15\xa0\xae\xc0x\xed\xb4da+]\xd6\xc5\xd6q"\'\xd6\x12\x9c\xeb\xfd\x17X[&lt;\xed\xfe\xd4\xc0E\x83\x1b\x10\x12\xdc(\xf8\xdf\xd5\x13\x91\x04EE@\xcc\x95\x92\x86\xbb\x9eoN\xb6\xb5\x08,z\xbd\xfe\xf1\xccI\x84,\xe6\xc42\xce2b3e\xa6c\xd7\x85#\xfb\xf5\x1b\xf9b\xd7Q\xd3\xbe|\xc6\xf4\xfe\x80\x1c\x03\xd0\xcd\xbe\xa4\x99$\xa4Q\xd0\xb9\x9e0\xdd\xf7\x1ck\xde\xc2X\xa3J\x92E\x9cXv\xa4\r\t?_\x05@7&amp;\xb7\xfc\xe9\x8dz\n\xb4,eS[-\x8c\xe0tu=Zm\xd1\xb78-\x02@\xb79\xb9\xf5\x97F\xd6\xc6\x00\xf8\xe7\xa4\xech\xf5\x1bv\x9cs\r\xab\x9et-\x8f\xf3\r\x14\xf5R\xe4~\xd7B\x8a\x1d\x95\xbag\x07iSJ\xa2\xa2\xd9\xf7\xce$\x9d\x0f\x08V7=V\xebK\xb6^\xde\x1c\x87\xc1\xc6p&gt;\x0b\x8em\x1c\x03\xd0\xd2\x88\x83\x7f\xab\xdc\x97\xe4\xe5u\xc5-\xf7\xce-\xaa\x05\xd0\x18n\xa7\x9f \x8f\x16\xcf\x80\xb3\xa5T\x03\xc8\x16\xe2\x92\x1b\x7f\xca\xcb+\xe9~\xed\xf1j\x1dk\x82\x19]k.\xac\tX\xd3\x15RS#\xb4\xac\x9d\x06\xd1\xd0\x9b\x1b\x8f\xc5\x86\x93\xc7\x16\xef\x0b\xdb\xea|\xa8Vkj\x82B\xd8\x9d\x83p\x0c?\xe2\xf3\xe8k\xb0f\x1a&lt; \x81\xbe{/\x14\x97g\xa7\xa7\xef\xc9\xdf\x1d\xb7%\x91p\xc8\xa6\x13[S\xf2\xbfMO\xcf./\x0e\rp\x0f$\xd9p\n\x9f\x8e\xe4\xc2\x9a\x8c5\x8fC(i\x079\x00\x87\xb0\\\xc8\x855\x1ek\xa6\xd2H\xcb&amp;\xd52`}\r\xff\xc0\xf2c.\xacQX\xb3\x02v\x89\xdaK\x8c\xcd\xde\x96\x1d\xda\x829*\t\x08\x088m1r[\x99\xacc\x97\xc1\xc2e\xd3,\xd9\nUXN\xe6\xcef\xf2\xb4\x17\xcd^\xa4\xbf\x1c"\xa8}\x98\x97\xb7%V\x15*u\x9d\xf8\xd1\x16A\xc3S\xd9e\x8ap\xb9\xb9\xc9\xa8\xd1T\xee\xec\x8d\xa5~:\xad\x99o\tJ3M\xc8\x8a\x021B\x01Z(0d\xb6\x80EO\x0b\x13Z\x8c\xb5]\x1b\xcd\x8d\x85YV`\x0c\x98\xd9\xcc$\xd6v\xc85\x7f,\xff}Y\x8c\xb5Mxov\x0bX\x90\x82\x97\xd5\x16X\xeb4\xdf`9\x9e\x17Ko\x80\xa6\xe1J\xc6\x1e\xd1\x15\x07\x12\xfd\xd7\xb7\x8e\x8b5\x8e\xe8}\x98=\x82\xc2fXy\x00\xfb\x08Y\x8fnH\x84\xb5\x0b*\xd4\xbcX\xf6\x16\xbdu\x05[\x8e2\xc6\xa3\x9e\x16\x9a\x15\x8bL9h0\xf7Zb\xd5R\xc0~9\x0f\x90&amp;\xc6\xd2Tp\x0f\xe2t\xf4\x1e:p7\xb5U\xdd\xa0(-H\x0e\x0e\xeei\x03\x08FR\x84\xb5-\x1ah\x02\x89\x07\xd8/\xc2J\xfeO5\x96?\xe2\xc2r\xc4\x9a\xfe4\xc3\xa4\xf0\xd8#5\xad\x049\x11l\xac\xca\x00n}e\x89\xe5\x85D\x9e&gt;\xa0K\x10a\xed\xa5l\xbc\xbbra\xf5\xc1\x9a5\xb0\xa5\xb1\xa9`l8\xbae,\xd6\x15\xa1$\x1f\xcb\xdd\x96X\xa1\x00\x95\x05Z\xa8?\'\xc2\x8a\xd3\xb8`\xb9\x80/\x94\xc7\x9a\x07i\x80)\x1c\x08\x03\x08\xd3\xb7\x88u\x1bu;\x88\xf8bw\xe6Zb\x05\xeb \xa4\\\x03\xd9b\xacPM=\x96\x13\xb8\xb0&amp;b\xcd,\xb8jj\xeb8\x0697\x8c\xb6\xde"FF\x1e\xff\xd2\xd2R\x8c\xfb\x0c\xbe\x16X8\xb44\x1a`\xbb\x18\xeb\x1e\xa4a\xd9\x8foq\x01k\xd6\x99\r\xcb]l\xd9\x8f)OP\x99\x9b\xbb9\xd6Yh\x92o-\xb1\xf6\xb0\xa7\xdfyz\x8b\xb0\xca\x99\xd9 |K\xc0\x7f\xc5\x9a\xf1\x90oj+\x18\x8d\x13d\x15\xc7\x96c\xc6\x95\xb7\xdf\xcchU\x08F\x0b\xfb\x12M\xc45K\xacu\xec\x93x"\xc6:\x0bG\xb1\xe4\xcb\xbb{c\xcd\xa3B\xbc\xd6 WuM\xbd\x12E\xcc\xfc.h\xaf\xfb2)E\xbe\xbd\x16X\x9e\xec\x9fy`\x81\xe5\n\xe8%\x9e\xe1\\\xe3\xc3\xd4\xeb\xb2\xd0\xdb&amp;\xab\x19\xd2\x00e\x8823\xa8\xf1\xa6\x19\xc8\x06,\xc9\x02\x8b\xecCVw\x0b\xac\\\xe6\x92\x06p&amp;dc\x1a\x03\xa3\xa6\x08\xf8\x18f\x17\xf4f\x92\xb9\xa3\x0e\xaa\xcf\xca\xf23N\x82\x8c\xaa\xac\xac:SB\x92\xe1\xe7\xe7\x87c\x1d\xeb\xe7\x97\x83\x1a\x807\xe9\xa6:\xd7X\x187\x88\x13k\x06\xbazM\xb5\x851\xf8\xea\\\xa2\xe4(00\x82b\xb01\x93\x13k1\xdao\x1a\x13$\x7f\xcc\x9c\ta\xa8\x04\x8e\x9cX\x03\xb1\x85\x10(P\xcb.qp\x06\x03\x08\xde\xa5\x91\x17\x10\xab\x1e\xc2\xd6\xca.a\x80\xdaFl9\xb1\xfe\x82u\xbd\xa0]\x04\xb5\xdfi8\'\x16[\x1b9\x00\xfe."A\xdb\x94\'z\xf0\x1d\xdaP\xf3{4\xb6!\xa2/\x14\x01\x9c\x11\xb7\xa1ci\xde\x08^*a*R\x1f\x8b|\x06`\xa3\xe8\xc1\x06\x80u\xe6\xf7\x18\x8a\xba\x8a\xbe\xe0\x06\xe0.\x9e\xcc:\x8a\xaes\x1a7\x16\x06\x82A\x11\x9a\xcc\'\xc4\xd2&lt;\n+\x00|\xb8\x83\xc0\xc6U\x08?Q\x0c%\x0bV9Tb\xd9\x97\x7f\x81\xbb\x07\xcbi\xbc\xe4\xc6\xaa\x84\xbb\xe8\x11%\xec(\xa0\xfb\t\x8532cy\x86\xc0v~\xd7\xc3\xa4?\xday\x03=\'/\xd6:\xb8\x85~s\x94\x04\xac\x89BD\x9c"/\xd6\x1eA\xb5\xfaI\xc0\xb2r $\n\x838Y\xb1\xca\xe0\x00!6\x926\xab\xc6\xb2\xf5\x82"\xbd\x9cX\xe11,|X"i#\xe3\x0b\x8cB| NN\xac\x14\xcdC\xee\x1c\xb1Ql\xd5\xcc-z\xc9\x89U\xc9\x1c\xa2\x83\x95\xb4}\x1f4\x11qZ\x1f\xbd|X\xc1\x11Z\xcc\x88\xa7H\xdc\x8e\x9a\xce\x96c\xb4W\xe5\xc3z\x00w$y\x9e\x86Q\xc46\xfe\x0e\xf7\xe5\xc3\xaa\x83=8\x86\x92w\xf4F\x10\x92\x0c\xfe\xc1ra\x95P\x96x\xcf\x90\xbc\xa9\xc8\xd6\x9b\xef0K#\x0fV\x94\xb0L\xb1F\xfa)\x07\'B\xf2\xe1\xa1LX\xfao\xe8I\xb4\xa52l\x17\xbf\x89\x16\xd0\xbfi\x9dO\x1a\xd6I`\xb3\xba\xbf\x0c[\xc3,\xd18\xd5\xe4\x80\xa4a\x95\xb1U\x82\x1er\x1c\xdf\xe82\x80\x90\x13T\x97)\x07V2\xd5\xb9K7ZM\xe9b\xae\xb0\xc4"\x19+^X\xd2\x98(\x0b\xd68\x1bB\xaej\xd7zK\xc7Z\x1fCO\x102I\xa6\x93.\xf6\xc2\xb2`\x94t\xacS\xc2"`\x1fy\xa8TO\x0f&amp;\xe4\x826/\\*V\x86\x8e\xad\xc4\xda\xc9v\x98\x04cgO\x97\x86\x058\tXW\x04S\xea(\x17\x95\xca\xda\x89\xa5\x1akwH\xc3J\x88\xa1\x98Z\xd8\xc8x$h\xb1\xb0\xd0\xec%\r\xabR\xd8r\x95\xaf\xb3\x98v\xa9I$\xd5%H\xc12\xd6\xb7\x1b\'\xe7) 6\x19\x0f\xc1u\tX\x81YBo\xcb{\x00\xb4\xb7\x1d!\x17#h(?\xd6y(B\xcb7`\xb8\xacX\xc26\xffY\x88N\xe4\xc5\xf2\x0e\x11V\xf8_\x94\xf9,W\xf77\x08I\xbc\tgy\xb1\\\xc1E/-\xc3oe\xab\xa5\x07\xdaT\xaa\xdb\xc5\x87\x15G\r\x18\x1a9\xd9\xca\x8e\xa5\x9a*h}U8\x0f\xd6\xc5hA\xdf_n\x87#y\xcf\xa3\xc7v/\x82\xb3\x1cX\x9aCp\x13\xb3\x81I\xe3\xda\x01K\xd8_\xbc\x07\x06\x9e\xde\x02\xba\x15\xa3\xbf\t\xedA\xa5\xea2\x08\xdfQ\x0b\\Xl\'h\x9a\xaa}\xc4\xba\'!;jx\xb0\x0en"d\xb4U;a\t\xc3\x18K\x9f\x14+\x07t\x01\xed6\x84\x8dY\x10\xe6\xd8!%O\x82\xb5+L\x8by\xb4,\xd9N\xab\xcbp\xa3\t\t\xaa\x82\xdbA\x8f\x8f\x15\\\x08\xd7=\t\x19\xd3\xae\'\x89G:`\x90Yd\xb6\x97\xf9(,\xcfZ\xb8\x89\xbepp;\x1f\xa1\x9f\xce\xd4\xcb@\x0f&lt;.V:\r\x0b\xe0&gt;\xaa\xf5\x04\xbe\x91Y\x89l\xd0\xddx&lt;\xac\x93\x14\x8a\xf1\xcfTU{\x8b\xd5\xab82n\x10r\xf11\xb0\xd4\xdb\xfda\x03\xfe}\xa3\x03\x8e\xa8\xf7\xc5&lt;(\xb1\n\n\xbd\x1f\x8d\x95\xe1\x03\xd71n\xb0Y\xa6\xea\x00Y\x83\xb1\xc4\xb9j8\x9e\xf8(,\xefkP\x8a\xae\xd0\xe1\x05U\x87\x08\x8b\xa0\x0b\x8a M\xdf6V\xa2\x1fTd\xca\x1e\'\xb7\xe1\x1c\x97\xb0\x8c!\x0c\xee\x07\xb6\x85\x15\x94\x0bE\xec`\xc2bUGI7\xf6\x83\xa3P\x1dxy\xaa[\xc5\xd2\x1f\x02\x7fvfuQ\x07\xfe\xb6\xc6j\x0c\xf2\xec6\xd0\xa3D\xdd\n\x96&gt;\x1e"\xd8\xfa\xf4\x97\x1d\xfa;\x11\xebW\xd5jRL\x19W\x8bX\xfa\xcd\xa0c\xc7\x8e\xc7X\xa9:Tlm\xb0\xa3\x0eP\xba\xc1\xb3%,\xbd\x9bFw\x01\xaf\'Y\xab:X\xfa\xb2_T\x9c7\xd0+^\xcd\xb1\xe2k!\x82Q\x8d^\xa6\xeap\xe9\x87\\\xea{1\x10\xd6\x1c\x8bBX,\xfbU\x83\xad\xaa\x13\xe4%\xd6_\'#\xa0\xf9\x81\x03\xc8\xbb\xd1iT\xc6\xfe"qk\x01D\x87\xd7\xf7R\xa8a?\x1d\x19\xfd\xfd\x06\xc8U\xc0\xf4\x05\xda\xaf\xb5zR\xe5\'\xa4\xe0z5\xa7\xf2\x1c\xa8\x1aw\x1b\xc0=w\xb2J\xc0\xf2\xeb\xe0\xdd\xcai\xb7`\xaez\xd8Y\xf9\x1dT\x89\x8b21\x0c H\x11\x05\xb5\x8b_V\xd6BV\xe5\xcd\x9a\xd0Q\xd9\x03Zl)/\xc70\xa0@\x0e\xb4\xa3\xab\xebjm\xed\xba\xf9\x15\x15w\xbe\xd7\xf6\x83Wx\x8a\x0f\xf8\xf6W5C\xf0\x04\xf4\xb4\xca\xc5\x1b\x96M\xaa\xdc\x07*\x18*te\x18\x06\x1cp\x88\x80\xbb]\xe7*;\xfb+\xeb@[_9\x15\x07\xc7\xd6}1\xd0^\xc5\xd9\xdb;jW\x81\x92\x95\x84\r\xc3 \x01v\xe0\x8d\x9d\'\xdf\x83H7A\x86A\x03R\xe4a\x05\x84\x8e\x15\xc3 \x02\xecz\x90\x93\x04\x9c9\x18\x06\x17`\xd3\x07vq\x1c\x19\x06\x1d`\rTeb\x18\x84\x80\x9d\x8a\x11\x08\x00\xa93\xed\x99!g\xd3\x14\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.6700462963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -654,20 +654,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02=PLTEGpL\x95fh\xc8*1\xd1\x1f\'\x80\x7f\x7f\x8eno\xabLP\x80~~\xff\xff\xff\x82|}\x9fZ]\xe7,3\xe8\x01\n\xafGL\x86xx\x9c]_\x8ars\xe6\x00\x06\x9a`b\xdb\x10\x19\xba;@\xc406\xf0w}\xe5\x04\r\xea\x00\x08\xebQX\xe0\n\x14\xeeot\xb2EI\xcf!*\xd7\x18!\xd2\x1d%\xbe6&lt;\xa3UX\xe3\x07\x10\xc129\xb7&gt;C\x91jl\xd9\x14\x1d\xeaIP\xe5\x1c$\xeekp\xd8\x15\x1e\xe9AH\xcc%-\xa3VY\xdc\x11\x1a\xe2\t\x12\xadJN\xe6$+\xedag\xb2DI\xdd\x0e\x17\xecV\\\xe2\x04\t\xf4\xa4\xa8\xe4\x16\x1c\xe5\x05\x0f\xff\xff\xff\xfe\xfe\xfe\xfe\xfd\xfd\xfe\xfc\xfc\xe2\x00\x00\xe3\x00\x00\xe4\x04\x0e\xfe\xfb\xfb\xe5\x07\x12\xfe\xff\xff\xe5\x06\x11\xfd\xfb\xfb\xe1\x00\x00\xe5\x06\x10\xff\xfe\xfe\xe3\x01\x06\xe4\x00\x08\xe9\x00\x00\xfe\xf9\xfa\xe3\x00\x04\xfd\xfc\xfc\xe4\x05\x0f\xe5\x04\x0e\xe4\x06\x10\xe4\x01\x0c\xe0\x00\x00\xe6\x13\x1b\xfe\xf7\xf8\xe918\xe7\x00\x00\xfc\xe5\xe7\xfd\xf2\xf3\xe6\x18 \xec\x00\x01\xea?F\xe7\x1d$\xe5\t\x13\xfd\xf4\xf4\xfa\xd9\xda\xfe\xf6\xf6\xe8(/\xf3\x93\x97\xea;B\xe4\t\x10\xe8\x00\x00\xe4\x03\x0c\xfd\xee\xef\xfb\xdb\xdd\xf9\xcf\xd2\xe2\x00\x02\xfc\xea\xeb\xf3\x90\x94\xe95&lt;\xf0y~\xe7 (\xf1|\x81\xebFL\xe5\x0c\x14\xedSZ\xf7\xbb\xbe\xedY`\xe5\x0e\x15\xebBI\xfc\xec\xed\xf7\xb7\xba\xf5\xa7\xab\xe7\x1a#\xf5\xa3\xa7\xe6\x16\x1f\xf8\xc5\xc7\xfd\xf0\xf0\xf9\xcc\xce\xf4\x9e\xa2\xe7#*\xfb\xdf\xe0\xf3\x8d\x91\xfa\xd5\xd6\xf5\xa1\xa4\xecPV\xebHO\xe4\x06\x0b\xf9\xca\xcc\xeech\xf6\xb0\xb3\xfb\xdd\xde\xe6\x10\x19\xf8\xc2\xc5\xe8\x00\x05\xf4\x97\x9b\xeefk\xefkp\xf7\xb5\xb8\xfa\xd1\xd3\xf0u{\xf6\xb3\xb5\xfb\xe1\xe2\xe8+2\xf1\x81\x86\xecNT\xf2\x8b\x8f\xe8$-\xed\\c\xf6\xad\xb0\xe9.5\xee`f\xefns\xecKR\xfa\xd6\xd8\xf7\xb9\xbc\xf9\xc8\xca\xf5\xa9\xad\xfb\xe2\xe4\xfc\xe7\xe8\xf1\x84\x88\xf3\x95\x99\xefhm\xf6\xab\xae\xe6\x17\x1c\xf2\x86\x8a\xf8\xc0\xc2\xedW]\xf9\xc6\xc9\xf8\xbe\xc0\xfa\xd3\xd5\xf5\xa5\xa9\xf4\x99\x9d\xf0sx\xf2\x88\x8d\xf4\x9b\x9f\xf0qv\xea9?\xed_c\xf1\x7f\x838\xe8fR\x00\x00\x009tRNS\x00"\x9c\xb1\x01\x12N\x02\xfe\x038\xfc\xf3^\x072\x0c\xf7,\xd3x\x8f\xfc\xeb\xfa\xfc\xdd\xfck\xa9\xc0\xb9~&lt;\xe7\x88p\x19\xca\xfc\xfc\xfc\xc5\xfc\xa3D\xcd\xe2V\xfc\xfcd\xd8\xfc\xfb\xfc\xfa\x85&lt;\xe0\xc3\x00\x00 \x00IDATx\xda\xc4\x97\x89W\x13Y\x16\xc6C\x0b\xa4""\xeeb\x83\xda\xe3\xbew\x8f\xf6q:\xf7U\xbdJRI%\xa9\x04A\xb2B\x08\x84]\x08KXe\x91\x06\x95M\x1a\x10YTP@P\x04\x11AQ\x10\x1d\xed\xbfmnUTZ\xa7\xcf\xb4k\xcf\xcb9IU\xa5\x96\xdf\xfd\xee\xf7\xee\xbb\xa5R}\xd1Pk\xd6\xaf\xd7\xfc\xc9q&lt;\xbc^\x13\xa9\xfa\x7f\x8cH\xcd\xdb\x07o\x88\xd8t&lt;:\xf6T"\x8e\xd8\x9f\x8e\xaf\x8d\x88zC\xaa\xd1\xa8\xfff&amp;u\x18)*.v\xef\xce\x03{6\x16\x14\xf8l\xe1\xe1\xb3\x15\\\xdb\xfe\xf3\xee\xef\xf6\x1d\x8f\x88\x0c\xa3E\xfe}L\xf2\xf7\xfe\xe8\xad\xbb\xb6\x17 \xc9\xb5\xab!w\xe5\x8e\x93\x87\x13\x12\x12\x0e\x0f\x8c\x1f,\x1bs\xa6\xc8\x877n&gt;\x96\xb8I\xb3\x1a\xc2\xb7\xce\x1d&gt;$2n\xcb\xaeu&gt;\x9b\xe7\xaa{\xfc\xe1\xccEo6\xc3\x00\x03\xf2\xc0_\x86\xa9\x0f\xd4&lt;O\xa8\xf4_\xb3\xf9\n~\xfe.:J\xd6L\xfd\xad\xa1\xf0+\xee\x87\xcd\xf8Dg\xe5\xc3\x9a\x12\x84Pp,,k\xe7\x9a\x1f/\x0bl`\xf4\xba\xc2\xc7d\x15_:9\x86h\xdbwFoxs\xe1\xb7\xca\x1e\x06\x1du\xea\x88\xcd\xe6\xc99|\x13\x91\x80\x9b\x9a\xf9\xfd\xf7v`\x81\x100A\xb9\x836\xb3\x97\x1c/\x88\x9d\xe38\x05\x8d\t\xb4\x1d5\xd8|?n\x8d\x93%\xfbFJ!T\xc4\xd6=&gt;\x8f\x7f\xa0\xc6%3q-\x13V\x9e\x17\xfd\xf5\x84E\x08=&lt;\xe4i\x064\x8a\xb9\xb8i!\x84pz\xae\xa9\x98a\x8aJ\xf3$\x9bmw\xb4\xfa\x9b\x80\xc9Pq\xc76\xda\xa4\xa3\x1d\xe7\x14&amp;BX\xd6M\x1bK\xf2\xc4&gt;8\xa3`\xdd\xa2\xf7hs\x83\xa3\x147\x01\x88`\x82~\x91&gt;"x\xf2o\x87\xd3=\xbe\x13\xb1H\xf5\xb5=\x86\xf7\xdbt,\xdeSu\xf2)\xdazzI\xd1\xc7\x04\x03\x8e\x8e\xe1\x91\x91z\x16s(c\x89Cn\xf7\xbc\xa8`\x11\xe0\x84\xa2\xaa\xaa\xae:\x8b\x89C\xb2\x92\xd2\x18\x8fms,F\x17\xf9u\xa1\xf6o\xdd\xe89\x9fP\xc40\xf6\xc6\x0c\xc7"kB\x10;)\xa5UT\xacu\xb1h.\x19\xcb\xf1\xa4\x8ff\xd06E-VO2\xc4\xfe\xb1\x1c\x81\x10\x0b\xcb\xe1e\xff*\xf3\xd8\x0eD\x7fM\xc1\xd4*\xf5\xbe\xed\xb6\xfc\xc3\xbd\x0c\xc3\xcd\\\xe6\xfdmi\x98#\x04!\xcf\xa8\xbf\xbfR\xac\x06VQ\xeba\xf0&amp;dP^\xc6\x92S\xd8&amp;NB\x8e3\x1b\x89\xf1\x83\x92\xe9;P\xb15\x11_\x0b\x0c\xef\xb2\xf6\x80\x8f\xdfq\x1d\x18\xce\x04=\xa2_\x80\xa6\x06\xc0\xa9v\x06\xbcgC\x90\x95\xe3\xa8`\xb9\xf0L\x9c\'Oy\xc7c\xdc\xc4\xff\x96\xf2ig\x8f\xbb\xd0\xab\xe4\x1b\'+NL\x18u\x16\xac\xdb\xa2\xf9*\xd6\xd7\xa8\xd6\xef\xbd\xe6\x89\xe9A(\x0b\x10Vp\xf3\xe3\xe9\x8e\xd7z\x13\xe6\x86pc\xe24&lt;u\x8f\xa7\xa1\xfd\xf5\\q\xc7\x03\x16\x86.\xb5#\x08\xcb\xd6\x87\xc4&lt;\'\x95R\x8b1\x00\x8b\xc0\xc1\xc5\xc9\xbc\xda\xa7\x8c\xf7d\x92\xef\x00V\x8b\xc8/\xd7*\xee\x84\xadk[\x16\xe3\x9d\x95C\xc6\xe9E\x93\xae\x0c\t\xa0d\x06*^\x07\xf4\x02|0X\xbd\xde\xce\xb6Nv\x0bi\xcdy\xf4\x99\xac+\x07\r]bf\xaaX\xce\xc0\xfd\x18O\xfc\x96/M$F\x95\x18\xef\x89\xe9\x03f\xb9\xeb\xb6 \x17\x05r\xee\xd7./\x14\xaf \xa4\x85poI\\%\xbd\xed\x17\xa7\x9b\x7f[\xea\x9dM{\x87\x87\xf337\xf8\x12#aI\xfd\x05Z\xdeR\xbf\xe2(\xe5\x98\xac\x04\xabo\xcd\xfe/J\xa4Z\xb5\xe1\x98/\x98\xe0bz\xabi\xde4+;\x9b\x83\x7f\x8b\xf7\xea\xa8\xb5\x99u\xc9\xa6\x11f\xfb\xe6\x06\xeb\xc6\xaa$\x9e*\x83\xb7f\x862\xbaKk\x1e\xc8\x1a\xb2v}Q\xaf\xb2\x00\\\x12\xef\x81 \xc0`\x93\xc5\xce\xc0\xd0!\xcf\x8f\xc7\xbf@/\xb5*\xe2\x84\xcd9\x03Ln\xa1x\x99\xc89\x04\xcb\x19\xb2\x84\x85}\xd4\x8b\x840{gpD\x12\xc5\xa4__\xd5\xdeh\xbb4\xdf\xd33\xdfQZ&gt;\x9e\xe1\x97\xa8\x9846\xb9&lt;\x1c\xd6\x0c\x88\x9dT8\x1a9;\xab\xc4A\xf4\x8c\xf7 \x1f\x9f\xf8\xd9\xfeR\xab\xfe\xb1\xc7\x13\xd3\xce\xd8o;:\xddb\x1b\x98\xb0(`f\x84[w\xe4\xe4\xb5\xe6fXE~d\xb01 \x97)\xfd\xb9\x07\x81\xa9\xa9\xc0\x83zyGh\xedYq\xe3\x9fe\x8f\xa7p\x8fcM\xd0\xe8x\x01\x1c\xb1\x80\x05\x03\x03=\x03\xdb\x82\xbe\xad\x9fi|\xb5\xea\xa7x~G\x1ac\'ss\xf0$\x98\x1f g\xe4\xd8\x15\xd1\xd2\x1a+y\xd1\xd9}\xdf\x05B\xd1LEu\x99\xbf\xaaP\xe2qH\xa9U\x17\xdc\x9d\xe5\x8d\x01\x01\xd8\xbe\xbb~\x91\x96=\xafG0.{"8#\x87$\xd70\x96\xb8\xda\xa1\xe3\xb4o\xa7\xe6s\xb8\xd4\xaaS&gt;\x9a\x80e\x01\x94\x05o\xc0qE\x89W\xb6yo\x85S\xcc\x7ft\x11\xe0\xfa\x8b\xca\x85$4\x14/I\xa9:-\x0e]\xaa\x84x\x94&amp;9\xeb\x1e\x16\x03L\xddX\xc0\x13\xdb\x11h\xf8\x95\xb8\xd0!_+\x17\xda[\xd6\x97\xf0\xec\x17\xdb\xae\r\x9f\xce\xa5Q\xed\xf3\x05\x1fc\x01B\xd5Y\x8ee\xcf\xf9i?\x98\xe4\x1b\x17=\xb2\x8ae\xf3\x00}\x8f\xfc&lt;\xe5\xa5\x14\x83\xc1h4\xcbH\x08\x96\xac\xd5\x9a\x8dF\x83A\x8bS\x80\xbf\xd0]\x03PSI\xe9"\x12\xb23\xaf\x03r\x07\x84\x85v\xc8jE\x1b\xb4\xff\xb3\xe0H\xd4\xa7r\xa9e\xaa\\E+\x8b\x9c:\x13\xdcqL\xb8\xb0Fy\xef\xf2\xf4v1x+B\xa8\x91\xd9\x80@\x8aL2\x96Y\'\x19\xc3{:\x843\x98Q7\xffJ+\xb4vSZ\x1bx\xe3~$\xeb]\xc0e\xd3db\x86c&lt;\x07&gt;\x91K\xadJ\xf4\x05\x9fC\xa0\x0f\x17&gt;P\x8cN\x84\xdcV=p\xa5\xf9bg\x00\xa6;\x0b\xa9\x84\x0f^\x85\xc0McRj:\x9f\x8c{(\x9eN9j0HT\xba\xf2\x0cJ\xba)_\xde\x82\x1e\x00\xd9X\xaf\xc4Z\\\xe5\xd1\xf8\xde\x18\xcf\x91\r\x9fF\x15\xeb\x0b\xf6C\xdaHp\xe8\r\x97\\\x1b\x01\x9a\'\x1ce\x17\xa1/\x83\xe7\x93\r\xe6\xe4\xb0L\xc9:\xa3\xecv)\x93\x0f5\x94\x0cReO\n\x03\'\xeb\xcc\x06-O_\xdd\x87\xdeJ\x87\xff&amp;z\x1f+\xf2#q"\x8dSZ\x0e\xe4*\xd8\xa5\xf9\x14\xaa\xe3\xf1Al\x04\\sA\xeb\xb2\xc2E,\x16=\xe8\xcb\xc5\xae\x97\x10\xb8\xc2\xf3F\xc3\xbb\xd4iS\x8c|f\xc6bF\xa6\xe8\xf6\x82\x00\xa5\x94\x0f\xdd\xbb}\x99O5\x87O\x90\xb5\xe3\xf9\xbab\xe8Y\x10\'[\xc0e\xb9\xe38\xdf.\x9c\x91\xb3\xc92L\xef!\xdb\xce\x8f\xae\xab\x91\xaaM\xeb\x82\xdb\xb0F\xa3a\xf3\xe9\x9c\xd2\xb6\x10=L\xb9\x1d\x9d-\xdc]\x897\x1aW\xa10w|u\x11\n\x19\x18(\x02\x13^rc4\x0b \xab?\xbf\xd0\x9c\xa2]\x05\xb3\x0ed\xa3L~\xf4D\xfd@\x07\x16@\x8b\xbcRfe1SN\xac_\x1f+X\xd4\xf7\xfc8dM\x86jK{kB\x14\xa7#6\x08\xb0lM\xea\x80\x1e?M\xfe\x83R\x8aV\xd5rab\xc3\xcd\x8b\xd2\xc5`C\x8d\xb3M\x97\xfc\x8e\\k\xd0\xd2\xf4Fh8OGQP`\x15\xaa\xa2E\xa7s\xc0\xd5w\xdaw\xea\xe3\xf4R\xabv{\xf2\\\x96&amp;\xd1zV\x12/\x8f\xe9\xe8-\x0c\x0f\xca\xc5\x9c"2\x89\x16\xfa#\x14\x8e\xc2\xab\xb3\x9c\x0b\xbbf\x96S\xde\x7f\x88\xdcz\x11}6tSC\xca\xaa\xa4\xdaL\x89\xd6\xba\xce\xd59^gc\xddB*\xa1xAt\xba\xa9\x9b\xed\x08\xc6\xaf\xfd\x98\xe9\xa8V\xed\xf5\x1d\xf2\xe2\x9dWhh\xbe\xb1:G\xb7\xd0\xcc\t\xd9\xd5\x8eZa)\x87\x1a\x8d\xab"(\xe3,\xea*\x0b \xbf\xeb\x84K@x\x86@\xb3\xf5\xbd\x13uf#\rM\xc3\x8a\xf8\xca\x8b\xb5\x99e\xb3G\xc4\xf1Y\x18\x12\x07!\x81\xff&gt;*\xf2#\x8c\x15\xed;\xfd\x04\x0b\'\xc1W\x86\xf4\xeb\xc0^G\xe7\xd4\xe79nASW\xd2\x87Ri\xb5\x06\xba\x0cK5\xd8\xe5\x08\xe4]?\x03\xa4\xf9I\x96\xe0\xb7\x9a\xdf\xe3\xd2f&amp;Y\xfb\xb1\x95\x08\x05@o\x82\x1a\x9a\'\x17\xc3\xb2\xabi\xec\xd1\x825\x7fm\xaf\xc8\xa8=\xfc(\xd8qM3A.\xed\xea!\xd8\x90x\'\xc4\x97P\xc1\x17\x1a&gt;\x90J\xae\x01\xd2\xe8\xedB\xfe|\x0fp\xef\x9a,\xb6\xa5\x8e\xb7\xfa\xfb\xf3x\xf3\xfb\xa7\xea\x8c\x85\xf4.4X\x17\x8a\xc1\x05\xf3\x8e\x97l\x9a\xd0\x92\xeeLc\x86\x7f\xf1%\xfe\x95\xbd\xd4\xaa\x9d\x05\x07\x05\xa5V\x11\x134\xd1\xd4V;\xf1\xe6\xd0;0N\x93\xcd\x1fJ\xa5$G\xe2u\x06\xde\x9fE\xde\xaae\x82\n1\xd3hM\xca\xd4\xa5\xfc\xd7\xb9F\xda\t\xd3\xf9\xe7\xb1\x91\x1e\xb6.\xe2T\\\xc4\xd7\x13;\xf4\x04\xd7E\xfco{a\xd7\xe0s\x0e3&amp;\x8b\xe2\x11\x13,\xcfq\xa4d\x84\xde\x84{\xd4\xa0\xfd\x13*%9\x86\xff\xf0i\xe5?mdI\x98\x8d\xd0&amp;\xcc\xcc\x1e\xd1\xaef\xb4+\xedhW\xa3\xccdF\xa3\x9d\x89\x94h\xc4{\xdd\xaf\xddn\xbb\xddm\xda6&gt;\xb1\x1d\xe3\x0b\x1c\xce\x80\xb9o\x13\x8ep\'$\x10\x8e\x00\x93@\x80$\x0e\x0bI\xc8\xbd\xc9\xe6o\xdbz\xdd&amp;\xb8\xedfZ\xe2\x07D\xbb\xbb\xdeW_U}_\x19\xb3\xd9\xa1YX\x15-\xdc"Ga(\xd5\x19\xddk&amp;\x11\xa61\xe5\xdb\x15\xd0\x9e\xf7\xf0Y@\x0c7`h*\xdfW}]z\xfa\xb7S\xf8U\xd3/(\x86$V\x8d\x0b2\xc3\xc4&gt;\x88\x9b\xa8\xfd\x84\xa8\xa0\x8d\x9b=\xd0\xd5\xb9\xc7\x98\xcf\ty\x94HC\x9f7\x99\r\xb1\xad4\x93Zvv&amp;\x1d\x14\xd0:\'\x92\x0ft\x7f\xc1\xb0\xa1\x0b\xbf\x9d\xc6\xd3%\xa7*\xbeCw\xd7\xd6a4\x00`P\xc8\n\x9e\xf2\x8e\xa2\x8d\xfcj?\xe6\x15\x04\x05\x11d"o\xa7\xc5\xd7G\xe4\xc28\xe6\xbb7\xba\x93\xe2&lt;\x86\x07\xa94\x8b\x11\xf4\x92\x04b\x0c\xca\xae\x0e#USX\xd1R\xd3\x17\xe7N\xf6\xdb\xa5%\x9f]\xee\x89\x9f\x99\x14\xc5\xc82\x88J(z+Z\x81\x1a\xbcO,\x95\x86)\xb1\x93\xf0\xe2\x12\xe8\xbcg\xde\x01\xc4\x1f\xd5ab~\x8d*-\x1f\xe7\xb2\x98\x8a\x033Q~\ry)\xa7\x90\x16\x15\x06\xa0/]\xf9\xf1d\xb8JK~\xa8j\x83*\xecO\x8a\xa9\xab\x82\xaa\xd8^\xc3\xb8o5\x8a\xcaE\x0b+Y\xd3LI\xce\xb6\x02Z\x9f\xc2\x8a\xf9\x92,\x10-\xb8m\xe2\xa2\x06\x80A\x1e\xb7Q\x1b\x98\\\x85\x85.L\x05+c=3\xdes\xf9\xc4\xa6z\x1aZ\xd6\x85\x10\xf57\xf5\xfbD\x9c^f\x14!&gt;\xb3&amp;\xbc&amp;\xae\xe2\xa7\x03T\\j/\xa4N\x1a\x1ej\xef8\x89\x80V\x12c\'\xfc\xfa\xa8\x85\x98\x8a\x19\xe6*w\x83\xa0\x9c\x16_B\xf2\xd4\xa0\xe0\xce8Z\xaf\xfa\xfa\xa4\xb0J\xcb\xfeR5I\x9d:+\xa0\x1bc\xde)\xcc\xf3-\xf2\xcd\xdd\x19\xd9(*\x0b\xf9\xf0\n\tt\xd2\xa0\xc2\xb0|kt6B\xbd\xf0+\x9cl\xaeT\xb5W\xfep\xb7\x99\xe4G\xa1\xa7\xe1z\xea\x84hU\xbd:L\xbd\x8a\x9d\xbf\xfc{\xe34R\x91\xf59\xcf`\xad\x04\xfb\xeeL`\xc0z\x14%9\x8bATn\xf2@\xd1$\x0f\xc6\n(\x9e\xa1\xe3\xb0h\x12\x19\xba[\x02\xd8W\xc3\xc4f\xb6\xd9\xf4ei\xb2\xc8\xd5\xb1\xe7\xe2!\xe8Bhv\xd9mp\x03s\xa8\xa6\xea\xdf\'\xc0Uv\xb1\xea1\x05\x8b\xf6\x06x\x89\x80F\xc8\x06\x8c\\\x8b\x01?\xdc\xe4-\x8d\x1db\x92XL\x9b\xd0P~\x12\xb7\x10\x98$z:\x1e\x05\xa7\xa8\xff\x00]\xa8\x8b\xcbL:\xa1\x966A\t\xf5\xadwx\xd7\xd2\xf2,\x1f\xbb`\x0c\x17\xed\xa4*X9\xe3\xc4\xb3l u\xad\x9f\xb8\xcb\x8d\xaai\x1f\x1d)\x06`\xc6h\xad8\x99G\xf9\xb0o\x15\xd2\x0bu\xac\xaa\xaa\xd5\x8d\xb1\xe4\xe2\xf5:\xdd\xd9Ln2 \xa4\x9f\xd6\xb3\xd7\x92\xde\x8e\xab\xfdM\xad\xf0\xc1\x85\x93\xd8\xf5m\xd5(\x05\x0b#\x89\xe1\xd5\x1d\xa3w\x94\x1f\x94\x8bI\x0bQE\x8et\x8c\x00\xd6&amp;E\xec\xdc(\xefg\xd5\xcb\xca\x87\xaa\xe5\xa6\xde\x06\xba\xa8\xd1\x04\x05R\x14\xd4\xa8\x9f\xdb\x956\xd9\x17\xba%n#\xfcv.\x8b\xc6\xd2(\xb6\xb7\xea?_\xf1\xafb\xb8\xc0BW\x9c\x8faU\x89\n\xaa\x17\xee\xeb\t\xa0\xf7\xc4l\xd0\x13\xed=w\xb5,1\x8c\xb2O;z\x94\x1c\x1c/l\x84\xb4=J\x9e\x8e@\\\xaa\xdafY\xc4\xf0\xc3v\xfd\x90\x874&gt;@\x9dM\x13\xf4U+M\x8f\x1e\x8fy\x03P\x8c\xff0\n\xeb\xc7\xaauZ\xb3\xf0(v\xffj\x88G\xef\xc5\x91\xb8\\\xac\x19h\x06\xdeh\xc6\x9fa\xf9\r\xd1\x16\xb5\x98\xa33\x9d+\x0f:w\xa6\xdb\xa77\xba\xf7\xdf\xfb\\\xe6\x0eG8\xc8\xb0\xb9\x19)\x81\x8eq\x14\xca\t\xb7c\xf6\x89\xbc\x83xv\xd6\xb1\xd5.:\xf6\xe38\xdbs\xb6hb\x97\x96\x9c\xfb":N{\x96\xc4\xe08\xf1\xf4\xe1,|\xa8\xdd\xa8\x91\xda\x1c\x01\x96\xfak\xca\xe8\x8fDs\xf92\xe7\xb0\xcdg\x06\xc3&gt;\x0b\xf5\xad\x1c\xe7p\x01\xa9Y\xac\x91\x8d\x15\xb2c\xb2M\xd7$\xa8\xd8\xaeE+\xe20\x96\xc0\xb1\x90\xceF\xba\n\xba_\xf1\xcfB\xe1\x05v\xb5\xe2ot\xd7C\xbb\x83\x7fvI@w\xc4\x86a\xe26\xac\xc2\x01\rU\'\x1e7\x13.\x9a\xdcYy\xf3p"\x18R\x18\xcc*\xa1`\xfc\xf9h\xdba\xc0\'\xcb#jU#*E[h9\x9b\xea\xa0O\x98\xf20_\x8a\xcd\xf4\n\xf8\xbfb\xa4\x8br\xc6)u\xdd\xbeX,\x07\x7f\xa8\xda\xc4\xcbcC\x82V\xe8\xf8\xc9\xcc\x0e\x8apFSGN\'T\n\xc2T{\'&gt;8h\xe0Q\xf1%4\xbf\x94\xb7%\x1a\x96\x04\x98\xceQ\x86\x9a\xea\\\x84\x83S\x1d=\xc7\xe2\x08\x80A\x98\xc5\x89~\x1a9M\xb6\xf2y!\xe9\xc1\x83\xdd\xae\x0e\xa1\xde\x9ef\xc0`v\x044\xd0\xbaww\x963\x00\x0b\xda\xfb6\xb5\x1c\x88\xf6\xa6\xde\x14\xd6\x96\x92j\xffT/\x06\x08\xc7\xd3^\x16\xa0\xbboU\x1f&lt;\x06\xd0\x01\x9c\x85\x89g\xb5y\xb3\xdb\xe4\xe6\x1e\xd6\xcb\x9dT\xf9\xb3\xaa\x11\x00\xfdx\xe5\x94&gt;\x8be%\x7f\xadXDA\xee\x19\xcc]\xfc\xce~\r\'|\x01\xb4\xc1\x19\xc8\x99J7\xb7\xa4i+\x08$]\x8b\xb5\xb1\xa0\xbf\x80\xe5\n{\xd8\xe3\xa7\x16\x8da\xea3\x9c\xc5f&amp;\xdd\xf0\x87\x98\xcf\x93w&gt;.\x82\xba\xe5,\xb6j\x0f\xc0N\xa9\xd1\xfe\xd3\x1f\x8b\xb4\xc3*~\x01]\xd1\xaf\xa0=O\xbdt\xe0\xbd\x11\xac3(\xc3\xf2r\xcf|P5\xb4\x94]\xben\xecDF\x97`\x95:;b\xa0X\x05\xa8hn\x8bs8\xc6B\x8c\x95\xef\xcb\xd8\x8f+\xd2\xe5\x92w\'\xc4\xbd\x1c\x03\xe9a\xd8\x80&gt;\x8b\xa5%\xbf;\x9b\xa9G\r\x8eZ\xaa\t\x92\x01\x0c\xe9a\xda\x0c\xb5_\xb9c\x8b\xd5V\xedp\xc64\x84\xa5M\x05\x9a&lt;\xedb\xd4|2h\rt\x04\x03\xa3)(w\xfa\x0f"\xa9G\x08\xee\x84\xb0t\ng\x1f%\xd3,\xfd\xd6\x8a~\x0e\xc4\xdd\x97\x15\xdf\xe4g\xb1\xac\xe4\x0fP\x87&lt;\xde\xf1\xae\xad/D\xbc\x93h\\\xdeG\xd5\xb2\xdbP\x8dO#\xabV\xf9V\xdc[\x8b\x18\x89\xd1\xbe\xa6\xd3]V\xf6.\xd7\n\xf7\xc1\xach%tSy\x13\x9a4\x83\xea\xc3yh\x81k\xf2\xf15\xe2\xb0t\x04\xb8\x80\xbb\xaa\xbe\xcd\xef\\e%\xa7\xae\xd4`+\x13\x8c\x10\xafW\\d\xf1\x82\xb7\xf1\x05\xe7\xae,\x96\xeeu\x1c\xe9&gt;\x92\xed\x8a\xf4,\xa50\xdaZ&gt;\x16\\\xbe\xb5t00\xb0\xd9?&lt;\x91\xa5;\xf0\xbd\xa6\x9b\x82\x93\xee\x8d|\xd3\x88\xe5\x19u\x13\x80B\x83\xf9aA\xabY\xea\x83\x02\xc2\xfds\xef&amp;_N4\xfbQ}\xe6\xec9]\\\x17o7R\x94\x85\xfe\x8f\xad\x0f\xe1\x11\x91y\xb4\x0f\xae\xa2h\x18\xda\xed\x0fdu;\xa5rTh CH\x89o\xae\x1f\xb6\xf8r\x0bpzuT\x07\xa6V|;t\xa7i\x95\xfa\xc5%\xc8\x0e\xed(\xf0\x13K\xebf\xa3\x85;D\x81A\x05\r{E\xf8\xb8\xa7\xba\x1b}\x97/#\x80Z\xb7\xc7\x12\x02\xd6\xa8\x0c\xe15\xd7-\xe2\xe2\x1c\x9a\xcc\x8e\x8eUE\x9e\xc29\x92\x82\xb2\x99~:\x97t\xd3]n\xe4\xd7\xd1\x1b/_&lt;z\xf1|u\xb45J\xf7\xa7\\\x17\xdc\x069\x9cK\x85\x04\xed\xb1\x80\x96r\xcf\xae\xf7\xbe&gt;\xe5\xba\xd8\x88\xfd]\xd3\xae;s;u\x8e\xbe\xeb\x15y\x0b\x1c\xd04@-U&gt;\xd1\xa6c\xc5\xabb\xd7\xab\xa2\x1c\x82K\x1dk\x84\x1a\xff\x90\x9b*\xc0 \xbc\xec v\x93\xd9\xdc\xc1\xbd\xc9k\x0fa\x8f9*\xaf)\x80\x0e\xf4\xfd\xf0\x0e\xa8\xaa\xdc\x82\x02\x0b\x01\xddl\x84\ttk\\\xfc\x15\x83\xc9\x16\x9bC\xdd\xa4\xa7a8_\xdd\x94\x95|S\xb1\x87\xad\x9f|\xb1\xb4\xed\xf0\xbf+\xcc!D\xb5\x95\x85j\x0ed\x14\xad\x12U\xcb\xd2J\xa8\x8d\xb0p\xd7y?\x9f\x136\xcd\x19\x0f\x14F\x1b\x9d\xe6N4\xd1\xd4\x1bG\x88g\xd4}\t#E\x9al\xfa\r\xc6\x8a0\xdf\x0e\xf3\xfaI\xaa7\xe3\x9d\x8e\xa3`\xc7W\x7f\xd6\xad\x8eV\xa9dS\t\x00\x87\xdaJ\xa2v\xce]\x14U3&lt;\x00w75HGpA\x7fo\xa7q\x99\xb9\xab\xc72\xb0&gt;\xec\xb1\xb9\x1c\xcf18M\x05/prjn\x17T\xa1\x04\x889q7g\xd1\xef{Z\xd0TGB`f3b\xaa\x86\x1e4p\xe5Oyp\xfd\xbd2\x9e\x83\x80z\xb7f\xf9\x0e\xe3\xb3\x17F\x95|\x02\xbd\x91\xc7W\xbdC\x9f\xc8\x05d\x0c\xd5\x12\x8b\xc5M\n\xc2\xb2\xcf?\xa1J\xdd\x8a\x0e\x89\xd9CR\xef\xfbT\xdd\x0f\xe0r\xfa\x1cx:\xfc\xff\x11\x1b\xa5\xd8\xa0\xd8\xbe\x0b\x03\xc1\x89.U\xfc|\xc4y\x105ga \xaa}\x91mN\xb0xX&lt;h\x90]\x95zW08N\xbfUu\x82\xc0\x9f\x82w\x1c\x91\x98\x11\x12\xff#r\xb4\x00-\xb8\x9b\x1a;\xb0\xf1\x83\xb2\xab\xdc\\G\xd2\x07TF\xf3x@?\xfca\x92\x8d,\x8b\x93\x18w~D\xd4\xc7\xf3x\xfdX\xdc\x9c.\xf9\xecJ\xed\x19\xfa&amp;\'\xdau\xb4\xf0hA\xbc\xf9XG-\xe8W\xa9\x91\x9cFT\xee\xcdda~}\xc2K@\xaf\x93ra\x12M\xa68Rx?\x1a%P8\xa6\xf2\xa8\xcc-&amp;(\xc3\x1a\n\x86\xbf\x85,(\x8em\x0cw\n\xac\xca\xd5_\x8e\xed5-\xc4K\x92\x93~\xb7\x8a\xe3\x81N\x8c\xef8\xf8\x02\xb4]\xdc\xa6\x1a\x15\x8d|Al\xd3\xc4in\xc7\xc6\xa2\xc4}\xf5\x9f\x1f\x8e\xc3\x02\xa9\xd8\x1e\x84_f\xb5a\x03\x0e\xdcB\x02q(I\xa6E/S\xdd0\x7f2\xbd\xf0P\xd5p\x02\xbdo\x1d\x97b\x19H\xc0/\xa1\xc7\x83\x8e\xe4)dR{\x06M\x11\x8bNy\x83\x9e\xc6*BN\xd4\xcf\xcdg\x19\'\xfa\x14\x97\xe4\x07CVS\x80\x96\x8d\xf3m,\xee\xfc\x9fpk\x7fj\xe3\xba\xc24/\x974m2I\xdbL\xdcI\xa7\x93\xce$\x9d\xbai;Ng&lt;\xdc\xbb/i\xc5J+i\x91\xb4\x92\xb0\xa4\n!\x84x\x18\xb0x\x897\xc6\x08\x04\xc6`\xc0\xd8\x18\x8c\r\x02c\'&amp;\x04\xdb\xb1\xc1\xc6\xaf\xfao\xeb\xb9\xbb\xda\'\xb8\xf5O`\x06\xed\xd9s\xce\xfd\xce\xf7}\xe7\xe2\xf4\xea&gt;x\x8a\x1d\x18FQ|h=In6\x89\xb3]\x14.\xd3\x10HgP\xa7\x82\x95\x15\xbf\xf3M)$D\x9dL|\xe956\x03\x0cD5\xa31`L5dD )\xe5 \x95\xffs\xe0n[\xb6\xdc\xa0m\x08\xa4\xca\x86l\x82\xee\x14\'\x10\xbao\xd5\x1an\xa9\x84\xae\x04\xc6\xc9\x91v\x10\xc4\xa4\x86"\x9fk\x0b\x97\xca\x8a\xbf5\x9fA+\xb9\x1bh~}{\x8eG\xd1\xde~d\x1a^\x9cK\xca\x8cc\x15y\xa0\x92\xe7\x19g\x80\xd0f\xc3,%b\xdf\x1c\xd6\x18\xf1\x90\x88\x1do\xf6\xef\x95yz\xbe5cUfU\xdeE\xea\'\xa6\x88\xf5}\xb7\xbf\x04:\xe3D\xb9\xb7\xdem\xbe\x89\xba\x99\xd89\x91\x11@ku\x88\xab\xd1^\xd9dy\x0e&lt;U\xd4\x95\x92\xad\x86I)T%\xf6N\x97[\xed\xb8\xb0\x12\xa2$;]G\x8c\x0b\x88K.\xd9dgPni\xbd\xc4\x14P\xc7\xcf\xdd\xcf\x1fl\xe6\x93oPm\xf3\xa7\xe5\xa3\xf8^\xc5\x1f\x9b\xaf\xa2\xe4\x1d\xd0\xdf\xd7.\t#\xe8\x1c\xb3\xd1!k\xce\'D%\x0e#\xad\x95Hg\x85\x82\x9c[\x9a\x8cA\\\x1e|lX\x8b\xa3=\xbd \xf1\xcd\x82\xa2\xdc`U^\xbb\x18\xe6\xa4\x85\x1bB\x1fJ\xb3\x02\xfcc\xc2IO\xf6\xec\x87\xfaT\xfc\xfbR\x01e^\xd7w-\xf2\x0b\xc2\x0ejc&amp;\x8a\xa2\xe6b9\xbd\xd2\x08r\xf0\x1em\n\xbe"\xc8A\xc0u\x8d\xd0.|LX\xe3\x81\x1eT\x9cX\x1f`$\x97\xcdw\xe3\xaa\x8eJt\xa6\xedbx\x1e\xc5B\xeb\x87\x17\xb6~x\x9cF\xdf4\x7f\xab\x87\xf5\x19\xd0\x9a~\xa1KX\x06\xa0y\x8a\xe6\x84\x9d\xef\xd5\x03\xa3\xb8X[\xfah&amp;\x87B\x1dJ\xc4\\\x9e+\xdb\x10G\xc2r%I\xaf\x14\xa7\xee\xb0\xec\x91\xf5\xc2\x11\x1d\xc5^l\x83\x02\xb5\xca/T&amp;\x88\xbe\xf0}`\n\xeb)*\x0e\x0e\xf4t\xc4\xc7\xeah\xb4\xcfl\xad(#5X\x15`j\xdb\x88\xdd\xa5\xc5\x05\x82F\x1d\xb6\x9cSl\xba\x86\xd4\xad\x9e=,\xf7 \xb0S8\xd5\xf4V\x96\x91\xdebP\x1b\x08\xf1x\x1aH[}`\x99&amp;&amp;F5L\x1fsX0MQ\x9c8\x8b\xf3&lt;\x845\xbf\xd2\xae\xc0V`v\xc3\xa1\x8ep{X\xd0s23\x93\x06\tAy\xfc\xf6l\r*\xe8\x08o\xc3\xef\xdcbZ\\\xdc\xff\x0f\xcb_z\xae\xdec\xb2\x85\xf5T!\xe8*\x8c\xcf1;\xd3j\x11C\xe2\x03Lc#*\xf8\xb5A\r\x0f\t\x9d\x19\xe8\xee\x80\xa4D\xf1\xd1\xb0\xe0\x0b\x0f!\x1a\rof%\xe7\xff(dH-bu&lt;\xaa&lt;\x85F_\xfc\xfb\x03S\xcb\xb7!\xd5\x06t\x80\xc0]a&amp;\x16\x94\x96\x0f\xc2p\x98\xa1)S\\\xe5\x96W\xe3\xe2\x80\x1c$\xba\xc92\xf1\xb8\xb0\xd4\xc0xt1\x03\n\xea\xedq1m\xfbac5C\xa1o|\xdf\xea\x00\xf1\xd7\xe6\x8b\xfaOh\x00\x88\xf3e\x80\x80\x83\x08\x88n\xcaW\r\xbaab\xad\x8a\x05\xde\x9b\x1f\x89\xdf\x0e\x1f\x17\x9621\x1d\xa8\xf5\xf2\xb1\xfe\xb9\x0e\x10\xc3\x00\x10\x0e\xac\xad\xc4O\xe9\x00\x01,\xb0\xb9O\xfbX\xc8\xda\xae\xd4\x19M\xc9\xba\x98[%\x8d\xadKL\x05N\xb5\xc5\xb9\x0b\xe4\xb2\xcc\xb2u%3\xdf2\x85\xa5\xd8\x9d&lt;\xeeg\xde\xd6_AY\x1e\xba\xc0\x14\x90\xa1\xe8r\xc0\x03\xb5\xb0\xbe&lt;\xbbc|\x12jHm"M\xd0\x11\xbb\xfa\xa5i\xd2T\xa3\r\xd5\x89\xe3\xdcUDZ\xc8.\x182^\x99}KX*U\xe4g\x8eu\xefT\x07\x8fz\xc1,h\x14\x14FnfI\x1b&gt;dT\xef\x99^\x90\x9f\xcc\xe2;\xda\xa8\xe6\xaa8\xf1\xa2\x8e\xf2 \x9e\xeb\'Ew\x90h3)\xfb\xbc\xf3^/\xeb\x06\xd0OY\xb3\x95\xc4\x06\xd2\x11\x7f\x0b7\xd4*v\xb5\xd5\xe2RG\xf5$\xba\xde\xd2\x8a(\xad\xb5\xe2\x89\x8f\x8cQ\xfd[_\xb7^D\xa2\x12G\xd1\xbaNl\x88]\xbd\xcbSZ{\xd5\xa0\x9bl\x88\x83\xf1\x9d\xb8I\xbe]\xb8Gz\xcd\xc2\xe5\xc7C\x83\xd8\x8f=\xa6\xb5g\rJ7\xb5(ew\xdb\xe2r3I\x9c\xac\xa34s\x85Bk\xce\x93\xbf1I\xfd\xd3\xb8\x9a\xd7y\xcau\x91Z5h \xb4}\x8f\xfe\xfa@\xab\xd12\xe3t\x8b\xa3i\xc5@B\x8e[\xa0\'\xada\xb9\x92\xea6G\x0b\x8cH\xfe\r&amp;DnHH\xb6\xb5F\x88\xb9\x82F\x93\xda\xd2\x0f*VX\xfa\xdat\xed\xc1w\n\xd4\x92N\x08\x1a\x85\x1f\x9f\x99H3\xc4\xd5\tm\xaf\xf1d\xda\x9fe\x03\xb3s\xc8OF\xb5\x1f\x1dB^\xad\xca\'\x12\x18\xbc\xe07\x9f_\x0fE\xfb\x81;\xb0\x03\x13S\x92\xd7\xd2\xfdN\xa6\x91\x96\x96\xb1_\x0fk\xab\xf9KCb\xfcb\xa9\xe4\xd7?\x84\xc6\x07\xc2\xcd\xb4dR\xaf\x81\x00;\xa2\x11\x19rKf\xb7\x0ep\xca\xaf\xdc\xe6\xa2qA\xe4la%\xbc\x12[;\xac/\xd3\xd5+:{L\x13\xe8@\xb4E\x9a\xd1\xecB\xec\xa7\x85C\xfdwi&lt;e\xf6l&gt;\xf9*\xb5f\x12d1q\x956\x1bdDa\xcciqy(*\xd6\x94\xe5\xcb\xa0A\xa1\xa2S\xb6\x85\x054\xd0)\xb1\xcfy\xa3!\x81\x14\x0f\xa5Jp\x8e\x1d\xa8\xad\xd6\xec\x8e\xc8\xa1\x86\taN\xf7l\xaa=\xd7}\xdf\xe9a\x11\xd3\xed\xb1\xe9(\xe2R-J\x9aI7\xb4}b\x81\xe81\xd2(4z \xac\xe0\xf2\xd9\xa4Q:\xd4b\xcf\x96\x1c"\x9a"\xef\xa0(\xbd\xedi\x94\x17\x17(\x1a\xcau\xd7\xa4`\xddl-\xea\x0f\xc4\x91\x8e\x0f(k2\xde*+\xde\xf15b\x87\x01\xe5WD\xfa\xb6U\x91\xb9\xa4\xc95e\xd3\x86j\xf0\xb9\xf6W\x1a\x92A\xda\xafJ\x81#a\x91\x03\x97b6\x8d\x86\x84\xa9\xf52\xfc\x0cWW\xa3k\xe6\xd7%\xab\xc5DV\'N\x18\xc5\xc7&gt;2\x9c\xa4\xca\x8a\xef|\xa7\xf5\xe3\x00\x8f\x1a\x11\xf6\x0bVk\x84\xf8"i\x85\xf89\xf8\xe4\xa38M\xe9\xbcp\x0fZ\xde\xc5NQ~\xcd\xd2\x1d\x1a#\xf5\x0f\x04S\xcc\x1e\xaa\xe1\xf5\xcf,\x08\xab\x14\x1c\x10\x893\xcc\xe6\xa0\x8b\xed\xdb\x15nk"\x1d\xde\xb8\xb0\xf4\xd9{&amp;\x8f\xf2c_\xad\x0e\x1eJs\xbd\xa2\x12\xb6k\x1fN\xe9\xd1c\xe5\xfa\xe1^xK\'\xf20\xf2\xf2\x00%p\xa0\x08"(\xfe$\xaaOxC\xe4\xd2[\xaai1\x86)\x1d\x91v\xc5\'\x08w\xb2\x16\x84\xf0.F\x0f\x85}b\xac\x95\xed\xc5C\xdf;f\xf3\xf4\x93\xaf\xdc\x0bZ\x85\xc9\xd6+7\x8a6\xad.\x06\xc4\xe5\x9dm\x04\xc2u\xbf=o\x88}\nwDXo0%\xddn\x8d\x96\x19\x99?\x9d\x08\xa4\\\x1c\x9cF\x16p\xa5\xc6&lt;\xd2\xd6\x92\x8c\x05OC\xec:JF\xa2z&gt;ht\xdar\x11\x08\xb4\xcf\xd9\x11cbT\xe3\r\xe1\xdc\x81\xdd\xe0\xe2\\\x1c3\x13[\x8b\xd4\xb5\xd2z+W\x03l\xd5v\xc9,\xc3\x06"\xa5\xda\xd7\xd9lm)\xa2\\\xa9\xe4Fs\xdb\x8d\xa5\xb1\xa8\x81\xdf\xfe\xba\xbaQ\xeb\xb5\x05\xa0\x01\x0f\xeb\xc5m\xd3Y\xf3g|\x9f\x9aLJ\xa2\xab\xaf\x1bo\x06\xe2\xb6}\xd5^Eu\x13\\W7[\xd0\xd4\x19\x81|:\x93\x88\xd6\xaf\xcc\x9f\xbf\x9b\xcf\xde\xe9\x1aM$\xea2\xb9{W:\xaf\rO\x8f\xc3\xcf_\x08\xf7\xf5[\x1b\xa8a\x92\x95\xad\x840 G\xa2\x97\x84&gt;\x8fV\xc3\x1aO\xdb\xd2\xc9J\x8b-\xff\xf1R\xc6oL\x0b\x8a\xcfE\xc8\xd2\xce\xee\x07r\xbd\xac4\xac\xf3\t\x82\x92\xcf\xc2\xa4\xb0ZS\xd2\xe6\x11\x1du\x1c\x08{\xc6\xad\x8d\xd61+\xc0\x93dm\xa3\x9c\x91P(\xd2\x94\xcf\xbe\xc6\xf8\xd7\xd2}-l\x02k\x13\xe1\x83\x05\xdb\xd6.\x00L\x81\x8d\xf4)w\xd5\xcaxO\xd7\xd7%\xea!\x18"\xd4\xf5\xceT\xbe\x03NK\x83\xb2\xeb\xd4*D\xcc\x1a9h\xdf\xdd\xb5\x15\x81\xcd\x99\x8a\xd4c[\x0c\x03\xb7i\xee6\xf6\t\x14\x8e\xf7&amp;A{\xb9\xec\xb71^\x7f\x0f\x9a\xb1\\Bry\xe3U\xf8\x92\xfa\xb1\xea2]\xbd\xd7P~}\x1a\x94\xdd\xf3rX\xd0\xb7}l\xc0Njrh\xb9=\x8d\xb5\x1aR\xbf,\xa6&gt;z\xff\xc8\xee\xf5W\x0ecyS\x83^\t\xc5\xab\xd6U\x14\xc7\x8cNQ\xea\x9f\x7fh\xbc\xe0\x86p\x99\xa7\x8f\xac|\xd4I\x81\xfd\x8ey\xe1g-[\xd5\xd8n\xc6r!f\xbe~\xb6\x07QF\r\xf7\x9a\xdf\xb5\xef_+O.\xed\xebU\xe4)\\l\xdfD9\xc9D\xc2\xb9\x96\x8dqd\x8c9\x92\x8d\x85\xc8\xe4\x10&lt;\xddA\xab\xf2D\x8b\x07\x93\xb2\xd2\xd0rS\xe1\xf9\xf2N\x88x\xe5\xb6e\xbc[\xcc\xc0\x9980\xd5\x90?\xe5\xfb\xa7m\xcfy\xa2\xe2\xcf\xcd\x7f\xd0\xabH\x1e\xdf\xdf\xbe\xfb\x83y\xcd\x19\x90\x80\xcbx\x8c\xa8(j&lt;\xc3\xbc\x18\xe2\xf5vw\xa8f\x90\xd6\xf5\xfe\xc2\xc6dSL\x05C\xe8\x8a\xd8\x80\xdd\x8cev\xfc\x8b9\xac\xa18\xd4r:\xf8\xf9\xfbG/u\xfaF\xe3:(\x03\xf0\xa6\xdb\xb7Q\xd6du:\x997t\x14\x9e\xab\xf1;LG\xf3Lh1\xf7\x9f\x17\x0f\x0bk\xf5\xe6\xbf|h\x88\x15\x1e\xfe\x94\xcfxYb\x8b\xf1e|k\xb4\xca\x9f \xd9rn\x84\x87\xf5d\xc1\x17\xbf\xb7\xaf\x13\xcb\xeb\xd73F\xd3\x03O\xd8d\x16\nl `\x10\xc9\xcbZ\xf1\xd4\x94Q8\x9adB\x12\xd1\x19\x03]\x99\\O\xbe\x7f{{\xfb\xc9\xbd\xec\xad\xc9\x88L\xae\xedV\xa5\xc4\xfb*e\xf1\x00u\xccX\xddI.\xc4\x1e\xc4\x9bL\xc9\xa2p\xc3_|\x1f\x1eY\xed\x9f\x00\xe6\x9c\xe5\x8d\xc1X\x83\xd7f\x07\xd1\xb6I\xb2\xb4\xf4\xaeo\xdf\xbd}~MqDT77~\x99\t\xf4:\xddU\xb2w1RE\xc6\r+yS\x11\xd9\x1b$Z\xcd)t\x135\xa6\xe2\xdbK\xc66\xf9!\x93\xcb\xc2U#Y\xd5\xe8\x8cu=\xa6\xcf\xc5\x7fHW=\xc6\xce\xd1\x81\xde\x84o\xc4\x17u\xf7.X\xd5B\xa6\n\x13\xb9\x80x\x87\xc7\xa3\xdc\xe6\xe6\xa9N\x91iq\xbaR\xec\xcbhG\xc7\x8f\xc5b1\xd61&gt;&gt;\xe9u\xb9]\x80&amp;\xd7y\x1a\x97\xa5OGB\xb4\xa2CKolZ\xc8#\xed\x18\x93\xbf=\xc9\xfa~}L\rOT\xfc\x89,~\x0c\x1eA5t=r&lt;3\xba^\xb1\x1d\xc9\xe3\x9e\xc4\xca;o\xd2esy\x8eaevB\xc3z\x1e\xf9\xbbDH\x1c\x93Pn\x1dcUY\xcf\xfc\xb7\x9dk\xe1j\xe2\xda\xc2\xe1%\x03"*"*\xd6\xfa\xa8V\xad\xad^{\xaf\xb6\x9c\x99\xccL^\x13\x86$X\xc9\xfbE@\x12 \x10\x1eE\xc3;P\x1f\xa0&lt;\xac(\x0f\x81\x0b\x05\x8a\x06\x15\xaf\x80\xcaUQ\xfcm\xf7\x9c3!\x99\x04\xf0Uj\xd7]\xab\xb3\x96,d\x85\xe1\x9b}\xf6\xec\xb3\xf7&gt;\xdf\xb7\xa3\x0bXh\xac;\xc0\xe4\xb1\x843b\x90O\xf8u\xd9\xe9ks\x86\xd3\xba/\x93\x91-_\x05\x82\\?\xb8\x14S\x11\xb3j5m\xbb.\xb4\x90\x04\xf6`\xe7\xab\xbaV\xfa\n\xa9\xa2\xf0\x95O\x16;\xcb~3]\xba\xd3$$\xf3\x98\xf9\xf8\xf3*T]0z&lt;\x8e\x94\x9f(\xc2k\x0e\xafI?\x851Bl.\xcc\x14\xe0\x82.[L\xbb\x93\xfd\t\x1a\xack\x11\xad\xa4\xc0g\x81\x9f]\xd2\x8b\xa8?\xc5\xb6V+\xa6\xc3 v!\xa6\x8d\x8dGw\xbda\nn\xf0uV\xa2"7\x9c\xbc\x12\xcf\xf9CI\xebQ\xac\xd3\xf8gD\xe4L\x9c\xa2\xac\xb5\x86\xf2v]YL\xcd\xc9\xaa\x95\x8c\xa7\xa6\t\x9d/\xa1\xa5\xa4\x8cT@\xccH*nk\x95\xc1b\x82D\xd2I\x90\x0b\x7f\\C\xb3Q-\xe7\x9csL39\xea\xb9\x16^B\x98\x89@\xcf:\xbc\x0e;\x10y\xd7\x89\xc8f\x82\x96\xf1\x19\xed\x80\x11g\xd5\xc9"+/\xa3\x9d%\xc5\x00\xf3f\xa1U\xaf\x8ba\x19\xdbZ\xb5\x18\x11\xce\xb0\xc1\xaf]\xd1\xb9\x1f\xca\x1c\xe6\xe1:\xb4DR\\\xf8\xdd\x13\xe6T\xfazT\xca\xc4m\x87\x98\x07\x91\xcev.\xdc\xf5\xaa\xf4/a\x15\xbd\xaa\xe1\x82\xf7\xed\x0b\x8f\xad(\xba\x87`IE\xd6\xd2\xe2M\x08\x9d\xac\x1b;\x0cLt\x9f\x12:\xd6\x04L\xbc\xa7E\'\x0e\xf0\xed:m\xdf\xb2.\x95\x12ih\x10g1\xb2\xe3\xca\xc0\xb2~\t\xd1N\xd95\x88\xb0&lt;}u\xfe!\x12\x90Q\xd7\xb9@\xd4"j)\x15\x8e\rMwF\xe9\xbc\xe8\xdc\x0f\xa2r\xc0w\xc9!\x8ddB\xf0\xe9g\xcd\'\xdf\xa1\xf3L\x94|m\xce\xc2\xec\xefpFe|\xc35\x03\xc7\x1a\xb80\x19\x96\xbe\xb5\xec\x87\x95z \x8a\x84gh\xc5\xc1\xa2\xbc\xb9\xdfF\xebb\xd8\xba\x10\x95I\xbb\xe8q&gt;R\xac\xa4\xb8\xb908x\x1b\xec\x07\xdfA\xd3\x85Y\xea\xee\xb3\x97\t\xd19\x93T\xe1\xbb\xca?\xa3\xde\xd0k\xb1\xbf\x05\x96\xee\x85\xd73K"k\x91\xae\xb6V\xcb\xd0\xe4\xdb.\x9bpd\x10S?\xd1S\xd6ks\x17;\xc3\xb1\x01/\xc9\xd1\xd2\xf8wr\xc0Q\x90\xa8\xd6FJ\x08\xd4\xdd\xf6\xcey.K\x1d\xb4r\xadN6\xf41\xb5\x8e\xce3\xd0\x81H\x1a\xear\x16\x18P\xd1\x91\xa7^\x05\nz\xbb\xc9jq\xf2}\xe1\x14\x17\xfb\xfb\x8b\xcaCI\xef\xd6\xea&amp;\xa6\xef\x10/#\x12\xa2\x81EC\xf73\xe8_\xeau\xc8\xd6J9[\xc0\x0c\x93a\x0685\xca\x17\x94\xa9\x0b\xe59\xe7\xd8\xd5%J\xa3v\xa4\xb62(F%EK\xb8\xe9=\x84\xf9\xf5\x18\x8c\x14\x00\x00\x070IDATDI\xea\xed\xb3\xcfE\xe7L\xc8^\x15s|3\xe8_\x8br\x0bwJ]\x81\\\xce\xb2\xd7\xc2U\xa6\x14\xd4\xd3\x17\x95J]^NlXQ\xb3\xf0\x1d\x1cB\xf7RE\xbar0etk\xbe}\xafJ\x04\x06/\xfb1\x1f!\x8d\xc2UT\xcb]\x01U:\x9d|\x15w\x9ae\xef\x15\xd247\x10\xce}QY\xdfM\xd3t\xa3\x89\x8fqD9\xcf\xcc\x82`\xb7g\x01\xd1\xbfD[I\x969{\xdb\xfb\xb5+\xa8\xef|4\x94\xbc\x08\xbf\tqY\xaa\xf55\xa0\xcfF+c\rv\x9e\x19,\xaaY.\x91Q\xa4(\xb1\x9d\xe9\xff= \xad\x8e\x12=\xa0\x054\x0c\xc2\xd0\xec\x1cB+(\x8a\xd8\x93\x1f(]\x91$\x1db\xb2\x10\x8f&amp;b/\xa9\xc2\xf5T\xdf\xe5\xb2\x8e\xd1\xb1\x82\x1a\xd4\x1f\x17|0\xe2\x8dx9\x1f\x16\x16\xc4D\xdf:\x1f\xe8\xd5\xbb-X\xd1\x1fA\xb5\xd8`?\xfcAB\x9fD\xc9\xc1\xdd\x95/bq\x81y\xce\xb0\x00\x96\x1ah5&amp;O\x8b\n\x05\x99\x11n\x80\xa4p\x08\x03?I!F\x8c\x8b\x14%\xc9,\xabT\xd3\x17K@\xe7\x05\xfd\x80V!\x03\x91\xb0(%|\xa75\xf1\x1f(\x8bB\x9c\xeb\xb3\x83@\x1b\xb65\x8e\xab h\xe3\xee\x82\xa6\xa7L\x94X\xeb\xa7\xf3L\t\xdc\x97\x11\x15*\xa4\xf3\x030\xdf\xd7\x82\xa60s\x08\x82\x923\xf4\x98\x05\x8c\xd3\xdd\x01@R\xa2\x87\xa5(\xe3\t\xf37\xe9\x1f*"C\x9c\x9b\x86\xf6h\\\xd07}O\xf5\xb5~\xb0P\x8d\xce/#\xc0XO\x0b\xfeH\x1f\x92\xdc\xca@;:\x03\x02\x96\x15\x12&amp;\xf4)\xb9\x8e65\x83\n\x93\xde\xe1]\x91\xef\xad&lt;*\xb5\xc7\x9c\xfd\x11\x12\xc5dI\xbc\xfd\xc7\x8a(\\$*\xa7[\xe6\xb8K\x1609\xc50\xe1P\xc9\xaa\xcbt7\xae\x0c.]B\x9cp-\xf06\x18^\xb6&lt;\xa9i\xc5\xc7\x03h\x1bP3\xf4\x85\x00p\xfd\x87\xeb.Q`\x81\x87x\x01\xbegv\xc5}\x8cp2Q\xb2OslQ\x8cK\xb8O\xf94M\xbf\xb6\x82a\xb7\x0en,\x82D\x11\xa6\xab(\xc7g\xce1\x03.\xd0\xe7\xe4\x0b\xb04W\xc9\x9e\x0b\xa9Z\xaa[\x009\xcfr\xf5#B\xa6-\xbe[?\x9d\x96\xfa\x91\xfa\xea\xe4\x04M\xb4\xbd\x00\xd6(\x82\x8a1\x8e\x7f\xe9\x03\x15\xfds\xe8\xc0G\xaeD\xb1\\.GrW%m\xeaeye\x8e\\\x89t\x9eJ\x8c\xc9\xb0&lt;\x03\x8c\xf3\x179\xf7\x02\x10/ ~5\xc0\xf7t\xda\xc1\x8fD\x95(I\x81\xb8\xda\xc5\xefc\xe8\x11A_\x17\x87D\xb6\xda\x96\xb1[\xb0\x00\x83\xd0\xe4J\xb5Z\x08\x02\x0c\xab\xccQ\xab\xd1O\xca`u\xd6p/`\x04\xde\x01\x9e\xabFBN\xb1\xa9\xd0;\xa8=\xc3|4*\x84+q\x9f\xbd\xe1f\x0c.2\x17m\xe3=\x13:\xeeB\x95\x0f\xc8\x82\xd3\xa6BD\xad\xce+@\x95\xa1\xbcP\xa8\x19a\xd9\xc3\xc8\xa7\x06\x06\x8d\xc0\xbaT\xcd\xd1]A\x14\xfbs\xc5f\x07Z\xa2\xbc\x8e\xd9\x95\xfa\t\xca}\xe8\x89\xf1\xf6\xb3%\xa2x/\x02\xf6p\xfe*G\x9b:\x8a\x00p\xf5u\xfc\xee\xaem(\xd0a\x07\x83\xd6\xbb\xe8t/\x8f/\xc0\xbc\xf5\xe1\x1d\x07\xc3\xd9j\xee\x83P])R\xe4i\t\xeff\xf3\xa9\x8cO\x9d\'p\xc0\xce\xed\x95\x12\x91\xb0\x1cZ\x01\x94\xbf*\xda\xa7\x9d\x1cw\xeb\xc6\xe3!\xac\x8d\x7fT4\xb3\xe0\xf7/\xcc\xdc\x7f\x84\xceo\xc8\xa2+\xf56\x1a\xc9\xd4\xb5\xa8\x8e\xcf\x15\xf7\x9a\x90\xae\x07\xf8\x7f,=y\xe4S\xa7\t$J\xb6\xecfN\x8c\x10bg\x15vI&lt;r\xc1\xd83^\xd7@s\x8c\xcd\xdd;\x7f\xbd\xf9\xd9\xd0\xfd\xfbC3\xc1\xc0\xab\x81F\'O\xd3r\xf7\xdb\x05\x17\x88\xf6)a\x01e\x04\x18?kO\xd8\xf6\xe93\x0e\x92%\xa9\xd9\xa5\xc7\xd0\xe0\x0c\x10\xd3\\[\xf9_\xf1P\xe0u\xddU%\x03\xb3\x08D9\x85_\x18\xd6\xe9\x18X\xea\xb1F\x96,\xea\xd7H\x19\xe1;\xc3\xd8\x0f\xfc\xa1\t\x1a\xc9\x92\xa4\x04;\xbf\xb7\x98\x90F\xdf\x9e\x02\xe5\xf7n\xcc\xf6\xc8\x84\x94TQ\xee\xbd\xfc\xfcfK \xf0\xdf\x9b\xfe\x1eo\x93\x90yI\x15\x0f\xde\xd4\xf66)(\xb1\xa9r\xa5\x04h&gt;m\xde\xb5\xe9\x0f\x8e\xf5\x80\x86\xce\xdcm\xde\xfc\\\x984\x12\xfe\x03R\xd2\xeb\xb6\xe9\x07`&gt;\xb7\x16\xa3\x19\x11\xa7Ud\x0b\xe7\x98\xa6\x1dR\x8a\x14;%\xf1\xcbq\xde\xfee\xdcFLg\xd9zR\xc3\x1f\xf7\x11\x84T\xe4\xbap\xcb\xbd\xcb\x05Q{\x1b\x9a\xc3R2&gt;\x040\xedT\x06\x86\xaa\x02.\x81\x9a\xd7\xc8\x17\x83\t\xce\x1f\xea\x15a\xb5\x18\x01\x9e\x9c6o\xcf\xdc\x90\x991\xc9\x92\x94\x03i\xe6c/(\x82Z\x01\x86\xa7\xb2\x8cz|\xe8OJ\xc9\n\x03\xd3\xc0\xbc\x80\xab\x06\x8b\xac*\xdaC\x9b|x\xd3\xbeA?\xd76r5\xb83\x8f@AW\xaf8\xca\xd8\xbf\xcc\xd8\x80\xc1,\xa1\x08\x96\xb1\xdf\xce\xc0X\x1d\x01FQ^\xde\x813e\x15\xa8\xe7\x06\x8b\x1dl9IQ\xa4\x85\x9fr\xcd\xea\xef\xc2\xc5U\x91\xc1J\xdd-\x83\xae\x1e\x93\x92\x11(\xe2\xda\xf1n\xcd\xae/6p\xee\x0f\xbc\xd1?\xfeeg\xea\x82\x80 \x04=\x9b\x14L\xeag)T\x89\xc8r\xdd\xfc/`\x19\x1dt\xe5\xc3r\xb9\x17\x14\xc1\xcc\x10\xf1\x99A\xcf\xdd\x92\x9eJ\xe4\x7f\xb0\xec\'\x08K\x96\xc1\xbc{\xe7\x91\r2U\xc8`\x89\x92\xf4\xc3\xa74\xcc\x89I\xf8\xd4\x88\xcfTc\xaa\xe6\x83\xf8|QE\x8e\xeb\x1b\xa7\x0b\xf9v\x98\x94\x92\xcd\xdc\r\xd2j;oA\xd5)e\x04\xdaz\xae\x8fT\xc9\xe0\xc3t\xee5\x985\xfb26|\xa6\x14\x9a\x08\x96y\xca\xcel\xeexH\x10\nY\xc9h!\xc3\xf7\n4x\xf0x\xca\xddv\xce\x02\xa8|\xd0\xc9\x8c\x92\xd4T\xde\x08\xc8\'U\xb9\xf3L\x1e\xdfABC\xc9\x9a\xcfxJo\'\xa4n\xfc\xa0+a\xdaX\xd2\x17;4\xe6[\x13\xc3V\x82\x00\x96\x9b\xcb5\x00\x0b)\xfa`\xba\xc3\xd7\xa1\x0e\x14\xa9\xfd\x8d\xff\x15\xb4\xb5\x191)}\xe4\xf1\x03\xf8\xfe*\x16g7\x9b5i\xf1[7x\xcaU\x14\xb0\x94M\t\xdb5\xe6\xda\xfe\xe1&amp;4\xd5\r:M&gt;%sz\xa6\xe8\xb9\xfb$\x1e\xe6\xf4\x80k5qU@\x85\x1b2\x04AT\xbcr\x94\x95jvd\xc6\t\x83\xc5\xfe\xa4\x0bm\xf9q\x99_k4f\xdb\x9e\x8ev+\x1e8G\x0e\xbd\xad\xffy\x04\xc8(\x1c\xb7\x86\xc7\xc6&amp;Q{\x97 H\xef\x0f\xc7G\x0bJ5\x87\xe2\xbfCs\xca\xfe\xdc)}\xf8\xf6\x19\x99\xdfl\xd7\x94\xdev\x1e\xcdj\xa9\xf0\x91\xa1ix+\x17\xb4\x91\xd5\x1b\xec\x98\x98R\x9a5\x9a\xecx4\x07O\xf2\x19F\x07\n\xb3\xf6\xe2\xb6\xc4\x9f\xdc\xae\x81\xd8\x0c\xa3u\x13Y\xe3W\x1e\x0c\xfb\xfd\xfe\xe6\x9b?\x94\xfc\xfb\xf8\x9ejg\x0eDd&gt;\x95\x90\x99\x9a\x1e\x1a\xa0\xf7Y.a\xce\xa2$n\xd3\x81\x84\x1d\xbb\xccx\xeaci)\xfa\x87\xbe\xa2\t\x8b\xd9\xfbw\xfes\xeb6\xd1G?\xd7\x95\x98\x12\xfa{I\x19\xdfm\xc9\xfc*~_\xc2\xfe\xfd\xfb\x13\x12\xbe\xddy\xe0\x8bM\xa9G\xd2C\xe8?\xf7\xac\xcc\x15h)\xeb\xda3%\xf9\xaf\x99,\xba\x82-\x19B@Wrr\xf8\xbb\xbf\x14\xd0\xdf\xd7\xdf\xd7\xff\xdf\xf5?/\x85\xf3\x9e\xbdb\xe4\x17\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpL\x8e\x03%\xa8;X\x8d\x04&amp;\xc4k\x81\xadOk\x8d\x03%\xcbw\x96\xb6d\x81\xb1Wo\x8c\x02$\x91\r/\x8e\x04&amp;\x97\x1f&gt;\x95\x145\x90\n+\x8f\x06\'\x9d+G\x93\x101\xa45T\x92\x0f0\x99!@\x9b&amp;D\x93\x133\x9d.K\xa11N\x9f/L\x90\x0b,\x93\x123\x95\x188\x94\x144\x8f\x06(\x91\r.\x8e\x06(\x97\x1d=\x95\x177\x92\x0e/\x95\x199\x92\x112\x94\x123\x99 &gt;\x93\x134\x9b%E\x91\x03(\x93\x134\x8f\x06)\x8f\t*\x93\t.\x91\x08+\x90\x07(\x96\x1b9\x93\x111\x96\x1c&lt;\x9b\x1d:\x97\x1f&lt;\x93\x1b9\x96\x176\x97\x1f;\xff\xff\xff\x9f\x02/\x00i@\xfe\xff\xff\xfe\xfe\xff\x01i@\xfd\xfe\xff\x01h&gt;\xfe\xfe\xfe\xa0\x01/\xfd\xfd\xfe\x9f\x01.\x9e\x02-\xfe\xff\xfe\x01i?\xe7\xcb\xd4\xff\xfe\xff\xff\xff\xfe\x9e\x01,\xa5\xc9\xba\xff\xfe\xfe\x9e\x02/\x9e\x04/\x9f\x061\xa1\r6\xf5\xe8\xec\xfd\xff\xff\x0cmF\xfb\xfd\xfd\xfc\xfb\xfb\x8f\x08)\xfb\xf5\xf7\xf9\xf3\xf6\x12pI\tkC\xfd\xfc\xfc\xa2\x13:\xed\xd6\xdd\xf3\xf8\xf6\xa4\x17&gt;\x19tO\x8d\x03%\xfb\xf7\xf9\xfa\xfc\xfc\xf5\xe5\xe9\xf8\xf0\xf3\xeb\xd1\xd9\x05jA\xfe\xfd\xfd\xf2\xe4\xe8\xf6\xeb\xee\xe3\xee\xea xT\xf0\xdd\xe2\xbfd|\xec\xf3\xf0\x98\xc0\xb0\xf6\xfa\xf9\xee\xd9\xdf\xf7\xed\xf0\xe1\xba\xc5&amp;|Y\xd9\xa9\xb6\xe9\xf1\xee\xa0\n3\xcf\x8a\x9d\xf8\xfb\xfa\xe0\xb7\xc2\xf1\xe0\xe6\xa0\x01.\xd1\x8f\xa2\xc9\xde\xd5\xe4\xc4\xcd\xc1h\x80\xe2\xbe\xc8\xbah};\x88h\xdd\xaf\xbc\xfe\xfd\xfe\x96\x187\x91\x0c-6\x85e\xa7 E\xdf\xeb\xe7\xbcVr\xdd\xb3\xbf\xaf3U\xa1-J\xfb\xf8\xfa\x94\xbd\xab\x9c\xc2\xb2\xcd\xe1\xd9+\x7f]O\x94w\xbc[v\xbd\xd7\xcc\xab(Lr\xa7\x91\x8f\xba\xa8m\xa6\x8f\xcb\x80\x94\xc4\xdb\xd2\xed\xd3\xda\xf0\xf6\xf3\xdc\xa9\xb7\xfc\xf9\xfa\xe5\xc6\xcf\xb07Y\xa6\x1bB\xcc\x8e\x9e\xb4Db\xa8#H\xb4Zp\xb7Lj\xd8\xe7\xe1R\x95y\xda\xa4\xb4\xe9\xcc\xd4\xcb\x89\x9b\xd6\x99\xaa\xf9\xf1\xf3\xe9\xce\xd6\xb0Rj\xaaE^\xc9|\x90\x99\x1e=\x9c&amp;C\xe5\xc0\xcb_\x9d\x83D\x8do\xa0*G\xcb\x84\x97X\x99~\xe7\xc8\xd1\xd4\x94\xa5\xae\xcd\xc1\xacJb\xa58S\xaeNf\xda\xae\xba\xb5Ge\xd3\x9f\xad\xc3|\x8fe\xa0\x87\xbe_yk\xa3\x8c0\x81`\xd4\xe5\xdef\xa2\x89\xd8\x9e\xae\xc4l\x84\xe9\xc9\xd3\xb9Qn\xd6\xa3\xb1\xd5\xa6\xb3\x94\x100\xa6;V\xbcn\x81\x82\xb2\x9e\xb2&lt;]\xb4\xd1\xc5\x8a\xb7\xa4\xda\xe9\xe3\xc5v\x8c\xa8A[u\xaa\x94\x93\x0f/\xa22N\xb8aw\x95\x132H\x90s\xc8x\x8e\xb9\xd4\xcaA\x8bm\xe1\xb2\xbf\xd1\xe2\xdb\xc5r\x89\xc0v\x89\x83\xb4\xa0\xab.Q~\xaf\x9a\x87\xb4\xa1\xa3\xc6\xb8\xd0\x97\xa6[\x9a\x80z\xac\x97\xc5\x82\x93\xd0\x9a\xa9\xfd\xff\xfe\xdd\xb8\xc2F\x90r\xbfp\x85\xab\xcb\xbe\x7f\xb1\x9c\xcc\x94\xa2\x9e%C\x15R\xb3\xbc\x00\x00\x00:tRNS\x00\xfc\x1b\xf5\x03\x13\xf9\x01\x06\r\xfc\xc3\xf2P\x83\xd6\xee?\xaf*\xbaYL\xa37#0\xce\x94m\x89\xea\xc9\xe2c}\xb3t\xa9\x9b_\x8fE\xad\x9f\xe5\xde\x8a\xe2\xfa\x93\xd2i\xad\xf9\xc3\xf0\xa82K\xc6\xc1\x00\x00\x18UIDATx\xda\xcc\x99[LS\xd9\x1a\x80EF@P\x10tDgt\xc4\xbbg\xcextt\xce\xad;keg\xdf\x1a\x8a\xb1\x17\xc8\x946\xa1M\xd3\x86\x12JB\x1fhc @\x03%\x80!\\|"} \x84\xfb%\xe1\xa6\x82$\x10\x8c"\x1a^@\x1c4&lt;`DCB0&gt;\x98\xe8\x18\x939\xc9Yk\xed\x02\x85\xd9\xbb\x85\xc9\x8c\xb0^\xac;{\xff\xeb[\xff\xfa\xef\xec\xda\xf5g\xad\xc8\xb3Gv\xed\xc0u8\xec\xe4\xee\x9dGup_\xd7\xbd\xa4\xa8\x9dF\xb5\xfb\x1f\xcf\r\xe6\xd9\xc4\xafv\x16\xd5\xde\xa4{9\x00z\xd3c#w\x12U\xd4\x99\xca\\Z\xa1\xe0\x1e\x87\x1d\xdfIT\xe7f\x939\xa0P@\xa6\xcfzj\xe7P%\xde,d\x14dU&lt;\x89\xf8z\xe7P}bT"\x16\xe0\xdeF\\\xd8\x19T\tHW@\xb1\xb2\xb2\xdfF\xff\xb4\x03\xa8\xf6\x1cz\xe3\x85i\x18\xe8\xba\xc8\xc5}\x88&gt;\xbd\xedq\xe2h\xdcP\x16\xd1\x15`n\x98!Q\x1a\xf31\xfd\x87m\x8e\xab\xf1\'\x16\x1c\x1cQ\x12l\xd2\xb6\xe5BH\xb8jn\xc6lg\x1e\x8a:\x1bv\xc7HCQW\x1a\x8a\xaa\xcaeR\xc8=f\xdd;\xb9}y{wBz\x9f\x9e\xe8\x07rSZ\n\xad*3-\xea\xcb5\x1eqz{.2r\xff\x89\xa1\x12\x8e&amp;\xe6\x04&lt;\x1a\x8aEX\xac\xa5W\xbcR\xa0\xefK\x8f9\xba\x1d\x1e\x98h\xedr\x01?\xc3\xa2\x80\xa1\xf0\xd2\xad\x04\x0b\x98&lt;\xb2\xef\xf8\x97VX\xd4O\'\x86\x1e\xd1\xfeP5P\xcdS\xbc\x1f\x8b\xd2\xde\xcf&amp;\x0fi\xda\xf86=)\xfeK\xa6\xee\xc8\xc3q\xe9/\xec$,@@\x17\xd5R\x81KSj 7\x0b\x14\xaa\xc6\x97a\xe7\x0e~1\xa8\xf8\x18\xeb\x033Gl\x1b@\xcem\xe2\xd9@,Vhu\xf8\x83&gt;\xcc\xb81\x14q\xfe\x8b\xc4\x8a\xbd\xfbc\xac/\xbd\x90\x16#;0\x0cj\xa8\r\x8bU[\x96\x18 \xeaRe\xfbm("\xf1\xc8_\x1c\xf5#\x0f\xc6^L\x1fo\xc9\x86~m\xa4\x99[y\xea\xf7\x8b\xd5\x94\xdai\xff;\x8c\xe1q]X\xd2\x85=\x7fa\x9c:\x9e\x14V\xf99\x97c\x18%\xd2\x04RGsA&gt;\xa5\xa6\xa4\x96\xd0\xe9\x85\n\xe0\xb7\xfd\x0c\xefxz\xf8\xb9\xfd{\xff\xe0\xf5\x04Q\xf5W{\xbe\xff\xeej\xf4\xec\x9dG\xcd\xfe\nF\x01i\xeei+\xcfSrK\xe3\xcc\x84\xabu\x05Lm\x7f\x98\x1e~\xe8\xec7{\xe5=32J\x9a\xfb?q\t\xa7\xbf&gt;\xb2{\x03]\xd4\x9e\xa3\xdf\x1fO\x8c\x0bO\xbfW\xf6\xc9N3i\xab;\x15M"\xabb)\xf9e\xf2\x18W^\x06\x0c\xcd8\x1e\x8fWZ\x0f\xc4\\\xb9\xb0q\x8bH\xb4E\xfc\xa9+\x87N\xfeW\x12k\xf6\xee\xf8\xbd\x9b\xd6\xe8}\x17\xaf\x1eJ&lt;v)66\xf6\xd2\xb1\xc4CWO\x84G[+\x9f\xbfx\xe4\xc8X-\xa9\x144\xc7\xe4\x0c\xea\xa8\x90\xab\xaa\xe7\x16\xad\\\xfbLa3\xbf\xef\xaa\x9bE[\\\x8eI\xf8\xe1\x12\xda\xe2\xbbK\xe7\xcf\xfd;\x0eo\xf1f\xa1k(A\x12\xeb\xc7g\x90\xb1\xe5\xba?&gt;)\xbbs\xf7a\xdd\xc8\xc8H\xdd\xc3\x97w\xca&gt;&lt;nI\xcd\x80\x80Q@\xc5\xda\xd9s\x1aL\xd4&amp;\x16\xcf\xfbn\xdc\n(\x11\xd1\x97)\x15\xcd\xb9\xee\xdf\xe6_\x8f\xbf\\@;\x8c,&lt;\x7f\xd0\xf5y\xf4\x17\xb4\x05\xc3\xdc\x95\xc3"v\x03\xc4,\xb7*j\x05\x87&lt;QA\x083\x1aKu\x82\xfc\xfd\xa1\xe7\x01\x16\xc7wzR!P\xf9\xc5\x01\x10 k\xf5\x07\n\xbc\xf8\xc7\xdd\xbfKb\x85\xddP\x84\\\x80v\xf5\xcci\x82Y\x14%X\xea\xdd\xf3\x01\xaf\xb0\xba\xfa\xe1[\x10\x86\x96\xfd\xe0\x0fb\x01\x85\xa1\xa6^\x87\xe3\xa5\xa4\x8a\xd4,\x8f\x98\x9c\x85\xcd\x8c\x92+\xb4\x14\x07^f\xdbbr\xb6_E\xe0O\xc3B\x11H\t\xa01\xeb~7\xbe\xbc\xf54:\x96\xf5\xffb)\xd3\\\xc3\x98X\x7f\x01\xda\xd1M\x05\xdc3\xab\x16\xda\x9cME\xb7\x00Lc\xb6\x8a\x15\xf1L\xe6\xfd\n\xbby\xa9\xa1\xc3\xa2\x16~\xa7$\xf5D\xearU\xbeF\x93oyW]0f\x07\xf0W1V\x01\x06f\xf4X\x02\x95\x8a\xe8ymU\xb5g\xb8\xc8 \x87%c[?\x8aX\xf7\x9fx\xa6\xca\xdd-\xc9\xbd\xbd\xc9%\x9f\x9a\xfaGK;\xd0\xc6RaS\xcdR\x13h\x0f\xbd\xdd\xe1\xb07g\xaf\xe9\x16\xd2bm\x98Z-\xf1\x95\xa0\xd1\xbd\x9bY.@;\x94\xf4\xf6\xf6\x8e\xe1\x1d\xfa\x96\xc7`0\xac)"v\x12\x1f\x8d\x17\x04\x81\xe7\x05\x9e%K\xc6\xb8\xd5\x1dF\x88/\x0c\xa2\x94\x1c\x10\xd4*n\xf7\x92\x9b\x82L\xa1O-\xed\xaa\x14U\xccc\xf9\x02_\\\x8cJ\x8er\x82\xf5R:@\xbcyO\xc4:\x03)\xd4\xc1|\x0eQ\x81u\x1e\x01P\xf9e\xf3vkMc\x90\xc49h\x185!O\x90\xa0Z\xf7[X"\x8d\xc9\xc3\x7fJbU\xb6\x13\xe9\xd3\xd4&amp;W\xab\xd9\x18\xa8%\x94%i\xdb\xd3\x86N5Rv~\xbb\r\x17&gt;\xe8&gt;S\x9d\xda\xa0\x19\x8a`\rc\xac\xebu\xd2X\xff\xfa@\xce\xbe\xc8o\x96K\xd09s\xfc\xfa\x02\xc6\xcc\xe4\xa6\x86n\xd35\x12\x0f(^\xe8\xecw\xe1\xc2\x87\x81LVmH9\xc9XH\xf6\xff\xaeHb}\xfb\x96lQPLmz\xb1&gt;\x17-z\xde\x9cpm\xfdq\xaa&gt;a\xb3\xa3]\xfd\xad\xda\x90XyX\x86~(V\x12+\xa6L\xf4\xc4-`Q\x82S\x8cSi\xd5T\xa0g\xb0\xeaj{\x1a\xae]=\x16a\x13\x87K\xc52\x0co\xceJb\x9d\xe9"X=\xfc\x16\xb0(]\x0e\xf9H9\xbd\xce\x90\xb5\x05\xa8]dh\xf3;a32\xf2\x07\xd05\xa9\xec\xaf\xa4\'v\x89\x0f\xc8\x0e\x85[\xc1R\xf3M\xa2\xb9\x17\x04b\xe5\xf7\xd0xdY\xaeSoJ\x88\xc9\x86\'\x899\xe9\x87%\xb1\xae&lt;\'~\xf5tK\xda\xe2\xa7\xd3R\xa0\xc1\x91\xb5(\xe0E&gt;\xe55\xfd(nAe\xb9v\x932\xda\xf4X\xdfEV\xe9\xb1\xc5\xe9\x11\x12\xaa\xf3\xb6B\xc5\xaa\xe7j\x9e8\x9d\x83\x1f\x1fy\x87\x87\xdd\x8f&gt;6L\xcf\xd4\x9a\xea+\xf0\xe9\x1bujvsB|x_&amp;\xcb*\xddR\x1e\x1f\xd2\x93\x9c\x91\xbf\x89\xab[\xdd\xb0\xcdYhT\xa0zj\xa5HS)\xe8y\\\xc4\xa7\x18}&lt;\xb625OYB\xd1\xcd\xe1\xa4\xa0\xf2\x86IwG\xfb_\x91,j\x0fQ\r\xab)K\xbfO\x83n\x8c2\xb5.\x96\x18\xe8\x8d\x19\xd7\xe0$\xff\x14\xf4LV\xe9\xb4\xba\xcezof\xa8\xf2z\x06\x17\xd6\xe0\xc6\x01\xe9\x89\xc5\x91\xf4\x1c|\xe6\xe6\xb6P\x16z\x1b\xea\xf3\x96z\xdcy\xc6\n\x00\xe9\x95zS\xb5RN\xe5yP\x16\x829\xa5\x1cl\x1ep\r\xe8\x01\x84\xcb!\x04Ncm)=\x97\xa5;\xaf\xa3\xd6,,\x1a\xb6\x065&amp;JW\xb2\xbe\x18S*9\xbd=\xaf\xa4\xa6\xa9\xa7\xa7\xa9\xa6\xa41\xb5e\n\xc7\xd1\xfe\xac\xb5z\xd4\xa1\rz\x8d\xbc\x07\xe7\x1e\xf0\xf6[\xe9fmOx9\xe9\xd0\xab\x83\x07*\xef\xbak\xcbN\xadi(+\x9d\xf7\xdcG\x05\x01j)\xf8k\x1a\xdd \x92\x91\xe1\xd4\xafbe\x0c\xb7\x05\xc7*\x07\xe8\xdd\xb4\xae32\xc3\xa1\x13\xed\xbfb\xac\xc1\xa0T\x85\xabe/\r\xb8"O\xab\xa9\xd0\x85[\xb5\xa2\xd5Q\x04_\xcbA\xa5#\x7f\xe2g\x7fS\x917\xa1\t\xe1\xcdYd\xb0\xf9\xfc\xbcL\xe7\x1c\xf7\x02\'^0\x15\xecd\xa5\xcfr9?\x16\xd72\xa3\xe5y\x93\x91t\xb4\x8e\xd5\xa6\x82\x15\xdc4\xd7\xc4\x93`\x84\xd4\xe6\t\xe5\xd8l&gt;\xc9=\x19Cge\xda\xed\x84q\xec\xe7\xc0\x1b,\x9e\n\x82\xf6\x99\xbf\x8d) \xd1Sg\x04"\x96 \xa8\xd1E\xa2G\xc5&gt;\x17\xb7Lu\xe3z\x0b\xbafB\xa7\x1f\x0b\t\x00\xc6\x9b\xfbe\xb0\xbe\xab\xc3\xfb)sC(\xdd\x94\xe9\xc7b1\x83n\x80\xfc\'\xb3\xde[R\xe2^\xea\xb9?89Q[m\xeb(^B\x0f\xd3rj7\x91\x14\xdf\x91\xe4\x92\x17-7\xa0\xbb\xf0J\x8f\xc3\xb31?\xa8\x85\xb2\xbc\x87\x060E\t\xfa)\x01\xf5\x0cN;\x91\x9a9\xa8R*Q\x1f\n\x14\x10p\xbd\x933\xddF\x14\x19\x0cs\x14\x15:\xd2W\x8b\xa98\\n\xd6\x14o-\xc2q\x1a\xf8B\xc8\x99\xc0\xaduVC}\x81\xb9\x02*\x1b\x06RD\xac5\xefd\x98&lt;\xf7\xe74\x00\xb8y\xdd&amp;\xa8\xa8\x06b\x05\xed\x17\xe5\xe6\xbf\xbb\xa3\x0b\xc9\x1b\xf5l\xf0l\xdd\xa9\x1fx\xf6\xba\xdd\xc1q\xc8)\x99&gt;\x97\x1fk\xad\xac\xa7\x95\xb4\xbb\x1c\xf9`\xd6bjO\xbdO\'\x88\xb1C\xd6Z\xc5\x1a\xa4,Fv||\xa0\xcfo4\xc1\x93\x8f\xa9\xbd\xde\xab\xf7\x07wX\x90#b\xcd\xe7\xa4\xba\x06l\xd9\xd8iP\xaf;\x88\xbc\xeb\xfa\xb4\x1d\xbb\xa2=\xab\xbc\xbfo\xb4o^N\xde\xb5F"I.&gt;\xe0\xfa\xf45y\xc3-\x04\xd5\x96\xa6\xe3)\xb7\xd2\xf20\xb6\x06\x11\xcb\xa1\xe5)\x8dVg\xea\x9c\xab\x9e\xf7\xd4\x98\xeb\x91W\x18qrT\xa9\xae+\xb1\xd1\x81\x8c\x19\xb9Hh\xc3\xdf7\xbf\x91\xffs\xf2\xb1\x05b\xbe\x8e`\xee\xc3\xfb\n+p\nD]\x8d\xedv_\x87I\x93*bi\x02\xe7G\x026\xe3\xbc\x02\xb8\xd2\xd9\x03\xdc\x03Y\xa4\x05\xd6\x92l\x9ak\x8d\x97\xc5:5KB\x08S%_\xce\xebFmb\xf5\xce\x99\x07\xabp\xe1\xa2\xf5c\xad\xaf\xf9\x16QQ0\xd6\xd1\xcb\xc1\x95A\xcf\xcf-\xa5\x16\xe9\xfa\xab\x14\xc7JP\x13!?\xf4\xfd\xc6j&amp;\xd9wFvp\xe5\xeb\xa5\x91\x0c\x00\x19\xf7\xe4h!\xb63V\x9bI\xe6}E\xeb\x83]\x01\xd2\xd3mA\xe34\x8a\x7f2\x83\xaen\xb9\x89\x980\x85\xd1\x99\x0f\x97\xe5\xa7\xaa{\xc3\x7f!g\x1b\x95\xd3\xd5\xa4\x11\x9f\x9f\xce.q&gt;\xbeE7\x92\xbb\xf6cm\x88\xc1}\x88&amp;SK\xf1\xef\x1cD_6\xd9\xaa\x84\x15\xf208|\x90\x10d\xd8\x9cTFJ\x1b\xaf \x9d\xbc&lt;\x08\nm\xe3(}oC*k\xe4\xd7a\xad\xe8\xa2\x18\xf5\x15,.\xa1\x9a;\x05\x96\xf2\xd9\xf19\xcby\xd9f\xc3\xa2\xc7\xdf\x1b*O\x07\xc1\xfa\xdbB\x05bW\xe6\xe4K\x84\x05VWC\x1c\x82.7\x99Iv\xde\x80\x85\x0c\xfd\x9a\xda\xe4\x9b\xa8\xc7|\xb58#.\xa3\x17\xd4N\xf8\x7f\xd6\xad=\xa8\xa9+\x8dc\xedbA[\xb5j\xbbU\xa7;\xdb\xedc\xed\xb8N\xff\x8e\xb9\xe7&gt;\xb8\x90k"\xf8\x80\x040AB0#\xb1&amp;\x9a\x04\x05j\x16\x07\xa9T\xa4\xa9\x0fBX\x860\x94\xd6\xb6&gt;`v\xbb\xd2\x19\x85\x11e]]\x91G\xd7Y[]`\xc4\xb5\x0c.\xbb,X\xd8vl\xdd\xce\xec=\xdf\xb9\t7\x84Gx|3\xccps\x93s\x7f\xf7;\xdf\xf9\xce\xef{\x1cD\xa1\t\x13\x08\xb1\xeb\xaf\xe3_k&amp;\xb3\xf8\x88\x88\x15_\xe1\x9c\xb5*\xf9?\xe3\xe8j\xfb!p\n\xa9\xff\x8a\xdb\x94\x8fB`)\x0e\xfd\xe1\xca\xb1\xf3\x89i\x9c\x86\xc7\x96\xb9\xf9\x968\xccy\\d\xdc\x92\xcd \xaapBO\x18{\t\xcc&amp;w\xfed\xc5\x84\x97\xa2O\xa9q\x8c\xfc\xd7\x98\xb1\xa9\xac\x98\x8c\xcb\xc4vO\xc7\xae\x8f\xdb\xa3\t\x855JW?\xdc,.\xb9\xe3;\x11\xc3\x9f\x83\xbdE\xf4q\x9f\x8f\x97\xae!#\xdf\x02X\x87WMV\xe1{\xe6-H\x8f\xa8\xff\x197\xd6\x16\xb6^D\x84\x12\x88\x03\xc7\xa5\x03\xac\xac\xf1a1\xe8&amp;\xce?\x1d\xcf\xe2Q\x16^\x07\x9f\x88\xfc\x0c|VLlh.86\x03J\ni\'VOZ`y\xfd\x1ex\xc0\xc4-\xc1\xb0b\xb6\x1c\x83\xb5\xb0\xef86\xe8\xb8\x0f\x01\xd6\xef\x0f\x12Xp\xa1Psi\xa9;\x930\x03A\xd9`\x9a\x9b\xaf_9\x85\xf9\xf7;\xe9\n\x15s\xeb\xfd\xd8\xf5\xdbs\xf3\xcf\x85l\x1f\xd7\x81\xa7\'N\x10Q\x8fu\xa8c\x93?W\xc0\xae\xb6\xfd\x9d\xb8\x9a,@r\xf9\xa0\xdc\xe4\x0bO\x9f\xd9\x9a\x81\x99\x18b.JA~,$qbN\xef`xf[n\xe1-\x86\xd97\xb6\xca\x10{\x00\xe7\x13\x93\xde[4y\x05\xed\xa5\xe8w\xc1&gt;.\x05G\xab\x85&lt;d\xa0n\xae\x97\xc3\xbaH&amp;1\x11{i\xc5~\xbcV3R\xb1W;\xbf5(\x99\x18\x13{n7J\xa24\x88\xa7x\xf4\xbb\xb1\xda\xc2\xc1\x16\x85\xee\xac\x9a\xbc\xe2\xf8\xcc[\xff\x06\x13\xbc%\xf7\\\x07\x8f\x83\n\xd1\xe7\xd2\xcc\xc6\xa5\xabFs([\x12y\x15\xc7}\x8f/bnb:\xbd;$\xce\x8c\xc98\x90/\x92D\x95\n\x9d\x1c\xebV\xdfO\x83\xfe\xaa\x0b/OQ\xbd[}\x02b\xc9d\xf9\xd8\xdb\xb3)\xbc&gt;\xd3\xb7\x06\xd2d\xa0\xad\xf7\xe2\xc0\xea\xb26\x1c\xfb\xf2\xb3K\x0f2&gt;\xfd4\xe3\x9a\x08k\xd7\x07\xe2\xc7\xef\x84\xf8\xf23\xe7\xf6\xfe\xf0\xc3\xde3\x9b\xc68\xc3BN|\x11Uv\xf4\xd2\xa9\xfa!3\xf3\xa1\x86Y(\xdb\n\xbf\x14Cg\x8a\xd9\xf1\x89\x7f\x03\xdf\x94\x0f\xda\xfa\xe8`\xdc\xf63\xa7\xf7\x1e\xf8\xe8\xd4\x9e\xc4\x9d\xa9;N\x9e\xdc\x81S\x1c\xc9\xa7\x0emH\x9f\x88-\x84\xf0\xef\xfd\xb0\\\xfe\xb7d\xaa\x12h\xd4\xfc\xef4\xb8b\xfa\xdb\x8d\x92\xc4m&lt;\x075`tec\xe0\xa3\xb7A[\xe7o\xa7oKC\xe2.\xa4\xd1p\xaa\x04\x91H#\x892k\x12\xa8\xf77\x86%\xdb?\x06\xeb\xb8\xf7\xfc\x945\xd8W\xff\x04Q\xf3\xc9\r\x01!M\x18L\xd6\xe8\'\x1fOUUR\xc9\xbe&lt;\x99\xa4\xc3\x9b$\xa6L\xdd\xb9\xf7\xeb\xfb;\x89\xb3\xa6\x02\x14N*N\x04\xa2wDMY\xedJ\n\xa3"\x86\xc7\x84\x91r#\xa7.\xb0\xffl~\xae\xf4\x93\x04QF\xc1\x90k\x10\x7f\xd1\x1e\x8f\xa9Q\xa9\x15\x1a\x8d\xc6\xec\xac\xa9\xa9q\x89N\x95\x81\'\x89\x8c,aJ\x11\t.^J*\xee\xcf\xcb\xc3\xe8)X^OB\xf9\xe6x,}\xfeDHE|@\x9aIz\x81\xe3uNw\xf5\xa3\xa1\x9e\xd6\x96\x96\x96\x874K\x17\xe1\xaf\r\xf5\xd9y\x06u\xc6\x87#\xfd\x98/\xab\xf6\xdd\x0f\xa7k\xef\x95\xaf\xfe\x08/\xdc\xc2bi\xca\x93\x12W\xe4\x12\xc4f\x86\x95XZ\xe7\xd5\xb3\xac\xde\xed\xd2\x886\xee\x13h\xda\xa4SP},k(o\xa7r\xd8P\x11B&gt;\xa9 \xecaQ8M\x12O\xcd\xff\x0b\xf4\x90V\xb3\xb4R\xa9\xa4M\xed0e\xeafA\xe9\x17/\xe4Xy/\xbe\xaf491\x0b\xd3\x0c\x89_e\xfb\x93P\x8dV\xfcG[a\xa2\x95!B?\xf6\x19Xz\xf4\x06ms\xc1\xf2\xa8_\x1eN\x7f\xd0\x82W\xefa\xfd0\xe6\x1c\x80E\xe7\x18\xe1\x9d\x8c\xa6\xc0xE\x00\xd4i\x92\xc3\x1a\xc0_\xad\xe2x\xd4\x82\xff1iCa\xb1-.\xde]\x89\xd5\xe8\x87\xd5\x03\xb4rwJx\x9d\xaa\xcff\x12w\xe9#C\xd3wa\xc1\xa0R\xc1\xff\xa8r`\x19\xa2^\xf0\x07&amp;xe\xcd\x13|C\xeb\xe6\xa8n\xad\xa0\x1cGS\xb4\xd6A\x88\x86\xbd\xa0\xd9\xe1k\xb0\x88?\xb5t\x83y|\xbb$\xbcF\x97\xa8%\xff\x85\xd7\xc8\xd3\x92\x11\xf5n\xcc\x91\x911\xc7?\x01\x1d\x1a\x0c\xd3j\xc17\x95d&amp;4=\xf8\x86\xf0\xd0\x89\x92J\xd9q`\t9\x05\x8c\xbf\xe7\x80\xe3&lt;\xa0\xccFHO\xa7\x9dx1\xcc\xae\x965?%c\xfdpM\x04\x96\xb2\x97\x03\xedU[\xa4G\x0c@f\xb8L \x06\x02\xcbRSEt\xd2\xe4J\xd0\xb5\xb0!\xaab\x1bj \xa3\x87\x81 \xc6#\xbe\x9f\xf8Y\xb3\x08T\x856d.\r\x13\xd6\xb2\xcc\x8b0m\xd5\x92vX\x0fh\x0fu\x91k6\x1eO\xa2\xa6\x13\x9eN\xe7\x00,U\x87\x04\xb9\xa8\x9bw\xe5\x8cU\x95\xa9\x99\x93|2\xde\xf2\xf3\xb4X\xed\xb4\xcd\x0c{\xda\xe1uawQ-\xac\x87D\xa4\xb9M\xb2.-\xacFJ\xd7*z\x01\xf1E\xab%[\x83{^^\x06K\xbc\xa9\x1d\xb1\x96\x04iJ0\xb4\xda\x19\xbcu\xaak\x1c\xc3w\xed\x9c\xba\x02\x8cT\x18\x02\xc7\xbb\xfb\xfeka\xf7&amp;\xad8J\x12~\xf1\x824\xb4\xd7\x08Vnn\xc5\x0b\xdcb\xc5\xae\x0c\xf5\x90[%`\xb7\xaa\x86Q \x06\x83\x1c\x16\xdb\xd8\x0e\xbf\xd50\x15&amp;A)x\xed\xc8\n\xda\xd2\xdbA\x7f\xdf.\n\xbf\xb3+\xea\x177`(\xc9)\x88vPG\xa6\x8a\xf1\x19hZo\x84\x9d\xb2\x8e&lt;\xb7\x04F\xd74\xc9\xf4#GU\xd2\'\xe5!\xa8N\xbc\xfah\xba\xa8\xb2\x15&lt;O\x07"\xb1\xc5\xdai\xb4r=W\x0c|T\xed\x93\x16;-T\x99a%\xa9\x0b\xda\xd8\x1c\x80\xack#w\x1e\x12Xu\xe39\x05\xc3\xe3\n\x9d\x7fOu\xeb\x83\xeeYj\x19\xcc\x9f\xf6GN\xa7\xa5\xf1\xa9H\xa8\xf2#\xbf\x0f\x15\xf5Ue&amp;\xe1\x96\xb3\xb4\x1c\xfeq\x91\xc7\xd0\x8dp\x95\x10\n\x8b5U\xd5\xf2\xa3[}k\x90\x12\xe9&amp;\xb0O\xfe\x8b\xe5\xd3\xea\x00]{!\x19\xb8\xff\x10\xeb\x1f\x8d\xad\xd4\x91\xcd\xd1&gt;\x02sb\x85\x85(\xd0uD[\xbd\xb2G\x8a\xc2j\xeb\x9a]\xf2f\x04\xa3&gt;\xc8\xef[j\xe1\x1d\xcfg\xbe0\xad\x86\xbce\x91\xd7`\xbf\xce\x0b\x8cF\xb3M5\x80\xab\xfa\x11a\x14\x12\xac&amp;\x02\xabq\xd4\x1d\xd0\xda\xb6\xaaN\xa3Z\xce\xb8(T\xc0\x06\xc1\xaa\x83\xf5{\xe4\xec\xaai\xf6X\xbe~\x15\xba\xdb\xa8!\xbfu\x89\xcf\xf3\xb6cN\xe8\x83\x17U\x94:\xaa\x1amZ\x96-\xef\xb6\xdaE\xaeU$\xdegY\x8b\xde[7P\x91\xc7\x05\xd8"\x85H\xab\'\xe3\x91\xc3\xa2\r\xb58&lt;D\xe9)\xd3=\xb8\xb1r\x1ea\xffv}\xd0\xbe\xa6c\xa8V\xc2\xb6*\x9d\x0co6\xd6V&lt;\xf2\r\x8eT\x8a22\xe0\xe8,\xcbs\xeeR\x07\xac\x89b\x90\xb1\xec\xd1\xdd\x8e\xf2\xc7\x8f{\x1b\x1a\x83,k\x18\xbbW\xc4?X&lt;\xdd\x86\xd4\xa7\x97_=\x02\xda\xf7\x05vhl2Ee\xba\x06bb\r\x94J\xa1\x12c\x0b\x1e\xb3TD!\x91\xa2\xaa(\xc2X\xc9\x9f\xb3`\xb0\xc4\xc0J\xfe"\xc8k\x08\x86Z\xdc\x99\xc7\xedI\x99\xfei\x92\x9fG\x1f#\xfc%\'h\tY\xca\x07\x01\x95\xb1cbBO!\xa4\xeb\xaf2\xb1\xe3p.2H\x15\xfc\x16=X&lt;\xfd\x0e\xf1\x05\xcf\x9f 5\xae\x1f\x85\xe0]\xb7\x02\xc6\xec/\x9d\xb8?\x0c\xe5yJ`=N\x80Kr\xf0\xe9\xf3fr$h\xe5&lt;H\xa4*\xccE\xc1c:a\x8e\x1e\x951\n\x0eQr\x95\xe1~)\x8a7\xbb\x1d\xbd\x16A9\xb1\xd0\xac\x0fW\x92\xd1\xae\xfaU3j\xa7\x7f\xe3\'p\xf5\x94\x9f\xd0H^\x1d[+EU5y\xca\xec\xae$9,\xdeh\xad.\x1d\xb6\xb1\xecDZ\x92F\xf0:q5\x95?4M\x9f\x15p\xf5\x8b&gt;C8|\xe6Z\x04\xd9\xabv\x91\xb3\x17mJV0\xd8\x8a\x86{\xbaJ=\x1e\x8f\xc37\xd8\xd2\xeb\xd5[\xd8\x807\x99X,}\xa0\xee\xe4\xab\x0bg\xd8\xe2\xff\xabo\xf6\x81\xd5\x8f\xfaT\xd1\xe4\xbb\x89\xdf\x90X\x02\xad\xb7\xba\xdb\xdbk\xad\xf6\xc6\xc9U$\x93rR\xbd\xcd\x8d\\9\xd3\xe3\x16\xbf9\xcc\x00\x9f\x94\xf9B\xaf\x99L\xac\xdf\xcb\x16Q\xa2g\xd0p\xa8C\x19\x1e,Z\xeb\x06e\xa5^X;\xe3\xf3\x10+2/\xe3\x9edd~\x18p^\x83\xa4\xed\xaf\xcbo@U\x92\xb9;\xc2\x83E\x0b&gt;\xd2\x18wc\xc9\xcc\x0f\x1d&lt;\xbd\xf0j2\x94\x9c\xdb\r\xd2C\xe9v\xe2r\xec\x8e6\xb0#\xf6G\x89\r\x97\xb1\xe1\xc1*!\xda\xceNy-b\xe6\xb2,\xf2;\xd2&lt;3 MZ\x8e\xd9\x1f\xfc\xf3\xf1&amp;Qa\x06\xbbt9\x86!\x8c/\xe2.\xde\x8f[\x06\x99\xe4/\x16\xcf\xea\xac\xcds\xc5\xd0\r\xa0rJ\xfc\x9c\x1e\xd0\x05\x1a\x14\xddbX\xfd0\x90\xfdn\r\x03\x16\xcd\xde\xe5\xa1%\xf4v\xe4\xec\xcerE\xad\xab\'\xa4\xb7\x96\xc4\xc9\xb4\xc5\xe1\xb2\xba\xed:\xd1uR(\xcf\xc6:\x02^\xab\x8c\r{\n\xf9\xdd\xc5\xabgy\xfe\xe2\xcdh\xe9\x94Q\xa9\x14nX\xb4892be\x10\xcf\x14\x98\x8c\xa3&gt;\xbe|jX\xdanr\xc2\xec\xec\xba\xa8Y\xc2Z\xf0Fq"\xec1\xe6^yV\x83\xd6zDB\xdc=2Z\xc1@\xb5Za\n]\xd1\x1eh\xff`\xaeE\xbf\x101[\x89Zw6\r\xe7\xd9\x92\xac\xa6\xa0\xc7\xd2]&lt;\xaa\xcc\x93\x1d9@\x0ear\xf3\xa2\x9bv\x91\xe3"\xc5k\xe7\xe0\x08\xd7\x9b\xf3nC\xf0J\x89a\xa7\x9caZ\xfa\n\xba\xe4\x07\x1a\x14\xba\xd6I\xcd\x8b\xb6\xd9\x81\x87\xa5\xd5\xff2j\xf6\xa8"\x16\xac\xf9&amp;\x9f$u\xef\x06S\x15\xdb\xb09\x88\xcf|o\xae\xa4\x85I\xdc{\x01\xb0h\xe6o\x91K#\xe6B\xa2\x16\x7fM\xf2\xd4\xae\xde X&amp;+\xa0\xddet\xf9\x1b\xa7t\x1e\xfd\xc4\xb0\x1c\xb8\xcb\x99b\xb2\x8f\xbe&lt;G\xa7\xf0\x96\xcd\xbf\xc1\xc3\x9e\x93g\x93\xc3\xf2\xba\x10\xc3\x97u\xd8\xb4\xfa\x92\x9e\x02\x1e\x12\xd2\xc8]&gt;.\xad\x11h\xa1\x01\x1c\x1eJ\xfd\xc7\xaa9;\xb4\xf8J\xca\xbb\xb0\xedSeZ\xf9\xb3\x9e cO\x8f\x9e\xc4\x85%\x9d0\xa3j\xaa\xba\xdc0\xde",1\xc2\xea8rg\xc9\xdc\x9d\xf1\\\xf0b\xf1\xdb\x10\xd0\xa0x\x8b\xccK\x18\n\x86\xfb\x99\'\xa0\x1dZ)\x02s\xaa1CUX\x1d\x8dz!(I\xaa\xa4M\x847P\xb9\xf3\x9e\x9d\xcb\xd3\x7f\x8b\xbf&amp;]\x19\xdc\xa0 \xcf1\x149\xb9\x1a\x9b?\xad\xc3\xda\x9e\x94\xb9(N-\xc6\x86\xc6\xfe\xd2":\xd8\xdc\xe1\xd7\xd9G\xd7\xcc\xe9\xf1\xcee\x8b\xee\xf0\x90\t7\xd7\t\xb2\xa8^(w2\x05\x06\xc8\xa2\x81RX\xfd\xe3\xca.\xc7\xffWt{\xf6\x8fhG\xe4\xb2\xe4\x03d\x12!}\x0f7\x95w\xc3\xf2\xb2\x1dwp\x02M\x94&amp;\xb4\xa1t\xf9\x9e\xe7\xda\x15\xa1\x96\x1b\xf66\xe8\x89\xde\xe3\x06\xa454\xe9\x88.\xd5wv*w-q\x00w\x01\x0bQ\xc6 =\xa2o4\xeeBu\x07zG\xcc\xf1\x1cdP\xc5\xe9\x04\x0f\xf5\xf7\x80\xb3\x08uBJU\xbb;I\xa8\xb5\x8c#\xfe\xb6\x83\xc7\xf40\xc8\xe4\xd4\x15FZ\x1c\xc9\xc0)=1\x1d2\'\xd5\x88\xde\xe4\xc3[\x17\xb6%@|\xd3\x14!G\x93\xdd\xccL\x8a\x87R\xc0-\x06\xbb\xf9\xa1\xf6\x1e\xc4us\xec=\xce\x14\x82\x1a~\xee.\xf1\x8f\xd5h\xb41W\x8a\xe7\x11\xa4\x83a\xf7,\x86\xd8\xeeWy\xa5-\xb0\xce\xf1\xb6\x0b\xa6\xe1!7bl\'\\\xc0\xa5\xa2\xd3\xaf\x18bz:\xf6\xf6\xe5\xb9\x90A\xaeM\x87\xf9i\xb8WX\x94qy\x07\xa4q\xf5\x8b\x98\xf0\xf2(\xcf\x05\xaf\xf7\xb2\x8b\xda\xaaH\xd3s\x05d#\x8e{A\xc2\xeb \x11\xee\xca\xcb\x05\x8f\x05\xdaM\xda" EKW1\xb0\xf3E@\xda\xf6\xb6v\x04\xdd\x05\x8cA\x07\xf0DOX+\x8f \x03m\x01\x8bfD;t\xe1\xd1\xadP\xfc\xee:\x93\xeb\x04\x1e1\n\xbf\xce\xac\xc5\xc0@swu}\x87\xb4\x95\xed\xe6G\xe3i\xbd\xdbwW\x82\x87mA\xae\xe2e\xa0=`\x97\xe9*\xb3\x83\xecz\x9f\x9a\x84\xd3Y\x1e\xbb\x13\xc0+\xf5\x1c\xc2~\xb2\xd1\xc3U\xc0\xf0R\xef\xea\x87\xb4\n]\xd6\x94\xe3\x18?\xf2\xd8W\x0c\x1e\x9ds\xa0SXA\xd3W\x85\x13$\xddW\xb6au\x96\xfd\xecT+p\x7f"\xa5\x95n\xae\x02\xc6\xa3\\\xc4qp7\xc6\xdd)a:z\xfa\x026 2\'\xbb\x807\x18{\xa5\xac\xe2\xd1b\xa0\x1f`Wf\\\x0e\x89G\xbb\x9a\xb9\x18\xce\x8a&gt;\x08N{\xeevQG\x04\x04\x19\xe8\t\xd8e\xd9^\xc7B&amp;P\\\x8ab\xd0\xba\xa9S!Kg\x1c\x82\xaf\xe9J1\xd0\x19\x882?\x9a\x049\x85\xc1if\x12\xa2\xe5g\xef\xd1V\t\x1dh\xca\xdf\xa17\x00\'\xd9h\tlM\x87\x1eY\xd3{\x06\xe6,{\xc7]\xc5\x90\x11\x1e\xbb\xcd\xdb\xa5Y\x19\x06\x00H)&gt;\xccwq\x02;"a\x178\xbc\x80}\xa1\xc9.\x90\xb3O:\xda\x1f\xa8p2\x0c\x08`R\xe8\xdc\xef\x02\x19J\n\x9b\x03\xaa!=\xf2\x1a!\x8b\xa8l\xc3\x96G\xc8\x0c\xd8aW\x9c*\x11W\xec\xec\xc0=\x0f\x97\xc6&lt;{\xc7\xdd\x95v\xa0\x05%V.\x93Z\xb9d\x07\xf0\xa8&gt;\x0e9\xc6\x13\x93 c\\.\x95ko\x84A\xe6\x80\\\x82\xb7\n\xf02\x0c(\x10\xe59\x94\x03v\x8c\x9d\x03h\xf8\x04\xecD\xcf\xed\xfc\xc2\x0c\x03\x0c\xa4\x14wd8 \xef\x91w9\x1e1P\x89\x1de\nF\xa4\xeb\n\xfc\xd8\x05/\xdb\xa8V.\xbeAq2%\x07\x1f[\xeb&amp;;\xf0\x02\x17\x07\xbb\xfc\xc3\xf2b\x0c\x83\x03\xb0\x8b\tL\x8c\xff\x06Z\x14\xe9R\xf1@a\x10\x1dz\xca\xc4\xddu\xb9\xc3\xc5)\xaa\x95QfP\x1dy\xca!\xc7\xb6*g\xf3Dy^\x86\xc1\x05\xd8\x05\x15;#\xb8\x07\xe1\xa9\xb5\xacj\xaa\xd4\xcb\x81\x00\x02QZ\x81\xbf\xfc\x928\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.6700462963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1967</v>
+        <v>5926</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Athletico</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -678,20 +678,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xdd\xdd\xdd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xf6\xf6\xf6\xf4\xf4\xf4\xf7\xf7\xf7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xe7\xe7\xe7\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfb\xfb\xfb\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xf5\xf5\xf5\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfa\xfa\xfa\xf9\xf9\xf9\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfb\xfb\xfb\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfc\xfc\xfc\xff\xff\xff\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfd\xfd\xfd\xfd\xfd\xfd\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xfe\xff\xff\xff\xfe\xfe\xfe\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xd9\x16\x10\xff\xfe\xfe\x01\x01\x01\x06\x05\x05UTT\xd9\x17\x11\x03\x03\x03\x10\x10\x10\x15\x14\x14\xf1\xf0\xf0\t\t\t\xed\xec\xec\xd6\xd4\xd5\xe4SO\xb7\xb3\xb4\xdb\x1f\x19\xda\x1b\x16\xff\xfb\xfb\xfb\xfa\xfa\xfe\xf7\xf7-,,\x1c\x1b\x1c\x8a\x87\x88%#$\xdc% \xc1\xbf\xbf}{{\x82\x80\x80{yy\xdf51\xda\x19\x13\xfc\xeb\xebDBB\x80~~\xfe\xfd\xfdigg\r\x0c\x0c\xb4\xb2\xb2yxx\xa7\xa5\xa6\xe8mk\xfc\xe7\xe7\xfd\xf4\xf4\xfe\xf9\xf9\xc9\xc9\xc9\xf7\xf7\xf7\x19\x18\x18(&amp;\'UPQ\xeb\x82\x80\xdd($POO\xde0,\xf6\xf6\xf6\xfd\xef\xef\xfc\xfc\xfc\x99\x97\x98FEE\xe0:6\xe9pncaa\xe6][\xf9\xd9\xd9\xdd,(#!!\xfa\xf9\xf9\x88\x85\x85\xe1C@ljk\xc4\xc2\xc3\xd9\xd9\xd9xvv\xe0?;\xf3\xad\xad\xf1\xa2\xa1\xe2HD\xf3\xf3\xf3\xe8kh\xdd\xdc\xdchcdomn\x1f\x1e\x1e\xec\x84\x81\x90\x8d\x8e\x8e\x8c\x8c\x92\x90\x91urs\xa6\xa3\xa4\xf5\xba\xba\xc6\xc6\xc6\xeaxv\xff\xfd\xfd\xfd\xf1\xf1\xe2KG\xe3OL\xf7\xca\xca:88\x85\x82\x82\x97\x95\x96YVW\xb2\xb0\xb0\xd3\xd1\xd1\xec\x85\x84\xcc\xca\xca]\\\\\xf8\xd1\xd1\xdb"\x1dZST\x8c\x88\x89866\xf9\xd5\xd4\xef\x99\x98\xed\x8c\x8a\xf9\xf8\xf8\xe7\xe5\xe5=;;\xa9\xa7\xa7\xac\xa9\xa9\xe5\xe4\xe4\xf6\xc6\xc5\xef\x95\x94\xfa\xdf\xdf{lo\xd9\x16\x11\xf4\xb6\xb5\xfb\xe4\xe4\xe7fd\xf2\xa8\xa7\xdf\xde\xde^XY\xef\xee\xee\xeb|{\xe5XU\xe8\xe7\xe7\xe1\xdf\xdf534200\xa3\xa1\xa1\xd8\xd6\xd6\xb2\xad\xae\xad\xac\xac\x99\x91\x92\xf8\xce\xce\x7f||\xee\x91\x8f\xf0\x9d\x9c\xda\x18\x12A??\xe6b_\xce\xcc\xcd\xf5\xbe\xbe}qs\xb8\xb6\xb7\xc9\xc7\xc8\x95\x93\x94\xd0\xce\xce\x9e\x9d\x9d\x9c\x99\x9a\xfb\xe1\xe1LIJ\xf5\xc1\xc0NMM\xf3\xb1\xb0`]]\xf5\xf4\xf4\xe9tr\xe4\xe3\xe3\xbc\xb9\xba\xfa\xdb\xdb\xdb\xda\xdae\\]\xf6\xc3\xc3\xf2\xf1\xf1\xec\x88\x86\xea\xe9\xe9\xe4URmef\xfa\xdd\xdd\xff\xfe\xff\xe3\xe2\xe2skl\xe3\xe1\xe1\xbd\xb3\xb4\x85z|\xf2\xf0\xf1\xc6\xfc\xe0Y\x00\x00\x00DtRNS\x00\xf7\xeb\xfa\n#\x01&amp;\xfe\xc5\x1a\x03\x06\x0e\xb2\xf2\xa4\x02\xc4\x86Z\x0f\x1fL@+[=\x08\xfc\xab\xe7\xc9m\xd2:\x16\xddh6\xd6c\x8b\x96x\x12\xb9\xbeW\xe5\xccC\xc12t}\x91\xe2\xda^\x9c-E\xee\xefP\xdf\xd7{\xf2\xf3\xc4\x00\x00\x0e\xd1IDATx\xda\xec\x9awXT\xc7\x16\xc0\x01\xb1\x82A\xa3`E,X\xb0\xa5\xd8b,)\xdf=\xbb\x80\x80\x88\xa8\x80 ED\x101\x1a\x10\xbb(FA\x11cC\x1f\x02\xb1%\x8a\xd8\xb1\xa0b4\xa6\x18\x1b\x12}\xb1\xc7\x1ec4\x1a\x8d\x89/\xa6}\xdf;gv\x17\xb6\xcc\\w\xdd\xcb\xf7\xf6\x8f7\x7fq\xefrg\x7f{\xef\xb9g~sf\xec\xec\xfe\xdfL\x9ag\xdf\xde-\xdcl\x8e\xaaI[\x00\xe8P\xc3\xc6\xa8\x1a\xb9\x00\x84\x02T\xb7)\xa8\x1a\x9dk\x01,\xfe\x15\xa0\xa6-Q5\xaf\x070\xe1\xb8j\x92ma\xd5y\x1d`\xfaS\x95\x8da\xb5\x7f\r\xe0\xe7\x91*\x1b\xc3jh\x0f\xf0\xdd\x08\x95ma95\x00P\x1f\x8aU\xd9\x16V\xdd\x970\xd8\xc7\xa9T\xb6\x85U\xbd\x03\xc0{\xebU6\x86\xd5\xd8\x01`\xfbT\x95\x8da\xb5\xab\x06\xf0\xe3\x10\x95ma9u\x02X\xbbw\x80\xca\xb6\xb0&lt;_\x01\x18\x7fY\xa5\xdf\xfe\xf5\xbf\xc7"a\xf8b\x91\xca\xc6\xb0H\x18&gt;\x99\xabR\x06\xcb\xb9I]\xfd\xe0ps4\x19sk67_\x18\x86\xaa\x94\xc1\xea\xef\x00.M+\x87\xb2\xde\xe0\xd2\xc7\xf0\x1f^u\x01\x8fn\xcf\xef\xc7\x11\x85a\xd8q\x95J\x11\xac\x1a\xf4&gt;\x034\xa8\xaf9\xf4\xb2\xd7?\xa2V\xbf\x01\xde\x03\xa8\xd6\xea\xb9\xc2\xd0\x12\x85\xe1\x84J\x19,g|\x9f\xe3K3\x00^\xa2\x07\xe9\xf4\x06\x0ee\x89%\x00-*\x1e\xa4c\x0b\x80\x8c\xa2x\x80\xbe\xce\xcf\x17\x86Y*e\xb0\\\xbb\x02L\xfbZ\xba4\x08\xa0\xb5\x1b;J\xce\x91\xe2\x8e\x01\xb4\xf4\xd4\xfc\x83[k\x80Ai\xd2\xa6i\x00\xdd=e:jJ\xc2\xb0C\xa5\x0cV\xf57\x01\xf6m\x90$)"\x08\xc0\xa1!\xbe\xdd\xbf\xed\xc7\xa3\x89\xcb\x01z7\xa3\x7fh\xe3\x01\xb0p"\x9e*{\x00\xd0\xb6\xb10\x12H\x18\xf6\xc4r\xa9T\x16Ks\xe3\xb7\x00n\xae\x94\xa8\xf9gQL\xc1\x15\xcdQ\x00\x1e\xb9{a\xb0c\xdc=\xf4g\xa7\x86_\xc7\x8f;\x9b!\x0c\xc6\xed\xf2x\xa8\xe6j\xe9\xe0\xb5y8\xfbR\xc9\xb7|3~\xed\x99\x14\xcd\x91\xe4\x13\xac\x06\xfb.\x1dk\x81\xfa\xef1\xdaS\x817\xe3\xa1Z]\xee=\xc7\x07=j=\x1fj\xc0\xde\xb5\xf8\x06Y2xQx\x87o\xdaJ\x8f\xc8;*&lt;\t`FL\xca\x99yZ\x88\xb1\xb9\x18m\x00!\t9\xff\xac\xd4\x9e:\x1b\xce\x9fY\xd1=\xd7\x13\x06\x836\xe4sz\x06\xf5\xcc\xa7r\xa4`\xbf\'\xf9\xe6\x1eK\x93\xc6\x94\xaf\xc0G4p\x8a\x94ruP\x9c\x16+\x86\xfa\xc3\xa3\xc7\xa9\x83\xeeh\xb1\xa2\xb9X\xc6\xc2\xa0\xdfF\xeef\xa1Q\xab\x8b\xd9X\x1d\x01Nbx\xfbFCHTb\x0e\x06\xf4\xa30\x0c\xa0\xab\xea\x90?\xbd+\xb0\x82"$\xc4R\xcf\xc8\xf4aX\x1b\x01\xdcx\t\xc6P\x18\xf4\xda\xc7\xa3\xb0\x93\x85\xe5\x16\x84\xbc\xa3\x0b\xfcAOg\x13\xde\x02\xc8\xbb\x0fp\x8a"\x1b\xb1\xd4\xea\xab:\xac :\x85Xj\xf5c:U\x8a\x0f\xd1\xf8gw1\x15\x86\x8avd\xf60\xec\xfb\x9a\x7f\x94\x05\xb3j/\x80l\x8c\xec\x84{\x1bA\xd3\xde\xa7o^IX\xfffX\xd8Y0\xfd\xf15a\xe50\xacU\x00u9\xc20\x9fO5\xf4\x02\xf6\xaa\xce\xf5\x93\xceY\x80\xd5\x12\x92\x03\xa4\x80\xe0\r\xbe\x99|\xacl\x0e\xd6\r\x80\xe6\xa6\xc20\x99O5\xe2\x17\xec\xb4$\x1d\xaf\x8b6\x1f\xab\x07@\x92Tv*_2\xc4\x9a\xf7\x99\x0c\xd6\x81\x99\x00\xce\xc6\xc2\xf0\xd5P&gt;\xd5\xa2\xc3\xa0\t^\x8b\xb0\xfa\x02\xecO\xcf:\xe3-\xf9\x8e\xe6cU&gt;\xc4\x9d:\xac\xa4[\x00\xf5\x8d\x85\xe1\x08\x9fj\xce\xba\xca\xdcl&gt;\x96\xa3=,,\x0c\x0f\xc6\x90\x16a\xc5\xe8\xb0v\x12\xd6\x7f\xe8\xaf\x02\xc4\xaaa \x0c\xebN\x08\x82}\x8b\x1a{&lt;\x10(\xe9\xb0\xcc\xac\xbb5\xc1\x94\x14\xf5\x88\x06CK\xb0\xca\xa1V\x05V{\x0f\x910`\x0e\xfd\x10\xfb\x9b1\xda[\x9b\x86\xf1\xa5\xaacv\xd2*]\x1a$\x99`E\x10V1\xc3:\xa7\x87\x15\xbf\x93F\x823I\xe0nZa0mS\xb7cwOR%\xa9\x12\xcb\xcct\x8aa\xa1\x06\x01\xd6m\x1f\x03\xac\xd4M\xea\x12\xbaY\x81\xb7\xce}\x03.\x95f\xf8l\xcfE&gt;\xd5z\xca\xa1G\xc3*\xa8$|\xa9\xcc\x1c\xaa\x1b\x11\xc87\x0c+Z\x8b\xb5\x9a\x8e&amp;~\x96\xf1\xa7\xa6/=,6\x1e\xa5\x14\xad\xf8\x0b\xed\xb0B\x18Bg\x0b\x84a\\(v\x16\x19PI%\x85\x9b\xa4;a{\xa7\xbb\xbd\x16k\xb4\x01\xd6\xdfq\xba\xa1\xba\x02\xeb\x1f\x1c\x81\xa4\xd3\x89\xd9(\x82/{&gt;O\x18b\xf7P_3}\xa4\x17\xc3\xb2\xb3\xab\xcd\xc3J\x89\x90\x8c\xb1&amp;\xd2\x08\x94Z\x9e\xab\xd6i3U\x18v\x0b\x84a\xc4w\xd8S\xc6\x02\xc9\xa0\x15\x038\x9a\x8d\xf52\x0f\x8b\xda\x982\x865Z\x8bE\xc1&gt;\xb68\xb1b\x92\xd1\xce\x1d\x85\x81o\xc7\xaaY?k\xac\xc3\xb0\xad2\x1e\x1c\xe4\xb1\x16\x9a\xc6\x16\x8d\xd6\x91\xd1FX\x81\x85\xf9\xa4\xd4\xddt\xc2\xa0\x16\t\xc3\x89uZ\xeb0l\xb9\n`m\xc8*\xdeh\x88\x95\x92\x94\x8f\x13\x90\x0e\xd5u\xc2\x10\xfa\xa5\xc0C\x8f\xa3\x87B\xe2\x18c*)\xcfp\xcc\xb2\x0c+\x8bu\x91~m\xe63\x86\x95\x8dX\x07Xl\x15l\x0c\xd1N\xd7d\x85a\xc8W\xd8I|\xa6\x9f\xc4\xc3rzQ\xacS\xa7)\x88.\x95b\x10ej\xb1\x8a\xf0\x87{\x9fN\xd8\x84v\xa9\x99\xce\xca\t\xc3\xdco\x81M\xed8\xed\xc6\x8b`i|+\x8b\x12\x8d\xff\xe3\xb8\xdb\xa0\xc3*\x08\xc7\xc1\xc3\'oWB:\x80&amp;\xd8\xe5\x84a\xc9{x\xe1\xc12I\x80U\xdfR\xac)\x0f\x89\xaa\x90\x12MD\x91\x7f\x1a\xba\x0b\x84\xd3\xf9\xfcm4/\x8b\x8c\x92\x12r\x00\xdah\x97$\x84\xc2\xf0%\xe5\xd0\xeb\xc3\xb9T\x01W\xf4\x86Rs\xb1\xfc\xf0\xb7$\'\xd0_q\xa7\xc2\xa4J,\x8a\x91\xb0\xa0H?)!\x81a\xc9\tC\xecy\xfai\xe5\x81\\\xaa0\x9c\nw\xb5\xb3\x00\xeb\x91&amp;)\xe5\x1f$Y\xf3NH\xf6\x95\xa4\xb4B\xec\xbfX\xdb\xe1\xdd37\xf1\xf7/`X=^\x13\x0b\xc3\x88\x8f\xf0\xa2\x90lo.\xd5\xdd\xa5\x00\xb5\xebX\x82\xb5\\7/\xa5\xe9j\xdeu\n\xa94|k`\x95\x067;\xb3\x00A\x19V{\x12\x86\x1f\x04\xc20\xf2\x03\xbc\xe6\xd8\x1d.\x94\xf7\xd8x\x9c%\x9a\x9f\x1e\x08\xeb\x8f\xca\x979\xe0L\xf4j:\xba\x93\xab\xc3\n,L/\x8ddc\xf6\x02L\x0fxV$\x0c\x83\xa7\xe3\x87\x8f&amp;r\xa9\x02\x0b\xf0-\xeelQ\xfd\xa1\x9e^\xea\x9b\xf80\x7f\x10\x89\x8dOa\x94\x16+%i\xcaMH\xc4\x9f\x9b\xb3*\x89\x02g\xc2lQ\x0e\xa5I\x97\xb6La\xdc\x86o\x05x\xbb\x91\x85\xc5W\x1cq7k\xa6\xf6i\x89cK\xc8\xb7\x02\nV\xec\xc3/\xc9\x95\xa4\xb2\x02\xdf\x93\x00g%\x9f\xe2\xfckD5\xeac\xc1\xa4k1M\xba\xf2|\xb8T\xbb\xb0\xb3\xb6\x16\x17\xdc\xea\xb4\xd6\x94\x8d\xbcW\xcc\xcc{F\x1a\x18v ?\x19\x18\x96on\x02fv8\xeb_\x90N\x05\x13\xa10\xcc\xfd\x84\x84!\x87\x0b%m\xc3\xce^q\xb5\xb3\xb8\x91\xcde\xa4\xfb\xdc\xc8/bv\x9aZ\xb8\n\xe5\xa5\x05\xce\xb1cV\xe4\x91\xbd\xc2\xea\xb3\xf7\xe8\xee\xc1\xe7\x82\n\xc3\xfc/h\xd2u\x89\x0b\xe5\x87\x96U\xeb\rg\xbb\x17hN\xe8\xbe\xea \xba!\x0eo\xc1\x93\x98"\x92\x17W\x14\xde\xd4H\x00{/\x0fx\x90p\x1fd*\x0c\x97)\x87\xde\\\xc9\xa5\xf2\'\x13jg\xcdZd\x06\xe9Ak\xd8\xb7\x99\xc9\x8b\xa3;Db\x02\xf4hC\xf3n|\xbb!TPa\x88\xddK\x93\xae\xb3\xfc\x1c:\x8fL\xa8\x99\x15+\xb7\x18\xf8\xd0\xd5\xd5\xae\x05=,\x92\x97\xfat\x02^\xc7\x04\xd8\x80\r\x96Ba\xa0\xc2U|4?\x87\xc6\xa1\tA;;+\x9a[\xbd\x96\xbdp|\xef\xe7\xa1\x93\x17/\xb4\xcfz$\xb9\xce\xb5\x81\xb3$\xa1_\xb8Z\xea\xcb\xcf\xa1\x0b\xe8}\x01\x87\xe6v\xd67\xd7W\x1bk\xc7\xd3~=\xfb\xb3\nCOw\xb10\xb0\xc2\x15s!\xd3\xe6C\xe3*|_5{2\x9cI\x18&amp;\t&amp;]?Q\x0e\xcdJ\xe1\x0b\x03\xbe/0l\xcdOU\xb2\xfeDv,\x12\x06V\xb8\x82\xdb&gt;Ba\x80uOU\xb3\xab\x02\xab\xdf\x9b\x00\xbf\x0b\x84a2\x15\xaeBV\xf0s\xe8\x14\x14\x06\xf8\x00\xaf\xac\n,\xb2c\x910,\xfa\x1e\xd8\xba\x86P\x18\xe0#\xba\x12\xb1\x9a(\x0b\xc5\xcai\xa2%\x899\xe3\xa9L\x10\xc1\x17\x066\xaa\x1fb\xd9Wq,VN\x13\x08\xc3\x91_)\x87\x06\x8b\x85\x01B\xb5\x8b\x19\x88\xd5CI*\xb2c\x910\xb0\xc2\x95\xba\xd8\x8f/\x0c\x07Ao\xf7\xc38\xcd\x0c@\xa9F\xe5\xb4\xdd#e\nW\xd3\xee\xf1\x83\xfd\xde4\xd0_\xccP\x16\x8b\xd6\xdfD\xc2\xc0\nW\x07w\xf1\x85\xa1\x98\x9e\xae\xdeb\x86\x92X\xf5;\xe23:/\x10\x86q\x13\xf0\x8b\xb7\x0e\x17\n\x03\xa8\xb7\xe8]\xa9 \x96+\n\xd8xA\x85a(+\\%\xf1\x85\x81V#\x8d\x163\x10\xab\x992T5i\xc3\x8e@\x18F\xfc@94FF\x18\x0e\x1b\xee~P\x0c\xab\xff\xdbba\x98\xf5;Ui\xef\xca\x08\xc3\xa7F\xb5\t\xa5\xb0ZQ\x85a\x88L\xe1jy\x98\x8c0,6\xce\xbe\xca`\xb1\xf57\x810\x0c\x98Do\xd9\xc3\x00\xb10LXc\xfa\x82(\x81\xe5\xd9]\xb0\x87AW\xb8R\xdf\x10\x08\xc3Q\xfcp\xfa`\xd3\xab\x96)\x80\xd5\xef]\xb10\xb0\xc2UF\x82\x9c0\xf0\xb2/b5\xb6\x92\xea\x1d\x19a`\x85\xab\xdf\xf8\x93.\xef\x18\xb5N\x18\x94\xc7\xaa\xd1\x0b\xa7e\x17\x04\xc2\xb0\x8c&amp;]\x9b\xe7q\xa9\xc6\x900\xa8\x0f\xf1\xb3\xefl+\xb1h\xb3\x8a\xa8\xc2\x10{\x88\xde\xb2\xa212\xc2\xb0LX0\xa9e\xcdvt\xda\xe1+\x12\x06V\xb8\x8a\xdf(\x10\x86\x93$\x0cK\xf8W\xaeA\xd9\xefd\x05U\x1b\x19a`\x85\xabi\x9b\xc4\x15\x06\xd8&gt;WX0q\xefe\x05U\x1f\x12\x06\xc1\x92\xc4S*\\\xfdU&amp;\xa80P\xb0\x7f\xc8\xcf\xbe\x93?\x05pi\xf4\xe2PN\x1d\xc5K\x12\x9a\xc2\xd5\xea\x14\xb10\xac\xdd2@\xb8J\xfd\xae\x15\xc2L\xdb\xa2\x84\xc2@9\x14n\xf9\xc8\x08\xc3\x1c\x81\xec\x87&gt;gK\x95\x19\x9b\xa4D\xc2\xc0\nW!\xf9\xe6\x0bC\xc5M\xa6U\xeaNNV$\x86\xdeba`\x85+Q\x95\x96+\x0cz\xb2\xef\xde\xca\x9a|\xd5\x08Cv\xa8L\xf1\x7f\xa1\xa0J\xcb\x17\x86J\xd9w\xe8fUro\x08\xf0\x94\xdb\xf7EV\xb8\xba\xe6o\x910T\x0cT\x1d\xac,\x88 \xd6`^\xdf;\xd8\x8e\xabU~\x96\t\x83n\xa0rp\xb5\xab\x12,\x96C\x93\xd3\x05\xc2\xf0D$\x0cx\x93\xd9@\x05=\xab\x04k0M\xba\xf6\xed\xe7\x07{\x14\xab0\xec\x10\x0fT3f@\xf7\xaa\xc0\xa2\xb1\x0c\xae\x0c\x17W\x18\xd4\xe7/\x8a\x07\xaa\x81w\x07Bm\xe5\xb1X\xf1\x1fJ\x03\xc5\xc20a\x99\xcc\n\x0b\xca~U`\xd1X\x063\xa2\xf89t\xc3&gt;\xb10\x0c`7\x99\xb6dT\x01\x16+\\-\x9d"\x10\x86\x12\xfc\xf0\xdb\xb92+,l\xa5\xd4z\xac\xa6FX\xacpu4LN\x18\x86\n\x85A\'\xfbJc\r`\x85\xabH\xfe\xa4\xcb?\x98\xaa\xb4"a`\xd5A\xad\xec+\x8c5\xe4G\xd3\xad1f\n\xc3x}\xd9W\x04\xab\xc2\x95\xa7R\xf1\xbfd\x01?\xac\xd2\x980\xcc\x12\x0b\x83\x9e\xec+\x8a\xc5\nW&amp;[c\xb4\x8d\t\xc3/\x93e\xaa\x83\xe1\x95\xef\xae"X\xda\x82"\xdb\xb5\x1a4O\xa6\xc2p!V\xa6:\xb8M\xef\xdf\xad\xc7\xea\xa3\xc5\xd2\x14\xae\x8a^D\x18L\xab\x83\x8a`-\xd1\x15\xae\xd4\x99\x02a8E\x0b\xc22\xc2\x00\xef\x1b\xca\xbe\xf5X^\x0ck\xd6a\xe1\xd6\x18\x14\x86\xfbba\xd0\xccl\x0b\x8c\x06*\xeb\xb1\xda\x01\xcc\xd7\xecZ}\xb0\xcbra\xd8\xc1\x84\xc1dK\xc6\x7fG\xb9\xb3\x14\x81\xce\x9a\x01\xca\xde\xf7\xb1w\xba\x02v\x11j0\xfc\xc3\x1c\x1d\xa4\x8a\xb3\x96\x82\x97\xc6`/C\xa3o\xbb\xe2^A\x06k0\xd0\xc0Y\x12\xe0\xc6dm/\xbe\x06\x03\xf6\xee\xda\xc1\x05\x0bqUT\x94;\x0b&lt;=\xed\xff\x14\xcf\x08\x03\xfe\x06\x03\xd6\xbcK\xb9\xb3\xd8\x8cp.\x8d\xf1\x8cq%\xd4`\xc0QQQ\xee,\x15`\xc9\x8e\xaf\xc10\x03\xfb\n\xb2\xbe\xc3x*\xaa\xd8bW!\n\x9d%\xc3\x0f,E=p5\x18\x16\xe1k0\xe0\xa8\xa8\\\xeaO\xb8\xbajQ\x9a\xb6\xac\x99]]/f\xe1\x18a\xc0\xd7`\xc8\xc6^QyL\x03V\xea&amp;,\x94:\x0b\xb4/\xd1u\xf5t,f\xbb~\x8c\xc3\xd7`\xc0^Qy\x82V;\xdap3P\x0e\xd8\xad`\xdb%P\xccv\xbd\x8e=\xb1W]Ao0 W\xea\xdd\xc4\xeca$rM\x92\x1ets\t\xca\x1a\x86\xd7\xf8\xd6pb\xaf\xa8\\\xce\x1d\xa3xP\x04y&lt;\xd0\x82\x03i\xbc\x01\xbc\x86\x01\xd7\xf8\xeed&lt;\xd3\x89\xe0J]\x83\x9a\xabD4\x99\xe1S\xe2\xe0)\x89-\xb8\x1a\x0c\xee\xb8\xa7\x13}@\x95:\x1f/\x035\x81\xb4=d\xd5\xb6OR\x06\xee\x15d\x90\x06\x03\x8e\xe9\xc4\xac]\xf0\xe5\xc5T\x04\xe0m\xa47\xb3 \r\x06o\xdc\r\x06\\=[P\xa5\xce(E\xfd\xf54\xa0\xc5x\x11A\xf8\x1a\x0c\xa9\xb8\xa7\x13]\x96\x9dvu5T\xa7\xc1\xe2#\xf0\xcc9\xee\x06\x83\x1b|\x84\x01\x1bh\x02V\xea\n\\\x0c\xb4\x01R\x86\xc0\x18\\\x82\xbb\xc1\x80\xabg\xeb\x03Z\xe5(\xc0\xc3@+\xc0f\x86c\xf0\x11o\x83\x01T\xa9\xcb\xea0\xd0\x10\xc8\x80&amp;\xca^\xe3\x18a\xc0\xd1`(\r\xa2l\x16\x85\xa8\x04f\xce\x81\xd9O\x854\x18bq7\x18T%\x19h\r\x0c\xd0\xf7\x85y\xaf\xc1\xb1\xe9\x03^\xa9\xeb\xab0\xd0\x1e\x98\xcaCV\xaa\x11\xd5`x\xe4J\xd9,\n\x89s\x9e\xf0\x84\x0fn0\x14\xe3k0\xa81\xd0\t\x80f\x88\xa1-\x08H\x83a\x19\x8e\x06\xc3\x19`\x83A\x82\x81n\x004\x9f\x0e^\x80\x87\xb7\xc1\xe0\x05\xac\xd45\xe8{2\x1a8\xe1W\\\xc3\xb3\xfe\xc8#\x1dX\x86\xf2\xb10\xd0\x17\x80\xce\x9b\x88\xc43\x14N\x9b\x06\x03q\t\x1f\xf7\xdc\xf9\xf4\x87\xc0\x06\x83\x01\xc3\x00\x00\x16-`#\xff\x1e\xf6\x18\\\xf6\xc5\xd5\xd5\xd2\x94a`\x00\x17#\x8e5\xcbM\xdbi\xd8` \x0c\x8c\x1d\xb0\xcd\x1d\xf8\xcc\xa4m\x83\x81\x88\tvg\xcc\xf6\xa8\xef=`\x83\xc1\x8ca@\x01h9\x02j\xeb\xbd\xf4\x02\xed\x1b\x0cD\x94\xacZ\xa8E\x17\xb8\xc10\x18\xce\xf7\x02u\xd6`C\x98\x1e\xd3j\x81\r\x06]\x86\xc1\x00\xa4\x81M\x8a7\xe0U6\x01\x8f@\xdbv\xb8\x19\x06\x07\x00u\xd6^\xad\x846\x184\x19\x06\r`\x01v\xd6\xdc\x13\xcf\xfd\xa4l\xdb\x0e\r\xda\xd2\xa0\xf3\xa4"\xc0\'(\r.\x00jR\xd0\xbf\xc1@D[\x9aOH\x91\x8da\xa4\x00\x00|\xbaw\x8f\x9b\xb2HY\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\x9dPLTEGpL\xaa\xa9\xa9\x1e\x19\x16\x92uO\x1e\x19\x16\xb8\x96X\x1e\x19\x16\x1e\x19\x16\x19\x0e\x04\x1e\x1a\x16\xf8\xc2\x00\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1b\x1a\x1a\x1e\x19\x16\x1e\x19\x18\x1e\x19\x16!\x17\x11\x1e\x19\x16\x1c\x1b\x14\x1e\x19\x15\x1e\x19\x16\x1e\x19\x16\x1e\x19\x17\x1e\x19\x16\x1e\x19\x16\xa7\x9b{\x1e\x19\x16\x1e\x1e\x1e\x1e\x18\x16\x1e\x19\x16\x1e\x1a\x14\x1e\x16\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x93uN\xaa\xa7\xa7\x1e\x19\x16\x1f\x19\x16\xab\xaa\xaa\xd2\xa1!\xf8\xc3\x00\xaa\xa9\xa9\x93uN\xf8\xc3\x00\xaa\xaa\xaa\xab\xa9\xa9\xf8\xc4\x00\x93uN\x93uN\xf8\xc3\x00\xf5\xc4\x00\xf7\xc3\x00\x92uN\xaa\xaa\xaa\xf7\xc2\x00\xf8\xc2\x00\x92tN\x93uO\x93tN\x93sQ\x93tM\xf7\xc2\x00\x92tN\xf8\xc4\x00\xaa\xa9\xa9\xab\xaa\xaa\xaa\xa9\xa9\xab\xa9\xa9\xab\xa9\xa9\xf8\xc3\x00\x92tN\xf7\xc3\x00\xab\xa9\xa9\xf8\xc3\x00\xf9\xc3\x00\x93tN\xaa\xaa\xaa\x93uM\xac\xac\xac\xf7\xc3\x00\xab\xaa\xaa\xab\xaa\xaa\xf8\xc3\x00\xaa\xa9\xa9\x1f\x1a\x17\xff\xff\xff\r\x80\xbf \x1b\x18\xab\xaa\xaa\x93uO\xf8\xc3\x00\xfe\xfe\xff\xfd\xfc\xfc3.+&amp;!\x1e61/wts\x0f\x81\xc0"\x1d\x1aliggca\xfa\xfa\xf9\x81~|\xc1\xbf\xbf*%"spnRNL/+($\x1f\x1cOKI\x1a\x87\xc3\xf5\xf5\xf5b_]\x88\x85\x83EA?&amp;\x8e\xc7B&gt;;olj\xaa\xa8\xa7\xd4\xd3\xd3VRP\xd1\xd0\xd0,(%\xdf\xde\xde\xce\xcd\xcc\xfb\xfd\xfe\xf9\xf9\xf8(# \xf0\xf0\xf0[WU\xdd\xdc\xdc\xd8\xd7\xd6\x99\x97\x96\x90\x8e\x8c\xf7\xf7\xf7KGE\xee\xee\xed\xe7\xe7\xe6?;8\xa5\xa3\xa2{xv\x96\xc8\xe45\x95\xca&lt;\x99\xcc\x8d\x8a\x89\xca\xc9\xc9\x8a\x88\x86_\xab\xd5\xf6\xfa\xfd\xa6\xd1\xe8\xe9\xe9\xe9\xf2\xf1\xf1\x9f\x9d\x9c}{y\x83\xbe\xdf\xf1\xf8\xfco\xb4\xd9\xbc\xbb\xba\xfb\xfb\xfb\xda\xd9\xd9\xba\xb8\xb7HDA\xeb\xeb\xeaTPM \x8a\xc5\x96\x94\x92\xdb\xec\xf6N\xa3\xd1|\xba\xdd&lt;85\xae\xac\xab841ifd-\x91\xc8\xe5\xe4\xe4\x14\x84\xc1`][\xe3\xe2\xe2\xa2\xa0\x9f\x9c\x9a\x98\xeb\xf5\xfa\xf4\xf3\xf3I\x9f\xcf\xcc\xe5\xf2\xbf\xbd\xbd\xb4\xb2\xb1\x93\x91\x8f\xb7\xb5\xb4u\xb7\xdb\xd5\xe9\xf4\xad\xd4\xe9\x89\xc1\xe0\xc3\xe0\xef\x85\x82\x81\xfa\xfc\xfe\x9b\xcb\xe5\xb9\xdb\xed\xbe\xdd\xee\xb4\xd8\xecY\xa8\xd4XUR\xb1\xaf\xae^ZXT\xa6\xd2\xee\xf7\xfb\xe7\xf2\xf9\xa1\xce\xe7\xe1\xe0\xe0D\x9d\xceg\xb0\xd7\xe3\xf0\xf8\xa7\xa5\xa4\xc7\xc5\xc5\xd2\xe7\xf3vsq\xc4\xc2\xc1\xdf\xee\xf7\x8f\xc5\xe2\xc7\xe2\xf1lV\xf9\xfe\x00\x00\x00XtRNS\x00K\x8d\xb0d\x03\xd4\xfb\x03\xf3\xb0\xe1}\xed\xb9\x13\xaa)1\x0es\x1bC\xc0\xa3K\xcb\x96\x08\xe6\x08=\x9c\x18!\xc6Xm\xf5\x1bQ\x85\xfa\x0c\xf7t..\xa0\x8c\x80\x84k\xb5\x14\xfd\xd50\x98_Q\x93\xb6\x18AB\xe6k:\xc9\xb9\xdbZ\xc9\xc7\xd6\xea\xe6Q\x99g]\x11\xee\xf0\xbc\x9e\xe3\xbb\xa2\xd6B\x00\x00\x14vIDATx\xda\xccY\xf7c\x13W\x12\x86\xe0\n\xb6\xe9%\xf4N\x8e\xd0\x03\x84r\x01B\x08I.\xc9\xb5\x94{\xeb\xb5-\xc9E\x08\xd9\xb2\xe5\x82q\xc3\xdd`\\i6\xb8\xf7\x82+`lz/\x06\x83\t\xa1\x04\x8e\x92\xbf\xe5f\xde\xae\xe4]iwU\x909\xe6\x07[\xd2{o\xf6\xd3\x94of\x9eF\x8cp\x99\xecX2\xe2C\x94\xd5\xff\xfc\x10Q\xb9\xff\xe7\x97\x0f\x11\xd6\x8e\x80\xa5\xff\xfe\x10}\x18\x10\xf0\x7f\xf1\xe2\xa7\xca&gt;\xfc&amp; `\xe7\xbb(p6v\xfe\xa1\xb8\xbc1 \xc0\x86\x17\xdd7\r\x07\xac\x15\x8b\xa5\xbe\xad\xfb\x92\x91\x9c\xac\x02X\x01\xab\xf97\x92T\xb1r\xd9\xfaa\x80\xf5Y\xe0\xbf\xa4&gt;\x9e\xb9:\xc0R\x96.\x97T\xb0&amp;h\xf30\xc0\xda\x108Jza\xe4\x0fbT\xdfl\x94\xde\xf7}\xd0\xbaa\xf0a`\xe0\xe2\x99\xd2KK~\x11\xa2Z%\xb3keP\xd0\xb2O\x87\xc1\x87\x81\x81\x7f\x95\x0b\xe6\xe5KM\xa0~\xfeVN\xc1\x9a\xa0\xa0a\xf0\xe2\x06\x805Jvu$\x8f*i\xa3\xec\x96\xef\x00\xd6h\x97\xd1\xc2g\xa3\xa8l\x01T\x81\x8b\xb9\xd7\xa3\xacc\x7f\xb9\xc9Z#\xad\x14\xac\x19Me\x1d\xa0\nZ\xc6\xbd\x1e\xbd\xd9\x05\xb8\x02-d\xf1Z\xeb]_\x9b#\xcbZ\xc1\x9a\xcf\x83\xc4\xb2\xec+W\x18l\xdbv\x11\xaa\r+$\x82\x1e\x11\xedDl?K\x04\xfc\x97?\x8aP}\xbf\xd25\x8e\xdc\xbaE\x80\xea\x0b\xa9D[N\xc9\x8aR\xd8H\x89\xe5\xf5\xeb\x86@}\xfe\xab\xcb\xd2\xd1}\xedb\x93\x03\xa5\x93\xf1k\x9e\xac\x80\xc2VIn\xf8j\x19\x8f\xea\xa7\xbf\xbb2\x0f\xff\xc6\xc3\x92\xae\x8bK\x96\x9a\xc8j\xc9\xce\x1f\xdce\xf3\x10\xe5WW\xa2\xdajr\xe1v\xc9\x87~+ \xab\xe5;\xa4v\xac7\x85\xfdO\xee.\x84\xb5\xd6\x1cZ\xdb$\x9d,\xfb\xc6\xecDsl}\xe9b\x1f\x8eZ\x81\x7f\xbfpN\x01\xc6\xfc\xe8\x95\xe8\xc9M.\xf5!\x92\x15R\xd8v\xa7\x14\x80\x0f\x91\xac\x90\xc2~tw\xa1\x0fy\xb2\x02\n\xdb\xe6\x8c\x82\xcd&amp;\xb2\x02\ns\x9d\x17\xb7\x98\xc9j\xeb\x16K/\xce\x9e?\xc5\xcdg\xc68\xbf\x05\xd3=&lt;\xa6/\xf0\x1b7\xc3\xc7m\xced/K\x1fn2\x91\xd5\xfa\xd1.\xf3\xe2L!Y\t^{\x8dw\x9b1\xdd\x93H\x88\xf7\x82\x8f\x16\xce\x1f\xc26SHV.%.+\x99\xec6\xceW\x04\x85\x05\x11\xbd\x9f5m\xe1\xd8\xf7;\x04M\x9ed\xb6RD\xfe\xae\xd2\xe2\xc6\xf4\xfd\xcd\x15\x15\x15\xd9\xe5\r%\xd7*\xef\xe8\xe2\x83\xf9EO?\xb7\xf7\x86\xcc\xeb\x13?\x0e\x13\xdbT\xd5\x95\xa6f$dw\xc3\x0bC\x11\x8fl\xdc\x94\xf7\x01j\xac\xcf,\xfa\xb8(\xc3\x95\x02FQ\n\x93t\x11t\xab\xc7\xa2\x89\xc3\x0cj\xdeG\xde\xd4s\x86\xf0!+\xa9\x1e\xdf\xb8_v\xf8VuGu\xf5\xad\xfe\x9b\xb7\xdbj\x86\x90\xe5]\xd1Q\x7f\xfa\xfa\x0c\'\xb0\xb1\x1c\xa8\xfc\xe2X\xfe\xb1\x197\x9e\xd4&gt;\x8b\t\xf3\x17IXk\xfb\xf5\xb26\x15\xbf\xa5 \x97z\xd3w\xd2\xeca\x025{\x11\xa6\x1e\x1bW\xc2?\xf1M\xff\x83\x18\x7fYi=^v\x9e\xdb\xa7n\x8cD`c\x16z\r\x07\xaa9\x1e\x08Jw\xc0\xec\xbb\x8e0\x7fE\xe9\xe97;\xf3e\x0b\x02\x9b:\xde\xe5\xa0&amp;\xce\xc0\xecK\xd9G\x9fr\xf7f\xfb\x13\xf8w\xfb\xb4\x12\xaag7\x00z\xf5\x83{\x9cm/\xc7cV\xfa\xb8\xd8`s\xc6\x80\xd6\xee+\xf4\t\x8fo\xed\x85\xa7\xd6\x9e`\x98\x13\xb7d\xbd\xb8\xf7\t\xc09\xff\x1b\xbc:\xd2\x7f\x02O\xd5W\xa6\x82\x8a\xe9\xae4\x98\x97\x0f\x98J\xab\xa7\x81\xfe\xb8\x9a\x87r\xe4\x12\xbc\xab\xa1\x10\xad\x84\x832\xc0\xaf\xed=L\x815\x9f\xc2\xb2\xe4\xe6\xba\x04\xf4\x03}E%\xa8\xfa\xc4\xdb!\xfb\x84\xd5bLg\x0c\x1c\xb70\xd9\xde\xda\xdb\xe8\xb87\x0f\x04\x1f\x95e\xe0\xe9k\x1aP4\xd7E)9\x01\x1c\xc8\x1a\xa8\xa9\xee\x89\xa3)\xe6\xd6cJ\x13\x7f\x1e~\xfeloOOO\xcc\xe9\x8b\xb5\xfd7h0\xfdq]\x9c\x10G\xd1\xb6Ly\x0e:r\xb2+P}\x0c\\\x95\x15\x80J\x7f\x7f`\xe5\xad\x98\xdaK\xe6t\xcb\xc80\xbf\xba\x7f\xdc*K\xc3\xae#\xcd\xaa\x0fB9\x9f5\xe1\xddQ\xb9AXu\xd3\x04\xbc\xd9*\x19\xdbm\xd6e\xe7\xbed&amp;\x9c\xbe\x8dku\x10\xf9\xde\xef\\&amp;\'\xc1\xb7\x8bn\xc6\xa8z.\x99qG\x7f\x97*\x877$\x13!\xac\x1a\xed\xd9\xd0\tL\xf1\xc9;\xa2\x82X\x88\xc3\xb0j;"\x8d\xaaF\xbaL\xbf\x91\xc4\xe5\x7f\x11\x93\xa49\xff]q!\xaaD,\xca\xf7\xa4\t\xea\xc8c\xb9\xf6\xa1\xadU\x9a\xce\xfe\x0bk\x17R\xde\r\x97\x1bx\xd0\x80\xa8\xfa\xa5\xebLk\x9b|[s[\xfaH\xcc=X\x8b}\x08\xb8\x9c\x8e\xaf\x8f=y[UK3y\xd8\x80R\xbb\xf5V\xe6P\x19\xe2\x82\x1a\xe9\xedd&gt;N\x00f\x88ScM\x96)0\xb5\x8a]`\xc6E\x19\\X\xc1+ \xbef9\xc5_\xf3\x80E#\xf3@\xc5u\xb9\xb2W\xa3\xdc\x9d\xb6\xf5\xc8\x1cD\\\xe5\x90\x8f\xd3\x9d\xe0{\xaf\xa9\x84t\x16\xc8{\xd0\xdf\xbf\x8c\xb1!r\'\xa9\x1f\x1b\x80\xbf\xe6:\x0e\xeb/\xd0\x1acouX\x0e\xd5Q\x95-X5\xadr\xb80\xee/C&gt;9\\\xb7\xa7\xb0\x84\xc5&gt;f@\xb6\xd7\x1b`l\xca[\xb9\xb31\xc8\x13\x07!\xec\x1d\xecs\xc6\xc2xs\x085\x97\xc9\xc1:\xa2\xb2\r\xabF\xae\x1d\x8b\xc1:\xa4\x86\xba=\xdd\xb1\xbep\x1a!\xf1\x99T\xf5@\x8f|\xdc\xda\x14\x99li\xe5\xea{y\x14!&gt;\x0e1\x16!\xc6d8x\x15b\xfeO\xc9\x08\x899!\x06P\xcfM\x13tLS\xd7\x9b\x93Q\xda\xd0\xc0\xc2i\x95\xd8\x7f\x01\xab:\xe0\xc6\xd9\xc0\r\xa5p\xec\x05\x89/\x84\xfavTB\xf5s\xfe\xc1g\x8a\r]\x0c\x93\x99h\xecLg\x98\xa4\xd4(\x88\xc7\xdcTc\xa8i\x8a|&amp;q\xb4\x1d*V\xb2\x86}\t\xcb\xd0\xafN\xb5\x1f\x96\x0f!\t\xe0\xc2^\x18\x8a\xbb\xc1h\'\x8e[\xeb\xbe\xcf?\xf7\xaa\x8e\xcde\x98s\xda\xdc\x84&amp;\xa6Wk\xd8\x95\xd5\\^t0\x91\xbc\xe4\x97\xad\xf38\xac\x03\xda\x88p\xd0\xdcy\x01\xdc\x08,\xb1\xd0\xee\x8b\x0f\xa0\xf7p.$\x81%\x1a\xb1&amp;Z\x06X\xab\xb9\xe5\x8bEX\xba\x04\xa6T[Q\xc9f?%I\x8c\x9aI\xc6\xe3T\xfe\xb0\xcc\x98V\xe4\x86J-j\xc6\x94\xaa\x84\xf9\xd1^R\x9d\x0bE\x07\x8et\xf1\x17B\xc7\xc0#7,\x1cy\x9c\x11\xc1\x8a+b\xee\x90\xc2\xaa,u,\x0b\xce\xef\xcb\xcf\xd9mZ\xb6\xe8\x87\xda\xa1=\xcb3\xf0\x8a\xc1\xedj\x98\xd3&amp;\xd9\x87j\xbc\'\xd1\xeeg\x98l\x8d\xe9\xa6*\x07\xda\xc0\xbb\xb7D\x06{"\x86u\x95\xdd\xd3\xcd6\xbfJU\xe7i\xf5`;MB\xb6iYTOc\xf0\xd8\xfe&amp;\x93\xde|\xf8\xbe\x97\t\xf1\x9dh/9\x84\xc2\xf1=C7h\x9a:\xcc*a\xe9}#\x86\x15\x9b\x98\x10\x1d\xbc[\xcf[\x8bIc\xfbL\xcb\x03\x82\xa8:\x0e\xa6R\x15g\r\xe9}\x01\x1bR\xec$\x89\xf9\x9e\xc4x\x06R\xcc(\xbc\xd9{U\x81\xcd\xbcy\xeeiU\x89a\x81\x9cma\x8aI\xe1\x012\x98\x17\xce\xc4\x1a\xaf\x9a\x96\xcf\x9b\x83\xeb(Rh\xe1#\xe1\x85a\x08t\x02/\xc1\\\xf6D\xd7G\xd0\xfa\x81\x82P\xf1mh\xc85@r\xf70\xdf\x0b\xb7\x9bQ\x9d\xcc!\tq\xaaL\xbd\x81\xbd\xc64\xa7\xb6Dk.\\#\xa7r0lx\xe1O\x9c\xbe\t\xe7\xd5}\x11b\xad\xf8\x8d"\tYd\xc7e\x837a!\xb2z\xb5\x96\xd7\xb4\x8f\x1ap\xd0\xe0\x80u\x98\x9f\x9aTUU\xa5W\xf5F6\x15\xc3\x9b\x92\x9cG0#\x15\xa7\xa4t\r\xf1\xeco\x94@\xe9\xf8Z\x92o\xa9S\x03\xe6j$\xc4\xc36\xacE\x00\x00T\xe8\xad\xaf\x8f\xb5\x87\xca\xf1Z\xa4\xec\xa80\xe2mJ\x87\x7fX;\xbd\x1e\xd9\xafc\xaduB\x0c\xaa\xa1\xf3\xb2\xdd@{\x10\x02\x01\x9e\x1d!u\xaf\x9du\x07G3\xe6\x92`f\xb5)7;h\xc3\x9ff\xd0Ji,\x82d\xcc%d\x9c\xcdN\x19\x88\x1d\xb6\x9e#\xd2\x12\xacOc\x9c\x90}\x89\xac\x8cB0A\xb3\x91xN\xb4\x1d\xf0{\xc0\xb0\tDN\xd8\xb3\x97\xeb\x1d\xc3\x947\x18\xc9\xca\xaaC\xde\xd6\xd9\xec\x07\xbd\xa0HCO\x9aN\x94\xa4\xbb\xb4Ae/&amp;uzU\x94\x92.c3m$\xfcl\xfa0\x01\x94U\x11\x1b\x12_\x9a\xae\xb6\x8di\xf7k}\xb7-M\xd0\xe0\xc4f\xd9\xf2\xa2\x0f\xedh\xea5\xc4\xb6D\x9d\xea;\xa0\xe0\xce\xcc\xf4\xdc\xb3\x11v\xa8i\xe1\xbc\xa8\xdcG, \x04\x98\xb0\x84\xd8)Y\x91U}\xaf\x9f\xe6\x89\x01]h\xb8|.4\xdfh\xa7\n-x1\x89\x90i\x8a-\xbc\'I\x05\xe7\x94\x12\x87$\xea\x91\xa1J\x97\x18z\xe8Ph\xa2\xeea|*\xeb\xd8\xe9$(I\xd0\xde\xd8h\x9615\x9a\x1cV\xcc&lt;"\xce\xca.8\x9d@\xd8\xf9\xca\xc3!\x94\xa9\x02\xc7\xbeo\xbc\x9a)`\x92Yga\x85\xa8h\x01V\n.?\x1aZu\x8e\xe9md\xea\xba\xcb\x99]N\x9b\xeb)\r\xae\x19\n\xb0|\x891\xd6\xd1\xd0\x8aV5D\x90\x14u\x9a\xd6YXP\xd7\x0f\x10\xb2@\xa1\x89\xe7X\xeb\xacCZ\xfb\x0e\xe0oMU\xc9q\xce\xc2\x82~6\xd3H|\xe5\x07\xd9)\x84\x9c\x02X\x1a\xf2^\xe5!M2v\x9e\xfc\xed\x1f%\xd3lS\xf4\xb2M\xfa\xe2\xc1\xaes\xaf:MD\x10b\x12M\x04\xb7\x87\r\x11I\x14\t\xe6\x96\xcd\xfd\x14}\x1b\xcc\xed\xe3\xd5j\xa3\xef\x80\xd6\\\x83\x99\xffC\xb8\x81q\x8aR"B\xb2\xef3M\x16\xc9\xa6\xdf\xc2^F\xd3\x0f\xc2\x05\xa5\xae`\x10?\xd3\x88\x89\xb4\x8e\xe8\xe8\xff\n&gt;\xce\xb4\xdc\xa4\xb1\x8b\x04\xe3$D\x7f\xf0d\rOM*\xea\xe2\xf9]\xb1tppS\x1a.^\xd3\xca\x89\xe7O\n\xca\xb1Zo\x01\x0b?\xab\x92\x85\xc5D\xf3\xa3\rc\t+\xabQX\x9f\xf8\xc9\x0c\x9a\xe1&gt;\xa5Ac*\xddRI\xf7\x1e\xa4\'\xb3\xf7%WP\x83\x19\xac`1\xbb\x8bda\xf1\xb9|\xc7\x12\x96\x96Sq!\xad\x97VSu\xa2\xc9\x0b\x8dJ\x0c\xe1A\xd8\n^g\x0e\xda\xeai\x1c\xc4\x83VW\x88\x9aB8X\xc7"Q\xe2\xbap\xf9$\x85U\x18i\x96\x04\n\xab\x82\x8e3\xfc\xf3*D\xb0\x8e!\x98\xf4\x87\xa05\xe2\x10\xde4\xe6\xd1\x1f\x8c\x03h\x15\x96\xefP\xc7\x90\xe0L\x869\x84.\xc4y"\x8d\x0f\xdd\xcel\xee\x92,\x9c&gt;b\xa8\xe0\xbc\xa6\xb0\xd2\x84Y\x85\xb0\x8aUL&amp;\x1d\x06\x81\x03U\x95BX!x7u\x85\x0f\xbc"\x9c\x0c\x1a\xf1\xd59\x86iPj\xb9|I\x04\x14j\xb4l\x0e:.E\xc0,L\xb2\x18\xd6Y\xfa\x91$\xac=\xbd\x0cC\xaf/R`\xda\xd4\x0ba\xa1\xb1\xced\t\xf7\xaa:\xb9x9\xa3\xc4\xa7\x9e$\x8a\xeb~p"1g$\xf81\nD\x0c\x0b\xa7\xa3\x12\x19X/\xd0\xbf\xdc\xe3\x06E\xb0\x92E\xc3:\xce}t\xc2\x82.\xbd@i*\xf3\xa4\xcfA\xbaN\xe6\xdc&amp;\x16!\xac\xab\xf4\xba\x05\xb7\xf7jL\x12\xc5\xc3J\xe4\xbf\x12\x94\xd7P!\xac\xacz\xda,\x88\x86\xd7A.3\xa0;\xb0\x03\x16\x9b\xcd[\xcd\nV(\x1a.*\xa1\x14\x9e\xa3n\xb2\xc8\xc4}&lt;,\xe8\t\xd4\xa9\x84\xa4\xc2\x9eN!,,l\xb1\x82\xd2\x89\xc3{:\x07+[\x19\x16\xefD#\xaai\xe1*q\x12/&lt;A\xa8P\xe8\xb5\xa4\x9e\xc8\xc0B\x96\xd1\xd1\xf0\xebe\x85\xb0"\xf1\xbeT8\xa7\xe3Pk\x87\x13\xbdI\x84\x8a\x86\xbc\xb1\xde\x0ck\x97\xe9\xa1\x16\xbcU\xdeBda\xf5Q\xf2\x83\x04\xfb_1W\xfe\xd4D\x12\x85S\x14EH!,\xe0\x01hQ\x82\xaeU\xfa\x1f\xcd8VM\x02$1.\x81p\xc8!\x97\x1cr\x9f\x82\xe2\x85\xa2r\xc8\x82\xa8\x08\x0b"\x87\x1cR"\xb8x\x00\n\x1e\x7f\xcb\xbe\xd7=3L\x92\xe9\xc9\x84\xc3\xed\x1fB4\xc9\xe4\x9b\xee\xd7\xaf\xdf\xfb\xde\xf7r\x81\xf3\x85\xd5\xa4\x82uM\xb2\xcc:\xf2\xdf\xc7\x99\xb0\x12\xc9\xe7\xc1A8^I6\xc6\x86\xc5\xdf-\xa6\xb0\x9a\x8a\xe5\xd1 \xc3\xbaHv&lt;$vn/X\xbd\xbc\xea\xc0\xe5hXPDm\xacZ\x8fD\x05w\xfa\x8a\xee\x95je\xcf\x14\xff\x05\xe3\x8e\x02k\xfc"\x0c\xe7\x0cz\xc91\x81\xb1\x139\x9b\x95\x17m\xf0\xc0?\xf3\x82\x95\tK!\xaa\xc2\x93\x9b\x92\xe3\xbaBL,Z\xef\xf0\xf9B\x13\xfda\xe2-\x95Q\xa2\xc0r\xee\x98\x05l*\x06,\x9c\xa8B\x98\x8b/\x9c\x17,\x01\x8f\x8b\xc2\x9d7\x7f\x93\xb6\xfbC\x12\x10\xb3\x0b@\xd1\xe4\xad\xd3Xr\xe5\xc9N\x93F\x81\xe8\x0b\x8b\xac\xf25&amp;,0\xab+-$\x16\xf6\xf2[H6]UV1O\xa4\xec\x16\xdeD\x0b\xc7\x9d\xd3# \x86\xe9\x9e\xad\xc4\x13\xabDJ?\xe9\x01\xeb\xed\xb7\x1e\x93 \x89\x05\x0b\xd2\xa7\xb114-oXY\x08\xa4UN\xf3Q\xefQ\x83\x87.XD\x87^`s\x86\xec\x8a&gt;A:o\xf8\x12\x12\x11\xd9\xa6x\x7fX\xb8\xacnj\xf2Y;\xa3T\x82UJ\x02\x04\xf1\x99\x0f,\xae\x87\x04I\xc4u\xa5\xe2\xd5D\xdcV\x99t\xf7\x1f\xd3K\x13a\xf5D\xd4\xe88\xbeSb\xe3\x9f\xf1\x87\xf5\xb4t\xe2\r\xeb\x06a*|\x02\x1b\xfe\x9a\x04\x8b\xa0&amp;\xf3\xe8\r\xcb6B\xd4y_;f\x1e\x92\x8aR\x0b^\n\xfd\x06lbv-\xf6\x14\x8d\xdcV\xf1\xcd\xa5%\xaa\xc8\xcai\xf5\x85\x85\xcfg\xd8\xb0\x06xR\x9b\xf1\x85\xc5\x154\xa9\xdf\xfeA.\x1bXS8\x0b;\xc5\x08\xb7\x90\x0b\xbc\xa5\xfc\xc2?2\'S\x95\x8b\x1b\xd4\x1b\x16\x06,5)LX\xe8)\xc9\xa6\xf3\x81\xc5\xa5\xf6(Ao\xd5%j\xfd-\xc4m\x1d\xd7\xc9\x13\xe3\xc8!=-o\xc0\xda\xa2\xbb\xae\x9c\xc7\x03\xe0j\xfeMK#\x0fir\xba\xd1\x0c\xcf\xd3l)i\xde#\xf5)&lt;\xe0\x06\xae\xc4\x7f\xa11\xe4\xc1\xdff\xce\xb1\r\x7f\xa4\xd3\xb0a\xbc\xa8\xca\x953\xd6\xd3*\xf395\xe4\xc0N\xd2\xe7\x02\xe1\xe0h\xda\xf1\xc4\x82C8\x80\x14\xcc\xeb\xaa\x99V\x12\xde\xe8\xf1\x81g\xe9a\xd3\xfc;\xd3\xc4\\j\xf1zu\xc5d\x810\x15]\xc1\xde\xbd\xc7\xd6\xdc\x9b\x95\x91\x91\xd5\xfb4\xd3\x13\xec\xf4\xde#\x07edx\x00\xfa\xbb\x86\xd4\x87\x8cR[\xc5\xad\xe3\x0fk\xaaT\x84\xe5\xa3\xc6\xa2\xd9\x81\xed\xact\xc3\xb74F\x8c9:\x10\xd1\x0cqg\xbd\x91\x8b\ny]\x1f\xca\x98\xd4\xae\xb5\xe6\xab\xfb\xa9\x11X\xbd\xc4/\x07\xa0\x9aOB\xdc\xe7}\x9ej\x8f\xf4\x8bW\xee\x04\xa6t\xcb\xee]\x0b\xc8U\xc2\xb1\xe2\xca\xe4\xcc\xc9\xfa\x04x$\'\x8c\x04ZEO\xeet\x85Q\x02\xfc\xee\xd7U]\x86I\xf8BB\x95\xd3\x01\xca\x05\'\x88\x87~\x94\xca\xbePsmcp\xe5\x82\xb1\x9b:W+\xa6k\x18\xa8\x02{\x92\x861\x1d\xac\x9b[\x9d\xb2\x06_[q\r\xf7\xeapn\xaf*9s q\x12\x961\xe0\x18nrh\x17V\xc8A9\xd16g\x1c\xd2\xe2gTL\x88SY\x9a\xa8l\x15$*\x8b2"6p2\x8c\xbe\x98\x14/_o\xbc\x0c,FR\xcb\x92\xb2\xdf\x90\x1a\x99\xcc\x1b\xf9\x1a\xbc\xd8`Dt\x90l\xe6&lt;\xb0\xc9\xfc\x99\xe3f\x0c\x96\xc4w\xa4b}\xdf8,\xd4P\xd8W\xb0\xd2gm\xf1\xa3\x19\xd3\x1b\t+\x92h@i\x13O\t \x1f*4\xa5\x0e\x83\x80eIw\xb0f\x1c\x96T\xdf^C\r\xd2\xddV\x1f\xdb\x90\xbe\xc8H\r=V\xe0J\xab|\xa7\xab\x1fS\xa1\xadAE\xe8\xa6|k\xeb\xe8\xe8\xe8\xb6\xf8|4\xb7\xae\x82\x1f\x86\xa7pF\xdc(\xe8R\x89\x92\xecJ]\x7f\x13#y\xaf\x8a`i#\t\x9b-\x86\xba[\xa2h\xaa\xe4VMU-l\xbf\x07\xdd*\x05\x88"\x82\xcd\xb39\x9d\x97\xc4\xf4\xbcm\xa1\x0e\xb6o\x97\rl\xb8\xce\x91\xba\xe3\xfc\x97U\xb2\xfe\x85%8@.\xa9nw\x86\xb2\xa6!\xc6\xb4\xf1\xb0\xe6}j\xc6\xa7\x00\x89\x92y/\x81\xeb\xbc\x02\x0b+\\b\xba\x9bOu\x02\xac\x9c\x01\x08\x97Ws\x852m!\xde\xf5_\xa8rS,\xec)\x84\xe3%0Y\xc9\xc6d#QT\x9f1 \'\xbf\x90|Mtj\x0b\x92\xf8\xbc\x82\xd9)\x80U&lt;\xee\xe9AXo\xb9\xeaz\xcf\xb4\xa7E\x81\xb5\xee\xa3\xb7\x06o\xd1\xd4/]x\x96\xaa3\x8cM\x16U\xb3\xc0\x04\xb9\xc8\x8ev`X\xbe\xec\xab\x05\xce\x97\x97)Op&lt;\x03X)\x95\x055\x00k\xd51\xca\xdf\x10\x1a\x1b\x9c\xfe\xea\x0cy\xc2\xc0\xe5\xb9Z\x95@k\x96\xe3"\r\xf7M\xc1\t\x94\x01\xd6T\xe2\xa0\x82$q\xc1_\x89\xf7ZYD\x97\x0b\x17\xb1\xa2\xa1\x01`uL[\xf9\x19GC\xa6b\\\xb7\xfd\x1bGnK\x92\xa4RpC\xaf\x9e\x19V\xfe`Y1\x92\xf2\x81\x1d\x9c\r\xdc\xfa\x83\x15\rm\xd8\x1b_\xdbz\x9e\x8e\x8b\x88iF\xef\xdb\x1d\xe3\x1a\xd4\xfah9\xcf\xf7\xa4\x10&gt;\x01\x82\xe5\xb0 \xd4\x81\xa1p3\x10H&lt;z\x0e~\xe1\x87\xa6\xf6[\x16pI\xb0\x9a\xdd\x9e\\\n\xcbUy\x0f\x12\x99\xaf\xf4\xd5O\x9a\x82\xc7\xc1\x07\xe0EZi\xe2o&gt;\x19\xa4\x16v\x95.\xc4\x96\xb6\xc4\\\xde\x8b\x97\x91\xbf\x17\xd3\n\xdd\xe3\xf5\xfcl!\x9cp#\x85\xd5\xbc\xd5}\x85\xbe\xba\xc0PanRz\xbeY\xbf^\xa7\x91\xc8Z\xa4\x14t\x91\xa5\xd1\\7\xe0\xe1\x97\xf2Y\xbacrJ\x82g\x8c\x08\xb2\xb7,T\xe2.\x98"\xdd\xf3\xbf\x02\xc3\xfa|^O\xa6{\x81\x0bn\teR)\x15\xe3\xe2n\xd6\xa5\x07\x03O\x16\xb3k\xaa\ry\xc0\xca U\xa7T0\x05IP\x16\xb8\xe1\xf2N\xd6\xb5\xdf\x05\x82\xc5\x9ci\x0c@\xfa\xc07D\xed\xa2w+\x06\xcc\xcb\x89Z\xb25\x96|xI\x1f\xd5\x04\xcb,\xd1\xb9\xe4@X\x18\xb1\xab\x06\xd4\xb3f\xcal\xdcb\xe1Z\x08\x1cii\xa2\x82{u\xe5\xee\xbe\xbd\xe0\x8cT\xbf[b|\x81]W\xc65\xcf@5$U\xec\xcc\t\xbbm\xc6\x08\x91\x98\xaar\x86\xdd\xbf\xf8\xa8\xd3[\xa0\xbd\x84v\xb4v\xeb6\xe4\x05{\xe8qK\x82\x8f\xcf\xa0[m\xd3\xd6\xa7O2\xcdkB{\x17f\xa3\xca\xfe\x118,\xe1\xc8\xeeQ\x99\xc2\xe3\x919\xc3\x14lY\xbbS`\xa5\x9c\xa1\x94o\xd7\x9e^L\x99\xea/\x02\xaaC\xa6\xbd\x8c\xf0$,d`\x0e\xbd\xb9\xae\x8d\xeb\x96\xe6\\i\xa3\xea\xc4\xa6\x92\xc6\xfe=\xce\x95b_\x19\xe8W\xcb\xefk.d\xfb\xa6?\xaa-\xcd\x15$\xd2a\xfe1\x1c\x84\xe6}\xe8\x9d&lt;\x02~"\x95\xf4L\xbe\xf6\x9f\x03\xfb\xe4m\x8d\xe9\x9ah\xd3\x98\xadA"8\x9eN\x07\xcfp\xd6\xb4\x0f\x03\x1b\x14\x1d\x03h`\xe5?\xbd\xb7\x97\xbds\x8bv\xc3.\xff\xec^[oo__\xe9n[\xa40\x17}"\xad\'$\xe3\xad\xef\x82\x04#"\xd6\xb4/#\x06[\x97W\t\xa5\xbe\xb9\xa1Z\xc9I\x02\xea\xef\x85v\xbb\xf7\x04\xb6\x91\xbchY\x15\xa7\xbd\x1c"\xadJE\x18\x86\xc7%\x9b\xf6i\x1c\x8e\xc6\x0c\xb8\x85\x04`s+\x12\x88l\xbc\x7f\xf1\xfd\xa4\x86\xc5\xd9W\x16\xc9\xdc\xbe\x94\x9bd\x89\xfdU\xd4A\xa8l\x0e\xd9\xcf\x1e\xe6P\xec\x8a\xef\xa7\xea\x96\xb9\r\xfc\xbaI\x9c\x92\xf7\xd7Y\xa7\xf1$\x9e\x00s\xf8r\xf6\x1b\xba)\xbec\xe6\x9a\x98`\xda\xd7q*\x8e\xa8\x9a\xfbh,|\xff\x05vT\xfc\x18\xd4\xe9\xf6\xb6o|\xc4.\x8e\xebm\xb4\xd3\xac\x0c+\xdfB\xfc\xfe\xff:D(v\xecWvP\xce\r\xd7\xf3s\xb6~s|\xfe\xb2\xb25G\x08\xf9\x10\x91`:\x80\xf1G\x12\xf6\xc7\xa7_\x96\xca6\xe2\xbb\xee\x17:]\xfb\xf6\xf6!9~\xadNC\x06\xd5r\xee\xa0~\xe3 &amp;\n\t\x04O\xe1U9\r\xfc4?4\xf9\xc4\xbfW9\x7f\xf0\xfe{\xf9\x14\xb7N\x8d\xe2\x87\xcc\xf1GM\x077N\x12`\\A\xed\xc8\xce\xafTL\xbc\xbe\xfdsh\xa3smpm\xad\xb3{\xa8m~K\xd5\xb7\xf8\xf8&amp;Q\x8f\x99\xe3cL\x07;b\xe3\xc9\x0f\x8d\x08\x19\x03\x81\xf4\xd6\xd6\x92\x0eJ\x00ZN\x9c2\x1d\xfc8z(BR\xcf\xb9[j\x18Lx\xce\xd5{\xcf%\xe5\xf7\xc1\xff\xd2\x88\x12W\x1cK\x92\x7f\xc3\xc6\xd3\xe0\x9e\xf9p\xe3KU\x05\x99:k}U\xf5\xb7\xe1\x0eg\x9e\xcc\xfaE\x84\xc4\x9a~\xe7\x08?\x16\x12fV\x17\xa3RJ33KS\xd4\x159\xf3\xf1s\xb1\xe1\xa6\xdf?\x92\xff\x0c9m\xd1\xa6\xef#\xe3\xce%\x1c6\xfd\x7f#\xfcT\xc2\x91\x13\xd1\xa7\xc3\x12-0OfKbX\\t\xc8\x99cG\xf7:K\xff\x01k\x8bA+\xde\xc0Q\r\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67005787037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1974</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -702,20 +702,20 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xfe\xfe\xfe\x00\x00\x00\xff\xff\xff\xfe\x1d\x12\x01\x01\x00\x04\x04\x04\x0b\x0b\x0b\x03\x02\x02\xfd\xfc\xfc\xff\xa5\x00\x02\x02\x01\xfe\xfd\xfd\xf7\xf7\xf7\x08\x08\x08\xd7\xd7\xd7HHH\x14\x14\x14eeeppp\r\r\r\xf8\xf8\xf8\xb3\xb3\xb3\xf1\xf1\xf1\xfb\xfb\xfb\x18\x18\x18...\xff\xa4\x00\xff\x1e\x12\xf9\xf9\xf9\xda\xda\xda\xdb\xdb\xdb\x1a\x1a\x1a\x06\x06\x06\xed\xed\xed\x07\x07\x07\xb9\xb9\xb9\x10\x10\x10NNN%%%\xaa\xaa\xaa\xb0\xb0\xb0\xeb\xeb\xeb\x86\x86\x86\x12\x12\x12\x1c\x1c\x1cSSS\xd5\xd5\xd5\xe1\xe1\xe1\x97\x97\x97\xe3\xe3\xe3\xc5\xc5\xc5\xcd\xcd\xcd\x1e\x1e\x1e\n\n\n\xc8\xc8\xc8\x94\x94\x94\xa7\xa7\xa7###\xf4\xf4\xf4\x9d\x9d\x9d\xd3\xd3\xd3\xdd\xdd\xdd\xa3\xa3\xa3\xca\xca\xca???444[[[\xcf\xcf\xcf\x91\x91\x91\'\'\'jjj\xf5\xf5\xf5\xac\xac\xac\xf6\xf6\xf6\xe9\xe9\xe9{{{\x81\x81\x81KKK666000\x8d\x8d\x8dAAA\x83\x83\x83\xfd\xa3\x00&lt;&lt;&lt;vvv\xfa\xfa\xfa\xe7\xe7\xe7ccc\n\x05\x00\xef\xef\xef\x0f\x0f\x0f\xf0\xf0\xf0CCC\xfb\xa2\x00gggsss]]]\xbf\xbf\xbf\x9a\x9a\x9a\xd9\xd9\xd9\x89V\x00\xc2\xc2\xc2\xf5\x9e\x00\xe5\xe5\xe5888   \xb6\xb6\xb6xxx\xa0\xa0\xa0\xf3\xf3\xf3```lllXXX\xff&lt;3\xbc\xbc\xbc*\x19\x00~~~nnn)))"""%\x16\x00\xf0\x9a\x00EEE:::\xff\xa0\x9b\xfe2(\x0f\t\x00\x1c\x11\x00\xd1\xd1\xd1\xaf\xaf\xaf\x88\x88\x88\xff-#8"\x00\xe0\xe0\xe0PPP\x9cc\x00\x15\x0c\x00UUU\xff&amp;\x1clD\x00\xdf\xdf\xdfuI\x00\x8a\x8a\x8aF+\x00.\x1d\x00\xe0\x90\x00\x80P\x00\xffA8\xff\xc1\xbe+++www!!!\xa5\xa5\xa5\xbdx\x00\xdb\x8d\x00\xff \x16\xff\xbc\xba\xfe\xf5\xf5\xae\xae\xae\xb2q\x00=%\x00\xe5\x93\x00\xff\xd3\xd13\x1f\x00\xff\xdc\xdb\xfe\xbc\xba\xafo\x00\xc5~\x00\xeb\x97\x00W6\x00^:\x00\xa3g\x00\xd4\x87\x00\xfetm\xfe\x87\x82\xff\xc7\xc4b=\x00f?\x00\xa9k\x00N0\x00\xb7t\x00\x96^\x00\xcf\x84\x00\xff\xb1\xad\xfe\xce\xcc\xfe\xf9\xf8\xfe\xeb\xea \x15\x05\xd6\x89\x00\xc1z\x00\xbav\x00\xfe\xf0\xef\xfe\xa7\xa3\xfe\xb5\xb2\xff9/\xfeH?\xcc\x83\x00\xfe5+\xffSK\xfe\xa8\xa3\xfe\xd6\xd4\xfe\xa3\x9e\xeb\'\x9e9\x00\x00\x005tRNS\x00\xf2\x1f\xf9\x9e\xfc\x05\xfe\x01\x1b\r\xe2\n\x08\x12\xeb\xb7\xda\xd4&amp;\x8cB\xce\xee\xc6*=9\xf7\xacU\x84\x17_\xe7H|\x93\xbfv\xb1\x9ch\xa5\xbb2\x98RNn/[\x9d\x8dk\x940\x00\x00\x17\x99IDATx\xda\xdcZiL[W\x16.$\x06\x02\x01\xb24doh\x9b\x94\x99\xa6\x93v\xa6s\xef\xc56\x96\x8dY\x8c\x8d\x8dX\xcd\xbe9\x01\x1b\x1cv\xb3\xef\xbb\x08A\t\x08\x02\x08\xb1\x05B\xa3,R\x92\x91\xd2\xa0\x89\x94(\xca\x9f4\x99HY~T\xc9\xcfN\x7f\xb6\x99?3\xd3j\xd6\xf36\xfb\xd9~\x0e\xc6\xca\x9bJsd\x99\xf7\xee\xbb\xbe\xf7{\xe7;\xf7\xdcs\xce\xe5\xbd\xf7\xfeO%(`{X\xa4\xbf\xff\xee\xfd\xfb\xf7\xef\xde\xed\xbf-284\xe0\x17F\x14\xba\xfb\xc3\xf7?\t\xf1\x93P\x12\xc8\x89dK\xf8\xae\xe3Q{\xc2\x82~\x01@\xdb\xbe&lt;\xb1og\xf8\x16\xecY\x02\xfdB"~u\xf4`\xe8\xff\n\xd1\xf6\x03Q\x87C$\x8e\xf9e\xb9\x15)#\xf1\xa6\xe6\xd5\xb1\xb1\xd5\xb5\xbc\x89\xfe\xb6\x04\xb9\xd4\xf1\xd4o\xdf\xb1/\xfd\xc5V\\\x90\xff\x17\xc7\xfd\xd8\t\xd5\x99)\x13\x89\x83\xba\x93\xc64\xe4"5\xf3\xe6\x86\x1e\xd3B~\x89\x92U\xdc\xae\xa8\xdf\x04\x8b\x07*\xe0\xe3\x9d\x81\xf4&lt;JY\x85\xc6\xacu\x82B@\xe0\x0b.\x98\x0f}\x7f\xb6\xf6\x86&lt;\x86Q\x9d\xe4\xc46\x91t\xb65\x9c!-\xbe\xe1d\x91\x02\xb9\t\x0f\x13}\xc3\xe0\xec:e~RJ\xffn\xcb\xae\x83\xa2\xc0\xfa5\x8c\x9d\xaf\xd1\x15\xf1\xa1\xa8\x8a\xea.?m\xed\xd5$6\x9b\xf2\xfa\xfa\xee\xae\xad\xb6/\xdf\x99)\xb4&gt;\xe8b\xf4\xc5\x88\xbe\xae\xac/\x0b\xccL\x1c"\xf7`\\\xed`\xceX\x97\xd3:\xb6\x90\x1b#\xb8\x0c\xa5\xd9\xd5y=U\xe6?\xa6\xd9\xd5gQ\xe2}"\xd9\xfbN\x8c\xe3(D\xfa\x95\x93\xbd\xf9\xd8\x1bQ\xe7uvkiX\x170\xfeT$\x93?\x82\xf1S\x98\xa3\xb8-W\x89\xbd\x16u\xe6P\x11!\x1dr|h\xbbH\xb0\x80\xc51x\xf1f\xbc9\x91\x1b\t\xa9\x97\xe1ODs\xed\x81\xb8Z\x81\xc8i\x8f\xf3\xab\x05\x9b3c\tY\xc2\xf8\x88h\xce4\x04K\xcb\x11\xb1x\x82U5(\xd8&lt;\xa0"H\x83\xf1\xe7\xa2\xf9\xd3c\x18\x7f\x8dPl\xb6\x07X\x85e\x82\xcd\x89`\x8f)\x18\xef\x16\r\xd6\xc7\x18\xf7\xc2Jls\x9fZ\xd6\\0\xad\xf6\x00\xab\x16\x91\x9al\xbcW\xbcp\xc7_\x82W\xc1O\xc6\xbb\x19U\xe2)B:=i\xcb\x86H\x06\x16\xcbkQ\x12v\x08\xf7\x81\xb6V]\'&gt;Mm6\xcb\x1e`)\xbb\x11\xb2b\xbcU&lt;X\xc1~\xb8\x11`M\xb9\xd3\x84&lt;kK]\x83H\x8e\x88\x0b\x11`\x85\xe3~\x00p\xc5y\xa3\x89\x9f\xd3\x92\x8e\x16]C\x820\xac\xa4QD\n1\x8e\x121\x02\x0c\xc7M\xa0-\'X\x86Z=RY\xdb\xdb\xa4\x9eV\xe2y=\x02M\xe2\xdf\x8a\xa8\xad\xbdx\x01`-\xf3&amp;m{\x80V\xea\xcd3\x9a{\x06\x8c_\n\xc2\x92k\x11\xd1a|TT\xdb\x9a\x00\x12/9\xe6,-j\xb9+\x97\xb1ArR\xa6\x10\xac\xacqD\xa61&gt;&amp;\x1e\xac\xc8-x\r`\x99xvu\x9d\xde\xb5\xa5\x99\xf7\x1e\xea\xe6\xac6\xebtC{\xb5+\xae\x0cD\xea0\xde!\x1e,\xd8\xab\x97\x81\xc4&amp;\xe7i\r\xcd\xb5\xe9z.\xe4CDo\x99Jpz^\x80\xc89\x19\x0e\x17\xcf\x9dn\x05\xb3F$M\xce\x9b\xb3\xf2\xe6\xd34\x828Hl\xd4W&gt;\xc4\x87u\x06\xda\x060\xde/\xdaB&lt;\x84\xb3\xc1Pl\xbc)MF.n\xe7\xc3"*\x13\xcf\xfc\xc0o\xa1\x87".E\xe00\x0f&amp;\xed\xe5-\xfe\xb3D\x10\x16\x1a\x1d\xe0\xba\\\xcf\xa0\x1a\xea\x94\xa2\xc5[A; v\x81Y\x1by\xda\xba;J\xb8\xb4\xc7\x01\x8dBge\x83\xfc\x8a8\xba\xa1#\x01K\x0e\x88\x03\xeb\x03\x8c\x13\xc6\x11:\x97\xc47\x9c\x1c\xc4\x01qI\xc8\x18uU\xcc\xb3\rUJ\x1c!J\xa2\xb8\x1d\x82\xc0%\x98\xe0\x92\xd32kwh\n\x8d\xd6\xd8Nk\xda{\xe7\xba\xa86:\xb4.]\xb1\xe3|\x0c\xdb\xa2\x08\xb8\x02vA\x9c\xa9%\xc4x\xde\t\xd6\x08K\x1bQ,\xc5WT2~5w\x0cB\xebD\xb8X|@\xec\t\x9cY\x86\x03?|\xe7\xa8~\x07\xa8\xfe\x04)\x8ck\xf8\x90\xc2(\xaa\xeej\x05o\xf3\x965#\xb4\x06\x17\x9aS\xbcT\xb7\x18\xe3\xc0#&gt;;\xaf=\x07\x04*S\xfeG\xb7@\xaa`\x03.\xe6\xa4\xce\xb0F\xa8\xd4\xdar\x815p\xf9\xb5xM\xed\\FQ\r!\x19\x9d\xcb\x13\x06\xf5\x05\x8b\x82\xb37E;t\x88\xd8\x13*P%\xfb&lt;\xd8\x0b\x97)\x89\x88\xda\x1f\xb6= \x88F\x17\x14\x14\x1avp\x07U72\xcc\x82V\x92]\xb7\x96Ihc\xc2\xc2\x98\xa4\xa1\x97\xb14\x04\xfb\xd2Tt\x1a\x94\xcbl"\x0e\xb8\x96e\xd0-&lt;*28 \x88\xad#\x86\x06G~\xb1u/\x0e\xdc\xe6\x8d\'\x079\x14\x1e\xb2k\xdf\x8e\xc3\x87w\xec\xdb\xf9\x11]9\x92M%\x03Y\xaa\x1b\xae\x1b^\x81\xaa\xac\x84\xde\x90\'o\x8f\xab\xdc\xeb%\xda\xce\xa4\x11G\xa1\xc9B\xe7\xe2\x92\xbd!\x11\x9f\x1d&gt;~\xf8\xb3\x08\x18\x9b.\x94y\r\xcbE\x12\xa6nS\xc3v\xe5\xb9&gt;0X\xa8\xc0^\xd9\xf8\xb4\x1by\x90\x96\xb6\x91X\xfb\xcdJ\xd5\x90L\xa8r\xe8\r,\xe9\xcb\xb2\xb1\x1b)\x99rz\x00YRu\xe3da\x07\xbd\xde2n\xba\rx\x81\x8ee.:\x17\xb7X\xd2\xd8\x86\xba\xdc+*^\xa9)\xfd\xe1\xdd\x01C%\x15wH\xd5%\xd5\x0b\xa6\x1e\xdd\x88\x97\xb0\xe2\xe8!\xd3\x8c\xe5\xb3\xb3\xe5F\x05\x17\x1bh\x0b*=\xe5\xad\xed\x84 \xcf\xb2\xa4\x8csm\xea\xe8\xae\x8f\xab?\x9b\xcc\xdc\xc4{\t\xeb\xa4\xf3{\xd3\xa2\x9a\xcb\x8f\xf1XeH@o\x93X\xc3\xf0[\x9f{\x0b\xcb\xed\xe5\x90m\xea\xb1\xd4\x15\xcbuK\x0b#\xedt\x86\xca\xdbyX\x12\xed\x9f\xd66\x85K\x1b\xe2w\x8a\xf7\x9eDcY\xe7\xb4\xadn6\xae\xce\x96\xd30l2H\x85t\x94\xc3\x92[\x8aq\x93\xeam\xea0\xaa\xcb==\x9a\xdf\x1c\x89\xb3^\x14\x88\x06\xf4\xf4\xc8T\x01\xa7d\xe5\xad4\x19\xcc\x1e\x1etNn\x8eDo`\xe1ij\xe4\x93\x94\xc9\xc9\x8b\xdeF"Z\xcc\x11&amp;Q\x97\x95\xb89\x12\xd3\xbd\x81\xb5\x0c\x13t-\xd0\x99\xf3Y\xf7J3\xaf\xa1\xf42[\x14wF[\x90\x85\x13\xc9\xbb\x875\x04\x0b\xb4\x1ds\xb0&lt;\x8b&gt;\xe9\xb6PsU\x0c]d\xda\x0c\x89vX\xed\x19\xb4X\x06\x1f\xbb\xfb\x87L\xa4\x1af3D#r\xf7)\xf6\x86Yu\xb2\x00\x89\x051t\xed\xcb7m\xc9\x8a\xd8\xc2\xbf\xaa\xc1\rWeG1\xbbD\x13\xb4B\xa7\x18\\CO?\xef\xfc\x80\xeb\xa1\xa37\x11\x9fI&lt;M\xd0\xed\x16\x9b\xb9\xa5\x1bU\xb9\xd5\xda\xeerWy\x8eS\x0c\x9e\xa6\xd8\x06mi1r\x1cm\xb0\xcf_2%\xc5M\xc1\xe2\x91\x88a\xc8\xac\xb6\x9b\x8dM\xd5\x86&amp;6?L\xba\xaaq\x96,\xa5\xcd\xe1\xa3\xcc\x17{\xdb\x9b\xef5O\x0e\x7f\xcd\xd9[\x86\xcc&amp;hWl\x01\xd37m\x15\x13t\x9e~\xcdQ\xcbp\x7f.\xddt\xd9\x99\x0eme\n\xb3\xf0\xceY\x06\xfby\x01B\xcc\xea,\xad\xadK\x8bZW\x12\x0b\xb8n&gt;\x92(U3\xb0XK\xd1\xf7Po\x99G\x9c\x92\xaf\xf2\x98\x19*\x14+Z\xcdr+\x04\x16\x00\x84\x0c\xa5\x199\x91H\xd0\x92\xddL}\x83%{\xda[LH\xe5\x13S\xdf\xdarA7\xf5\xbe\xf3\x90h\xa9\x8d\x84/\xd3\xf7\x14D\xdfzM(\x90\x92\x83ghO\xe8\xd4QRcg\xb0P\xcd\xafBo\x1e\x96\xb4\x13\r\x83m1\x13\x96\\\x1fX\xaeg\xd2\xd2\'THa\x9f\xa5\xa0||\xf0\x9a\\XF\x14\xd6\x12\xe6JY\xe5jW\xbe\xc2\x92j\x10\xb9\x02$2\xb0\x96\x15fu\xf6\x1c\x9d\x95\xe6\xeb\x11):\xad\xb7\xb3\xa2\x8f\xf5$Z4\xca^\xf5\'\xb2\xdd\xab\xf8j\xf5\x85\xc4\x92\x15\xd2\x9d\x04$2aj:)\x07W\xc5p\x03q=\x1a(\xe03\x896\x12M\n\xcb`\x8c\xcbQ\xc2\xa6#\x88!\x15d\x85,\x89\xb2\x8b*TkO\x04)#\x9e\xa9\xacC\x9b\x90\x1c\x19m\\:5\xf6\x15\x16\xe7\xb7\x00\xd1"\xf5\xd5\xf3\xe4\xc9\x1dp=\xe9\x8ej\xdaU\x18\xed\x9c\xf2\x9e\xebF\xf3\xfa\xd1W\x9c\xfc\xfc\xbd\xcb^\x93\x9c\x95\x83\\\x18\xf4q\xf3\xa9%Z9\xf8-V\xeayE\xc0|jQ&amp;\xc8n\xbb\x92\xf8\xfd\xfdhF\xd6\xbfuSWu/rC\xe5\x13\x890N&gt;\xa5--\x95\xe9]\xe6\xd7\x00q\x07\xa2\x9e\x99\xf8\xd3\xfe\x95\xc6\xf5\x8cFu\xff\x15\xb5V_8\xc1\x9aXs\xb1+\x1fH\xa4a\xf5\xab\xd00\xcddi\xde82.\xf2\x87+\xa7K\xa8\x15|\x12\xff\xf5\x8a\xfa\xfe.\x95\x82\xf5g\xea\xf2\xc7o\x9c\xa2\x8a\xe6\x11\x9dZ\xe0\xf4l\xf3$&amp;\x19\x89\xb1)&gt;\x96Z\x89}\x88X\xa9A\xb9\xc3\xb18B\x9dH\xc9\xe6\x89\xbd\x8a\x84n\x01q\x04\xfde=::\xf5\xa7\x17\x84"\xf4\xb9S\xd4wU\x1e\x83\xdf\t,\xdc\x9c\x86\xba\x87F\n\x01\x96\xf4"Bc`Su\x13\xccp\x16D\x1f\x0e\xb7\xf2H\xba\x15\xbd\xfew\xf0\xb1\xdf1\xcaR\xfc\xed~\xf4k\'\x12{&lt;\x9c5z\x07\xeb\xf7X\n\x0b?\x83\xf9\xd5\x0cdR\r\xd5j\x88\xaa\x16\xd3\xd0\xfc\xf9;\n\x14\xc7\x04$V\xe6Dj\x88G\xe2-\xa0\xef\x9f\xaf^\xfc\x00\xb0\xbey\xf1\xef\x9f\xe1\xcfs\'\x12\xaf\x08\xc1\x9a\x84\xc77\xbc\x81u\x02c\x1bA\xf5\xec\x9ex\x05(J+\xb26\xcc\xe4\xc1{\xd5\xe6kI\x06\xe3%\xcc\xc0\x1bD\xa6\xb9\nGI\x17`\xa5\xa6&gt;[\x7f\x04$&gt;Z\x7fF\xdd&lt;w\x8a\x0b\x05a]\x82\x1e\x8dX\xb21\xac\xf7!\xa3!h\x9e\x8b\x01F\xccL\xa8Y\x9f\x9d\x8eV\xf2\xef\x98\xd8\xf5H\xc1\x1a\xc48\xbb\xc6Q\xc4\xa5\xb4\x95\x1a\xcd\tu\xf3\xdc)\x8a&gt;#\x04\xeb\x0c\xfcr\x01K"7\x84u\x14c\xd8T\x8d\x8es\xb7\xc6\xd6\xb9S\xc9]\xc6\xa9\x894\xd4b?\xa5\xb62\t\xa2l\x9cg[\x0eL\xac\xbcv\x825)\x04\xab\x17z\xa4`I\xd8\x86\xb0&gt;\xc5x\x90\xa0\x0e\xfb\xaa)^\xeac\x03\xf6*\xa2\xe8\xe3Z[@Ae\x00\xeb\x9c=tg\xb4\xf5\xec\x1f4\x89\x7fHu\'\xd1$\x04k\x10z,b\xc9\xc6\xd5\xc0\x0f0\x9e"Ho\xdfhf\x08b\xaf+\xd2H\x87\x81m\x9d\x05 \x94\xb6\x929\x12iX\xa9\x8f^\xbd\xa1M\xfe\xcd\xb7?\xa5F;`\xd1k\xa2_\x08\xd6E\x08-\x13\xf0\xa1\x8d\xff\'\xee \xc6&amp;\x18\xe9\x1a\xc7\xe18m\xdb\xb4h\x08\xb1\xb2\xb8\xce2\xb6\xa5\xeerl&gt;\xb7\xa2\xef\xff\xa0\xb0;\x887\xffy\xe6\xec T%B\xb0t\x08u\xc8\xb0\xdf\xc6\x95q\xff@\xea\x84\x95pu\xbf\x89\xd6\xd6\xd6b\xd6;\xe7\xc2\xf5\x19\xfa\xb0 \x86\xfaG\xa8^H\xc4\x14\x0e\x87yk\xfdG\xce\x9d~\xf5_Z\xae5\xa8\xa9\xf4\x0c\x0bL\xc5\xae3V\x9d\xb5\xb6\xdd\xdd\x99\xae\xdb\x9d\xd9\xed\xdavf\xdb\xef=\xcd\xed$\x82\xe1\x16C\x06\xb9# HD@\xe4*\xa8\xc8EA \n\x044\x8an\x88Ju\xb1F\x81\xc04\x11\x06\x16,"\x97\xaeu\xe1\xc7\x02K\x07\xbc\xfd\xf0&gt;\x9dz\x99vf\x7f\xf5\xfb\xceI\x80$\xe7\xc4\x10\xf1\x1bf`\x92\xcc9\x0f\xdf\xf7\x9e\xf7\xf2\xbc\xcf\x1b\xe2N\xbf\xfd;k[\xbb\xe2v\xe0\xe0E\x85Ky\xba\xfej\x805n\xa8#}\x98\x9b\x1dsYO\xb7\x12c\xc1~\xeb\xc4\x82\xaa\xf4\xbf?0\xc1\xe7\xcf\xd6\xe0\x83q\x91\xe0\xb3\xe5\xcc\x8b~\x11a)\xb9\xc5\x08j\xa6\x05\xfa\x99\x1b\x0c\xf8\xcf \xa8\x18Q\x17\\\x80J\xc2\xee\x86\xedSt\xdb`\xd9B\xf5\x0f\xd6P\xfd\x1fk\xa8\x0e\xae2&gt;0\x1f$\tv\x1c\xa7\xce\x0b\x9fz\x8e{]\xff\xb5\x90\x91\x88\xa8\xfd\xfc\xa8\xce\x87\x08.S\x8cJC\xf0\xd5\x02Xd\xfd{.\xb1\xf9\x97\x95Z\x1e\x9c\xb1\x040\x84S\x16\xd7\xa5\xb2\xf0\x1b\xfftO~\xb3\x11"S\x11uV\xc8\x87*\xdd\xbf\xd9\xaf\x9e\xc0\xaa\x80$\x89\x1d\xd7\x80\xfe\xf7\xd7\xbf\xd9\xd6?\xbe%\x9e\xed\xc5\xb3&gt;s\x1d\xf3\xa1\x1b\x9c\xd7#b\x8f\x1d\xe0\xeb\xedV\x8bU\x9a\x82\xa8\xa8 &gt;Tg\xa9\xca\x88`\x02\xab\x08\x8e \x87\xdd\xb2[\xf5\x8d\xed\xaf\xf4\xd2},9\xc7-\xfa"%\xd49w\xfc\x03\xa3iK@\xa4\x01\xc8-\xc6R jG\x07Co\xcb\x99\xdc\x99\x17VxP\x8f\xe9.\x94\xb3\xa8\x12#9\xaf\x96\xcfd\x93\x1b\xdci\xfa|\x0cp\x08Q\x12n\xf1_z8\xceY\xe4]\xc4\x83\x86\x89\xc5\xfe\xf6\x84\x91\xdd\xca\x8c\xd5\xdf\xe9\x81\xcd\xd6V\xc1\x1e\x01/\x9f(w\xc7?0\xfe\xf4(_\xacHN\xc1\xd7iR\xd6\x10X\xf1\xd0\x89\x1cwk\xce\x89m\xfa\xda2\xf3\xa0\x1d\xe2\xc2\xd8\x17\x14\xe9\xdc{\x8f\xff\xafR\xb1{b\xa5U\xbe\x10]\xc3D&lt;gT\xbd\xe4\xde-\x97\x98\xa0RE8&amp;\xa7C\x0cKT\xfb\xe7^\xcbM0\xbf\x9c\x10Cy\xa9\xf5Un\xa7\x05\x82z\\\xa8\x01|\xeeV\xebn\r@8E\xddp\xde\xf6d\x96\xd4\x0bm&amp;\xbd\xfbT\xa1\xe88\xb5`\x8fd\xc1\n\xff\x9c\xc6mV_.0\x1a\xee?\x11\xd9\xf2\x8b\x8bJnXE\xd8\xa1\x1d\x04p\xaf\xfb\xf9\x05C\xb9\xcb\x9cl&gt;\xf9\x06s\x8f\x94B\\\xe5\xa7^\x8f\xc5\x9b5\x0f+|{gD\x90-\xbcL\xea\xc7\xee\x0f\xd3\xb4^\x1a\x11\xb0\xc9&amp;:\x05\xeel\x0bI\xda\xc0\xd7=y\x1eNm\x0e\xe0;\x16:\xd9\x15\x83B\xd6\xb1\x07\xa5\\\x12e\x80_\xa2\x15\x96:s\xc7\xed\xb9\x807\xa9\x9f5\xd1*\xfa\xfe\x10\xad\x99$\x0f.I\xccb\xfcx\xce\x10\xbf\x19\xe5\xb6\x9e\xe4W\x00\x8d\xf8\x8e\x0e\x9e&amp;"\x8f\xb5\xa1\xd4\xa2\xb4\x16\xe9\xad\xed\x99\xc2\x10ba\x12\xff3\x05s\xa9\x99\xc088NcL\x86\x91\x07\x03\xf7h\x83\xd8L\xf8U5R\xf3\xb9@\x116\x8a\xadn\x0b$\xbc\x01\xda0\x84\x9dNvE`\xc9N^\x12e%\xa0-\xa1\x05\xf8oEL\xe8\x02\xf2\xaf}\x8c\xa61\xa4g\x93b\xb1V:H\xbf\xd4\xce\x10\xf3\xcc9\xce\xab3N\x0e\xa3\x88\xc5\xbf\xeff\x0f\xdf\x0b\xa47([\xf1c\xdd+\xb5\xd59\xed\x96\xa67mB\xd4\xf6\xe4zJ}=v\xc1\'\xa6_\xeah\xd5\xf8\x93~q\xff\xc0\xd3\x91;\xd3}\xf4\x8c\x919\xc6\xed\x1d\xfc\xbc\xbe\x0cW\x8f\x00\x7ft\xb3\x8b\xfe\'&amp;\'\x95d\xd9\xd9\x15\x0b\xab\xb8\xb1\x84\xa8\xba\x15\xc91\xf1U"\x92\xd8Y\x86~4\x92\xad\x9a\xd0\xa94}=\xda\'\xf7\xc75\xf8\x1c5\xda1z\xa0G\xd7\xc7\xa4\x1b\xbck\'B[\xd2\xdd\xb5xl\\\xbe\xb0\x8fb\x1e][\xeb7\xdc\x96\xfe\xaa\x8b\xc9\xaf\xe0\x13\xe5\x85Y\xc7z[\xcc\xf7\x9e\x9a\xee\xaa\x06\xf1\'\xee\xd1\x9a\xd7\xc3\xc6\xd1\x11\x9a]&amp;\xc1\x03\xcd\x0b\xedk\x93\xd6U\xd2\x16\x19\xc5\x94\xc9+\xdd\x15m\xbc\xe7\x05\xb7\x08\x1d&lt;oW\x94]V\x8e.\x08\xdb\xf2\xf1\x01t?Q\xa9TC\x06\x83\x11\xb4S\x86\xc1\xf6\x19\xbcO\xb4\xee\xce\xf8\xe3\x81\x1e\x8bt\xe4\xf9\xf03\xb3\xa9\xc7\x15\xacP|\xa9\xfcE\xc8\xe0\x96\xafd\x04Qy6\xbb\xaa\xa5\xeca\xc5\xb4^\xab!/$L\xabhU_\xfb\xd8\xa0\xa0OwwV\x87\x0f\xcf\xa4o\xd7J\xb5C\xa3\xa3b\x93~\xc0`\xb9\'p\x05\x8b4\xed\x02\x00&gt;Y\xccxC%\x0e\xc9\xa1\xd6\xfc\n\xd9\xc3\xca\xde_ce\xbe-\x1aZe\x18\xb5\xf4&lt;\xd5&lt;7\xd0\xf4\x9d\xd1\x1e\xadqtl\x04\xe3{l\xd1\r=\xa4\x1f\xbb\xeed% B\xeb\x81\xb7\xdb\xb0~\xe7\x0b\xad\xd8\x953\xa4d\x84?r\x805\xc7\xb0\xcb\n\xc6Td\xd1\xf8G7\xf6P;&lt;\xf8\\\xc3\x98\x96j\xe0\x91\xc9\xd8?1"v\x85*\xf6"B{\x016,B\x0f\xb4\x12\x82\xb0\x0fW\xe3":9\x8a\xe2\x85E\x95\xb4\xebXP\x86W\xd3\xda\xc9W\x0c&amp;l\\\xb3\x8f-\xb3z}\x9fv\xda\xe5f\xd5!F\xdd\xb4\x18\x11\xdc\x17 \xb8\x8c3\xaa\x08\x88\x88B.`%\x8a\x7f\xc4N\x9dV=5\x0b\x1e\x99\xf0\x81\xd2\x9a\x07\x8f\xfa\xc5R\xd0\x9a5\xc6q]\xbb\xeb3l&amp;Q\x7fq\xa3\x10\xb8\xb4.\xc0\xb7\xcfL\xf7G\xae`Q\x17\x8c\x06Z33l\x1e\x1d\xc1;ex6\xd9\xaf\x1d\xd2\xcf\x8e\x9b\xfa\x86\xefh\xefN\xf5\xbbD\x15\x99\x88PY4\xacY\x8c\xa6\xeb\xbd\xf5 \xcd\xa3Pi8\xe5\x1a\x96\xa4ppv\xc8&lt;0\xa2R\x19&amp;\xee\x99\xdb\x07&amp;L\xfaQ|\x90\x0f\x07\x1eN\xb4\xbfa\xb3\x0e\xe2+]u;\xf2\xcc\xcf\x11\xe48\xa2\xe0\x80\x85z\x95\xe2\xa1)\x95j\xaa\xcf\xd2?4\xa6\xa3\xa7\x1eB\x8f\x86\xd6Y&amp;\x8c\xba\x01\xd7\xa8pu\x85\x14A\xe0\xf3\xd3E\xc1\xc2YD\x85\x15\x88KX\xb2\xb4H\xbd\xc6\xf0\x08\xc4z|\x8a:=\xc07\xd1\xf7\xe9\xc7\xd3}S\xfa7\xf4\xb9o\x871#I\x1b\x17\xad\xf5\x96\xeeFv\x13a\x9c\x87xn[\x87p\xd8&lt;\xfc\xda\xa4{\xae\xef\xc1\xc6T\xaeh\xe9\x1f\xef\x19\xbd;(~\x03\xac|\x8a)\xb4\x17;\x92\xf4[\xf6\t\xe6\xd9-I\x13\xf3Zm\x1c\xeb\xc6\xdb\x8d\x16&amp;\xfa5T\x87\xd5\x96\x15j\xb5\x8f\x86\xdf$\nh\xc3u\xdaV\x01x\xadZ$\xacU^ \xcf^\xa0o\xb5\x83U\xb6\x19:\xf64\xc5\xfcE\x04\x02\x82\x8bU*\n\xb3\x02zkN\x1dFQ\x1dlM(\xdc\x16\xc9\x0f\xeb\x10\xbeN\xf5b\r\xde\xaa}\xbd\xc2\xb1[2\xc9\x96\xe0\xae\x0c\xa15\r\x966\x12D\xe5\xb99\xd57\x9bq&lt;\x97tC\xb4\x1a\xa1\xbc:eFr]J\x17\xffH\x97\xa8\x1e{E\xb9\':go\x1fP\x16;\xc3J=\xb8-\xc9\xaf.\xaf\xf6\x18\xe1\x14:\xd3\xac\xa2\xd7\x1c\x86q\xdeU\x88A\x86\x92AAI\x8d\xa4k\x8fd\'\xefv\x91\xb1\x9cJ\x80_x D]\r\x82|\xaeC\xacO%\x9c\x1b\xca\xbe\xb67\xb5\xf8k\x8c#\x88\x00T\x9e\xb8^n-\xc6\x92\xae\x964\x85\\\xa9\x90\xfa\x9d\xccM\xe9\x8e\xe3\xe4\x0cp\x82\x8fdE\xe0\xe3\x89(|\xddO\xe6\xc5 \x0e\xb6%\xc9\xbf\x16FQ\xa5\xbbHK#vwH\xa7\x88a\xa4\x0bA\x18J\xa6q\xa3C\x1b\xc8\x08`c\x10([os\x1d\xa4\x80\xd4\xbd9\x02\x0f\xd5\xc4\xab\x99I\x19\xce\'Q\x16*?Q\x80\x0b\x1a\xb1_\xd1\xfe\xbc^T\xba7$\xad\xb4\t\xefZ\x81"\xady\xd7q\xd2F\x11\x1c8\x9e\x1d_]Y\xc5)\x8e\xc3\xe5\x8a"\t|=\x1b:\xc5.5)\x91\xc7o\x1dg(\nA\xd6\xc9\xc0#BQ`\x196\xf3KBf\xf8\xa1\xfa\xf4\xce"v\x87\x82\xd2\xb3\x94\x9c\xd3f\xe2\xcb\x849\x11x:\x06\xb1\xe23\x80@&gt;w\x1a\x16s}^\xdc,\x8cP\xbe\xc9}.XD\xf9\x92\xe7\xe7\xe9f\xe1\x87\xf1C\x08\xf2\xe7\xf7\xf2\xd9W\xc0\x93\xa5\xccc[\x1a\x9f/\xf3t\xfd\x1e\xa0P\xc2\x0b+D\xe8\t*\xd2\x02D1\x02\xf0\xf1|0p\xf9\x1a\x90\xe6\xf3\xc1\xba\xec\xe7\xd1f\x11\xd2Rr\xcb]\x9a\x86{\xfd\xc1\x17\xa2\xbf\xe2\x86\xd5\xe5\xd1^\x81\x1c?D\x92:\x80\xb5o\xf5\x1d\x03\xb8\x06*\xc8\xe6\x82e\xd3\x14eT\x87\x84\xc4\xdb\xf9\xcc\xc6\x90\x90\x92\xa3|\xa8\x1a\xf6\xe3\x0b\x9c\x8e\x86\xf5o7\xdb\xf9\xeb\r\x0c\x93\xea\x04+an\xaf\x8a$(\xdc\xae\x1c\xdc\x8c\xd0\x19&gt;T\xd2\x9b\x84x\xc2O\xe1\xdbN\x94\xe1\xdaL\x1c\xe3\x04+f\xde!\t\xe2\x91\xac\xc2\xa1\xfc\x0b\xe5\x83\x15 \xc3G\x88c\xc3\xea\xb7\x9d\xcaX\xf1\x1b_\x88\xb8\xe8\x00+a\xa1\x9b&lt;\xbf\x89\xfa\x8e\xc9\n\xd2\xcf\xcb\xb1#m8\x8d\x9a\xf9R\x87s\xf5D)\x08\xe0\xe5\xbd\xecm\xd7\x8a\x8d8+P\xd8\xc1\x8a\xb7\xb3v\xf15\xaa\xcc/.?/L&amp;\xdb\x92\x9d\xbb\'\xb0p\xdbm\xbe^\x91\x9a\x15o\xf9\xac[\x82\xe1\x90U+\x01\xae\xd6,\x80\xf5\xbd\xc33\xb8\x0f\xa1C-\x0b\xc8f\xffr\x11w\x19Mx\xea\xd4X\xf0}\x7fI\x06kpld\xc8T+\xac\xcb\x8eY\x94 \x1c%\x8a\xce\xaa\xcf\x04^=\\R\xcb|(\x8f\x8bY\x16\x10\x13%=\x9b\x8dK4\xee\xf31\xf6\x03]6XN\x8a\x14ah7\x92t&amp;\xb1AQ*\xef\xcc\x94\xa1\xef\xc5\xdc$\x1b\x15\xdc\x81=\xd6\xaa\xa5A\xb5l\xf9\xa7\xbe Oaa\xc5;zQ\xc1\x81\xdc\xa2\xe0\xb9\x91\xb1\xac\x1b\xf9G\xdar\xb9\x9at\xdd2\x967Z\xff\xe5\xd2\r\x1f\xe1\xd4+\xa8\x97\xf1\x0cN\xbe\xbd\x08\xa1\x82|d\x1d\x19\x93\xc6\xa0\xb0V\xe0\x985\x15\x07J\xd86\xb2\xcfR\x0e\xb8\xadX\x8b#?\x11\x17\xf468\xde\xf0*\xae\xf7\n\x10u\x93e\xe8\x8akbx\x1d\x16\x8a\x97.\xf5\xbc\x967~\x1c+\x88\x8a.\xa5\xc1\x89&lt;\x0bn\xc0\x95\xbb\xa2\xc1/\x16/\xb9&lt;\x89\xfcr\xb4\xadS\x12\x16\xd5\x92\x0f}\x7f\xe9\x05PE\xbap[\x1d\x8eh\x17:+\x86od\xe8\xd8\xb9\x05\xdf\xd6\xe2\xe0\xe6\x0f\x91\xa6b&lt;\xf6\xc1\x9f.\xf9\xcc\xdd/\xd7\x03\x1c%\xbd\xa8\xb3\xadv\xb7\xecB\xc1\xb1 JDi\xa2\xda\xf9^\x99\x1d\xac\xc8\xc3\x04ps\x06\xc0G\xef`,\xf7\x83\x0f\xf19\x92\x99\x0b\x85\xddM[\x18.!\x07\xc9\xce\x9d8\xc6\xae\xef\xeca\t\xcf\x90\xaaww4\xf8\xfe\xfc\x9d\x0c\x0b\xaf\xf3\xc1Q\x8d\xf4X\xea\xe3\xec\x9f\xc4\xf0XH\xcaF\xbb\xa5\xad\x07\x0e\x90\xca\xe3\x92\x1d,?f\x0e\xa3\x04\xfb\xe0\xd5\xefh\x84\xf9\x13\x8c\xab\xa2\x0c\x9fT\xe9\xa9y\x9b\x96V"j\xefm\x08A\xd9\xca|\x14\xdc\xc6\x92\xa2\xf3\xb0\xd2\x19Q\xfaN\xecW&gt;zW\xdf\xcc\xb2\xec\x03l_\xe7\xb7\x12\x7f_9\xdf\xf5\x8a&lt;\x8dPv\x00.g*kQ\xaeXY\x95\x196\x0f\xeb\xff\xb3\xec\x04mysh\xb7\xa1\xa5\xab\x18\x18\x84\xf9\x81\xce\x00\xed\x9e4OGLCYz\x01\x934x\x16\xdbtI&lt;(u\xdb&amp;C\x9b\xabV\xe0\xb1(\xcfiff\xec\x1a4=\xc2\x0cT~Y/\x025s\xea\x11\xd3\xa0\xa1{\x16\x9bW\x83\xe6$\x8a@\xfde\xd3\xa06h\xb5i\xb3\x1dT0\xf47\x03\x1b\xaf"4&gt;\x82\x8bI\x02\x98\x8a\xbblA{\xf3\xe3\x11\x95\xf6\x84\xa4\x86\x90ns\xd3#m\xc9\xc5SZ`\x8d\xc0fp5\x9a\x01\x8cPVC\x9a\x9f\xa8\xc6\xa3\xc1nf\xb9g.(\xc0\xa6\xfb\xa1\x1e8\x12\x88\xbc)\xcfz!8&gt;k\x13\x80\x8dQ\x03\x06:\x00\x11f\xd0.N\xd0\xc2\x11\xcf%H\xad\xe7DO\xe4\xad-k+\xc0\xd3C\r\xc0\x08\xe4\xe6\xa4\x87\xab\x188\x0c\xd8\x81\x11\xd9\x08j\xdf;8#f|\xad\x9c\x11\xbb\xe6\xadZ\x1dA\x0b\xf3\xd2\x80\xddT35.\x06:\x01IA\xd0~\xd7\x14P\x8b\xd5;\x07\x9e\xc26\xc2YI\xe0\x95\xf4\xb6\x95\xc0\x0c\xc9\xae\xc2\xc3@7\xc0\xa6\xc9\n\xec1\xcc\x00/\xeb\xa9wC\x9d\xb9\xb7,\xf3\x02\xef\xd3\x08N\x02E\xa02\x03]\x81\x1c\xe8\xa0\xb7\xd2\x14\xb0\x03\x8a\x9a\x10y\xd2\xfe,dgg\xdd"\xa0\x18\xab\x00/\x03\x9d\x01\x9f\x04\xa8\xc4Ze\x0b&gt;\xe1\xad\x1eVKfyAvQ\xf7\xe4\x81z\xdar\x03p\xd2"\x87\x9c\x12h\x9f\xc1"Hs&amp;\xa8=\xc1\xcc\xbei\x05d]T\nhh\x90]\x96\x89a@\x00\xa7\x1e+\xa8\xda\xf3\xea\x86lJ\x8eI\x86\xcc\xc5\xf44\x80\x16\x19\x08\xc91\x0c\x180\x12\x03mn\xefLw4\x87\xcf\x0f\xa5\x1d\x01\xf5B\xc4Ex\x18\x06\x10p(\x83v\xf4[\xba\xae\x80n\x92\xaa\x03\x9fu@\xe3\x8a\x99\xa8\x19Qp\x123\xcbt\x0b2\xf5,\xde\x08\xda\x9e\xc4\xae-\xc9\xc10\xf0\x80KK\x0c\xdc^\x98\x07\xee\xe23\x9a\xe8\x0e\x06GA\xa2R\rr\xae\'\xbb\xa0\x88\x02\xc3`\x02\xbc\xea\xfc\xac\xccj\xba\x0c\x83\x0e\xf02Q\xf1\x9cZ\x00\xfbYY\xa9\xbd\x06{\xe2\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x7fiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:a0d9265b-4187-4a6b-9151-1f10fd34fbe3" xmpMM:DocumentID="xmp.did:BCF945B94E8B11ECA1E2D2E0FF129DAD" xmpMM:InstanceID="xmp.iid:BCF945B84E8B11ECA1E2D2E0FF129DAD" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:bc251e7e-d1d8-574a-a1f5-f83a3cdfabb8" stRef:documentID="adobe:docid:photoshop:2131a76d-1d34-0741-acf8-d45ac224463e"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;\xe2\x82,,\x00\x00\x02\xf4PLTEGpL\x8cZUzs\x85*d\xa5{DW0a\x9fB\\\x8eFZ\x8c\x1aU\x9c4d\xa0\xb7\x89H&gt;Z\x93\xb8\x88H]St`QrEW\x8dcRr\xb9\x8aF\xbb\x8eE~E\\\xb8\x89HFW\x8dgDqkEmKO\x8a\xb8\x8bH\xba\x8dF\xb7\x89I\xba\x8cF\xb9\x8bG\xbc\x90Da(\x87gf\x83,d\xa4\xb7\x89Hv=f7_\x9eSR\x7fb\x82\xa2Lf\x98(`\xa1-a\xa2\xb8\x8aH\xb8\x8aH\xba\x8cF\xb6\x86JmXc\x18S\x9bQ\xa4\xc8h\x9b\xc4\\\x80\xac;u\xaa7_\x98Tx\xa6Fe\x84\xb0\x84P\xbc\x92D\xb8\x89H\x19U\x9c^(y\\]\x87I\x9a\xbc.n\x99+b\xa3\xff\xff\xff\xd1-\x11\xf6\xfb\xfb\xfc\xff\xfe\xb8\x89H\xfc\xff\xff\xf9\xfd\xfc$]\xa1\xfb\xfd\xfd\xb4\xc8\xde\xcb\x0b\x00-d\xa4\xd1,\x10\x16R\x9a\x0bJ\x95\x14Q\x9a&gt;q\xad\x07H\x94\xc7\xd6\xe5\xf8\xfb\xfb#`\xa4\xf7\xfd\xfe\x16S\x9b\x1aU\x9b\xfa\xff\xff\xfe\xff\xfe\x02A\x8f\x1dW\x9d\x1cV\x9b"_\xa4\xf3\xf7\xf7\xb1\xc7\xde9m\xa9\xd1.\x12\x1aV\x9d\xeb\xf2\xf5\xda\xe4\xed\xfb\xff\xff\xfe\xff\xff\tI\x95\x04F\x93(_\xa1\x11O\x98As\xae\x04D\x92\xf6\xfa\xfa"\\\xa0\x01B\x90{\x9d\xc5"Z\x9d Z\x9f\x1fV\x99x\x9b\xc4\xcb\r\x00)a\xa3*^\x9e+`\x9f\xd7\xe2\xec\xb0\xc6\xde\x10M\x96\nM\x99\x13P\x99\xb9\xcc\xe0\xcd\xdb\xe8\nG\x91\xf0\xf4\xf6\rK\x96\xe2\xea\xf1\xd2\xdf\xec\x1fY\x9d\x16T\x9dDv\xb0My\xad#_\xa4\x18R\x97\xd20\x12\xdf\xe8\xef\xbd\xcf\xe1~\xa0\xc7f\x8d\xbb\xcb\x06\x00&amp;\\\x9c\x00&gt;\x8e\xe5\xec\xf2\xf1\xf6\xf7\xed\xf3\xf6\xd0\xde\xe9\x97\xb1\xcfS\x7f\xb3\x1ch\xb2\rP\x9b\xd4\xe1\xed\xeb\xf0\xf3\xd2*\x0c\xde\x8ay\xac\xc2\xda\xca\xd8\xe6\xc8\x03\x00&amp;d\xa8\x1bk\xb4\xcf\x19\x01q\x95\xc0\xca\x1e\x05\xdawd\x82\xa3\xc9\x16`\xaa=o\xaaL{\xb21g\xa6\xb7\x87H\x0eV\xa5\x94\xb0\xce\xcc\r\x00\xa0\xb8\xd2\xdc\xe6\xefv\x98\xc0\x9b\xb5\xd2h\x8f\xbc\xc2\xd3\xe4\xdf\x87v\xe0\x8d}\x88\xa7\xca\xee\xe5\xe0b\x8a\xb9\xf4\xf8\xf8\xa2\xbb\xd5\x008\x8b\xc0\xd1\xe15j\xa8\x17c\xaf\x19h\xb6\xa6\xbd\xd5\xe7\xee\xf4l\x92\xbe3f\xa2\x8d\xab\xcd\x1cc\xaaHv\xae\xe0\x90\x81\x16P\x96\x17e\xb4\xd3Y@\xdc}k\x1ar\xaf\xe0\xa7\x98\xdazh[\x83\xb3\x12Z\xa4X\x81\xb2\xdf\xa2\x93T~\xb0\x000\x86\xc6\x05\x00(f\xaa!j\xb1X\x84\xb7\xde\x97\x86\xb7\xc9\xdd\x00&lt;\x8d_\x88\xb7t\x99\xc3\x1cj\xb8\xef\xec\xe8\xd7|i\xd0\x16\x00\xc8&amp;\x0c2v\xb7\xd3\'\n\xd2bH\'m\xa4!n\xaa\xef\xe7\xe3\xe4\xc1\xb5\xfa\xfc\xfb\xdf\xad\x9f\xd1V=\xd2]D\xde\xb3\xa3\xc2\x0f\x000`\xa7\xd0jP\xd4n`\x00$\x7f\xd8\x87r\xd2V=\xd7\x8f{\xe9\xdc\xd3\x00\x1by{Z\xdb?\x00\x00\x00?tRNS\x00\x07\x15\xfb\x17\xef\xc4P\xf2\xee\x9e\xc7\xd3id\xbbY=\x0e\x0e\xaf\xb0OA\xa3\xe6\x1b\xb8_u+bf\xf5\x95,\xe5\x89j\xc2\xf4\xf3U\x84\xf8\xf49\xf2e?\x98\xeb\xdd\xbd\xb3\x7f\x87\xee\xf2\x94\x9b\xc6\xf2\nByr\x00\x00\x0e)IDATx\xda\xec\x99mlS\xd7\x19\xc7\x011\xb6\xd1\xd0\t\x94/@a[?t[\xbbj\x1f\xf7"M&gt;\xb3\xc3\xbdv\xbd{\xcd\x8d\x99/\xc9M\x17\xe3\x98\xd8\xbe~K\xbc\xd4\xc51v\xc0\x8e\x81\x81\x9d\x14\xbf%\xd4L\xce\xc2\xa2\xa5\x8eQ\x967k\x16\x89\xb1H\xd2\x90eb\xea:5\x94\x88\x10\xed\xa5\xdb$\x98\xb4\x97\xb6\xd2\xf6e\xcf\xb9v^H)\xd8. \x7f\xc8_\x96\xef\xb1}|\xfd\xf3\xf3\x7f\xces\xce=w\xd3\xa6\rmhU{^*K\xac\x17\xabv\x95#\xd6\xf3U\xcf\x95#\xd6\xee\xaa\xbdeH\xb5\xb3\xaa\xaa\x1c]|\x1e\xb0^,C\x0f/WUU\x96\x0f\xces\x95\xdb++\xf7\xee\xad\xa8\xc2\xda.\xa8rg\x19\xe4\xd47/W\xadS\xc5\xfe\xb2\xc8\xaau\\\xfb\xca\xc5\xc7\xaa5`\x15;\xcb&amp;\xbf\xf6\xef^\xe1\xaa\xdc\\F\xc3p\xd7\xcby\xaa\xf2\xaa\xa8{\x96\xf3\xbe\xa2\xac\xb0\xbe\x8d\x91.c\xb4\x9d\xe5\x84U\x01D\x15/\xe1\xcc\xdf^N\x1e\x02\xd0\xf6\xcd\x9b\xf6\x03\xddw\xcb\x08k\xdf\xe5\xfc\xa2\xe6;\x97\xcb\xc8\xc5\xcdU\xbb\x97\xeb\xfa\xce\x97\xcb\'\xe9w\xed[]\xd1\xec\xd9W\x96k\xd4\rmhC\x1b\xda\xd0\x8a&gt;\xffTU0\x96\xa8\xf7\xd0\xab\x05\xe8\xa7kth\xa5q\xe8\x90\xf0T\xa8z{\x0b\xc6\xfaF\xaf\x9d=\xc5\xb2\xec\xa9uR}\xba\x14 \x95\x8a\xfa\x84\x14\x0f\x97K%\xfaj\xc1X\x9f;\xd5\xed\xaeo}\x90\xea\xeb\xe1\xf10\xc9\x8a\x93\xbbU\xfd\x85\xc2\xb1\x8ew\xa2\xa7\xa5\xc4\xb7\n\xc7z\xf3\nB\xca\xf5\x12?\x01\xa1\x86b\xa2\x05X5\xe2\xa7\xa1\xe2\xb1\xcc\x92\xe58\x0b\xdf\xc7\x92\xac\xb4@\x84\xd8\xbc\xc6\x0b\xa5\x99\xc0\x07)t\x10Z\x12\xf3\xda\xbeh\xb5\x85{\x08]\x91\xb9X\xac/b,iC\xaa\xba\xa7\xa7-\x1a\r\x11\x04\x81\xa4\xd5\xb7\x03ZLH\x84b\x8eXL\xeb\x85S\x13\xde\xb6\x9c\xa21\xed\xb8\xf4G\xb1\x9e6/\xc0\x8a\xa5\xe6hu4\x0c\rB&lt;\x1c\x15\x14\x8b\x10\xdah\xbb ?\xa1\x14+\xd1\x94c\xd8?N\x14\x8du\x1c\xb0P\xcc\xe6\xf4A\x95\xb0\x1a\xa5\x08]MP:\x0fy\xc7\x8b\xa4\xa8Og -\x86db\x06\xa1\xe9 \xe7\xf3\xf9l6\x1b\xdd-E~\x03\xef\xe3\'\x01\x1c\x85\xec&amp;\xb6\r7j\xbay\xb2\x99\xab\xab[\xec@o\xeb8\x8e\xb3Y\xb8:\x19D\xae\x8d4\xc8\xa98*\rK+R\x90\xacJ\xe3\x19\x90\xa2\x94S\xc7\xdb4N\xab\xc8\x0b,\xb5\x16\rm\xa2]\x99.\xb40\xcf\xb8H\x92\xe4\xe9\xf9Y\x84&amp;M6\x8bu\x00r\x12i\x9b=l\x8f\x80uFO\xb2\xbcBc\xea\x0f\xb3V\xa7\xd3\xe3"m\xd6Q\xf8g\xfd\x8b\x1c\x17\xec\xc3~\x96\x80\xe5\x90S\xb6\x89\xf6\xf6\xe1\x86F\xe9iF5\xd0^\x9d\xc5\xe7B#t\xddAw\xdc\xc8y\x0eJ\x1d2Y\xa7\xcf\xc0M\xc7\'\xae\x02\xae\x8e\xb4\xd8\xc8a\x08\x86\xd6\xa0\xf2U\xe7\xa2\xe5\xa2\xee\x04\xdab\xc3\'#nw\xc0\x1dHs6\xaa\x07\xa1\xc6\x01\x97\x85T\x19\tT4V\'6QN\xb1\xc3Br\xc6l*\xae\x1d\xa1Q\xc6\x95 \x00K\x07\xe5\xa3\x8d\xe3\xb3\x11\xf8\xa8\xdeeS\xa4\x84\x04N\xf0\xea\x84E7\x91\xc3\xe2Ry,}Wn|\x08\xcfi\xa7\xbe\x1bI\xc0n6\x99\xf4q\xd1R\xb0$(&amp;\xa2X\x80\x01@7\xc5\'`\xd8]\xa5T\xf2\x10Z\xa2uPl\xefe\xe9d\x03R\xa2V\xca\xc7\xba\x91R\x8c\xaaU\x9e\xbeQ\x053\x06\x1ei\r\xacf\x19\xcb4)\x0c?a\xd4\xa5&lt;\x1a\x0f\xbc\x8f\xe2N\xddL\xbf\x87\x1e-\x15K\xe5\x0b\x8c\x87a8\xc7y~\x16\xfeo[\xb3\xca&gt;\x8cZhz\x01\xa1\xdb,\x93\x14\xc3O\xc8(_\x9d\x1b\x9f\x7fP\xcf\xc4\xcd\x1c\xaf\x1eG\x18\x8b\r\xe4\xb1\xe8\x99\xc8TCd\x1cW\x93\x1a\xa3\xd3\x04\t%E-z\xa7\xbf\x8df\xe07J\xc2\xb2s\xa2\xac:A\x0e\xa2I\'?\x00U\xac\xdd@\x19\xb4\x80\xc5\xa9\xddCr\xd69\n\xd5@\xc0\x02\x04\t\xbac\xd2h\x91\xd1I\xa5rX\xee&lt;\x96H\x94\xcc&amp;\x930\x00\x084hr\xd9#\xc8\x8c\x88\xd3\xfa$\n\x93\xcel\x18\x95\x86e\x93\xeb\x17\x17\xff\xb7\x80&amp;&lt;\x02\x96\xc3\xa0\x10\xb0\x92\xa4\xc9\xc4\xf1-\xb8d.c\xa1)\x113+\x81\xe2\xc1\xa41\x96F%\xcbc%\x15\xc1`f\x1e\xf7\xf0r\x94\xbe\x1e\xdb\x1d\xe5\x98n\x84\x06&lt;\xae\xab%a\xb5\x1b4\x86\x8e\xd1\xc1\xb4\x0cc\xcdJ1\x16e\xd7\xa2&amp;\xda.\xcfZT\x16\xb5\x1bG\xab^a\x13\xb0\xe2\xb4\t\x80\xdc\x8c\xa7[\xc0\xa2Z1\x00`q\xdd3\x83\x83]^)\x84\x93a\xae\x085a\x941A\xcdK\xeb\xe1YY\x12\x16e\x9b\x12F\xd0\xa4\xc7u\x1aR&gt;\xdaL\x89\xfc\x80\xe5\x19\x0b\xc7\x06X}R\t8\xad\n\x1b\x18F@\xbe\xb0c\x81\xabi\x8e3x\x05\xacx\x0e\x8bg&amp;\xf2\x93\x8f\xcc\xa4hn\x80\x10J\xd1\x18\xa3hjKu*\x9c\xdd0\x9aJ\xc0")K\xbbP\x8a\xdd&lt;\x95\x80jP]\xa7\xc86\xa0\x0eZ\xbf\x84P\x80\xd7\x085\xaa\xd5\x85\xb1\x90d\x96\x92S\x1e\'o\x17y\xe2\x10\xd5U,\x9c\x81J\xc8\xf7\xb0\xdce\xc2\xc9(F\'\xb3\x1a\x91\x86r\xb2r\x1b\t\xc5\xb98\xac\xb1\x1c\x16\x99\xc3r4+\xec\x107\x99\x0e{\xd9A3PT\xfd"\x15\x07\x89\x8c\xeb\x16\xc6\x8arP\xed5*\x9bE\xce\xb4\xe0h\xf1n\x1c\xa3\x9a\xf7xz(7C\xf7\xd7\xba\x16r\xad\x80\xc7Nr\n\x05e\x91\xeb\xe2\xa5b9\x04,\xe9\xac\xc7\x05\xe9p\x857\x8d\xa1&lt;\xd6T\x96\xa2p\xca\xca\\6\x15 t1\xae\xee\xf6\xb6j\xc7\x0c\xaf0\xa2\x90\x81\xe3\xfaS\xa9\xea\x08\xeav9;"S\xa1\x08\x9a2P\xd4P\x18J\x85\x19-1\xfc\x95\xf6\xeaT`\x80\xd2\xb7\x94\x82\x15\x03,-\xc6R\xa2\xa1 \xd7\xdc\xb9\xe0c\xad\x01\xf8\xdf43\x82PD\xad\xe0\xf1\xac+\xe3m\x14`u\xeap\x1a#\xd4\xe3\xb1\xb1\xa1q\x83M\xee\xa3X\xa7:\xd4\xe92\xc8\xb3\xf2$9\xea\xe6\x85FVm\xec0j\x988\xee:hU\x18\xef\x95\x12-}F/DK,i\xbc\x12\xb4f2Vz\x06\xde\xee\x9b\x9f\x87*?Nf\xe6G1V\xc6\x9a\x91\xa1\x8bg\xe7O\x08sIH\x95\x99\x8f\xdf\xa3\xad4\xa37e\xac\xb1\xdfg&lt;\xa6`0\xf8\xd1\xc2DFG\x9bjk\xa1X\xd4\xd2A\xa7\x1fw\x8d9\x17\x17S\xc5cI\xa6\xfa[\xd2S\xd2\xdc"\x12M\xf4u\x8e\xb5@X\xc4\x12\xf7\xf4t\\"UN\xf4O\x07$b\x89\xbfc\xa9\xc9/\xf1\xb6\x8c\xc4\xf1\xe0\x97\xa2\xf8t_{\xb8\xa9\xa5\xbf\xbf?\xdd?35\xd4\xd7\x01\x8dt\x93\xdb\x01\xc7\x0eAM\x1dK\x13\xb8+\x81\xdcMK\xd1\xe2\xb1\xc4\x92\xe5\xc9L\xbc\xb2\x0e\xc5/\xf3\xeb\xd55\x07$t%\xe03\xb3\xf2\xbe\xa5\xa8\xf4S.+\x84\xae\xb9\xd9\xbb\xa8E\xb3\x80%&amp;\x885\x97\x15\x84TJ\x08\r%,VW\x0f\xe2\xdca\xa5\xab\x12\xbf$\x04\xc1E\t\xb1\xd2R\x12\xabZ&gt;+t-\x05\xab\xec.1\x8eO?\xad\xcb\xc4q\xf5\xf7\x8a\xc0\xea+\xf2\xec\x8dP;\x97%y\x88\xa4k\x85/]\xc2\xc5\\\xbe\xbe\xaa^\x18\xc8i\xf6\xf4\x03d\xfc\x84\x0e\xc2\xa3\x10%@\x07\x13+/\x8d\xc6\xd9\xe4\xd7\x0b\xc7\x92\x1b\x9c\'&lt;\xce\xb9\xb9\xb3\xa0\x9f\x08\xf2\xf9\x9a}\xcd\xa0\xf3y\xbd\xbe^\xc7\x1e \xfc\xb6\xf0\xe1\xf9\xd7\x97\xbf\xd7\x9c\x13\x9c\xb1\x8ee\xcf\xce9\x9b\x8b\xd8\x1a\xb1\xdb\x8e\xa5\xb4\x0e\xad\xdf\xef\xf5zC\xa1\xa9\x8b\x82\x1a\x1a\x1a"\x91\xc8\xc9e\x85\xc3\xe1\x1f?R\xd0)\xbc\xf2\x8d\x93\x11\xac\x86\xdc\xd9B!\xaf\xd7\xef\xf7_L\xf3\x85Gk\xdbu]\x97\xb0\x88\x7f\xf2RS\x85\xefom\xf9\xe0\xd4\t|\xfdi.\xe6\x07\xf0\xa6\xc5\xe1\x03G\xd7\xe80h\xf9\xb8NG\x0f4\x1e6\xc3\xa4\xd0i\xbd\xf5L\xe1\xbb\x94/\xbc\xcf$j`\xa1\x94\x1e\xebh\x12\xd4\xb2NM\xf7\t\xcf)#\xc30/\xdc\xfd\xf0F^\xef\xe4\xf5\xcbuz\xe7OX7&gt;\xfe\xf8\xc3\xbb\x12%\x92Y\xaf\xf7n-b\xf7\xf4k\x17\x82i\x98;f&gt;bh\x9d\x8e~\xb0tke\xca\xc02\xa7\xf1\xc6\xcdW\xee\xd7k9\xfdj\xad\xf0\xcb\xd7~\xfe\xaf\xff\x1e@\'\r\xaeK\xcf\x16\xb3\xa9\xbb\xf5\xfdw\x9d\x0e\xe0\xbac\x92\x8b\n\x12Y\x07\x8b\xc2\x03\xbfy\xe5\x87?(DG\xfez\xf3.,F\xa6k/m+n\xb3y\xc7%\xdd,|\xf1b\x9dJ\xfe\x04\xb0\xce\xbd\xf1\x9f\xa3\x12t\xdbT\x9c\x85X\xcf\\\xa8\x1d\x84pM\xd6\xda\x1f?\xd6\xb9?\xff\xe5\x8f\x8d(|\xec\xcdk;\x8a\xdd\x9b\xdf\xda\x8bm\x94\xa0?\xe8\x0b\n\x17\xc9V\x17\x8c\x05\x16\xfeS\xb0\xf0\xda\xb6MEk\xc75\xe6\x0c\xde\xc78\xab\x91?f\xac\x9c\x85\x01\xfd[\xe7\xb7\x16\x8f\xb5i\xdbok\xbb\xc0\xc6Q\xab\xfd\xf1b\x1d\x11,\x1c\x97{n}\xa5\x94[,`\xe3\x9c\x16\xe2u\x86\x91?N\xac\xbc\x85}A\xf2\xfb\xa5\xdd\xfa\xd9qA\xb0q\xb8\x10\x1b\x0b\xc7:\xf7\xc6\xdf\x0e\x1f@\x81\x13o\xfd{K\x89\xb7\xa4`4\xe2=\xc5\xae\xdaB\xa3\xf5\xebGc\xe5,4\xcb\xf9[\xcf\x96H\x85m&lt;[\xa0\x8d\x85b\x1d\xf9\xd9\xcd\x7f\xa0\xa3h\xc4t\xfdK\xa5\xdf\xc1\xdbq\x89y\x0f\xb0\xb4s\x8f\xb4\xb1P,l\xe1Q\xb0P\xf3\xc1\x96\xd2\xb1\xb0\x8dC\xd8F\xebc\x8a\xd6\x91_\x08\x16\xbe\xed\xb1\xbf\xf0Ynxn\xfd\xfb\xbbg\xfd\xb0R\x7f\xa4\x8d\x85a\t\x16J\xd0\x88\xf5\xb3X\x88\xf5\xe5\xdf\x81\x8d5\xc81\xc7\xfd\xbf}s{\x89*\x88\xe3\xf8\xa4\xb6\x10\xd2\xee\x92\xac\xfaV\x91Q\xbdD\xf7\x97\xa2\x86b)\xb2\x9b\x85\x10kDVn\x16\xdb\x8aJ\xa5$u\xca\x12K#[#\xdb\xa5\xab[\xc1B\x14\x89t\x0f;+\xd9V\xc6\x86]()\xc2\xe8\xa1\xcbCQ/\xf5\xd6\xcc\xfc\xce\xde\xcfE\xf0\xdc\x1e\xfa\xfd\x05\x1f\xce\x87\xefo~3g\xa6X\x05\xac\x96\xb6\x9fDa\x0f\xd7\xb4)kdX(7\xca4^WX\x1b\x87\x85U~\xe9\xcaw\'\xbe\xdf\xb7\xea\xf7\x8c\x91\xfe\xb7&amp;\x1ak[\xc9\xf7j\xdeV,\xbfT\xaf\xc5\xa5\nX\xe5g/\xbe\xa0\n]\xfc\x94\x91\xffO\x1f\x1f\xad\x1cF\x1a\x87\x83\x15S\x18\xea\xccS\xe1?\xbf\xa0\xb1Cvm\x1c\x06\x16UH\xd6\xc2\xbe\x1dA\xbb\x1a\xd7\x0fr\xde]\xabm\xa4\x1a\xe5\xd2\x08X\xe7d\xb0\xa8B7i\xa4\xae\xb0\r\xa9Rc\x87*_\x11\x8d\xb2iT\xc6ji{N\x14\xde\xe4B\xd9y\xea`!K\x18\xd2(\xa3Q\x11\x8b(\xbcKS\xd80dW\x89J\xd0\xe8\x96K\xa3\x12VL\xa1/8O\xbd\xdb-VA\xa3\xf4\x88\xa3\x84\x05\n{\xb8\x88j\nY\x1a\xfb]\x0fd\x9b\xaa\x02\x16(\\\xd7\xd7\x10\x1d\xaf\xe6e\xa0\x9cN\x854\xcac1\x85N\xb2\x16\x06mH\xd5\x1a\xdb_9 \xa7Q\x1e+\xa60\xa4\xaaB\xa6\x91\x174\xca}\xad[\xe2Xq\x85~\xbb\xcaT(K\xd0\xf8D\\\xa3\x1c\x16SH\xd7B\xbfC\xfd\xbbf\x13\xfa\xe5\xd2(\x87\x95P\xa8\xc5\x83\x08\x0b\xef\xea\x95\xd4(\x83\x15k\xa4\x01\xf5\x15\xc2a\\\x80h\x94\xd8pHc\x11\x85\xaf!\x85\x0e\xa4IM\x18\xf4P\x8d[\xc54Jci\x97\xc2\xf8a\\\xbf\xe4\x88#\x89\x05\x13\xe9F\xa20_\xab\x1b\x96tml\x17o\xaaRX\xb1F\xeaRs-\x14\x19q$\x9a\xaa\x14V\\\xe1D-\x9f%Y`m\xec\xc8X\x1b%\xb0h\n\xe9D\x1a\x88\xe6kH%=\xa9.-\x13\xc3b\x9b\n\xa6\xd0\x814-k\x98i\xccH\xa38\x16(&lt;\xc6\x85\xa6i\xfd\xb2\xcc\xc2W1\x8d\x9e\xdd\xcaX\xa0P\xd3\x14\xc65\x92\xa6\xda\x9e\xd9T\xc5\xb0\x84\x14^\xae\xd2Z!\xfb\xc3\xd1)\xa6\xd1[\x969\xd8\xe8\xa7PHcoFS\xf5\x96]H\xc7\x82\xb5\xf0\xa4\x1e\n\x13M5M\xa3\xf7p:\x96\x90\xc2\xcb\xaep!\xd2\xa5\xacC\x99\x1a\x05\xac]+\x92\x14\xfeX\xef\xc4\xfb\xb8\xd0B\xbd\xdew\xe6\x82\xc6\xe4}c\x06\x16\xa4\x90*,\xd0\x89\x8am8\xd24f`\x91q\x86*\xf4D\x0b\x91nE\x9aj\xda\x88\xe3\xadN\xc5\xa2)t\xe2\x0f\\h\xb4\x9eOt\x85I5\xb16z\xab\xf7\'c\x81\xc2\x03u:*\x8cm8R4\x02\xd6m\x01\xab\x1c\x14&gt;\xf2\x84\x0b\x91\xaee\xf5\xb34\xc6\xffp\xa4b%\x14"\x9d\x8b\xac\x8d\xc9\x1b\x8e\x14,\x83\x142\x8d\xd9)\x1aS\xb0`S\xa1\xbfB\xb6\xe1\x10F\x1c8\x8c\x03\xac\xa7\x0c\x0b\x1a\xe9\x07\x8e\x1f\x83\x0c(K\xf2\x86#\t\x0b\x14\x9e\xa9\x0b\x0c\x16\x18\x81\x95\xf35iR\xf5V\x9f\x8aa\x81\xc2\xe3\xba6\xd2\x94\xa3\xf1 \x1c\x8d\xaf$i\xac\xf1R\xac\xf7\x04\xab\xa5\xed\x0fQx\xde\x80\x14\xc6\xca&amp;\x1c\x8d\x934\xd6,=\x04X0\xce\x9c\xd9\x13\x88\x14\x18\x85\x95C\xd2\xd8\ni\xac\xa17g\tV\\!\xbf\x00\x19V\xf6 [\x1b\xbbVn\xf6\nX\xd0H\xcfsM\xb3\x91\x81e\x834vW\x1d\xde\x0eX\x9f!\x85\rWg\x1a\x89\x95\'h&lt;\xed[\xb4\x95`\xbd^N6\x15n|\xcf\x13\x99\x85\x0c-\xeb Kc\xe3\xde\xd5]\x14\xeb\xed\x97\n\'\xee\xe5BE\xc8\xe0\x9a\xcb\xfbX\x1a}\xe4k\xb9\xcf\xfd\xfa\xe4\xc4\xed\'\x9a\xbeM7\x1a+k\r\xd5\xb8\x0c\xdf\xa3O\x1f\xfe\xbe\'\xe3\xcc\xc7\x92\xc8|dx\xd9\xa1\xa9n\xe9Z\xb2\xb8\xf4ni\x05QX6\x1b\x99\xa0H\x1a\xbb\xf1:\xb8\x1b\xb8\x1e7\x9e\xd8\xfbp\xa6\x19\xb0\xc6e_;\xda\x8a\xe1\x8e\xb2\x1b\x0f\x94\x18\x9d\xc2\x84\xc6\x92f\xec\xde\xc9\xdeC\xde\xe0\xf8"d\x92\xb2\xf9}\x1d\x98\xbd\x82\xec\xaam\x1a\x9cn\x16\xac\xbc\xec\x97\xcfH\x93\xdf\x89\xf1\x9b\x92\xe0dd\x9a\xb2\xfb\xb7=\xa1\xaf\xfd:L\xa4\x90\x96#\xecz\x8cq}\xed\xcbo\x93\xcc\x845jbhU=n&gt;h&amp;\x85\xb4\xf2\xfd\x81Ww\x9e\xf1s\x90\xc9\xca\x11\xddp\xb4\xd3\\\n\x99\xc6\xa9\x91\xdd\xe1\xc9\xc8t\x95\x1f1\x9fB6\xe2\x1c\x99dF\xac\xac\x19\xe8\x7f\x19R\xff\x00\x8b?\x90zj\x1c\xdb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67005787037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -726,20 +726,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTEGpL-***)*CCC#\x1f *\'(\'#$644DDD#\x1f $\x1f #\x1f %"##\x1f \xff\xed\xb54.1&amp;""(&amp;&amp;(%&amp;$!"%!"$\x1f!%##$ !#\x1f \xf5\xdbX\xfb\xd3\x0b\xf4\xdaC:::)%&amp;***# !\'$$%!"#\x1f "\x1f $ !$ !/,/&amp;#$&amp;$%&amp;#$#\x1f!&amp;"$$!"$!!%!!#\x1f %!#$ !$!"\xef\xda\x80\xf1\xdcP\xfa\xd4\x0f\xfc\xd2\x05\xf7\xd5#\xf9\xd5\x17\xf9\xd5\x1b...\xfb\xd4\x08&amp;"$\'$$\'$%$ !%!"\'#$&amp;$&amp;%!"%!"$ !#\x1f \xf8\xda3*\'\'\xf8\xd5!\xef\xdbc\xf8\xd7&amp;%!#\xfb\xd3\x0c\xfb\xd5\x17+&amp;)\xf3\xd7;$  %!"% !&amp;#$\xf1\xd8K\xf9\xd6\x1d\xf5\xda5\xfa\xd5\x16\xf8\xd5\x1f\xfa\xd4\x14\xfb\xd4\x13\xfb\xd5\x12\xf8\xd6\x1f&amp;"#\xfa\xd4\x13\xff\xdf\x7f\xed\xdb\x7f(((\xf5\xd70*%*\xf8\xd4\x1f&amp;"$$ !\xfa\xd4\x0e\xfb\xd4\x10\xfa\xd4\r\xfa\xd6"\xf9\xd5\x14\xfa\xd4\x18\xf9\xd8+\xf4\xd85\xf5\xd71\xfa\xd5\x12\xff\xff\xb4\xf7\xd6!\xf6\xd88\xfa\xd4\x12777,,,#\x1f \xff\xff\xff\xff\xd3\x00"\x1f \xf3\xf2\xf3\xfe\xfd\xfe\xd4\xd4\xd4\xff\xfe\xffLHJA=&gt;\xaa\xa9\xa9\x9f\x9e\x9e\xb2\xb1\xb1\xbd\xbd\xbd956.)+\xfe\xff\xff\xfa\xf9\xfa&amp;"#\xff\xd3\x01\xb0\xae\xafGCD$ !\xfc\xfc\xfc\xa3\xa1\xa2402\xe9\xe9\xe9;68`]^\xcd\xcd\xcd\xf5\xf5\xf5QNO\x99\x98\x98$ "($%/+,\xed\xed\xedecc\xf6\xf6\xf61-/\xf8\xf8\xf8VST\x91\x90\x90\xe1\xe0\xe1\xfb\xfb\xfbb``\\YZ\xb1\xb0\xb0DAB+()\xa5\xa4\xa4MJKrop\xd9\xd9\xd9\xbc\xbb\xbc\x8f\x8d\x8ePMN634&gt;;&lt;;89\xfe\xd3\x02\xd2\xd1\xd1\x8c\x8a\x8b\xb4\xb3\xb3\xc1\xc0\xc0\xf2\xf1\xf2\x80~~GDEKGI\xde\xdd\xdd\xef\xef\xefwuvolm=9:\x89\x87\x87TQQ\xd6\xd5\xd5\xac\xab\xac\xc7\xc6\xc6\x83\x81\x81}{|{yy\xe7\xe6\xe6\xb8\xb7\xb8\xd0\xd0\xd0\xe3\xe2\xe3\xdf\xdf\xdf\xeb\xeb\xeb\xba\xb9\xba\xb6\xb5\xb6\xfe\xd3\x01\xfd\xd3\x02\xc3\xc2\xc2\x9c\x9b\x9b*&amp;\'\x94\x93\x93\xcc\xcc\xccIFGjgh\xa7\xa5\xa6967\xd8\xd7\xd7\xc8\xc8\xc8\x96\x94\x95845ywxgefA&gt;?\xfd\xd3\x05\x87\x84\x85\xa8\xa7\xa7^[\\\xdb\xdb\xdb\xc0\xbf\xbfYVW\xe4\xe3\xe3\xf0\xf0\xf0\xcf\xce\xce\xd6\xd6\xd6lij\x85\x83\x84trr\xe5\xe5\xe5\xaf\xad\xaeurs\x89\x88\x88\xd4\xd3\xd3\xca\xca\xca\x9e\x9c\x9d\xc4\xc4\xc4\xec\xec\xec\xfb\xd3\n\xfe\xd3\x05\xfb\xfa\xfa\xfe\xfe\xff\xf2\xf3\xf2R\xa7*n\x00\x00\x00xtRNS\x00\x13\x1d\x01\xed*a\x08\x03\xfe\xe9\xf1\x86\xfc\x01\x0eo39z\x95\xdal\xbb\xf6\x1c\xf21\x05.\x17\xcfA}\xe5\xf9\xd6\xc4\x0csIR\xdfg\xc0\xa4\x9f\xf4\x81\xb5\x9c\x0c&amp;\xe4\xfei\xbf\x8e\x16\xfbWND\xb1\x92O=\x8a\xaa\x8e\xe2J#s\x10\x82i\xfd\xc7%9\xd1\xac\xccZ7\xa9B\xab\x93\xd3\xd7\xd9\x9c\\\xf1\x08\x07&amp;]"\xa3w\xc7\xe8\xe9\xf5~\xb1\xbacHN\xde\x11\x83;\xa2\x17(0hK\x12\x00\x00\x0b\xe3IDATx\xda\xec\x9bw\\TG\x1e\xc0\x17\x04\x0b\x82\r\xbb&amp;\x16\xec-j\xd4h\xd4h\x12\x13\x8d\x9e\xc6\xe4L\xafw\xf9$\xb9\xde\xcb\xfcX\x87UD\xdc]\x94\xa5\x08H\xef\xbd)H\x17\x10EP\x8a\xa0b\xec\xd8{\x89F\xe3\xdd\xe5Z~\xf3\x16\x96}KQ\xe7=\xe0}\xee\xf2\xfbcx\xef\xed\xce\xbc/3\xbf\xf9\x95\x99Y\x95\xea\x7f]z=\xabH\xac\xdf\xbe\xa6H\xac_\xfd\xbe\x97\x02\xa9f\xcd9\xf2;\x05b\xcd;\xec\xf1k\xe5Q=;\xd4\xd9y\xce,\xc5a=w\xd8\xd9\xf9\xc8{\x8a\xb3\x0e\x1f \x96\xf3P\xa5\xd9\x88w\x8e \x95\xf3\xce\xe7\x14\xa5WC\xde\x9a\xeb\xc1\xb0\x9c?|k\xd6\x1f\x14`\x14V\xcc{{\xd5\x07\x9f\xac\xbc$\xf4\x95\xd0_\x97\xfe\xf9\xc9\x87\xab\xde\xfdh\xc5\xeaN\xc4\xfa\xf4\xa3K\xce-\xca\xce\xb9\xcb;U\xd3W\xcci\x01\xca\xe3_\x9f\xff\xa4\x93\xc7\xf17\xf3=\x9aa]\xfac\xe7\xbb\xa1\xa5C-\xb9\xe6+b&gt;\x0e\x9b\xbdS4\x82C\x97*\xc3&gt;\x0cy\xff\xb0\x19\xd5\xcf\x86)\xc5n-5\xeb\xae\xc3\xca\x89\xba~i\xa6]\x87\xdfU\x0c\xd6\\s\xa5\x9f\xad\x187m\x9c\x8b\x1eF\xb89C\x14\x825Lp=\x1e\xbf\xf8\xb9\xc0\xb5\xf33\xa5\x84Z\x88\xe5q\xe9\xed!\xcb\xdf\x9b\xcf\xf0\xe6)\x04\xeb\xcf\xd8E\xef\xbf#\xf4\xdb\xdc\x9d\xce\x1e\xab\x14\x825\xdbc\xe8k\r&gt;\xb0\xd7g\xb3=V~\xaa\x0ck\xba\xf2s3-_&gt;o\xfejeh\xfc\x9f,\xeeW\xab~\x90\x1f\xe4\xffA\xfa\xbe\xaeD*\xabI#\xba)\x8fj\xf8 \xa2\x9e\xdaEiT]f\x12\x14{\xa5a\xbdL\x04\xe9\xa3,*{#\x15\xe91PI#\xf8\nC\x8a\xdc\xc2\xb8\xbeP\x0cU\xb7\xa9\x8c\xeabM\xf4\x0e\xf6\xf7\x95\xee\xca\xa0zz,\xa3\xc9\x8c\x06p\xf1fW3z+\x81\xea\xa5\xd1\x8c%#\x1a\n}\xc0E\xe8\xaf\x01Ou\xbe\xb9\x9a\xee\xc0HvU\xc0\xc1\xcc-&gt;P\xb8\x9e\xdd\r\xee\xd3\xc9\x03\xd9\xf7\xc7\xc2\x04\x0c\xfd/\x9c9MHB5\xd4D\n\x0f\xa6\xfc\xb43\xfdM\x7f\xa1\xab\xf4Q\x14\xca\xc2\xd9\x95\xefC\xd0\xe5\x0b\\N\xf6\x9d\xa5a\xbd\x1d{\n\x04\x19\xf5@O\x05\t\x97\xeaM\x87\xb4\xb4VP0b\xd7\xa73\\\xa4\xb5\xbd\x8d\xf0\xf6\xc0\xfdy\xe0\x7f\x8f4\x8a\xe7]\x1d\xd4\xec6^\xdb\x8dz\xbe=\xde\xdcu\xfc\xb2V&gt;\x19\xb7`\x91\x83\xf1\xd5\x01~T\xeb\x97@\xcc$9\x15\xa0\xae\xc0x\xed\xb4da+]\xd6\xc5\xd6q"\'\xd6\x12\x9c\xeb\xfd\x17X[&lt;\xed\xfe\xd4\xc0E\x83\x1b\x10\x12\xdc(\xf8\xdf\xd5\x13\x91\x04EE@\xcc\x95\x92\x86\xbb\x9eoN\xb6\xb5\x08,z\xbd\xfe\xf1\xccI\x84,\xe6\xc42\xce2b3e\xa6c\xd7\x85#\xfb\xf5\x1b\xf9b\xd7Q\xd3\xbe|\xc6\xf4\xfe\x80\x1c\x03\xd0\xcd\xbe\xa4\x99$\xa4Q\xd0\xb9\x9e0\xdd\xf7\x1ck\xde\xc2X\xa3J\x92E\x9cXv\xa4\r\t?_\x05@7&amp;\xb7\xfc\xe9\x8dz\n\xb4,eS[-\x8c\xe0tu=Zm\xd1\xb78-\x02@\xb79\xb9\xf5\x97F\xd6\xc6\x00\xf8\xe7\xa4\xech\xf5\x1bv\x9cs\r\xab\x9et-\x8f\xf3\r\x14\xf5R\xe4~\xd7B\x8a\x1d\x95\xbag\x07iSJ\xa2\xa2\xd9\xf7\xce$\x9d\x0f\x08V7=V\xebK\xb6^\xde\x1c\x87\xc1\xc6p&gt;\x0b\x8em\x1c\x03\xd0\xd2\x88\x83\x7f\xab\xdc\x97\xe4\xe5u\xc5-\xf7\xce-\xaa\x05\xd0\x18n\xa7\x9f \x8f\x16\xcf\x80\xb3\xa5T\x03\xc8\x16\xe2\x92\x1b\x7f\xca\xcb+\xe9~\xed\xf1j\x1dk\x82\x19]k.\xac\tX\xd3\x15RS#\xb4\xac\x9d\x06\xd1\xd0\x9b\x1b\x8f\xc5\x86\x93\xc7\x16\xef\x0b\xdb\xea|\xa8Vkj\x82B\xd8\x9d\x83p\x0c?\xe2\xf3\xe8k\xb0f\x1a&lt; \x81\xbe{/\x14\x97g\xa7\xa7\xef\xc9\xdf\x1d\xb7%\x91p\xc8\xa6\x13[S\xf2\xbfMO\xcf./\x0e\rp\x0f$\xd9p\n\x9f\x8e\xe4\xc2\x9a\x8c5\x8fC(i\x079\x00\x87\xb0\\\xc8\x855\x1ek\xa6\xd2H\xcb&amp;\xd52`}\r\xff\xc0\xf2c.\xacQX\xb3\x02v\x89\xdaK\x8c\xcd\xde\x96\x1d\xda\x829*\t\x08\x088m1r[\x99\xacc\x97\xc1\xc2e\xd3,\xd9\nUXN\xe6\xcef\xf2\xb4\x17\xcd^\xa4\xbf\x1c"\xa8}\x98\x97\xb7%V\x15*u\x9d\xf8\xd1\x16A\xc3S\xd9e\x8ap\xb9\xb9\xc9\xa8\xd1T\xee\xec\x8d\xa5~:\xad\x99o\tJ3M\xc8\x8a\x021B\x01Z(0d\xb6\x80EO\x0b\x13Z\x8c\xb5]\x1b\xcd\x8d\x85YV`\x0c\x98\xd9\xcc$\xd6v\xc85\x7f,\xff}Y\x8c\xb5Mxov\x0bX\x90\x82\x97\xd5\x16X\xeb4\xdf`9\x9e\x17Ko\x80\xa6\xe1J\xc6\x1e\xd1\x15\x07\x12\xfd\xd7\xb7\x8e\x8b5\x8e\xe8}\x98=\x82\xc2fXy\x00\xfb\x08Y\x8fnH\x84\xb5\x0b*\xd4\xbcX\xf6\x16\xbdu\x05[\x8e2\xc6\xa3\x9e\x16\x9a\x15\x8bL9h0\xf7Zb\xd5R\xc0~9\x0f\x90&amp;\xc6\xd2Tp\x0f\xe2t\xf4\x1e:p7\xb5U\xdd\xa0(-H\x0e\x0e\xeei\x03\x08FR\x84\xb5-\x1ah\x02\x89\x07\xd8/\xc2J\xfeO5\x96?\xe2\xc2r\xc4\x9a\xfe4\xc3\xa4\xf0\xd8#5\xad\x049\x11l\xac\xca\x00n}e\x89\xe5\x85D\x9e&gt;\xa0K\x10a\xed\xa5l\xbc\xbbra\xf5\xc1\x9a5\xb0\xa5\xb1\xa9`l8\xbae,\xd6\x15\xa1$\x1f\xcb\xdd\x96X\xa1\x00\x95\x05Z\xa8?\'\xc2\x8a\xd3\xb8`\xb9\x80/\x94\xc7\x9a\x07i\x80)\x1c\x08\x03\x08\xd3\xb7\x88u\x1bu;\x88\xf8bw\xe6Zb\x05\xeb \xa4\\\x03\xd9b\xacPM=\x96\x13\xb8\xb0&amp;b\xcd,\xb8jj\xeb8\x0697\x8c\xb6\xde"FF\x1e\xff\xd2\xd2R\x8c\xfb\x0c\xbe\x16X8\xb44\x1a`\xbb\x18\xeb\x1e\xa4a\xd9\x8foq\x01k\xd6\x99\r\xcb]l\xd9\x8f)OP\x99\x9b\xbb9\xd6Yh\x92o-\xb1\xf6\xb0\xa7\xdfyz\x8b\xb0\xca\x99\xd9 |K\xc0\x7f\xc5\x9a\xf1\x90oj+\x18\x8d\x13d\x15\xc7\x96c\xc6\x95\xb7\xdf\xcchU\x08F\x0b\xfb\x12M\xc45K\xacu\xec\x93x"\xc6:\x0bG\xb1\xe4\xcb\xbb{c\xcd\xa3B\xbc\xd6 WuM\xbd\x12E\xcc\xfc.h\xaf\xfb2)E\xbe\xbd\x16X\x9e\xec\x9fy`\x81\xe5\n\xe8%\x9e\xe1\\\xe3\xc3\xd4\xeb\xb2\xd0\xdb&amp;\xab\x19\xd2\x00e\x8823\xa8\xf1\xa6\x19\xc8\x06,\xc9\x02\x8b\xecCVw\x0b\xac\\\xe6\x92\x06p&amp;dc\x1a\x03\xa3\xa6\x08\xf8\x18f\x17\xf4f\x92\xb9\xa3\x0e\xaa\xcf\xca\xf23N\x82\x8c\xaa\xac\xac:SB\x92\xe1\xe7\xe7\x87c\x1d\xeb\xe7\x97\x83\x1a\x807\xe9\xa6:\xd7X\x187\x88\x13k\x06\xbazM\xb5\x851\xf8\xea\\\xa2\xe4(00\x82b\xb01\x93\x13k1\xdao\x1a\x13$\x7f\xcc\x9c\ta\xa8\x04\x8e\x9cX\x03\xb1\x85\x10(P\xcb.qp\x06\x03\x08\xde\xa5\x91\x17\x10\xab\x1e\xc2\xd6\xca.a\x80\xdaFl9\xb1\xfe\x82u\xbd\xa0]\x04\xb5\xdfi8\'\x16[\x1b9\x00\xfe."A\xdb\x94\'z\xf0\x1d\xdaP\xf3{4\xb6!\xa2/\x14\x01\x9c\x11\xb7\xa1ci\xde\x08^*a*R\x1f\x8b|\x06`\xa3\xe8\xc1\x06\x80u\xe6\xf7\x18\x8a\xba\x8a\xbe\xe0\x06\xe0.\x9e\xcc:\x8a\xaes\x1a7\x16\x06\x82A\x11\x9a\xcc\'\xc4\xd2&lt;\n+\x00|\xb8\x83\xc0\xc6U\x08?Q\x0c%\x0bV9Tb\xd9\x97\x7f\x81\xbb\x07\xcbi\xbc\xe4\xc6\xaa\x84\xbb\xe8\x11%\xec(\xa0\xfb\t\x8532cy\x86\xc0v~\xd7\xc3\xa4?\xday\x03=\'/\xd6:\xb8\x85~s\x94\x04\xac\x89BD\x9c"/\xd6\x1eA\xb5\xfaI\xc0\xb2r $\n\x838Y\xb1\xca\xe0\x00!6\x926\xab\xc6\xb2\xf5\x82"\xbd\x9cX\xe11,|X"i#\xe3\x0b\x8cB| NN\xac\x14\xcdC\xee\x1c\xb1Ql\xd5\xcc-z\xc9\x89U\xc9\x1c\xa2\x83\x95\xb4}\x1f4\x11qZ\x1f\xbd|X\xc1\x11Z\xcc\x88\xa7H\xdc\x8e\x9a\xce\x96c\xb4W\xe5\xc3z\x00w$y\x9e\x86Q\xc46\xfe\x0e\xf7\xe5\xc3\xaa\x83=8\x86\x92w\xf4F\x10\x92\x0c\xfe\xc1ra\x95P\x96x\xcf\x90\xbc\xa9\xc8\xd6\x9b\xef0K#\x0fV\x94\xb0L\xb1F\xfa)\x07\'B\xf2\xe1\xa1LX\xfao\xe8I\xb4\xa52l\x17\xbf\x89\x16\xd0\xbfi\x9dO\x1a\xd6I`\xb3\xba\xbf\x0c[\xc3,\xd18\xd5\xe4\x80\xa4a\x95\xb1U\x82\x1er\x1c\xdf\xe82\x80\x90\x13T\x97)\x07V2\xd5\xb9K7ZM\xe9b\xae\xb0\xc4"\x19+^X\xd2\x98(\x0b\xd68\x1bB\xaej\xd7zK\xc7Z\x1fCO\x102I\xa6\x93.\xf6\xc2\xb2`\x94t\xacS\xc2"`\x1fy\xa8TO\x0f&amp;\xe4\x826/\\*V\x86\x8e\xad\xc4\xda\xc9v\x98\x04cgO\x97\x86\x058\tXW\x04S\xea(\x17\x95\xca\xda\x89\xa5\x1akwH\xc3J\x88\xa1\x98Z\xd8\xc8x$h\xb1\xb0\xd0\xec%\r\xabR\xd8r\x95\xaf\xb3\x98v\xa9I$\xd5%H\xc12\xd6\xb7\x1b\'\xe7) 6\x19\x0f\xc1u\tX\x81YBo\xcb{\x00\xb4\xb7\x1d!\x17#h(?\xd6y(B\xcb7`\xb8\xacX\xc26\xffY\x88N\xe4\xc5\xf2\x0e\x11V\xf8_\x94\xf9,W\xf77\x08I\xbc\tgy\xb1\\\xc1E/-\xc3oe\xab\xa5\x07\xdaT\xaa\xdb\xc5\x87\x15G\r\x18\x1a9\xd9\xca\x8e\xa5\x9a*h}U8\x0f\xd6\xc5hA\xdf_n\x87#y\xcf\xa3\xc7v/\x82\xb3\x1cX\x9aCp\x13\xb3\x81I\xe3\xda\x01K\xd8_\xbc\x07\x06\x9e\xde\x02\xba\x15\xa3\xbf\t\xedA\xa5\xea2\x08\xdfQ\x0b\\Xl\'h\x9a\xaa}\xc4\xba\'!;jx\xb0\x0en"d\xb4U;a\t\xc3\x18K\x9f\x14+\x07t\x01\xed6\x84\x8dY\x10\xe6\xd8!%O\x82\xb5+L\x8by\xb4,\xd9N\xab\xcbp\xa3\t\t\xaa\x82\xdbA\x8f\x8f\x15\\\x08\xd7=\t\x19\xd3\xae\'\x89G:`\x90Yd\xb6\x97\xf9(,\xcfZ\xb8\x89\xbepp;\x1f\xa1\x9f\xce\xd4\xcb@\x0f&lt;.V:\r\x0b\xe0&gt;\xaa\xf5\x04\xbe\x91Y\x89l\xd0\xddx&lt;\xac\x93\x14\x8a\xf1\xcfTU{\x8b\xd5\xab82n\x10r\xf11\xb0\xd4\xdb\xfda\x03\xfe}\xa3\x03\x8e\xa8\xf7\xc5&lt;(\xb1\n\n\xbd\x1f\x8d\x95\xe1\x03\xd71n\xb0Y\xa6\xea\x00Y\x83\xb1\xc4\xb9j8\x9e\xf8(,\xefkP\x8a\xae\xd0\xe1\x05U\x87\x08\x8b\xa0\x0b\x8a M\xdf6V\xa2\x1fTd\xca\x1e\'\xb7\xe1\x1c\x97\xb0\x8c!\x0c\xee\x07\xb6\x85\x15\x94\x0bE\xec`\xc2bUGI7\xf6\x83\xa3P\x1dxy\xaa[\xc5\xd2\x1f\x02\x7fvfuQ\x07\xfe\xb6\xc6j\x0c\xf2\xec6\xd0\xa3D\xdd\n\x96&gt;\x1e"\xd8\xfa\xf4\x97\x1d\xfa;\x11\xebW\xd5jRL\x19W\x8bX\xfa\xcd\xa0c\xc7\x8e\xc7X\xa9:Tlm\xb0\xa3\x0eP\xba\xc1\xb3%,\xbd\x9bFw\x01\xaf\'Y\xab:X\xfa\xb2_T\x9c7\xd0+^\xcd\xb1\xe2k!\x82Q\x8d^\xa6\xeap\xe9\x87\\\xea{1\x10\xd6\x1c\x8bBX,\xfbU\x83\xad\xaa\x13\xe4%\xd6_\'#\xa0\xf9\x81\x03\xc8\xbb\xd1iT\xc6\xfe"qk\x01D\x87\xd7\xf7R\xa8a?\x1d\x19\xfd\xfd\x06\xc8U\xc0\xf4\x05\xda\xaf\xb5zR\xe5\'\xa4\xe0z5\xa7\xf2\x1c\xa8\x1aw\x1b\xc0=w\xb2J\xc0\xf2\xeb\xe0\xdd\xcai\xb7`\xaez\xd8Y\xf9\x1dT\x89\x8b21\x0c H\x11\x05\xb5\x8b_V\xd6BV\xe5\xcd\x9a\xd0Q\xd9\x03Zl)/\xc70\xa0@\x0e\xb4\xa3\xab\xebjm\xed\xba\xf9\x15\x15w\xbe\xd7\xf6\x83Wx\x8a\x0f\xf8\xf6W5C\xf0\x04\xf4\xb4\xca\xc5\x1b\x96M\xaa\xdc\x07*\x18*te\x18\x06\x1cp\x88\x80\xbb]\xe7*;\xfb+\xeb@[_9\x15\x07\xc7\xd6}1\xd0^\xc5\xd9\xdb;jW\x81\x92\x95\x84\r\xc3 \x01v\xe0\x8d\x9d\'\xdf\x83H7A\x86A\x03R\xe4a\x05\x84\x8e\x15\xc3 \x02\xecz\x90\x93\x04\x9c9\x18\x06\x17`\xd3\x07vq\x1c\x19\x06\x1d`\rTeb\x18\x84\x80\x9d\x8a\x11\x08\x00\xa93\xed\x99!g\xd3\x14\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00."\x00\x00."\x01\xaa\xe2\xdd\x92\x00\x00\x02\xfdPLTEGpL\xb0\xaf\xaf\xff\xff\xff\xdb\xb3:\xf9\xf6\xef\xff\xff\xff\xf2\xec\xd9\xff\xff\xff\xfa\xf9\xf5\xfa\xf8\xf2\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xdd\xb7E\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xab\xaa\xaa\xd3\xc9\xb0\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xbd\xbc\xbc\xc5\xc4\xc4\xe3\xc5i\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb3\xb2\xb2\xb0\xaf\xaf\xd8\xad+\xd8\xad-\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xae\xad\xad\xe0\xbdT\xad\xac\xac\xaa\xa9\xa9\xd9\xb05\xe4\xc6k\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb0\xaf\xaf\xd9\xb04\xb7\xb6\xb6\xda\xb28\xdb\xb4=\xd8\xae.\xb6\xb5\xb5\xdb\xb3;\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xac\xab\xab\xd8\xaf1\xb9\xb8\xb8\xe1\xc2_\xd9\xb02\xae\xae\xae\xb6\xb5\xb5\xdf\xbbP\xdd\xb7E\xd9\xb16\xb2\xb1\xb1\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb8\xb7\xb7\xb5\xb4\xb4\xb8\xb7\xb7\xdd\xb8H\x00\x92?\xff\xff\xff\x01\x92?\x00\x92&gt;\x08\x95C\xfd\xfe\xfe\xd7\xac*\xaa\xa9\xa9\n\x96E\x01\x92@\xfc\xfe\xfc\x03\x93@\xf6\xfb\xf8\x00\x91=\x00\x91&gt;\x05\x94A\xfe\xff\xfe\xfa\xfd\xfc\xe1\xf2\xe8\x10\x98I.\xa5`9\xa9h\xf9\xfc\xfa\x12\x99K#\xa0W\xfe\xff\xff\xe6\xf5\xec\x1c\x9dR\xd1\xeb\xdc\x9b\xd4\xb2\r\x97G\xf9\xfd\xfb\xec\xf7\xf03\xa7d\x14\x9aL\xea\xf6\xef\x1e\x9eT\xd3\xec\xde&gt;\xacl\xdd\xf0\xe5P\xb4z\xf2\xf9\xf5,\xa3]\xd6\xed\xe0\xf1\xf9\xf4m\xc0\x90 \x9fU\x0e\x97H\xcf\xea\xda\x19\x9cP1\xa6b\xca\xe8\xd7\xf8\xfc\xf9\xe3\xf3\xea\xb7\xe0\xc8u\xc3\x95\xa5\xd8\xba;\xabjG\xafr\xb3\xde\xc5\xba\xe1\xca\xef\xf8\xf3\xb0\xdd\xc3\x85\xca\xa1\x17\x9bOM\xb2w\x9e\xd5\xb5\xbe\xe3\xce*\xa3]%\xa1Y\xc8\xe7\xd5\xcd\xea\xd9\xf3\xfa\xf6W\xb6~\xad\xdc\xc0B\xado]\xb9\x84\xda\xef\xe3S\xb5|X\xb7\x80\x91\xcf\xabk\xbf\x8e6\xa8fJ\xb1u\xa1\xd6\xb7\xc3\xe5\xd1\xd7\xee\xe1a\xbb\x86[\xb8\x82\xe5\xf4\xebE\xafq\xbc\xe2\xcc\xaa\xda\xbe\x9d\xd5\xb4w\xc4\x97\xf4\xfa\xf7\x8c\xcd\xa7\xa8\xd9\xbc\xef\xf8\xf2\'\xa2[\x98\xd3\xb0f\xbd\x8a\x96\xd2\xaf@\xadm\x8f\xce\xa9|\xc6\x9b\xa3\xd7\xb9\x93\xd0\xac\xc6\xe7\xd4\xf5\xfb\xf7g\xbd\x8b\xe8\xf5\xeei\xbe\x8c\x80\xc8\x9d_\xba\x85\x87\xcb\xa3y\xc5\x99\xc0\xe4\xcf\x16\x9bMO\xb3yr\xc2\x94p\xc1\x92}\xc7\x9c\xf7\xfb\xf9U\xb6}\xb4\xdf\xc6\x82\xc9\x9f\xd9\xef\xe2\xdf\xf2\xe7c\xbc\x88\x94\xd1\xae\x8e\xce\xa8d\xbc\x89\xc4\xe6\xd2\x89\xcc\xa5o\xc1\x91\xed\xf7\xf2\xb6\xdf\xc7\x8a\xcd\xa6o\xc0\x91\xfb\xfe\xfc\xea\xe1\xe7\xa3\x00\x00\x00rtRNS\x00B\rB\x03\xf8\x02\xfc\x01\x06\xee?t\x11\x82:\t\xeaj\x14\xdf\xba\x19W\x0fe\x8e\x89 \xf0#\xe7\xf3\r,\x1d\xdb\xe55\xa5boK\xb6\xf6\xf3/&amp;\x15\x1b\xc5|\xe2\x93\'\xcb\xb3\xd8\xa8y\xac\xfa\xf3x\xc0[D\xcb3\xe9\xfb\xba\x16Q\xc8\x9e\x97\xc6^\xa4}\xe5P\x8f\xa1e\xd3\x98\xab\xb0G^`\xce\xdd\xdcE)\xd6\xc0eN=\xb4\x93\xd5\x99z\x9a\x9d&lt;XAH\xc2d\xf6\xcd\x00\x00\x19GIDATx\xda\xecYyTSW\x1aw,\x18\x16K\xad\xe3\x86\xd5A\xad\xcb\xa8u\xac\xadck\xd5\xb63.\xb5\xb6V[\xeb\xb1\x9d\xe92]\xa7\xcb\x99\xed~/\t\x01\x02$\x18\x16C\x08\x10\x126\x91E\xc2\xae\x80,\xb2Yv\x8bV\x05Q\x11D\x04\xeb\x82\x08.u\x1dk\xe7\x9c\xb9\xf7e{\xef%@X$\xf3\xc7|\xe7\xe4\x9cw\xder\xdf\xef}\xcb\xef\xfb}7\xa3F\r\xd1\x1c\xdf\xb2x\xda\xd5a\x94M\xed/\x9fY\x02`\xf7\xf1\'\xb6\x85\xf5\xe6\x8cg-\x9c]\xe3\xbe\xd9\xa6\xa8\x1c\xd7\x8a,Eq\x8b\xfb\xc616\x8d\xa1H\xb4\xd2&lt;\x8av\x9f\xba\xafZb\xd3\x18\x8aD\x16\xa2\xb8\xc6\xdd\xdd\xdd\xd5\x16pf\xfeJgkE"\xd1\n\xdd\xe1b\x82\xe71\xda6aX\x1bu\x87_\xda\x8d$,\xbb\xcfg\x88\xd8\xb6\x928\xed\x93\x8d\xeel{\xfb_#\xec\xaf\xc5\xab\x99\xa0f\xac\xd0ye\xe6\x96ULT\xaf\x8dt\x8698\xcc\xfcj\x9d\x11\xd5G\x7f7\x9e\xff\xe2m#\xa8U\x9b\x1dm\x90_\x0e\xef\xace\x06\xd0`K^3\x04\xf01\x1b\xd5\xe1\n}\x04Y\xb5\xe8\xb0D\x1fGW\x1b\xa1\x1acH\xafw\xd8\xfdP\xef\xad\xbf\xda\x08\xd6b\x92\\\xa4"W\xb2\xbcE\x82\xf82\xf9\xad\xb7Y\x0cg\xbc\xb5\xf83\x91h\xedLfnaH\x9b\xd6o^e\xab(:\xac\x16\xad\xc6\x1c\xea\xb8b\x1d+\x8a\xae\xee/\xbb\xe2\x86\xf8\xe5\xc76\x8a\xe2\xe2uo\xd2^\x1a\xf3\xcf\x8fV2c\xf8\xe9\x1a\xfa`\xfd&amp;\xdbD\xf1\xf3\x7f\x18\x9a\xf4\xb3_\x99\xa2\xb8d\x8b\xe1\xd8\xce\xf5\x0b[\xc0\x1a\xc7\xe8E\xa6\xce\xe7\xc8h\x82\x8e\xa3\xfeo\x16\xd3\xdfq\xdc\xe8)S\xa6\x8c\x1eg\xe7\xf0?\x81\xc7q\x92\xf3o]\xe6M\xfcp\x82\x9b\xd3\xa2E\xd3\x9d\xdcfoX\xf8\xc6\xf3\x7f\x9e\xfb\xb8\x9d\xed&lt;4\xc5\xf9\xdb\x17\'\xf0\xc0`R\xa1\xd4x\xfc\xcc\xf2\xf7\xe6\xcf\x1d7\xf2\x98\xecf\x8d\x9d\xb8\x88\x00\x10\xb6\xd7\xa55\xf5t\\\xcf:\x10P\x93y\xa0\xb62\xfef~\xe7\xad@\x1a\xa0\xd3\xfb\xe3\xa7\x8dhLg\xb9|M\xde\x9b\xa2m&lt;\xec\xef\xe1\xe3\x8b\xd8\xe6\xe3\x1b\x14p\xba\xbe\xce\x0b\xdf\xc1{n\xec\xd3#\x84i\xca\xd6\r\xc4K\x91\x8dG&lt;|\x8cP|}tf\x82\xe8s\xa52?\x95 [\xf8\xfa\x08\x10\xc5\xb4\xa9N\x18SR\xeb)\x8a~9\xdf71\xb9\xe2j\xd5\xd9\xbd\xda\x90\xba\xf2\xb8\x90\xa2\x1b\xf9\x8d\xd5y\x85\x06\xbc\x92\xcc\xaa\xed\x18\xd9\xd2\xb1\xbf~\xb4\xa0\x96\xbdk\x0f\xa0nV\x89i\x0f\tT\xf1\'\xe2\xda\x85\xc05\xaf\xd8b\xe5\xc5B\xfa\x1e$\xc8\xcbI\x01\x98\xfe\xd4\xa4G\x07\xea7o`Pu\xd52\xdaM\x8a\xdb\xc7\xd4\xe6\x88L\xe6wKY\x11\xc4\xc7wR\t\xbf\xa8q\xfe\xbb&lt;"\x8f=\xee2\x1d \xa4T@0]9}\xd4\x1b\xfa\xb7\xec\xb2\xeb\xa1\xe4\x1b\x82\x1a\x82\x01\xe6\x8c\x7f\x0496\xe6\xf5\t\xd8S\x87\t(q\xd4\xc1l\xddk\xe5\xe1\x05\x8dq}#\xfb\xe1n!\xc9\xc2\xa0\xd6\x9f\x01^xb\xb8Q=\xfd\x1e\x0f\xc2\x1b\xc8\xa7\x0bJ\xef{\xd1/L)\xba\x90)\xf3\xbd\xed\xd5\x9f\xcb\x02sZH\x9ai\x94\x81`?u\xf4\xb0\xbaj\xb2\x1bx\x9d\xd0\x90\xda\xaa\x8c\xa4\xdf\x15v.~\x07\xf1\x82\xaa\xc4\x8aX\n\x8f\xb6x\xe2\x1c\x0b(\x06\xf8z\x18\x1d6\xfao&lt;\xd8\xde\x85Qx\x1e)\xa6\xdfs\xfe\xae\xbf\x8e\x1fdu`\x95y\xdd \x0f\x08\x1a\xda\xc1\xfe\x95\xe1\xca\xb0e\x1f\x82\xf0\xd8&gt;\x0cbG\x0e)=y\xb9\xae\x16I\x91)\xc1ZKi\x0b\xc2\x0f$\x87\x00\xbc?&lt;%\xb9\xc0\t\xdaO\x93o\xbd\xba\x8b\xac_~H`d\xf2&lt;\xcb\x0c\xb1+G\x19l~v{\x05^\xc4\xa3Y\x08\xcb\x7f7\x0c:a&lt;\x0f\xa2U\x18\xc2\xfe\xfbd\xed\xf0n\x13($K\xb5\x80I\x1eyZ\xc6G\x1a\xb5\xf9\x15i\x06q\xd8\xa1\x12p\xfa\xd3\x90\x95\xc2T\x80\xce\x08\x1c\xae\xdb\xc4U^\xca+\xcc\x9e\xdcf!\xbb\x0bj=\xe9\xb6\x93a\xc9\x8d\xdb[0\xbf\xaaR\xc1~\xeb\x10U\xde7 ?\x8b\xfd\xe3QO\xc2\x15\xd7\xc2R\n*?\xb3\xf7\xee\r\xa0\x90\xb86\xbf\xbbA\xe7Gaq\x12\xfbzX:\x0e\xa4\xa6\x18x\xf3\x87\xa2x\x1c\xe7\x81\xf0\x17L:\x1a-qU[(\x0b\x95\xb8\x80\x0b*\xecG1\x12\x1c\x8a\x94\x82\x1c\xa0\xa4\x13@\xbb\x93\xea\xe2\x86\xf8\x18^$\xa8\x00x\xcf\x0f\x1e\x97\xe3\xbb \xec\xc11Q\x11\x19\xa0\x8e\xa1\xd8\xb2\xaaK\xce\x85\xa5\xc4\x1f\xa0\xa3\xb5\x92\x0b\xbbC\xd5\x90\xea\x81\xae\xecbe\x17\xfe\x9dS \x94\x98\x03\xbc\xb1\x83\xce\xabm l\xc5X\x8e\x90\xa5\x8b\xf7s\xc4\x9e \xc9,\x84\xd5\x08e\xe9\x8e\xea|\x90\x0f\xbe~\xb9Y_\x91\xd2\xf0\xa2\xfa\xf4\x18\xff\x16\xf2}\xe5\xa7pR`\\\xf3\x07Y\x83. \xbc\x89}\x15s\x1c\xafuL\xc6A\x85\xae\x9b9\x0b\xf2\xb1\x1fHR\t\xcf\xd5 \xe4\xdfn\xa0\xd2\xe8\xb3\x1d\xfe\xa1\x14\x11\x13HQD\x12?\x19\xa1\xd04\xe0M\x1e\x14\xac\xad&lt;h\xc3yu\x1d\xcb%\xe1]\t\x17\x95DkA0`\xce\xed\x16z\xef9"A\xe2J\x9d\x9f\xbc\x0b\xae\xfaK\xf8\x0cN\xd9\x8bO\x06c\\\xb2"X4\x98F\xe4l\x0fe\xb8\x06\xf3\xf0G{]\xa6\xb8\xa8\xd0\x11KL\xda\x8a\x0b!@C!AE\x91\x90n\x9c\xd5\x1a\xee\x938|\x00\xa9\x85\xd8q\xe5\xe06m\xe0\x92a\x0eh\x13\x11\x8a\x8a%\x114GE\xe5X\xe2\xa5`\xd2\xa2P\xe2\x8f\xb4\xd8QW\xf9\x9b?\x87q\xed\xc1\xd7\xa2q\xdb\xdfy\x126\x0cTP8&gt;\x07\xc1;\x10*\xa4C\xd1d\xbe\xf8\xfe\x14#+\xe4\xfe`\xc2\xd5Y\x98\xa8j\xa4\x9f\x89~\x10\x84,[(!\x96b|5\xc6\x0b\xb6\r\xf0?\x18\x17\x08\xcbB(B\xa7\xf1\x9a\xcd\xd7\xbe`\xd4\x06\xd5\x94J/T\xd5ID\xc6\xd3\x95\x10}[\x80z\xb5\x08B"{$\x88\x9f;\xd0\xb4w\xe6A.N\xeb=\xba\xf7\xb5\x99\xad,\xf9\xc9\xd0l\xba)I\xbeN\t\xdeOP\xe8{\xa4\xfaA\x1f\xa0\x88\xab\xcf\xe3\x9b\xc8\xfa\xdf\xc3\x93\x03I\xaf\xd1\xb3\xe1\x1c\xfe\x1a\x83K\xcc\xbd\x95\xa9Oxy\x03%n*\xc9k"n\xf3G\xd4\x19z\xb6h\x8b@\xfdXV \xbe\xbf\x0b\xa1\x84\x9fa\xa1\xf5\xbb\x15\x0eS\xc1\x1b\xb3gK\xa0\x89\xbd9V\xa5\xbf\xd2C\x89\xdb\x8e\xd7\xf2\xb3\x02\xb1\xf7Bvg\x10\x16\xd7\xaa\xf8\xa8_K\'&gt;\xc5t\x7fQ\n\x1fX\r\xeb\t\x1e\xa4\xe3\xce\x15\xcd\xa0IN\x0c\xf5\x97r)\xcf\xbb\xed]\xa8e\xd7\x1dA&gt;\xee8\x84\xa7.\x0b\x90\x15&amp;yH\xfa\xba\'\xf2|\x08n\x93\xac\xaf\xc2b\x1cB\x93\xf2\xcc\xe0\xae\x9aLg\x93\xfc\x17\x8a\xba\xe4]\x812O*%T:}g\x88\nYg\nR\xae\x1dX\xf0\xee\x82mV\xc2\xfa\x00\xfc\xa20_\x9adK\x8e\xa5\x18\x80\xb4J\x8c\xfc\xb3KQ\x8d\xfa\xa0\x84\x8a\'@\x85\xcaDd\xad\x95\xe2\xec&lt;\x89\xd9\xab\x07\xec\xe7Z\x97\xef\x13 \x03\x135c\xfe\xeb\xe4\xec\xc9\xf8&gt;\xa4\t+\x8b\x8cYHu&gt;C@u\x90o8~\xcf\xd3jTH\\\xa6\xe3\xe9\xc4r\x98h\x15y\xcd\x87\xe3\xfb\xf5\x0e\xd1[\x92\x0f\x87\x10\xc3\xe9\xd3\xb1y\x84\xb4\xeb\x8e\t\xa8Ca\xa4\xa3\x04\xa0\x81\x98\x06\x8f\xc0\xc2\x03\x08}\'\xe5\xfd\xd1\x9a\x99~)\xdc\xe1\xa3+\xd9\x0cX\xe5\x1cX5zz\xb8VJ4\xaa\x07:LJ6)\x01\r\xcc\xc8\x87\xe3\x1c\xc6\x02\xe9U;k\x9c\x15\x8bC\xde\xc8lu\'\xc5\xec\x05\xab\x8d\x03\xf3E:M\xae\x91\xb2\x92\r\x10\x15\x12\x90\x19\xb3\x12\xa1\n)\xcf\xb9\xff\xdd\xf6\xd9\xd0\xc4G\x8a\xe3\xac\xb9\x81\x9d\xc9\xfc\x83\xa6m\x99j\n\xc5\x90\xdes\xc2\x03\r\xd8\xae\xe3\xe7"\x05H\x10\t/\xf6\x0bk2\xa4\x14r\x9c\x05\xb0\x83\x9d\xf1!\x8cq9=\x0f\x7f\x81&lt;_2pT\xc8S\xabs\xd7=\xe0\xcd\xea\x8f\xe0_\x85\x1c&gt;\x8a8\xc9\x86\xc5N\xe6P\xa6&gt;\x17\x92\xbcR\x8a\xd1`,\x0fw\x05\xad\x04%\x06\xc3\xd4\xfe6k\xed\xe5\xb5\xec2$v\x98\xb5\x9a?w\x93\xa6^2(T\x88J\xd2\x15c#&lt;\xd9\x8f\xf0z\n\xca\x05H\xc2\xdd\xf0\xe8a\xadV\xc1\xb9zb\x90\xa8\x10\xaa$O\xf3Q\xa1\x1f\xfc\xa1\xef\xbe3\x01nb\x82\xb70;p9\xdedi\x82\xc1\xa2B\x02\xac\x84J\x14\x88\xfa\xbe\x9f\xa4w\xe6\xf9\xf9#t\x96\x0b\xab\x93%\n\x9aY\xd7\xb424x\xeb\xc1\x0b&lt;@(\x1e\x9e\xe9s\x1b\xe7\xf7\x90$F\xb2p\xb3\x9dFfJ\xf3\xd3\x98\x97\xa2\x15C@\x85\x12\xb0\xf6&gt;G!E`\x9f\xfaf\xccr"\x1a+\xccw\xcd\xf61\xff\xa4\x88d2m\xf2PP!_&lt;\x9f\x05\x9eB\xd4}x\xa9\x0fvX\xc6\x93f2\xd9\xd2h\x07\x98M\xf6&lt;c\x97;\x06\r\xcd\xbe\xc3\x8b\xc4\x93`:\xf5\xb1I8\x1e\x82=\x90`\xbb9\xacn&amp;m]c\r\x86C\xb3}X;\xa6\xf9"\x15@\x1f\xb3\xecK\x84KU\xb8\x11\x9f\xe0L\xf2L!\xa8\t3\t\xb1&gt;i\x94Oyh2\xaf\xff\xe7\xc2\x19\xe5\xc1\xb3\xf5\xcd\xffn\xb8\x97U\x18$\xe6(j\xfeQ\x9c\x082$\x08\x87WzO\xad\xa5D,w\x03\xb4G\xdc`\xc3\xaac\xbc?\xd98O\x97\x07\xf5\xce\x94\x89\x01\xf1\xf9\xda\xf3\x9c\x1d0yl\\YC\x94\x8c9\xd5\xe2\xb7I\xa3H\x19\xf5N\x11\xd3x\x80S\x0b\xeb3\xad\x8f&amp;\x9b\xbds\xb5\xdb\xb4\xd0\x01\xc3\xc9\xf6\x9a\xde\xe8\xa8\xa6\xb5\x80\xd1\xbe\x84)%\xea[q\xea\xec\x12\xfd\xf7d\xef\xbd\xba\xdf\x93\xa9\xbf\x1b\x10j\x859\xbd&amp;\xd7\x02h\x0f\xa2\xc7\x873\x08u\xb0\xc3\xd8eN\xf2\xd2x\x8b\x98&lt;\xb2\x94\xa9\xc6\xffc\xc1\xab\xaa4\xbapw\xa8\x84\xf2i\x8eJ\x8c\x84[\x97:u\xa5R\x14\xaf\xdf\xee\x14\xe0\x99&lt;\xc7\x17\xd5\x02\xf4\xfa\xc7\xe3\xb7\x10\'F\x8a\x14\xba\x07z\x1ee\xc1:cz\xef\xc5&gt;\x12\x8b\xaai\xd3\xefh\xf9E\x0bs\xa3\x0e\x82w\x84G\x9cND6\x05x\x86@\x91O\x94\xbc*\x83\x8eDl\xfdN\x92g\xbe\x98\x05\xa31s\x01,\xe8\r\xd6&lt;(\xe3\x93\x18\xe1I\x94\x1e-\x19Vl\x92\xe9\x0f\xf4\x14\xbb\xcf|w\xa1#\x89\xf6\xb1\xf0\xa7\xa6JEB\xe0N|\xab\x05X1\xfc\xd0Jz\xa0\xf3*\xc3\x12\n\xe5\xe2)n\x1f\x12\xab\xa1\xd7\xed\xc1\x17\xe0\x12-=cC\r\xb3\x89\xe9\x8f\x1b\x05\xaba\xe05\xf3\xb8u\xa7i\xa4\xbd\xe0\x9d\x16\xa2 @\x08\xac,\x8b\xb0\xc8E\x9dO\xfd\xda\x82\x88\x18\x94\x06 _-|\xd3\x1b\x9b\xba\xc1iZ\x01\xc6\xd1UL\xdda\xba\xeb\xbf\xa4\\kO\x1b\xe9\x15\x8e\xaa\xa6d\xd5\xad\xb6iw\xdb\xaa[e\xa5v\xabFZ\xa9\x1fZ\xad\xaa\xf6Sw?\xb6\x7f\xa0\xd2\xfe\x85\xed\x97\xf7\xcc\x8c%_`l\xb0\xb9\x1a0\xd8\x98\xab\x8d\xb1\x81\x006\x04\x08\x10\x02\x01B\xc0\xce\x12\x08\xf7\x10.\xb9@\xb9\xa6I\x08\xe4F\xb2I\xd5\xf3\xbecf\xc6\xc6c.\x99\x8f\x96\x19?\xf3\xbe\xe7}\xces\x9es\x86&gt;\xf9\xf7\xf7 \x81\x8b\xc3\xcf\x8eKt\xa6+\xe6\xc6\xd8\xcaRX]F\rXd\x0ekJj\xfad\x04\x8bs\x99\x16\x9c\x86O\xb4\x8a\x8b\x14\x18%"\x1e\xc4\x0b\xd2\x8d\xf4\x1b*X\xb7\xf8\x98L]\x16\xc3\r|N\x01\xfe\x86\xc5\xfdn\x17\xee\xfb\xcd\xdd2,k\x85\x02\xebN\x0c,\xdf2xg{\xf1\x14:\xa6\xea\x18+\xef\xc1_5\n\x8ds\x006"^V&lt;\x07{\xbf\x02\xcb\x85z^\xb0m\x8dl\xd9\xa6\xe9\xea\x0f\xabQm.\xa0p\x9e\x1c\x0f9\xd3"\xe0\xd2\xfb\xcadX\xe6\x0c\x84UV\xda^\xc8\xad\xdf\xadR`\xd1\'l\xc4\x9c\xc3\xcd\xd7H\xee\xf3]\xca_g5\xe6&amp;&gt;\x02(!\xdc\x0e\xf3x\xa4\xabS\xd5=\x19\xb6\xefePYj\xa4\x149\xaebD\xc1\xcb\x02e\x85/\xb0\xe1\x8f\xf5\x9b\xec\xcb\x14\x96\x98\xe3\xa8$\xdc=\x84\x85\x15H\x0e\x87\tM\x86%NM\x15\x92\x11\x9a\n\x89\xf0\x88\x19\xbf\xd3\xf4|\x9f\xfe\x95\x16mea\x1a\xc0\xdfx\xa8\xe8c\x05W\x8dJ\xee\xcc(\xec\xca\x95\xe2\x13\xbb.\x02|G\n\xb6p+.\x8b\x81"\x83\xf0\xfa\xeeX=T\x12\xfeR"Xi\x17Pk\x96\xa4{I\x89\x8f\x97BbL$\xed\x00\xbf\xd0*z&lt;zR\x88\xbc\xf0LY\x8aY\x95~\xce\xddY+/\xddj\xad\xca\x05\xdd\xe0&gt;g\xb5\x15`\x86\xdcm\xcbd\xb0\xbc(\\Cb\xb0\xc8\x90\xcd\xbe_\x89BV\x03V\r\xaf\x7f\xe3%\x0b\xae\xde\x97\xac7T\x9bF\xe6\x01\xce%\x86\xf5\r\x14\t\xc4\xeaa\x07C\xbe\xfcr\x0b\xc5s]R\xc7\xc2\\\x0bX\xd6\xa5\xa5\x1a\xa8\x07\xcfB(_\x94`Mam\xb5\xc4\xaf\xaa`m\xa5n&amp;\x84\xe5\xd2\x9b3\x10\x96\xcaM\xc0;h\xf4\xf3\xceC\x9e@\x9c\x15\x00\x031\xc9dA*tf\x9a\x94b\xdf\x05\xa9\xd41r.!\xb5]\xe7/\xed\xc3\x9a\xe6{0z\'T\xb0\x8a\x1f\'\x86\xf5\xd8np{I\xa0\xef\xc1\x04\xf3]\xddi\x04yB\x13\xd6\xb2\x04\xab\'\xae\x9c\xa3V\xb2N\xbd\x84\xe5FT@\xdcU&amp;\xcc\xe6\x88\x0ck\x83\x1b\xc6\xa8\x19T\xc1\xf2W\xb4%\x84e\xec\xe4",\xa5\xea[\x0e\x85\xf5\r\xbc\xd1\x13_\x8b\x9a:\xa3\xd60rB\x87:\x03r\x17 \xb5\xabU\xd2]*Xe\xe6\xa1\xdc\xd7bo\x91\xa1\xf0\xe2\xf8\xda\x05\xa8\xd4[\x85\xfe\xc4\xb0\xa0\x984{iZ_`7\xe9N#M\x9a\x9b\xf8K\xa8\x90B~.&gt;\xd9}\x17\x0f\xb5\x07sb4.T\xb0R\xad9\x8e\x01\xae\xbb\xc8@Dj\x91Wf\x07\xb8f\xbf\x16\xac\x0e/\xb9\xde"\xd1\x16~LS\xf19-\x82pX\x99\xd0X?\xe8\xe0Zbm\x88jE\xa1\xaa`A\xa7\xd5\xd3$\xd4\x17\x19$\xe7\xbe2\xbb\x87\xdcI\x0c\xcbX\xc9\xd5\xb2\x90\x1f[a\xa5\xa6H\xb64\t\x02\xe9\xb4\x9apU\x00o\xe3a\x85\xa1.\xd6\xd4\xce\xf6$\x845j\xce\xe8\xb2V\xc8\xb0|\r\xe4\x91=!\xac:\xbb\xe9\x06\xc2\xaa\x1f10Q\xb9D7D\x8bN\xcf\xd1\xb5\x15#\x00\xe1xXw\xc0X\x12\xf3\x81_\xca\xcb\x8f\xdb\x07c`\xf5\x89\xaf\xfc%\x0e\x19V\xe1\x14\x99K\x0c\xabHo\xbe\xe9%\x99\xd6(/.\xd0R]+\xf9`\xaan\'&lt;\x86w$\xed`+e8\xb6?\x96\x0b\x946,\xd5\x01\xdd*\t\xbb\xf7a5\x88\x8d&gt;\x1b(\xb0\x1a\xc5\xe1\xea8XA\xa0\xb0\xf2Ia\x05=\x89M\x92\xc0\xc1\xb4\xf2B3U\x9f9K\xfb\xa7(\xcbvc;[\xe6uL\xf2K\xea\xcf\xf8\x02\xac\x10i\xf7\xf5\xa9p1 \x86\xfa9,\xa8V\xc98&lt;\xe7\xd7LA\x84%\xf4\xf5=\xa3\'1\xc2u*\xb0J\r5\xf8\xc0\xed\x0cV\x98\xb7Q\xcd=\x80l\xa4C\xeeCQ\xd1\xab)lP\x06\xbe \xe4\x19*\xb9\x98@r2_\xb9N\xed\xb8\xdb&amp;\xe1\x9e\xc1:m\x81+C\x1cI\x8b\xd4\x9bstHvK\xb0-\xae\xf2s \xf3\x96\xbe,\xdb\xaa\x84\xfcU\xae\x16\x9a\xc5\'\x14\x16\x92\xf1CL\xd5+\xb4\xc7\xb2\xf6\x06t\x01j\xe5}\xab-\x9aC&lt;\xcd\x02:\xb5\xcdV\x19u\xc2\xddJzv\xd60qjz\x9d\ny\xf3\x9c/\xaf\xc5\xaawY\x9a\xf8mp\x1b\x8a\xc5\xa7*Xy6\x83Y\x86\x15$\x1d(\x15F\xa0\\\xf4\x96\x12\xae\x19^/b\x1c\xa47\xd8\x8cPa%f\x8f\xb6h\xfe3\x94\x99\xc9\xe6\x15\xd6^\x90\x9bNRi\x8f\xe2\xdb\xbdo7\xd8p\xfb\xc2,~2\xfb!\xab\xe3\x1e\xe8J\xc9\x7f\xddV&lt;,yzA\x1cW\xc1Z\xc6\x88\x94a\xb5c\xd8.\xe0\x89+\x8fV\xd3eHY\xa9\xab\x1c\x96\xfbn\x9eti\x97\x18gP\xd9\xa0\xd8\xc7\xd5\t\xcbR4(1\xc1\x8d\xcdf\xbcGx\xb4\xcd\xb7y\xb5\x00\x7fg,j\xf2fKM;\xdc{\x13\xb5L\x1eg\x131\xa4\xc0\x12\xf2VT\xb0\x06\xc8[\x8c]\xaf\x04K\xf2\xc8\\A&amp;v\x1bY\x95\xf7\xbb$\xe5\xeb(j$\x80\x9d}X\xc1\ni\x07{\x88\xfe6\x95\x7fY\x1ej\x95\x1a/\xc9\x83\x1a\\\x0fe\xfbeZ\x05\t(,f\t\xa9U\xc3\x1aT\xc1\xbaF\x86\xdcmd\x8d\xc1\xf2\xb3\x13\xe8\xc6\xaf\x1b\xdclPa\r&gt;\xfb I\xb1\xff\x1f\x16\xf3\x8e\xa8\xf5_\x1aEU\x83\t\x91\x1b\xed\x90\xa8==\x12T\x9f\xca\xb6F\\\xb0F\xfcB0\x97:;\xe6]\x84e\xf58\x8c\x16\n\xabYT`adp\x84\x0fQX\x85\xb4\xbfoaC\x0c9Y4\xe2\xf9\xa4~\xe0\xdf`\x0c\xb79}_\x08\xda\\1\x96.\x9f\xb3JI\xe1I\x9c\xbb\xc1\r\xdf\x00\xcb\x1d\xab\x99\x16$\xab\xc47CyK\xb0w^\x9dDX\xbb&amp;\x05\x16\x93\xe2\xdcM\x845Do3\xb9\xc2\x1e\x0e\x93\xcfM\x81\xe8+\x92X#\xa7~F\xdd\x13\x13.k/\xfdi\xff~C\xb1^\xf6l\xa9c\x129PM\xeb\x17=\x90\xca\xe4\xf5:\xf5s$:\xd5{\x10\x16\x9e1\x19\xd66mh\x95\xe8\xa0\xef\x05]\xf5{\x9d\x92\xef\x86i\xbb\x91\xa7\xda4\x89\x91\xf4\xdb\x14\xca\xe6\x0bR\x01+D\xf6\xd3\x9e\\rpl&amp;\xe3\xc1\xc1"\xdf\x7f[\xea\xd4&gt;\xa7\xfc\xa2\x82\xe5\xc8Q`\xe5\t\xd2\xe2PP3\xaf\xcd\x8a\xbf\x85{\xf16\xa9\xed\xf6\xa3\xcf\x01\x83t\xdeBc\x9c\x1f\x94\x1d\x97N\xb9\xef\xc0\xfa\x173\x89\x9aN]a\n\xac\xd6\xd6\x13\x03\x0b\xe6\x15XF$d\x13#AGX\xae\xd1\x11fE\x1b\xbd\xef\xbf\x92[\xbae\x02\x11p\xf3Bb\xb9\xdc\x14p\xcb\xc1$\xdd\x15B\t\xdd\xb6\xae\xe7H&amp;\xe9HsE\x9c\x02\xeb\xa5\x02\x0bi\x87\x9b\xa0\xe78T,\x1f\x19\xfe\x1eP\n\xef4\xc2\xf9\xe4\x068R#\xa6Mp\xd8\x94\xa1\x8b\xb5\x98\xb6\x03=C+\x1a\x8ecC\x15UuY{\xc1M\x9e\x97`\xbdU\xc12\x86\x9au\x90zkHu\x8e\x03\xe9l\x0f\x1f\xc1\xe9\x9f\x1f\xd2.x\xce\xb3\xee\x89j\xe6P%\x1e\xa2e\x90\xc7\xa6e\xb8\xcdK\xc3\x8a\x93U\xb7\xd6\xea\xaea)\xb2\xed\xa4\xc6\xd4D\xab\xc4\xca\x96\x9d\xa7\xd5q)\x1f\xf2\xf0\x90\xe5\xc3\x17\xc9\x9b+\xbf\xa6_3DbF3\x95\xc4MU\x8f\xe4+i6\xa5\xf9\xc2\xd1AwtR\x01\x89\xccxE\x9e\x97uT\xbd(\x8dkx\xb4!/b0g\xea\x0ei\xae\x9c\xfac\nU\xed#\xa0\xd1{m\xdd\xff\xf0v\xb2\xb6\xb4\xa9\xa4go,\xe3\x8alDY\xea\x96_=\xef\xeb:\xd8\x1az\x8a;\x8e\x0b\x7f\xe9\xd0V\xd4\x99\xbfC\xc4\xc0\x82^\xb1\x93U\xf4)\xe3\xd5=8\xac\x11`v\xda\xae&gt;yv\xdd\xfb\xa0ox\xc8\xae\x17\x13}\'\x1b\xcb\x99\x8b\x1cik\x81/\x0fks~\x05\xc6&amp;\xe6\xff\xca\xd7\x94\xeaF\xb3\xf2\xcb)\x93\xa5\xe4\xbd/\\,z\xc2\x16!\xe5\xd0\x01\xd9\x9f~N)\xbeP5\xfc\xf4P-T\x95\xcfo\xe6\xbc/*;\x86]\xb3\x89\xf82\xe0\x8b\xc3\xc7*?d\xdb\xedM\xe4\x032[J\xbe\xdc\x9b\xef\t+\x0clgV\xe0(\x13\x07?\xf9=].Ut\r\xc4\xd5\xad\xf2\xf5\xaa\xf0\xbdPe\xfe\x8fE\x96o\x17\xfet\x94\xa9\xa4\x0f!}\x88\x90r9\x8a\xda\x13\xf6\xa9\xd9\x90\x81\xf0\x1e\xa8\x04Ld\xa9\xb3T\x10\xa6\x1ci\xc4\xf9\x07\x1f\xc3\x86\x81\x8a\xed\xe8\x15\xdb\x04\xdb\x1f\x08\xea\x19\xdd6\xc2\xf7\xfa\x93\xc3Z\x944\x80\xdfu\xc4a\x96S\xe7\xc1r\rS\\E\xa2\xd8"\xc5\xd2*\xde/\xe5\xb8\xca~h\xf6\x9d\x14\xd5\x10.\xf7\x0e&gt;\xd5\xed\xa3\x8e\xfe\xd0A\xa9\x0c\x14\x8e\x0f\xa3\xed\x95\x86X\x16\x8f\xe6\x9f\xf4\xcbM\xa4\xc9\x01\xaf\xdaN\x86\xca\x8aI\xdf8\x8f\x01\x96\x05\xdf\x1eu\xba\xf9\xa3\x14\x9a\x19\xcd\x1d\x07\xfa*\xac\x13%\x91w\xea#\x8181&lt;\xaafO\x82\xcaD[\xa9\x83&lt;\xd1\xd7\xc0\xd9#\xbf\x98t\xe6K\xf6$9\x92f\xde\x8e\x15\xc9\x1ckUw\x17\x13\xae\x9d\xd9n\xcb\xc1\x13\xc0z\x87\xcfV\xa3g.\xc2\xf9c\xbci\xf41\xeb\x07&lt;a\xed\xc0\x8c8\xed\x1e\xc0D\xbc\xa0\'\xceq\xd4\x19\xf5\x18\x80u\x13\xc7\x9e\x83\x08\xa2\xd8iAv\xccL\x85O\x8e\xf3\xc6\xc8\xd7)\xb0\x84\xa7q\x8d\x86\x97#\xaewOe\xeb\x92i\x18\x89M\xd7*\xd8\xf1\xc0Z.\xfa\x8f\x87*\x80\xdb\x90\xde\x83\x01\xb6\x03g\xcf\x1dk\xf0\xf4S\xd0\xcd!\xb7\xb0\xc1\xd3k\xf1\xe1Z\x06\xba1\xba\x90{\x1c1\xb0\xda\xaa~\x80;\xce\x94\x01&gt;\x91\xa5\x15\xff\xb6\x11R\xbe:\xe6\xf0\xf0?\xe0&gt;&amp;\x06+\xad)"\xf1\xec4\xca\xf4\xd4\xe3\x96L\xd2w\xc1\xe9\xa3\'C\xd7x\xf4q\x08;U\xdeK\xa8\xbb\x1f\x02\xfc\xfb\xb8\xff\xc0\xe57\x9f\xc1n\t\x16P4\t5\xc7\xe3b\xb2\xeb]S\x01gs\xd5:\xb3\xf3\x0f\xbc\xd2\x92\x14\x15\x1d\xa3\x18\xc3;\x06\x1d\xf0\x97\xe3\xbf\xbb\xf5\xf5i\xe8F\xf6\xea\xa2\xc7m#\xaeW.t\xb0\xd9\x88p+\x97\xd9\x12\xe6\xdb\xa3m\xf6kG\x19\x97\xca\xa1c\xc7\xaf\xf0\xc6\x81\x99\xe3\x06V\xb4\x96M\x81\xefq\x05:\xa9\x96\xa9)\x89\xab\x0bq\x11;\xcc\xb6\xa2V\xae\xd3\xa6\xf4\xd4\xf3G\x0e=\x93\xac\x89T\x8bOY\x9d\x01\xa7\x7f|\xea$\xd7\xa7\x00\xb7\x10W\xd7n\x821\xc9@\x0b5\x1e\x02.\xfc\x82o\xa3\xb6c;$\xc9\xf7\x8c\t\x7f\xd2\xd1\xe1v\x9a\xd16p\xad\xec7N\xfa\xd2\xc3\xa9\x1f\xfe\x13C\xd3\x1c}\x1be\xf2e\xeca\x1bF\xea\x197\x95\x94\x10g\xc4\xa5\xe7y\xde\x16m\xb9\xa7\xf6\x0e\x14j!3\xad\xd3\xf3\x1bB=\xe4\xcf?\xf9\xab+g&gt;\xf8\x03\xc04\xaeW6%\x01\xddx\xecDT\x1f\xfeDo\xb6h\xef\x86\xba\x86\xc5E\x13U\xc0\xff\x1flZ\xef\xdc\x93\x05\xd8\n\x8cMk\x81\xc5`\xf7]\xa0\x81\x0b\xa6S\xb4\xd1G\xc0\n\xe2\xb9\xb2\x1b\xa0\x8a\xf0\xc4j\xe4`(\xf9\x06tW\xcf\x9e\xa9\xd058]\x17\x8b{\xfa\x7f\xc3\x16ut\xcc\xed\xff6\xb9\xb3\x04\xb9c\x01\xa9\xab:\xfe\x02\xbbLW\xf7\x17\xb3\xf3Qr\xb6\x93\x807d\xbfP\xc9IP\xa2\xe8\xb8\x84\x1c`%\xd7\xe1KU\xfa\xcaJ\xce\x157/\x01\x86\xeb\xa9\xdf\xf0=\xb1\xe5\xb3?\xfe\xfe\xf2\xec\xe4\xe6\x19\x93\xb7]\xdd~\xb5\xed&lt;H\xf5rP\xc7dFO1\xbb=e\'NqJ\xb1\x17\xcf\x04\r\x9a.\x01o\x98\xdc\x7f\x00\xb9\x10x\x02\xed\xa6\xd6\x1c-\xda[S&lt;\xe9\xe0\x82g\xed\x8d%]\x971\xb6\xbb\xd547\xd7\x80\x82\xbbi-\xb0\x96*9\xb5\xab\x98U\x88\xd2M\xf3,&lt;\xac\xc5\xf3N\x01\x93\xca\x84\xaf\x1d\xe0\xfd\xa2\xedH\xc9\xe6%\xa4\xcb\xbc\xa1\xa4\x0c&lt;\xc2t\x7f\xd7\xec\xe9\x07\x8bZq\xed;]\x7f\x18\xe8\xa7\xb2K\xcd\xc5\\\x9eT\xd86\xe9)\x0b\xd9\xd5V\xb2\x1a\x1c`\xcd{\x8e z\xd4\x90Y\x88\xa5\xab\x1f\x00\x93\xd9\xb5\xa9\xc5\x8f\xa7\x1d\xde\x87\xb9\xfe\x13\x1afkA\xdb\xbd\x16\x00\x0bb\x155\x06j\x00\xa50`y\n\x9a-\xa8Z\t\x9eFo^\xb1\x06^ln\x07\xd7&lt;\x13\xef\x03K\x8b\x86\xbdM[&amp;\xd7\x16\xf5b\xdd\x99X\xbc\x7f7h\xfc\xf5 0\x87hSkC\xba\x84:{\xf1\xc5\xdb\xa0\x8aq\xf1\rp\x8an\x9a\xbb\x12\xb6\xdd\xa9s\x0f\xb4\x8bt\xae\xa4\xec\xd1\xbd\x8e\xb5\xb5G:\xb08j\xd23P\xe7m\xf1\xaa\xf2bV&gt;\xeam\xfa\xe6p\xe4\x02f\xb7\x19%\xa0a\xdd\xf3\x90\x8dG\x1d\xeb\xae\xf7\x82]V{\x1b2\x00]~\xa7\xad\xa4\xf4\xea\xcd\xa2\xde\xb7\x18\x8e\xba\xf2\x014\xe8S{\x12\x18T*\xdc\x0c\xd4\x042\x16\xc0\x0c\xb7\nT3\x96.\xf8\x03]\xab\xd4\xbc\xf4\xe9\x99\xd6\x86\xa2\xd25\xd0\x11\x80\xf2\x9d\x17\x164\x94\xbe\xc1\xd8Y\xfa\n\\\xd1\xaf\xbeW\\\xccn*A\xe5m\xe8\x1c\xe2\xaa\xc0\x1a\xe8\x07x\xack\xe1\xb7{\xb0A\xa2\xe6\xe9w.\xbc&lt;\xf3\x1d\xbe\x12t\xd1V\xd4uw\x13\xd7\xce\x02\xa5\xc3\xd2\xb6s@\x1daT\xdf\x1c\x0fj\xe0K\xeb\x14\x17\xcf\xdb\x08\xae\x8bK\xb7=\x9e^\x8et\xca\x08\xf6\x12a\xe2\xf1\x9f\xbd`\xd5KV\x01\x1d+\xa8I\xa3\xe3*\xe4\xd4Y\x81!\xd6\xdf\x06\xae\x83j\xaf\xce\x7f?\x15\xf7\xf6\xee\xa6\x96UO\xa0\x89\xef\xe8\xbaf\xd0\x89\x10\xb4;\xaa\x82C\xc9\x8a\x154\xbbr\xb2\x13R;\x96-y\xd4\xff\x1d}\xb9dq\xc7\xf2\xb3\x87`c\x7f\xa5\x0b\x9e\xed\x07\x86\xa5\xac\x14m\x8f\x1c\xe103\xe5\x02\x15\xd8\xe7\xdeA]VTR\xb6\xf8\xc8\x81\x07\xcf\xfe\xdc\xed\xdfr\xed\xd0\x8f\x0b\x9f7\xb7M\x81m\xdf,Ypx+(\xdf\x9a\x18\x8b1\xd0\x1c\x08\x0b\x99\x83\x0e\xaf\x99w\xf6\xd5\xe4\t(c\x8f(\xcd\xac\x92){\x9f\xee\x04\xb9\x89UT\x9c\x89\x81.\x80EM\xda\x12\xe4\xb2\xf2\xa9g\x9f\x9eZ\x02\x0c\x9c\x06\x84\x8bJ\x1bJ\xaa\x16\xaf~\xf0e)xd\x85\xdd\xdc\xde\x8c\x9eG\xd9p\xaa\x19\x1b\xe9B\xd2\xf6\xec\x96{{\xaem\\\xf9\xfa\xd1\xb7\xc3\xaf.\xfc\xd8\xb2ag\x0f\xb4m\xc3\xa5\xadiF\xffC\x898\x84\xa3\xf8DUY\xb1\xe6C\x1d\x91H\x1en^\x86\x01\x03\x9c\xcaNB\xd2V\x0ea\xaa\xb2\xba:::\xba\xb2&amp;\xb1\x0e!|\x1a\xdcb\x03wt\x13jr\xe3d\xe2\x15\xe6e\xe2dc\x18\x05\xf4\x06\x00\xf9\xd0 \xc8\x1d\xc9A\x04\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67006944444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1980</v>
+        <v>1962</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -750,20 +750,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00."\x00\x00."\x01\xaa\xe2\xdd\x92\x00\x00\x02\xfdPLTEGpL\xb0\xaf\xaf\xff\xff\xff\xdb\xb3:\xf9\xf6\xef\xff\xff\xff\xf2\xec\xd9\xff\xff\xff\xfa\xf9\xf5\xfa\xf8\xf2\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xdd\xb7E\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xab\xaa\xaa\xd3\xc9\xb0\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xbd\xbc\xbc\xc5\xc4\xc4\xe3\xc5i\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb3\xb2\xb2\xb0\xaf\xaf\xd8\xad+\xd8\xad-\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xae\xad\xad\xe0\xbdT\xad\xac\xac\xaa\xa9\xa9\xd9\xb05\xe4\xc6k\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb0\xaf\xaf\xd9\xb04\xb7\xb6\xb6\xda\xb28\xdb\xb4=\xd8\xae.\xb6\xb5\xb5\xdb\xb3;\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xac\xab\xab\xd8\xaf1\xb9\xb8\xb8\xe1\xc2_\xd9\xb02\xae\xae\xae\xb6\xb5\xb5\xdf\xbbP\xdd\xb7E\xd9\xb16\xb2\xb1\xb1\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xb8\xb7\xb7\xb5\xb4\xb4\xb8\xb7\xb7\xdd\xb8H\x00\x92?\xff\xff\xff\x01\x92?\x00\x92&gt;\x08\x95C\xfd\xfe\xfe\xd7\xac*\xaa\xa9\xa9\n\x96E\x01\x92@\xfc\xfe\xfc\x03\x93@\xf6\xfb\xf8\x00\x91=\x00\x91&gt;\x05\x94A\xfe\xff\xfe\xfa\xfd\xfc\xe1\xf2\xe8\x10\x98I.\xa5`9\xa9h\xf9\xfc\xfa\x12\x99K#\xa0W\xfe\xff\xff\xe6\xf5\xec\x1c\x9dR\xd1\xeb\xdc\x9b\xd4\xb2\r\x97G\xf9\xfd\xfb\xec\xf7\xf03\xa7d\x14\x9aL\xea\xf6\xef\x1e\x9eT\xd3\xec\xde&gt;\xacl\xdd\xf0\xe5P\xb4z\xf2\xf9\xf5,\xa3]\xd6\xed\xe0\xf1\xf9\xf4m\xc0\x90 \x9fU\x0e\x97H\xcf\xea\xda\x19\x9cP1\xa6b\xca\xe8\xd7\xf8\xfc\xf9\xe3\xf3\xea\xb7\xe0\xc8u\xc3\x95\xa5\xd8\xba;\xabjG\xafr\xb3\xde\xc5\xba\xe1\xca\xef\xf8\xf3\xb0\xdd\xc3\x85\xca\xa1\x17\x9bOM\xb2w\x9e\xd5\xb5\xbe\xe3\xce*\xa3]%\xa1Y\xc8\xe7\xd5\xcd\xea\xd9\xf3\xfa\xf6W\xb6~\xad\xdc\xc0B\xado]\xb9\x84\xda\xef\xe3S\xb5|X\xb7\x80\x91\xcf\xabk\xbf\x8e6\xa8fJ\xb1u\xa1\xd6\xb7\xc3\xe5\xd1\xd7\xee\xe1a\xbb\x86[\xb8\x82\xe5\xf4\xebE\xafq\xbc\xe2\xcc\xaa\xda\xbe\x9d\xd5\xb4w\xc4\x97\xf4\xfa\xf7\x8c\xcd\xa7\xa8\xd9\xbc\xef\xf8\xf2\'\xa2[\x98\xd3\xb0f\xbd\x8a\x96\xd2\xaf@\xadm\x8f\xce\xa9|\xc6\x9b\xa3\xd7\xb9\x93\xd0\xac\xc6\xe7\xd4\xf5\xfb\xf7g\xbd\x8b\xe8\xf5\xeei\xbe\x8c\x80\xc8\x9d_\xba\x85\x87\xcb\xa3y\xc5\x99\xc0\xe4\xcf\x16\x9bMO\xb3yr\xc2\x94p\xc1\x92}\xc7\x9c\xf7\xfb\xf9U\xb6}\xb4\xdf\xc6\x82\xc9\x9f\xd9\xef\xe2\xdf\xf2\xe7c\xbc\x88\x94\xd1\xae\x8e\xce\xa8d\xbc\x89\xc4\xe6\xd2\x89\xcc\xa5o\xc1\x91\xed\xf7\xf2\xb6\xdf\xc7\x8a\xcd\xa6o\xc0\x91\xfb\xfe\xfc\xea\xe1\xe7\xa3\x00\x00\x00rtRNS\x00B\rB\x03\xf8\x02\xfc\x01\x06\xee?t\x11\x82:\t\xeaj\x14\xdf\xba\x19W\x0fe\x8e\x89 \xf0#\xe7\xf3\r,\x1d\xdb\xe55\xa5boK\xb6\xf6\xf3/&amp;\x15\x1b\xc5|\xe2\x93\'\xcb\xb3\xd8\xa8y\xac\xfa\xf3x\xc0[D\xcb3\xe9\xfb\xba\x16Q\xc8\x9e\x97\xc6^\xa4}\xe5P\x8f\xa1e\xd3\x98\xab\xb0G^`\xce\xdd\xdcE)\xd6\xc0eN=\xb4\x93\xd5\x99z\x9a\x9d&lt;XAH\xc2d\xf6\xcd\x00\x00\x19GIDATx\xda\xecYyTSW\x1aw,\x18\x16K\xad\xe3\x86\xd5A\xad\xcb\xa8u\xac\xadck\xd5\xb63.\xb5\xb6V[\xeb\xb1\x9d\xe92]\xa7\xcb\x99\xed~/\t\x01\x02$\x18\x16C\x08\x10\x126\x91E\xc2\xae\x80,\xb2Yv\x8bV\x05Q\x11D\x04\xeb\x82\x08.u\x1dk\xe7\x9c\xb9\xf7e{\xef%@X$\xf3\xc7|\xe7\xe4\x9cw\xder\xdf\xef}\xcb\xef\xfb}7\xa3F\r\xd1\x1c\xdf\xb2x\xda\xd5a\x94M\xed/\x9fY\x02`\xf7\xf1\'\xb6\x85\xf5\xe6\x8cg-\x9c]\xe3\xbe\xd9\xa6\xa8\x1c\xd7\x8a,Eq\x8b\xfb\xc616\x8d\xa1H\xb4\xd2&lt;\x8av\x9f\xba\xafZb\xd3\x18\x8aD\x16\xa2\xb8\xc6\xdd\xdd\xdd\xd5\x16pf\xfeJgkE"\xd1\n\xdd\xe1b\x82\xe71\xda6aX\x1bu\x87_\xda\x8d$,\xbb\xcfg\x88\xd8\xb6\x928\xed\x93\x8d\xeel{\xfb_#\xec\xaf\xc5\xab\x99\xa0f\xac\xd0ye\xe6\x96ULT\xaf\x8dt\x8698\xcc\xfcj\x9d\x11\xd5G\x7f7\x9e\xff\xe2m#\xa8U\x9b\x1dm\x90_\x0e\xef\xace\x06\xd0`K^3\x04\xf01\x1b\xd5\xe1\n}\x04Y\xb5\xe8\xb0D\x1fGW\x1b\xa1\x1acH\xafw\xd8\xfdP\xef\xad\xbf\xda\x08\xd6b\x92\\\xa4"W\xb2\xbcE\x82\xf82\xf9\xad\xb7Y\x0cg\xbc\xb5\xf83\x91h\xedLfnaH\x9b\xd6o^e\xab(:\xac\x16\xad\xc6\x1c\xea\xb8b\x1d+\x8a\xae\xee/\xbb\xe2\x86\xf8\xe5\xc76\x8a\xe2\xe2uo\xd2^\x1a\xf3\xcf\x8fV2c\xf8\xe9\x1a\xfa`\xfd&amp;\xdbD\xf1\xf3\x7f\x18\x9a\xf4\xb3_\x99\xa2\xb8d\x8b\xe1\xd8\xce\xf5\x0b[\xc0\x1a\xc7\xe8E\xa6\xce\xe7\xc8h\x82\x8e\xa3\xfeo\x16\xd3\xdfq\xdc\xe8)S\xa6\x8c\x1eg\xe7\xf0?\x81\xc7q\x92\xf3o]\xe6M\xfcp\x82\x9b\xd3\xa2E\xd3\x9d\xdcfoX\xf8\xc6\xf3\x7f\x9e\xfb\xb8\x9d\xed&lt;4\xc5\xf9\xdb\x17\'\xf0\xc0`R\xa1\xd4x\xfc\xcc\xf2\xf7\xe6\xcf\x1d7\xf2\x98\xecf\x8d\x9d\xb8\x88\x00\x10\xb6\xd7\xa55\xf5t\\\xcf:\x10P\x93y\xa0\xb62\xfef~\xe7\xad@\x1a\xa0\xd3\xfb\xe3\xa7\x8dhLg\xb9|M\xde\x9b\xa2m&lt;\xec\xef\xe1\xe3\x8b\xd8\xe6\xe3\x1b\x14p\xba\xbe\xce\x0b\xdf\xc1{n\xec\xd3#\x84i\xca\xd6\r\xc4K\x91\x8dG&lt;|\x8cP|}tf\x82\xe8s\xa52?\x95 [\xf8\xfa\x08\x10\xc5\xb4\xa9N\x18SR\xeb)\x8a~9\xdf71\xb9\xe2j\xd5\xd9\xbd\xda\x90\xba\xf2\xb8\x90\xa2\x1b\xf9\x8d\xd5y\x85\x06\xbc\x92\xcc\xaa\xed\x18\xd9\xd2\xb1\xbf~\xb4\xa0\x96\xbdk\x0f\xa0nV\x89i\x0f\tT\xf1\'\xe2\xda\x85\xc05\xaf\xd8b\xe5\xc5B\xfa\x1e$\xc8\xcbI\x01\x98\xfe\xd4\xa4G\x07\xea7o`Pu\xd52\xdaM\x8a\xdb\xc7\xd4\xe6\x88L\xe6wKY\x11\xc4\xc7wR\t\xbf\xa8q\xfe\xbb&lt;"\x8f=\xee2\x1d \xa4T@0]9}\xd4\x1b\xfa\xb7\xec\xb2\xeb\xa1\xe4\x1b\x82\x1a\x82\x01\xe6\x8c\x7f\x0496\xe6\xf5\t\xd8S\x87\t(q\xd4\xc1l\xddk\xe5\xe1\x05\x8dq}#\xfb\xe1n!\xc9\xc2\xa0\xd6\x9f\x01^xb\xb8Q=\xfd\x1e\x0f\xc2\x1b\xc8\xa7\x0bJ\xef{\xd1/L)\xba\x90)\xf3\xbd\xed\xd5\x9f\xcb\x02sZH\x9ai\x94\x81`?u\xf4\xb0\xbaj\xb2\x1bx\x9d\xd0\x90\xda\xaa\x8c\xa4\xdf\x15v.~\x07\xf1\x82\xaa\xc4\x8aX\n\x8f\xb6x\xe2\x1c\x0b(\x06\xf8z\x18\x1d6\xfao&lt;\xd8\xde\x85Qx\x1e)\xa6\xdfs\xfe\xae\xbf\x8e\x1fdu`\x95y\xdd \x0f\x08\x1a\xda\xc1\xfe\x95\xe1\xca\xb0e\x1f\x82\xf0\xd8&gt;\x0cbG\x0e)=y\xb9\xae\x16I\x91)\xc1ZKi\x0b\xc2\x0f$\x87\x00\xbc?&lt;%\xb9\xc0\t\xdaO\x93o\xbd\xba\x8b\xac_~H`d\xf2&lt;\xcb\x0c\xb1+G\x19l~v{\x05^\xc4\xa3Y\x08\xcb\x7f7\x0c:a&lt;\x0f\xa2U\x18\xc2\xfe\xfbd\xed\xf0n\x13($K\xb5\x80I\x1eyZ\xc6G\x1a\xb5\xf9\x15i\x06q\xd8\xa1\x12p\xfa\xd3\x90\x95\xc2T\x80\xce\x08\x1c\xae\xdb\xc4U^\xca+\xcc\x9e\xdcf!\xbb\x0bj=\xe9\xb6\x93a\xc9\x8d\xdb[0\xbf\xaaR\xc1~\xeb\x10U\xde7 ?\x8b\xfd\xe3QO\xc2\x15\xd7\xc2R\n*?\xb3\xf7\xee\r\xa0\x90\xb86\xbf\xbbA\xe7Gaq\x12\xfbzX:\x0e\xa4\xa6\x18x\xf3\x87\xa2x\x1c\xe7\x81\xf0\x17L:\x1a-qU[(\x0b\x95\xb8\x80\x0b*\xecG1\x12\x1c\x8a\x94\x82\x1c\xa0\xa4\x13@\xbb\x93\xea\xe2\x86\xf8\x18^$\xa8\x00x\xcf\x0f\x1e\x97\xe3\xbb \xec\xc11Q\x11\x19\xa0\x8e\xa1\xd8\xb2\xaaK\xce\x85\xa5\xc4\x1f\xa0\xa3\xb5\x92\x0b\xbbC\xd5\x90\xea\x81\xae\xecbe\x17\xfe\x9dS \x94\x98\x03\xbc\xb1\x83\xce\xabm l\xc5X\x8e\x90\xa5\x8b\xf7s\xc4\x9e \xc9,\x84\xd5\x08e\xe9\x8e\xea|\x90\x0f\xbe~\xb9Y_\x91\xd2\xf0\xa2\xfa\xf4\x18\xff\x16\xf2}\xe5\xa7pR`\\\xf3\x07Y\x83. \xbc\x89}\x15s\x1c\xafuL\xc6A\x85\xae\x9b9\x0b\xf2\xb1\x1fHR\t\xcf\xd5 \xe4\xdfn\xa0\xd2\xe8\xb3\x1d\xfe\xa1\x14\x11\x13HQD\x12?\x19\xa1\xd04\xe0M\x1e\x14\xac\xad&lt;h\xc3yu\x1d\xcb%\xe1]\t\x17\x95DkA0`\xce\xed\x16z\xef9"A\xe2J\x9d\x9f\xbc\x0b\xae\xfaK\xf8\x0cN\xd9\x8bO\x06c\\\xb2"X4\x98F\xe4l\x0fe\xb8\x06\xf3\xf0G{]\xa6\xb8\xa8\xd0\x11KL\xda\x8a\x0b!@C!AE\x91\x90n\x9c\xd5\x1a\xee\x938|\x00\xa9\x85\xd8q\xe5\xe06m\xe0\x92a\x0eh\x13\x11\x8a\x8a%\x114GE\xe5X\xe2\xa5`\xd2\xa2P\xe2\x8f\xb4\xd8QW\xf9\x9b?\x87q\xed\xc1\xd7\xa2q\xdb\xdfy\x126\x0cTP8&gt;\x07\xc1;\x10*\xa4C\xd1d\xbe\xf8\xfe\x14#+\xe4\xfe`\xc2\xd5Y\x98\xa8j\xa4\x9f\x89~\x10\x84,[(!\x96b|5\xc6\x0b\xb6\r\xf0?\x18\x17\x08\xcbB(B\xa7\xf1\x9a\xcd\xd7\xbe`\xd4\x06\xd5\x94J/T\xd5ID\xc6\xd3\x95\x10}[\x80z\xb5\x08B"{$\x88\x9f;\xd0\xb4w\xe6A.N\xeb=\xba\xf7\xb5\x99\xad,\xf9\xc9\xd0l\xba)I\xbeN\t\xdeOP\xe8{\xa4\xfaA\x1f\xa0\x88\xab\xcf\xe3\x9b\xc8\xfa\xdf\xc3\x93\x03I\xaf\xd1\xb3\xe1\x1c\xfe\x1a\x83K\xcc\xbd\x95\xa9Oxy\x03%n*\xc9k"n\xf3G\xd4\x19z\xb6h\x8b@\xfdXV \xbe\xbf\x0b\xa1\x84\x9fa\xa1\xf5\xbb\x15\x0eS\xc1\x1b\xb3gK\xa0\x89\xbd9V\xa5\xbf\xd2C\x89\xdb\x8e\xd7\xf2\xb3\x02\xb1\xf7Bvg\x10\x16\xd7\xaa\xf8\xa8_K\'&gt;\xc5t\x7fQ\n\x1fX\r\xeb\t\x1e\xa4\xe3\xce\x15\xcd\xa0IN\x0c\xf5\x97r)\xcf\xbb\xed]\xa8e\xd7\x1dA&gt;\xee8\x84\xa7.\x0b\x90\x15&amp;yH\xfa\xba\'\xf2|\x08n\x93\xac\xaf\xc2b\x1cB\x93\xf2\xcc\xe0\xae\x9aLg\x93\xfc\x17\x8a\xba\xe4]\x812O*%T:}g\x88\nYg\nR\xae\x1dX\xf0\xee\x82mV\xc2\xfa\x00\xfc\xa20_\x9adK\x8e\xa5\x18\x80\xb4J\x8c\xfc\xb3KQ\x8d\xfa\xa0\x84\x8a\'@\x85\xcaDd\xad\x95\xe2\xec&lt;\x89\xd9\xab\x07\xec\xe7Z\x97\xef\x13 \x03\x135c\xfe\xeb\xe4\xec\xc9\xf8&gt;\xa4\t+\x8b\x8cYHu&gt;C@u\x90o8~\xcf\xd3jTH\\\xa6\xe3\xe9\xc4r\x98h\x15y\xcd\x87\xe3\xfb\xf5\x0e\xd1[\x92\x0f\x87\x10\xc3\xe9\xd3\xb1y\x84\xb4\xeb\x8e\t\xa8Ca\xa4\xa3\x04\xa0\x81\x98\x06\x8f\xc0\xc2\x03\x08}\'\xe5\xfd\xd1\x9a\x99~)\xdc\xe1\xa3+\xd9\x0cX\xe5\x1cX5zz\xb8VJ4\xaa\x07:LJ6)\x01\r\xcc\xc8\x87\xe3\x1c\xc6\x02\xe9U;k\x9c\x15\x8bC\xde\xc8lu\'\xc5\xec\x05\xab\x8d\x03\xf3E:M\xae\x91\xb2\x92\r\x10\x15\x12\x90\x19\xb3\x12\xa1\n)\xcf\xb9\xff\xdd\xf6\xd9\xd0\xc4G\x8a\xe3\xac\xb9\x81\x9d\xc9\xfc\x83\xa6m\x99j\n\xc5\x90\xdes\xc2\x03\r\xd8\xae\xe3\xe7"\x05H\x10\t/\xf6\x0bk2\xa4\x14r\x9c\x05\xb0\x83\x9d\xf1!\x8cq9=\x0f\x7f\x81&lt;_2pT\xc8S\xabs\xd7=\xe0\xcd\xea\x8f\xe0_\x85\x1c&gt;\x8a8\xc9\x86\xc5N\xe6P\xa6&gt;\x17\x92\xbcR\x8a\xd1`,\x0fw\x05\xad\x04%\x06\xc3\xd4\xfe6k\xed\xe5\xb5\xec2$v\x98\xb5\x9a?w\x93\xa6^2(T\x88J\xd2\x15c#&lt;\xd9\x8f\xf0z\n\xca\x05H\xc2\xdd\xf0\xe8a\xadV\xc1\xb9zb\x90\xa8\x10\xaa$O\xf3Q\xa1\x1f\xfc\xa1\xef\xbe3\x01nb\x82\xb70;p9\xdedi\x82\xc1\xa2B\x02\xac\x84J\x14\x88\xfa\xbe\x9f\xa4w\xe6\xf9\xf9#t\x96\x0b\xab\x93%\n\x9aY\xd7\xb424x\xeb\xc1\x0b&lt;@(\x1e\x9e\xe9s\x1b\xe7\xf7\x90$F\xb2p\xb3\x9dFfJ\xf3\xd3\x98\x97\xa2\x15C@\x85\x12\xb0\xf6&gt;G!E`\x9f\xfaf\xccr"\x1a+\xccw\xcd\xf61\xff\xa4\x88d2m\xf2PP!_&lt;\x9f\x05\x9eB\xd4}x\xa9\x0fvX\xc6\x93f2\xd9\xd2h\x07\x98M\xf6&lt;c\x97;\x06\r\xcd\xbe\xc3\x8b\xc4\x93`:\xf5\xb1I8\x1e\x82=\x90`\xbb9\xacn&amp;m]c\r\x86C\xb3}X;\xa6\xf9"\x15@\x1f\xb3\xecK\x84KU\xb8\x11\x9f\xe0L\xf2L!\xa8\t3\t\xb1&gt;i\x94Oyh2\xaf\xff\xe7\xc2\x19\xe5\xc1\xb3\xf5\xcd\xffn\xb8\x97U\x18$\xe6(j\xfeQ\x9c\x082$\x08\x87WzO\xad\xa5D,w\x03\xb4G\xdc`\xc3\xaac\xbc?\xd98O\x97\x07\xf5\xce\x94\x89\x01\xf1\xf9\xda\xf3\x9c\x1d0yl\\YC\x94\x8c9\xd5\xe2\xb7I\xa3H\x19\xf5N\x11\xd3x\x80S\x0b\xeb3\xad\x8f&amp;\x9b\xbds\xb5\xdb\xb4\xd0\x01\xc3\xc9\xf6\x9a\xde\xe8\xa8\xa6\xb5\x80\xd1\xbe\x84)%\xea[q\xea\xec\x12\xfd\xf7d\xef\xbd\xba\xdf\x93\xa9\xbf\x1b\x10j\x859\xbd&amp;\xd7\x02h\x0f\xa2\xc7\x873\x08u\xb0\xc3\xd8eN\xf2\xd2x\x8b\x98&lt;\xb2\x94\xa9\xc6\xffc\xc1\xab\xaa4\xbapw\xa8\x84\xf2i\x8eJ\x8c\x84[\x97:u\xa5R\x14\xaf\xdf\xee\x14\xe0\x99&lt;\xc7\x17\xd5\x02\xf4\xfa\xc7\xe3\xb7\x10\'F\x8a\x14\xba\x07z\x1ee\xc1:cz\xef\xc5&gt;\x12\x8b\xaai\xd3\xefh\xf9E\x0bs\xa3\x0e\x82w\x84G\x9cND6\x05x\x86@\x91O\x94\xbc*\x83\x8eDl\xfdN\x92g\xbe\x98\x05\xa31s\x01,\xe8\r\xd6&lt;(\xe3\x93\x18\xe1I\x94\x1e-\x19Vl\x92\xe9\x0f\xf4\x14\xbb\xcf|w\xa1#\x89\xf6\xb1\xf0\xa7\xa6JEB\xe0N|\xab\x05X1\xfc\xd0Jz\xa0\xf3*\xc3\x12\n\xe5\xe2)n\x1f\x12\xab\xa1\xd7\xed\xc1\x17\xe0\x12-=cC\r\xb3\x89\xe9\x8f\x1b\x05\xaba\xe05\xf3\xb8u\xa7i\xa4\xbd\xe0\x9d\x16\xa2 @\x08\xac,\x8b\xb0\xc8E\x9dO\xfd\xda\x82\x88\x18\x94\x06 _-|\xd3\x1b\x9b\xba\xc1iZ\x01\xc6\xd1UL\xdda\xba\xeb\xbf\xa4\\kO\x1b\xe9\x15\x8e\xaa\xa6d\xd5\xad\xb6iw\xdb\xaa[e\xa5v\xabFZ\xa9\x1fZ\xad\xaa\xf6Sw?\xb6\x7f\xa0\xd2\xfe\x85\xed\x97\xf7\xcc\x8c%_`l\xb0\xb9\x1a0\xd8\x98\xab\x8d\xb1\x81\x006\x04\x08\x10\x02\x01B\xc0\xce\x12\x08\xf7\x10.\xb9@\xb9\xa6I\x08\xe4F\xb2I\xd5\xf3\xbecf\xc6\xc6c.\x99\x8f\x96\x19?\xf3\xbe\xe7}\xces\x9es\x86&gt;\xf9\xf7\xf7 \x81\x8b\xc3\xcf\x8eKt\xa6+\xe6\xc6\xd8\xcaRX]F\rXd\x0ekJj\xfad\x04\x8bs\x99\x16\x9c\x86O\xb4\x8a\x8b\x14\x18%"\x1e\xc4\x0b\xd2\x8d\xf4\x1b*X\xb7\xf8\x98L]\x16\xc3\r|N\x01\xfe\x86\xc5\xfdn\x17\xee\xfb\xcd\xdd2,k\x85\x02\xebN\x0c,\xdf2xg{\xf1\x14:\xa6\xea\x18+\xef\xc1_5\n\x8ds\x006"^V&lt;\x07{\xbf\x02\xcb\x85z^\xb0m\x8dl\xd9\xa6\xe9\xea\x0f\xabQm.\xa0p\x9e\x1c\x0f9\xd3"\xe0\xd2\xfb\xcadX\xe6\x0c\x84UV\xda^\xc8\xad\xdf\xadR`\xd1\'l\xc4\x9c\xc3\xcd\xd7H\xee\xf3]\xca_g5\xe6&amp;&gt;\x02(!\xdc\x0e\xf3x\xa4\xabS\xd5=\x19\xb6\xefePYj\xa4\x149\xaebD\xc1\xcb\x02e\x85/\xb0\xe1\x8f\xf5\x9b\xec\xcb\x14\x96\x98\xe3\xa8$\xdc=\x84\x85\x15H\x0e\x87\tM\x86%NM\x15\x92\x11\x9a\n\x89\xf0\x88\x19\xbf\xd3\xf4|\x9f\xfe\x95\x16mea\x1a\xc0\xdfx\xa8\xe8c\x05W\x8dJ\xee\xcc(\xec\xca\x95\xe2\x13\xbb.\x02|G\n\xb6p+.\x8b\x81"\x83\xf0\xfa\xeeX=T\x12\xfeR"Xi\x17Pk\x96\xa4{I\x89\x8f\x97BbL$\xed\x00\xbf\xd0*z&lt;zR\x88\xbc\xf0LY\x8aY\x95~\xce\xddY+/\xddj\xad\xca\x05\xdd\xe0&gt;g\xb5\x15`\x86\xdcm\xcbd\xb0\xbc(\\Cb\xb0\xc8\x90\xcd\xbe_\x89BV\x03V\r\xaf\x7f\xe3%\x0b\xae\xde\x97\xac7T\x9bF\xe6\x01\xce%\x86\xf5\r\x14\t\xc4\xeaa\x07C\xbe\xfcr\x0b\xc5s]R\xc7\xc2\\\x0bX\xd6\xa5\xa5\x1a\xa8\x07\xcfB(_\x94`Mam\xb5\xc4\xaf\xaa`m\xa5n&amp;\x84\xe5\xd2\x9b3\x10\x96\xcaM\xc0;h\xf4\xf3\xceC\x9e@\x9c\x15\x00\x031\xc9dA*tf\x9a\x94b\xdf\x05\xa9\xd41r.!\xb5]\xe7/\xed\xc3\x9a\xe6{0z\'T\xb0\x8a\x1f\'\x86\xf5\xd8np{I\xa0\xef\xc1\x04\xf3]\xddi\x04yB\x13\xd6\xb2\x04\xab\'\xae\x9c\xa3V\xb2N\xbd\x84\xe5FT@\xdcU&amp;\xcc\xe6\x88\x0ck\x83\x1b\xc6\xa8\x19T\xc1\xf2W\xb4%\x84e\xec\xe4",\xa5\xea[\x0e\x85\xf5\r\xbc\xd1\x13_\x8b\x9a:\xa3\xd60rB\x87:\x03r\x17 \xb5\xabU\xd2]*Xe\xe6\xa1\xdc\xd7bo\x91\xa1\xf0\xe2\xf8\xda\x05\xa8\xd4[\x85\xfe\xc4\xb0\xa0\x984{iZ_`7\xe9N#M\x9a\x9b\xf8K\xa8\x90B~.&gt;\xd9}\x17\x0f\xb5\x07sb4.T\xb0R\xad9\x8e\x01\xae\xbb\xc8@Dj\x91Wf\x07\xb8f\xbf\x16\xac\x0e/\xb9\xde"\xd1\x16~LS\xf19-\x82pX\x99\xd0X?\xe8\xe0Zbm\x88jE\xa1\xaa`A\xa7\xd5\xd3$\xd4\x17\x19$\xe7\xbe2\xbb\x87\xdcI\x0c\xcbX\xc9\xd5\xb2\x90\x1f[a\xa5\xa6H\xb64\t\x02\xe9\xb4\x9apU\x00o\xe3a\x85\xa1.\xd6\xd4\xce\xf6$\x845j\xce\xe8\xb2V\xc8\xb0|\r\xe4\x91=!\xac:\xbb\xe9\x06\xc2\xaa\x1f10Q\xb9D7D\x8bN\xcf\xd1\xb5\x15#\x00\xe1xXw\xc0X\x12\xf3\x81_\xca\xcb\x8f\xdb\x07c`\xf5\x89\xaf\xfc%\x0e\x19V\xe1\x14\x99K\x0c\xabHo\xbe\xe9%\x99\xd6(/.\xd0R]+\xf9`\xaan\'&lt;\x86w$\xed`+e8\xb6?\x96\x0b\x946,\xd5\x01\xdd*\t\xbb\xf7a5\x88\x8d&gt;\x1b(\xb0\x1a\xc5\xe1\xea8XA\xa0\xb0\xf2Ia\x05=\x89M\x92\xc0\xc1\xb4\xf2B3U\x9f9K\xfb\xa7(\xcbvc;[\xe6uL\xf2K\xea\xcf\xf8\x02\xac\x10i\xf7\xf5\xa9p1 \x86\xfa9,\xa8V\xc98&lt;\xe7\xd7LA\x84%\xf4\xf5=\xa3\'1\xc2u*\xb0J\r5\xf8\xc0\xed\x0cV\x98\xb7Q\xcd=\x80l\xa4C\xeeCQ\xd1\xab)lP\x06\xbe \xe4\x19*\xb9\x98@r2_\xb9N\xed\xb8\xdb&amp;\xe1\x9e\xc1:m\x81+C\x1cI\x8b\xd4\x9bstHvK\xb0-\xae\xf2s \xf3\x96\xbe,\xdb\xaa\x84\xfcU\xae\x16\x9a\xc5\'\x14\x16\x92\xf1CL\xd5+\xb4\xc7\xb2\xf6\x06t\x01j\xe5}\xab-\x9aC&lt;\xcd\x02:\xb5\xcdV\x19u\xc2\xddJzv\xd60qjz\x9d\ny\xf3\x9c/\xaf\xc5\xaawY\x9a\xf8mp\x1b\x8a\xc5\xa7*Xy6\x83Y\x86\x15$\x1d(\x15F\xa0\\\xf4\x96\x12\xae\x19^/b\x1c\xa47\xd8\x8cPa%f\x8f\xb6h\xfe3\x94\x99\xc9\xe6\x15\xd6^\x90\x9bNRi\x8f\xe2\xdb\xbdo7\xd8p\xfb\xc2,~2\xfb!\xab\xe3\x1e\xe8J\xc9\x7f\xddV&lt;,yzA\x1cW\xc1Z\xc6\x88\x94a\xb5c\xd8.\xe0\x89+\x8fV\xd3eHY\xa9\xab\x1c\x96\xfbn\x9eti\x97\x18gP\xd9\xa0\xd8\xc7\xd5\t\xcbR4(1\xc1\x8d\xcdf\xbcGx\xb4\xcd\xb7y\xb5\x00\x7fg,j\xf2fKM;\xdc{\x13\xb5L\x1eg\x131\xa4\xc0\x12\xf2VT\xb0\x06\xc8[\x8c]\xaf\x04K\xf2\xc8\\A&amp;v\x1bY\x95\xf7\xbb$\xe5\xeb(j$\x80\x9d}X\xc1\ni\x07{\x88\xfe6\x95\x7fY\x1ej\x95\x1a/\xc9\x83\x1a\\\x0fe\xfbeZ\x05\t(,f\t\xa9U\xc3\x1aT\xc1\xbaF\x86\xdcmd\x8d\xc1\xf2\xb3\x13\xe8\xc6\xaf\x1b\xdclPa\r&gt;\xfb I\xb1\xff\x1f\x16\xf3\x8e\xa8\xf5_\x1aEU\x83\t\x91\x1b\xed\x90\xa8==\x12T\x9f\xca\xb6F\\\xb0F\xfcB0\x97:;\xe6]\x84e\xf58\x8c\x16\n\xabYT`adp\x84\x0fQX\x85\xb4\xbfoaC\x0c9Y4\xe2\xf9\xa4~\xe0\xdf`\x0c\xb79}_\x08\xda\\1\x96.\x9f\xb3JI\xe1I\x9c\xbb\xc1\r\xdf\x00\xcb\x1d\xab\x99\x16$\xab\xc47CyK\xb0w^\x9dDX\xbb&amp;\x05\x16\x93\xe2\xdcM\x845Do3\xb9\xc2\x1e\x0e\x93\xcfM\x81\xe8+\x92X#\xa7~F\xdd\x13\x13.k/\xfdi\xff~C\xb1^\xf6l\xa9c\x129PM\xeb\x17=\x90\xca\xe4\xf5:\xf5s$:\xd5{\x10\x16\x9e1\x19\xd66mh\x95\xe8\xa0\xef\x05]\xf5{\x9d\x92\xef\x86i\xbb\x91\xa7\xda4\x89\x91\xf4\xdb\x14\xca\xe6\x0bR\x01+D\xf6\xd3\x9e\\rpl&amp;\xe3\xc1\xc1"\xdf\x7f[\xea\xd4&gt;\xa7\xfc\xa2\x82\xe5\xc8Q`\xe5\t\xd2\xe2PP3\xaf\xcd\x8a\xbf\x85{\xf16\xa9\xed\xf6\xa3\xcf\x01\x83t\xdeBc\x9c\x1f\x94\x1d\x97N\xb9\xef\xc0\xfa\x173\x89\x9aN]a\n\xac\xd6\xd6\x13\x03\x0b\xe6\x15XF$d\x13#AGX\xae\xd1\x11fE\x1b\xbd\xef\xbf\x92[\xbae\x02\x11p\xf3Bb\xb9\xdc\x14p\xcb\xc1$\xdd\x15B\t\xdd\xb6\xae\xe7H&amp;\xe9HsE\x9c\x02\xeb\xa5\x02\x0bi\x87\x9b\xa0\xe78T,\x1f\x19\xfe\x1eP\n\xef4\xc2\xf9\xe4\x068R#\xa6Mp\xd8\x94\xa1\x8b\xb5\x98\xb6\x03=C+\x1a\x8ecC\x15UuY{\xc1M\x9e\x97`\xbdU\xc12\x86\x9au\x90zkHu\x8e\x03\xe9l\x0f\x1f\xc1\xe9\x9f\x1f\xd2.x\xce\xb3\xee\x89j\xe6P%\x1e\xa2e\x90\xc7\xa6e\xb8\xcdK\xc3\x8a\x93U\xb7\xd6\xea\xaea)\xb2\xed\xa4\xc6\xd4D\xab\xc4\xca\x96\x9d\xa7\xd5q)\x1f\xf2\xf0\x90\xe5\xc3\x17\xc9\x9b+\xbf\xa6_3DbF3\x95\xc4MU\x8f\xe4+i6\xa5\xf9\xc2\xd1AwtR\x01\x89\xccxE\x9e\x97uT\xbd(\x8dkx\xb4!/b0g\xea\x0ei\xae\x9c\xfac\nU\xed#\xa0\xd1{m\xdd\xff\xf0v\xb2\xb6\xb4\xa9\xa4go,\xe3\x8alDY\xea\x96_=\xef\xeb:\xd8\x1az\x8a;\x8e\x0b\x7f\xe9\xd0V\xd4\x99\xbfC\xc4\xc0\x82^\xb1\x93U\xf4)\xe3\xd5=8\xac\x11`v\xda\xae&gt;yv\xdd\xfb\xa0ox\xc8\xae\x17\x13}\'\x1b\xcb\x99\x8b\x1cik\x81/\x0fks~\x05\xc6&amp;\xe6\xff\xca\xd7\x94\xeaF\xb3\xf2\xcb)\x93\xa5\xe4\xbd/\\,z\xc2\x16!\xe5\xd0\x01\xd9\x9f~N)\xbeP5\xfc\xf4P-T\x95\xcfo\xe6\xbc/*;\x86]\xb3\x89\xf82\xe0\x8b\xc3\xc7*?d\xdb\xedM\xe4\x032[J\xbe\xdc\x9b\xef\t+\x0clgV\xe0(\x13\x07?\xf9=].Ut\r\xc4\xd5\xad\xf2\xf5\xaa\xf0\xbdPe\xfe\x8fE\x96o\x17\xfet\x94\xa9\xa4\x0f!}\x88\x90r9\x8a\xda\x13\xf6\xa9\xd9\x90\x81\xf0\x1e\xa8\x04Ld\xa9\xb3T\x10\xa6\x1ci\xc4\xf9\x07\x1f\xc3\x86\x81\x8a\xed\xe8\x15\xdb\x04\xdb\x1f\x08\xea\x19\xdd6\xc2\xf7\xfa\x93\xc3Z\x944\x80\xdfu\xc4a\x96S\xe7\xc1r\rS\\E\xa2\xd8"\xc5\xd2*\xde/\xe5\xb8\xca~h\xf6\x9d\x14\xd5\x10.\xf7\x0e&gt;\xd5\xed\xa3\x8e\xfe\xd0A\xa9\x0c\x14\x8e\x0f\xa3\xed\x95\x86X\x16\x8f\xe6\x9f\xf4\xcbM\xa4\xc9\x01\xaf\xdaN\x86\xca\x8aI\xdf8\x8f\x01\x96\x05\xdf\x1eu\xba\xf9\xa3\x14\x9a\x19\xcd\x1d\x07\xfa*\xac\x13%\x91w\xea#\x8181&lt;\xaafO\x82\xcaD[\xa9\x83&lt;\xd1\xd7\xc0\xd9#\xbf\x98t\xe6K\xf6$9\x92f\xde\x8e\x15\xc9\x1ckUw\x17\x13\xae\x9d\xd9n\xcb\xc1\x13\xc0z\x87\xcfV\xa3g.\xc2\xf9c\xbci\xf41\xeb\x07&lt;a\xed\xc0\x8c8\xed\x1e\xc0D\xbc\xa0\'\xceq\xd4\x19\xf5\x18\x80u\x13\xc7\x9e\x83\x08\xa2\xd8iAv\xccL\x85O\x8e\xf3\xc6\xc8\xd7)\xb0\x84\xa7q\x8d\x86\x97#\xaewOe\xeb\x92i\x18\x89M\xd7*\xd8\xf1\xc0Z.\xfa\x8f\x87*\x80\xdb\x90\xde\x83\x01\xb6\x03g\xcf\x1dk\xf0\xf4S\xd0\xcd!\xb7\xb0\xc1\xd3k\xf1\xe1Z\x06\xba1\xba\x90{\x1c1\xb0\xda\xaa~\x80;\xce\x94\x01&gt;\x91\xa5\x15\xff\xb6\x11R\xbe:\xe6\xf0\xf0?\xe0&gt;&amp;\x06+\xad)"\xf1\xec4\xca\xf4\xd4\xe3\x96L\xd2w\xc1\xe9\xa3\'C\xd7x\xf4q\x08;U\xdeK\xa8\xbb\x1f\x02\xfc\xfb\xb8\xff\xc0\xe57\x9f\xc1n\t\x16P4\t5\xc7\xe3b\xb2\xeb]S\x01gs\xd5:\xb3\xf3\x0f\xbc\xd2\x92\x14\x15\x1d\xa3\x18\xc3;\x06\x1d\xf0\x97\xe3\xbf\xbb\xf5\xf5i\xe8F\xf6\xea\xa2\xc7m#\xaeW.t\xb0\xd9\x88p+\x97\xd9\x12\xe6\xdb\xa3m\xf6kG\x19\x97\xca\xa1c\xc7\xaf\xf0\xc6\x81\x99\xe3\x06V\xb4\x96M\x81\xefq\x05:\xa9\x96\xa9)\x89\xab\x0bq\x11;\xcc\xb6\xa2V\xae\xd3\xa6\xf4\xd4\xf3G\x0e=\x93\xac\x89T\x8bOY\x9d\x01\xa7\x7f|\xea$\xd7\xa7\x00\xb7\x10W\xd7n\x821\xc9@\x0b5\x1e\x02.\xfc\x82o\xa3\xb6c;$\xc9\xf7\x8c\t\x7f\xd2\xd1\xe1v\x9a\xd16p\xad\xec7N\xfa\xd2\xc3\xa9\x1f\xfe\x13C\xd3\x1c}\x1be\xf2e\xeca\x1bF\xea\x197\x95\x94\x10g\xc4\xa5\xe7y\xde\x16m\xb9\xa7\xf6\x0e\x14j!3\xad\xd3\xf3\x1bB=\xe4\xcf?\xf9\xab+g&gt;\xf8\x03\xc04\xaeW6%\x01\xddx\xecDT\x1f\xfeDo\xb6h\xef\x86\xba\x86\xc5E\x13U\xc0\xff\x1flZ\xef\xdc\x93\x05\xd8\n\x8cMk\x81\xc5`\xf7]\xa0\x81\x0b\xa6S\xb4\xd1G\xc0\n\xe2\xb9\xb2\x1b\xa0\x8a\xf0\xc4j\xe4`(\xf9\x06tW\xcf\x9e\xa9\xd058]\x17\x8b{\xfa\x7f\xc3\x16ut\xcc\xed\xff6\xb9\xb3\x04\xb9c\x01\xa9\xab:\xfe\x02\xbbLW\xf7\x17\xb3\xf3Qr\xb6\x93\x807d\xbfP\xc9IP\xa2\xe8\xb8\x84\x1c`%\xd7\xe1KU\xfa\xcaJ\xce\x157/\x01\x86\xeb\xa9\xdf\xf0=\xb1\xe5\xb3?\xfe\xfe\xf2\xec\xe4\xe6\x19\x93\xb7]\xdd~\xb5\xed&lt;H\xf5rP\xc7dFO1\xbb=e\'NqJ\xb1\x17\xcf\x04\r\x9a.\x01o\x98\xdc\x7f\x00\xb9\x10x\x02\xed\xa6\xd6\x1c-\xda[S&lt;\xe9\xe0\x82g\xed\x8d%]\x971\xb6\xbb\xd547\xd7\x80\x82\xbbi-\xb0\x96*9\xb5\xab\x98U\x88\xd2M\xf3,&lt;\xac\xc5\xf3N\x01\x93\xca\x84\xaf\x1d\xe0\xfd\xa2\xedH\xc9\xe6%\xa4\xcb\xbc\xa1\xa4\x0c&lt;\xc2t\x7f\xd7\xec\xe9\x07\x8bZq\xed;]\x7f\x18\xe8\xa7\xb2K\xcd\xc5\\\x9eT\xd86\xe9)\x0b\xd9\xd5V\xb2\x1a\x1c`\xcd{\x8e z\xd4\x90Y\x88\xa5\xab\x1f\x00\x93\xd9\xb5\xa9\xc5\x8f\xa7\x1d\xde\x87\xb9\xfe\x13\x1afkA\xdb\xbd\x16\x00\x0bb\x155\x06j\x00\xa50`y\n\x9a-\xa8Z\t\x9eFo^\xb1\x06^ln\x07\xd7&lt;\x13\xef\x03K\x8b\x86\xbdM[&amp;\xd7\x16\xf5b\xdd\x99X\xbc\x7f7h\xfc\xf5 0\x87hSkC\xba\x84:{\xf1\xc5\xdb\xa0\x8aq\xf1\rp\x8an\x9a\xbb\x12\xb6\xdd\xa9s\x0f\xb4\x8bt\xae\xa4\xec\xd1\xbd\x8e\xb5\xb5G:\xb08j\xd23P\xe7m\xf1\xaa\xf2bV&gt;\xeam\xfa\xe6p\xe4\x02f\xb7\x19%\xa0a\xdd\xf3\x90\x8dG\x1d\xeb\xae\xf7\x82]V{\x1b2\x00]~\xa7\xad\xa4\xf4\xea\xcd\xa2\xde\xb7\x18\x8e\xba\xf2\x014\xe8S{\x12\x18T*\xdc\x0c\xd4\x042\x16\xc0\x0c\xb7\nT3\x96.\xf8\x03]\xab\xd4\xbc\xf4\xe9\x99\xd6\x86\xa2\xd25\xd0\x11\x80\xf2\x9d\x17\x164\x94\xbe\xc1\xd8Y\xfa\n\\\xd1\xaf\xbeW\\\xccn*A\xe5m\xe8\x1c\xe2\xaa\xc0\x1a\xe8\x07x\xack\xe1\xb7{\xb0A\xa2\xe6\xe9w.\xbc&lt;\xf3\x1d\xbe\x12t\xd1V\xd4uw\x13\xd7\xce\x02\xa5\xc3\xd2\xb6s@\x1daT\xdf\x1c\x0fj\xe0K\xeb\x14\x17\xcf\xdb\x08\xae\x8bK\xb7=\x9e^\x8et\xca\x08\xf6\x12a\xe2\xf1\x9f\xbd`\xd5KV\x01\x1d+\xa8I\xa3\xe3*\xe4\xd4Y\x81!\xd6\xdf\x06\xae\x83j\xaf\xce\x7f?\x15\xf7\xf6\xee\xa6\x96UO\xa0\x89\xef\xe8\xbaf\xd0\x89\x10\xb4;\xaa\x82C\xc9\x8a\x154\xbbr\xb2\x13R;\x96-y\xd4\xff\x1d}\xb9dq\xc7\xf2\xb3\x87`c\x7f\xa5\x0b\x9e\xed\x07\x86\xa5\xac\x14m\x8f\x1c\xe103\xe5\x02\x15\xd8\xe7\xdeA]VTR\xb6\xf8\xc8\x81\x07\xcf\xfe\xdc\xed\xdfr\xed\xd0\x8f\x0b\x9f7\xb7M\x81m\xdf,Ypx+(\xdf\x9a\x18\x8b1\xd0\x1c\x08\x0b\x99\x83\x0e\xaf\x99w\xf6\xd5\xe4\t(c\x8f(\xcd\xac\x92){\x9f\xee\x04\xb9\x89UT\x9c\x89\x81.\x80EM\xda\x12\xe4\xb2\xf2\xa9g\x9f\x9eZ\x02\x0c\x9c\x06\x84\x8bJ\x1bJ\xaa\x16\xaf~\xf0e)xd\x85\xdd\xdc\xde\x8c\x9eG\xd9p\xaa\x19\x1b\xe9B\xd2\xf6\xec\x96{{\xaem\\\xf9\xfa\xd1\xb7\xc3\xaf.\xfc\xd8\xb2ag\x0f\xb4m\xc3\xa5\xadiF\xffC\x898\x84\xa3\xf8DUY\xb1\xe6C\x1d\x91H\x1en^\x86\x01\x03\x9c\xcaNB\xd2V\x0ea\xaa\xb2\xba:::\xba\xb2&amp;\xb1\x0e!|\x1a\xdcb\x03wt\x13jr\xe3d\xe2\x15\xe6e\xe2dc\x18\x05\xf4\x06\x00\xf9\xd0 \xc8\x1d\xc9A\x04\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x03iiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC" xmpMM:DocumentID="xmp.did:F8167189180211EF8B19CF4385D0BDAA" xmpMM:InstanceID="xmp.iid:F8167188180211EF8B19CF4385D0BDAA" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:1b63776b-fefc-b946-b5c2-0b58b31ff3f3" stRef:documentID="xmp.did:A853BC4A4AA0EB1185B6E4749B0937AC"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;*`t\xd8\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x00PLTEGpL\xe9\xe9\xe9\xfc\xfc\xfc\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xf3\xf3\xf4\xe0\xe0\xe0\xd8\xd8\xd8\xf1\xf1\xf1\xf8\xf8\xf8\xfd\xfd\xfd\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfb\xfb\xfb\xec\xec\xec\xff\xff\xff\xff\xff\xff\xf8\xf8\xf8\xff\xff\xff\xfe\xfe\xfe\xed\xed\xee\xff\xff\xff\xf1\xf1\xf1\xed\xed\xee\xfe\xfe\xfe\xff\xff\xff\xfa\xfa\xfa\xfe\xfe\xfe\xe8\xe8\xe8\xfa\xfa\xfa\xfd\xfd\xfd\xf6\xf6\xf6\xff\xff\xff\xfb\xfb\xfb\xff\xff\xff\xf6\xf6\xf6\xe6\xe6\xe7\xff\xff\xff\xee\xed\xee\xfd\xfd\xfd\xff\xff\xff\xf4\xf4\xf5\xff\xff\xff\xff\xff\xff\xfc\xfc\xfc\xde\xde\xde\xaf\xaf\xaf\xd9\xd9\xd9\xef\xef\xef\xe7\xe7\xe7\xe0\xe0\xe0\xd3\xd3\xd3\x94\x94\x94\xeb\xeb\xeb\xb4\xb4\xb4\xe3\xe3\xe3\xe3\xe3\xe3\xc3\xc3\xc3\xce\xce\xcf\xe0\xe0\xe0\x00\x00\x00\xff\xff\xff\xe1\x0b\x08\xe0\x0b\x08\xdf\t\x06\xe0\x0b\x06\xe0\n\x08\xde\t\x06\xe0\n\x06\xe1\t\x07\xdf\x0b\x06\xe0\x08\x06\xe0\x06\x00\xdf\x0b\x08\xdf\x06\x03\xdf\x03\x00\xdf\n\x07\xde\x06\x02\xe0\x0c\x07\xde\x03\x00\t\t\t\x02\x02\x02\xe1\x0e\t\xde\x00\x00\xdc\x02\x00\r\r\r\x04\x04\x04\xe0\x08\x03\xfa\xfa\xfa111\x10\x10\x11\xff\xfe\xff\xfe\xff\xff\xe1\n\x07\xfe\xfd\xfd&gt;&gt;&gt;\xe4\xe5\xe5\x06\x06\x06\x17\x17\x18\xe2\t\x07nno\xd6\x08\x06\xab\xac\xad\x1e\x1e\x1e\x1b\x1b\x1b\xfe\xfb\xfa:\x01\x01%%%xxy(()!!"\xf2\x96\x95\x14\x14\x14\xe6\xe8\xe8\xdd\x06\x03\xfe\xf4\xf3\xe1\x19\x15rst\xe1\x11\r\xfc\xea\xe8\xe596\x88\x88\x89\xfd\xf7\xf6\xe7GD\xf0\xf1\xf1---\xe2\x1e\x19UUV\xeb`\\``a\xfb\xfc\xfdXXY||}\xd6\xd6\xd7\xe540\xf0\x8e\x8adee455\\\\\\\xe3\'"\xecfb\xd3\x06\x05\xd3\xd3\xd4\xf5\xab\xa8\xf3\xf6\xf7\x80\x80\x81\xfb\xe4\xe3\xcb\xcc\xcd\xb5\xb5\xb6QRR\x91\x92\x92\xf4\xf3\xf4\x94\x95\x96\xaf\xaf\xb0\xc5\xc7\xc7IIJ\xe3!\x1d\xe4.*\x8c\x8e\x8e\xe6&lt;8\xe2\x16\x10\xeb[X\xfb\xe0\xdf\xed\xee\xef\xd8\xda\xda99:\xcd\xd0\xd0778\x83\x84\x85MNN\xf8\xf8\xf8\x9d\x9d\x9e\xb9\xb9\xb9\xa4\xa4\xa5\xe9\xeb\xeb\xdd\xdd\xdd\xfb\xd1\xd0\xf2\x92\x8f\xdf\xe1\xe2\xe9RM\xc9\xca\xcaFFG\xf5\xad\xa9233\xf6\xc0\xbe\xf6\xb3\xb1\xa8\xa9\xaa\xfd\xed\xec8\x01\x01\xe9VS\xff\xe7\xe6\xe8MHCCC\xb1\xb2\xb3\xfa\xdb\xda\xeews\xf3\x9c\x9a@@@\xc1\xc2\xc2hii\xbe\xbe\xbf\xfc\xf1\xf1\x98\x98\x99\xf1\x83\x7f\xc2\xc4\xc5\xed~{\x9a\x9b\x9c\xecli\xf1\x89\x85\xfa\xad\xaa;&lt;&lt;\xf3\xa2\x9f\xd1\xd2\xd2\xefro\xb3\xb9\xb9jkl\xfc\xd7\xd6\xbb\xbb\xbc\xf9\xa6\xa3\xe7D@\x9e\xa0\xa0\xa5\xa7\xa7\xf7\xcc\xca\xf4\xae\xac\xf7\xc6\xc4\xe6A=\xdd\x13\x10\xf7\xba\xb7\xbd\xbd\xbd\xa1\xa0\xa1\xc0\xbf\xc0\xa2\xa3\xa3\xf9\xf4\xf4\xe464\xf2\xa7\xa4\xff\xf0\xf0\xd8\xdf\xe0\xfe\xcb\xc9\xfe\xc3\xc13\x00\x00\xcf\xd7\xd8\x9e\xa4\xa4eBBI\x17\x160\x00\x00\x84[Z\xbf\xa1\xa2\xca\xbc\xbc\xd6\xc5\xc6\xb8\xbe\xc0\xdb\xc9\xc8kMM&amp;\x89\x8e\xa2\x00\x00\x00]tRNS\x00\x0f\xe9\xde\xcf&lt;\xf1\x03\x06\x1bOT\x96\x8a\xaa\xcb\x8fk\x15\xbbt)\xc4\xd5\xfd\xb6 \xf6d\xd9B\xe1\n#\\1\xa34\xa5\xf4\xf7\xae\xed\x86\xb2\xde\x9d\xb0\x80\xf8\x197\xdd=G0-507\xf2,\xf79\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xfe\x8f9\xf9G\x00\x00\x1c\x99IDATx\xda\xcc\x98yP\x94\xe7\x1d\xc7\x15\x11\x10E@\xae*\x12\x83\xd1i\x9cjf\x92N\xd3\xcc4\x9dy\xd8\xf7\xd8\xb7\xef\xee{\xec\xbernBY\x14\x86\xe1\x18A\xc0\x85\x95\x80  "\n\x13P\x81"7\x89\xe2\x11\x1b\x0f\xf0\x8a\xc3\xda\x00\r5\x06\xe4\x10H\xd5\xe8\x18\x93\x94\x0e\xd1\xd1\xff\xfb{\x9ew7q2\xd8\xd8Fa\x7f\xbc{\xb1\xef&gt;\xfby\xbf\xbf\xf3\xd9y\xf3\x9e\x9byx\xccsF\xf3\xf7wwB*\xcfwNx:\x1fU\x80\xeb\xedo]\x03\x9c\x8dj\xfe\xd2o\x12\x13\xbf[:\xdf\xb9\xa8&lt;\xbcN\x1dEh\xf4\xd4o\x9c+\xec}\xddv"\xb0}\xbf\xf6u\xaapwI\x0f\xc7X\xe1e.N\x14\xf6\x0bC\xea7"Tw\x1c\xa1\x8d\r!\x0b\x9d\x85\xea\xf7\xde\x9fd!\xb4){\xf3\x11\x84\xb2\x92\xbd\xff\xe8\x1cT\xa1~\xffLA(\xe3\xe0\xf4t\xe3\x16\x84\xb6~\xe7\xb7\xc2\x19\xa8V\xac\xef\xce@(ub\xba\xa3\xd8\xf2i"B\x85\xdd\xeb\x9d\x80k\xd1\xd2\xce\xbd\x08\xc5~\x15?\x1e\xa5\xf4\x85=\x8eFh\xef\x8d\xa5\x8b\xe6\x9e\xea\xc6Q\x1c\xe9a\xc3\xc261bOXk\x02\x94\xaf\xdds\xcde\xa7z\xaf4\xf3\xebm2E\xb7\xf7\x97\x1e\xc3\\\xef\xcf-W\xe8\xfaN\xc8\xbe\x84\xfd\xa5c_GieJ\xa3\xcf\xb9YZ\x16\x03\\7\xd6\x87\xce\x1d\xd5[~\xdd\x10W1\xfbKo\xe6\x00\x15\xc7pf\xa9h\xa4\x14W\xd6\xa3\x07\xfd\xde\x9a\xb3*\xea\xfdM!xp\xff;\xd5E\x8aVKq\x0c\xab\xd1\xe8\x9bGN\x94\x81\x1f\x0b?\xf3\x9e\xa3\xba\xea\x19\x92\x9cB\xe2\xaa\xba\x08\xb4\x02\x172`\x14\xd6\x0b\xc7\xd7\xd6C!s\xd1\x87&lt;|]&gt;\x87\xda\x1e[\x1fG&lt;(3\x84Jf\x8cRQu\\+\xd4\x89\xc4!\x17\xdfY\x9f\'\xde\xf0\tN\xc7\xdf\xfd8&gt;\x13\xa8\xb42KiX\x8e\x13\x04\x1c\xf7E\xfd\xf1CPW\xa3\xcb\x82}\xde\x98]\xaa\xb5\xcb\x0f\xef\x82\xc8\xce\x98H\x1b\xc69\xc8AT\x81\x99\x19N\x969Jl?\x93\xf6)\xf4\xa1\xf0}\xa7\x96\xaf\x9dE(\xf7\xd5!\'!\x05\xd1\xa6\xce\xfc&gt;m\x14\x91\nCi\xcc\xbc\xccq\xc0\xa5\x8f\x18\xcc?\x08\x95\x03\x1d\xf9G\xc8\xeaY\xdbw\xac\xf0qkM\xc4bl\xb6u\x18\xb6i\xb5\x0e*\x8d\x06\x98\x80\x8b\xa1L\xc6b\xdbY,gj\xbd\xdb\x92\xd9\xe9\x90\xee\x9e\x81\xef\xef\x83\x92\x19{\xac\xe6\xc1\xbdH\x03D;x\x10\x0e\x0e\x02\x1e\xa0tX/\xd6,\x15\x9c\xae)\x8b\x85R[\xb2;\xd0s\x16\x04\x0b\xf5q\xfb\x16&amp;\x06Tx\xe8\xcf\xd5\x95\x91Z;\x15\x8b\xd5bxN\x07T\xc4\x8ff\xa9e$&gt;\x99\x9c\xf8/\x17\x9f\x17]\xf2\xe7\xaft\xbdQ\x02\x93h\xf8\xae\xc3\x96k\xedPD\xb5\xac\xeaB\xc02c,\x8e\x18\x8e6}\xce5\xcb\xa3\x9d\xe0\xc8\x8d\x15\xbb]W\xbe\xc8-\x91\xc7K\xeb\x82\xeb!\xc5PJ}\xcd\xe9.\xd1@\x82\x9d\xa2Xrhp\xe1\x02\'b\xc1dxj41=_\xd6\xb4\xa6\xc2\xe9\x19\r\xbfZ\xf7\xd2\x0b\xf3\xe4\xda%.\xb5\xe7\xe0\xf2c\x8ew\xc7\xdf\xac\x8c4\xd02\x0b\xde\xa30\x19\x85\xef\x1dX:\x82\xc5Q&amp;\xa9\xe5f|c\x13|"\xbc\xa9\xd6e\xc9\xda\x17\x01\xe6\xbe\xd6k\xd5\x17%\x10\xc4hK}MoU\x84B\xd32\xc5\x10\x07\xaaT\x18Ku\xa1\x8ec0\x17Kq\xa2\xf5zoM\xebV\xf8PlE\xe3*\xaf\xe7\x0e\xe6\xbe\xd0gA\xf7d*Y\xffF\xfeX\xb9"\x82T\x8c\x1aTX-\x88,\xa8\xa4X)\x9a\xd6\x91"\xc1h(V6\xea\xc4\x7f\x8f\xa5u\x96@?@\xa9\x93\xdd\x0b|\x16&gt;O\xb0\xf9\x9ek\\\xba\x070T\xf8\xb9\x89\xd2\xd3\x1dB\xa4\x96\x96\x19{\xa8\x934dX\x96#i\x88\xb1\xe0\x91\xe10\x16\xc3\n\x8cd-&gt;]:\xf17\xa4\x82\xb9\xac\xf1|N\xc1\xef\x1e\xe0\xeb\x17|\xb2$\x0bC\xed\xbd]c\x1bnV\x0cx\xb8\xfa\x11\x0b+\xc6\xb2j\xd9\xe2h\x9a#X\x1ch\xc8P\x02\xcf\x98\xa4\xcaa\xdb\x8e\xa1\x0b\x18,\xab\xe4d\xb0\x9fo\xc0/\x96\xcc#t\xf1kA\x87\x1b\x9a\xa2\tT}\xf6tf\x9eA\x84\xe0\xe1\x19\x9c{2k\x969\x8dF\x10\x04\xa0bA(-\xf9\x03\xb9 \xb4x\xd0\x8f&amp;\xd5B\'\xb6\xf5Og\xb7^\xc0\x1b\xef\xe8\xa6\x86\xc3A\xaf-\x0e\xf5\xf8%:\xad^\xe2\xfaj\xf2\xc0\x16\xa8\xe9(\xe6\xef\x9fg[n\x16\x08\x914\'\xf3x\x84\x11d|\xc8\xbc,kg4\x01n2p\xc9\x94\xc0I\x11\x05#\x96\xec\x86M\x18,&amp;c2\xf9U\xd7%\xab\xff/\xcd&lt;\x16-\xf4_\x17\xf4vm\xd2\x05,\x14\x8a=\x9e\xfc\xe1\xf4HA\x84"\xb2\xac\x8c+\x01-\x1a\x0c\x06\x91\x1c\xe4\x89(:\x1e\xb1\x19T\xa39\x08A\x9e\x01v\x93d\xbd2b\xf9\xf0\x93\xe38\x95Q\xf4\x85\xa4\xda\xb7\x83\xd6\xf9\xffn\xd1\xff \x9a\xc7\xb2W\x16\xfb\xafqu\xeb\x1e\xaa(L ?xd\xe4~q\xc2\xd6\x7f+\x02\xd2\x0f\x8c\xa1\x18\x9e\x8e\xc0f4F&lt;i\xf0\xd2h$\xd5\xc2\xf1\x0f\x9e&amp;gs\x1cE\xe9D\xeb\xad~\xdb\x89\xcf\x92\xb6\x90\x1fQ\x12\n+\x86\xba\xdd\\\xd7\xf8/~e\xd9\x7fg{y\xd9\x8a\x80\xdf\xbe\xb9\xd2k\xa9\xf7\x86\xd7\x1boO\x8e\xe2\xcc\xc3\x15}\xe7\xe3\xb3i\xa7\xaf\x95s\x12@\xb1\x10J\x10\xdc\x8c\xbem\xecn\xb5j\xe7\xab\xcf\xff`\xd5\x0e#\xaf\xee\x16\x8b2\x1e/\xe03\x1c\xe4\x84N\xd2\xe4\r\x7f\x99v\xf6v]\x8a\xbar\xea\xe8\xe4G\x8d\xafo\xf0^\xea\xb5\xf2\xcd?\x04\xacX\xf6\xf2\x8cX^\xcb\x037\xb8\x05\x1f&lt;T\x9f\xbb\xf3\xddhrI(!eW\xc3\xa3)\xdbHq\xb3^\x12A({\xa9\xa2XS\xd1\xc5\xb0\x9f\xb73\x12L\x85\x0c\xf4p\xb8\xc1T\x01`\xa6\xe6\xaa\x11\xdb\xd4\xa3\x86\x9d)\xc4\x0f(&lt;\xba\xb0.\xb7&gt;\xb9;\xdbmC\xe0r\xaf\x19\xb1\x16\xd4V\xd4\x8d\x16\xa6\xc4"\xbb%\x1e\x19\xf8\xea\xfb\x1a\xdb\xfd\xf1r\xab\xa4\xba\xcf^\x114\x0c\xf5\'\xa9\xc7\x12\xf7LX\x14e&amp;\xcd\x92"\x15N\x07A\x967~\xdfVs\xf8\xaf\x03G\xb3\x1c\xdf\x14\x9bR8ZWQ\xbb`F\xac\x90$\xc7i(!q4\xe9\xa3\xc6\x8f\xd3\x0e\x8c\x8c\xe7\xb5\xeb%\x1dN9p\x03g6\xdb\xc1(S\xce\xfdgPK\xe1\x8cju3S\x14i\xa0 \xb4N\xd2\xb7\xb7\x8d\x8f\xd8\xd2&gt;n\x1c\x9a&lt;\x92\x95\xf0\xc3\x97\xe6\x86\xcc\xac\xd6$N\x92\x94w\xcfU\xb4N|\xbfc\xca\xf60\xb3\xa3\xd2*I\xa2\x8e\xc5+r,\x19a8{\te\xa4\xebi?\x8b\xb5G\x02,Vu;V\x9b\x90\xb1\x1a\x90L\xdf\xde\xd2\x91\xf9\xd0vu\xc7\xf7\x13\xad\x15\xe7\nSp\xba\xe7\xce\xac\xd6\xaa\x01\x84\x9aj;\xb3\xa7,\xb6\x07\xd5\xd7:\xca\xadzQ\xd4\x99)\xa8\x95\xb0\x830\xc3\xba\x82Q\xa4YV\x15\xcc\xaco\xe9}\x16,\x8axO#\xd0\x06\xad\x96\'`\x84\x92\xd3\x99L\xa6\xf6\xf2\x8ek\xd5\x0fl\x96\xa9\xcd\x9d\xb5M\x80\xb5jf,P\xab,\xec\xe1\x99\xf1\xae\xf2f\xab\x14)\xe9(,\x10\x9e\r\xa0\x98\xf3&lt;\xd4FSs\x11\xcd\xab\x97\xaf\xd1Y\xef\x92\xaf\xce?\x9f\xf9S\xeb\xbf{\xe72\xbc\x13\x87\xb1\x04\xdc2\xa1\x03\x145\x8b\xd0\x00p\x95\xc5\xe9\x8c\x1b\x17\xc5\xd2\x92\xa4\xb76\x97w\x8d\x9fy\x18\x96\xfeT,\xec\xc4tKA\xa4\xa8D\x82\xe70\x93=\x92\xc0\x03\xbcl\x90\x98\x96\xc1\xfbW\x14\x12\xc3\x10\xf5\x1c3H\xb0\xb6\xe7E\x8a?5k\xe5\xad\xbe\x8b\x16\xac\x16\x03\x13"\x0b\xe5A\xbar\x7f\xb0\x85\x81fJ\x8c\xac\x01\xa3#\xcf\xd2\xa2")\xa2t\xc5\x92\xfbT\'\xe2\x90\xcf\x05,-\r-\x8e\xe8\x04c\x80\xd9L\xa8\x0c\x8a\xf5\xde\x9e\xde\xb0\xed\xb7\x14-\xa5\xceX\xb2X\xec\xc0\xa2i\x93N\x14i8\xf0\x13\xe8\x88\xa2A\x11sz.\xe5\x9f\x01,\x12N\x94\xbe\xe0rX\xefp[\x84\x1dL\x80\xab\xc2\x13\x19\xb4MV\xa6e\x15+}\xe6\x90\x0f\xc2\xc4\x96+x\x8f\x0c\x1f\xc1;\x19u\xc4\x93eQ\x9f\xd35v\x00\nBo\x9e\xc2\xcbDCA\xabt\xc5\xabXQp\xba@Q&lt;\xc5\xf3p6\x84"\x9e\xa1yN\xdf^\xd5!2\xbc:\xbc\x8am\x1f\x80W?\x18\xeb\xca\xc1\xe3\x07\xe9\xa6\x024M\x9e\x87\x0e \xf3\xfa.\x0bH\x92\x1e\xf4T\xac$K\x97\xc2\xc3D s2\xd9\x8f\xc2p\'@HU]\xbaJ\xa4\xe9-WxF\rZ^)H\xb3c\xe1\xa59\x8e\x87&gt;\x03t\x0cn\xdex\xce1\x9a\xf4\xd0}\xd4\xb9\xd5h\xcaS\x13\xe4\xf2\xa5\xaa"\x93,P \x14\x81\xd3\xc2\xe0\x06X=\x96\xc9\xa7b\xb9B\xd8\rXz\x14\x9e\x18^\xda\x0c\xae\xe4LE\x83w\xf2\xed\xa9\x85\xb185\xb6\x84\'\xb1p\xf7\x96\xa1%S\x80$\xc0\xf8\x07\xbbk\x9622\x1c/\xa8\xd7`4\xb59\xf26\xffN_\x91\x88#\xce\xc1\x05\xf7\xfa\x0eK\x05\xa4\x9b\xeb\x8cX\x81\xfb\x11*\xb1\x14\x83ZX\\\xe8\x17x\xb8cYS\xe5X\xbc#\xe3\x0f\xdcSd\x1e\xef\x9f\x19Fk\xc7\xba\xdc\x06\xbb}\x1e\xc6&gt;FK\x9c\xc2c4\x0e\xf6D,\x9eNY\x8alB\x8c\xfa[\x07\x1ck\xc4\xf77\x8b&lt;\x05e\x16\xd7g\x16\xaeE6\xea\x8b-%\x08\x1d\x0b\x9c\x11\xcb\xef=\x84vMU)X)\xa2=\x9e\xd1\xa17\x9b\xda\xfb.\xdb\x1b\x8d\xa5\'\x8a\'-\x08\xc4\x89*\x00\xda\xb8\xab\x17[\xa2~\x9c\xb1xY5\xfc\x8c\xc7\x92\xc8v,\xa9\xc3.x\xdc\xf6\xbevQ\xa0\x8cFu}\x16O\xb5F\xfd\xf5\xa9]\x08\xb5\xfa\xcd\x88\xb5\xae&gt;\x06\xd5\xfde\x1cc9\x9a\x1fl\x1f\xa0\xa3\xe9M\xc5\x8ek\xed\x03,x\x17_\xa3R\x90\x7f\xe0\xd2`W\xa5\nd\x88\x8a|\xd2\xa2\xfe\xc3\xa8\xd5\x07Eu]\xf1?\xd2N\x9b\x91\xc6\x8c\xb1\xb63\xb5N\x9aq2\x89\xf9\xa3\xa6\xc3\x9fN\xe6\xc2{owy\xbb\xefc\xdf\xdb\x85\x95\xf5cwU\xd4*E\x85&lt;\xd6\x05\x01\xb7\xa8-\x14w\x8d\xa9\xda`\x0c\x14X\x8c\x9f\xd1\x82\x84\x02AD\x81\x98 *$hJ\xb4\xc3\x97m"\xc4h\x1b\x93~\xa5\xe7\xde\xfb\xf6\x03\xb3\xbb\xe4\xce0\xb0\x8f\xbd\xef\xfd\xee\xb9\xe7\xfc\xce\xef\x9c\xfbT\x16\xaf\x8d\xe7I\xc2a\x14\xf1\x9a\xbe\xb0P\x83\xd5\n2GQ\x98\xe83\x14\xcb\xcd\xb2\x93(\xfb\xf0\xcf\xe3\xc2Z|}\x1dz\xa3\xacW\x05\x87\x8f\x81\x05\xe9L1Y\xba\x8a\xe8m\xf7Oj\x184\xc4(\xe7\xac\x1d\x9c\xaaW!\xb0\xac\x9a#\xcb\xea\rL\xdd\xee\xee*\x0f\xc2h\xe8\xea\x9e\xc0\x84\x0c\xe4\'\x9bp\xfc\xb8\xc1\xe0c\xba\x17tY5\xd8sE\xc1I\x89R\r\x865\xd0x\x11\xad;\xbd8.\xac\x9436\xb4\xe6\xec\x80\x84\xed\xa1\xcfH\xc7\xee\r\x01\xef\xb6\x0c\x96\x10\\\xa1)\xd82\\2cSX\x1d*\x10\x94\xcf_\x17\xac\x9cn\x1f\xed\xe9,\xcc\xf5xV{&lt;\x9e\x92\xfe\x0b#\xe3\x1d}\xbd-\x81zN\xb2\xb2@\xa9R\x1d1\xb7\xabpP\xd3\x8c\xb0\x85X22\xfaC8\x99\xb1\x0c\xbd\xfc&amp;Z\xfeNJ\\X/\x1cZ\x85\xda\xd66[\xb0\xb5"\xb0\x18L\x86L\xba\xd3\xd7G\x97{\r`\x81\x94g\x04\x99\x11U\x95\xad)\xbd\xb9\xbf\xa7\xf3\x9bI\x1b\xaf\xc1Sx\xe0\xce@Km\xa6\x02\x143@/\xf6\t\x1adV"j\x15E\xdf\x10\xf0dg\xfe\xb9\x9dh\xd5[/\xc4\x855\xffr\x01\xca\xbbwK\x91iT\xeb\xb00\xed0nF\x9a\xa2\x11&gt;\x1aPIL\x0b\xc6,g\xa0+\x7f\xbc\x7f\x96l\x9d\xdb\xd4\\c\x16\x03M:\xbf8`M\x00K\xc0\xf6\n\x8b7\x99\xcb\xbcut\x1b\xca92?.\xac\x85\xc76\xa3\x9c\x7f|\xe0cyC\xd4\x1f\xd3\xc9\xdf\x06\xa8\xfd\x86hx\x07\x1d&lt;\xf6p\xd5WZ9\xdaO\xcd\x92|\xb4{Yq\x90R\xcc\x80f\xe5\x89\xd6g"\xb0@\xe9s\xe6\xfa\x8ec\x05h\xf3\x8d\x85qa\xcd\x01\xc8\xcb\x8f\xdc\xf7\xb2\xbc\x10\x85E\x85\x08N\xb6\xc54\x1a\xdb\'5\xa3Q\xf46t\x14\xb9\xd2\xbe\xcd\xc8-\xb7\xb2\xdeq\x1a\x85\xd8X\x841H1\x82\xef\xee6\xf0&amp;\xce\xe9\xbf\x7f\xd5\x86\xf2\x8e\xce\x89\x0bk\xd1\xb26\x94\xfdQS\xc0*\xc40\x84A\x17H\x8c)3\x9f\xb2t\x97\xc3\xc8\xb6\xb4\x7f\xd3\x9d\xc0\xd3\x8bB=##=!\xec\xfb\x91\xcb\xe3~-LZ\xf9\xa4#\r\xb8\x88\xb1\xc8.@\xe0\x98L\xce@\xd3%;:\xbelQ\xfcC\x89\xd4Vd\xffk\xa8\xd6*\x08\xa6\xf4G\x87[\x91\xba;\x89\xdf\x8e\t\x9axm\x86{\x97\x1ch\xea\xc8\xbf\x16l\xb9]7UQ[[15\xd1\xddp\xb3rl4T\x88\xc1\xf6j\xa2\xaf\x83j\x8dR\x07i\x1ebhJ\x98\xb8p\x97G\xac\x08]\x07\x05\x9a\x1a\xbf+\xfd\xc3\xd4\xbd\x08\xed\xe8\xac\x03\xe2\xe2\xd2\xbf\x89\xcb\xa9\xeb\xbe\xceRG\x8c2\xf5\x14\xdd\xa9\x0cN\xd4\xf8\x04Q\x02\x16\x95\xb2T\x15\xff\xce\x92d\x9f\xbf\xb8|\xa8\xa3\xb3\xa9V\xcd\xa2\xebI\xfb3\xde~\x95\x158A\xd6[O:,\xa9\xee\xb3\x13\x08\xedM\x8d\xffr\xc7\xe3O\x81\xba\xd8\xd0\xdf\r\xb0\xf8X@z\x91\x90\xae\xef\x85+\xdf(\x9a*I\xbc\xbbBc\x83\xc5^MU\xb1\xd42\x1bp\x82\xc6\xaa\x9f\x17X#\xcbZEI\xf4\xd6\xd5\tV\xa1\x8f\x04\x06\xec\xbeV34!\x8a\x02OD\x80\x1e\x87 &gt;\xa4\x96~\xd0\xeb\xdb\x9f\x9a\x17\xbf|}\x1e\x92\xe2\x1f\xaa\x83V#G\x15\xa8\xce\x10 \xe4\xb1\x18d\xc2\xb5a\xcf\x94j\xc1\xf4X\xd2\xde;\xe5\xd3T+\x109UPx\xf0\xb8\xf9\x06~\x0c[\x05\xfbd\xb6\x88\x9c\x84\xa5\x16\x89HGV\xd0\x13\xea\xf5jF\x88)=\xa88\xcel2[\x82\xd5\'a\x9f\x9eOP]\xa7\x9c\xb6\xa37\xcb\x06X#\xcf\xc4d,\x86*\x06\xde\xc0Yn\x12Ov\rh\xbco\xb8\x7f\xac\xcb\x0b\xa9G\x92\x00\x90@S.\x1dX{q&lt;\xe8\x03\x13\x16\xb8\x8c\xec\x1cZM"r\xd0a\xc5E\x9cgl\xcaj\x8d\xb8\t\xc0\x92\xcd\xdcPc\x15\xb2\xff=%A\xb5\xbf\x14h~\xeb\xb9a\xc5\xc8\xc7$\xd20\xe7\xc9\x9c\xe0\xd4Yq4\xa09\x8b\xbb}*l\x93)\xd0]\xc3B\t\x98NjT\xfcCE\x0e\xcf\x91\xf3\x03\x83\x81\x0fSiS\x8dCm!\xe4;\x12\xcc\x94\x84p+\x11Va\xce\xbcu/\x0f\x15\xbc\xb54\x01\xac\x85/a\xae\xbd\xef\xb3\x1a\x85\x19\xb0\xe0Y\xa0"-&amp;\xc5I#\xd03\xa8)N\x10^\x92\xb7\xbb\xb9\tt4\x85\x15\xa6l\x00\xc5Q\xc1\x8d\xaf)"51d-\xcd7M\xc3\xa4\xbf9 \xeb\xb8p\xb7U\xf4\xdd\xbf\x9a\x83\xf2^Z\x98\x00\xd6\xa2%m\xc8\xf6\xceH\x8d\x16\x0b\x0b\xdc\n\xa3R}\xc1b\xab\xb3\x82\xba\xc9\xb8\xd7*0l}\xf0N\xbf+\xad\x13\xe4\xbd\x81\x89\xc0\xe2\xb0\x80\xc6\x1d]\x82\xca\xcd\xb0~J\xa5=\xb5\x0e\x15\x1c\x92R\xb0\xab9\x93\xa5\xda\x1bo\xb9\x18\x18\xf9g6\xaaZ\xb2(\xd1+X\x8fA\x11\xb9\xe3B\x9d#\xc6\xb9\xdcd*\xa0\xaa\xcc\xad\xd4XJ\xa9\xabK\x1a\x1c\x8a\xa2\xde.\xc4\xd1XT\xac\x92\xa8r\xeb\xd6"\xcdoY\x9f\n\xb9\xb4\x9c\x86o\xb3fd\xfdCE:\xd3\r\xb2r\x14\x964\xd1\t\xfcp\xf2\xb1D/\x7f=\xbe\x00\x18\xe2\xbd\xbb\r*\x11\xf2\x11{\x99\xa0\xf4\xf1\xf7\xe5\xa6\x8d\xd4:,\xa5\xf4\xc6c\x93\x9a"E\xb4\xbc!B#\xb8\x92\x81\x12\x83#i\x02\xc7\xaf\xb3\x9eR\xe9\x81\xdb\x0eYqr-\xe3.\xea\x9cV\xde\xcdP\xf7\xe0LR\xf9]P\xf2\xdb\x17$z\x19\xe0\xe9\xc5\x87\xed\xa8\xb5q\x80\x1c/\x85a1\x06A\x90j\x86]\x98\xb0\x1d\xa2o?\xf5\x8eR\x07\x1f\x81\xa5\xd2\x9e\x8cLb\xd0LO}@\xfb(\xd8\x16R7\x95\x18\xd3\x93\x9a\x9c\xaepR`\xda\xe3J\xf3\x0chF\x86\xa6[X\x85\x19D\xe0\x1ad\xbf\xbe\xf8\xe9D\x8d\xb7\xa5\x9f\xd8\xd0\xa6{\xb72q\xeeJ\xa7\x1a\x14\x1eg\x90\xfc\xd4WGk\xac\xe1\xf4\xd6g4F\xadE\x0e\x84y\xda\xfa\xa6\xa8\xcc\xb8\xaf\xa5@\xf4+\xc3\xe1\x1a\xc0\x08\xea\x084\xbd\xb7\xcf\x83\xb5$\xcf\x10\xf32 _\xcd\xbe\x0f\x8enF\xb6#K\x13\xf6\x03\x9fyq\x13\xb2\xfd\xf7s\xbf&amp;\xd0\xc3\x1cR\xfa\xca\xa2w\x9azjn\xd0!z\t\xa5\xba\xe0\xceQX\x02C`\xd1\xc3\x02\x9c\xf4\xc8\xe9\x1d0ED\x95\xde\x99\xc4\xf6qC\x8e\xb6\xf8\xf7c1\xc8\xd3\xec\x83\x03\xc4Y\xd3\xf4\x91\rm{\xf1\x99\xc4o\x10\xa4\x82\xcf\xbf\xd6Y\x01\xb0L\x06\x12U\xc0\xd8R}\x1fA\xe5r\x15u\xa9&amp;\xbd\x7fTR\xee\x88\xd6\x89@\xf0\x1c5\x17n~\xb0\x92\x99\xc1\'\x19f\x13gf\x87&lt;\xfazp\xdb\x01\x06T9\xb5wZ\xb2\xa0~4\xd0\x93&gt;\x93l)\xfe\x0c\xb2\xcb\xc9\xd4\xc4\xef\'\xcc\x9b\x0b\x85\xf5.PH\xf0 \xb7\x0eKT*uau\xa0\x01\xaa\x03s\ra\xc7\xc2XX\xb8\xd9!\xcb\x14\x14\x88\xd6\x89A\xafHa\xa9\xb5#dAM~0\x0f\tU(\x0c\x95\x80\xd7\xc8\xd3\xd8\xc5\x07\x0c\xb2\x18\\\x01\xd5\xd8\x96\xb9\xf3\x127\xe2\x9f\xb8nGUg\x9b),r\xe2\xc5:{\x0b\xd3\xc8\x92C\x90jY\x80IJ\xab\x18X\xb8\xe8\x80\xcc\x8c\x87(J\\q\xe5\x81q\xbfh\xc0K2\x8b\xbdd&amp;\xc4\x8aQ\xe6\x08\xd5p\xe9\x06Ndu\xf9\x805\xa0l\x10\xf3_n\x03A\xf5D\x92f\xf3|\xa0[\xcc\xf3\xf4AxW\xa4\x86\xcep)\xe5\x00\xeaa\xcdjE\x0f\xddDG\xac\xb50(A\xf0\x05\xca\x87C8)\xe3o\xb2F\x95R\xa9\x0b\x98\x05&gt;\x9bpw\x82g\xb0\xca\x10h\xa7B&amp;\xf6\xf5}~\xb5 \xa1\x90\x0f\xf3|\x15B\xa7/T`\xbdNfe\x85{\x07\x9d\x80\x03\x9en\x96E\xb1y\x06\xac\x92\xe9J}4\x0f\xb7\x87Jt\xad`\xc4=\xb6\xacr\xf2\rW%TaF\xbdK#\xf0 8\x18F\xc0]\x0e\xb2\xe9\xd6\xa9\x0bW\x10:\xfe\x93E\xc9\xce\xec\x7f\xb4\x0b\x13jy\x16\x93AFV\xed\xb8^\xe5\x0f\x82\xad\xcc\x19\x19\xeb32\xa4\xdbE\x18V\x96\x1e\x89\xaexE\x85j\xce0\x9b\xc3\xaa\xf4\xc2\x84\xc3h\xc0S\xd7\xc3\xc0wXO\xfep\xc3\xfd\xcd\x19n)\x88\xc9\xf4w?M\xf6f\xd5\xf7\x9f\xbdbG+\xcf6\xef\xc3c\xe3\xc6\x8du\xed.\xe2\x1d%\xd7\xc2W\xf0\x98\xc6\xb0\xf6\xed+M\xd4\xd3m\x9f$\xdf\xdc\xa7S\xe9p\xec\xdc\x98\xa1_\xcd?\xbb\x13\xd9O?\x9b\xf4(c\xfe\xdb\x05\xc0l\xffy\xf8\xe0&lt;\x8c_\x9d\xff\xe2\x1e}\xd0\xdd\xaf\xbe&lt;O\xae\xe0\xf1\xe0\xeb\xb2\xb4\xea\xaf\x1e&lt;\xf8\xe2T\x02X\xff~H\xbf\xf8/\xf2\xa9\xf1\xeb/\xf5\x89\x8f\x0e|\xc7\x07\x0f\xff\x07UO\xce\xb1\xe4\xaf\xd1~w\xc9E\xc8\xd6\x8dU\xe1^\xf9\xc5?\xd1\'\x1d\xfd\x10E\xc7\xf2\x8f\xd3\xaa\x7f\x8d\xd0\x87\x89`}LO\x1c\xda\xce\x91O\x87l(\xd9\xa8j\x84&lt;\xfd\xc6\x92\xe4oU\xcd[\xb0\x05\xbe\xf4\xea\xf6\xc8\xac=\x8d\xf4Q\x07W\xc6\xdcj\xd7n\x0ckMrX\xd9\'\xc8\x87\x15{\x93\xa2\xb2o\xafnE\xe87\x0b\xe6%?\x1e{\xf2\xf5\xe5h\xf3+\x97\xa2g\x0b[v\xd3g]\xdd\x1a\xbdW\xce\xb1\xdd\x11X\xd5\x87&gt;=s\xe6\xcc\xa70\xce\\:H\xd7\xf07\x02+\xef\x15\xf2\xe1HARX\xb6C7r\xd0\xaaCO\xce\xf6\xae\xd8s`\x96\xc3g\xa3\xb6\xb1]\xd1m\xf0I^\xf4f[N\xed\t\xc3Z[e\xb7\xd9l\xeb`\xd8Vm:\xfe\xde\xa5\xc60\xac\rd=\x9e\rIQ\xa1\xb6\x1f\xbf\x06\x1b\xf9\xdclo\xa0\xfdl\xee_\xa0\xfc9\x15s\xb3\x9c_\x86q\xed\x8c\\\xdbzpW\x04\xd6\xce\x99\xab\x7f\xf7t\xd9el\xa0\x9c\xcbd\xd2o\xb7%\x87\xb5\xfdU(z6|g\xb6\xd7\x83\xbe\x97\xf2\xfa:\xb4\xf9\xc6\xfb1~\xba\xed}\x1d\xd7\x91\xb6\x88G\xfc~o\x04\xd6\xcaG\x1e\x94}r\x0b\xb6\xd6\x9e\x15d\xce\x89\xe4\xa8l\x97\x0f\xe6\xc0F\xa6\xccz@&lt;g\xd9Jd\xdfQ]\x153w\xe7\xdb:\xae\x1b\xad\x91Kk\x12\xc2\x02\xd0\xc4g\xc8\x8c\xb5m\x8f\xfe\xf3\xdd\x19\xe6;^\xbd\x03\xef\xe1\x9cY\x8f\xcd\x7f\x81UDk\xd9\x8e\x19\x0e\x10\xc6unW\xb6n\x12[\x04V[\\3\xb4V\x93\tW\xd6=r\xfd\xf8\xd1\x19\xce\xf6\xc7\xc6\x8bX=|\x8bw\xf5~\xf0\xfff\xae\xe5\'\x8d-\x8c\xa3Uj\xabT\xadm\xd1\xda\xdb\xf6V\xd36m\xd36i\xda\xa6\xbd\x8b;\xf3?\xc0b\x88\x9d\xdeP \x06Hx\x04\x17,H\x86\x10\x10\x12dA$\xc8K\x126\xa0( $\x06c\xc2\n\x16\xa8!\xc6\x85!iHt\xe7\xe3\x9f\xb8\xe7\x0c\x0fg\x98\x01AQ{V2\x0f\xcfo\xbe\xf7w\xce\xf9\xbe\x12\x86\xe0\xbb\xcb2\x9aqqWp\x11\xae\xda.h\x05\xd6\x0c+,\xd1i\xd9\x94n\xd4]\xd7\x9e\xa0\xbb\xd8\xd9O\xa5\xf3\x04Lv\xc2ka\x07\xfd\x0b7\x0f$\x11\xaa\x1ae\xfcX\xac\x1a%\xb9\xb1\x15XQ\t\xf9p\xae\xce\x94\x1a\x8fP4\xe69\xfb\xed\x80\xba\x95}\xf5\xa5\x95\x93+#@e\xb53\x19\xfa\x7f\xd4,Tq\xd9\xcc\x82sa\t\r\xe4\xa3u\xdf&amp;Z]&amp;?\xac\xf6\x9f\x05r\x89\x02A\n#-\x9do\x19\xb6\x01\x0bU\x08/\xd1gR\x1eT\x97\xd2|\xc7\x9b\x14X,"\x0f&gt;\xc2F&gt;\xb9E3\xa5\x1a\xef(y5\x99\xaf^\xd9\x0f\x03\nh"\xad\x95\x95&lt;\xfe\x0b\x98\xae_\xbeP\xddT\xd8\x8a\xafJ\xb0\x94Z\x864\x15y=\xb9\x1a\x82R\xa5\x1b\x9fvV_\xf7W\xf4\x06\xf1\x12\xe0\xdb\xa7\xffj\xedL\xe3\xed\xa1\x84\x0e\xd2WU\xcf\x19s\xaa\xe6\xf6\xb6\x8c\xcd\x98(+K\xa2Mq\x06\xca\xb1U!\xb6\x18\xf5\xb9*\\\xd4H2RD\xb73\xd4\xe2\xa9\x96^\xae\x07Zz+c\xba\xa5D\x95\x91g\xce\x87\r\x96\x1d\x8d%S\xbb\xf1\xd5\xeao\x85\xb9t\xe6\xd6k\xb2\x89\xb8b\xe0\t\x13\xb7\xd5#\xd9}\x93\x87\x02\xf0\x15\x11%\x93\x0c+\xc9\x8a|\x99\x9a\xc0\x12\x9a\\\xf6\xa0\x06\xaf\xb0J:gMO\xd5@M\xad\xd54Y\x91J\xe0\x80+\x93-\x9f\xb3\xb9\xfb\x06H\xa59\xa6gQ\xb1\x8d\x9d:X\xac"\x7f\xe6\\\x8c\xf6\x80\x84\x12\xf3\xd8\xec\x18\xc5\xdf\x03\x0f\x96\x1do\xfd\x9cx\xd7\xd8\x9e\x08\xc1\x17\x9d\n\x96\x89d\xea\x14\x03\x96P\xc8\x06I\xaa\x0c\xaa\xe5\xebb\n\xa8\xa4\x97\x12\x1dim[8":\x1ek\xe3\xf4[\xff\xf8\x12\x0c\xf6\xd4\xac\x140\xfag(\xb2\x05a\x05\xfd\xbf\x83Q\x8dB\x87IEB\x11\x08p\x94\xaa\x1fY\xb3a!B\xd0\xa2CB\x9e\xa7\xc2\xb7\xc2\xac\xf5\x17\xb7\x9dC\xf5]#q@\xae\x93\x94\x8a\x9d5\xbf\xe2)\x1a,=P\xb0p$]\n\xac\x1d\xc7\x0fN3\x0b[\xc5\x19K}\xc8\x1a\x96{h\x06Z\xb3\x9e\xc0\x80\x8f\x1ai\xeb\xa8`\xff\xeb,TF\x83\xb0\x81\xc8D\xb5TX\xd3\xe7n\xb1H\x8e\x83\x18\xdd\xe2\x87|A\xe0\xd0\xc7\xfb\xdbA\x05\xa4kM\x00\xb4$9\xd7D\x9c[\x86\x15+\xba\xa2\x8cH"\x0cl\x96 3\xf6\xbc\xcdB\x8b\xf1Uh\xeaOE\x97\x855\xef&lt;\xf00\xc3y\xe9!tn\x1en\xbb\xe5\x1a\xcf\'s\x18"\xf5\xce\xaf\xb6\x02K\xdf\x00\x92/ud0\xb1\xca\xa7\'\x16\x02\xc2\x9b\x98l\x93X\x1c\xce\xe7g \x07W\xa5\x9a$.g\xb06r\xee\x99):""rr\xea\x9a\xfd\xd1\xe0m\x99\x1b\xc6\xf8\xf6g\x9f\xdb?\xdd\xc9+\x02\xb3\xb5-v\xb5\x00\x0b\xc1\xb5\x9by\x8f]m\xf0\x16\xe2\xf1\x82wEo^]\xd2\xc8\x9a\xf0\xdf`1C\xc3\xc5\xbb\xc0\x19\xcf\xbf{\x80\x1eb\x81p\xbe\x05X5\'@\x0e\xe4\xbc\x91%\xe4\x18"\x0c\xf5\\\xe8t\xff\xf0k\x80h.Yj\xc4\xc6|\r\x96\xe8|$4\x16\x9e\xc0,.;~\xb1\xf2\xdd\xe7\xf7@\x80\x83L\xff\xd7\x88\x8d\xf9\xa9\x9a\x95/\xb8\x82\x15\x83\x86a\x18\xae\xd4J\x9b\xc2Z\x11o#\x88\xaet\xef\xf9\x85`q\xbe\xddR\x036f\x88`\x03V\x88)\x9a\x18!\xbd\x9d1\x97^L\xbbm\x07\x15{\xbeog[\x16\xf1\xf8\x80M\x14Zo}\xba\xe8\xa1\xe6\x07\x90\x8d\x1a\x9b\x93=36\xa1\x14\xbb%&amp;\xfd\xa7\x15=\x8bJ\x85F\x83d\x0bc\xbe\xa6\x8a8\x81\xcd\xc8\xce&lt;\xb8\xf89\xf9{G :6\xc5\xe4\x18\x1b,5\x15\x16\x9a\x06z\xab(\xe7mE\x10\xa8\xc9L\xc7 \xa0\xd9aR\x0b\x0f\xcc\x83 S\xb9u\x99:\xfa\t&gt;\xd0F\xe1\xcaO+\x8bL\x8b24X1\xa0\xf2\xf6r\x0c\n\xc2Z\x91\x9f\xfc\x8b\tK\xe8"o\x87\xf8\x97\xea:\xf0\x82\xeb\x80\x1fH\x98\x98\xb0\xb4\x11\x1a,tA\x80%\xca\t\x08P\xb3\xb9r\xecw\xc4\x80\xe5\xf0e\x00\xe9\xcd\xdc\x17\x97+-\x18J\x01o\xadZ\x96D\x99\x01\xbb\x85\x0e\xcb\x97\xdd(\x13\xcb\x0b\x95\re\xa7\xd6R\x122;\xba&gt;t\xc9\x02\x83\xfbc\t%\xac0_\xae\x17{A\x00\xa5\xc3B\xe5\xe5+\xa3\xfb\x80\x92NvX\xaa"\xacTW\x1e\x8d\xdd\xbfl\xd9\xc3\x04\xdf/\x80\xb4\x0f\xc8\xe83\xac\x12u\xb0\xc4\xb1\x18i1\x80\xf6#\xd31VX\xb2\x05(\r\xd8\x1e\x7f\xe2\xf2%"\xfd\xddP\xf7\xf5\xe2\x03\x9a:\xe2\x89j|\x0e`y(\xd11\x01\xf5\xac\xba\xc2\xb3E\x83\x85\xafY\xa0\xe9\xb0v\xf7s:0\x86G\x81\xd8\x8b\x0ch\x88\xea{\x8d\xc7\x019\x1c\x81\x02\x90\x15\xdd\te=\x17\xa07\x1e\x92\xf7\xe49+\xd5\xdcK\xbd(t\x18f\xa23=#\xfax\xeb\x1b\x80\xf4\x05\xb1\x8b2\x89H*\xaa\x0c\xf8k\xbb\x16\xba[\xec\xd0\nToR\xed\x8a`\xe5\'l\xcf\x10\x94\xf0:T\x11\xdb5\xe9\x049\xaa\xee\xb0A&amp;\x043\xd1b\x15\x96[\xd9h\xa5\xdb*&gt;\x06\x84\x8c\xda&amp;;V|w\xe7\xdd.\xf0\x17\xb2\x80E\xdf\x08\x97\xab\n\xcb\xda\x18\x15l\x1a\xa1I\xbf\xeb`\xd9\xfc\xc3G%` \x949\x8b\xbeAlg\\\xaf\xac\xe5h\xd8\xefK\xadb9Pe\xd5\xce\xa3\x8eVPN\xf4\xe4\x94$.u\x03\\\xde2\xacPST\x8a\x85\x9e\tNG\xc7?=r\x88+`q\xb1\xc7R\xfb\xe4\x06F2\xca\x9eV\x1a\xc4\x19\x19|\xbb\xe7\x13\xa7\xc3\xa3\x97\x9f\x81\x81\xc1)\x1ab\r\'\x04\x87\x10\xd6)\xeb\xb6\x13\xeeG\xe3\x90V\x01\xfe\x15\x94\xf1\xf7\xf2!\xbdt`\nVe3\x01\x93J\xb0\xa6o\xcaS\xd4\x8b\x03T9\xfe\x954\x17\xf8\xb7\'\xa7%[\x07$\xd8R?]\t\x04\x118\xdb:\xea\x0e\xc9xU\xa2\xf3\x1c\xac\xd4\xbe\x0e\xee\x00E\x13M\xfb\x96\xd9Dh[,\xb6\xb3\t\x9d\x93\xf8-$\x1b1|\xbb\xaa\x9a\xdc\xef#\x8bpQbV\xb2nb\xc6\x85\n[\x91\xc9]\xa1C\xb2\x0e\xd7\xe1\x97\xd2#\xdf\xaf\xae\x82\xf9\xe1\x07\'\xdc\x97\xc8/\xcf\xab\x99\xc2me:\x01\xcc\x15K\xc3}\xdbU\xdb\x87+\xad\xf8\xbe\xf3^\x02wSU\x81\x9f\xa7\x8c\xa5B\x1d#\xa1\xd4\x1e\xa2\x19-\\\xa2\x96\xbc\xbf\xe2\x96(]o\xc7!\xa1pC,\x9d?7yv\xc7Vp\xd8\x17\x82\xfb\xf6\xca\xfbr\xf5\rw\xfb\xcb\xed\r\xc2\xd3X3P\x98&gt;L69P\xecu\x0f_G\xf3\x85~\xfe\x02\\w\x88\x1e\xfd&lt;T5F\xa5\xc9\xa0\t\xb86&gt;W\xe2\xf7s\xaeeL\x8c9M\xe4"=a\x9bm\x90\xd6K\x1d\x91\xb0KG\xb6\x1c\x18\x9b\xe0\\\xd3\xb8?\xc4%\xf7\x15W\x9dS{\xac\x04S\xc5-E\xb8D\xa0[y5t\x9fsm\xa3\xef\xc93r_QQ\x98\x8f0\t&amp;p\xa4b~\xa8\xa8?r\xcf\x9e\\o/\xc1\xde\x11r\xefFhr[\x8e\xeb\xf616\xd7,i\x0f\xd9\x07"2\xf2\x99s\xcd\xe3\x0e\x8f\xeb\x87\xb9\xa36DH\xd42\xea.\x87\x840@R\xa9\xf6\xb8\xbc\x1bh\xe0t\xfb\xee\xa0\x9b\xf4A\xd9\x92%m\xaapR0\xeb\xb6$\xa0A\x13\xcd.\x0f\xf6\xdfL3\xc8\xc7\x03\xaf\xfcP\xe2\xb1m\xdb\x94\x1c\x16\xbe\x8b\xf2\x01\x8bm\x1bZ3\xcd\xde\xab\x81\x1b\xebY\xd6ww\xb0H\xf6z\xd0\x1a\x92a\xff\xe6\\\x81H\x1a\xca=)l\x83wo\xb2\xb1\xe1\x1d^\xb7\xfc\x17y$!\x1eN\x8e\x86\xe3\xe4\xaeG6\xd0\xcd\xbb\xe1\xf6n\xb7\x9f~xmP\x91\x1d\x102\x99&lt;\xcc?4\xa1\x99\x0fOo\xbe\xc5h\xd7\x93\x9e\x88\x1e\xaa"\x99`\xcb\xf4\x91\xab\xed\x0e\xd3\x86\xe8\x7f\xbc\xb5\xe8\xc0\xcb\xdd1\x16o}\xfc#\xda\x06\x92\xe3\xeb@wb\x16\xc7\x1d\xa5\xee\x81\xaf\x9c?h\xf4\xf5\x0e\xbcYHp\x07z\xff\xb4~\xba}O_\xbe|\xda1P\xff\x03\xa0!\r\xb7,\xc7b\xc7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67006944444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -774,20 +774,20 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xfdPLTEGpL\x00\x00\x00\x06\x06\x06\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x08\x08\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\x00\x00\x00\x01\x01\x01\x00\x00\x00\x00\x00\x00\x07\x07\x07\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x03\x03\x00\x00\x00\x01\x01\x01\x00\x00\x00\x0c\x0c\x0c\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\t\t\xff\xff\xff\xfe\x00\x00\x00\x00\x00\x9b\x9b\x9b\x87\x87\x87ZZZ\x9e\x9e\x9e\xaa\xaa\xaa\xff\xf0\xf0ooo\xfe\x1c\x1c...\xfc\xfc\xfc\xff\xfc\xfc\xfe..\xc0\xc0\xc0&lt;&lt;&lt;\xbf\xbf\xbf\x02\x02\x02\xfb\xfb\xfbzzz&gt;&gt;&gt;###CCC\xf5\xf5\xf5\xf7\xf7\xf7\xa5\xa5\xa5,,,===---\xcf\xcf\xcf\xda\xda\xda\xef\xef\xef\x12\x12\x12\xce\xce\xceOOO\x04\x04\x04\xff\xfe\xfe\x1b\x1b\x1b\x10\x10\x10***@@@888III\xd4\xd4\xd4999\xe1\xe1\xe1ppp^^^\xee\xee\xee\x7f\x7f\x7fggg\xd7\xd7\xd7\x19\x19\x19\x08\x08\x08VVV;;;\x1e\x1e\x1e\xd2\xd2\xd2```\x06\x06\x06UUU\xfd\xfd\xfd\xc7\xc7\xc7sss\x1d\x1d\x1dqqqRRR\t\t\t\xf0\xf0\xf0\x82\x82\x82tttKKKLLL\xb0\xb0\xb0\xdf\xdf\xdf\xed\xed\xed\x85\x85\x85\xae\xae\xae\xf6\xf6\xf6!!!\x14\x14\x14dddMMM\x8e\x8e\x8e\xd3\xd3\xd3]]]\xc3\xc3\xc3000iii\xfe\x03\x03\xbc\xbc\xbc\x83\x83\x83\'\'\'555\xe5\xe5\xe5\x17\x17\x17uuu\xfe\x08\x08\xdb\xdb\xdb\xfe\x15\x15222\x1f\x1f\x1f\xf2\xf2\xf2\xa1\xa1\xa1aaa\x84\x84\x84\x99\x99\x99\x9d\x9d\x9d\x9a\x9a\x9a\xa7\xa7\xa7\x0b\x0b\x0b\xe8\xe8\xe8lllEEE\xfe))\r\r\r\xca\xca\xcaGGG\x96\x96\x96\xfe  \xa8\xa8\xa8\xff\xe3\xe3\xff\xf9\xf9\xdd\xdd\xdd\x92\x92\x92%%%\xfe\x19\x19\xff\xec\xec\xfeDD\xb6\xb6\xb6\\\\\\\xf9\xf9\xf9\xa0\xa0\xa0\xaf\xaf\xafJJJ\xc1\xc1\xc1\xc2\xc2\xc2\xff\xd9\xd9\xff\x8b\x8b\xfeKK\xfe\x84\x84\xff\xf6\xf6\xff\xad\xad\xfeZZ\xcc\xcc\xcc\xffww\xfe77\xff\xb8\xb8\xff\xd1\xd1\xfe\x11\x11\xfe22\xff\xc1\xc1\xfeee\xff\xde\xdehhh\xfeSS\xbe\xbe\xbewww\xff\xf3\xf3\n\n\n\x8c\x8c\x8c\xfe\r\rnnn\xe4\xe4\xe4\xffss\xff\xef\xef\xff\xe7\xe7\xff\xa3\xa3\x8a\x8a\x8a\xec\xec\xec\xff\x99\x99YYY\xff\xcc\xcc\xfe$$\xe3\xe3\xe3\xba\xba\xba\xa4\xa4\xa4\xff\xa0\xa0\xfe==\xfe__\xff\xd4\xd4\xff\x94\x94\xff\xc6\xc6\xff\xf1\xf1\xff\xb1\xb1\xff\x91\x91\xea\xea\xea\xfejj\xff\x9c\x9c\xfe@@\xeb\xeb\xeb\xff\xbc\xbc\xff\xc8\xc8\xfa\xfa\xfa\xb3\xb3\xb3\xff\xfb\xfb\x90\x90\x90|||\xf4\xf4\xf4\xff~~\xff\xa7\xa7\xfenn\xc4\xc4\xc4\x9fI+`\x00\x00\x003tRNS\x00\xc7\x02\t\x14A\xb8\xb2\xb4\xe6 /\xd9\xa5R\xa3e\xf9\x0b\xd7\xf0g{\xf1\x8eT\x90z\xc9"\xfa}\x031\x91\xfa?i2\xb6\x92\xba\xf5X\xf2#\x01\x8d\x1fQ\xfbu\xd8f\xc1\x00\x00\x07\xf9IDATx\xda\xed\x9cwT\x13I\x00\x87\x17\x94\x1c\x8a\x02\xa2\x88\xa2\x1e\x8a]\xafs\x11AD\x05\xc1\x88\x82\x08\x11\x90\xa24\x8dJ/\xa2R,T+(M@\xec\xbd\xf7\xee\xe9\x9d\xe5\xcerg\xef\xbd]\xef\xbd\xdf;/\xd9\x99,\xec\xecdw\xb3\xbb\xc9{\x97\xdf_y3;\xb3\xdf\x9b\xdd\xcc7\x9bLB\x10\xa6\x98"b\x9cd/\x19MdN\x10\xabw\xf2\xa1~F\x92C\xc9\xbd!\x96\xe5s\x17\xa3\xc9sK-\x96\x9b\xf1`\xb9\x99\xb0LX\x92a\xa5\xa7\xf67`R\xd3\x19\xb0V\xcb\r\x9a\xd5\x0cX\xee\x86\xc5r7a\xfd\x1f\xb0j\x8abc=\x1afj\x7fM\x95\xf2f\xa3\x9a\xd8u!\x15\xb0\xe1\x92l\x0fz2\xb2\xb4\xf5\xf5\x1e\x94\xe6\xb1\xb1\x0b\xfd\xd6\xb0\xc7\xda\x85\x9aPT&gt;\xea:OD\xd57\xeb@\xcb\t\xc8\xb9(\x9d\xac\xad\xbdL\xaf\x0b\x8ad\x8b\xa5@\xf6=F\x83\x15\xe8\x8b\xaa\xac\'\x9b\x0eC6\x1d\xaa\xa9\xf4\xf1BU\xae\xad`\x895\x11\x87\x15\x80\xc4R\xa5\xb0\xc0\nLC\xd6Na\x89u\x11\xd9z4n\xb4F\xd4\xe2\xb0\xbc4\x95\xdeh\xdd\\\xe44Z\xcb\xfc"5QhR#\xa7\x8cVZ0H\x9d\xfa\xe0\xfc\xe1\x14\xacA\xc9\xd1\xa3\xa8QxR\xb1J\x0f\xa4NQ\'\xf5@\xa9\xba`"\',O\xf4\xdbX\x83\xb5\xb3\xa0b\x12\x19\x7f\xf5hQ\xb1|\x17\xa3\x9bj\xb0"\xb5\x05\n\xeeXi\x0bpXA\xa1\xb0 \x8e\x8e\x15\x88\xc3\x1a\xa5-\x88R\x17,\xe44Z\n,\xd6dX\x90\xcc\x11+A[\xb08hgu\xf5\xadG\x9c\xb0NO)\x0e\x01\xc9\x8d.\x04]in\xf9\xa0\x14\xdcha/\xa27\xa5d\xda\x8b\\\x0b\xd5c\x82xP\x92B\xc5\xaa\xde\xe8\x13\xaa\x89\xfc7\x1a\xd6\xa0\xb8(o\x10E"\x0e\x8b\x93|\x16"\xdf\xc73\xa8X\x07U\xe3\xc9\x04\xa5\xd1\xde\x89\r2A0\xac,$\xd6&amp;9f:\xad\xcb\x14\x1fk\xda~\xce\xb3&lt;9\xd7\x8a\x8a%O\x89sO\x1f\r3&amp;^7V\xaa\\\x02,\xb5Wa\xe4E:\xb0\xd2\x92\xe0\xca\x85\x1bVJ\xf8\x7f\x99\xccs\x19\x98C\xc7\xba\x15\xb2y\x1c\xc8fO\xed\xdc\xaa\xc6\xaa\xcbJP\x80D\xd6b\xb0\x8a\xe2\xcb\xcb\xcb\xe3+yb\x15\xd3\xb1T\x0c\x87\xaa\xb1\x82\x0bY\xce[7\xd5\x05\xcbyb\xe5\xd2\xd7[\x94Y\x9e\x8e5},\x0e\x8b"\xb5l\xea\xcc\xa3\x13K\xb9{85\x99[\x04\xc5r]\x10\xa5\xc9\x92\xf5*NX\xbf\xbb\x8c\xa0&amp;\xdfEP,Z\xcaXb\x95\xe9^\x9db\xb1\x82\x19\xb0\x12\xd0X\xd9,\xb1f\xe0\x9e\x13\xf4\x18\xad\x82|d\xc7\tzaM\x90\xeb;Z\xf2m\xa8~W\xb3\x9dN\x97#\x1a\xe7\xbbM\x93S\x1e\xc8\x9e2`\xa9\x1f\xc8\x0e2a\x15\x96\xd2\xfa\rs[\xc3\x16\xab`\xbd_\xe3(\n`\xd7\x19\x95\x95\x95W\x8aB\xd1\'\xf6\xdbu\xfdz\xc9\xf2p&amp;\xbf\xf8dm\xf1\xa7\xe6\xd0\xb0\x1a\xd3g\x10&amp;,\xc3a\xf9\x1b\x16\xcb\x9f\x01KU\xe6j\xc0\x94\xa9L\x9f\xcb\x9b\xb0LXjm\xee\x18\xcc=\xc8\xbe\xc3\x06q\x8e\xefH\xc6\xd1\xba\xfdd\x08\xc7l\xd8w\x15\xf9\x04\x1e\x11\xe8\xc9-\x81\xbb\xb71bm\xdf\xfa6\xd7,\x1d\x80\xc2\xba\xcc}2MM\xa3a\xc9\x96\x91\xdd=\xbe\xc1\x15k\xe0\x00\xccg\xb8\x1c\xb2\xe4\x0f\xb2\xe92\x19\xc4r\x1c\x17F\x16\xfee \xac\x8ajpW\x8es\x86Xvf\x1e\xa0\xc3?\x05\xc1\xf2\xe2H\xe5\xf3\x0c\xb4\x8c5\xb3\xd3\xee\xcfx\xa3\xd9\nP~\xc9\x10\xa3\x05\xbf6Y\xd1\xac9u\xdfH\xb7VC\xc9\x8a/\xcfK?Z\xf0s&gt;\xafV\xdd\x1a\xeeg\xb1\x1d;\x93\xaczg\xa9\xd4X\x91?\x93\xcdf\x8e\xb5m\xbc\xcf\xe6\xf5(r&gt;s\xf9`\x91\xb4X\x05\xe5d\xab\x91\xd1\xedh\xdb\x7f^\xb3&lt;\x00:=.)\xd6\xb5t\xd0j\x9e\xa59}[R\xd3\xd6\xf0\xf9\xf0C)\xb1\xc0\x9c\xe92\xbbuS\xd4v)\xab6s\xc8\x03v|"\xdd;\xf1\nh3\xa7\x8d\x15z\x1b\xd7\x9b\xe1I\xe4!\xdb\x07J\x85\x15\x02\x9a$\x85[3m/\xeb\x10\xf1\x80&lt;\xe8B\x954\x171 \x9el1+\xa2\x03\xf3\xb67\x9b#\xc0B\xdfI\x82\x15&gt;\x17\xb48b\x83\xd9\x8d\xd7\xc4,\x16\x1cw[\x8a\x8b\x98\x07\x1aL5k\x82\xdb%\xd8\x1cZ(\xec\x84\xf8\xa3\xe5\n\x8e_\xd5\xd09\xf4tk\x05\xbe\xe7\xde\xbbA\xec\xd1\x9a\xa7u\x8e\x85\xae]\x95Z\x0b\x9d\xbd!.V\xd4\x08f\xe7\xd0\xd3.\x9a\xb4P\xd8IQ\xb1&amp;\xed\xc48\x87\x1esK8\xb8\xef\x8a\x88\x15Z\x8au\x0e\xcaB\xb3A\x8bS\xe2\xdd\xf2[t8\x07g\xa1\xab\xe7\xc5\xc2Z\xa7\xd39\xf4XC\x0b\xe9\\|\xf1\xc4Z\xef\xab\xdb9(\x0b\xcdb\xb9\xf8\xe2wo\r_\xcb\xc69(\x0b\x813|-\x02\xd6\x9aM\xe0\xc0\x1c\x1bN{\xc2\x9b\x98Me\xb7\xf8\xe2\x85\xe5\xcf\xd29(\x0b\xad\x02\x8b\xaf\xef\x85\xc6\x1a\xc6\xda9\xf4X@\x0ba?\x02\xe0\x81\x057\x0e\x1c\xd5\xed\x1c\x84\x852\x81\x85\xbe\xa8\x12\x12\xcbs:yPL\xa6-\xc1#\xd0B.\x1f\x0b8A(U\x9c\x9c\x83\xb5\xd0\x19\xe1\xb0~\x01\xc7\xc4\xf54\xe7\x85E\xb5\xd0\t\xa1\xb0\xeesv\x0e\xceB\x8c\x8b/\x8e\xf7V=\x0f\xe7\xe0,t\xf6\x9c\x10\xa3\x05\xef\xd6$\xa55\xa1G\xb4\x16:)\xc0h\xc1\x15\xe6\xac\x88\xb6\xfa\xfd\x04\xc8&amp;\x07\xbf\xf8\xe2\x82\x95\xe2\xc5\xd39X\x0b\x9d\xd2\xf7"\xae\xe0\xed\x1c\x9c\x85\xde{_?,\xf8\xac\xd7\x8f\xbbsP\x16:J\xae\xed?\xda\xa3\xcfE\xdc\x0c\xf6\xe8\x1e\xedjA\x08\x10\xdb\xcc\x18\xb2\xc3\x1f\x17\xf1\x1f\xad\xddk\xa1s\xec\x85\xf9\xe5\x9b\xd6B\x9f\xf3\x1e\xad\x8d\xa7\xa1s\x1c\x05\xfaA\x9ey\xcf8p\xbeo\xf9b\xc1\x9d\x19q2s\x81\xb0(\x16\xfau\x1f?,\xb8\x8f\xde\xb5ESB\xb0X\xb59Lv{w+\x1f\xacTPq\xd8\xc1\x8a\x100\xd6J`\xa1\x9f\xaa\xb8\xdf\xf2\x0b\xc0\x12k\xae~\xce\xa1\xa7-\xb4\xd0=\xceX\x85`\x89\x15\xaf\xafsp\x16:\xc3\x11\xcb\x07nc\xcdm)\xf8\xefc)\x16\xba\xc4\xed\xde*\x01\xa5\x19\xfa;\x07e\xa1~d\xf7w\x86p\x19\xad"A\x9d\x83\xb0P\xd7c\xe4\t&gt;;\xc7\x1ek\x14\x98\x8a\x8f\t\xe3\x1cz\xec\xa1\x85\xbeb\x8d\x95\x08\x9a\xc4$\xda\x13"\xc5\x11Z\xe88\xcb{+e&gt;pN\x82\xa3XT\x84\xb9\x0cZ\xe8SvX+Ep\x0e\xc2B-\\\x1b-\xbe\xf0\x171C\x14\xe7 ,\xe4\x00,D.\xbe\xb0\xa3\x95\x03\xbe|\xc8s\xe8"\xee\xcf\xfb\xdb+\xc1\x17\x0f\x17\x16\xe9\x1a\xad\xc5?@\xe7\xb4\x17\xfbo\x07\xdaF\x80\xafi\x1e\xea\xc0\xda8Z&lt;\xe7\xd0\xd32\x17\x9c\xfco&lt;\x96\xbb\x88\xceAY\x08\xdc\xc8\x83\xf7\xe1\xb0\xe0^\xdf\x8c\x8evR\xfc{D\'h\xa1\xbbO\x98\xb1\x1ei\x9d\xd3I\x9a\x7f\xb5\xb0x\x19X\xe8q\xd5R\x06\xac\x9a:\xf2\xe5\xfc\x97-\x08\x89b\x0f\x95ro\xcf\x1d\x14\xd63e\x90\xf8\xceAX(\x01X\xe8\xe1^\xe4&amp;\xf6\xfd\xd09\xce\x12\xfe9\t\xc5Ba\xc8me\xe0E\xb2\xac\xb3\x94\x7f\x9a\xa2\xb5\x106";\x87\x9e.\x0ey\xba\xa9Dw\x0e\xceB\x8c\x19/\xbesp\x16bH|\x80\x13a\x80h-\x84NqKCP\x11v\x1d3pT\xd9\xd28\x07g!DVJ\xe5\x1c\x94\x85\xe63QI\xe8\x1c\x9c\x85\x1a%&amp;\xb1;a\xc08C\x0b5\xc8HogCR\x11\x9de\xc9(,\x89\x9d\xc3\xd2B\xf7\xa5v\x0e+\x0b\xe5\xbd\xd2\x830x\xda+\xc7\x1b\x81s\xe8q\nh`\xa1`\xc38\x07a\xa1b#p\x0e\xcaB\xd9F\xe0\x1c\x94\x85Vj\x9d\xf3*a4\x81\x16\xfa\xe7-\x0b\xc2\x88\xd2]c\xa1\xa7\xb5\xdd\t\xa3J/\xef\x17\x16:\xe8\xdd\xcb\xb8\xa84\x16\xaa7\xb4sP\x16*)1\xbcs\xe8\xe9\xd1\xa7O\x0f\xc2\x08\xd3\xb7/a\x8a)F\x9f\x7f\x01\x98\x89\x03\x07\xa1\xef\xd0\xde\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpLhd]G?:{zz\x7f\x7f~\xfa\xcf\x15\xa2\x86\x1f\x7f\x7f\x7f~~~~~}sqq\xeb\xc2\x18\xfa\xce\x155*!\xfb\xcf\x15&gt;4+I@6gU&amp;7,#sqp\xfc\xd2\x15zyypmkXUR\xfb\xce\x16\xa3\x87\x1eA7+\x7fi#e`\\}}}=3*=3*gc_hd`&lt;2)9/$=3*YVS\xfd\xd2\x15}h$\xad\x90\x1eyxx\x9f\x83\x1f8.$nmn\x80\x80\x81WUTWQKA7,ont;1(\xa0\x85\x1fA6*zzyvuuI?5\xa4\x88\x1e@6-5* \\WS@7.jgfgc^sqrIA9&lt;1(eb`rpn8-#vutKD=a\\X?6.\xae\x90\x1eI?4trrPICmjilifolj\x9d\x82\x1f&gt;4,8.$~h#[VPgd`;1(eT\';1(hd`^YU@6-;1(fT&amp;fc]B91vtshebH@9JB;yxwD;3a^ZQJD:/&amp;7,"MF?\xea\xc1\x18LD&lt;WQKTNISLF&gt;4*\xfb\xd2\x154) NG@?5-?6-q]!\xff\xd9\x15LE&gt;IA9ZVQH?7^YTB91H?8;1(C:36+"c^ZC:2\xa2\x86\x1fXRM8-#QKF&gt;5,]P6\x8bs!\xec\xc9\x14KHSxc#\xb9\x9a\x15\x95z\x1fF&gt;4G&gt;6d`]IA:\xa7\x8a\x1eF9"F&gt;:ND5|f$\x8fv!TVe\x80j!\xaa\x8c\x1b\xa3\x8a cV5H&lt;*\xff\xe9\x13\x90v\x1f[WRHA&lt;;1*\xa3\x86\x1eea[gV)\x81j\x1c\x9c\x81\x1f\x97}!5-+\\Q9\x9c\x83 [Q&lt;SD)\xaf\x90\x1c?3\x1f\xee\xc4\x12hV&amp;B@KDANm[(\xfd\xd3\x11jZ2FDO&lt;3)B91\xfd\xd1\x16\xfc\xd0\x16\xfd\xd1\x15)!%\xff\xd5\x15@4%;1(\xf9\xce\x159.%/\'+\xff\xdc\x13\xff\xde\x146,"\xff\xdd\x13\xf4\xcd\x157-#\xfb\xcf\x16*!$\xff\xde\x13:/&amp;)!\'8.$&lt;2):0&amp;\xfe\xd6\x14\xfe\xd5\x14*"\'1)*/\'*5* \xff\xd5\x14=3*-&amp;)\xff\xd4\x14\xff\xd8\x142*+,$*\xff\xd7\x14\' %\xf9\xcd\x16\xff\xdb\x13\xf6\xcf\x15\'\x1f\'\xff\xe1\x132\'\x1c2)&amp;0&amp;"\xff\xe6\x11\xff\xd6\x14\xf6\xce\x15\x86k\x13\xf5\xcc\x0f\xc1\x9e\x15\xe0\xb9\x18\xf6\xcd\x15\xed\xc2\x11\xaf\x93\x16\xee\xcb\x10.&amp;%\xf2\xd0\x15\xd3\xad\x14\xa2\x81\x10\xfd\xcf\x16\xfe\xd1\x14\xc9\xa3\x14\xbe\x9b\x15\x9e;\xd1U\x00\x00\x00\xbctRNS\x00d\xca\x07\x02\xfe\xfc\x01\x03\x02\x18\xfd\xfe\xf3\xfe\xf8\xba\xfb\xf9\x1a\xfe\t8=\xfe\xfd\xd6\xfcI\x04\xfa\xfbH7\xfe\xef\xfd;\xfe\xfb\xfd\x02\xfc\xf1\x1e\x02&gt;o\xd4\x1c\xf6\xfc\xd8\x05\x0b\xbc\xfc\xd5\xf4f\xe0*9\x14\xac\xefD&amp;\xfe\x0e\xa4U\xd0\xfd\xbe\x17\x95"3.\xfc\xf6\xfe\xfciS\xeb\xfa\xd85`\xd7\xf3\xfb?\xc7\x11&lt;\xc3\xa8\x02\xc2M\x8d\xfa\xfe\xb9\xfc\x9fv~\x87\xd7\xfe\xf5\x9a\xe3\xdc\xfd\xfa\xbf\xb1[\xc8n\xcc\xb5\xe4\xcf\xfb\\\xd8\xfdk\xf5\x83\xe9\xad\xf9\xfe^\xe7\xfe\xf9\xb9\xbdc\xcc\xfd\xfe\xca\xb2\xfc\xfb9\xec\xfd\xf6\xba\xf8\xfe\xfeI\x8f\xd4\xfdj\xe5\xf0\xf4\xef\xfd\xa3\xf6\x9d\xf9\xfe\xf8\xfe\xe5vn\xde\xfc\xc6w\xfe\xea\x1a\xb3\xea\x9c\x00\x00\x11#IDATx\xda\xec\x9b{PSW\x1e\xc7\x8f+\xc9Mb`\x14dx:\x83\xc3 \x08\x88\x0f\x14\x03\x0ebelA\xaa2\xd5]P\x16\xd4V\xbb\x7f\xf8B\xbb\x8b[\xed\x8ck\xc7\xd1\x05\x8a\xd6\xd6G}Tm\xb5\xef\xf7\xbb\x9d!\xe2\x12\x13\tJ\xa0JHD @x\x08\xe2\xa3\xf6\xbdmg\xf6\x9c\xfb\xc8\xbd7\xf7u\x80d\xf6\x1f\xceL\t\xe6\xe6\xd7\xfb\xc9\xef\xfb;\xbf\xc7\xf5\x08\xc0\xd8\x1a[ckl\x8d\xad\xb15\xb6\xc6\xd6\xd8\x1a[ckl\xfd\xffV\x9a\xe4\x95\xf1\xe3G`\xe4\xa3\xa5=/qs-\xd8\xb5\x0b\xfe\x10\x07&gt;\xaf\xf53\xd6\xb2O2\xc5/\x10\xe0\xf8q\xf8Cte~\xb2\xcco@\x04\\S\x88U\xbfn\x81?\xe1\xf2\xba\xa4%\xd2N\x9dJ\x83/\x82+\xf0\xe3[~]%4\xf2\xe9:s\xffk\x89+\x8b\x1f&lt;X,q\xe9\xeb\xfbg\xfc\x064;{v\xf2\xec\x93\x15\xe7\x0e\xa5\xc0\xd7\xecdn\xe8\xacH\x86o=\xfa\xe9\xa7\x8f\xc2\x97\xe4\x15\xdc\xe0KFF)\x87\xceU\x9cDF\xb3\xfd\x80\xb5&lt;\xa7\xec\xd5C\xaf}\xd7\xf3\xddk\x87^-\xbb0\x95#T\xe8\xb6\xa3\xf9\x1fT|\xdc\xde\xfeq\xc5\x07\xf9G\xb7\x85r\xb4\x9az\x81c\x94\xb3\xdc\x1f\xeeZ\xf2\xe1\xc1;\xfd\xed\xffm\xef\xbfs\xf0\xfdu\xfcKOW\xdd\xbf\xd3a4v\xdc\xb9_\xf54\xff\xca\xba\xf7=F\x1f.\xf1K\xc8\x03\xf0B\xd5\x84\xed\xfa\xed\x95\xa7^\x00\xfc=\x17\x00t\xc7\x0fnW\xa9\xb6\x1f&lt;\xae\x83\x7f\xf02:U\t\x8d&amp;Ty\x1b\xf9li\xc0\x17\x0fv\xee\xdc\xf9\xfb\xe7\xf07\xef\xa4E|f\xdf\xb9\xd3\xfe\x19!H]\x1a\xf0\xf9\xef\xd0\xe8\xc1\x17\x02#\xdf\xf9\xab\\\xd5\xfe\xc7o_\x9d\x11|m\x828y\xfa\xdc/\xbf\x9c;}R\x90\x04\x08p\xe6\xab\xdf\xfehW\x95\x03\xbf\xa5\x87\xacw\x7f\xac\xfa\xe6\xcb\xcawt\xde\x17\x02\xc0\xb6\xef\x7fx\xfc\xf1\x1f\xbe\xdf\xc6\xd7\x10-\xdd;\x95_~S\xf5\xe3\xbbY\xfe\xaa;`\xcd\xbd\xf2\x10\x90W~o\x81\xb0\xca\xbc\xf56\x8c\x9d\x17\xde~Kh\xb4\xe0^y\x1e\x08)\xbf\'Y\x9aF\xab\xa1\xe6\xd9\x03\x00L\x01`\xeb\x8bS\x08\xaf{/\xce\xc9\x04\x01\x01 3g\xb1\xd7\xcd\x89)/n%\x8d\x0e&lt;\xab\xf1\x93\x8a\xa1\x99(\x8a\xe0m3\x05\x1dAf(\xc2\xd1\x92\x1f\xf1j\x1e\xe0;Z\x14q\xf0#\xfeZ\x01\xe8\x0b\x13\x01\x12\xf9C"\x03\xc8\x18\xf9\xaaZ\x83y\x8bJ\xe0\x97\x17\xbb\xc2{\xe5^\xd2\x82\x92E\xf3\x80\x1f\xeb4\x01\xc6O\x1c\x8c]8\xbc\xd8\xd5\x82\x85\xb1\x83\x13\xc7\xfb/? \xaa\x9f&gt;jLZ=\x1c.-X\x9d\xd4\xf8\xd1O\xfe\xe3\x82T\xf3k\x8a\x7fVw\x0e\x87\x0bQu\xaa\x7f.\xae\x99\xef\'.\x02\x84.m\x98T?dImK\xc2\xd6\x11*\x98\xd4\x96j\x19\xaa\x9f\xd4\xb04\xd4\x1f\\\xc8W\x90\xaa\xdd\xad\xb2&amp;v\xe2\xc6\x17\x8a\xab\xceD\xab\xca\xdd\x0e\xb9\xfc\xe1/\x9a\xaa5\xfc\xa21\xc8\x9a\xd8\x16;\x15\x87K\x0b\xa6\xc6\xb6%Z\x83\x8c\x17\xc3[\xfd\xc2E)\xd8{\tR\x91\\N\x1c\x1d\x91\x82N\x92\nr]\xea\xf5\xbd\x8e\x90\n\xf9\xca\xae\xbfh\xac\x867\xd1[\xa0\xbf\x14\xb9\x90\x82m\x89\x16\xbd\x914\xd2\xdb}\xee/\x94\x19 \x15\xf2Uu5\xe2\n\xb2\xe4;\x95tD\n:\xf3-\xc8W\xa4Q\xf8%\xc8\xe5\xcb&lt;\x81\xa8j\x8a\xeb\xed\x14\x15\xc9\xa5\xeaIlK\x92\xe5\x82TIm\x89=*\xa3\xc7(\xdc^_\\\xe3;.2_M\xba\xdb\xaa\xa7oPM\xeb\xd8)\xc7\x85\xa8:i\x05\x19#}\xeb\xddI&gt;\xcb_\xa4\xaf&lt;\nz\xb8\x82,\x89N\xe9\xf8Bq\xe5Ld\x14d\x8c\x90\x8e&gt;\xf2\x17IU\xc0*\xc8\xf3W\xacD\xbe\x87\xb9=\x96\xef+\x8f\x8e\x05&gt;\xe1B{\x10\xc6\x15GA\xd6_\x92\xf9\x8b\xcdW\xdeF\xfaV\x18_\xf3G\x9d\'\xa0\xaf\x966x)\xc8\xe1\x12\xafCT\xc5\x11Ry\xf6\xe3\xd2Q\xfa\x8b\xce\xedv\xbd\xe0\x06\xd4~\xb4\xe6\x8b\xc4=\x19\xed\xf9V\x95Q\xd4\xc8\x07\xf9\x0b*\x88\xf2U\xab\x18\x15\x93\xbf\xda\xbc\xe3\x8bT0\xdf\x12d\x940\xd2\xa3:4q\x14:r*Nu\xb5\x04\x975\xd5\xab\x0e\x91{PTAV\xc7Q\xd6\xa1PI\x05Y\x1d-\xfc\xb8\x87\xbez\x04V\x1c\x95Q\xc6\x88\xd2q\xc4\x13\xc7\x92\xf9\x83\xa2\xd1.\xd4\xd1\xc3%\xaf 7\xee\x07\'.!F&amp;\xe1\xe6\xc1\xb3\x0f;\xdc27\xa0\xfd\xc5\xc6=\x15\xedr\xbe\xa2\x8c\xdc\x1d\x0f\xcf\x0en\x1e\xa1\x8c\xd9\xe9\x03Q\xf6i\xd7\x14\xb9z\xf2;\xa1\xbf\x08\xf4M\xa6\xc6v\xe6\xf7(R]\x9bf\x8f\x1a\x98\x95=\x02W\x91_^W\xda\x14\xd559H\x89\x0b\xd6!G\xec\n4r\xadHr$\xca+\x88\x0c\x82&amp;7\xc77\x15\xe9&lt;3\xe40\x1fgiA\xc8\xdc\x96\xa8\x0ee\x7f\x99l\x15\ro\x02\x8d\x06\xbc\xd9Pa3)\xfb\xaa#\xaaen\x08\x92\x9d\x18&amp;\xd2\xba\xd5\xe8\xd1\x8b\x16\xe8"\x9b\xa2\x9a\x15\xb9\xdc\xd6#5\xe3\xd03\x88q5G\xacne\x05W6\xcd\xd2!\xaa\x00\xb0z\x1d&gt;\x1a\xcc\xedO\xde\x0cC\x8f\xc9\x08\xc8\xd5\x12\xdf\xac\xa4\xa3\xc9\x9a\n\xb1\xa0\xb7\xc6\xd5\xa4ZM\xca\n\xb6\xcc\xcaC4\x1a\x10v\xf3I\xec|O\xce\xce\xae\xc00\xca_H\xc7\xa1\xc9\xf2\xfe2]Q3X\xea+&amp;y_Mn^\xd9\x12I\xfb*,\xd0\x85=o#\xaa\xee\xb2DG`\x1c\xe5/\xc8\x15\xaf\x10\xf7\xb8X\xc8W]\xf1-\x91!\x94\xaf\xe2\x02\x1d\x89e\xddx\\T\xc5\xb9\xdb\x1f\xe1\xca u\x84\xf15\xab)\xbey\xbb\x9c\xbf0\xb1\x90\xaf\xec\xf1t\\i@J\x86+\xa2\x1fs\xae\xa5\xa7\x89V\xb7%\xc2\xec\xd1q\x16\x8c{9\x1d\xf1\xb0\x98h\x0f\xa1\x14L\t4GX\xdc\xadXs\x07Eu\xf7R\xb8Qe\x8b0g0q\x8f\xfc%\xa3#\x16\x16\x19\xed\xaf41\xd1\x9e\x92a\x8e\xb0\xa9\x8c\xe1\x97\xee*\xf7\xd1\xa8\xbf\xea.\xee\x85\xb33j\xa6\xd4\xe6\x1dqt\x9e\x98\xdb\x17\xd5!\xed/\x1c,2_\xad\xecc\xa2=n\x87Y\x8dZ28o\xf7\x16w\xcb\xf7_t\xdf\x8e\xfa+\xb2\xd8\xa9\xcd\x814W\x08\xcc_]\x92\xf9\x0b\x03\x0bQ\rE5E\x860{\xd0\xac&amp;K\'\xd9\x7f\xc9\xf7\xf7\xbc)\x95l&gt;\xc9\xf8b\xf2W\x94\xa4\x8e\xcaXt\xbe\x82\xbe\xa2\xf2\x15\x8c+\xba}U\x9ck\t0\x8f;\xe3\x90\xfeJe\xfd%S\x87\x14\xb1x\x15\x07*\x18hN\xf5\xb4\x19\xcc&lt;4O\x9c\x8b\xf4UA/\xdb!\x93\\\xec~\x94\xa9CJX^\x15\x07\xf9\x8a\xd3\xfc@\x1d\x87z\x0b$\xfc\x85f\x9c\x1a\xb4\x07\xd9\xfb\nt\x94\xda\x8f\nXB\x05\r\xbc\x01\x04\xe9\x08\xf7\xa3\xd8&lt;D\xee\xc1\x02\xaf\x0e\x99\xd1\x91S\x87\xba\xc4\xf6\xa3&lt;\x16\xca\xa2]+[\xe6\xb2\xbeJ\xf5j\x14\xc9&gt;\xba@d?\x92\n\n\xa7T\xb2\xc9\xdbgV\xaaC\xb2X\x82\x8ac\xde\'h\x14\xa9\xb9V\xa0\xa3\xe4\x8cC\xeahpe\xa4\xc8\xd6!9,a\xc51\x88\x8c\x90\xa2\xf3\x10SqDf\x1cRG\x03\xabc\xa4X\x1d\x92\xc1\x12F\xbbA\xb4\xd5\xa7\xf2\x17\xcf_\xcc\x94*:\xe3 .n\x1d\x12\x8b{i,\xbaC\xf6\xf4WT\xc5\x11\xbfO8\x7f\xaeE{\x90\xaa8F\xa9!\x02r\xc9\xd5!I,a\xc5\x91\xa2\xa2\xb8`\x1db\xf6#\x9dE[%\xa7T&amp;\x7fI\xd7!),D\xd5\x15\xe5Q0\x8e\x9f\xaf\xc4u\xa4\xf3*\xd9\xf5\xc9O\xa9d\xdc\xbf\xe1\xc9_(O\xf0u\x94\xc0\x12\xe6\xab7\xacr\xc3\x1aU\x87\xa8\xbe\x90\xd0\x1d\x1e(\xf3~\xaa&amp;\xe6/n\x1dj\xe2\xd7!q,J\xc1&amp;\xd1\x8a#\xc9e\xaf/\x1b8\xac\x9b\x01\xc0\xfa:\xd7\xe9~\xb7QqH\xb5\xb2\xfd\x04\xaaC\xdc\xb9V\x14\x8b\xde\x83\x91\xac\x82j\xab\xe2`kt\xf7\x9fv\xd5\xadG7\x89\tv\xe5Z\xf5\x18\\\x92uH\x0c\x8b\xd9\x83\xb4\x82)l\xcf w\x13\xbd5\xd7\x15\x1cC}\x91\x98\xbd\x8e\\\x1b\x06\x97d?!\x82EE\xbb\xa7\xe2`(HR\xd9r\x1d{c\xa8\xd3\x01\x1a\x10\xbd\xd7\x99\xab&lt;\r\xf3\xebPd\x0b\xfb\x1c@\x88\x85|5\xa4Pq\xc4\xa6\xf3\\\xe7\xdeh\xe6\x1c\x87\x16D\x07;s-8:\x1a\x1cl\x1d\xea\x83u\x88\xe2\x12`Q}{\x1f[q\x1c\x06\x1c\x05-\xb9\xce\xe0h\xf6Y\x99\x06\xc6\x17\xa6\x8e0\xbeR\xd8\xfcE\xcf\xb5\xdeX\xd4\x94\xea\x89\xf6\x14\xf9|\xc5U\x10\xc6\x95\x86{\x10\x06\x97Kt\x1e\xf2\xc2\xf2\x9aqd*\x0e\x9f*\xc1\x8b\x8a\xd1\x11\xc3\xd1*\x9b\xc1\xbc#\xcc\xab\x0e\xf1\xb1\xc8h\x8f\xef\x8b\xcc\xa3\xab\xf3\x0e\xb3\x01\x83JeM\xe0)\xc8\xf8\x0br%X1\xe2\x9e\xdbO\xccj!\xfb\t7\x17\xcb\r\xa9\x9a\xa3Z\x14{\x06\xafh\xa7\xa84\xc2SP\xd1\xc1\x8e\x84\x1e\x13^\xfeJ\xe1=\xcf1YY,\xab)\x08\xf6W\x9e\x8a\x83\x99\xafL=P\xc1h\xb1\xb3T\x14\x17V\xdc\xab\xf9uh\xb2\xdb\xc6&gt;H\xb2=\x9c\xd6\xc5\xab8j\x0bf\\E\x8b\x9f\xf0Bq\xef\xc4\xe2\xb2\xf2\xf7cs\x90E\xddMau\xab-Ah\x0fr\x9e3X\xb1\xa8\x9c\xde\xd1\xce\x8f{\x07V\x1d\xb2\xf1\xe7Z\xfb\x15\xd6[W`\x87\xcc\x9dRmX\x15\xc7!\x8cv\x9e\xbfP\x1dR\xe1\xe9\xc8\xceC+\xef\x18\x18o\x19\xee\xbc\xe2\x99R\xc3\xf0\x14TQ\x15G#w\xfa/\x1aSG\xcb&gt;:O\xa0:\xd4w"\x82\xf6VC\xc4\x89&gt;\xaa\xe2\x90\x99a\x9f\x05S\xc1h\xf9\x93\x83\xb0\x9f\xd8\xefL\xc0\xabCfO\x1d*\x1a8{\xf5%\x84\xf5\xd2\xd5\xb3\x03E\x9e\x8ac\xc6\xab8d\\i\x95NK\xc6\xe0\xeeG\x03\x1b\xf7\xa5\x97\x9f\xa0\xb0\x9e\xb8\\\xcaF\xbb\xc12\xb2\xdc.\xb3\x1fMxu\x88\xee\'t\xe97\x9fG\x0f\xc0\x9f\xbf\x99NG{\x1c^\xc51\xc9\xeeAA\x1d\xc2\xd2\xd1\x16\xe1\xc8\xa0\xe3&gt;o\xcfs\xc8[\xcf\xed\xc9\xa3\x0e\xe3\x85e8\xb0\xf6\xa0E\xac\xe2\xc8\xe9h5]3\xca\xafkz\x8e\x8e\xd9%\xe8/WJ\xb2)\xaa\x92\xfdPA=\xc6\xff@:\x8b\x8a\xefGW\x82\xa5\xbd\xfd\x92\xfcjo\xef?\xe2\xa2\xf2\x17\xdf\xbcd\xbf\xebH?\x86\xf9\xb0\xa8\x18\xae\xcaM\x9b&amp;\xc8\xadM\x136m\xaa?\xf1^R\x1c9\xd7\x11\xcc\xd1@\x02,Lz\xefD=4V0\xdfT\x99\xe0\x1a\x0e\x15\xc55\xf0\x1f\x9cu\xb4\xf1\xc6\xed\xd7\xf9\xcf3^\xbf}\xb9\xf1(\x96\xf1\xc0\xf0\xa8H\xae\xdd\x7f\xc2X\xc7\x8e\xbd\xbc\xfb\xe5\x8d\xc9\xdc\xe7\x19\xc9\x1b\xe1[\xc7\x8e\xe1X\xef\x8e\x1e\xee\xf9\xeba\x1d\x13\x9d"\xf9\x07\x9f\xdeF\xf2d\xeb(&gt;\xe7{\xe3a9\xcb\xe7\x07p\x95?"r\x04\x17\xac\xd9\xfd\xaf\xc7|r\xc4\x88\x10\tpRg\xfe?W\xe0\x1f\xd8\xa6/\nNq\x87\xec\xbf}`\xc6\xe8\xcf\x96\x8b\x01\xc0\xff\xb2\x96%\xa7Q\x01\xb8A\xb3A3}\xfa\x06\xfa\x02\xb1\x81\xfa\x15^\t\x9d\xbdLGx\xdeD/\x9a\xe9S\x88\x99\x85k\xc0t\r\xf9!h\xa6\x99N\xc1\xc3\xdfh~\r\xf3\x1es\xb3\r\xd3\x99\xc5\x03\xc8\xf3\x00x\xd6\xbc\x99k\xff2g\xce\xdf\x17\xad\x87e#+\xa7\xa8\xa8(===\xe7\xf06\xb4\xed\x9f)\xcc)\\\x8c\x1c\xbc|\xf3?\xfe:\xe7\x91\x9c\xadK\xa0k\x1f\x83o\xfe\r\x80]\xf0e\xeb\xf8y tci\xd1\x85d\xb0\xbe0\xbd(\xbd4\x1b\x80\xb4\xb5\xa5E\xe9\x85\xbb\xe0=\x080\xb30=\xbd4\xd3#2\x01\xce\xa3OQ\x8b=p\x90\xb6\x85\x04xj57\xd1d\xad\xad\xab\xbdu\xfd\xd6\xf5\xcbuk\x00\xd0\xdd\xb8Q[{\xf9\xdb\x1b\xb5\x8du{\x92\t\xf0\xcf\xab\xd7\xaf\xfe\x19\x92\xac\t\xfe\x16~\xe2Vm]N\xd6\x0c\xb0\xea\xe6\xf5\xabO\x01\xb0\xa5\xeeV\xdd3 \x80\x08\xfdwc\xed\xd5e \xa6\xae\xb6\xf6z\xdd\x82\xff\xb5o&gt;\xbdi#Q\x00\x7fR\x90\xccr\x99(\x11\x9c\x82\xbdq}\xa9\x1a\x14\x05\t\xa4\x15D\xfc\x89\t\x91BA \x8avS\x14\x1aP\x12X%i\xa5$R\xd3\x06\x92M\x946\xc7v?\xc2~\x8c\xdd\xdbh\x0e\x96|\x18\xd9&gt;Y|\x81|\x8c}c\x0c\xa4\xbb\xed^V\xbd\xf1\x0e\x91\x19f\x9e\x7f~\xef\xcd\x9b7\xc4\x03\xb0g\xda\x94\xba\xc7"4\xe6\xd2\x0e\xb6\x1dN\xac\x10\x83\x0b\x93R\xca\x1d\x14\xb32\xfe5rmK\x00\xd8\xb6\xf5\xdb4Jc0\xb0\x88f\xdd\xe7\x18\x91\xbb\x15Xl\xaaZ\xbc\xfd\xf6\x9a*UT\x07\xbfr\xc2_\x00\x94{\x9a\xect\xcf\x18\xadZ\xc8\x93\xeaU\x9dM\x80U\xbd\xaa\x97p\x1a\x86\xd3\xaa\xd6E\xac\x9a\xac)\x1c\xdb\x8fuyH\xf4U\x08\xfc\x00yK\x1e*jznj\x83\x8e#\xab\xf7iO|kIO[\x8c\xd8\x1e\x80\x12\x7f&gt;\xe1\xca\x9bD\xed\xa6\x92\x99C\xc3z8\x85\xb5\xb8M\x1b\xe8\xe5\xe3\x1aq\xe6\x11\x8b\xc9\x0c\xb1\x06\x8c8\xfb\xeb\xe1\xe5\xb4a\xb9\x15H\x19\x84\t,\x93\x98#,:\xe4\x88ei\xcd\x1c=\x8f\xc2\'\xde\xcci\xe6\xaax\xad~\x93)ME3\x0f\xc6\xa5K\x0c\xb2\x8c\xa0SD\x88\xc7$\x9f\xf4\xc0%j\xbc\x98\xdc.\x19\xec\xe1pR\xe4\x94tb\x95\xc4\xc5\xe9I~\x11B\x02\x0b\x038e\x12\xe7b\x8c\x95A\x13.\x88\xb3|\xf9\xa3\x9dJ\xe1\x9bX4\xfd\x89\xd66\xa2\r\xda\xba\xb6\x11+\n\x99\x9c\xc6&gt;\xf6)\xcb\x8em\xe0aY\xf5\xe4\xabB\xa1\x10\x9e\xbc\xcaS#\xbd\xd7\xe2\xea\xe8xw{\x12o\xf3\\\xee\x1d\xc4\x82~\xde@,5^:\xcc\xc6U\xdb-\x8e\xb1\xcaLq^\xa2\x02?D\xbe\x82\x85\xd0?2\x9a&gt;\xe6\xc6\xcd\xba\xc9\x0f\xdb\x0eb%`\xc7\x94\xcd\x95C]\x89\x87|.\x81\xa5\x0c\x9b\x8dF\xe3\xea\xc9\xe4\xcd\x9f\xf7\\\xd6\xf3\xb1\x7f\xa6\x9e6\x93\xcd\xbcwG)\x1a\x14X\xda\xd04\x99\xad4\xc5\x99\x9d\x11V\xbe\'\xb3\xf7~F\xc7&gt;_`\x05!|6\xc2\xb2\xe8_{M\xbd\xb4\xaa\xb3\x03\x0f+\x08\xfb\x9c\x9e\xc3\x92A\x8c;?5\n,mH\x19\x8a;\x00?\xdfmQ\xc5\x1a\xcd\xc1Xt\x9a!&gt;#\xec\x12\xdaJ*\x8c\xad\xa5\xa4\xa9\xac\xe5\xde\x89\xbc0\xc2\xda\xb3\x14~\xedA\x15\x1e[K\'\xbd\x924\xb2VMX\xcb\xaef\xae\x9d\xf3&gt;\xcde\xae)b\xc1zM6_C\xf8^u\xfa0u\xa2L[\x9b\x9dN\'\xbb\nR \x88\x856\xf4\x1dE\xdf\x13X\xafF\x99.\x18\x14pG\xbax\x9aD\x0c\xf6\xb7N\x96\x05\x96\x9dK\xa6\x0cE\xcd\xed\xe1#\x8e\xb0V\xba*m$\xd0+\xbb\x8d\xceNh\x8c\x95\xea\x11\xf3\x14\x12R\xe2\x9e\xda\xf1\x15\xe1D\x12-\xd54\xea\xec\xc3\xad\xb0\x16|4ez\xdbn\xe7TM\xf7\x93\x81\xc0\xaa\x1a\xc5/\xdd\x95\xad\x11\xe3\x1d\xea\x81~\xebdzT\xf0\xc6 t\x0bA\x8b\x16u[\xb0(\xb0\nh~\x99\x9f\xcf\xc5|,\xa9Oe\x0b\xef3\xf7\x999\x0fE\xa8\x8f\xb0\xd0\x86\xf4j\r`\x87y9\x00\xadE\xa2EC\x91{\x1f\xe1VX\x0b\xad\xa8\n\x87\xd9\x9ab\xfa3l\x84u3\xbe\xf5\xc1\xe5\xe5eH\xa8sZ8\xf9S\x08\xf0\t\n\xf5\xcbK\xe4\x96\xe6\xdeP\xe2\x9c\x1d]PU\x0cXk\xaaj#\x03\xcb\xba\xa6\xa0\r\x11\x8b\x88\x04Q4\x88\xc2\xe7O_r\xa2\x9e\x87\xd1ZU\xc4\x92\xe6\xceT\x9966\x07\\%"\xc5\xe5kj5\xb9\xd8\xb5\x15\x8cT\x0fk\xc9P\xb4n.\x97k\xda\x1a=\x0b?r\xe2\xed[!\xed&lt;\xb4\x1f\xcc\x87e(\\Q\xb4\xc1\xd1\x80iU\xe3\x0fx\xfe`\xba\xb7b\x99.?\xc10\xe4\x8e64\xb2\xb8\xe3\x13Xh\xbb\x8eE\xd4\xb3\xa4\x8f\x15\x84S\x17us[\xa1F\xdeK\xa7\x986\xa3\x98p\xa82\xe4T\xd3\xac\x9f3\x92\x87\x95\xc1\xf8\xfd3\xf7\n\xb10\x9dvj\xc4Jm/\x86B}J\xfc\xd4%A\x96+\x1ae\x9c1\xee\xfe\x0e\x17\xddj\x17\xdd\xb6\xbb\xe0h6G].\xfa`%N\xbam\xef\x19\xca\xfb\xdc\xb4,\xf3Y)!\x16\x1f\xc6? \xd6\xc6\x02\xa7\xee\t\xbc5\xa8\xf1Bh&lt;\xbe\x12]\xac\x9f\x96\x10\xa7\xeeR\xa3#\xb2e\xf1\x8d%Z\xf5\xc1\x9a\xd8\xc5\xb9L\t!\xbf\xb9\x0fpn\xb9w\xc9\x1a\xe7\x1f\xbccv\'\xd8\x7f\xe0\xcdu\\|\x0cG,o(\xb8\xe1\x9d7\xa8[\x16;\xa5\x16C=\xbdg\xaf\x9fb\xcdm8\xc6\xb5\xbf\x80\xaf\x17\xeb\xf5\x17\xde)\xdbD9\x12)\x8b\xd9\xbc\x1e\x89D*\xb0\x81\x7fG\x13\xa4\xb0\xbbs\xb7\xb3\x17\x15\xbd\xb7\xb1qc\xf4\xbf\xb5_\x8a\xf5\xbb\xe2\xba\xa7\xa3\x80\x03\x13\xe2;\xd4S\x89D2aO\x818\xb6\x8c\xdfD\xc6\xb1,\x14\xfa\x92\xf1&gt;$\xbd\xc1\x15\x048\xf0N\xec&amp;\xbca\x8f\x0b\xea\xc0\x7f\x94\xb3_\xeb3\xfd\xf0?\xcb\xc0\xc07*{\x91A\xfc\xb7\x07\xc7\xa7\xb2%\xefB\nL\xce\xa4\x05\x02\xc1q\x9d\x86\x8d\xd2\xbf\x06\xfa\xd5k \xe0\xed\x1a\x03\xa2\xd7\xb8\xe2\x9c^\t\x85\xbe\x04\xe0\x91\xf6/\x00\x02\xdf\xb5\xc4\x9f\xc9Lf2\x93\x99\xccd&amp;3\x99\xc9Lf\xf2\x1d\xe5o\xab\xb2\xd4\x1fP\x87C\x0c\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67006944444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1984</v>
+        <v>5981</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -798,11 +798,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfaPLTEGpLhd]G?:{zz\x7f\x7f~\xfa\xcf\x15\xa2\x86\x1f\x7f\x7f\x7f~~~~~}sqq\xeb\xc2\x18\xfa\xce\x155*!\xfb\xcf\x15&gt;4+I@6gU&amp;7,#sqp\xfc\xd2\x15zyypmkXUR\xfb\xce\x16\xa3\x87\x1eA7+\x7fi#e`\\}}}=3*=3*gc_hd`&lt;2)9/$=3*YVS\xfd\xd2\x15}h$\xad\x90\x1eyxx\x9f\x83\x1f8.$nmn\x80\x80\x81WUTWQKA7,ont;1(\xa0\x85\x1fA6*zzyvuuI?5\xa4\x88\x1e@6-5* \\WS@7.jgfgc^sqrIA9&lt;1(eb`rpn8-#vutKD=a\\X?6.\xae\x90\x1eI?4trrPICmjilifolj\x9d\x82\x1f&gt;4,8.$~h#[VPgd`;1(eT\';1(hd`^YU@6-;1(fT&amp;fc]B91vtshebH@9JB;yxwD;3a^ZQJD:/&amp;7,"MF?\xea\xc1\x18LD&lt;WQKTNISLF&gt;4*\xfb\xd2\x154) NG@?5-?6-q]!\xff\xd9\x15LE&gt;IA9ZVQH?7^YTB91H?8;1(C:36+"c^ZC:2\xa2\x86\x1fXRM8-#QKF&gt;5,]P6\x8bs!\xec\xc9\x14KHSxc#\xb9\x9a\x15\x95z\x1fF&gt;4G&gt;6d`]IA:\xa7\x8a\x1eF9"F&gt;:ND5|f$\x8fv!TVe\x80j!\xaa\x8c\x1b\xa3\x8a cV5H&lt;*\xff\xe9\x13\x90v\x1f[WRHA&lt;;1*\xa3\x86\x1eea[gV)\x81j\x1c\x9c\x81\x1f\x97}!5-+\\Q9\x9c\x83 [Q&lt;SD)\xaf\x90\x1c?3\x1f\xee\xc4\x12hV&amp;B@KDANm[(\xfd\xd3\x11jZ2FDO&lt;3)B91\xfd\xd1\x16\xfc\xd0\x16\xfd\xd1\x15)!%\xff\xd5\x15@4%;1(\xf9\xce\x159.%/\'+\xff\xdc\x13\xff\xde\x146,"\xff\xdd\x13\xf4\xcd\x157-#\xfb\xcf\x16*!$\xff\xde\x13:/&amp;)!\'8.$&lt;2):0&amp;\xfe\xd6\x14\xfe\xd5\x14*"\'1)*/\'*5* \xff\xd5\x14=3*-&amp;)\xff\xd4\x14\xff\xd8\x142*+,$*\xff\xd7\x14\' %\xf9\xcd\x16\xff\xdb\x13\xf6\xcf\x15\'\x1f\'\xff\xe1\x132\'\x1c2)&amp;0&amp;"\xff\xe6\x11\xff\xd6\x14\xf6\xce\x15\x86k\x13\xf5\xcc\x0f\xc1\x9e\x15\xe0\xb9\x18\xf6\xcd\x15\xed\xc2\x11\xaf\x93\x16\xee\xcb\x10.&amp;%\xf2\xd0\x15\xd3\xad\x14\xa2\x81\x10\xfd\xcf\x16\xfe\xd1\x14\xc9\xa3\x14\xbe\x9b\x15\x9e;\xd1U\x00\x00\x00\xbctRNS\x00d\xca\x07\x02\xfe\xfc\x01\x03\x02\x18\xfd\xfe\xf3\xfe\xf8\xba\xfb\xf9\x1a\xfe\t8=\xfe\xfd\xd6\xfcI\x04\xfa\xfbH7\xfe\xef\xfd;\xfe\xfb\xfd\x02\xfc\xf1\x1e\x02&gt;o\xd4\x1c\xf6\xfc\xd8\x05\x0b\xbc\xfc\xd5\xf4f\xe0*9\x14\xac\xefD&amp;\xfe\x0e\xa4U\xd0\xfd\xbe\x17\x95"3.\xfc\xf6\xfe\xfciS\xeb\xfa\xd85`\xd7\xf3\xfb?\xc7\x11&lt;\xc3\xa8\x02\xc2M\x8d\xfa\xfe\xb9\xfc\x9fv~\x87\xd7\xfe\xf5\x9a\xe3\xdc\xfd\xfa\xbf\xb1[\xc8n\xcc\xb5\xe4\xcf\xfb\\\xd8\xfdk\xf5\x83\xe9\xad\xf9\xfe^\xe7\xfe\xf9\xb9\xbdc\xcc\xfd\xfe\xca\xb2\xfc\xfb9\xec\xfd\xf6\xba\xf8\xfe\xfeI\x8f\xd4\xfdj\xe5\xf0\xf4\xef\xfd\xa3\xf6\x9d\xf9\xfe\xf8\xfe\xe5vn\xde\xfc\xc6w\xfe\xea\x1a\xb3\xea\x9c\x00\x00\x11#IDATx\xda\xec\x9b{PSW\x1e\xc7\x8f+\xc9Mb`\x14dx:\x83\xc3 \x08\x88\x0f\x14\x03\x0ebelA\xaa2\xd5]P\x16\xd4V\xbb\x7f\xf8B\xbb\x8b[\xed\x8ck\xc7\xd1\x05\x8a\xd6\xd6G}Tm\xb5\xef\xf7\xbb\x9d!\xe2\x12\x13\tJ\xa0JHD @x\x08\xe2\xa3\xf6\xbdmg\xf6\x9c\xfb\xc8\xbd7\xf7u\x80d\xf6\x1f\xceL\t\xe6\xe6\xd7\xfb\xc9\xef\xfb;\xbf\xc7\xf5\x08\xc0\xd8\x1a[ckl\x8d\xad\xb15\xb6\xc6\xd6\xd8\x1a[ckl\xfd\xffV\x9a\xe4\x95\xf1\xe3G`\xe4\xa3\xa5=/qs-\xd8\xb5\x0b\xfe\x10\x07&gt;\xaf\xf53\xd6\xb2O2\xc5/\x10\xe0\xf8q\xf8Cte~\xb2\xcco@\x04\\S\x88U\xbfn\x81?\xe1\xf2\xba\xa4%\xd2N\x9dJ\x83/\x82+\xf0\xe3[~]%4\xf2\xe9:s\xffk\x89+\x8b\x1f&lt;X,q\xe9\xeb\xfbg\xfc\x064;{v\xf2\xec\x93\x15\xe7\x0e\xa5\xc0\xd7\xecdn\xe8\xacH\x86o=\xfa\xe9\xa7\x8f\xc2\x97\xe4\x15\xdc\xe0KFF)\x87\xceU\x9cDF\xb3\xfd\x80\xb5&lt;\xa7\xec\xd5C\xaf}\xd7\xf3\xddk\x87^-\xbb0\x95#T\xe8\xb6\xa3\xf9\x1fT|\xdc\xde\xfeq\xc5\x07\xf9G\xb7\x85r\xb4\x9az\x81c\x94\xb3\xdc\x1f\xeeZ\xf2\xe1\xc1;\xfd\xed\xffm\xef\xbfs\xf0\xfdu\xfcKOW\xdd\xbf\xd3a4v\xdc\xb9_\xf54\xff\xca\xba\xf7=F\x1f.\xf1K\xc8\x03\xf0B\xd5\x84\xed\xfa\xed\x95\xa7^\x00\xfc=\x17\x00t\xc7\x0fnW\xa9\xb6\x1f&lt;\xae\x83\x7f\xf02:U\t\x8d&amp;Ty\x1b\xf9li\xc0\x17\x0fv\xee\xdc\xf9\xfb\xe7\xf07\xef\xa4E|f\xdf\xb9\xd3\xfe\x19!H]\x1a\xf0\xf9\xef\xd0\xe8\xc1\x17\x02#\xdf\xf9\xab\\\xd5\xfe\xc7o_\x9d\x11|m\x828y\xfa\xdc/\xbf\x9c;}R\x90\x04\x08p\xe6\xab\xdf\xfehW\x95\x03\xbf\xa5\x87\xacw\x7f\xac\xfa\xe6\xcb\xcawt\xde\x17\x02\xc0\xb6\xef\x7fx\xfc\xf1\x1f\xbe\xdf\xc6\xd7\x10-\xdd;\x95_~S\xf5\xe3\xbbY\xfe\xaa;`\xcd\xbd\xf2\x10\x90W~o\x81\xb0\xca\xbc\xf56\x8c\x9d\x17\xde~Kh\xb4\xe0^y\x1e\x08)\xbf\'Y\x9aF\xab\xa1\xe6\xd9\x03\x00L\x01`\xeb\x8bS\x08\xaf{/\xce\xc9\x04\x01\x01 3g\xb1\xd7\xcd\x89)/n%\x8d\x0e&lt;\xab\xf1\x93\x8a\xa1\x99(\x8a\xe0m3\x05\x1dAf(\xc2\xd1\x92\x1f\xf1j\x1e\xe0;Z\x14q\xf0#\xfeZ\x01\xe8\x0b\x13\x01\x12\xf9C"\x03\xc8\x18\xf9\xaaZ\x83y\x8bJ\xe0\x97\x17\xbb\xc2{\xe5^\xd2\x82\x92E\xf3\x80\x1f\xeb4\x01\xc6O\x1c\x8c]8\xbc\xd8\xd5\x82\x85\xb1\x83\x13\xc7\xfb/? \xaa\x9f&gt;jLZ=\x1c.-X\x9d\xd4\xf8\xd1O\xfe\xe3\x82T\xf3k\x8a\x7fVw\x0e\x87\x0bQu\xaa\x7f.\xae\x99\xef\'.\x02\x84.m\x98T?dImK\xc2\xd6\x11*\x98\xd4\x96j\x19\xaa\x9f\xd4\xb04\xd4\x1f\\\xc8W\x90\xaa\xdd\xad\xb2&amp;v\xe2\xc6\x17\x8a\xab\xceD\xab\xca\xdd\x0e\xb9\xfc\xe1/\x9a\xaa5\xfc\xa21\xc8\x9a\xd8\x16;\x15\x87K\x0b\xa6\xc6\xb6%Z\x83\x8c\x17\xc3[\xfd\xc2E)\xd8{\tR\x91\\N\x1c\x1d\x91\x82N\x92\nr]\xea\xf5\xbd\x8e\x90\n\xf9\xca\xae\xbfh\xac\x867\xd1[\xa0\xbf\x14\xb9\x90\x82m\x89\x16\xbd\x914\xd2\xdb}\xee/\x94\x19 \x15\xf2Uu5\xe2\n\xb2\xe4;\x95tD\n:\xf3-\xc8W\xa4Q\xf8%\xc8\xe5\xcb&lt;\x81\xa8j\x8a\xeb\xed\x14\x15\xc9\xa5\xeaIlK\x92\xe5\x82TIm\x89=*\xa3\xc7(\xdc^_\\\xe3;.2_M\xba\xdb\xaa\xa7oPM\xeb\xd8)\xc7\x85\xa8:i\x05\x19#}\xeb\xddI&gt;\xcb_\xa4\xaf&lt;\nz\xb8\x82,\x89N\xe9\xf8Bq\xe5Ld\x14d\x8c\x90\x8e&gt;\xf2\x17IU\xc0*\xc8\xf3W\xacD\xbe\x87\xb9=\x96\xef+\x8f\x8e\x05&gt;\xe1B{\x10\xc6\x15GA\xd6_\x92\xf9\x8b\xcdW\xdeF\xfaV\x18_\xf3G\x9d\'\xa0\xaf\x966x)\xc8\xe1\x12\xafCT\xc5\x11Ry\xf6\xe3\xd2Q\xfa\x8b\xce\xedv\xbd\xe0\x06\xd4~\xb4\xe6\x8b\xc4=\x19\xed\xf9V\x95Q\xd4\xc8\x07\xf9\x0b*\x88\xf2U\xab\x18\x15\x93\xbf\xda\xbc\xe3\x8bT0\xdf\x12d\x940\xd2\xa3:4q\x14:r*Nu\xb5\x04\x975\xd5\xab\x0e\x91{PTAV\xc7Q\xd6\xa1PI\x05Y\x1d-\xfc\xb8\x87\xbez\x04V\x1c\x95Q\xc6\x88\xd2q\xc4\x13\xc7\x92\xf9\x83\xa2\xd1.\xd4\xd1\xc3%\xaf 7\xee\x07\'.!F&amp;\xe1\xe6\xc1\xb3\x0f;\xdc27\xa0\xfd\xc5\xc6=\x15\xedr\xbe\xa2\x8c\xdc\x1d\x0f\xcf\x0en\x1e\xa1\x8c\xd9\xe9\x03Q\xf6i\xd7\x14\xb9z\xf2;\xa1\xbf\x08\xf4M\xa6\xc6v\xe6\xf7(R]\x9bf\x8f\x1a\x98\x95=\x02W\x91_^W\xda\x14\xd559H\x89\x0b\xd6!G\xec\n4r\xadHr$\xca+\x88\x0c\x82&amp;7\xc77\x15\xe9&lt;3\xe40\x1fgiA\xc8\xdc\x96\xa8\x0ee\x7f\x99l\x15\ro\x02\x8d\x06\xbc\xd9Pa3)\xfb\xaa#\xaaen\x08\x92\x9d\x18&amp;\xd2\xba\xd5\xe8\xd1\x8b\x16\xe8"\x9b\xa2\x9a\x15\xb9\xdc\xd6#5\xe3\xd03\x88q5G\xacne\x05W6\xcd\xd2!\xaa\x00\xb0z\x1d&gt;\x1a\xcc\xedO\xde\x0cC\x8f\xc9\x08\xc8\xd5\x12\xdf\xac\xa4\xa3\xc9\x9a\n\xb1\xa0\xb7\xc6\xd5\xa4ZM\xca\n\xb6\xcc\xcaC4\x1a\x10v\xf3I\xec|O\xce\xce\xae\xc00\xca_H\xc7\xa1\xc9\xf2\xfe2]Q3X\xea+&amp;y_Mn^\xd9\x12I\xfb*,\xd0\x85=o#\xaa\xee\xb2DG`\x1c\xe5/\xc8\x15\xaf\x10\xf7\xb8X\xc8W]\xf1-\x91!\x94\xaf\xe2\x02\x1d\x89e\xddx\\T\xc5\xb9\xdb\x1f\xe1\xca u\x84\xf15\xab)\xbey\xbb\x9c\xbf0\xb1\x90\xaf\xec\xf1t\\i@J\x86+\xa2\x1fs\xae\xa5\xa7\x89V\xb7%\xc2\xec\xd1q\x16\x8c{9\x1d\xf1\xb0\x98h\x0f\xa1\x14L\t4GX\xdc\xadXs\x07Eu\xf7R\xb8Qe\x8b0g0q\x8f\xfc%\xa3#\x16\x16\x19\xed\xaf41\xd1\x9e\x92a\x8e\xb0\xa9\x8c\xe1\x97\xee*\xf7\xd1\xa8\xbf\xea.\xee\x85\xb33j\xa6\xd4\xe6\x1dqt\x9e\x98\xdb\x17\xd5!\xed/\x1c,2_\xad\xecc\xa2=n\x87Y\x8dZ28o\xf7\x16w\xcb\xf7_t\xdf\x8e\xfa+\xb2\xd8\xa9\xcd\x814W\x08\xcc_]\x92\xf9\x0b\x03\x0bQ\rE5E\x860{\xd0\xac&amp;K\'\xd9\x7f\xc9\xf7\xf7\xbc)\x95l&gt;\xc9\xf8b\xf2W\x94\xa4\x8e\xcaXt\xbe\x82\xbe\xa2\xf2\x15\x8c+\xba}U\x9ck\t0\x8f;\xe3\x90\xfeJe\xfd%S\x87\x14\xb1x\x15\x07*\x18hN\xf5\xb4\x19\xcc&lt;4O\x9c\x8b\xf4UA/\xdb!\x93\\\xec~\x94\xa9CJX^\x15\x07\xf9\x8a\xd3\xfc@\x1d\x87z\x0b$\xfc\x85f\x9c\x1a\xb4\x07\xd9\xfb\nt\x94\xda\x8f\nXB\x05\r\xbc\x01\x04\xe9\x08\xf7\xa3\xd8&lt;D\xee\xc1\x02\xaf\x0e\x99\xd1\x91S\x87\xba\xc4\xf6\xa3&lt;\x16\xca\xa2]+[\xe6\xb2\xbeJ\xf5j\x14\xc9&gt;\xba@d?\x92\n\n\xa7T\xb2\xc9\xdbgV\xaaC\xb2X\x82\x8ac\xde\'h\x14\xa9\xb9V\xa0\xa3\xe4\x8cC\xeahpe\xa4\xc8\xd6!9,a\xc51\x88\x8c\x90\xa2\xf3\x10SqDf\x1cRG\x03\xabc\xa4X\x1d\x92\xc1\x12F\xbbA\xb4\xd5\xa7\xf2\x17\xcf_\xcc\x94*:\xe3 .n\x1d\x12\x8b{i,\xbaC\xf6\xf4WT\xc5\x11\xbfO8\x7f\xaeE{\x90\xaa8F\xa9!\x02r\xc9\xd5!I,a\xc5\x91\xa2\xa2\xb8`\x1db\xf6#\x9dE[%\xa7T&amp;\x7fI\xd7!),D\xd5\x15\xe5Q0\x8e\x9f\xaf\xc4u\xa4\xf3*\xd9\xf5\xc9O\xa9d\xdc\xbf\xe1\xc9_(O\xf0u\x94\xc0\x12\xe6\xab7\xacr\xc3\x1aU\x87\xa8\xbe\x90\xd0\x1d\x1e(\xf3~\xaa&amp;\xe6/n\x1dj\xe2\xd7!q,J\xc1&amp;\xd1\x8a#\xc9e\xaf/\x1b8\xac\x9b\x01\xc0\xfa:\xd7\xe9~\xb7QqH\xb5\xb2\xfd\x04\xaaC\xdc\xb9V\x14\x8b\xde\x83\x91\xac\x82j\xab\xe2`kt\xf7\x9fv\xd5\xadG7\x89\tv\xe5Z\xf5\x18\\\x92uH\x0c\x8b\xd9\x83\xb4\x82)l\xcf w\x13\xbd5\xd7\x15\x1cC}\x91\x98\xbd\x8e\\\x1b\x06\x97d?!\x82EE\xbb\xa7\xe2`(HR\xd9r\x1d{c\xa8\xd3\x01\x1a\x10\xbd\xd7\x99\xab&lt;\r\xf3\xebPd\x0b\xfb\x1c@\x88\x85|5\xa4Pq\xc4\xa6\xf3\\\xe7\xdeh\xe6\x1c\x87\x16D\x07;s-8:\x1a\x1cl\x1d\xea\x83u\x88\xe2\x12`Q}{\x1f[q\x1c\x06\x1c\x05-\xb9\xce\xe0h\xf6Y\x99\x06\xc6\x17\xa6\x8e0\xbeR\xd8\xfcE\xcf\xb5\xdeX\xd4\x94\xea\x89\xf6\x14\xf9|\xc5U\x10\xc6\x95\x86{\x10\x06\x97Kt\x1e\xf2\xc2\xf2\x9aqd*\x0e\x9f*\xc1\x8b\x8a\xd1\x11\xc3\xd1*\x9b\xc1\xbc#\xcc\xab\x0e\xf1\xb1\xc8h\x8f\xef\x8b\xcc\xa3\xab\xf3\x0e\xb3\x01\x83JeM\xe0)\xc8\xf8\x0br%X1\xe2\x9e\xdbO\xccj!\xfb\t7\x17\xcb\r\xa9\x9a\xa3Z\x14{\x06\xafh\xa7\xa84\xc2SP\xd1\xc1\x8e\x84\x1e\x13^\xfeJ\xe1=\xcf1YY,\xab)\x08\xf6W\x9e\x8a\x83\x99\xafL=P\xc1h\xb1\xb3T\x14\x17V\xdc\xab\xf9uh\xb2\xdb\xc6&gt;H\xb2=\x9c\xd6\xc5\xab8j\x0bf\\E\x8b\x9f\xf0Bq\xef\xc4\xe2\xb2\xf2\xf7cs\x90E\xddMau\xab-Ah\x0fr\x9e3X\xb1\xa8\x9c\xde\xd1\xce\x8f{\x07V\x1d\xb2\xf1\xe7Z\xfb\x15\xd6[W`\x87\xcc\x9dRmX\x15\xc7!\x8cv\x9e\xbfP\x1dR\xe1\xe9\xc8\xceC+\xef\x18\x18o\x19\xee\xbc\xe2\x99R\xc3\xf0\x14TQ\x15G#w\xfa/\x1aSG\xcb&gt;:O\xa0:\xd4w"\x82\xf6VC\xc4\x89&gt;\xaa\xe2\x90\x99a\x9f\x05S\xc1h\xf9\x93\x83\xb0\x9f\xd8\xefL\xc0\xabCfO\x1d*\x1a8{\xf5%\x84\xf5\xd2\xd5\xb3\x03E\x9e\x8ac\xc6\xab8d\\i\x95NK\xc6\xe0\xeeG\x03\x1b\xf7\xa5\x97\x9f\xa0\xb0\x9e\xb8\\\xcaF\xbb\xc12\xb2\xdc.\xb3\x1fMxu\x88\xee\'t\xe97\x9fG\x0f\xc0\x9f\xbf\x99NG{\x1c^\xc51\xc9\xeeAA\x1d\xc2\xd2\xd1\x16\xe1\xc8\xa0\xe3&gt;o\xcfs\xc8[\xcf\xed\xc9\xa3\x0e\xe3\x85e8\xb0\xf6\xa0E\xac\xe2\xc8\xe9h5]3\xca\xafkz\x8e\x8e\xd9%\xe8/WJ\xb2)\xaa\x92\xfdPA=\xc6\xff@:\x8b\x8a\xefGW\x82\xa5\xbd\xfd\x92\xfcjo\xef?\xe2\xa2\xf2\x17\xdf\xbcd\xbf\xebH?\x86\xf9\xb0\xa8\x18\xae\xcaM\x9b&amp;\xc8\xadM\x136m\xaa?\xf1^R\x1c9\xd7\x11\xcc\xd1@\x02,Lz\xefD=4V0\xdfT\x99\xe0\x1a\x0e\x15\xc55\xf0\x1f\x9cu\xb4\xf1\xc6\xed\xd7\xf9\xcf3^\xbf}\xb9\xf1(\x96\xf1\xc0\xf0\xa8H\xae\xdd\x7f\xc2X\xc7\x8e\xbd\xbc\xfb\xe5\x8d\xc9\xdc\xe7\x19\xc9\x1b\xe1[\xc7\x8e\xe1X\xef\x8e\x1e\xee\xf9\xeba\x1d\x13\x9d"\xf9\x07\x9f\xdeF\xf2d\xeb(&gt;\xe7{\xe3a9\xcb\xe7\x07p\x95?"r\x04\x17\xac\xd9\xfd\xaf\xc7|r\xc4\x88\x10\tpRg\xfe?W\xe0\x1f\xd8\xa6/\nNq\x87\xec\xbf}`\xc6\xe8\xcf\x96\x8b\x01\xc0\xff\xb2\x96%\xa7Q\x01\xb8A\xb3A3}\xfa\x06\xfa\x02\xb1\x81\xfa\x15^\t\x9d\xbdLGx\xdeD/\x9a\xe9S\x88\x99\x85k\xc0t\r\xf9!h\xa6\x99N\xc1\xc3\xdfh~\r\xf3\x1es\xb3\r\xd3\x99\xc5\x03\xc8\xf3\x00x\xd6\xbc\x99k\xff2g\xce\xdf\x17\xad\x87e#+\xa7\xa8\xa8(===\xe7\xf06\xb4\xed\x9f)\xcc)\\\x8c\x1c\xbc|\xf3?\xfe:\xe7\x91\x9c\xadK\xa0k\x1f\x83o\xfe\r\x80]\xf0e\xeb\xf8y tci\xd1\x85d\xb0\xbe0\xbd(\xbd4\x1b\x80\xb4\xb5\xa5E\xe9\x85\xbb\xe0=\x080\xb30=\xbd4\xd3#2\x01\xce\xa3OQ\x8b=p\x90\xb6\x85\x04xj57\xd1d\xad\xad\xab\xbdu\xfd\xd6\xf5\xcbuk\x00\xd0\xdd\xb8Q[{\xf9\xdb\x1b\xb5\x8du{\x92\t\xf0\xcf\xab\xd7\xaf\xfe\x19\x92\xac\t\xfe\x16~\xe2Vm]N\xd6\x0c\xb0\xea\xe6\xf5\xabO\x01\xb0\xa5\xeeV\xdd3 \x80\x08\xfdwc\xed\xd5e \xa6\xae\xb6\xf6z\xdd\x82\xff\xb5o&gt;\xbdi#Q\x00\x7fR\x90\xccr\x99(\x11\x9c\x82\xbdq}\xa9\x1a\x14\x05\t\xa4\x15D\xfc\x89\t\x91BA \x8avS\x14\x1aP\x12X%i\xa5$R\xd3\x06\x92M\x946\xc7v?\xc2~\x8c\xdd\xdbh\x0e\x96|\x18\xd9&gt;Y|\x81|\x8c}c\x0c\xa4\xbb\xed^V\xbd\xf1\x0e\x91\x19f\x9e\x7f~\xef\xcd\x9b7\xc4\x03\xb0g\xda\x94\xba\xc7"4\xe6\xd2\x0e\xb6\x1dN\xac\x10\x83\x0b\x93R\xca\x1d\x14\xb32\xfe5rmK\x00\xd8\xb6\xf5\xdb4Jc0\xb0\x88f\xdd\xe7\x18\x91\xbb\x15Xl\xaaZ\xbc\xfd\xf6\x9a*UT\x07\xbfr\xc2_\x00\x94{\x9a\xect\xcf\x18\xadZ\xc8\x93\xeaU\x9dM\x80U\xbd\xaa\x97p\x1a\x86\xd3\xaa\xd6E\xac\x9a\xac)\x1c\xdb\x8fuyH\xf4U\x08\xfc\x00yK\x1e*jznj\x83\x8e#\xab\xf7iO|kIO[\x8c\xd8\x1e\x80\x12\x7f&gt;\xe1\xca\x9bD\xed\xa6\x92\x99C\xc3z8\x85\xb5\xb8M\x1b\xe8\xe5\xe3\x1aq\xe6\x11\x8b\xc9\x0c\xb1\x06\x8c8\xfb\xeb\xe1\xe5\xb4a\xb9\x15H\x19\x84\t,\x93\x98#,:\xe4\x88ei\xcd\x1c=\x8f\xc2\'\xde\xcci\xe6\xaax\xad~\x93)ME3\x0f\xc6\xa5K\x0c\xb2\x8c\xa0SD\x88\xc7$\x9f\xf4\xc0%j\xbc\x98\xdc.\x19\xec\xe1pR\xe4\x94tb\x95\xc4\xc5\xe9I~\x11B\x02\x0b\x038e\x12\xe7b\x8c\x95A\x13.\x88\xb3|\xf9\xa3\x9dJ\xe1\x9bX4\xfd\x89\xd66\xa2\r\xda\xba\xb6\x11+\n\x99\x9c\xc6&gt;\xf6)\xcb\x8em\xe0aY\xf5\xe4\xabB\xa1\x10\x9e\xbc\xcaS#\xbd\xd7\xe2\xea\xe8xw{\x12o\xf3\\\xee\x1d\xc4\x82~\xde@,5^:\xcc\xc6U\xdb-\x8e\xb1\xcaLq^\xa2\x02?D\xbe\x82\x85\xd0?2\x9a&gt;\xe6\xc6\xcd\xba\xc9\x0f\xdb\x0eb%`\xc7\x94\xcd\x95C]\x89\x87|.\x81\xa5\x0c\x9b\x8dF\xe3\xea\xc9\xe4\xcd\x9f\xf7\\\xd6\xf3\xb1\x7f\xa6\x9e6\x93\xcd\xbcwG)\x1a\x14X\xda\xd04\x99\xad4\xc5\x99\x9d\x11V\xbe\'\xb3\xf7~F\xc7&gt;_`\x05!|6\xc2\xb2\xe8_{M\xbd\xb4\xaa\xb3\x03\x0f+\x08\xfb\x9c\x9e\xc3\x92A\x8c;?5\n,mH\x19\x8a;\x00?\xdfmQ\xc5\x1a\xcd\xc1Xt\x9a!&gt;#\xec\x12\xdaJ*\x8c\xad\xa5\xa4\xa9\xac\xe5\xde\x89\xbc0\xc2\xda\xb3\x14~\xedA\x15\x1e[K\'\xbd\x924\xb2VMX\xcb\xaef\xae\x9d\xf3&gt;\xcde\xae)b\xc1zM6_C\xf8^u\xfa0u\xa2L[\x9b\x9dN\'\xbb\nR \x88\x856\xf4\x1dE\xdf\x13X\xafF\x99.\x18\x14pG\xbax\x9aD\x0c\xf6\xb7N\x96\x05\x96\x9dK\xa6\x0cE\xcd\xed\xe1#\x8e\xb0V\xba*m$\xd0+\xbb\x8d\xceNh\x8c\x95\xea\x11\xf3\x14\x12R\xe2\x9e\xda\xf1\x15\xe1D\x12-\xd54\xea\xec\xc3\xad\xb0\x16|4ez\xdbn\xe7TM\xf7\x93\x81\xc0\xaa\x1a\xc5/\xdd\x95\xad\x11\xe3\x1d\xea\x81~\xebdzT\xf0\xc6 t\x0bA\x8b\x16u[\xb0(\xb0\nh~\x99\x9f\xcf\xc5|,\xa9Oe\x0b\xef3\xf7\x999\x0fE\xa8\x8f\xb0\xd0\x86\xf4j\r`\x87y9\x00\xadE\xa2EC\x91{\x1f\xe1VX\x0b\xad\xa8\n\x87\xd9\x9ab\xfa3l\x84u3\xbe\xf5\xc1\xe5\xe5eH\xa8sZ8\xf9S\x08\xf0\t\n\xf5\xcbK\xe4\x96\xe6\xdeP\xe2\x9c\x1d]PU\x0cXk\xaaj#\x03\xcb\xba\xa6\xa0\r\x11\x8b\x88\x04Q4\x88\xc2\xe7O_r\xa2\x9e\x87\xd1ZU\xc4\x92\xe6\xceT\x9966\x07\\%"\xc5\xe5kj5\xb9\xd8\xb5\x15\x8cT\x0fk\xc9P\xb4n.\x97k\xda\x1a=\x0b?r\xe2\xed[!\xed&lt;\xb4\x1f\xcc\x87e(\\Q\xb4\xc1\xd1\x80iU\xe3\x0fx\xfe`\xba\xb7b\x99.?\xc10\xe4\x8e64\xb2\xb8\xe3\x13Xh\xbb\x8eE\xd4\xb3\xa4\x8f\x15\x84S\x17us[\xa1F\xdeK\xa7\x986\xa3\x98p\xa82\xe4T\xd3\xac\x9f3\x92\x87\x95\xc1\xf8\xfd3\xf7\n\xb10\x9dvj\xc4Jm/\x86B}J\xfc\xd4%A\x96+\x1ae\x9c1\xee\xfe\x0e\x17\xddj\x17\xdd\xb6\xbb\xe0h6G].\xfa`%N\xbam\xef\x19\xca\xfb\xdc\xb4,\xf3Y)!\x16\x1f\xc6? \xd6\xc6\x02\xa7\xee\t\xbc5\xa8\xf1Bh&lt;\xbe\x12]\xac\x9f\x96\x10\xa7\xeeR\xa3#\xb2e\xf1\x8d%Z\xf5\xc1\x9a\xd8\xc5\xb9L\t!\xbf\xb9\x0fpn\xb9w\xc9\x1a\xe7\x1f\xbccv\'\xd8\x7f\xe0\xcdu\\|\x0cG,o(\xb8\xe1\x9d7\xa8[\x16;\xa5\x16C=\xbdg\xaf\x9fb\xcdm8\xc6\xb5\xbf\x80\xaf\x17\xeb\xf5\x17\xde)\xdbD9\x12)\x8b\xd9\xbc\x1e\x89D*\xb0\x81\x7fG\x13\xa4\xb0\xbbs\xb7\xb3\x17\x15\xbd\xb7\xb1qc\xf4\xbf\xb5_\x8a\xf5\xbb\xe2\xba\xa7\xa3\x80\x03\x13\xe2;\xd4S\x89D2aO\x818\xb6\x8c\xdfD\xc6\xb1,\x14\xfa\x92\xf1&gt;$\xbd\xc1\x15\x048\xf0N\xec&amp;\xbca\x8f\x0b\xea\xc0\x7f\x94\xb3_\xeb3\xfd\xf0?\xcb\xc0\xc07*{\x91A\xfc\xb7\x07\xc7\xa7\xb2%\xefB\nL\xce\xa4\x05\x02\xc1q\x9d\x86\x8d\xd2\xbf\x06\xfa\xd5k \xe0\xed\x1a\x03\xa2\xd7\xb8\xe2\x9c^\t\x85\xbe\x04\xe0\x91\xf6/\x00\x02\xdf\xb5\xc4\x9f\xc9Lf2\x93\x99\xccd&amp;3\x99\xc9Lf\xf2\x1d\xe5o\xab\xb2\xd4\x1fP\x87C\x0c\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x00\x18tEXtSoftware\x00paint.net 4.1.6\xfdN\t\xe8\x00\x00\x02\xfdPLTE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00GpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xc3(\x1e\x00\x00\x00\xc3(\x1d\xc2(\x1e\xff\xff\xff\x01\x00\x00\xc3\'\x1e\xc2(\x1dv\x18\x12i\x15\x10=\x0c\t\xac#\x1aL\x0f\x0b\xc2\'\x1e\x18\x05\x03h\x15\x10w\x18\x12\x17\x04\x03\xc1\'\x1d\xbf\'\x1d\x9d \x18\xc3\'\x1d\xfe\xfe\xfd\x87\x1b\x14\xc2\'\x1d\xfe\xfd\xfcb\x14\x0f\xfd\xfa\xf9\r\x03\x02\xc3* \xfe\xfc\xfb\xf9\xea\xe9\xc8&lt;2\x9c\x1f\x17\xc51(\xc3)\x1f\xff\xfe\xfe\xe4\x9f\x9a\xe4\x9f\x9b\xfd\xf8\xf8\xc5/%\xfe\xfa\xfa\xc64+\xc4,"\xf6\xdd\xdc\x86\x1b\x14\xc76-\xcbG&gt;\xdb\x7fy\xcdLC\xfc\xf4\xf3\xfc\xf6\xf5\xfa\xec\xeb\x06\x01\x01\n\x02\x01\xc0\'\x1d\x14\x04\x03\xd7rk\xc8;2\xd7oi\xc890\xe8\xad\xa9\xd2_X\xcfSL\xe7\xa8\xa4\xe5\xa2\x9e\xec\xbc\xb9\xd4e^\xea\xb4\xb1\xfd\xf7\xf7\xd4h`\xee\xc3\xc0\xdc\x81{C\r\n\x1d\x06\x04\xc4+!\xc4-#\xf9\xe9\xe8\xfb\xf3\xf3\xd0UM\xf4\xda\xd9\xd1[S\xdays\xcbE&lt;\xd3c[\xfa\xee\xed\xf7\xe3\xe2\xf3\xd3\xd1\xbe&amp;\x1d\xb3$\x1b\xbc&amp;\x1c\x0f\x03\x025\n\x08\xf7\xe5\xe4\xf2\xd0\xce\xf8\xe6\xe5\xc3)\x1e\xf1\xcd\xca\xf0\xca\xc8\xdc\x83}\xdd\x85\x7f\xc62(R\x11\x0cN\x0f\x0cr\x17\x11\x03\x01\x00\xb6%\x1c^\x13\x0e&amp;\x07\x05\x94\x1e\x16e\x14\x0f\xa3!\x19\xb1$\x1b\xd0WP\xe3\x9d\x99\xcaC:\xde\x88\x83\xd8tn\xfb\xf1\xf0\xcfRI\xe3\x9c\x97\xee\xc5\xc2\xde\x8b\x85\xceOG\xeb\xb7\xb3\xc9@7\xe2\x96\x91\xef\xc8\xc5\xd2]V\xb7%\x1c\xaf$\x1a#\x07\x05U\x11\rZ\x12\r\xa9"\x19-\t\x07\xd6mf\xda}w\xd5jc\xdf\x8e\x89\xe1\x93\x8e\xf6\xdf\xdd\xd5ic\xe6\xa5\xa1\xe8\xaf\xab\xfa\xf0\xef\xf3\xd6\xd4\xf4\xd8\xd6\xef\xc6\xc3\x90\x1d\x15\x89\x1c\x15\x12\x03\x03\xa1!\x18?\r\t;\x0c\tI\x0e\x0b|\x19\x138\x0b\x08\xa6"\x19\xf6\xe0\xdf\xf2\xd2\xd0\xc8=4\xe3\x9a\x96\xcaB:\xf5\xdb\xd9\xd9vp\xed\xbf\xbc\xdd\x86\x80\xd6le\xb9&amp;\x1cz\x19\x12\xbd&amp;\x1d0\n\x07\x97\x1f\x17l\x16\x10i\x16\x10k\x15\x10\x82\x1a\x14\xc2)\x1f\xe9\xb1\xad\xe9\xb0\xac\xe7\xaa\xa6\xed\xc0\xbd\xec\xba\xb6\xff\xff\xfe\xef\x00\xf6J\x00\x00\x00FtRNS\x01\xfd\xfe\x03\xfa&gt;)\x00\xef\x02\xf2\x06\x1c\xa9\xf5\r\xe9&amp;\x11\xf8/\x95\xd8\x08\x85\x18\x81\xed\xbeH\t\xfbkL\x8d\xee\xe1["\xd2\nA\xbb\xdf{\x9b9\x152\xc8\xcd\xae\xb2\xa1rb\xc3\xe6\xd0\xa4fQuV\x92\xa5n.\x8a+ARHX\x00\x00\x11\xc7IDATx\xda\xecZy\x90\x1cU\x19\xef$\xc0\xb0a\xc1\\\x86B0\xe0Q*\x1e\xf1(T\xa4\xbc\xcbz\xbc\xd7\xe9\x06a\x88E1\xc3\x0e\x93\x99\x84\x9dMv3\xbb\xec\x9d\xc8\xde\xf7nb\x92\xbdw\x03h\xee\xc4\x0b\x91\xca}\x1f\x8a%!$!\x97e\tEq\x1fjYZ\xde\xe5\xf7\xbd\xf7\xba\xfb\xf5\xccdf\x9a2\xbd\xff\xe4\xedV\xf7\xf4\xd7\xef\xf8\xf5\xf7\xbe\xbb[\x0b\xb8\xda\xdc\xab\'\xa6M\x9b\xee\xc6\xa1\xb9/\xaf\xbcsb\xda\x15W]\x86\xf5\xff\x85\xf5\x87\xf9\x9e\xdbK\xf3.=\xac\xef\x11b\x12\xab\xb1X\x0c\x0e\xf6\xa5s\x83\xdf\xb4\x88\x0f\xfa\x01\xcb$\x94QX\x92\xe2\x9a\x8d\x9bOv\x1d\xac\xc26\xd2\x9c\\\xcd\x8118\xb0 \x1eL\x81\x93&gt;\xe8\x0f\xb7\x90\x13\x8c 4\x92\xe8\xd6#\xd1Rh==\xb5\xf5\x15\x9d[jb\xfc\x1e\t\n\xd4\x0c\xff\xfd\x81\x85K\x19\xb043p\xcd\xd1\x88\xae\x87\xf9?\xb6p\xe9\xa6\x86\xe2" 3\xe0\x17\x87U\xc4L\xf6\x88o\xdc\xb2D\x87%7\xe8zI\xb4v\xac\xfel]\x9cc\x8b\xbc\xda\xf6w\xa6\x08\x18\xfc\xf6\x15\x96lGN\xb5\x0f\x1fkm\x1d:V5zd0\x8e\xc0j\xabcDQ\x04\xd3\'XrA\x83\x1f7.:\xd1\xfef4\x1e\x89\xf4\x8c\x10\x12\xebZ[\x02,\x8b?\x1f\xc3\xdb\xb2\x1f\x0b\xfa\'\xf2rM\xda\xb8oaD\x88\x95\xde\x8b\x84m\x1dx\x19\x1d\x16\x12\x1f$mmp\xf2\x0b\x16\x93F\xaal\xc5B!\xe9\xf8\xbf\xb5\xfa`e\x8c\x95\xef\x08\xc3U\xed^dg\xa2\xf2\xf8\x86#`\'|\x16\xf9\xe6N\xce\xa9H\xa4\x04O[\xfb\xa2\x0b\xcf_\xe8\x1b&gt;\x8a\x17\x9b\x8e\xfd\xbb\xafo=p\xb2\x85\xf8$\xf2h\x1b8\xb7F\x06\x81G\xa5\x9b\x9f\xdf\xdd\xb0u?\xc8\xfa[\xefr\xc6\xd5\xf7F\x11\xea\x96\xf5\x82\x8fg\xa0\xa3/\x9bH\x85\xdc\x90\x9d\x15\xb0\xfa\xd1\xb6dg\xc5\xa9\xce\xb2\xd3c\xfahr\r\x07r`-\x9e\xd65p\xad\xd4\xf7\x99\xcc7\xd9"E\x84$\x81\x1d\x91\x1ded\xd1\xd2\xb0\xbep\x1b\xe9\xea\x1fI\xb4\x00\x8c\xf3\xed+\x0e\xa0\xfd*\xd9\xbao\x1cO\xbd\xe0\r\xf8&amp;\xce{\x8f\xcd\x9bl\xadj\x87E[VQ\x80\xa5\xeb\x0b\x8bI\xecd9Y\x02\xa4\xc5\x84\x0cq\x89{\xb3,\xf960\xad\x920\xee|\x96?\x00\xeda\xfe\xf7\xc0\xc3\xce\x19O\xfcl\xddv\xfd\x82\xc3O\xf2v\xd5\xe8\x7f\xcd\xaehX\x7f\xa5\x92\xd0\x90\x80e20U\x8b\x05\xac\x91\x1e\xb4\x11\xed\x95do&lt;\xb2\x15\xed&lt;\xc2Z\x80\xa3\xa8\x81\x1e\x9c\x88\x83\x1drp"x\x7f\xcb_\xf10\xc0`B\xe3\x1f\xf2dNW\x83\x00\xc5\x8f\xe34\x8b\xa2\x9c[\xd8\x80[\xe1\xc5\x946\xd6\xc2.\xfe\x13`&amp;\xfb;\xca\x89\xb4[\x0b\x18u\xc7;\x84\x02\xc1\xa4*\x05\xd0\x00\x91\xe1\r\x12\x12\xc0\xbc\xc1b\r\xb0Q\x15e8\xa3\x84\x85D\xc9\xad\xc3u\xba^Z\x03\xd7\xabO$\x18\xfaD\x0e\x8bP{qN\xe4\\a*\xd1B\xc8,\x1fB=q\x0bZ\xd9  X\x02f\xdcH\xe1\x16\xc02\xf6\xc6\xf5\xf0\xfaX\xd0a\x8b\x80\x05\x11\x07n\x93\\\x1d\xf0\x18&amp;0\xc4\x10\xf1\x19\xc2\xe0Q\x1c?\x1b,Hy\xc7`\xfe\xb0\xf0\x01wG\xb8\x92\xf1M\\j\xc1bR\xe4\x87\xe1\xde\x16{\xc7lnY\xfb\xc4$G\x0cI1\x98 \xca\xa7\x08\xb9\xe3[/\xdc\xaaB\x0b\x15\x1d\x91\xb0\xc2\x08\x8b\xda\xb0\x12}\xe1p}\xa5\x05\x02\xe7\x16\xb2\xc5\x03W\xb9kLb\xe3G\xca\x94G\xe0\xcc\x93#\x91\xa3\x1e`\xf5rO\xd8\xd3\x9c\xc2-\xb9\x895\xa5z\xe4\x1d9\xb1h\x92[T!R\x85\'4\xe5\xa7#p\x801oX\x06\xab\xe1\x86\xa9\xae\xd9\xc48\x14`\x85\x01V\xd0\xe2V\xec\x90\xaeo.\xc6g^\x9d\x10{b\x08n\tF\x18\xaa@\x8b\x98\x9aI1B\xb1b\x94\xc9\x8e\xa6\x10B\x0f\xdc*\xab@X\xa5o\xc0\xf4T\x88|2as\xabw\xed\xb9\xa3\x87\xf1\xaa\xf9\xd0N)\xe0\xc2n1i\x02\x9c\xc8\x96Q\x93X\x81\x19\xb3\xa3Y\x95\xc8\x82\x0fy\x88\xe5_\xe7\x81C+\x7fn\xdc\xc4\xd2\xce\x96\xd7\x9fk+\xab\xee\xd7\xf5\x0b+\xa0UWW\xef\xfa\xd7\x9a\xf0\xa8\x10h\xb9\x89\x8e\x05 A[\xe2\x85\x8cI;\xea\xd0\x98-l\xf9s\x8b\x1a5K\x11\xd7I\x1c\xc8\xad&lt;w\xd1\xf15\xfb\x8e\x9d\x89\xea\xff\x85(\xa7\x84G:%MrzU\x13U\xeb\x99!\xa9t\x110S\xf1\xb0\x89f\xac\x13\xe3\xbeW\xcb-\x91\xb7\xda\xd8\x96\xe1:\xe7*|ZZ\x00\x0e+$\xd7\xa2B\xb4\x04oB\x86\x83\xc3\xe0d\xc3\xe0\x9a\x08\xb9\x15EB\xd0\x939m\xeb\x01X\xd1\xedL\xc2\x8an\xde4\xb8\x07\xf5 \xf2B\xd3`\x054\x1eIGk\x98\xd8$\xc9-fI\x91e%\x1c\xab`\xe9\x1f\x15\xdbi8\xcc\xf3\x04+\xd1^\x02\xb86C\x1aM\xb9\xc8oK\xac\xaa&lt;\xdd\x07\xbf\xc2\xdd\xc5\xe5\xd0\xb6m\x81\xdf\x831\x97\x81\xa0.\xab\xe0\xa4\x03i4*\x93s\xe2\xd9\'\x92$*c\xc9.\x97\xab\x8e\xbd;\x06\xfc\xea\xe0J\x99xA\x8f7Y"\xed\xd8-\xca\xd2\xcc\x95\xa5\x9b.\xe1\xa2\xd2\x89{\x80\x85\x9a\xce\xcc\xed\xfdh\xba\x1a\x12\x86\x80\x85\xc4`\xd7\x10\xe4\xb2\x91w\x12\xe0K\x8c\xd6xG\x0cVd\x86L_\x17P\xaeo\xa0\xfd!&amp;X\x11\x02\xf1\xe1D\xca\xb0\xac\x81\xa1%\x03\xeb\xc5(\xcf\xd7\xc1n1\xd8R/"o\xa0P6\x95"\xae]\xab\x1b\xf9&amp;r\xe2\xe2\xfd\xad{ \xeb\x19@\xf1\xad\xa9.O\xb1\xf2V5\xc5\xaa\xeb0aDy\x80c\xef\x19\'\x1a\x82\x85\xcc\x9bO\x04\xfe\xd2"\x92x\xab\x16e\xbc\xaf\xb5\xfa\xed\xf1\n\xb0\xea\xa4\xbcqqIK5D\xf0\xa7\x1a\x19Vk\xa4S\x93\xb0\x96\xdd\xfb\xde\xda/\xf27\xa7\xc2\x01\x93\xd6\rh\x06\xe2\xe7\x8f\xf4\x0e\xec\xacj=\xb0\xa9{\x89\x1eY\xd1\r\xa4\x7f\xac\x12Oo\xf2\xa7\xa6\xc4\xc7\xac\x1a\xb15\xb6\xc4u+}\x85\xf6\x1fp&gt;\xf5C\x10\\\xc4\x9fSU\xcb\xf0\x07\x96b\x01\xc9\xf6Cg\x1d\xeb\xd9\x8d&gt;qG\x13\x98\xac\xb3mN\x91\xc2\xb7d\x1fU\xc5\nRb\xcd\r-k\xc7\xeb\xeb\xc7\xd7\xb6\xec\xae\x14\x11D7x\x9euU\xbc\xf4FxX\xed\x13\xac\x90mt\x90\x1f\x95\x1d\xd5M\xa3\xcd\xc5`:)\xc2\xea ;\xc70{=^L\x12\x8bv\x1d`\xfeq\x0bC!j\x802r`5q\x08F\x93\x98"ll\x07\x19;C\xc90J\\d|\xff\xfa=\xf1Q\x1eq=\xe2g\xb2/[\x17`\xa9{\x83g\xb4\xfb\x01\xce\x05B1\x10\x14\xed\\\x99\xaf\xb2\xc5\xad\xb00w\xe0e\x805M\x08\xb5y\x0cTrM\x92\x90\xd7^\x11\xda\xd9\xbf\x9d\xc7\xa2!?\r\x84\x0c)\x0f\xd6\xf2\xba\x11\x88\xd6\xaa\x1d\xdc\x8c5\x00}\xa0\x9f\x07\xfb\xbb}\xd5D\xd5\xeb\x97w\xf2\xdd\x02KE\x078@}\xfc0#\x1b\xd13m\xe8\xda\x88\xc6\xd47M4U\x1fV\xf9\xfc\xb9=\xa5\xf1\xd2\xfa\x13d\xe3@\xf7\xba\xbah\xb4\xee(l#i\xa8\xe8x\xcd\xe6\xa8\xaf\xb5S+1(o&lt;8\xb4\xf70\xb7P\xc5U\x03C5\x95&lt;\xcc*Sb\x17?4\xf1\xae\xfb=7?`\xfd\xf0&gt;\xcf\xed\xf7\x97_s^\x86\x95\xd7\xdb\xd7\xbb\xd3\xda\xfc\xbb/E\x9b?\x1fg\xfeQ\xfe\x06\x82f\xca\x82\xa9\xab\xd8\xc8H\xa6l\x8bfH\xa5\xd3sl9:\xc4G{\xca\x131/5\xec4J\xadO\x99&amp;Of\x04\xc12\xbc&amp;cv\xae*\xea40\x1a\x89\xcc\xc6\xc6x\xb5B\x1d\xed\xb1\x90\x94\xa9.\x95\xca7\x9a\x1f1\xe7h\xea\xa1\xecFe\xe93K\xfd\x8c)\x17T\xd9\x19j\x12%#R\xebG\x19FSoY5u\xe5\xe5\xd4N\x8c\xdd\xe9\xbcS\xf7\xb3E\x91\xa6g\xf5i\x1dS\x9e\xc5\xf0R\xd2\xa5v\x11]f\x9f\xd4\xd2\x03{n\nMf\xec\xce\x00\xa4\xcat\x95\xca&lt;V\x10\xcd\xb4\xd1|\x02*\xb85sz~e7"\x17\x10\xd5\x02\x9c^\xbe\x8e\xe0HD\xacO%\xb5\x88\xe0\xa2\xa6TD\xf9&amp;\x92r"\x86\xdd,$\x01\x8a\x0c\xdf\x1am\x17\x9c\x11\xd6\xd4\xc2\xec\xb0&amp;\xa3\xabN/\x94\x05\x15\xd562Hq\x90\xa4\x7f\xc0\xc1\x82\xce&lt;4\xcb\xe8\x1f\xe7\x86\xf5\xb9+\xa0\xcf_\x89\xc7\xa6\x94\xe0\x9dg1\x94j[\xd6\x96\x07\xacY\x08\xeb\x97RT\xc4&amp;R\xaa\x16\xb6-\xbaT\x03Jl\xe1\x13;J\x95\xbbL\xc8\x8e\x9c\x84\xd2\xb4\xd1\x82\xb0\x12\x96\xbcqFVX\xd3\xaf\x83&gt;\xbf!4d\xa1`\x96\xf1cb\xae\xa0U\x8a\r*[\xcc\x98\xfaF\xc3~s!\xae\x8b\xd4\xbdVG\xcb\xb7\x06\xa1\x17a\xc9is\xb2\xc2*\x9c\n}^r\x84\xc1\xae\xef\xa7X-\xc5":\xfe\xc8H!\xd2L\xc44{z\xff\xb3\xb0\xe4G\xa7d\x855\xe3F\xe8\xf32\x16;\xa8\xfd-\x84\xc1B\xb6\x880\xe7\x85\x8d\xc1\x05\x9d\xfb\x14{\x11\xc3p\xd6\xb7\xb9\x14\xe2}M\xf7\xeb\x1e\xc3R\x13\xe3\xb1g`\xc9\x8f\x17d\x85\xf5\x89OA\x9fg\xbf\xafX\x1f\xf5E\xa0\x94\x15\xd5\x96\x9b\x94\xda\xe5[\xf1$h+\xa8\x99\xe2\x87L\xech\xa6\x8c\x16\x82\xf8G\x8clo\xd2\xb2\xc2\xba\xe6\x0b\xd0\xe7\x07O0\x9a\xfa\xa9VF\x87\x97_\xf9\xfdbMr\xf6\xf1e\xb0\xe4\xb5\x81\xac\xb0\xb4Ob,\xffsE\x1e\xd8E\x9cm\xeaO)\x8e\xf6\x86\x1a\xe9.*\x95bp\xc5z\x1a\xb3\x93\x0fg\x87\x15\xf8\x0c\xf4Y\xfe[\xa1\xbe\xf4b\x8e\x9ff\xc1\xa7\x9a\x13j\x81\xa3\xb6oJ\x0bK\xe8\xef\x10\xd6-\xd971\xf0u\xfcp\xe0\xc9\xbb|l\xf8b\x7f\xd2\x07sl\xe2\xd7&amp;OD(?sV\x0eX\xb3&amp;M\x04\xac\x8f\xdc\x90C\xb6&gt;;u"`\xcd\x9e\x93C\xb6\xa6\xcc\x9e\x08X\xb7\x05\xb2\xc3\xd2\xb4oM\x04\xac\x0f\xe4\x80\x15\xd0\xbe=\x11\xb0R\x151\x9d[WN\x80*^W\x98\x13V\xe1\x04\xc8\xfc\xec\xeb\xb5\x1c\x9a\xa8\xcd\xb9\xc3\x7fX\xd7\x16\x04r\xc1\xd2\xde\xef?\xac/i\xb9a}\xc8\x7fX\xa96&gt;]\xb6\x02\xda\x8c\x99~\xa3\xfa\xca5\x9a\x96\xcb@\x04\xa6\xdc\xee7\xac/\xa6\xa1\xca\x00K\xfb\xb4\xcf\xa8&amp;}\xa3 \x0fX\x81\xb9&gt;{\xeb\xabo\xc8\x08#\x95[\xd7O\xf3\x17\xd6\xed\x05yl\xa2\xe6\xbb\x89\xb8%/X\x01\xed\xd6\x9b1r~\xf1\xbb\x97\xbc\xbd&lt;\x8f\xe7\xf9\xb8f\x0eX\xd8\xde\x87Y\xd9\x82_\x07\xf9\xf7L\xd0L\xac,\xc2)\xc8X\x11\xa4\xc2\x8c\xff\x19A\xbb\x02i\xc0=\xc8\x95\x90\xc8\xefA\x8e\x86i+$\xe4\x94\x99f\x91\xd31\xe4\x1a]d\xfe\x05a\xdd\x94\x81Y\x99`j\xda7\x91\xb7?u\nZ\x17I*\x1cB\xa6\xe2$\xa5i\x15\xb6\x94\x8e&amp;\x16E&amp;\x7fU\xcb\x0b\x16t\xe2u\x9bg\x1eSR\x17wj\xc3L\'Q\x13]\\\xdf\xf2(\xab\x17)\xdf\xc6Z\x1d\xed\xd1\xbfz\x14\xe3\xe5BM\xd3\xf20\xa7\xd0e\xca\xe71\xffy\xca\xc9\xf7\xa8\x9d\xc9+9\x95\x99!q4R\x1e@9\x87\x88Z\xa6\xc1o\x08\xff\xc4\xdd\xb4\x96\x07\xb7\xb0\x07\xfc\x7f\x19\x07\xac\xc4\xef2\xa9\xc2}\xd7^P\x17\x88\xf4\x9dT\xea\xa4F\xfa\x96\xe3\xe9\xcf\xf8\x15\xcb\xcds3\xa1\xca\xa8\x89\x01\xad\x10M\xd7\x82{\x88\x9au:\xd3\xbbrV#K\xceM\xb3f\xe4O\xfd\x0c\x16\xb9cNA\x81\x96\xdb@H\xa9\xc7\xe4\xfa\xce\'\xdd%H3w\xad!\x98\xe9v0s\xa5"\xb8R\xc44\x1cT\x1eV\x1e;]\x85a\xc4\xa3\x8f\xbb\xd7`\xa95l\xeb\xe1C\xa9\xe2D3\xe9$u\x8f~z\x19\xaf\x02ra\xd6r\xa6\x18B\xb8\xa6\xdc\x86B\xff7\x96\xd9\x10\xc8\xef\xcd\xa9\xfdV@V+\xcd\x14`\x99\x0b\x0fb\xb4y/2\xeb;\x81\xbc\xb8%\x95U\xd3nE\x7f}\xdf\x13\xe9\xd3\xaa\x97\xcc\xbd\x9c[\xf3\xcc\x8b\x8f\xc3\xe3=\xcb\xd1\xc2\x7fL+\xf8_\xed\xd6\xb6\x14G\x11\x86\x7f\xd8@\xa7\xb3\xc2\x02B\xb1\x100\x9c\x16\x88!\xa2\xc6\x18K&lt;\x94Z\xee\xce\x16\xb3Z\xb8\xa9$d\xab\xb6,n|\x00/\x81}\x05x\x02@\xae\x95\x90\x84\xf0\n\xd1\x10\x9f\xc0T.Ry\x02\xcb*o3}\xfe\xbb\xb7\x07\x1a\xddmX\x18\x9a\xe9\xe9\xbf\xff\xc3\xf7\x1f\xba\'L\x88\xb2e9F\x1c\x98\xad\x89JY)}E\xfe\x88\x8a\x15\xdf\x01\xe6\x08o\x1e\xa8\xba\xb0\xb9C\x8e.?c\xccZ\xca\xa8\xf9Bp\x8b\x91?\xc9\xd9\xf54y^-\xd2\x87\xb6\xa5\xecX\xe1\xaf\xae*\xcde\xdeY+\xd6\xa3\xa8*\xea|J\xa0\xec\x05\x88(\xaa+\xb4\xaa\xe0\xd1\xaf\x19\xb3z\xbb\x85\xe1\x87\xb9j\xfe\x19fu\xc1\xe5\xef\xcd6\x8b\xa9o\x89\xdd\x92(r\x99dwF\xb2\xaf\x18\xb9\xd5\xce\xa4\xa7\xc2\xcaG\xa5\xaf(\xf8U\xcb\x0f\xa7\xbc\x8dwp\x87\xedC\x83\xe6\x83\xa4\xc5\xc8\xc5\x0f\xd7/\xe2WR\x8b\xc5\x97\xcc\x0c{\x07\xb9f\xf9\x80\xcbo\x89\xec\x93a\xf5\xca\xd2\xaf\x95\xb4\xdah\x19\xc1R\xb9\xec\xd9\xc2p\x81\r\x1dE\xd9a\x1b\xc1\xa5\xebTI0\x80,\xdd\xd9\xc5\xb0k\xe3e\xf3\x8b\n\xb5\xb2g\xe7$\xf6#l\xdc\xd4\xc9F\xbf`\x00\xdf7\x0b\xd2\xc6HH\x8a\xa1\xe4\x98\xe9aK\xda\xdf\xc1x\xe8\xc50\xb7/\xf2ub\xd1\x1en\xb3\'\xe7\xa9\xe0\x12\x00\x84\x91%\xe9\xea\x9fN\x06?\xb8\xb3\xd2\xf2\xf6\x90Qum\x80B\n&lt;\xf8\xe1T\x882\xd1\xc5\xd1\xd2\xffx3\xec\xf4\x97\xc6J\x1d\x05=w\x10\xb7$g\x19i\xb96\x96\x06\xdf\xcd\nd\x80 !"\xa0g\xf5\x88\x0bmK\x0e\xbb\x01\xcds6Y\x12\xdd\xc4J\x84\xd6\xb7\xa1u\x8e"\xc5\n\x88 \x0c[\xf9\xcd#3\xed!k.g\xf8\x14d\x89\xdaf\x05\xe3\xbe\xbc\xd2\x0e\xaa.\xbdg\x98\xe4\x05.\xbfO\x94\\e\x81\xd7R[EH\xc2"\x08\xb0\xfc\x0f#n\xa4\r\xd686o\x88\xf2\xe2C\x1a@\x98\x85\xd0\xae\xdeVS\xd5\xd7\x0fM\xedL\x80\x10\xa8\xa5\xad\x92\xc0\x17-.\x89_\xf8\\\xe1"r\xc3!A\xb3n&lt;\xeex\xe7\xa3\xd6*\xd6T&amp;y.5S\xd0\xb3+6\x16\xc0I\x17\x04\x03s\xad\x85w"\x02,\x8a\xb5&gt;(\x96G&amp;\xc9\xda7\xd3-\xdc\x1a\x18\xe1" \xe7\xd3-\xe9\x10\xa5\xec\x15\xe0M\xb6L\xed\xfb\x06A/]:\x13\x9f\xf7I\x0fl\x88\t\xff\x81N\xb4\xa8\x9e\xda;iy\x1c\x03\x12!B\xc4\xfeG\xd6p\xf2-\xa1\xeb\xed[\x14\x1c\xba\x90\xde\x04\xa0&lt;\x00\x86/B\xb2\xd7[\x00\x13\x1d\x0bT\x18\x91R_o\x08\x98^\x83@"WWY\x19L4\xee\xfe\x87\xf6\x8b\xa0*\x9f1\xeb\xa5\x96\xf3!a\x15\x9bf\xd1\xc3\xfc\r\xce\xaf\xfd\xe3U\xd66Wu\xdb\xf4]m\xe2\xbe\xd7\x8f8UC\x19\xa3\x1e\xd2\xac\xd0\xd79\xe0TA*o9A\xd7\x9f\xc7g\x9e\x15s\xb2\x8f\'&lt;\xa3\xe8\x1c\xcaj\x00EX\x1a\x08\x10\x88U\xc4\xd1\xce\\\x0f\xa7\xeb\xd1\x13;m\x8c\x9c\xb3Q\xeeI\xd0\xc7\xacDZ\xba25\xec[\xab\xb8\xa2\x81&gt;\x110\xbb5\x8d\xb9\x9b\xdc\x1e\x1b\x8f\xe5\x1b\x8f\xd5\xe6,\xcd\xcd\xc0\xa2{\xffnpG\x98\xcf\xda\xb1\xa8R\xdb\xc0\x84\x0c\xb1\x0b%\xff2\xfc\x18\xe6\xa5\xf1\xd2\xc6\xabr1\xbd.nu\xde;z\xc0y\xf51U:N%\x8b\x88\xf0?\x81\x81\x8dd\x0f5\xc6\xa8\xc9J\xfa\xe8\x02O:\x96O\xf6\xd8\x9cu_\x85\xb4\xa2\x8f\xec&amp;\xea\xb7\xbb%\xa2\xd1\x02\x057\xf0#\xa7)\xd7)Y\xb5\x11&amp;\xb2\xccL\xe1"\xa7\xeb\xef\xe7\xb1x\x1f\xd9\xca\xebc}\xe0M\xb4\xfb\xdbb\x1f\xf3\xaa\x02\x1a\xc3~\xe9\xddTwH\xa5\xd9H\x1e\xdb\xb3\xb4\xe9\xab"\xebh\xfc\x9c\x10Q\xabG\xb2\xfeVc\x15.~\x12\x90\x1f7\xe7G\xe0V\xbf[\xe3\xb7~\xd8\rf\xbdzN\xb0\'\x08q&gt;\x04\x8cM\x9a\xd8C\xf2o\xf6\x13n\x90\xeb\'\x87\xc5:gX\xdd\x06\x8c:\xe3X\xf2\xfd\xfb\x96H\x9f{\x06\x00;~[\x92\xc4\x1f\xd9\xf8,\x11q\n\xa7\x8d\xfai\xf3C\xc2A\xfe\xf1SUn\x1ap\xc9U\xd9\xef\xb8\x1asR\xe3\xca\x8b\xdb"\x16]\xc8\xba\xd9\x84\xe3\xac!0}\xd5\xab \xe0x\x08\xb9dz\xeb2\x9fr\xfd\xe1S\xb1\xe9\x12\xd7c\xf5\xf2\xbb\xbc8\xfeM\xbc\xf933n\xcd\x0cH\x9b\xe4\x05\x01\x12\xb2\xfb\x8a\xb2\x1e\xe4\x19\x9c\xd5\xf6\x7f\xc0\x05\xb9\xbc\xfd\xd7\xa6\x91\x9f\xae\x81\xd5v^I/xc\x11|\xeb$\xe8\x179O\xa5\x19\'@n\xf4\xc5~\xe4F\xc5\xb9\x84\xf5\xad\xe7L\x97\xe22W\xa7z\xb1\xc2t\xed\xfe\xbe`\xd5\xc5\xcf\x86\r\xab\x01\xa1 \xc2Uo1\xd0\x9fU[\x8b#\xd8\x96\x8d\x83\x85\xae9\x11\xea\xac\x1d\x1d\x0bP\x88c\xa1\\+\xcf\xd6\x05\xab\xc6\xba\xcd\xb3\x883Zw\xea\x908\x18\xb7\xc0\xaf\xab\xea\xef\\^\x86\xd2w\x0f\xf6\xb4\x00\xab\x87?\n\xf9\x95.Od\x89\xe7\x01)O\x0b\x13"\xd1\xee\x14E\x15\xc4\x0e\x0e\t\xbc?&amp;c\xc3\xed;{bCs\xf7\x9f\x86\x8c\xf8zf\xd1\nq5\xd2\x1f\x07\x04\xe7\x89&gt;\x83v\x1f\x98-\\\x13T,\xdf&gt;\xd8-VW\x8e\xd6d.\xf8\xe9x\xe6\xcc\xd1$\xbd\x8e\xe4\x03\x08b\x94\x81\x00\xb1\x1c\x85\xa9S\xa8\x9b\x06\xf2\xf2\xbc\xd7r\xe3\xe4\x875uhf"\x07\xa8h\rx.4\xdaL\x15\xc0-\xdf\x92\x88\x87}\xca\x99\xf7\xdft\x0e\xa2\xf5M\x8d\x98{)\n\x8fIj\xc0E\x03\xb6\x0b@\xdb\x07\xb1\x95B\xd7\xe4\xd0\xd6Pr\x1f\xfd\xb6\x07\xa5\x91\x97\x86\xde2Lp}\x8b=\x1a\xe7\xc9\x81\xb8e\xc9=M\xd7\xd4\x04tpI\x126=\xd5\x7f\xeaCR\x95-l+\xaa9\xef7\x03(4U\xad\x13\xff=\xd4W\xea\x9c\x19]\x04\xabN\x06\xd6$\xe0\x8e\x06\x13\xb2\x04E\xa7\xc4Fzt\x05\x8e#\xd0\x97t\xf1\xebB\x0e\x88\xef\xdf\xf6\x8d\xee\x15\x01O-\xe9\r7\xb8\xcd\xaf\xff\x93K\xe1\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67008101852</v>
       </c>
     </row>
     <row r="16">
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67008101852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2020</v>
+        <v>1957</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -846,20 +846,20 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x19tEXtSoftware\x00Adobe ImageReadyq\xc9e&lt;\x00\x00\x03\x7fiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt; &lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 5.6-c142 79.160924, 2017/07/13-01:06:39        "&gt; &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt; &lt;rdf:Description rdf:about="" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmpMM:OriginalDocumentID="xmp.did:a0d9265b-4187-4a6b-9151-1f10fd34fbe3" xmpMM:DocumentID="xmp.did:BCF945B94E8B11ECA1E2D2E0FF129DAD" xmpMM:InstanceID="xmp.iid:BCF945B84E8B11ECA1E2D2E0FF129DAD" xmp:CreatorTool="Adobe Photoshop CC (Windows)"&gt; &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:bc251e7e-d1d8-574a-a1f5-f83a3cdfabb8" stRef:documentID="adobe:docid:photoshop:2131a76d-1d34-0741-acf8-d45ac224463e"/&gt; &lt;/rdf:Description&gt; &lt;/rdf:RDF&gt; &lt;/x:xmpmeta&gt; &lt;?xpacket end="r"?&gt;\xe2\x82,,\x00\x00\x02\xf4PLTEGpL\x8cZUzs\x85*d\xa5{DW0a\x9fB\\\x8eFZ\x8c\x1aU\x9c4d\xa0\xb7\x89H&gt;Z\x93\xb8\x88H]St`QrEW\x8dcRr\xb9\x8aF\xbb\x8eE~E\\\xb8\x89HFW\x8dgDqkEmKO\x8a\xb8\x8bH\xba\x8dF\xb7\x89I\xba\x8cF\xb9\x8bG\xbc\x90Da(\x87gf\x83,d\xa4\xb7\x89Hv=f7_\x9eSR\x7fb\x82\xa2Lf\x98(`\xa1-a\xa2\xb8\x8aH\xb8\x8aH\xba\x8cF\xb6\x86JmXc\x18S\x9bQ\xa4\xc8h\x9b\xc4\\\x80\xac;u\xaa7_\x98Tx\xa6Fe\x84\xb0\x84P\xbc\x92D\xb8\x89H\x19U\x9c^(y\\]\x87I\x9a\xbc.n\x99+b\xa3\xff\xff\xff\xd1-\x11\xf6\xfb\xfb\xfc\xff\xfe\xb8\x89H\xfc\xff\xff\xf9\xfd\xfc$]\xa1\xfb\xfd\xfd\xb4\xc8\xde\xcb\x0b\x00-d\xa4\xd1,\x10\x16R\x9a\x0bJ\x95\x14Q\x9a&gt;q\xad\x07H\x94\xc7\xd6\xe5\xf8\xfb\xfb#`\xa4\xf7\xfd\xfe\x16S\x9b\x1aU\x9b\xfa\xff\xff\xfe\xff\xfe\x02A\x8f\x1dW\x9d\x1cV\x9b"_\xa4\xf3\xf7\xf7\xb1\xc7\xde9m\xa9\xd1.\x12\x1aV\x9d\xeb\xf2\xf5\xda\xe4\xed\xfb\xff\xff\xfe\xff\xff\tI\x95\x04F\x93(_\xa1\x11O\x98As\xae\x04D\x92\xf6\xfa\xfa"\\\xa0\x01B\x90{\x9d\xc5"Z\x9d Z\x9f\x1fV\x99x\x9b\xc4\xcb\r\x00)a\xa3*^\x9e+`\x9f\xd7\xe2\xec\xb0\xc6\xde\x10M\x96\nM\x99\x13P\x99\xb9\xcc\xe0\xcd\xdb\xe8\nG\x91\xf0\xf4\xf6\rK\x96\xe2\xea\xf1\xd2\xdf\xec\x1fY\x9d\x16T\x9dDv\xb0My\xad#_\xa4\x18R\x97\xd20\x12\xdf\xe8\xef\xbd\xcf\xe1~\xa0\xc7f\x8d\xbb\xcb\x06\x00&amp;\\\x9c\x00&gt;\x8e\xe5\xec\xf2\xf1\xf6\xf7\xed\xf3\xf6\xd0\xde\xe9\x97\xb1\xcfS\x7f\xb3\x1ch\xb2\rP\x9b\xd4\xe1\xed\xeb\xf0\xf3\xd2*\x0c\xde\x8ay\xac\xc2\xda\xca\xd8\xe6\xc8\x03\x00&amp;d\xa8\x1bk\xb4\xcf\x19\x01q\x95\xc0\xca\x1e\x05\xdawd\x82\xa3\xc9\x16`\xaa=o\xaaL{\xb21g\xa6\xb7\x87H\x0eV\xa5\x94\xb0\xce\xcc\r\x00\xa0\xb8\xd2\xdc\xe6\xefv\x98\xc0\x9b\xb5\xd2h\x8f\xbc\xc2\xd3\xe4\xdf\x87v\xe0\x8d}\x88\xa7\xca\xee\xe5\xe0b\x8a\xb9\xf4\xf8\xf8\xa2\xbb\xd5\x008\x8b\xc0\xd1\xe15j\xa8\x17c\xaf\x19h\xb6\xa6\xbd\xd5\xe7\xee\xf4l\x92\xbe3f\xa2\x8d\xab\xcd\x1cc\xaaHv\xae\xe0\x90\x81\x16P\x96\x17e\xb4\xd3Y@\xdc}k\x1ar\xaf\xe0\xa7\x98\xdazh[\x83\xb3\x12Z\xa4X\x81\xb2\xdf\xa2\x93T~\xb0\x000\x86\xc6\x05\x00(f\xaa!j\xb1X\x84\xb7\xde\x97\x86\xb7\xc9\xdd\x00&lt;\x8d_\x88\xb7t\x99\xc3\x1cj\xb8\xef\xec\xe8\xd7|i\xd0\x16\x00\xc8&amp;\x0c2v\xb7\xd3\'\n\xd2bH\'m\xa4!n\xaa\xef\xe7\xe3\xe4\xc1\xb5\xfa\xfc\xfb\xdf\xad\x9f\xd1V=\xd2]D\xde\xb3\xa3\xc2\x0f\x000`\xa7\xd0jP\xd4n`\x00$\x7f\xd8\x87r\xd2V=\xd7\x8f{\xe9\xdc\xd3\x00\x1by{Z\xdb?\x00\x00\x00?tRNS\x00\x07\x15\xfb\x17\xef\xc4P\xf2\xee\x9e\xc7\xd3id\xbbY=\x0e\x0e\xaf\xb0OA\xa3\xe6\x1b\xb8_u+bf\xf5\x95,\xe5\x89j\xc2\xf4\xf3U\x84\xf8\xf49\xf2e?\x98\xeb\xdd\xbd\xb3\x7f\x87\xee\xf2\x94\x9b\xc6\xf2\nByr\x00\x00\x0e)IDATx\xda\xec\x99mlS\xd7\x19\xc7\x011\xb6\xd1\xd0\t\x94/@a[?t[\xbbj\x1f\xf7"M&gt;\xb3\xc3\xbdv\xbd{\xcd\x8d\x99/\xc9M\x17\xe3\x98\xd8\xbe~K\xbc\xd4\xc51v\xc0\x8e\x81\x81\x9d\x14\xbf%\xd4L\xce\xc2\xa2\xa5\x8eQ\x967k\x16\x89\xb1H\xd2\x90eb\xea:5\x94\x88\x10\xed\xa5\xdb$\x98\xb4\x97\xb6\xd2\xf6e\xcf\xb9v^H)\xd8. \x7f\xc8_\x96\xef\xb1}|\xfd\xf3\xf3\x7f\xces\xce=w\xd3\xa6\rmhU{^*K\xac\x17\xabv\x95#\xd6\xf3U\xcf\x95#\xd6\xee\xaa\xbdeH\xb5\xb3\xaa\xaa\x1c]|\x1e\xb0^,C\x0f/WUU\x96\x0f\xces\x95\xdb++\xf7\xee\xad\xa8\xc2\xda.\xa8rg\x19\xe4\xd47/W\xadS\xc5\xfe\xb2\xc8\xaau\\\xfb\xca\xc5\xc7\xaa5`\x15;\xcb&amp;\xbf\xf6\xef^\xe1\xaa\xdc\\F\xc3p\xd7\xcby\xaa\xf2\xaa\xa8{\x96\xf3\xbe\xa2\xac\xb0\xbe\x8d\x91.c\xb4\x9d\xe5\x84U\x01D\x15/\xe1\xcc\xdf^N\x1e\x02\xd0\xf6\xcd\x9b\xf6\x03\xddw\xcb\x08k\xdf\xe5\xfc\xa2\xe6;\x97\xcb\xc8\xc5\xcdU\xbb\x97\xeb\xfa\xce\x97\xcb\'\xe9w\xed[]\xd1\xec\xd9W\x96k\xd4\rmhC\x1b\xda\xd0\x8a&gt;\xffTU0\x96\xa8\xf7\xd0\xab\x05\xe8\xa7kth\xa5q\xe8\x90\xf0T\xa8z{\x0b\xc6\xfaF\xaf\x9d=\xc5\xb2\xec\xa9uR}\xba\x14 \x95\x8a\xfa\x84\x14\x0f\x97K%\xfaj\xc1X\x9f;\xd5\xed\xaeo}\x90\xea\xeb\xe1\xf10\xc9\x8a\x93\xbbU\xfd\x85\xc2\xb1\x8ew\xa2\xa7\xa5\xc4\xb7\n\xc7z\xf3\nB\xca\xf5\x12?\x01\xa1\x86b\xa2\x05X5\xe2\xa7\xa1\xe2\xb1\xcc\x92\xe58\x0b\xdf\xc7\x92\xac\xb4@\x84\xd8\xbc\xc6\x0b\xa5\x99\xc0\x07)t\x10Z\x12\xf3\xda\xbeh\xb5\x85{\x08]\x91\xb9X\xac/b,iC\xaa\xba\xa7\xa7-\x1a\r\x11\x04\x81\xa4\xd5\xb7\x03ZLH\x84b\x8eXL\xeb\x85S\x13\xde\xb6\x9c\xa21\xed\xb8\xf4G\xb1\x9e6/\xc0\x8a\xa5\xe6hu4\x0c\rB&lt;\x1c\x15\x14\x8b\x10\xdah\xbb ?\xa1\x14+\xd1\x94c\xd8?N\x14\x8du\x1c\xb0P\xcc\xe6\xf4A\x95\xb0\x1a\xa5\x08]MP:\x0fy\xc7\x8b\xa4\xa8Og -\x86db\x06\xa1\xe9 \xe7\xf3\xf9l6\x1b\xdd-E~\x03\xef\xe3\'\x01\x1c\x85\xec&amp;\xb6\r7j\xbay\xb2\x99\xab\xab[\xec@o\xeb8\x8e\xb3Y\xb8:\x19D\xae\x8d4\xc8\xa98*\rK+R\x90\xacJ\xe3\x19\x90\xa2\x94S\xc7\xdb4N\xab\xc8\x0b,\xb5\x16\rm\xa2]\x99.\xb40\xcf\xb8H\x92\xe4\xe9\xf9Y\x84&amp;M6\x8bu\x00r\x12i\x9b=l\x8f\x80uFO\xb2\xbcBc\xea\x0f\xb3V\xa7\xd3\xe3"m\xd6Q\xf8g\xfd\x8b\x1c\x17\xec\xc3~\x96\x80\xe5\x90S\xb6\x89\xf6\xf6\xe1\x86F\xe9iF5\xd0^\x9d\xc5\xe7B#t\xddAw\xdc\xc8y\x0eJ\x1d2Y\xa7\xcf\xc0M\xc7\'\xae\x02\xae\x8e\xb4\xd8\xc8a\x08\x86\xd6\xa0\xf2U\xe7\xa2\xe5\xa2\xee\x04\xdab\xc3\'#nw\xc0\x1dHs6\xaa\x07\xa1\xc6\x01\x97\x85T\x19\tT4V\'6QN\xb1\xc3Br\xc6l*\xae\x1d\xa1Q\xc6\x95 \x00K\x07\xe5\xa3\x8d\xe3\xb3\x11\xf8\xa8\xdeeS\xa4\x84\x04N\xf0\xea\x84E7\x91\xc3\xe2Ry,}Wn|\x08\xcfi\xa7\xbe\x1bI\xc0n6\x99\xf4q\xd1R\xb0$(&amp;\xa2X\x80\x01@7\xc5\'`\xd8]\xa5T\xf2\x10Z\xa2uPl\xefe\xe9d\x03R\xa2V\xca\xc7\xba\x91R\x8c\xaaU\x9e\xbeQ\x053\x06\x1ei\r\xacf\x19\xcb4)\x0c?a\xd4\xa5&lt;\x1a\x0f\xbc\x8f\xe2N\xddL\xbf\x87\x1e-\x15K\xe5\x0b\x8c\x87a8\xc7y~\x16\xfeo[\xb3\xca&gt;\x8cZhz\x01\xa1\xdb,\x93\x14\xc3O\xc8(_\x9d\x1b\x9f\x7fP\xcf\xc4\xcd\x1c\xaf\x1eG\x18\x8b\r\xe4\xb1\xe8\x99\xc8TCd\x1cW\x93\x1a\xa3\xd3\x04\t%E-z\xa7\xbf\x8df\xe07J\xc2\xb2s\xa2\xac:A\x0e\xa2I\'?\x00U\xac\xdd@\x19\xb4\x80\xc5\xa9\xddCr\xd69\n\xd5@\xc0\x02\x04\t\xbac\xd2h\x91\xd1I\xa5rX\xee&lt;\x96H\x94\xcc&amp;\x930\x00\x084hr\xd9#\xc8\x8c\x88\xd3\xfa$\n\x93\xcel\x18\x95\x86e\x93\xeb\x17\x17\xff\xb7\x80&amp;&lt;\x02\x96\xc3\xa0\x10\xb0\x92\xa4\xc9\xc4\xf1-\xb8d.c\xa1)\x113+\x81\xe2\xc1\xa41\x96F%\xcbc%\x15\xc1`f\x1e\xf7\xf0r\x94\xbe\x1e\xdb\x1d\xe5\x98n\x84\x06&lt;\xae\xab%a\xb5\x1b4\x86\x8e\xd1\xc1\xb4\x0cc\xcdJ1\x16e\xd7\xa2&amp;\xda.\xcfZT\x16\xb5\x1bG\xab^a\x13\xb0\xe2\xb4\t\x80\xdc\x8c\xa7[\xc0\xa2Z1\x00`q\xdd3\x83\x83]^)\x84\x93a\xae\x085a\x941A\xcdK\xeb\xe1YY\x12\x16e\x9b\x12F\xd0\xa4\xc7u\x1aR&gt;\xdaL\x89\xfc\x80\xe5\x19\x0b\xc7\x06X}R\t8\xad\n\x1b\x18F@\xbe\xb0c\x81\xabi\x8e3x\x05\xacx\x0e\x8bg&amp;\xf2\x93\x8f\xcc\xa4hn\x80\x10J\xd1\x18\xa3hjKu*\x9c\xdd0\x9aJ\xc0")K\xbbP\x8a\xdd&lt;\x95\x80jP]\xa7\xc86\xa0\x0eZ\xbf\x84P\x80\xd7\x085\xaa\xd5\x85\xb1\x90d\x96\x92S\x1e\'o\x17y\xe2\x10\xd5U,\x9c\x81J\xc8\xf7\xb0\xdce\xc2\xc9(F\'\xb3\x1a\x91\x86r\xb2r\x1b\t\xc5\xb98\xac\xb1\x1c\x16\x99\xc3r4+\xec\x107\x99\x0e{\xd9A3PT\xfd"\x15\x07\x89\x8c\xeb\x16\xc6\x8arP\xed5*\x9bE\xce\xb4\xe0h\xf1n\x1c\xa3\x9a\xf7xz(7C\xf7\xd7\xba\x16r\xad\x80\xc7Nr\n\x05e\x91\xeb\xe2\xa5b9\x04,\xe9\xac\xc7\x05\xe9p\x857\x8d\xa1&lt;\xd6T\x96\xa2p\xca\xca\\6\x15 t1\xae\xee\xf6\xb6j\xc7\x0c\xaf0\xa2\x90\x81\xe3\xfaS\xa9\xea\x08\xeav9;"S\xa1\x08\x9a2P\xd4P\x18J\x85\x19-1\xfc\x95\xf6\xeaT`\x80\xd2\xb7\x94\x82\x15\x03,-\xc6R\xa2\xa1 \xd7\xdc\xb9\xe0c\xad\x01\xf8\xdf43\x82PD\xad\xe0\xf1\xac+\xe3m\x14`u\xeap\x1a#\xd4\xe3\xb1\xb1\xa1q\x83M\xee\xa3X\xa7:\xd4\xe92\xc8\xb3\xf2$9\xea\xe6\x85FVm\xec0j\x988\xee:hU\x18\xef\x95\x12-}F/DK,i\xbc\x12\xb4f2Vz\x06\xde\xee\x9b\x9f\x87*?Nf\xe6G1V\xc6\x9a\x91\xa1\x8bg\xe7O\x08sIH\x95\x99\x8f\xdf\xa3\xad4\xa37e\xac\xb1\xdfg&lt;\xa6`0\xf8\xd1\xc2DFG\x9bjk\xa1X\xd4\xd2A\xa7\x1fw\x8d9\x17\x17S\xc5cI\xa6\xfa[\xd2S\xd2\xdc"\x12M\xf4u\x8e\xb5@X\xc4\x12\xf7\xf4t\\"UN\xf4O\x07$b\x89\xbfc\xa9\xc9/\xf1\xb6\x8c\xc4\xf1\xe0\x97\xa2\xf8t_{\xb8\xa9\xa5\xbf\xbf?\xdd?35\xd4\xd7\x01\x8dt\x93\xdb\x01\xc7\x0eAM\x1dK\x13\xb8+\x81\xdcMK\xd1\xe2\xb1\xc4\x92\xe5\xc9L\xbc\xb2\x0e\xc5/\xf3\xeb\xd55\x07$t%\xe03\xb3\xf2\xbe\xa5\xa8\xf4S.+\x84\xae\xb9\xd9\xbb\xa8E\xb3\x80%&amp;\x885\x97\x15\x84TJ\x08\r%,VW\x0f\xe2\xdca\xa5\xab\x12\xbf$\x04\xc1E\t\xb1\xd2R\x12\xabZ&gt;+t-\x05\xab\xec.1\x8eO?\xad\xcb\xc4q\xf5\xf7\x8a\xc0\xea+\xf2\xec\x8dP;\x97%y\x88\xa4k\x85/]\xc2\xc5\\\xbe\xbe\xaa^\x18\xc8i\xf6\xf4\x03d\xfc\x84\x0e\xc2\xa3\x10%@\x07\x13+/\x8d\xc6\xd9\xe4\xd7\x0b\xc7\x92\x1b\x9c\'&lt;\xce\xb9\xb9\xb3\xa0\x9f\x08\xf2\xf9\x9a}\xcd\xa0\xf3y\xbd\xbe^\xc7\x1e \xfc\xb6\xf0\xe1\xf9\xd7\x97\xbf\xd7\x9c\x13\x9c\xb1\x8ee\xcf\xce9\x9b\x8b\xd8\x1a\xb1\xdb\x8e\xa5\xb4\x0e\xad\xdf\xef\xf5zC\xa1\xa9\x8b\x82\x1a\x1a\x1a"\x91\xc8\xc9e\x85\xc3\xe1\x1f?R\xd0)\xbc\xf2\x8d\x93\x11\xac\x86\xdc\xd9B!\xaf\xd7\xef\xf7_L\xf3\x85Gk\xdbu]\x97\xb0\x88\x7f\xf2RS\x85\xefom\xf9\xe0\xd4\t|\xfdi.\xe6\x07\xf0\xa6\xc5\xe1\x03G\xd7\xe80h\xf9\xb8NG\x0f4\x1e6\xc3\xa4\xd0i\xbd\xf5L\xe1\xbb\x94/\xbc\xcf$j`\xa1\x94\x1e\xebh\x12\xd4\xb2NM\xf7\t\xcf)#\xc30/\xdc\xfd\xf0F^\xef\xe4\xf5\xcbuz\xe7OX7&gt;\xfe\xf8\xc3\xbb\x12%\x92Y\xaf\xf7n-b\xf7\xf4k\x17\x82i\x98;f&gt;bh\x9d\x8e~\xb0tke\xca\xc02\xa7\xf1\xc6\xcdW\xee\xd7k9\xfdj\xad\xf0\xcb\xd7~\xfe\xaf\xff\x1e@\'\r\xaeK\xcf\x16\xb3\xa9\xbb\xf5\xfdw\x9d\x0e\xe0\xbac\x92\x8b\n\x12Y\x07\x8b\xc2\x03\xbfy\xe5\x87?(DG\xfez\xf3.,F\xa6k/m+n\xb3y\xc7%\xdd,|\xf1b\x9dJ\xfe\x04\xb0\xce\xbd\xf1\x9f\xa3\x12t\xdbT\x9c\x85X\xcf\\\xa8\x1d\x84pM\xd6\xda\x1f?\xd6\xb9?\xff\xe5\x8f\x8d(|\xec\xcdk;\x8a\xdd\x9b\xdf\xda\x8bm\x94\xa0?\xe8\x0b\n\x17\xc9V\x17\x8c\x05\x16\xfeS\xb0\xf0\xda\xb6MEk\xc75\xe6\x0c\xde\xc78\xab\x91?f\xac\x9c\x85\x01\xfd[\xe7\xb7\x16\x8f\xb5i\xdbok\xbb\xc0\xc6Q\xab\xfd\xf1b\x1d\x11,\x1c\x97{n}\xa5\x94[,`\xe3\x9c\x16\xe2u\x86\x91?N\xac\xbc\x85}A\xf2\xfb\xa5\xdd\xfa\xd9qA\xb0q\xb8\x10\x1b\x0b\xc7:\xf7\xc6\xdf\x0e\x1f@\x81\x13o\xfd{K\x89\xb7\xa4`4\xe2=\xc5\xae\xdaB\xa3\xf5\xebGc\xe5,4\xcb\xf9[\xcf\x96H\x85m&lt;[\xa0\x8d\x85b\x1d\xf9\xd9\xcd\x7f\xa0\xa3h\xc4t\xfdK\xa5\xdf\xc1\xdbq\x89y\x0f\xb0\xb4s\x8f\xb4\xb1P,l\xe1Q\xb0P\xf3\xc1\x96\xd2\xb1\xb0\x8dC\xd8F\xebc\x8a\xd6\x91_\x08\x16\xbe\xed\xb1\xbf\xf0Ynxn\xfd\xfb\xbbg\xfd\xb0R\x7f\xa4\x8d\x85a\t\x16J\xd0\x88\xf5\xb3X\x88\xf5\xe5\xdf\x81\x8d5\xc81\xc7\xfd\xbf}s{\x89*\x88\xe3\xf8\xa4\xb6\x10\xd2\xee\x92\xac\xfaV\x91Q\xbdD\xf7\x97\xa2\x86b)\xb2\x9b\x85\x10kDVn\x16\xdb\x8aJ\xa5$u\xca\x12K#[#\xdb\xa5\xab[\xc1B\x14\x89t\x0f;+\xd9V\xc6\x86]()\xc2\xe8\xa1\xcbCQ/\xf5\xd6\xcc\xfc\xce\xde\xcfE\xf0\xdc\x1e\xfa\xfd\x05\x1f\xce\x87\xefo~3g\xa6X\x05\xac\x96\xb6\x9fDa\x0f\xd7\xb4)kdX(7\xca4^WX\x1b\x87\x85U~\xe9\xcaw\'\xbe\xdf\xb7\xea\xf7\x8c\x91\xfe\xb7&amp;\x1ak[\xc9\xf7j\xdeV,\xbfT\xaf\xc5\xa5\nX\xe5g/\xbe\xa0\n]\xfc\x94\x91\xffO\x1f\x1f\xad\x1cF\x1a\x87\x83\x15S\x18\xea\xccS\xe1?\xbf\xa0\xb1Cvm\x1c\x06\x16UH\xd6\xc2\xbe\x1dA\xbb\x1a\xd7\x0fr\xde]\xabm\xa4\x1a\xe5\xd2\x08X\xe7d\xb0\xa8B7i\xa4\xae\xb0\r\xa9Rc\x87*_\x11\x8d\xb2iT\xc6ji{N\x14\xde\xe4B\xd9y\xea`!K\x18\xd2(\xa3Q\x11\x8b(\xbcKS\xd80dW\x89J\xd0\xe8\x96K\xa3\x12VL\xa1/8O\xbd\xdb-VA\xa3\xf4\x88\xa3\x84\x05\n{\xb8\x88j\nY\x1a\xfb]\x0fd\x9b\xaa\x02\x16(\\\xd7\xd7\x10\x1d\xaf\xe6e\xa0\x9cN\x854\xcac1\x85N\xb2\x16\x06mH\xd5\x1a\xdb_9 \xa7Q\x1e+\xa60\xa4\xaaB\xa6\x91\x174\xca}\xad[\xe2Xq\x85~\xbb\xcaT(K\xd0\xf8D\\\xa3\x1c\x16SH\xd7B\xbfC\xfd\xbbf\x13\xfa\xe5\xd2(\x87\x95P\xa8\xc5\x83\x08\x0b\xef\xea\x95\xd4(\x83\x15k\xa4\x01\xf5\x15\xc2a\\\x80h\x94\xd8pHc\x11\x85\xaf!\x85\x0e\xa4IM\x18\xf4P\x8d[\xc54Jci\x97\xc2\xf8a\\\xbf\xe4\x88#\x89\x05\x13\xe9F\xa20_\xab\x1b\x96tml\x17o\xaaRX\xb1F\xeaRs-\x14\x19q$\x9a\xaa\x14V\\\xe1D-\x9f%Y`m\xec\xc8X\x1b%\xb0h\n\xe9D\x1a\x88\xe6kH%=\xa9.-\x13\xc3b\x9b\n\xa6\xd0\x814-k\x98i\xccH\xa38\x16(&lt;\xc6\x85\xa6i\xfd\xb2\xcc\xc2W1\x8d\x9e\xdd\xcaX\xa0P\xd3\x14\xc65\x92\xa6\xda\x9e\xd9T\xc5\xb0\x84\x14^\xae\xd2Z!\xfb\xc3\xd1)\xa6\xd1[\x969\xd8\xe8\xa7PHcoFS\xf5\x96]H\xc7\x82\xb5\xf0\xa4\x1e\n\x13M5M\xa3\xf7p:\x96\x90\xc2\xcb\xaep!\xd2\xa5\xacC\x99\x1a\x05\xac]+\x92\x14\xfeX\xef\xc4\xfb\xb8\xd0B\xbd\xdew\xe6\x82\xc6\xe4}c\x06\x16\xa4\x90*,\xd0\x89\x8am8\xd24f`\x91q\x86*\xf4D\x0b\x91nE\x9aj\xda\x88\xe3\xadN\xc5\xa2)t\xe2\x0f\\h\xb4\x9eOt\x85I5\xb16z\xab\xf7\'c\x81\xc2\x03u:*\x8cm8R4\x02\xd6m\x01\xab\x1c\x14&gt;\xf2\x84\x0b\x91\xaee\xf5\xb34\xc6\xffp\xa4b%\x14"\x9d\x8b\xac\x8d\xc9\x1b\x8e\x14,\x83\x142\x8d\xd9)\x1aS\xb0`S\xa1\xbfB\xb6\xe1\x10F\x1c8\x8c\x03\xac\xa7\x0c\x0b\x1a\xe9\x07\x8e\x1f\x83\x0c(K\xf2\x86#\t\x0b\x14\x9e\xa9\x0b\x0c\x16\x18\x81\x95\xf35iR\xf5V\x9f\x8aa\x81\xc2\xe3\xba6\xd2\x94\xa3\xf1 \x1c\x8d\xaf$i\xac\xf1R\xac\xf7\x04\xab\xa5\xed\x0fQx\xde\x80\x14\xc6\xca&amp;\x1c\x8d\x934\xd6,=\x04X0\xce\x9c\xd9\x13\x88\x14\x18\x85\x95C\xd2\xd8\ni\xac\xa17g\tV\\!\xbf\x00\x19V\xf6 [\x1b\xbbVn\xf6\nX\xd0H\xcfsM\xb3\x91\x81e\x834vW\x1d\xde\x0eX\x9f!\x85\rWg\x1a\x89\x95\'h&lt;\xed[\xb4\x95`\xbd^N6\x15n|\xcf\x13\x99\x85\x0c-\xeb Kc\xe3\xde\xd5]\x14\xeb\xed\x97\n\'\xee\xe5BE\xc8\xe0\x9a\xcb\xfbX\x1a}\xe4k\xb9\xcf\xfd\xfa\xe4\xc4\xed\'\x9a\xbeM7\x1a+k\r\xd5\xb8\x0c\xdf\xa3O\x1f\xfe\xbe\'\xe3\xcc\xc7\x92\xc8|dx\xd9\xa1\xa9n\xe9Z\xb2\xb8\xf4ni\x05QX6\x1b\x99\xa0H\x1a\xbb\xf1:\xb8\x1b\xb8\x1e7\x9e\xd8\xfbp\xa6\x19\xb0\xc6e_;\xda\x8a\xe1\x8e\xb2\x1b\x0f\x94\x18\x9d\xc2\x84\xc6\x92f\xec\xde\xc9\xdeC\xde\xe0\xf8"d\x92\xb2\xf9}\x1d\x98\xbd\x82\xec\xaam\x1a\x9cn\x16\xac\xbc\xec\x97\xcfH\x93\xdf\x89\xf1\x9b\x92\xe0dd\x9a\xb2\xfb\xb7=\xa1\xaf\xfd:L\xa4\x90\x96#\xecz\x8cq}\xed\xcbo\x93\xcc\x845jbhU=n&gt;h&amp;\x85\xb4\xf2\xfd\x81Ww\x9e\xf1s\x90\xc9\xca\x11\xddp\xb4\xd3\\\n\x99\xc6\xa9\x91\xdd\xe1\xc9\xc8t\x95\x1f1\x9fB6\xe2\x1c\x99dF\xac\xac\x19\xe8\x7f\x19R\xff\x00\x8b?\x90zj\x1c\xdb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xf7PLTEGpL\xff\x00\x00\xff\x04\x04\xed\n\n\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x9a\x03\x03\xff\x01\x01\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\xfb\x00\x00\x0c\x0c\x0c\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x01\x01\x02\x02\x02\xff\x01\x01\xff\x00\x00\xff\x02\x02\xf7\x03\x03\xff\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x03\x03\x03\xff\x00\x00\xff\x00\x00\xff\x05\x05\xff\x00\x00\xff\x01\x01\xff\x00\x00\xff\x02\x02\x00\x00\x00\xff\x03\x03\xff\x00\x00\x00\x00\x00\xff\x00\x00\xff\x00\x00\xff\x00\x00\x00\x00\x00\xff\x00\x00\x03\x03\x03\xff\x05\x05\xff\x00\x00\x00\x02\x02\xff\x00\x00\x02\x02\x02\xff\x00\x00OOO\x1f\'\'\xff\x00\x00WWW\xff\xa0\xa0\x84\x84\x84jjjrrr\xff}}\x00\x00\x00\x05\x05\x05???\xff\x92\x92111xxxk\x00\x00\xff\x83\x83\'//\xff\xb0\xb0RUU\x98\x98\x98\x03\x03\x03\xff66sss\xff\xa5\xa5\xffll\x84\x84\x84___AAA\x0b\x16\x16&amp;&amp;&amp;\xff\x1a\x1aM__\x00\x00\x00000\xcf\x1a\x1a\xa0\x00\x00\xffbb\xffTT\xff99\xff\xc8\xc8\xffff\xff\x83\x83\xb6\x00\x00\x00\x00\x00\xe2\x00\x00\xff\x00\x00\x00\x00\x00\xff\xff\xff\xff\x02\x02\xf1\xf1\xf1\xd9\xd9\xd9\xa0\xa0\xa0\xfd\xfe\xfe\xf8\xf8\xf8\xff44\xe8\xe8\xe8\xd4\xd3\xd3\xab\xab\xab\xe4\xe4\xe4LLL\xff\xbd\xbd\xa7\xa7\xa7\xb9\xb9\xb9\xd0\xd0\xd0\xd6\xd6\xd6\xe6\xe6\xe6lll\xea\xea\xea\xaf\xaf\xaf\x8c\x8c\x8c\xff\x06\x06\xcd\xce\xce\xff\xc8\xc8\xf3\xf3\xf3\x88\x88\x88\xb6\xb6\xb6\x85\x85\x85\xff\x84\x84\xf5\xf5\xf5\xee\xee\xee\xdd\xdd\xdd\xffAAGGG\xec\xec\xec\xff||\xfa\xf9\xf9\xff\xb7\xb7\x80\x80\x80%%%}}}\xe1\xe1\xe1^^^\x1d\x1d\x1dggg555\xa4\xa4\xa4QQQ\xffff\xdb\xdb\xdbZZZ\xc6\xc6\xc6sssVVV\xff\x9a\x9a\xc0\xc0\xc0\x98\x98\x98\xdf\xdf\xdf\xff\x8e\x8eppp\x95\x95\x95\xb3\xb3\xb3+++&lt;&lt;&lt;\x9b\x9b\x9b\xff\xda\xda\xbd\xbd\xbd\xca\xca\xcabcc\x90\x90\x90www\x92\x93\x93\xfb\xfb\xfb\xffYY\xfc\xfc\xfc\xff\xd0\xd0\xff\xa1\xa1\xff::\xc3\xc3\xc3\x11\x11\x11\xffkk\xffJJ\xff\xa7\xa7\t\x08\x08\xff\xf9\xf9999\xff\x16\x16\xff\xd5\xd5zzz\xff\xc3\xc3\x9d\x9e\x9e///\xff\xe9\xe9BCC\xff\xe6\xe6\xff\x0f\x0f\x04\x04\x04\xff\xad\xad@@@\xff\xf1\xf1\xff\xe0\xe0\xfftt\xe3\xe3\xe3\xff..\xfe\x1f\x1f\xff\xf5\xf5\xff\xed\xed\xff((\xffRR\xcc\xcc\xccSSS\xff__\xff\x91\x91\xc8\xc8\xc8\xa2\xb7\xb7\xc6\x03\x03\xff\x97\x97\xff\xfe\xfe\xb9\xd5\xd5\xf0\x00\x00}\x03\x03\xcf\xe5\xe5\xff\x94\x94\xe1\x07\x07\xaf\xc7\xc7\xda\xf6\xf69NN\xa2\x8b\x8b\xbbOOFqq\xb1\x00\x00w\x9c\x9cW&lt;&lt;\xec\xff\xff1\t\t\x16AA\xdeWW\xc7\x91\x91\xb3\x95\x95\x88^^\xd5\xaa\xaaT\x80\x80\x00))\xea&lt;&lt;O\x8f\x8f\xa8\x99\x99\x90vv\xe2O\xc1\x15\x00\x00\x00ftRNS\x00\xee\x08\x03O\xf3\xde\xd6\x06&amp;\xfd\xe4\x1b \xf9\xe9\x16\x03wG1Ygc\xa0`\x10\r\x7f?-3\x10\x99\xbeq\xce\x90\xb1\xa7 \x94\xc4\x9b9\x86\xb6T\xac\x86l\xc8v&lt;D\xba\xe0\x97\x8c\xcd\xea\xec\xea\xf0\xd2\xb2\xc8\xcd\xe2{\xe4\xc8\xe5\xdc\xf0\xa1\xed\xd0\xeb\xc0\xce\xb2\xd3\xf7\xb6\xb5\xea\xda\xe5\xef\xcc\xf7\xe8\x92\x8b\xd2\xf1\xc6\xbd\x82\xe0\x9c\xf5\xbc\x86\\\x00\x00\x1dcIDATx\xda\xcc\x98kP\x93\xd9\x19\xc7\xc3-\x84\x8b\x82\xc8"\xa8\xa0\x80 \x97\x82\xba\x088u\xd4i\x9d\xee\xd6q\xeb\xb7v\xdb\xee\xb6\xfd\xd0\x99s^r#7H\x02\x06B\x08$\x81@\x12 \\\xe4\x1e\x08\xf7\xebr\xbf\xb8 HS\x17\x17\x11\xc7\n*\xbb\xea\xb8\xb3u\xd5n?\xf52\xfd\xd2\xf3&amp;!\x89\xf8\x82\x89\xc6\x19\x9ea\x86\x10\xde\xf7\x9c\xdf\xfb\x9c\xff\xf3\x7f\xce{H$\xa7\x04%\xec`\x04\xd9\')\xdc}?i\x07\x85W\xb8\x070E\xe2\xde\x9dC\x95\xec\t,\xe1\x12\xb4cr\xe57k\xc5\x02\xbb?\xd8\x19Tn\x11%\x858\x8f\x87\x8b9_\xbbv\x04V\xc8\xdf\xf2\xae\x00\xe0\x97\xe0\xbe72\xc9\xc8\x15\xbe#\x92\x95\xda\xf4\x14\xe4\xfa\x85\xe2\x9f}\x13\x8b\xc6\x00\xf0\xf4\xda\x01X\x87\xc8\x8bHZfA\xf9\xffrz\x87\xa8\xcb\xfd\xd2(\x00dW\xf3_\x7fh\x1a\x02 r\x07`}0\xd4\x04@\xc4\x06V\xe4}\xa4\xb3\x80\x9d\x90\xad)\xdbl\xfd\xf1\x9b\xb5\x9d\x91-\xa4-T}\xee;M[\x94\x88\xd1B\x90F\x0e\xc3?\xef?z\x1fY\x18\xf9\xbdW\xa2=\x9d7\xe8J^:\x00&gt;\x07\x93\x7f\x12\x92:\x9b\x0erA\xb0\x93\x06\xde*\x0e\x04\xa7\xba\xdaa\\q\xadF\x97\xf7\xf3\xdbmry;\x92\xe5\x9a\x1a|\xe0m\xa9\xc2\xe2\x00\x88\xb2\xab\'\xae8\xda\x13\xa3\x00\x88\x0b{\xcb\x12#\xe3\x93\xd8\xb3!\x08K\xf5\xb6Py\x86\xd8\xb3\xee\xbb[\xd3\x01\xd9\xfdmzJ\xa4\xa9\xf3\xba\x84\xbeY\'a\x01\x1b\xdb-\xe0\x1d\x1b\xf6\xe6\xd5\tuiZBM\xca%\xd2\xcdaY\x85oL\xe4\xe3\xbb=\x93{0\xd9\xc5\xc3\x92\xad4\x0f?r\xf0\xde\xed\x05\xed\xebs\xeb/\xad\xa6\xa6\xee\xa0\xc0\xfc\x8f[\xc5\x12\xb1\x8d\xec\xbd\x02lv\x80\xd6\xf0\x0c\xd8F\xf6\xae\x11E\xd7\x9a\xcc\x17\x1e\xf7w\x84jW\xa2\xed$Q[\xe5\xda+\xc1\xe7\xeeX:a\\J\xd8\n\xcc-\n\xe4M\x83\xb4\x8dM\xb6\x03\x9b3\xaf\x88W\x9e\xdd;hKgXZ|\xdaD\x14\xa3\xadw\xe3\xb6x\x98 \xef\xf9\x0c\x9b\xc1#\xec\xf6^\xaf\xa4Mk\xb2\x9bX\xf6\x14OU^\xd1X\x11a\x8c\xdd\xf0\xa4\x10\xcb}\xb7\xaa\xfb\xb6\xed\xe0Ivr\xedJzM+dB\xd9S\x8e&lt;-\x04[\xc6\x11B,_r\xeb_\'_\xbd0\xc9\xaeu\xf4M%\x98#\xd1\x9f\x10\xabd\xd2A\xac\xfd\x89C\xdd%\xa8?\xbd\x12\xa9\xbev\xd4`4\xe1$D\xb2\xa7\x1cY\xc9u\x0c\xcb-j\xa5\xbb\x10\xbcvS\xf4\x1b\xebq\x7f4(\xba\xbbQ\'i6\xb7\x12\xc8\x9eBN\xbf\xb2EL\xae\xcd\x92\t\xb0\x82f\xbbG\x89\x06\x8f~S\xe7\xf6M\x02\xad\xf37\xcc\xf7\xa4\xa5\xdf\xd8V\xf6QS\xad\xf7[\t\xe3i\xc9J\x14\x91\xdcGF\xcc\xc3\xddH\xb7\xc5Jz\xe32\xfa&amp;\xde\xce\xcb\xd8x\x1dM\x1f\xb2r\x11\xbc\xcfP\xacMgsx\x04\xbc\x9e,/\xcf\xd1\xee)3\xd5P\xba\xadr\xed\x10\xd7\x81D\x90\x97\xb1\x91\xaf\xa1\x12\xebC%\x12d:4\x8e\x98*.\x94H\xee\xb7\x10\x95QXi%C\xb6Tv\xb5 \xd7h\x1b\xae\xc2i\xeb\xed\xb1D\xd5\x18\xe9i\xbc\xf0\x85v\xfd\xc9\x93\xf5\x7f\xbe0N\xea\x19IT\x85\xb1kKkf\xb9O\xdb\x1aK\xb4\xab\x9dm\xfa\xa8\r\xd7t\x86U\x9c\x84n\xef\x1b\x99\xea\x02\xd6\x9f?\xfc\xfbC\xf4\xf3|\x1d\xb8\xa4F\x12\xaeI\xd0\xda\xd2}\xb3\xd63l\x9e\x15\x1c\xb5\xbb]\x1f\x08F\\\x1be\xac\xb2\xb6\x8a-\xf6\x9d\xfb\x93\x83&gt;~)\xd3\xcb\xe5z\xd9\xcb\x8f\x83\x92\x89\xab\xca\xebR\xf7\xbcy\x98\x0c\x95\r\x95#\xbbT\xd7p#\x971M\xb3y\x19\x96j\x8e\xdd\xea\x86\x14\x9d\xbc\x92\xc5\xaaTV\x1f\xdb\xea\x8a\xd8\xd1\x11|\x184PF\x9e\xcd\x01O\xb8\xab#[\x08\xb7X+\xd7\xd4\x92%_\x9e\xaf\x9b\xea\x9e\xc0\x93\xf1\x17/\xfe\xbc\xcb\x88%\xa7_\xb8\x98\x12\x13\x18\x18\xf3\xfa\x80\x7f\xca(2\r\x97\xb14e#W\x077\x82\xaeQ\x1b\xeb\x98\x06&amp;\xef\xa8\xccR%oj_1)\xfb\xe2\xcf\xb5\x8b\xc5\r\x9a6\x13V\xbeNt\xf5\xa3O\xce\x9c?\x11\xb8y\r?\x1d\xc2\xa9r\x81\xea\xce\xa4U\xacQ\xae$\x07\xc35a\x83+\x17\x94|\xbbhZG\x9fC\xb6\x97\x04\xc6_\xf8\xa4\xb1\x81\x8a\xb1\xf35\x1d\xfd&amp;\xac\xae&gt;=\xac/\xa5\x96\x0b\xce\x9e\x08&lt;\xfc\xcaK\xae\x8f\xc9\xd8\x17\xbf\xb5i\x89\t\x0eS\xa1\xb4\x1fD\\i\xa6G,\xfc\x12\xd5\xce\xec\x18\xf0K\xb6\xfc\xfbp\xcc\xbeS=2j\xdd\xcc\x9c&gt;[D-(\xa0\xea\xb3\xb2\xf4\xd4\xfc\xc1a\xfe\\\xb6\xfazWv\xf6\xb9S\xf16)K\xf6\x03cHR\xd3_\xda\xb4\xc4\x83n\xa4\xb7\x89\x00o\x8b\xbeF\xef,\xdeR\x15\x02\xbf\r\x97\x8c9y:\xbbBN\x1d\xaf\xd1\xb5K\x15\xca\xf2\x96\xea\xd5j\x8d\xaeKK_\xadnY\x96\xb33\xe9\x05\x15\xe2a&amp;\xff\xcc/,\xfe\x15\xea\x07\nU\xb7\x16\xef\x8cZ7\x97o{\x80\xe2\x16\xe9m\xf1\x89y\xeckU\x1ap1\x9f#\x1f;\xdfN\xcbWKW\xd5\xc2R\xdax{\xc3\x04D\xf1\x154\x85\xa6\x8c_\xdf\x82\xf5\xeasz\x04\xf5\xc5\xbf&gt;fV\xff^\x17\x90\xa6\xfa\x1a\x9b\xb7RE\xba\x91\xde6&gt;\x04y\x19&amp;\xd9/bx\xfa=L\xaf\xa6)gi\x18\xa7J\x9fY\xbe\xdc&gt;\xd0\x81H:a\xa7\x82\x8f~7\x088&amp;\xb4\x99|\xfe\xb2P\x7f\xb3\xb8\x8c\xdd\x7fa\x9f\xe9\xb8\xc9\x03\x97\x02\xb6h\x91\xfb\x87\xefr\x06\x11\x84\xf2\x85oq\x87\xae\xa9\xae-\xa1\n\xc7\x13\x1fx\xe2\xa6X\xae\xaeTH\xb2rn\xc2\x05\x1e\x84\x12\x1a4`B\x08\'z\x19\xcc2\x9cN\x87\xbe,\xee\xca\x92\x8d\xd7\x08\x98\x97\xf3O\x18\x05\x91\x06\x8a\x96\xd0 C\xdb\xbf\x1e\xd8}^\xeb\x917\xbf\x06\xc0d\t\xb2\xd5\x91\xdb\xe08\x89r\xf2#Q\x9d\xba\x98^\xcaF\x04\x13PH\x83\x90}\xb9Q\xcb@X\x0525U\x00a\x07\x1bcUA\r\x84\x83\n\xb6\xba\xbf\x16q\xed!\x91\x8e\x82\xdb#\xc8F\xcd\xdbY\x8f\x10\xd2;\x86\xfb\x91oJV\x8c61;\xaf\x02&gt;\xee\xf1:\xd9=\x1e\x7f\xb9\xa5\x1a\xc2&gt;\xa1\x08*\x94\xc5\xbc{\x0c:\xc4\xb1\x96\xc5P\xc8\x9a\x80\x15\x12\xb6\xac\xb8\x92\xad\x86\xf0\xaa\x88+-\xd6\x97u\xfe,\x10IK5?\x8b\x17!\xae\xd5#\xee\xa4w\x0e\xdf\x90\xe0O=\xbc\xbd\x91(V\x9a&amp;\xc1\xe7/16\xe42z\x0c\xb0\xa6\x9e*\xad\x84\xfd\x0c\xe5e%\xc6\x87\x0c\x1a,\xc3$\xe5\x12Y&gt;\xcc\\\xee\xe4\x1a\xaec8\x16\xac\x10P\xd5eT\xc1o?\x07\x93M+h\x08oo\x0f\xcf\xa3!\xbe$g\x84\x1b\xc5\xff\x90{\xc0q\x1f\x90\xfb\xdf\'\xff\xc9\x12k\xcb\xe5s\x10\xf2e\x92a$\xa1U\x8cm(\xce\xaa50i\x90\xc5\x9a\xbb&gt;\x8e\xd5C\xaa\x10ryR\xa1vA\xd4\x92\xa9\x85m\xdc\xfc6\xb9\xec\xdf/\xa6r\x81\xcf\xf1\x00\xf7C\xfe\x147\x92S\xc3+\xe1\xb3\x7f&lt;,\xe8\xab\xe0f\xf1P\x1e\xeas\xe6\x98b\x08\xab\x94\xb4*\xc8Y\xae\xa4\xeb`&amp;\xca\x8fV\xc8\xe1\xc9\xda W\xa4\x14\xc16\xac\x96-\xae\x83\xd9Bz\xa3\x98\xf6|\xdd\xef\xa7\xef\xe9\x90p\xcf\xaf\xc4Y\xbcf\xa5\xa0\n\x89\xb9\x0fU\x9c\xb0\x14\x81H\xa9\x95\xd0P\x03-\xa1\xe1uu@.&amp;\xcf\x869X\x0eD\xcb\x0bkh\xb5\xab\xfa\xbe\xab\x7f~_\'\x96\'\xab1Q5\xd6\x83[\x00\xb5v\x01I\x1ec_\x85\x86\n\xe4\xa43uem\x9cvQ\xe6\xe0@c\'\xce\xa6\x93\x89!\xdf\xc0\xff\xa2\xa1\x9f\x8e\xbbX\xcbe\xd8\xd3{!\xe5\xfd\xe4*\xe5\x02U0\xc3m\x86\x06z\x0eTS\xc7\xd1|\x0fh\x88ib\x8e~O\x82Y\x82Z\xaf\x1b\x98\x80\x13U\x0bT1|\xc04\x98\xec_A\x1b`\x96\x9f\x8fy\x1fX\xc7~\xa3n\xee,\x17\xc0\xbar\x99D\x80Zs\xbb\x16jf\xe0\xcdLA)\xb6)d\xbdt\xe4\xfd\xed\xb2\xcc^\x86\xda\xec\xfa\xc2\xae.f\x0f\xee_\xce\xceU\xe0\xb9\xde\xbe\x85,\xae\x066rY\xeaf\xaa\x82)\xc3\xedT\xc4\xc5\x88b\xb8\x85\xfe\x15\xaaA\xecA\x87\x91\xaa\x06\xd6\x08\xd5\xea\xde3\xceO\x17\xe5\xf7T\x85\x96\xab\xac\x82&lt;\xd8\xb8\xdc\xa2\xa9kV\xea\x90\xad\x13C\xe1\xc1\xa8\x1d\x80\x9d\x15\x1a#\xd5uI&amp;\xec\xe3\x8a4\x86x\x8a\xb3\xb1\xf6I\xb1LQi6\x94J\n\xa0\x9eJ\x9bA}\xc7 \xc5\xb6\r\x8e)U\xda\x1e\x06\x8b\xab\x86m\x92\n\x0e=\xfe\xb0\x93\xb1\xe2\x97\x97\x8bYR\xf4\xe4\xc3\xc3]\xb0\x1fk\x870[\xb1\x99\xe3\x0b%\x8be+4v6\xa2\xaa\x10`\xb4\x8e~\xe4"\xbd\xcd\x83\x0c\xce\t\xe7R\xa5\xfcN\xdc \xa5\xe1kRv\x19\xe3kr\xb2Q\xca^Y\xb3\xef\x1f\xfd\xebYYe_\xdf\xdc`/\xc3\xcaU\x05\'\xd8\x0c\xa9\xa2\xac\x0e\x13\xc1F\xc5\x9cBr.\xd0\x99T\x87O\xeb\x8au\xcc|x\x9d5\x08\x8b\x05X\x0b\x84\x032\x9b,}\xff\xe8\xd9\x0f\xdf\x81\'fC\xcd1eL"\x1e0Lh`W\x1b\xe40\xb1\xd26\x089\xf5&lt;\xe6\xf8I\xa7\x1a)GX5\\\x0f\x07\x86\xb9\x8a\x86&gt;\xc8\xe7@\xad\xd2\x02\xf5\xa3\xe2\xe1\x0f\xeb\x8f\xefN\x97\xbc\x80u\xea\x9c\x82:4?\xfa\x96\xcbo\xc4\x8d\xe1\xc1\x1c\x0eJg\xb7\xe1\xbfj\xa5}\xa2\xd3NT\x17\xe5\x94\xbc\x99\xa7\xac\x80\xb4\xea\x05\xa1\\y\x0fo&lt;]f\x11\xfd\xf8\xe8\x7f\x9f}\x87\x9f\xed,\x16&gt;\x16pe\xc3L\xae\xa0\xb2\x1f+\xe7\xe0\xed\xa8\x82/\xcc*7\x98v\xd3\x0b&lt;\x1e\xda\x8fu\xceh\x9d\xe8\xf51g1\x11\x9f\r\xa5\xd8jAm5Ma\x80(%9L#\xd4\xb3\xf5\xc7\x85y#\xa3\xf8\x1b\xe9\xffY\xb7\xba\x177\xae+NC\x9a\x86\xa4\x10\x96.l\x1e\xda\xdaO!\x10\x8a1\x84bcZH\x82\xf3\xd4\x10p\xf3\xd2\xfe\x01:\x97\xd1\xccD3\x12\xa3\xd1h\xa4L5\x92%E\x8a\xac\x8f\xd5\x17\xfa\xaa\xa4JZ\xc9Zi\xa5*E\xc6\xd9.\xdej\xd9\xd8U\x1a\x130\xbbf\x1d\x12\xb3\xc4\x86\x94B\xf3\x05m\xe9C\xcf\x1di\xbd\x1f\xc9\xc3\xd2\xd5\xbcht\x99\xbd\xf3\xdbs\xcf\xf9\x9d\xdf9\xf7\xeaM\xe2\x17vd\x860\xde\x16\x82\xba\xe5\x14\x18R\x1d\x12\x0c\x13;c\xb1X\xd4j\x07\x14\xb7\xcb\xf1\xdb\xd9\x99ka]\t))$\x07\x8cz\xb8\x15\x83\x06\xcd&lt;q\x0f\xb7\x8b\xa0~\xff\xc1\x80\xe9\xf7\xb9\xcb&amp;\xd3\xcdo6Va5\xb6(\xfb\x90\x15|f\xe2\x0f\xf6b\rB|\x90\xb1\xf4\x1d+qn\x07\xf4\xa0&gt;\xc8\xcc*\x18\xe7N\xbf\x9cje\xcc\x98\x9b\x175&gt;\xd0\x18C\xd6\x83\tx\xf5\x8b{\xf6\x8f\xef\x9b.?\xbc\'\xe5Y\xe9\xc1CT\xc3\xff|$#|2\xb1\x0c)=\xa0\x9b\xa9I\xfc\x10\x96\x96\x19\x1fl\x06\x9d\x0e\xcf\xcb\xb32\xd7\x8bv_\x87\xef\x19\xef\x8b\xe7H\x16\xcb\xe6\x15\x80/\xea_\xdeG(W\xff1\x01\xf2\xf0w&amp;\xd3\xe7\xf7d\x87\xec\x8dB\xa9\x10\tH\x8b\xc6p\x06W\x1a\xb5\xcd\x9a\xa6p::\x99\xb8\xe5d~5#\x8e8\xfdR\xb5\xc2\x86KP\xb7\x04\x1a\xb1\x8d\x1a\xacx\xfau=\xf4\xafoL\xef\\\xbdsww\x82j\xa9\x7f\xd5d\xfa\xc3\x84.\x84j\xc4\x85\xba\x15\xaee\xebZa\x80\xe6*A\xc8L*\xf4\xb1\xa2\xc7]\xfa\xf5\x99\xd9\xc0\x9a\xff\x05\xe3\x96\nP\xe7\xac\x96\x81\x82\xce\xdc\xa6/\xf7\xc1\x7f\xbe2\xbdm\xba\xbb\xdb\x1bQ\x95\xb0\xc9!\xac\x0f-\x89\x9c\x9c\xb3\x06\x0b\xd4R6\xb7\x86\xdcU\xa0\xa4\xeb\xc5\xb4\x80\xcb\x1e\x8a\xda@v\xd9\x9c3r\xaey\x96\xab\r\xed`i@\xb2\xe5wAJ\xa5\xb0X\xf8\xfb\x83/1\xfc\xfeFH\x84]\r-\x93\xbfb\r\xb1jX\x0e\x9d\x10\xb6]U\xe2\x91\xed&gt;\x9d\xf2Hn3\x9b)\xb9\nALY\xe5\x86\xce\xbc:\x9bU\x9c\xcf\xf0q%\xbe\x14\xa6\x92\xaem\x87\xde$\xafl\xc3\xa7_\xd1\xde*\xe5s\xdb\x88{\xdf\xf4\xde_&gt;\xdb\xf3\xf8f[%\xaaT\xc4\xbbNxbZ\x9b\x99Dd\xb1\x08\x99\\\x91x\x17f\x03\xab\x99\xea%`\xc9_NC(\'A\xc1\x80\x15\xd0\x1c\xf74\xca\xa3\x7f\xfa\xf3\'\xdc\x83\xdd\x1b\xd7M\x1f]\xff\xe3\x7f\xddl\xa6\xe7LK~.\xe0F\xf1\xbcZ\xf2Ur\xf4a\x17\xb0\\=D3\xaaMq\x06\xe5\xf33\x91\x83\x17;I\xc6L]*P\xae*\xa55~\x92\x9b\xbd\x8c\xb6\xfb\xb9\xd1#\xbf\xf2\xee\x8d\xcb\xa67/\xbfwc\x9a\xb5\x1d\xc42B\x04\xf9V\x81\'\x8cL\x87\xac &amp;&amp;*\x07\x82.\xf7\xed\xd7g!\xbb\xe6.1\xba\x1fk\xf8\xa4\xe4HhQHMSa\xc1\x11\xfc\xb4|\xff\xed\xebF\xab\xe3\xee\x95\xab\x9f\x10.\xb15,\x97\xb5\x84\xd9\x1bB\xd9\xd3F\x89\xc8\x05E\xef\x80&gt;&lt;\x8e\x86{c\x9f]n@\x90\xc4Z\xaf\x9f\xd8Zs\xf3g\x16J\xdeN\xcbM\xfb\ri\x1a\xf6\xf5)\xacpW\xd0v?\xbe\xf2&gt;\x82\xfa\xf0\xdd\x0f\xd0F\xa3h)I\x0b\xb2&lt;f\xa6\xede\x8c\xc0D\x06C\xcf\xc8Qd\x05\xb6x\xd5C"^\xc8`H\xbev\xe6\xcc\xfc\x89\x90\xcd]tv\xbb\xfa\xba\xbe\x8e\xf3[\xae\xc1\x8ewJ\x0f\x94\x9e*\xb0\xc8|\xfd\xef\xebw\xde\xb9J8\x8f=\x1f\xdb/\x15\xc7.\x9e\xf0Zm\xc3\xd0\xa6\x89I\xdc.I\xe5\xde\xe2\xda-\xb0\xad\xbb\xdd\xeen\xd7y\xf1D\xd2\xe1\x15m\xc0\xf3|\xc4\xcf\x82\xc5\x01\xb0\xe5\xe9\x80yO\xd0\xe0wM\xfb\xec\xf2\xbb\x84\xab\x8a\x06\x02\xb0\xf9X\xd1%\xfa\xd6\x13\x84Y\x9e\x90\xfc\xe2\xa8\xa5\x91\t\xd1O/\xd6\x1f\xc1\t\x07[\xaf\x9c\xc8\xbf^\\\xd4}&gt;\x9f\x1eMF\x19\\\x9b\r\xa6\x01\x96=XJ\x1e\xdc\x89\xaf#\xc4\xd12@eE\xadjHC\x8b\x99\xc8+t\xe4ZES\x08\xa7\xd1U\x14\xa0+\x0b\x82\xe0h\xc3Z\xd4\x980\x7f"98w^\n\x9a\xf1\x12j\xeb\x1e\xfc\xff\xd3\x01\t\x02\x8f\xf4_\x06\x99\xf5\x81L\x99\x00b\xeb\x0eJ\xe7\x9c\'a\xb6\xa8r\x8b\xfa\xd8XR\xfb\x88\xdd\xeb\xa3X\xcd \x11\x86\xe1#9X\x11\xe8|9\xe9D$1\xf7F9\xac\xa2VR*\x90\x8b\x88lPm\x1e\x80\x85U\x7f\xa1l\x18\xaa\xa2 \xa7Z\xbd+\xa1\x8dd2\xb6F\xa9\xc0&amp;1\xa4\xaf\x88\xdb\x08\xd0a\xc0j\'\xd2\xb1\xa5\x8d\x18\x8c\x14:_\xb8\xfc\xc6\x89|~\x01l\xb6P\xc8\xb6\x86Y\xd6\xe1\xef[\x91\x8f\xf6\xd5\xb2\x9a\x07)\x8c\x95\xa9d%}\xb3=\xb5\xef\xf2\x90d\xad\x84\x17\xba\x93V\x89\x9b\xa3\xb0v\x18#&amp;V\xa1I\xe7\xb3\xc1\x89\x98~\xeeB\xc1b\xb5Z\x15\xab\x88"!\xaegQ\x9b$\xf6K\x0b\x1f,\x86\xa3=\xb4\xd4\xd0=!\xcb|\xa5,8\x84f\x07\r$\xe8\xc6\xc8\xca0!c\xe1\xb6\x03\x95\xb6\xd1\x8e\x06QQ\xe8\x84\x85\x0b\'\xb2\xd6y\x9f(I#\xd6\x9d\x7fd\tm\x1f\x16\xc6\x97 xH\xc1i$h\xa7\x9d\xf1\xf8\xfb\x1c\xc7\r=$l\xe0lVT?\'\xa424\xfbt\x9c\xd91\xb5W\xa9;\xd2YQ\xf4\x9d?Yq\xb1p\xf6\xec*\xa4\xbb\xa5\xa9\xacj\x1ae\xcd\xf4\xf2,\x81\xa4\xb2F\xd4uF\n\xf1(Z=\x15jf\xdd~;\x05\xb5\x88\xeee\xf1"\x03wT\xe2\x86eBxs\xbb\x07\xbex\x96\xb5\x9d=\xbbp\xe2\xfcs\xbaS\xcc\xf3\xd3~\xfb\xc8\x0e\xd1\x035\xab{\xf1\x9a%D\xd5\x9d=L\xaa\xed\xf8\x9eAk4\x0c\\ab\xce\xa4\x8d\xef.\x92\x02_\xbb\xa0\xe5\x982\x04\x99\x16wi\x16\xa9z\xbe\x1b,y\xb4\xe9\x0bu\xd8&gt;\x00\xab\xed\xb0W]\x90\xc5L\x93\xab\xdb`\x92\x9e\xcdA/eM\x95T\xeb\x13Pq\xb3\xa0\xd8 \x89&lt;\xb2\xe6LC\x8e\xdf\xd6/\xceB@&lt;\xef#=6h\xbca\x15\xc5IZ\xd9\xc7e\xd6\xb8\xe52\xeb\'\x16\x1dW-\xd9q\x05\xfa\x91H\xa4\xaf\x82S!\xe1\x8a\x11\x05K\xb4\xa9\x93\x88C\xeav"Y\xa3\xf5e\x82\x1d\xfff&amp;2\xf0\xc9\x0bV{\xca\xbaf\xf0\xf6V"{\xd0\xb9\x02\x12\xef(;\x02\xe2*\xe5\x01\xf4\x1e5\xe7Z\xc96\xd7\xba}\xc6k\x80JvQ\xfd\xe5\xeaI\xb8V\xa86\xf1\xef\xe2\xb0\xae\xc4\xad\x97f\xd3\xe6:k\xf7\xc4\xf9.\x94\xb6\xd6\xc1\xa9\x9a!\xba\xdf\xfa\xe0\x1a-!\xd1\xa0\xe1P\x17\x90\x13\xc4i\xbcJf\xe7\xa4\x19\x81\x83\xb2\xc1^\xcep\xad\xe4\xb1\xabC\xb0\x0f\x8b\x91\xd9\x94&gt;s\xcf\x9f\x13\x8b\x9c\x17p-\xd1y,\xc5\x98p\xa0U\x04io\x99R\xed\x80h\xd1\t_:\xb72!\xc3\xa9\xb6\xe5\x08\t\xea8\x98\xafA\xad\xefJ\xe4@\xb0C!\xd3\x0b\xfc\x9fZ\xfe\xd4\xe3G\x0b2[\x88\x97\xc1\x97\xc0\xb5J[\xdd\x87("\n\xd1\xf2\x06\x96\xceU\x83&amp;\xa0\xc4\xaaL\xc1p\xfe\xb1\xc8\x93\xf0\x08A\x95\xc4\x88\x04\xe9\xe5\x08ck\xf0\xa9\xb1\xc2\x8a\xd5\x97\x8e\xd4\xaf\x8f\x9f:\xde\xae\xd8\x91\xd3Zs/\xe4\xc48S\xcc*R\xc9m\xe6\x9c\xb0q\xa05\x89od\x97\x89\x9aA3\xf5\xecy\x97\x7f \xd7\x8c\xd6r%\x81\xc5\xd8\x18\x195\xc3`\xe6\xc1\xcf^\xd6iaA\xe7\x8b\x99\xa3\xbd\xa4\x1f&gt;q\xbc\xdd\xb2\x9f\x99\x9e}\xecHU\xdd\xef\xa0\xdem1*\xe9K\x98CF\xfb\xde%o@qk\x88\xde\xa5;\x06\xb7\xadD\x9e\xa4\x9c"\xa6\x02C\xdc\xe8\x98x\xfaQ0\xec\x97\\\x83k\xcbvg\xe7\xdca\x8f\x7f\xecY\xd3\x8f\x8f\x05\xeb\xb9\xa3{\x90\xf3\xe7\xfc\x9a\x1enB\xb4\x91\xa9\xc1\xe60\xbf/\x05\t\x97\x82\xc5\xf5U\xb0\t\xa8\xaa\x84\xb6n\xb8\xd7f\x9b\'\x9e.\xde\x86\xb6h\x958\x04]\xddB\xd2-\xd5\xa0d\xb5\x99S\x0bGwRM\xcf\x1dk\xe3\xe9\x07&amp;\xd3S\x87\x7fD\xf4\x82X\xdd\xbc=\x11\x04\x10RY\xc8\xef\xb7\x02{\x90\x0eA\xcb\x90\x15\x82\xd1\xc8*eP1{\xd7\xa8\n4F\x19\x1b\xe4s\x03\xbf\x94\xb7\xb6\xa1]\x16\xc9/\x0f{\xd6\x8f\x9e\xfa\xce\xd3\x15\xdf\xb1Q\xf7\xf4\xb7N\x16\x9c~M\xcf+\x96\x03\xca\xa5\xfe\xa8s\x8b\x8e3\x9e\xca\xfb\x04\xaeo\xaaa!\x91eZ\xb8\xae\xecL\xb6\x0e\xe2\x10\x8f\x83;H\xc2\xd6XR\xcd\x0e\x99sO~\xeb\x1c\xc2\xd3\xc7\xd9\xc8;\xf5\x8cq&gt;\xe4\xd0A\xe8\xf3\xc5|\xaf?\x9a@j\xe5\x1c\xcdG\x85\x06\x894a\xdc\x9f\xde\xda\xea2\x1a\xc8\xf0\xaf\x8d\xc6\xa4\xe3\xdb\xcf\xc0F\x153\xd7R\xa3\xdf\x05/o\xcb\xb9\x0e9\xfcO\x8d\xc3\xb4\xcf\x1c\xe7\xd0\xf5O\xbeg\xba\xf9\xd6\x11\\?\xaf\xf0E\t+P\\\xa6\x10\xb1V\x15\xb8%\xef\xedWT&amp;\xfa\x93\xde\x8a92\x90\xe3(H\xd3\xf507-r\x8dLM7\xd2\xaa\xb0mq\xd9\xbc\xaf\x9e&gt;\x82\xea\xad\x9b\xc796\x8d\xab\xfd}\xd3Gw\x10\xd7\x13\xa7\x0ev\x9a\x13L\xc8j\xa7Z\xb0\xe4/C`\x08\xb0\x87Kp;\x8b{E\x87\xdbIU\xbc\x93\xddK\x9b\x03Z\xf1,\x9a\x07\x1a\xac\xfd\xaf\x99k\rj*\xbb\xe3\t&amp;\x04\t\x81\x14\x16\x11\xc1\x07\xc8C$\x14j\xd5u)*\xbbu\xc6\x1d;\x9d\xeal\xb7\xd3\x8fm\xa7=\xf7\xe6AHx\x04!\t\x10\x1e1&lt;B\x14\xd0\xf0\x10(0\x80\x10\xa3 \x86\xb0\xc0"\x01\x8dA\t\x01\t\xb4\xe2\xd6\xddq\xda\x1d?9\xfd\xd4~\xed977$\x81H\x83\xb8.\xe7\x9b\x80\xf7\xfe\xee9\xff\xf3\x7f\x9d\xdf\xef\xe8\x07\xb1\x17\xa57\x04O\xdc\xbbH\x07\xfd!\xaa\xe5g\x80\xee\x8b\x1c\x8eF\x87\x05&lt;:\x9d\x0eq#\xbeG\x0ceU\x0c\xf1\xee`R\xde`\xd7BMw\x03\xb4\xe8\xdb\x8e\xb5\x13\x15\xca$\x0bN\\\x15\x92\x9c\x02\xfdZ\xc3\x1e\xa6C\xda&amp;A\xa1\xe4\xee}\x94\xea\x94\x8b\x1a\xf9\xad\xc9n/\nG\xd6\xf2l\x18\x00:\xcdGXc\x04=\'8:\xc0\xe5R\x87\x16j\x1ar1\xedBq\x87j\xe0\xaa\x8402\xa2`\xe6\xe5\xf0Z_x=\\\xb9\x02K\xf1b&lt;+K\xf0U\x1bL@\xae\xc9*\x1efu\xb9\xbcC@t0A+\x1a\xdb\x02\xacg\n\xa3\x83\xa0\xedb %\xd7`\x05x\x05V\\\xd4v\xbf\x02V\n\xc8\xccntC\x0b\xcaj\xab\xaa\xeb\x14z9\x8b\x12\xa3\xc0\xad\x95JDee\xb2"h\x80\xa2G\xad*W\xdf\x94\xe5\xa0\xb7\x1a\x15\xcf|\x84\x15\x86\xe8\xfb\x13$\xeb\x84\x19\xe9\x9c\xb0C\xa7\n\x1a\xbbj\x8b\xb1\xde\x06~\xbb\xd3O&lt;\xc9\x91\xe1x\xd5\xe0\xe5\xdb\x1bO\xca\x8a\x04k\xde\xa4\xb1\xb3\xbb\x19\x93Wa7\xf8g\x9d\x96\x15\x10\xc9t&lt;_\x81\xe8xT_l\x8bC%\xa8d\xab$\xdd4\x91\xe3t\x12\x97yR\xc9\x95vw:\r\xcc\x8d\xfb\x16\xf0\xbb\xd8\xb5\xcb\xeb@\xb5\xca\xfb\x89h\x83*0\x87\xa3\x13\xcf\xc9\xa5_8\x97\x90\x93\xe8\x10\x93\x80U\x82bF\xe5\xf8r\x80O\xf8\xad\xa7\xdfj\xd4J\xdb\xb0q\x16\x84$:\\\xc5\x91S\xb9e\x0f\xf4u\x8d$ \xedM\xac\x17\xa5\x9b\xcd\x82J\xb8\xfd=l\xeavy\x8d#\x87\x17\xdc$\xe7\xac\x9e_S\xca\xfb\x1d\x89\xea@"tA\xc6a\x9bR\xadA\xbc0\xb8\xb7|9\xf2\x8f\xf2\'\xbe\x03\xc7\xad\xf9+\x8bS\xdc@j,\xe9VR\xbf\xc8\xe5w\xd4\nI\\s\xa3zU?1o\xd0\xb9\xe7\xe9U*\x1e\x1c*\x95\xb8\xa9g\xceY\xc4v\xe2e\x8e#\xffv\xa1`\x00\xafp\xb6r\xf7\xc7\x86\x04s\xa7\x16W\xf2\xad8N\xac\x89\xbfO\xacE\x82\xe1:\x81\xe3H\x98@M8\xc6r;\xad.\x86\xdf-$M\xab\r\x16\x8a\x1dn\x01I\x9b\x97\xd7\x7f\xdd\xd1\x95\x19\x95k\x89\xe6\x0c\x9e\xd5\x84~R.k\xcb\x13u\x7f\xe6\xca\x1cX{\xd2\xd0\x92\xfc\x15\xc7\t\xa6\xe7Q\x9f2\x08$\x0e\x197&lt;\xb5"\x8a\xd4\xc7\x9e\xa7\x8a\x1d\xe2\x82[\x9d\xb5\x95D\xbd\xac\x97\xdd\xebk$\x8e\xbf\na\xba\x95w\x97\x98\x98\x0e\x88\xb9\xb4V^w\x19ZU\xb3&lt;\xab\x02\x95d\x12q%vW\x7f\xca3\'MD\xe4E\xebS\xc3\xb8\xcf\xeaO\x98j\x00\xb5\x12\x8c\xd8\xa1\x93\xf0\xf7\x0cW\xc7%Wd7sx\xc8m\xf5_{X\x88\x8c\xbf\xbfI\x9c%\xc1\x06D&lt;\x15\xb4#\x81\xaa\xea\xfa-a\x05\xd6W\x87\x0e\xecz\x9a\x90\xcdw\xf2\xfb%U\xaf\xbf\xf4D\x15\x04\xc3\x8e\xd1&gt;\x02\x94j\x9f\xa9\\\x07\x01\x98j\x01`\xd6\x8a\xf8\xb9\xe9\x9evw\xfe\xbf\x0bE\x83\xf2+\xad\x8dDy\xf65\xb1\xd5*\xae\xcc]\x17ub\x12\xe1\xad^\x19_Vs\x1dN\xd5\xe3{m\xe4\x86\x95\xe6\x8a\xae\x97\xe2\xdf\xbc\xfa\x8bgf\x19\x8a\xb8\xba\xd6Y\x00Z\xa6\x00\xf0-i\x8eb\x82\xc5e\xd4\xda\xb6?_\xaf\x9eK\xa1\xff\xe3\xdf\xe5]X\x8f\xb8U\xee2\xaan\x1e\xf6\x15\xbfj\xa8\xb3\xae\xfd\x1aV\xae\xea\xc1\x1ad\x8f\xb1\xfb\x8ez\xf7Qg\x83\xb8g\xf4\xfe7o\xfeU\xe2\xc1\x11f\xff\x1c\x80\xe7v\xc4\x13\\^\x04L\xdfx\xba\xbb\xf6\x82\x12\xe0\xcf\x00F\x0b"\xf9F{\xa4\xd3\xc0&amp;&gt;_\xdeZ\xda8X\xc6\x9f&amp;QIU0 \xdf\xe9+\xb8-\x84eX\xbd\xb0\x17\x1b\x146\x88UDI\xd6[\xf5\xa2^\xdb\xdcv\xfa\xfc\x7f\xa0#p\xcf\xc4\xf7 R\xb2\xc5\x08\x18\x0c$\xd0\xf3\x91\xa2\x14\x8eX\xd5\xe1\xc1`dr\xccC%\x1d\n?Qw\x91\xfd+\x81\xb0\xae\xa0\xb1\xb0\xac\xb0^\xeb\xe0\xd3\xd4c\xfdr\xe9\x03\xfd=\xe8&gt;\x1bqX\x9fM\xff\xad\x13.rMq\xb7\xb0\xf8\xe6\xe5\xaa\xbc\xdf\x9e\x8c\xbad\x82[.f\xed\xf5l\xe8\x83\xc6&amp;\xe1d\x1d\x0b\x0f\\S\xf3\xfe\xdfq \x04\xe5\xb10h\x99\x14\x88\x0b\xed\xfc\xf1\xe1@\xb0b\xba\x18D\t8\xfe\xfb\xb6\xa2!\x18Sr\xf9\x03\xc8\xc6\xe6\xa0\xe3z!*\x92\xa1\rZ\x93\xdb\xe4\x98\xc3AAa\xeb\xed\xe6b\x9cW\x89\x9ch\xd4%\xddK7\xf5^\n\n;&amp;\xe8\x19\xfc(q\xbe%\x81d1\x02\x83\xe7\x01:PN*a\x94\'\x03\xe9\x9e`\x90m\xb8H\x98\xdaG\xc7\x7f\xdd&lt;\xda)\xc9+\x16\xa9\xda\xfa\x1c\x15\xf4\xdc\xe0\x03\x97\xb5M\xf7\xe9\xabr\xfe^\xd9\xd8\xcb\x1b=\xe3p\xed\xec?!iH\n\x19{`\xe8A\x8fF\x15C\xd8\xfa2k\x93\x11\x1a\x87\xfe4\xba\x04h\xe6Q\xfeL,c$\x1d\xcc\x1a2\x9c\x9b\xe6H\xb2 \x17\x97\x8d\xde\x14\x14\x94.t\x8b\xbbz\xb4\xdav\xac\xa7\xe7\xeb\xe9~m{\x1f\xbf\xbb\xb5uT\x9aS\x94\x9bW~z\x8d\xa8\x1b\x949o#\ru\x1f\xf2\xd7\xf3\x1aP\x82\xd6\xc1\x8f\xe1;+6\x88\x00\xc2\x8e\x03\xd9K\xcee\x0c\xa7\x83\x12E\xc6\t\xb7~\xdc/\xcf&gt;\xec\xea\xb8\xd3\xde3}\xb5\x88W;T_+mh\x90\xd6^\xed\xe2\xf1\xcb\xeb+;\x9a\xf9\xc2\xee3\xc9\x11G\\\x9d\xac\xa0s\xf3c\x0e\x82h&lt;Z\xc2\xa5l\xc0$\xde\xc2\xda2Q0,\x18\xa8\xedH\x9ep\x98B\x83i\xc5\xcc\x850\x8f\x13\xec\x93\x11\x9f^-\xe4\xe1erm\xcd\x8d\x07C&lt;\xa9L&amp;\xe5\r\xdczR//\xaa+\xbf\xa3?\xfb\xd9:j\xc1\x81\x0c\xd30RaFB+W\xda\xa1\x1b}g\x92g\x12\x0c\x10\x96j\xb8\x1bS\xfc\xb9\x10\xd5\x86-\xf3\x93\x88OO\xcb\x0b\xe4\x8f\xee\x8a\x1e^%\x19\xe0\xd8\xb4L\xa4\xef\xfd\xf2g\x11\'7\x9c\x94\x9f\xc80\x18\x01=\x1efZ\xd5\x16\x18\xd8\xd2\xfc\xde\x15\x16\x9b\x01\x96-\xf3d\xc2\x96\xef\xed\xeb\x0e}\x94\x1aq2\xe27]\x8d\xc5$\x8d\xff\xcfgN\xff"9\xf5\x10\xc5[\x1f2,\xc3\xe0\x90\xd1\xcc[\x96\x01s\x1b\x04\xc6\xfdt0n&amp;\x94\x13O\xff\xb0I\xe4\n8\x92&lt;@\x8a\x1e"\x02\x0e\x05\xbc\xb55J\xcb \x9e\xa51\x8f\x83\x92mI\xc2\xa3\xb9@m~\x89\x92\xee\xa4M{`\xa9\x0f\xcb\xdakk{\xca$\x9b\x1f\x03D\xc3\xaa\x10\xbc4\xab\x017i[=7\xbf\x04\x14\x1b\x91\xd9o\xde\xeeI\xad\xff\xee\xf5\xf7\xdf\xbf\xfe\xae&gt;u\xf3\x16\x15:\xddF\xb1\xf0\xe86op\t\x82N&amp;\x7f\xc9\x86H\xdb1\xecM\x96\xf1\x93\x9aWo\xde\xbcz\xfc\xc9&amp;\xfdvv\x12\x12\xee\xda\x964\xef\xe1"\x0bv,,\x18g&amp;m\x84\x00m\x93\xa2\xfc` \xe0r\xb9`\x93\x1a\x86C\xa81m\x93\xb0\xa6\xe2\xc6\xed~\x0f\xa8\xa0sXR\x13|\xf2\xf8\xb7=\xce\x8fT\x802\xde6\xa3\xbb\xd3\t\x15\x9cz\x89\xa8\xf4\xb6\x89\xcb\xef\xa70\xd4O\x10\xf9\xed*\xa9L\xf6\xfe\xde\xe859\x91\xf7\xaf#u\xce\xabD&amp;\xae|\xca\x05q\xdb\xb8\xbe% \x8d\x0b\x86u\x991p\xc6&amp;\xec\x0eM\r\xd7?\xd4K\xb4\x08w\t\x02\xbd\xf8\x91\xa0P\x7f\xaeCMc\x87\x9f\xc8M\xbb\xa4\x1b\xf1E\x92\xf8\xf6|\x10\xa22e\xb2(I\xf0\x91j\xb3\xa1\x9a\xac\xb4\xe39\xeb\xa6,\x9c\xea\xa6*^wu\x06\xfbDR\x08 D\xea\xd5&amp;\xe8\x19\x0071j\xdf\x1fQ\x9a\x13\xcb~GX\xf1\xa8\x02:\x07\x93\x86\x80tD\xc3\xb0Xl\xceW\xc7F\xd3\\\x8b\x10\x14\x1f\xec\xa1M\x8cq\xfdj7-\xfa\xa8\xf3\x976\x8be\x05\t\xec\xa0k`e\xc24\xc7\xab\xde\xd1\x97\x8e3\x17,\x9a\xce\x9d \xdd*\x17\x18\xf3\xcd.\xf1\x1d\x9d\x91\x10Jc\xedB\xf2\xf88\xf2G\x8bN\xb94#\x1afv\xbb \xa4\x04\x86kq\xe1\x7f6\xc2\x85t\xa8\xf4wg\xea\xc6\xde1*\xc2t+[\x97\xe1\xdc\xf1\xc7\xe8h!\x97t\xce\tC\xc6B\xa72b\xe3\xa8k\n[\x8dK\xb2F\x8d\x8beP\xdd\x05\xa86\x1d\xda\xcb%\xc1N!\x14\'S\xd7\x02\xd7s\xeb\xa7\x8a\x87\x83\xa11\\p\xb5x\x88\xdb!\x165\x933-\x9e"\xdf\xb5\xd1b\xaf\xf6\xaa7\x85\x7f\xdc23\xa9Y$\xfa?\xaet\xe2s\xc3s\xc0\x8d\xd9*\xae\x13t\xb0h\xb8\xe0\x9e4\x1c\x8cEoP\x1b\xac\x9a\x15\xaf\xaf\x9f\xf96\xdb\xbb\x0evEc5 [\x07q\xee\xee8\xecsTQo5\xe7\n\x07\xb3\x8a\x19\xcf\xcd\xbe/%\x18\x01[\xd5\xd9g\xc67\xbe\\\xbd4\xe9\x15\xd6\xf8\x8c]\xb7\x8a@\x05\xc6x\xba*\xda9S5H\xd9",V\xecX\xfe\x86[rh\x84S\\V[\xac&amp;\xe5\xba)\x9b5\xe0^`\xad(MV\x8bz\x99p+\x1b2\x99\xc8s#n\n&gt;_q\x1d\xf6\xd2:d\xa7\x13\xcd/0\xa6\xb0\x985#\xc3n\xe6\xa3\xc17\xc0\x1a\x1e\xd1\x98-\nR\x06\x15\xe3\xc5\xab\xef\x8f\xe6P\xde\xd3\xe0$\x06\x120\x8c\x13\xf9f\xb3I\xf1\x92\x9c4\x88j\r\x16\xda\x10+/\x15&amp;\xb39\x7f\xc2\xe8\xf8g\xc2\x0f~\xe3\x9b_X,y\xb1\xc8\xb0rDg5[,\x16E\xfe&lt;\xee\x06\x0b\x0c\x1b\xccf\xabnD\xe9\x9c\xcd\xa3\xb4(\xca\x0f?v\x85%8\x83\xcd\x94qE=\x01A,y\xc0\xfa\xa7F\xbdbt\xaa\x81\xa9\x1f\xd3\xfc(\x1fh\xecO\xf2\xbc\xf9Dm\xc2qo&amp;\x0f\x181\x1f\xf6\xc2\xbe\xdd\xe1\x89!n\xaf\xcfVx\x81EM\x8b\xfc\xf0\xd7\xa9\xf9\xb1"\xd3\x98\x81N+\xcf^\xe7 \x02\x99\x10\x93\x1f\xe5\xc7\x19\xfb\xc2\xf7\xfa\x938\xc6\xecn^\xde\x7fo\xf8\x8f|\x0b$y\xc1\x0e\x17LL\x1a}\xb9\\\xe7\x83\rV:\xb1\x94S\xe4\x15\x14\xdc\xf4\x9dq\x9d!\x0cJL4]j\x02\x16\x93F\xd91\x83C,$rU\x0c\x0ee\x07\x8d\x83\xa4\xe53w\x14*\xa2\x89\x82\x92\xfc0\xca\x0e\x1b\x91\x00\xec\x8c\x0b\x03\xd7E\xca$\xb0\x85\xee\xec\x87\x1blf\x08\x8b\xb2\x03G\xe4\xb1\xf7\xf7\xac\xff\x01S\xfd\xe2\xb1\x0e\x0eI\xea\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67009259259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5926</v>
+        <v>1955</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -870,20 +870,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\x9dPLTEGpL\xaa\xa9\xa9\x1e\x19\x16\x92uO\x1e\x19\x16\xb8\x96X\x1e\x19\x16\x1e\x19\x16\x19\x0e\x04\x1e\x1a\x16\xf8\xc2\x00\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x1b\x1a\x1a\x1e\x19\x16\x1e\x19\x18\x1e\x19\x16!\x17\x11\x1e\x19\x16\x1c\x1b\x14\x1e\x19\x15\x1e\x19\x16\x1e\x19\x16\x1e\x19\x17\x1e\x19\x16\x1e\x19\x16\xa7\x9b{\x1e\x19\x16\x1e\x1e\x1e\x1e\x18\x16\x1e\x19\x16\x1e\x1a\x14\x1e\x16\x16\x1e\x19\x16\x1e\x19\x16\x1e\x19\x16\x93uN\xaa\xa7\xa7\x1e\x19\x16\x1f\x19\x16\xab\xaa\xaa\xd2\xa1!\xf8\xc3\x00\xaa\xa9\xa9\x93uN\xf8\xc3\x00\xaa\xaa\xaa\xab\xa9\xa9\xf8\xc4\x00\x93uN\x93uN\xf8\xc3\x00\xf5\xc4\x00\xf7\xc3\x00\x92uN\xaa\xaa\xaa\xf7\xc2\x00\xf8\xc2\x00\x92tN\x93uO\x93tN\x93sQ\x93tM\xf7\xc2\x00\x92tN\xf8\xc4\x00\xaa\xa9\xa9\xab\xaa\xaa\xaa\xa9\xa9\xab\xa9\xa9\xab\xa9\xa9\xf8\xc3\x00\x92tN\xf7\xc3\x00\xab\xa9\xa9\xf8\xc3\x00\xf9\xc3\x00\x93tN\xaa\xaa\xaa\x93uM\xac\xac\xac\xf7\xc3\x00\xab\xaa\xaa\xab\xaa\xaa\xf8\xc3\x00\xaa\xa9\xa9\x1f\x1a\x17\xff\xff\xff\r\x80\xbf \x1b\x18\xab\xaa\xaa\x93uO\xf8\xc3\x00\xfe\xfe\xff\xfd\xfc\xfc3.+&amp;!\x1e61/wts\x0f\x81\xc0"\x1d\x1aliggca\xfa\xfa\xf9\x81~|\xc1\xbf\xbf*%"spnRNL/+($\x1f\x1cOKI\x1a\x87\xc3\xf5\xf5\xf5b_]\x88\x85\x83EA?&amp;\x8e\xc7B&gt;;olj\xaa\xa8\xa7\xd4\xd3\xd3VRP\xd1\xd0\xd0,(%\xdf\xde\xde\xce\xcd\xcc\xfb\xfd\xfe\xf9\xf9\xf8(# \xf0\xf0\xf0[WU\xdd\xdc\xdc\xd8\xd7\xd6\x99\x97\x96\x90\x8e\x8c\xf7\xf7\xf7KGE\xee\xee\xed\xe7\xe7\xe6?;8\xa5\xa3\xa2{xv\x96\xc8\xe45\x95\xca&lt;\x99\xcc\x8d\x8a\x89\xca\xc9\xc9\x8a\x88\x86_\xab\xd5\xf6\xfa\xfd\xa6\xd1\xe8\xe9\xe9\xe9\xf2\xf1\xf1\x9f\x9d\x9c}{y\x83\xbe\xdf\xf1\xf8\xfco\xb4\xd9\xbc\xbb\xba\xfb\xfb\xfb\xda\xd9\xd9\xba\xb8\xb7HDA\xeb\xeb\xeaTPM \x8a\xc5\x96\x94\x92\xdb\xec\xf6N\xa3\xd1|\xba\xdd&lt;85\xae\xac\xab841ifd-\x91\xc8\xe5\xe4\xe4\x14\x84\xc1`][\xe3\xe2\xe2\xa2\xa0\x9f\x9c\x9a\x98\xeb\xf5\xfa\xf4\xf3\xf3I\x9f\xcf\xcc\xe5\xf2\xbf\xbd\xbd\xb4\xb2\xb1\x93\x91\x8f\xb7\xb5\xb4u\xb7\xdb\xd5\xe9\xf4\xad\xd4\xe9\x89\xc1\xe0\xc3\xe0\xef\x85\x82\x81\xfa\xfc\xfe\x9b\xcb\xe5\xb9\xdb\xed\xbe\xdd\xee\xb4\xd8\xecY\xa8\xd4XUR\xb1\xaf\xae^ZXT\xa6\xd2\xee\xf7\xfb\xe7\xf2\xf9\xa1\xce\xe7\xe1\xe0\xe0D\x9d\xceg\xb0\xd7\xe3\xf0\xf8\xa7\xa5\xa4\xc7\xc5\xc5\xd2\xe7\xf3vsq\xc4\xc2\xc1\xdf\xee\xf7\x8f\xc5\xe2\xc7\xe2\xf1lV\xf9\xfe\x00\x00\x00XtRNS\x00K\x8d\xb0d\x03\xd4\xfb\x03\xf3\xb0\xe1}\xed\xb9\x13\xaa)1\x0es\x1bC\xc0\xa3K\xcb\x96\x08\xe6\x08=\x9c\x18!\xc6Xm\xf5\x1bQ\x85\xfa\x0c\xf7t..\xa0\x8c\x80\x84k\xb5\x14\xfd\xd50\x98_Q\x93\xb6\x18AB\xe6k:\xc9\xb9\xdbZ\xc9\xc7\xd6\xea\xe6Q\x99g]\x11\xee\xf0\xbc\x9e\xe3\xbb\xa2\xd6B\x00\x00\x14vIDATx\xda\xccY\xf7c\x13W\x12\x86\xe0\n\xb6\xe9%\xf4N\x8e\xd0\x03\x84r\x01B\x08I.\xc9\xb5\x94{\xeb\xb5-\xc9E\x08\xd9\xb2\xe5\x82q\xc3\xdd`\\i6\xb8\xf7\x82+`lz/\x06\x83\t\xa1\x04\x8e\x92\xbf\xe5f\xde\xae\xe4]iwU\x909\xe6\x07[\xd2{o\xf6\xd3\x94of\x9eF\x8cp\x99\xecX2\xe2C\x94\xd5\xff\xfc\x10Q\xb9\xff\xe7\x97\x0f\x11\xd6\x8e\x80\xa5\xff\xfe\x10}\x18\x10\xf0\x7f\xf1\xe2\xa7\xca&gt;\xfc&amp; `\xe7\xbb(p6v\xfe\xa1\xb8\xbc1 \xc0\x86\x17\xdd7\r\x07\xac\x15\x8b\xa5\xbe\xad\xfb\x92\x91\x9c\xac\x02X\x01\xab\xf97\x92T\xb1r\xd9\xfaa\x80\xf5Y\xe0\xbf\xa4&gt;\x9e\xb9:\xc0R\x96.\x97T\xb0&amp;h\xf30\xc0\xda\x108Jza\xe4\x0fbT\xdfl\x94\xde\xf7}\xd0\xbaa\xf0a`\xe0\xe2\x99\xd2KK~\x11\xa2Z%\xb3keP\xd0\xb2O\x87\xc1\x87\x81\x81\x7f\x95\x0b\xe6\xe5KM\xa0~\xfeVN\xc1\x9a\xa0\xa0a\xf0\xe2\x06\x805Jvu$\x8f*i\xa3\xec\x96\xef\x00\xd6h\x97\xd1\xc2g\xa3\xa8l\x01T\x81\x8b\xb9\xd7\xa3\xacc\x7f\xb9\xc9Z#\xad\x14\xac\x19Me\x1d\xa0\nZ\xc6\xbd\x1e\xbd\xd9\x05\xb8\x02-d\xf1Z\xeb]_\x9b#\xcbZ\xc1\x9a\xcf\x83\xc4\xb2\xec+W\x18l\xdbv\x11\xaa\r+$\x82\x1e\x11\xedDl?K\x04\xfc\x97?\x8aP}\xbf\xd25\x8e\xdc\xbaE\x80\xea\x0b\xa9D[N\xc9\x8aR\xd8H\x89\xe5\xf5\xeb\x86@}\xfe\xab\xcb\xd2\xd1}\xedb\x93\x03\xa5\x93\xf1k\x9e\xac\x80\xc2VIn\xf8j\x19\x8f\xea\xa7\xbf\xbb2\x0f\xff\xc6\xc3\x92\xae\x8bK\x96\x9a\xc8j\xc9\xce\x1f\xdce\xf3\x10\xe5WW\xa2\xdajr\xe1v\xc9\x87~+ \xab\xe5;\xa4v\xac7\x85\xfdO\xee.\x84\xb5\xd6\x1cZ\xdb$\x9d,\xfb\xc6\xecDsl}\xe9b\x1f\x8eZ\x81\x7f\xbfpN\x01\xc6\xfc\xe8\x95\xe8\xc9M.\xf5!\x92\x15R\xd8v\xa7\x14\x80\x0f\x91\xac\x90\xc2~tw\xa1\x0fy\xb2\x02\n\xdb\xe6\x8c\x82\xcd&amp;\xb2\x02\ns\x9d\x17\xb7\x98\xc9j\xeb\x16K/\xce\x9e?\xc5\xcdg\xc68\xbf\x05\xd3=&lt;\xa6/\xf0\x1b7\xc3\xc7m\xced/K\x1fn2\x91\xd5\xfa\xd1.\xf3\xe2L!Y\t^{\x8dw\x9b1\xdd\x93H\x88\xf7\x82\x8f\x16\xce\x1f\xc26SHV.%.+\x99\xec6\xceW\x04\x85\x05\x11\xbd\x9f5m\xe1\xd8\xf7;\x04M\x9ed\xb6RD\xfe\xae\xd2\xe2\xc6\xf4\xfd\xcd\x15\x15\x15\xd9\xe5\r%\xd7*\xef\xe8\xe2\x83\xf9EO?\xb7\xf7\x86\xcc\xeb\x13?\x0e\x13\xdbT\xd5\x95\xa6f$dw\xc3\x0bC\x11\x8fl\xdc\x94\xf7\x01j\xac\xcf,\xfa\xb8(\xc3\x95\x02FQ\n\x93t\x11t\xab\xc7\xa2\x89\xc3\x0cj\xdeG\xde\xd4s\x86\xf0!+\xa9\x1e\xdf\xb8_v\xf8VuGu\xf5\xad\xfe\x9b\xb7\xdbj\x86\x90\xe5]\xd1Q\x7f\xfa\xfa\x0c\'\xb0\xb1\x1c\xa8\xfc\xe2X\xfe\xb1\x197\x9e\xd4&gt;\x8b\t\xf3\x17IXk\xfb\xf5\xb26\x15\xbf\xa5 \x97z\xd3w\xd2\xeca\x025{\x11\xa6\x1e\x1bW\xc2?\xf1M\xff\x83\x18\x7fYi=^v\x9e\xdb\xa7n\x8cD`c\x16z\r\x07\xaa9\x1e\x08Jw\xc0\xec\xbb\x8e0\x7fE\xe9\xe97;\xf3e\x0b\x02\x9b:\xde\xe5\xa0&amp;\xce\xc0\xecK\xd9G\x9fr\xf7f\xfb\x13\xf8w\xfb\xb4\x12\xaag7\x00z\xf5\x83{\x9cm/\xc7cV\xfa\xb8\xd8`s\xc6\x80\xd6\xee+\xf4\t\x8fo\xed\x85\xa7\xd6\x9e`\x98\x13\xb7d\xbd\xb8\xf7\t\xc09\xff\x1b\xbc:\xd2\x7f\x02O\xd5W\xa6\x82\x8a\xe9\xae4\x98\x97\x0f\x98J\xab\xa7\x81\xfe\xb8\x9a\x87r\xe4\x12\xbc\xab\xa1\x10\xad\x84\x832\xc0\xaf\xed=L\x815\x9f\xc2\xb2\xe4\xe6\xba\x04\xf4\x03}E%\xa8\xfa\xc4\xdb!\xfb\x84\xd5bLg\x0c\x1c\xb70\xd9\xde\xda\xdb\xe8\xb87\x0f\x04\x1f\x95e\xe0\xe9k\x1aP4\xd7E)9\x01\x1c\xc8\x1a\xa8\xa9\xee\x89\xa3)\xe6\xd6cJ\x13\x7f\x1e~\xfeloOOO\xcc\xe9\x8b\xb5\xfd7h0\xfdq]\x9c\x10G\xd1\xb6Ly\x0e:r\xb2+P}\x0c\\\x95\x15\x80J\x7f\x7f`\xe5\xad\x98\xdaK\xe6t\xcb\xc80\xbf\xba\x7f\xdc*K\xc3\xae#\xcd\xaa\x0fB9\x9f5\xe1\xddQ\xb9AXu\xd3\x04\xbc\xd9*\x19\xdbm\xd6e\xe7\xbed&amp;\x9c\xbe\x8dku\x10\xf9\xde\xef\\&amp;\'\xc1\xb7\x8bn\xc6\xa8z.\x99qG\x7f\x97*\x877$\x13!\xac\x1a\xed\xd9\xd0\tL\xf1\xc9;\xa2\x82X\x88\xc3\xb0j;"\x8d\xaaF\xbaL\xbf\x91\xc4\xe5\x7f\x11\x93\xa49\xff]q!\xaaD,\xca\xf7\xa4\t\xea\xc8c\xb9\xf6\xa1\xadU\x9a\xce\xfe\x0bk\x17R\xde\r\x97\x1bx\xd0\x80\xa8\xfa\xa5\xebLk\x9b|[s[\xfaH\xcc=X\x8b}\x08\xb8\x9c\x8e\xaf\x8f=y[UK3y\xd8\x80R\xbb\xf5V\xe6P\x19\xe2\x82\x1a\xe9\xedd&gt;N\x00f\x88ScM\x96)0\xb5\x8a]`\xc6E\x19\\X\xc1+ \xbef9\xc5_\xf3\x80E#\xf3@\xc5u\xb9\xb2W\xa3\xdc\x9d\xb6\xf5\xc8\x1cD\\\xe5\x90\x8f\xd3\x9d\xe0{\xaf\xa9\x84t\x16\xc8{\xd0\xdf\xbf\x8c\xb1!r\'\xa9\x1f\x1b\x80\xbf\xe6:\x0e\xeb/\xd0\x1acouX\x0e\xd5Q\x95-X5\xadr\xb80\xee/C&gt;9\\\xb7\xa7\xb0\x84\xc5&gt;f@\xb6\xd7\x1b`l\xca[\xb9\xb31\xc8\x13\x07!\xec\x1d\xecs\xc6\xc2xs\x085\x97\xc9\xc1:\xa2\xb2\r\xabF\xae\x1d\x8b\xc1:\xa4\x86\xba=\xdd\xb1\xbep\x1a!\xf1\x99T\xf5@\x8f|\xdc\xda\x14\x99li\xe5\xea{y\x14!&gt;\x0e1\x16!\xc6d8x\x15b\xfeO\xc9\x08\x899!\x06P\xcfM\x13tLS\xd7\x9b\x93Q\xda\xd0\xc0\xc2i\x95\xd8\x7f\x01\xab:\xe0\xc6\xd9\xc0\r\xa5p\xec\x05\x89/\x84\xfavTB\xf5s\xfe\xc1g\x8a\r]\x0c\x93\x99h\xecLg\x98\xa4\xd4(\x88\xc7\xdcTc\xa8i\x8a|&amp;q\xb4\x1d*V\xb2\x86}\t\xcb\xd0\xafN\xb5\x1f\x96\x0f!\t\xe0\xc2^\x18\x8a\xbb\xc1h\'\x8e[\xeb\xbe\xcf?\xf7\xaa\x8e\xcde\x98s\xda\xdc\x84&amp;\xa6Wk\xd8\x95\xd5\\^t0\x91\xbc\xe4\x97\xad\xf38\xac\x03\xda\x88p\xd0\xdcy\x01\xdc\x08,\xb1\xd0\xee\x8b\x0f\xa0\xf7p.$\x81%\x1a\xb1&amp;Z\x06X\xab\xb9\xe5\x8bEX\xba\x04\xa6T[Q\xc9f?%I\x8c\x9aI\xc6\xe3T\xfe\xb0\xcc\x98V\xe4\x86J-j\xc6\x94\xaa\x84\xf9\xd1^R\x9d\x0bE\x07\x8et\xf1\x17B\xc7\xc0#7,\x1cy\x9c\x11\xc1\x8a+b\xee\x90\xc2\xaa,u,\x0b\xce\xef\xcb\xcf\xd9mZ\xb6\xe8\x87\xda\xa1=\xcb3\xf0\x8a\xc1\xedj\x98\xd3&amp;\xd9\x87j\xbc\'\xd1\xeeg\x98l\x8d\xe9\xa6*\x07\xda\xc0\xbb\xb7D\x06{"\x86u\x95\xdd\xd3\xcd6\xbfJU\xe7i\xf5`;MB\xb6iYTOc\xf0\xd8\xfe&amp;\x93\xde|\xf8\xbe\x97\t\xf1\x9dh/9\x84\xc2\xf1=C7h\x9a:\xcc*a\xe9}#\x86\x15\x9b\x98\x10\x1d\xbc[\xcf[\x8bIc\xfbL\xcb\x03\x82\xa8:\x0e\xa6R\x15g\r\xe9}\x01\x1bR\xec$\x89\xf9\x9e\xc4x\x06R\xcc(\xbc\xd9{U\x81\xcd\xbcy\xeeiU\x89a\x81\x9cma\x8aI\xe1\x012\x98\x17\xce\xc4\x1a\xaf\x9a\x96\xcf\x9b\x83\xeb(Rh\xe1#\xe1\x85a\x08t\x02/\xc1\\\xf6D\xd7G\xd0\xfa\x81\x82P\xf1mh\xc85@r\xf70\xdf\x0b\xb7\x9bQ\x9d\xcc!\tq\xaaL\xbd\x81\xbd\xc64\xa7\xb6Dk.\\#\xa7r0lx\xe1O\x9c\xbe\t\xe7\xd5}\x11b\xad\xf8\x8d"\tYd\xc7e\x837a!\xb2z\xb5\x96\xd7\xb4\x8f\x1ap\xd0\xe0\x80u\x98\x9f\x9aTUU\xa5W\xf5F6\x15\xc3\x9b\x92\x9cG0#\x15\xa7\xa4t\r\xf1\xeco\x94@\xe9\xf8Z\x92o\xa9S\x03\xe6j$\xc4\xc36\xacE\x00\x00T\xe8\xad\xaf\x8f\xb5\x87\xca\xf1Z\xa4\xec\xa80\xe2mJ\x87\x7fX;\xbd\x1e\xd9\xafc\xaduB\x0c\xaa\xa1\xf3\xb2\xdd@{\x10\x02\x01\x9e\x1d!u\xaf\x9du\x07G3\xe6\x92`f\xb5)7;h\xc3\x9ff\xd0Ji,\x82d\xcc%d\x9c\xcdN\x19\x88\x1d\xb6\x9e#\xd2\x12\xacOc\x9c\x90}\x89\xac\x8cB0A\xb3\x91xN\xb4\x1d\xf0{\xc0\xb0\tDN\xd8\xb3\x97\xeb\x1d\xc3\x947\x18\xc9\xca\xaaC\xde\xd6\xd9\xec\x07\xbd\xa0HCO\x9aN\x94\xa4\xbb\xb4Ae/&amp;uzU\x94\x92.c3m$\xfcl\xfa0\x01\x94U\x11\x1b\x12_\x9a\xae\xb6\x8di\xf7k}\xb7-M\xd0\xe0\xc4f\xd9\xf2\xa2\x0f\xedh\xea5\xc4\xb6D\x9d\xea;\xa0\xe0\xce\xcc\xf4\xdc\xb3\x11v\xa8i\xe1\xbc\xa8\xdcG, \x04\x98\xb0\x84\xd8)Y\x91U}\xaf\x9f\xe6\x89\x01]h\xb8|.4\xdfh\xa7\n-x1\x89\x90i\x8a-\xbc\'I\x05\xe7\x94\x12\x87$\xea\x91\xa1J\x97\x18z\xe8Ph\xa2\xeea|*\xeb\xd8\xe9$(I\xd0\xde\xd8h\x9615\x9a\x1cV\xcc&lt;"\xce\xca.8\x9d@\xd8\xf9\xca\xc3!\x94\xa9\x02\xc7\xbeo\xbc\x9a)`\x92Yga\x85\xa8h\x01V\n.?\x1aZu\x8e\xe9md\xea\xba\xcb\x99]N\x9b\xeb)\r\xae\x19\n\xb0|\x891\xd6\xd1\xd0\x8aV5D\x90\x14u\x9a\xd6YXP\xd7\x0f\x10\xb2@\xa1\x89\xe7X\xeb\xacCZ\xfb\x0e\xe0oMU\xc9q\xce\xc2\x82~6\xd3H|\xe5\x07\xd9)\x84\x9c\x02X\x1a\xf2^\xe5!M2v\x9e\xfc\xed\x1f%\xd3lS\xf4\xb2M\xfa\xe2\xc1\xaes\xaf:MD\x10b\x12M\x04\xb7\x87\r\x11I\x14\t\xe6\x96\xcd\xfd\x14}\x1b\xcc\xed\xe3\xd5j\xa3\xef\x80\xd6\\\x83\x99\xffC\xb8\x81q\x8aR"B\xb2\xef3M\x16\xc9\xa6\xdf\xc2^F\xd3\x0f\xc2\x05\xa5\xae`\x10?\xd3\x88\x89\xb4\x8e\xe8\xe8\xff\n&gt;\xce\xb4\xdc\xa4\xb1\x8b\x04\xe3$D\x7f\xf0d\rOM*\xea\xe2\xf9]\xb1tppS\x1a.^\xd3\xca\x89\xe7O\n\xca\xb1Zo\x01\x0b?\xab\x92\x85\xc5D\xf3\xa3\rc\t+\xabQX\x9f\xf8\xc9\x0c\x9a\xe1&gt;\xa5Ac*\xddRI\xf7\x1e\xa4\'\xb3\xf7%WP\x83\x19\xac`1\xbb\x8bda\xf1\xb9|\xc7\x12\x96\x96Sq!\xad\x97VSu\xa2\xc9\x0b\x8dJ\x0c\xe1A\xd8\n^g\x0e\xda\xeai\x1c\xc4\x83VW\x88\x9aB8X\xc7"Q\xe2\xbap\xf9$\x85U\x18i\x96\x04\n\xab\x82\x8e3\xfc\xf3*D\xb0\x8e!\x98\xf4\x87\xa05\xe2\x10\xde4\xe6\xd1\x1f\x8c\x03h\x15\x96\xefP\xc7\x90\xe0L\x869\x84.\xc4y"\x8d\x0f\xdd\xcel\xee\x92,\x9c&gt;b\xa8\xe0\xbc\xa6\xb0\xd2\x84Y\x85\xb0\x8aUL&amp;\x1d\x06\x81\x03U\x95BX!x7u\x85\x0f\xbc"\x9c\x0c\x1a\xf1\xd59\x86iPj\xb9|I\x04\x14j\xb4l\x0e:.E\xc0,L\xb2\x18\xd6Y\xfa\x91$\xac=\xbd\x0cC\xaf/R`\xda\xd4\x0ba\xa1\xb1\xced\t\xf7\xaa:\xb9x9\xa3\xc4\xa7\x9e$\x8a\xeb~p"1g$\xf81\nD\x0c\x0b\xa7\xa3\x12\x19X/\xd0\xbf\xdc\xe3\x06E\xb0\x92E\xc3:\xce}t\xc2\x82.\xbd@i*\xf3\xa4\xcfA\xbaN\xe6\xdc&amp;\x16!\xac\xab\xf4\xba\x05\xb7\xf7jL\x12\xc5\xc3J\xe4\xbf\x12\x94\xd7P!\xac\xacz\xda,\x88\x86\xd7A.3\xa0;\xb0\x03\x16\x9b\xcd[\xcd\nV(\x1a.*\xa1\x14\x9e\xa3n\xb2\xc8\xc4}&lt;,\xe8\t\xd4\xa9\x84\xa4\xc2\x9eN!,,l\xb1\x82\xd2\x89\xc3{:\x07+[\x19\x16\xefD#\xaai\xe1*q\x12/&lt;A\xa8P\xe8\xb5\xa4\x9e\xc8\xc0B\x96\xd1\xd1\xf0\xebe\x85\xb0"\xf1\xbeT8\xa7\xe3Pk\x87\x13\xbdI\x84\x8a\x86\xbc\xb1\xde\x0ck\x97\xe9\xa1\x16\xbcU\xdeBda\xf5Q\xf2\x83\x04\xfb_1W\xfe\xd4D\x12\x85S\x14EH!,\xe0\x01hQ\x82\xaeU\xfa\x1f\xcd8VM\x02$1.\x81p\xc8!\x97\x1cr\x9f\x82\xe2\x85\xa2r\xc8\x82\xa8\x08\x0b"\x87\x1cR"\xb8x\x00\n\x1e\x7f\xcb\xbe\xd7=3L\x92\xe9\xc9\x84\xc3\xed\x1fB4\xc9\xe4\x9b\xee\xd7\xaf\xdf\xfb\xde\xf7r\x81\xf3\x85\xd5\xa4\x82uM\xb2\xcc:\xf2\xdf\xc7\x99\xb0\x12\xc9\xe7\xc1A8^I6\xc6\x86\xc5\xdf-\xa6\xb0\x9a\x8a\xe5\xd1 \xc3\xbaHv&lt;$vn/X\xbd\xbc\xea\xc0\xe5hXPDm\xacZ\x8fD\x05w\xfa\x8a\xee\x95je\xcf\x14\xff\x05\xe3\x8e\x02k\xfc"\x0c\xe7\x0cz\xc91\x81\xb1\x139\x9b\x95\x17m\xf0\xc0?\xf3\x82\x95\tK!\xaa\xc2\x93\x9b\x92\xe3\xbaBL,Z\xef\xf0\xf9B\x13\xfda\xe2-\x95Q\xa2\xc0r\xee\x98\x05l*\x06,\x9c\xa8B\x98\x8b/\x9c\x17,\x01\x8f\x8b\xc2\x9d7\x7f\x93\xb6\xfbC\x12\x10\xb3\x0b@\xd1\xe4\xad\xd3Xr\xe5\xc9N\x93F\x81\xe8\x0b\x8b\xac\xf25&amp;,0\xab+-$\x16\xf6\xf2[H6]UV1O\xa4\xec\x16\xdeD\x0b\xc7\x9d\xd3# \x86\xe9\x9e\xad\xc4\x13\xabDJ?\xe9\x01\xeb\xed\xb7\x1e\x93 \x89\x05\x0b\xd2\xa7\xb114-oXY\x08\xa4UN\xf3Q\xefQ\x83\x87.XD\x87^`s\x86\xec\x8a&gt;A:o\xf8\x12\x12\x11\xd9\xa6x\x7fX\xb8\xacnj\xf2Y;\xa3T\x82UJ\x02\x04\xf1\x99\x0f,\xae\x87\x04I\xc4u\xa5\xe2\xd5D\xdcV\x99t\xf7\x1f\xd3K\x13a\xf5D\xd4\xe88\xbeSb\xe3\x9f\xf1\x87\xf5\xb4t\xe2\r\xeb\x06a*|\x02\x1b\xfe\x9a\x04\x8b\xa0&amp;\xf3\xe8\r\xcb6B\xd4y_;f\x1e\x92\x8aR\x0b^\n\xfd\x06lbv-\xf6\x14\x8d\xdcV\xf1\xcd\xa5%\xaa\xc8\xcai\xf5\x85\x85\xcfg\xd8\xb0\x06xR\x9b\xf1\x85\xc5\x154\xa9\xdf\xfeA.\x1bXS8\x0b;\xc5\x08\xb7\x90\x0b\xbc\xa5\xfc\xc2?2\'S\x95\x8b\x1b\xd4\x1b\x16\x06,5)LX\xe8)\xc9\xa6\xf3\x81\xc5\xa5\xf6(Ao\xd5%j\xfd-\xc4m\x1d\xd7\xc9\x13\xe3\xc8!=-o\xc0\xda\xa2\xbb\xae\x9c\xc7\x03\xe0j\xfeMK#\x0fir\xba\xd1\x0c\xcf\xd3l)i\xde#\xf5)&lt;\xe0\x06\xae\xc4\x7f\xa11\xe4\xc1\xdff\xce\xb1\r\x7f\xa4\xd3\xb0a\xbc\xa8\xca\x953\xd6\xd3*\xf395\xe4\xc0N\xd2\xe7\x02\xe1\xe0h\xda\xf1\xc4\x82C8\x80\x14\xcc\xeb\xaa\x99V\x12\xde\xe8\xf1\x81g\xe9a\xd3\xfc;\xd3\xc4\\j\xf1zu\xc5d\x810\x15]\xc1\xde\xbd\xc7\xd6\xdc\x9b\x95\x91\x91\xd5\xfb4\xd3\x13\xec\xf4\xde#\x07edx\x00\xfa\xbb\x86\xd4\x87\x8cR[\xc5\xad\xe3\x0fk\xaaT\x84\xe5\xa3\xc6\xa2\xd9\x81\xed\xact\xc3\xb74F\x8c9:\x10\xd1\x0cqg\xbd\x91\x8b\ny]\x1f\xca\x98\xd4\xae\xb5\xe6\xab\xfb\xa9\x11X\xbd\xc4/\x07\xa0\x9aOB\xdc\xe7}\x9ej\x8f\xf4\x8bW\xee\x04\xa6t\xcb\xee]\x0b\xc8U\xc2\xb1\xe2\xca\xe4\xcc\xc9\xfa\x04x$\'\x8c\x04ZEO\xeet\x85Q\x02\xfc\xee\xd7U]\x86I\xf8BB\x95\xd3\x01\xca\x05\'\x88\x87~\x94\xca\xbePsmcp\xe5\x82\xb1\x9b:W+\xa6k\x18\xa8\x02{\x92\x861\x1d\xac\x9b[\x9d\xb2\x06_[q\r\xf7\xeapn\xaf*9s q\x12\x961\xe0\x18nrh\x17V\xc8A9\xd16g\x1c\xd2\xe2gTL\x88SY\x9a\xa8l\x15$*\x8b2"6p2\x8c\xbe\x98\x14/_o\xbc\x0c,FR\xcb\x92\xb2\xdf\x90\x1a\x99\xcc\x1b\xf9\x1a\xbc\xd8`Dt\x90l\xe6&lt;\xb0\xc9\xfc\x99\xe3f\x0c\x96\xc4w\xa4b}\xdf8,\xd4P\xd8W\xb0\xd2gm\xf1\xa3\x19\xd3\x1b\t+\x92h@i\x13O\t \x1f*4\xa5\x0e\x83\x80eIw\xb0f\x1c\x96T\xdf^C\r\xd2\xddV\x1f\xdb\x90\xbe\xc8H\r=V\xe0J\xab|\xa7\xab\x1fS\xa1\xadAE\xe8\xa6|k\xeb\xe8\xe8\xe8\xb6\xf8|4\xb7\xae\x82\x1f\x86\xa7pF\xdc(\xe8R\x89\x92\xecJ]\x7f\x13#y\xaf\x8a`i#\t\x9b-\x86\xba[\xa2h\xaa\xe4VMU-l\xbf\x07\xdd*\x05\x88"\x82\xcd\xb39\x9d\x97\xc4\xf4\xbcm\xa1\x0e\xb6o\x97\rl\xb8\xce\x91\xba\xe3\xfc\x97U\xb2\xfe\x85%8@.\xa9nw\x86\xb2\xa6!\xc6\xb4\xf1\xb0\xe6}j\xc6\xa7\x00\x89\x92y/\x81\xeb\xbc\x02\x0b+\\b\xba\x9bOu\x02\xac\x9c\x01\x08\x97Ws\x852m!\xde\xf5_\xa8rS,\xec)\x84\xe3%0Y\xc9\xc6d#QT\x9f1 \'\xbf\x90|Mtj\x0b\x92\xf8\xbc\x82\xd9)\x80U&lt;\xee\xe9AXo\xb9\xeaz\xcf\xb4\xa7E\x81\xb5\xee\xa3\xb7\x06o\xd1\xd4/]x\x96\xaa3\x8cM\x16U\xb3\xc0\x04\xb9\xc8\x8ev`X\xbe\xec\xab\x05\xce\x97\x97)Op&lt;\x03X)\x95\x055\x00k\xd51\xca\xdf\x10\x1a\x1b\x9c\xfe\xea\x0cy\xc2\xc0\xe5\xb9Z\x95@k\x96\xe3"\r\xf7M\xc1\t\x94\x01\xd6T\xe2\xa0\x82$q\xc1_\x89\xf7ZYD\x97\x0b\x17\xb1\xa2\xa1\x01`uL[\xf9\x19GC\xa6b\\\xb7\xfd\x1bGnK\x92\xa4RpC\xaf\x9e\x19V\xfe`Y1\x92\xf2\x81\x1d\x9c\r\xdc\xfa\x83\x15\rm\xd8\x1b_\xdbz\x9e\x8e\x8b\x88iF\xef\xdb\x1d\xe3\x1a\xd4\xfah9\xcf\xf7\xa4\x10&gt;\x01\x82\xe5\xb0 \xd4\x81\xa1p3\x10H&lt;z\x0e~\xe1\x87\xa6\xf6[\x16pI\xb0\x9a\xdd\x9e\\\n\xcbUy\x0f\x12\x99\xaf\xf4\xd5O\x9a\x82\xc7\xc1\x07\xe0EZi\xe2o&gt;\x19\xa4\x16v\x95.\xc4\x96\xb6\xc4\\\xde\x8b\x97\x91\xbf\x17\xd3\n\xdd\xe3\xf5\xfcl!\x9cp#\x85\xd5\xbc\xd5}\x85\xbe\xba\xc0PanRz\xbeY\xbf^\xa7\x91\xc8Z\xa4\x14t\x91\xa5\xd1\\7\xe0\xe1\x97\xf2Y\xbacrJ\x82g\x8c\x08\xb2\xb7,T\xe2.\x98"\xdd\xf3\xbf\x02\xc3\xfa|^O\xa6{\x81\x0bn\teR)\x15\xe3\xe2n\xd6\xa5\x07\x03O\x16\xb3k\xaa\ry\xc0\xca U\xa7T0\x05IP\x16\xb8\xe1\xf2N\xd6\xb5\xdf\x05\x82\xc5\x9ci\x0c@\xfa\xc07D\xed\xa2w+\x06\xcc\xcb\x89Z\xb25\x96|xI\x1f\xd5\x04\xcb,\xd1\xb9\xe4@X\x18\xb1\xab\x06\xd4\xb3f\xcal\xdcb\xe1Z\x08\x1cii\xa2\x82{u\xe5\xee\xbe\xbd\xe0\x8cT\xbf[b|\x81]W\xc65\xcf@5$U\xec\xcc\t\xbbm\xc6\x08\x91\x98\xaar\x86\xdd\xbf\xf8\xa8\xd3[\xa0\xbd\x84v\xb4v\xeb6\xe4\x05{\xe8qK\x82\x8f\xcf\xa0[m\xd3\xd6\xa7O2\xcdkB{\x17f\xa3\xca\xfe\x118,\xe1\xc8\xeeQ\x99\xc2\xe3\x919\xc3\x14lY\xbbS`\xa5\x9c\xa1\x94o\xd7\x9e^L\x99\xea/\x02\xaaC\xa6\xbd\x8c\xf0$,d`\x0e\xbd\xb9\xae\x8d\xeb\x96\xe6\\i\xa3\xea\xc4\xa6\x92\xc6\xfe=\xce\x95b_\x19\xe8W\xcb\xefk.d\xfb\xa6?\xaa-\xcd\x15$\xd2a\xfe1\x1c\x84\xe6}\xe8\x9d&lt;\x02~"\x95\xf4L\xbe\xf6\x9f\x03\xfb\xe4m\x8d\xe9\x9ah\xd3\x98\xadA"8\x9eN\x07\xcfp\xd6\xb4\x0f\x03\x1b\x14\x1d\x03h`\xe5?\xbd\xb7\x97\xbds\x8bv\xc3.\xff\xec^[oo__\xe9n[\xa40\x17}"\xad\'$\xe3\xad\xef\x82\x04#"\xd6\xb4/#\x06[\x97W\t\xa5\xbe\xb9\xa1Z\xc9I\x02\xea\xef\x85v\xbb\xf7\x04\xb6\x91\xbchY\x15\xa7\xbd\x1c"\xadJE\x18\x86\xc7%\x9b\xf6i\x1c\x8e\xc6\x0c\xb8\x85\x04`s+\x12\x88l\xbc\x7f\xf1\xfd\xa4\x86\xc5\xd9W\x16\xc9\xdc\xbe\x94\x9bd\x89\xfdU\xd4A\xa8l\x0e\xd9\xcf\x1e\xe6P\xec\x8a\xef\xa7\xea\x96\xb9\r\xfc\xbaI\x9c\x92\xf7\xd7Y\xa7\xf1$\x9e\x00s\xf8r\xf6\x1b\xba)\xbec\xe6\x9a\x98`\xda\xd7q*\x8e\xa8\x9a\xfbh,|\xff\x05vT\xfc\x18\xd4\xe9\xf6\xb6o|\xc4.\x8e\xebm\xb4\xd3\xac\x0c+\xdfB\xfc\xfe\xff:D(v\xecWvP\xce\r\xd7\xf3s\xb6~s|\xfe\xb2\xb25G\x08\xf9\x10\x91`:\x80\xf1G\x12\xf6\xc7\xa7_\x96\xca6\xe2\xbb\xee\x17:]\xfb\xf6\xf6!9~\xadNC\x06\xd5r\xee\xa0~\xe3 &amp;\n\t\x04O\xe1U9\r\xfc4?4\xf9\xc4\xbfW9\x7f\xf0\xfe{\xf9\x14\xb7N\x8d\xe2\x87\xcc\xf1GM\x077N\x12`\\A\xed\xc8\xce\xafTL\xbc\xbe\xfdsh\xa3smpm\xad\xb3{\xa8m~K\xd5\xb7\xf8\xf8&amp;Q\x8f\x99\xe3cL\x07;b\xe3\xc9\x0f\x8d\x08\x19\x03\x81\xf4\xd6\xd6\x92\x0eJ\x00ZN\x9c2\x1d\xfc8z(BR\xcf\xb9[j\x18Lx\xce\xd5{\xcf%\xe5\xf7\xc1\xff\xd2\x88\x12W\x1cK\x92\x7f\xc3\xc6\xd3\xe0\x9e\xf9p\xe3KU\x05\x99:k}U\xf5\xb7\xe1\x0eg\x9e\xcc\xfaE\x84\xc4\x9a~\xe7\x08?\x16\x12fV\x17\xa3RJ33KS\xd4\x159\xf3\xf1s\xb1\xe1\xa6\xdf?\x92\xff\x0c9m\xd1\xa6\xef#\xe3\xce%\x1c6\xfd\x7f#\xfcT\xc2\x91\x13\xd1\xa7\xc3\x12-0OfKbX\\t\xc8\x99cG\xf7:K\xff\x01k\x8bA+\xde\xc0Q\r\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xb2PLTEGpL\x010}\xf1\xc7Y\x010}\x032|"I{\t5}\x82\x8c\xac,S\x808h\x8e\x11;{\x1aBy\x053|\x032|\x18?{\x074~\x063|\x020}\r:z\r7|\xf5\xc30\n6|\x054}\xf4\xc6&lt;\xfc\xc3\x11\xf1\xceT\x085{\x054}\x042}\xf6\xc6,\xf7\xc3*\xfa\xc3\x1c\xfb\xc3\x13\xf8\xc4#\n6|\x14?{\x085{\x030}\xfb\xc3\x15\x0e9{\xfc\xc2\x12\x073{\x063|\xfa\xc4\x1f\x031}\xf0\xc3C\xfa\xc3\x19\x17@v\x042}\xe8\xd0h\xf9\xc3\x1c\x0e9y\xfb\xc2\x11\xfb\xc2\x18\xf6\xc60\xfc\xc3\x19\xf8\xc5 \xed\xc6X\xfa\xc3\x1f\xf9\xc2!\xff\xff\xff\x001\x80\xd8\x10\x00\xfd\xfe\xfe\xfd\xfd\xfd\x000\x7f\x001\x7f\x000\x80\xff\xc3\x0f\x000~\xfc\xfc\xfb\xfc\xfd\xfd\x000\x81\x001~\x001\x81\xfb\xfd\xfb\xfc\xfd\xfa\x000}\xfe\xff\xff\xfb\xfc\xf9\xfe\xfd\xfb\xd7\x0f\x00\xfd\xff\xfc\xf9\xfc\xfb\x000|\x000\x82\xfe\xc2\x0f\xf8\xfa\xfa\xf6\xf9\xf8\n8\x813Z\x96\x065\x7f\x032\x7f\x00/\x7f\x0c9\x84\xed\xf2\xf3\x0f=\x83\xf0\xf4\xf5Xy\xa7\x075\x82\xb9\xc7\xd7\x10=\x86\xd4\x11\x03\x14@\x86\x90\xa7\xc4+S\x92\x94\xaa\xc5\xf9\xfb\xf8\xf4\xf7\xf7Dh\x9es\x8e\xb5\xa8\xba\xd0\x17C\x87j\x87\xb1\x022}\xf3\xf6\xf5#M\x8f@e\x9c0W\x95.V\x928^\x96Im\xa0\x8b\xa2\xc1n\x8a\xb3\x043\x81\xfa\xf9\xf7\x18D\x8a]|\xaa\x1bG\x8a\xb4\xc4\xd5\x1fI\x8bTv\xa7z\x93\xb9\xac\xbd\xd0\xbc\xca\xd9\x00/\x80\xcf\xda\xe4&lt;b\x9ad\x83\xad\xfe\xc3\r\xe0\xe8\xecPr\xa59_\x9a\xcc\xd8\xe2\xe3\xeb\xee\xcb\xd6\xe1Zz\xaa\xd6\xe0\xe6\xdd\xe5\xeb\x9a\xaf\xc8v\x91\xb6\xa4\xb7\xcb\x9e\xb2\xc8Nq\xa2\xe7\xed\xf0(Q\x91\xe1\xe9\xee~\x98\xba\xc8\xd4\xdf\xc1\xce\xdbLn\xa2\xaf\xc0\xd3\xb1\xc1\xd4b\x80\xad\xc3\xcf\xdc\xdb\xe4\xe9g\x85\xaf\xd9\xe2\xe8\xea\xf0\xf0\xbf\xcc\xda\xa0\xb3\xcc\xa3\xb6\xceRt\xa5\x83\x9b\xbb\x1eI\x8e!L\x8d\xd2\xdc\xe4\x97\xac\xc6_\x7f\xab\x81\x99\xbc\x8d\xa5\xc1|\x96\xb9\xaa\xbb\xce\x9d\xb1\xcc\x89\xa0\xc0Gj\xa1\xe6\xec\xee\x84\x9c\xbf\xf4\xf8\xf9\x87\xa0\xbd\xd5\xdd\xe5\xc5\xd2\xdd)Q\x8d\xea\xf0\xf2!-i7\'\\\x93\x19$?%V\x87\x1a+\xe3\x85}\xddJ&lt;\xde^Q\xbc\x13\r\xc6\x12\t\xae\x18\x16\xd9&gt;1Q#Lh\x1f&gt;z\x1d2\xd5\x18\n\xee\xc2\xbc\xec\xae\xa8\x9f\x17\x1e\xba\x9c\xa4\xe0md\xd70!\xd7&amp;\x18\xf8\xed\xea\xc7\xc6\xcd\xe7\x98\x91\xe4zp\x134u\xb0bf\x91O_\xef\xd3\xd0\xb0:;\xf4\xdf\xdbv^|cHh\x87|\x99\x826\xf2\xce\x00\x00\x00&lt;tRNS\x00\xf9\t\xfd\xda\x17y\x01\r\x06?\x1f\xbd\xee,\x94\xb5\xf39\\&lt;f\xa4+\xf9\x11\x8b\xc5\xccSa\xa9\xefpm1\x83\xe1\xe3O\xfc\x9c\xab\x9a\xe8\x1e\xb2%\xd2\x04\xccG\xf5\xd7H\xc0\xbc\x17\x89\xfc\x82\x13\xd8\xcf\x00\x00 \x00IDATx\xda\xdcW\xf9W\x13Y\x16\x96E\x11i[mQ@\x9b\xad[\x91\x16\xc1\x86q\x9f\xd4\xa9\xf7\xaa\xa8J%\x95\xed$\xa4\x12\xc2\x1a\x03G\x96h\x80\xb0\x05rPP\x10\t\x8b\n\xb2+\xa0\xd8\xb2(.\x88[Kk\xffgs_BPg\xceLCL\x9c9\xf3~\x80\xd4\xf2\xde\xfb\xdew\xbf{\xefW[\xb6\xfc\x9f\x8c\xa8\xa8\xffIXq\x89\x81\xcd;\x1bZX\xa9\xc9\x81\xcd;\x97\x19RXY)\t\x01\xc5&gt;-)\x94\xa8\xc2S&lt;\x01E1\xd6\x93\x1cJX\xb1RnV \xf32r\xd3B\x99+\xe7$\xe9DB $\xe7\xa6\xc7\x85\x10V\x8e\'\xd7\x13\x80J\x12=\xb9Rj\xe8P%\xc4K\xb9\xb9\xa77?/\x19`e\x85\x08STxxR.\x8c\xf4X\x18\x89II\xa9\xa9\xe1\x1b&gt;\rLK\xc9\x0e\xba\xd0\xcf\xe4\x9c&lt;\x99\xf6\xf7\xf8t\x89\xc0\xca\x95$\x8f\x07\xfe\xa6\x9c\xfa\xab\xd2\x9bs2\xe7tVVr\xf2\x192\xcf\x93\x14\x17\x97y6&lt;;;x\xda?\x95\x92\xee!P&lt;^X\xde\x7f\x9e\x93\x7f\xad\xe1\xb84\xc9\xfb\xae\xe4;\x8eG\x92\xa4\xf4\xf8\x13g\x12\x82\x86\xebl\xb2\xb4\x06imx6\xb4\xf8\xd9\xd3\xb9\xff&lt;\xd23\xc2\x83)\xac\xd4\xf8\xcf\x17\x97\xcemL)\xe1\x19\xd2\x97\xa8\xd2N\x05Y`q\'?\xedp"i\xe3\xc7\xf1|\xa2Y\x92\x92\x13\x82\x9e\x89\xe1\x19\xeb\x1bl\xa6\x06%\x9eXG\x95\x92\x18\x8a\n\x91\xb8N\xd7\xa6\x1a\\\xc6\xba\xacBS\xe8?\xe9$e\x13\xb2\x85\xc6\xe3g+4\xb0\xd2\xbcI\xee\xcd\xf8\xc4@8\x0eM\xff\x89\x83\xf5\xa5\xb4\xc4,R\x856\x11\xc5d2-&gt;\xde\x13X\xdb\xda\x801\x85\x85s2\xb7D%\x81\x86\xe37\x9cQ\t\'H\xe9\x8d\x8d\x85\xca\x9a\x1b\x1f\x1e\x02X@S\xb2w\xdd\xcc3\x92\xb4\xe1\n\x91\x94+\xa5\x9f\x83ig\xc1|H\xb1\xc1G\x95\x9d\x92\x9e\xba\xd6\xce\xb2S\xe37\xec\x07NKi&gt;0\xd9\x19\x92\xe7\\\x08\x8c\xe9\xe7\xad9.g\x83Q\xcc\x8c\xcf\xf0\xbf\x19\x95\x14\x1f\x02q\x9d\xfa\xe2\xdb%\xfc\x0bXQ\xd1\xdb\xc9\x88\xfeWs\x90\xf8y\xb3\x89M\x0b\xdf\xf2-F\xd4\xd6\x1d\xfb\x0e\x1c=\x18\xb93"O\x8d9.lg\xe4\xc1\xfd\x87\xf6\xfd\xb0\xfd\xdfr\x97\x19zH?\xfft\xf4p\x04\xc7\x08\xd4\x17C\xad\xa0\xd8\x88\xc8\xfd\xfb\x8e\xff7&gt;\xbf\xb7\xef\xdd\x7fLM\xfd\x87\x81\xb9\xc8]\x7f\x8b\xfe\xa6\x98\xa2\x8f\x1c\r\x13(\x86\xf5C\xe0\xb0\x02cN)\x08\x0cC\xb1\xebw\x05\xcc\xee\xfce\xc77\xe3,\xe6\xd01\xc1\xc8\x90\x8d\x95T\x9e\x82\xb2M\xb8j\x97\xabF\xee\x97\x95\x95\xcd\x8cT-\xd7\xba&amp;l\x1c\xf6\x07\x96\xcb\x8b\xdc\xb6\xfd[\x80\xfay\x7f\x18\xe3\xe7\xa3\xceR\xbb\xf0\xcc\xac\x97#ZF\xd32\x184\x0c\x15o~6\xd2jq\xaf\xbd\xa3\xb8\xbegWL\xc8A\xed\xc6k4pm\x0f^\x95\xe8\x91\x0f\x8e\x0f\x90\xff\xb7\xf7\xaa\xa4\xb3\xa7\x8d];@Xh\x81\xc5\xec\x8fP\xc0N\x8cB]\xda\xd3U\xad\xd2\xe9\x01\x01B:\xbdh\x1f\x1a\x98\x82 \xce\x0e\x0c\xd9Up\r\xec\xc9h=2\xcd\xf7\x94\xfbN\xc1\xee9\x10\xb2PFo\xdb#\xf8r\xac\xf9\xb5S\'\xa35\x1a\x1a\xf1\xbd\x9dw\xaf6\x96\xd6qF#\xa5\xc0\x02#\xa8K\x1b\xaf\xae\xbc\xea\x15\x11\x92\xd12$:_\xf73\x842\xa5\xf2\xd8\xde\xd0\x88\x7fG\xa4\xf7\xe0\x0c3=%\x92h\xd1\xe2\xe4\xe8\xed+E\x9f\xd7\x84\xf5_\xec\x95\xf3\xaf{yoL\xe5\xb3\xd3\xbe\xfb\xc2w\xc7C@\xd5.7\x07\x98\xd4\x94\xeb\x16\x0f\x1a\xd2\xe9&amp;[\x9a\xeb0\xc7b\xa3\xa5\xaf!\x1f\x1eQE\xa3\x0b\x17\xd6+\x06{\x1d+\x9a[zU\xb4F\xa6W\r\xb88\xc2\x18\xde\xf3S\xb0\t\xfb\xfeW"_\\\xd4\xd8E\x98\xa2M3\xae\xc2:\xa2\xb2\xbc\xbe!\x11\xf1\xef\xc6\x80\x90B\x93j\xc9\x0f\xcb\xf6\xb2\xa1\x90Ub\xf7\xdbN\x93\x1c\xa2)\xef\xb2(\xbchwo\r*\xaa\xbd{\xbc\xbb\x95W\x98\x08(kE\xbd\xafnQ\xf8\xb1\xc10\xd32\xc0\x9b\x9b0S@\xcb\xd7\xd9\x9a\xd6\xde,\xf0&gt;7vT\x94\x90\x145U\x95\x13F\xf1\xe1\x1f\x82\x19@\xce+\x8e\xe9I\r\x92\xe9\xed-5\x94?\xf3\xdd\xbd\xe2\x03\xcc\xba_\xad.a\xb6\x9c6\xe4\xfbE\xb6\x80*\x80?\xe1Z\xa3\x9a\xe5.\xac:E8\xcb\xe4\x18a\x97\r\xdb\x17\xb4\xf6\xb7\x9b\xa0\xe2\xca\xef\x18h\r-.v@S\xf1\xb3\xd2\xaf\x9a\x84\x8a!\xb0\x1c\x06\x95#s\xa1\xef.\x93_\x82n\x00\x88\x06m\t\x00U3K\x0bZZ&amp;\x17_\x97C\xbb\xe2\xd4\x07\x82#\xb0\xad\xbf\x12\x14L\xd3\x1f uy\xf7\r\x8e\xc2\x95\xebe\xfe\xaa8\xb0\x9e|\xf5\xc8\xbe\x96\x96l\x1f?T\x07\xb5\xe49\xbf\x08\xfd\x89\x82\xb7\x9b\xbb\xe54\xad\x1bl$\xcd]8\x1a\x8c\x06\x1e\x13I\x8a\x15{\xdb\xa9\x97\xd1\xe6\xbb6\xca\xd86Z\xdd\xe7\xc7\xe2\x12\xc7\xbdL\x12\xb6*Q\x89b\x8d\xad\x11\xf1w\xb8Y0\'\x8e\xc1UA\xfb\x98\x82*\xb8k\x06\xe9;/_\'\xcf\xbf\xfb\xfa\xd2z\xfc0\tY\xdd\xef\xa2\x06\xa1G\xcdF\xa6\xa0\xb5\x84\xbf\xd5\xec\x87U/\xf2K\x0c\x85\x95\x8b\xcb5\xd8\x82\xc6}NGm\xb3\x8a\x16\x805\xa6\x9b\xb3\xc1\x81\xae\xe9t\xed\x13\xea&lt;\xcb \xe0\x12WI\x9c\xf1\xc1\xaf\xc5\x15s\xd8\x08\xcb\xd8FT4-:J\x19\xa6\xa1\x9b/\xa9u\xb3x-\x8c\xec\xa0|E\x10\xd8F\x83\xf9\x02\xbe\x81\x860\xc5\x00m\xeaf\xd4K8\\\xa4\xef\xa8)\xe6\xa9\x95\xff\x83\xb7\xaf\xb8\xd5\xc5\x8br\xe8\n\x0e\x92\x16\x8a\xef\xbe.\x8e[#!\xa1\x8c\xf9\xedp\xd0\xeaK,\xa5xn\xa8\x1e\xad\xa1\x94\xa5\xb7\xd7D\x8f_\x18\x9c\xbf=m\xe8V\xbd\xc2\x8a\x8b\xb4}\xbe\xec\xbec\xe1c\xdd\x03z\x1e\x9e\x17;\xf9\x8b\xc0Y\'\xfaPx\xb5\x97\xef\xcag\x14\x97\xccz\x19*+&amp;\x13w\x7f\r\xae\xed?\x12]\x15w!\x19\xb2\x8e\xc1N\xea\xbb\xdaw\xa5\xb8\xf0\xf2MS\xb3\xdfH\xacjy\x95V\xdb\xdd\xc6(\xdf\x8e[\xdf\x1b\xb4Z\xad\x05\xf7\x8bN\x8b@\xb5\xeaz\xdd\x14v\xf1\xa8\x01S\xe5\xb3b+\x879\x97\x15p\xcd\x13\\\xec/\x81\xe7c\xd4Q\x81d{\x17\x88}\xbc\x19\x83\x9e\x15\xb6G\xaa\x8a\xa6y\xd1z\xad`\r\x16\xc3\xf5W\xb5\x8f^\xb61\x94\xd2\xa8\xce\xcb\xab+\xaeY\x02=9\xf8\xf7\xed\x0e\xb38\xccR\xf9\x83r4y^\xc9U\x89-\x10W\xc1\xf2\x8e\xd6\xa0y\x12G\xe5\xb6\x80a\x1d"\n\xb1\xdd\x07Ou\xb3R\x98h#(\xa6\x91\xc9\xccwv\xb0\x9f5h\x16\xea\xd6\x976\x9eu_z\x88h\xf9L\x81\x82\xba\x86\xfe|\xe2\x14\xef\xdd1\xf1\x17\x89\x1c\x85\x89I\xb0\x1d\xed\x80\\`\x8f\x04\x88\xeaH\x04Q\xcf\x1d\xf0\'7\'\xb8\xb6\x87\x8fJ\xc9\xe5\x0c2\xb8`\x03\xae\xa1J\xb9\x16F&amp;\xaf\xc3\xd5\xfar\xb1}~j\xbe}\xe1M\xed\xc5\x9a&lt;\x16S\x8a\xa6\xb1F\x86\xc1O\xad\xaa\x1e\xeai\xbb\xc19\xf0\x82\x1cQid?N\xd22~\x94t\xfd\x9d\x81\x19\x8a\x98\x9d@\x820\x0cj\x9fk\xc4\xc5\x1f\xf8U/\'\xf5v\xfe\x81Zq\xc5\xc1\x9b\x1b\xa1\xbcSE\x1d\xbf\xbd\x1a\x17\x91\xcf\x9bB\x13@\x08\xa9\x86\x16.\xd7\xa8\x8b\xe0\x13\x04\x0eA\x0fb\xcc\xaa;\xedM\x84De\xf9h\x1b\xd74\x87h\xd50\x10\xcc\xfe\x18\x88\xec\xa3\x0f\xb2J\n\xbf5\xd1\x1a{\x03%\x8ch;\x95^X\xc6e\xed\xbb\x9aa+?\xdb\xc8\xb2\xf8B\xeb-^\\w\xca2\x8d\x86\xfc\x91\xd1H[]\xf6"\x9f\xa5\x18\xf7\xaaI,\xabW_\x7f\xc3/\x832\x95W\xba\xc5{\xc5y7\x9cH_\xed\x82k\xee@\x00\xb0\xb6Am\xc4\x1d\xe3\x08U\x9fW\xe0kr\xe4\xb0\x19\xbdA+~\x88\xac\xdaw\x0f\xc0_U\xde\xb1\x13+O\xbe*\xcc\x0fg\xef;\x16\x1d\xed\x1fzM\xbc\xd7\xd1\xd3\xf4\x9fo\xae\xc0\xb9&gt;\x96i\xedU+NU\x0fK]\xaf\x1cBfm\x99\x8d;\x0f\xaf\xcc=\x85\xe5#vl\xde`\x85A[-\x9c\xa2\x91\xee\r\xe6\x1e\x1b\xc6M\xf2\x0fmE$\xfd\x8cc\xa2\xa9\xaa\x94\xc1\x13\x0e\x03"N^;Xu\xb9\xb2\x00\xb3@\x1e\xa8\x1f\xe7[z\x16z\x91\x1c\xd0\xea\xdfW\xd4P\x98\xed{$\xf2\xaa{\xf9\x02\xee\x9fC\x0f?vjG\xea\xf0\x13\xb9F&gt;\x0b\xc6\x87\x89\xdcl\xb5\x8f:Ht\xbd\xa2\x92\xa1.7c\xb1Z-\xae\x12\xf9P\x13)\xee\x18\xb7X\x04\xa6|\xd5\xac\xd7\xd0r\xbe\xfbR=\x07\xd2\x16\x18\xf0,\xd0\xa5\x18\xacd\xb9"\xb6\xe9\t\x98C\x8dL,\xb9\xe4f\x99\x82\x9e\xe7\xad\xf9X\x98v\xaa\x0c\x95\\\xfe\xbc\xb6\x82u\x97\xd12\xfd2\'\xe0M\x87q/\x86Dk2\xd3\xb2\xf16\x8a[\x1ax\x8c\xa9\xcaA\x95u\xcc\xdb\x8b1V\xb8\x86\x10\xf1\xa8\x8e~\xa0\x88\xc2\xa5\r\xad\x153S\xdd\xcf\xba?\xccT\xb5^$\x1f;\n\xf7t\x19O\x8c\xfc\xad&amp;\xc1\xeb\xf1\xd9\x1e3\xdf\xab\x9d*f\xcb\xbb\r\xc3l\xdbM\x99\xccd\x813\x86}\xbf\xb9\xf2~\x0c\x14Zx\x0f\xd1\xda&gt;\x10:c\x03/\xae\xb8\xd0%V\x0f{\xe5U\xf0\x92\x87\xba_=\xf2\x11\xbe7\xb8\xca\x95{\x06Dk|\x9a\x87\xa8\xeaL\xb7\x96\x1bY%[\xd4\x0f\xfe\x9aF\xf6Zo\xfb\xbck\xe0\x1d\xff\xa0\xd4\xcaz\xdb\xb8\xae0\xfa\x92\xc2@\x808(\xda\x87"O\xa9\xf3\x16\xa0\x05\xf2:\xd7\xf7\xce\x0cf\x86\xc3\x99\xe1P$\x05R$%\x8a\x14e\x8a\xa2%R\x0b\xb5Xr$Q\x1b%h\xa3%j\xa3DY\x1b\xb5X\xb2\x16\xafZ\xec\xd8H\xfa\xd0&amp;\x01\x9a8F\x13\xa3ub\xa0\xfd\x1f=\x97\xa2e\xbbf@y\x9eHq\x96\xef\x9e{\xce\xf7}\xe7\x8c*\xee\x89K\x15l\xe7\xb8\x8fegD\xb3\x94p\t\x88;\xff\xdbw%RC\x9d\xcaH7\x04p\xa29\xbf\xe2J\x86\xacIpr\x91\x15 \r5\xd1\xd2o\xe3K2\xa3"\xb4^o\x1e\xd8\xac\xee\xb6\x95\x1b9vxB\xc2&amp;e\xaa\x8cC\x9d\x87\xfa\x92\xd1P\xd1\xa5O\xcb,u\xd3\xc6i\tKm\xf0\x10\xe1\xb3wQhj\xdd\x03\xeb\x98\xcc\x06x\xe1\xd1\xb5\xa6\\\x0f\xaa\xb59\x069\x14\\\x05\x1c\x8e\x9ev$\x97\xf5\xcc\x9a1\x93\xef\xc0\xe4\xf1&lt;x\xd1\xf2\xa4\x08 W@\xdc[\xbc\xde\x01\x84\xca\xd3\xe2\xc1\xc9t"p\xc80\x9e\x08\xa8\xecG\xef\x10\xae?B\xf5\x1a\xaa\xa0\xed\xca \xadN\'R\xb5;k\xe6\x91\xf1Q\xbf\xc19K0Ym\x01#\xda\x1e\x8d:\x9d\x03\xdd=\xe1!Ez\x0b\x1d\xc6\x87\x83\x90\x85[\x1e3&amp;\x0fcHnu\xac\x07\x05\x14\xe9\x10^Z\x0f\x891W\x81)|\x07\r\xca\x06\xeb\xa6\x03\xe3\x84\x9bkrX\x87t\xa9;w79Z=U\xdd\x13\xde\x08\xc8P\x11\xd0\xfd@\xab\xc1\x1bX\xad\xb1\xce\x7f\xd9\xf2\xff\xc8\xb0\xba\xd1(h\xa95\xb3E]\xebD\xec\xb2u"\xc6\t\xa7v\xdb\x9d\xc0\xf8r#|8{\xb8.P\x1e\xd8#\x8cR#p\x0bz\xb7\xadV=\x92Ag4\xce\xc0\xfbj4\x96o\xdd1\xbe\xd2e\x0e\x9a\xf9z\x03_\xbe\x95\x9cS\xc9\x9byf\xf6\xf8\x90\x1c\xb9[\xb5\xec\xec\xaed\xd9;\xfan@&gt;\xbdL\xa8\x11\x19\x92\xa4\x94rVN=\xf7)\xc0\xeat0L_?\x9a\xd1\xfd\x1a\x7f\xa0&lt;\xa8Z\x88O$\\\xc6\xc8\xea\xbe\x8c\xd8\xa6\x92\xd3\xbb\xcb\x86@s\xaa\xe2$_\xd8\x1d\xdfQ\xafG\xc5\xa7\xf9\xa5\x8f\xf5\xeeh\x91\xeb\xdb]\x1dw\xfb*\x90\xad:\xde\xc9\xbe\xb6\x1c?&amp;\x8e\x18\xfc\xe1\xfcY9\x8b\x8a\xdf\x03\t\x82\xc5\xbbw\x1dMl\xf1"Q\x14\xc9\xac\xfb\xf8\xf6&gt;r\x07 \xc7\xae\xe7\xee\\_\xecK\x8bD\xf4N7\xd2\xe7\x81\xfc:\xc1\xaa\xf6l\xfa\xd3\x89\x95\xc5\xea\xda\xd6\x983\xb3\t\xbc\x8a\xc5\x96!\xa5J\x93\xdb+_C\x85\xb8\x01\x91\x91\xaeP\t:\xe3\x90\xe9}\xc8\xed\x12(\xc34\xcf-\xeb\x1e_\xfd\x88\xee\xbd{\xbfv\xff@\xe0\x8e\x08\x93\x84,s\xed\x9d\x18,\xael)\x9b\xeb\x984\xec\xdb\xe8\xbe\x1a:\x14\xeb\xc3\xcd\x9e\xe5\xad\xe1kuG\xe1\xf8\xb1j1\xd3\xb8\x1d7Z\xb1\xda\xfd\xda\xa4\xd5H\x85\xda\xb6B\xb0\xa7\xcc\x88\x8c\x17\xcefh\xe0\x99\xf220\xa1O`\xaf\x8d\x11\xe9\x8b\xb8\xa3\xf9\x84\xdc\x07\xec\x0c\xf6\xc3\x8a\xb5Qw\x16W\xc9\x82\x94\x1b\xb5\x99\xac\xcbB\x16\x16\xce\xcd\xdf^\x9f\xc11\xa3\x8d\r\x16\xbc\xde)\xbc\x82U\x99YiA[P\xd2\x83\xa0\xff\x9f\x9c)\xe9\xdf\xa3r\xb1\xc2X\x0e]Pf\xe5G\r"\x99\x08\xd2\xe4\x91K\xc6\t\xb6w\x01\xa0\xfe\x85\x11\n\x8b\xad\n9\xd2\xfe9U\x02\xc1V\x1a\x9ai\xb8\xae\x99\xf2\x91\xd8=\x94\x81\xcei1\xe7ay\xb6f\xaa\x01K{\x82k\x0e\xe34\xac\x92;S\xd2\x7f\xc4"c\xa3\xce\xa8\x0f\xb2\x99\xc0\xdf\x9c\x0eI\xf6\xeaH1\x12\xe6-\x84&lt;\xb8m\x83\xa0\xdc\xb8E\x7f\x0b\xda;v\xd8\xe5\xba\xe6\xbdD"\xed\x1f\xf2\x17\xd3&amp;7\x1f,\xa9\xb6]\xee\x92\xb08\x0c\xe1\xe2\xf9\xd8\x9d\tI\x11\xc7\xc7&lt;%\xc6m\xc2\xe8)\x80\xf5\xc1Y\xfaU\xb8\xb8x\x12t\'\x98\x8b\xb8\xcd\xe9\x17EO\x94\xebl\xc0d\xbc\xe2\x0eXg\xf6~\x9a:\x9c=ir\xa4C\xd7\xdb\xaaEUI\x8bJ\x13&lt;\xd4\x97\x0f\x96y\xa6\x9c\x8dy\xb14\xee\x02W\xd4\x15\x121\xf1F\xb5Iq\xdf\x96\xb22d\x1e\xae:\xcb.~\\J\x93\xc7\x84\xe3\xaf\xfa\x06\xaeuw=\xc0\xeeI\x0c4~\xfb\xf0\xf4\xe26\x070\x90\xfb1\xae\xee\xb8\xc2\x90\xcd\xff&gt;y\xf2\xe4\xa9\x8a\xb7\x7f\r\x96\xde&lt;e\x13&amp;\x89I\xcd \xe1\x06V\xd2\x99^k\x0b\xea\x0c\xad\xf0|\x82\xc1qM\xe6\xf8?\x15\x86u\x9e2\x80\xceX\xe6\x81\xa0\xca\xb7j\x07\x9b\x90&amp;p\xedM\xa5\x9d\xc0\xfa]\xfd\xc8\x07\xe4`\x1c\xd6\x87\x8bQJ\xc4K\xcb[v}\xeb\x1fEEE/\xccx\x03`u\xe7\x93H\xfd\xa6u\x98/\x99`\xf0j\xbb\\#\xf6\n|TI\xca\xfcF(\xc2\xf70&amp;i\xc7h&lt;Csv\xeeCH\xdde3\xa3:9\xc1\xb7\xae*\xaa\xf8\xb0\x9bN!\x84\xfb\xd8$\xb6\x94\xba\xe3u\x90zM\xe2m\x1e\xb5J$~02s\xe7\xfa\xcf?~w\xe9\x85\x84\x87\xd8_\x81\xe5\t\x8ak.v\x90`\xb3Os\xafz+Q\xfd\xd0\xe5T`\\w\x167\x83,d\xe0\xe6\xef\x17\x1e\xbc\xd3\xbd\x9b"\xf8\xd0\xc6\xd5\x84\xa4\xf8\xe2h\x08+\xdb\xacQ({\x8cM},\xe7#\xf7\xe1\xf7\x88\x9e`\x91\xcfdZ\x0fn\x80\x90\x8b\xfa\xd5\x9f\x9eyM\x1e\x01\xc2\x98\x0f\xd6j\x8d"fX\xd7\x18\x83WX\xaeG\xcc 6\x8c\xed\xc7\xe2\\\x89\xa0\xcdaS\x18\xaa\xfc\xc3\x82=\xd0\xc7\x10,\xdb\x90\tO\xb1\xfc\xa85\xa3q(\x96\xbcj\x1d\xe0\x01\x0fCfx9\x8eo\xd0\x01N\x83\xa3\x04]\'\xc4\xde\xf9\xc5/\xdf\x7f\xff\xcbOWEGB\x99\x03k6|5\xcf\xb1\xd2m\xc5knn\x1e3\xd6\x94\x169^\x0bD\xc6\xc7\xa6&lt;\xa3-\x1c\x126\xcd\xcc\x18\xd0\xacP0\xb9\xfe\x00\xc1\x88I\x0c\xae3\xa4\xf4&gt;JE\x1c_%&amp;yy\x89\xc1s\xed\\T\xc7\x0b\x90{\xc5\xe3j\x14\x05AvR\xcf/Bb]\xfa\xee\x9f\xdf&gt;\xd5W\xe0\xe4\xbf^\xcas\xfc\xb0\xac\xc0\x92\xe4\x18h\xf3-\x830\xad8Bj/k\x13hc0h6\xe9;,b\x0bN.\xffB\x87yf\x868aC\x8eN\x8a\xb1I\xec\xe3\xca\x8f\x19r\x9b\x95\xa70\x9e\x00\x021\xfa-\x93\xac\xcb\x83\xc9\xc1\xcf\x14\xd6E8\x9e+W(\xac\x8bo\x1dE\x97\xbe\xaa\x03\xc2]\xea\xe77\x18\xbc\xcb\xa2H\x02\xecZc\xae\xc6\x9b\xf5\xac*\xd9\n1\xd7\xb9\xdf\x00,\x08\xb7\xbd\x02u\xe3\xa9\x1c,\xa5\xd78#bq\x00\x9550\xcce\xfa\x8e)I\xc2\x1a;mf\x06\xff\xf3\xf4Y\xe2\xd9\xd3\xe7\xdf|\xfd\xe2\xea\x08\x85U\xf46\xae\x8b_\xb5A\xc6\xd9\x03\xb66\x15\xeb1pZ\xce\x96\x8a\xd3A\xf9e\x06\x1f\xb1\x85s\xfe\xcf\xd4\n\x85aY\x02\x8a\x85\xec\xad\x06\xa3\x11iW\xf46c\x15\xc1\xebn\x04ad\x94N\xe0\xd3y\xb2f\x93\x9dV\xe6V5\xb8b\x90\x1e\xeb\xc3g+\xda\xaf\xc3\xa2\xef\x86:JA:\xa4}\x80\xe2\x96O\xcd \x1b\xc7\xb8\x17\x88\xf2\xd3\x02\xb0&gt;\x03mg\x81L\xc3P\xedU\xa2\xfd\xeepc\xf0\x8a\xdd\x13(\x06/\xb9\x88P5\xb8&lt;K\x0b\x9c\xb1L\xace\x88\x9f&amp;\xc9\x9e\\\xe9\x99B\xd9\x89W\x9eM\x04X\x19\x15\xce\x98\xe2\xe5!\x86\xec!\xe4\x1c\xab\x1a\x919\xee\x04\x1a\x8d\x00\xac\xa7\xb4@\x1f\xfb{JQ^\x86\x80 \xf2\x15w\xa1+\'\x12qt\xb3.\xe0\xd2\x1e\xc1\xb0K\xdf\x88uC\x19\xd4\x10\xa5\x05\x19\xcbF\xfbjs\xa8\xc4\xda\xec\x949/\xac\x1f\xf6)\xac!\xae?\x0c6\\0\xa6\xa0T\xd6\xb6\x83\x06\xba\x0ca\x1bc/U\xd9\x02\xfd\xe2\x05\xfa\xae\xc2\xca\x98\xeb\xe8E\xda\xf5^\x8fbMG\x05\x14\x84\xd4l\xe5\xca\xec\x14V-\xa4|\xca,]\x03\xd7\x14Y\xd0\xb3~Ku\xd4\xda\xb2y\xf8e\xbeM\xfcfX\x81\x93B\x9f\xf7\xf7`|\\\x8f\xdc\xadI/\xf8\xca\xf8d\xcc \xa0A\t[\xa9\xca\x160\x11\x1f\xc0\xddS!\x13\xd9\xcay\x10[e\xd6 CR\xe9;\xc8IM\x9d\xe56|/\x97\xc8\x11\x1d\x05\xb6\xd7\xad\x11\x8b\xc5\xbe\xe4,=\xa9\x8e\xbc\xb0\xfe\x1e\xa5\xb0,5\xc20p\xdfM\xa0fn\x11O\xcd\x12%\xb4p\xc0\xcf\xa8\x8c\n&amp;\xa2\xf4w\x85ikDgH\xf4\xcd\xf9\x1e\xd4\x92\xc3\xc5\xf9hh\xa4^\xb0^\x9a\x97\x84OT\\k\xac\x19)\x7f\xd99p_\xe6\xdb\xc4\xaf\x1f\xd1M\xc4\x19\xd9\t\xa99\x02\xe7ra\xbc\xe3\x8e\xeeYI\x12\x8d\x98\x19\x134\x90\x86\x02\xc4u\x1en~\x00&amp;\xbb\x89\x96\t\x8f^\x1a\xdd#\xcc\x8c\xb1l-\xf5\x07RZ\xa0\x15\xa4\xa6s\x0e\xa3\x9e\xe3\xb5zWe\xa0\xd2Uo(\xcd\x1b\xad\xa2\x7f\xeb\x14\xd6-\xees\xe8\xc6\xe96h\xf7pp\xe7\xe8\x90\xe8\xd3(\xa82\x96V\xd8\x96\xf7\n\xfax\x04\xb1\xc6\x8dH.\x9f\x0coFs\xff&gt;\x00%\xb8\x8b\xd8m\n\x8b\xcc\x96B\x11-\x9ag\x05\xa3\x91e\xdd\xcd\xfbU\xfe\xb5\x06E\x02k\xd7\xb0\xe6\x7f\xfa\xaf\xbf}\xfb\xe3%\xca\xb0\xff\xa3\xdc\xca\x9a\xda\xb8\xb2pRq\xb923\xe5\xcc\xc3T\xf2\x90\xe4)5SS\x99\x97\xf9\x03}\xb9\xb7\xbb\xab\xbb%ukA\x12%$@ \x84@\x0b\x08\xb4\x80\xb0d#v\x0ce\xb3\x831\x06\xb3\x19\x1b\xccb\xf0\xc2f\xbc\x04\xe3}_*\xceT&amp;5U\x99?2\xe7\xb6d\xc6\xc4I$\xdf*(\xa0J\xb7\xbf&gt;\xf7\xdc\xf3\x9d\xef\x9cC\xfa\x8b\xc2\xcc\xdd\x99\xa3\xb0\xfcV\xa7\xc4\x18 B\xe8\x05/\xee\x0b\x88\x96\x95.;\xba\xa80&amp;\xb8C\xda\xcc\xb0t-\x10\x8b\x9aQ\xc9\r\x05\x93\xc0\x89\xd4=^73}Z\xde\xabfS\x92\x93\xa38-\x05\\I\xe9\xc99Q1\xbfK\xcbD\x92\xc4\xa3?\xbf|\xf5\xe3\xbd\xef\x1f\xdc\x7f\xf2\xe6\x87\x17/\xca\xcb_\xdc\xb9\xa9\xa6\xce\xfa\x02Jj\x88u\x9e\x1b\xc4\xd88]\xc5\xc1\xb5Z62\xa6\xfe\xac`\xe5\x95\x8a\x8c\xa9\x11\x85\xe4\xb9+e\xd2@JC\x8d\x10\xe6L^\x1a\x16\x89\x82{\x0c\x13\x12\xad\xde~WG\xecW\xfa\xe9ED\xca\xd5\xad#\xb4\x0byA_ha\x0c\t\xce:KL.\xff\xe9\x94\xe0h\x94\x19\x9c\x04o\xcb\xe2\x10\x17\xe1\xc2D\xd15\x192\xa1\x01[J\xa9\xae\x1a\x98\x1e\x1d\xbf\x91\xca=k\x81\xc1\xfbM\xa4~\x940\x19\x97\x81\x96y\x17\x86)\xac!\x1e\xace\x08!\xe1\xf8\xf1a\xcf\xdb\x86\xe42\xf0w)\xc4\xaf\x83\x99]~R4`\x1f\xba\xaa\x9c\xe2\x85\x05%\x8ah\x1d\xe9\x8a\x999\xaf\xe1[U\x1c8\t\x16\xec4\x91S\xc7\x98,\xd7\x8dM\n+\xcez\xe0\xf3\xfd\x88\xddt\xeb\xb5o\xc5\xd9i\x80u\n\xae\xd0\xc1\xcc\x01\xa2\x13\x02D7J\x88I\x8e\xf5*\xf5a\xe7\xb2\x13\x01\xc7\x14\x0bl\x97\xeaF\x86V\xd8\xb3Y\xc63\xf3\xd9\xc2\xb25\xd3\xf6kP\x13\x05X\x87\x91PZ\xd5\x1c\xb6\xa6\x05\xb6CV\x83\x91\xe6\x9b\x0c\xe1\x14\x98\xc0gd\xf0$JJe\x0b\xd3\x83\xc4\xb5-)\x8bh\x860\xb2\x87\xdfLI\xd5U\xe0\x99\x02\x1b\t\xb6e\x0bK\xee&gt;o`p\x8b\xb6\x13`\xc5ta\x97$U\xf6\x9c\xbc\xda\x12\xb3[\xd1\xa6\xcc\x98 \x18\xb1\x19\xc2\xe9_\xe1-\x1a\x8c\x06\xd3\x0c\x1c\xa5,)f\x89(\xb2-\xc9\xd6\xca\xd8X\xc7.K*,\xaa`\xad[\xe4\xf2z\xb6\xb0L\xc1\x05p\xd7:\xdd%\x82%\x0f[2=k\x93L\xa2$+\xb6U6\t\xfa\xb1\x01`e(\n~\x0e\x01\xb4\xb0\x921\x8d#\xdfH\xfcj\xa8\xffp\xb7\xaf\xc6-\xa0\x06\x11K\xfd\x1a\xb6X}\xca\n\x1dz8K\xe2~\x9c%,\xbc\x16\xc2f\xc8\xd3\xe2\x18\xf7\xf2\xac\xc0\x16\xd9cm\xf2\xfc\xb1\x88\xb2\xc1\xb5\x9a\xf16\xed|f\xa0\xea\xbf\x836\x16\xce\x1b\xcc\xeb\xc2^\xc5\x80v\t\xb4\xa3\x18{9\xb6I\xf5\xf9bZ9\xae&amp;\xde\rZm\x06\xb2\x93\x14\x02\xc4(\xcb\x10\xb3\xb0\xfa\x97\xf7\xd6V\x9d\x8c\'x4\xcf\x98\x9b\xd2&gt;\xd5&amp;6\x0b\x85\x17\x1bu\xeb\x90\xee\x82\xdf\xf0\x19\x12\x9b\xcf\xe0\x80\xd8&amp;F:\xabKs\x8b\xbbk\xe8Z3\xcbOCN\xa2AA\x15\x96\xc5\x03\x81&amp;\x8e\x87\x96D\xf1_/_\xd1\xb8y\xff\xc9\x93\'\xf7\xef?\xf8\xfe\xdf?\xbez\xf9\xf3QQRL\xd2\xdb\xe2\xb3\xba\x14\x9f\x0b/q\xf6\x08#-\xa5\x8bn+.\xc8\xe0!y:\xcb\xe02\x887\x872\xe8\xea?|\x02\xd7"\x8e\xcdj7\x9c\xd3qG\xca\x8cD\x9e\xf3Y\x87\t\xb6U\x80\xaa\xa0\x0f\x11c\x1cb\x13\xd2\xc8\x7f\x1f\xbc)\x87T=M\x83*\xd9\xc0/\xb9\xe5?\xdc\x7fp\xefG\xd0C"\xa1\xd9\x1a1\x81\x18\x9ci\x92\xea\xb9*\x90\xf9\x9b\x10A\x0by\xde]\xd9\xa3\x9e\x06W\xcc`/\x18\xe0\xabL\x12\xe3\x00-\xb7\xd2x\xcas\x1d\x9dW\x85Iq{cZ\x9e\x10\x1c\nC\x92\xc8\xba\xa2\xba\xca$8\xe0\t\xf9\xc2\xb3_\xe3\xe5w\xa4\xc5\x8b7\xd4\x80\xf7\xe8\xfaOp\x902!\x8e\xd8\x11;\xe8\xea;y\x1d79\xad\x82\x1aMqW\x07\xca\xfb6\x13\xac\x7f\xc0A\xc7\x00V\xbf\x16E+#\x9e\xa04\xcd\xa3\t\xb1\xae\xf08\x83\xa7\x85\xa2`*E\x81\xf7s\x88\xeb\xcfr2,J\xd4`&gt;\xf8\xf6\xb0~\t\xe5A\xce&lt;% g\xbe\xa2\x98\xcdX\xb2\xccN\x9f\xe3[\x08\xdcp\x1e\xf1\xdfd\xacn\xd1\xf6\x85\xcb\xc0\xf85\xec5i\xa2"\x08\xe9\x956D\x12p\xb0\xc4\xd6 \xd4TR\xa7\xbe\x06B\xb8A\x1c\xfa}k\xed[\xe5;\x8d\xba*H%\x93\x90+\xd9\x1d\xc9\xa5\xb6\x95J\x91HCz/1\xb8@Iud\x9c\xbc\xf9#m\xe2\xc0\x8d\xbbQ\xc4\xaf\xcaU\x90\xd4\x96!!\x08@\xea\xc0\xdcW9\x9e\x8a\x0c|\x01`\x85\xb7\xfd\xcf\xb3\x87\x95\xfb\x94\xd5\xad\x11\xc6\xe5D\xee0\xbd\xd9l\xb80z8X\xc5\x1e#\x86vx\xe0\xc7\x19\xc5\xfe\xa7 \x14\xd1\xb0\x99\xb14s\t\xb9+\x9c\x94\xe7\x05G\xaf\xd2\xaf\xe5\xcf`&lt;f\xd7/\xe7\x03\x01\xd1\x9d\xd8\x81\xf8\xf3\x9c\xeca=\xd7DA\x08\xacjPr,\xee\x10hg\x1eD5\xd7(\x81r\xc9\xc6\xe3S9D\x1d\xc8\xea\x90\xb690P\xe3\x95\xd7\xd8q\xb9\xa7\x00\xa1R\x89\x91Bz]\x1c\xccu\x1e\xd8\xa7\xa8}\xfcn\xf6\xd6\xcay\\4D\x0cF\x1f\xcf\xb7\x19\x15\xcb\xc0\xb5\x98\x96\xa6\x10|\x17\xa4&gt;\x0e\x08\x13Y\x14u\x0f\x82)\x841\x0c\xe1D\xe3\x17\x03FK\x0b\xaa\x19\xa9\x80=\nf1&gt;\xeeD%\xbd\x0c\x13\t\xc3\x96\xeb\xc1\xdd\xecQ\xe5\x94\xff\x04\xfay\xaaC\xcb\xda\x17\xd7"D2\xde\x18\xf7\t4@2[T\x98f1\xd4\xf5\x19\xdc[\xabWa\xf2+\x90\xdb\xff\xddXP\r\xab\xee\xd6e\xf6\x12\xb0\xea\x12\xcf-Z\xb0L{H\x97g^\x7f\x00\xac\xdc\xdb+\xd8R\x87\x84d\x12\xe9&lt;\xc9&amp;\x1b\x9dG\xe0+\x8eB*\rW\xecP6\xbd\xf4\x03&lt;\xe2:\xe9)\xb2\x02o\x15R\xea7i\\\xd3\x17\x820\xcf\xf7!\xfd\x90\xc9\xd8\rt\xd4u\xe2\xf1\xbeX\xa0\xae\x9c\xdc\xdf8\xd8\xdcg\x17L\x0b,\xf2\xf4\xbabH`\xb9\x9a\xd0|\xfe\x92&amp;D\x18\x13\x95X_d\xd5\x1e\xa3sj\x83\x8c\xb9\xc7\xfa\xb6b\xcd\xa1\xf0MK\x95\xa6\xd6\x82\xc9\x197\xeb\xec\xb1\x80|\xd1n\xd6?R\x9fGc\xfb\xa3\xc7\xbbwa\xed&gt;~\x98\x92\x179\xef\x81\xcb\xbd\x9b(n\x84OMI\x03%\xea\xf8bGC\x83\xbe\x0f3c\xc0\xd3lVM2z\x8a\x9aq\x8c\xc5\xeetb{\xa9\x94E\x0e\xdb\r;\xbb\x0e\x92\xe8\xba\xc0_\xecM\xc0^\xbe\xe6rU\x04\xee&gt;\xbd]Q\x9b\x0c^\xde\xd8\xb8\x1cLV\xdd\xda\xb9\xf3l\xf7\xe1\xfb6\xcb}\\\x15\x82\xfb\xa7\xf5\x0cH\xd5{\xa3rF,/\x01a\x1c\xcan\x1e\xe2k:\xb2`#\xa4\x1a`u\xf0h92Z\xa1C~\xa9\x95\xf7\x0cJ\x86\xc0\xa2\x96w\xd0R\x96s\x07\x82\xf7\xf3\xdb\xb1\xe0\xf4wRj\xa4\xd9@\xe73\xf2{FB\x8e\x9d\xa7w\x1f\x96\x97\xef\xc3Vn\x0f\xeb\xe8$_\xaflL\xa8\x8e\xc1\t\x0b2\xce_\x86\x1f\xff\x9c\x15\xaa\x8f&gt;\xe78\x1d_\r::\xca\x1dIT\x0by\xe3\xa2_\xaf)\xe9u-s\x9d6,\xb9\x1c\x1a\xab\x17\xd2\x9d\xf0\xed\xd7wn]\x9fU\x88\xe1\xbd\x9e0q\x95\xb5\xd6\x03\xb4Gi\x02R\xcd\xb5\xa3\x16\x8e\xbc\xe2\xd4\xd1\xcazJ\xd3|\xb3\r\xe36\x9a\xbae\xd9F\xff\xf4\x10|\xbe[\xc4x(O7\xa1\x9cB\xce\xd9|\x87p\xbaO^\xd3k\x12\xa2\x81\xf4\x9e\xd6\\\xa1\x83\xe7\x9f\x9ch\xb7\x90_Wd \xc5\xa4\xe2\xa9\xc4\xad\x9dg\xbb\x8f\xf6\xae"\xf5\xd4\xba\xc0\x80\xbb\xd58\xd6Ha\xf9!1\xa5\x83\x8d_}\x94\xe5\xfa\x92v\x95\xda\t\x98\x8b\x8d\xd9f\xdd\xd6S\x81\xb3\x97+\xc5\xca\xeb\x85\x02\xb7J\x18C\xaf\xcf\xab\xe7\xa8v\xcc\x90\x9db\xbc5\xccZw\x9e&gt;\x7fMo\xc2S\xfdF\xd9\x95\x1e\xd2\xc2\xb2\xd5\xe2D\x01b\xa3\xdbX\x9a\xa7}\xad\xac\xbb\xc2\x7f\xfa\x18b\\\'h\x92jV\xef\x15\xc7\xad\xd63D1\x96\x9d\xd6\x00_\x1c\x9921\xcch\xbb\x1b^}5S\xcel\x16\xfdN\xa1\xa3\xbf}\xa3\xdf\xf1\xd3\xce\xed\x9d\xfa\x80\xd9L\xcc\xb6\x81\x93\xe3\x11\xa3\x17\x15\x9d\xc4X\xa9\x85\xb7;\x90}\x0f\xfd\x0bx*\xdf\x84\x190\xb2g+2\xd9\xa4\x90\xb1\x16k\xaa\xc5\xea\x06\x1a\x97\x8cQ\xd8\xafu\xec\xf7\xe5\xabt\xfe\xb0\x8e+\x1c\x17\xb1\x1c\x88\xd3A\xe3\x8a\xaa\xc4\xea\xfc\x1c\x81\x10O\xa4\x11\xae^L5\x01\xf9\x0f\x18\x8f\xfd\'\xf0\xb5&gt;\x16\xc0\xa6\xbe#\xda$\xec\x92\x1f/\xd9\xab)\x15\xac\x89\xd8T\x0b\xb8\xfb\xbb\x83s\xbfy\x8e\x18\x17\xb7\xda\x91\xbe\xa1\t\xbc/\xb0\xb4\xd7\xa2\x16\xac5U!\x7f\xd9\xb1\x86\xc23\x98\tP%\xf6\xb7\x0f\x99\x96\xfaV\x8b\xb8&lt;?$\xbdA\r7A\xda}:\xee\xff}\xa9\xb0W\x14\xe9\xc8b\xed\tT\x02\x16\xdb_\x1aI\x1f\x9fit\xbc"/O(\x1d\xc5\x8c9\xff\x9c\xfe\x9d\xc6+\xcfj\xd8\x0ekQ\x10\xd8g\x95\xc6\xed\xbf|\xd0\x04\xa5:\x9f\x01\x9bFn\xb1\xb1Ra\x7f\r\xaeh&amp;2\x0c0/&amp;t\x9c\xe0^l\x8b\x10\xb0\x99ao\x84\x0b\x13R9]\xea\xb6r\xbc\xaf\xcc(1d\xb4V\xaf\xfd\xe5?\xdbh\xa3.B\xb6*\x04\xa4\xf9\xfa\xc3&amp;\x17\x0f\xd2 C\x07\xad\x80m\xd8_\xee\xca\xc7\xae\x80\xb5\xec\xc5\x1b5\xea\x00\xf3d|\xa2\xd8\x92\x1ex3\xb9nz\xff\xd7\xce\x9555\x91E\xe1P\x04\xd9\x04Qj^\x94\'\x1c\xcb\xc2\xf2\x81*_\xd3\xd5\xdd\xb7\xab\xb7\xd0!]Y\nBV2\xa4\x02$\x81\x84EH\xa4"\x88\x10B!`\xc0\xb0(\xb2\x08\xa2,J\xb1\xc8\xe8 \xc8?\x9b{o\x82\x04\xb0fF\xb6\x99\x879\x8fT\xd1}r\xef\xb9\xe7|\xe7\xdc\xef\xebg\x0e\xab\x86\x10\xbe\x8dWBo\xcbj\xc2\xf4I\r\x90y\x0f6*\x10\x96\x13\xd6\x9fdpe+Qg\xd6#\xab\xf8\x10s\xe2\xa9jz\x13\xad\xff$\xb53\xde\x1e\x01F\x98}\r\xe1\xaa`w\xac{f0\xdcD\xd0\x0c0t\xcc\xcca\xb2\xbf\xfd\xad\xf8\x03e\x92\xf0\x156\x0b\xb3\xe0\x9f\x16\xe9#\xe0\x19\x05\xa8\x7f\x80$\xb5+4H}&amp;\x1a\x96\xb1h\xack\x84Q\xab\x93\x16\xbfF\xcdV\xc0\x00QM\xb0\x0c\xe2\x03FXG\xb0\xfe\x8bNV\x91|\xc5R\xa7\x00\xa3\xd2\xfc\xc1\x9c\xfa\x08 L\xe8U\xd4\xb0\x1fv\x16\xf7\x7f\x9e\xd5\x8ff\xce\xac\x0f\x16\x08{[\xea/\x066\x88\x01\xe9M\x16\xf3o\xd1\x91\xe3\xe5\x9d\xf7\x9b\xfd\xbe\xba\xb0\xcb\xe1\xe8|\x18\x0c\xd4\xbf\xae\xc0\xa3\n\xd2\xf3\xa9\r\xb3#|\x03\xda\xc9\xee\x14\x9d\x19\xa8\xb3\xebTZ\x1f\xfb\xf7\x03\x91\x1f\x96 \xac\x08\xd9\x821\xb3\xd0y\x18\xab\xe1\x1a\x8f\xbd\x81a6l\xe8\xc6:\xba\xec\xa5\xc8\xef\xc3\xbf\xf2\xf2r\xea\x80h s\xfb\xb5/\x134u\xb7\x1d\xe2\x8e\xcaC\xfa\x8b\xc6\xbf\x00O\xf8\x14Z\xbe{\xa7R\x1aa\xf5S\x0f|\xd5\x90\xeb`\x0f\xe8^\xd8"\xf3+l\x7f\x1d\\\xcbG\x1f\x19W\x7f\xd7\x8eN\x96\x8ff\x07I\xb6\x7f\xea6%\x87\xc1jtO\x041e\xd2-@\xb8^C\xaff\x9b`0\xdc9\x9d0\xa3\x18\xe2?\xc1\xf4\x1c\xfe\xd8i[\xd2-7\x1ee/\xd3\x9f\x83p\x7fV\xa2\x88\xf8c\xf3mt\xbd\xd2\xa3\x8e\x1e\x9aN\xae\x18\xed\x89G\xcd\x87\xa7W\x1dE\x1do\x993yp\x04[/L\x1aCh\xb1\xd3N)\xcb\xc8D5H\xf4/@4\xd5\x9b\xf4\xcbV\x89G\xd9b]?\x8c\xb7v\xe7\xf7\xe4mz\xd9:\x11{\x1c\x9bhm1#\xa2&gt;\xdbt\x98\xeaDX\xf3\xc9\xa1\x83\xab:S\r\xaf"G;\x11\xe5\xa9XqJ\xcb*B\xcb\xd12,\x93\xf2\xbc\x0b\xff\\a\x13\xee@\xf5C\xd65%\xba\xdb\x1e7`"\x96\xcf\x057D\xd4\xd0F\x04\xf3\x00\xc2\x16\xc4\xea;\xffa\x88\xdb\xb6z\xfeH\x92~"\xaei\x9e\xa4\x86QE\x05%\x8aS[\xc6\x1d#|^\xdd0L3}\x1f\xf0\r\xb1\xe5QMc\x15K4-\xd7n\xbd\xf1\x85i\xc0&lt;\x99\xe3\xc6\t\xb6u#^\xa7&amp;\x80\xb9{\xeb\x8d\x8d\x15M\xc3\x9c35\xa7\x0bb\xb2\xeet\xf6q$\xf5\xa5\x8d0\x12\xe0LD\xfe\xfc&lt;\xe8\x0c\xf3r\x00\xee\xc3p;\x8eZ\xb5 `\x1aP"VVz+)\xca\xc9\x86\xb4$U\xe9$\xdckZ\x99\x1f\t\x1bB\x94\xf4\x02\x9c\xcc\xa2b\xd5+\x19\xf6\x9auH#Tz6\xd9\xc3\x8d\xeb\x88\xac\xfdd\x17\xfa\xe5\xed\xb7\x1c{\x17\x10\xde\xdb\xc7x\xce?\xa8_h_\xf7\xd8\x1d\xab\xda\x17msd(\xce\xedq\xa3\xc2\t\xbf\xe87\xcd\xb0b\x8e|D\xeb\xa6&lt;\xab:\xea\xc6u\xc4\xc0u\xa3\x98\xe0\xc7\x1c\xc7\xd5\xb7-M&gt;\xaaO\xf3\x94_\xa5#{Rw\xac&gt;L\xaf\x93KK{\x8e}\xae\xe5x\xc1\xb1-q2\xc9\xef\xf9\x11\x94S\x9e]\xae\x98\x83\xf8\xe9\xeco\x10"\x93\xfcB\xeb\xf1\xba+\xfeN\x854\x1b\xba\x06\xc0\xd4\x90Oi\x01\xcc\xacy\xdb\xdbLl#\xd7\xaf&gt;\xeaUt\x11&amp;\\n\x1c_\x8a(\xcfCIv\xfb\xbe\x01m\xd8\xdbfIEr\xf5\x8e\xa3\xb5\x97\x19\xe2&gt;\xb3A\xfd\xb4\xe9[5\xb9\x01\xd4.\x8f\xb6\xeb\t\xe27H\x8dG\x08w\x8eZ=\xa9\xa2\xbc\x01\xfc\xcfE\xe7\xa3o\xcbUb\xe6w\xdb.\x0f\xcb\xcb\xf0\xbaE\x93\x126a\xbd\x17.@\x8f\xd6\xeb\xf1\x92\rj\xc2\xe6\x0bx\x06 \x92m\xd1NZ\xbe#\x0f\x8d\xe51&lt;\xcb*y\xb7\n\xbbZp^\xba\xce\xac\xab\xb8?7m\xea\xcbII\x1a\x9a9d\x8f\x82XYM\x84`\xd4\xdd\xab\x13\xf3\xd43\xc4M7\xf6\x96\xc5\xd0\x0c][\xc5&amp;\x95\x87(\xa8\x9f\x00\x00\x026IDAT\x1at\xf0\xb9\x043\xb2\xbe\xd6D#\xc1\xc1\xb5\xf3\xd3Zg\xdfL\xc7}p\xb4O\x8bH\xfb{\x13\x16\x90(/`\x89\x8c\xd3 :\x15%\x1c^\x8f\x7ff&lt;H3\xd3\x92\x13\xb1V\xe1\xdf\xf1\xf1\xb3\xcc\xcc#\x02!\xbf\x16\xb5b\xe5d\xa1\xe2&lt;\xedn\x1e\xee\xd0\xcd\x8f\xf6\xd1\x94\x92\x1f\t80&gt;\xa7\x17\xa5\x87\x00\xc4\xb85g\x97v\x99pj\x17\x9dS\xfawn\x1a"\xa2\x17\xadjBC8\x02\xbb\x14Be\xfb\r\tn\xaa\xf2\xb6\xe2|-\xf7*\x1a-\x8a\xb4;\x84\xa6\xba&lt;\xef]\x0e\x9a\x19\x9a1Ga\x14w\xccq\x92\xbe\xd7\r\x1be\xbd\xa4\x9d\xf4\xe1\x85\xd5\xd0\xb49\x08\x81\x0f\x85\xc8\xe9\x9b~\x83\x86\x10\x19\xb6\xe4\xfc\xe5\xc2\x99\xbf\xe4%\xeeZ:7\xab\xd1\xb8\x99\x94\xecc\xb1$P\x07\x83N4\xdea\xd9o\xeb\x13\x89\xf2\xc7\x84\x9dc\xef\xb4TB\xfb\x99$\xe7\xdey\xa0\xb8\x08\xcb\xb8\x97\x9ex\xbe;\xbe\x80\xa7\x0f\xf0\x00\x8cl\x07\x06\xddpe\x18\x1a\x1b`"\xac\xc1=\xf8v{7\x89\x0f\xb9\xd1\xa7n|@\x98\xb4\x8bSV\xe7\x14\t\x98\xb6#X&gt;76\xc3\xce]U\xae\xa3dJ\xaa\x1e\xea\xda\x0eM\xc5\x1b\xe2[\xa1\xed\xb9\xe7\xf62\x1e\xb3\xc1\xc9r]sc\xb0\x03W!\x96-\xc8W\\\x9ce\x16*E\xa0F\xe5\xdbh\x83\xbbD\x95#K\xb0\xd0%\x88R%\x89:l\x17\xf7\x1b\x9d\x0e\xd6\x88\x11)\xb8\x95\xa3\xb8X\xcb,,\xb5\x1eP\xf1\xc5\xf6\x86\x9e\x01\x8f.\x95)\x9c\xb8\xcf\xd7\xbf\x9a\x8d\xb7w\x1c\xe4S\xc3\xd5\x8bv\n;\xf6\xa0 =\x82_\xa9\x86hL\xf4\xfb\x02\xa1O\xd3#\x93\xde\n}\xc5\xce\xe4\xc8|c(\xe0\x0b\xb3b\xf2\xd3\x0b\x06\xe3\xf5\x92\xdb\x8aK\xb2\xdc+\xca\x94\xa6\x96\x16\x04Q0h@\x13\xb0Z\x19\x1a\x18\x05\xe1\x80\xe0\xcf\xa6\xdf*\xceP\\\xa2e\xe6\xffZ\x9a~\xb2\xdfN\xad\xcft\xda\xad+\xb9\x8a\xcb\xb7\x8c\xc2\x12\xa5\x91e\x7f\xe0\x9cA\x93Vt\xedn\x96\xe2_\xb3\xac\x9c\xe2k\x05\xca\xbc\xf4\x88\x95F\xb7\xbc\x02\x9b\x9eWZp\xf3/\xbe\x18s\xa9[\x9a\x9d\x91\x7f\x03Y~F\xf6\x7f\xf3+\xad\xff\xdb\xe5\xdb\x9f\x87Ii*\xde\xc4\xf2\xcb\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67009259259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5981</v>
+        <v>7314</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Atlético Goianiense</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -894,20 +894,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x00\x18tEXtSoftware\x00paint.net 4.1.6\xfdN\t\xe8\x00\x00\x02\xfdPLTE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00GpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xc3(\x1e\x00\x00\x00\xc3(\x1d\xc2(\x1e\xff\xff\xff\x01\x00\x00\xc3\'\x1e\xc2(\x1dv\x18\x12i\x15\x10=\x0c\t\xac#\x1aL\x0f\x0b\xc2\'\x1e\x18\x05\x03h\x15\x10w\x18\x12\x17\x04\x03\xc1\'\x1d\xbf\'\x1d\x9d \x18\xc3\'\x1d\xfe\xfe\xfd\x87\x1b\x14\xc2\'\x1d\xfe\xfd\xfcb\x14\x0f\xfd\xfa\xf9\r\x03\x02\xc3* \xfe\xfc\xfb\xf9\xea\xe9\xc8&lt;2\x9c\x1f\x17\xc51(\xc3)\x1f\xff\xfe\xfe\xe4\x9f\x9a\xe4\x9f\x9b\xfd\xf8\xf8\xc5/%\xfe\xfa\xfa\xc64+\xc4,"\xf6\xdd\xdc\x86\x1b\x14\xc76-\xcbG&gt;\xdb\x7fy\xcdLC\xfc\xf4\xf3\xfc\xf6\xf5\xfa\xec\xeb\x06\x01\x01\n\x02\x01\xc0\'\x1d\x14\x04\x03\xd7rk\xc8;2\xd7oi\xc890\xe8\xad\xa9\xd2_X\xcfSL\xe7\xa8\xa4\xe5\xa2\x9e\xec\xbc\xb9\xd4e^\xea\xb4\xb1\xfd\xf7\xf7\xd4h`\xee\xc3\xc0\xdc\x81{C\r\n\x1d\x06\x04\xc4+!\xc4-#\xf9\xe9\xe8\xfb\xf3\xf3\xd0UM\xf4\xda\xd9\xd1[S\xdays\xcbE&lt;\xd3c[\xfa\xee\xed\xf7\xe3\xe2\xf3\xd3\xd1\xbe&amp;\x1d\xb3$\x1b\xbc&amp;\x1c\x0f\x03\x025\n\x08\xf7\xe5\xe4\xf2\xd0\xce\xf8\xe6\xe5\xc3)\x1e\xf1\xcd\xca\xf0\xca\xc8\xdc\x83}\xdd\x85\x7f\xc62(R\x11\x0cN\x0f\x0cr\x17\x11\x03\x01\x00\xb6%\x1c^\x13\x0e&amp;\x07\x05\x94\x1e\x16e\x14\x0f\xa3!\x19\xb1$\x1b\xd0WP\xe3\x9d\x99\xcaC:\xde\x88\x83\xd8tn\xfb\xf1\xf0\xcfRI\xe3\x9c\x97\xee\xc5\xc2\xde\x8b\x85\xceOG\xeb\xb7\xb3\xc9@7\xe2\x96\x91\xef\xc8\xc5\xd2]V\xb7%\x1c\xaf$\x1a#\x07\x05U\x11\rZ\x12\r\xa9"\x19-\t\x07\xd6mf\xda}w\xd5jc\xdf\x8e\x89\xe1\x93\x8e\xf6\xdf\xdd\xd5ic\xe6\xa5\xa1\xe8\xaf\xab\xfa\xf0\xef\xf3\xd6\xd4\xf4\xd8\xd6\xef\xc6\xc3\x90\x1d\x15\x89\x1c\x15\x12\x03\x03\xa1!\x18?\r\t;\x0c\tI\x0e\x0b|\x19\x138\x0b\x08\xa6"\x19\xf6\xe0\xdf\xf2\xd2\xd0\xc8=4\xe3\x9a\x96\xcaB:\xf5\xdb\xd9\xd9vp\xed\xbf\xbc\xdd\x86\x80\xd6le\xb9&amp;\x1cz\x19\x12\xbd&amp;\x1d0\n\x07\x97\x1f\x17l\x16\x10i\x16\x10k\x15\x10\x82\x1a\x14\xc2)\x1f\xe9\xb1\xad\xe9\xb0\xac\xe7\xaa\xa6\xed\xc0\xbd\xec\xba\xb6\xff\xff\xfe\xef\x00\xf6J\x00\x00\x00FtRNS\x01\xfd\xfe\x03\xfa&gt;)\x00\xef\x02\xf2\x06\x1c\xa9\xf5\r\xe9&amp;\x11\xf8/\x95\xd8\x08\x85\x18\x81\xed\xbeH\t\xfbkL\x8d\xee\xe1["\xd2\nA\xbb\xdf{\x9b9\x152\xc8\xcd\xae\xb2\xa1rb\xc3\xe6\xd0\xa4fQuV\x92\xa5n.\x8a+ARHX\x00\x00\x11\xc7IDATx\xda\xecZy\x90\x1cU\x19\xef$\xc0\xb0a\xc1\\\x86B0\xe0Q*\x1e\xf1(T\xa4\xbc\xcbz\xbc\xd7\xe9\x06a\x88E1\xc3\x0e\x93\x99\x84\x9dMv3\xbb\xec\x9d\xc8\xde\xf7nb\x92\xbdw\x03h\xee\xc4\x0b\x91\xca}\x1f\x8a%!$!\x97e\tEq\x1fjYZ\xde\xe5\xf7\xbd\xf7\xba\xfb\xf5\xccdf\x9a2\xbd\xff\xe4\xedV\xf7\xf4\xd7\xef\xf8\xf5\xf7\xbe\xbb[\x0b\xb8\xda\xdc\xab\'\xa6M\x9b\xee\xc6\xa1\xb9/\xaf\xbcsb\xda\x15W]\x86\xf5\xff\x85\xf5\x87\xf9\x9e\xdbK\xf3.=\xac\xef\x11b\x12\xab\xb1X\x0c\x0e\xf6\xa5s\x83\xdf\xb4\x88\x0f\xfa\x01\xcb$\x94QX\x92\xe2\x9a\x8d\x9bOv\x1d\xac\xc26\xd2\x9c\\\xcd\x8118\xb0 \x1eL\x81\x93&gt;\xe8\x0f\xb7\x90\x13\x8c 4\x92\xe8\xd6#\xd1Rh==\xb5\xf5\x15\x9d[jb\xfc\x1e\t\n\xd4\x0c\xff\xfd\x81\x85K\x19\xb043p\xcd\xd1\x88\xae\x87\xf9?\xb6p\xe9\xa6\x86\xe2" 3\xe0\x17\x87U\xc4L\xf6\x88o\xdc\xb2D\x87%7\xe8zI\xb4v\xac\xfel]\x9cc\x8b\xbc\xda\xf6w\xa6\x08\x18\xfc\xf6\x15\x96lGN\xb5\x0f\x1fkm\x1d:V5zd0\x8e\xc0j\xabcDQ\x04\xd3\'XrA\x83\x1f7.:\xd1\xfef4\x1e\x89\xf4\x8c\x10\x12\xebZ[\x02,\x8b?\x1f\xc3\xdb\xb2\x1f\x0b\xfa\'\xf2rM\xda\xb8oaD\x88\x95\xde\x8b\x84m\x1dx\x19\x1d\x16\x12\x1f$mmp\xf2\x0b\x16\x93F\xaal\xc5B!\xe9\xf8\xbf\xb5\xfa`e\x8c\x95\xef\x08\xc3U\xed^dg\xa2\xf2\xf8\x86#`\'|\x16\xf9\xe6N\xce\xa9H\xa4\x04O[\xfb\xa2\x0b\xcf_\xe8\x1b&gt;\x8a\x17\x9b\x8e\xfd\xbb\xafo=p\xb2\x85\xf8$\xf2h\x1b8\xb7F\x06\x81G\xa5\x9b\x9f\xdf\xdd\xb0u?\xc8\xfa[\xefr\xc6\xd5\xf7F\x11\xea\x96\xf5\x82\x8fg\xa0\xa3/\x9bH\x85\xdc\x90\x9d\x15\xb0\xfa\xd1\xb6dg\xc5\xa9\xce\xb2\xd3c\xfahr\r\x07r`-\x9e\xd65p\xad\xd4\xf7\x99\xcc7\xd9"E\x84$\x81\x1d\x91\x1ded\xd1\xd2\xb0\xbep\x1b\xe9\xea\x1fI\xb4\x00\x8c\xf3\xed+\x0e\xa0\xfd*\xd9\xbao\x1cO\xbd\xe0\r\xf8&amp;\xce{\x8f\xcd\x9bl\xadj\x87E[VQ\x80\xa5\xeb\x0b\x8bI\xecd9Y\x02\xa4\xc5\x84\x0cq\x89{\xb3,\xf960\xad\x920\xee|\x96?\x00\xeda\xfe\xf7\xc0\xc3\xce\x19O\xfcl\xddv\xfd\x82\xc3O\xf2v\xd5\xe8\x7f\xcd\xaehX\x7f\xa5\x92\xd0\x90\x80e20U\x8b\x05\xac\x91\x1e\xb4\x11\xed\x95do&lt;\xb2\x15\xed&lt;\xc2Z\x80\xa3\xa8\x81\x1e\x9c\x88\x83\x1drp"x\x7f\xcb_\xf10\xc0`B\xe3\x1f\xf2dNW\x83\x00\xc5\x8f\xe34\x8b\xa2\x9c[\xd8\x80[\xe1\xc5\x946\xd6\xc2.\xfe\x13`&amp;\xfb;\xca\x89\xb4[\x0b\x18u\xc7;\x84\x02\xc1\xa4*\x05\xd0\x00\x91\xe1\r\x12\x12\xc0\xbc\xc1b\r\xb0Q\x15e8\xa3\x84\x85D\xc9\xad\xc3u\xba^Z\x03\xd7\xabO$\x18\xfaD\x0e\x8bP{qN\xe4\\a*\xd1B\xc8,\x1fB=q\x0bZ\xd9  X\x02f\xdcH\xe1\x16\xc02\xf6\xc6\xf5\xf0\xfaX\xd0a\x8b\x80\x05\x11\x07n\x93\\\x1d\xf0\x18&amp;0\xc4\x10\xf1\x19\xc2\xe0Q\x1c?\x1b,Hy\xc7`\xfe\xb0\xf0\x01wG\xb8\x92\xf1M\\j\xc1bR\xe4\x87\xe1\xde\x16{\xc7lnY\xfb\xc4$G\x0cI1\x98 \xca\xa7\x08\xb9\xe3[/\xdc\xaaB\x0b\x15\x1d\x91\xb0\xc2\x08\x8b\xda\xb0\x12}\xe1p}\xa5\x05\x02\xe7\x16\xb2\xc5\x03W\xb9kLb\xe3G\xca\x94G\xe0\xcc\x93#\x91\xa3\x1e`\xf5rO\xd8\xd3\x9c\xc2-\xb9\x895\xa5z\xe4\x1d9\xb1h\x92[T!R\x85\'4\xe5\xa7#p\x801oX\x06\xab\xe1\x86\xa9\xae\xd9\xc48\x14`\x85\x01V\xd0\xe2V\xec\x90\xaeo.\xc6g^\x9d\x10{b\x08n\tF\x18\xaa@\x8b\x98\x9aI1B\xb1b\x94\xc9\x8e\xa6\x10B\x0f\xdc*\xab@X\xa5o\xc0\xf4T\x88|2as\xabw\xed\xb9\xa3\x87\xf1\xaa\xf9\xd0N)\xe0\xc2n1i\x02\x9c\xc8\x96Q\x93X\x81\x19\xb3\xa3Y\x95\xc8\x82\x0fy\x88\xe5_\xe7\x81C+\x7fn\xdc\xc4\xd2\xce\x96\xd7\x9fk+\xab\xee\xd7\xf5\x0b+\xa0UWW\xef\xfa\xd7\x9a\xf0\xa8\x10h\xb9\x89\x8e\x05 A[\xe2\x85\x8cI;\xea\xd0\x98-l\xf9s\x8b\x1a5K\x11\xd7I\x1c\xc8\xad&lt;w\xd1\xf15\xfb\x8e\x9d\x89\xea\xff\x85(\xa7\x84G:%MrzU\x13U\xeb\x99!\xa9t\x110S\xf1\xb0\x89f\xac\x13\xe3\xbeW\xcb-\x91\xb7\xda\xd8\x96\xe1:\xe7*|ZZ\x00\x0e+$\xd7\xa2B\xb4\x04oB\x86\x83\xc3\xe0d\xc3\xe0\x9a\x08\xb9\x15EB\xd0\x939m\xeb\x01X\xd1\xedL\xc2\x8an\xde4\xb8\x07\xf5 \xf2B\xd3`\x054\x1eIGk\x98\xd8$\xc9-fI\x91e%\x1c\xab`\xe9\x1f\x15\xdbi8\xcc\xf3\x04+\xd1^\x02\xb86C\x1aM\xb9\xc8oK\xac\xaa&lt;\xdd\x07\xbf\xc2\xdd\xc5\xe5\xd0\xb6m\x81\xdf\x831\x97\x81\xa0.\xab\xe0\xa4\x03i4*\x93s\xe2\xd9\'\x92$*c\xc9.\x97\xab\x8e\xbd;\x06\xfc\xea\xe0J\x99xA\x8f7Y"\xed\xd8-\xca\xd2\xcc\x95\xa5\x9b.\xe1\xa2\xd2\x89{\x80\x85\x9a\xce\xcc\xed\xfdh\xba\x1a\x12\x86\x80\x85\xc4`\xd7\x10\xe4\xb2\x91w\x12\xe0K\x8c\xd6xG\x0cVd\x86L_\x17P\xaeo\xa0\xfd!&amp;X\x11\x02\xf1\xe1D\xca\xb0\xac\x81\xa1%\x03\xeb\xc5(\xcf\xd7\xc1n1\xd8R/"o\xa0P6\x95"\xae]\xab\x1b\xf9&amp;r\xe2\xe2\xfd\xad{ \xeb\x19@\xf1\xad\xa9.O\xb1\xf2V5\xc5\xaa\xeb0aDy\x80c\xef\x19\'\x1a\x82\x85\xcc\x9bO\x04\xfe\xd2"\x92x\xab\x16e\xbc\xaf\xb5\xfa\xed\xf1\n\xb0\xea\xa4\xbcqqIK5D\xf0\xa7\x1a\x19Vk\xa4S\x93\xb0\x96\xdd\xfb\xde\xda/\xf27\xa7\xc2\x01\x93\xd6\rh\x06\xe2\xe7\x8f\xf4\x0e\xec\xacj=\xb0\xa9{\x89\x1eY\xd1\r\xa4\x7f\xac\x12Oo\xf2\xa7\xa6\xc4\xc7\xac\x1a\xb15\xb6\xc4u+}\x85\xf6\x1fp&gt;\xf5C\x10\\\xc4\x9fSU\xcb\xf0\x07\x96b\x01\xc9\xf6Cg\x1d\xeb\xd9\x8d&gt;qG\x13\x98\xac\xb3mN\x91\xc2\xb7d\x1fU\xc5\nRb\xcd\r-k\xc7\xeb\xeb\xc7\xd7\xb6\xec\xae\x14\x11D7x\x9euU\xbc\xf4FxX\xed\x13\xac\x90mt\x90\x1f\x95\x1d\xd5M\xa3\xcd\xc5`:)\xc2\xea ;\xc70{=^L\x12\x8bv\x1d`\xfeq\x0bC!j\x802r`5q\x08F\x93\x98"ll\x07\x19;C\xc90J\\d|\xff\xfa=\xf1Q\x1eq=\xe2g\xb2/[\x17`\xa9{\x83g\xb4\xfb\x01\xce\x05B1\x10\x14\xed\\\x99\xaf\xb2\xc5\xad\xb00w\xe0e\x805M\x08\xb5y\x0cTrM\x92\x90\xd7^\x11\xda\xd9\xbf\x9d\xc7\xa2!?\r\x84\x0c)\x0f\xd6\xf2\xba\x11\x88\xd6\xaa\x1d\xdc\x8c5\x00}\xa0\x9f\x07\xfb\xbb}\xd5D\xd5\xeb\x97w\xf2\xdd\x02KE\x078@}\xfc0#\x1b\xd13m\xe8\xda\x88\xc6\xd47M4U\x1fV\xf9\xfc\xb9=\xa5\xf1\xd2\xfa\x13d\xe3@\xf7\xba\xbah\xb4\xee(l#i\xa8\xe8x\xcd\xe6\xa8\xaf\xb5S+1(o&lt;8\xb4\xf70\xb7P\xc5U\x03C5\x95&lt;\xcc*Sb\x17?4\xf1\xae\xfb=7?`\xfd\xf0&gt;\xcf\xed\xf7\x97_s^\x86\x95\xd7\xdb\xd7\xbb\xd3\xda\xfc\xbb/E\x9b?\x1fg\xfeQ\xfe\x06\x82f\xca\x82\xa9\xab\xd8\xc8H\xa6l\x8bfH\xa5\xd3sl9:\xc4G{\xca\x131/5\xec4J\xadO\x99&amp;Of\x04\xc12\xbc&amp;cv\xae*\xea40\x1a\x89\xcc\xc6\xc6x\xb5B\x1d\xed\xb1\x90\x94\xa9.\x95\xca7\x9a\x1f1\xe7h\xea\xa1\xecFe\xe93K\xfd\x8c)\x17T\xd9\x19j\x12%#R\xebG\x19FSoY5u\xe5\xe5\xd4N\x8c\xdd\xe9\xbcS\xf7\xb3E\x91\xa6g\xf5i\x1dS\x9e\xc5\xf0R\xd2\xa5v\x11]f\x9f\xd4\xd2\x03{n\nMf\xec\xce\x00\xa4\xcat\x95\xca&lt;V\x10\xcd\xb4\xd1|\x02*\xb85sz~e7"\x17\x10\xd5\x02\x9c^\xbe\x8e\xe0HD\xacO%\xb5\x88\xe0\xa2\xa6TD\xf9&amp;\x92r"\x86\xdd,$\x01\x8a\x0c\xdf\x1am\x17\x9c\x11\xd6\xd4\xc2\xec\xb0&amp;\xa3\xabN/\x94\x05\x15\xd562Hq\x90\xa4\x7f\xc0\xc1\x82\xce&lt;4\xcb\xe8\x1f\xe7\x86\xf5\xb9+\xa0\xcf_\x89\xc7\xa6\x94\xe0\x9dg1\x94j[\xd6\x96\x07\xacY\x08\xeb\x97RT\xc4&amp;R\xaa\x16\xb6-\xbaT\x03Jl\xe1\x13;J\x95\xbbL\xc8\x8e\x9c\x84\xd2\xb4\xd1\x82\xb0\x12\x96\xbcqFVX\xd3\xaf\x83&gt;\xbf!4d\xa1`\x96\xf1cb\xae\xa0U\x8a\r*[\xcc\x98\xfaF\xc3~s!\xae\x8b\xd4\xbdVG\xcb\xb7\x06\xa1\x17a\xc9is\xb2\xc2*\x9c\n}^r\x84\xc1\xae\xef\xa7X-\xc5":\xfe\xc8H!\xd2L\xc44{z\xff\xb3\xb0\xe4G\xa7d\x855\xe3F\xe8\xf32\x16;\xa8\xfd-\x84\xc1B\xb6\x880\xe7\x85\x8d\xc1\x05\x9d\xfb\x14{\x11\xc3p\xd6\xb7\xb9\x14\xe2}M\xf7\xeb\x1e\xc3R\x13\xe3\xb1g`\xc9\x8f\x17d\x85\xf5\x89OA\x9fg\xbf\xafX\x1f\xf5E\xa0\x94\x15\xd5\x96\x9b\x94\xda\xe5[\xf1$h+\xa8\x99\xe2\x87L\xech\xa6\x8c\x16\x82\xf8G\x8clo\xd2\xb2\xc2\xba\xe6\x0b\xd0\xe7\x07O0\x9a\xfa\xa9VF\x87\x97_\xf9\xfdbMr\xf6\xf1e\xb0\xe4\xb5\x81\xac\xb0\xb4Ob,\xffsE\x1e\xd8E\x9cm\xeaO)\x8e\xf6\x86\x1a\xe9.*\x95bp\xc5z\x1a\xb3\x93\x0fg\x87\x15\xf8\x0c\xf4Y\xfe[\xa1\xbe\xf4b\x8e\x9ff\xc1\xa7\x9a\x13j\x81\xa3\xb6oJ\x0bK\xe8\xef\x10\xd6-\xd971\xf0u\xfcp\xe0\xc9\xbb|l\xf8b\x7f\xd2\x07sl\xe2\xd7&amp;OD(?sV\x0eX\xb3&amp;M\x04\xac\x8f\xdc\x90C\xb6&gt;;u"`\xcd\x9e\x93C\xb6\xa6\xcc\x9e\x08X\xb7\x05\xb2\xc3\xd2\xb4oM\x04\xac\x0f\xe4\x80\x15\xd0\xbe=\x11\xb0R\x151\x9d[WN\x80*^W\x98\x13V\xe1\x04\xc8\xfc\xec\xeb\xb5\x1c\x9a\xa8\xcd\xb9\xc3\x7fX\xd7\x16\x04r\xc1\xd2\xde\xef?\xac/i\xb9a}\xc8\x7fX\xa96&gt;]\xb6\x02\xda\x8c\x99~\xa3\xfa\xca5\x9a\x96\xcb@\x04\xa6\xdc\xee7\xac/\xa6\xa1\xca\x00K\xfb\xb4\xcf\xa8&amp;}\xa3 \x0fX\x81\xb9&gt;{\xeb\xabo\xc8\x08#\x95[\xd7O\xf3\x17\xd6\xed\x05yl\xa2\xe6\xbb\x89\xb8%/X\x01\xed\xd6\x9b1r~\xf1\xbb\x97\xbc\xbd&lt;\x8f\xe7\xf9\xb8f\x0eX\xd8\xde\x87Y\xd9\x82_\x07\xf9\xf7L\xd0L\xac,\xc2)\xc8X\x11\xa4\xc2\x8c\xff\x19A\xbb\x02i\xc0=\xc8\x95\x90\xc8\xefA\x8e\x86i+$\xe4\x94\x99f\x91\xd31\xe4\x1a]d\xfe\x05a\xdd\x94\x81Y\x99`j\xda7\x91\xb7?u\nZ\x17I*\x1cB\xa6\xe2$\xa5i\x15\xb6\x94\x8e&amp;\x16E&amp;\x7fU\xcb\x0b\x16t\xe2u\x9bg\x1eSR\x17wj\xc3L\'Q\x13]\\\xdf\xf2(\xab\x17)\xdf\xc6Z\x1d\xed\xd1\xbfz\x14\xe3\xe5BM\xd3\xf20\xa7\xd0e\xca\xe71\xffy\xca\xc9\xf7\xa8\x9d\xc9+9\x95\x99!q4R\x1e@9\x87\x88Z\xa6\xc1o\x08\xff\xc4\xdd\xb4\x96\x07\xb7\xb0\x07\xfc\x7f\x19\x07\xac\xc4\xef2\xa9\xc2}\xd7^P\x17\x88\xf4\x9dT\xea\xa4F\xfa\x96\xe3\xe9\xcf\xf8\x15\xcb\xcds3\xa1\xca\xa8\x89\x01\xad\x10M\xd7\x82{\x88\x9au:\xd3\xbbrV#K\xceM\xb3f\xe4O\xfd\x0c\x16\xb9cNA\x81\x96\xdb@H\xa9\xc7\xe4\xfa\xce\'\xdd%H3w\xad!\x98\xe9v0s\xa5"\xb8R\xc44\x1cT\x1eV\x1e;]\x85a\xc4\xa3\x8f\xbb\xd7`\xa95l\xeb\xe1C\xa9\xe2D3\xe9$u\x8f~z\x19\xaf\x02ra\xd6r\xa6\x18B\xb8\xa6\xdc\x86B\xff7\x96\xd9\x10\xc8\xef\xcd\xa9\xfdV@V+\xcd\x14`\x99\x0b\x0fb\xb4y/2\xeb;\x81\xbc\xb8%\x95U\xd3nE\x7f}\xdf\x13\xe9\xd3\xaa\x97\xcc\xbd\x9c[\xf3\xcc\x8b\x8f\xc3\xe3=\xcb\xd1\xc2\x7fL+\xf8_\xed\xd6\xb6\x14G\x11\x86\x7f\xd8@\xa7\xb3\xc2\x02B\xb1\x100\x9c\x16\x88!\xa2\xc6\x18K&lt;\x94Z\xee\xce\x16\xb3Z\xb8\xa9$d\xab\xb6,n|\x00/\x81}\x05x\x02@\xae\x95\x90\x84\xf0\n\xd1\x10\x9f\xc0T.Ry\x02\xcb*o3}\xfe\xbb\xb7\x07\x1a\xddmX\x18\x9a\xe9\xe9\xbf\xff\xc3\xf7\x1f\xba\'L\x88\xb2e9F\x1c\x98\xad\x89JY)}E\xfe\x88\x8a\x15\xdf\x01\xe6\x08o\x1e\xa8\xba\xb0\xb9C\x8e.?c\xccZ\xca\xa8\xf9Bp\x8b\x91?\xc9\xd9\xf54y^-\xd2\x87\xb6\xa5\xecX\xe1\xaf\xae*\xcde\xdeY+\xd6\xa3\xa8*\xea|J\xa0\xec\x05\x88(\xaa+\xb4\xaa\xe0\xd1\xaf\x19\xb3z\xbb\x85\xe1\x87\xb9j\xfe\x19fu\xc1\xe5\xef\xcd6\x8b\xa9o\x89\xdd\x92(r\x99dwF\xb2\xaf\x18\xb9\xd5\xce\xa4\xa7\xc2\xcaG\xa5\xaf(\xf8U\xcb\x0f\xa7\xbc\x8dwp\x87\xedC\x83\xe6\x83\xa4\xc5\xc8\xc5\x0f\xd7/\xe2WR\x8b\xc5\x97\xcc\x0c{\x07\xb9f\xf9\x80\xcbo\x89\xec\x93a\xf5\xca\xd2\xaf\x95\xb4\xdah\x19\xc1R\xb9\xec\xd9\xc2p\x81\r\x1dE\xd9a\x1b\xc1\xa5\xebTI0\x80,\xdd\xd9\xc5\xb0k\xe3e\xf3\x8b\n\xb5\xb2g\xe7$\xf6#l\xdc\xd4\xc9F\xbf`\x00\xdf7\x0b\xd2\xc6HH\x8a\xa1\xe4\x98\xe9aK\xda\xdf\xc1x\xe8\xc50\xb7/\xf2ub\xd1\x1en\xb3\'\xe7\xa9\xe0\x12\x00\x84\x91%\xe9\xea\x9fN\x06?\xb8\xb3\xd2\xf2\xf6\x90Qum\x80B\n&lt;\xf8\xe1T\x882\xd1\xc5\xd1\xd2\xffx3\xec\xf4\x97\xc6J\x1d\x05=w\x10\xb7$g\x19i\xb96\x96\x06\xdf\xcd\nd\x80 !"\xa0g\xf5\x88\x0bmK\x0e\xbb\x01\xcds6Y\x12\xdd\xc4J\x84\xd6\xb7\xa1u\x8e"\xc5\n\x88 \x0c[\xf9\xcd#3\xed!k.g\xf8\x14d\x89\xdaf\x05\xe3\xbe\xbc\xd2\x0e\xaa.\xbdg\x98\xe4\x05.\xbfO\x94\\e\x81\xd7R[EH\xc2"\x08\xb0\xfc\x0f#n\xa4\r\xd686o\x88\xf2\xe2C\x1a@\x98\x85\xd0\xae\xdeVS\xd5\xd7\x0fM\xedL\x80\x10\xa8\xa5\xad\x92\xc0\x17-.\x89_\xf8\\\xe1"r\xc3!A\xb3n&lt;\xeex\xe7\xa3\xd6*\xd6T&amp;y.5S\xd0\xb3+6\x16\xc0I\x17\x04\x03s\xad\x85w"\x02,\x8a\xb5&gt;(\x96G&amp;\xc9\xda7\xd3-\xdc\x1a\x18\xe1" \xe7\xd3-\xe9\x10\xa5\xec\x15\xe0M\xb6L\xed\xfb\x06A/]:\x13\x9f\xf7I\x0fl\x88\t\xff\x81N\xb4\xa8\x9e\xda;iy\x1c\x03\x12!B\xc4\xfeG\xd6p\xf2-\xa1\xeb\xed[\x14\x1c\xba\x90\xde\x04\xa0&lt;\x00\x86/B\xb2\xd7[\x00\x13\x1d\x0bT\x18\x91R_o\x08\x98^\x83@"WWY\x19L4\xee\xfe\x87\xf6\x8b\xa0*\x9f1\xeb\xa5\x96\xf3!a\x15\x9bf\xd1\xc3\xfc\r\xce\xaf\xfd\xe3U\xd66Wu\xdb\xf4]m\xe2\xbe\xd7\x8f8UC\x19\xa3\x1e\xd2\xac\xd0\xd79\xe0TA*o9A\xd7\x9f\xc7g\x9e\x15s\xb2\x8f\'&lt;\xa3\xe8\x1c\xcaj\x00EX\x1a\x08\x10\x88U\xc4\xd1\xce\\\x0f\xa7\xeb\xd1\x13;m\x8c\x9c\xb3Q\xeeI\xd0\xc7\xacDZ\xba25\xec[\xab\xb8\xa2\x81&gt;\x110\xbb5\x8d\xb9\x9b\xdc\x1e\x1b\x8f\xe5\x1b\x8f\xd5\xe6,\xcd\xcd\xc0\xa2{\xffnpG\x98\xcf\xda\xb1\xa8R\xdb\xc0\x84\x0c\xb1\x0b%\xff2\xfc\x18\xe6\xa5\xf1\xd2\xc6\xabr1\xbd.nu\xde;z\xc0y\xf51U:N%\x8b\x88\xf0?\x81\x81\x8dd\x0f5\xc6\xa8\xc9J\xfa\xe8\x02O:\x96O\xf6\xd8\x9cu_\x85\xb4\xa2\x8f\xec&amp;\xea\xb7\xbb%\xa2\xd1\x02\x057\xf0#\xa7)\xd7)Y\xb5\x11&amp;\xb2\xccL\xe1"\xa7\xeb\xef\xe7\xb1x\x1f\xd9\xca\xebc}\xe0M\xb4\xfb\xdbb\x1f\xf3\xaa\x02\x1a\xc3~\xe9\xddTwH\xa5\xd9H\x1e\xdb\xb3\xb4\xe9\xab"\xebh\xfc\x9c\x10Q\xabG\xb2\xfeVc\x15.~\x12\x90\x1f7\xe7G\xe0V\xbf[\xe3\xb7~\xd8\rf\xbdzN\xb0\'\x08q&gt;\x04\x8cM\x9a\xd8C\xf2o\xf6\x13n\x90\xeb\'\x87\xc5:gX\xdd\x06\x8c:\xe3X\xf2\xfd\xfb\x96H\x9f{\x06\x00;~[\x92\xc4\x1f\xd9\xf8,\x11q\n\xa7\x8d\xfai\xf3C\xc2A\xfe\xf1SUn\x1ap\xc9U\xd9\xef\xb8\x1asR\xe3\xca\x8b\xdb"\x16]\xc8\xba\xd9\x84\xe3\xac!0}\xd5\xab \xe0x\x08\xb9dz\xeb2\x9fr\xfd\xe1S\xb1\xe9\x12\xd7c\xf5\xf2\xbb\xbc8\xfeM\xbc\xf933n\xcd\x0cH\x9b\xe4\x05\x01\x12\xb2\xfb\x8a\xb2\x1e\xe4\x19\x9c\xd5\xf6\x7f\xc0\x05\xb9\xbc\xfd\xd7\xa6\x91\x9f\xae\x81\xd5v^I/xc\x11|\xeb$\xe8\x179O\xa5\x19\'@n\xf4\xc5~\xe4F\xc5\xb9\x84\xf5\xad\xe7L\x97\xe22W\xa7z\xb1\xc2t\xed\xfe\xbe`\xd5\xc5\xcf\x86\r\xab\x01\xa1 \xc2Uo1\xd0\x9fU[\x8b#\xd8\x96\x8d\x83\x85\xae9\x11\xea\xac\x1d\x1d\x0bP\x88c\xa1\\+\xcf\xd6\x05\xab\xc6\xba\xcd\xb3\x883Zw\xea\x908\x18\xb7\xc0\xaf\xab\xea\xef\\^\x86\xd2w\x0f\xf6\xb4\x00\xab\x87?\n\xf9\x95.Od\x89\xe7\x01)O\x0b\x13"\xd1\xee\x14E\x15\xc4\x0e\x0e\t\xbc?&amp;c\xc3\xed;{bCs\xf7\x9f\x86\x8c\xf8zf\xd1\nq5\xd2\x1f\x07\x04\xe7\x89&gt;\x83v\x1f\x98-\\\x13T,\xdf&gt;\xd8-VW\x8e\xd6d.\xf8\xe9x\xe6\xcc\xd1$\xbd\x8e\xe4\x03\x08b\x94\x81\x00\xb1\x1c\x85\xa9S\xa8\x9b\x06\xf2\xf2\xbc\xd7r\xe3\xe4\x875uhf"\x07\xa8h\rx.4\xdaL\x15\xc0-\xdf\x92\x88\x87}\xca\x99\xf7\xdft\x0e\xa2\xf5M\x8d\x98{)\n\x8fIj\xc0E\x03\xb6\x0b@\xdb\x07\xb1\x95B\xd7\xe4\xd0\xd6Pr\x1f\xfd\xb6\x07\xa5\x91\x97\x86\xde2Lp}\x8b=\x1a\xe7\xc9\x81\xb8e\xc9=M\xd7\xd4\x04tpI\x126=\xd5\x7f\xeaCR\x95-l+\xaa9\xef7\x03(4U\xad\x13\xff=\xd4W\xea\x9c\x19]\x04\xabN\x06\xd6$\xe0\x8e\x06\x13\xb2\x04E\xa7\xc4Fzt\x05\x8e#\xd0\x97t\xf1\xebB\x0e\x88\xef\xdf\xf6\x8d\xee\x15\x01O-\xe9\r7\xb8\xcd\xaf\xff\x93K\xe1\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xfaPLTEGpL\x00\x00\x00\xcb\xa9qH\x05\x00\xe9\x13\x00\xc6\xae\x85\xcb\xaas\xc9F3\x03\x00\x00\x00\x00\x00\x00\x00\x00\xcd\xact\xc9\xcb\xcd\x00\x00\x00\x00\x00\x00\xc8\xaax\xcb\xce\xd0\xca\xcd\xcf\xae\r\x00\x00\x00\x00\xcb\xcf\xd1\xca\xce\xcf\xcb\xcf\xd1\xcf\xadv\x00\x00\x00\xfa\x15\x00\x00\x00\x00\x00\x00\x00\xd0\xaew\xc9\xcd\xce\xcb\xce\xd0\xcf\xaew\xcf\xadv\xcc\xcf\xd1\xc6\xb9\x9e\xca\xaap\xcc\xcf\xd0\xcb\xce\xd0\xce\xadu\x00\x00\x00\xf6\x15\x00\x00\x00\x00\xf0\x14\x00\xc1\x0f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcf\xaew\xce\xadv\x00\x00\x00\xc9\xa9r\xce\xadv\xd0\xaex\xcd\xd0\xd2\xd1\xafw\xce\xadv\xcb\xce\xd0\xce\xadv\x00\x00\x00\xd3\x11\x00\xee\x14\x00\xb8\x0f\x00\xc4\x10\x00\xe1\x12\x00\x00\x00\x00\x00\x00\x00\xfa\x15\x00\xda\x11\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcb\xce\xd1\xcb\xce\xd0\xcc\xcf\xd1\xc9\xcc\xce\xc2\xa3j\xce\xacu\xcf\xadv\xc7\xca\xcb\xc8\xa8r\xcc\xabt\xcc\xcf\xd1\xcb\xce\xd0\xcc\xabu\xc9\xcb\xce\xcb\xce\xd0\xdd\x12\x00\xcf\x10\x00\xd5\x11\x00\x00\x00\x00\xcf\x10\x00\xed\x14\x00\xeb\x14\x00\xdb\x12\x00\xf1\x15\x00\xd6\x12\x00\xe5\x13\x00\x00\x00\x00\xfd\x16\x00\x00\x00\x00\xc9\xcc\xce\xca\xce\xcf\xd4\xb1z\xd0\xafw\xcf\xaew\xc4\xa5n\xcb\xcd\xd0\xce\xadvw\n\x00\x00\x00\x00\xeb\x14\x00\xe8\x13\x00\xcb\xce\xd0\xfe\xfe\xfe\x00\x00\x00\xff\x15\x00\xcb\xce\xd0\xff\xff\xff\xfe\xff\xff\xce\xadv\xff\x11\x00\x15\x15\x15\x98\x98\x98\xcb\xcb\xcbNNN\xf6\xf5\xf5\xff\x9d\x98\xe6\xe6\xe6\xff\x19\x14\xff\x0c\x00\xfe\xfd\xfd\xff\x0b\x00(((\xfe\xf6\xf6\xfe\xcd\xcb\xfc\xfc\xfc\xff\x12\x00\xff.(\xffRN\x8f\x8f\x8f\x18\x18\x18\x17\x16\x16\xfe\xe8\xe6\x90\x90\x90\x03\x02\x02\xff#\x17\xff\x16\x00\xff\x93\x90\xff\t\x00\xff\x93\x8f\xff\x14\x00\xff\x0e\x00\xff\x14\x0e\xfe\xfc\xfb\xfe\xdb\xd9\xfb\xfb\xfb\xf9\xf8\xf8\xec\xec\xec\xff\x10\x08\x11\x11\x11\x1e\x1e\x1e)))\xfe\xf9\xf9\xe1\xe0\xe0\xfc\x15\x00\xff\xae\xab\x08\x08\x08\xfe\xf4\xf3yyy\xff\xb9\xb6\xff&gt;:%\x02\x00\xff"\x1d\xff_[\xff\xde\xdc\xff3/SRR\r\r\r&gt;&gt;&gt;\xdd\xdc\xdc\xfe\xbe\xbc\xffd`\xff\x80|\xfe\xed\xeb\xc3\xc3\xc3999\xa7\xa7\xa7\xff\x1e\x16\xcd\xd0\xd2\xffzw\xaf\xae\xae\xfe\xe4\xe3\xa0\xa0\xa0%$$FFF\xf4\xf3\xf3\xf1\xf1\xf1fff[[[~~~\xf4\x17\x04\x13\x01\x00\xb6\x0f\x00\xd6\x0f\x00\xd1\xafw\xfe\xe0\xde\xfe\xc9\xc7\xea\x11\x00\xff74\xc0\xbc\xbc\xff\xa1\x9e\xcf\xcd\xcd\xb4\xb2\xb2\x93\x96\x96\xff\x17\t\xd8\xd8\xd80\x04\x00\xffFA\xff\x8d\x8a4//\xfe\xb4\xb1\xff&amp; \xffrn\xffmj\x86\x86\x86\xd0\xd2\xd3\xff\x96\x94\x89\x0c\x00xoo\xffXT\xfffd\xc1\x16\x0b\xc3\x99\x98\xff\xa6\xa3\xb0.(\xffUO\xfe\xd4\xd2\xffpl\xb9\xb9\xb9\x94\r\x00t\n\x00f\t\x00\xa6\x0f\x00\xf8\x94\x90\x7f\x0b\x00\xae\x92\x90C\x06\x00\x99ONN\x08\x00\x9ajg\xfd\xbc\xba\xcc\x1c%\xc7\x00\x00\x00ttRNS\x00\xfe\x1a\x04\xc8\x07\x0b\x01\x01\xbb\x082\nO\xf9\x10\x0fX\t\x92\xf8\x15\xc4\xb1\x19\xfb\xe2\xea\xf7B\xcc\xf1\xc9\xf1\x04^ \xfd\xb6\x10\xe6\xf0\xd94 \xd9e\xb2\xfb\xec\xbaA\xfe\xc3\xdau\xdb\xb8\xbb-W\xba\x0f+\x92\x0b\xa6\xf4dm0\xf5:\xce\xe7\x96\x8b/H\x82\xd0`|\x8a\xe0\x81\x9f\xa5\xb0\x82!Ny=\xcd\xadq\xdf\x14\xa4|\xfc\xc6\xd59\xddO\x99iu\xa3\xbe\x80\xde\xa7\xfe\xdd&amp;\xb2\xb1\x00\x00\n\x80IDATx\xda\xed\xda\x07T\x13Y\x17\x00\xe0\t1&amp;\x14A\x8at\x10E\x8a\x88\xa2"\xe2\xa2`/\xd8{_\xcb\x16\xb7\xd7\x7f^HAX!Q6a\x15\x1dg1\x8d\x8e\xf4^V\xec\xbd\xf7\xde\xfb\xf6\xfe\xf7z\xce\xff&amp;!\t\x81dLp&amp;\xc9\xd9\xc3=\xc7#d\xf2f\xbey\xef\xce\x9d;\xa3\x08\xd2\x13=\xd1\x13\xdd\x0b6\xdb.Ys\xe6\xd8\xe5d\xcd\x9em\x8f\xd3\xd5\xd7\xdb\xdb\xcd\xfe2\x88=\xc7\xcb\xebm\xdbe]\xa8\x83\x89\r\xb3SRf\x9b\xd8\xe4\x10J\xb7j\xe0\xfcw\x8do\xe8\x17\x9c\x92\x12\xdc\xcf\xf8\xb6w\xe7\x0f\xa4\x99\xe5\x1c\xb8\xd4\xf8\x8a\x04\rHI\x19\x10d|\r\x97\x06:\xd3\x9cY\xf3F\xbdc|\x15g\xa5\xc0\x98el\x0b\xc7\xe1\x9dQ\xf3\xe8\xcd.\xb7\x10A\xa0\xd1D\xe9\xbb\x98`\xcd\xeck4\x1d\x03\x05!4]\xa4\xec\xde0\xdc\xdcb\x87\x0b\x04&gt;nn\xc4/,\xf8\xa1\x8b\x8bK_\x18\xfd\xfa\xf5[\xe0E\xb0\xbc\x16\xc0\x1f\x89O\xe0\x068?,\xcd \x1f\x81`x\xacf\x10\xd5\x93\xc6\x8a\xf7\xf1\t\x0fO\x18#\x10\x08\x02\x13\x12\xc2}|&gt;\x84\xe92\xf0\x83\xe5\xcb_y\xe5\x15o\xef\xe0\xe0\x99)\xea\x98\x19\x1c\xec\xed\r?Z\xbe\xfc\x03\x98\xe5\xce\x1f\xc2A\t\t\x81p\xd0\x98\x84p8(\x9eE\xf5t\xb1\x16\x11{\x1f%\xd0\xc4\xa58u\x12\xbb,\x19\x90b4\x06,qQ_ q\x97\x04\xfa\xe8\xbf\x88E\xfd2\xb2B\xc7\xe8\x0e\x10\xb8\xd4A\xb3\x1c,\xf7\xd1\x7f2\xa2Z\xec\xae\x01\xb0\x1d\x96\x06\xea\x06\x8d\te\xd1S\x1cB\xda\'kD|o}q\xf7\x0e\xeb\x8c\n\xf3\x9e\xa3\xcb\xa1\xde\xf1#4cF\x858\xd3u5\xba\xb5\xcf\xd7\xfb\x06ut\x96\x97\xa1\xcak\x96AU}\xbf}\xaeh\xbba\xb2\x9d\xdb\xcf\xfc=\x83\xf3vq\x9f\xd9\x01uh\xa6\xbb\x8b\xc1\xa0\xf7\xda\x13\x8b\xb6\x8a\xca\x8e\x87\xe5a\x04\xfc3\xdf\xb0\xa2\xb2\x83F\xebYo\x05\x19\xae\x95\xc3|X\x1e\xe0\xe9\x0c\x8f\xa7k\rY\xe1\x82K!\xce\x0b\xfb\x0b\xfa\xc7\x1anpy\xab\x03\xabSE\x8d\x85__\xe8\x1crI\x10\xce\xa2\x89\xe5\xd0\x7f\xc4\xc2\xdep)CF\xcd\xebz?\xd4\x95\x86N\xf7\xc5y\xc3\x89\\\xef\xbdpD\x7f\x07\x9a\xd604.V}\xc6\x0e\x8b\xe2\x0c\xce\x9c\xbd\xa4\xc3\xc5\x18\xb6\xc4`\xb1Xq\x8b\xd4\x1cVl\\(=\xab8p\xae\xf6|Ys\r\xce|\xa0\xb7\xe6\n\xd4\\\x91\xde\x06M\x8c\xc3\\\x96\xee\'\xba\xbb\x9bN1H\xed\t\x0e\n\nV\xeb\x06\xd9I\x17\xbf\xe0\x10L\xa9YP3h6L\xb2C\x0b\xacrP\xce\xb8W_\xf3 \xbd@\x97\x1d\n\x1b\xad\xb9\xdb\xc0{Q\xd8\xa1e.d\xdf\xf6x\xed\xd5qT$\x19s\x8d_\xd4\xa7S\xc63M\xaf\xe1\xe8\xb0e\xba\x85\x1b\xb4,l\xb4\xe9Ud\x8e\x9f\xf2i\x94\xdf\x1a&amp;\x15\x17`/.W\xf6\xe6\xe4\xa8\t\xe3\xc6\x1b\x9f4\xf7\xc5\x1d\xeb\xba\x0b\xfc\xd5\xf84\x8d\x1f7!j\xf2\x9b2.\xb7\x17\x9b\x12\x96\xec\xce\xe3B\xb9T692q\xc5\xaa\x95\x1e\x9d\xf7\xc9v\xef\xf4\x1c\xf6\xb6{\x97\xafx\xac\\\xb5"1r\xb2L*/\xac\xbb#\xa3\x88%\xccV\x95?m\x94\xe7\xcaq\xae_\xd4\xdauC\x98/\xda\xad\xc1v6s\xc8\xba\xb5Q~\\\x1c\xee\xa0\xf1i\xb9*[H\x19K\xcc\xe7\xf3U7\xf64\x16\x8a\xe42\xbc\xec\x93\xd7\xa7\x0c\xf10o\xb0\xc7\x90)\xaf\x7fR\x86\xcb\xe4\xa2\xc2\xc6=7Tp7b*Y(\x11\xa5\xdb\xaf\xec\xfa%[!\x17\xca\xfc"\xd7\xc0TK"\xdd=;\t&amp;\xd3\x9aH?\xa9P\xae\xc8\xfee\xd7\x95\xed\xa5\xea\x9dP\xcf\x82\xc1/m\xa8n\xab\xc9,\x94\xcb\xb8~\xeb\x13W\xc0\xd2a\xf4\x10lX\x06V$\xae\xf7\x93\xc9\xe4\x85\x995m\xd5\r\xa5|\xed\x1e\xa8d)Q}\xf0\xf9hC\xf9o\xd7\nsEp=\xd7\xc3T\xf3\xe8\xbar\xeb\xd6\xae\x87+\'\xca-\xbc\xf6[\xf9eb\x84&gt;h\x98-e\x96\x96\xa6\xac$RM\xa1)\x1d0\xd5\x92\xb4\xdfN\x82\xc9\xa4)\x03\x8a\xc6=?\xa9*\x95ZR\x96\x926\xd6\xf6\xfa\x1b\x97u\xcb\xc1/=\xda&amp;\xc2w*\xe4R\xa9_d\xaf\t\xabV&amp;%\xad\\5\xa1\x17L&amp;\xa9\\\xb1\x13\x17\xb5\x1dU\xea\xbfzyS\xfdv\xfaX\x07s\xeb\xbe\xaf\xce\xd2\x1dm\xd3\xe6\xcc\xea\xea\xc35wrE\\\xbc,211\xb2\x0c\xe7\x8ar\xef\xd4\x1c\xae\xae\xce\xdc\xbcI\xf7\xb5\xac\xea\xef\xebr\x0f\xd2\xc8\xda)\xc5\xe5\xa2\xc7\x87Uz\xd6\xe7|T\xbc\xb7\xfcIM&amp;,\x1d\xb0\x0cd\xd6&lt;)\xdf+F\xf9\x9f\xebY\xaa\xc3u"9.\xdd\xd9\xceR\xd2\xc2\xe2r\xb9R\xd1.\xbe\x9e\xa59\xd6\xde_7\xd5gg\xd7o\xfau\xaf&amp;\x85\xf4,\xfe\xae\xcd\xeaA;i\x9d-x\x04\xae\xe8\xcb\xce,\xf5\xf1\x8e\x1e\xd5\xd5\x91\x8e\xac/E\xdc\x8e,%}\xac]\xc6X\x06a\x9a%\xfe\xe3\xb3\x94\xd4\xb1P\xab\xce\x16\xdf\xe0/\x12VC\x9d\xd4z,\xa5\xaa\x12~\xc6\xafT)IY|U[\xa6\x14\xb7\x1e+\xab\xfe\xfe\xd7*\xd5\xd7\xf7\xeb\xb3HX\xe2\xed\x0f\xb2\x85R\xca\xbaSsX_\x88Duu"\xd1\x17$\xac\xac\x9f\xae\xa9K\x98UYB.\x8es\x85$\xacG5"u]\x95Z\x99\x05\xc34\x8b\x8b+\xd4c\x85\xd9\x07e\xf6\xc4R\x87TQ\xaf\xb2f\x810\x8f%j|\xa4T\xda\x19\x0b\x17\x1e&lt;\x0c\x9b\x0b\xb1}\xb1\xa4\x85\xf7\xbf*\xa5\xf0V\xcd\xf9\xe8\xaa\x96\xb5\xf71|T\xec\x16\x0b\x17f&gt;\xa8l\xbf\'^\xfd\x88C\x05\xcb\xb1\xf6gm\xc7\xd2\xb0\xa7P\x8aw\x83%-\xdc\xd3\xa0\xed\x7f~\xaeu\xa4\x86\x05J$\xda[pey\xb6Pf1K\x9a]^\xa9\xdd\x83\xa4\x04P\xc5\xda"\xd1?\x8e]~\xa2\xc8\xb5\x94\xa5x\xa4\x7f$\x93l\xa1\x83\x05W\xe1\xca\xb5\x07/b\xf1;\xb1\xbe\xa2\x9f\x05/\xc8\x06\x94\x9cUY^#\xb5&gt;\x0bEIY\xa5W\xbeS\x08\xb9\xb9&amp;Xy\xd4\xb3\xc4f\xb0\xf8G\x9f*\x882\xd2\x85%\xa6\x8d\xb5\xfb\xdb\xdd&lt;r\xd6w\xaa\xb6\x83ru\xf94d\xf1\xe0P\xda\x161c\xdb\xc3\xebJ2\x96,\x1b\xd6\x0fnW\xd6\xff\xae?\xdc\x96A#\x0b\xa4n&lt;I\xc2"\xba)nW\xd6\xb9\xff\xa6\x82\x9c\x0c\xda\x16\x11\xb2\x00hj%a\xe9\xa3\x03\xeb\xe2\x7f\xe0\xb0\x1cZg\x0b\x00\xec\xf8\xad|KX\x7f\xbfP\x0b\xac\xc0\x02X\xd1\x11\x9e\xf9,\xde?\xcf\x03\xab\xb0\x00\xd8j\tk+\xb0K\xd6\x0e\xfaXy\xf6\xc9\x92\xfc\xe1Yy\xf4\xb3~\xbch\x92\x85_\xfc\xd1V,\xde\xed\xda\x1fL\xb0\xca.\xd4\xde\xe6\xd9\x8a\xb5\x11\xe4\xdc4\xca:\xf7\x8f\xf3`#\xcfF\xb9\x05Y\xa9iFXe\x17\xff\x85\x01\xbbc\x95\xfdM}\xb7\xb1/\x16~\xee/\x18\xb0;\x16\xfe\xc3=`O,M\xa3u\xee\xcf\xb5\xa0=\xec\x81\xf5\xd9\xbf\xaf\xc2\xfe\x1d\xbf\xfaW\x0c\xbc\x80\x95gUV\xfa\xbd\x0b8~\xe1\x9e\xd6\xd4RD2[#\xad\xc8\x02\xe7\xbf\xf9\xe6|;\xaa\xf9\xd9\xf5\x1c\x92\xd9\xb2*\x0b`\xda\x05,&gt;&amp;IK\xb5\x1b\x966\x1e\xee\xe3\xa1\xa6Y\x14.b\x89\xd8|\x16v\xa6\x00\xfen\x9a%.\xa1\x8c\x95\xfa\xdclVs\xd5)\x94\x94\xf5&lt;\x95\xa2+q\xb5+h9e&amp;\xab\xe8\x98\xe6\xa9\xc8$\xebd\x0bp]M\x05\x0b\xe1x\x02p\xfa\xa4y\xac\xa6\xcfPR\xd6\xc9\xd3\x00xR\xa2B8\xbe#A\xc5V\xb1Y\xactr\x96xG\x05\x18\xe9\x8bP\x14c\xfd\xc1\xb6\xebT\xb0\xf6m\x03\xfec\xa9R!\x9c&gt;\xd3\xc1\xf1\x8c\x97ge\x1c\x07\xd3\xfbp(c!\xcc\x8f]Az\xc1K\xb1J\n\xd0\x82t\xe0\xfa1\x13\xa10"&amp;1\xb0\xaa\xfc\x97`\xa5\x1eA\xf3\xcfb\x8cI\x11\x08\xa5\x11\x9d\x0c\x9a\x8fe\xe4t\x97\x85\xdd\x96\xf0\x0e4\x83\xe4h\x84\xe2\x98\x16\x00\x8a\xd2\x8a\xbb\xc9\xc2\xce\xe6\xa37\x8b@\xc04\x84\xf2\x186\x1d\x94\x14u\x8f\x85\x9d9\x89\xee\xde\x0f\xa6\x0f\xa3^\x858y2\xb4\xf7=KY-\x19\xe8\xa93\x80\xe1\xe9D\x03\x0b\x89\x88\xe9&amp;\xab\xa4\x15\xe5\x9d\xc5@L\x04BKD\x0f\xed\x16+\'\r\x15\x1f(\x02C\xa3\xe9Q\xc1\xaa\x1a\xd0\r\xd6\xd6\x8d(z\xb7\x18\x04PYG;\xc5TW\x8bY\xe2\x02\tZp\x02\xb8NE\xe8\x0b\'O\x8bY\xc4\xc6\xd3\x18\xa0\'\xddu\xcd\x84#\xc3b\x16oG\x05\xc3\xd1\x17\xa15\xc6\x06X\xccJ\x83ut,Bs\xf4\x19\x0c\xc0mKX\xad%`p\x1f\xbaU\x08\xf3\ru3a6\xab\xa0\t\xb8\xbe\xc1\xa4\x9d\x05\x9b\tPQ\x95g.KRU\x01&amp;E V\x08\xdf\xa1\xa0\xe2\x80\xd8&lt;\x96\xf8@\x05\x18\xea\x8bX%f\xf8k8f\xb0\xd2r\x80\xff\x0c\xc4J\x01\x9b\x89\x96VsX\xad-\xf4\xb4\r\xa6\xab\xea\x99\xfc\x17\xb3\xf2\xcf\x00z\xebh\xa7\x98\x18\x03{\xe8\x17\xb3\xceV0b&amp;ZO\x85p`3QqKL\xce\x12\xdfj\xa6\xafm0UU\x03@\xf1sr\xd6\xdd\xe3\xb0m@\xac\x1c\xb0\x998A\xce\xa2\xb9m0\x91^\x9e\x00+&amp;c\x15\xc3\xb6a\xa2\xd5Y\x9c\x88d\xd8L\x90\xb0\x00#9\x02\xb1AL\xf3\'g\xf9O\xb3\x85\n\xf6\xd0\x83A\xd1&gt;\xe3\xac}E\xb0m\xe0\xd8\x84\x858\xadf`\xe9\xa7\x8c\xb1N\xa5c\x8c\xd5N\x88\x8dbb\x0c\xc04\xcd\x84!+\x8fx\xfc\x9a\x88\xd8,|\x93\x01P7\x13\x06,\xf1\x01\x00\x92}\x11\x1b\x06l&amp;\x8a\x89\xf4\xca\xab\xd2\xbc\x94\xaf"^\x9d\xee+\xb6b\xdb`&lt;\xed\x87\xb9\x82\xfd\xc4\x7f\x81*8\x01]\xd8\t\xa2m\xdd\xdd\x02\\\x87ql\xcaB\x98\x9e\x0c\xd0D,\xe3\xee\xfd@\x03\x147\xd1\xf5\xb6\xc1\xa2\xcb\xd1\x91\x81=#\x96\xeefq1\xf1\x0f\xd7\xf9\xcf0\x86\xa3\xcdU\xf0\x11m(h&gt;\x02\xe7Kr\xe4\x88\x04\xce\x15\xd16\x8cE\xec `U=~\x97\xe8\xa1\x89.\xf9\xee\x16k&lt;~\x99\x97\xf60\xab4\x8fhh\x01\xcc0[\xa7\xbb.\xbd&amp;1\xb0\xd3\xea\x7fT\xc9?\x8d1&amp;9!v\x12\xbe\x1b\x00v\x0c\xa6\x97\xf8\x18\x066\xf8"v\x13\xb0\x99H\xfd\x9d\xc7\xfb=\xc7Vm\x83\xe9f\xa2\xa4U\xfd\xb6\x81cG,\xe2\xcd\x04\xd6\xd4\x84Y\xe5m\x83Ei\xaf~\xdf\x1b\xe3\x84\xd8YDo\x00`C4bw1# `\x86\xfd\xa9\x10\xe6\xd4\xa9L\xa4\'z\xa2\'z\x82\xf6\xf8?H\xe7v\x14\x83\x03\x9d\xc0\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67010416667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7314</v>
+        <v>1958</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atlético Goianiense</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -918,20 +918,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x00\tpHYs\x00\x00\x0b\x13\x00\x00\x0b\x13\x01\x00\x9a\x9c\x18\x00\x00\x02\xfaPLTEGpL\x00\x00\x00\xcb\xa9qH\x05\x00\xe9\x13\x00\xc6\xae\x85\xcb\xaas\xc9F3\x03\x00\x00\x00\x00\x00\x00\x00\x00\xcd\xact\xc9\xcb\xcd\x00\x00\x00\x00\x00\x00\xc8\xaax\xcb\xce\xd0\xca\xcd\xcf\xae\r\x00\x00\x00\x00\xcb\xcf\xd1\xca\xce\xcf\xcb\xcf\xd1\xcf\xadv\x00\x00\x00\xfa\x15\x00\x00\x00\x00\x00\x00\x00\xd0\xaew\xc9\xcd\xce\xcb\xce\xd0\xcf\xaew\xcf\xadv\xcc\xcf\xd1\xc6\xb9\x9e\xca\xaap\xcc\xcf\xd0\xcb\xce\xd0\xce\xadu\x00\x00\x00\xf6\x15\x00\x00\x00\x00\xf0\x14\x00\xc1\x0f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcf\xaew\xce\xadv\x00\x00\x00\xc9\xa9r\xce\xadv\xd0\xaex\xcd\xd0\xd2\xd1\xafw\xce\xadv\xcb\xce\xd0\xce\xadv\x00\x00\x00\xd3\x11\x00\xee\x14\x00\xb8\x0f\x00\xc4\x10\x00\xe1\x12\x00\x00\x00\x00\x00\x00\x00\xfa\x15\x00\xda\x11\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xcb\xce\xd1\xcb\xce\xd0\xcc\xcf\xd1\xc9\xcc\xce\xc2\xa3j\xce\xacu\xcf\xadv\xc7\xca\xcb\xc8\xa8r\xcc\xabt\xcc\xcf\xd1\xcb\xce\xd0\xcc\xabu\xc9\xcb\xce\xcb\xce\xd0\xdd\x12\x00\xcf\x10\x00\xd5\x11\x00\x00\x00\x00\xcf\x10\x00\xed\x14\x00\xeb\x14\x00\xdb\x12\x00\xf1\x15\x00\xd6\x12\x00\xe5\x13\x00\x00\x00\x00\xfd\x16\x00\x00\x00\x00\xc9\xcc\xce\xca\xce\xcf\xd4\xb1z\xd0\xafw\xcf\xaew\xc4\xa5n\xcb\xcd\xd0\xce\xadvw\n\x00\x00\x00\x00\xeb\x14\x00\xe8\x13\x00\xcb\xce\xd0\xfe\xfe\xfe\x00\x00\x00\xff\x15\x00\xcb\xce\xd0\xff\xff\xff\xfe\xff\xff\xce\xadv\xff\x11\x00\x15\x15\x15\x98\x98\x98\xcb\xcb\xcbNNN\xf6\xf5\xf5\xff\x9d\x98\xe6\xe6\xe6\xff\x19\x14\xff\x0c\x00\xfe\xfd\xfd\xff\x0b\x00(((\xfe\xf6\xf6\xfe\xcd\xcb\xfc\xfc\xfc\xff\x12\x00\xff.(\xffRN\x8f\x8f\x8f\x18\x18\x18\x17\x16\x16\xfe\xe8\xe6\x90\x90\x90\x03\x02\x02\xff#\x17\xff\x16\x00\xff\x93\x90\xff\t\x00\xff\x93\x8f\xff\x14\x00\xff\x0e\x00\xff\x14\x0e\xfe\xfc\xfb\xfe\xdb\xd9\xfb\xfb\xfb\xf9\xf8\xf8\xec\xec\xec\xff\x10\x08\x11\x11\x11\x1e\x1e\x1e)))\xfe\xf9\xf9\xe1\xe0\xe0\xfc\x15\x00\xff\xae\xab\x08\x08\x08\xfe\xf4\xf3yyy\xff\xb9\xb6\xff&gt;:%\x02\x00\xff"\x1d\xff_[\xff\xde\xdc\xff3/SRR\r\r\r&gt;&gt;&gt;\xdd\xdc\xdc\xfe\xbe\xbc\xffd`\xff\x80|\xfe\xed\xeb\xc3\xc3\xc3999\xa7\xa7\xa7\xff\x1e\x16\xcd\xd0\xd2\xffzw\xaf\xae\xae\xfe\xe4\xe3\xa0\xa0\xa0%$$FFF\xf4\xf3\xf3\xf1\xf1\xf1fff[[[~~~\xf4\x17\x04\x13\x01\x00\xb6\x0f\x00\xd6\x0f\x00\xd1\xafw\xfe\xe0\xde\xfe\xc9\xc7\xea\x11\x00\xff74\xc0\xbc\xbc\xff\xa1\x9e\xcf\xcd\xcd\xb4\xb2\xb2\x93\x96\x96\xff\x17\t\xd8\xd8\xd80\x04\x00\xffFA\xff\x8d\x8a4//\xfe\xb4\xb1\xff&amp; \xffrn\xffmj\x86\x86\x86\xd0\xd2\xd3\xff\x96\x94\x89\x0c\x00xoo\xffXT\xfffd\xc1\x16\x0b\xc3\x99\x98\xff\xa6\xa3\xb0.(\xffUO\xfe\xd4\xd2\xffpl\xb9\xb9\xb9\x94\r\x00t\n\x00f\t\x00\xa6\x0f\x00\xf8\x94\x90\x7f\x0b\x00\xae\x92\x90C\x06\x00\x99ONN\x08\x00\x9ajg\xfd\xbc\xba\xcc\x1c%\xc7\x00\x00\x00ttRNS\x00\xfe\x1a\x04\xc8\x07\x0b\x01\x01\xbb\x082\nO\xf9\x10\x0fX\t\x92\xf8\x15\xc4\xb1\x19\xfb\xe2\xea\xf7B\xcc\xf1\xc9\xf1\x04^ \xfd\xb6\x10\xe6\xf0\xd94 \xd9e\xb2\xfb\xec\xbaA\xfe\xc3\xdau\xdb\xb8\xbb-W\xba\x0f+\x92\x0b\xa6\xf4dm0\xf5:\xce\xe7\x96\x8b/H\x82\xd0`|\x8a\xe0\x81\x9f\xa5\xb0\x82!Ny=\xcd\xadq\xdf\x14\xa4|\xfc\xc6\xd59\xddO\x99iu\xa3\xbe\x80\xde\xa7\xfe\xdd&amp;\xb2\xb1\x00\x00\n\x80IDATx\xda\xed\xda\x07T\x13Y\x17\x00\xe0\t1&amp;\x14A\x8at\x10E\x8a\x88\xa2"\xe2\xa2`/\xd8{_\xcb\x16\xb7\xd7\x7f^HAX!Q6a\x15\x1dg1\x8d\x8e\xf4^V\xec\xbd\xf7\xde\xfb\xf6\xfe\xf7z\xce\xff&amp;!\t\x81dLp&amp;\xc9\xd9\xc3=\xc7#d\xf2f\xbey\xef\xce\x9d;\xa3\x08\xd2\x13=\xd1\x13\xdd\x0b6\xdb.Ys\xe6\xd8\xe5d\xcd\x9em\x8f\xd3\xd5\xd7\xdb\xdb\xcd\xfe2\x88=\xc7\xcb\xebm\xdbe]\xa8\x83\x89\r\xb3SRf\x9b\xd8\xe4\x10J\xb7j\xe0\xfcw\x8do\xe8\x17\x9c\x92\x12\xdc\xcf\xf8\xb6w\xe7\x0f\xa4\x99\xe5\x1c\xb8\xd4\xf8\x8a\x04\rHI\x19\x10d|\r\x97\x06:\xd3\x9cY\xf3F\xbdc|\x15g\xa5\xc0\x98el\x0b\xc7\xe1\x9dQ\xf3\xe8\xcd.\xb7\x10A\xa0\xd1D\xe9\xbb\x98`\xcd\xeck4\x1d\x03\x05!4]\xa4\xec\xde0\xdc\xdcb\x87\x0b\x04&gt;nn\xc4/,\xf8\xa1\x8b\x8bK_\x18\xfd\xfa\xf5[\xe0E\xb0\xbc\x16\xc0\x1f\x89O\xe0\x068?,\xcd \x1f\x81`x\xacf\x10\xd5\x93\xc6\x8a\xf7\xf1\t\x0fO\x18#\x10\x08\x02\x13\x12\xc2}|&gt;\x84\xe92\xf0\x83\xe5\xcb_y\xe5\x15o\xef\xe0\xe0\x99)\xea\x98\x19\x1c\xec\xed\r?Z\xbe\xfc\x03\x98\xe5\xce\x1f\xc2A\t\t\x81p\xd0\x98\x84p8(\x9eE\xf5t\xb1\x16\x11{\x1f%\xd0\xc4\xa58u\x12\xbb,\x19\x90b4\x06,qQ_ q\x97\x04\xfa\xe8\xbf\x88E\xfd2\xb2B\xc7\xe8\x0e\x10\xb8\xd4A\xb3\x1c,\xf7\xd1\x7f2\xa2Z\xec\xae\x01\xb0\x1d\x96\x06\xea\x06\x8d\te\xd1S\x1cB\xda\'kD|o}q\xf7\x0e\xeb\x8c\n\xf3\x9e\xa3\xcb\xa1\xde\xf1#4cF\x858\xd3u5\xba\xb5\xcf\xd7\xfb\x06ut\x96\x97\xa1\xcak\x96AU}\xbf}\xaeh\xbba\xb2\x9d\xdb\xcf\xfc=\x83\xf3vq\x9f\xd9\x01uh\xa6\xbb\x8b\xc1\xa0\xf7\xda\x13\x8b\xb6\x8a\xca\x8e\x87\xe5a\x04\xfc3\xdf\xb0\xa2\xb2\x83F\xebYo\x05\x19\xae\x95\xc3|X\x1e\xe0\xe9\x0c\x8f\xa7k\rY\xe1\x82K!\xce\x0b\xfb\x0b\xfa\xc7\x1anpy\xab\x03\xabSE\x8d\x85__\xe8\x1crI\x10\xce\xa2\x89\xe5\xd0\x7f\xc4\xc2\xdep)CF\xcd\xebz?\xd4\x95\x86N\xf7\xc5y\xc3\x89\\\xef\xbdpD\x7f\x07\x9a\xd604.V}\xc6\x0e\x8b\xe2\x0c\xce\x9c\xbd\xa4\xc3\xc5\x18\xb6\xc4`\xb1Xq\x8b\xd4\x1cVl\\(=\xab8p\xae\xf6|Ys\r\xce|\xa0\xb7\xe6\n\xd4\\\x91\xde\x06M\x8c\xc3\\\x96\xee\'\xba\xbb\x9bN1H\xed\t\x0e\n\nV\xeb\x06\xd9I\x17\xbf\xe0\x10L\xa9YP3h6L\xb2C\x0b\xacrP\xce\xb8W_\xf3 \xbd@\x97\x1d\n\x1b\xad\xb9\xdb\xc0{Q\xd8\xa1e.d\xdf\xf6x\xed\xd5qT$\x19s\x8d_\xd4\xa7S\xc63M\xaf\xe1\xe8\xb0e\xba\x85\x1b\xb4,l\xb4\xe9Ud\x8e\x9f\xf2i\x94\xdf\x1a&amp;\x15\x17`/.W\xf6\xe6\xe4\xa8\t\xe3\xc6\x1b\x9f4\xf7\xc5\x1d\xeb\xba\x0b\xfc\xd5\xf84\x8d\x1f7!j\xf2\x9b2.\xb7\x17\x9b\x12\x96\xec\xce\xe3B\xb9T692q\xc5\xaa\x95\x1e\x9d\xf7\xc9v\xef\xf4\x1c\xf6\xb6{\x97\xafx\xac\\\xb5"1r\xb2L*/\xac\xbb#\xa3\x88%\xccV\x95?m\x94\xe7\xcaq\xae_\xd4\xdauC\x98/\xda\xad\xc1v6s\xc8\xba\xb5Q~\\\x1c\xee\xa0\xf1i\xb9*[H\x19K\xcc\xe7\xf3U7\xf64\x16\x8a\xe42\xbc\xec\x93\xd7\xa7\x0c\xf10o\xb0\xc7\x90)\xaf\x7fR\x86\xcb\xe4\xa2\xc2\xc6=7Tp7b*Y(\x11\xa5\xdb\xaf\xec\xfa%[!\x17\xca\xfc"\xd7\xc0TK"\xdd=;\t&amp;\xd3\x9aH?\xa9P\xae\xc8\xfee\xd7\x95\xed\xa5\xea\x9dP\xcf\x82\xc1/m\xa8n\xab\xc9,\x94\xcb\xb8~\xeb\x13W\xc0\xd2a\xf4\x10lX\x06V$\xae\xf7\x93\xc9\xe4\x85\x995m\xd5\r\xa5|\xed\x1e\xa8d)Q}\xf0\xf9hC\xf9o\xd7\nsEp=\xd7\xc3T\xf3\xe8\xbar\xeb\xd6\xae\x87+\'\xca-\xbc\xf6[\xf9eb\x84&gt;h\x98-e\x96\x96\xa6\xac$RM\xa1)\x1d0\xd5\x92\xb4\xdfN\x82\xc9\xa4)\x03\x8a\xc6=?\xa9*\x95ZR\x96\x926\xd6\xf6\xfa\x1b\x97u\xcb\xc1/=\xda&amp;\xc2w*\xe4R\xa9_d\xaf\t\xabV&amp;%\xad\\5\xa1\x17L&amp;\xa9\\\xb1\x13\x17\xb5\x1dU\xea\xbfzyS\xfdv\xfaX\x07s\xeb\xbe\xaf\xce\xd2\x1dm\xd3\xe6\xcc\xea\xea\xc35wrE\\\xbc,211\xb2\x0c\xe7\x8ar\xef\xd4\x1c\xae\xae\xce\xdc\xbcI\xf7\xb5\xac\xea\xef\xebr\x0f\xd2\xc8\xda)\xc5\xe5\xa2\xc7\x87Uz\xd6\xe7|T\xbc\xb7\xfcIM&amp;,\x1d\xb0\x0cd\xd6&lt;)\xdf+F\xf9\x9f\xebY\xaa\xc3u"9.\xdd\xd9\xceR\xd2\xc2\xe2r\xb9R\xd1.\xbe\x9e\xa59\xd6\xde_7\xd5gg\xd7o\xfau\xaf&amp;\x85\xf4,\xfe\xae\xcd\xeaA;i\x9d-x\x04\xae\xe8\xcb\xce,\xf5\xf1\x8e\x1e\xd5\xd5\x91\x8e\xac/E\xdc\x8e,%}\xac]\xc6X\x06a\x9a%\xfe\xe3\xb3\x94\xd4\xb1P\xab\xce\x16\xdf\xe0/\x12VC\x9d\xd4z,\xa5\xaa\x12~\xc6\xafT)IY|U[\xa6\x14\xb7\x1e+\xab\xfe\xfe\xd7*\xd5\xd7\xf7\xeb\xb3HX\xe2\xed\x0f\xb2\x85R\xca\xbaSsX_\x88Duu"\xd1\x17$\xac\xac\x9f\xae\xa9K\x98UYB.\x8es\x85$\xacG5"u]\x95Z\x99\x05\xc34\x8b\x8b+\xd4c\x85\xd9\x07e\xf6\xc4R\x87TQ\xaf\xb2f\x810\x8f%j|\xa4T\xda\x19\x0b\x17\x1e&lt;\x0c\x9b\x0b\xb1}\xb1\xa4\x85\xf7\xbf*\xa5\xf0V\xcd\xf9\xe8\xaa\x96\xb5\xf71|T\xec\x16\x0b\x17f&gt;\xa8l\xbf\'^\xfd\x88C\x05\xcb\xb1\xf6gm\xc7\xd2\xb0\xa7P\x8aw\x83%-\xdc\xd3\xa0\xed\x7f~\xaeu\xa4\x86\x05J$\xda[pey\xb6Pf1K\x9a]^\xa9\xdd\x83\xa4\x04P\xc5\xda"\xd1?\x8e]~\xa2\xc8\xb5\x94\xa5x\xa4\x7f$\x93l\xa1\x83\x05W\xe1\xca\xb5\x07/b\xf1;\xb1\xbe\xa2\x9f\x05/\xc8\x06\x94\x9cUY^#\xb5&gt;\x0bEIY\xa5W\xbeS\x08\xb9\xb9&amp;Xy\xd4\xb3\xc4f\xb0\xf8G\x9f*\x882\xd2\x85%\xa6\x8d\xb5\xfb\xdb\xdd&lt;r\xd6w\xaa\xb6\x83ru\xf94d\xf1\xe0P\xda\x161c\xdb\xc3\xebJ2\x96,\x1b\xd6\x0fnW\xd6\xff\xae?\xdc\x96A#\x0b\xa4n&lt;I\xc2"\xba)nW\xd6\xb9\xff\xa6\x82\x9c\x0c\xda\x16\x11\xb2\x00hj%a\xe9\xa3\x03\xeb\xe2\x7f\xe0\xb0\x1cZg\x0b\x00\xec\xf8\xad|KX\x7f\xbfP\x0b\xac\xc0\x02X\xd1\x11\x9e\xf9,\xde?\xcf\x03\xab\xb0\x00\xd8j\tk+\xb0K\xd6\x0e\xfaXy\xf6\xc9\x92\xfc\xe1Yy\xf4\xb3~\xbch\x92\x85_\xfc\xd1V,\xde\xed\xda\x1fL\xb0\xca.\xd4\xde\xe6\xd9\x8a\xb5\x11\xe4\xdc4\xca:\xf7\x8f\xf3`#\xcfF\xb9\x05Y\xa9iFXe\x17\xff\x85\x01\xbbc\x95\xfdM}\xb7\xb1/\x16~\xee/\x18\xb0;\x16\xfe\xc3=`O,M\xa3u\xee\xcf\xb5\xa0=\xec\x81\xf5\xd9\xbf\xaf\xc2\xfe\x1d\xbf\xfaW\x0c\xbc\x80\x95gUV\xfa\xbd\x0b8~\xe1\x9e\xd6\xd4RD2[#\xad\xc8\x02\xe7\xbf\xf9\xe6|;\xaa\xf9\xd9\xf5\x1c\x92\xd9\xb2*\x0b`\xda\x05,&gt;&amp;IK\xb5\x1b\x966\x1e\xee\xe3\xa1\xa6Y\x14.b\x89\xd8|\x16v\xa6\x00\xfen\x9a%.\xa1\x8c\x95\xfa\xdclVs\xd5)\x94\x94\xf5&lt;\x95\xa2+q\xb5+h9e&amp;\xab\xe8\x98\xe6\xa9\xc8$\xebd\x0bp]M\x05\x0b\xe1x\x02p\xfa\xa4y\xac\xa6\xcfPR\xd6\xc9\xd3\x00xR\xa2B8\xbe#A\xc5V\xb1Y\xactr\x96xG\x05\x18\xe9\x8bP\x14c\xfd\xc1\xb6\xebT\xb0\xf6m\x03\xfec\xa9R!\x9c&gt;\xd3\xc1\xf1\x8c\x97ge\x1c\x07\xd3\xfbp(c!\xcc\x8f]Az\xc1K\xb1J\n\xd0\x82t\xe0\xfa1\x13\xa10"&amp;1\xb0\xaa\xfc\x97`\xa5\x1eA\xf3\xcfb\x8cI\x11\x08\xa5\x11\x9d\x0c\x9a\x8fe\xe4t\x97\x85\xdd\x96\xf0\x0e4\x83\xe4h\x84\xe2\x98\x16\x00\x8a\xd2\x8a\xbb\xc9\xc2\xce\xe6\xa37\x8b@\xc04\x84\xf2\x186\x1d\x94\x14u\x8f\x85\x9d9\x89\xee\xde\x0f\xa6\x0f\xa3^\x858y2\xb4\xf7=KY-\x19\xe8\xa93\x80\xe1\xe9D\x03\x0b\x89\x88\xe9&amp;\xab\xa4\x15\xe5\x9d\xc5@L\x04BKD\x0f\xed\x16+\'\r\x15\x1f(\x02C\xa3\xe9Q\xc1\xaa\x1a\xd0\r\xd6\xd6\x8d(z\xb7\x18\x04PYG;\xc5TW\x8bY\xe2\x02\tZp\x02\xb8NE\xe8\x0b\'O\x8bY\xc4\xc6\xd3\x18\xa0\'\xddu\xcd\x84#\xc3b\x16oG\x05\xc3\xd1\x17\xa15\xc6\x06X\xccJ\x83ut,Bs\xf4\x19\x0c\xc0mKX\xad%`p\x1f\xbaU\x08\xf3\ru3a6\xab\xa0\t\xb8\xbe\xc1\xa4\x9d\x05\x9b\tPQ\x95g.KRU\x01&amp;E V\x08\xdf\xa1\xa0\xe2\x80\xd8&lt;\x96\xf8@\x05\x18\xea\x8bX%f\xf8k8f\xb0\xd2r\x80\xff\x0c\xc4J\x01\x9b\x89\x96VsX\xad-\xf4\xb4\r\xa6\xab\xea\x99\xfc\x17\xb3\xf2\xcf\x00z\xebh\xa7\x98\x18\x03{\xe8\x17\xb3\xceV0b&amp;ZO\x85p`3QqKL\xce\x12\xdfj\xa6\xafm0UU\x03@\xf1sr\xd6\xdd\xe3\xb0m@\xac\x1c\xb0\x998A\xce\xa2\xb9m0\x91^\x9e\x00+&amp;c\x15\xc3\xb6a\xa2\xd5Y\x9c\x88d\xd8L\x90\xb0\x00#9\x02\xb1AL\xf3\'g\xf9O\xb3\x85\n\xf6\xd0\x83A\xd1&gt;\xe3\xac}E\xb0m\xe0\xd8\x84\x858\xadf`\xe9\xa7\x8c\xb1N\xa5c\x8c\xd5N\x88\x8dbb\x0c\xc04\xcd\x84!+\x8fx\xfc\x9a\x88\xd8,|\x93\x01P7\x13\x06,\xf1\x01\x00\x92}\x11\x1b\x06l&amp;\x8a\x89\xf4\xca\xab\xd2\xbc\x94\xaf"^\x9d\xee+\xb6b\xdb`&lt;\xed\x87\xb9\x82\xfd\xc4\x7f\x81*8\x01]\xd8\t\xa2m\xdd\xdd\x02\\\x87ql\xcaB\x98\x9e\x0c\xd0D,\xe3\xee\xfd@\x03\x147\xd1\xf5\xb6\xc1\xa2\xcb\xd1\x91\x81=#\x96\xeefq1\xf1\x0f\xd7\xf9\xcf0\x86\xa3\xcdU\xf0\x11m(h&gt;\x02\xe7Kr\xe4\x88\x04\xce\x15\xd16\x8cE\xec `U=~\x97\xe8\xa1\x89.\xf9\xee\x16k&lt;~\x99\x97\xf60\xab4\x8fhh\x01\xcc0[\xa7\xbb.\xbd&amp;1\xb0\xd3\xea\x7fT\xc9?\x8d1&amp;9!v\x12\xbe\x1b\x00v\x0c\xa6\x97\xf8\x18\x066\xf8"v\x13\xb0\x99H\xfd\x9d\xc7\xfb=\xc7Vm\x83\xe9f\xa2\xa4U\xfd\xb6\x81cG,\xe2\xcd\x04\xd6\xd4\x84Y\xe5m\x83Ei\xaf~\xdf\x1b\xe3\x84\xd8YDo\x00`C4bw1# `\x86\xfd\xa9\x10\xe6\xd4\xa9L\xa4\'z\xa2\'z\x82\xf6\xf8?H\xe7v\x14\x83\x03\x9d\xc0\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x01\xa4PLTEGpL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xff\xff\xff\x00\x00\x00&lt;&lt;&lt;\x01\x01\x01\x0c\x0c\x0c\x06\x06\x06\xf9\xf9\xf9\xfd\xfd\xfd\x03\x03\x03\x9b\x9b\x9b\x10\x10\x10@@@,,,\x1d\x1d\x1d\x89\x89\x89\xfe\xfe\xfe555\xcc\xcc\xcc!!!\xdd\xdd\xdd\xf5\xf5\xf5\xd4\xd4\xd4\xf8\xf8\xf8\xc9\xc9\xc9VVV\xec\xec\xec\x93\x93\x93yyy\xb9\xb9\xb9^^^\xc4\xc4\xc4\xf0\xf0\xf0999%%%000jjj\xe7\xe7\xe7)))GGG\xda\xda\xdavvv\x15\x15\x15pppDDD\x86\x86\x86\x8e\x8e\x8e\xd1\xd1\xd1\xab\xab\xabLLL\xb0\xb0\xb0\xf2\xf2\xf2\xa0\xa0\xa0\xee\xee\xeePPP\t\t\t\xb4\xb4\xb4\xa6\xa6\xa6\xe9\xe9\xe9}}}\xa9\xa9\xa9\x97\x97\x97\xe4\xe4\xe4\xe0\xe0\xe0\xbb\xbb\xbb\xe2\xe2\xe2\xbf\xbf\xbf\xa3\xa3\xa3\xce\xce\xce\x19\x19\x19SSSddd\x80\x80\x80YYY\x13\x13\x13\xf4\xf4\xf4ggg\xb6\xb6\xb6\x17\x17\x17\xd8\xd8\xd8\xd6\xd6\xd6sssbbb\xc0\xc0\xc0\x82\x82\x82\xad\xad\xad\x9d\x9d\x9dmmm\xd0\xd0\xd0\'JIV\x00\x00\x004tRNS\x00\x06!i\x19\xf7\t\xfd\x01\xe7\x0eZ\xca\x9d\xdfG\xa59\xf2\x97&amp;zC\x8a1@*q\xac\xeeNK~\xea\x15\xb9u\xd0\xf9\xd9b\x86R\xb0U\xd5\xc1\x90\x83-\xb35\xe1&amp;\x7f\xb1\x00\x00\x0c\x98IDATx\xda\xcd\\gC\xdb&lt;\x106\x10\x08#\x81\xb0\xa1\x8c\x0e(\x1b\xba\x12\xb2\t\x19\xec\x14\x08\xab\x84\xbd\xa1P(\x94\x02\xe5e\xb5@K\xc7\x9f~\x0b\xb6lI\x96l)\x03z\xdf\x82-\xf9\xc1&gt;\xddx\xee$A\x88S2\x1f\xb5\xbc\xb4\x98r\x0b\xd2\x8d6[]zU}\x9b\xb9\xb8:UxP\xc9\xcc/\xae\xa9\xb2\x11$\xab\xb2\xe2\xd5\x03a\xcah\xb2\x10!\xc9\xd0\nKR\xee\xfd==\xb6\xa4\xdbt\xa5\xaa0\xff&gt;A\xa5\xbe\xcc\xb51\xca\xf3\xb4\xec{zQ%\xcdF\x1b\x87\xa4\x9b\xefA\xcd2\xd2\xea\t\x8f\xf6\xf8CS\xc7\x91\xc8\xfb\xf9\xd0\xac\x9dp\xd9\xd4\x94\x99TP\x86\'Y\xf8#;\xa6N~^\xba\xac\xb2\xf4.}\x98iw\xe2w\xd5\xa7e$O\xa5\n15\xf7\xf8\x02]n+A\\?\x86&amp;0`O\x9f&lt;K\n\xa8G\xe6:\xe49v\xdf\xfa\xa8UC&gt;/vb\xeb\xb2\xd1\x90pPe\x95\xa8\x9ew/|\xb2\xea\xca\xd1\xf5,\xaa\xfd/\x12j\xff3\xab_#\xa0\xec+\xabn+\x93\xf4\xfe\x1a\xc3\x96e\xc2,Yv\x05j\xa5\x1cs=V\x0e\x198E\x17\x80)\'\x01\xc6?\xa5\xa9\x19U)\x7f\xe0\xad\x95Szf:\x90)\n\xcc%q\x19\x8c\x94\xeaB\xcc L|pYc\x90\xb5E?f0\x1a\xcbcDf\xc8i\xc6\xdd\x9eo\x98\xf8\xd0\xfe\x01\xef\xccq{\xd4\xef\xef\xf4\x9d\xee\x1c\xf6\x91M\xc6z\x14\xb7\x18\xe6jN\xbf\x94R\xd6`Q\xd9Mgd\x89\xf4\xb8\x83\xa1\x10f&lt;\x1d\xf3\x0b]A\xc2\xad\xfb+\xb8\x07\xb0\xd7\x17\xe6\x14i\xbf\xb5L\x83\xc1PTV\xd2RQ\xda\xdcZ\xa7\xf6\x1f\x8e\xebI\xc2k\xfay\xec ;\xc2\xd9\x8b\x03\xc2K\xeb\x8b8\t&gt;\xf3\xb9\xa51\xad\xa9\xfcU\xaa\xc1@0\xb8\xd9Z\xeevb\xbd\x97\xb0\xc4"\x0e\xad1\xdf\xae\t\x0bv#\xd0\xad1$\x97\xa0J\xd4\x9b\x9d\xe1\x01\xf5\xfc\xe7\xbb\x9d\xba\xb1\x83\xdd\xb7\xac^ \xee\xd5y;5rT\xc3*"\xdf\xe9\xf1\x91^\xd4\xf4\xdc\x19[T\xd3\xbd@0\'\x93\x8b\x13\x94\x18\x88\xe0]\x08\xb79\xc2^\x82FYG\x8e=\xec\xe1\xd6\xe6\xc54a\x8a\xe9\xc0\x14A\xcdlj\xf5/\xc7!\xf9v\x0e\xfaIK}\xb8\xdd\xc6\'\x9e\xf0\x11i\x9e\x8d\xd5k|\r\xdb\xd4\x16\xe3\xb12M\xf7\xd4\x0c\xc5\xfaX]\xdeq[\x0c\xd2\xbe\x15$O\xd7\xe5}\xe7\xf3+\xba\xa6\x0e1\x9a\xc4\x0b3#=t;~\xbe\xf8\xc5\x16\xa3tj\xb8\x87\xde\xcb\x83c\xf1.u\x80\x91#^\xd8\xa2{\x90\xe9\xdf\x0e[\x1c\xf2\xe5f\x9b&gt;\xf7\x8dx\xcf#\x15\xac\x06\xf1\xc2&gt;m\xe0\xc8\x8a\xdd\x16\xa7l^\\\xd2f\x0f\x88w\x94\xa9`\xa5\x89\x17F\x88\xa3\xde.2\xa8\xd4\x84\xfe\xcb\xb4\x87\x0e{\x89\x0f\x18\x14\xaf\xab\x83\xb1\n\xf1B\x17\xc1\xfd\x7f\x9cb2\x08\x81S\x96\xbb\x1c\xe1a\x82\x96y\xc5\x8b\xe5*X\xb5\xe2\x05\xdc\x1dOz\xe7\x9d\x8c\xdf\xa8g\x99\xf1FG\xf8#\x9e\x05\xac\x8bWJT\xb0\x8a\xc5\x0b}0\xa4\xe5\xa1\tv\x85\x9a\xb0\x9eo2\xdf\xec\xf4\x9d\x0c\xafA\x8f:\x14\xff\x9cG\x83u\x05\xf2\x96\xc1H\'\x9f\x8e\xdfX\xad\xef\xb9\x068C\xef\xbc\xe0\xad}\xa0\xc1z"^\x98F?6\x87\xf4\xc9\x93s\x08P\xe5\x8f\xe2\xcf\xc74X=\xb1\xc2\x8a\xfe\x1d4\xea\x8c\x15\x96\xa4\x96\xd5\t\x875t;j%\xe1\xb0\x8a\xe3\xfc\x88w\x0f\xf8\xc5;j@\xef#\xd6\xa2*\xcf\x0b\xab[4\xbb\x9e\x18\xdf\x16U\xe5kQ\x03\xb1\xce9\xff\xb58\xcc\xc79l\t5\x10%4+\xbf\x84\xc2g\x96\x11\xc4\x890\xcb\x15\xfa\x16\xcai&gt;\x11[\xb1\xcc\xe1\x81\x14\x9eMr\xfasL\x95\xf3i\x11\x04p\xd5\xab|\xd3\xbf\x03\xe6\x9a3t\x05\xb4\xcf"-\x82\x90\xe2-\x907\x0f\xf3M\x7f`E\xe7g\x15\x90\x80,\xd0\xe2-):]\x05\xe1\x15\xd7\xec\xb3r\x88\xfd\x89\xef+\x82la\x87\x16\x9d\xe6\x89\x17&gt;H\xf7\xfd\xe1\x9a\xfd?\xc5\xe9\x86\xb8\xb2\x0f0jF\xfc\xadN\xab\xf3\xc5\x0b\xbb B\xe6\x82\xf5U\x81\xb5\xc03\xce\x01F]\x88\xbf\xd5\xbc\xef+)\x96\x03\xf1(\xcf\xec\x1dP`w\xc93\xd0\x0fF\x85\xef~\x1a\t42\xe4\xdanS%\x1e\x1d\x89\xc0\x11]\'\xc7\xc0N0hJ\xe4\x96\xa8\xd4\x88\xbc\xd2y\xb2\x9cU\x18\xd6\t\xc7@\x1f\x184F\xa3F2E\xd2\xf6\x14\xdc\xd8\xcd\xa1!H\xda\xb0\xc4\x01\xeb=\x18$f0\xcf\t\x04\xd7\xd3\xbb+\xf31\xac\xa80\x1a\x97\x8f\xc7\xb0\x82Er\xb5\x86\x00\xab\x15\xfd\xda\x1c\xa1\xd3G\x14\xd6\x0c\xfb\xc8\x1dT\x93-\x04Xm"Y\x06&amp;\xff\x8f=&amp;_\xc3\xe88vX\xc0\x1c\xed\x89?_\x10`U\x8a\x06\xce\x8d\xda]\x06Y\xc1\x92\xab\xa0\x9fy\xe8OiH\x97\xf8\xb3\x98\x00\xabP\xbc\x04\x08\xad]\xe6\xb9\xd7\xf1\\t\x8e7\x1c\xb2~\x15\x7f6\x10`\x15\xa3\x91\xcd\x16\xec#\xc6\xda5D\xc5\xf7\rh\xdd\x8d\x10\x81\x93h\\\x93G\x80\x95\x83\xbe\xd7&gt;\xc4\xbe|\xb2&amp;H\x06\xe0u\xea\x04\xac\xd7\x10-\x80\x90\xe9\xc0E\xc0&lt;\xa0\xee\xe5gB@\x05\x03H\xca6\x0e\xfe\x1e\xa1\x91\x81\xb2\xf7\x99\x03\xb7b\xa4\xedEo\xfc\xa8&amp;\xa7\xd09\xe7\xd1\xe0\xb1\x80X\xba0\xa2\x86w\x0c\xf7_}\xf1\xa2\xfa\xfa\x8d\x16\xd3\xfa\xa9F^\x10r\xe5\xec\x18~\xb1\x90&amp;\x0c\xc6\x05\xca5\xa7\xf2\xfe`\xc2^\xf1J%\x11V\x8d\xf8p7=pz\xff6vT\x97\x04o6\x8c\xba\xd1R",3\x9a\xee\xff$\xc5G?bE\xf5\xcb\xa1\x91`H\xa9~\x1a\x11V-\x1ai\x12\xe39\xfbPL\xf5\xc4\xd101\xf2\xc0&gt;L9\x11\xd6c\xd4B\xb8\xc9\x11\xd7XO\x0c\xc6\x8a\x1c%\xb5cjL\xeeHH\xc5B\xcd1J\x84\xfc\x91\x13\x94{\xc1\xa9\x93\\v\xd2b\xd3\xbb@\xb0@"\x1b%yG\xf3d\xdf\xcfyP\xedQy\t/(K\x8a\xb0\xdb(\x95N\x93\xb8\x14]\xba\xa4\xcd\xf8\x11;\xaa\xadY]\xbaF\x8a\x1f\n)\xb0\nQv\xa4O#\xc4\x1a\x0c\xb2\x81\xea\xffMOU6\xc1\xff\xffKk!\xca\xec\x88W[\xe7E\x99\xdafA\xd5\xa7\x95\x06\xb5c\xda\xf2\x86\x02\xeb\r\x16`\xcfk\xd6|\xf7\xf5Qy5\x19\xf1\x19p\x9b\x18\xeb\xd4\xd1z\x962\x8ch8\xaf\x1d\xa0\xea\x9a\xb0\x8d0[\x1aw\xee\xd1\xf0\x88\x8a\xce\xdb\x01Y~\xa0\x13[\x86&gt;k\xa1\xea\xd2\x89\x9d=\x1b\xd2\x8d?\xb45^\x10^\xa0\xae\xaa_\xaf*1\xa0\xf9\x05\xf5\xfe)\xac:\xd6@\x85\xd5\x82&amp;\xfc\xda\xca\xf5\xd7Cj.\xc7m\x1dzw\x06M\xf4mE\xf4\xfe\x15\xc9\xbf0\xb2/s\xda\xba\xa5C\xef\x82o\xe2r\xd0\x9a\r\xb0\x90\xcb3\xca\x96\xb7\x8fh\xc3\xd2\xa6w\x1d\xfd(\xc1W\xa9\x01\xcb\x8cU\x86\xfd,4.\xd5\xeb\xd8\x99\xe8\x87\x13mc\ne?s\xban\x11\xf1\xb44\x19\xd3\x1a\xfd\x0b#\x81\x8b4`=\xb3C%\t,YT\x89\xae=\xd5\xa2w\xed E\x94\n\x1f\xb9\x9a}I\xcf\xd1Z\x86\xab\x83\x85\xc6\xa5\x89\x16\xbd\xdb\x8e\x158-\x9a\xb0\x1aQ\xaa\xd2\xfa\x9d\x89\xc6\xa5\x89\x06\x195\x88\xd2\x93\xb6\x16MX\xf9\xd8\xff2\xccD\xe3\xea\xb4\x11\x90L\xfc$j\x1e\xd2\xb5\x1b\xdf2\xc5&amp;7\xfb\x1e\x18u\xc6B\xe3J\x85\x0fU\x146\xad\xcfNJ\xa4H\x8dN\xff\x9d\x19\r\xe8\xe9\xecK\x04\x8f\xac.l\xce\x00n\xf6;uY\x9e\x88\xbey\x80\xf2\x0c\xd9a\xf51\xd1\xb8 \xb2\xc2\xa3\xb0\x1b=\xb6\xb5W\xfc\x86F\xbd\xb6\xe2\x14q#\x83\xbdG\xc7\xf88\xfa\x89\x91\x15\x16\x85\xf5\xe9\x99&lt;)Cl\xd3\xed\xa2\x94\xbe\xe2\x82N pJI\x03\xb1(,\xaa\x1d\xc5[\x8f\xd9\xbe\xa1 \x94HE^`\x95\xce\xc9\xa6k\x99\x9a\x06"\x89\xe4\x109\xd7\x94)\x1c1\xe71\xea\xf7\xac\xa7da6\x9cH\x1co*\xb4\x92;\x80\xa5\x81\x1d\x10\xe4#mj:\xc0\xb6\x0e!\x8b*\x93\xed\x9fI\xc9\xe71\x95\xb3\xc2\xb80R&gt;\xed\x07\xdf98\xcebK\xa5\xe4Zt\x19\xcem\xcc\x0e#\xf2A;\rT\xb80\xd2\xbb\x96}\x88\x14.?ej\to\xc3\x94\xfeH\xed\xda\x9c\xa3T\xce\n\xe3\xc2\x08$}\xc7(\xf6\x0f\xbf`\xeah\x96\xa2\x9b/\xf2\x92zO\xa3\xe2\xa75\x9c\x9e\xc4\x85\x11H\xfa\x13\xb9a]\n\xab\xd96\xdc\x00\xa5\x97-q\x97\x9dl\xa4\x0f5\xabh\xfe\x11\xb2\x9bpl`\x1e\xa4F`\x13\xa9\xddF\xe6HT\xf5\x1f\xe7\xed\xcck\x11\xbd\x8a\xef\x89\x9bT\xf4\x96\x13\x98Q\x07\xad\x83\x85\x12\x0c\xa6\xa3I\x80u\tKb\xa6n5\x8e\xa1\x10\xe6\xfb\xeb\xf1\xddXO\xe8\xec(f\x1d\xea\x99\xfb\xf9\xcd\x98\xd5\xc3\xc3.\xaf58\xc8\xd4\x13u\xb6\xa5\n\xbc\xe5@km\x96\xd5\xc2\xcbm\xd7F\xecu\xed!Z\xe4\xd9\xdef-\xeb\xd9\xe7\xfa\xf7Q\x0e\xca\x85\xbd\xac,\x8e\xedR\x16\xfcu!\x95^\xdf\xfe7\xf6\xda\xdc\xc4\xd5,1\xf0\x00/\xab\x96g\x07\x14\xfe\xba\xfaaM\x8ar\xb5C9\xbaIi\x18xYO\xb9\xf6\x96UJ\xd6ZN#~\xc4\xdd\xa3{\x07Q&amp;S\xb6\x1d\xf4\x12\xa2\xbev\xedZ\xf9\xab\xb16\x86\xc4\x02L\x97\xc5\xb9\x11O",\xcfd\xdb7\xea\x8f\x1f\xd5|\x10whi|\xa8\x04C\x01\x9e:\xef\xc7\xfd\x19\x1drU\xd2-\xa5\xd2\xf5\xdc\xfb\xb6^J+\\\xe1?\xae\xe3\x85%\x87\x1dr\xc5\xb9\x89\x7f7\xa9\xb4\x9f-*\x07\xed\xaeP|\xa8\xbe+[\x17\x1d|\xde\x10\x96j\xdc\xe1[{:\xe2A\xd5\xa9\xf4%H!IzQ,\x9b\xc8^K6]\xa1"\x87=\xb1\xa3\xea\x98V\xd1\x97/c\xdb\xea*y\xec\xf1s\x86\xec]\xd7\x0b)\xdc@\x8f\xf4\tsc\xdc\xa5[\xa1&amp;\xb2\xbe\xc7o\xb1\xdcR\xe6i/\x89uo\xa9I\xb5\x84\\\xbe\xd8P\xfdV\xb7\xe0\x98c\xdf\x1c,}F\xc7\x95\xb2+#\x1a\x0b\xaa\x15%\xa7]\x95\xcc_V\x1c\x9b\xe6k\xc1*R2\xac\xbd\x18\xac\xbd\xafW\xb5\x9a\x8dy\xf1l\x11\xae\x01\x9e_\xe1b\xa6gyQM(;/\xd6\x00\x87S\x1a\xdfn\xf8,\xac\xd3\xea\x96\xef8\xe34XJ?\x80\x1b\x84\x8f\xa68w\x0b\xe7I\xa1\x84\x1d*\x05\x1fq\x99\xd5\xf1m5%QU$\xc4)\xc5\x80u\x80z\r\x96x\xa2S\x08\x15p\x85q)\x96\xa4^\xcd\xc0L\xffQ\xe6\xbfb\xd6\xfb\xd0\x862j\x19\xc4 O\x12\xb1\t\xbd\x15T-\xa0n\xa9\x1eF;1\x05\xed3:\x00\xc9RsBN\x87H\x05j\xdf\r\xd5\x0f\xdf\x8e\xb1\xa0\x8a@\x1c\xdc\x08\xc8\x9eL\t:\x1a\xe2M:\xd0\xde=h\xafbX\xdf\x0f\xee@\x15\x85\x01\x80*+a\xc7/\xb4\x80\xf3\r\xa2\x90\xfe\x06ot\xc2\xd5M\xb8\x8f\xe3\x0fX\xbdUe\x89;y\xa1\x01 \x88\xc2u\xe0eMj\xa4\x1b\xae\xcd\x0e\x00T\xe9\t=B\xa6X~\x18\xcc\x8c^i(\xfe&lt;\xdcTu\x00\xfe\x81\xba\xc7BB\xa5T\xe6\x87\xe0\xad\x82\x1b\xc7Le\xff-\x80\xca\x98\x93\xe8S=d\\\x1d\x070\xc3\xbdK\xa4Hf\x91\xa3\x10\xbc\x9e\xa4\xa1\x82p9\x0f\x91\xbe\x02\xc2\x8e\xf2)X\x03\x832\t\x9e\x0cTBf\xa3\xfc\x85n\xe0\xdaN?\xce\x9fn"\r8\xbd\xf2\xd6\xd3\xbad\xa0\xba\r\xa2\xe5\xe7\x87\x91n\xcf\x91(\xbduvO\xce\xe2\n\xf2\x84$I\x83|&gt;Kh\x0f\xa9\x8e\xcd\xc8)\x91c\x17\xa9\x92u\xc9\\`U\x12\x0f\x97\xca+\x90y&gt;\xb4\xca\xd9\'e\xef\xa7\xe8\xd1\x03\ng\x98\xfbHH\xa2\x94e\x11=\xcb\xdf\x00\xcf\xfb7\xd8\x89\xa2{\xd8\x15\xb5\xb2\x99\x0cBR\xc5\xd0J\xeb\xbf\xde\xf8\xbd\xe8\xa2uU\xbf\xce\x10\x92,\x19\x16b\xcdI\xabQ\xd1\xfe$SH\xbe\xd4*\x07\x13}\xdf\xa0\x1e\xa9\xa3\xb4\r\x15T\x0b\xf7"y\xcaa2_\xc8\'"\x04\x07\x15/\xde\xfaH\xb8\'1\xb4)\xce\xef?B\x9f\xf3%\xd4ae\xc9\x10\xeeMRJ\x95\x0fy\xe6\xc5\xea\xf9\xfd;\x8a\x9f,H\x13\xeeU\xca\xa1S\xa6\xda\x91N\xfa}\x88\xf06\xdd\xfby\x8b\xd9\x95PY\xe3B\xfe\x92\xd3P}\xc3\xf8\xf2\xde\xcf3\xbc\xa5\x0b\xa1c\x94:v\xefl\xd6\xda\x10\x14\xe7\xb4\x96\t\x0f"\xcf*\xe1\x18\xf9\xd0\xdd\x1f\x80\xd2mci\x86\xf0P\xd2\x02\x9f;\x15\x82\xab(\xa6|\xe1\x01%\xfb\x05\xf1\xc4\xc5\x82\x8a\x14\xe1a%\xdf\xa4FU\xf9\xc0\x07\x9e\xdeE\xad9\xd8\tb\xcfK\x84\x7fB\xb2K\xd3\x15PO\x1f\xfc\xfbA\xde\xc8"\xa9Xzc\xb6\xf0/\xc9\x9b\xdb\xe2\x82\xd1\x9c*\xfckRnj.J\xd8d\xff\x03\x1e\xbb_\x08\x91\\\xb6\xda\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67010416667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49202</v>
+        <v>1954</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -942,11 +942,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x02\xfdPLTEGpL\x01^\x08\x13n\x18\x01_\x08\x01^\t(k(\x00\\\x00\x0bG\x0b\x01_\t\x01^\t\x01^\x08\x01_\t\x01^\t\x01^\x08\x00^\x0c\x00_\t\x07c\x0f\x01^\x08\x06W\x06\x00_\t\x01_\x08\x01_\t\x00^\x06\x01_\x08\x01_\x08\x00_\x08\x00^\x08\x00^\x07\x00^\t\x01^\t\x00^\x08\x01^\t\x01_\x08\x01_\x08\x01^\x08\x01_\x08\x01^\t\x01^\x08\x01^\t\x01^\t\x00^\x07\x00`\t\x00_\t\x00`\x06\x01_\t\x00^\x08\x00_\n\x00a\r\x01_\x08\x00]\t\x00`\t\x01_\x08\x00^\n\x00^\x08\x00^\x08\x01^\t\x01_\t\xff\xd3\x02\xfe\xfe\xfe\x02C\x01\x02^\t\xff\xd4\x02\x01Z\x08\x01^\x08\x02_\t\x00]\x06\xcf\xe0\xd0T\x8fX\xf5\xd0\x02\xeb\xcb\x02\xc4\xba\x03\x04`\t\x01\\\x08\xfe\xd4\x02;x\x08\xfc\xd3\x02\xf7\xd2\x02\xfd\xfe\xfd\xed\xf3\xed\x02^\x08R\x83\x07\'u,-v2\xeb\xf2\xebT\x84\x07\x92\xa1\x06\xf2\xcf\x02D\x85H\x1fk\x08\xc1\xd6\xc2%r*\xcc\xbd\x03m\x90\x06\ta\t\x7f\xab\x82\xc8\xbc\x03\x13_\x19\xfd\xd4\x02b\x8a\x06\x0fd\tM\x81\x07\x02B\x01\xf9\xd2\x02\xa5\xab\x04\xd2\xc0\x04P\x82\x07J\x7f\x076v\x08\x81\x9a\x06$n\x08\xdc\xc4\x03M\x8bQ\x0cc\t8w\x083u\x08\xad\xc7\xaf\xb5\xcf\xb7C|\x07\xfa\xfc\xfa\xe8\xca\x02V\x84\x07]\x88\x06F~\x07?\x83C\x06`\x0c/s\x08\x1ci\x08\x12d\t@z\x07\xdf\xea\xe0\xcf\xbe\x033t8\xe0\xc6\x03N\x8dR\xbe\xd5\xc0k\x8e\x06=z\x07\x15g\x08\x97\xa4\x05\xf5\xf8\xf5\xd5\xe3\xd6h\x8d\x06`\x88\x06y\x96\x06\xe8\xf0\xe8\x88\xb1\x8a\xd5\xc1\x04!q&amp;\xcd\xde\xceZ\x87\x06\xe5\xc9\x03x\xa7z\xb3\xb1\x049\x7f=\xd9\xc3\x04\x9c\xbe\x9d.y26|;C\x80H\xbe\xb6\x04\x83\xad\x85m\xa0oV\x86\x07\xcf\xbf\x03X\x95]\xf1\xf5\xf1\xa4\xc2\xa7\xa0\xbf\xa1R\x82\x07\xa0\xa8\x04\x0ff\x15\x8e\xb4\x90*p\x08G\x88K|\xa9~\xee\xcc\x02c\x99f*v/r\x92\x06\xe2\xc7\x03\nc\x10e\x8c\x06\x1cn!]\x96a\xda\xe6\xdb\xa8\xc5\xaa2z7\x94\xbb\x97u\x94\x06\xe3\xec\xe3w\x93\x07\x97\xbb\x99\xc7\xda\xc8t\xa3v g%\x1de"\x8e\x9f\x05\xd1\xba\x02\x05B\x01\x01[\x07\x85\x9c\x05\x91\xb6\x92\xb7\xb3\x04\xc1\xb8\x04\x17j\x1c\xb9\xd1\xba\x9a\xa5\x05\xff\xd6\x02\xb1\xcb\xb3\x8a\x9d\x06\xd2\xe0\xd3@}D\x11I\x01Yt\x01\x93\x96\x01\x7f\x8b\x01\x1dP\x01\xbc\xd3\xbd\xad\xae\x04\xbc\xb8\x04Y\x92]P\x81\x07\xca\xdc\xcbM|\x14w\x91\x10\x0cF\x01\xb5\xaa\x021]\x01\x9e\x9d\x02\x02A\x01Af\x01z\x98\x05\'V\x01\xaa\xa4\x02%h\x19\xa7\xa8\x07\x86\x99\x0f^\x86\x08 e\x1aj\x8b\x12\xc4\xb3\x02j\x7f\x02\x89\x90\x01Kl\x01cz\x01:b\x01q\x82\x01t\x83\x01\xba\xad\x02\x01Y\x08Lm\x01\x1eo$X\x81\x14Q\x8fUc\x87\x12\xeb+\xf5\xe0\x00\x00\x008tRNS\x00\xf0\x02\xe4\xfa\x04\t\x01\xfe\xf7}\xfc\xd7\xe8\x13\x1a\x17\xb2\x06\x84\x8cT(\x9f\xcdZ@D5\xdeal\x99\xc7\xacq\xf3v\xbf\xc2!\x0cf#\xa6;1\x0f\xd3+N\xb9JX\x90\xa4$\xf2\x0c\xfd\x00\x00\x0c\xf7IDATx\xda\xcc\x9b\x07\\\x13Y\x1e\xc7C\x93"\nV\x14\x0b\x88\xa8\xab\xa2\xeb\xdav\x06f b\x12\x0c\xa0\xa2\x92,\x1a \x02R\xa4Y\x01)\x02\xcb\xa2(]\x10\x16\xb0\xa0\xb0\xea\x81uA\xec\xb2\xee\xaez\x9ez\xba\xd6\xb3\x9c\xabw[o\xeb\xf5\xfe\xb9\xcf\xbd\x99\ty3I\xcc\xbc\x01\x12\xf8}&gt;\x927\xaf~}\xff\xf7\xde\xbc6"Q\xaf\xc8\xc6\xc6F$\xb2\x15\x89,-mD\xfdG\xb6\xcc?[[Q\xbf\x92\x16\x07\x80\xf534\x9bis\xe9J\x13h\xc5\x01\xa6\xa5zk\nf\xe72\xb8\x7f\xd5\x94h\x80\x835\x06d5\xbb?\x99\xd0v\x8c#\xc6\xc8\xce\xcb\xb9\xdfP9\xbdm\x87ie1\xbe\x7f\x0c\x11C\'zb\x1cM\x98\xd9\xf7P\x96cfa\xba\x1a\xe8\xde\xd7\x96\x1c9Dk?qt\x12\xb4\xa4\xdb\xd0&gt;\x84r\x9eo\xdd\x05Bl\x95\x91AWc\xb4`\x8e\xb3-\xfbjP\x98d\xa1\xa5\x88Q\x04\xe1@\xed/\x08\xad\xd7\x94\xb1}\xd2\xd2\xc7[i\t\x02\xca3\x00\x93D\x8e\xe3\xf2\xba\x14\xd8\xc4&lt;\xde2\xfb\x9bf\x84#l\xe2Ij\xaa\xa6\xf0\xef\x83\xa9\xbf\xc1\xc9\xeb!\x98\xcb\x1bf\xed~sGA\xa8\xb0x\xda~8^~\x8d\xf9m\xaf\x11k\x03\xed\xdd\xcd\x06f\xc3\x86\x8aI\x0ef`\xf0\xa8\xb0\xc7\x1a\x17\xa9\n\x84`\xd6\xe6\x01\xb3\x19\xc1\x82\x8a(\xca\xc0\xbbT\xf8\xafGZw\xd4\xb3c\xb0\xed[\xbfm\xf266t4\xabM\x05li\xc0\xa1\xe2}\xbf%\xe1SPq.\x8ch\xe71\xc3\x94\xc3\xc5T\xb7q\xb0,"\xb1\x99\x85\x81\xe3\xe1\xbe\xd7\xa5\xecg\xc9\xd5\x9d,\xb0)&amp;\x1b\xc7\x9c\x86\r\x82\xe5\x88\xd3d\x1c(\x9c\xdc\xe8\x1b\xfbO\x8e\x0f.\xb9\xc1\x02\xc3\x1c\xa7M5\x01\xd4L\x17{VM\xa5\xc9\xe4\\\x04\\\x19\xe1\xeb\xf3\x1b\\\xd7\x93\x03f1\xcc\xa9\x97\x07\xf4\x11\x93Ys\x17q\xd6-R\x17\x00W\x13\xbe&gt;\xff\xd6\xf3\x05\xa6\xcce\xbf\xc4=\\{o\xda\xe3\xe4`\xc5\xca\x9a\x08Q\xc9\xf5\x8b\xc7\x15\x98\xaf\xcf\x93(\x03\x01\xc1\xc5)\x04\xab\x919\xba\xbd\xd9+}\xcf\xd5\xc3\x9a\x05\xb5\xbe\xbc\x8a\xc4\r\xa9\x06`\xf9\xd4\x1a\x0c\n\x8a\xdf fe\xe1\xe9&gt;\xb6\xa7U\xe64i\x1c\xcbzX\xde\xa5\x0c\xdc\xb0\xe4a\x00+\xf6\x0f\xaf\x0b\x95\xade\x83\xd9\xcd\xeaI\x95\r\x98\xcd\xa9("E\xa1\xc4_\xa7\x0c\x82\xaa\xad\x7f\xbc6\x9cL\r\xcfcO\x15\xed\xbd\\\xbb5%\xb3\x9c9\xdc\x82\x9d\x8f8\xad.\x08\x7f\xbd\xeah\xac\xafI#Q$\n\xd6\xd0O-\x93\x86M\x17\xbaNzc\x12w.\x9cWVe\xacD\x1c\xff\x06\xa3\xb0\x1e\xc6\x19\x8d\x14\xf5&lt;$\x82\x9d\xab\xdd\x84i\xe8\xd3k[g\xb7\t\xec\x06\x05f\x9eF\xac\xa7\xb1\xd1\x0e\x1a\xeb\xabk&lt;\xf1\xf0\x8c\xe40N\x95\xd9\x0f\x99\x874\xca:\x8f\x9fc\xcd\xa9\xa8\x98h\xb5\x9c\xaf0\\\x12Cc\xf9|\xc9\x1b\x13\x8f\xbb\xb9\x96Se\x98\x85\xd7\\\x9e\x15\xfft]&amp;qR\xb1\x12GP\x02\xc1`\xfd\x15%2.\xbd\xc7me\x98\x85\x8b12[{Nd"\xf7\x12O\x8b\xd2\xea\x0e\xc6`}!G\x8b\x1f\xa5.\xcb\xe3\xae\xe2\x86\xa0a\x11157\x83pTuh\xb0~\'AN\x12\x1c\xbf\x86mL/$\xac\xf5\xf1\xe8\x05\x80\x16\x7fL\x83\x15\xfbG!\xa9\xa4M\x10k8\x12V.) \x7f\xfc$\xa1\xc1\xf2\xf9\xb3\x90dx\x85P\xac\x9d\x82\xb0\x1a\xb5X\x8f\x04\xa5\x0b\x87X\xc3\xd0\x8c\x18%$\xfb\x1bX\x17\xd6\x13y7\xb1&amp;"a\x89\xe3\x844\x92D-\xd6\xf5\x8cnb\x8d@\xeb\x89\xc1\x02r\x8f\xdb\xa9\xc5\x8a\xfd}\xff\xc1J%\xb4X\xfa\x13\xe7\xbe\xc3\x8a\xc7 \xd6\xd7B\xb0\xca`y\xae\xbd\x8f\x15\xce\xc2z(\xa0\xaf\x90\xe5\xb0\xbc\x91F\xb0\xac\xba\x85Enda\xc5\xa6\nH\x98\x05\xcb3\xb6%0\x05\xbe{\x04\x0c\xf2\xca\x006\xd6\x97\x02\xb0\x02\x05c\x9dD\xcf]F\xb0\xb0|\xfe\xd4-\xac\x81\xcehX\xed\xe8\xb9_\xc5\xd8X_\x90\xdd\xc1\xf246\xe5r\x81X\t\xe8X\xa1\x1c,\x01\x93\x08r\x03\x1a\xd6p\x88U\x80\x9cyP.\x07+\xf6\x1arJ9\xdc\xd1\xb4\xe8u\xacZ\x82\x83\xe5\xf3\x18\xfd?\x04w\xa6\x07\x19[\xd1N\xec\x0e\xd63\x8c\x8b\xf5\x08\x1d\x0bn\xb3:\x1a\x9b\xcbO\xeb\x0e\xd6%\x1d\xaco\xef\xf66\xd6h\x88\xa5\x16\xdc\x9d\xba\xb0\xae#\x8f-\xc1\x10k\x941\xac\x19\x10\xab\x0e5oI\x84\x0e\x16\xfa$BJ\xa0\xac0D\xa2\xb1p\xd4\x8dG\xcd[E\xe8`\xa1O"2 \x96\x87\xd1\xb5\xeb@\xe1X\xc5\x98.\xd6_H\xe1X.\xbd\x8d\x95\xa9\x87\xf5\x04u!\x97J\xa0L\xe5E"K\xb8I\xd3\x82\x98uT\x8a\x1e\xd6\xf5Ba/S^,[\xb8\x97|G\xb0!\xb4X\xaf\xdd}\xd3\xd5-\x02e\x85\x014Y\x1b/\x191\xeb:L\x0f\xcb\xe7\xefB\xd6q\x8cF\x1b\xc5\x1a\xa2\x8dW\x81\x98\xf57\x06\xb0\xfe\x86\xd8\xe6\xe3\x91\xa6\xf2@\xf3\x85b\x91\xf9\x06\xb0\x1e\xc6\t\xec\xc4\x18f\xfcL\xd4A(\x96d\xbd\x01\xac\xaf\xae\t\xc62~Z\x05_\x8amh9\'\xc0\xe6\xe1\x1b\xabm\xf3\x8fI$%\xc3\xedJ\xe3\xd7`\xc6\xc0\xd3\xcb-\x8cB5\n\xa1\xf5\x0bZk\x19\xad\x01\xda\x11\xa0\x95x\x91Vaiii\xf9\xf9\xf9;\x80\x02\x19m\xa0\x95Dk#\xa5\xad@\xf0\xe4\xc5\xda\xf8A\xd5X\xaco4\xc8\xf8.\xe5\xe0&gt;\xc2r\xe49!\xf0\xec\x1b\xac\xc9&lt;G\xbeV&amp;-\xfd\xcc\xf1\xe3\xc7\x03\x0c\x05x\xf0\xec\x7fO1%\xd5\xe9\xfb\xde\xe9\xbf5\x182\x9f\x07k\x8e\t\xa9\xc4G\xbc\xd3O\x19\x0er\xe0\xc1\x9aoB\xac\xec+\x9f\x9f"\x0c\x07\x8d\xe6\xc1r\xd0K\xe1\xe7G,\xa5\xe4\xe7\xe7G=.X\xb0\xc0O\x13\x00\x9c\xf4\xf3\x02\xcd\x03\xa3E\x9aX\x1a\xf9ib/\xd2z,2\x805\x83\x07k\x9an\x82\xbd\x87K/_~\x17\xe8\\\xe9g\xdb\x08,\xdb\xdf\xdf\xff\x00\x13\xf21p^\xa8\x07\x7f\xfcW\xe5\x1c\xdc\xbc\xdb_\xa3\x95G\xab\xb1j\x7f\xadvo&gt;\x0bj\xa85r{W\x84\xddOO\xb4\xea\x16b7\x9d\x07\xcbU\'\xc1\xaa\x12o\xa8\xc5\x07\xb1u\xe0g\x0f\x13t\x148\xb3\xdf\xa1\xfc\x97\xef\xf2f\xeb\xdd\x9ce\x9c\xe7#~\xc4v\x8e\xc7\xaf\xfdtJ\xf1\xe4;\x8e\x1ai\xc7M\x10Ies\xa8\xb2\xf2r\xe5b\xe0X!\xa6\xb0&gt;\xd2\xc3ZICS\xa2\x1dg\xb8X\xde\xcb\x97\xae\xe0&lt;/\xd1maV|\x97$\x06s\x8f\xa2\xb0\x8b \x97]\xc4/\x81\xf6\xa5\x03g5\x85u\x14b\x1d\x87X\xf7?\xf9\x14h!\x00[\\Ma\x1dz\x8f\xd2\xbasT,\x1a\xeb0\xed\xb1\xc9\x10\xd6\x04\xde\xc3D\x9d\xf1\xf4#\xaaJ\x98\x16\xbei\xfb\xf6\x95\xff\xa1\xb0v1A\xbf\x02\xceu\x10\xeb\xf0\xfe\xfd\xfb\x1f&lt;x\xb0\x048\x97QXK&gt;\xfd\x04h\xf9\x15o\xef\xf4\xdb4\xd6\x91\xfd\x94\x0e\x1b\xc2r\xe1=O\x1c\xa2\x8fU\xdf\xd5%A\xaf\xa2\xb0"!\xd6B\x96\x11YF\xa3\x8d\x98\x9e\xce\xd8\xb4\xe4\x14\xc6g\xc4\x89\xbcX\xc3\xb8\t\xf6\x80\\.\xb0\x9e)\xac\x13\x10\xeb\x03\x83X\x17\xd8mk\xf1\xf9\xbd\xbcX\xae\xbcX\xb3\xf5\xb1\xf61\x95u\xf8\xb3M\xe7sXXT\xb3;\x05\xb1\x8e|@\xeb\\\x17V\xe5\x89\xc8\xc8\xc8\x03G@\x85\xad8\xcd\x18q\x1b\xa5\xf3\x06\xb0\xac\xf9\xcf\x85\x9d\xec\xf4\xb0\x0e\xd0\xb9\xac\x02\x05\xa4\xd3XOs({\xe6\x94r\xb1\x0e2\xf0W\xba\xb0JW\xd3\xa20\xdf\xa1\xb1\xde\xd7vm]\xacY\x08\xd7\xc6\xc6qR\x1c\xa0\xcc\xf0\xf4\xe2\xc5\x8b{*\xe9\xfc\xb2)\x8c\xd2\xcd@\x14\x95\xf7Y\x88\xf51\xc4\xdaG\xf7\xc4M\x94vS\xe1\xd9&lt;X\xee\x08g\xe8\xee\x9c\x14\x1f\xb2\x87S\xd0\x07s\xee\xb3\x9fW\xdc\x86XL\xa9~\x9fwa\xb1b\x9d\xe6\xc1\x1a\x81\x805\x8f\x9b\xa4~s\xe5\x92C%%%\xe9\xe9%\xa5\xef\x03\x03\x9f\xd9\x9c\xaem\xccW\xf6azXT\xf5\xd4s\xb0.gcK\x97\x18\xc3\xb2G\xb9f\xef4P\xe7UM\xbdm\xc5\x94\x98w\xac_\xeb*\x8dZ\x81\xc7\xed\x85@\xad\xd9\xe0\xcf\x87L\xf4e{\xf7\xee=\xdd\xba\x10\xaa&gt;\x07Li\xb6\x01\xc72\xa6\xfa\x81k\x9bX\xd8`Jk\x94\xb9g\xcc\x0eHX\x93\xccLe7\x12\tk\xfa@\xf3b\xcdB\xbb\x00d\xc9\xb1bnhMMM\x93xkGtyfHJ\x11PY\n\xb6!:::1 \xb0\xac\xac\xac(Q\x9cE-c\xd7\x84\x85e\x96\x03_z\x01\xb1\xb3\xac-\xbchcL\x07}r\x96\x92\x99\x8bak\xb2R\xa8\xd5\xefF,"\xb3\xad\xed\xd2\xa5\x1d\xc2m(\x12\xb9\xb1\xd2DH%\r\r\r\xaa\xadAJ\xa9T\x9a\xd0\x84KN*qU\x9a&lt;((\x88\xbc\xa3\x88J\xa8:InI\r\x96\xe3q\xc1\xd1\xb5\x92\x82\xe6\xe6fjKB\x9c Q\xa9\x95\xc1\xf9w\xe9\xc5|&amp;\x99\x86\x11\t\xeaN\\\xa2\x0c\x96\'V\x90\x052\x99\xac\x83}_\x10\xf5\x16\xaf3\xeb\xb43L\xde\x92\x1f\x18\xb85\x89\xba\xb0C`M\xb8\xe2\xe5\xcfds\x11\xf9\xdf\x9f~:)SH\xbe\xfb\xee\x15^\x11\x11\xa1"_D\xe4\xc5\xd5\xbdH\xcc\xca\xa7\xba~L\xf03\x82X\xd3\x92\xd8\x85\xb5\x03#\xaa\xd4\x9d\xe4\xcf/_\xc9C\xef\xc8;\xca\xcb3\xc3\xd0\x97\x88,y\xb1\xb0Hij{\xad\x8c\xc8\xadHP\xb6\xe47\xe1\xca\xda\xda\xc2\x1b\x9d\xe4\xcb\xd5\xab\xa52\x05.\x89\x8a*&lt;\x86\x11*2\x11\xcb\x8b\xabmN\xa8R/\xa2\xb1\xe2\x81\xf17\x04\x92\x1a\xac$\x8ch(\xe8\xc4\x1b\xaaj\xdb\xc3Z\x82dj\xb5\x9au\xbc\x89\xcdC\xc6r\xb5c\xd5Vc\xc8\xda\xd0\xac\x9dY\x89\x89\x9dq\xca\x1f\xf1{\x04P\x05\xfe\xfd\x0f?Hn)\x94\x11\nI&gt;\xc6`\xc5\xc4\xa9@\xd3\xaa\xa1jk\xbd\xa4*+\xab\xee\xee\x8fdchSSH&amp;\xa9\x08\xad\x91\x14t\xca_\xfdOA\x86\x17G\xdd+\n\x0fOa\xed&gt;\xa0\xdf\xc5\xb3\x81W\xdd\xc4-\xa0MIo\xa5\x15\xa6\xa664(B\xa4t\x05\xe4\xb54\'$4\x06\xb6=\'\x88\xe4\xe7)\x18\xa1\x8eK\xc4\xb0{\xa9\x85\x85\xa9\xcc&amp;m[Bj{a1\x91\x0cZ\x91\xecf^#\xc8\xa0\xb0#\x9c\xcaG\x15v\xac\xb1@\xa5R\xa5!\xdd\x16\xd1\xd3x\xd6\xcd$z\x80\xc7\x08Z`\xb4\xd7\xf8R\x0f\x04A\xbb\x80\xd5\xf2\x024~\x04\x0c&amp;\xba~\xa8\x1c\xc0\x83\x98\xf9a\xc5\xa2_&lt;B.\xee\x0e\xb02\xd7\xa0\xe5.\x12"s\x8d\xf4\xd6\xd3\x05a\r\xb60\x0f\x96\x97\xc0\x1b\x9e\x0e\xe6y\x1d\n\xfd\xae\xebM\xb3\xb4.\x17\x91P\xb9\x99\x81\xcaS\xf8\xb7fS\xc7\x99\x1ekx7.5\xcf69\x95U\xb7\xae\x81\xcf1u{\x1f\xdd\x1d*\xd1Hk\x13\xef.w\xf3;Y\x87\xfe4\x92\xb2^A\x8e}\xbf\xb00x\xff\xc0\xcetT\xa3z\xf0\xbd\xe7p\x93Q\xd9\xf7\xe4\xbb\xdd\x01&amp;\x1b\xbc&amp;\x8az\xa2\xb1&amp;\xea\x8dsz\xf8I\r\xff\x0c\x87\xa8?[\r\xd6\xf0g\xcf`X\xf5\xd9U\xd4\x8e\xd3q\xde4\xe3z\xfa\t\xd2\xff\xc7$H\xc8\x8a\x83\x8d\xb3\x97\xce\x99\xbb\xb48x\xdbd\xbf\x9dK7Zl\xec\xc1\x18\xdf\xc6HX\x94\xef\xd6\xe5#\xd4\x94\xb83\xd3c\xc7\x86\x93%\t\x8d\x0b\x0fNIh\x9b\xb8\xad\xf1,!gqhQc\xab\x1d\'\xa1X&lt;8\xe1\xcc\xcee\t\xf7\x16LlK(\x9e]\xb3%\xae\xc4\x9e\x9a\re\x9c\x8b\xba\xf0\x97^\x0e\x0b\xf6\xce\xb1X\xbe3\xe1R\xdc\xc4\xc8\x84\x0b\xfb-,\xd6]\xc0\xef,E*m\xba\xc3_z-\xf4]\x98?y\xe1\x8e\xcb\xdd\xe1\xad\x13\xe66n\x07:\xab\x18\xaf\xb3d\xa9u\x96\x85\x10\xbedo\xb3\xac\xad\xad\xed\xef\x96\xfdN\x0b\xec\x1d&amp;NY\r\xec\xb0\xdd\x89\xc3\xe7,F1\x06j\x016|#q\xa0Qg`\xc7\x0f\xec\x14\x08\x81\xcfU\x9c\xba\x0c\xd4\x03|\xd4*\xedY$\x19\xa8\t\xc4x\x07\xb2\xe5\x87\x1b\x18R\xc3]\x1c\\\x0c\xd4\x06\xd2\x9c\x83\xd1UTp\x17M\\E\xb1\xbbh\xe4*\xa0\xbb(I_,r\x0c\xb4\x02\x14\xe4G\x16S\x06\xda\x011r;\x1d\x8c&amp;\x0c\xb4\x04|\xe4\xcd\xbc\xc8\xd2\xfa8\x14!A2\\\xa5\xae\xc9@k\xc0$B\xea\xdc\x0b\x878]NM\x92#\xad\xa0`\x91\xa7\xd3\xe1W2\xa4\x0c\xc91\xeb2\xd0\x0b\x08\x10?\x98\xa3\xc8\xcf@? $L\\\x02\xe36\xa3\xf3a\\R\xc4\x94\xac\xbc\xd2\x0c\xf4\x06|J\x84\xc6M8\x04\x07\xe2\x04:vI\xfc\x01\xc6(7@\xc7\xcf\xf1\xe3+Z\xd5\xb4\x19\x06\n\xb0\x8b\xf2\xe2\x0c*&amp;\x86\x01\x04l"X\x87tt\xf8\x19\x06\x18\x88\xa9a$}\x1e\xe9Ap\xa8!\x93)jk\x87Q\x95\x8daP\x006eDm\xc4"\xce\xcf0h\x00\x1b\xecHC5C\x86A\x05\xf8\x84\x19\x81\x15\xa0\x14\xc3\xa0\x03\xfa\xaa\xa2\xac\x0c\xa3` \x00\x00\xd0\xf2P\xfd%\xb6\x17\xc3\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03&gt;iTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;?xpacket begin="\xef\xbb\xbf" id="W5M0MpCehiHzreSzNTczkc9d"?&gt;\r\n&lt;x:xmpmeta xmlns:x="adobe:ns:meta/" x:xmptk="Adobe XMP Core 6.0-c002 79.164460, 2020/05/12-16:04:17        "&gt;\r\n  &lt;rdf:RDF xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"&gt;\r\n    &lt;rdf:Description rdf:about="" xmlns:xmp="http://ns.adobe.com/xap/1.0/" xmlns:xmpMM="http://ns.adobe.com/xap/1.0/mm/" xmlns:stRef="http://ns.adobe.com/xap/1.0/sType/ResourceRef#" xmp:CreatorTool="Adobe Photoshop 21.2 (Windows)" xmpMM:InstanceID="xmp.iid:DB2B840A5C2C11EB8019C16571065B71" xmpMM:DocumentID="xmp.did:DB2B840B5C2C11EB8019C16571065B71"&gt;\r\n      &lt;xmpMM:DerivedFrom stRef:instanceID="xmp.iid:DB2B84085C2C11EB8019C16571065B71" stRef:documentID="xmp.did:DB2B84095C2C11EB8019C16571065B71" /&gt;\r\n    &lt;/rdf:Description&gt;\r\n  &lt;/rdf:RDF&gt;\r\n&lt;/x:xmpmeta&gt;\r\n&lt;?xpacket end="r"?&gt;(\xd4\xdb\x07\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x03\x00PLTEGpL\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x00;\x93\xff\xff\xff\xfe\xfe\xff\x01&lt;\x93\x04&gt;\x95\x05?\x95\xfe\xfe\xfe\x03=\x94\xfd\xfd\xfe\xfc\xfc\xfd\xfa\xfc\xfd\xfc\xfd\xfe\x02&lt;\x94\x11H\x9a\xf4\xf6\xfa\x0bD\x98\xe6C\x97\x06@\x96\xe7\xec\xf4\nC\x97\tB\x97\x07A\x96\x14J\x9b\x02=\x94\xf9\xfb\xfd\xfd\xfe\xfe\xe8\xed\xf5\xf9\xfa\xfc\x01;\x93\x18M\x9d\xf7\xf9\xfb\xef\xf3\xf8\x16K\x9c\x0eF\x99\x01&lt;\x94\xf7\xf8\xfb\x10G\x9a\x12I\x9b\xf2\xf5\xf9\xf1\xf4\xf9$V\xa2\xf6\xf7\xfb\xee\xf1\xf8\rE\x98\xf8\xf9\xfc\x1aO\x9ec\x86\xbc\xf5\xf7\xfa S\xa0:g\xac\xe1\xe8\xf2\xed\xf0\xf7\xc3\xd0\xe5\xb3\xc4\xdem\x8e\xc1\xc2\xcf\xe5\xc9\xd5\xe8\x85\xa1\xcbJs\xb2\x7f\x9b\xc8^\x83\xbb2`\xa8Al\xaeDo\xb0\xd9\xe1\xee.^\xa6o\x8f\xc2\xd1\xdb\xeb\x03&gt;\x94"U\xa1\xbd\xcb\xe2\xb8\xc7\xe0&lt;i\xac\xd4\xde\xedj\x8b\xbfFp\xb03b\xa8\xe5\xeb\xf4\xa1\xb6\xd7\xda\xe2\xef\xe4\xea\xf3\xc0\xce\xe4\xe0\xe7\xf1+\\\xa5\xa9\xbc\xda7e\xaa\xdd\xe5\xf0S{\xb6\x8d\xa7\xcf\xeb\xf0\xf7\xd6\xdf\xed\xdf\xe5\xf1Gq\xb1V}\xb8`\x84\xbb\x1eR\xa0\xcf\xd9\xeap\x91\xc2\xfc\xfc\xfe\xa4\xb8\xd8e\x88\xbd\xe2\xe8\xf3\xcc\xd7\xe9\xc4\xd1\xe69f\xab\xa7\xbb\xda0_\xa7\x1cP\x9fU|\xb7\x81\x9d\xc9\x1dQ\x9f\xa5\xb9\xd8\x9f\xb4\xd6y\x97\xc6\xb6\xc6\xe0Z\x80\xb9X~\xb8\xae\xc0\xdc&amp;X\xa3\'Y\xa4r\x92\xc3\xcb\xd6\xe9Rz\xb5*[\xa5\x8a\xa4\xcd\\\x81\xba\x9d\xb3\xd5\xc8\xd4\xe7\x8f\xa8\xcf\x91\xaa\xd0Ow\xb4\xbb\xca\xe2\x98\xaf\xd3-]\xa6)Z\xa4?k\xaet\x94\xc4Cn\xafAm\xae{\x99\xc7\rE\x99\xb0\xc1\xdd\xd2\xdc\xec\x99\xb0\xd3Lu\xb3}\x9a\xc8&gt;j\xad!T\xa1\xc6\x8c\xf6\x87\xa3\xcc\xc6\xd2\xe6k\x8d\xc0\xeb\xef\xf6\x92\xab\xd1\xbd\xcc\xe3\x93\xac\xd1\xaa\xbe\xdb\xd8\xe0\xeeg\x89\xbe\xad\xbf\xdc5c\xa9\xac\xbe\xdbIr\xb2v\x95\xc5z\x98\xc6\xdb\xe3\xf0Px\xb5\xb5\xc5\xdf\x9a\xb1\xd4w\x96\xc5\xd0\xdb\xeb\xce\xd8\xea\x96\xae\xd2\x8b\xa5\xce\x9c\xb2\xd5\x83\x9f\xcah\x8a\xbfa\x85\xbc\xbd\xcb\xe3\xa6\xba\xd9\xb9\xc9\xe1\xfb\xfb\xfd\xd3\xdd\xec\x83\x9e\xcar\x91\xc3\x0eE\x98\xea\xee\xf5\xb8\xc8\xe0\xdc\xe4\xf0\x8c\xa6\xce\xb2\xc3\xde\x9b\xff\x19\x0b\x00\x00\x00AtRNS\x00\xf0\xc32\xb7\x84\x02\x0b\xec\x08O\xfa6\x04\x12\xf7\xab\x87\xbc_\x06\xd9/\xcf\x91\xbe \xfd\x10\xe3\x01H\xbbW\xf8M\xe4P#\xd7\xd1\xe7d\xce\x99Sq\xad\x1d\x19\xe2\xf4=\x81{9-\xa4\x8e\xd6Zg\xd5b\xfb-\xad\xeaE\x00\x00\x1e\xc2IDATx\xda\xc4XyT\x93W\x16\x17\x04E\xa5\xee[\xddju\xea\xd2m\xda\xf1\x9c\xcet\xec\x8c\xf3^\xf2%\xe1d!\x07B$\x10\x90H@l\x04eQ6\x11\x15\xb1Z*(\x05\x8a\x18\x04"\x11*\x82+.\x15\n\x82BT\x14\x95\x1e\x01\xad\xebqA\xa6V\xeb\x11;S\xb5\xcc\xbd\xdf\x17\x88Z\t\xa2\xe8\xbc\x7f\xf2\xde\xcb\xf7\xbd\xf7{\xf7\xfe\xee\xef\xde\xf7\xf5\xe8\xf1r\xad\xcf(\xc7\x0f&gt;\xb4\x7f\x7f\xa0\x9d\xad\xed{\xef\xd9\xda\xda\r|\xdf\xfe\xc3\x0f\x1cG\xf5\xe9\xf1\xffj\xbd\xc6\xf4|w\xe4\x9bcm\xfaQ\xb6mR\xa9\xd5\xaaM\\\xbf\x9f\xcd\xd87G\xbe\xdb\xb3\x7f\xaf\xd7\x8e\xc9\xf1\x13\xbb\xbf \x02u\xe2O\'\xce\xd6\\,\xcc4\x85\xa4\xa5\x85\x982\x0b/\xd6\x9c\xdd\xf3S\xa2\x1a\xff\x1bk\xf7\xc9_\xdfx}\x98&gt;\xfe\xecS\x07J=t9I\x86\xa3\xd9r\xf2\x8c&amp;\xcf&gt;jH\xca\t\xf3\xa0\xd4\xe1\xd3\xcf&gt;~\x1d\x98\xfa\xbf=\xd0\x81\n\x03r**\xe7*\x00\x00#\xf7\xde\x17[\x1c^t\xf0fRnn\xd2\xcd\x83E\xe1\xc5\xb1\xfb\xbc\xe5\x0c\xfc\xa5\x98[y0\'@H\x1d\xfe\xfcv\xffW\x0c\xeao\x7f\x07\xd7i[\x1aJ\x04\x08\xa9zwik\xad\xe7}\xfaT\xbb\xefY\xdbZ\xba\xbb\x1a\xa1\tJ\x1aZ\xb4\x94\xfei\xe4\xf0W\x87\xa9O_\xdb\xd1t\xd6\xb9\x04\r\xba)\xa4\xb9\xa9\xd1\x82\x84\xe7\xa1}\xa0\xffR\xfd\x04\xba\xc6\xa6\xe6\x10t\xb1&amp;\xe1\xdc,:\xda\xf6\x9dW\x13\x9d\xbdg\x8c\xf8\x17O\xbf\xbeJI|\xbd\xd3\x93\xf4\x81&lt;vo\xa7\x87\xb7\xee\xc4}\x7f\xea\xdb\xbdA\x1a?\xcd2\x0e\xcf\xc3\x83\xc9\x89*\x16l\xa0&gt;)\xdd\xdb\x97(\x97\xaf\xd7\xf3FO\xf9G\xefn\x075t\xc8\x14*\xac5j\xf8D\x11}/\xd1\xa9\xdd$\xaa:\x0b\xd1\x95\xdfqH\xef\x12\x81&amp;$&lt;\xf7B ;J\xbc\x17\xad |\x8d\xb1VH\xff9dh\xb7\x82z\xa3\xef0*\x8e8\xa0$\xa2\x94(\xbd\x106\x0bh:\xcc\xc1\xf28e\x81%Jf\xa7\x9c\x97pC\xc1\xd6\xe8;\x87\xd0jB}T\x8a\x88(\x0fD\x88\xe9\xb0w\xbaO1\xc6\xf5\xb4\xeb\'\x8e,T\x10\xe5\xb1T\x1dn\x9cx\'E\xe0ofV\x96R\xe1\x17\xb4\xd2\x0fq\xa4qSz?\x0b\xd2\x14g\xee)]j\xac\x92(\n#\xc5\xfd\xecz\x8e\xeb&amp;R\xd9O\xa3\xeb\x8cr\xc2d&gt;Tq\x9b4\xc5\xc3\x8e7\xb9\xfe\xaf\xc9\xff~\xe4\xba\xa1\x1a&amp;\xfcW\x98\xa9\x85x\xfc\x19\x16\xd6\x01\x8b\xb7\x1ff2Dn\\G\xa7\xd9w\x0b\xc5\xde\x9aN}\xce\xc8\x08\xb34\x02\x18u?\xe7\x9e\x84\xd29%\xb0\xe3\xea\xc0\xf6-\xb5\xd10v\xdbb\x1e-\x86\x81\xb7\xcf\xb2{\xe1\xab5\xa2\x9f\xb9\xa9\xe4\xeb\xe0y\x8f\x88\xa5\x0c\x91\x9d\xf1\xa1\xc3\xde\xea\x06SM\x90\x9c[\xe3\xce_\xb2\x07\xe4\'\xa0,V\xae\xd1\xc36EH\xf0\xc86T\xe2k\xbe\x84\xf8\xee\x14\x9b\xd9\x86\x18\xb3[\xf5\x9f;\xa9\x1f,\xdc\xccNe\xa4\xf8\x1bs\xe0P\xdaKK\xf8\xeek\xceI&amp;\x0czI\x83}4\x9e\xea\x0cr\xe2\x1f\x15\x80\xcb\xd7\xc3\xf6\xa4\x02:k\x95\xd0\x89k\x83\xb5\xdd\rF\x99\x01\xe6\x91n%K\xff\xd9U1g\xcb\xcdB\xb6C\nB\xb7\x0b{\x01Q2"7\xf8\xd0\xc1\xa3^&amp;!Ot\xf0XXM\x98\xc2\xb5f\xb3\xa0\xf3.\x83\xd9(Zd\x9b\x99\xf4\xf53a\x10\xec\xda\x062O\xd1Nx&amp;\xd4\x12\x9a\xdef\xd8k\xd3\xe3I\xf5B\x0f\x87\x89/\\^\xf4\x1e4\xc0\xb9\xd4\x8fl\xbb\xdd\xce\xa23`.7\x94\x81-\xc0hQ.;\xe7\x89X\xfd\x0eaW\x82\x12\x9b\xc4\x07&lt;\xd9\n4\xec\x0f\xdc\x8b\xa9\x90\xa9|\x17\xb7\xad\x11xs\x1b\xf1+]0\xe0E\x1d9f0}\x90."_m\xb0\xe4\x93\xb5\x18\xfb\x171\xb1\xa0\xa72Q\xc1\xb4\xe9l\xc4m\xb9\x15\xb5?\xa6\xf0:L4\xc0\xb0d]\xde\x8e\x84\x82y\\\x1c:\x85`\x06\xfa\x9a[\xc1\x15l\xbd\xe1+"J\x7f@\x07\x8fy\x11T\x93F\xd0\xf2\x14"/R=\x96\xe6x\x88A\x86\xda\xb5\x1fI\x9f\x01\x9d\\/\x8bJ\xb9\x80!yk\xa0S\xd5\x14\n\xc9)c\x1d\xfb\xd2!\x11\xcc\x18\xb8\x05|\xaa2\xbf\x01\xb1(\x92\x93\x94r:bR\xd7Q\r\x9f,&lt;\xefM\x82\x179Q\xe1\xd7\x87O\x97ep\xcb\x9e@9*\xc3\xbd\x10\x06\xc6\xe2\xf6\xc7`1\'(}\xc0\x8a\xa9HV\x90u82\x03\x9d\xaa\xae\xc4\xa3p&amp;\x9f\x15C\xc8\xdcd\x0f\xea\xd4\x9aM\xbc\xaf\x08\'w\xb9\xaep\x9c*\xb9\xe5F\xd6\\\x00\x9eWx\x13\xc2_~\x81;\xed^\xd8#\x04\x1c\x91\xeck\x86\xb5\xca\xd7R\xfcm\xddC\xe9B\x0bL\xc1\x12\xe4V9Fm\x16\x9bEy\x07\xd1p~?Bm}a\rq;,\x99\xea\xd85T}m\x02k\xe2\xa5\x1b\xc1F\xba\xdd"v\x8f\xd5\xce\xedZ\xe9^\x13\x9a\xff-\x9a\x00\x83kCtq\xc2\xe9\x83I\x8b\xca\xd76:ka\xf3\xb0\xedq&amp;o\xee\x15\x92\x89aP\x8c\xee\xe6\x12@\x13W\xca\xc6\xc7\x00\r\x1a7J\xe3k\xd46}\xbb\x88*N 2\xc0\xb6\x1b\xea\xcc\xa7g\xbe`W^\x86+\x8b4(\x02\xa2"\x9c\x10\xaa\x84O\x97\x81\x81\x89\xf9\x15\xc5)~"r\x1a\x06+f\xc3\xa37\xd8g\xaegCW\na\xe9\xb5\xfaW\x90\xb08\x91\xc0\x10\xd8\x15\\\x8e6\xda8\xa9\xa0\x19\xc8\xde\xf2\x03V\xbfi\x88\xe5$\xb7g\x03\xbf\x8dH\t\x0b\xda\x81xh\x032\\7ov\xcd\x08\xd0z\x98\xa7\x9c\x97]\xaa)7\x07\xa6\x92=\x92\xcfR|-:\ten.\xe0R53R\x83\xd6\xe6\xb9\xfd8|\xaa\xb6A\xearFB\xd5\x15\xa0\xdf^\x97\xf3\xe8\x0e\xb0MR#\xbb\xa3\xaeR\xca\x06]Z\xab\x84\xbd\xf9\xb8\xe6\x9f4T\x16\x04\xcb\\\xd8YYpA\xa5\xe1d\xbek{\x9d\x1a\xfa\x1b:\x13\x87\xe2\x04&lt;P\xf5f\xba"\x05~\xeb\xe0\xcc\x923.\xd2\xf0YS\x9f\x93\xf7\x93&amp;\x8b\x8f0\x82R1\rL\xc0\x8a})\xe8\xf7" \xfdoA\xe1\x0f\xd8\xfcq2s\xc9\xd1\xab\xc9\x9f\xc3\xb2\x9e\xbb\x8e\x84h\x18\xaf\xa7\xef=^\x8c&amp;\xe4\xc8.O\x16\xf6\xa3SPz\xb4b\xef$\x0b\xdc\x04Y\xb2\x05\x19P\x8bHK\x05\xccU\xf1\xe4\xe7\xd2\x891#\x9c~\x171\xa7\x81\xbd\xaa\xbb\x84;_\xe4\\v;~\x88\x8es\x99\x04\xe3\xcag{\xa1FJ:lRM\xe1=\x1f\xbc\xd6\x96\xc7\x980Z\xf2\x8es\xf3U\xf5h{BV\xb1i\xe14#\xfa\xddi\xc4s\xe8j\xef\xc1\xbc2\x17Q3[\x0e\xe8bq\x81\xa5\x87\x8f\xb7\xedu\xd4\xd3\xec\x1bu\xb2\xd1\x8ft\xda\xfc\x8c\xc9j\xac\xe8\xd1\x99\xfb`\xec[\x00\xe6\x17\xa4\xa0b(\x1fqY\xb6Y\xe4R\xc6\x1b\xdci\x1e\xea5\x88\xb6\xf8\x93\xf9\xe6\xa2r-\xc6\x8e/H\xa8\xff\xcep\x19\xda\xab\x98\xcdrs\xae\x98\x14\xe4\xb9\x9a\xc2ti\x0ek\x96\xf98:\xe6\x99\xeb\xcf\xcd\xf3\x8d\xe6\xeb\x80\xf3|\xe2\x7f\x88\x0e\xea,oO\x1c\xa0\xcf&amp;\xa6\xb6"\x85\xae\x9a\xc7\xae\xb2/\x9f\n\x9b \xd2W\xa3\xa8\xaa\xce\xa71\xe4\xb9\x1b\x93v\x1e\xd3\xd7w\x05\x84\x04A!\xd2\xca\x9e\x87)\xceh\xdb!\xc0D\x82\xf5\x03&amp;vR_9\x84\x99H\xc9fK\x12\xbc\x85\x08\x98TV\x0c\xb3\xd1\x88\xe2\xe4X&gt;\xe9R\xe3\xc7&amp;\x03%\xc2\neXq\x85\x05\xc1!oGn\xb2\xa8\\h\t1\xe9\x1c&gt;\xb2J\xac\xf1\xe28\xfe\xcc\xfc\xc7\xa4Q\x9d\x80\x81\xb6\x97eB(\x10%\xd1(\']nrc"\x94\x1a\xf5\xe8\xb7\xf3\xc0\xae`\xe7\'\xd47\xdf\x9fo\x10\x8f\xb7F/{\x9a\xaat\xbf\xc9{\xfc\xa5\x05\x98fH\x1d\'D\xbc++\xadl&gt;\xaf\xe3\xffV^\xe1\x16]\x809u\xb9\xf8\tX\xbc\x93\xeen\xa9\xd4\xde\xcamb\x82^\xc3\xbf\x0b\x0b\x04\x1c\xba\xbd\xe5K\t\xf7\x96\x9eU\x87_\x10WXV\xbc\x15\x9b\xa4\xc7X\xf93&gt;+\x0c3\x15\xa6T~\x94\xf9b\x92\xbc~\xe7\xcf\xe7 \xed\xf3\xb2\xf8\x1a\xfd\x84\x0e\xef\x1d\xbd\xa7ko\x90\x02W\xea\xb4\xa8\xc4\x85/\x9a\xdd`Nv_@\xf4\x88~\x99Eyy\x97\xad\xb1J\x9a\xbbGd\x8da\x97\xf3xtS\rPu9\xab2\xea\xd45\xacP\\\x86:\xc7u9\xb9\xa1\x9d\xde\x81\x1b\xc7\xd9\xd3\xdb\x8c\xbc\x85\xf2\x92Xo\xb8-2\x1bYxX\xa4\x88R\x81\x03\x83\xac\x12H\x13\x9ah\xfd\x81\xa0K\x100?\xce\x16\xb0B\xaaMp1O\xcb \x9eZ\xe4L\x19\xb5\x7f\xf6\xbd\xb6\xe7\xb4GA\xa4YB\xebY\xa1\xe4\x87C\x01\x98\xcb\x16$N\x8b\x01\xa1j\xbd\x8bu^WJ\x84\xbb\xad?\xe1\xb2\x1e\xa4b\xa1\x01S\xab\xdah\x99\x96\x95SI3\t\xfafZ\xcfg~g\xb0s\xfa\xde\xabZG\xc5G\x01S\xb0\xa9\x0eL\x9d\xa3\xe1B\x10\x16R_\xeb\x04\x15\xd9\x01w\x89N\x1eq\xb9\x06\x0ce?\x87m\xc7l\xeb\x1b\xb4\xbb!\x05\xaa\xc8\xa3b\xaa\xdb\xe7\x15\xe3d\xf7\xac\xef\x13}\xfbE0\x02(/#\xa5(\xc7\x14\x16\xd0B%b4;2\xaec\xb2{g\xcd\x87v\x112zc\x02\xf6\xb2\xb6v\xac\xadq\x1c_UX\xf0K\x1b\xa0\xd6o\x84\xfc&amp;\xcd\xa3t\x8f\x80\x89\xe8\xf7\x8c\xdak\xe8\xb09!d#\x84\xee\x7f\xe0\r\xee\xd3K\x85;0\x86\xad\x1a\xd4\x06kd\xde\xb8\xee\xf1xw\x8d\xb1\x92\xc0\x89\x81U\x9aZ\xd0z\x01\xf7!\xa0\t&amp;!4\xc5\x1bI\xc8\x9ca\x7f\xfc\xce4\x84\xeep\x97a\xb5\x81e\x03\'\xa8y3\xcdWz\xd5b\xab\xd9\x86\xbf\xf7P\xfb\x07/\x8f\x88\x12\xabI\x80Y\x8c\xa9\xe8!\xf8\xb0\x8e\xbbD\xe2]%\x01\x91\xca\xdcw\xd0!\x7f\x10\x87)aUd?\xae\x9e\x807\x02u\xdb\xf5\xcb\xa5\x1e:\xb7\x94\x9d\x90\xe6x\x91\xd6\x9c\x14J;+,\x94\xb7\x10\x0b\xc0\xda\xcf\xb9\x13\xad\xf0_\x8c\xab\xfd\xa4*l\xca\xd3"1\x83VHg\xb2\x82R\x86\xe2\xd7\x8c\xf9A\x05\xe4\x97\xc1}}\x97[\xa7\xe9\xc5\xb7\x81\x83uU\xda\xe9\xa3n\xbb\xb8O`\x99h6m\x11r\x9f\xbd\x9e{\xce\x94V\xd0\x19O}\xad\x1d1g\xae\xefi\xee\xf2\x8e\xb5\xb6\xe8\xd8\xffh\xb7\xd2\xa0\xa6\xb2,\x1ci\x9d\xb2G\xa7\x8b\xaa\xfe1j\x8fS\xd3U\xfe\xea\xb6\xb5\xca\x9a\xe9\x99\xee\x9a\x1f}\xcf\xcbB:k\x05B\x08$\x90\x84\x80,a\t\x8b6\xb4\x02\xc3\xa0\xecA\x96\xb6\x95\xcd\xd0.\xa0\xe2\x82,\xea\xd0 *\xd8\x8a(\x8dP\n.Q\xc7\xadEi\xc5\xc1a\xa6i\xe9\xb9\xef\xe5%dy\xa3!U\xb9U\x14!\xef\xf0\xee\x97\xfb\xce=\xe7\xfb\xce\xb9\xe9\x1d\xab\xee\xc2\x8bT\xc2\x87"\xe3\x9b\xb3^\xe4i+\xac\xc7!o\xb65\x16\x01\x1fo\xa6\xe0\xcc\x99\xf8kC\xa4wh\xad\xc5\x8c\x01v\xec\xfa\xdf:\xd7}\x7f\xfdY\x8b:\xd1Z\xc8\x80Y*X\x07\x98\xcd\xd8I\x82\x0b@\x92\xedA2\xbe\x84\xe5i\x84\xde\xb9\x12\xf8\x7fG\xb6\x04\n\xf0\'V7\x8f\x90K\x85B\xe8"Xe\xb8\xba\xe53\xe7\xcd\xe8\'\xc9B\xc7lu\xbb\x8d\xf6$\xc2\x1e\xe7\xc3I\x91\x073\xa5\xf0\xa0a{\x16\xde\x1e9\x1e\x18\x8bN\x02\x7f\xdc\xbe1D\xb7mzd\x1ceI\xfc\x9c\xba\x00\xef\xfd\xc2UX\xec:o\xa7\x98\x0e\x7f\xa3z\xa8\x90yB]~\x14|\xafEHqF9\xe1\t\x19\x93U\x80~\x94\xbe\xaf\xf4?q\xb6y-\xd1\xdc_\xde\xfb\x8b\x03\xacOygQ\xb7p\x8ej\x0cN\x9a#Qp\xe1?U\xa0\xc9\xf2\x88P\xe5\xbf\xa0BH@[\x85\xce\x13\xfb,\r(;\xce\xe3\x9d\x14\xbe9#\xd4&gt;\xed\xeent\x96\xf7\xa9C\x1fg]\xd1\xa5\x80&amp;\'\x12\x94\\[\x13(\xa4\x99\xc8\x9b\x87\xd8N\xc3\x8c\n\x8f\xfea\x13\x8f\xd4sE\x0f\x9d\taz\xc8\xa5\xa2us\xfd\xa1\xf7\xe10;K\t\x0cc\xda\xb3Y\xe6=\x14\xd3L\xb3\xa9\xb2\xd8\x87\xe1};,\xff\xdd\'\xd0,\x93\xdd\x9b8\x81\xf7\xa3\x8d\xc74\xdf\x8f\xe8;\xe1Z{\x7fpq\x0f\x12?d2\xeb\xe1\xfa\n\x16\xb7\x87i\xbe\x87Q\xa8g\xb1\xad\xff\xf8W\xde\x05\xf4\xa5\x80\xc1J\xb9\x03\xf9lt29\x8d\xe0\x1e\xba\xc0\xb3%\xc6O\xd6\xe7\xa2&gt;&amp;\xf0\x19R\xdf\xc1\x92f0\xcd8\x81r\xd7\xfb\xd3Bzq#GZ\xcb`ClF&gt;\x1c\x9b\t\x86)k\xa5\x9c\xc6\x05V6\xb8\x14\xae\xdaX\x86\xf3x\xa5\xf5%,\xed+\x86)\x13\x86\xd1U\xf8#\x05\xeb\xe3\xdduh\x13\xd3\x8a\xceF\xfa\x12V$\xe3\xde\xbf\x82\xeav\xff\x89z\x86\x0bM\x89\xect\x06\x0b~\x95\xfb\xbdt\xde\xc61\x06\xadV\xc5g\x98\xf4\x0bvb\xe0\x1f\xc8B\xc9\xef\xd6\xdd\xe0\x1a\xe2\x18,\x1a\x19\xe8\xfb\x8e\xbd\xden&lt;\xb1\xbb\xa2md\x984N\xca\xbd\xb1\x8a\x0c\xf4oA\x17:\xcf\xe4\xf0\x0cyG\xbd\xa7\x80\xed]\x98j\x1db\xc8@LN?\x8c\xba\x80Tf\x1f@\xa7\x9d\xd38\x0e\xfd]\xf7\x1bE\x9b$\x89^\xc1\x8a\x8dy\xe6\xfe\xe6]=\xc3\xb4\xe3\xa8\x13&gt;\xc0\xb0\x96\tb\x03\xbeb\xb8\xbe\x8d\xa1\xb2\xf6H\x00\xbb\xbc\x825\t&amp;w= \xdf\xc60\xed\x81\x80X\xc12\x0ck\xb9I*}\xc2p\xbd\x8c\xe1q\x9d\xc2\x82\x8e\xe3\x05*\xf6\xcf\x00\xee$W]\xc60m\x83TjZ\x8eY\xfc\xca&amp;\xd4\x9c\x06c_\xe4\xd5\x8eI\x12\x1cRP\x92\x13s)&gt;\x89\xc7\x05L\xba\xd3\x06\xc8W\xc5\xcd\x1e\x02\x92\x19\xc8\x11\x8b\t\xcc\xc4%\xf2\x95\xd4\x91\xeb&amp;9g\x9e\x98\xc0m1P\xdd\x8c\xae\xad|\x9b\xb5bA\x0b*\xe5\xc1\xad\x90`\x9dvki\xce\xa1\xe2M\xd7\xa7z-&lt;H(u\xfa\xb8C\x0f\x1d\xfd\xb3|\x87\xa7kV\x95_\x89\x87\x89\xf4\xd5T\xfc\xe2\xe1\x80\xe3\xb3,\xc5A&lt;\xae\xda\x94J\x10B\xa5\x8a\xa80*\x0c\x07 4\x0b\xb5,X\xc1Z\xbad\x00\x1d\x02\xe8s\\\\Q\x9d\nL\xd1.z\xe5\xf2\x1c\xaa\xfc\x13\x9e??\xf3\x1d\x87\xcfS\x9d\xe4\xa4\x8c\xa2\xcbAp;Q:\x92\xd0x\xa8?;0=\x98\xea8\x1fB\x03K\x96\xb2&gt;\x8264n\x95\xf8s\xa3\x9e\x0fM\xae\xeb\xc1\xf9&amp;\x8d&amp;\xae\x0f\x82\xe7\x15\x1b\x8a56T7\\&gt;\x0e\xa7\t\x08\xcc\xe8t\xeb\xff\x85Sw\xcd &amp;\x068\xdb\xdcGm\xf0\x11k\x8d0\x1ba\xa1\xbb\xd1e\xe3@\x99[sBd-\x93\x10\x03\xa2y\xfa\xfb\xfe"\xab\xef\xcc\xea\x18|\x1eO\x1cR\xdd\xc8\xc1\x04\xac6\x9a\x92\xfd7\xd1E\xe1\x1a\xd6\xa2\xb8\x83\xa8\x03\xf0\x92\xa1\xe83{E\x88\x93K\x96\xe2\xaf\x90\xc9\xc9m\xd0\x12uj\xbe\xfbP\xddaM\xc3\x85nW\xaeX\xcf.\xbc\xaa1 N\xc1\x0c\xdeF\xed\x00w\xd0\xc1\xb8E\xac\xd5\x1ac@\x05\x10%8\xe4I\xa6B\x906\xf5\x1f\xd8\xee:0\xc4\'\x1d\x96\xa8i3\xf8\xe7\xa7y\xc2j\xa6\xbb\xfe]nWv\x91\x8b\x83PF\xaa\x16\x85\x1c\x95\xc4b\x11O@E\xc0\x88f5\xcb?L+\x7f\n\x04\xd6]\xb9\xfc\xebld\xaen\xc5vS\x00un\xf78\x9f\xc0\xeb\xb9\xfbm\x85\x908\xfb\x86\x98\xb0\xdf\xe5\x8d\xf6\xcf!\xfep~(\x14\xb9Q\xf0\x12\xeb\xda\xb7V\x1fA\xec\xeb\xc2\\\xbc7\th\x94k\xc3\xfcY\x0bk\xa3t\x16\x10\x18\xb1\x06\'[\xabU\x922l\xd7K\xe1t\x19]\xff\xee\xc3\xcea\xc8T\x9dz\xbds\xc5\xe6\xbb\xbc1\x055\xfb\x91\xfcj\x82\xc0\xed\x9eY\x04UH*#O\xc7\xbc\xb8|\x1c\xa1\x11!X.EU.d\xf9Y\x0c\xe2Z\xd0\x84\x93\xcf\xb5\x98\xac:\xcdb\xbb&lt;P\xba\xc5\x00Yo\xa7\xd5\x83/VD\xbf\x16\xd6\xa8 \xd6\xe9oC\xd8\x04E\x1f\xfa-\xcf]MO(\xe1))\xcf\xc46f\x17\x1e\x03_\x8b\x7f\xb2\xf8\xb1\xfc\xa6\xa5\x8a}\x90\x8a\xffq\x14\xea\x11\x1a\xfa\xfc\x18\xbeZ\x0e\t#n\xe4\xdbh\xcbF\xcd\xe2\xd7\x16\xd6^R\xa7\x11\xe6\xc6\xf6vZ\xd7\'\xdew-\x1c\x8c$@%r\x89d\xfb\x14\xd2i?\xd6\x87yAZ\x13L\xcb\xc9\x98q\x11\xa1n2\xe9\xc8b@\x7f\xc4\x8b\xd4\'*-))iK\x83\x9e{\xf8\xb7\xbd\xfc4\x17\x00\xb7\xb8\xa6\xd9#z\x88wbuR\x0b\x98\xb4Ay\x1f\xd2\xb0j\x93\xbe,&lt;\x00\x95=\x1b2\x84X\x84\x85\xeb\xbd\x83\x85\x8e\xa7\xdb*\n\x117\xc5\x1e\xd8cX\xc94\xdf\xe5J\xc5\xe1\xc7KK\xb6\xd1\xb0\xfc\x06\xa5\n\xb2$K(\x05tYdC\xcb3!D\x8cxE`t]\xd6\xaa\x82\xa9\xdd#\xe1k\x8c\x00e\xf7\xa1\xc9\x81\xd3e?4\xe5\xd5\xce\xc4\xe81\x06\xfc\x10\x07\xfdH\x97\x8ffPc\xca\xe3\xde\x91\xe3\x906\x92\xa1\xef;\xe7\xe1\xea2h\xd8Z\xb1\x01\xbb&lt;\x19 \xfe\xc6@\x99\x0fz+\xff\xa8\xdee\xacg\xc6\x07\x19*\x11\x16]T\xedB\x96\x7f\xa0B\xde\xc0@\xc7r\xbc\\\xad\x0e\xb0\xec\x8c!n{f\xdd\xcf0\xf1S\xb9"\xd0\x9f\xb5:\xde\xcc\xa1\xe5\x18\xe9\\1\x1d\x997\xa9\xb2`\xb7w\xb0\x12M_\x99\xd9\x85\x83\x1e*\x91n\x06X\xe9[\xcc\xf1\xabY\x8b\x92s\x11E\xa5R\xff\x9e\x8d\x1f\xec9|?i\xa6\x10\xe0\x81w\xb0J\x8a\xc9x\x10=\xeb\x99\x9e|@&gt;\xb4\xdb\xfb\xdb_\x86BXF\x8dUq\\F\xb9\xc9\x8bXk\x04\xc3T]\xc4\x94\xab\x96\x8f\xf1\xad\t\x9a\x83s\xe23\xb5W\xb0\xe4\xd6x\xcd\xf5h#\xaa\x9f\xe1\xddA\xba\xa1\xb8\xf7\xb1Q\xae\x1b\xa6z:}hX\xb0\x06\xd3\xc0z4\x80]|\x14\xcb\xef\xf4jZn\x9d\x8b\xc7\x89\x1c\xf9|`\xea\xc2\xb3v\x93\xbe\xa3\x98\xa5\x82$f\x0fP=\xa6\x81K\x97\x8cc:\x08c\xa4f8\x93\x87\xaf\x86\xbf\x90!Q\x01\x95\x8e|=\xc4\xa9\x90\xe6\xb4g\xbb1\xc1nG\xe3\x984\xafX\xf0\x18m\'\xe0\x89\x1c\xa9S2z\xb1clR\xd6\x91\x89H\x9f\xeb{X\xe7\xf4\xf0D\x86\xd4u{\xf1j\x04\x93\x1d\x9co%@\xdcE\x8f\xb1\xc4x{e\x052k\xa0G\x86ty$\xf9a\x1f%\xcf6\xed\x02\xa2\xdb\xf7\xb0\xf0\xe2`\x1ae\xa8\xd1W\xa1\xa8\x82F\x9cW\x8c\x1a\xd0\x1cA\x15X\x90\xb1\x96\xef\x93\x1b\xa6a:\x08\xe1`\x7f\x1a\xbb\xfb\x86i\xcci\xf0c}\xec{X\xdf\x03Lb\x8a\x970s\x04\xdd\x13\x92\xfc%+\x01\xa6\xa5\xf2}\xcbI\xb1\xaf2r: \xcd\x8c8{\xc8\x930\xb2\x1b\xe4A\xb0c\x00E2_\xa3\x92M\x83r;B\x8f$\xd7\xe4\xe4\xae;H\xa5\x88;\x1c\xa3j\x19U\x1a\x19\xc2\xae\x14\x8a\x89\x83\xb6\x1e\xb3Oi\xc3\x04\x9b:\xa9\x99\xecs\xe7\xca\x95@9\xa6\x9f\xd2\xd2\x146\xba\xc5\xd3\x04Q\x1ab\x13\x1a\xa2J#o\xc1s\x94\x03\xd0J\x07\x04\xf3X\x13W\xf4\rN\xa1\xc4\x05_\xc3\xba@\xc0\r[|\x13\x17\xd6\xb3\x91\x88\xeae=\xa7\nI\xef\xac,\xd8"V\x81\x92.@%\x11\x819\x13T%\xb5)\xc4\xb7\xa8B\x9a\x00v:sS\r\xa8\xa28?Se\xb7_-L\xd5Fb\x98\xa9\x94\x8c\xcb}\x85\x99\x17\x9d"c}\x0bk+\xce\xc1{\xce;f\xa9\xfd\x00\x19\x91\xdaT\xaaH\xc9\xfaX\x99M\xf6\xd6AR\x96\xb4\xb7O\xe3\x904\x0f\xb3}\x89\x8am=\x1f*i\xe8\xdb{WaMY\xff\x05\xc8D\xd9J\xaa\xa4\xcb\xfa3V\xb6%\xce_\xd1\x01\xc9\x9d=x/\xfa4\xd0\x8b\xed\xdd("\xb92?\xf3\xecq\xc3\x96)P\xe5\xa0\xc3t\x01\xfc7\x8b\xaf\x05D9\x1deP^\x1e\xe6l\x9d\x01~\xa7/au\xf2\x81\x1f\xe10i\xcc\xe0-\x13\x94G\x05\\\xa3\xdb\x05\xacO4\'\x90CaN\x7f\x19oX\xea8SE\xb0\xefP\x05\xe3\x18\xf4C\xd5Q\x97\x12w\x19:\xa1\xf1\xb7\xb5\xa2BGQ\xa7\xad\xf7\xaao\x1d\xb6nZs D\xd4\xf9\x0eV]\x04$\xa7 Nv\xbec\x0fL\xf8\x08\x8d\x86\xbeko\xdc\xe5#\xad\xb5\xad\x1fZ\xd0o\x8b$"\xbc\\/}\xc6n\x02^\x02\x9c"\x19\xa3\xac\xdb\xe2pNP\x8b\xf2\xe7\x8e\t\xaeU\x9a)*\xa8j\xcd\xa6c\x95\x18\x87\\m5\x08\x87|\x05kH\x08B\xfa{^\xd2\x93v\xc7\xeeCf\xe5Z\x87\xa6\xf0}u\x8a\x00\xd2Jh_\xd2m,"\xcbp\xcfy\xd0\xa3\x9b\xcf\nxn\xac#\xbb\x9c\xe5\xc7\xac\xbd.\xf6\xd6\x16k\xa8\x14\xa4\xa8\xef\xcf5\x85\x7f\xff\xce\xaa\xc6 n\x03\xa8l\x15\x95B\x01|m\xc0*.\r\x84\x1b\xe7S\xc7\xf2\x9c\xffo\xa4\\\x99(\xa2\xcb\x13\xc1\xcf\xa9\x02\xebSnP\xe3*\x87\xafX.\x13\xf6\xa3\xc9P\xea\xf4\xa5\x18\'rQ&gt;\xc0#D\xa5\xa8\xb0y\x84\xfa\xb6m\x9e\xb6Ec\xc3\xec\x07\x98r\xa8\x1a\x04\x97\xa4\xf1\xfcI\xd4/\\\xe6x\x14\x1d\x0e\x04\xfc\xaf\x98\xab\rj\xeaJ\xc3\xba;\xb3:\xdb\xfd\xe8\xc7\xba\x9d\xa9\xfb\xa3\xb3[\xb7\xed\xaf\xdd\x99m\x7f\xb63\xe7\xe4&amp;$\x86\x00\x03\x04\x02\x84,\x84H&gt;$\xa0\x80\xa5%Fm\r\x16P\x82\x1b\x85EJ@\x10A\x0c\xa8P\x04\xab\x82\x12\xaa,V\xa4X\x87\x0f\x11\x11K\x91.\xa3v\xb68\xb8\x8b.{\xde{\xeeM\x02\x84\x10\xf0c\xf3\x07\xb8$\xb9\xe7\x9e\xf3\x9e\xf7}\xce\xfb&gt;\xef\x93\\\x8255])\x96\xaaD\x12\x05\xd2\xfe\x06\xf9\xefG|\xf7\x85\x7f\xaf!\xe3%\xff\xde\x08=\x1b\xd5\xf5Z\x9a\xba&lt;q\n\x82I\x19\x99\xae\x12\x95\xf8\xe8\xdaY4\xf5\x9f\xc4u@\x00\xaa\x9e \xff\xfd\'9\xf3$\xab(\x1e\x82\x12\xac\xbf!(h\x00\xff\xd7\xbf\\\xaaY\x80\x03\xed\x8a\x11\x8e\xf5\x15\x06\'\xe5\x1c\t\x04\x9e\x8e\xb8Yd\x96\x15\xeb\xd6:\xd1fnf\xc3\xf8u3\xb1@\xa2x\x9b\x9f\xc3*\xc2x\x9f_\x0ee[1\xc6Md\xcb\x8b{&gt;bM\xcaF\xae\xb5\x07\xe0\x98\xcd\xc8\xb9v\xddl\xa2\xd4[\xc5\xc9\x8a\x16n\xc1gh,\xd4s\xa9\x89\xbe\xf8\xc52\xef#_\xc1k\x86\x04\xde2\xf8e\xfbA\x9fo\x8f\xef#\x91\x86\xd6H\xd4\xfd\x8f\x05\x14\x9e\x93{\xb7(j\x8b\xdf\x9a\xd3 \xfb\x1e\xfe\x81\xa9\xe5\xe0C\xc0\x97\x0e!\x8aL\xe1k\xc9\x82\xfcE\xce\xa2\xe2\x9e}\x01\xe4\xc5~\x94\xbc\xa4C&gt;\x8b{\xa2|2\x92M?p0\xa0v\xebT\xf6f\xe2\xbb\x1e\xe3\xb8Z\x12\xef\xde\x9bK\xc2{\x9f\xac\xddC&gt;\x81\xa2\xdc\xdb\xbd\xd1\x83;rl1\xb3?\xd8\xe4\xe6\r\r\xec\xf6\xf9\x14\xc2c\xf4&amp;%\xc3]\x1e \'\x83\xdc\x04\xe9\xc3\xde_5\x9f\xb2\xd8\x96\xa0\x9a[l\x0f\x0c\x8e3D\x03\xa5v\xb1\xc2E\xf8\x17Zn\xc7\xfbf\x18#\xd9n\xbe\xb6\x19\xf8\x91\xddu\x889\x95\x86\x1f\xab\x12\xda\xe6S\x16W\xfcfM\xfa\'hxVU[\xf2\xc0\xbc\xff\x9a\xa3\xbf\x9c\xc0\xaf\xd2E\xed\xd8D\xd3\x80_\xfa\xceB\xa3R\x0f\x0eR\xd4-.;\x17\xf4)\x96\x0c\xa3O\xd2\xbd\x10&lt;W\xac{aF&amp;\x1f\xf4\xac\xce\x99\xe8\x1c\x85~\xa1\xc1\xca\xa2\xc5\xc8\x07&amp;\x1a?\xaa}\xd2\x1b\x13\x8af\xa7\xff\x94w\x1dY(\xab\xa6\x1a\xe3\xc1\x08\xd9\xcc\x0b\xeb\xbc\x92\x87\xa5=h\xc4\xfd0c\xae|\xa0\xe2\xb0\x06k\xff\xb5\xc8\xde\xbf\x00K\x8e\xb1\xc1\x97;\x11\xa7h\xe7f\xb3\xb4\xdd\x0f&amp;\xc8\xc7\x82GP\x8f\xd4+yx\xc5O\xffbI\x8cm\xe1\xad^K\x8b\xb8\xa1\x10O\x84Nr\xbfN\x9f\xe3\x12Z\xb1\xe6j\xe1\x16\x8c\x1b|\x8cj\xd4\xc0Q\x9a\xe7\x11\xb2Zb\x13\xbb\xbdS\xad\x81\x98\xde\xa2\x08\xe2\tLm\xb0j][\x1f\x87\xdd\x0b\x81\x1c\x1f\xb1\xb4\xeb\xbeX\x92\xff\x10L\x91\xc8#o\t&gt;\xbd\xe0\xae\xddp\x9dX\xee\xa3o\xbd\xb1y\xce\x07)\xee-DL_\xb1j\r\x99\xa2\x1c\xea\x19\x94\xd0:\x1a?C\xe6N\xd2\x0f\x9dZ\xb0\x03\xb2\x17\x0e\xdb\t\xf7*\xd9D\xbe\xb8=w\xa1\xca\xac&gt;[\x82\x05\xb6DTX5oT\x1bs\xd0v\xed\x9aU\x0b7=X\xbad\xa3\xec;\xffN\x82\x83\xe2\x1cm]\x85\x030e\x86\xeeYh\xf3\x8b\xf6\xf0\x93t\xd0{\x8a\x9a\xd9\x03]\xa66\x08\x185.\xd4\xc7\x97\x8b;e]\x96\xdf\xfbh\xb6~\t\xdf\x15\t\xd9\xa2\xe4\x11\xf2\xf9&lt;j\xff\x97\x11%C\x83\xd2\x83s\x99\x1c\x9bH\'\x0b\xd9gX;\xc8\xe3x\xb7\xe7Zi?Q\x93Pt\x17\xbf\xe4\xb3S\xcb\xd8\x8aj\x018X |\xb2_u\x13BI&amp;o\x9b\xb9\xa6e\xf0\xf2D\xa6\\\xba\x93\xa2g\xa0\x9f"6\x0f\xea\x9e\x81\xf9rY\x1d&lt;xw-j5\xfa\xee\xd7zm\xb5\xd5\x81RI\x84\xd7\x91i\xb9\x06&lt;\x81*\xd8\xf1l\xd32\x8e\x81 \xa0\x99\xecX\xea\xa8:&amp;\xdd\xac\x95\x026\xe4\xa4Zq@=\xd9JL/A(5\xc8a]\xfd\xdab\xcdZ\x96\xc8\xd8"#\xe5\xa7\xef\xf8\xf0\xb3\xaf\xd9B\xd7\x0e\xf0\x82\x87\xca\xd4W\xc1,\xb4\x07\xf4K\xc8\x020\xfa\x03\xc4Y\t\xe2\xac\x1bi\x95\xea6\x1b\xa3k\xf6}M\x0e1\x8c=\x0e\xff\xb5\x08EZ\x16k\xd6\x82\xd6\xb6\xa3!\xb2\x06%\x1e\x83\xf1Dt\xb1\'!\x15\xcb\xe3;\xd2E\x0e\x03N@\x19a\xce\x0e?\x97R\xd4\xe1\x0c\x83\xfe\xbc\xc6\xe6x\xbd\x190&amp;\x8e\xbe\xcd\x1eDN\xc1\xa8L\xd3X\xd9\x90\x10R\xb0xk\x1b1/I\xafX\xd4\x16\x80\xc7]\xe7\x98\x90&amp;\xf8\xbe@\x13\x8b,\xf3n\xc3\xcc\xc5\x1d\xdd\xe3\xc7\xc0D\xf6\xa3\xf0\x141f\x1a\x93#\xc7)\xb9\x87\x87\x0e{\xa6q\xc0\x01\x91\xb8W\xf2\xf2*\x7f\xda&amp;\xa5\x9d\x0c\xf4\x00\x1c\xe9`\xd7\x8a\xc9\xa3\xb4\xe2q\xce\xcb\'\xa4\xd2\xa2\xe1Xo\xaa\xcf\xf8\'O\xed\xa5\\\xd60\x97\xcbPQ`\xd9\xc4&gt;0c\x07\xe2M\x043*}\xf5w\xfe5\x99\x1a\xcd\ny\xbe\x04\x17_\xe8\xb9\xe8\xb8SI\xc1\xa1\x16\xea\xf5!\xcd\x10\xbd\x93nP\xa0a\xbcy\xa1T/\xf7bgL\xf8\xae\xd2\x0b79\x16\xa4\xb2\x0e\xaca\x7f-\x12\x17f\xd3@\x1d\xdd\x04\xd6\xde3\x80%\xf9r\x85\xd9\xf8\xa6\x9f\xcd\xe8\xbf}[W\x84\x92\xea\xc9\xca\x05j4&lt;\xd49\x07\x935&lt;p\x1d\x1cb\x92\x8bJ\x18\xa0\xeb.\xf8\xee\x8c\xa3\xd65o\xf2Z\xc7\x99\xef\n\xbau\xee\x8a\xdc\x87d\x057\x8c\x1b\xa63\xee\xbba\xc0d\x082\r`A}\x12*\xd2\xbd\xedw+\xfa/V\xeaJ\x91\xdc\x19\xed\x11\x1f\x8a!\xf0\xa8\xc9F\x9c\x027VF\xaeL\xf4\xc5\xf0C\x96lJ\xaf\x9a:\xdd\xd7wz\xaa*}\xd3\\"b\'\xcd\xa7Q\xb7\xbe\x97\x1bZ\xc1I\x1d\x8ev\xcaQ\xa9n\xe5\x12\x1a\xd1\x7fN\xc6\xa5\x08\xed\xf5 \xa3f\xc2\x96\x0c\xcf\x0c\xc3\x06\xb0\x94\x1d\xe4J\xa3\xfc\xf8W\xa3M{u\xde\xf8\x90\x9e\xe0\x80\x9c\x83\x11\xd7\xd6`\xdd\xaa\xaa\xe7@\xac\x11\x1b{C\x15\'uKmC\xd7\xa6\xc8\x84\x15\xae\x86\xeei\x0et6_&gt;\x0c;0\x03\xf3D\x89\xa4\x8b\'\x9d\xe7u\xdc\xbc\x1eR\x1at\xd3{O\x7f\xea\x89\xaa\x02 w\xd7H\xa7H\x1f\xcb5\xef\x03\xaf\xa9B(K\xd1.mT %\xa0\xbc*d\xecV\x0ew\xef\x044\x98\xcc#\xfa\xc8n\xf2\xe4\x1e\x0e\xe2?\x04`\xcc\x9c\xfc\xb6\xe6\xe2\xb5Hp\x05\xb2Y\xccM\x00`jV\rb\x14\xb1\xecB:qvFxU\xb9T)\x01\x10^8\xe4T#\xc7y6\xcawC\x88\x1d)\xb9\xc1R\xef\x98\xf8Ir\xd1p\xe5\xb2\x9d\x8f\xdb\xb1\xb6\xd9\xa9\xec\x1f=\x875\x08\xd8\xc2l\xe4\xacl7\xbb\x17\x04\xe7\x1dH}\xfd\xd0\x9b\xcb\x10t\xfa\xe3\xab\x82\x0f\x92Q\xe4}\xd8\x90P\x96\x92\xdd\xc2\xf8c\x15\x01a7\x1es\x80$\x90\x95; \xf3\xa3\x9e&amp;gP\x0fG\xd14\xab}\xa2\x10\xc0kg0\xde\x02\x88\x8c-\xf4\n\xeeG\xa2\xe4\x0f\x04\xcb\x91\xa9`E=\xc6r\x18E\x99\x95&lt;\x9c)\x0b\xed \xd3\x1fM\x9c\x97\xdcM4\x06\xbf\xffM\xcc\xa3c;\xc98\x87\x88\x03\x11n/M\xe9\xcc\xbc\x91\x9f6\xcb\xe8\x07aa\x19\xd5~\xf8Q\x08kh-S09c\xcb\x14\xf5`%P\x8a3\xe4\xcc\xfe\xf1\xf5\xd8\xd8\xc4Vl\xd3\xc8\xb2\xd1\x0e|\xf6@\x05\xf9\x13@\x8d`\xc6\xd9\xc4\xd6\x92\xa6\xa2q\xa0\xd20\'M\x1b\xb0\xd5e\x86\xfa\t\x8c\xd7\x8f\xefg\xe4\x19\xc5\xbf^\xbe\x96\xcd\xcf\xfe\xb0Z:\xa4B\xf2\x9dd\x91X\xbfz\x00\x04i\\\xf4\x84\x9b\xe4v\xb2!\xbe\r9\x82\x8c8\xa5\xbf\xb1\xfdRa\xfb\xdc\xce\x8f^\xdaC,\xb6\xe7\x92=\x9d!G\xaa!\xe9\x13\x08\xc6Py\x9d\xb4:\x11\xba\x96\xcf\x96\x13\x02\xe1\xb8\xf9\x8d\xab\xb2P\t\xe1\x88\xa7vX\xdc\xa4\xde\xday\xce+7#O\xef0g\xaf\xc7\xca\xfckHT\x97\xf6d\xf2:T\x8c\xc8xb3\x93e\xef#V\x11\xd8\xbf\x01)N\xb8\x908$0;\x82\xdd\xdd\x1d.\xc41\x9f\x0b"0\xea4\x02,\xed\xb3g1\x9bO(\x9fX\x8c\x88J7U\xf5G\xa0p3\x99\x97\x80\xf2:\xfd\xb4km@\x9f\xa6\x8e?&amp;X!X&amp;\x17\xee\xa8;\xdc\x99y\xc8\xbb\xc3\xff\xd8\x1c\x8e"\xfa\xab\x9e\x86t\x13\x15\xba\x12\x94\x13\x08\x1f\x9eR.\xc0\xd1%\xae`\x13\x06\x9e\xbf\x8d\xff+\x0e|\xda\r\x0e\xb2{\xe3\xb9\x97\xa7\x84\x13P_.xJBWT\x16L3\x93#D\xea\xc6-\x1e\\r[\x16\xb1xW\x8b\x97\x11\xfa\xb5\xce\xdc\xbb\xdc\xdf\xda\x9e\x93:0\x8f\xe5\xbe\xa5Q\x8d\x8493\x9a\xa7\'\x0b\xc6\x89\xa8\x19\x8e\x16\x8a\x91|{\xe5Fw\x0b\x13A,\xee4\xd8Y\x0fT\x9a6\xe7xZ\xb9]N\xe0V\x81\xe1\xa9\x8a\xa8\xf1\x92sQ\x0fL\x04\xbf\xa9\x86m\xf4xg\xc9l\xd7{\xb4%x\x90]\xc5\xb9\x9e\x95/\xdb0\x14\xa4M\x0f\xa2\x9e\xba\xe4\x1c/\xd0\'\xad\xaeH\xceB\xa2\xb3;m\xe9\xebY\x10hu\xdf\xbe\'V!\x14\x85\x86\x04\xc5\'\xef\x1a\xe1\xd5\x9e\xd6\xa7\xdbv\x9e\x15\xa1\xac\xe4\x8aj\xe93\x11\xe8s\xc9\x19\x0eT\xf6\x90(";^t\xd72\xbb\xbf\xeb\x8a3\xff\xca\x8f\xa7?K\x1b0H\xe8\xee\x94Z\xee\x16\x1d\'\xfe7\xb4\xa7r\xe0\xd9\xc9\x19\xba\xc4\x1f\x051\xdf\xdf\x89\x8f%C\x0b\xb27LV[\x95^\x1a\xfa\xac\xd5\x93\r\xf6 2\xa4\xd8\xf8;\xdf\xc7\x08\x9e\xad\xf8#\'\x95\xf9\xa7\xd58\xca:^Q\x98H\x82\xb3X\x1e\xdf|\xc9&lt;\xdaV\x7f+{\xd0f\x1b\xcc\xbeU\xdf6j\xbe\xd4\x1c/\x87\xff%\x16\xfe{\xdc\x1a\xf5&lt;\xa42i\xfd\xf1\x95\x17W\x12\x8fP\xf2\xf9\xc33\xcdj\x17\x9eIP(\\\x89LF\xdd|\xe6\xe1\xe7%\x04d\xad|\xf1\x95?\x13\x17\xf3\x9c$O\x7f\xf9\xce\xbb\xaf\xbf\x01Qrz\xe2J[g\xab=u\xdb\xd9\xe6]\xbb\x9a\xcfnK\xb5\xb7v\xb6]\x99\x98\x86\x84\xf8\x1b\xaf\xbf\xfb\xces\x94a\xe5\xe0\xc5\xaf\xdc\xa2\xb5\x82(M\xb0..N\x17\xac\x89\x12\xfc?Ek\xdd\xbb\xf3\xd9H\xfc\xfe\x0f\xac\xc4\x93\x01 \xd0\x14\xc5\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45489.943125</v>
+        <v>45492.67011574074</v>
       </c>
     </row>
   </sheetData>
